--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
@@ -337,39 +337,39 @@
     <t>['36']</t>
   </si>
   <si>
+    <t>['58']</t>
+  </si>
+  <si>
+    <t>['30']</t>
+  </si>
+  <si>
     <t>['71']</t>
   </si>
   <si>
-    <t>['30']</t>
-  </si>
-  <si>
-    <t>['58']</t>
-  </si>
-  <si>
     <t>['38', '45', '90+2']</t>
   </si>
   <si>
     <t>['50', '81']</t>
   </si>
   <si>
+    <t>['44', '45']</t>
+  </si>
+  <si>
+    <t>['25']</t>
+  </si>
+  <si>
+    <t>['22', '45+1']</t>
+  </si>
+  <si>
+    <t>['26', '34', '45+2']</t>
+  </si>
+  <si>
+    <t>['16']</t>
+  </si>
+  <si>
     <t>['1']</t>
   </si>
   <si>
-    <t>['26', '34', '45+2']</t>
-  </si>
-  <si>
-    <t>['22', '45+1']</t>
-  </si>
-  <si>
-    <t>['16']</t>
-  </si>
-  <si>
-    <t>['44', '45']</t>
-  </si>
-  <si>
-    <t>['25']</t>
-  </si>
-  <si>
     <t>['7', '45+3', '45+5', '75', '86']</t>
   </si>
   <si>
@@ -427,28 +427,28 @@
     <t>['39', '67', '76']</t>
   </si>
   <si>
+    <t>['3', '10']</t>
+  </si>
+  <si>
     <t>['90+3']</t>
   </si>
   <si>
-    <t>['3', '10']</t>
-  </si>
-  <si>
     <t>['45+1', '79']</t>
   </si>
   <si>
     <t>['33']</t>
   </si>
   <si>
+    <t>['6', '55']</t>
+  </si>
+  <si>
+    <t>['36', '45', '58', '85']</t>
+  </si>
+  <si>
     <t>['16', '90+3']</t>
   </si>
   <si>
     <t>['8', '90']</t>
-  </si>
-  <si>
-    <t>['6', '55']</t>
-  </si>
-  <si>
-    <t>['36', '45', '58', '85']</t>
   </si>
   <si>
     <t>['18', '90', '90+7']</t>
@@ -4577,7 +4577,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="Q19">
         <v>2.4</v>
@@ -5771,7 +5771,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>7296295</v>
+        <v>7296294</v>
       </c>
       <c r="C25" t="s">
         <v>68</v>
@@ -5786,82 +5786,82 @@
         <v>4</v>
       </c>
       <c r="G25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H25" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O25" t="s">
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="Q25">
+        <v>2.88</v>
+      </c>
+      <c r="R25">
         <v>2.3</v>
       </c>
-      <c r="R25">
-        <v>2.47</v>
-      </c>
       <c r="S25">
-        <v>4.43</v>
+        <v>3.4</v>
       </c>
       <c r="T25">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U25">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="V25">
-        <v>2.42</v>
+        <v>2.63</v>
       </c>
       <c r="W25">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="X25">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="Y25">
         <v>1.11</v>
       </c>
       <c r="Z25">
-        <v>1.82</v>
+        <v>2.66</v>
       </c>
       <c r="AA25">
-        <v>3.76</v>
+        <v>3.52</v>
       </c>
       <c r="AB25">
-        <v>3.94</v>
+        <v>2.44</v>
       </c>
       <c r="AC25">
         <v>1.03</v>
       </c>
       <c r="AD25">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE25">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="AF25">
-        <v>4.41</v>
+        <v>4.2</v>
       </c>
       <c r="AG25">
         <v>1.7</v>
@@ -5870,106 +5870,106 @@
         <v>2</v>
       </c>
       <c r="AI25">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AJ25">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AK25">
+        <v>1.42</v>
+      </c>
+      <c r="AL25">
         <v>1.22</v>
       </c>
-      <c r="AL25">
-        <v>1.25</v>
-      </c>
       <c r="AM25">
-        <v>2.05</v>
+        <v>1.6</v>
       </c>
       <c r="AN25">
         <v>3</v>
       </c>
       <c r="AO25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP25">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR25">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AS25">
-        <v>0.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT25">
-        <v>2.51</v>
+        <v>3.52</v>
       </c>
       <c r="AU25">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AV25">
         <v>5</v>
       </c>
       <c r="AW25">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AX25">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AY25">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ25">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB25">
         <v>3</v>
       </c>
       <c r="BC25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD25">
-        <v>1.67</v>
+        <v>1.82</v>
       </c>
       <c r="BE25">
-        <v>9.300000000000001</v>
+        <v>9</v>
       </c>
       <c r="BF25">
-        <v>2.51</v>
+        <v>2.25</v>
       </c>
       <c r="BG25">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="BH25">
-        <v>0</v>
+        <v>4.08</v>
       </c>
       <c r="BI25">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="BJ25">
-        <v>3.31</v>
+        <v>2.84</v>
       </c>
       <c r="BK25">
-        <v>1.54</v>
+        <v>1.65</v>
       </c>
       <c r="BL25">
-        <v>2.43</v>
+        <v>2.2</v>
       </c>
       <c r="BM25">
-        <v>1.89</v>
+        <v>2.05</v>
       </c>
       <c r="BN25">
-        <v>1.91</v>
+        <v>1.74</v>
       </c>
       <c r="BO25">
-        <v>2.37</v>
+        <v>2.67</v>
       </c>
       <c r="BP25">
-        <v>1.56</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="26" spans="1:68">
@@ -6019,7 +6019,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q26">
         <v>2.6</v>
@@ -6183,7 +6183,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>7296294</v>
+        <v>7296292</v>
       </c>
       <c r="C27" t="s">
         <v>68</v>
@@ -6198,190 +6198,190 @@
         <v>4</v>
       </c>
       <c r="G27" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O27" t="s">
+        <v>103</v>
+      </c>
+      <c r="P27" t="s">
         <v>109</v>
       </c>
-      <c r="P27" t="s">
-        <v>138</v>
-      </c>
       <c r="Q27">
-        <v>2.88</v>
+        <v>3.48</v>
       </c>
       <c r="R27">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="S27">
-        <v>3.4</v>
+        <v>3.12</v>
       </c>
       <c r="T27">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="U27">
-        <v>3.25</v>
+        <v>2.91</v>
       </c>
       <c r="V27">
-        <v>2.63</v>
+        <v>2.99</v>
       </c>
       <c r="W27">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="X27">
         <v>6.5</v>
       </c>
       <c r="Y27">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="Z27">
-        <v>2.66</v>
+        <v>2.75</v>
       </c>
       <c r="AA27">
-        <v>3.52</v>
+        <v>3.36</v>
       </c>
       <c r="AB27">
-        <v>2.44</v>
+        <v>2.45</v>
       </c>
       <c r="AC27">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AD27">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AE27">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AF27">
-        <v>4.2</v>
+        <v>3.35</v>
       </c>
       <c r="AG27">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="AH27">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AI27">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="AJ27">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="AK27">
-        <v>1.42</v>
+        <v>1.53</v>
       </c>
       <c r="AL27">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="AM27">
+        <v>1.44</v>
+      </c>
+      <c r="AN27">
+        <v>0</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>0</v>
+      </c>
+      <c r="AQ27">
+        <v>1.5</v>
+      </c>
+      <c r="AR27">
+        <v>0.98</v>
+      </c>
+      <c r="AS27">
+        <v>1</v>
+      </c>
+      <c r="AT27">
+        <v>1.98</v>
+      </c>
+      <c r="AU27">
+        <v>2</v>
+      </c>
+      <c r="AV27">
+        <v>11</v>
+      </c>
+      <c r="AW27">
+        <v>2</v>
+      </c>
+      <c r="AX27">
+        <v>14</v>
+      </c>
+      <c r="AY27">
+        <v>4</v>
+      </c>
+      <c r="AZ27">
+        <v>25</v>
+      </c>
+      <c r="BA27">
+        <v>2</v>
+      </c>
+      <c r="BB27">
+        <v>12</v>
+      </c>
+      <c r="BC27">
+        <v>14</v>
+      </c>
+      <c r="BD27">
+        <v>1.85</v>
+      </c>
+      <c r="BE27">
+        <v>9.6</v>
+      </c>
+      <c r="BF27">
+        <v>2.17</v>
+      </c>
+      <c r="BG27">
+        <v>0</v>
+      </c>
+      <c r="BH27">
+        <v>0</v>
+      </c>
+      <c r="BI27">
+        <v>0</v>
+      </c>
+      <c r="BJ27">
+        <v>0</v>
+      </c>
+      <c r="BK27">
+        <v>1.32</v>
+      </c>
+      <c r="BL27">
+        <v>3.12</v>
+      </c>
+      <c r="BM27">
         <v>1.6</v>
       </c>
-      <c r="AN27">
-        <v>3</v>
-      </c>
-      <c r="AO27">
-        <v>1</v>
-      </c>
-      <c r="AP27">
-        <v>1.5</v>
-      </c>
-      <c r="AQ27">
-        <v>2</v>
-      </c>
-      <c r="AR27">
-        <v>1.67</v>
-      </c>
-      <c r="AS27">
+      <c r="BN27">
+        <v>2.3</v>
+      </c>
+      <c r="BO27">
         <v>1.85</v>
       </c>
-      <c r="AT27">
-        <v>3.52</v>
-      </c>
-      <c r="AU27">
-        <v>3</v>
-      </c>
-      <c r="AV27">
-        <v>5</v>
-      </c>
-      <c r="AW27">
-        <v>10</v>
-      </c>
-      <c r="AX27">
-        <v>6</v>
-      </c>
-      <c r="AY27">
-        <v>13</v>
-      </c>
-      <c r="AZ27">
-        <v>11</v>
-      </c>
-      <c r="BA27">
-        <v>3</v>
-      </c>
-      <c r="BB27">
-        <v>3</v>
-      </c>
-      <c r="BC27">
-        <v>6</v>
-      </c>
-      <c r="BD27">
-        <v>1.82</v>
-      </c>
-      <c r="BE27">
-        <v>9</v>
-      </c>
-      <c r="BF27">
-        <v>2.25</v>
-      </c>
-      <c r="BG27">
-        <v>1.2</v>
-      </c>
-      <c r="BH27">
-        <v>4.08</v>
-      </c>
-      <c r="BI27">
-        <v>1.35</v>
-      </c>
-      <c r="BJ27">
-        <v>2.84</v>
-      </c>
-      <c r="BK27">
-        <v>1.65</v>
-      </c>
-      <c r="BL27">
-        <v>2.2</v>
-      </c>
-      <c r="BM27">
-        <v>2.05</v>
-      </c>
-      <c r="BN27">
-        <v>1.74</v>
-      </c>
-      <c r="BO27">
-        <v>2.67</v>
-      </c>
       <c r="BP27">
-        <v>1.39</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="28" spans="1:68">
@@ -6389,7 +6389,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>7296290</v>
+        <v>7296295</v>
       </c>
       <c r="C28" t="s">
         <v>68</v>
@@ -6404,139 +6404,139 @@
         <v>4</v>
       </c>
       <c r="G28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H28" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="Q28">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="R28">
-        <v>2.38</v>
+        <v>2.47</v>
       </c>
       <c r="S28">
-        <v>2.5</v>
+        <v>4.43</v>
       </c>
       <c r="T28">
         <v>1.3</v>
       </c>
       <c r="U28">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="V28">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="W28">
-        <v>1.53</v>
+        <v>1.46</v>
       </c>
       <c r="X28">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Y28">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="Z28">
-        <v>2.41</v>
+        <v>1.82</v>
       </c>
       <c r="AA28">
-        <v>3.74</v>
+        <v>3.76</v>
       </c>
       <c r="AB28">
-        <v>2.58</v>
+        <v>3.94</v>
       </c>
       <c r="AC28">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AD28">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AE28">
         <v>1.18</v>
       </c>
       <c r="AF28">
-        <v>4.5</v>
+        <v>4.41</v>
       </c>
       <c r="AG28">
+        <v>1.7</v>
+      </c>
+      <c r="AH28">
+        <v>2</v>
+      </c>
+      <c r="AI28">
         <v>1.57</v>
       </c>
-      <c r="AH28">
+      <c r="AJ28">
         <v>2.25</v>
       </c>
-      <c r="AI28">
-        <v>1.53</v>
-      </c>
-      <c r="AJ28">
-        <v>2.38</v>
-      </c>
       <c r="AK28">
-        <v>1.77</v>
+        <v>1.22</v>
       </c>
       <c r="AL28">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AM28">
-        <v>1.28</v>
+        <v>2.05</v>
       </c>
       <c r="AN28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP28">
         <v>3</v>
       </c>
       <c r="AQ28">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AR28">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AS28">
-        <v>1.27</v>
+        <v>0.75</v>
       </c>
       <c r="AT28">
-        <v>1.27</v>
+        <v>2.51</v>
       </c>
       <c r="AU28">
+        <v>10</v>
+      </c>
+      <c r="AV28">
+        <v>5</v>
+      </c>
+      <c r="AW28">
+        <v>4</v>
+      </c>
+      <c r="AX28">
+        <v>3</v>
+      </c>
+      <c r="AY28">
         <v>14</v>
-      </c>
-      <c r="AV28">
-        <v>7</v>
-      </c>
-      <c r="AW28">
-        <v>5</v>
-      </c>
-      <c r="AX28">
-        <v>1</v>
-      </c>
-      <c r="AY28">
-        <v>19</v>
       </c>
       <c r="AZ28">
         <v>8</v>
@@ -6545,19 +6545,19 @@
         <v>4</v>
       </c>
       <c r="BB28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC28">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD28">
-        <v>2.29</v>
+        <v>1.67</v>
       </c>
       <c r="BE28">
-        <v>10.25</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="BF28">
-        <v>1.75</v>
+        <v>2.51</v>
       </c>
       <c r="BG28">
         <v>0</v>
@@ -6566,28 +6566,28 @@
         <v>0</v>
       </c>
       <c r="BI28">
-        <v>1.16</v>
+        <v>1.28</v>
       </c>
       <c r="BJ28">
-        <v>4.35</v>
+        <v>3.31</v>
       </c>
       <c r="BK28">
-        <v>1.26</v>
+        <v>1.54</v>
       </c>
       <c r="BL28">
-        <v>3.34</v>
+        <v>2.43</v>
       </c>
       <c r="BM28">
-        <v>1.46</v>
+        <v>1.89</v>
       </c>
       <c r="BN28">
-        <v>2.45</v>
+        <v>1.91</v>
       </c>
       <c r="BO28">
-        <v>1.77</v>
+        <v>2.37</v>
       </c>
       <c r="BP28">
-        <v>1.94</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="29" spans="1:68">
@@ -6595,7 +6595,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>7296291</v>
+        <v>7296290</v>
       </c>
       <c r="C29" t="s">
         <v>68</v>
@@ -6610,190 +6610,190 @@
         <v>4</v>
       </c>
       <c r="G29" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J29">
         <v>1</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N29">
         <v>4</v>
       </c>
       <c r="O29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>139</v>
+        <v>91</v>
       </c>
       <c r="Q29">
+        <v>4</v>
+      </c>
+      <c r="R29">
+        <v>2.38</v>
+      </c>
+      <c r="S29">
+        <v>2.5</v>
+      </c>
+      <c r="T29">
+        <v>1.3</v>
+      </c>
+      <c r="U29">
+        <v>3.4</v>
+      </c>
+      <c r="V29">
+        <v>2.38</v>
+      </c>
+      <c r="W29">
+        <v>1.53</v>
+      </c>
+      <c r="X29">
+        <v>6</v>
+      </c>
+      <c r="Y29">
+        <v>1.13</v>
+      </c>
+      <c r="Z29">
+        <v>2.41</v>
+      </c>
+      <c r="AA29">
+        <v>3.74</v>
+      </c>
+      <c r="AB29">
+        <v>2.58</v>
+      </c>
+      <c r="AC29">
+        <v>1.04</v>
+      </c>
+      <c r="AD29">
+        <v>9</v>
+      </c>
+      <c r="AE29">
+        <v>1.18</v>
+      </c>
+      <c r="AF29">
+        <v>4.5</v>
+      </c>
+      <c r="AG29">
+        <v>1.57</v>
+      </c>
+      <c r="AH29">
         <v>2.25</v>
       </c>
-      <c r="R29">
-        <v>2.5</v>
-      </c>
-      <c r="S29">
-        <v>4.33</v>
-      </c>
-      <c r="T29">
-        <v>1.25</v>
-      </c>
-      <c r="U29">
-        <v>3.75</v>
-      </c>
-      <c r="V29">
-        <v>2.2</v>
-      </c>
-      <c r="W29">
-        <v>1.62</v>
-      </c>
-      <c r="X29">
+      <c r="AI29">
+        <v>1.53</v>
+      </c>
+      <c r="AJ29">
+        <v>2.38</v>
+      </c>
+      <c r="AK29">
+        <v>1.77</v>
+      </c>
+      <c r="AL29">
+        <v>1.22</v>
+      </c>
+      <c r="AM29">
+        <v>1.28</v>
+      </c>
+      <c r="AN29">
+        <v>0</v>
+      </c>
+      <c r="AO29">
+        <v>3</v>
+      </c>
+      <c r="AP29">
+        <v>3</v>
+      </c>
+      <c r="AQ29">
+        <v>1.5</v>
+      </c>
+      <c r="AR29">
+        <v>0</v>
+      </c>
+      <c r="AS29">
+        <v>1.27</v>
+      </c>
+      <c r="AT29">
+        <v>1.27</v>
+      </c>
+      <c r="AU29">
+        <v>14</v>
+      </c>
+      <c r="AV29">
+        <v>7</v>
+      </c>
+      <c r="AW29">
         <v>5</v>
       </c>
-      <c r="Y29">
-        <v>1.17</v>
-      </c>
-      <c r="Z29">
-        <v>1.62</v>
-      </c>
-      <c r="AA29">
-        <v>4.3</v>
-      </c>
-      <c r="AB29">
-        <v>4.55</v>
-      </c>
-      <c r="AC29">
-        <v>1.02</v>
-      </c>
-      <c r="AD29">
-        <v>21</v>
-      </c>
-      <c r="AE29">
-        <v>1.13</v>
-      </c>
-      <c r="AF29">
-        <v>5</v>
-      </c>
-      <c r="AG29">
-        <v>1.45</v>
-      </c>
-      <c r="AH29">
-        <v>2.55</v>
-      </c>
-      <c r="AI29">
-        <v>1.5</v>
-      </c>
-      <c r="AJ29">
-        <v>2.5</v>
-      </c>
-      <c r="AK29">
-        <v>1.23</v>
-      </c>
-      <c r="AL29">
-        <v>1.2</v>
-      </c>
-      <c r="AM29">
-        <v>2.1</v>
-      </c>
-      <c r="AN29">
-        <v>3</v>
-      </c>
-      <c r="AO29">
-        <v>0</v>
-      </c>
-      <c r="AP29">
-        <v>2</v>
-      </c>
-      <c r="AQ29">
-        <v>1</v>
-      </c>
-      <c r="AR29">
+      <c r="AX29">
+        <v>1</v>
+      </c>
+      <c r="AY29">
+        <v>19</v>
+      </c>
+      <c r="AZ29">
+        <v>8</v>
+      </c>
+      <c r="BA29">
+        <v>4</v>
+      </c>
+      <c r="BB29">
+        <v>2</v>
+      </c>
+      <c r="BC29">
+        <v>6</v>
+      </c>
+      <c r="BD29">
+        <v>2.29</v>
+      </c>
+      <c r="BE29">
+        <v>10.25</v>
+      </c>
+      <c r="BF29">
+        <v>1.75</v>
+      </c>
+      <c r="BG29">
+        <v>0</v>
+      </c>
+      <c r="BH29">
+        <v>0</v>
+      </c>
+      <c r="BI29">
+        <v>1.16</v>
+      </c>
+      <c r="BJ29">
+        <v>4.35</v>
+      </c>
+      <c r="BK29">
         <v>1.26</v>
       </c>
-      <c r="AS29">
-        <v>0</v>
-      </c>
-      <c r="AT29">
-        <v>1.26</v>
-      </c>
-      <c r="AU29">
-        <v>-1</v>
-      </c>
-      <c r="AV29">
-        <v>-1</v>
-      </c>
-      <c r="AW29">
-        <v>-1</v>
-      </c>
-      <c r="AX29">
-        <v>-1</v>
-      </c>
-      <c r="AY29">
-        <v>-1</v>
-      </c>
-      <c r="AZ29">
-        <v>-1</v>
-      </c>
-      <c r="BA29">
-        <v>2</v>
-      </c>
-      <c r="BB29">
-        <v>3</v>
-      </c>
-      <c r="BC29">
-        <v>5</v>
-      </c>
-      <c r="BD29">
-        <v>1.56</v>
-      </c>
-      <c r="BE29">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="BF29">
-        <v>2.76</v>
-      </c>
-      <c r="BG29">
-        <v>0</v>
-      </c>
-      <c r="BH29">
-        <v>0</v>
-      </c>
-      <c r="BI29">
-        <v>1.23</v>
-      </c>
-      <c r="BJ29">
-        <v>3.56</v>
-      </c>
-      <c r="BK29">
-        <v>1.43</v>
-      </c>
       <c r="BL29">
-        <v>2.65</v>
+        <v>3.34</v>
       </c>
       <c r="BM29">
-        <v>1.74</v>
+        <v>1.46</v>
       </c>
       <c r="BN29">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="BO29">
-        <v>2.2</v>
+        <v>1.77</v>
       </c>
       <c r="BP29">
-        <v>1.61</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="30" spans="1:68">
@@ -6801,7 +6801,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>7296292</v>
+        <v>7296291</v>
       </c>
       <c r="C30" t="s">
         <v>68</v>
@@ -6816,160 +6816,160 @@
         <v>4</v>
       </c>
       <c r="G30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H30" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O30" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="Q30">
-        <v>3.48</v>
+        <v>2.25</v>
       </c>
       <c r="R30">
-        <v>2.18</v>
+        <v>2.5</v>
       </c>
       <c r="S30">
-        <v>3.12</v>
+        <v>4.33</v>
       </c>
       <c r="T30">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="U30">
-        <v>2.91</v>
+        <v>3.75</v>
       </c>
       <c r="V30">
-        <v>2.99</v>
+        <v>2.2</v>
       </c>
       <c r="W30">
-        <v>1.38</v>
+        <v>1.62</v>
       </c>
       <c r="X30">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="Y30">
-        <v>1.08</v>
+        <v>1.17</v>
       </c>
       <c r="Z30">
-        <v>2.75</v>
+        <v>1.62</v>
       </c>
       <c r="AA30">
-        <v>3.36</v>
+        <v>4.3</v>
       </c>
       <c r="AB30">
-        <v>2.45</v>
+        <v>4.55</v>
       </c>
       <c r="AC30">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="AD30">
-        <v>8.5</v>
+        <v>21</v>
       </c>
       <c r="AE30">
-        <v>1.31</v>
+        <v>1.13</v>
       </c>
       <c r="AF30">
-        <v>3.35</v>
+        <v>5</v>
       </c>
       <c r="AG30">
-        <v>1.95</v>
+        <v>1.45</v>
       </c>
       <c r="AH30">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="AI30">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AJ30">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="AK30">
-        <v>1.53</v>
+        <v>1.23</v>
       </c>
       <c r="AL30">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AM30">
-        <v>1.44</v>
+        <v>2.1</v>
       </c>
       <c r="AN30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO30">
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ30">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR30">
-        <v>0.98</v>
+        <v>1.26</v>
       </c>
       <c r="AS30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT30">
-        <v>1.98</v>
+        <v>1.26</v>
       </c>
       <c r="AU30">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AV30">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="AW30">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AX30">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="AY30">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AZ30">
-        <v>25</v>
+        <v>-1</v>
       </c>
       <c r="BA30">
         <v>2</v>
       </c>
       <c r="BB30">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="BC30">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="BD30">
-        <v>1.85</v>
+        <v>1.56</v>
       </c>
       <c r="BE30">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BF30">
-        <v>2.17</v>
+        <v>2.76</v>
       </c>
       <c r="BG30">
         <v>0</v>
@@ -6978,28 +6978,28 @@
         <v>0</v>
       </c>
       <c r="BI30">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="BJ30">
-        <v>0</v>
+        <v>3.56</v>
       </c>
       <c r="BK30">
-        <v>1.32</v>
+        <v>1.43</v>
       </c>
       <c r="BL30">
-        <v>3.12</v>
+        <v>2.65</v>
       </c>
       <c r="BM30">
-        <v>1.6</v>
+        <v>1.74</v>
       </c>
       <c r="BN30">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="BO30">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="BP30">
-        <v>1.95</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="31" spans="1:68">
@@ -7213,7 +7213,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>7296303</v>
+        <v>7296298</v>
       </c>
       <c r="C32" t="s">
         <v>68</v>
@@ -7228,190 +7228,190 @@
         <v>5</v>
       </c>
       <c r="G32" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="H32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O32" t="s">
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>103</v>
+        <v>141</v>
       </c>
       <c r="Q32">
-        <v>2.53</v>
+        <v>3.05</v>
       </c>
       <c r="R32">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="S32">
-        <v>3.75</v>
+        <v>2.89</v>
       </c>
       <c r="T32">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="U32">
-        <v>3.28</v>
+        <v>3.48</v>
       </c>
       <c r="V32">
+        <v>2.31</v>
+      </c>
+      <c r="W32">
+        <v>1.57</v>
+      </c>
+      <c r="X32">
+        <v>5.25</v>
+      </c>
+      <c r="Y32">
+        <v>1.14</v>
+      </c>
+      <c r="Z32">
+        <v>4.41</v>
+      </c>
+      <c r="AA32">
+        <v>1.44</v>
+      </c>
+      <c r="AB32">
+        <v>5.24</v>
+      </c>
+      <c r="AC32">
+        <v>1.03</v>
+      </c>
+      <c r="AD32">
+        <v>18.25</v>
+      </c>
+      <c r="AE32">
+        <v>1.15</v>
+      </c>
+      <c r="AF32">
+        <v>4.5</v>
+      </c>
+      <c r="AG32">
+        <v>1.55</v>
+      </c>
+      <c r="AH32">
+        <v>2.3</v>
+      </c>
+      <c r="AI32">
+        <v>1.48</v>
+      </c>
+      <c r="AJ32">
         <v>2.46</v>
       </c>
-      <c r="W32">
-        <v>1.51</v>
-      </c>
-      <c r="X32">
-        <v>5.8</v>
-      </c>
-      <c r="Y32">
-        <v>1.12</v>
-      </c>
-      <c r="Z32">
-        <v>3.42</v>
-      </c>
-      <c r="AA32">
-        <v>1.46</v>
-      </c>
-      <c r="AB32">
-        <v>7.41</v>
-      </c>
-      <c r="AC32">
-        <v>1.04</v>
-      </c>
-      <c r="AD32">
-        <v>14.5</v>
-      </c>
-      <c r="AE32">
-        <v>1.18</v>
-      </c>
-      <c r="AF32">
-        <v>4.05</v>
-      </c>
-      <c r="AG32">
-        <v>1.67</v>
-      </c>
-      <c r="AH32">
-        <v>2.1</v>
-      </c>
-      <c r="AI32">
-        <v>1.57</v>
-      </c>
-      <c r="AJ32">
-        <v>2.25</v>
-      </c>
       <c r="AK32">
-        <v>1.31</v>
+        <v>1.52</v>
       </c>
       <c r="AL32">
         <v>1.26</v>
       </c>
       <c r="AM32">
-        <v>1.74</v>
+        <v>1.48</v>
       </c>
       <c r="AN32">
         <v>1.5</v>
       </c>
       <c r="AO32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP32">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ32">
-        <v>0.67</v>
+        <v>1.67</v>
       </c>
       <c r="AR32">
-        <v>1.53</v>
+        <v>1.74</v>
       </c>
       <c r="AS32">
-        <v>0.8100000000000001</v>
+        <v>1.02</v>
       </c>
       <c r="AT32">
-        <v>2.34</v>
+        <v>2.76</v>
       </c>
       <c r="AU32">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AV32">
         <v>6</v>
       </c>
       <c r="AW32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX32">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="AY32">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="AZ32">
+        <v>22</v>
+      </c>
+      <c r="BA32">
+        <v>2</v>
+      </c>
+      <c r="BB32">
+        <v>6</v>
+      </c>
+      <c r="BC32">
         <v>8</v>
       </c>
-      <c r="BA32">
-        <v>2</v>
-      </c>
-      <c r="BB32">
-        <v>7</v>
-      </c>
-      <c r="BC32">
-        <v>9</v>
-      </c>
       <c r="BD32">
-        <v>1.86</v>
+        <v>2.11</v>
       </c>
       <c r="BE32">
-        <v>8.65</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BF32">
-        <v>2.33</v>
+        <v>2.06</v>
       </c>
       <c r="BG32">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="BH32">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="BI32">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="BJ32">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="BK32">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="BL32">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="BM32">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="BN32">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
       <c r="BO32">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="BP32">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="33" spans="1:68">
@@ -7419,7 +7419,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>7296301</v>
+        <v>7296299</v>
       </c>
       <c r="C33" t="s">
         <v>68</v>
@@ -7434,190 +7434,190 @@
         <v>5</v>
       </c>
       <c r="G33" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H33" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K33">
         <v>3</v>
       </c>
       <c r="L33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O33" t="s">
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="Q33">
-        <v>2.16</v>
+        <v>2.26</v>
       </c>
       <c r="R33">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="S33">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="T33">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="U33">
-        <v>3.48</v>
+        <v>3.14</v>
       </c>
       <c r="V33">
-        <v>2.31</v>
+        <v>2.57</v>
       </c>
       <c r="W33">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="X33">
-        <v>5.3</v>
+        <v>6.15</v>
       </c>
       <c r="Y33">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="Z33">
-        <v>1.61</v>
+        <v>1.73</v>
       </c>
       <c r="AA33">
+        <v>3.7</v>
+      </c>
+      <c r="AB33">
         <v>3.8</v>
       </c>
-      <c r="AB33">
-        <v>4.2</v>
-      </c>
       <c r="AC33">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="AD33">
-        <v>18.5</v>
+        <v>10.5</v>
       </c>
       <c r="AE33">
-        <v>1.15</v>
+        <v>1.21</v>
       </c>
       <c r="AF33">
-        <v>4.5</v>
+        <v>3.74</v>
       </c>
       <c r="AG33">
-        <v>1.55</v>
+        <v>1.73</v>
       </c>
       <c r="AH33">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="AI33">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AJ33">
-        <v>2.23</v>
+        <v>2.04</v>
       </c>
       <c r="AK33">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="AL33">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="AM33">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AN33">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AO33">
         <v>0.5</v>
       </c>
       <c r="AP33">
-        <v>2.33</v>
+        <v>0.33</v>
       </c>
       <c r="AQ33">
-        <v>0.33</v>
+        <v>1.33</v>
       </c>
       <c r="AR33">
-        <v>1.75</v>
+        <v>1.33</v>
       </c>
       <c r="AS33">
-        <v>1.64</v>
+        <v>1.74</v>
       </c>
       <c r="AT33">
-        <v>3.39</v>
+        <v>3.07</v>
       </c>
       <c r="AU33">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AV33">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AW33">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AX33">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AY33">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AZ33">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="BA33">
         <v>5</v>
       </c>
       <c r="BB33">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BC33">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BD33">
         <v>1.59</v>
       </c>
       <c r="BE33">
-        <v>8.65</v>
+        <v>9</v>
       </c>
       <c r="BF33">
-        <v>2.97</v>
+        <v>2.77</v>
       </c>
       <c r="BG33">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="BH33">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="BI33">
-        <v>1.34</v>
+        <v>1.24</v>
       </c>
       <c r="BJ33">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="BK33">
-        <v>1.61</v>
+        <v>1.43</v>
       </c>
       <c r="BL33">
+        <v>2.7</v>
+      </c>
+      <c r="BM33">
+        <v>1.74</v>
+      </c>
+      <c r="BN33">
+        <v>2.02</v>
+      </c>
+      <c r="BO33">
         <v>2.23</v>
       </c>
-      <c r="BM33">
-        <v>2.02</v>
-      </c>
-      <c r="BN33">
-        <v>1.74</v>
-      </c>
-      <c r="BO33">
-        <v>2.65</v>
-      </c>
       <c r="BP33">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="34" spans="1:68">
@@ -7667,7 +7667,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q34">
         <v>3.46</v>
@@ -7831,7 +7831,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>7296302</v>
+        <v>7296301</v>
       </c>
       <c r="C35" t="s">
         <v>68</v>
@@ -7846,25 +7846,25 @@
         <v>5</v>
       </c>
       <c r="G35" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H35" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N35">
         <v>3</v>
@@ -7873,133 +7873,133 @@
         <v>115</v>
       </c>
       <c r="P35" t="s">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="Q35">
-        <v>2.72</v>
+        <v>2.16</v>
       </c>
       <c r="R35">
         <v>2.38</v>
       </c>
       <c r="S35">
-        <v>3.16</v>
+        <v>4.5</v>
       </c>
       <c r="T35">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="U35">
-        <v>3.62</v>
+        <v>3.48</v>
       </c>
       <c r="V35">
-        <v>2.21</v>
+        <v>2.31</v>
       </c>
       <c r="W35">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X35">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="Y35">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="Z35">
-        <v>2.25</v>
+        <v>1.61</v>
       </c>
       <c r="AA35">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="AB35">
-        <v>2.62</v>
+        <v>4.2</v>
       </c>
       <c r="AC35">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AD35">
-        <v>20.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE35">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="AF35">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="AG35">
         <v>1.55</v>
       </c>
       <c r="AH35">
+        <v>2.3</v>
+      </c>
+      <c r="AI35">
+        <v>1.58</v>
+      </c>
+      <c r="AJ35">
         <v>2.23</v>
       </c>
-      <c r="AI35">
-        <v>1.44</v>
-      </c>
-      <c r="AJ35">
-        <v>2.58</v>
-      </c>
       <c r="AK35">
-        <v>1.43</v>
+        <v>1.18</v>
       </c>
       <c r="AL35">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AM35">
-        <v>1.58</v>
+        <v>2.15</v>
       </c>
       <c r="AN35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO35">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ35">
-        <v>2.33</v>
+        <v>0.33</v>
       </c>
       <c r="AR35">
-        <v>1.12</v>
+        <v>1.75</v>
       </c>
       <c r="AS35">
-        <v>1.44</v>
+        <v>1.64</v>
       </c>
       <c r="AT35">
-        <v>2.56</v>
+        <v>3.39</v>
       </c>
       <c r="AU35">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV35">
+        <v>3</v>
+      </c>
+      <c r="AW35">
+        <v>5</v>
+      </c>
+      <c r="AX35">
+        <v>3</v>
+      </c>
+      <c r="AY35">
+        <v>13</v>
+      </c>
+      <c r="AZ35">
         <v>6</v>
       </c>
-      <c r="AW35">
-        <v>3</v>
-      </c>
-      <c r="AX35">
-        <v>3</v>
-      </c>
-      <c r="AY35">
-        <v>10</v>
-      </c>
-      <c r="AZ35">
-        <v>9</v>
-      </c>
       <c r="BA35">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB35">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BC35">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BD35">
-        <v>1.99</v>
+        <v>1.59</v>
       </c>
       <c r="BE35">
-        <v>8.300000000000001</v>
+        <v>8.65</v>
       </c>
       <c r="BF35">
-        <v>2.18</v>
+        <v>2.97</v>
       </c>
       <c r="BG35">
         <v>1.18</v>
@@ -8014,7 +8014,7 @@
         <v>3.1</v>
       </c>
       <c r="BK35">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="BL35">
         <v>2.23</v>
@@ -8037,7 +8037,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>7296298</v>
+        <v>7296302</v>
       </c>
       <c r="C36" t="s">
         <v>68</v>
@@ -8052,160 +8052,160 @@
         <v>5</v>
       </c>
       <c r="G36" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H36" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J36">
         <v>1</v>
       </c>
       <c r="K36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M36">
         <v>2</v>
       </c>
       <c r="N36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O36" t="s">
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q36">
-        <v>3.05</v>
+        <v>2.72</v>
       </c>
       <c r="R36">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="S36">
-        <v>2.89</v>
+        <v>3.16</v>
       </c>
       <c r="T36">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="U36">
-        <v>3.48</v>
+        <v>3.62</v>
       </c>
       <c r="V36">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="W36">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X36">
-        <v>5.25</v>
+        <v>4.9</v>
       </c>
       <c r="Y36">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="Z36">
-        <v>4.41</v>
+        <v>2.25</v>
       </c>
       <c r="AA36">
-        <v>1.44</v>
+        <v>3.5</v>
       </c>
       <c r="AB36">
-        <v>5.24</v>
+        <v>2.62</v>
       </c>
       <c r="AC36">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="AD36">
-        <v>18.25</v>
+        <v>20.5</v>
       </c>
       <c r="AE36">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="AF36">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="AG36">
         <v>1.55</v>
       </c>
       <c r="AH36">
-        <v>2.3</v>
+        <v>2.23</v>
       </c>
       <c r="AI36">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="AJ36">
-        <v>2.46</v>
+        <v>2.58</v>
       </c>
       <c r="AK36">
-        <v>1.52</v>
+        <v>1.43</v>
       </c>
       <c r="AL36">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AM36">
-        <v>1.48</v>
+        <v>1.58</v>
       </c>
       <c r="AN36">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO36">
         <v>2</v>
       </c>
       <c r="AP36">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AQ36">
-        <v>1.67</v>
+        <v>2.33</v>
       </c>
       <c r="AR36">
-        <v>1.74</v>
+        <v>1.12</v>
       </c>
       <c r="AS36">
-        <v>1.02</v>
+        <v>1.44</v>
       </c>
       <c r="AT36">
-        <v>2.76</v>
+        <v>2.56</v>
       </c>
       <c r="AU36">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AV36">
         <v>6</v>
       </c>
       <c r="AW36">
+        <v>3</v>
+      </c>
+      <c r="AX36">
+        <v>3</v>
+      </c>
+      <c r="AY36">
+        <v>10</v>
+      </c>
+      <c r="AZ36">
+        <v>9</v>
+      </c>
+      <c r="BA36">
         <v>4</v>
       </c>
-      <c r="AX36">
-        <v>16</v>
-      </c>
-      <c r="AY36">
-        <v>8</v>
-      </c>
-      <c r="AZ36">
-        <v>22</v>
-      </c>
-      <c r="BA36">
-        <v>2</v>
-      </c>
       <c r="BB36">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BC36">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BD36">
-        <v>2.11</v>
+        <v>1.99</v>
       </c>
       <c r="BE36">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="BF36">
-        <v>2.06</v>
+        <v>2.18</v>
       </c>
       <c r="BG36">
         <v>1.18</v>
@@ -8243,7 +8243,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>7296299</v>
+        <v>7296303</v>
       </c>
       <c r="C37" t="s">
         <v>68</v>
@@ -8258,190 +8258,190 @@
         <v>5</v>
       </c>
       <c r="G37" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H37" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I37">
         <v>1</v>
       </c>
       <c r="J37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N37">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O37" t="s">
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="Q37">
+        <v>2.53</v>
+      </c>
+      <c r="R37">
         <v>2.26</v>
       </c>
-      <c r="R37">
+      <c r="S37">
+        <v>3.75</v>
+      </c>
+      <c r="T37">
+        <v>1.31</v>
+      </c>
+      <c r="U37">
+        <v>3.28</v>
+      </c>
+      <c r="V37">
+        <v>2.46</v>
+      </c>
+      <c r="W37">
+        <v>1.51</v>
+      </c>
+      <c r="X37">
+        <v>5.8</v>
+      </c>
+      <c r="Y37">
+        <v>1.12</v>
+      </c>
+      <c r="Z37">
+        <v>3.42</v>
+      </c>
+      <c r="AA37">
+        <v>1.46</v>
+      </c>
+      <c r="AB37">
+        <v>7.41</v>
+      </c>
+      <c r="AC37">
+        <v>1.04</v>
+      </c>
+      <c r="AD37">
+        <v>14.5</v>
+      </c>
+      <c r="AE37">
+        <v>1.18</v>
+      </c>
+      <c r="AF37">
+        <v>4.05</v>
+      </c>
+      <c r="AG37">
+        <v>1.67</v>
+      </c>
+      <c r="AH37">
+        <v>2.1</v>
+      </c>
+      <c r="AI37">
+        <v>1.57</v>
+      </c>
+      <c r="AJ37">
         <v>2.25</v>
       </c>
-      <c r="S37">
-        <v>4.6</v>
-      </c>
-      <c r="T37">
-        <v>1.33</v>
-      </c>
-      <c r="U37">
-        <v>3.14</v>
-      </c>
-      <c r="V37">
-        <v>2.57</v>
-      </c>
-      <c r="W37">
+      <c r="AK37">
+        <v>1.31</v>
+      </c>
+      <c r="AL37">
+        <v>1.26</v>
+      </c>
+      <c r="AM37">
+        <v>1.74</v>
+      </c>
+      <c r="AN37">
+        <v>1.5</v>
+      </c>
+      <c r="AO37">
+        <v>1</v>
+      </c>
+      <c r="AP37">
+        <v>2</v>
+      </c>
+      <c r="AQ37">
+        <v>0.67</v>
+      </c>
+      <c r="AR37">
+        <v>1.53</v>
+      </c>
+      <c r="AS37">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AT37">
+        <v>2.34</v>
+      </c>
+      <c r="AU37">
+        <v>11</v>
+      </c>
+      <c r="AV37">
+        <v>6</v>
+      </c>
+      <c r="AW37">
+        <v>5</v>
+      </c>
+      <c r="AX37">
+        <v>2</v>
+      </c>
+      <c r="AY37">
+        <v>16</v>
+      </c>
+      <c r="AZ37">
+        <v>8</v>
+      </c>
+      <c r="BA37">
+        <v>2</v>
+      </c>
+      <c r="BB37">
+        <v>7</v>
+      </c>
+      <c r="BC37">
+        <v>9</v>
+      </c>
+      <c r="BD37">
+        <v>1.86</v>
+      </c>
+      <c r="BE37">
+        <v>8.65</v>
+      </c>
+      <c r="BF37">
+        <v>2.33</v>
+      </c>
+      <c r="BG37">
+        <v>1.17</v>
+      </c>
+      <c r="BH37">
+        <v>4.8</v>
+      </c>
+      <c r="BI37">
+        <v>1.3</v>
+      </c>
+      <c r="BJ37">
+        <v>3.25</v>
+      </c>
+      <c r="BK37">
+        <v>1.56</v>
+      </c>
+      <c r="BL37">
+        <v>2.33</v>
+      </c>
+      <c r="BM37">
+        <v>1.98</v>
+      </c>
+      <c r="BN37">
+        <v>1.82</v>
+      </c>
+      <c r="BO37">
+        <v>2.55</v>
+      </c>
+      <c r="BP37">
         <v>1.47</v>
-      </c>
-      <c r="X37">
-        <v>6.15</v>
-      </c>
-      <c r="Y37">
-        <v>1.1</v>
-      </c>
-      <c r="Z37">
-        <v>1.73</v>
-      </c>
-      <c r="AA37">
-        <v>3.7</v>
-      </c>
-      <c r="AB37">
-        <v>3.8</v>
-      </c>
-      <c r="AC37">
-        <v>1.02</v>
-      </c>
-      <c r="AD37">
-        <v>10.5</v>
-      </c>
-      <c r="AE37">
-        <v>1.21</v>
-      </c>
-      <c r="AF37">
-        <v>3.74</v>
-      </c>
-      <c r="AG37">
-        <v>1.73</v>
-      </c>
-      <c r="AH37">
-        <v>2</v>
-      </c>
-      <c r="AI37">
-        <v>1.69</v>
-      </c>
-      <c r="AJ37">
-        <v>2.04</v>
-      </c>
-      <c r="AK37">
-        <v>1.21</v>
-      </c>
-      <c r="AL37">
-        <v>1.24</v>
-      </c>
-      <c r="AM37">
-        <v>2</v>
-      </c>
-      <c r="AN37">
-        <v>0.5</v>
-      </c>
-      <c r="AO37">
-        <v>0.5</v>
-      </c>
-      <c r="AP37">
-        <v>0.33</v>
-      </c>
-      <c r="AQ37">
-        <v>1.33</v>
-      </c>
-      <c r="AR37">
-        <v>1.33</v>
-      </c>
-      <c r="AS37">
-        <v>1.74</v>
-      </c>
-      <c r="AT37">
-        <v>3.07</v>
-      </c>
-      <c r="AU37">
-        <v>5</v>
-      </c>
-      <c r="AV37">
-        <v>13</v>
-      </c>
-      <c r="AW37">
-        <v>2</v>
-      </c>
-      <c r="AX37">
-        <v>7</v>
-      </c>
-      <c r="AY37">
-        <v>7</v>
-      </c>
-      <c r="AZ37">
-        <v>20</v>
-      </c>
-      <c r="BA37">
-        <v>5</v>
-      </c>
-      <c r="BB37">
-        <v>9</v>
-      </c>
-      <c r="BC37">
-        <v>14</v>
-      </c>
-      <c r="BD37">
-        <v>1.59</v>
-      </c>
-      <c r="BE37">
-        <v>9</v>
-      </c>
-      <c r="BF37">
-        <v>2.77</v>
-      </c>
-      <c r="BG37">
-        <v>0</v>
-      </c>
-      <c r="BH37">
-        <v>0</v>
-      </c>
-      <c r="BI37">
-        <v>1.24</v>
-      </c>
-      <c r="BJ37">
-        <v>3.8</v>
-      </c>
-      <c r="BK37">
-        <v>1.43</v>
-      </c>
-      <c r="BL37">
-        <v>2.7</v>
-      </c>
-      <c r="BM37">
-        <v>1.74</v>
-      </c>
-      <c r="BN37">
-        <v>2.02</v>
-      </c>
-      <c r="BO37">
-        <v>2.23</v>
-      </c>
-      <c r="BP37">
-        <v>1.62</v>
       </c>
     </row>
     <row r="38" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="154">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -376,6 +376,21 @@
     <t>['45']</t>
   </si>
   <si>
+    <t>['18', '29', '32', '51', '53']</t>
+  </si>
+  <si>
+    <t>['43']</t>
+  </si>
+  <si>
+    <t>['56']</t>
+  </si>
+  <si>
+    <t>['18']</t>
+  </si>
+  <si>
+    <t>['25', '63', '71']</t>
+  </si>
+  <si>
     <t>['90+1']</t>
   </si>
   <si>
@@ -455,6 +470,12 @@
   </si>
   <si>
     <t>['46']</t>
+  </si>
+  <si>
+    <t>['67']</t>
+  </si>
+  <si>
+    <t>['48', '72', '79']</t>
   </si>
 </sst>
 </file>
@@ -816,7 +837,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP39"/>
+  <dimension ref="A1:BP47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1075,7 +1096,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="Q2">
         <v>2.84</v>
@@ -1281,7 +1302,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="Q3">
         <v>2.2</v>
@@ -1362,7 +1383,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ3">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1487,7 +1508,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -1565,10 +1586,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ4">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1693,7 +1714,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1899,7 +1920,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="Q6">
         <v>2.35</v>
@@ -2105,7 +2126,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="Q7">
         <v>2.66</v>
@@ -2183,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ7">
         <v>1.33</v>
@@ -2311,7 +2332,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="Q8">
         <v>2.8</v>
@@ -2389,7 +2410,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ8">
         <v>2.33</v>
@@ -2598,7 +2619,7 @@
         <v>2</v>
       </c>
       <c r="AQ9">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2723,7 +2744,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -2801,10 +2822,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ10">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2929,7 +2950,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3007,7 +3028,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ11">
         <v>1.33</v>
@@ -3135,7 +3156,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3422,7 +3443,7 @@
         <v>3</v>
       </c>
       <c r="AQ13">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3625,10 +3646,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ14">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3753,7 +3774,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="Q15">
         <v>2.05</v>
@@ -3959,7 +3980,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -4040,7 +4061,7 @@
         <v>1</v>
       </c>
       <c r="AQ16">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4165,7 +4186,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="Q17">
         <v>2.15</v>
@@ -4243,7 +4264,7 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ17">
         <v>1.67</v>
@@ -4371,7 +4392,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="Q18">
         <v>2.15</v>
@@ -4783,7 +4804,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="Q20">
         <v>2.81</v>
@@ -4864,7 +4885,7 @@
         <v>2</v>
       </c>
       <c r="AQ20">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR20">
         <v>1.13</v>
@@ -5067,7 +5088,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ21">
         <v>1.33</v>
@@ -5195,7 +5216,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="Q22">
         <v>2.76</v>
@@ -5276,7 +5297,7 @@
         <v>1</v>
       </c>
       <c r="AQ22">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AR22">
         <v>1.02</v>
@@ -5401,7 +5422,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="Q23">
         <v>2.85</v>
@@ -5479,7 +5500,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ23">
         <v>0.33</v>
@@ -5607,7 +5628,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="Q24">
         <v>2.05</v>
@@ -5688,7 +5709,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ24">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR24">
         <v>1.52</v>
@@ -5813,7 +5834,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -5891,10 +5912,10 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ25">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR25">
         <v>1.67</v>
@@ -6019,7 +6040,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="Q26">
         <v>2.6</v>
@@ -6097,7 +6118,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ26">
         <v>0.5</v>
@@ -6303,10 +6324,10 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ27">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR27">
         <v>0.98</v>
@@ -6512,7 +6533,7 @@
         <v>3</v>
       </c>
       <c r="AQ28">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR28">
         <v>1.76</v>
@@ -6715,10 +6736,10 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ29">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR29">
         <v>0</v>
@@ -6843,7 +6864,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="Q30">
         <v>2.25</v>
@@ -6924,7 +6945,7 @@
         <v>2</v>
       </c>
       <c r="AQ30">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR30">
         <v>1.26</v>
@@ -7049,7 +7070,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7255,7 +7276,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="Q32">
         <v>3.05</v>
@@ -7333,7 +7354,7 @@
         <v>2</v>
       </c>
       <c r="AP32">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ32">
         <v>1.67</v>
@@ -7461,7 +7482,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="Q33">
         <v>2.26</v>
@@ -7667,7 +7688,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="Q34">
         <v>3.46</v>
@@ -8079,7 +8100,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="Q36">
         <v>2.72</v>
@@ -8366,7 +8387,7 @@
         <v>2</v>
       </c>
       <c r="AQ37">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AR37">
         <v>1.53</v>
@@ -8491,7 +8512,7 @@
         <v>118</v>
       </c>
       <c r="P38" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="Q38">
         <v>4.55</v>
@@ -8569,7 +8590,7 @@
         <v>2</v>
       </c>
       <c r="AP38">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ38">
         <v>1.33</v>
@@ -8697,7 +8718,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="Q39">
         <v>2.78</v>
@@ -8778,7 +8799,7 @@
         <v>1</v>
       </c>
       <c r="AQ39">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR39">
         <v>1.22</v>
@@ -8854,6 +8875,1654 @@
       </c>
       <c r="BP39">
         <v>1.47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:68">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>7296308</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="2">
+        <v>45416.45833333334</v>
+      </c>
+      <c r="F40">
+        <v>6</v>
+      </c>
+      <c r="G40" t="s">
+        <v>82</v>
+      </c>
+      <c r="H40" t="s">
+        <v>83</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40" t="s">
+        <v>103</v>
+      </c>
+      <c r="P40" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q40">
+        <v>2.6</v>
+      </c>
+      <c r="R40">
+        <v>2.4</v>
+      </c>
+      <c r="S40">
+        <v>3.6</v>
+      </c>
+      <c r="T40">
+        <v>1.26</v>
+      </c>
+      <c r="U40">
+        <v>3.5</v>
+      </c>
+      <c r="V40">
+        <v>2.27</v>
+      </c>
+      <c r="W40">
+        <v>1.59</v>
+      </c>
+      <c r="X40">
+        <v>5.09</v>
+      </c>
+      <c r="Y40">
+        <v>1.13</v>
+      </c>
+      <c r="Z40">
+        <v>2.05</v>
+      </c>
+      <c r="AA40">
+        <v>3.8</v>
+      </c>
+      <c r="AB40">
+        <v>2.75</v>
+      </c>
+      <c r="AC40">
+        <v>1.01</v>
+      </c>
+      <c r="AD40">
+        <v>19</v>
+      </c>
+      <c r="AE40">
+        <v>1.17</v>
+      </c>
+      <c r="AF40">
+        <v>4.75</v>
+      </c>
+      <c r="AG40">
+        <v>1.57</v>
+      </c>
+      <c r="AH40">
+        <v>2.35</v>
+      </c>
+      <c r="AI40">
+        <v>1.5</v>
+      </c>
+      <c r="AJ40">
+        <v>2.5</v>
+      </c>
+      <c r="AK40">
+        <v>1.35</v>
+      </c>
+      <c r="AL40">
+        <v>1.2</v>
+      </c>
+      <c r="AM40">
+        <v>1.8</v>
+      </c>
+      <c r="AN40">
+        <v>1.5</v>
+      </c>
+      <c r="AO40">
+        <v>0.67</v>
+      </c>
+      <c r="AP40">
+        <v>1.33</v>
+      </c>
+      <c r="AQ40">
+        <v>0.75</v>
+      </c>
+      <c r="AR40">
+        <v>1.55</v>
+      </c>
+      <c r="AS40">
+        <v>1.01</v>
+      </c>
+      <c r="AT40">
+        <v>2.56</v>
+      </c>
+      <c r="AU40">
+        <v>0</v>
+      </c>
+      <c r="AV40">
+        <v>0</v>
+      </c>
+      <c r="AW40">
+        <v>5</v>
+      </c>
+      <c r="AX40">
+        <v>2</v>
+      </c>
+      <c r="AY40">
+        <v>5</v>
+      </c>
+      <c r="AZ40">
+        <v>2</v>
+      </c>
+      <c r="BA40">
+        <v>2</v>
+      </c>
+      <c r="BB40">
+        <v>2</v>
+      </c>
+      <c r="BC40">
+        <v>4</v>
+      </c>
+      <c r="BD40">
+        <v>1.92</v>
+      </c>
+      <c r="BE40">
+        <v>9</v>
+      </c>
+      <c r="BF40">
+        <v>2.16</v>
+      </c>
+      <c r="BG40">
+        <v>1.18</v>
+      </c>
+      <c r="BH40">
+        <v>4.5</v>
+      </c>
+      <c r="BI40">
+        <v>1.33</v>
+      </c>
+      <c r="BJ40">
+        <v>2.91</v>
+      </c>
+      <c r="BK40">
+        <v>1.6</v>
+      </c>
+      <c r="BL40">
+        <v>2.14</v>
+      </c>
+      <c r="BM40">
+        <v>2.02</v>
+      </c>
+      <c r="BN40">
+        <v>1.71</v>
+      </c>
+      <c r="BO40">
+        <v>2.6</v>
+      </c>
+      <c r="BP40">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:68">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>7296313</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="2">
+        <v>45416.45833333334</v>
+      </c>
+      <c r="F41">
+        <v>6</v>
+      </c>
+      <c r="G41" t="s">
+        <v>81</v>
+      </c>
+      <c r="H41" t="s">
+        <v>71</v>
+      </c>
+      <c r="I41">
+        <v>3</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>3</v>
+      </c>
+      <c r="L41">
+        <v>5</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>5</v>
+      </c>
+      <c r="O41" t="s">
+        <v>120</v>
+      </c>
+      <c r="P41" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q41">
+        <v>2.63</v>
+      </c>
+      <c r="R41">
+        <v>2.3</v>
+      </c>
+      <c r="S41">
+        <v>3.75</v>
+      </c>
+      <c r="T41">
+        <v>1.33</v>
+      </c>
+      <c r="U41">
+        <v>3.25</v>
+      </c>
+      <c r="V41">
+        <v>2.5</v>
+      </c>
+      <c r="W41">
+        <v>1.5</v>
+      </c>
+      <c r="X41">
+        <v>6</v>
+      </c>
+      <c r="Y41">
+        <v>1.13</v>
+      </c>
+      <c r="Z41">
+        <v>1.9</v>
+      </c>
+      <c r="AA41">
+        <v>3.75</v>
+      </c>
+      <c r="AB41">
+        <v>3.1</v>
+      </c>
+      <c r="AC41">
+        <v>1.02</v>
+      </c>
+      <c r="AD41">
+        <v>15</v>
+      </c>
+      <c r="AE41">
+        <v>1.22</v>
+      </c>
+      <c r="AF41">
+        <v>4.2</v>
+      </c>
+      <c r="AG41">
+        <v>1.65</v>
+      </c>
+      <c r="AH41">
+        <v>2.17</v>
+      </c>
+      <c r="AI41">
+        <v>1.62</v>
+      </c>
+      <c r="AJ41">
+        <v>2.2</v>
+      </c>
+      <c r="AK41">
+        <v>1.33</v>
+      </c>
+      <c r="AL41">
+        <v>1.22</v>
+      </c>
+      <c r="AM41">
+        <v>1.78</v>
+      </c>
+      <c r="AN41">
+        <v>3</v>
+      </c>
+      <c r="AO41">
+        <v>2</v>
+      </c>
+      <c r="AP41">
+        <v>3</v>
+      </c>
+      <c r="AQ41">
+        <v>1.33</v>
+      </c>
+      <c r="AR41">
+        <v>1.14</v>
+      </c>
+      <c r="AS41">
+        <v>1.58</v>
+      </c>
+      <c r="AT41">
+        <v>2.72</v>
+      </c>
+      <c r="AU41">
+        <v>5</v>
+      </c>
+      <c r="AV41">
+        <v>0</v>
+      </c>
+      <c r="AW41">
+        <v>7</v>
+      </c>
+      <c r="AX41">
+        <v>4</v>
+      </c>
+      <c r="AY41">
+        <v>12</v>
+      </c>
+      <c r="AZ41">
+        <v>4</v>
+      </c>
+      <c r="BA41">
+        <v>4</v>
+      </c>
+      <c r="BB41">
+        <v>5</v>
+      </c>
+      <c r="BC41">
+        <v>9</v>
+      </c>
+      <c r="BD41">
+        <v>1.77</v>
+      </c>
+      <c r="BE41">
+        <v>9.1</v>
+      </c>
+      <c r="BF41">
+        <v>2.38</v>
+      </c>
+      <c r="BG41">
+        <v>1.2</v>
+      </c>
+      <c r="BH41">
+        <v>4.25</v>
+      </c>
+      <c r="BI41">
+        <v>1.38</v>
+      </c>
+      <c r="BJ41">
+        <v>2.9</v>
+      </c>
+      <c r="BK41">
+        <v>1.67</v>
+      </c>
+      <c r="BL41">
+        <v>2.12</v>
+      </c>
+      <c r="BM41">
+        <v>2.12</v>
+      </c>
+      <c r="BN41">
+        <v>1.67</v>
+      </c>
+      <c r="BO41">
+        <v>2.85</v>
+      </c>
+      <c r="BP41">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:68">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>7296312</v>
+      </c>
+      <c r="C42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="2">
+        <v>45416.45833333334</v>
+      </c>
+      <c r="F42">
+        <v>6</v>
+      </c>
+      <c r="G42" t="s">
+        <v>79</v>
+      </c>
+      <c r="H42" t="s">
+        <v>74</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42" t="s">
+        <v>121</v>
+      </c>
+      <c r="P42" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q42">
+        <v>2.67</v>
+      </c>
+      <c r="R42">
+        <v>2.21</v>
+      </c>
+      <c r="S42">
+        <v>3.6</v>
+      </c>
+      <c r="T42">
+        <v>1.34</v>
+      </c>
+      <c r="U42">
+        <v>3.1</v>
+      </c>
+      <c r="V42">
+        <v>2.57</v>
+      </c>
+      <c r="W42">
+        <v>1.47</v>
+      </c>
+      <c r="X42">
+        <v>6.2</v>
+      </c>
+      <c r="Y42">
+        <v>1.1</v>
+      </c>
+      <c r="Z42">
+        <v>2.18</v>
+      </c>
+      <c r="AA42">
+        <v>3.2</v>
+      </c>
+      <c r="AB42">
+        <v>3.05</v>
+      </c>
+      <c r="AC42">
+        <v>1.04</v>
+      </c>
+      <c r="AD42">
+        <v>10.5</v>
+      </c>
+      <c r="AE42">
+        <v>1.21</v>
+      </c>
+      <c r="AF42">
+        <v>3.74</v>
+      </c>
+      <c r="AG42">
+        <v>1.73</v>
+      </c>
+      <c r="AH42">
+        <v>2.05</v>
+      </c>
+      <c r="AI42">
+        <v>1.61</v>
+      </c>
+      <c r="AJ42">
+        <v>2.17</v>
+      </c>
+      <c r="AK42">
+        <v>1.35</v>
+      </c>
+      <c r="AL42">
+        <v>1.28</v>
+      </c>
+      <c r="AM42">
+        <v>1.66</v>
+      </c>
+      <c r="AN42">
+        <v>0</v>
+      </c>
+      <c r="AO42">
+        <v>1</v>
+      </c>
+      <c r="AP42">
+        <v>1</v>
+      </c>
+      <c r="AQ42">
+        <v>0.5</v>
+      </c>
+      <c r="AR42">
+        <v>0.79</v>
+      </c>
+      <c r="AS42">
+        <v>0</v>
+      </c>
+      <c r="AT42">
+        <v>0.79</v>
+      </c>
+      <c r="AU42">
+        <v>-1</v>
+      </c>
+      <c r="AV42">
+        <v>-1</v>
+      </c>
+      <c r="AW42">
+        <v>-1</v>
+      </c>
+      <c r="AX42">
+        <v>-1</v>
+      </c>
+      <c r="AY42">
+        <v>-1</v>
+      </c>
+      <c r="AZ42">
+        <v>-1</v>
+      </c>
+      <c r="BA42">
+        <v>-1</v>
+      </c>
+      <c r="BB42">
+        <v>-1</v>
+      </c>
+      <c r="BC42">
+        <v>-1</v>
+      </c>
+      <c r="BD42">
+        <v>1.92</v>
+      </c>
+      <c r="BE42">
+        <v>9.4</v>
+      </c>
+      <c r="BF42">
+        <v>2.14</v>
+      </c>
+      <c r="BG42">
+        <v>0</v>
+      </c>
+      <c r="BH42">
+        <v>0</v>
+      </c>
+      <c r="BI42">
+        <v>1.25</v>
+      </c>
+      <c r="BJ42">
+        <v>3.75</v>
+      </c>
+      <c r="BK42">
+        <v>1.45</v>
+      </c>
+      <c r="BL42">
+        <v>2.63</v>
+      </c>
+      <c r="BM42">
+        <v>1.77</v>
+      </c>
+      <c r="BN42">
+        <v>1.98</v>
+      </c>
+      <c r="BO42">
+        <v>2.25</v>
+      </c>
+      <c r="BP42">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:68">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>7296311</v>
+      </c>
+      <c r="C43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="2">
+        <v>45416.45833333334</v>
+      </c>
+      <c r="F43">
+        <v>6</v>
+      </c>
+      <c r="G43" t="s">
+        <v>72</v>
+      </c>
+      <c r="H43" t="s">
+        <v>70</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43" t="s">
+        <v>122</v>
+      </c>
+      <c r="P43" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q43">
+        <v>2.25</v>
+      </c>
+      <c r="R43">
+        <v>2.3</v>
+      </c>
+      <c r="S43">
+        <v>4.75</v>
+      </c>
+      <c r="T43">
+        <v>1.33</v>
+      </c>
+      <c r="U43">
+        <v>3.25</v>
+      </c>
+      <c r="V43">
+        <v>2.63</v>
+      </c>
+      <c r="W43">
+        <v>1.44</v>
+      </c>
+      <c r="X43">
+        <v>6.5</v>
+      </c>
+      <c r="Y43">
+        <v>1.11</v>
+      </c>
+      <c r="Z43">
+        <v>1.75</v>
+      </c>
+      <c r="AA43">
+        <v>3.5</v>
+      </c>
+      <c r="AB43">
+        <v>3.9</v>
+      </c>
+      <c r="AC43">
+        <v>1.04</v>
+      </c>
+      <c r="AD43">
+        <v>14</v>
+      </c>
+      <c r="AE43">
+        <v>1.24</v>
+      </c>
+      <c r="AF43">
+        <v>4.08</v>
+      </c>
+      <c r="AG43">
+        <v>1.74</v>
+      </c>
+      <c r="AH43">
+        <v>2.04</v>
+      </c>
+      <c r="AI43">
+        <v>1.73</v>
+      </c>
+      <c r="AJ43">
+        <v>2</v>
+      </c>
+      <c r="AK43">
+        <v>1.21</v>
+      </c>
+      <c r="AL43">
+        <v>1.25</v>
+      </c>
+      <c r="AM43">
+        <v>1.91</v>
+      </c>
+      <c r="AN43">
+        <v>0.5</v>
+      </c>
+      <c r="AO43">
+        <v>1.5</v>
+      </c>
+      <c r="AP43">
+        <v>1.33</v>
+      </c>
+      <c r="AQ43">
+        <v>1</v>
+      </c>
+      <c r="AR43">
+        <v>2.44</v>
+      </c>
+      <c r="AS43">
+        <v>1.95</v>
+      </c>
+      <c r="AT43">
+        <v>4.39</v>
+      </c>
+      <c r="AU43">
+        <v>4</v>
+      </c>
+      <c r="AV43">
+        <v>7</v>
+      </c>
+      <c r="AW43">
+        <v>1</v>
+      </c>
+      <c r="AX43">
+        <v>4</v>
+      </c>
+      <c r="AY43">
+        <v>5</v>
+      </c>
+      <c r="AZ43">
+        <v>11</v>
+      </c>
+      <c r="BA43">
+        <v>5</v>
+      </c>
+      <c r="BB43">
+        <v>3</v>
+      </c>
+      <c r="BC43">
+        <v>8</v>
+      </c>
+      <c r="BD43">
+        <v>1.51</v>
+      </c>
+      <c r="BE43">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="BF43">
+        <v>3.04</v>
+      </c>
+      <c r="BG43">
+        <v>1.17</v>
+      </c>
+      <c r="BH43">
+        <v>4.4</v>
+      </c>
+      <c r="BI43">
+        <v>1.3</v>
+      </c>
+      <c r="BJ43">
+        <v>3.3</v>
+      </c>
+      <c r="BK43">
+        <v>1.55</v>
+      </c>
+      <c r="BL43">
+        <v>2.38</v>
+      </c>
+      <c r="BM43">
+        <v>1.92</v>
+      </c>
+      <c r="BN43">
+        <v>1.82</v>
+      </c>
+      <c r="BO43">
+        <v>2.5</v>
+      </c>
+      <c r="BP43">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:68">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>7296310</v>
+      </c>
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="2">
+        <v>45416.45833333334</v>
+      </c>
+      <c r="F44">
+        <v>6</v>
+      </c>
+      <c r="G44" t="s">
+        <v>78</v>
+      </c>
+      <c r="H44" t="s">
+        <v>80</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44" t="s">
+        <v>103</v>
+      </c>
+      <c r="P44" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q44">
+        <v>2.5</v>
+      </c>
+      <c r="R44">
+        <v>2.3</v>
+      </c>
+      <c r="S44">
+        <v>4</v>
+      </c>
+      <c r="T44">
+        <v>1.33</v>
+      </c>
+      <c r="U44">
+        <v>3.25</v>
+      </c>
+      <c r="V44">
+        <v>2.5</v>
+      </c>
+      <c r="W44">
+        <v>1.5</v>
+      </c>
+      <c r="X44">
+        <v>6</v>
+      </c>
+      <c r="Y44">
+        <v>1.13</v>
+      </c>
+      <c r="Z44">
+        <v>1.85</v>
+      </c>
+      <c r="AA44">
+        <v>3.5</v>
+      </c>
+      <c r="AB44">
+        <v>3.5</v>
+      </c>
+      <c r="AC44">
+        <v>1.03</v>
+      </c>
+      <c r="AD44">
+        <v>16.75</v>
+      </c>
+      <c r="AE44">
+        <v>1.2</v>
+      </c>
+      <c r="AF44">
+        <v>4.55</v>
+      </c>
+      <c r="AG44">
+        <v>1.65</v>
+      </c>
+      <c r="AH44">
+        <v>2.17</v>
+      </c>
+      <c r="AI44">
+        <v>1.62</v>
+      </c>
+      <c r="AJ44">
+        <v>2.2</v>
+      </c>
+      <c r="AK44">
+        <v>1.44</v>
+      </c>
+      <c r="AL44">
+        <v>1.26</v>
+      </c>
+      <c r="AM44">
+        <v>1.5</v>
+      </c>
+      <c r="AN44">
+        <v>0.5</v>
+      </c>
+      <c r="AO44">
+        <v>0.33</v>
+      </c>
+      <c r="AP44">
+        <v>0.67</v>
+      </c>
+      <c r="AQ44">
+        <v>0.5</v>
+      </c>
+      <c r="AR44">
+        <v>1.34</v>
+      </c>
+      <c r="AS44">
+        <v>1.42</v>
+      </c>
+      <c r="AT44">
+        <v>2.76</v>
+      </c>
+      <c r="AU44">
+        <v>-1</v>
+      </c>
+      <c r="AV44">
+        <v>-1</v>
+      </c>
+      <c r="AW44">
+        <v>-1</v>
+      </c>
+      <c r="AX44">
+        <v>-1</v>
+      </c>
+      <c r="AY44">
+        <v>-1</v>
+      </c>
+      <c r="AZ44">
+        <v>-1</v>
+      </c>
+      <c r="BA44">
+        <v>-1</v>
+      </c>
+      <c r="BB44">
+        <v>-1</v>
+      </c>
+      <c r="BC44">
+        <v>-1</v>
+      </c>
+      <c r="BD44">
+        <v>1.8</v>
+      </c>
+      <c r="BE44">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF44">
+        <v>2.33</v>
+      </c>
+      <c r="BG44">
+        <v>1.18</v>
+      </c>
+      <c r="BH44">
+        <v>4.3</v>
+      </c>
+      <c r="BI44">
+        <v>1.32</v>
+      </c>
+      <c r="BJ44">
+        <v>3.07</v>
+      </c>
+      <c r="BK44">
+        <v>1.56</v>
+      </c>
+      <c r="BL44">
+        <v>2.21</v>
+      </c>
+      <c r="BM44">
+        <v>1.95</v>
+      </c>
+      <c r="BN44">
+        <v>1.76</v>
+      </c>
+      <c r="BO44">
+        <v>2.51</v>
+      </c>
+      <c r="BP44">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:68">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>7296306</v>
+      </c>
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="2">
+        <v>45416.45833333334</v>
+      </c>
+      <c r="F45">
+        <v>6</v>
+      </c>
+      <c r="G45" t="s">
+        <v>75</v>
+      </c>
+      <c r="H45" t="s">
+        <v>73</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <v>2</v>
+      </c>
+      <c r="O45" t="s">
+        <v>123</v>
+      </c>
+      <c r="P45" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q45">
+        <v>3.3</v>
+      </c>
+      <c r="R45">
+        <v>2.3</v>
+      </c>
+      <c r="S45">
+        <v>2.9</v>
+      </c>
+      <c r="T45">
+        <v>1.24</v>
+      </c>
+      <c r="U45">
+        <v>3.7</v>
+      </c>
+      <c r="V45">
+        <v>2.32</v>
+      </c>
+      <c r="W45">
+        <v>1.55</v>
+      </c>
+      <c r="X45">
+        <v>4.95</v>
+      </c>
+      <c r="Y45">
+        <v>1.14</v>
+      </c>
+      <c r="Z45">
+        <v>2.7</v>
+      </c>
+      <c r="AA45">
+        <v>3.9</v>
+      </c>
+      <c r="AB45">
+        <v>2.05</v>
+      </c>
+      <c r="AC45">
+        <v>1.02</v>
+      </c>
+      <c r="AD45">
+        <v>21</v>
+      </c>
+      <c r="AE45">
+        <v>1.18</v>
+      </c>
+      <c r="AF45">
+        <v>4.75</v>
+      </c>
+      <c r="AG45">
+        <v>1.5</v>
+      </c>
+      <c r="AH45">
+        <v>2.5</v>
+      </c>
+      <c r="AI45">
+        <v>1.53</v>
+      </c>
+      <c r="AJ45">
+        <v>2.38</v>
+      </c>
+      <c r="AK45">
+        <v>1.53</v>
+      </c>
+      <c r="AL45">
+        <v>1.29</v>
+      </c>
+      <c r="AM45">
+        <v>1.5</v>
+      </c>
+      <c r="AN45">
+        <v>1.67</v>
+      </c>
+      <c r="AO45">
+        <v>1.5</v>
+      </c>
+      <c r="AP45">
+        <v>1.5</v>
+      </c>
+      <c r="AQ45">
+        <v>1.33</v>
+      </c>
+      <c r="AR45">
+        <v>1.31</v>
+      </c>
+      <c r="AS45">
+        <v>1.34</v>
+      </c>
+      <c r="AT45">
+        <v>2.65</v>
+      </c>
+      <c r="AU45">
+        <v>2</v>
+      </c>
+      <c r="AV45">
+        <v>2</v>
+      </c>
+      <c r="AW45">
+        <v>2</v>
+      </c>
+      <c r="AX45">
+        <v>3</v>
+      </c>
+      <c r="AY45">
+        <v>4</v>
+      </c>
+      <c r="AZ45">
+        <v>5</v>
+      </c>
+      <c r="BA45">
+        <v>2</v>
+      </c>
+      <c r="BB45">
+        <v>3</v>
+      </c>
+      <c r="BC45">
+        <v>5</v>
+      </c>
+      <c r="BD45">
+        <v>2.09</v>
+      </c>
+      <c r="BE45">
+        <v>9</v>
+      </c>
+      <c r="BF45">
+        <v>1.94</v>
+      </c>
+      <c r="BG45">
+        <v>1.19</v>
+      </c>
+      <c r="BH45">
+        <v>4.19</v>
+      </c>
+      <c r="BI45">
+        <v>1.3</v>
+      </c>
+      <c r="BJ45">
+        <v>3.3</v>
+      </c>
+      <c r="BK45">
+        <v>1.55</v>
+      </c>
+      <c r="BL45">
+        <v>2.38</v>
+      </c>
+      <c r="BM45">
+        <v>1.92</v>
+      </c>
+      <c r="BN45">
+        <v>1.82</v>
+      </c>
+      <c r="BO45">
+        <v>2.5</v>
+      </c>
+      <c r="BP45">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:68">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>7296307</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="2">
+        <v>45416.45833333334</v>
+      </c>
+      <c r="F46">
+        <v>6</v>
+      </c>
+      <c r="G46" t="s">
+        <v>85</v>
+      </c>
+      <c r="H46" t="s">
+        <v>84</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>2</v>
+      </c>
+      <c r="O46" t="s">
+        <v>94</v>
+      </c>
+      <c r="P46" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q46">
+        <v>2.4</v>
+      </c>
+      <c r="R46">
+        <v>2.4</v>
+      </c>
+      <c r="S46">
+        <v>4</v>
+      </c>
+      <c r="T46">
+        <v>1.25</v>
+      </c>
+      <c r="U46">
+        <v>3.75</v>
+      </c>
+      <c r="V46">
+        <v>2.2</v>
+      </c>
+      <c r="W46">
+        <v>1.62</v>
+      </c>
+      <c r="X46">
+        <v>5</v>
+      </c>
+      <c r="Y46">
+        <v>1.17</v>
+      </c>
+      <c r="Z46">
+        <v>1.8</v>
+      </c>
+      <c r="AA46">
+        <v>4</v>
+      </c>
+      <c r="AB46">
+        <v>3.25</v>
+      </c>
+      <c r="AC46">
+        <v>1.02</v>
+      </c>
+      <c r="AD46">
+        <v>17</v>
+      </c>
+      <c r="AE46">
+        <v>1.16</v>
+      </c>
+      <c r="AF46">
+        <v>4.2</v>
+      </c>
+      <c r="AG46">
+        <v>1.65</v>
+      </c>
+      <c r="AH46">
+        <v>2.2</v>
+      </c>
+      <c r="AI46">
+        <v>1.5</v>
+      </c>
+      <c r="AJ46">
+        <v>2.5</v>
+      </c>
+      <c r="AK46">
+        <v>1.3</v>
+      </c>
+      <c r="AL46">
+        <v>1.2</v>
+      </c>
+      <c r="AM46">
+        <v>1.9</v>
+      </c>
+      <c r="AN46">
+        <v>3</v>
+      </c>
+      <c r="AO46">
+        <v>1.5</v>
+      </c>
+      <c r="AP46">
+        <v>2</v>
+      </c>
+      <c r="AQ46">
+        <v>1.33</v>
+      </c>
+      <c r="AR46">
+        <v>2.74</v>
+      </c>
+      <c r="AS46">
+        <v>1.9</v>
+      </c>
+      <c r="AT46">
+        <v>4.64</v>
+      </c>
+      <c r="AU46">
+        <v>-1</v>
+      </c>
+      <c r="AV46">
+        <v>-1</v>
+      </c>
+      <c r="AW46">
+        <v>-1</v>
+      </c>
+      <c r="AX46">
+        <v>-1</v>
+      </c>
+      <c r="AY46">
+        <v>-1</v>
+      </c>
+      <c r="AZ46">
+        <v>-1</v>
+      </c>
+      <c r="BA46">
+        <v>-1</v>
+      </c>
+      <c r="BB46">
+        <v>-1</v>
+      </c>
+      <c r="BC46">
+        <v>-1</v>
+      </c>
+      <c r="BD46">
+        <v>1.7</v>
+      </c>
+      <c r="BE46">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF46">
+        <v>2.52</v>
+      </c>
+      <c r="BG46">
+        <v>1.18</v>
+      </c>
+      <c r="BH46">
+        <v>4.3</v>
+      </c>
+      <c r="BI46">
+        <v>1.32</v>
+      </c>
+      <c r="BJ46">
+        <v>3.07</v>
+      </c>
+      <c r="BK46">
+        <v>1.56</v>
+      </c>
+      <c r="BL46">
+        <v>2.21</v>
+      </c>
+      <c r="BM46">
+        <v>1.95</v>
+      </c>
+      <c r="BN46">
+        <v>1.76</v>
+      </c>
+      <c r="BO46">
+        <v>2.51</v>
+      </c>
+      <c r="BP46">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:68">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>7296309</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="2">
+        <v>45416.45833333334</v>
+      </c>
+      <c r="F47">
+        <v>6</v>
+      </c>
+      <c r="G47" t="s">
+        <v>76</v>
+      </c>
+      <c r="H47" t="s">
+        <v>77</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>3</v>
+      </c>
+      <c r="M47">
+        <v>3</v>
+      </c>
+      <c r="N47">
+        <v>6</v>
+      </c>
+      <c r="O47" t="s">
+        <v>124</v>
+      </c>
+      <c r="P47" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q47">
+        <v>3.11</v>
+      </c>
+      <c r="R47">
+        <v>2.37</v>
+      </c>
+      <c r="S47">
+        <v>3.1</v>
+      </c>
+      <c r="T47">
+        <v>1.31</v>
+      </c>
+      <c r="U47">
+        <v>3.28</v>
+      </c>
+      <c r="V47">
+        <v>2.48</v>
+      </c>
+      <c r="W47">
+        <v>1.52</v>
+      </c>
+      <c r="X47">
+        <v>5.75</v>
+      </c>
+      <c r="Y47">
+        <v>1.12</v>
+      </c>
+      <c r="Z47">
+        <v>2.45</v>
+      </c>
+      <c r="AA47">
+        <v>3.45</v>
+      </c>
+      <c r="AB47">
+        <v>2.5</v>
+      </c>
+      <c r="AC47">
+        <v>1.03</v>
+      </c>
+      <c r="AD47">
+        <v>15.75</v>
+      </c>
+      <c r="AE47">
+        <v>1.18</v>
+      </c>
+      <c r="AF47">
+        <v>4.1</v>
+      </c>
+      <c r="AG47">
+        <v>1.65</v>
+      </c>
+      <c r="AH47">
+        <v>2.17</v>
+      </c>
+      <c r="AI47">
+        <v>1.55</v>
+      </c>
+      <c r="AJ47">
+        <v>2.29</v>
+      </c>
+      <c r="AK47">
+        <v>1.49</v>
+      </c>
+      <c r="AL47">
+        <v>1.27</v>
+      </c>
+      <c r="AM47">
+        <v>1.49</v>
+      </c>
+      <c r="AN47">
+        <v>1.33</v>
+      </c>
+      <c r="AO47">
+        <v>0</v>
+      </c>
+      <c r="AP47">
+        <v>1.25</v>
+      </c>
+      <c r="AQ47">
+        <v>0.33</v>
+      </c>
+      <c r="AR47">
+        <v>1.39</v>
+      </c>
+      <c r="AS47">
+        <v>0.97</v>
+      </c>
+      <c r="AT47">
+        <v>2.36</v>
+      </c>
+      <c r="AU47">
+        <v>4</v>
+      </c>
+      <c r="AV47">
+        <v>4</v>
+      </c>
+      <c r="AW47">
+        <v>2</v>
+      </c>
+      <c r="AX47">
+        <v>2</v>
+      </c>
+      <c r="AY47">
+        <v>6</v>
+      </c>
+      <c r="AZ47">
+        <v>6</v>
+      </c>
+      <c r="BA47">
+        <v>1</v>
+      </c>
+      <c r="BB47">
+        <v>2</v>
+      </c>
+      <c r="BC47">
+        <v>3</v>
+      </c>
+      <c r="BD47">
+        <v>2.1</v>
+      </c>
+      <c r="BE47">
+        <v>9</v>
+      </c>
+      <c r="BF47">
+        <v>1.97</v>
+      </c>
+      <c r="BG47">
+        <v>1.18</v>
+      </c>
+      <c r="BH47">
+        <v>4.5</v>
+      </c>
+      <c r="BI47">
+        <v>1.35</v>
+      </c>
+      <c r="BJ47">
+        <v>3.05</v>
+      </c>
+      <c r="BK47">
+        <v>1.62</v>
+      </c>
+      <c r="BL47">
+        <v>2.23</v>
+      </c>
+      <c r="BM47">
+        <v>2.04</v>
+      </c>
+      <c r="BN47">
+        <v>1.73</v>
+      </c>
+      <c r="BO47">
+        <v>2.7</v>
+      </c>
+      <c r="BP47">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
@@ -9017,31 +9017,31 @@
         <v>2.56</v>
       </c>
       <c r="AU40">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AV40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AW40">
+        <v>9</v>
+      </c>
+      <c r="AX40">
         <v>5</v>
       </c>
-      <c r="AX40">
-        <v>2</v>
-      </c>
       <c r="AY40">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AZ40">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BA40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BB40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC40">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BD40">
         <v>1.92</v>
@@ -9223,22 +9223,22 @@
         <v>2.72</v>
       </c>
       <c r="AU41">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AV41">
         <v>0</v>
       </c>
       <c r="AW41">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AX41">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AY41">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AZ41">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BA41">
         <v>4</v>
@@ -9429,31 +9429,31 @@
         <v>0.79</v>
       </c>
       <c r="AU42">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AV42">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AW42">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AX42">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY42">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="AZ42">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BA42">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB42">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BC42">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BD42">
         <v>1.92</v>
@@ -9635,31 +9635,31 @@
         <v>4.39</v>
       </c>
       <c r="AU43">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AV43">
         <v>7</v>
       </c>
       <c r="AW43">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AX43">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AY43">
+        <v>16</v>
+      </c>
+      <c r="AZ43">
+        <v>17</v>
+      </c>
+      <c r="BA43">
+        <v>6</v>
+      </c>
+      <c r="BB43">
         <v>5</v>
       </c>
-      <c r="AZ43">
+      <c r="BC43">
         <v>11</v>
-      </c>
-      <c r="BA43">
-        <v>5</v>
-      </c>
-      <c r="BB43">
-        <v>3</v>
-      </c>
-      <c r="BC43">
-        <v>8</v>
       </c>
       <c r="BD43">
         <v>1.51</v>
@@ -9841,31 +9841,31 @@
         <v>2.76</v>
       </c>
       <c r="AU44">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AV44">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AW44">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AX44">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY44">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="AZ44">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BA44">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB44">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BC44">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BD44">
         <v>1.8</v>
@@ -10047,31 +10047,31 @@
         <v>2.65</v>
       </c>
       <c r="AU45">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AV45">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AW45">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AX45">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AY45">
+        <v>17</v>
+      </c>
+      <c r="AZ45">
+        <v>13</v>
+      </c>
+      <c r="BA45">
+        <v>6</v>
+      </c>
+      <c r="BB45">
         <v>4</v>
       </c>
-      <c r="AZ45">
-        <v>5</v>
-      </c>
-      <c r="BA45">
-        <v>2</v>
-      </c>
-      <c r="BB45">
-        <v>3</v>
-      </c>
       <c r="BC45">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BD45">
         <v>2.09</v>
@@ -10253,31 +10253,31 @@
         <v>4.64</v>
       </c>
       <c r="AU46">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AV46">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AW46">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AX46">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AY46">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="AZ46">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BA46">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BB46">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC46">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BD46">
         <v>1.7</v>
@@ -10459,31 +10459,31 @@
         <v>2.36</v>
       </c>
       <c r="AU47">
+        <v>7</v>
+      </c>
+      <c r="AV47">
+        <v>9</v>
+      </c>
+      <c r="AW47">
+        <v>7</v>
+      </c>
+      <c r="AX47">
+        <v>8</v>
+      </c>
+      <c r="AY47">
+        <v>14</v>
+      </c>
+      <c r="AZ47">
+        <v>17</v>
+      </c>
+      <c r="BA47">
         <v>4</v>
       </c>
-      <c r="AV47">
-        <v>4</v>
-      </c>
-      <c r="AW47">
-        <v>2</v>
-      </c>
-      <c r="AX47">
-        <v>2</v>
-      </c>
-      <c r="AY47">
-        <v>6</v>
-      </c>
-      <c r="AZ47">
-        <v>6</v>
-      </c>
-      <c r="BA47">
-        <v>1</v>
-      </c>
       <c r="BB47">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BC47">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BD47">
         <v>2.1</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="165">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -391,6 +391,24 @@
     <t>['25', '63', '71']</t>
   </si>
   <si>
+    <t>['82']</t>
+  </si>
+  <si>
+    <t>['7', '25', '31', '44', '77']</t>
+  </si>
+  <si>
+    <t>['21', '34', '90+5']</t>
+  </si>
+  <si>
+    <t>['47']</t>
+  </si>
+  <si>
+    <t>['73', '77', '81']</t>
+  </si>
+  <si>
+    <t>['10']</t>
+  </si>
+  <si>
     <t>['90+1']</t>
   </si>
   <si>
@@ -476,6 +494,21 @@
   </si>
   <si>
     <t>['48', '72', '79']</t>
+  </si>
+  <si>
+    <t>['75']</t>
+  </si>
+  <si>
+    <t>['53']</t>
+  </si>
+  <si>
+    <t>['29', '57']</t>
+  </si>
+  <si>
+    <t>['43', '49', '51']</t>
+  </si>
+  <si>
+    <t>['67', '71', '79']</t>
   </si>
 </sst>
 </file>
@@ -837,7 +870,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP47"/>
+  <dimension ref="A1:BP55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1096,7 +1129,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="Q2">
         <v>2.84</v>
@@ -1174,10 +1207,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ2">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1302,7 +1335,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="Q3">
         <v>2.2</v>
@@ -1380,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ3">
         <v>0.5</v>
@@ -1508,7 +1541,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -1714,7 +1747,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1792,10 +1825,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ5">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1920,7 +1953,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="Q6">
         <v>2.35</v>
@@ -1998,10 +2031,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ6">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2126,7 +2159,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="Q7">
         <v>2.66</v>
@@ -2207,7 +2240,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ7">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2332,7 +2365,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="Q8">
         <v>2.8</v>
@@ -2413,7 +2446,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ8">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2616,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ9">
         <v>1.33</v>
@@ -2744,7 +2777,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -2950,7 +2983,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3031,7 +3064,7 @@
         <v>1</v>
       </c>
       <c r="AQ11">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3156,7 +3189,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3234,10 +3267,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ12">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3774,7 +3807,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="Q15">
         <v>2.05</v>
@@ -3980,7 +4013,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -4058,7 +4091,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ16">
         <v>1.33</v>
@@ -4186,7 +4219,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="Q17">
         <v>2.15</v>
@@ -4267,7 +4300,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ17">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR17">
         <v>2.14</v>
@@ -4392,7 +4425,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="Q18">
         <v>2.15</v>
@@ -4470,10 +4503,10 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ18">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR18">
         <v>1.34</v>
@@ -4676,10 +4709,10 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ19">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR19">
         <v>1.35</v>
@@ -4804,7 +4837,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="Q20">
         <v>2.81</v>
@@ -4882,7 +4915,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ20">
         <v>0.5</v>
@@ -5091,7 +5124,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ21">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR21">
         <v>1.74</v>
@@ -5216,7 +5249,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="Q22">
         <v>2.76</v>
@@ -5294,7 +5327,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ22">
         <v>0.75</v>
@@ -5422,7 +5455,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="Q23">
         <v>2.85</v>
@@ -5503,7 +5536,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ23">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR23">
         <v>1.2</v>
@@ -5628,7 +5661,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="Q24">
         <v>2.05</v>
@@ -5706,7 +5739,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ24">
         <v>1.33</v>
@@ -5834,7 +5867,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6040,7 +6073,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="Q26">
         <v>2.6</v>
@@ -6121,7 +6154,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ26">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR26">
         <v>1.34</v>
@@ -6864,7 +6897,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="Q30">
         <v>2.25</v>
@@ -6942,7 +6975,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ30">
         <v>0.5</v>
@@ -7070,7 +7103,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7148,10 +7181,10 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ31">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR31">
         <v>0.83</v>
@@ -7276,7 +7309,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="Q32">
         <v>3.05</v>
@@ -7357,7 +7390,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ32">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR32">
         <v>1.74</v>
@@ -7482,7 +7515,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="Q33">
         <v>2.26</v>
@@ -7560,10 +7593,10 @@
         <v>0.5</v>
       </c>
       <c r="AP33">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ33">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR33">
         <v>1.33</v>
@@ -7688,7 +7721,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="Q34">
         <v>3.46</v>
@@ -7766,10 +7799,10 @@
         <v>2</v>
       </c>
       <c r="AP34">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ34">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR34">
         <v>1.41</v>
@@ -7972,10 +8005,10 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ35">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR35">
         <v>1.75</v>
@@ -8100,7 +8133,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="Q36">
         <v>2.72</v>
@@ -8178,10 +8211,10 @@
         <v>2</v>
       </c>
       <c r="AP36">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ36">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR36">
         <v>1.12</v>
@@ -8384,7 +8417,7 @@
         <v>1</v>
       </c>
       <c r="AP37">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ37">
         <v>0.75</v>
@@ -8512,7 +8545,7 @@
         <v>118</v>
       </c>
       <c r="P38" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="Q38">
         <v>4.55</v>
@@ -8593,7 +8626,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ38">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR38">
         <v>1.21</v>
@@ -8718,7 +8751,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="Q39">
         <v>2.78</v>
@@ -8796,7 +8829,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ39">
         <v>0.5</v>
@@ -9954,7 +9987,7 @@
         <v>123</v>
       </c>
       <c r="P45" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="Q45">
         <v>3.3</v>
@@ -10160,7 +10193,7 @@
         <v>94</v>
       </c>
       <c r="P46" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10366,7 +10399,7 @@
         <v>124</v>
       </c>
       <c r="P47" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="Q47">
         <v>3.11</v>
@@ -10523,6 +10556,1654 @@
       </c>
       <c r="BP47">
         <v>1.43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:68">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>7296319</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="2">
+        <v>45423.45833333334</v>
+      </c>
+      <c r="F48">
+        <v>7</v>
+      </c>
+      <c r="G48" t="s">
+        <v>74</v>
+      </c>
+      <c r="H48" t="s">
+        <v>78</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48" t="s">
+        <v>125</v>
+      </c>
+      <c r="P48" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q48">
+        <v>2.85</v>
+      </c>
+      <c r="R48">
+        <v>2.35</v>
+      </c>
+      <c r="S48">
+        <v>3.43</v>
+      </c>
+      <c r="T48">
+        <v>1.28</v>
+      </c>
+      <c r="U48">
+        <v>3.3</v>
+      </c>
+      <c r="V48">
+        <v>2.32</v>
+      </c>
+      <c r="W48">
+        <v>1.55</v>
+      </c>
+      <c r="X48">
+        <v>5.44</v>
+      </c>
+      <c r="Y48">
+        <v>1.11</v>
+      </c>
+      <c r="Z48">
+        <v>2.2</v>
+      </c>
+      <c r="AA48">
+        <v>3.45</v>
+      </c>
+      <c r="AB48">
+        <v>2.85</v>
+      </c>
+      <c r="AC48">
+        <v>1.02</v>
+      </c>
+      <c r="AD48">
+        <v>17</v>
+      </c>
+      <c r="AE48">
+        <v>1.18</v>
+      </c>
+      <c r="AF48">
+        <v>4.33</v>
+      </c>
+      <c r="AG48">
+        <v>1.55</v>
+      </c>
+      <c r="AH48">
+        <v>2.2</v>
+      </c>
+      <c r="AI48">
+        <v>1.52</v>
+      </c>
+      <c r="AJ48">
+        <v>2.46</v>
+      </c>
+      <c r="AK48">
+        <v>1.42</v>
+      </c>
+      <c r="AL48">
+        <v>1.26</v>
+      </c>
+      <c r="AM48">
+        <v>1.62</v>
+      </c>
+      <c r="AN48">
+        <v>1</v>
+      </c>
+      <c r="AO48">
+        <v>0.33</v>
+      </c>
+      <c r="AP48">
+        <v>1.5</v>
+      </c>
+      <c r="AQ48">
+        <v>0.25</v>
+      </c>
+      <c r="AR48">
+        <v>1.63</v>
+      </c>
+      <c r="AS48">
+        <v>1.41</v>
+      </c>
+      <c r="AT48">
+        <v>3.04</v>
+      </c>
+      <c r="AU48">
+        <v>5</v>
+      </c>
+      <c r="AV48">
+        <v>3</v>
+      </c>
+      <c r="AW48">
+        <v>13</v>
+      </c>
+      <c r="AX48">
+        <v>6</v>
+      </c>
+      <c r="AY48">
+        <v>18</v>
+      </c>
+      <c r="AZ48">
+        <v>9</v>
+      </c>
+      <c r="BA48">
+        <v>8</v>
+      </c>
+      <c r="BB48">
+        <v>0</v>
+      </c>
+      <c r="BC48">
+        <v>8</v>
+      </c>
+      <c r="BD48">
+        <v>1.99</v>
+      </c>
+      <c r="BE48">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF48">
+        <v>2.18</v>
+      </c>
+      <c r="BG48">
+        <v>1.18</v>
+      </c>
+      <c r="BH48">
+        <v>4.6</v>
+      </c>
+      <c r="BI48">
+        <v>1.34</v>
+      </c>
+      <c r="BJ48">
+        <v>3.1</v>
+      </c>
+      <c r="BK48">
+        <v>1.6</v>
+      </c>
+      <c r="BL48">
+        <v>2.23</v>
+      </c>
+      <c r="BM48">
+        <v>2</v>
+      </c>
+      <c r="BN48">
+        <v>1.72</v>
+      </c>
+      <c r="BO48">
+        <v>2.65</v>
+      </c>
+      <c r="BP48">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:68">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>7296321</v>
+      </c>
+      <c r="C49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="2">
+        <v>45423.45833333334</v>
+      </c>
+      <c r="F49">
+        <v>7</v>
+      </c>
+      <c r="G49" t="s">
+        <v>83</v>
+      </c>
+      <c r="H49" t="s">
+        <v>76</v>
+      </c>
+      <c r="I49">
+        <v>4</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>4</v>
+      </c>
+      <c r="L49">
+        <v>5</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>6</v>
+      </c>
+      <c r="O49" t="s">
+        <v>126</v>
+      </c>
+      <c r="P49" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q49">
+        <v>2.05</v>
+      </c>
+      <c r="R49">
+        <v>2.45</v>
+      </c>
+      <c r="S49">
+        <v>4.7</v>
+      </c>
+      <c r="T49">
+        <v>1.27</v>
+      </c>
+      <c r="U49">
+        <v>3.6</v>
+      </c>
+      <c r="V49">
+        <v>2.2</v>
+      </c>
+      <c r="W49">
+        <v>1.6</v>
+      </c>
+      <c r="X49">
+        <v>4.7</v>
+      </c>
+      <c r="Y49">
+        <v>1.16</v>
+      </c>
+      <c r="Z49">
+        <v>1.53</v>
+      </c>
+      <c r="AA49">
+        <v>4.4</v>
+      </c>
+      <c r="AB49">
+        <v>4.7</v>
+      </c>
+      <c r="AC49">
+        <v>1.02</v>
+      </c>
+      <c r="AD49">
+        <v>21</v>
+      </c>
+      <c r="AE49">
+        <v>1.16</v>
+      </c>
+      <c r="AF49">
+        <v>5.2</v>
+      </c>
+      <c r="AG49">
+        <v>1.44</v>
+      </c>
+      <c r="AH49">
+        <v>2.45</v>
+      </c>
+      <c r="AI49">
+        <v>1.6</v>
+      </c>
+      <c r="AJ49">
+        <v>2.3</v>
+      </c>
+      <c r="AK49">
+        <v>1.19</v>
+      </c>
+      <c r="AL49">
+        <v>1.22</v>
+      </c>
+      <c r="AM49">
+        <v>2.3</v>
+      </c>
+      <c r="AN49">
+        <v>3</v>
+      </c>
+      <c r="AO49">
+        <v>0.5</v>
+      </c>
+      <c r="AP49">
+        <v>3</v>
+      </c>
+      <c r="AQ49">
+        <v>0.33</v>
+      </c>
+      <c r="AR49">
+        <v>1.86</v>
+      </c>
+      <c r="AS49">
+        <v>0.83</v>
+      </c>
+      <c r="AT49">
+        <v>2.69</v>
+      </c>
+      <c r="AU49">
+        <v>4</v>
+      </c>
+      <c r="AV49">
+        <v>0</v>
+      </c>
+      <c r="AW49">
+        <v>1</v>
+      </c>
+      <c r="AX49">
+        <v>0</v>
+      </c>
+      <c r="AY49">
+        <v>5</v>
+      </c>
+      <c r="AZ49">
+        <v>0</v>
+      </c>
+      <c r="BA49">
+        <v>1</v>
+      </c>
+      <c r="BB49">
+        <v>2</v>
+      </c>
+      <c r="BC49">
+        <v>3</v>
+      </c>
+      <c r="BD49">
+        <v>1.33</v>
+      </c>
+      <c r="BE49">
+        <v>10.1</v>
+      </c>
+      <c r="BF49">
+        <v>4.16</v>
+      </c>
+      <c r="BG49">
+        <v>0</v>
+      </c>
+      <c r="BH49">
+        <v>0</v>
+      </c>
+      <c r="BI49">
+        <v>1.24</v>
+      </c>
+      <c r="BJ49">
+        <v>3.68</v>
+      </c>
+      <c r="BK49">
+        <v>1.42</v>
+      </c>
+      <c r="BL49">
+        <v>2.57</v>
+      </c>
+      <c r="BM49">
+        <v>1.82</v>
+      </c>
+      <c r="BN49">
+        <v>1.98</v>
+      </c>
+      <c r="BO49">
+        <v>2.18</v>
+      </c>
+      <c r="BP49">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:68">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>7296314</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="2">
+        <v>45423.45833333334</v>
+      </c>
+      <c r="F50">
+        <v>7</v>
+      </c>
+      <c r="G50" t="s">
+        <v>84</v>
+      </c>
+      <c r="H50" t="s">
+        <v>82</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>2</v>
+      </c>
+      <c r="L50">
+        <v>3</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <v>4</v>
+      </c>
+      <c r="O50" t="s">
+        <v>127</v>
+      </c>
+      <c r="P50" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q50">
+        <v>3.03</v>
+      </c>
+      <c r="R50">
+        <v>2.3</v>
+      </c>
+      <c r="S50">
+        <v>3.33</v>
+      </c>
+      <c r="T50">
+        <v>1.36</v>
+      </c>
+      <c r="U50">
+        <v>3</v>
+      </c>
+      <c r="V50">
+        <v>2.63</v>
+      </c>
+      <c r="W50">
+        <v>1.44</v>
+      </c>
+      <c r="X50">
+        <v>7</v>
+      </c>
+      <c r="Y50">
+        <v>1.1</v>
+      </c>
+      <c r="Z50">
+        <v>2.22</v>
+      </c>
+      <c r="AA50">
+        <v>3.45</v>
+      </c>
+      <c r="AB50">
+        <v>2.82</v>
+      </c>
+      <c r="AC50">
+        <v>1.04</v>
+      </c>
+      <c r="AD50">
+        <v>13</v>
+      </c>
+      <c r="AE50">
+        <v>1.25</v>
+      </c>
+      <c r="AF50">
+        <v>3.6</v>
+      </c>
+      <c r="AG50">
+        <v>1.72</v>
+      </c>
+      <c r="AH50">
+        <v>1.92</v>
+      </c>
+      <c r="AI50">
+        <v>1.62</v>
+      </c>
+      <c r="AJ50">
+        <v>2.2</v>
+      </c>
+      <c r="AK50">
+        <v>1.44</v>
+      </c>
+      <c r="AL50">
+        <v>1.33</v>
+      </c>
+      <c r="AM50">
+        <v>1.53</v>
+      </c>
+      <c r="AN50">
+        <v>1</v>
+      </c>
+      <c r="AO50">
+        <v>1.67</v>
+      </c>
+      <c r="AP50">
+        <v>1.5</v>
+      </c>
+      <c r="AQ50">
+        <v>1.25</v>
+      </c>
+      <c r="AR50">
+        <v>1.33</v>
+      </c>
+      <c r="AS50">
+        <v>1.39</v>
+      </c>
+      <c r="AT50">
+        <v>2.72</v>
+      </c>
+      <c r="AU50">
+        <v>7</v>
+      </c>
+      <c r="AV50">
+        <v>5</v>
+      </c>
+      <c r="AW50">
+        <v>6</v>
+      </c>
+      <c r="AX50">
+        <v>12</v>
+      </c>
+      <c r="AY50">
+        <v>13</v>
+      </c>
+      <c r="AZ50">
+        <v>17</v>
+      </c>
+      <c r="BA50">
+        <v>2</v>
+      </c>
+      <c r="BB50">
+        <v>4</v>
+      </c>
+      <c r="BC50">
+        <v>6</v>
+      </c>
+      <c r="BD50">
+        <v>1.77</v>
+      </c>
+      <c r="BE50">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="BF50">
+        <v>2.55</v>
+      </c>
+      <c r="BG50">
+        <v>1.2</v>
+      </c>
+      <c r="BH50">
+        <v>4.3</v>
+      </c>
+      <c r="BI50">
+        <v>1.37</v>
+      </c>
+      <c r="BJ50">
+        <v>2.95</v>
+      </c>
+      <c r="BK50">
+        <v>1.66</v>
+      </c>
+      <c r="BL50">
+        <v>2.14</v>
+      </c>
+      <c r="BM50">
+        <v>2.1</v>
+      </c>
+      <c r="BN50">
+        <v>1.68</v>
+      </c>
+      <c r="BO50">
+        <v>2.8</v>
+      </c>
+      <c r="BP50">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:68">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>7296315</v>
+      </c>
+      <c r="C51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="2">
+        <v>45423.45833333334</v>
+      </c>
+      <c r="F51">
+        <v>7</v>
+      </c>
+      <c r="G51" t="s">
+        <v>73</v>
+      </c>
+      <c r="H51" t="s">
+        <v>72</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>2</v>
+      </c>
+      <c r="N51">
+        <v>2</v>
+      </c>
+      <c r="O51" t="s">
+        <v>103</v>
+      </c>
+      <c r="P51" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q51">
+        <v>3.89</v>
+      </c>
+      <c r="R51">
+        <v>2.37</v>
+      </c>
+      <c r="S51">
+        <v>2.57</v>
+      </c>
+      <c r="T51">
+        <v>1.33</v>
+      </c>
+      <c r="U51">
+        <v>3.25</v>
+      </c>
+      <c r="V51">
+        <v>2.5</v>
+      </c>
+      <c r="W51">
+        <v>1.5</v>
+      </c>
+      <c r="X51">
+        <v>6.5</v>
+      </c>
+      <c r="Y51">
+        <v>1.11</v>
+      </c>
+      <c r="Z51">
+        <v>3.45</v>
+      </c>
+      <c r="AA51">
+        <v>3.55</v>
+      </c>
+      <c r="AB51">
+        <v>1.91</v>
+      </c>
+      <c r="AC51">
+        <v>1.01</v>
+      </c>
+      <c r="AD51">
+        <v>11</v>
+      </c>
+      <c r="AE51">
+        <v>1.2</v>
+      </c>
+      <c r="AF51">
+        <v>4</v>
+      </c>
+      <c r="AG51">
+        <v>1.64</v>
+      </c>
+      <c r="AH51">
+        <v>2.04</v>
+      </c>
+      <c r="AI51">
+        <v>1.62</v>
+      </c>
+      <c r="AJ51">
+        <v>2.2</v>
+      </c>
+      <c r="AK51">
+        <v>1.78</v>
+      </c>
+      <c r="AL51">
+        <v>1.25</v>
+      </c>
+      <c r="AM51">
+        <v>1.35</v>
+      </c>
+      <c r="AN51">
+        <v>0.33</v>
+      </c>
+      <c r="AO51">
+        <v>1.33</v>
+      </c>
+      <c r="AP51">
+        <v>0.25</v>
+      </c>
+      <c r="AQ51">
+        <v>1.75</v>
+      </c>
+      <c r="AR51">
+        <v>1.3</v>
+      </c>
+      <c r="AS51">
+        <v>1.58</v>
+      </c>
+      <c r="AT51">
+        <v>2.88</v>
+      </c>
+      <c r="AU51">
+        <v>3</v>
+      </c>
+      <c r="AV51">
+        <v>9</v>
+      </c>
+      <c r="AW51">
+        <v>3</v>
+      </c>
+      <c r="AX51">
+        <v>2</v>
+      </c>
+      <c r="AY51">
+        <v>6</v>
+      </c>
+      <c r="AZ51">
+        <v>11</v>
+      </c>
+      <c r="BA51">
+        <v>2</v>
+      </c>
+      <c r="BB51">
+        <v>7</v>
+      </c>
+      <c r="BC51">
+        <v>9</v>
+      </c>
+      <c r="BD51">
+        <v>2.72</v>
+      </c>
+      <c r="BE51">
+        <v>8.65</v>
+      </c>
+      <c r="BF51">
+        <v>1.67</v>
+      </c>
+      <c r="BG51">
+        <v>1.16</v>
+      </c>
+      <c r="BH51">
+        <v>4.59</v>
+      </c>
+      <c r="BI51">
+        <v>1.27</v>
+      </c>
+      <c r="BJ51">
+        <v>3.28</v>
+      </c>
+      <c r="BK51">
+        <v>1.46</v>
+      </c>
+      <c r="BL51">
+        <v>2.52</v>
+      </c>
+      <c r="BM51">
+        <v>1.88</v>
+      </c>
+      <c r="BN51">
+        <v>1.92</v>
+      </c>
+      <c r="BO51">
+        <v>2.34</v>
+      </c>
+      <c r="BP51">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:68">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>7296316</v>
+      </c>
+      <c r="C52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="2">
+        <v>45423.45833333334</v>
+      </c>
+      <c r="F52">
+        <v>7</v>
+      </c>
+      <c r="G52" t="s">
+        <v>70</v>
+      </c>
+      <c r="H52" t="s">
+        <v>75</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52" t="s">
+        <v>97</v>
+      </c>
+      <c r="P52" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q52">
+        <v>2.25</v>
+      </c>
+      <c r="R52">
+        <v>2.25</v>
+      </c>
+      <c r="S52">
+        <v>4.5</v>
+      </c>
+      <c r="T52">
+        <v>1.35</v>
+      </c>
+      <c r="U52">
+        <v>3.1</v>
+      </c>
+      <c r="V52">
+        <v>2.5</v>
+      </c>
+      <c r="W52">
+        <v>1.45</v>
+      </c>
+      <c r="X52">
+        <v>5.75</v>
+      </c>
+      <c r="Y52">
+        <v>1.11</v>
+      </c>
+      <c r="Z52">
+        <v>1.51</v>
+      </c>
+      <c r="AA52">
+        <v>4.1</v>
+      </c>
+      <c r="AB52">
+        <v>5.3</v>
+      </c>
+      <c r="AC52">
+        <v>1.04</v>
+      </c>
+      <c r="AD52">
+        <v>14.75</v>
+      </c>
+      <c r="AE52">
+        <v>1.24</v>
+      </c>
+      <c r="AF52">
+        <v>4.1</v>
+      </c>
+      <c r="AG52">
+        <v>1.63</v>
+      </c>
+      <c r="AH52">
+        <v>2.05</v>
+      </c>
+      <c r="AI52">
+        <v>1.72</v>
+      </c>
+      <c r="AJ52">
+        <v>2.05</v>
+      </c>
+      <c r="AK52">
+        <v>1.23</v>
+      </c>
+      <c r="AL52">
+        <v>1.25</v>
+      </c>
+      <c r="AM52">
+        <v>2.05</v>
+      </c>
+      <c r="AN52">
+        <v>2</v>
+      </c>
+      <c r="AO52">
+        <v>0</v>
+      </c>
+      <c r="AP52">
+        <v>2.25</v>
+      </c>
+      <c r="AQ52">
+        <v>0</v>
+      </c>
+      <c r="AR52">
+        <v>1.78</v>
+      </c>
+      <c r="AS52">
+        <v>1.11</v>
+      </c>
+      <c r="AT52">
+        <v>2.89</v>
+      </c>
+      <c r="AU52">
+        <v>7</v>
+      </c>
+      <c r="AV52">
+        <v>5</v>
+      </c>
+      <c r="AW52">
+        <v>8</v>
+      </c>
+      <c r="AX52">
+        <v>7</v>
+      </c>
+      <c r="AY52">
+        <v>15</v>
+      </c>
+      <c r="AZ52">
+        <v>12</v>
+      </c>
+      <c r="BA52">
+        <v>5</v>
+      </c>
+      <c r="BB52">
+        <v>15</v>
+      </c>
+      <c r="BC52">
+        <v>20</v>
+      </c>
+      <c r="BD52">
+        <v>1.67</v>
+      </c>
+      <c r="BE52">
+        <v>8.65</v>
+      </c>
+      <c r="BF52">
+        <v>2.72</v>
+      </c>
+      <c r="BG52">
+        <v>1.15</v>
+      </c>
+      <c r="BH52">
+        <v>4.7</v>
+      </c>
+      <c r="BI52">
+        <v>1.3</v>
+      </c>
+      <c r="BJ52">
+        <v>3.21</v>
+      </c>
+      <c r="BK52">
+        <v>1.55</v>
+      </c>
+      <c r="BL52">
+        <v>2.41</v>
+      </c>
+      <c r="BM52">
+        <v>1.9</v>
+      </c>
+      <c r="BN52">
+        <v>1.9</v>
+      </c>
+      <c r="BO52">
+        <v>2.39</v>
+      </c>
+      <c r="BP52">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:68">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>7296317</v>
+      </c>
+      <c r="C53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="2">
+        <v>45423.45833333334</v>
+      </c>
+      <c r="F53">
+        <v>7</v>
+      </c>
+      <c r="G53" t="s">
+        <v>71</v>
+      </c>
+      <c r="H53" t="s">
+        <v>79</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <v>2</v>
+      </c>
+      <c r="O53" t="s">
+        <v>128</v>
+      </c>
+      <c r="P53" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q53">
+        <v>2.1</v>
+      </c>
+      <c r="R53">
+        <v>2.35</v>
+      </c>
+      <c r="S53">
+        <v>4.8</v>
+      </c>
+      <c r="T53">
+        <v>1.3</v>
+      </c>
+      <c r="U53">
+        <v>3.3</v>
+      </c>
+      <c r="V53">
+        <v>2.4</v>
+      </c>
+      <c r="W53">
+        <v>1.52</v>
+      </c>
+      <c r="X53">
+        <v>5.25</v>
+      </c>
+      <c r="Y53">
+        <v>1.13</v>
+      </c>
+      <c r="Z53">
+        <v>1.58</v>
+      </c>
+      <c r="AA53">
+        <v>4</v>
+      </c>
+      <c r="AB53">
+        <v>4.8</v>
+      </c>
+      <c r="AC53">
+        <v>1.03</v>
+      </c>
+      <c r="AD53">
+        <v>16.75</v>
+      </c>
+      <c r="AE53">
+        <v>1.21</v>
+      </c>
+      <c r="AF53">
+        <v>4.5</v>
+      </c>
+      <c r="AG53">
+        <v>1.6</v>
+      </c>
+      <c r="AH53">
+        <v>2.1</v>
+      </c>
+      <c r="AI53">
+        <v>1.7</v>
+      </c>
+      <c r="AJ53">
+        <v>2.15</v>
+      </c>
+      <c r="AK53">
+        <v>1.2</v>
+      </c>
+      <c r="AL53">
+        <v>1.24</v>
+      </c>
+      <c r="AM53">
+        <v>2.2</v>
+      </c>
+      <c r="AN53">
+        <v>2.33</v>
+      </c>
+      <c r="AO53">
+        <v>1.33</v>
+      </c>
+      <c r="AP53">
+        <v>2</v>
+      </c>
+      <c r="AQ53">
+        <v>1.25</v>
+      </c>
+      <c r="AR53">
+        <v>1.8</v>
+      </c>
+      <c r="AS53">
+        <v>2.18</v>
+      </c>
+      <c r="AT53">
+        <v>3.98</v>
+      </c>
+      <c r="AU53">
+        <v>10</v>
+      </c>
+      <c r="AV53">
+        <v>6</v>
+      </c>
+      <c r="AW53">
+        <v>7</v>
+      </c>
+      <c r="AX53">
+        <v>6</v>
+      </c>
+      <c r="AY53">
+        <v>17</v>
+      </c>
+      <c r="AZ53">
+        <v>12</v>
+      </c>
+      <c r="BA53">
+        <v>14</v>
+      </c>
+      <c r="BB53">
+        <v>6</v>
+      </c>
+      <c r="BC53">
+        <v>20</v>
+      </c>
+      <c r="BD53">
+        <v>1.52</v>
+      </c>
+      <c r="BE53">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="BF53">
+        <v>3.08</v>
+      </c>
+      <c r="BG53">
+        <v>0</v>
+      </c>
+      <c r="BH53">
+        <v>0</v>
+      </c>
+      <c r="BI53">
+        <v>1.24</v>
+      </c>
+      <c r="BJ53">
+        <v>3.61</v>
+      </c>
+      <c r="BK53">
+        <v>1.42</v>
+      </c>
+      <c r="BL53">
+        <v>2.57</v>
+      </c>
+      <c r="BM53">
+        <v>1.85</v>
+      </c>
+      <c r="BN53">
+        <v>1.95</v>
+      </c>
+      <c r="BO53">
+        <v>2.02</v>
+      </c>
+      <c r="BP53">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:68">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>7296318</v>
+      </c>
+      <c r="C54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="2">
+        <v>45423.45833333334</v>
+      </c>
+      <c r="F54">
+        <v>7</v>
+      </c>
+      <c r="G54" t="s">
+        <v>77</v>
+      </c>
+      <c r="H54" t="s">
+        <v>81</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>3</v>
+      </c>
+      <c r="M54">
+        <v>3</v>
+      </c>
+      <c r="N54">
+        <v>6</v>
+      </c>
+      <c r="O54" t="s">
+        <v>129</v>
+      </c>
+      <c r="P54" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q54">
+        <v>3.4</v>
+      </c>
+      <c r="R54">
+        <v>2.3</v>
+      </c>
+      <c r="S54">
+        <v>2.88</v>
+      </c>
+      <c r="T54">
+        <v>1.33</v>
+      </c>
+      <c r="U54">
+        <v>3.25</v>
+      </c>
+      <c r="V54">
+        <v>2.5</v>
+      </c>
+      <c r="W54">
+        <v>1.5</v>
+      </c>
+      <c r="X54">
+        <v>6.5</v>
+      </c>
+      <c r="Y54">
+        <v>1.11</v>
+      </c>
+      <c r="Z54">
+        <v>3.25</v>
+      </c>
+      <c r="AA54">
+        <v>3.45</v>
+      </c>
+      <c r="AB54">
+        <v>2.03</v>
+      </c>
+      <c r="AC54">
+        <v>1.01</v>
+      </c>
+      <c r="AD54">
+        <v>11</v>
+      </c>
+      <c r="AE54">
+        <v>1.2</v>
+      </c>
+      <c r="AF54">
+        <v>4</v>
+      </c>
+      <c r="AG54">
+        <v>1.61</v>
+      </c>
+      <c r="AH54">
+        <v>2.09</v>
+      </c>
+      <c r="AI54">
+        <v>1.57</v>
+      </c>
+      <c r="AJ54">
+        <v>2.25</v>
+      </c>
+      <c r="AK54">
+        <v>1.65</v>
+      </c>
+      <c r="AL54">
+        <v>1.29</v>
+      </c>
+      <c r="AM54">
+        <v>1.4</v>
+      </c>
+      <c r="AN54">
+        <v>2</v>
+      </c>
+      <c r="AO54">
+        <v>1.67</v>
+      </c>
+      <c r="AP54">
+        <v>1.75</v>
+      </c>
+      <c r="AQ54">
+        <v>1.5</v>
+      </c>
+      <c r="AR54">
+        <v>1.25</v>
+      </c>
+      <c r="AS54">
+        <v>1.7</v>
+      </c>
+      <c r="AT54">
+        <v>2.95</v>
+      </c>
+      <c r="AU54">
+        <v>8</v>
+      </c>
+      <c r="AV54">
+        <v>6</v>
+      </c>
+      <c r="AW54">
+        <v>5</v>
+      </c>
+      <c r="AX54">
+        <v>1</v>
+      </c>
+      <c r="AY54">
+        <v>13</v>
+      </c>
+      <c r="AZ54">
+        <v>7</v>
+      </c>
+      <c r="BA54">
+        <v>6</v>
+      </c>
+      <c r="BB54">
+        <v>3</v>
+      </c>
+      <c r="BC54">
+        <v>9</v>
+      </c>
+      <c r="BD54">
+        <v>2.35</v>
+      </c>
+      <c r="BE54">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF54">
+        <v>1.87</v>
+      </c>
+      <c r="BG54">
+        <v>1.19</v>
+      </c>
+      <c r="BH54">
+        <v>4.5</v>
+      </c>
+      <c r="BI54">
+        <v>1.35</v>
+      </c>
+      <c r="BJ54">
+        <v>3.05</v>
+      </c>
+      <c r="BK54">
+        <v>1.63</v>
+      </c>
+      <c r="BL54">
+        <v>2.2</v>
+      </c>
+      <c r="BM54">
+        <v>2.05</v>
+      </c>
+      <c r="BN54">
+        <v>1.72</v>
+      </c>
+      <c r="BO54">
+        <v>2.75</v>
+      </c>
+      <c r="BP54">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:68">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>7296320</v>
+      </c>
+      <c r="C55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="2">
+        <v>45423.45833333334</v>
+      </c>
+      <c r="F55">
+        <v>7</v>
+      </c>
+      <c r="G55" t="s">
+        <v>80</v>
+      </c>
+      <c r="H55" t="s">
+        <v>85</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>3</v>
+      </c>
+      <c r="N55">
+        <v>4</v>
+      </c>
+      <c r="O55" t="s">
+        <v>130</v>
+      </c>
+      <c r="P55" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q55">
+        <v>2.61</v>
+      </c>
+      <c r="R55">
+        <v>2.5</v>
+      </c>
+      <c r="S55">
+        <v>3.55</v>
+      </c>
+      <c r="T55">
+        <v>1.29</v>
+      </c>
+      <c r="U55">
+        <v>3.5</v>
+      </c>
+      <c r="V55">
+        <v>2.26</v>
+      </c>
+      <c r="W55">
+        <v>1.62</v>
+      </c>
+      <c r="X55">
+        <v>5.5</v>
+      </c>
+      <c r="Y55">
+        <v>1.14</v>
+      </c>
+      <c r="Z55">
+        <v>2.03</v>
+      </c>
+      <c r="AA55">
+        <v>3.65</v>
+      </c>
+      <c r="AB55">
+        <v>3</v>
+      </c>
+      <c r="AC55">
+        <v>1.02</v>
+      </c>
+      <c r="AD55">
+        <v>19.5</v>
+      </c>
+      <c r="AE55">
+        <v>1.15</v>
+      </c>
+      <c r="AF55">
+        <v>4.75</v>
+      </c>
+      <c r="AG55">
+        <v>1.49</v>
+      </c>
+      <c r="AH55">
+        <v>2.34</v>
+      </c>
+      <c r="AI55">
+        <v>1.5</v>
+      </c>
+      <c r="AJ55">
+        <v>2.5</v>
+      </c>
+      <c r="AK55">
+        <v>1.35</v>
+      </c>
+      <c r="AL55">
+        <v>1.29</v>
+      </c>
+      <c r="AM55">
+        <v>1.73</v>
+      </c>
+      <c r="AN55">
+        <v>2</v>
+      </c>
+      <c r="AO55">
+        <v>2.33</v>
+      </c>
+      <c r="AP55">
+        <v>1.33</v>
+      </c>
+      <c r="AQ55">
+        <v>2.5</v>
+      </c>
+      <c r="AR55">
+        <v>1.26</v>
+      </c>
+      <c r="AS55">
+        <v>1.37</v>
+      </c>
+      <c r="AT55">
+        <v>2.63</v>
+      </c>
+      <c r="AU55">
+        <v>8</v>
+      </c>
+      <c r="AV55">
+        <v>8</v>
+      </c>
+      <c r="AW55">
+        <v>9</v>
+      </c>
+      <c r="AX55">
+        <v>9</v>
+      </c>
+      <c r="AY55">
+        <v>17</v>
+      </c>
+      <c r="AZ55">
+        <v>17</v>
+      </c>
+      <c r="BA55">
+        <v>9</v>
+      </c>
+      <c r="BB55">
+        <v>7</v>
+      </c>
+      <c r="BC55">
+        <v>16</v>
+      </c>
+      <c r="BD55">
+        <v>1.78</v>
+      </c>
+      <c r="BE55">
+        <v>8.65</v>
+      </c>
+      <c r="BF55">
+        <v>2.48</v>
+      </c>
+      <c r="BG55">
+        <v>1.19</v>
+      </c>
+      <c r="BH55">
+        <v>4.5</v>
+      </c>
+      <c r="BI55">
+        <v>1.35</v>
+      </c>
+      <c r="BJ55">
+        <v>3.05</v>
+      </c>
+      <c r="BK55">
+        <v>1.63</v>
+      </c>
+      <c r="BL55">
+        <v>2.2</v>
+      </c>
+      <c r="BM55">
+        <v>2.05</v>
+      </c>
+      <c r="BN55">
+        <v>1.72</v>
+      </c>
+      <c r="BO55">
+        <v>2.75</v>
+      </c>
+      <c r="BP55">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="177">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -409,6 +409,21 @@
     <t>['10']</t>
   </si>
   <si>
+    <t>['8', '9']</t>
+  </si>
+  <si>
+    <t>['55', '85']</t>
+  </si>
+  <si>
+    <t>['7', '68']</t>
+  </si>
+  <si>
+    <t>['10', '42', '70', '74']</t>
+  </si>
+  <si>
+    <t>['12', '38']</t>
+  </si>
+  <si>
     <t>['90+1']</t>
   </si>
   <si>
@@ -509,6 +524,27 @@
   </si>
   <si>
     <t>['67', '71', '79']</t>
+  </si>
+  <si>
+    <t>['19', '90+5']</t>
+  </si>
+  <si>
+    <t>['65']</t>
+  </si>
+  <si>
+    <t>['19', '45+4', '48']</t>
+  </si>
+  <si>
+    <t>['32', '75']</t>
+  </si>
+  <si>
+    <t>['33', '37']</t>
+  </si>
+  <si>
+    <t>['45', '84']</t>
+  </si>
+  <si>
+    <t>['11', '56']</t>
   </si>
 </sst>
 </file>
@@ -870,7 +906,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP55"/>
+  <dimension ref="A1:BP63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1129,7 +1165,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="Q2">
         <v>2.84</v>
@@ -1335,7 +1371,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="Q3">
         <v>2.2</v>
@@ -1416,7 +1452,7 @@
         <v>2</v>
       </c>
       <c r="AQ3">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1541,7 +1577,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -1619,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ4">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1747,7 +1783,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1825,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ5">
         <v>1.5</v>
@@ -1953,7 +1989,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="Q6">
         <v>2.35</v>
@@ -2159,7 +2195,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="Q7">
         <v>2.66</v>
@@ -2237,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ7">
         <v>1.25</v>
@@ -2365,7 +2401,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="Q8">
         <v>2.8</v>
@@ -2443,10 +2479,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ8">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2652,7 +2688,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ9">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2777,7 +2813,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -2855,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ10">
         <v>1.33</v>
@@ -2983,7 +3019,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3061,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ11">
         <v>1.75</v>
@@ -3189,7 +3225,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3473,10 +3509,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AQ13">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3679,10 +3715,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ14">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3807,7 +3843,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="Q15">
         <v>2.05</v>
@@ -4013,7 +4049,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -4094,7 +4130,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ16">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4219,7 +4255,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="Q17">
         <v>2.15</v>
@@ -4297,7 +4333,7 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ17">
         <v>1.5</v>
@@ -4425,7 +4461,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="Q18">
         <v>2.15</v>
@@ -4506,7 +4542,7 @@
         <v>2</v>
       </c>
       <c r="AQ18">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AR18">
         <v>1.34</v>
@@ -4837,7 +4873,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="Q20">
         <v>2.81</v>
@@ -4918,7 +4954,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ20">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR20">
         <v>1.13</v>
@@ -5121,7 +5157,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ21">
         <v>1.25</v>
@@ -5249,7 +5285,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="Q22">
         <v>2.76</v>
@@ -5330,7 +5366,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ22">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR22">
         <v>1.02</v>
@@ -5455,7 +5491,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="Q23">
         <v>2.85</v>
@@ -5533,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ23">
         <v>0.25</v>
@@ -5661,7 +5697,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="Q24">
         <v>2.05</v>
@@ -5739,10 +5775,10 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ24">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR24">
         <v>1.52</v>
@@ -5867,7 +5903,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -5945,10 +5981,10 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ25">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR25">
         <v>1.67</v>
@@ -6073,7 +6109,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="Q26">
         <v>2.6</v>
@@ -6151,7 +6187,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ26">
         <v>0.33</v>
@@ -6357,10 +6393,10 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ27">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR27">
         <v>0.98</v>
@@ -6566,7 +6602,7 @@
         <v>3</v>
       </c>
       <c r="AQ28">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR28">
         <v>1.76</v>
@@ -6897,7 +6933,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q30">
         <v>2.25</v>
@@ -6978,7 +7014,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ30">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR30">
         <v>1.26</v>
@@ -7103,7 +7139,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7309,7 +7345,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="Q32">
         <v>3.05</v>
@@ -7387,7 +7423,7 @@
         <v>2</v>
       </c>
       <c r="AP32">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ32">
         <v>1.25</v>
@@ -7515,7 +7551,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="Q33">
         <v>2.26</v>
@@ -7593,7 +7629,7 @@
         <v>0.5</v>
       </c>
       <c r="AP33">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ33">
         <v>1.25</v>
@@ -7721,7 +7757,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="Q34">
         <v>3.46</v>
@@ -8133,7 +8169,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="Q36">
         <v>2.72</v>
@@ -8214,7 +8250,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ36">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AR36">
         <v>1.12</v>
@@ -8420,7 +8456,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ37">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR37">
         <v>1.53</v>
@@ -8545,7 +8581,7 @@
         <v>118</v>
       </c>
       <c r="P38" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="Q38">
         <v>4.55</v>
@@ -8623,7 +8659,7 @@
         <v>2</v>
       </c>
       <c r="AP38">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ38">
         <v>1.75</v>
@@ -8751,7 +8787,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="Q39">
         <v>2.78</v>
@@ -8832,7 +8868,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ39">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR39">
         <v>1.22</v>
@@ -9035,10 +9071,10 @@
         <v>0.67</v>
       </c>
       <c r="AP40">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ40">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR40">
         <v>1.55</v>
@@ -9241,10 +9277,10 @@
         <v>2</v>
       </c>
       <c r="AP41">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AQ41">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR41">
         <v>1.14</v>
@@ -9447,10 +9483,10 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ42">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR42">
         <v>0.79</v>
@@ -9653,10 +9689,10 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ43">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR43">
         <v>2.44</v>
@@ -9859,10 +9895,10 @@
         <v>0.33</v>
       </c>
       <c r="AP44">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ44">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR44">
         <v>1.34</v>
@@ -9987,7 +10023,7 @@
         <v>123</v>
       </c>
       <c r="P45" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="Q45">
         <v>3.3</v>
@@ -10065,7 +10101,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ45">
         <v>1.33</v>
@@ -10193,7 +10229,7 @@
         <v>94</v>
       </c>
       <c r="P46" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10274,7 +10310,7 @@
         <v>2</v>
       </c>
       <c r="AQ46">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR46">
         <v>2.74</v>
@@ -10399,7 +10435,7 @@
         <v>124</v>
       </c>
       <c r="P47" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q47">
         <v>3.11</v>
@@ -10477,10 +10513,10 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ47">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR47">
         <v>1.39</v>
@@ -10811,7 +10847,7 @@
         <v>126</v>
       </c>
       <c r="P49" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Q49">
         <v>2.05</v>
@@ -11017,7 +11053,7 @@
         <v>127</v>
       </c>
       <c r="P50" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Q50">
         <v>3.03</v>
@@ -11223,7 +11259,7 @@
         <v>103</v>
       </c>
       <c r="P51" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q51">
         <v>3.89</v>
@@ -11301,7 +11337,7 @@
         <v>1.33</v>
       </c>
       <c r="AP51">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ51">
         <v>1.75</v>
@@ -11841,7 +11877,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q54">
         <v>3.4</v>
@@ -12047,7 +12083,7 @@
         <v>130</v>
       </c>
       <c r="P55" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="Q55">
         <v>2.61</v>
@@ -12128,7 +12164,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ55">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AR55">
         <v>1.26</v>
@@ -12204,6 +12240,1654 @@
       </c>
       <c r="BP55">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:68">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>7296322</v>
+      </c>
+      <c r="C56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="2">
+        <v>45428.5</v>
+      </c>
+      <c r="F56">
+        <v>8</v>
+      </c>
+      <c r="G56" t="s">
+        <v>75</v>
+      </c>
+      <c r="H56" t="s">
+        <v>74</v>
+      </c>
+      <c r="I56">
+        <v>2</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>3</v>
+      </c>
+      <c r="L56">
+        <v>2</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>3</v>
+      </c>
+      <c r="O56" t="s">
+        <v>131</v>
+      </c>
+      <c r="P56" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q56">
+        <v>2.7</v>
+      </c>
+      <c r="R56">
+        <v>2.25</v>
+      </c>
+      <c r="S56">
+        <v>3.2</v>
+      </c>
+      <c r="T56">
+        <v>1.3</v>
+      </c>
+      <c r="U56">
+        <v>3.1</v>
+      </c>
+      <c r="V56">
+        <v>2.25</v>
+      </c>
+      <c r="W56">
+        <v>1.55</v>
+      </c>
+      <c r="X56">
+        <v>4.9</v>
+      </c>
+      <c r="Y56">
+        <v>1.13</v>
+      </c>
+      <c r="Z56">
+        <v>2.21</v>
+      </c>
+      <c r="AA56">
+        <v>3.63</v>
+      </c>
+      <c r="AB56">
+        <v>2.84</v>
+      </c>
+      <c r="AC56">
+        <v>1.03</v>
+      </c>
+      <c r="AD56">
+        <v>9</v>
+      </c>
+      <c r="AE56">
+        <v>1.16</v>
+      </c>
+      <c r="AF56">
+        <v>4.4</v>
+      </c>
+      <c r="AG56">
+        <v>1.57</v>
+      </c>
+      <c r="AH56">
+        <v>2.25</v>
+      </c>
+      <c r="AI56">
+        <v>1.47</v>
+      </c>
+      <c r="AJ56">
+        <v>2.45</v>
+      </c>
+      <c r="AK56">
+        <v>1.33</v>
+      </c>
+      <c r="AL56">
+        <v>1.22</v>
+      </c>
+      <c r="AM56">
+        <v>1.57</v>
+      </c>
+      <c r="AN56">
+        <v>1.5</v>
+      </c>
+      <c r="AO56">
+        <v>0.5</v>
+      </c>
+      <c r="AP56">
+        <v>1.8</v>
+      </c>
+      <c r="AQ56">
+        <v>0.33</v>
+      </c>
+      <c r="AR56">
+        <v>1.56</v>
+      </c>
+      <c r="AS56">
+        <v>1.74</v>
+      </c>
+      <c r="AT56">
+        <v>3.3</v>
+      </c>
+      <c r="AU56">
+        <v>10</v>
+      </c>
+      <c r="AV56">
+        <v>4</v>
+      </c>
+      <c r="AW56">
+        <v>4</v>
+      </c>
+      <c r="AX56">
+        <v>3</v>
+      </c>
+      <c r="AY56">
+        <v>14</v>
+      </c>
+      <c r="AZ56">
+        <v>7</v>
+      </c>
+      <c r="BA56">
+        <v>1</v>
+      </c>
+      <c r="BB56">
+        <v>7</v>
+      </c>
+      <c r="BC56">
+        <v>8</v>
+      </c>
+      <c r="BD56">
+        <v>1.67</v>
+      </c>
+      <c r="BE56">
+        <v>9.1</v>
+      </c>
+      <c r="BF56">
+        <v>2.52</v>
+      </c>
+      <c r="BG56">
+        <v>1.22</v>
+      </c>
+      <c r="BH56">
+        <v>3.78</v>
+      </c>
+      <c r="BI56">
+        <v>1.4</v>
+      </c>
+      <c r="BJ56">
+        <v>2.64</v>
+      </c>
+      <c r="BK56">
+        <v>1.77</v>
+      </c>
+      <c r="BL56">
+        <v>2.02</v>
+      </c>
+      <c r="BM56">
+        <v>2.22</v>
+      </c>
+      <c r="BN56">
+        <v>1.64</v>
+      </c>
+      <c r="BO56">
+        <v>2.47</v>
+      </c>
+      <c r="BP56">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:68">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>7296328</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="2">
+        <v>45428.54166666666</v>
+      </c>
+      <c r="F57">
+        <v>8</v>
+      </c>
+      <c r="G57" t="s">
+        <v>81</v>
+      </c>
+      <c r="H57" t="s">
+        <v>84</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>2</v>
+      </c>
+      <c r="M57">
+        <v>2</v>
+      </c>
+      <c r="N57">
+        <v>4</v>
+      </c>
+      <c r="O57" t="s">
+        <v>132</v>
+      </c>
+      <c r="P57" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q57">
+        <v>2.39</v>
+      </c>
+      <c r="R57">
+        <v>2.33</v>
+      </c>
+      <c r="S57">
+        <v>3.9</v>
+      </c>
+      <c r="T57">
+        <v>1.28</v>
+      </c>
+      <c r="U57">
+        <v>3.44</v>
+      </c>
+      <c r="V57">
+        <v>2.34</v>
+      </c>
+      <c r="W57">
+        <v>1.56</v>
+      </c>
+      <c r="X57">
+        <v>5.35</v>
+      </c>
+      <c r="Y57">
+        <v>1.13</v>
+      </c>
+      <c r="Z57">
+        <v>1.89</v>
+      </c>
+      <c r="AA57">
+        <v>3.94</v>
+      </c>
+      <c r="AB57">
+        <v>3.35</v>
+      </c>
+      <c r="AC57">
+        <v>1.03</v>
+      </c>
+      <c r="AD57">
+        <v>12</v>
+      </c>
+      <c r="AE57">
+        <v>1.15</v>
+      </c>
+      <c r="AF57">
+        <v>4.45</v>
+      </c>
+      <c r="AG57">
+        <v>1.6</v>
+      </c>
+      <c r="AH57">
+        <v>2.3</v>
+      </c>
+      <c r="AI57">
+        <v>1.53</v>
+      </c>
+      <c r="AJ57">
+        <v>2.34</v>
+      </c>
+      <c r="AK57">
+        <v>1.28</v>
+      </c>
+      <c r="AL57">
+        <v>1.25</v>
+      </c>
+      <c r="AM57">
+        <v>1.83</v>
+      </c>
+      <c r="AN57">
+        <v>3</v>
+      </c>
+      <c r="AO57">
+        <v>1.33</v>
+      </c>
+      <c r="AP57">
+        <v>2.33</v>
+      </c>
+      <c r="AQ57">
+        <v>1.25</v>
+      </c>
+      <c r="AR57">
+        <v>1.79</v>
+      </c>
+      <c r="AS57">
+        <v>1.94</v>
+      </c>
+      <c r="AT57">
+        <v>3.73</v>
+      </c>
+      <c r="AU57">
+        <v>10</v>
+      </c>
+      <c r="AV57">
+        <v>9</v>
+      </c>
+      <c r="AW57">
+        <v>5</v>
+      </c>
+      <c r="AX57">
+        <v>5</v>
+      </c>
+      <c r="AY57">
+        <v>15</v>
+      </c>
+      <c r="AZ57">
+        <v>14</v>
+      </c>
+      <c r="BA57">
+        <v>7</v>
+      </c>
+      <c r="BB57">
+        <v>7</v>
+      </c>
+      <c r="BC57">
+        <v>14</v>
+      </c>
+      <c r="BD57">
+        <v>1.64</v>
+      </c>
+      <c r="BE57">
+        <v>8.6</v>
+      </c>
+      <c r="BF57">
+        <v>2.64</v>
+      </c>
+      <c r="BG57">
+        <v>1.18</v>
+      </c>
+      <c r="BH57">
+        <v>4.5</v>
+      </c>
+      <c r="BI57">
+        <v>1.34</v>
+      </c>
+      <c r="BJ57">
+        <v>3.1</v>
+      </c>
+      <c r="BK57">
+        <v>1.61</v>
+      </c>
+      <c r="BL57">
+        <v>2.23</v>
+      </c>
+      <c r="BM57">
+        <v>2.02</v>
+      </c>
+      <c r="BN57">
+        <v>1.74</v>
+      </c>
+      <c r="BO57">
+        <v>2.7</v>
+      </c>
+      <c r="BP57">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:68">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>7296327</v>
+      </c>
+      <c r="C58" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="2">
+        <v>45428.54166666666</v>
+      </c>
+      <c r="F58">
+        <v>8</v>
+      </c>
+      <c r="G58" t="s">
+        <v>76</v>
+      </c>
+      <c r="H58" t="s">
+        <v>70</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>2</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>3</v>
+      </c>
+      <c r="O58" t="s">
+        <v>133</v>
+      </c>
+      <c r="P58" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q58">
+        <v>3.6</v>
+      </c>
+      <c r="R58">
+        <v>2.3</v>
+      </c>
+      <c r="S58">
+        <v>2.4</v>
+      </c>
+      <c r="T58">
+        <v>1.27</v>
+      </c>
+      <c r="U58">
+        <v>3.3</v>
+      </c>
+      <c r="V58">
+        <v>2.2</v>
+      </c>
+      <c r="W58">
+        <v>1.55</v>
+      </c>
+      <c r="X58">
+        <v>4.5</v>
+      </c>
+      <c r="Y58">
+        <v>1.14</v>
+      </c>
+      <c r="Z58">
+        <v>3.21</v>
+      </c>
+      <c r="AA58">
+        <v>3.75</v>
+      </c>
+      <c r="AB58">
+        <v>1.99</v>
+      </c>
+      <c r="AC58">
+        <v>1.02</v>
+      </c>
+      <c r="AD58">
+        <v>10</v>
+      </c>
+      <c r="AE58">
+        <v>1.13</v>
+      </c>
+      <c r="AF58">
+        <v>4.9</v>
+      </c>
+      <c r="AG58">
+        <v>1.55</v>
+      </c>
+      <c r="AH58">
+        <v>2.3</v>
+      </c>
+      <c r="AI58">
+        <v>1.45</v>
+      </c>
+      <c r="AJ58">
+        <v>2.45</v>
+      </c>
+      <c r="AK58">
+        <v>1.62</v>
+      </c>
+      <c r="AL58">
+        <v>1.22</v>
+      </c>
+      <c r="AM58">
+        <v>1.3</v>
+      </c>
+      <c r="AN58">
+        <v>1.25</v>
+      </c>
+      <c r="AO58">
+        <v>1</v>
+      </c>
+      <c r="AP58">
+        <v>1.6</v>
+      </c>
+      <c r="AQ58">
+        <v>0.75</v>
+      </c>
+      <c r="AR58">
+        <v>1.46</v>
+      </c>
+      <c r="AS58">
+        <v>1.92</v>
+      </c>
+      <c r="AT58">
+        <v>3.38</v>
+      </c>
+      <c r="AU58">
+        <v>5</v>
+      </c>
+      <c r="AV58">
+        <v>12</v>
+      </c>
+      <c r="AW58">
+        <v>6</v>
+      </c>
+      <c r="AX58">
+        <v>23</v>
+      </c>
+      <c r="AY58">
+        <v>11</v>
+      </c>
+      <c r="AZ58">
+        <v>35</v>
+      </c>
+      <c r="BA58">
+        <v>5</v>
+      </c>
+      <c r="BB58">
+        <v>14</v>
+      </c>
+      <c r="BC58">
+        <v>19</v>
+      </c>
+      <c r="BD58">
+        <v>2.62</v>
+      </c>
+      <c r="BE58">
+        <v>9.5</v>
+      </c>
+      <c r="BF58">
+        <v>1.62</v>
+      </c>
+      <c r="BG58">
+        <v>1.16</v>
+      </c>
+      <c r="BH58">
+        <v>4.48</v>
+      </c>
+      <c r="BI58">
+        <v>1.27</v>
+      </c>
+      <c r="BJ58">
+        <v>3.38</v>
+      </c>
+      <c r="BK58">
+        <v>1.5</v>
+      </c>
+      <c r="BL58">
+        <v>2.49</v>
+      </c>
+      <c r="BM58">
+        <v>1.82</v>
+      </c>
+      <c r="BN58">
+        <v>1.98</v>
+      </c>
+      <c r="BO58">
+        <v>2.23</v>
+      </c>
+      <c r="BP58">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:68">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>7296329</v>
+      </c>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="2">
+        <v>45428.54166666666</v>
+      </c>
+      <c r="F59">
+        <v>8</v>
+      </c>
+      <c r="G59" t="s">
+        <v>78</v>
+      </c>
+      <c r="H59" t="s">
+        <v>85</v>
+      </c>
+      <c r="I59">
+        <v>2</v>
+      </c>
+      <c r="J59">
+        <v>2</v>
+      </c>
+      <c r="K59">
+        <v>4</v>
+      </c>
+      <c r="L59">
+        <v>4</v>
+      </c>
+      <c r="M59">
+        <v>3</v>
+      </c>
+      <c r="N59">
+        <v>7</v>
+      </c>
+      <c r="O59" t="s">
+        <v>134</v>
+      </c>
+      <c r="P59" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q59">
+        <v>2.84</v>
+      </c>
+      <c r="R59">
+        <v>2.36</v>
+      </c>
+      <c r="S59">
+        <v>3.04</v>
+      </c>
+      <c r="T59">
+        <v>1.26</v>
+      </c>
+      <c r="U59">
+        <v>3.62</v>
+      </c>
+      <c r="V59">
+        <v>2.22</v>
+      </c>
+      <c r="W59">
+        <v>1.62</v>
+      </c>
+      <c r="X59">
+        <v>4.95</v>
+      </c>
+      <c r="Y59">
+        <v>1.15</v>
+      </c>
+      <c r="Z59">
+        <v>2.22</v>
+      </c>
+      <c r="AA59">
+        <v>3.72</v>
+      </c>
+      <c r="AB59">
+        <v>2.77</v>
+      </c>
+      <c r="AC59">
+        <v>1.02</v>
+      </c>
+      <c r="AD59">
+        <v>19.5</v>
+      </c>
+      <c r="AE59">
+        <v>1.13</v>
+      </c>
+      <c r="AF59">
+        <v>4.85</v>
+      </c>
+      <c r="AG59">
+        <v>1.5</v>
+      </c>
+      <c r="AH59">
+        <v>2.4</v>
+      </c>
+      <c r="AI59">
+        <v>1.45</v>
+      </c>
+      <c r="AJ59">
+        <v>2.55</v>
+      </c>
+      <c r="AK59">
+        <v>1.48</v>
+      </c>
+      <c r="AL59">
+        <v>1.25</v>
+      </c>
+      <c r="AM59">
+        <v>1.53</v>
+      </c>
+      <c r="AN59">
+        <v>0.67</v>
+      </c>
+      <c r="AO59">
+        <v>2.5</v>
+      </c>
+      <c r="AP59">
+        <v>1.25</v>
+      </c>
+      <c r="AQ59">
+        <v>2</v>
+      </c>
+      <c r="AR59">
+        <v>1.75</v>
+      </c>
+      <c r="AS59">
+        <v>1.5</v>
+      </c>
+      <c r="AT59">
+        <v>3.25</v>
+      </c>
+      <c r="AU59">
+        <v>13</v>
+      </c>
+      <c r="AV59">
+        <v>7</v>
+      </c>
+      <c r="AW59">
+        <v>9</v>
+      </c>
+      <c r="AX59">
+        <v>14</v>
+      </c>
+      <c r="AY59">
+        <v>22</v>
+      </c>
+      <c r="AZ59">
+        <v>21</v>
+      </c>
+      <c r="BA59">
+        <v>5</v>
+      </c>
+      <c r="BB59">
+        <v>6</v>
+      </c>
+      <c r="BC59">
+        <v>11</v>
+      </c>
+      <c r="BD59">
+        <v>2.02</v>
+      </c>
+      <c r="BE59">
+        <v>7.1</v>
+      </c>
+      <c r="BF59">
+        <v>2.13</v>
+      </c>
+      <c r="BG59">
+        <v>1.29</v>
+      </c>
+      <c r="BH59">
+        <v>3.4</v>
+      </c>
+      <c r="BI59">
+        <v>1.53</v>
+      </c>
+      <c r="BJ59">
+        <v>2.4</v>
+      </c>
+      <c r="BK59">
+        <v>1.98</v>
+      </c>
+      <c r="BL59">
+        <v>1.82</v>
+      </c>
+      <c r="BM59">
+        <v>2.55</v>
+      </c>
+      <c r="BN59">
+        <v>1.48</v>
+      </c>
+      <c r="BO59">
+        <v>3.5</v>
+      </c>
+      <c r="BP59">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:68">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>7296326</v>
+      </c>
+      <c r="C60" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="2">
+        <v>45428.54166666666</v>
+      </c>
+      <c r="F60">
+        <v>8</v>
+      </c>
+      <c r="G60" t="s">
+        <v>72</v>
+      </c>
+      <c r="H60" t="s">
+        <v>71</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>2</v>
+      </c>
+      <c r="N60">
+        <v>2</v>
+      </c>
+      <c r="O60" t="s">
+        <v>103</v>
+      </c>
+      <c r="P60" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q60">
+        <v>2.32</v>
+      </c>
+      <c r="R60">
+        <v>2.32</v>
+      </c>
+      <c r="S60">
+        <v>4.3</v>
+      </c>
+      <c r="T60">
+        <v>1.3</v>
+      </c>
+      <c r="U60">
+        <v>3.34</v>
+      </c>
+      <c r="V60">
+        <v>2.4</v>
+      </c>
+      <c r="W60">
+        <v>1.53</v>
+      </c>
+      <c r="X60">
+        <v>5.55</v>
+      </c>
+      <c r="Y60">
+        <v>1.12</v>
+      </c>
+      <c r="Z60">
+        <v>1.8</v>
+      </c>
+      <c r="AA60">
+        <v>3.82</v>
+      </c>
+      <c r="AB60">
+        <v>3.77</v>
+      </c>
+      <c r="AC60">
+        <v>1.01</v>
+      </c>
+      <c r="AD60">
+        <v>11</v>
+      </c>
+      <c r="AE60">
+        <v>1.17</v>
+      </c>
+      <c r="AF60">
+        <v>4.25</v>
+      </c>
+      <c r="AG60">
+        <v>1.6</v>
+      </c>
+      <c r="AH60">
+        <v>2.2</v>
+      </c>
+      <c r="AI60">
+        <v>1.58</v>
+      </c>
+      <c r="AJ60">
+        <v>2.23</v>
+      </c>
+      <c r="AK60">
+        <v>1.24</v>
+      </c>
+      <c r="AL60">
+        <v>1.24</v>
+      </c>
+      <c r="AM60">
+        <v>1.94</v>
+      </c>
+      <c r="AN60">
+        <v>1.33</v>
+      </c>
+      <c r="AO60">
+        <v>1.33</v>
+      </c>
+      <c r="AP60">
+        <v>1</v>
+      </c>
+      <c r="AQ60">
+        <v>1.75</v>
+      </c>
+      <c r="AR60">
+        <v>2.26</v>
+      </c>
+      <c r="AS60">
+        <v>1.3</v>
+      </c>
+      <c r="AT60">
+        <v>3.56</v>
+      </c>
+      <c r="AU60">
+        <v>2</v>
+      </c>
+      <c r="AV60">
+        <v>6</v>
+      </c>
+      <c r="AW60">
+        <v>10</v>
+      </c>
+      <c r="AX60">
+        <v>3</v>
+      </c>
+      <c r="AY60">
+        <v>12</v>
+      </c>
+      <c r="AZ60">
+        <v>9</v>
+      </c>
+      <c r="BA60">
+        <v>9</v>
+      </c>
+      <c r="BB60">
+        <v>9</v>
+      </c>
+      <c r="BC60">
+        <v>18</v>
+      </c>
+      <c r="BD60">
+        <v>1.56</v>
+      </c>
+      <c r="BE60">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF60">
+        <v>2.86</v>
+      </c>
+      <c r="BG60">
+        <v>1.21</v>
+      </c>
+      <c r="BH60">
+        <v>3.9</v>
+      </c>
+      <c r="BI60">
+        <v>1.33</v>
+      </c>
+      <c r="BJ60">
+        <v>3.04</v>
+      </c>
+      <c r="BK60">
+        <v>1.57</v>
+      </c>
+      <c r="BL60">
+        <v>2.25</v>
+      </c>
+      <c r="BM60">
+        <v>2.03</v>
+      </c>
+      <c r="BN60">
+        <v>1.7</v>
+      </c>
+      <c r="BO60">
+        <v>2.62</v>
+      </c>
+      <c r="BP60">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:68">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>7296323</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45428.54166666666</v>
+      </c>
+      <c r="F61">
+        <v>8</v>
+      </c>
+      <c r="G61" t="s">
+        <v>73</v>
+      </c>
+      <c r="H61" t="s">
+        <v>83</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>2</v>
+      </c>
+      <c r="K61">
+        <v>2</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>2</v>
+      </c>
+      <c r="N61">
+        <v>2</v>
+      </c>
+      <c r="O61" t="s">
+        <v>103</v>
+      </c>
+      <c r="P61" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q61">
+        <v>2.57</v>
+      </c>
+      <c r="R61">
+        <v>2.27</v>
+      </c>
+      <c r="S61">
+        <v>3.64</v>
+      </c>
+      <c r="T61">
+        <v>1.31</v>
+      </c>
+      <c r="U61">
+        <v>3.28</v>
+      </c>
+      <c r="V61">
+        <v>2.43</v>
+      </c>
+      <c r="W61">
+        <v>1.52</v>
+      </c>
+      <c r="X61">
+        <v>5.7</v>
+      </c>
+      <c r="Y61">
+        <v>1.12</v>
+      </c>
+      <c r="Z61">
+        <v>2.14</v>
+      </c>
+      <c r="AA61">
+        <v>3.58</v>
+      </c>
+      <c r="AB61">
+        <v>2.99</v>
+      </c>
+      <c r="AC61">
+        <v>1.01</v>
+      </c>
+      <c r="AD61">
+        <v>11</v>
+      </c>
+      <c r="AE61">
+        <v>1.18</v>
+      </c>
+      <c r="AF61">
+        <v>4.15</v>
+      </c>
+      <c r="AG61">
+        <v>1.65</v>
+      </c>
+      <c r="AH61">
+        <v>2.15</v>
+      </c>
+      <c r="AI61">
+        <v>1.55</v>
+      </c>
+      <c r="AJ61">
+        <v>2.29</v>
+      </c>
+      <c r="AK61">
+        <v>1.33</v>
+      </c>
+      <c r="AL61">
+        <v>1.26</v>
+      </c>
+      <c r="AM61">
+        <v>1.71</v>
+      </c>
+      <c r="AN61">
+        <v>0.25</v>
+      </c>
+      <c r="AO61">
+        <v>0.75</v>
+      </c>
+      <c r="AP61">
+        <v>0.2</v>
+      </c>
+      <c r="AQ61">
+        <v>1.2</v>
+      </c>
+      <c r="AR61">
+        <v>1.2</v>
+      </c>
+      <c r="AS61">
+        <v>0.96</v>
+      </c>
+      <c r="AT61">
+        <v>2.16</v>
+      </c>
+      <c r="AU61">
+        <v>2</v>
+      </c>
+      <c r="AV61">
+        <v>3</v>
+      </c>
+      <c r="AW61">
+        <v>8</v>
+      </c>
+      <c r="AX61">
+        <v>2</v>
+      </c>
+      <c r="AY61">
+        <v>10</v>
+      </c>
+      <c r="AZ61">
+        <v>5</v>
+      </c>
+      <c r="BA61">
+        <v>6</v>
+      </c>
+      <c r="BB61">
+        <v>5</v>
+      </c>
+      <c r="BC61">
+        <v>11</v>
+      </c>
+      <c r="BD61">
+        <v>1.68</v>
+      </c>
+      <c r="BE61">
+        <v>8.75</v>
+      </c>
+      <c r="BF61">
+        <v>2.68</v>
+      </c>
+      <c r="BG61">
+        <v>1.14</v>
+      </c>
+      <c r="BH61">
+        <v>4.9</v>
+      </c>
+      <c r="BI61">
+        <v>1.28</v>
+      </c>
+      <c r="BJ61">
+        <v>3.31</v>
+      </c>
+      <c r="BK61">
+        <v>1.49</v>
+      </c>
+      <c r="BL61">
+        <v>2.44</v>
+      </c>
+      <c r="BM61">
+        <v>1.85</v>
+      </c>
+      <c r="BN61">
+        <v>1.95</v>
+      </c>
+      <c r="BO61">
+        <v>2.23</v>
+      </c>
+      <c r="BP61">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:68">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>7296324</v>
+      </c>
+      <c r="C62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45428.54166666666</v>
+      </c>
+      <c r="F62">
+        <v>8</v>
+      </c>
+      <c r="G62" t="s">
+        <v>82</v>
+      </c>
+      <c r="H62" t="s">
+        <v>80</v>
+      </c>
+      <c r="I62">
+        <v>2</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>3</v>
+      </c>
+      <c r="L62">
+        <v>2</v>
+      </c>
+      <c r="M62">
+        <v>2</v>
+      </c>
+      <c r="N62">
+        <v>4</v>
+      </c>
+      <c r="O62" t="s">
+        <v>135</v>
+      </c>
+      <c r="P62" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q62">
+        <v>2.3</v>
+      </c>
+      <c r="R62">
+        <v>2.34</v>
+      </c>
+      <c r="S62">
+        <v>4.1</v>
+      </c>
+      <c r="T62">
+        <v>1.28</v>
+      </c>
+      <c r="U62">
+        <v>3.44</v>
+      </c>
+      <c r="V62">
+        <v>2.34</v>
+      </c>
+      <c r="W62">
+        <v>1.56</v>
+      </c>
+      <c r="X62">
+        <v>5.35</v>
+      </c>
+      <c r="Y62">
+        <v>1.13</v>
+      </c>
+      <c r="Z62">
+        <v>1.78</v>
+      </c>
+      <c r="AA62">
+        <v>3.86</v>
+      </c>
+      <c r="AB62">
+        <v>3.83</v>
+      </c>
+      <c r="AC62">
+        <v>1.03</v>
+      </c>
+      <c r="AD62">
+        <v>12</v>
+      </c>
+      <c r="AE62">
+        <v>1.15</v>
+      </c>
+      <c r="AF62">
+        <v>4.45</v>
+      </c>
+      <c r="AG62">
+        <v>1.6</v>
+      </c>
+      <c r="AH62">
+        <v>2.2</v>
+      </c>
+      <c r="AI62">
+        <v>1.55</v>
+      </c>
+      <c r="AJ62">
+        <v>2.29</v>
+      </c>
+      <c r="AK62">
+        <v>1.23</v>
+      </c>
+      <c r="AL62">
+        <v>1.23</v>
+      </c>
+      <c r="AM62">
+        <v>1.97</v>
+      </c>
+      <c r="AN62">
+        <v>1.33</v>
+      </c>
+      <c r="AO62">
+        <v>0.5</v>
+      </c>
+      <c r="AP62">
+        <v>1.25</v>
+      </c>
+      <c r="AQ62">
+        <v>0.6</v>
+      </c>
+      <c r="AR62">
+        <v>1.49</v>
+      </c>
+      <c r="AS62">
+        <v>1.45</v>
+      </c>
+      <c r="AT62">
+        <v>2.94</v>
+      </c>
+      <c r="AU62">
+        <v>4</v>
+      </c>
+      <c r="AV62">
+        <v>6</v>
+      </c>
+      <c r="AW62">
+        <v>5</v>
+      </c>
+      <c r="AX62">
+        <v>8</v>
+      </c>
+      <c r="AY62">
+        <v>9</v>
+      </c>
+      <c r="AZ62">
+        <v>14</v>
+      </c>
+      <c r="BA62">
+        <v>2</v>
+      </c>
+      <c r="BB62">
+        <v>1</v>
+      </c>
+      <c r="BC62">
+        <v>3</v>
+      </c>
+      <c r="BD62">
+        <v>1.7</v>
+      </c>
+      <c r="BE62">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF62">
+        <v>2.53</v>
+      </c>
+      <c r="BG62">
+        <v>1.25</v>
+      </c>
+      <c r="BH62">
+        <v>3.7</v>
+      </c>
+      <c r="BI62">
+        <v>1.47</v>
+      </c>
+      <c r="BJ62">
+        <v>2.55</v>
+      </c>
+      <c r="BK62">
+        <v>1.8</v>
+      </c>
+      <c r="BL62">
+        <v>2</v>
+      </c>
+      <c r="BM62">
+        <v>2.38</v>
+      </c>
+      <c r="BN62">
+        <v>1.54</v>
+      </c>
+      <c r="BO62">
+        <v>3.25</v>
+      </c>
+      <c r="BP62">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:68">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>7296325</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45428.54166666666</v>
+      </c>
+      <c r="F63">
+        <v>8</v>
+      </c>
+      <c r="G63" t="s">
+        <v>79</v>
+      </c>
+      <c r="H63" t="s">
+        <v>77</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>2</v>
+      </c>
+      <c r="N63">
+        <v>2</v>
+      </c>
+      <c r="O63" t="s">
+        <v>103</v>
+      </c>
+      <c r="P63" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q63">
+        <v>2.75</v>
+      </c>
+      <c r="R63">
+        <v>2.2</v>
+      </c>
+      <c r="S63">
+        <v>3.2</v>
+      </c>
+      <c r="T63">
+        <v>1.33</v>
+      </c>
+      <c r="U63">
+        <v>2.95</v>
+      </c>
+      <c r="V63">
+        <v>2.55</v>
+      </c>
+      <c r="W63">
+        <v>1.42</v>
+      </c>
+      <c r="X63">
+        <v>5.7</v>
+      </c>
+      <c r="Y63">
+        <v>1.09</v>
+      </c>
+      <c r="Z63">
+        <v>2.13</v>
+      </c>
+      <c r="AA63">
+        <v>3.47</v>
+      </c>
+      <c r="AB63">
+        <v>3.1</v>
+      </c>
+      <c r="AC63">
+        <v>1.03</v>
+      </c>
+      <c r="AD63">
+        <v>8.5</v>
+      </c>
+      <c r="AE63">
+        <v>1.22</v>
+      </c>
+      <c r="AF63">
+        <v>3.7</v>
+      </c>
+      <c r="AG63">
+        <v>1.8</v>
+      </c>
+      <c r="AH63">
+        <v>1.95</v>
+      </c>
+      <c r="AI63">
+        <v>1.6</v>
+      </c>
+      <c r="AJ63">
+        <v>2.15</v>
+      </c>
+      <c r="AK63">
+        <v>1.37</v>
+      </c>
+      <c r="AL63">
+        <v>1.2</v>
+      </c>
+      <c r="AM63">
+        <v>1.55</v>
+      </c>
+      <c r="AN63">
+        <v>1</v>
+      </c>
+      <c r="AO63">
+        <v>0.33</v>
+      </c>
+      <c r="AP63">
+        <v>0.75</v>
+      </c>
+      <c r="AQ63">
+        <v>1</v>
+      </c>
+      <c r="AR63">
+        <v>1.1</v>
+      </c>
+      <c r="AS63">
+        <v>1.32</v>
+      </c>
+      <c r="AT63">
+        <v>2.42</v>
+      </c>
+      <c r="AU63">
+        <v>4</v>
+      </c>
+      <c r="AV63">
+        <v>7</v>
+      </c>
+      <c r="AW63">
+        <v>3</v>
+      </c>
+      <c r="AX63">
+        <v>5</v>
+      </c>
+      <c r="AY63">
+        <v>7</v>
+      </c>
+      <c r="AZ63">
+        <v>12</v>
+      </c>
+      <c r="BA63">
+        <v>7</v>
+      </c>
+      <c r="BB63">
+        <v>7</v>
+      </c>
+      <c r="BC63">
+        <v>14</v>
+      </c>
+      <c r="BD63">
+        <v>1.69</v>
+      </c>
+      <c r="BE63">
+        <v>9.6</v>
+      </c>
+      <c r="BF63">
+        <v>2.44</v>
+      </c>
+      <c r="BG63">
+        <v>0</v>
+      </c>
+      <c r="BH63">
+        <v>0</v>
+      </c>
+      <c r="BI63">
+        <v>1.23</v>
+      </c>
+      <c r="BJ63">
+        <v>3.69</v>
+      </c>
+      <c r="BK63">
+        <v>1.41</v>
+      </c>
+      <c r="BL63">
+        <v>2.6</v>
+      </c>
+      <c r="BM63">
+        <v>1.72</v>
+      </c>
+      <c r="BN63">
+        <v>2.1</v>
+      </c>
+      <c r="BO63">
+        <v>2.13</v>
+      </c>
+      <c r="BP63">
+        <v>1.7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="179">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -424,6 +424,9 @@
     <t>['12', '38']</t>
   </si>
   <si>
+    <t>['39', '54']</t>
+  </si>
+  <si>
     <t>['90+1']</t>
   </si>
   <si>
@@ -545,6 +548,9 @@
   </si>
   <si>
     <t>['11', '56']</t>
+  </si>
+  <si>
+    <t>['70']</t>
   </si>
 </sst>
 </file>
@@ -906,7 +912,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP63"/>
+  <dimension ref="A1:BP64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1165,7 +1171,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q2">
         <v>2.84</v>
@@ -1246,7 +1252,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ2">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1371,7 +1377,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q3">
         <v>2.2</v>
@@ -1577,7 +1583,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -1783,7 +1789,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1989,7 +1995,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q6">
         <v>2.35</v>
@@ -2195,7 +2201,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q7">
         <v>2.66</v>
@@ -2401,7 +2407,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q8">
         <v>2.8</v>
@@ -2685,7 +2691,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ9">
         <v>1.25</v>
@@ -2813,7 +2819,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3019,7 +3025,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3225,7 +3231,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3843,7 +3849,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q15">
         <v>2.05</v>
@@ -4049,7 +4055,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -4255,7 +4261,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q17">
         <v>2.15</v>
@@ -4461,7 +4467,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q18">
         <v>2.15</v>
@@ -4873,7 +4879,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q20">
         <v>2.81</v>
@@ -4951,7 +4957,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ20">
         <v>0.6</v>
@@ -5285,7 +5291,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q22">
         <v>2.76</v>
@@ -5491,7 +5497,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q23">
         <v>2.85</v>
@@ -5572,7 +5578,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ23">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR23">
         <v>1.2</v>
@@ -5697,7 +5703,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q24">
         <v>2.05</v>
@@ -5903,7 +5909,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6109,7 +6115,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q26">
         <v>2.6</v>
@@ -6933,7 +6939,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q30">
         <v>2.25</v>
@@ -7139,7 +7145,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7345,7 +7351,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q32">
         <v>3.05</v>
@@ -7551,7 +7557,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q33">
         <v>2.26</v>
@@ -7757,7 +7763,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q34">
         <v>3.46</v>
@@ -8044,7 +8050,7 @@
         <v>2</v>
       </c>
       <c r="AQ35">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR35">
         <v>1.75</v>
@@ -8169,7 +8175,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q36">
         <v>2.72</v>
@@ -8247,7 +8253,7 @@
         <v>2</v>
       </c>
       <c r="AP36">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ36">
         <v>2</v>
@@ -8581,7 +8587,7 @@
         <v>118</v>
       </c>
       <c r="P38" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q38">
         <v>4.55</v>
@@ -8787,7 +8793,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q39">
         <v>2.78</v>
@@ -10023,7 +10029,7 @@
         <v>123</v>
       </c>
       <c r="P45" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q45">
         <v>3.3</v>
@@ -10229,7 +10235,7 @@
         <v>94</v>
       </c>
       <c r="P46" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10435,7 +10441,7 @@
         <v>124</v>
       </c>
       <c r="P47" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q47">
         <v>3.11</v>
@@ -10722,7 +10728,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ48">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR48">
         <v>1.63</v>
@@ -10847,7 +10853,7 @@
         <v>126</v>
       </c>
       <c r="P49" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q49">
         <v>2.05</v>
@@ -11053,7 +11059,7 @@
         <v>127</v>
       </c>
       <c r="P50" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q50">
         <v>3.03</v>
@@ -11259,7 +11265,7 @@
         <v>103</v>
       </c>
       <c r="P51" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q51">
         <v>3.89</v>
@@ -11877,7 +11883,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q54">
         <v>3.4</v>
@@ -11955,7 +11961,7 @@
         <v>1.67</v>
       </c>
       <c r="AP54">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ54">
         <v>1.5</v>
@@ -12083,7 +12089,7 @@
         <v>130</v>
       </c>
       <c r="P55" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q55">
         <v>2.61</v>
@@ -12495,7 +12501,7 @@
         <v>132</v>
       </c>
       <c r="P57" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q57">
         <v>2.39</v>
@@ -12701,7 +12707,7 @@
         <v>133</v>
       </c>
       <c r="P58" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q58">
         <v>3.6</v>
@@ -12907,7 +12913,7 @@
         <v>134</v>
       </c>
       <c r="P59" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q59">
         <v>2.84</v>
@@ -13113,7 +13119,7 @@
         <v>103</v>
       </c>
       <c r="P60" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q60">
         <v>2.32</v>
@@ -13319,7 +13325,7 @@
         <v>103</v>
       </c>
       <c r="P61" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q61">
         <v>2.57</v>
@@ -13525,7 +13531,7 @@
         <v>135</v>
       </c>
       <c r="P62" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q62">
         <v>2.3</v>
@@ -13731,7 +13737,7 @@
         <v>103</v>
       </c>
       <c r="P63" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q63">
         <v>2.75</v>
@@ -13888,6 +13894,212 @@
       </c>
       <c r="BP63">
         <v>1.7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:68">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>7296330</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45433.58333333334</v>
+      </c>
+      <c r="F64">
+        <v>9</v>
+      </c>
+      <c r="G64" t="s">
+        <v>77</v>
+      </c>
+      <c r="H64" t="s">
+        <v>78</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>2</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="N64">
+        <v>3</v>
+      </c>
+      <c r="O64" t="s">
+        <v>136</v>
+      </c>
+      <c r="P64" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q64">
+        <v>2.7</v>
+      </c>
+      <c r="R64">
+        <v>2.35</v>
+      </c>
+      <c r="S64">
+        <v>3.75</v>
+      </c>
+      <c r="T64">
+        <v>1.28</v>
+      </c>
+      <c r="U64">
+        <v>3.4</v>
+      </c>
+      <c r="V64">
+        <v>2.39</v>
+      </c>
+      <c r="W64">
+        <v>1.52</v>
+      </c>
+      <c r="X64">
+        <v>5.45</v>
+      </c>
+      <c r="Y64">
+        <v>1.12</v>
+      </c>
+      <c r="Z64">
+        <v>1.98</v>
+      </c>
+      <c r="AA64">
+        <v>3.67</v>
+      </c>
+      <c r="AB64">
+        <v>3.3</v>
+      </c>
+      <c r="AC64">
+        <v>1.03</v>
+      </c>
+      <c r="AD64">
+        <v>17</v>
+      </c>
+      <c r="AE64">
+        <v>1.2</v>
+      </c>
+      <c r="AF64">
+        <v>4.5</v>
+      </c>
+      <c r="AG64">
+        <v>1.65</v>
+      </c>
+      <c r="AH64">
+        <v>2.21</v>
+      </c>
+      <c r="AI64">
+        <v>1.55</v>
+      </c>
+      <c r="AJ64">
+        <v>2.4</v>
+      </c>
+      <c r="AK64">
+        <v>1.36</v>
+      </c>
+      <c r="AL64">
+        <v>1.22</v>
+      </c>
+      <c r="AM64">
+        <v>1.75</v>
+      </c>
+      <c r="AN64">
+        <v>1.75</v>
+      </c>
+      <c r="AO64">
+        <v>0.25</v>
+      </c>
+      <c r="AP64">
+        <v>2</v>
+      </c>
+      <c r="AQ64">
+        <v>0.2</v>
+      </c>
+      <c r="AR64">
+        <v>1.35</v>
+      </c>
+      <c r="AS64">
+        <v>1.33</v>
+      </c>
+      <c r="AT64">
+        <v>2.68</v>
+      </c>
+      <c r="AU64">
+        <v>8</v>
+      </c>
+      <c r="AV64">
+        <v>0</v>
+      </c>
+      <c r="AW64">
+        <v>10</v>
+      </c>
+      <c r="AX64">
+        <v>5</v>
+      </c>
+      <c r="AY64">
+        <v>18</v>
+      </c>
+      <c r="AZ64">
+        <v>5</v>
+      </c>
+      <c r="BA64">
+        <v>6</v>
+      </c>
+      <c r="BB64">
+        <v>5</v>
+      </c>
+      <c r="BC64">
+        <v>11</v>
+      </c>
+      <c r="BD64">
+        <v>1.76</v>
+      </c>
+      <c r="BE64">
+        <v>8.5</v>
+      </c>
+      <c r="BF64">
+        <v>2.52</v>
+      </c>
+      <c r="BG64">
+        <v>1.36</v>
+      </c>
+      <c r="BH64">
+        <v>2.79</v>
+      </c>
+      <c r="BI64">
+        <v>1.71</v>
+      </c>
+      <c r="BJ64">
+        <v>2.12</v>
+      </c>
+      <c r="BK64">
+        <v>2.15</v>
+      </c>
+      <c r="BL64">
+        <v>1.68</v>
+      </c>
+      <c r="BM64">
+        <v>2.84</v>
+      </c>
+      <c r="BN64">
+        <v>1.35</v>
+      </c>
+      <c r="BO64">
+        <v>3.68</v>
+      </c>
+      <c r="BP64">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="187">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -427,6 +427,21 @@
     <t>['39', '54']</t>
   </si>
   <si>
+    <t>['88']</t>
+  </si>
+  <si>
+    <t>['28', '45', '47']</t>
+  </si>
+  <si>
+    <t>['44', '50']</t>
+  </si>
+  <si>
+    <t>['21', '57', '73']</t>
+  </si>
+  <si>
+    <t>['55', '84']</t>
+  </si>
+  <si>
     <t>['90+1']</t>
   </si>
   <si>
@@ -469,9 +484,6 @@
     <t>['27', '53', '67']</t>
   </si>
   <si>
-    <t>['88']</t>
-  </si>
-  <si>
     <t>['34']</t>
   </si>
   <si>
@@ -551,6 +563,18 @@
   </si>
   <si>
     <t>['70']</t>
+  </si>
+  <si>
+    <t>['20', '30', '33', '36', '89']</t>
+  </si>
+  <si>
+    <t>['53', '75']</t>
+  </si>
+  <si>
+    <t>['68']</t>
+  </si>
+  <si>
+    <t>['3', '8']</t>
   </si>
 </sst>
 </file>
@@ -912,7 +936,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP64"/>
+  <dimension ref="A1:BP70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1171,7 +1195,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="Q2">
         <v>2.84</v>
@@ -1249,7 +1273,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ2">
         <v>0.2</v>
@@ -1377,7 +1401,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="Q3">
         <v>2.2</v>
@@ -1455,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ3">
         <v>0.6</v>
@@ -1583,7 +1607,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -1789,7 +1813,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1870,7 +1894,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ5">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1995,7 +2019,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="Q6">
         <v>2.35</v>
@@ -2073,10 +2097,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ6">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2201,7 +2225,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="Q7">
         <v>2.66</v>
@@ -2282,7 +2306,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ7">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2407,7 +2431,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="Q8">
         <v>2.8</v>
@@ -2819,7 +2843,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -2900,7 +2924,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ10">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3025,7 +3049,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3106,7 +3130,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ11">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3231,7 +3255,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3309,7 +3333,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ12">
         <v>0.33</v>
@@ -3849,7 +3873,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="Q15">
         <v>2.05</v>
@@ -3927,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ15">
         <v>0</v>
@@ -4055,7 +4079,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -4261,7 +4285,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="Q17">
         <v>2.15</v>
@@ -4342,7 +4366,7 @@
         <v>1</v>
       </c>
       <c r="AQ17">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR17">
         <v>2.14</v>
@@ -4467,7 +4491,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q18">
         <v>2.15</v>
@@ -4545,7 +4569,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ18">
         <v>2</v>
@@ -4751,10 +4775,10 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ19">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR19">
         <v>1.35</v>
@@ -4879,7 +4903,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="Q20">
         <v>2.81</v>
@@ -5166,7 +5190,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ21">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR21">
         <v>1.74</v>
@@ -5291,7 +5315,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q22">
         <v>2.76</v>
@@ -5369,7 +5393,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ22">
         <v>1.2</v>
@@ -5497,7 +5521,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q23">
         <v>2.85</v>
@@ -5703,7 +5727,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q24">
         <v>2.05</v>
@@ -5909,7 +5933,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6115,7 +6139,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q26">
         <v>2.6</v>
@@ -6605,7 +6629,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ28">
         <v>1</v>
@@ -6811,10 +6835,10 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ29">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR29">
         <v>0</v>
@@ -6939,7 +6963,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q30">
         <v>2.25</v>
@@ -7017,7 +7041,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ30">
         <v>0.33</v>
@@ -7145,7 +7169,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7226,7 +7250,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ31">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR31">
         <v>0.83</v>
@@ -7351,7 +7375,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q32">
         <v>3.05</v>
@@ -7432,7 +7456,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ32">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR32">
         <v>1.74</v>
@@ -7557,7 +7581,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q33">
         <v>2.26</v>
@@ -7638,7 +7662,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ33">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR33">
         <v>1.33</v>
@@ -7763,7 +7787,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q34">
         <v>3.46</v>
@@ -7841,10 +7865,10 @@
         <v>2</v>
       </c>
       <c r="AP34">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ34">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR34">
         <v>1.41</v>
@@ -8047,7 +8071,7 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ35">
         <v>0.2</v>
@@ -8175,7 +8199,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q36">
         <v>2.72</v>
@@ -8459,7 +8483,7 @@
         <v>1</v>
       </c>
       <c r="AP37">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ37">
         <v>1.2</v>
@@ -8587,7 +8611,7 @@
         <v>118</v>
       </c>
       <c r="P38" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q38">
         <v>4.55</v>
@@ -8668,7 +8692,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ38">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR38">
         <v>1.21</v>
@@ -8793,7 +8817,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q39">
         <v>2.78</v>
@@ -10029,7 +10053,7 @@
         <v>123</v>
       </c>
       <c r="P45" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q45">
         <v>3.3</v>
@@ -10110,7 +10134,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ45">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR45">
         <v>1.31</v>
@@ -10235,7 +10259,7 @@
         <v>94</v>
       </c>
       <c r="P46" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10313,7 +10337,7 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ46">
         <v>1.25</v>
@@ -10441,7 +10465,7 @@
         <v>124</v>
       </c>
       <c r="P47" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q47">
         <v>3.11</v>
@@ -10725,7 +10749,7 @@
         <v>0.33</v>
       </c>
       <c r="AP48">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ48">
         <v>0.2</v>
@@ -10853,7 +10877,7 @@
         <v>126</v>
       </c>
       <c r="P49" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q49">
         <v>2.05</v>
@@ -10931,7 +10955,7 @@
         <v>0.5</v>
       </c>
       <c r="AP49">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ49">
         <v>0.33</v>
@@ -11059,7 +11083,7 @@
         <v>127</v>
       </c>
       <c r="P50" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q50">
         <v>3.03</v>
@@ -11140,7 +11164,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ50">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR50">
         <v>1.33</v>
@@ -11265,7 +11289,7 @@
         <v>103</v>
       </c>
       <c r="P51" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q51">
         <v>3.89</v>
@@ -11346,7 +11370,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ51">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR51">
         <v>1.3</v>
@@ -11549,7 +11573,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ52">
         <v>0</v>
@@ -11755,10 +11779,10 @@
         <v>1.33</v>
       </c>
       <c r="AP53">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ53">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR53">
         <v>1.8</v>
@@ -11883,7 +11907,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q54">
         <v>3.4</v>
@@ -11964,7 +11988,7 @@
         <v>2</v>
       </c>
       <c r="AQ54">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR54">
         <v>1.25</v>
@@ -12089,7 +12113,7 @@
         <v>130</v>
       </c>
       <c r="P55" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q55">
         <v>2.61</v>
@@ -12167,7 +12191,7 @@
         <v>2.33</v>
       </c>
       <c r="AP55">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ55">
         <v>2</v>
@@ -12501,7 +12525,7 @@
         <v>132</v>
       </c>
       <c r="P57" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q57">
         <v>2.39</v>
@@ -12707,7 +12731,7 @@
         <v>133</v>
       </c>
       <c r="P58" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q58">
         <v>3.6</v>
@@ -12913,7 +12937,7 @@
         <v>134</v>
       </c>
       <c r="P59" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q59">
         <v>2.84</v>
@@ -13119,7 +13143,7 @@
         <v>103</v>
       </c>
       <c r="P60" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q60">
         <v>2.32</v>
@@ -13325,7 +13349,7 @@
         <v>103</v>
       </c>
       <c r="P61" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q61">
         <v>2.57</v>
@@ -13531,7 +13555,7 @@
         <v>135</v>
       </c>
       <c r="P62" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q62">
         <v>2.3</v>
@@ -13737,7 +13761,7 @@
         <v>103</v>
       </c>
       <c r="P63" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q63">
         <v>2.75</v>
@@ -13943,7 +13967,7 @@
         <v>136</v>
       </c>
       <c r="P64" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q64">
         <v>2.7</v>
@@ -14036,22 +14060,22 @@
         <v>2.68</v>
       </c>
       <c r="AU64">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AV64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW64">
         <v>10</v>
       </c>
       <c r="AX64">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY64">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AZ64">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA64">
         <v>6</v>
@@ -14100,6 +14124,1242 @@
       </c>
       <c r="BP64">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:68">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>7296336</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="2">
+        <v>45434.58333333334</v>
+      </c>
+      <c r="F65">
+        <v>9</v>
+      </c>
+      <c r="G65" t="s">
+        <v>74</v>
+      </c>
+      <c r="H65" t="s">
+        <v>72</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>4</v>
+      </c>
+      <c r="K65">
+        <v>4</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>5</v>
+      </c>
+      <c r="N65">
+        <v>6</v>
+      </c>
+      <c r="O65" t="s">
+        <v>137</v>
+      </c>
+      <c r="P65" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q65">
+        <v>4</v>
+      </c>
+      <c r="R65">
+        <v>2.35</v>
+      </c>
+      <c r="S65">
+        <v>2.3</v>
+      </c>
+      <c r="T65">
+        <v>1.28</v>
+      </c>
+      <c r="U65">
+        <v>3.4</v>
+      </c>
+      <c r="V65">
+        <v>2.3</v>
+      </c>
+      <c r="W65">
+        <v>1.55</v>
+      </c>
+      <c r="X65">
+        <v>4.9</v>
+      </c>
+      <c r="Y65">
+        <v>1.14</v>
+      </c>
+      <c r="Z65">
+        <v>3.7</v>
+      </c>
+      <c r="AA65">
+        <v>3.75</v>
+      </c>
+      <c r="AB65">
+        <v>1.85</v>
+      </c>
+      <c r="AC65">
+        <v>1.03</v>
+      </c>
+      <c r="AD65">
+        <v>17.75</v>
+      </c>
+      <c r="AE65">
+        <v>1.15</v>
+      </c>
+      <c r="AF65">
+        <v>4.45</v>
+      </c>
+      <c r="AG65">
+        <v>1.57</v>
+      </c>
+      <c r="AH65">
+        <v>2.25</v>
+      </c>
+      <c r="AI65">
+        <v>1.55</v>
+      </c>
+      <c r="AJ65">
+        <v>2.29</v>
+      </c>
+      <c r="AK65">
+        <v>1.9</v>
+      </c>
+      <c r="AL65">
+        <v>1.27</v>
+      </c>
+      <c r="AM65">
+        <v>1.27</v>
+      </c>
+      <c r="AN65">
+        <v>1.5</v>
+      </c>
+      <c r="AO65">
+        <v>1.75</v>
+      </c>
+      <c r="AP65">
+        <v>1.2</v>
+      </c>
+      <c r="AQ65">
+        <v>2</v>
+      </c>
+      <c r="AR65">
+        <v>1.68</v>
+      </c>
+      <c r="AS65">
+        <v>1.61</v>
+      </c>
+      <c r="AT65">
+        <v>3.29</v>
+      </c>
+      <c r="AU65">
+        <v>7</v>
+      </c>
+      <c r="AV65">
+        <v>13</v>
+      </c>
+      <c r="AW65">
+        <v>5</v>
+      </c>
+      <c r="AX65">
+        <v>8</v>
+      </c>
+      <c r="AY65">
+        <v>12</v>
+      </c>
+      <c r="AZ65">
+        <v>21</v>
+      </c>
+      <c r="BA65">
+        <v>1</v>
+      </c>
+      <c r="BB65">
+        <v>8</v>
+      </c>
+      <c r="BC65">
+        <v>9</v>
+      </c>
+      <c r="BD65">
+        <v>2.85</v>
+      </c>
+      <c r="BE65">
+        <v>8.65</v>
+      </c>
+      <c r="BF65">
+        <v>1.63</v>
+      </c>
+      <c r="BG65">
+        <v>1.19</v>
+      </c>
+      <c r="BH65">
+        <v>4.19</v>
+      </c>
+      <c r="BI65">
+        <v>1.36</v>
+      </c>
+      <c r="BJ65">
+        <v>2.9</v>
+      </c>
+      <c r="BK65">
+        <v>1.6</v>
+      </c>
+      <c r="BL65">
+        <v>2.2</v>
+      </c>
+      <c r="BM65">
+        <v>2</v>
+      </c>
+      <c r="BN65">
+        <v>1.8</v>
+      </c>
+      <c r="BO65">
+        <v>2.48</v>
+      </c>
+      <c r="BP65">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="66" spans="1:68">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>7296335</v>
+      </c>
+      <c r="C66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="2">
+        <v>45434.58333333334</v>
+      </c>
+      <c r="F66">
+        <v>9</v>
+      </c>
+      <c r="G66" t="s">
+        <v>80</v>
+      </c>
+      <c r="H66" t="s">
+        <v>81</v>
+      </c>
+      <c r="I66">
+        <v>2</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>2</v>
+      </c>
+      <c r="L66">
+        <v>3</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>3</v>
+      </c>
+      <c r="O66" t="s">
+        <v>138</v>
+      </c>
+      <c r="P66" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q66">
+        <v>2.75</v>
+      </c>
+      <c r="R66">
+        <v>2.3</v>
+      </c>
+      <c r="S66">
+        <v>3</v>
+      </c>
+      <c r="T66">
+        <v>1.27</v>
+      </c>
+      <c r="U66">
+        <v>3.54</v>
+      </c>
+      <c r="V66">
+        <v>2.27</v>
+      </c>
+      <c r="W66">
+        <v>1.61</v>
+      </c>
+      <c r="X66">
+        <v>5.05</v>
+      </c>
+      <c r="Y66">
+        <v>1.15</v>
+      </c>
+      <c r="Z66">
+        <v>2.37</v>
+      </c>
+      <c r="AA66">
+        <v>3.55</v>
+      </c>
+      <c r="AB66">
+        <v>2.65</v>
+      </c>
+      <c r="AC66">
+        <v>1.03</v>
+      </c>
+      <c r="AD66">
+        <v>12</v>
+      </c>
+      <c r="AE66">
+        <v>1.13</v>
+      </c>
+      <c r="AF66">
+        <v>4.75</v>
+      </c>
+      <c r="AG66">
+        <v>1.53</v>
+      </c>
+      <c r="AH66">
+        <v>2.25</v>
+      </c>
+      <c r="AI66">
+        <v>1.45</v>
+      </c>
+      <c r="AJ66">
+        <v>2.7</v>
+      </c>
+      <c r="AK66">
+        <v>1.42</v>
+      </c>
+      <c r="AL66">
+        <v>1.29</v>
+      </c>
+      <c r="AM66">
+        <v>1.58</v>
+      </c>
+      <c r="AN66">
+        <v>1.33</v>
+      </c>
+      <c r="AO66">
+        <v>1.5</v>
+      </c>
+      <c r="AP66">
+        <v>1.75</v>
+      </c>
+      <c r="AQ66">
+        <v>1.2</v>
+      </c>
+      <c r="AR66">
+        <v>1.59</v>
+      </c>
+      <c r="AS66">
+        <v>1.54</v>
+      </c>
+      <c r="AT66">
+        <v>3.13</v>
+      </c>
+      <c r="AU66">
+        <v>8</v>
+      </c>
+      <c r="AV66">
+        <v>6</v>
+      </c>
+      <c r="AW66">
+        <v>6</v>
+      </c>
+      <c r="AX66">
+        <v>8</v>
+      </c>
+      <c r="AY66">
+        <v>14</v>
+      </c>
+      <c r="AZ66">
+        <v>14</v>
+      </c>
+      <c r="BA66">
+        <v>4</v>
+      </c>
+      <c r="BB66">
+        <v>6</v>
+      </c>
+      <c r="BC66">
+        <v>10</v>
+      </c>
+      <c r="BD66">
+        <v>1.88</v>
+      </c>
+      <c r="BE66">
+        <v>8.6</v>
+      </c>
+      <c r="BF66">
+        <v>2.31</v>
+      </c>
+      <c r="BG66">
+        <v>1.16</v>
+      </c>
+      <c r="BH66">
+        <v>4.48</v>
+      </c>
+      <c r="BI66">
+        <v>1.32</v>
+      </c>
+      <c r="BJ66">
+        <v>3.1</v>
+      </c>
+      <c r="BK66">
+        <v>1.55</v>
+      </c>
+      <c r="BL66">
+        <v>2.3</v>
+      </c>
+      <c r="BM66">
+        <v>1.95</v>
+      </c>
+      <c r="BN66">
+        <v>1.85</v>
+      </c>
+      <c r="BO66">
+        <v>2.37</v>
+      </c>
+      <c r="BP66">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="67" spans="1:68">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>7296331</v>
+      </c>
+      <c r="C67" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="2">
+        <v>45434.58333333334</v>
+      </c>
+      <c r="F67">
+        <v>9</v>
+      </c>
+      <c r="G67" t="s">
+        <v>70</v>
+      </c>
+      <c r="H67" t="s">
+        <v>73</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <v>2</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>2</v>
+      </c>
+      <c r="O67" t="s">
+        <v>139</v>
+      </c>
+      <c r="P67" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q67">
+        <v>2.15</v>
+      </c>
+      <c r="R67">
+        <v>2.25</v>
+      </c>
+      <c r="S67">
+        <v>5.25</v>
+      </c>
+      <c r="T67">
+        <v>1.35</v>
+      </c>
+      <c r="U67">
+        <v>2.95</v>
+      </c>
+      <c r="V67">
+        <v>2.65</v>
+      </c>
+      <c r="W67">
+        <v>1.42</v>
+      </c>
+      <c r="X67">
+        <v>6</v>
+      </c>
+      <c r="Y67">
+        <v>1.1</v>
+      </c>
+      <c r="Z67">
+        <v>1.68</v>
+      </c>
+      <c r="AA67">
+        <v>3.75</v>
+      </c>
+      <c r="AB67">
+        <v>4.6</v>
+      </c>
+      <c r="AC67">
+        <v>1.01</v>
+      </c>
+      <c r="AD67">
+        <v>10.25</v>
+      </c>
+      <c r="AE67">
+        <v>1.22</v>
+      </c>
+      <c r="AF67">
+        <v>3.65</v>
+      </c>
+      <c r="AG67">
+        <v>1.86</v>
+      </c>
+      <c r="AH67">
+        <v>1.91</v>
+      </c>
+      <c r="AI67">
+        <v>1.85</v>
+      </c>
+      <c r="AJ67">
+        <v>1.85</v>
+      </c>
+      <c r="AK67">
+        <v>1.15</v>
+      </c>
+      <c r="AL67">
+        <v>1.25</v>
+      </c>
+      <c r="AM67">
+        <v>2.2</v>
+      </c>
+      <c r="AN67">
+        <v>2.25</v>
+      </c>
+      <c r="AO67">
+        <v>1.33</v>
+      </c>
+      <c r="AP67">
+        <v>2.4</v>
+      </c>
+      <c r="AQ67">
+        <v>1</v>
+      </c>
+      <c r="AR67">
+        <v>1.74</v>
+      </c>
+      <c r="AS67">
+        <v>1.4</v>
+      </c>
+      <c r="AT67">
+        <v>3.14</v>
+      </c>
+      <c r="AU67">
+        <v>9</v>
+      </c>
+      <c r="AV67">
+        <v>0</v>
+      </c>
+      <c r="AW67">
+        <v>6</v>
+      </c>
+      <c r="AX67">
+        <v>9</v>
+      </c>
+      <c r="AY67">
+        <v>15</v>
+      </c>
+      <c r="AZ67">
+        <v>9</v>
+      </c>
+      <c r="BA67">
+        <v>4</v>
+      </c>
+      <c r="BB67">
+        <v>7</v>
+      </c>
+      <c r="BC67">
+        <v>11</v>
+      </c>
+      <c r="BD67">
+        <v>1.52</v>
+      </c>
+      <c r="BE67">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="BF67">
+        <v>3.08</v>
+      </c>
+      <c r="BG67">
+        <v>1.16</v>
+      </c>
+      <c r="BH67">
+        <v>4.59</v>
+      </c>
+      <c r="BI67">
+        <v>1.32</v>
+      </c>
+      <c r="BJ67">
+        <v>3.11</v>
+      </c>
+      <c r="BK67">
+        <v>1.54</v>
+      </c>
+      <c r="BL67">
+        <v>2.33</v>
+      </c>
+      <c r="BM67">
+        <v>1.92</v>
+      </c>
+      <c r="BN67">
+        <v>1.88</v>
+      </c>
+      <c r="BO67">
+        <v>2.33</v>
+      </c>
+      <c r="BP67">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="68" spans="1:68">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>7296332</v>
+      </c>
+      <c r="C68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="2">
+        <v>45434.58333333334</v>
+      </c>
+      <c r="F68">
+        <v>9</v>
+      </c>
+      <c r="G68" t="s">
+        <v>71</v>
+      </c>
+      <c r="H68" t="s">
+        <v>75</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>3</v>
+      </c>
+      <c r="M68">
+        <v>2</v>
+      </c>
+      <c r="N68">
+        <v>5</v>
+      </c>
+      <c r="O68" t="s">
+        <v>140</v>
+      </c>
+      <c r="P68" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q68">
+        <v>1.85</v>
+      </c>
+      <c r="R68">
+        <v>2.4</v>
+      </c>
+      <c r="S68">
+        <v>5.3</v>
+      </c>
+      <c r="T68">
+        <v>1.27</v>
+      </c>
+      <c r="U68">
+        <v>3.3</v>
+      </c>
+      <c r="V68">
+        <v>2.15</v>
+      </c>
+      <c r="W68">
+        <v>1.6</v>
+      </c>
+      <c r="X68">
+        <v>4.5</v>
+      </c>
+      <c r="Y68">
+        <v>1.15</v>
+      </c>
+      <c r="Z68">
+        <v>1.45</v>
+      </c>
+      <c r="AA68">
+        <v>4.6</v>
+      </c>
+      <c r="AB68">
+        <v>5.6</v>
+      </c>
+      <c r="AC68">
+        <v>1.02</v>
+      </c>
+      <c r="AD68">
+        <v>10</v>
+      </c>
+      <c r="AE68">
+        <v>1.12</v>
+      </c>
+      <c r="AF68">
+        <v>5.2</v>
+      </c>
+      <c r="AG68">
+        <v>1.45</v>
+      </c>
+      <c r="AH68">
+        <v>2.55</v>
+      </c>
+      <c r="AI68">
+        <v>1.6</v>
+      </c>
+      <c r="AJ68">
+        <v>2.15</v>
+      </c>
+      <c r="AK68">
+        <v>1.04</v>
+      </c>
+      <c r="AL68">
+        <v>1.16</v>
+      </c>
+      <c r="AM68">
+        <v>2.6</v>
+      </c>
+      <c r="AN68">
+        <v>2</v>
+      </c>
+      <c r="AO68">
+        <v>0</v>
+      </c>
+      <c r="AP68">
+        <v>2.2</v>
+      </c>
+      <c r="AQ68">
+        <v>0</v>
+      </c>
+      <c r="AR68">
+        <v>1.92</v>
+      </c>
+      <c r="AS68">
+        <v>1.25</v>
+      </c>
+      <c r="AT68">
+        <v>3.17</v>
+      </c>
+      <c r="AU68">
+        <v>10</v>
+      </c>
+      <c r="AV68">
+        <v>5</v>
+      </c>
+      <c r="AW68">
+        <v>4</v>
+      </c>
+      <c r="AX68">
+        <v>3</v>
+      </c>
+      <c r="AY68">
+        <v>14</v>
+      </c>
+      <c r="AZ68">
+        <v>8</v>
+      </c>
+      <c r="BA68">
+        <v>1</v>
+      </c>
+      <c r="BB68">
+        <v>6</v>
+      </c>
+      <c r="BC68">
+        <v>7</v>
+      </c>
+      <c r="BD68">
+        <v>1.42</v>
+      </c>
+      <c r="BE68">
+        <v>10</v>
+      </c>
+      <c r="BF68">
+        <v>3.32</v>
+      </c>
+      <c r="BG68">
+        <v>1.15</v>
+      </c>
+      <c r="BH68">
+        <v>4.78</v>
+      </c>
+      <c r="BI68">
+        <v>1.28</v>
+      </c>
+      <c r="BJ68">
+        <v>3.2</v>
+      </c>
+      <c r="BK68">
+        <v>1.53</v>
+      </c>
+      <c r="BL68">
+        <v>2.45</v>
+      </c>
+      <c r="BM68">
+        <v>1.88</v>
+      </c>
+      <c r="BN68">
+        <v>1.92</v>
+      </c>
+      <c r="BO68">
+        <v>2.37</v>
+      </c>
+      <c r="BP68">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="69" spans="1:68">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>7296333</v>
+      </c>
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="2">
+        <v>45434.58333333334</v>
+      </c>
+      <c r="F69">
+        <v>9</v>
+      </c>
+      <c r="G69" t="s">
+        <v>83</v>
+      </c>
+      <c r="H69" t="s">
+        <v>79</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69">
+        <v>2</v>
+      </c>
+      <c r="O69" t="s">
+        <v>116</v>
+      </c>
+      <c r="P69" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q69">
+        <v>2.3</v>
+      </c>
+      <c r="R69">
+        <v>2.1</v>
+      </c>
+      <c r="S69">
+        <v>4.4</v>
+      </c>
+      <c r="T69">
+        <v>1.34</v>
+      </c>
+      <c r="U69">
+        <v>3</v>
+      </c>
+      <c r="V69">
+        <v>2.7</v>
+      </c>
+      <c r="W69">
+        <v>1.41</v>
+      </c>
+      <c r="X69">
+        <v>5.8</v>
+      </c>
+      <c r="Y69">
+        <v>1.09</v>
+      </c>
+      <c r="Z69">
+        <v>1.87</v>
+      </c>
+      <c r="AA69">
+        <v>3.85</v>
+      </c>
+      <c r="AB69">
+        <v>3.55</v>
+      </c>
+      <c r="AC69">
+        <v>1.03</v>
+      </c>
+      <c r="AD69">
+        <v>13</v>
+      </c>
+      <c r="AE69">
+        <v>1.25</v>
+      </c>
+      <c r="AF69">
+        <v>3.5</v>
+      </c>
+      <c r="AG69">
+        <v>1.85</v>
+      </c>
+      <c r="AH69">
+        <v>1.92</v>
+      </c>
+      <c r="AI69">
+        <v>1.75</v>
+      </c>
+      <c r="AJ69">
+        <v>1.95</v>
+      </c>
+      <c r="AK69">
+        <v>1.22</v>
+      </c>
+      <c r="AL69">
+        <v>1.2</v>
+      </c>
+      <c r="AM69">
+        <v>2</v>
+      </c>
+      <c r="AN69">
+        <v>3</v>
+      </c>
+      <c r="AO69">
+        <v>1.25</v>
+      </c>
+      <c r="AP69">
+        <v>2.5</v>
+      </c>
+      <c r="AQ69">
+        <v>1.2</v>
+      </c>
+      <c r="AR69">
+        <v>1.49</v>
+      </c>
+      <c r="AS69">
+        <v>1.94</v>
+      </c>
+      <c r="AT69">
+        <v>3.43</v>
+      </c>
+      <c r="AU69">
+        <v>3</v>
+      </c>
+      <c r="AV69">
+        <v>2</v>
+      </c>
+      <c r="AW69">
+        <v>5</v>
+      </c>
+      <c r="AX69">
+        <v>3</v>
+      </c>
+      <c r="AY69">
+        <v>8</v>
+      </c>
+      <c r="AZ69">
+        <v>5</v>
+      </c>
+      <c r="BA69">
+        <v>4</v>
+      </c>
+      <c r="BB69">
+        <v>6</v>
+      </c>
+      <c r="BC69">
+        <v>10</v>
+      </c>
+      <c r="BD69">
+        <v>1.49</v>
+      </c>
+      <c r="BE69">
+        <v>10</v>
+      </c>
+      <c r="BF69">
+        <v>2.99</v>
+      </c>
+      <c r="BG69">
+        <v>0</v>
+      </c>
+      <c r="BH69">
+        <v>0</v>
+      </c>
+      <c r="BI69">
+        <v>1.23</v>
+      </c>
+      <c r="BJ69">
+        <v>3.7</v>
+      </c>
+      <c r="BK69">
+        <v>1.38</v>
+      </c>
+      <c r="BL69">
+        <v>2.71</v>
+      </c>
+      <c r="BM69">
+        <v>1.69</v>
+      </c>
+      <c r="BN69">
+        <v>2.13</v>
+      </c>
+      <c r="BO69">
+        <v>2.09</v>
+      </c>
+      <c r="BP69">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="70" spans="1:68">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>7296334</v>
+      </c>
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45434.58333333334</v>
+      </c>
+      <c r="F70">
+        <v>9</v>
+      </c>
+      <c r="G70" t="s">
+        <v>85</v>
+      </c>
+      <c r="H70" t="s">
+        <v>82</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>2</v>
+      </c>
+      <c r="K70">
+        <v>2</v>
+      </c>
+      <c r="L70">
+        <v>2</v>
+      </c>
+      <c r="M70">
+        <v>2</v>
+      </c>
+      <c r="N70">
+        <v>4</v>
+      </c>
+      <c r="O70" t="s">
+        <v>141</v>
+      </c>
+      <c r="P70" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q70">
+        <v>2.5</v>
+      </c>
+      <c r="R70">
+        <v>2.35</v>
+      </c>
+      <c r="S70">
+        <v>3.5</v>
+      </c>
+      <c r="T70">
+        <v>1.27</v>
+      </c>
+      <c r="U70">
+        <v>3.54</v>
+      </c>
+      <c r="V70">
+        <v>2.25</v>
+      </c>
+      <c r="W70">
+        <v>1.6</v>
+      </c>
+      <c r="X70">
+        <v>5.05</v>
+      </c>
+      <c r="Y70">
+        <v>1.15</v>
+      </c>
+      <c r="Z70">
+        <v>2.05</v>
+      </c>
+      <c r="AA70">
+        <v>3.7</v>
+      </c>
+      <c r="AB70">
+        <v>3.15</v>
+      </c>
+      <c r="AC70">
+        <v>1.03</v>
+      </c>
+      <c r="AD70">
+        <v>18</v>
+      </c>
+      <c r="AE70">
+        <v>1.14</v>
+      </c>
+      <c r="AF70">
+        <v>4.7</v>
+      </c>
+      <c r="AG70">
+        <v>1.53</v>
+      </c>
+      <c r="AH70">
+        <v>2.35</v>
+      </c>
+      <c r="AI70">
+        <v>1.5</v>
+      </c>
+      <c r="AJ70">
+        <v>2.55</v>
+      </c>
+      <c r="AK70">
+        <v>1.35</v>
+      </c>
+      <c r="AL70">
+        <v>1.3</v>
+      </c>
+      <c r="AM70">
+        <v>1.7</v>
+      </c>
+      <c r="AN70">
+        <v>2</v>
+      </c>
+      <c r="AO70">
+        <v>1.25</v>
+      </c>
+      <c r="AP70">
+        <v>1.67</v>
+      </c>
+      <c r="AQ70">
+        <v>1.2</v>
+      </c>
+      <c r="AR70">
+        <v>2.39</v>
+      </c>
+      <c r="AS70">
+        <v>1.49</v>
+      </c>
+      <c r="AT70">
+        <v>3.88</v>
+      </c>
+      <c r="AU70">
+        <v>13</v>
+      </c>
+      <c r="AV70">
+        <v>8</v>
+      </c>
+      <c r="AW70">
+        <v>5</v>
+      </c>
+      <c r="AX70">
+        <v>4</v>
+      </c>
+      <c r="AY70">
+        <v>18</v>
+      </c>
+      <c r="AZ70">
+        <v>12</v>
+      </c>
+      <c r="BA70">
+        <v>8</v>
+      </c>
+      <c r="BB70">
+        <v>4</v>
+      </c>
+      <c r="BC70">
+        <v>12</v>
+      </c>
+      <c r="BD70">
+        <v>1.72</v>
+      </c>
+      <c r="BE70">
+        <v>8.65</v>
+      </c>
+      <c r="BF70">
+        <v>2.59</v>
+      </c>
+      <c r="BG70">
+        <v>1.21</v>
+      </c>
+      <c r="BH70">
+        <v>3.9</v>
+      </c>
+      <c r="BI70">
+        <v>1.4</v>
+      </c>
+      <c r="BJ70">
+        <v>2.75</v>
+      </c>
+      <c r="BK70">
+        <v>1.66</v>
+      </c>
+      <c r="BL70">
+        <v>2.1</v>
+      </c>
+      <c r="BM70">
+        <v>2.06</v>
+      </c>
+      <c r="BN70">
+        <v>1.68</v>
+      </c>
+      <c r="BO70">
+        <v>2.6</v>
+      </c>
+      <c r="BP70">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="188">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -440,6 +440,9 @@
   </si>
   <si>
     <t>['55', '84']</t>
+  </si>
+  <si>
+    <t>['28', '43', '66', '82', '90+2']</t>
   </si>
   <si>
     <t>['90+1']</t>
@@ -936,7 +939,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP70"/>
+  <dimension ref="A1:BP71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1195,7 +1198,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q2">
         <v>2.84</v>
@@ -1401,7 +1404,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q3">
         <v>2.2</v>
@@ -1607,7 +1610,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -1813,7 +1816,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2019,7 +2022,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q6">
         <v>2.35</v>
@@ -2225,7 +2228,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q7">
         <v>2.66</v>
@@ -2431,7 +2434,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q8">
         <v>2.8</v>
@@ -2843,7 +2846,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3049,7 +3052,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3255,7 +3258,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3336,7 +3339,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ12">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3873,7 +3876,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q15">
         <v>2.05</v>
@@ -4079,7 +4082,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -4157,7 +4160,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ16">
         <v>1.75</v>
@@ -4285,7 +4288,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q17">
         <v>2.15</v>
@@ -4491,7 +4494,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q18">
         <v>2.15</v>
@@ -5315,7 +5318,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q22">
         <v>2.76</v>
@@ -5521,7 +5524,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q23">
         <v>2.85</v>
@@ -5727,7 +5730,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q24">
         <v>2.05</v>
@@ -5933,7 +5936,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6139,7 +6142,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q26">
         <v>2.6</v>
@@ -6220,7 +6223,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ26">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR26">
         <v>1.34</v>
@@ -6963,7 +6966,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q30">
         <v>2.25</v>
@@ -7169,7 +7172,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7247,7 +7250,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ31">
         <v>2</v>
@@ -7375,7 +7378,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q32">
         <v>3.05</v>
@@ -7581,7 +7584,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q33">
         <v>2.26</v>
@@ -7787,7 +7790,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q34">
         <v>3.46</v>
@@ -8199,7 +8202,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q36">
         <v>2.72</v>
@@ -8611,7 +8614,7 @@
         <v>118</v>
       </c>
       <c r="P38" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q38">
         <v>4.55</v>
@@ -8817,7 +8820,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q39">
         <v>2.78</v>
@@ -8895,7 +8898,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ39">
         <v>0.6</v>
@@ -10053,7 +10056,7 @@
         <v>123</v>
       </c>
       <c r="P45" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q45">
         <v>3.3</v>
@@ -10259,7 +10262,7 @@
         <v>94</v>
       </c>
       <c r="P46" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10465,7 +10468,7 @@
         <v>124</v>
       </c>
       <c r="P47" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q47">
         <v>3.11</v>
@@ -10877,7 +10880,7 @@
         <v>126</v>
       </c>
       <c r="P49" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q49">
         <v>2.05</v>
@@ -10958,7 +10961,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ49">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR49">
         <v>1.86</v>
@@ -11083,7 +11086,7 @@
         <v>127</v>
       </c>
       <c r="P50" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q50">
         <v>3.03</v>
@@ -11161,7 +11164,7 @@
         <v>1.67</v>
       </c>
       <c r="AP50">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ50">
         <v>1.2</v>
@@ -11289,7 +11292,7 @@
         <v>103</v>
       </c>
       <c r="P51" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q51">
         <v>3.89</v>
@@ -11907,7 +11910,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q54">
         <v>3.4</v>
@@ -12113,7 +12116,7 @@
         <v>130</v>
       </c>
       <c r="P55" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q55">
         <v>2.61</v>
@@ -12525,7 +12528,7 @@
         <v>132</v>
       </c>
       <c r="P57" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q57">
         <v>2.39</v>
@@ -12731,7 +12734,7 @@
         <v>133</v>
       </c>
       <c r="P58" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q58">
         <v>3.6</v>
@@ -12937,7 +12940,7 @@
         <v>134</v>
       </c>
       <c r="P59" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q59">
         <v>2.84</v>
@@ -13143,7 +13146,7 @@
         <v>103</v>
       </c>
       <c r="P60" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q60">
         <v>2.32</v>
@@ -13349,7 +13352,7 @@
         <v>103</v>
       </c>
       <c r="P61" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q61">
         <v>2.57</v>
@@ -13555,7 +13558,7 @@
         <v>135</v>
       </c>
       <c r="P62" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q62">
         <v>2.3</v>
@@ -13761,7 +13764,7 @@
         <v>103</v>
       </c>
       <c r="P63" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q63">
         <v>2.75</v>
@@ -13967,7 +13970,7 @@
         <v>136</v>
       </c>
       <c r="P64" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q64">
         <v>2.7</v>
@@ -14173,7 +14176,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -14791,7 +14794,7 @@
         <v>140</v>
       </c>
       <c r="P68" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q68">
         <v>1.85</v>
@@ -14997,7 +15000,7 @@
         <v>116</v>
       </c>
       <c r="P69" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q69">
         <v>2.3</v>
@@ -15203,7 +15206,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q70">
         <v>2.5</v>
@@ -15360,6 +15363,212 @@
       </c>
       <c r="BP70">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="71" spans="1:68">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>7296337</v>
+      </c>
+      <c r="C71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="2">
+        <v>45435.58333333334</v>
+      </c>
+      <c r="F71">
+        <v>9</v>
+      </c>
+      <c r="G71" t="s">
+        <v>84</v>
+      </c>
+      <c r="H71" t="s">
+        <v>76</v>
+      </c>
+      <c r="I71">
+        <v>2</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>2</v>
+      </c>
+      <c r="L71">
+        <v>5</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>5</v>
+      </c>
+      <c r="O71" t="s">
+        <v>142</v>
+      </c>
+      <c r="P71" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q71">
+        <v>2</v>
+      </c>
+      <c r="R71">
+        <v>2.4</v>
+      </c>
+      <c r="S71">
+        <v>4.7</v>
+      </c>
+      <c r="T71">
+        <v>1.25</v>
+      </c>
+      <c r="U71">
+        <v>3.5</v>
+      </c>
+      <c r="V71">
+        <v>2.2</v>
+      </c>
+      <c r="W71">
+        <v>1.55</v>
+      </c>
+      <c r="X71">
+        <v>4.5</v>
+      </c>
+      <c r="Y71">
+        <v>1.15</v>
+      </c>
+      <c r="Z71">
+        <v>1.7</v>
+      </c>
+      <c r="AA71">
+        <v>3.4</v>
+      </c>
+      <c r="AB71">
+        <v>4.42</v>
+      </c>
+      <c r="AC71">
+        <v>1.02</v>
+      </c>
+      <c r="AD71">
+        <v>12</v>
+      </c>
+      <c r="AE71">
+        <v>1.14</v>
+      </c>
+      <c r="AF71">
+        <v>4.7</v>
+      </c>
+      <c r="AG71">
+        <v>1.53</v>
+      </c>
+      <c r="AH71">
+        <v>2.25</v>
+      </c>
+      <c r="AI71">
+        <v>1.55</v>
+      </c>
+      <c r="AJ71">
+        <v>2.2</v>
+      </c>
+      <c r="AK71">
+        <v>1.09</v>
+      </c>
+      <c r="AL71">
+        <v>1.2</v>
+      </c>
+      <c r="AM71">
+        <v>2.2</v>
+      </c>
+      <c r="AN71">
+        <v>1.5</v>
+      </c>
+      <c r="AO71">
+        <v>0.33</v>
+      </c>
+      <c r="AP71">
+        <v>1.8</v>
+      </c>
+      <c r="AQ71">
+        <v>0.25</v>
+      </c>
+      <c r="AR71">
+        <v>1.38</v>
+      </c>
+      <c r="AS71">
+        <v>0.45</v>
+      </c>
+      <c r="AT71">
+        <v>1.83</v>
+      </c>
+      <c r="AU71">
+        <v>12</v>
+      </c>
+      <c r="AV71">
+        <v>0</v>
+      </c>
+      <c r="AW71">
+        <v>6</v>
+      </c>
+      <c r="AX71">
+        <v>7</v>
+      </c>
+      <c r="AY71">
+        <v>18</v>
+      </c>
+      <c r="AZ71">
+        <v>7</v>
+      </c>
+      <c r="BA71">
+        <v>2</v>
+      </c>
+      <c r="BB71">
+        <v>5</v>
+      </c>
+      <c r="BC71">
+        <v>7</v>
+      </c>
+      <c r="BD71">
+        <v>1.3</v>
+      </c>
+      <c r="BE71">
+        <v>10</v>
+      </c>
+      <c r="BF71">
+        <v>4.44</v>
+      </c>
+      <c r="BG71">
+        <v>1.17</v>
+      </c>
+      <c r="BH71">
+        <v>4.5</v>
+      </c>
+      <c r="BI71">
+        <v>1.3</v>
+      </c>
+      <c r="BJ71">
+        <v>3.08</v>
+      </c>
+      <c r="BK71">
+        <v>1.57</v>
+      </c>
+      <c r="BL71">
+        <v>2.33</v>
+      </c>
+      <c r="BM71">
+        <v>1.95</v>
+      </c>
+      <c r="BN71">
+        <v>1.85</v>
+      </c>
+      <c r="BO71">
+        <v>2.47</v>
+      </c>
+      <c r="BP71">
+        <v>1.51</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="190">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -445,6 +445,9 @@
     <t>['28', '43', '66', '82', '90+2']</t>
   </si>
   <si>
+    <t>['21', '76', '87']</t>
+  </si>
+  <si>
     <t>['90+1']</t>
   </si>
   <si>
@@ -578,6 +581,9 @@
   </si>
   <si>
     <t>['3', '8']</t>
+  </si>
+  <si>
+    <t>['73']</t>
   </si>
 </sst>
 </file>
@@ -939,7 +945,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP71"/>
+  <dimension ref="A1:BP72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1198,7 +1204,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q2">
         <v>2.84</v>
@@ -1404,7 +1410,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q3">
         <v>2.2</v>
@@ -1610,7 +1616,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -1688,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ4">
         <v>1.2</v>
@@ -1816,7 +1822,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2022,7 +2028,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q6">
         <v>2.35</v>
@@ -2103,7 +2109,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ6">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2228,7 +2234,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q7">
         <v>2.66</v>
@@ -2434,7 +2440,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q8">
         <v>2.8</v>
@@ -2846,7 +2852,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3052,7 +3058,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3258,7 +3264,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3876,7 +3882,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q15">
         <v>2.05</v>
@@ -4082,7 +4088,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -4288,7 +4294,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q17">
         <v>2.15</v>
@@ -4366,7 +4372,7 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ17">
         <v>1.2</v>
@@ -4494,7 +4500,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q18">
         <v>2.15</v>
@@ -4781,7 +4787,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ19">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR19">
         <v>1.35</v>
@@ -5318,7 +5324,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q22">
         <v>2.76</v>
@@ -5524,7 +5530,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q23">
         <v>2.85</v>
@@ -5730,7 +5736,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q24">
         <v>2.05</v>
@@ -5936,7 +5942,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6142,7 +6148,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q26">
         <v>2.6</v>
@@ -6966,7 +6972,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q30">
         <v>2.25</v>
@@ -7172,7 +7178,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7378,7 +7384,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q32">
         <v>3.05</v>
@@ -7459,7 +7465,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ32">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR32">
         <v>1.74</v>
@@ -7584,7 +7590,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q33">
         <v>2.26</v>
@@ -7790,7 +7796,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q34">
         <v>3.46</v>
@@ -8202,7 +8208,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q36">
         <v>2.72</v>
@@ -8614,7 +8620,7 @@
         <v>118</v>
       </c>
       <c r="P38" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q38">
         <v>4.55</v>
@@ -8820,7 +8826,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q39">
         <v>2.78</v>
@@ -9722,7 +9728,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ43">
         <v>0.75</v>
@@ -10056,7 +10062,7 @@
         <v>123</v>
       </c>
       <c r="P45" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q45">
         <v>3.3</v>
@@ -10262,7 +10268,7 @@
         <v>94</v>
       </c>
       <c r="P46" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10468,7 +10474,7 @@
         <v>124</v>
       </c>
       <c r="P47" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q47">
         <v>3.11</v>
@@ -10880,7 +10886,7 @@
         <v>126</v>
       </c>
       <c r="P49" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q49">
         <v>2.05</v>
@@ -11086,7 +11092,7 @@
         <v>127</v>
       </c>
       <c r="P50" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q50">
         <v>3.03</v>
@@ -11167,7 +11173,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ50">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR50">
         <v>1.33</v>
@@ -11292,7 +11298,7 @@
         <v>103</v>
       </c>
       <c r="P51" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q51">
         <v>3.89</v>
@@ -11910,7 +11916,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q54">
         <v>3.4</v>
@@ -12116,7 +12122,7 @@
         <v>130</v>
       </c>
       <c r="P55" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q55">
         <v>2.61</v>
@@ -12528,7 +12534,7 @@
         <v>132</v>
       </c>
       <c r="P57" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q57">
         <v>2.39</v>
@@ -12734,7 +12740,7 @@
         <v>133</v>
       </c>
       <c r="P58" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q58">
         <v>3.6</v>
@@ -12940,7 +12946,7 @@
         <v>134</v>
       </c>
       <c r="P59" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q59">
         <v>2.84</v>
@@ -13146,7 +13152,7 @@
         <v>103</v>
       </c>
       <c r="P60" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q60">
         <v>2.32</v>
@@ -13224,7 +13230,7 @@
         <v>1.33</v>
       </c>
       <c r="AP60">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ60">
         <v>1.75</v>
@@ -13352,7 +13358,7 @@
         <v>103</v>
       </c>
       <c r="P61" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q61">
         <v>2.57</v>
@@ -13558,7 +13564,7 @@
         <v>135</v>
       </c>
       <c r="P62" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q62">
         <v>2.3</v>
@@ -13764,7 +13770,7 @@
         <v>103</v>
       </c>
       <c r="P63" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q63">
         <v>2.75</v>
@@ -13970,7 +13976,7 @@
         <v>136</v>
       </c>
       <c r="P64" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q64">
         <v>2.7</v>
@@ -14176,7 +14182,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -14794,7 +14800,7 @@
         <v>140</v>
       </c>
       <c r="P68" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q68">
         <v>1.85</v>
@@ -15000,7 +15006,7 @@
         <v>116</v>
       </c>
       <c r="P69" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q69">
         <v>2.3</v>
@@ -15206,7 +15212,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q70">
         <v>2.5</v>
@@ -15287,7 +15293,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ70">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR70">
         <v>2.39</v>
@@ -15569,6 +15575,212 @@
       </c>
       <c r="BP71">
         <v>1.51</v>
+      </c>
+    </row>
+    <row r="72" spans="1:68">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>7296338</v>
+      </c>
+      <c r="C72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="2">
+        <v>45438.39583333334</v>
+      </c>
+      <c r="F72">
+        <v>10</v>
+      </c>
+      <c r="G72" t="s">
+        <v>72</v>
+      </c>
+      <c r="H72" t="s">
+        <v>82</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>3</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+      <c r="N72">
+        <v>4</v>
+      </c>
+      <c r="O72" t="s">
+        <v>143</v>
+      </c>
+      <c r="P72" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q72">
+        <v>2.24</v>
+      </c>
+      <c r="R72">
+        <v>2.25</v>
+      </c>
+      <c r="S72">
+        <v>4.7</v>
+      </c>
+      <c r="T72">
+        <v>1.34</v>
+      </c>
+      <c r="U72">
+        <v>3.1</v>
+      </c>
+      <c r="V72">
+        <v>2.57</v>
+      </c>
+      <c r="W72">
+        <v>1.47</v>
+      </c>
+      <c r="X72">
+        <v>6.2</v>
+      </c>
+      <c r="Y72">
+        <v>1.1</v>
+      </c>
+      <c r="Z72">
+        <v>1.75</v>
+      </c>
+      <c r="AA72">
+        <v>3.7</v>
+      </c>
+      <c r="AB72">
+        <v>4</v>
+      </c>
+      <c r="AC72">
+        <v>1.03</v>
+      </c>
+      <c r="AD72">
+        <v>10.5</v>
+      </c>
+      <c r="AE72">
+        <v>1.21</v>
+      </c>
+      <c r="AF72">
+        <v>3.74</v>
+      </c>
+      <c r="AG72">
+        <v>1.73</v>
+      </c>
+      <c r="AH72">
+        <v>2</v>
+      </c>
+      <c r="AI72">
+        <v>1.7</v>
+      </c>
+      <c r="AJ72">
+        <v>2.03</v>
+      </c>
+      <c r="AK72">
+        <v>1.19</v>
+      </c>
+      <c r="AL72">
+        <v>1.27</v>
+      </c>
+      <c r="AM72">
+        <v>1.09</v>
+      </c>
+      <c r="AN72">
+        <v>1</v>
+      </c>
+      <c r="AO72">
+        <v>1.2</v>
+      </c>
+      <c r="AP72">
+        <v>1.4</v>
+      </c>
+      <c r="AQ72">
+        <v>1</v>
+      </c>
+      <c r="AR72">
+        <v>2</v>
+      </c>
+      <c r="AS72">
+        <v>1.52</v>
+      </c>
+      <c r="AT72">
+        <v>3.52</v>
+      </c>
+      <c r="AU72">
+        <v>7</v>
+      </c>
+      <c r="AV72">
+        <v>4</v>
+      </c>
+      <c r="AW72">
+        <v>11</v>
+      </c>
+      <c r="AX72">
+        <v>5</v>
+      </c>
+      <c r="AY72">
+        <v>18</v>
+      </c>
+      <c r="AZ72">
+        <v>9</v>
+      </c>
+      <c r="BA72">
+        <v>6</v>
+      </c>
+      <c r="BB72">
+        <v>3</v>
+      </c>
+      <c r="BC72">
+        <v>9</v>
+      </c>
+      <c r="BD72">
+        <v>1.51</v>
+      </c>
+      <c r="BE72">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF72">
+        <v>2.98</v>
+      </c>
+      <c r="BG72">
+        <v>1.2</v>
+      </c>
+      <c r="BH72">
+        <v>3.84</v>
+      </c>
+      <c r="BI72">
+        <v>1.4</v>
+      </c>
+      <c r="BJ72">
+        <v>2.64</v>
+      </c>
+      <c r="BK72">
+        <v>1.74</v>
+      </c>
+      <c r="BL72">
+        <v>2.06</v>
+      </c>
+      <c r="BM72">
+        <v>2.19</v>
+      </c>
+      <c r="BN72">
+        <v>1.65</v>
+      </c>
+      <c r="BO72">
+        <v>2.84</v>
+      </c>
+      <c r="BP72">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="197">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -448,6 +448,15 @@
     <t>['21', '76', '87']</t>
   </si>
   <si>
+    <t>['5', '14', '19', '58']</t>
+  </si>
+  <si>
+    <t>['43', '66', '90+4']</t>
+  </si>
+  <si>
+    <t>['28', '35', '79', '82']</t>
+  </si>
+  <si>
     <t>['90+1']</t>
   </si>
   <si>
@@ -584,6 +593,18 @@
   </si>
   <si>
     <t>['73']</t>
+  </si>
+  <si>
+    <t>['7', '43']</t>
+  </si>
+  <si>
+    <t>['62', '70', '72', '88', '90+4']</t>
+  </si>
+  <si>
+    <t>['19', '90']</t>
+  </si>
+  <si>
+    <t>['27', '54']</t>
   </si>
 </sst>
 </file>
@@ -945,7 +966,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP72"/>
+  <dimension ref="A1:BP78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1204,7 +1225,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q2">
         <v>2.84</v>
@@ -1282,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ2">
         <v>0.2</v>
@@ -1410,7 +1431,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q3">
         <v>2.2</v>
@@ -1491,7 +1512,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ3">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1616,7 +1637,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -1822,7 +1843,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1900,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AQ5">
         <v>1.2</v>
@@ -2028,7 +2049,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q6">
         <v>2.35</v>
@@ -2234,7 +2255,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q7">
         <v>2.66</v>
@@ -2312,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ7">
         <v>1.2</v>
@@ -2440,7 +2461,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q8">
         <v>2.8</v>
@@ -2518,10 +2539,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ8">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2727,7 +2748,7 @@
         <v>2</v>
       </c>
       <c r="AQ9">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2852,7 +2873,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3058,7 +3079,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3136,7 +3157,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ11">
         <v>2</v>
@@ -3264,7 +3285,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3548,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ13">
         <v>0.75</v>
@@ -3757,7 +3778,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3882,7 +3903,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q15">
         <v>2.05</v>
@@ -4088,7 +4109,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -4169,7 +4190,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ16">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4294,7 +4315,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q17">
         <v>2.15</v>
@@ -4500,7 +4521,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q18">
         <v>2.15</v>
@@ -4581,7 +4602,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ18">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR18">
         <v>1.34</v>
@@ -4784,7 +4805,7 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ19">
         <v>1</v>
@@ -4993,7 +5014,7 @@
         <v>2</v>
       </c>
       <c r="AQ20">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR20">
         <v>1.13</v>
@@ -5196,7 +5217,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ21">
         <v>1.2</v>
@@ -5324,7 +5345,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q22">
         <v>2.76</v>
@@ -5530,7 +5551,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q23">
         <v>2.85</v>
@@ -5608,7 +5629,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ23">
         <v>0.2</v>
@@ -5736,7 +5757,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q24">
         <v>2.05</v>
@@ -5814,10 +5835,10 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AQ24">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR24">
         <v>1.52</v>
@@ -5942,7 +5963,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6023,7 +6044,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ25">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR25">
         <v>1.67</v>
@@ -6148,7 +6169,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q26">
         <v>2.6</v>
@@ -6432,7 +6453,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ27">
         <v>0.75</v>
@@ -6641,7 +6662,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ28">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR28">
         <v>1.76</v>
@@ -6972,7 +6993,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q30">
         <v>2.25</v>
@@ -7053,7 +7074,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ30">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR30">
         <v>1.26</v>
@@ -7178,7 +7199,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7384,7 +7405,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q32">
         <v>3.05</v>
@@ -7462,7 +7483,7 @@
         <v>2</v>
       </c>
       <c r="AP32">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ32">
         <v>1</v>
@@ -7590,7 +7611,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q33">
         <v>2.26</v>
@@ -7668,7 +7689,7 @@
         <v>0.5</v>
       </c>
       <c r="AP33">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AQ33">
         <v>1.2</v>
@@ -7796,7 +7817,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q34">
         <v>3.46</v>
@@ -8208,7 +8229,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q36">
         <v>2.72</v>
@@ -8289,7 +8310,7 @@
         <v>2</v>
       </c>
       <c r="AQ36">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR36">
         <v>1.12</v>
@@ -8492,7 +8513,7 @@
         <v>1</v>
       </c>
       <c r="AP37">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ37">
         <v>1.2</v>
@@ -8620,7 +8641,7 @@
         <v>118</v>
       </c>
       <c r="P38" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q38">
         <v>4.55</v>
@@ -8698,7 +8719,7 @@
         <v>2</v>
       </c>
       <c r="AP38">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ38">
         <v>2</v>
@@ -8826,7 +8847,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q39">
         <v>2.78</v>
@@ -8907,7 +8928,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ39">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR39">
         <v>1.22</v>
@@ -9316,10 +9337,10 @@
         <v>2</v>
       </c>
       <c r="AP41">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ41">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR41">
         <v>1.14</v>
@@ -9522,10 +9543,10 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ42">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR42">
         <v>0.79</v>
@@ -9937,7 +9958,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ44">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR44">
         <v>1.34</v>
@@ -10062,7 +10083,7 @@
         <v>123</v>
       </c>
       <c r="P45" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q45">
         <v>3.3</v>
@@ -10140,7 +10161,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ45">
         <v>1</v>
@@ -10268,7 +10289,7 @@
         <v>94</v>
       </c>
       <c r="P46" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10349,7 +10370,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ46">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR46">
         <v>2.74</v>
@@ -10474,7 +10495,7 @@
         <v>124</v>
       </c>
       <c r="P47" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q47">
         <v>3.11</v>
@@ -10552,10 +10573,10 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ47">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR47">
         <v>1.39</v>
@@ -10886,7 +10907,7 @@
         <v>126</v>
       </c>
       <c r="P49" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q49">
         <v>2.05</v>
@@ -11092,7 +11113,7 @@
         <v>127</v>
       </c>
       <c r="P50" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q50">
         <v>3.03</v>
@@ -11298,7 +11319,7 @@
         <v>103</v>
       </c>
       <c r="P51" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q51">
         <v>3.89</v>
@@ -11376,7 +11397,7 @@
         <v>1.33</v>
       </c>
       <c r="AP51">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AQ51">
         <v>2</v>
@@ -11582,7 +11603,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ52">
         <v>0</v>
@@ -11916,7 +11937,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q54">
         <v>3.4</v>
@@ -12122,7 +12143,7 @@
         <v>130</v>
       </c>
       <c r="P55" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q55">
         <v>2.61</v>
@@ -12203,7 +12224,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ55">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR55">
         <v>1.26</v>
@@ -12406,10 +12427,10 @@
         <v>0.5</v>
       </c>
       <c r="AP56">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ56">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR56">
         <v>1.56</v>
@@ -12534,7 +12555,7 @@
         <v>132</v>
       </c>
       <c r="P57" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q57">
         <v>2.39</v>
@@ -12612,10 +12633,10 @@
         <v>1.33</v>
       </c>
       <c r="AP57">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ57">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR57">
         <v>1.79</v>
@@ -12740,7 +12761,7 @@
         <v>133</v>
       </c>
       <c r="P58" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q58">
         <v>3.6</v>
@@ -12818,7 +12839,7 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ58">
         <v>0.75</v>
@@ -12946,7 +12967,7 @@
         <v>134</v>
       </c>
       <c r="P59" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q59">
         <v>2.84</v>
@@ -13027,7 +13048,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ59">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR59">
         <v>1.75</v>
@@ -13152,7 +13173,7 @@
         <v>103</v>
       </c>
       <c r="P60" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q60">
         <v>2.32</v>
@@ -13233,7 +13254,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ60">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR60">
         <v>2.26</v>
@@ -13358,7 +13379,7 @@
         <v>103</v>
       </c>
       <c r="P61" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q61">
         <v>2.57</v>
@@ -13436,7 +13457,7 @@
         <v>0.75</v>
       </c>
       <c r="AP61">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AQ61">
         <v>1.2</v>
@@ -13564,7 +13585,7 @@
         <v>135</v>
       </c>
       <c r="P62" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q62">
         <v>2.3</v>
@@ -13645,7 +13666,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ62">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR62">
         <v>1.49</v>
@@ -13770,7 +13791,7 @@
         <v>103</v>
       </c>
       <c r="P63" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q63">
         <v>2.75</v>
@@ -13848,10 +13869,10 @@
         <v>0.33</v>
       </c>
       <c r="AP63">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ63">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR63">
         <v>1.1</v>
@@ -13976,7 +13997,7 @@
         <v>136</v>
       </c>
       <c r="P64" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q64">
         <v>2.7</v>
@@ -14182,7 +14203,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -14672,7 +14693,7 @@
         <v>1.33</v>
       </c>
       <c r="AP67">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ67">
         <v>1</v>
@@ -14800,7 +14821,7 @@
         <v>140</v>
       </c>
       <c r="P68" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q68">
         <v>1.85</v>
@@ -15006,7 +15027,7 @@
         <v>116</v>
       </c>
       <c r="P69" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q69">
         <v>2.3</v>
@@ -15212,7 +15233,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q70">
         <v>2.5</v>
@@ -15624,7 +15645,7 @@
         <v>143</v>
       </c>
       <c r="P72" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q72">
         <v>2.24</v>
@@ -15781,6 +15802,1242 @@
       </c>
       <c r="BP72">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="73" spans="1:68">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>7296339</v>
+      </c>
+      <c r="C73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45439.58333333334</v>
+      </c>
+      <c r="F73">
+        <v>10</v>
+      </c>
+      <c r="G73" t="s">
+        <v>76</v>
+      </c>
+      <c r="H73" t="s">
+        <v>71</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>2</v>
+      </c>
+      <c r="K73">
+        <v>2</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>2</v>
+      </c>
+      <c r="N73">
+        <v>2</v>
+      </c>
+      <c r="O73" t="s">
+        <v>103</v>
+      </c>
+      <c r="P73" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q73">
+        <v>3.66</v>
+      </c>
+      <c r="R73">
+        <v>2.58</v>
+      </c>
+      <c r="S73">
+        <v>2.52</v>
+      </c>
+      <c r="T73">
+        <v>1.22</v>
+      </c>
+      <c r="U73">
+        <v>3.8</v>
+      </c>
+      <c r="V73">
+        <v>2.14</v>
+      </c>
+      <c r="W73">
+        <v>1.68</v>
+      </c>
+      <c r="X73">
+        <v>4.65</v>
+      </c>
+      <c r="Y73">
+        <v>1.18</v>
+      </c>
+      <c r="Z73">
+        <v>3.18</v>
+      </c>
+      <c r="AA73">
+        <v>4.73</v>
+      </c>
+      <c r="AB73">
+        <v>1.9</v>
+      </c>
+      <c r="AC73">
+        <v>1.01</v>
+      </c>
+      <c r="AD73">
+        <v>26.5</v>
+      </c>
+      <c r="AE73">
+        <v>1.14</v>
+      </c>
+      <c r="AF73">
+        <v>5.5</v>
+      </c>
+      <c r="AG73">
+        <v>1.4</v>
+      </c>
+      <c r="AH73">
+        <v>2.58</v>
+      </c>
+      <c r="AI73">
+        <v>1.47</v>
+      </c>
+      <c r="AJ73">
+        <v>2.65</v>
+      </c>
+      <c r="AK73">
+        <v>1.95</v>
+      </c>
+      <c r="AL73">
+        <v>1.22</v>
+      </c>
+      <c r="AM73">
+        <v>1.35</v>
+      </c>
+      <c r="AN73">
+        <v>1.6</v>
+      </c>
+      <c r="AO73">
+        <v>1.75</v>
+      </c>
+      <c r="AP73">
+        <v>1.33</v>
+      </c>
+      <c r="AQ73">
+        <v>2</v>
+      </c>
+      <c r="AR73">
+        <v>1.41</v>
+      </c>
+      <c r="AS73">
+        <v>1.27</v>
+      </c>
+      <c r="AT73">
+        <v>2.68</v>
+      </c>
+      <c r="AU73">
+        <v>6</v>
+      </c>
+      <c r="AV73">
+        <v>5</v>
+      </c>
+      <c r="AW73">
+        <v>7</v>
+      </c>
+      <c r="AX73">
+        <v>1</v>
+      </c>
+      <c r="AY73">
+        <v>13</v>
+      </c>
+      <c r="AZ73">
+        <v>6</v>
+      </c>
+      <c r="BA73">
+        <v>9</v>
+      </c>
+      <c r="BB73">
+        <v>4</v>
+      </c>
+      <c r="BC73">
+        <v>13</v>
+      </c>
+      <c r="BD73">
+        <v>2.46</v>
+      </c>
+      <c r="BE73">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF73">
+        <v>1.69</v>
+      </c>
+      <c r="BG73">
+        <v>1.15</v>
+      </c>
+      <c r="BH73">
+        <v>4.7</v>
+      </c>
+      <c r="BI73">
+        <v>1.28</v>
+      </c>
+      <c r="BJ73">
+        <v>3.2</v>
+      </c>
+      <c r="BK73">
+        <v>1.5</v>
+      </c>
+      <c r="BL73">
+        <v>2.35</v>
+      </c>
+      <c r="BM73">
+        <v>1.85</v>
+      </c>
+      <c r="BN73">
+        <v>1.85</v>
+      </c>
+      <c r="BO73">
+        <v>2.34</v>
+      </c>
+      <c r="BP73">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:68">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>7296340</v>
+      </c>
+      <c r="C74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="2">
+        <v>45439.58333333334</v>
+      </c>
+      <c r="F74">
+        <v>10</v>
+      </c>
+      <c r="G74" t="s">
+        <v>81</v>
+      </c>
+      <c r="H74" t="s">
+        <v>85</v>
+      </c>
+      <c r="I74">
+        <v>3</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>3</v>
+      </c>
+      <c r="L74">
+        <v>4</v>
+      </c>
+      <c r="M74">
+        <v>5</v>
+      </c>
+      <c r="N74">
+        <v>9</v>
+      </c>
+      <c r="O74" t="s">
+        <v>144</v>
+      </c>
+      <c r="P74" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q74">
+        <v>2.4</v>
+      </c>
+      <c r="R74">
+        <v>2.5</v>
+      </c>
+      <c r="S74">
+        <v>3.75</v>
+      </c>
+      <c r="T74">
+        <v>1.25</v>
+      </c>
+      <c r="U74">
+        <v>3.75</v>
+      </c>
+      <c r="V74">
+        <v>2.2</v>
+      </c>
+      <c r="W74">
+        <v>1.62</v>
+      </c>
+      <c r="X74">
+        <v>5</v>
+      </c>
+      <c r="Y74">
+        <v>1.17</v>
+      </c>
+      <c r="Z74">
+        <v>1.96</v>
+      </c>
+      <c r="AA74">
+        <v>3.75</v>
+      </c>
+      <c r="AB74">
+        <v>3.65</v>
+      </c>
+      <c r="AC74">
+        <v>1.01</v>
+      </c>
+      <c r="AD74">
+        <v>12</v>
+      </c>
+      <c r="AE74">
+        <v>1.15</v>
+      </c>
+      <c r="AF74">
+        <v>4.75</v>
+      </c>
+      <c r="AG74">
+        <v>1.72</v>
+      </c>
+      <c r="AH74">
+        <v>2.13</v>
+      </c>
+      <c r="AI74">
+        <v>1.5</v>
+      </c>
+      <c r="AJ74">
+        <v>2.5</v>
+      </c>
+      <c r="AK74">
+        <v>1.3</v>
+      </c>
+      <c r="AL74">
+        <v>1.25</v>
+      </c>
+      <c r="AM74">
+        <v>1.88</v>
+      </c>
+      <c r="AN74">
+        <v>2.33</v>
+      </c>
+      <c r="AO74">
+        <v>2</v>
+      </c>
+      <c r="AP74">
+        <v>1.75</v>
+      </c>
+      <c r="AQ74">
+        <v>2.17</v>
+      </c>
+      <c r="AR74">
+        <v>1.87</v>
+      </c>
+      <c r="AS74">
+        <v>1.62</v>
+      </c>
+      <c r="AT74">
+        <v>3.49</v>
+      </c>
+      <c r="AU74">
+        <v>3</v>
+      </c>
+      <c r="AV74">
+        <v>2</v>
+      </c>
+      <c r="AW74">
+        <v>5</v>
+      </c>
+      <c r="AX74">
+        <v>4</v>
+      </c>
+      <c r="AY74">
+        <v>8</v>
+      </c>
+      <c r="AZ74">
+        <v>6</v>
+      </c>
+      <c r="BA74">
+        <v>5</v>
+      </c>
+      <c r="BB74">
+        <v>5</v>
+      </c>
+      <c r="BC74">
+        <v>10</v>
+      </c>
+      <c r="BD74">
+        <v>1.75</v>
+      </c>
+      <c r="BE74">
+        <v>8.5</v>
+      </c>
+      <c r="BF74">
+        <v>2.43</v>
+      </c>
+      <c r="BG74">
+        <v>1.2</v>
+      </c>
+      <c r="BH74">
+        <v>4</v>
+      </c>
+      <c r="BI74">
+        <v>1.38</v>
+      </c>
+      <c r="BJ74">
+        <v>2.8</v>
+      </c>
+      <c r="BK74">
+        <v>1.67</v>
+      </c>
+      <c r="BL74">
+        <v>2.19</v>
+      </c>
+      <c r="BM74">
+        <v>2.07</v>
+      </c>
+      <c r="BN74">
+        <v>1.74</v>
+      </c>
+      <c r="BO74">
+        <v>2.55</v>
+      </c>
+      <c r="BP74">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="75" spans="1:68">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>7296341</v>
+      </c>
+      <c r="C75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="2">
+        <v>45439.58333333334</v>
+      </c>
+      <c r="F75">
+        <v>10</v>
+      </c>
+      <c r="G75" t="s">
+        <v>70</v>
+      </c>
+      <c r="H75" t="s">
+        <v>80</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <v>2</v>
+      </c>
+      <c r="L75">
+        <v>3</v>
+      </c>
+      <c r="M75">
+        <v>2</v>
+      </c>
+      <c r="N75">
+        <v>5</v>
+      </c>
+      <c r="O75" t="s">
+        <v>145</v>
+      </c>
+      <c r="P75" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q75">
+        <v>2.38</v>
+      </c>
+      <c r="R75">
+        <v>2.3</v>
+      </c>
+      <c r="S75">
+        <v>4</v>
+      </c>
+      <c r="T75">
+        <v>1.3</v>
+      </c>
+      <c r="U75">
+        <v>3.34</v>
+      </c>
+      <c r="V75">
+        <v>2.4</v>
+      </c>
+      <c r="W75">
+        <v>1.53</v>
+      </c>
+      <c r="X75">
+        <v>5.55</v>
+      </c>
+      <c r="Y75">
+        <v>1.12</v>
+      </c>
+      <c r="Z75">
+        <v>1.91</v>
+      </c>
+      <c r="AA75">
+        <v>3.95</v>
+      </c>
+      <c r="AB75">
+        <v>3.67</v>
+      </c>
+      <c r="AC75">
+        <v>1.03</v>
+      </c>
+      <c r="AD75">
+        <v>17</v>
+      </c>
+      <c r="AE75">
+        <v>1.17</v>
+      </c>
+      <c r="AF75">
+        <v>4.25</v>
+      </c>
+      <c r="AG75">
+        <v>1.66</v>
+      </c>
+      <c r="AH75">
+        <v>2.24</v>
+      </c>
+      <c r="AI75">
+        <v>1.6</v>
+      </c>
+      <c r="AJ75">
+        <v>2.25</v>
+      </c>
+      <c r="AK75">
+        <v>1.3</v>
+      </c>
+      <c r="AL75">
+        <v>1.27</v>
+      </c>
+      <c r="AM75">
+        <v>1.85</v>
+      </c>
+      <c r="AN75">
+        <v>2.4</v>
+      </c>
+      <c r="AO75">
+        <v>0.6</v>
+      </c>
+      <c r="AP75">
+        <v>2.5</v>
+      </c>
+      <c r="AQ75">
+        <v>0.5</v>
+      </c>
+      <c r="AR75">
+        <v>1.76</v>
+      </c>
+      <c r="AS75">
+        <v>1.48</v>
+      </c>
+      <c r="AT75">
+        <v>3.24</v>
+      </c>
+      <c r="AU75">
+        <v>4</v>
+      </c>
+      <c r="AV75">
+        <v>4</v>
+      </c>
+      <c r="AW75">
+        <v>5</v>
+      </c>
+      <c r="AX75">
+        <v>6</v>
+      </c>
+      <c r="AY75">
+        <v>9</v>
+      </c>
+      <c r="AZ75">
+        <v>10</v>
+      </c>
+      <c r="BA75">
+        <v>8</v>
+      </c>
+      <c r="BB75">
+        <v>7</v>
+      </c>
+      <c r="BC75">
+        <v>15</v>
+      </c>
+      <c r="BD75">
+        <v>1.65</v>
+      </c>
+      <c r="BE75">
+        <v>9.6</v>
+      </c>
+      <c r="BF75">
+        <v>2.53</v>
+      </c>
+      <c r="BG75">
+        <v>1.13</v>
+      </c>
+      <c r="BH75">
+        <v>5</v>
+      </c>
+      <c r="BI75">
+        <v>1.24</v>
+      </c>
+      <c r="BJ75">
+        <v>3.48</v>
+      </c>
+      <c r="BK75">
+        <v>1.49</v>
+      </c>
+      <c r="BL75">
+        <v>2.54</v>
+      </c>
+      <c r="BM75">
+        <v>1.81</v>
+      </c>
+      <c r="BN75">
+        <v>1.99</v>
+      </c>
+      <c r="BO75">
+        <v>2.24</v>
+      </c>
+      <c r="BP75">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="76" spans="1:68">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>7296342</v>
+      </c>
+      <c r="C76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45439.58333333334</v>
+      </c>
+      <c r="F76">
+        <v>10</v>
+      </c>
+      <c r="G76" t="s">
+        <v>75</v>
+      </c>
+      <c r="H76" t="s">
+        <v>77</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76">
+        <v>2</v>
+      </c>
+      <c r="N76">
+        <v>3</v>
+      </c>
+      <c r="O76" t="s">
+        <v>128</v>
+      </c>
+      <c r="P76" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q76">
+        <v>3</v>
+      </c>
+      <c r="R76">
+        <v>2.2</v>
+      </c>
+      <c r="S76">
+        <v>3</v>
+      </c>
+      <c r="T76">
+        <v>1.34</v>
+      </c>
+      <c r="U76">
+        <v>3.1</v>
+      </c>
+      <c r="V76">
+        <v>2.57</v>
+      </c>
+      <c r="W76">
+        <v>1.47</v>
+      </c>
+      <c r="X76">
+        <v>6.2</v>
+      </c>
+      <c r="Y76">
+        <v>1.1</v>
+      </c>
+      <c r="Z76">
+        <v>2.66</v>
+      </c>
+      <c r="AA76">
+        <v>3.53</v>
+      </c>
+      <c r="AB76">
+        <v>2.56</v>
+      </c>
+      <c r="AC76">
+        <v>1.04</v>
+      </c>
+      <c r="AD76">
+        <v>14</v>
+      </c>
+      <c r="AE76">
+        <v>1.24</v>
+      </c>
+      <c r="AF76">
+        <v>4.08</v>
+      </c>
+      <c r="AG76">
+        <v>1.75</v>
+      </c>
+      <c r="AH76">
+        <v>2.09</v>
+      </c>
+      <c r="AI76">
+        <v>1.62</v>
+      </c>
+      <c r="AJ76">
+        <v>2.2</v>
+      </c>
+      <c r="AK76">
+        <v>1.48</v>
+      </c>
+      <c r="AL76">
+        <v>1.32</v>
+      </c>
+      <c r="AM76">
+        <v>1.52</v>
+      </c>
+      <c r="AN76">
+        <v>1.8</v>
+      </c>
+      <c r="AO76">
+        <v>1</v>
+      </c>
+      <c r="AP76">
+        <v>1.5</v>
+      </c>
+      <c r="AQ76">
+        <v>1.4</v>
+      </c>
+      <c r="AR76">
+        <v>1.63</v>
+      </c>
+      <c r="AS76">
+        <v>1.37</v>
+      </c>
+      <c r="AT76">
+        <v>3</v>
+      </c>
+      <c r="AU76">
+        <v>3</v>
+      </c>
+      <c r="AV76">
+        <v>11</v>
+      </c>
+      <c r="AW76">
+        <v>3</v>
+      </c>
+      <c r="AX76">
+        <v>5</v>
+      </c>
+      <c r="AY76">
+        <v>6</v>
+      </c>
+      <c r="AZ76">
+        <v>16</v>
+      </c>
+      <c r="BA76">
+        <v>2</v>
+      </c>
+      <c r="BB76">
+        <v>6</v>
+      </c>
+      <c r="BC76">
+        <v>8</v>
+      </c>
+      <c r="BD76">
+        <v>1.65</v>
+      </c>
+      <c r="BE76">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF76">
+        <v>2.55</v>
+      </c>
+      <c r="BG76">
+        <v>1.19</v>
+      </c>
+      <c r="BH76">
+        <v>4.1</v>
+      </c>
+      <c r="BI76">
+        <v>1.33</v>
+      </c>
+      <c r="BJ76">
+        <v>2.93</v>
+      </c>
+      <c r="BK76">
+        <v>1.66</v>
+      </c>
+      <c r="BL76">
+        <v>2.2</v>
+      </c>
+      <c r="BM76">
+        <v>2.05</v>
+      </c>
+      <c r="BN76">
+        <v>1.75</v>
+      </c>
+      <c r="BO76">
+        <v>2.57</v>
+      </c>
+      <c r="BP76">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="77" spans="1:68">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>7296343</v>
+      </c>
+      <c r="C77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="2">
+        <v>45439.58333333334</v>
+      </c>
+      <c r="F77">
+        <v>10</v>
+      </c>
+      <c r="G77" t="s">
+        <v>79</v>
+      </c>
+      <c r="H77" t="s">
+        <v>84</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>1</v>
+      </c>
+      <c r="O77" t="s">
+        <v>109</v>
+      </c>
+      <c r="P77" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q77">
+        <v>3.34</v>
+      </c>
+      <c r="R77">
+        <v>2.28</v>
+      </c>
+      <c r="S77">
+        <v>3.05</v>
+      </c>
+      <c r="T77">
+        <v>1.34</v>
+      </c>
+      <c r="U77">
+        <v>3.18</v>
+      </c>
+      <c r="V77">
+        <v>2.7</v>
+      </c>
+      <c r="W77">
+        <v>1.45</v>
+      </c>
+      <c r="X77">
+        <v>6</v>
+      </c>
+      <c r="Y77">
+        <v>1.09</v>
+      </c>
+      <c r="Z77">
+        <v>2.61</v>
+      </c>
+      <c r="AA77">
+        <v>3.53</v>
+      </c>
+      <c r="AB77">
+        <v>2.6</v>
+      </c>
+      <c r="AC77">
+        <v>1.05</v>
+      </c>
+      <c r="AD77">
+        <v>13</v>
+      </c>
+      <c r="AE77">
+        <v>1.27</v>
+      </c>
+      <c r="AF77">
+        <v>3.8</v>
+      </c>
+      <c r="AG77">
+        <v>1.84</v>
+      </c>
+      <c r="AH77">
+        <v>1.97</v>
+      </c>
+      <c r="AI77">
+        <v>1.62</v>
+      </c>
+      <c r="AJ77">
+        <v>2.15</v>
+      </c>
+      <c r="AK77">
+        <v>1.5</v>
+      </c>
+      <c r="AL77">
+        <v>1.32</v>
+      </c>
+      <c r="AM77">
+        <v>1.52</v>
+      </c>
+      <c r="AN77">
+        <v>0.75</v>
+      </c>
+      <c r="AO77">
+        <v>1.25</v>
+      </c>
+      <c r="AP77">
+        <v>1.2</v>
+      </c>
+      <c r="AQ77">
+        <v>1</v>
+      </c>
+      <c r="AR77">
+        <v>1.11</v>
+      </c>
+      <c r="AS77">
+        <v>1.94</v>
+      </c>
+      <c r="AT77">
+        <v>3.05</v>
+      </c>
+      <c r="AU77">
+        <v>7</v>
+      </c>
+      <c r="AV77">
+        <v>7</v>
+      </c>
+      <c r="AW77">
+        <v>4</v>
+      </c>
+      <c r="AX77">
+        <v>4</v>
+      </c>
+      <c r="AY77">
+        <v>11</v>
+      </c>
+      <c r="AZ77">
+        <v>11</v>
+      </c>
+      <c r="BA77">
+        <v>7</v>
+      </c>
+      <c r="BB77">
+        <v>13</v>
+      </c>
+      <c r="BC77">
+        <v>20</v>
+      </c>
+      <c r="BD77">
+        <v>2.1</v>
+      </c>
+      <c r="BE77">
+        <v>8.5</v>
+      </c>
+      <c r="BF77">
+        <v>1.95</v>
+      </c>
+      <c r="BG77">
+        <v>1.15</v>
+      </c>
+      <c r="BH77">
+        <v>4.8</v>
+      </c>
+      <c r="BI77">
+        <v>1.29</v>
+      </c>
+      <c r="BJ77">
+        <v>3.2</v>
+      </c>
+      <c r="BK77">
+        <v>1.52</v>
+      </c>
+      <c r="BL77">
+        <v>2.45</v>
+      </c>
+      <c r="BM77">
+        <v>1.88</v>
+      </c>
+      <c r="BN77">
+        <v>1.92</v>
+      </c>
+      <c r="BO77">
+        <v>2.3</v>
+      </c>
+      <c r="BP77">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="78" spans="1:68">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>7296344</v>
+      </c>
+      <c r="C78" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45439.58333333334</v>
+      </c>
+      <c r="F78">
+        <v>10</v>
+      </c>
+      <c r="G78" t="s">
+        <v>73</v>
+      </c>
+      <c r="H78" t="s">
+        <v>74</v>
+      </c>
+      <c r="I78">
+        <v>2</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>2</v>
+      </c>
+      <c r="L78">
+        <v>4</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+      <c r="N78">
+        <v>5</v>
+      </c>
+      <c r="O78" t="s">
+        <v>146</v>
+      </c>
+      <c r="P78" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q78">
+        <v>2.75</v>
+      </c>
+      <c r="R78">
+        <v>2.3</v>
+      </c>
+      <c r="S78">
+        <v>3.6</v>
+      </c>
+      <c r="T78">
+        <v>1.33</v>
+      </c>
+      <c r="U78">
+        <v>3.25</v>
+      </c>
+      <c r="V78">
+        <v>2.63</v>
+      </c>
+      <c r="W78">
+        <v>1.44</v>
+      </c>
+      <c r="X78">
+        <v>6.5</v>
+      </c>
+      <c r="Y78">
+        <v>1.11</v>
+      </c>
+      <c r="Z78">
+        <v>2.17</v>
+      </c>
+      <c r="AA78">
+        <v>3.73</v>
+      </c>
+      <c r="AB78">
+        <v>3.1</v>
+      </c>
+      <c r="AC78">
+        <v>1.02</v>
+      </c>
+      <c r="AD78">
+        <v>10</v>
+      </c>
+      <c r="AE78">
+        <v>1.22</v>
+      </c>
+      <c r="AF78">
+        <v>3.8</v>
+      </c>
+      <c r="AG78">
+        <v>1.66</v>
+      </c>
+      <c r="AH78">
+        <v>2.23</v>
+      </c>
+      <c r="AI78">
+        <v>1.62</v>
+      </c>
+      <c r="AJ78">
+        <v>2.2</v>
+      </c>
+      <c r="AK78">
+        <v>1.33</v>
+      </c>
+      <c r="AL78">
+        <v>1.3</v>
+      </c>
+      <c r="AM78">
+        <v>1.65</v>
+      </c>
+      <c r="AN78">
+        <v>0.2</v>
+      </c>
+      <c r="AO78">
+        <v>0.33</v>
+      </c>
+      <c r="AP78">
+        <v>0.67</v>
+      </c>
+      <c r="AQ78">
+        <v>0.25</v>
+      </c>
+      <c r="AR78">
+        <v>1.22</v>
+      </c>
+      <c r="AS78">
+        <v>1.38</v>
+      </c>
+      <c r="AT78">
+        <v>2.6</v>
+      </c>
+      <c r="AU78">
+        <v>-1</v>
+      </c>
+      <c r="AV78">
+        <v>-1</v>
+      </c>
+      <c r="AW78">
+        <v>-1</v>
+      </c>
+      <c r="AX78">
+        <v>-1</v>
+      </c>
+      <c r="AY78">
+        <v>-1</v>
+      </c>
+      <c r="AZ78">
+        <v>-1</v>
+      </c>
+      <c r="BA78">
+        <v>-1</v>
+      </c>
+      <c r="BB78">
+        <v>-1</v>
+      </c>
+      <c r="BC78">
+        <v>-1</v>
+      </c>
+      <c r="BD78">
+        <v>1.85</v>
+      </c>
+      <c r="BE78">
+        <v>8.5</v>
+      </c>
+      <c r="BF78">
+        <v>2.27</v>
+      </c>
+      <c r="BG78">
+        <v>1.14</v>
+      </c>
+      <c r="BH78">
+        <v>5</v>
+      </c>
+      <c r="BI78">
+        <v>1.28</v>
+      </c>
+      <c r="BJ78">
+        <v>3.4</v>
+      </c>
+      <c r="BK78">
+        <v>1.5</v>
+      </c>
+      <c r="BL78">
+        <v>2.52</v>
+      </c>
+      <c r="BM78">
+        <v>1.82</v>
+      </c>
+      <c r="BN78">
+        <v>1.98</v>
+      </c>
+      <c r="BO78">
+        <v>2.27</v>
+      </c>
+      <c r="BP78">
+        <v>1.61</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="199">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -457,6 +457,9 @@
     <t>['28', '35', '79', '82']</t>
   </si>
   <si>
+    <t>['45+2', '90+7']</t>
+  </si>
+  <si>
     <t>['90+1']</t>
   </si>
   <si>
@@ -605,6 +608,9 @@
   </si>
   <si>
     <t>['27', '54']</t>
+  </si>
+  <si>
+    <t>['26']</t>
   </si>
 </sst>
 </file>
@@ -966,7 +972,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP78"/>
+  <dimension ref="A1:BP79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1225,7 +1231,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q2">
         <v>2.84</v>
@@ -1431,7 +1437,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q3">
         <v>2.2</v>
@@ -1637,7 +1643,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -1718,7 +1724,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ4">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1843,7 +1849,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2049,7 +2055,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q6">
         <v>2.35</v>
@@ -2255,7 +2261,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q7">
         <v>2.66</v>
@@ -2461,7 +2467,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q8">
         <v>2.8</v>
@@ -2873,7 +2879,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -2951,7 +2957,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ10">
         <v>1</v>
@@ -3079,7 +3085,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3285,7 +3291,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3903,7 +3909,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q15">
         <v>2.05</v>
@@ -4109,7 +4115,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -4315,7 +4321,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q17">
         <v>2.15</v>
@@ -4521,7 +4527,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q18">
         <v>2.15</v>
@@ -5345,7 +5351,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q22">
         <v>2.76</v>
@@ -5426,7 +5432,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ22">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR22">
         <v>1.02</v>
@@ -5551,7 +5557,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q23">
         <v>2.85</v>
@@ -5757,7 +5763,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q24">
         <v>2.05</v>
@@ -5963,7 +5969,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6169,7 +6175,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q26">
         <v>2.6</v>
@@ -6247,7 +6253,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ26">
         <v>0.25</v>
@@ -6993,7 +6999,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q30">
         <v>2.25</v>
@@ -7199,7 +7205,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7405,7 +7411,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q32">
         <v>3.05</v>
@@ -7611,7 +7617,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q33">
         <v>2.26</v>
@@ -7817,7 +7823,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q34">
         <v>3.46</v>
@@ -8229,7 +8235,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q36">
         <v>2.72</v>
@@ -8516,7 +8522,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ37">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR37">
         <v>1.53</v>
@@ -8641,7 +8647,7 @@
         <v>118</v>
       </c>
       <c r="P38" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q38">
         <v>4.55</v>
@@ -8847,7 +8853,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q39">
         <v>2.78</v>
@@ -9134,7 +9140,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ40">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR40">
         <v>1.55</v>
@@ -9955,7 +9961,7 @@
         <v>0.33</v>
       </c>
       <c r="AP44">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ44">
         <v>0.5</v>
@@ -10083,7 +10089,7 @@
         <v>123</v>
       </c>
       <c r="P45" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q45">
         <v>3.3</v>
@@ -10289,7 +10295,7 @@
         <v>94</v>
       </c>
       <c r="P46" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10495,7 +10501,7 @@
         <v>124</v>
       </c>
       <c r="P47" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q47">
         <v>3.11</v>
@@ -10907,7 +10913,7 @@
         <v>126</v>
       </c>
       <c r="P49" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q49">
         <v>2.05</v>
@@ -11113,7 +11119,7 @@
         <v>127</v>
       </c>
       <c r="P50" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q50">
         <v>3.03</v>
@@ -11319,7 +11325,7 @@
         <v>103</v>
       </c>
       <c r="P51" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q51">
         <v>3.89</v>
@@ -11937,7 +11943,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q54">
         <v>3.4</v>
@@ -12143,7 +12149,7 @@
         <v>130</v>
       </c>
       <c r="P55" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q55">
         <v>2.61</v>
@@ -12555,7 +12561,7 @@
         <v>132</v>
       </c>
       <c r="P57" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q57">
         <v>2.39</v>
@@ -12761,7 +12767,7 @@
         <v>133</v>
       </c>
       <c r="P58" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q58">
         <v>3.6</v>
@@ -12967,7 +12973,7 @@
         <v>134</v>
       </c>
       <c r="P59" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q59">
         <v>2.84</v>
@@ -13045,7 +13051,7 @@
         <v>2.5</v>
       </c>
       <c r="AP59">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ59">
         <v>2.17</v>
@@ -13173,7 +13179,7 @@
         <v>103</v>
       </c>
       <c r="P60" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q60">
         <v>2.32</v>
@@ -13379,7 +13385,7 @@
         <v>103</v>
       </c>
       <c r="P61" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q61">
         <v>2.57</v>
@@ -13460,7 +13466,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ61">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR61">
         <v>1.2</v>
@@ -13585,7 +13591,7 @@
         <v>135</v>
       </c>
       <c r="P62" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q62">
         <v>2.3</v>
@@ -13791,7 +13797,7 @@
         <v>103</v>
       </c>
       <c r="P63" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q63">
         <v>2.75</v>
@@ -13997,7 +14003,7 @@
         <v>136</v>
       </c>
       <c r="P64" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q64">
         <v>2.7</v>
@@ -14203,7 +14209,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -14821,7 +14827,7 @@
         <v>140</v>
       </c>
       <c r="P68" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q68">
         <v>1.85</v>
@@ -15027,7 +15033,7 @@
         <v>116</v>
       </c>
       <c r="P69" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q69">
         <v>2.3</v>
@@ -15233,7 +15239,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q70">
         <v>2.5</v>
@@ -15645,7 +15651,7 @@
         <v>143</v>
       </c>
       <c r="P72" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q72">
         <v>2.24</v>
@@ -15851,7 +15857,7 @@
         <v>103</v>
       </c>
       <c r="P73" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q73">
         <v>3.66</v>
@@ -15944,22 +15950,22 @@
         <v>2.68</v>
       </c>
       <c r="AU73">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV73">
+        <v>8</v>
+      </c>
+      <c r="AW73">
+        <v>12</v>
+      </c>
+      <c r="AX73">
         <v>5</v>
       </c>
-      <c r="AW73">
-        <v>7</v>
-      </c>
-      <c r="AX73">
-        <v>1</v>
-      </c>
       <c r="AY73">
+        <v>19</v>
+      </c>
+      <c r="AZ73">
         <v>13</v>
-      </c>
-      <c r="AZ73">
-        <v>6</v>
       </c>
       <c r="BA73">
         <v>9</v>
@@ -16057,7 +16063,7 @@
         <v>144</v>
       </c>
       <c r="P74" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q74">
         <v>2.4</v>
@@ -16150,22 +16156,22 @@
         <v>3.49</v>
       </c>
       <c r="AU74">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AV74">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AW74">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX74">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AY74">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AZ74">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="BA74">
         <v>5</v>
@@ -16263,7 +16269,7 @@
         <v>145</v>
       </c>
       <c r="P75" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q75">
         <v>2.38</v>
@@ -16356,22 +16362,22 @@
         <v>3.24</v>
       </c>
       <c r="AU75">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AV75">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW75">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AX75">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AY75">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AZ75">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA75">
         <v>8</v>
@@ -16469,7 +16475,7 @@
         <v>128</v>
       </c>
       <c r="P76" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -16881,7 +16887,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q78">
         <v>2.75</v>
@@ -16974,31 +16980,31 @@
         <v>2.6</v>
       </c>
       <c r="AU78">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AV78">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW78">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AX78">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AY78">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="AZ78">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BA78">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BB78">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BC78">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BD78">
         <v>1.85</v>
@@ -17038,6 +17044,212 @@
       </c>
       <c r="BP78">
         <v>1.61</v>
+      </c>
+    </row>
+    <row r="79" spans="1:68">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>7296345</v>
+      </c>
+      <c r="C79" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" s="2">
+        <v>45440.58333333334</v>
+      </c>
+      <c r="F79">
+        <v>10</v>
+      </c>
+      <c r="G79" t="s">
+        <v>78</v>
+      </c>
+      <c r="H79" t="s">
+        <v>83</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79">
+        <v>2</v>
+      </c>
+      <c r="L79">
+        <v>2</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="N79">
+        <v>3</v>
+      </c>
+      <c r="O79" t="s">
+        <v>147</v>
+      </c>
+      <c r="P79" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q79">
+        <v>3.6</v>
+      </c>
+      <c r="R79">
+        <v>2.3</v>
+      </c>
+      <c r="S79">
+        <v>2.75</v>
+      </c>
+      <c r="T79">
+        <v>1.33</v>
+      </c>
+      <c r="U79">
+        <v>3.25</v>
+      </c>
+      <c r="V79">
+        <v>2.63</v>
+      </c>
+      <c r="W79">
+        <v>1.44</v>
+      </c>
+      <c r="X79">
+        <v>6.5</v>
+      </c>
+      <c r="Y79">
+        <v>1.11</v>
+      </c>
+      <c r="Z79">
+        <v>2.75</v>
+      </c>
+      <c r="AA79">
+        <v>3.6</v>
+      </c>
+      <c r="AB79">
+        <v>2.4</v>
+      </c>
+      <c r="AC79">
+        <v>1.02</v>
+      </c>
+      <c r="AD79">
+        <v>10</v>
+      </c>
+      <c r="AE79">
+        <v>1.19</v>
+      </c>
+      <c r="AF79">
+        <v>3.92</v>
+      </c>
+      <c r="AG79">
+        <v>1.66</v>
+      </c>
+      <c r="AH79">
+        <v>2.2</v>
+      </c>
+      <c r="AI79">
+        <v>1.62</v>
+      </c>
+      <c r="AJ79">
+        <v>2.2</v>
+      </c>
+      <c r="AK79">
+        <v>1.67</v>
+      </c>
+      <c r="AL79">
+        <v>1.27</v>
+      </c>
+      <c r="AM79">
+        <v>1.35</v>
+      </c>
+      <c r="AN79">
+        <v>1.25</v>
+      </c>
+      <c r="AO79">
+        <v>1.2</v>
+      </c>
+      <c r="AP79">
+        <v>1.6</v>
+      </c>
+      <c r="AQ79">
+        <v>1</v>
+      </c>
+      <c r="AR79">
+        <v>2.01</v>
+      </c>
+      <c r="AS79">
+        <v>0.97</v>
+      </c>
+      <c r="AT79">
+        <v>2.98</v>
+      </c>
+      <c r="AU79">
+        <v>4</v>
+      </c>
+      <c r="AV79">
+        <v>6</v>
+      </c>
+      <c r="AW79">
+        <v>13</v>
+      </c>
+      <c r="AX79">
+        <v>10</v>
+      </c>
+      <c r="AY79">
+        <v>17</v>
+      </c>
+      <c r="AZ79">
+        <v>16</v>
+      </c>
+      <c r="BA79">
+        <v>6</v>
+      </c>
+      <c r="BB79">
+        <v>5</v>
+      </c>
+      <c r="BC79">
+        <v>11</v>
+      </c>
+      <c r="BD79">
+        <v>2.2</v>
+      </c>
+      <c r="BE79">
+        <v>8</v>
+      </c>
+      <c r="BF79">
+        <v>1.83</v>
+      </c>
+      <c r="BG79">
+        <v>1.21</v>
+      </c>
+      <c r="BH79">
+        <v>4.2</v>
+      </c>
+      <c r="BI79">
+        <v>1.38</v>
+      </c>
+      <c r="BJ79">
+        <v>2.88</v>
+      </c>
+      <c r="BK79">
+        <v>1.68</v>
+      </c>
+      <c r="BL79">
+        <v>2.1</v>
+      </c>
+      <c r="BM79">
+        <v>2.14</v>
+      </c>
+      <c r="BN79">
+        <v>1.66</v>
+      </c>
+      <c r="BO79">
+        <v>2.88</v>
+      </c>
+      <c r="BP79">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
@@ -16998,13 +16998,13 @@
         <v>6</v>
       </c>
       <c r="BA78">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BB78">
         <v>6</v>
       </c>
       <c r="BC78">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BD78">
         <v>1.85</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="200">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -460,6 +460,9 @@
     <t>['45+2', '90+7']</t>
   </si>
   <si>
+    <t>['22']</t>
+  </si>
+  <si>
     <t>['90+1']</t>
   </si>
   <si>
@@ -493,9 +496,6 @@
     <t>['28']</t>
   </si>
   <si>
-    <t>['22']</t>
-  </si>
-  <si>
     <t>['6', '60', '62']</t>
   </si>
   <si>
@@ -611,6 +611,9 @@
   </si>
   <si>
     <t>['26']</t>
+  </si>
+  <si>
+    <t>['85']</t>
   </si>
 </sst>
 </file>
@@ -972,7 +975,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP79"/>
+  <dimension ref="A1:BP80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1231,7 +1234,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q2">
         <v>2.84</v>
@@ -1437,7 +1440,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q3">
         <v>2.2</v>
@@ -1643,7 +1646,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -1849,7 +1852,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2055,7 +2058,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q6">
         <v>2.35</v>
@@ -2261,7 +2264,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q7">
         <v>2.66</v>
@@ -2467,7 +2470,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q8">
         <v>2.8</v>
@@ -2879,7 +2882,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3085,7 +3088,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3291,7 +3294,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3909,7 +3912,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q15">
         <v>2.05</v>
@@ -3990,7 +3993,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ15">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4115,7 +4118,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -4193,7 +4196,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ16">
         <v>2</v>
@@ -7283,7 +7286,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ31">
         <v>2</v>
@@ -8931,7 +8934,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ39">
         <v>0.5</v>
@@ -11197,7 +11200,7 @@
         <v>1.67</v>
       </c>
       <c r="AP50">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ50">
         <v>1</v>
@@ -11612,7 +11615,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ52">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR52">
         <v>1.78</v>
@@ -14908,7 +14911,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ68">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR68">
         <v>1.92</v>
@@ -15523,7 +15526,7 @@
         <v>0.33</v>
       </c>
       <c r="AP71">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ71">
         <v>0.25</v>
@@ -16887,7 +16890,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q78">
         <v>2.75</v>
@@ -17250,6 +17253,212 @@
       </c>
       <c r="BP79">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="80" spans="1:68">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>7296346</v>
+      </c>
+      <c r="C80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45443.58333333334</v>
+      </c>
+      <c r="F80">
+        <v>11</v>
+      </c>
+      <c r="G80" t="s">
+        <v>84</v>
+      </c>
+      <c r="H80" t="s">
+        <v>75</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="N80">
+        <v>2</v>
+      </c>
+      <c r="O80" t="s">
+        <v>148</v>
+      </c>
+      <c r="P80" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q80">
+        <v>2.2</v>
+      </c>
+      <c r="R80">
+        <v>2.3</v>
+      </c>
+      <c r="S80">
+        <v>4.2</v>
+      </c>
+      <c r="T80">
+        <v>1.3</v>
+      </c>
+      <c r="U80">
+        <v>3.1</v>
+      </c>
+      <c r="V80">
+        <v>2.35</v>
+      </c>
+      <c r="W80">
+        <v>1.5</v>
+      </c>
+      <c r="X80">
+        <v>5</v>
+      </c>
+      <c r="Y80">
+        <v>1.12</v>
+      </c>
+      <c r="Z80">
+        <v>1.75</v>
+      </c>
+      <c r="AA80">
+        <v>3.6</v>
+      </c>
+      <c r="AB80">
+        <v>3.9</v>
+      </c>
+      <c r="AC80">
+        <v>1.04</v>
+      </c>
+      <c r="AD80">
+        <v>8.5</v>
+      </c>
+      <c r="AE80">
+        <v>1.17</v>
+      </c>
+      <c r="AF80">
+        <v>4.3</v>
+      </c>
+      <c r="AG80">
+        <v>1.6</v>
+      </c>
+      <c r="AH80">
+        <v>2.2</v>
+      </c>
+      <c r="AI80">
+        <v>1.6</v>
+      </c>
+      <c r="AJ80">
+        <v>2.15</v>
+      </c>
+      <c r="AK80">
+        <v>1.14</v>
+      </c>
+      <c r="AL80">
+        <v>1.22</v>
+      </c>
+      <c r="AM80">
+        <v>1.95</v>
+      </c>
+      <c r="AN80">
+        <v>1.8</v>
+      </c>
+      <c r="AO80">
+        <v>0</v>
+      </c>
+      <c r="AP80">
+        <v>1.67</v>
+      </c>
+      <c r="AQ80">
+        <v>0.25</v>
+      </c>
+      <c r="AR80">
+        <v>1.6</v>
+      </c>
+      <c r="AS80">
+        <v>1.26</v>
+      </c>
+      <c r="AT80">
+        <v>2.86</v>
+      </c>
+      <c r="AU80">
+        <v>2</v>
+      </c>
+      <c r="AV80">
+        <v>3</v>
+      </c>
+      <c r="AW80">
+        <v>12</v>
+      </c>
+      <c r="AX80">
+        <v>4</v>
+      </c>
+      <c r="AY80">
+        <v>14</v>
+      </c>
+      <c r="AZ80">
+        <v>7</v>
+      </c>
+      <c r="BA80">
+        <v>7</v>
+      </c>
+      <c r="BB80">
+        <v>7</v>
+      </c>
+      <c r="BC80">
+        <v>14</v>
+      </c>
+      <c r="BD80">
+        <v>1.51</v>
+      </c>
+      <c r="BE80">
+        <v>9</v>
+      </c>
+      <c r="BF80">
+        <v>3.06</v>
+      </c>
+      <c r="BG80">
+        <v>1.15</v>
+      </c>
+      <c r="BH80">
+        <v>4.8</v>
+      </c>
+      <c r="BI80">
+        <v>1.28</v>
+      </c>
+      <c r="BJ80">
+        <v>3.2</v>
+      </c>
+      <c r="BK80">
+        <v>1.5</v>
+      </c>
+      <c r="BL80">
+        <v>2.35</v>
+      </c>
+      <c r="BM80">
+        <v>1.86</v>
+      </c>
+      <c r="BN80">
+        <v>1.84</v>
+      </c>
+      <c r="BO80">
+        <v>2.34</v>
+      </c>
+      <c r="BP80">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="210">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -463,6 +463,27 @@
     <t>['22']</t>
   </si>
   <si>
+    <t>['77']</t>
+  </si>
+  <si>
+    <t>['1', '73']</t>
+  </si>
+  <si>
+    <t>['90+3']</t>
+  </si>
+  <si>
+    <t>['66']</t>
+  </si>
+  <si>
+    <t>['45+1']</t>
+  </si>
+  <si>
+    <t>['10', '47', '85']</t>
+  </si>
+  <si>
+    <t>['21']</t>
+  </si>
+  <si>
     <t>['90+1']</t>
   </si>
   <si>
@@ -511,9 +532,6 @@
     <t>['3', '10']</t>
   </si>
   <si>
-    <t>['90+3']</t>
-  </si>
-  <si>
     <t>['45+1', '79']</t>
   </si>
   <si>
@@ -614,6 +632,18 @@
   </si>
   <si>
     <t>['85']</t>
+  </si>
+  <si>
+    <t>['14', '33', '83']</t>
+  </si>
+  <si>
+    <t>['7']</t>
+  </si>
+  <si>
+    <t>['21', '83']</t>
+  </si>
+  <si>
+    <t>['66', '72', '86']</t>
   </si>
 </sst>
 </file>
@@ -975,7 +1005,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP80"/>
+  <dimension ref="A1:BP87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1234,7 +1264,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="Q2">
         <v>2.84</v>
@@ -1315,7 +1345,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ2">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1440,7 +1470,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Q3">
         <v>2.2</v>
@@ -1518,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ3">
         <v>0.5</v>
@@ -1646,7 +1676,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -1852,7 +1882,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1933,7 +1963,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ5">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2058,7 +2088,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="Q6">
         <v>2.35</v>
@@ -2136,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ6">
         <v>1</v>
@@ -2264,7 +2294,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="Q7">
         <v>2.66</v>
@@ -2345,7 +2375,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ7">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2470,7 +2500,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="Q8">
         <v>2.8</v>
@@ -2754,7 +2784,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ9">
         <v>1</v>
@@ -2882,7 +2912,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -2963,7 +2993,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ10">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3088,7 +3118,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3169,7 +3199,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ11">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3294,7 +3324,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3372,10 +3402,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ12">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3581,7 +3611,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ13">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3784,7 +3814,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ14">
         <v>1.4</v>
@@ -3912,7 +3942,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="Q15">
         <v>2.05</v>
@@ -3990,7 +4020,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ15">
         <v>0.25</v>
@@ -4324,7 +4354,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="Q17">
         <v>2.15</v>
@@ -4405,7 +4435,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ17">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR17">
         <v>2.14</v>
@@ -4530,7 +4560,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="Q18">
         <v>2.15</v>
@@ -4608,7 +4638,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ18">
         <v>2.17</v>
@@ -5020,7 +5050,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ20">
         <v>0.5</v>
@@ -5229,7 +5259,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ21">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR21">
         <v>1.74</v>
@@ -5354,7 +5384,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="Q22">
         <v>2.76</v>
@@ -5432,7 +5462,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ22">
         <v>1</v>
@@ -5560,7 +5590,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="Q23">
         <v>2.85</v>
@@ -5641,7 +5671,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ23">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR23">
         <v>1.2</v>
@@ -5766,7 +5796,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="Q24">
         <v>2.05</v>
@@ -5972,7 +6002,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6050,7 +6080,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ25">
         <v>2</v>
@@ -6178,7 +6208,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="Q26">
         <v>2.6</v>
@@ -6259,7 +6289,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ26">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR26">
         <v>1.34</v>
@@ -6465,7 +6495,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ27">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR27">
         <v>0.98</v>
@@ -6668,7 +6698,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ28">
         <v>1.4</v>
@@ -6874,10 +6904,10 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ29">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR29">
         <v>0</v>
@@ -7002,7 +7032,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="Q30">
         <v>2.25</v>
@@ -7080,7 +7110,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ30">
         <v>0.25</v>
@@ -7208,7 +7238,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7289,7 +7319,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ31">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR31">
         <v>0.83</v>
@@ -7414,7 +7444,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="Q32">
         <v>3.05</v>
@@ -7620,7 +7650,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="Q33">
         <v>2.26</v>
@@ -7701,7 +7731,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ33">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR33">
         <v>1.33</v>
@@ -7826,7 +7856,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="Q34">
         <v>3.46</v>
@@ -7904,10 +7934,10 @@
         <v>2</v>
       </c>
       <c r="AP34">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ34">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR34">
         <v>1.41</v>
@@ -8110,10 +8140,10 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ35">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR35">
         <v>1.75</v>
@@ -8238,7 +8268,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="Q36">
         <v>2.72</v>
@@ -8316,7 +8346,7 @@
         <v>2</v>
       </c>
       <c r="AP36">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ36">
         <v>2.17</v>
@@ -8650,7 +8680,7 @@
         <v>118</v>
       </c>
       <c r="P38" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q38">
         <v>4.55</v>
@@ -8731,7 +8761,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ38">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR38">
         <v>1.21</v>
@@ -8856,7 +8886,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="Q39">
         <v>2.78</v>
@@ -9140,7 +9170,7 @@
         <v>0.67</v>
       </c>
       <c r="AP40">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ40">
         <v>1</v>
@@ -9761,7 +9791,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ43">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR43">
         <v>2.44</v>
@@ -10092,7 +10122,7 @@
         <v>123</v>
       </c>
       <c r="P45" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Q45">
         <v>3.3</v>
@@ -10173,7 +10203,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ45">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR45">
         <v>1.31</v>
@@ -10298,7 +10328,7 @@
         <v>94</v>
       </c>
       <c r="P46" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10376,7 +10406,7 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ46">
         <v>1</v>
@@ -10504,7 +10534,7 @@
         <v>124</v>
       </c>
       <c r="P47" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="Q47">
         <v>3.11</v>
@@ -10788,10 +10818,10 @@
         <v>0.33</v>
       </c>
       <c r="AP48">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ48">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR48">
         <v>1.63</v>
@@ -10916,7 +10946,7 @@
         <v>126</v>
       </c>
       <c r="P49" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="Q49">
         <v>2.05</v>
@@ -10994,10 +11024,10 @@
         <v>0.5</v>
       </c>
       <c r="AP49">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ49">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR49">
         <v>1.86</v>
@@ -11122,7 +11152,7 @@
         <v>127</v>
       </c>
       <c r="P50" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="Q50">
         <v>3.03</v>
@@ -11328,7 +11358,7 @@
         <v>103</v>
       </c>
       <c r="P51" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Q51">
         <v>3.89</v>
@@ -11409,7 +11439,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ51">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR51">
         <v>1.3</v>
@@ -11818,10 +11848,10 @@
         <v>1.33</v>
       </c>
       <c r="AP53">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ53">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR53">
         <v>1.8</v>
@@ -11946,7 +11976,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="Q54">
         <v>3.4</v>
@@ -12024,10 +12054,10 @@
         <v>1.67</v>
       </c>
       <c r="AP54">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ54">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR54">
         <v>1.25</v>
@@ -12152,7 +12182,7 @@
         <v>130</v>
       </c>
       <c r="P55" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="Q55">
         <v>2.61</v>
@@ -12230,7 +12260,7 @@
         <v>2.33</v>
       </c>
       <c r="AP55">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ55">
         <v>2.17</v>
@@ -12564,7 +12594,7 @@
         <v>132</v>
       </c>
       <c r="P57" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="Q57">
         <v>2.39</v>
@@ -12770,7 +12800,7 @@
         <v>133</v>
       </c>
       <c r="P58" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="Q58">
         <v>3.6</v>
@@ -12851,7 +12881,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ58">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR58">
         <v>1.46</v>
@@ -12976,7 +13006,7 @@
         <v>134</v>
       </c>
       <c r="P59" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="Q59">
         <v>2.84</v>
@@ -13182,7 +13212,7 @@
         <v>103</v>
       </c>
       <c r="P60" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="Q60">
         <v>2.32</v>
@@ -13388,7 +13418,7 @@
         <v>103</v>
       </c>
       <c r="P61" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="Q61">
         <v>2.57</v>
@@ -13594,7 +13624,7 @@
         <v>135</v>
       </c>
       <c r="P62" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="Q62">
         <v>2.3</v>
@@ -13672,7 +13702,7 @@
         <v>0.5</v>
       </c>
       <c r="AP62">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ62">
         <v>0.5</v>
@@ -13800,7 +13830,7 @@
         <v>103</v>
       </c>
       <c r="P63" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="Q63">
         <v>2.75</v>
@@ -14006,7 +14036,7 @@
         <v>136</v>
       </c>
       <c r="P64" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q64">
         <v>2.7</v>
@@ -14084,10 +14114,10 @@
         <v>0.25</v>
       </c>
       <c r="AP64">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ64">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR64">
         <v>1.35</v>
@@ -14212,7 +14242,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -14290,10 +14320,10 @@
         <v>1.75</v>
       </c>
       <c r="AP65">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ65">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR65">
         <v>1.68</v>
@@ -14496,10 +14526,10 @@
         <v>1.5</v>
       </c>
       <c r="AP66">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ66">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR66">
         <v>1.59</v>
@@ -14705,7 +14735,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ67">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR67">
         <v>1.74</v>
@@ -14830,7 +14860,7 @@
         <v>140</v>
       </c>
       <c r="P68" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Q68">
         <v>1.85</v>
@@ -14908,7 +14938,7 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ68">
         <v>0.25</v>
@@ -15036,7 +15066,7 @@
         <v>116</v>
       </c>
       <c r="P69" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="Q69">
         <v>2.3</v>
@@ -15114,10 +15144,10 @@
         <v>1.25</v>
       </c>
       <c r="AP69">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ69">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR69">
         <v>1.49</v>
@@ -15242,7 +15272,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Q70">
         <v>2.5</v>
@@ -15320,7 +15350,7 @@
         <v>1.25</v>
       </c>
       <c r="AP70">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ70">
         <v>1</v>
@@ -15529,7 +15559,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ71">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR71">
         <v>1.38</v>
@@ -15654,7 +15684,7 @@
         <v>143</v>
       </c>
       <c r="P72" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Q72">
         <v>2.24</v>
@@ -15860,7 +15890,7 @@
         <v>103</v>
       </c>
       <c r="P73" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="Q73">
         <v>3.66</v>
@@ -16066,7 +16096,7 @@
         <v>144</v>
       </c>
       <c r="P74" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="Q74">
         <v>2.4</v>
@@ -16272,7 +16302,7 @@
         <v>145</v>
       </c>
       <c r="P75" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="Q75">
         <v>2.38</v>
@@ -16478,7 +16508,7 @@
         <v>128</v>
       </c>
       <c r="P76" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -16890,7 +16920,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="Q78">
         <v>2.75</v>
@@ -17096,7 +17126,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17302,7 +17332,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Q80">
         <v>2.2</v>
@@ -17395,22 +17425,22 @@
         <v>2.86</v>
       </c>
       <c r="AU80">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV80">
         <v>3</v>
       </c>
       <c r="AW80">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AX80">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="AY80">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="AZ80">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="BA80">
         <v>7</v>
@@ -17459,6 +17489,1448 @@
       </c>
       <c r="BP80">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:68">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>7296352</v>
+      </c>
+      <c r="C81" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" s="2">
+        <v>45444.45833333334</v>
+      </c>
+      <c r="F81">
+        <v>11</v>
+      </c>
+      <c r="G81" t="s">
+        <v>77</v>
+      </c>
+      <c r="H81" t="s">
+        <v>73</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>1</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>1</v>
+      </c>
+      <c r="O81" t="s">
+        <v>149</v>
+      </c>
+      <c r="P81" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q81">
+        <v>2.35</v>
+      </c>
+      <c r="R81">
+        <v>2.35</v>
+      </c>
+      <c r="S81">
+        <v>4.33</v>
+      </c>
+      <c r="T81">
+        <v>1.3</v>
+      </c>
+      <c r="U81">
+        <v>3.34</v>
+      </c>
+      <c r="V81">
+        <v>2.41</v>
+      </c>
+      <c r="W81">
+        <v>1.53</v>
+      </c>
+      <c r="X81">
+        <v>5.6</v>
+      </c>
+      <c r="Y81">
+        <v>1.12</v>
+      </c>
+      <c r="Z81">
+        <v>1.65</v>
+      </c>
+      <c r="AA81">
+        <v>3.9</v>
+      </c>
+      <c r="AB81">
+        <v>4.2</v>
+      </c>
+      <c r="AC81">
+        <v>1.02</v>
+      </c>
+      <c r="AD81">
+        <v>17</v>
+      </c>
+      <c r="AE81">
+        <v>1.2</v>
+      </c>
+      <c r="AF81">
+        <v>4.5</v>
+      </c>
+      <c r="AG81">
+        <v>1.58</v>
+      </c>
+      <c r="AH81">
+        <v>2.14</v>
+      </c>
+      <c r="AI81">
+        <v>1.6</v>
+      </c>
+      <c r="AJ81">
+        <v>2.3</v>
+      </c>
+      <c r="AK81">
+        <v>1.25</v>
+      </c>
+      <c r="AL81">
+        <v>1.2</v>
+      </c>
+      <c r="AM81">
+        <v>2</v>
+      </c>
+      <c r="AN81">
+        <v>2</v>
+      </c>
+      <c r="AO81">
+        <v>1</v>
+      </c>
+      <c r="AP81">
+        <v>2.17</v>
+      </c>
+      <c r="AQ81">
+        <v>0.8</v>
+      </c>
+      <c r="AR81">
+        <v>1.53</v>
+      </c>
+      <c r="AS81">
+        <v>1.25</v>
+      </c>
+      <c r="AT81">
+        <v>2.78</v>
+      </c>
+      <c r="AU81">
+        <v>8</v>
+      </c>
+      <c r="AV81">
+        <v>5</v>
+      </c>
+      <c r="AW81">
+        <v>5</v>
+      </c>
+      <c r="AX81">
+        <v>1</v>
+      </c>
+      <c r="AY81">
+        <v>13</v>
+      </c>
+      <c r="AZ81">
+        <v>6</v>
+      </c>
+      <c r="BA81">
+        <v>8</v>
+      </c>
+      <c r="BB81">
+        <v>4</v>
+      </c>
+      <c r="BC81">
+        <v>12</v>
+      </c>
+      <c r="BD81">
+        <v>1.69</v>
+      </c>
+      <c r="BE81">
+        <v>8.5</v>
+      </c>
+      <c r="BF81">
+        <v>2.53</v>
+      </c>
+      <c r="BG81">
+        <v>1.15</v>
+      </c>
+      <c r="BH81">
+        <v>4.7</v>
+      </c>
+      <c r="BI81">
+        <v>1.28</v>
+      </c>
+      <c r="BJ81">
+        <v>3.2</v>
+      </c>
+      <c r="BK81">
+        <v>1.5</v>
+      </c>
+      <c r="BL81">
+        <v>2.35</v>
+      </c>
+      <c r="BM81">
+        <v>2</v>
+      </c>
+      <c r="BN81">
+        <v>1.8</v>
+      </c>
+      <c r="BO81">
+        <v>2.34</v>
+      </c>
+      <c r="BP81">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:68">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>7296350</v>
+      </c>
+      <c r="C82" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" t="s">
+        <v>69</v>
+      </c>
+      <c r="E82" s="2">
+        <v>45444.45833333334</v>
+      </c>
+      <c r="F82">
+        <v>11</v>
+      </c>
+      <c r="G82" t="s">
+        <v>83</v>
+      </c>
+      <c r="H82" t="s">
+        <v>81</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>2</v>
+      </c>
+      <c r="K82">
+        <v>3</v>
+      </c>
+      <c r="L82">
+        <v>2</v>
+      </c>
+      <c r="M82">
+        <v>3</v>
+      </c>
+      <c r="N82">
+        <v>5</v>
+      </c>
+      <c r="O82" t="s">
+        <v>150</v>
+      </c>
+      <c r="P82" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q82">
+        <v>2.7</v>
+      </c>
+      <c r="R82">
+        <v>2.35</v>
+      </c>
+      <c r="S82">
+        <v>3.5</v>
+      </c>
+      <c r="T82">
+        <v>1.25</v>
+      </c>
+      <c r="U82">
+        <v>3.65</v>
+      </c>
+      <c r="V82">
+        <v>2.24</v>
+      </c>
+      <c r="W82">
+        <v>1.59</v>
+      </c>
+      <c r="X82">
+        <v>4.95</v>
+      </c>
+      <c r="Y82">
+        <v>1.14</v>
+      </c>
+      <c r="Z82">
+        <v>2.15</v>
+      </c>
+      <c r="AA82">
+        <v>3.6</v>
+      </c>
+      <c r="AB82">
+        <v>2.85</v>
+      </c>
+      <c r="AC82">
+        <v>1.02</v>
+      </c>
+      <c r="AD82">
+        <v>17</v>
+      </c>
+      <c r="AE82">
+        <v>1.16</v>
+      </c>
+      <c r="AF82">
+        <v>5</v>
+      </c>
+      <c r="AG82">
+        <v>1.49</v>
+      </c>
+      <c r="AH82">
+        <v>2.33</v>
+      </c>
+      <c r="AI82">
+        <v>1.47</v>
+      </c>
+      <c r="AJ82">
+        <v>2.6</v>
+      </c>
+      <c r="AK82">
+        <v>1.38</v>
+      </c>
+      <c r="AL82">
+        <v>1.22</v>
+      </c>
+      <c r="AM82">
+        <v>1.72</v>
+      </c>
+      <c r="AN82">
+        <v>2.5</v>
+      </c>
+      <c r="AO82">
+        <v>1.2</v>
+      </c>
+      <c r="AP82">
+        <v>2</v>
+      </c>
+      <c r="AQ82">
+        <v>1.5</v>
+      </c>
+      <c r="AR82">
+        <v>1.42</v>
+      </c>
+      <c r="AS82">
+        <v>1.53</v>
+      </c>
+      <c r="AT82">
+        <v>2.95</v>
+      </c>
+      <c r="AU82">
+        <v>15</v>
+      </c>
+      <c r="AV82">
+        <v>8</v>
+      </c>
+      <c r="AW82">
+        <v>4</v>
+      </c>
+      <c r="AX82">
+        <v>4</v>
+      </c>
+      <c r="AY82">
+        <v>19</v>
+      </c>
+      <c r="AZ82">
+        <v>12</v>
+      </c>
+      <c r="BA82">
+        <v>9</v>
+      </c>
+      <c r="BB82">
+        <v>5</v>
+      </c>
+      <c r="BC82">
+        <v>14</v>
+      </c>
+      <c r="BD82">
+        <v>1.75</v>
+      </c>
+      <c r="BE82">
+        <v>8.5</v>
+      </c>
+      <c r="BF82">
+        <v>2.43</v>
+      </c>
+      <c r="BG82">
+        <v>1.14</v>
+      </c>
+      <c r="BH82">
+        <v>4.8</v>
+      </c>
+      <c r="BI82">
+        <v>1.26</v>
+      </c>
+      <c r="BJ82">
+        <v>3.34</v>
+      </c>
+      <c r="BK82">
+        <v>1.45</v>
+      </c>
+      <c r="BL82">
+        <v>2.55</v>
+      </c>
+      <c r="BM82">
+        <v>1.85</v>
+      </c>
+      <c r="BN82">
+        <v>1.95</v>
+      </c>
+      <c r="BO82">
+        <v>2.27</v>
+      </c>
+      <c r="BP82">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="83" spans="1:68">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>7296351</v>
+      </c>
+      <c r="C83" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E83" s="2">
+        <v>45444.45833333334</v>
+      </c>
+      <c r="F83">
+        <v>11</v>
+      </c>
+      <c r="G83" t="s">
+        <v>82</v>
+      </c>
+      <c r="H83" t="s">
+        <v>78</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+      <c r="N83">
+        <v>2</v>
+      </c>
+      <c r="O83" t="s">
+        <v>151</v>
+      </c>
+      <c r="P83" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q83">
+        <v>2.27</v>
+      </c>
+      <c r="R83">
+        <v>2.31</v>
+      </c>
+      <c r="S83">
+        <v>4.3</v>
+      </c>
+      <c r="T83">
+        <v>1.31</v>
+      </c>
+      <c r="U83">
+        <v>3.28</v>
+      </c>
+      <c r="V83">
+        <v>2.43</v>
+      </c>
+      <c r="W83">
+        <v>1.52</v>
+      </c>
+      <c r="X83">
+        <v>5.65</v>
+      </c>
+      <c r="Y83">
+        <v>1.12</v>
+      </c>
+      <c r="Z83">
+        <v>1.8</v>
+      </c>
+      <c r="AA83">
+        <v>3.88</v>
+      </c>
+      <c r="AB83">
+        <v>3.97</v>
+      </c>
+      <c r="AC83">
+        <v>1.01</v>
+      </c>
+      <c r="AD83">
+        <v>11</v>
+      </c>
+      <c r="AE83">
+        <v>1.17</v>
+      </c>
+      <c r="AF83">
+        <v>4.15</v>
+      </c>
+      <c r="AG83">
+        <v>1.61</v>
+      </c>
+      <c r="AH83">
+        <v>2.09</v>
+      </c>
+      <c r="AI83">
+        <v>1.61</v>
+      </c>
+      <c r="AJ83">
+        <v>2.17</v>
+      </c>
+      <c r="AK83">
+        <v>1.21</v>
+      </c>
+      <c r="AL83">
+        <v>1.24</v>
+      </c>
+      <c r="AM83">
+        <v>2.02</v>
+      </c>
+      <c r="AN83">
+        <v>1.25</v>
+      </c>
+      <c r="AO83">
+        <v>0.2</v>
+      </c>
+      <c r="AP83">
+        <v>1.2</v>
+      </c>
+      <c r="AQ83">
+        <v>0.33</v>
+      </c>
+      <c r="AR83">
+        <v>1.38</v>
+      </c>
+      <c r="AS83">
+        <v>1.22</v>
+      </c>
+      <c r="AT83">
+        <v>2.6</v>
+      </c>
+      <c r="AU83">
+        <v>10</v>
+      </c>
+      <c r="AV83">
+        <v>5</v>
+      </c>
+      <c r="AW83">
+        <v>6</v>
+      </c>
+      <c r="AX83">
+        <v>4</v>
+      </c>
+      <c r="AY83">
+        <v>16</v>
+      </c>
+      <c r="AZ83">
+        <v>9</v>
+      </c>
+      <c r="BA83">
+        <v>7</v>
+      </c>
+      <c r="BB83">
+        <v>2</v>
+      </c>
+      <c r="BC83">
+        <v>9</v>
+      </c>
+      <c r="BD83">
+        <v>1.64</v>
+      </c>
+      <c r="BE83">
+        <v>8.5</v>
+      </c>
+      <c r="BF83">
+        <v>2.66</v>
+      </c>
+      <c r="BG83">
+        <v>1.22</v>
+      </c>
+      <c r="BH83">
+        <v>3.65</v>
+      </c>
+      <c r="BI83">
+        <v>1.42</v>
+      </c>
+      <c r="BJ83">
+        <v>2.65</v>
+      </c>
+      <c r="BK83">
+        <v>1.75</v>
+      </c>
+      <c r="BL83">
+        <v>1.96</v>
+      </c>
+      <c r="BM83">
+        <v>2.25</v>
+      </c>
+      <c r="BN83">
+        <v>1.57</v>
+      </c>
+      <c r="BO83">
+        <v>3</v>
+      </c>
+      <c r="BP83">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="84" spans="1:68">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>7296349</v>
+      </c>
+      <c r="C84" t="s">
+        <v>68</v>
+      </c>
+      <c r="D84" t="s">
+        <v>69</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45444.45833333334</v>
+      </c>
+      <c r="F84">
+        <v>11</v>
+      </c>
+      <c r="G84" t="s">
+        <v>85</v>
+      </c>
+      <c r="H84" t="s">
+        <v>79</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <v>1</v>
+      </c>
+      <c r="M84">
+        <v>2</v>
+      </c>
+      <c r="N84">
+        <v>3</v>
+      </c>
+      <c r="O84" t="s">
+        <v>152</v>
+      </c>
+      <c r="P84" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q84">
+        <v>2.31</v>
+      </c>
+      <c r="R84">
+        <v>2.39</v>
+      </c>
+      <c r="S84">
+        <v>4.1</v>
+      </c>
+      <c r="T84">
+        <v>1.27</v>
+      </c>
+      <c r="U84">
+        <v>3.54</v>
+      </c>
+      <c r="V84">
+        <v>2.25</v>
+      </c>
+      <c r="W84">
+        <v>1.6</v>
+      </c>
+      <c r="X84">
+        <v>5.05</v>
+      </c>
+      <c r="Y84">
+        <v>1.15</v>
+      </c>
+      <c r="Z84">
+        <v>1.84</v>
+      </c>
+      <c r="AA84">
+        <v>3.85</v>
+      </c>
+      <c r="AB84">
+        <v>3.82</v>
+      </c>
+      <c r="AC84">
+        <v>1.02</v>
+      </c>
+      <c r="AD84">
+        <v>12</v>
+      </c>
+      <c r="AE84">
+        <v>1.13</v>
+      </c>
+      <c r="AF84">
+        <v>4.75</v>
+      </c>
+      <c r="AG84">
+        <v>1.53</v>
+      </c>
+      <c r="AH84">
+        <v>2.23</v>
+      </c>
+      <c r="AI84">
+        <v>1.51</v>
+      </c>
+      <c r="AJ84">
+        <v>2.48</v>
+      </c>
+      <c r="AK84">
+        <v>1.24</v>
+      </c>
+      <c r="AL84">
+        <v>1.23</v>
+      </c>
+      <c r="AM84">
+        <v>1.95</v>
+      </c>
+      <c r="AN84">
+        <v>1.67</v>
+      </c>
+      <c r="AO84">
+        <v>1.2</v>
+      </c>
+      <c r="AP84">
+        <v>1.25</v>
+      </c>
+      <c r="AQ84">
+        <v>1.5</v>
+      </c>
+      <c r="AR84">
+        <v>2.48</v>
+      </c>
+      <c r="AS84">
+        <v>1.69</v>
+      </c>
+      <c r="AT84">
+        <v>4.17</v>
+      </c>
+      <c r="AU84">
+        <v>8</v>
+      </c>
+      <c r="AV84">
+        <v>4</v>
+      </c>
+      <c r="AW84">
+        <v>11</v>
+      </c>
+      <c r="AX84">
+        <v>3</v>
+      </c>
+      <c r="AY84">
+        <v>19</v>
+      </c>
+      <c r="AZ84">
+        <v>7</v>
+      </c>
+      <c r="BA84">
+        <v>15</v>
+      </c>
+      <c r="BB84">
+        <v>5</v>
+      </c>
+      <c r="BC84">
+        <v>20</v>
+      </c>
+      <c r="BD84">
+        <v>1.55</v>
+      </c>
+      <c r="BE84">
+        <v>9</v>
+      </c>
+      <c r="BF84">
+        <v>2.9</v>
+      </c>
+      <c r="BG84">
+        <v>1.17</v>
+      </c>
+      <c r="BH84">
+        <v>4.5</v>
+      </c>
+      <c r="BI84">
+        <v>1.28</v>
+      </c>
+      <c r="BJ84">
+        <v>3.35</v>
+      </c>
+      <c r="BK84">
+        <v>1.5</v>
+      </c>
+      <c r="BL84">
+        <v>2.4</v>
+      </c>
+      <c r="BM84">
+        <v>1.95</v>
+      </c>
+      <c r="BN84">
+        <v>1.85</v>
+      </c>
+      <c r="BO84">
+        <v>2.45</v>
+      </c>
+      <c r="BP84">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="85" spans="1:68">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>7296353</v>
+      </c>
+      <c r="C85" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45444.45833333334</v>
+      </c>
+      <c r="F85">
+        <v>11</v>
+      </c>
+      <c r="G85" t="s">
+        <v>80</v>
+      </c>
+      <c r="H85" t="s">
+        <v>72</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+      <c r="M85">
+        <v>3</v>
+      </c>
+      <c r="N85">
+        <v>4</v>
+      </c>
+      <c r="O85" t="s">
+        <v>153</v>
+      </c>
+      <c r="P85" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q85">
+        <v>3.5</v>
+      </c>
+      <c r="R85">
+        <v>2.25</v>
+      </c>
+      <c r="S85">
+        <v>2.45</v>
+      </c>
+      <c r="T85">
+        <v>1.27</v>
+      </c>
+      <c r="U85">
+        <v>3.3</v>
+      </c>
+      <c r="V85">
+        <v>2.2</v>
+      </c>
+      <c r="W85">
+        <v>1.55</v>
+      </c>
+      <c r="X85">
+        <v>4.5</v>
+      </c>
+      <c r="Y85">
+        <v>1.15</v>
+      </c>
+      <c r="Z85">
+        <v>3</v>
+      </c>
+      <c r="AA85">
+        <v>3.7</v>
+      </c>
+      <c r="AB85">
+        <v>2.17</v>
+      </c>
+      <c r="AC85">
+        <v>1.03</v>
+      </c>
+      <c r="AD85">
+        <v>12</v>
+      </c>
+      <c r="AE85">
+        <v>1.15</v>
+      </c>
+      <c r="AF85">
+        <v>4.6</v>
+      </c>
+      <c r="AG85">
+        <v>1.68</v>
+      </c>
+      <c r="AH85">
+        <v>1.99</v>
+      </c>
+      <c r="AI85">
+        <v>1.45</v>
+      </c>
+      <c r="AJ85">
+        <v>2.45</v>
+      </c>
+      <c r="AK85">
+        <v>1.7</v>
+      </c>
+      <c r="AL85">
+        <v>1.2</v>
+      </c>
+      <c r="AM85">
+        <v>1.27</v>
+      </c>
+      <c r="AN85">
+        <v>1.75</v>
+      </c>
+      <c r="AO85">
+        <v>2</v>
+      </c>
+      <c r="AP85">
+        <v>1.4</v>
+      </c>
+      <c r="AQ85">
+        <v>2.17</v>
+      </c>
+      <c r="AR85">
+        <v>1.61</v>
+      </c>
+      <c r="AS85">
+        <v>1.8</v>
+      </c>
+      <c r="AT85">
+        <v>3.41</v>
+      </c>
+      <c r="AU85">
+        <v>6</v>
+      </c>
+      <c r="AV85">
+        <v>10</v>
+      </c>
+      <c r="AW85">
+        <v>5</v>
+      </c>
+      <c r="AX85">
+        <v>16</v>
+      </c>
+      <c r="AY85">
+        <v>11</v>
+      </c>
+      <c r="AZ85">
+        <v>26</v>
+      </c>
+      <c r="BA85">
+        <v>1</v>
+      </c>
+      <c r="BB85">
+        <v>11</v>
+      </c>
+      <c r="BC85">
+        <v>12</v>
+      </c>
+      <c r="BD85">
+        <v>2.28</v>
+      </c>
+      <c r="BE85">
+        <v>8</v>
+      </c>
+      <c r="BF85">
+        <v>1.85</v>
+      </c>
+      <c r="BG85">
+        <v>1.18</v>
+      </c>
+      <c r="BH85">
+        <v>4.3</v>
+      </c>
+      <c r="BI85">
+        <v>1.31</v>
+      </c>
+      <c r="BJ85">
+        <v>3.15</v>
+      </c>
+      <c r="BK85">
+        <v>1.57</v>
+      </c>
+      <c r="BL85">
+        <v>2.25</v>
+      </c>
+      <c r="BM85">
+        <v>2</v>
+      </c>
+      <c r="BN85">
+        <v>1.72</v>
+      </c>
+      <c r="BO85">
+        <v>2.6</v>
+      </c>
+      <c r="BP85">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="86" spans="1:68">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>7296347</v>
+      </c>
+      <c r="C86" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" t="s">
+        <v>69</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45444.45833333334</v>
+      </c>
+      <c r="F86">
+        <v>11</v>
+      </c>
+      <c r="G86" t="s">
+        <v>71</v>
+      </c>
+      <c r="H86" t="s">
+        <v>70</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>3</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+      <c r="N86">
+        <v>4</v>
+      </c>
+      <c r="O86" t="s">
+        <v>154</v>
+      </c>
+      <c r="P86" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q86">
+        <v>2.55</v>
+      </c>
+      <c r="R86">
+        <v>2.25</v>
+      </c>
+      <c r="S86">
+        <v>3.4</v>
+      </c>
+      <c r="T86">
+        <v>1.32</v>
+      </c>
+      <c r="U86">
+        <v>2.95</v>
+      </c>
+      <c r="V86">
+        <v>2.35</v>
+      </c>
+      <c r="W86">
+        <v>1.5</v>
+      </c>
+      <c r="X86">
+        <v>5</v>
+      </c>
+      <c r="Y86">
+        <v>1.12</v>
+      </c>
+      <c r="Z86">
+        <v>2</v>
+      </c>
+      <c r="AA86">
+        <v>3.6</v>
+      </c>
+      <c r="AB86">
+        <v>3.1</v>
+      </c>
+      <c r="AC86">
+        <v>1.01</v>
+      </c>
+      <c r="AD86">
+        <v>10.5</v>
+      </c>
+      <c r="AE86">
+        <v>1.17</v>
+      </c>
+      <c r="AF86">
+        <v>4.3</v>
+      </c>
+      <c r="AG86">
+        <v>1.61</v>
+      </c>
+      <c r="AH86">
+        <v>2.09</v>
+      </c>
+      <c r="AI86">
+        <v>1.5</v>
+      </c>
+      <c r="AJ86">
+        <v>2.35</v>
+      </c>
+      <c r="AK86">
+        <v>1.22</v>
+      </c>
+      <c r="AL86">
+        <v>1.27</v>
+      </c>
+      <c r="AM86">
+        <v>1.67</v>
+      </c>
+      <c r="AN86">
+        <v>2.2</v>
+      </c>
+      <c r="AO86">
+        <v>0.75</v>
+      </c>
+      <c r="AP86">
+        <v>2.33</v>
+      </c>
+      <c r="AQ86">
+        <v>0.6</v>
+      </c>
+      <c r="AR86">
+        <v>1.91</v>
+      </c>
+      <c r="AS86">
+        <v>2.31</v>
+      </c>
+      <c r="AT86">
+        <v>4.22</v>
+      </c>
+      <c r="AU86">
+        <v>9</v>
+      </c>
+      <c r="AV86">
+        <v>5</v>
+      </c>
+      <c r="AW86">
+        <v>0</v>
+      </c>
+      <c r="AX86">
+        <v>3</v>
+      </c>
+      <c r="AY86">
+        <v>9</v>
+      </c>
+      <c r="AZ86">
+        <v>8</v>
+      </c>
+      <c r="BA86">
+        <v>2</v>
+      </c>
+      <c r="BB86">
+        <v>4</v>
+      </c>
+      <c r="BC86">
+        <v>6</v>
+      </c>
+      <c r="BD86">
+        <v>1.82</v>
+      </c>
+      <c r="BE86">
+        <v>8.5</v>
+      </c>
+      <c r="BF86">
+        <v>2.28</v>
+      </c>
+      <c r="BG86">
+        <v>0</v>
+      </c>
+      <c r="BH86">
+        <v>0</v>
+      </c>
+      <c r="BI86">
+        <v>1.26</v>
+      </c>
+      <c r="BJ86">
+        <v>3.5</v>
+      </c>
+      <c r="BK86">
+        <v>1.42</v>
+      </c>
+      <c r="BL86">
+        <v>2.57</v>
+      </c>
+      <c r="BM86">
+        <v>2</v>
+      </c>
+      <c r="BN86">
+        <v>1.8</v>
+      </c>
+      <c r="BO86">
+        <v>2.17</v>
+      </c>
+      <c r="BP86">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="87" spans="1:68">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>7296348</v>
+      </c>
+      <c r="C87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45444.45833333334</v>
+      </c>
+      <c r="F87">
+        <v>11</v>
+      </c>
+      <c r="G87" t="s">
+        <v>74</v>
+      </c>
+      <c r="H87" t="s">
+        <v>76</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>1</v>
+      </c>
+      <c r="O87" t="s">
+        <v>155</v>
+      </c>
+      <c r="P87" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q87">
+        <v>2.15</v>
+      </c>
+      <c r="R87">
+        <v>2.45</v>
+      </c>
+      <c r="S87">
+        <v>3.9</v>
+      </c>
+      <c r="T87">
+        <v>1.22</v>
+      </c>
+      <c r="U87">
+        <v>3.7</v>
+      </c>
+      <c r="V87">
+        <v>1.97</v>
+      </c>
+      <c r="W87">
+        <v>1.7</v>
+      </c>
+      <c r="X87">
+        <v>4.1</v>
+      </c>
+      <c r="Y87">
+        <v>1.18</v>
+      </c>
+      <c r="Z87">
+        <v>1.83</v>
+      </c>
+      <c r="AA87">
+        <v>4.1</v>
+      </c>
+      <c r="AB87">
+        <v>3.64</v>
+      </c>
+      <c r="AC87">
+        <v>1.02</v>
+      </c>
+      <c r="AD87">
+        <v>23</v>
+      </c>
+      <c r="AE87">
+        <v>1.09</v>
+      </c>
+      <c r="AF87">
+        <v>5.8</v>
+      </c>
+      <c r="AG87">
+        <v>1.37</v>
+      </c>
+      <c r="AH87">
+        <v>2.7</v>
+      </c>
+      <c r="AI87">
+        <v>1.37</v>
+      </c>
+      <c r="AJ87">
+        <v>2.75</v>
+      </c>
+      <c r="AK87">
+        <v>1.25</v>
+      </c>
+      <c r="AL87">
+        <v>1.22</v>
+      </c>
+      <c r="AM87">
+        <v>1.72</v>
+      </c>
+      <c r="AN87">
+        <v>1.2</v>
+      </c>
+      <c r="AO87">
+        <v>0.25</v>
+      </c>
+      <c r="AP87">
+        <v>1.5</v>
+      </c>
+      <c r="AQ87">
+        <v>0.2</v>
+      </c>
+      <c r="AR87">
+        <v>1.64</v>
+      </c>
+      <c r="AS87">
+        <v>0.62</v>
+      </c>
+      <c r="AT87">
+        <v>2.26</v>
+      </c>
+      <c r="AU87">
+        <v>5</v>
+      </c>
+      <c r="AV87">
+        <v>5</v>
+      </c>
+      <c r="AW87">
+        <v>6</v>
+      </c>
+      <c r="AX87">
+        <v>6</v>
+      </c>
+      <c r="AY87">
+        <v>11</v>
+      </c>
+      <c r="AZ87">
+        <v>11</v>
+      </c>
+      <c r="BA87">
+        <v>3</v>
+      </c>
+      <c r="BB87">
+        <v>14</v>
+      </c>
+      <c r="BC87">
+        <v>17</v>
+      </c>
+      <c r="BD87">
+        <v>1.51</v>
+      </c>
+      <c r="BE87">
+        <v>9</v>
+      </c>
+      <c r="BF87">
+        <v>3.06</v>
+      </c>
+      <c r="BG87">
+        <v>1.14</v>
+      </c>
+      <c r="BH87">
+        <v>4.9</v>
+      </c>
+      <c r="BI87">
+        <v>1.26</v>
+      </c>
+      <c r="BJ87">
+        <v>3.34</v>
+      </c>
+      <c r="BK87">
+        <v>1.46</v>
+      </c>
+      <c r="BL87">
+        <v>2.45</v>
+      </c>
+      <c r="BM87">
+        <v>1.88</v>
+      </c>
+      <c r="BN87">
+        <v>1.92</v>
+      </c>
+      <c r="BO87">
+        <v>2.27</v>
+      </c>
+      <c r="BP87">
+        <v>1.53</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
@@ -17837,31 +17837,31 @@
         <v>2.95</v>
       </c>
       <c r="AU82">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="AV82">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="AW82">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AX82">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AY82">
-        <v>19</v>
+        <v>-1</v>
       </c>
       <c r="AZ82">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="BA82">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="BB82">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BC82">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="BD82">
         <v>1.75</v>
@@ -18043,22 +18043,22 @@
         <v>2.6</v>
       </c>
       <c r="AU83">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV83">
+        <v>4</v>
+      </c>
+      <c r="AW83">
         <v>5</v>
       </c>
-      <c r="AW83">
-        <v>6</v>
-      </c>
       <c r="AX83">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY83">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AZ83">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA83">
         <v>7</v>
@@ -18249,22 +18249,22 @@
         <v>4.17</v>
       </c>
       <c r="AU84">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV84">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW84">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AX84">
+        <v>1</v>
+      </c>
+      <c r="AY84">
+        <v>13</v>
+      </c>
+      <c r="AZ84">
         <v>3</v>
-      </c>
-      <c r="AY84">
-        <v>19</v>
-      </c>
-      <c r="AZ84">
-        <v>7</v>
       </c>
       <c r="BA84">
         <v>15</v>
@@ -18661,31 +18661,31 @@
         <v>4.22</v>
       </c>
       <c r="AU86">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="AV86">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AW86">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AX86">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AY86">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="AZ86">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="BA86">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BB86">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="BC86">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="BD86">
         <v>1.82</v>
@@ -18867,22 +18867,22 @@
         <v>2.26</v>
       </c>
       <c r="AU87">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV87">
         <v>5</v>
       </c>
       <c r="AW87">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX87">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AY87">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AZ87">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA87">
         <v>3</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="210">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1005,7 +1005,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP87"/>
+  <dimension ref="A1:BP88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6907,7 +6907,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ29">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR29">
         <v>1.26</v>
@@ -7110,7 +7110,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ30">
         <v>0.8</v>
@@ -9173,7 +9173,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ40">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR40">
         <v>0.79</v>
@@ -10200,7 +10200,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ45">
         <v>1</v>
@@ -12469,7 +12469,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ56">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR56">
         <v>1.56</v>
@@ -14732,7 +14732,7 @@
         <v>1.25</v>
       </c>
       <c r="AP67">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ67">
         <v>1</v>
@@ -17001,7 +17001,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ78">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR78">
         <v>1.22</v>
@@ -17616,7 +17616,7 @@
         <v>1.2</v>
       </c>
       <c r="AP81">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ81">
         <v>1.5</v>
@@ -18931,6 +18931,212 @@
       </c>
       <c r="BP87">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="88" spans="1:68">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>7296274</v>
+      </c>
+      <c r="C88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88" t="s">
+        <v>69</v>
+      </c>
+      <c r="E88" s="2">
+        <v>45448.5</v>
+      </c>
+      <c r="F88">
+        <v>2</v>
+      </c>
+      <c r="G88" t="s">
+        <v>85</v>
+      </c>
+      <c r="H88" t="s">
+        <v>74</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>1</v>
+      </c>
+      <c r="O88" t="s">
+        <v>89</v>
+      </c>
+      <c r="P88" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q88">
+        <v>2</v>
+      </c>
+      <c r="R88">
+        <v>2.6</v>
+      </c>
+      <c r="S88">
+        <v>4.5</v>
+      </c>
+      <c r="T88">
+        <v>1.22</v>
+      </c>
+      <c r="U88">
+        <v>4.1</v>
+      </c>
+      <c r="V88">
+        <v>2</v>
+      </c>
+      <c r="W88">
+        <v>1.72</v>
+      </c>
+      <c r="X88">
+        <v>4</v>
+      </c>
+      <c r="Y88">
+        <v>1.2</v>
+      </c>
+      <c r="Z88">
+        <v>1.53</v>
+      </c>
+      <c r="AA88">
+        <v>4.33</v>
+      </c>
+      <c r="AB88">
+        <v>4.6</v>
+      </c>
+      <c r="AC88">
+        <v>1.01</v>
+      </c>
+      <c r="AD88">
+        <v>28</v>
+      </c>
+      <c r="AE88">
+        <v>1.12</v>
+      </c>
+      <c r="AF88">
+        <v>6.45</v>
+      </c>
+      <c r="AG88">
+        <v>1.35</v>
+      </c>
+      <c r="AH88">
+        <v>2.94</v>
+      </c>
+      <c r="AI88">
+        <v>1.48</v>
+      </c>
+      <c r="AJ88">
+        <v>2.6</v>
+      </c>
+      <c r="AK88">
+        <v>1.2</v>
+      </c>
+      <c r="AL88">
+        <v>1.2</v>
+      </c>
+      <c r="AM88">
+        <v>2.3</v>
+      </c>
+      <c r="AN88">
+        <v>1.25</v>
+      </c>
+      <c r="AO88">
+        <v>0.25</v>
+      </c>
+      <c r="AP88">
+        <v>1.6</v>
+      </c>
+      <c r="AQ88">
+        <v>0.2</v>
+      </c>
+      <c r="AR88">
+        <v>2.39</v>
+      </c>
+      <c r="AS88">
+        <v>1.27</v>
+      </c>
+      <c r="AT88">
+        <v>3.66</v>
+      </c>
+      <c r="AU88">
+        <v>3</v>
+      </c>
+      <c r="AV88">
+        <v>7</v>
+      </c>
+      <c r="AW88">
+        <v>3</v>
+      </c>
+      <c r="AX88">
+        <v>5</v>
+      </c>
+      <c r="AY88">
+        <v>6</v>
+      </c>
+      <c r="AZ88">
+        <v>12</v>
+      </c>
+      <c r="BA88">
+        <v>7</v>
+      </c>
+      <c r="BB88">
+        <v>4</v>
+      </c>
+      <c r="BC88">
+        <v>11</v>
+      </c>
+      <c r="BD88">
+        <v>1.61</v>
+      </c>
+      <c r="BE88">
+        <v>9.6</v>
+      </c>
+      <c r="BF88">
+        <v>2.63</v>
+      </c>
+      <c r="BG88">
+        <v>0</v>
+      </c>
+      <c r="BH88">
+        <v>0</v>
+      </c>
+      <c r="BI88">
+        <v>1.24</v>
+      </c>
+      <c r="BJ88">
+        <v>3.48</v>
+      </c>
+      <c r="BK88">
+        <v>1.49</v>
+      </c>
+      <c r="BL88">
+        <v>2.54</v>
+      </c>
+      <c r="BM88">
+        <v>1.81</v>
+      </c>
+      <c r="BN88">
+        <v>1.99</v>
+      </c>
+      <c r="BO88">
+        <v>2.25</v>
+      </c>
+      <c r="BP88">
+        <v>1.61</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="221">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -484,6 +484,24 @@
     <t>['90+3']</t>
   </si>
   <si>
+    <t>['21', '35', '47']</t>
+  </si>
+  <si>
+    <t>['50', '79']</t>
+  </si>
+  <si>
+    <t>['32']</t>
+  </si>
+  <si>
+    <t>['21', '27', '44', '82']</t>
+  </si>
+  <si>
+    <t>['51']</t>
+  </si>
+  <si>
+    <t>['26', '55', '57', '75', '90+3']</t>
+  </si>
+  <si>
     <t>['90+1']</t>
   </si>
   <si>
@@ -644,6 +662,21 @@
   </si>
   <si>
     <t>['7']</t>
+  </si>
+  <si>
+    <t>['43', '59', '70']</t>
+  </si>
+  <si>
+    <t>['63', '66']</t>
+  </si>
+  <si>
+    <t>['27', '34', '46', '49']</t>
+  </si>
+  <si>
+    <t>['41', '65', '73', '87']</t>
+  </si>
+  <si>
+    <t>['59']</t>
   </si>
 </sst>
 </file>
@@ -1005,7 +1038,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP88"/>
+  <dimension ref="A1:BP94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1264,7 +1297,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="Q2">
         <v>2.84</v>
@@ -1342,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ2">
         <v>0.33</v>
@@ -1470,7 +1503,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="Q3">
         <v>2.2</v>
@@ -1551,7 +1584,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ3">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1676,7 +1709,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -1754,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ4">
         <v>1</v>
@@ -1882,7 +1915,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1960,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ5">
         <v>1.5</v>
@@ -2088,7 +2121,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="Q6">
         <v>2.35</v>
@@ -2294,7 +2327,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="Q7">
         <v>2.66</v>
@@ -2372,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ7">
         <v>1.5</v>
@@ -2500,7 +2533,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="Q8">
         <v>2.8</v>
@@ -2581,7 +2614,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ8">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2787,7 +2820,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2912,7 +2945,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -2990,7 +3023,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ10">
         <v>0.8</v>
@@ -3118,7 +3151,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3324,7 +3357,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3817,7 +3850,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ14">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3942,7 +3975,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="Q15">
         <v>2.05</v>
@@ -4020,7 +4053,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ15">
         <v>0.25</v>
@@ -4229,7 +4262,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ16">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4354,7 +4387,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q17">
         <v>2.15</v>
@@ -4432,7 +4465,7 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ17">
         <v>1.5</v>
@@ -4560,7 +4593,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="Q18">
         <v>2.15</v>
@@ -4641,7 +4674,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ18">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR18">
         <v>1.34</v>
@@ -4844,7 +4877,7 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ19">
         <v>1</v>
@@ -5053,7 +5086,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ20">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR20">
         <v>1.13</v>
@@ -5384,7 +5417,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="Q22">
         <v>2.76</v>
@@ -5590,7 +5623,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="Q23">
         <v>2.85</v>
@@ -5668,7 +5701,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ23">
         <v>0.33</v>
@@ -5796,7 +5829,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="Q24">
         <v>2.05</v>
@@ -5874,10 +5907,10 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ24">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR24">
         <v>1.52</v>
@@ -6080,10 +6113,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ25">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR25">
         <v>1.76</v>
@@ -6286,7 +6319,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ26">
         <v>0.2</v>
@@ -6414,7 +6447,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6495,7 +6528,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ27">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR27">
         <v>1.67</v>
@@ -6826,7 +6859,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q29">
         <v>2.25</v>
@@ -6907,7 +6940,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ29">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR29">
         <v>1.26</v>
@@ -7238,7 +7271,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7522,7 +7555,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ32">
         <v>1</v>
@@ -7650,7 +7683,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Q33">
         <v>3.05</v>
@@ -7856,7 +7889,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="Q34">
         <v>2.26</v>
@@ -7934,7 +7967,7 @@
         <v>0.5</v>
       </c>
       <c r="AP34">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ34">
         <v>1.5</v>
@@ -8062,7 +8095,7 @@
         <v>115</v>
       </c>
       <c r="P35" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="Q35">
         <v>3.46</v>
@@ -8474,7 +8507,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="Q37">
         <v>2.72</v>
@@ -8555,7 +8588,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ37">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR37">
         <v>1.12</v>
@@ -8680,7 +8713,7 @@
         <v>118</v>
       </c>
       <c r="P38" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Q38">
         <v>4.55</v>
@@ -8758,7 +8791,7 @@
         <v>2</v>
       </c>
       <c r="AP38">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ38">
         <v>2.17</v>
@@ -8886,7 +8919,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="Q39">
         <v>2.78</v>
@@ -8967,7 +9000,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ39">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR39">
         <v>1.22</v>
@@ -9173,7 +9206,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ40">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR40">
         <v>0.79</v>
@@ -9376,7 +9409,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ41">
         <v>0.6</v>
@@ -9582,10 +9615,10 @@
         <v>0.33</v>
       </c>
       <c r="AP42">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ42">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR42">
         <v>1.34</v>
@@ -9710,7 +9743,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="Q43">
         <v>3.11</v>
@@ -9791,7 +9824,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ43">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR43">
         <v>1.39</v>
@@ -9916,7 +9949,7 @@
         <v>123</v>
       </c>
       <c r="P44" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="Q44">
         <v>3.3</v>
@@ -9994,7 +10027,7 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ44">
         <v>0.8</v>
@@ -10122,7 +10155,7 @@
         <v>94</v>
       </c>
       <c r="P45" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="Q45">
         <v>2.4</v>
@@ -10203,7 +10236,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ45">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR45">
         <v>2.74</v>
@@ -10409,7 +10442,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ46">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR46">
         <v>1.14</v>
@@ -10818,7 +10851,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ48">
         <v>0.25</v>
@@ -11152,7 +11185,7 @@
         <v>103</v>
       </c>
       <c r="P50" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="Q50">
         <v>3.89</v>
@@ -11230,7 +11263,7 @@
         <v>1.33</v>
       </c>
       <c r="AP50">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ50">
         <v>2.17</v>
@@ -11358,7 +11391,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="Q51">
         <v>2.61</v>
@@ -11439,7 +11472,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ51">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR51">
         <v>1.26</v>
@@ -11564,7 +11597,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -11770,7 +11803,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="Q53">
         <v>2.05</v>
@@ -11848,7 +11881,7 @@
         <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ53">
         <v>0.2</v>
@@ -11976,7 +12009,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="Q54">
         <v>3.03</v>
@@ -12466,10 +12499,10 @@
         <v>0.5</v>
       </c>
       <c r="AP56">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ56">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR56">
         <v>1.56</v>
@@ -12594,7 +12627,7 @@
         <v>103</v>
       </c>
       <c r="P57" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="Q57">
         <v>2.57</v>
@@ -12672,7 +12705,7 @@
         <v>0.75</v>
       </c>
       <c r="AP57">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ57">
         <v>1</v>
@@ -12800,7 +12833,7 @@
         <v>132</v>
       </c>
       <c r="P58" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q58">
         <v>2.3</v>
@@ -12881,7 +12914,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ58">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR58">
         <v>1.49</v>
@@ -13006,7 +13039,7 @@
         <v>103</v>
       </c>
       <c r="P59" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="Q59">
         <v>2.75</v>
@@ -13087,7 +13120,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ59">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR59">
         <v>1.1</v>
@@ -13212,7 +13245,7 @@
         <v>103</v>
       </c>
       <c r="P60" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Q60">
         <v>2.32</v>
@@ -13290,10 +13323,10 @@
         <v>1.33</v>
       </c>
       <c r="AP60">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ60">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR60">
         <v>2.26</v>
@@ -13418,7 +13451,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="Q61">
         <v>3.6</v>
@@ -13624,7 +13657,7 @@
         <v>134</v>
       </c>
       <c r="P62" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Q62">
         <v>2.39</v>
@@ -13705,7 +13738,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ62">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR62">
         <v>1.79</v>
@@ -13830,7 +13863,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Q63">
         <v>2.84</v>
@@ -13908,10 +13941,10 @@
         <v>2.5</v>
       </c>
       <c r="AP63">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ63">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR63">
         <v>1.75</v>
@@ -14036,7 +14069,7 @@
         <v>136</v>
       </c>
       <c r="P64" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="Q64">
         <v>2.7</v>
@@ -14242,7 +14275,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -14654,7 +14687,7 @@
         <v>139</v>
       </c>
       <c r="P67" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="Q67">
         <v>2.5</v>
@@ -14860,7 +14893,7 @@
         <v>117</v>
       </c>
       <c r="P68" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="Q68">
         <v>2.3</v>
@@ -14938,7 +14971,7 @@
         <v>1.25</v>
       </c>
       <c r="AP68">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ68">
         <v>1.5</v>
@@ -15144,7 +15177,7 @@
         <v>1.33</v>
       </c>
       <c r="AP69">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ69">
         <v>0.8</v>
@@ -15272,7 +15305,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="Q70">
         <v>1.85</v>
@@ -15684,7 +15717,7 @@
         <v>143</v>
       </c>
       <c r="P72" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Q72">
         <v>2.24</v>
@@ -15762,7 +15795,7 @@
         <v>1.2</v>
       </c>
       <c r="AP72">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ72">
         <v>1</v>
@@ -15890,7 +15923,7 @@
         <v>103</v>
       </c>
       <c r="P73" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="Q73">
         <v>3.66</v>
@@ -15971,7 +16004,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ73">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR73">
         <v>1.41</v>
@@ -16096,7 +16129,7 @@
         <v>144</v>
       </c>
       <c r="P74" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="Q74">
         <v>2.4</v>
@@ -16177,7 +16210,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ74">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR74">
         <v>1.87</v>
@@ -16302,7 +16335,7 @@
         <v>145</v>
       </c>
       <c r="P75" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="Q75">
         <v>2.38</v>
@@ -16380,10 +16413,10 @@
         <v>0.6</v>
       </c>
       <c r="AP75">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ75">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR75">
         <v>1.76</v>
@@ -16508,7 +16541,7 @@
         <v>125</v>
       </c>
       <c r="P76" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -16586,10 +16619,10 @@
         <v>1</v>
       </c>
       <c r="AP76">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ76">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR76">
         <v>1.63</v>
@@ -16795,7 +16828,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ77">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR77">
         <v>1.11</v>
@@ -16920,7 +16953,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="Q78">
         <v>2.75</v>
@@ -16998,10 +17031,10 @@
         <v>0.33</v>
       </c>
       <c r="AP78">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ78">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR78">
         <v>1.22</v>
@@ -17126,7 +17159,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17204,7 +17237,7 @@
         <v>1.2</v>
       </c>
       <c r="AP79">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ79">
         <v>1</v>
@@ -17332,7 +17365,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="Q80">
         <v>2.2</v>
@@ -17538,7 +17571,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Q81">
         <v>2.31</v>
@@ -17950,7 +17983,7 @@
         <v>151</v>
       </c>
       <c r="P83" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="Q83">
         <v>2.7</v>
@@ -18028,7 +18061,7 @@
         <v>1.2</v>
       </c>
       <c r="AP83">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ83">
         <v>1.5</v>
@@ -18362,7 +18395,7 @@
         <v>153</v>
       </c>
       <c r="P85" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="Q85">
         <v>3.5</v>
@@ -18568,7 +18601,7 @@
         <v>154</v>
       </c>
       <c r="P86" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Q86">
         <v>2.55</v>
@@ -18774,7 +18807,7 @@
         <v>155</v>
       </c>
       <c r="P87" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="Q87">
         <v>2.27</v>
@@ -19061,7 +19094,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ88">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR88">
         <v>2.39</v>
@@ -19137,6 +19170,1242 @@
       </c>
       <c r="BP88">
         <v>1.61</v>
+      </c>
+    </row>
+    <row r="89" spans="1:68">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>7296354</v>
+      </c>
+      <c r="C89" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45452.5</v>
+      </c>
+      <c r="F89">
+        <v>12</v>
+      </c>
+      <c r="G89" t="s">
+        <v>75</v>
+      </c>
+      <c r="H89" t="s">
+        <v>80</v>
+      </c>
+      <c r="I89">
+        <v>2</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89">
+        <v>3</v>
+      </c>
+      <c r="L89">
+        <v>3</v>
+      </c>
+      <c r="M89">
+        <v>3</v>
+      </c>
+      <c r="N89">
+        <v>6</v>
+      </c>
+      <c r="O89" t="s">
+        <v>156</v>
+      </c>
+      <c r="P89" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q89">
+        <v>2.8</v>
+      </c>
+      <c r="R89">
+        <v>2.38</v>
+      </c>
+      <c r="S89">
+        <v>3.1</v>
+      </c>
+      <c r="T89">
+        <v>1.29</v>
+      </c>
+      <c r="U89">
+        <v>3.4</v>
+      </c>
+      <c r="V89">
+        <v>2.25</v>
+      </c>
+      <c r="W89">
+        <v>1.57</v>
+      </c>
+      <c r="X89">
+        <v>4.75</v>
+      </c>
+      <c r="Y89">
+        <v>1.15</v>
+      </c>
+      <c r="Z89">
+        <v>2.61</v>
+      </c>
+      <c r="AA89">
+        <v>3.68</v>
+      </c>
+      <c r="AB89">
+        <v>2.41</v>
+      </c>
+      <c r="AC89">
+        <v>1.03</v>
+      </c>
+      <c r="AD89">
+        <v>18</v>
+      </c>
+      <c r="AE89">
+        <v>1.15</v>
+      </c>
+      <c r="AF89">
+        <v>4.75</v>
+      </c>
+      <c r="AG89">
+        <v>1.57</v>
+      </c>
+      <c r="AH89">
+        <v>2.38</v>
+      </c>
+      <c r="AI89">
+        <v>1.48</v>
+      </c>
+      <c r="AJ89">
+        <v>2.5</v>
+      </c>
+      <c r="AK89">
+        <v>1.48</v>
+      </c>
+      <c r="AL89">
+        <v>1.29</v>
+      </c>
+      <c r="AM89">
+        <v>1.55</v>
+      </c>
+      <c r="AN89">
+        <v>1.5</v>
+      </c>
+      <c r="AO89">
+        <v>0.5</v>
+      </c>
+      <c r="AP89">
+        <v>1.43</v>
+      </c>
+      <c r="AQ89">
+        <v>0.57</v>
+      </c>
+      <c r="AR89">
+        <v>1.53</v>
+      </c>
+      <c r="AS89">
+        <v>1.49</v>
+      </c>
+      <c r="AT89">
+        <v>3.02</v>
+      </c>
+      <c r="AU89">
+        <v>5</v>
+      </c>
+      <c r="AV89">
+        <v>7</v>
+      </c>
+      <c r="AW89">
+        <v>5</v>
+      </c>
+      <c r="AX89">
+        <v>6</v>
+      </c>
+      <c r="AY89">
+        <v>10</v>
+      </c>
+      <c r="AZ89">
+        <v>13</v>
+      </c>
+      <c r="BA89">
+        <v>7</v>
+      </c>
+      <c r="BB89">
+        <v>8</v>
+      </c>
+      <c r="BC89">
+        <v>15</v>
+      </c>
+      <c r="BD89">
+        <v>1.81</v>
+      </c>
+      <c r="BE89">
+        <v>9.4</v>
+      </c>
+      <c r="BF89">
+        <v>2.24</v>
+      </c>
+      <c r="BG89">
+        <v>1.17</v>
+      </c>
+      <c r="BH89">
+        <v>4.75</v>
+      </c>
+      <c r="BI89">
+        <v>1.26</v>
+      </c>
+      <c r="BJ89">
+        <v>3.34</v>
+      </c>
+      <c r="BK89">
+        <v>1.52</v>
+      </c>
+      <c r="BL89">
+        <v>2.45</v>
+      </c>
+      <c r="BM89">
+        <v>1.86</v>
+      </c>
+      <c r="BN89">
+        <v>1.93</v>
+      </c>
+      <c r="BO89">
+        <v>2.32</v>
+      </c>
+      <c r="BP89">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="90" spans="1:68">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>7296356</v>
+      </c>
+      <c r="C90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D90" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45452.5</v>
+      </c>
+      <c r="F90">
+        <v>12</v>
+      </c>
+      <c r="G90" t="s">
+        <v>83</v>
+      </c>
+      <c r="H90" t="s">
+        <v>85</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>2</v>
+      </c>
+      <c r="M90">
+        <v>2</v>
+      </c>
+      <c r="N90">
+        <v>4</v>
+      </c>
+      <c r="O90" t="s">
+        <v>157</v>
+      </c>
+      <c r="P90" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q90">
+        <v>2.6</v>
+      </c>
+      <c r="R90">
+        <v>2.5</v>
+      </c>
+      <c r="S90">
+        <v>3.5</v>
+      </c>
+      <c r="T90">
+        <v>1.25</v>
+      </c>
+      <c r="U90">
+        <v>3.75</v>
+      </c>
+      <c r="V90">
+        <v>2.2</v>
+      </c>
+      <c r="W90">
+        <v>1.62</v>
+      </c>
+      <c r="X90">
+        <v>5</v>
+      </c>
+      <c r="Y90">
+        <v>1.17</v>
+      </c>
+      <c r="Z90">
+        <v>2.26</v>
+      </c>
+      <c r="AA90">
+        <v>3.76</v>
+      </c>
+      <c r="AB90">
+        <v>2.8</v>
+      </c>
+      <c r="AC90">
+        <v>1.02</v>
+      </c>
+      <c r="AD90">
+        <v>19.75</v>
+      </c>
+      <c r="AE90">
+        <v>1.16</v>
+      </c>
+      <c r="AF90">
+        <v>5.2</v>
+      </c>
+      <c r="AG90">
+        <v>1.47</v>
+      </c>
+      <c r="AH90">
+        <v>2.5</v>
+      </c>
+      <c r="AI90">
+        <v>1.44</v>
+      </c>
+      <c r="AJ90">
+        <v>2.63</v>
+      </c>
+      <c r="AK90">
+        <v>1.35</v>
+      </c>
+      <c r="AL90">
+        <v>1.28</v>
+      </c>
+      <c r="AM90">
+        <v>1.72</v>
+      </c>
+      <c r="AN90">
+        <v>2</v>
+      </c>
+      <c r="AO90">
+        <v>2.17</v>
+      </c>
+      <c r="AP90">
+        <v>1.83</v>
+      </c>
+      <c r="AQ90">
+        <v>2</v>
+      </c>
+      <c r="AR90">
+        <v>1.67</v>
+      </c>
+      <c r="AS90">
+        <v>1.64</v>
+      </c>
+      <c r="AT90">
+        <v>3.31</v>
+      </c>
+      <c r="AU90">
+        <v>7</v>
+      </c>
+      <c r="AV90">
+        <v>4</v>
+      </c>
+      <c r="AW90">
+        <v>2</v>
+      </c>
+      <c r="AX90">
+        <v>4</v>
+      </c>
+      <c r="AY90">
+        <v>9</v>
+      </c>
+      <c r="AZ90">
+        <v>8</v>
+      </c>
+      <c r="BA90">
+        <v>5</v>
+      </c>
+      <c r="BB90">
+        <v>5</v>
+      </c>
+      <c r="BC90">
+        <v>10</v>
+      </c>
+      <c r="BD90">
+        <v>1.65</v>
+      </c>
+      <c r="BE90">
+        <v>9.4</v>
+      </c>
+      <c r="BF90">
+        <v>2.54</v>
+      </c>
+      <c r="BG90">
+        <v>1.14</v>
+      </c>
+      <c r="BH90">
+        <v>4.8</v>
+      </c>
+      <c r="BI90">
+        <v>1.26</v>
+      </c>
+      <c r="BJ90">
+        <v>3.34</v>
+      </c>
+      <c r="BK90">
+        <v>1.52</v>
+      </c>
+      <c r="BL90">
+        <v>2.47</v>
+      </c>
+      <c r="BM90">
+        <v>1.86</v>
+      </c>
+      <c r="BN90">
+        <v>1.93</v>
+      </c>
+      <c r="BO90">
+        <v>2.33</v>
+      </c>
+      <c r="BP90">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="91" spans="1:68">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>7296358</v>
+      </c>
+      <c r="C91" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" t="s">
+        <v>69</v>
+      </c>
+      <c r="E91" s="2">
+        <v>45452.5</v>
+      </c>
+      <c r="F91">
+        <v>12</v>
+      </c>
+      <c r="G91" t="s">
+        <v>78</v>
+      </c>
+      <c r="H91" t="s">
+        <v>84</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>2</v>
+      </c>
+      <c r="K91">
+        <v>3</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>4</v>
+      </c>
+      <c r="N91">
+        <v>5</v>
+      </c>
+      <c r="O91" t="s">
+        <v>158</v>
+      </c>
+      <c r="P91" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q91">
+        <v>3</v>
+      </c>
+      <c r="R91">
+        <v>2.25</v>
+      </c>
+      <c r="S91">
+        <v>3.1</v>
+      </c>
+      <c r="T91">
+        <v>1.3</v>
+      </c>
+      <c r="U91">
+        <v>3.34</v>
+      </c>
+      <c r="V91">
+        <v>2.38</v>
+      </c>
+      <c r="W91">
+        <v>1.54</v>
+      </c>
+      <c r="X91">
+        <v>5.5</v>
+      </c>
+      <c r="Y91">
+        <v>1.13</v>
+      </c>
+      <c r="Z91">
+        <v>2.58</v>
+      </c>
+      <c r="AA91">
+        <v>3.58</v>
+      </c>
+      <c r="AB91">
+        <v>2.49</v>
+      </c>
+      <c r="AC91">
+        <v>1.01</v>
+      </c>
+      <c r="AD91">
+        <v>11</v>
+      </c>
+      <c r="AE91">
+        <v>1.18</v>
+      </c>
+      <c r="AF91">
+        <v>4.33</v>
+      </c>
+      <c r="AG91">
+        <v>1.62</v>
+      </c>
+      <c r="AH91">
+        <v>2.25</v>
+      </c>
+      <c r="AI91">
+        <v>1.5</v>
+      </c>
+      <c r="AJ91">
+        <v>2.4</v>
+      </c>
+      <c r="AK91">
+        <v>1.48</v>
+      </c>
+      <c r="AL91">
+        <v>1.3</v>
+      </c>
+      <c r="AM91">
+        <v>1.53</v>
+      </c>
+      <c r="AN91">
+        <v>1.6</v>
+      </c>
+      <c r="AO91">
+        <v>1</v>
+      </c>
+      <c r="AP91">
+        <v>1.33</v>
+      </c>
+      <c r="AQ91">
+        <v>1.33</v>
+      </c>
+      <c r="AR91">
+        <v>1.98</v>
+      </c>
+      <c r="AS91">
+        <v>1.9</v>
+      </c>
+      <c r="AT91">
+        <v>3.88</v>
+      </c>
+      <c r="AU91">
+        <v>4</v>
+      </c>
+      <c r="AV91">
+        <v>10</v>
+      </c>
+      <c r="AW91">
+        <v>4</v>
+      </c>
+      <c r="AX91">
+        <v>12</v>
+      </c>
+      <c r="AY91">
+        <v>8</v>
+      </c>
+      <c r="AZ91">
+        <v>22</v>
+      </c>
+      <c r="BA91">
+        <v>2</v>
+      </c>
+      <c r="BB91">
+        <v>6</v>
+      </c>
+      <c r="BC91">
+        <v>8</v>
+      </c>
+      <c r="BD91">
+        <v>1.99</v>
+      </c>
+      <c r="BE91">
+        <v>8.9</v>
+      </c>
+      <c r="BF91">
+        <v>2.04</v>
+      </c>
+      <c r="BG91">
+        <v>1.19</v>
+      </c>
+      <c r="BH91">
+        <v>3.98</v>
+      </c>
+      <c r="BI91">
+        <v>1.37</v>
+      </c>
+      <c r="BJ91">
+        <v>2.75</v>
+      </c>
+      <c r="BK91">
+        <v>1.68</v>
+      </c>
+      <c r="BL91">
+        <v>2.06</v>
+      </c>
+      <c r="BM91">
+        <v>2.09</v>
+      </c>
+      <c r="BN91">
+        <v>1.63</v>
+      </c>
+      <c r="BO91">
+        <v>2.78</v>
+      </c>
+      <c r="BP91">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="92" spans="1:68">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>7296359</v>
+      </c>
+      <c r="C92" t="s">
+        <v>68</v>
+      </c>
+      <c r="D92" t="s">
+        <v>69</v>
+      </c>
+      <c r="E92" s="2">
+        <v>45452.5</v>
+      </c>
+      <c r="F92">
+        <v>12</v>
+      </c>
+      <c r="G92" t="s">
+        <v>73</v>
+      </c>
+      <c r="H92" t="s">
+        <v>71</v>
+      </c>
+      <c r="I92">
+        <v>3</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92">
+        <v>4</v>
+      </c>
+      <c r="L92">
+        <v>4</v>
+      </c>
+      <c r="M92">
+        <v>4</v>
+      </c>
+      <c r="N92">
+        <v>8</v>
+      </c>
+      <c r="O92" t="s">
+        <v>159</v>
+      </c>
+      <c r="P92" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q92">
+        <v>3.6</v>
+      </c>
+      <c r="R92">
+        <v>2.4</v>
+      </c>
+      <c r="S92">
+        <v>2.4</v>
+      </c>
+      <c r="T92">
+        <v>1.25</v>
+      </c>
+      <c r="U92">
+        <v>3.6</v>
+      </c>
+      <c r="V92">
+        <v>2.2</v>
+      </c>
+      <c r="W92">
+        <v>1.62</v>
+      </c>
+      <c r="X92">
+        <v>4.75</v>
+      </c>
+      <c r="Y92">
+        <v>1.15</v>
+      </c>
+      <c r="Z92">
+        <v>3.57</v>
+      </c>
+      <c r="AA92">
+        <v>3.88</v>
+      </c>
+      <c r="AB92">
+        <v>1.9</v>
+      </c>
+      <c r="AC92">
+        <v>1.02</v>
+      </c>
+      <c r="AD92">
+        <v>12</v>
+      </c>
+      <c r="AE92">
+        <v>1.13</v>
+      </c>
+      <c r="AF92">
+        <v>5</v>
+      </c>
+      <c r="AG92">
+        <v>1.46</v>
+      </c>
+      <c r="AH92">
+        <v>2.52</v>
+      </c>
+      <c r="AI92">
+        <v>1.48</v>
+      </c>
+      <c r="AJ92">
+        <v>2.5</v>
+      </c>
+      <c r="AK92">
+        <v>1.83</v>
+      </c>
+      <c r="AL92">
+        <v>1.25</v>
+      </c>
+      <c r="AM92">
+        <v>1.33</v>
+      </c>
+      <c r="AN92">
+        <v>0.67</v>
+      </c>
+      <c r="AO92">
+        <v>2</v>
+      </c>
+      <c r="AP92">
+        <v>0.71</v>
+      </c>
+      <c r="AQ92">
+        <v>1.83</v>
+      </c>
+      <c r="AR92">
+        <v>1.3</v>
+      </c>
+      <c r="AS92">
+        <v>1.35</v>
+      </c>
+      <c r="AT92">
+        <v>2.65</v>
+      </c>
+      <c r="AU92">
+        <v>8</v>
+      </c>
+      <c r="AV92">
+        <v>16</v>
+      </c>
+      <c r="AW92">
+        <v>3</v>
+      </c>
+      <c r="AX92">
+        <v>9</v>
+      </c>
+      <c r="AY92">
+        <v>11</v>
+      </c>
+      <c r="AZ92">
+        <v>25</v>
+      </c>
+      <c r="BA92">
+        <v>0</v>
+      </c>
+      <c r="BB92">
+        <v>8</v>
+      </c>
+      <c r="BC92">
+        <v>8</v>
+      </c>
+      <c r="BD92">
+        <v>2.14</v>
+      </c>
+      <c r="BE92">
+        <v>9.4</v>
+      </c>
+      <c r="BF92">
+        <v>1.88</v>
+      </c>
+      <c r="BG92">
+        <v>1.14</v>
+      </c>
+      <c r="BH92">
+        <v>4.9</v>
+      </c>
+      <c r="BI92">
+        <v>1.3</v>
+      </c>
+      <c r="BJ92">
+        <v>3.3</v>
+      </c>
+      <c r="BK92">
+        <v>1.35</v>
+      </c>
+      <c r="BL92">
+        <v>2.84</v>
+      </c>
+      <c r="BM92">
+        <v>1.67</v>
+      </c>
+      <c r="BN92">
+        <v>2.17</v>
+      </c>
+      <c r="BO92">
+        <v>2.04</v>
+      </c>
+      <c r="BP92">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="93" spans="1:68">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>7296360</v>
+      </c>
+      <c r="C93" t="s">
+        <v>68</v>
+      </c>
+      <c r="D93" t="s">
+        <v>69</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45452.5</v>
+      </c>
+      <c r="F93">
+        <v>12</v>
+      </c>
+      <c r="G93" t="s">
+        <v>70</v>
+      </c>
+      <c r="H93" t="s">
+        <v>74</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>1</v>
+      </c>
+      <c r="O93" t="s">
+        <v>160</v>
+      </c>
+      <c r="P93" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q93">
+        <v>2.05</v>
+      </c>
+      <c r="R93">
+        <v>2.5</v>
+      </c>
+      <c r="S93">
+        <v>5.5</v>
+      </c>
+      <c r="T93">
+        <v>1.29</v>
+      </c>
+      <c r="U93">
+        <v>3.5</v>
+      </c>
+      <c r="V93">
+        <v>2.25</v>
+      </c>
+      <c r="W93">
+        <v>1.57</v>
+      </c>
+      <c r="X93">
+        <v>5.5</v>
+      </c>
+      <c r="Y93">
+        <v>1.14</v>
+      </c>
+      <c r="Z93">
+        <v>1.8</v>
+      </c>
+      <c r="AA93">
+        <v>3.94</v>
+      </c>
+      <c r="AB93">
+        <v>3.91</v>
+      </c>
+      <c r="AC93">
+        <v>1.03</v>
+      </c>
+      <c r="AD93">
+        <v>18.5</v>
+      </c>
+      <c r="AE93">
+        <v>1.18</v>
+      </c>
+      <c r="AF93">
+        <v>4.88</v>
+      </c>
+      <c r="AG93">
+        <v>1.57</v>
+      </c>
+      <c r="AH93">
+        <v>2.35</v>
+      </c>
+      <c r="AI93">
+        <v>1.67</v>
+      </c>
+      <c r="AJ93">
+        <v>2.1</v>
+      </c>
+      <c r="AK93">
+        <v>1.12</v>
+      </c>
+      <c r="AL93">
+        <v>1.18</v>
+      </c>
+      <c r="AM93">
+        <v>2.49</v>
+      </c>
+      <c r="AN93">
+        <v>2.5</v>
+      </c>
+      <c r="AO93">
+        <v>0.2</v>
+      </c>
+      <c r="AP93">
+        <v>2.57</v>
+      </c>
+      <c r="AQ93">
+        <v>0.17</v>
+      </c>
+      <c r="AR93">
+        <v>1.76</v>
+      </c>
+      <c r="AS93">
+        <v>1.4</v>
+      </c>
+      <c r="AT93">
+        <v>3.16</v>
+      </c>
+      <c r="AU93">
+        <v>6</v>
+      </c>
+      <c r="AV93">
+        <v>3</v>
+      </c>
+      <c r="AW93">
+        <v>4</v>
+      </c>
+      <c r="AX93">
+        <v>2</v>
+      </c>
+      <c r="AY93">
+        <v>10</v>
+      </c>
+      <c r="AZ93">
+        <v>5</v>
+      </c>
+      <c r="BA93">
+        <v>7</v>
+      </c>
+      <c r="BB93">
+        <v>4</v>
+      </c>
+      <c r="BC93">
+        <v>11</v>
+      </c>
+      <c r="BD93">
+        <v>1.5</v>
+      </c>
+      <c r="BE93">
+        <v>10</v>
+      </c>
+      <c r="BF93">
+        <v>2.95</v>
+      </c>
+      <c r="BG93">
+        <v>1.18</v>
+      </c>
+      <c r="BH93">
+        <v>4.5</v>
+      </c>
+      <c r="BI93">
+        <v>1.34</v>
+      </c>
+      <c r="BJ93">
+        <v>3.1</v>
+      </c>
+      <c r="BK93">
+        <v>1.37</v>
+      </c>
+      <c r="BL93">
+        <v>2.75</v>
+      </c>
+      <c r="BM93">
+        <v>1.68</v>
+      </c>
+      <c r="BN93">
+        <v>2.14</v>
+      </c>
+      <c r="BO93">
+        <v>2.08</v>
+      </c>
+      <c r="BP93">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="94" spans="1:68">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>7296361</v>
+      </c>
+      <c r="C94" t="s">
+        <v>68</v>
+      </c>
+      <c r="D94" t="s">
+        <v>69</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45452.58333333334</v>
+      </c>
+      <c r="F94">
+        <v>12</v>
+      </c>
+      <c r="G94" t="s">
+        <v>72</v>
+      </c>
+      <c r="H94" t="s">
+        <v>77</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94">
+        <v>5</v>
+      </c>
+      <c r="M94">
+        <v>1</v>
+      </c>
+      <c r="N94">
+        <v>6</v>
+      </c>
+      <c r="O94" t="s">
+        <v>161</v>
+      </c>
+      <c r="P94" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q94">
+        <v>2.1</v>
+      </c>
+      <c r="R94">
+        <v>2.4</v>
+      </c>
+      <c r="S94">
+        <v>4.75</v>
+      </c>
+      <c r="T94">
+        <v>1.29</v>
+      </c>
+      <c r="U94">
+        <v>3.4</v>
+      </c>
+      <c r="V94">
+        <v>2.25</v>
+      </c>
+      <c r="W94">
+        <v>1.57</v>
+      </c>
+      <c r="X94">
+        <v>4.75</v>
+      </c>
+      <c r="Y94">
+        <v>1.15</v>
+      </c>
+      <c r="Z94">
+        <v>1.59</v>
+      </c>
+      <c r="AA94">
+        <v>4.3</v>
+      </c>
+      <c r="AB94">
+        <v>4.91</v>
+      </c>
+      <c r="AC94">
+        <v>1.02</v>
+      </c>
+      <c r="AD94">
+        <v>13.3</v>
+      </c>
+      <c r="AE94">
+        <v>1.18</v>
+      </c>
+      <c r="AF94">
+        <v>4.76</v>
+      </c>
+      <c r="AG94">
+        <v>1.57</v>
+      </c>
+      <c r="AH94">
+        <v>2.35</v>
+      </c>
+      <c r="AI94">
+        <v>1.62</v>
+      </c>
+      <c r="AJ94">
+        <v>2.2</v>
+      </c>
+      <c r="AK94">
+        <v>1.2</v>
+      </c>
+      <c r="AL94">
+        <v>1.2</v>
+      </c>
+      <c r="AM94">
+        <v>2.3</v>
+      </c>
+      <c r="AN94">
+        <v>1.4</v>
+      </c>
+      <c r="AO94">
+        <v>1.4</v>
+      </c>
+      <c r="AP94">
+        <v>1.67</v>
+      </c>
+      <c r="AQ94">
+        <v>1.17</v>
+      </c>
+      <c r="AR94">
+        <v>2</v>
+      </c>
+      <c r="AS94">
+        <v>1.53</v>
+      </c>
+      <c r="AT94">
+        <v>3.53</v>
+      </c>
+      <c r="AU94">
+        <v>7</v>
+      </c>
+      <c r="AV94">
+        <v>4</v>
+      </c>
+      <c r="AW94">
+        <v>2</v>
+      </c>
+      <c r="AX94">
+        <v>5</v>
+      </c>
+      <c r="AY94">
+        <v>9</v>
+      </c>
+      <c r="AZ94">
+        <v>9</v>
+      </c>
+      <c r="BA94">
+        <v>4</v>
+      </c>
+      <c r="BB94">
+        <v>8</v>
+      </c>
+      <c r="BC94">
+        <v>12</v>
+      </c>
+      <c r="BD94">
+        <v>1.32</v>
+      </c>
+      <c r="BE94">
+        <v>10.75</v>
+      </c>
+      <c r="BF94">
+        <v>3.92</v>
+      </c>
+      <c r="BG94">
+        <v>1.18</v>
+      </c>
+      <c r="BH94">
+        <v>4.5</v>
+      </c>
+      <c r="BI94">
+        <v>1.26</v>
+      </c>
+      <c r="BJ94">
+        <v>3.34</v>
+      </c>
+      <c r="BK94">
+        <v>1.52</v>
+      </c>
+      <c r="BL94">
+        <v>2.49</v>
+      </c>
+      <c r="BM94">
+        <v>1.85</v>
+      </c>
+      <c r="BN94">
+        <v>1.94</v>
+      </c>
+      <c r="BO94">
+        <v>2.33</v>
+      </c>
+      <c r="BP94">
+        <v>1.58</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="223">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -502,6 +502,9 @@
     <t>['26', '55', '57', '75', '90+3']</t>
   </si>
   <si>
+    <t>['5', '7', '71', '86']</t>
+  </si>
+  <si>
     <t>['90+1']</t>
   </si>
   <si>
@@ -677,6 +680,9 @@
   </si>
   <si>
     <t>['59']</t>
+  </si>
+  <si>
+    <t>['11', '90']</t>
   </si>
 </sst>
 </file>
@@ -1038,7 +1044,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP94"/>
+  <dimension ref="A1:BP95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1297,7 +1303,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q2">
         <v>2.84</v>
@@ -1503,7 +1509,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q3">
         <v>2.2</v>
@@ -1709,7 +1715,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -1915,7 +1921,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2121,7 +2127,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q6">
         <v>2.35</v>
@@ -2327,7 +2333,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q7">
         <v>2.66</v>
@@ -2533,7 +2539,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q8">
         <v>2.8</v>
@@ -2945,7 +2951,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3151,7 +3157,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3357,7 +3363,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3641,7 +3647,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ13">
         <v>0.6</v>
@@ -3975,7 +3981,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q15">
         <v>2.05</v>
@@ -4056,7 +4062,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ15">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4387,7 +4393,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q17">
         <v>2.15</v>
@@ -4593,7 +4599,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q18">
         <v>2.15</v>
@@ -5417,7 +5423,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q22">
         <v>2.76</v>
@@ -5623,7 +5629,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q23">
         <v>2.85</v>
@@ -5829,7 +5835,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q24">
         <v>2.05</v>
@@ -6447,7 +6453,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6859,7 +6865,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q29">
         <v>2.25</v>
@@ -7271,7 +7277,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7683,7 +7689,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q33">
         <v>3.05</v>
@@ -7889,7 +7895,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q34">
         <v>2.26</v>
@@ -8095,7 +8101,7 @@
         <v>115</v>
       </c>
       <c r="P35" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q35">
         <v>3.46</v>
@@ -8507,7 +8513,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q37">
         <v>2.72</v>
@@ -8713,7 +8719,7 @@
         <v>118</v>
       </c>
       <c r="P38" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q38">
         <v>4.55</v>
@@ -8919,7 +8925,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q39">
         <v>2.78</v>
@@ -9743,7 +9749,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q43">
         <v>3.11</v>
@@ -9949,7 +9955,7 @@
         <v>123</v>
       </c>
       <c r="P44" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q44">
         <v>3.3</v>
@@ -10155,7 +10161,7 @@
         <v>94</v>
       </c>
       <c r="P45" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q45">
         <v>2.4</v>
@@ -10439,7 +10445,7 @@
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ46">
         <v>1.83</v>
@@ -10854,7 +10860,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ48">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR48">
         <v>1.78</v>
@@ -11185,7 +11191,7 @@
         <v>103</v>
       </c>
       <c r="P50" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q50">
         <v>3.89</v>
@@ -11391,7 +11397,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q51">
         <v>2.61</v>
@@ -11597,7 +11603,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -11803,7 +11809,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q53">
         <v>2.05</v>
@@ -12009,7 +12015,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q54">
         <v>3.03</v>
@@ -12627,7 +12633,7 @@
         <v>103</v>
       </c>
       <c r="P57" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q57">
         <v>2.57</v>
@@ -12833,7 +12839,7 @@
         <v>132</v>
       </c>
       <c r="P58" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q58">
         <v>2.3</v>
@@ -13039,7 +13045,7 @@
         <v>103</v>
       </c>
       <c r="P59" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q59">
         <v>2.75</v>
@@ -13245,7 +13251,7 @@
         <v>103</v>
       </c>
       <c r="P60" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q60">
         <v>2.32</v>
@@ -13451,7 +13457,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q61">
         <v>3.6</v>
@@ -13657,7 +13663,7 @@
         <v>134</v>
       </c>
       <c r="P62" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q62">
         <v>2.39</v>
@@ -13735,7 +13741,7 @@
         <v>1.33</v>
       </c>
       <c r="AP62">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ62">
         <v>1.33</v>
@@ -13863,7 +13869,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q63">
         <v>2.84</v>
@@ -14069,7 +14075,7 @@
         <v>136</v>
       </c>
       <c r="P64" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q64">
         <v>2.7</v>
@@ -14275,7 +14281,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -14687,7 +14693,7 @@
         <v>139</v>
       </c>
       <c r="P67" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q67">
         <v>2.5</v>
@@ -14893,7 +14899,7 @@
         <v>117</v>
       </c>
       <c r="P68" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q68">
         <v>2.3</v>
@@ -15305,7 +15311,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q70">
         <v>1.85</v>
@@ -15386,7 +15392,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ70">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR70">
         <v>1.92</v>
@@ -15717,7 +15723,7 @@
         <v>143</v>
       </c>
       <c r="P72" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q72">
         <v>2.24</v>
@@ -15923,7 +15929,7 @@
         <v>103</v>
       </c>
       <c r="P73" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q73">
         <v>3.66</v>
@@ -16129,7 +16135,7 @@
         <v>144</v>
       </c>
       <c r="P74" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q74">
         <v>2.4</v>
@@ -16207,7 +16213,7 @@
         <v>2</v>
       </c>
       <c r="AP74">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ74">
         <v>2</v>
@@ -16335,7 +16341,7 @@
         <v>145</v>
       </c>
       <c r="P75" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q75">
         <v>2.38</v>
@@ -16541,7 +16547,7 @@
         <v>125</v>
       </c>
       <c r="P76" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -16953,7 +16959,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q78">
         <v>2.75</v>
@@ -17159,7 +17165,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17365,7 +17371,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q80">
         <v>2.2</v>
@@ -17446,7 +17452,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ80">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR80">
         <v>1.6</v>
@@ -17571,7 +17577,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q81">
         <v>2.31</v>
@@ -17983,7 +17989,7 @@
         <v>151</v>
       </c>
       <c r="P83" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q83">
         <v>2.7</v>
@@ -18395,7 +18401,7 @@
         <v>153</v>
       </c>
       <c r="P85" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q85">
         <v>3.5</v>
@@ -18601,7 +18607,7 @@
         <v>154</v>
       </c>
       <c r="P86" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q86">
         <v>2.55</v>
@@ -18807,7 +18813,7 @@
         <v>155</v>
       </c>
       <c r="P87" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q87">
         <v>2.27</v>
@@ -19219,7 +19225,7 @@
         <v>156</v>
       </c>
       <c r="P89" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q89">
         <v>2.8</v>
@@ -19425,7 +19431,7 @@
         <v>157</v>
       </c>
       <c r="P90" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q90">
         <v>2.6</v>
@@ -19631,7 +19637,7 @@
         <v>158</v>
       </c>
       <c r="P91" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -19837,7 +19843,7 @@
         <v>159</v>
       </c>
       <c r="P92" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q92">
         <v>3.6</v>
@@ -20249,7 +20255,7 @@
         <v>161</v>
       </c>
       <c r="P94" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q94">
         <v>2.1</v>
@@ -20406,6 +20412,212 @@
       </c>
       <c r="BP94">
         <v>1.58</v>
+      </c>
+    </row>
+    <row r="95" spans="1:68">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>7296293</v>
+      </c>
+      <c r="C95" t="s">
+        <v>68</v>
+      </c>
+      <c r="D95" t="s">
+        <v>69</v>
+      </c>
+      <c r="E95" s="2">
+        <v>45455.58333333334</v>
+      </c>
+      <c r="F95">
+        <v>4</v>
+      </c>
+      <c r="G95" t="s">
+        <v>81</v>
+      </c>
+      <c r="H95" t="s">
+        <v>75</v>
+      </c>
+      <c r="I95">
+        <v>2</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95">
+        <v>3</v>
+      </c>
+      <c r="L95">
+        <v>4</v>
+      </c>
+      <c r="M95">
+        <v>2</v>
+      </c>
+      <c r="N95">
+        <v>6</v>
+      </c>
+      <c r="O95" t="s">
+        <v>162</v>
+      </c>
+      <c r="P95" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q95">
+        <v>2.17</v>
+      </c>
+      <c r="R95">
+        <v>2.44</v>
+      </c>
+      <c r="S95">
+        <v>4.44</v>
+      </c>
+      <c r="T95">
+        <v>1.25</v>
+      </c>
+      <c r="U95">
+        <v>3.72</v>
+      </c>
+      <c r="V95">
+        <v>2.2</v>
+      </c>
+      <c r="W95">
+        <v>1.63</v>
+      </c>
+      <c r="X95">
+        <v>4.85</v>
+      </c>
+      <c r="Y95">
+        <v>1.16</v>
+      </c>
+      <c r="Z95">
+        <v>1.67</v>
+      </c>
+      <c r="AA95">
+        <v>4.33</v>
+      </c>
+      <c r="AB95">
+        <v>4.53</v>
+      </c>
+      <c r="AC95">
+        <v>1.02</v>
+      </c>
+      <c r="AD95">
+        <v>21</v>
+      </c>
+      <c r="AE95">
+        <v>1.12</v>
+      </c>
+      <c r="AF95">
+        <v>5</v>
+      </c>
+      <c r="AG95">
+        <v>1.46</v>
+      </c>
+      <c r="AH95">
+        <v>2.52</v>
+      </c>
+      <c r="AI95">
+        <v>1.51</v>
+      </c>
+      <c r="AJ95">
+        <v>2.48</v>
+      </c>
+      <c r="AK95">
+        <v>1.2</v>
+      </c>
+      <c r="AL95">
+        <v>1.21</v>
+      </c>
+      <c r="AM95">
+        <v>2.13</v>
+      </c>
+      <c r="AN95">
+        <v>1.75</v>
+      </c>
+      <c r="AO95">
+        <v>0.25</v>
+      </c>
+      <c r="AP95">
+        <v>2</v>
+      </c>
+      <c r="AQ95">
+        <v>0.2</v>
+      </c>
+      <c r="AR95">
+        <v>1.88</v>
+      </c>
+      <c r="AS95">
+        <v>1.45</v>
+      </c>
+      <c r="AT95">
+        <v>3.33</v>
+      </c>
+      <c r="AU95">
+        <v>7</v>
+      </c>
+      <c r="AV95">
+        <v>4</v>
+      </c>
+      <c r="AW95">
+        <v>7</v>
+      </c>
+      <c r="AX95">
+        <v>5</v>
+      </c>
+      <c r="AY95">
+        <v>14</v>
+      </c>
+      <c r="AZ95">
+        <v>9</v>
+      </c>
+      <c r="BA95">
+        <v>5</v>
+      </c>
+      <c r="BB95">
+        <v>8</v>
+      </c>
+      <c r="BC95">
+        <v>13</v>
+      </c>
+      <c r="BD95">
+        <v>1.55</v>
+      </c>
+      <c r="BE95">
+        <v>8.5</v>
+      </c>
+      <c r="BF95">
+        <v>2.91</v>
+      </c>
+      <c r="BG95">
+        <v>1.2</v>
+      </c>
+      <c r="BH95">
+        <v>4.25</v>
+      </c>
+      <c r="BI95">
+        <v>1.38</v>
+      </c>
+      <c r="BJ95">
+        <v>2.88</v>
+      </c>
+      <c r="BK95">
+        <v>1.7</v>
+      </c>
+      <c r="BL95">
+        <v>2.05</v>
+      </c>
+      <c r="BM95">
+        <v>2.12</v>
+      </c>
+      <c r="BN95">
+        <v>1.66</v>
+      </c>
+      <c r="BO95">
+        <v>2.85</v>
+      </c>
+      <c r="BP95">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="233">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -505,6 +505,24 @@
     <t>['5', '7', '71', '86']</t>
   </si>
   <si>
+    <t>['68']</t>
+  </si>
+  <si>
+    <t>['90+9']</t>
+  </si>
+  <si>
+    <t>['9', '45+1', '48', '57']</t>
+  </si>
+  <si>
+    <t>['3', '9', '33', '82']</t>
+  </si>
+  <si>
+    <t>['28', '56']</t>
+  </si>
+  <si>
+    <t>['14']</t>
+  </si>
+  <si>
     <t>['90+1']</t>
   </si>
   <si>
@@ -628,9 +646,6 @@
     <t>['3', '8']</t>
   </si>
   <si>
-    <t>['68']</t>
-  </si>
-  <si>
     <t>['53', '75']</t>
   </si>
   <si>
@@ -683,6 +698,21 @@
   </si>
   <si>
     <t>['11', '90']</t>
+  </si>
+  <si>
+    <t>['45+2']</t>
+  </si>
+  <si>
+    <t>['12', '66', '82']</t>
+  </si>
+  <si>
+    <t>['4', '63', '73']</t>
+  </si>
+  <si>
+    <t>['18', '38']</t>
+  </si>
+  <si>
+    <t>['10', '49', '63', '85', '90']</t>
   </si>
 </sst>
 </file>
@@ -1044,7 +1074,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP95"/>
+  <dimension ref="A1:BP103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1303,7 +1333,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="Q2">
         <v>2.84</v>
@@ -1509,7 +1539,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="Q3">
         <v>2.2</v>
@@ -1587,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ3">
         <v>0.57</v>
@@ -1715,7 +1745,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -1796,7 +1826,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1921,7 +1951,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2002,7 +2032,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ5">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2127,7 +2157,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q6">
         <v>2.35</v>
@@ -2333,7 +2363,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="Q7">
         <v>2.66</v>
@@ -2414,7 +2444,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ7">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2539,7 +2569,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="Q8">
         <v>2.8</v>
@@ -2617,7 +2647,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ8">
         <v>2</v>
@@ -2823,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ9">
         <v>1.33</v>
@@ -2951,7 +2981,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3029,10 +3059,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ10">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3157,7 +3187,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3238,7 +3268,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ11">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3363,7 +3393,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3441,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ12">
         <v>0.2</v>
@@ -3650,7 +3680,7 @@
         <v>2</v>
       </c>
       <c r="AQ13">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3853,7 +3883,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ14">
         <v>1.17</v>
@@ -3981,7 +4011,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="Q15">
         <v>2.05</v>
@@ -4062,7 +4092,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ15">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4265,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ16">
         <v>1.83</v>
@@ -4393,7 +4423,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Q17">
         <v>2.15</v>
@@ -4474,7 +4504,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ17">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR17">
         <v>2.14</v>
@@ -4599,7 +4629,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="Q18">
         <v>2.15</v>
@@ -4677,7 +4707,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ18">
         <v>2</v>
@@ -5089,7 +5119,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ20">
         <v>0.57</v>
@@ -5295,10 +5325,10 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ21">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR21">
         <v>1.74</v>
@@ -5423,7 +5453,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="Q22">
         <v>2.76</v>
@@ -5504,7 +5534,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ22">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR22">
         <v>1.02</v>
@@ -5629,7 +5659,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="Q23">
         <v>2.85</v>
@@ -5835,7 +5865,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="Q24">
         <v>2.05</v>
@@ -6325,7 +6355,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ26">
         <v>0.2</v>
@@ -6453,7 +6483,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6531,7 +6561,7 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ27">
         <v>1.83</v>
@@ -6740,7 +6770,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ28">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR28">
         <v>0.98</v>
@@ -6865,7 +6895,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="Q29">
         <v>2.25</v>
@@ -6943,10 +6973,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ29">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AR29">
         <v>1.26</v>
@@ -7149,10 +7179,10 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ30">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR30">
         <v>0</v>
@@ -7277,7 +7307,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7355,10 +7385,10 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ31">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR31">
         <v>0.83</v>
@@ -7564,7 +7594,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ32">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR32">
         <v>1.53</v>
@@ -7689,7 +7719,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="Q33">
         <v>3.05</v>
@@ -7767,7 +7797,7 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ33">
         <v>1</v>
@@ -7895,7 +7925,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="Q34">
         <v>2.26</v>
@@ -7976,7 +8006,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ34">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR34">
         <v>1.33</v>
@@ -8101,7 +8131,7 @@
         <v>115</v>
       </c>
       <c r="P35" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="Q35">
         <v>3.46</v>
@@ -8182,7 +8212,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ35">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR35">
         <v>1.41</v>
@@ -8385,7 +8415,7 @@
         <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ36">
         <v>0.33</v>
@@ -8513,7 +8543,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="Q37">
         <v>2.72</v>
@@ -8591,7 +8621,7 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ37">
         <v>2</v>
@@ -8719,7 +8749,7 @@
         <v>118</v>
       </c>
       <c r="P38" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="Q38">
         <v>4.55</v>
@@ -8800,7 +8830,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ38">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR38">
         <v>1.21</v>
@@ -8925,7 +8955,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="Q39">
         <v>2.78</v>
@@ -9003,7 +9033,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ39">
         <v>0.57</v>
@@ -9212,7 +9242,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ40">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AR40">
         <v>0.79</v>
@@ -9418,7 +9448,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ41">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR41">
         <v>2.44</v>
@@ -9621,7 +9651,7 @@
         <v>0.33</v>
       </c>
       <c r="AP42">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ42">
         <v>0.57</v>
@@ -9749,7 +9779,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="Q43">
         <v>3.11</v>
@@ -9827,7 +9857,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ43">
         <v>1.17</v>
@@ -9955,7 +9985,7 @@
         <v>123</v>
       </c>
       <c r="P44" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q44">
         <v>3.3</v>
@@ -10036,7 +10066,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ44">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR44">
         <v>1.31</v>
@@ -10161,7 +10191,7 @@
         <v>94</v>
       </c>
       <c r="P45" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="Q45">
         <v>2.4</v>
@@ -10239,7 +10269,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ45">
         <v>1.33</v>
@@ -10651,10 +10681,10 @@
         <v>0.67</v>
       </c>
       <c r="AP47">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ47">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR47">
         <v>1.55</v>
@@ -10860,7 +10890,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ48">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR48">
         <v>1.78</v>
@@ -11063,10 +11093,10 @@
         <v>1.33</v>
       </c>
       <c r="AP49">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ49">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR49">
         <v>1.8</v>
@@ -11191,7 +11221,7 @@
         <v>103</v>
       </c>
       <c r="P50" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="Q50">
         <v>3.89</v>
@@ -11272,7 +11302,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ50">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR50">
         <v>1.3</v>
@@ -11397,7 +11427,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Q51">
         <v>2.61</v>
@@ -11475,7 +11505,7 @@
         <v>2.33</v>
       </c>
       <c r="AP51">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ51">
         <v>2</v>
@@ -11603,7 +11633,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -11681,10 +11711,10 @@
         <v>1.67</v>
       </c>
       <c r="AP52">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ52">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR52">
         <v>1.25</v>
@@ -11809,7 +11839,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Q53">
         <v>2.05</v>
@@ -12015,7 +12045,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Q54">
         <v>3.03</v>
@@ -12093,7 +12123,7 @@
         <v>1.67</v>
       </c>
       <c r="AP54">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ54">
         <v>1</v>
@@ -12508,7 +12538,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ56">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AR56">
         <v>1.56</v>
@@ -12633,7 +12663,7 @@
         <v>103</v>
       </c>
       <c r="P57" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="Q57">
         <v>2.57</v>
@@ -12714,7 +12744,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ57">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR57">
         <v>1.2</v>
@@ -12839,7 +12869,7 @@
         <v>132</v>
       </c>
       <c r="P58" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="Q58">
         <v>2.3</v>
@@ -12917,7 +12947,7 @@
         <v>0.5</v>
       </c>
       <c r="AP58">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ58">
         <v>0.57</v>
@@ -13045,7 +13075,7 @@
         <v>103</v>
       </c>
       <c r="P59" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="Q59">
         <v>2.75</v>
@@ -13251,7 +13281,7 @@
         <v>103</v>
       </c>
       <c r="P60" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="Q60">
         <v>2.32</v>
@@ -13457,7 +13487,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="Q61">
         <v>3.6</v>
@@ -13535,10 +13565,10 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ61">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR61">
         <v>1.46</v>
@@ -13663,7 +13693,7 @@
         <v>134</v>
       </c>
       <c r="P62" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Q62">
         <v>2.39</v>
@@ -13869,7 +13899,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="Q63">
         <v>2.84</v>
@@ -13947,7 +13977,7 @@
         <v>2.5</v>
       </c>
       <c r="AP63">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ63">
         <v>2</v>
@@ -14075,7 +14105,7 @@
         <v>136</v>
       </c>
       <c r="P64" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="Q64">
         <v>2.7</v>
@@ -14153,7 +14183,7 @@
         <v>0.25</v>
       </c>
       <c r="AP64">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ64">
         <v>0.33</v>
@@ -14281,7 +14311,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -14362,7 +14392,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ65">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR65">
         <v>1.68</v>
@@ -14565,10 +14595,10 @@
         <v>1.5</v>
       </c>
       <c r="AP66">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ66">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR66">
         <v>1.59</v>
@@ -14693,7 +14723,7 @@
         <v>139</v>
       </c>
       <c r="P67" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="Q67">
         <v>2.5</v>
@@ -14771,7 +14801,7 @@
         <v>1.25</v>
       </c>
       <c r="AP67">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ67">
         <v>1</v>
@@ -14899,7 +14929,7 @@
         <v>117</v>
       </c>
       <c r="P68" t="s">
-        <v>204</v>
+        <v>163</v>
       </c>
       <c r="Q68">
         <v>2.3</v>
@@ -14980,7 +15010,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ68">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR68">
         <v>1.49</v>
@@ -15186,7 +15216,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ69">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR69">
         <v>1.74</v>
@@ -15311,7 +15341,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q70">
         <v>1.85</v>
@@ -15389,10 +15419,10 @@
         <v>0</v>
       </c>
       <c r="AP70">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ70">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR70">
         <v>1.92</v>
@@ -15595,7 +15625,7 @@
         <v>0.33</v>
       </c>
       <c r="AP71">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ71">
         <v>0.2</v>
@@ -15723,7 +15753,7 @@
         <v>143</v>
       </c>
       <c r="P72" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q72">
         <v>2.24</v>
@@ -15929,7 +15959,7 @@
         <v>103</v>
       </c>
       <c r="P73" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q73">
         <v>3.66</v>
@@ -16007,7 +16037,7 @@
         <v>1.75</v>
       </c>
       <c r="AP73">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ73">
         <v>1.83</v>
@@ -16135,7 +16165,7 @@
         <v>144</v>
       </c>
       <c r="P74" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q74">
         <v>2.4</v>
@@ -16341,7 +16371,7 @@
         <v>145</v>
       </c>
       <c r="P75" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q75">
         <v>2.38</v>
@@ -16547,7 +16577,7 @@
         <v>125</v>
       </c>
       <c r="P76" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -16959,7 +16989,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="Q78">
         <v>2.75</v>
@@ -17040,7 +17070,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ78">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AR78">
         <v>1.22</v>
@@ -17165,7 +17195,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17243,10 +17273,10 @@
         <v>1.2</v>
       </c>
       <c r="AP79">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ79">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR79">
         <v>2.01</v>
@@ -17371,7 +17401,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q80">
         <v>2.2</v>
@@ -17449,10 +17479,10 @@
         <v>0</v>
       </c>
       <c r="AP80">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ80">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR80">
         <v>1.6</v>
@@ -17577,7 +17607,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q81">
         <v>2.31</v>
@@ -17655,10 +17685,10 @@
         <v>1.2</v>
       </c>
       <c r="AP81">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ81">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR81">
         <v>2.48</v>
@@ -17989,7 +18019,7 @@
         <v>151</v>
       </c>
       <c r="P83" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q83">
         <v>2.7</v>
@@ -18070,7 +18100,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ83">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR83">
         <v>1.42</v>
@@ -18273,10 +18303,10 @@
         <v>1</v>
       </c>
       <c r="AP84">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ84">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR84">
         <v>1.53</v>
@@ -18401,7 +18431,7 @@
         <v>153</v>
       </c>
       <c r="P85" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q85">
         <v>3.5</v>
@@ -18479,10 +18509,10 @@
         <v>2</v>
       </c>
       <c r="AP85">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ85">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR85">
         <v>1.61</v>
@@ -18607,7 +18637,7 @@
         <v>154</v>
       </c>
       <c r="P86" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q86">
         <v>2.55</v>
@@ -18685,10 +18715,10 @@
         <v>0.75</v>
       </c>
       <c r="AP86">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ86">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR86">
         <v>1.91</v>
@@ -18813,7 +18843,7 @@
         <v>155</v>
       </c>
       <c r="P87" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q87">
         <v>2.27</v>
@@ -18891,7 +18921,7 @@
         <v>0.2</v>
       </c>
       <c r="AP87">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ87">
         <v>0.33</v>
@@ -19097,10 +19127,10 @@
         <v>0.25</v>
       </c>
       <c r="AP88">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ88">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AR88">
         <v>2.39</v>
@@ -19225,7 +19255,7 @@
         <v>156</v>
       </c>
       <c r="P89" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q89">
         <v>2.8</v>
@@ -19431,7 +19461,7 @@
         <v>157</v>
       </c>
       <c r="P90" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q90">
         <v>2.6</v>
@@ -19637,7 +19667,7 @@
         <v>158</v>
       </c>
       <c r="P91" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -19715,7 +19745,7 @@
         <v>1</v>
       </c>
       <c r="AP91">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ91">
         <v>1.33</v>
@@ -19843,7 +19873,7 @@
         <v>159</v>
       </c>
       <c r="P92" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q92">
         <v>3.6</v>
@@ -20130,7 +20160,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ93">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AR93">
         <v>1.76</v>
@@ -20255,7 +20285,7 @@
         <v>161</v>
       </c>
       <c r="P94" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q94">
         <v>2.1</v>
@@ -20461,7 +20491,7 @@
         <v>162</v>
       </c>
       <c r="P95" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q95">
         <v>2.17</v>
@@ -20542,7 +20572,7 @@
         <v>2</v>
       </c>
       <c r="AQ95">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR95">
         <v>1.88</v>
@@ -20618,6 +20648,1654 @@
       </c>
       <c r="BP95">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="96" spans="1:68">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>7296366</v>
+      </c>
+      <c r="C96" t="s">
+        <v>68</v>
+      </c>
+      <c r="D96" t="s">
+        <v>69</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45459.41666666666</v>
+      </c>
+      <c r="F96">
+        <v>13</v>
+      </c>
+      <c r="G96" t="s">
+        <v>77</v>
+      </c>
+      <c r="H96" t="s">
+        <v>70</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>1</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>1</v>
+      </c>
+      <c r="O96" t="s">
+        <v>163</v>
+      </c>
+      <c r="P96" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q96">
+        <v>2.88</v>
+      </c>
+      <c r="R96">
+        <v>2.22</v>
+      </c>
+      <c r="S96">
+        <v>3.25</v>
+      </c>
+      <c r="T96">
+        <v>1.33</v>
+      </c>
+      <c r="U96">
+        <v>3.15</v>
+      </c>
+      <c r="V96">
+        <v>2.51</v>
+      </c>
+      <c r="W96">
+        <v>1.49</v>
+      </c>
+      <c r="X96">
+        <v>6</v>
+      </c>
+      <c r="Y96">
+        <v>1.11</v>
+      </c>
+      <c r="Z96">
+        <v>2.47</v>
+      </c>
+      <c r="AA96">
+        <v>3.35</v>
+      </c>
+      <c r="AB96">
+        <v>2.55</v>
+      </c>
+      <c r="AC96">
+        <v>1.02</v>
+      </c>
+      <c r="AD96">
+        <v>10</v>
+      </c>
+      <c r="AE96">
+        <v>1.19</v>
+      </c>
+      <c r="AF96">
+        <v>3.9</v>
+      </c>
+      <c r="AG96">
+        <v>1.68</v>
+      </c>
+      <c r="AH96">
+        <v>2.06</v>
+      </c>
+      <c r="AI96">
+        <v>1.57</v>
+      </c>
+      <c r="AJ96">
+        <v>2.25</v>
+      </c>
+      <c r="AK96">
+        <v>1.44</v>
+      </c>
+      <c r="AL96">
+        <v>1.27</v>
+      </c>
+      <c r="AM96">
+        <v>1.54</v>
+      </c>
+      <c r="AN96">
+        <v>2.17</v>
+      </c>
+      <c r="AO96">
+        <v>0.6</v>
+      </c>
+      <c r="AP96">
+        <v>2.29</v>
+      </c>
+      <c r="AQ96">
+        <v>0.5</v>
+      </c>
+      <c r="AR96">
+        <v>1.57</v>
+      </c>
+      <c r="AS96">
+        <v>2.1</v>
+      </c>
+      <c r="AT96">
+        <v>3.67</v>
+      </c>
+      <c r="AU96">
+        <v>4</v>
+      </c>
+      <c r="AV96">
+        <v>4</v>
+      </c>
+      <c r="AW96">
+        <v>8</v>
+      </c>
+      <c r="AX96">
+        <v>8</v>
+      </c>
+      <c r="AY96">
+        <v>12</v>
+      </c>
+      <c r="AZ96">
+        <v>12</v>
+      </c>
+      <c r="BA96">
+        <v>5</v>
+      </c>
+      <c r="BB96">
+        <v>8</v>
+      </c>
+      <c r="BC96">
+        <v>13</v>
+      </c>
+      <c r="BD96">
+        <v>1.91</v>
+      </c>
+      <c r="BE96">
+        <v>8</v>
+      </c>
+      <c r="BF96">
+        <v>2.1</v>
+      </c>
+      <c r="BG96">
+        <v>1.18</v>
+      </c>
+      <c r="BH96">
+        <v>4.5</v>
+      </c>
+      <c r="BI96">
+        <v>1.34</v>
+      </c>
+      <c r="BJ96">
+        <v>3.1</v>
+      </c>
+      <c r="BK96">
+        <v>1.61</v>
+      </c>
+      <c r="BL96">
+        <v>2.23</v>
+      </c>
+      <c r="BM96">
+        <v>2.02</v>
+      </c>
+      <c r="BN96">
+        <v>1.74</v>
+      </c>
+      <c r="BO96">
+        <v>2.7</v>
+      </c>
+      <c r="BP96">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="97" spans="1:68">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>7296369</v>
+      </c>
+      <c r="C97" t="s">
+        <v>68</v>
+      </c>
+      <c r="D97" t="s">
+        <v>69</v>
+      </c>
+      <c r="E97" s="2">
+        <v>45459.41666666666</v>
+      </c>
+      <c r="F97">
+        <v>13</v>
+      </c>
+      <c r="G97" t="s">
+        <v>80</v>
+      </c>
+      <c r="H97" t="s">
+        <v>79</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>1</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>1</v>
+      </c>
+      <c r="O97" t="s">
+        <v>164</v>
+      </c>
+      <c r="P97" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q97">
+        <v>2.32</v>
+      </c>
+      <c r="R97">
+        <v>2.31</v>
+      </c>
+      <c r="S97">
+        <v>4.15</v>
+      </c>
+      <c r="T97">
+        <v>1.3</v>
+      </c>
+      <c r="U97">
+        <v>3.34</v>
+      </c>
+      <c r="V97">
+        <v>2.41</v>
+      </c>
+      <c r="W97">
+        <v>1.53</v>
+      </c>
+      <c r="X97">
+        <v>5.55</v>
+      </c>
+      <c r="Y97">
+        <v>1.12</v>
+      </c>
+      <c r="Z97">
+        <v>1.8</v>
+      </c>
+      <c r="AA97">
+        <v>3.55</v>
+      </c>
+      <c r="AB97">
+        <v>3.88</v>
+      </c>
+      <c r="AC97">
+        <v>1.01</v>
+      </c>
+      <c r="AD97">
+        <v>11</v>
+      </c>
+      <c r="AE97">
+        <v>1.17</v>
+      </c>
+      <c r="AF97">
+        <v>4.25</v>
+      </c>
+      <c r="AG97">
+        <v>1.65</v>
+      </c>
+      <c r="AH97">
+        <v>2.11</v>
+      </c>
+      <c r="AI97">
+        <v>1.57</v>
+      </c>
+      <c r="AJ97">
+        <v>2.25</v>
+      </c>
+      <c r="AK97">
+        <v>1.25</v>
+      </c>
+      <c r="AL97">
+        <v>1.25</v>
+      </c>
+      <c r="AM97">
+        <v>1.9</v>
+      </c>
+      <c r="AN97">
+        <v>1.4</v>
+      </c>
+      <c r="AO97">
+        <v>1.5</v>
+      </c>
+      <c r="AP97">
+        <v>1.67</v>
+      </c>
+      <c r="AQ97">
+        <v>1.29</v>
+      </c>
+      <c r="AR97">
+        <v>1.52</v>
+      </c>
+      <c r="AS97">
+        <v>1.52</v>
+      </c>
+      <c r="AT97">
+        <v>3.04</v>
+      </c>
+      <c r="AU97">
+        <v>5</v>
+      </c>
+      <c r="AV97">
+        <v>0</v>
+      </c>
+      <c r="AW97">
+        <v>14</v>
+      </c>
+      <c r="AX97">
+        <v>5</v>
+      </c>
+      <c r="AY97">
+        <v>19</v>
+      </c>
+      <c r="AZ97">
+        <v>5</v>
+      </c>
+      <c r="BA97">
+        <v>8</v>
+      </c>
+      <c r="BB97">
+        <v>0</v>
+      </c>
+      <c r="BC97">
+        <v>8</v>
+      </c>
+      <c r="BD97">
+        <v>1.59</v>
+      </c>
+      <c r="BE97">
+        <v>9</v>
+      </c>
+      <c r="BF97">
+        <v>2.77</v>
+      </c>
+      <c r="BG97">
+        <v>0</v>
+      </c>
+      <c r="BH97">
+        <v>0</v>
+      </c>
+      <c r="BI97">
+        <v>1.22</v>
+      </c>
+      <c r="BJ97">
+        <v>4</v>
+      </c>
+      <c r="BK97">
+        <v>1.4</v>
+      </c>
+      <c r="BL97">
+        <v>2.8</v>
+      </c>
+      <c r="BM97">
+        <v>1.68</v>
+      </c>
+      <c r="BN97">
+        <v>2.1</v>
+      </c>
+      <c r="BO97">
+        <v>2.12</v>
+      </c>
+      <c r="BP97">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="98" spans="1:68">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>7296368</v>
+      </c>
+      <c r="C98" t="s">
+        <v>68</v>
+      </c>
+      <c r="D98" t="s">
+        <v>69</v>
+      </c>
+      <c r="E98" s="2">
+        <v>45459.41666666666</v>
+      </c>
+      <c r="F98">
+        <v>13</v>
+      </c>
+      <c r="G98" t="s">
+        <v>85</v>
+      </c>
+      <c r="H98" t="s">
+        <v>72</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+      <c r="N98">
+        <v>2</v>
+      </c>
+      <c r="O98" t="s">
+        <v>149</v>
+      </c>
+      <c r="P98" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q98">
+        <v>3.54</v>
+      </c>
+      <c r="R98">
+        <v>2.44</v>
+      </c>
+      <c r="S98">
+        <v>2.43</v>
+      </c>
+      <c r="T98">
+        <v>1.24</v>
+      </c>
+      <c r="U98">
+        <v>3.8</v>
+      </c>
+      <c r="V98">
+        <v>2.11</v>
+      </c>
+      <c r="W98">
+        <v>1.68</v>
+      </c>
+      <c r="X98">
+        <v>4.6</v>
+      </c>
+      <c r="Y98">
+        <v>1.18</v>
+      </c>
+      <c r="Z98">
+        <v>3.18</v>
+      </c>
+      <c r="AA98">
+        <v>3.7</v>
+      </c>
+      <c r="AB98">
+        <v>1.96</v>
+      </c>
+      <c r="AC98">
+        <v>1.02</v>
+      </c>
+      <c r="AD98">
+        <v>12</v>
+      </c>
+      <c r="AE98">
+        <v>1.1</v>
+      </c>
+      <c r="AF98">
+        <v>5.35</v>
+      </c>
+      <c r="AG98">
+        <v>1.42</v>
+      </c>
+      <c r="AH98">
+        <v>2.65</v>
+      </c>
+      <c r="AI98">
+        <v>1.41</v>
+      </c>
+      <c r="AJ98">
+        <v>2.69</v>
+      </c>
+      <c r="AK98">
+        <v>1.76</v>
+      </c>
+      <c r="AL98">
+        <v>1.23</v>
+      </c>
+      <c r="AM98">
+        <v>1.33</v>
+      </c>
+      <c r="AN98">
+        <v>1.6</v>
+      </c>
+      <c r="AO98">
+        <v>2.17</v>
+      </c>
+      <c r="AP98">
+        <v>1.5</v>
+      </c>
+      <c r="AQ98">
+        <v>2</v>
+      </c>
+      <c r="AR98">
+        <v>2.17</v>
+      </c>
+      <c r="AS98">
+        <v>1.93</v>
+      </c>
+      <c r="AT98">
+        <v>4.1</v>
+      </c>
+      <c r="AU98">
+        <v>8</v>
+      </c>
+      <c r="AV98">
+        <v>7</v>
+      </c>
+      <c r="AW98">
+        <v>3</v>
+      </c>
+      <c r="AX98">
+        <v>2</v>
+      </c>
+      <c r="AY98">
+        <v>11</v>
+      </c>
+      <c r="AZ98">
+        <v>9</v>
+      </c>
+      <c r="BA98">
+        <v>6</v>
+      </c>
+      <c r="BB98">
+        <v>2</v>
+      </c>
+      <c r="BC98">
+        <v>8</v>
+      </c>
+      <c r="BD98">
+        <v>2.32</v>
+      </c>
+      <c r="BE98">
+        <v>8.5</v>
+      </c>
+      <c r="BF98">
+        <v>1.82</v>
+      </c>
+      <c r="BG98">
+        <v>0</v>
+      </c>
+      <c r="BH98">
+        <v>0</v>
+      </c>
+      <c r="BI98">
+        <v>1.29</v>
+      </c>
+      <c r="BJ98">
+        <v>3.45</v>
+      </c>
+      <c r="BK98">
+        <v>1.5</v>
+      </c>
+      <c r="BL98">
+        <v>2.45</v>
+      </c>
+      <c r="BM98">
+        <v>1.9</v>
+      </c>
+      <c r="BN98">
+        <v>1.9</v>
+      </c>
+      <c r="BO98">
+        <v>2.43</v>
+      </c>
+      <c r="BP98">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="99" spans="1:68">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>7296367</v>
+      </c>
+      <c r="C99" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" t="s">
+        <v>69</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45459.41666666666</v>
+      </c>
+      <c r="F99">
+        <v>13</v>
+      </c>
+      <c r="G99" t="s">
+        <v>78</v>
+      </c>
+      <c r="H99" t="s">
+        <v>81</v>
+      </c>
+      <c r="I99">
+        <v>2</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99">
+        <v>3</v>
+      </c>
+      <c r="L99">
+        <v>4</v>
+      </c>
+      <c r="M99">
+        <v>3</v>
+      </c>
+      <c r="N99">
+        <v>7</v>
+      </c>
+      <c r="O99" t="s">
+        <v>165</v>
+      </c>
+      <c r="P99" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q99">
+        <v>3.35</v>
+      </c>
+      <c r="R99">
+        <v>2.52</v>
+      </c>
+      <c r="S99">
+        <v>2.69</v>
+      </c>
+      <c r="T99">
+        <v>1.24</v>
+      </c>
+      <c r="U99">
+        <v>3.7</v>
+      </c>
+      <c r="V99">
+        <v>2.2</v>
+      </c>
+      <c r="W99">
+        <v>1.64</v>
+      </c>
+      <c r="X99">
+        <v>4.9</v>
+      </c>
+      <c r="Y99">
+        <v>1.15</v>
+      </c>
+      <c r="Z99">
+        <v>3.01</v>
+      </c>
+      <c r="AA99">
+        <v>3.55</v>
+      </c>
+      <c r="AB99">
+        <v>2.08</v>
+      </c>
+      <c r="AC99">
+        <v>1.02</v>
+      </c>
+      <c r="AD99">
+        <v>20</v>
+      </c>
+      <c r="AE99">
+        <v>1.16</v>
+      </c>
+      <c r="AF99">
+        <v>5</v>
+      </c>
+      <c r="AG99">
+        <v>1.39</v>
+      </c>
+      <c r="AH99">
+        <v>2.77</v>
+      </c>
+      <c r="AI99">
+        <v>1.47</v>
+      </c>
+      <c r="AJ99">
+        <v>2.65</v>
+      </c>
+      <c r="AK99">
+        <v>1.68</v>
+      </c>
+      <c r="AL99">
+        <v>1.22</v>
+      </c>
+      <c r="AM99">
+        <v>1.4</v>
+      </c>
+      <c r="AN99">
+        <v>1.33</v>
+      </c>
+      <c r="AO99">
+        <v>1.5</v>
+      </c>
+      <c r="AP99">
+        <v>1.57</v>
+      </c>
+      <c r="AQ99">
+        <v>1.29</v>
+      </c>
+      <c r="AR99">
+        <v>1.79</v>
+      </c>
+      <c r="AS99">
+        <v>1.54</v>
+      </c>
+      <c r="AT99">
+        <v>3.33</v>
+      </c>
+      <c r="AU99">
+        <v>9</v>
+      </c>
+      <c r="AV99">
+        <v>21</v>
+      </c>
+      <c r="AW99">
+        <v>7</v>
+      </c>
+      <c r="AX99">
+        <v>4</v>
+      </c>
+      <c r="AY99">
+        <v>16</v>
+      </c>
+      <c r="AZ99">
+        <v>25</v>
+      </c>
+      <c r="BA99">
+        <v>5</v>
+      </c>
+      <c r="BB99">
+        <v>6</v>
+      </c>
+      <c r="BC99">
+        <v>11</v>
+      </c>
+      <c r="BD99">
+        <v>2.1</v>
+      </c>
+      <c r="BE99">
+        <v>8.5</v>
+      </c>
+      <c r="BF99">
+        <v>1.91</v>
+      </c>
+      <c r="BG99">
+        <v>1.17</v>
+      </c>
+      <c r="BH99">
+        <v>4.5</v>
+      </c>
+      <c r="BI99">
+        <v>1.3</v>
+      </c>
+      <c r="BJ99">
+        <v>3.3</v>
+      </c>
+      <c r="BK99">
+        <v>1.55</v>
+      </c>
+      <c r="BL99">
+        <v>2.38</v>
+      </c>
+      <c r="BM99">
+        <v>1.98</v>
+      </c>
+      <c r="BN99">
+        <v>1.82</v>
+      </c>
+      <c r="BO99">
+        <v>2.5</v>
+      </c>
+      <c r="BP99">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="100" spans="1:68">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>7296365</v>
+      </c>
+      <c r="C100" t="s">
+        <v>68</v>
+      </c>
+      <c r="D100" t="s">
+        <v>69</v>
+      </c>
+      <c r="E100" s="2">
+        <v>45459.41666666666</v>
+      </c>
+      <c r="F100">
+        <v>13</v>
+      </c>
+      <c r="G100" t="s">
+        <v>82</v>
+      </c>
+      <c r="H100" t="s">
+        <v>73</v>
+      </c>
+      <c r="I100">
+        <v>3</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>3</v>
+      </c>
+      <c r="L100">
+        <v>4</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>4</v>
+      </c>
+      <c r="O100" t="s">
+        <v>166</v>
+      </c>
+      <c r="P100" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q100">
+        <v>2.39</v>
+      </c>
+      <c r="R100">
+        <v>2.33</v>
+      </c>
+      <c r="S100">
+        <v>3.9</v>
+      </c>
+      <c r="T100">
+        <v>1.28</v>
+      </c>
+      <c r="U100">
+        <v>3.44</v>
+      </c>
+      <c r="V100">
+        <v>2.34</v>
+      </c>
+      <c r="W100">
+        <v>1.56</v>
+      </c>
+      <c r="X100">
+        <v>5.35</v>
+      </c>
+      <c r="Y100">
+        <v>1.13</v>
+      </c>
+      <c r="Z100">
+        <v>1.85</v>
+      </c>
+      <c r="AA100">
+        <v>3.8</v>
+      </c>
+      <c r="AB100">
+        <v>3.43</v>
+      </c>
+      <c r="AC100">
+        <v>1.01</v>
+      </c>
+      <c r="AD100">
+        <v>12</v>
+      </c>
+      <c r="AE100">
+        <v>1.15</v>
+      </c>
+      <c r="AF100">
+        <v>4.4</v>
+      </c>
+      <c r="AG100">
+        <v>1.54</v>
+      </c>
+      <c r="AH100">
+        <v>2.32</v>
+      </c>
+      <c r="AI100">
+        <v>1.53</v>
+      </c>
+      <c r="AJ100">
+        <v>2.34</v>
+      </c>
+      <c r="AK100">
+        <v>1.28</v>
+      </c>
+      <c r="AL100">
+        <v>1.25</v>
+      </c>
+      <c r="AM100">
+        <v>1.84</v>
+      </c>
+      <c r="AN100">
+        <v>1.2</v>
+      </c>
+      <c r="AO100">
+        <v>0.8</v>
+      </c>
+      <c r="AP100">
+        <v>1.5</v>
+      </c>
+      <c r="AQ100">
+        <v>0.67</v>
+      </c>
+      <c r="AR100">
+        <v>1.53</v>
+      </c>
+      <c r="AS100">
+        <v>1.21</v>
+      </c>
+      <c r="AT100">
+        <v>2.74</v>
+      </c>
+      <c r="AU100">
+        <v>9</v>
+      </c>
+      <c r="AV100">
+        <v>7</v>
+      </c>
+      <c r="AW100">
+        <v>4</v>
+      </c>
+      <c r="AX100">
+        <v>10</v>
+      </c>
+      <c r="AY100">
+        <v>13</v>
+      </c>
+      <c r="AZ100">
+        <v>17</v>
+      </c>
+      <c r="BA100">
+        <v>0</v>
+      </c>
+      <c r="BB100">
+        <v>13</v>
+      </c>
+      <c r="BC100">
+        <v>13</v>
+      </c>
+      <c r="BD100">
+        <v>1.64</v>
+      </c>
+      <c r="BE100">
+        <v>8.5</v>
+      </c>
+      <c r="BF100">
+        <v>2.66</v>
+      </c>
+      <c r="BG100">
+        <v>1.19</v>
+      </c>
+      <c r="BH100">
+        <v>4.1</v>
+      </c>
+      <c r="BI100">
+        <v>1.3</v>
+      </c>
+      <c r="BJ100">
+        <v>3.3</v>
+      </c>
+      <c r="BK100">
+        <v>1.55</v>
+      </c>
+      <c r="BL100">
+        <v>2.38</v>
+      </c>
+      <c r="BM100">
+        <v>2</v>
+      </c>
+      <c r="BN100">
+        <v>1.8</v>
+      </c>
+      <c r="BO100">
+        <v>2.5</v>
+      </c>
+      <c r="BP100">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="101" spans="1:68">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>7296364</v>
+      </c>
+      <c r="C101" t="s">
+        <v>68</v>
+      </c>
+      <c r="D101" t="s">
+        <v>69</v>
+      </c>
+      <c r="E101" s="2">
+        <v>45459.41666666666</v>
+      </c>
+      <c r="F101">
+        <v>13</v>
+      </c>
+      <c r="G101" t="s">
+        <v>76</v>
+      </c>
+      <c r="H101" t="s">
+        <v>75</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101">
+        <v>2</v>
+      </c>
+      <c r="L101">
+        <v>2</v>
+      </c>
+      <c r="M101">
+        <v>3</v>
+      </c>
+      <c r="N101">
+        <v>5</v>
+      </c>
+      <c r="O101" t="s">
+        <v>167</v>
+      </c>
+      <c r="P101" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q101">
+        <v>2.96</v>
+      </c>
+      <c r="R101">
+        <v>2.5</v>
+      </c>
+      <c r="S101">
+        <v>3.07</v>
+      </c>
+      <c r="T101">
+        <v>1.25</v>
+      </c>
+      <c r="U101">
+        <v>3.65</v>
+      </c>
+      <c r="V101">
+        <v>2.24</v>
+      </c>
+      <c r="W101">
+        <v>1.63</v>
+      </c>
+      <c r="X101">
+        <v>4.95</v>
+      </c>
+      <c r="Y101">
+        <v>1.14</v>
+      </c>
+      <c r="Z101">
+        <v>2.35</v>
+      </c>
+      <c r="AA101">
+        <v>3.85</v>
+      </c>
+      <c r="AB101">
+        <v>2.44</v>
+      </c>
+      <c r="AC101">
+        <v>1.03</v>
+      </c>
+      <c r="AD101">
+        <v>19.25</v>
+      </c>
+      <c r="AE101">
+        <v>1.16</v>
+      </c>
+      <c r="AF101">
+        <v>5</v>
+      </c>
+      <c r="AG101">
+        <v>1.42</v>
+      </c>
+      <c r="AH101">
+        <v>2.65</v>
+      </c>
+      <c r="AI101">
+        <v>1.47</v>
+      </c>
+      <c r="AJ101">
+        <v>2.65</v>
+      </c>
+      <c r="AK101">
+        <v>1.52</v>
+      </c>
+      <c r="AL101">
+        <v>1.22</v>
+      </c>
+      <c r="AM101">
+        <v>1.53</v>
+      </c>
+      <c r="AN101">
+        <v>1.33</v>
+      </c>
+      <c r="AO101">
+        <v>0.2</v>
+      </c>
+      <c r="AP101">
+        <v>1.14</v>
+      </c>
+      <c r="AQ101">
+        <v>0.67</v>
+      </c>
+      <c r="AR101">
+        <v>1.53</v>
+      </c>
+      <c r="AS101">
+        <v>1.44</v>
+      </c>
+      <c r="AT101">
+        <v>2.97</v>
+      </c>
+      <c r="AU101">
+        <v>10</v>
+      </c>
+      <c r="AV101">
+        <v>7</v>
+      </c>
+      <c r="AW101">
+        <v>8</v>
+      </c>
+      <c r="AX101">
+        <v>5</v>
+      </c>
+      <c r="AY101">
+        <v>18</v>
+      </c>
+      <c r="AZ101">
+        <v>12</v>
+      </c>
+      <c r="BA101">
+        <v>2</v>
+      </c>
+      <c r="BB101">
+        <v>9</v>
+      </c>
+      <c r="BC101">
+        <v>11</v>
+      </c>
+      <c r="BD101">
+        <v>2.41</v>
+      </c>
+      <c r="BE101">
+        <v>8.5</v>
+      </c>
+      <c r="BF101">
+        <v>1.75</v>
+      </c>
+      <c r="BG101">
+        <v>0</v>
+      </c>
+      <c r="BH101">
+        <v>0</v>
+      </c>
+      <c r="BI101">
+        <v>1.24</v>
+      </c>
+      <c r="BJ101">
+        <v>3.48</v>
+      </c>
+      <c r="BK101">
+        <v>1.43</v>
+      </c>
+      <c r="BL101">
+        <v>2.54</v>
+      </c>
+      <c r="BM101">
+        <v>1.88</v>
+      </c>
+      <c r="BN101">
+        <v>1.92</v>
+      </c>
+      <c r="BO101">
+        <v>2.19</v>
+      </c>
+      <c r="BP101">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="102" spans="1:68">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>7296363</v>
+      </c>
+      <c r="C102" t="s">
+        <v>68</v>
+      </c>
+      <c r="D102" t="s">
+        <v>69</v>
+      </c>
+      <c r="E102" s="2">
+        <v>45459.41666666666</v>
+      </c>
+      <c r="F102">
+        <v>13</v>
+      </c>
+      <c r="G102" t="s">
+        <v>84</v>
+      </c>
+      <c r="H102" t="s">
+        <v>83</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102">
+        <v>2</v>
+      </c>
+      <c r="K102">
+        <v>3</v>
+      </c>
+      <c r="L102">
+        <v>1</v>
+      </c>
+      <c r="M102">
+        <v>2</v>
+      </c>
+      <c r="N102">
+        <v>3</v>
+      </c>
+      <c r="O102" t="s">
+        <v>168</v>
+      </c>
+      <c r="P102" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q102">
+        <v>2.44</v>
+      </c>
+      <c r="R102">
+        <v>2.3</v>
+      </c>
+      <c r="S102">
+        <v>3.85</v>
+      </c>
+      <c r="T102">
+        <v>1.3</v>
+      </c>
+      <c r="U102">
+        <v>3.34</v>
+      </c>
+      <c r="V102">
+        <v>2.38</v>
+      </c>
+      <c r="W102">
+        <v>1.54</v>
+      </c>
+      <c r="X102">
+        <v>5.5</v>
+      </c>
+      <c r="Y102">
+        <v>1.13</v>
+      </c>
+      <c r="Z102">
+        <v>1.96</v>
+      </c>
+      <c r="AA102">
+        <v>3.55</v>
+      </c>
+      <c r="AB102">
+        <v>3.3</v>
+      </c>
+      <c r="AC102">
+        <v>1.01</v>
+      </c>
+      <c r="AD102">
+        <v>12</v>
+      </c>
+      <c r="AE102">
+        <v>1.16</v>
+      </c>
+      <c r="AF102">
+        <v>4.3</v>
+      </c>
+      <c r="AG102">
+        <v>1.58</v>
+      </c>
+      <c r="AH102">
+        <v>2.23</v>
+      </c>
+      <c r="AI102">
+        <v>1.55</v>
+      </c>
+      <c r="AJ102">
+        <v>2.29</v>
+      </c>
+      <c r="AK102">
+        <v>1.29</v>
+      </c>
+      <c r="AL102">
+        <v>1.25</v>
+      </c>
+      <c r="AM102">
+        <v>1.8</v>
+      </c>
+      <c r="AN102">
+        <v>1.67</v>
+      </c>
+      <c r="AO102">
+        <v>1</v>
+      </c>
+      <c r="AP102">
+        <v>1.43</v>
+      </c>
+      <c r="AQ102">
+        <v>1.29</v>
+      </c>
+      <c r="AR102">
+        <v>1.74</v>
+      </c>
+      <c r="AS102">
+        <v>1.15</v>
+      </c>
+      <c r="AT102">
+        <v>2.89</v>
+      </c>
+      <c r="AU102">
+        <v>7</v>
+      </c>
+      <c r="AV102">
+        <v>4</v>
+      </c>
+      <c r="AW102">
+        <v>13</v>
+      </c>
+      <c r="AX102">
+        <v>3</v>
+      </c>
+      <c r="AY102">
+        <v>20</v>
+      </c>
+      <c r="AZ102">
+        <v>7</v>
+      </c>
+      <c r="BA102">
+        <v>9</v>
+      </c>
+      <c r="BB102">
+        <v>0</v>
+      </c>
+      <c r="BC102">
+        <v>9</v>
+      </c>
+      <c r="BD102">
+        <v>1.69</v>
+      </c>
+      <c r="BE102">
+        <v>8.5</v>
+      </c>
+      <c r="BF102">
+        <v>2.53</v>
+      </c>
+      <c r="BG102">
+        <v>1.14</v>
+      </c>
+      <c r="BH102">
+        <v>5</v>
+      </c>
+      <c r="BI102">
+        <v>1.3</v>
+      </c>
+      <c r="BJ102">
+        <v>3.3</v>
+      </c>
+      <c r="BK102">
+        <v>1.55</v>
+      </c>
+      <c r="BL102">
+        <v>2.38</v>
+      </c>
+      <c r="BM102">
+        <v>2</v>
+      </c>
+      <c r="BN102">
+        <v>1.8</v>
+      </c>
+      <c r="BO102">
+        <v>2.5</v>
+      </c>
+      <c r="BP102">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="103" spans="1:68">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>7296362</v>
+      </c>
+      <c r="C103" t="s">
+        <v>68</v>
+      </c>
+      <c r="D103" t="s">
+        <v>69</v>
+      </c>
+      <c r="E103" s="2">
+        <v>45459.41666666666</v>
+      </c>
+      <c r="F103">
+        <v>13</v>
+      </c>
+      <c r="G103" t="s">
+        <v>71</v>
+      </c>
+      <c r="H103" t="s">
+        <v>74</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>1</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>5</v>
+      </c>
+      <c r="N103">
+        <v>5</v>
+      </c>
+      <c r="O103" t="s">
+        <v>103</v>
+      </c>
+      <c r="P103" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q103">
+        <v>1.81</v>
+      </c>
+      <c r="R103">
+        <v>2.65</v>
+      </c>
+      <c r="S103">
+        <v>5.7</v>
+      </c>
+      <c r="T103">
+        <v>1.22</v>
+      </c>
+      <c r="U103">
+        <v>3.98</v>
+      </c>
+      <c r="V103">
+        <v>2.08</v>
+      </c>
+      <c r="W103">
+        <v>1.7</v>
+      </c>
+      <c r="X103">
+        <v>4.45</v>
+      </c>
+      <c r="Y103">
+        <v>1.19</v>
+      </c>
+      <c r="Z103">
+        <v>1.42</v>
+      </c>
+      <c r="AA103">
+        <v>4.7</v>
+      </c>
+      <c r="AB103">
+        <v>5.62</v>
+      </c>
+      <c r="AC103">
+        <v>1.01</v>
+      </c>
+      <c r="AD103">
+        <v>26.5</v>
+      </c>
+      <c r="AE103">
+        <v>1.1</v>
+      </c>
+      <c r="AF103">
+        <v>5.5</v>
+      </c>
+      <c r="AG103">
+        <v>1.37</v>
+      </c>
+      <c r="AH103">
+        <v>2.85</v>
+      </c>
+      <c r="AI103">
+        <v>1.59</v>
+      </c>
+      <c r="AJ103">
+        <v>2.21</v>
+      </c>
+      <c r="AK103">
+        <v>1.1</v>
+      </c>
+      <c r="AL103">
+        <v>1.15</v>
+      </c>
+      <c r="AM103">
+        <v>2.83</v>
+      </c>
+      <c r="AN103">
+        <v>2.33</v>
+      </c>
+      <c r="AO103">
+        <v>0.17</v>
+      </c>
+      <c r="AP103">
+        <v>2</v>
+      </c>
+      <c r="AQ103">
+        <v>0.57</v>
+      </c>
+      <c r="AR103">
+        <v>1.83</v>
+      </c>
+      <c r="AS103">
+        <v>1.34</v>
+      </c>
+      <c r="AT103">
+        <v>3.17</v>
+      </c>
+      <c r="AU103">
+        <v>3</v>
+      </c>
+      <c r="AV103">
+        <v>6</v>
+      </c>
+      <c r="AW103">
+        <v>10</v>
+      </c>
+      <c r="AX103">
+        <v>3</v>
+      </c>
+      <c r="AY103">
+        <v>13</v>
+      </c>
+      <c r="AZ103">
+        <v>9</v>
+      </c>
+      <c r="BA103">
+        <v>7</v>
+      </c>
+      <c r="BB103">
+        <v>1</v>
+      </c>
+      <c r="BC103">
+        <v>8</v>
+      </c>
+      <c r="BD103">
+        <v>1.45</v>
+      </c>
+      <c r="BE103">
+        <v>9</v>
+      </c>
+      <c r="BF103">
+        <v>3.32</v>
+      </c>
+      <c r="BG103">
+        <v>1.14</v>
+      </c>
+      <c r="BH103">
+        <v>5</v>
+      </c>
+      <c r="BI103">
+        <v>1.29</v>
+      </c>
+      <c r="BJ103">
+        <v>3.4</v>
+      </c>
+      <c r="BK103">
+        <v>1.5</v>
+      </c>
+      <c r="BL103">
+        <v>2.45</v>
+      </c>
+      <c r="BM103">
+        <v>1.9</v>
+      </c>
+      <c r="BN103">
+        <v>1.9</v>
+      </c>
+      <c r="BO103">
+        <v>2.43</v>
+      </c>
+      <c r="BP103">
+        <v>1.52</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="233">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -484,6 +484,45 @@
     <t>['90+3']</t>
   </si>
   <si>
+    <t>['21', '35', '47']</t>
+  </si>
+  <si>
+    <t>['50', '79']</t>
+  </si>
+  <si>
+    <t>['32']</t>
+  </si>
+  <si>
+    <t>['21', '27', '44', '82']</t>
+  </si>
+  <si>
+    <t>['51']</t>
+  </si>
+  <si>
+    <t>['26', '55', '57', '75', '90+3']</t>
+  </si>
+  <si>
+    <t>['5', '7', '71', '86']</t>
+  </si>
+  <si>
+    <t>['68']</t>
+  </si>
+  <si>
+    <t>['90+9']</t>
+  </si>
+  <si>
+    <t>['9', '45+1', '48', '57']</t>
+  </si>
+  <si>
+    <t>['3', '9', '33', '82']</t>
+  </si>
+  <si>
+    <t>['28', '56']</t>
+  </si>
+  <si>
+    <t>['14']</t>
+  </si>
+  <si>
     <t>['90+1']</t>
   </si>
   <si>
@@ -607,9 +646,6 @@
     <t>['3', '8']</t>
   </si>
   <si>
-    <t>['68']</t>
-  </si>
-  <si>
     <t>['53', '75']</t>
   </si>
   <si>
@@ -644,6 +680,39 @@
   </si>
   <si>
     <t>['7']</t>
+  </si>
+  <si>
+    <t>['43', '59', '70']</t>
+  </si>
+  <si>
+    <t>['63', '66']</t>
+  </si>
+  <si>
+    <t>['27', '34', '46', '49']</t>
+  </si>
+  <si>
+    <t>['41', '65', '73', '87']</t>
+  </si>
+  <si>
+    <t>['59']</t>
+  </si>
+  <si>
+    <t>['11', '90']</t>
+  </si>
+  <si>
+    <t>['45+2']</t>
+  </si>
+  <si>
+    <t>['12', '66', '82']</t>
+  </si>
+  <si>
+    <t>['4', '63', '73']</t>
+  </si>
+  <si>
+    <t>['18', '38']</t>
+  </si>
+  <si>
+    <t>['10', '49', '63', '85', '90']</t>
   </si>
 </sst>
 </file>
@@ -1005,7 +1074,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP88"/>
+  <dimension ref="A1:BP103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1264,7 +1333,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="Q2">
         <v>2.84</v>
@@ -1342,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ2">
         <v>0.33</v>
@@ -1470,7 +1539,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="Q3">
         <v>2.2</v>
@@ -1548,10 +1617,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ3">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1676,7 +1745,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -1754,10 +1823,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1882,7 +1951,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1960,10 +2029,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ5">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2088,7 +2157,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="Q6">
         <v>2.35</v>
@@ -2294,7 +2363,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="Q7">
         <v>2.66</v>
@@ -2372,10 +2441,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ7">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2500,7 +2569,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="Q8">
         <v>2.8</v>
@@ -2578,10 +2647,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ8">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2784,10 +2853,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2912,7 +2981,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -2990,10 +3059,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AQ10">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3118,7 +3187,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3199,7 +3268,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ11">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3324,7 +3393,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3402,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ12">
         <v>0.2</v>
@@ -3608,10 +3677,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ13">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3814,10 +3883,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ14">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3942,7 +4011,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="Q15">
         <v>2.05</v>
@@ -4020,10 +4089,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ15">
-        <v>0.25</v>
+        <v>0.67</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4226,10 +4295,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ16">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4354,7 +4423,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="Q17">
         <v>2.15</v>
@@ -4432,10 +4501,10 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ17">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR17">
         <v>2.14</v>
@@ -4560,7 +4629,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="Q18">
         <v>2.15</v>
@@ -4638,10 +4707,10 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ18">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR18">
         <v>1.34</v>
@@ -4844,7 +4913,7 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ19">
         <v>1</v>
@@ -5050,10 +5119,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ20">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR20">
         <v>1.13</v>
@@ -5256,10 +5325,10 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ21">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR21">
         <v>1.74</v>
@@ -5384,7 +5453,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="Q22">
         <v>2.76</v>
@@ -5465,7 +5534,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ22">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR22">
         <v>1.02</v>
@@ -5590,7 +5659,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="Q23">
         <v>2.85</v>
@@ -5668,7 +5737,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ23">
         <v>0.33</v>
@@ -5796,7 +5865,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="Q24">
         <v>2.05</v>
@@ -5874,10 +5943,10 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ24">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR24">
         <v>1.52</v>
@@ -6080,10 +6149,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ25">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR25">
         <v>1.76</v>
@@ -6286,7 +6355,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AQ26">
         <v>0.2</v>
@@ -6414,7 +6483,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6492,10 +6561,10 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ27">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR27">
         <v>1.67</v>
@@ -6701,7 +6770,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ28">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR28">
         <v>0.98</v>
@@ -6826,7 +6895,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="Q29">
         <v>2.25</v>
@@ -6904,10 +6973,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ29">
-        <v>0.2</v>
+        <v>0.57</v>
       </c>
       <c r="AR29">
         <v>1.26</v>
@@ -7110,10 +7179,10 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ30">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR30">
         <v>0</v>
@@ -7238,7 +7307,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7316,10 +7385,10 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ31">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR31">
         <v>0.83</v>
@@ -7522,10 +7591,10 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ32">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR32">
         <v>1.53</v>
@@ -7650,7 +7719,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="Q33">
         <v>3.05</v>
@@ -7728,7 +7797,7 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ33">
         <v>1</v>
@@ -7856,7 +7925,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="Q34">
         <v>2.26</v>
@@ -7934,10 +8003,10 @@
         <v>0.5</v>
       </c>
       <c r="AP34">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ34">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR34">
         <v>1.33</v>
@@ -8062,7 +8131,7 @@
         <v>115</v>
       </c>
       <c r="P35" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="Q35">
         <v>3.46</v>
@@ -8143,7 +8212,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ35">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR35">
         <v>1.41</v>
@@ -8346,7 +8415,7 @@
         <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ36">
         <v>0.33</v>
@@ -8474,7 +8543,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="Q37">
         <v>2.72</v>
@@ -8552,10 +8621,10 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ37">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR37">
         <v>1.12</v>
@@ -8680,7 +8749,7 @@
         <v>118</v>
       </c>
       <c r="P38" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="Q38">
         <v>4.55</v>
@@ -8758,10 +8827,10 @@
         <v>2</v>
       </c>
       <c r="AP38">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ38">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR38">
         <v>1.21</v>
@@ -8886,7 +8955,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="Q39">
         <v>2.78</v>
@@ -8964,10 +9033,10 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ39">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR39">
         <v>1.22</v>
@@ -9173,7 +9242,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ40">
-        <v>0.2</v>
+        <v>0.57</v>
       </c>
       <c r="AR40">
         <v>0.79</v>
@@ -9376,10 +9445,10 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ41">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR41">
         <v>2.44</v>
@@ -9582,10 +9651,10 @@
         <v>0.33</v>
       </c>
       <c r="AP42">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AQ42">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR42">
         <v>1.34</v>
@@ -9710,7 +9779,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="Q43">
         <v>3.11</v>
@@ -9788,10 +9857,10 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ43">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR43">
         <v>1.39</v>
@@ -9916,7 +9985,7 @@
         <v>123</v>
       </c>
       <c r="P44" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="Q44">
         <v>3.3</v>
@@ -9994,10 +10063,10 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ44">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR44">
         <v>1.31</v>
@@ -10122,7 +10191,7 @@
         <v>94</v>
       </c>
       <c r="P45" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="Q45">
         <v>2.4</v>
@@ -10200,10 +10269,10 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ45">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR45">
         <v>2.74</v>
@@ -10406,10 +10475,10 @@
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ46">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR46">
         <v>1.14</v>
@@ -10612,10 +10681,10 @@
         <v>0.67</v>
       </c>
       <c r="AP47">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ47">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR47">
         <v>1.55</v>
@@ -10818,10 +10887,10 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ48">
-        <v>0.25</v>
+        <v>0.67</v>
       </c>
       <c r="AR48">
         <v>1.78</v>
@@ -11024,10 +11093,10 @@
         <v>1.33</v>
       </c>
       <c r="AP49">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ49">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR49">
         <v>1.8</v>
@@ -11152,7 +11221,7 @@
         <v>103</v>
       </c>
       <c r="P50" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="Q50">
         <v>3.89</v>
@@ -11230,10 +11299,10 @@
         <v>1.33</v>
       </c>
       <c r="AP50">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ50">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR50">
         <v>1.3</v>
@@ -11358,7 +11427,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="Q51">
         <v>2.61</v>
@@ -11436,10 +11505,10 @@
         <v>2.33</v>
       </c>
       <c r="AP51">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ51">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR51">
         <v>1.26</v>
@@ -11564,7 +11633,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -11642,10 +11711,10 @@
         <v>1.67</v>
       </c>
       <c r="AP52">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ52">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR52">
         <v>1.25</v>
@@ -11770,7 +11839,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="Q53">
         <v>2.05</v>
@@ -11848,7 +11917,7 @@
         <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ53">
         <v>0.2</v>
@@ -11976,7 +12045,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="Q54">
         <v>3.03</v>
@@ -12054,7 +12123,7 @@
         <v>1.67</v>
       </c>
       <c r="AP54">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ54">
         <v>1</v>
@@ -12466,10 +12535,10 @@
         <v>0.5</v>
       </c>
       <c r="AP56">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ56">
-        <v>0.2</v>
+        <v>0.57</v>
       </c>
       <c r="AR56">
         <v>1.56</v>
@@ -12594,7 +12663,7 @@
         <v>103</v>
       </c>
       <c r="P57" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="Q57">
         <v>2.57</v>
@@ -12672,10 +12741,10 @@
         <v>0.75</v>
       </c>
       <c r="AP57">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ57">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR57">
         <v>1.2</v>
@@ -12800,7 +12869,7 @@
         <v>132</v>
       </c>
       <c r="P58" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="Q58">
         <v>2.3</v>
@@ -12878,10 +12947,10 @@
         <v>0.5</v>
       </c>
       <c r="AP58">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ58">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR58">
         <v>1.49</v>
@@ -13006,7 +13075,7 @@
         <v>103</v>
       </c>
       <c r="P59" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="Q59">
         <v>2.75</v>
@@ -13087,7 +13156,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ59">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR59">
         <v>1.1</v>
@@ -13212,7 +13281,7 @@
         <v>103</v>
       </c>
       <c r="P60" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="Q60">
         <v>2.32</v>
@@ -13290,10 +13359,10 @@
         <v>1.33</v>
       </c>
       <c r="AP60">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ60">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR60">
         <v>2.26</v>
@@ -13418,7 +13487,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="Q61">
         <v>3.6</v>
@@ -13496,10 +13565,10 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ61">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR61">
         <v>1.46</v>
@@ -13624,7 +13693,7 @@
         <v>134</v>
       </c>
       <c r="P62" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="Q62">
         <v>2.39</v>
@@ -13702,10 +13771,10 @@
         <v>1.33</v>
       </c>
       <c r="AP62">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ62">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR62">
         <v>1.79</v>
@@ -13830,7 +13899,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="Q63">
         <v>2.84</v>
@@ -13908,10 +13977,10 @@
         <v>2.5</v>
       </c>
       <c r="AP63">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AQ63">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR63">
         <v>1.75</v>
@@ -14036,7 +14105,7 @@
         <v>136</v>
       </c>
       <c r="P64" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="Q64">
         <v>2.7</v>
@@ -14114,7 +14183,7 @@
         <v>0.25</v>
       </c>
       <c r="AP64">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ64">
         <v>0.33</v>
@@ -14242,7 +14311,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -14323,7 +14392,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ65">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR65">
         <v>1.68</v>
@@ -14526,10 +14595,10 @@
         <v>1.5</v>
       </c>
       <c r="AP66">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ66">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR66">
         <v>1.59</v>
@@ -14654,7 +14723,7 @@
         <v>139</v>
       </c>
       <c r="P67" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="Q67">
         <v>2.5</v>
@@ -14732,7 +14801,7 @@
         <v>1.25</v>
       </c>
       <c r="AP67">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ67">
         <v>1</v>
@@ -14860,7 +14929,7 @@
         <v>117</v>
       </c>
       <c r="P68" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="Q68">
         <v>2.3</v>
@@ -14938,10 +15007,10 @@
         <v>1.25</v>
       </c>
       <c r="AP68">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ68">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR68">
         <v>1.49</v>
@@ -15144,10 +15213,10 @@
         <v>1.33</v>
       </c>
       <c r="AP69">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ69">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR69">
         <v>1.74</v>
@@ -15272,7 +15341,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="Q70">
         <v>1.85</v>
@@ -15350,10 +15419,10 @@
         <v>0</v>
       </c>
       <c r="AP70">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ70">
-        <v>0.25</v>
+        <v>0.67</v>
       </c>
       <c r="AR70">
         <v>1.92</v>
@@ -15556,7 +15625,7 @@
         <v>0.33</v>
       </c>
       <c r="AP71">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ71">
         <v>0.2</v>
@@ -15684,7 +15753,7 @@
         <v>143</v>
       </c>
       <c r="P72" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="Q72">
         <v>2.24</v>
@@ -15762,7 +15831,7 @@
         <v>1.2</v>
       </c>
       <c r="AP72">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ72">
         <v>1</v>
@@ -15890,7 +15959,7 @@
         <v>103</v>
       </c>
       <c r="P73" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="Q73">
         <v>3.66</v>
@@ -15968,10 +16037,10 @@
         <v>1.75</v>
       </c>
       <c r="AP73">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ73">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR73">
         <v>1.41</v>
@@ -16096,7 +16165,7 @@
         <v>144</v>
       </c>
       <c r="P74" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="Q74">
         <v>2.4</v>
@@ -16174,10 +16243,10 @@
         <v>2</v>
       </c>
       <c r="AP74">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ74">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR74">
         <v>1.87</v>
@@ -16302,7 +16371,7 @@
         <v>145</v>
       </c>
       <c r="P75" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="Q75">
         <v>2.38</v>
@@ -16380,10 +16449,10 @@
         <v>0.6</v>
       </c>
       <c r="AP75">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ75">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR75">
         <v>1.76</v>
@@ -16508,7 +16577,7 @@
         <v>125</v>
       </c>
       <c r="P76" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -16586,10 +16655,10 @@
         <v>1</v>
       </c>
       <c r="AP76">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ76">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR76">
         <v>1.63</v>
@@ -16795,7 +16864,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ77">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR77">
         <v>1.11</v>
@@ -16920,7 +16989,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="Q78">
         <v>2.75</v>
@@ -16998,10 +17067,10 @@
         <v>0.33</v>
       </c>
       <c r="AP78">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ78">
-        <v>0.2</v>
+        <v>0.57</v>
       </c>
       <c r="AR78">
         <v>1.22</v>
@@ -17126,7 +17195,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17204,10 +17273,10 @@
         <v>1.2</v>
       </c>
       <c r="AP79">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AQ79">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR79">
         <v>2.01</v>
@@ -17332,7 +17401,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="Q80">
         <v>2.2</v>
@@ -17410,10 +17479,10 @@
         <v>0</v>
       </c>
       <c r="AP80">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ80">
-        <v>0.25</v>
+        <v>0.67</v>
       </c>
       <c r="AR80">
         <v>1.6</v>
@@ -17538,7 +17607,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="Q81">
         <v>2.31</v>
@@ -17616,10 +17685,10 @@
         <v>1.2</v>
       </c>
       <c r="AP81">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ81">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR81">
         <v>2.48</v>
@@ -17950,7 +18019,7 @@
         <v>151</v>
       </c>
       <c r="P83" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="Q83">
         <v>2.7</v>
@@ -18028,10 +18097,10 @@
         <v>1.2</v>
       </c>
       <c r="AP83">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ83">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR83">
         <v>1.42</v>
@@ -18234,10 +18303,10 @@
         <v>1</v>
       </c>
       <c r="AP84">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ84">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR84">
         <v>1.53</v>
@@ -18362,7 +18431,7 @@
         <v>153</v>
       </c>
       <c r="P85" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="Q85">
         <v>3.5</v>
@@ -18440,10 +18509,10 @@
         <v>2</v>
       </c>
       <c r="AP85">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ85">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR85">
         <v>1.61</v>
@@ -18568,7 +18637,7 @@
         <v>154</v>
       </c>
       <c r="P86" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="Q86">
         <v>2.55</v>
@@ -18646,10 +18715,10 @@
         <v>0.75</v>
       </c>
       <c r="AP86">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ86">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR86">
         <v>1.91</v>
@@ -18774,7 +18843,7 @@
         <v>155</v>
       </c>
       <c r="P87" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="Q87">
         <v>2.27</v>
@@ -18852,7 +18921,7 @@
         <v>0.2</v>
       </c>
       <c r="AP87">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ87">
         <v>0.33</v>
@@ -19058,10 +19127,10 @@
         <v>0.25</v>
       </c>
       <c r="AP88">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ88">
-        <v>0.2</v>
+        <v>0.57</v>
       </c>
       <c r="AR88">
         <v>2.39</v>
@@ -19137,6 +19206,3096 @@
       </c>
       <c r="BP88">
         <v>1.61</v>
+      </c>
+    </row>
+    <row r="89" spans="1:68">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>7296354</v>
+      </c>
+      <c r="C89" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45452.5</v>
+      </c>
+      <c r="F89">
+        <v>12</v>
+      </c>
+      <c r="G89" t="s">
+        <v>75</v>
+      </c>
+      <c r="H89" t="s">
+        <v>80</v>
+      </c>
+      <c r="I89">
+        <v>2</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89">
+        <v>3</v>
+      </c>
+      <c r="L89">
+        <v>3</v>
+      </c>
+      <c r="M89">
+        <v>3</v>
+      </c>
+      <c r="N89">
+        <v>6</v>
+      </c>
+      <c r="O89" t="s">
+        <v>156</v>
+      </c>
+      <c r="P89" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q89">
+        <v>2.8</v>
+      </c>
+      <c r="R89">
+        <v>2.38</v>
+      </c>
+      <c r="S89">
+        <v>3.1</v>
+      </c>
+      <c r="T89">
+        <v>1.29</v>
+      </c>
+      <c r="U89">
+        <v>3.4</v>
+      </c>
+      <c r="V89">
+        <v>2.25</v>
+      </c>
+      <c r="W89">
+        <v>1.57</v>
+      </c>
+      <c r="X89">
+        <v>4.75</v>
+      </c>
+      <c r="Y89">
+        <v>1.15</v>
+      </c>
+      <c r="Z89">
+        <v>2.61</v>
+      </c>
+      <c r="AA89">
+        <v>3.68</v>
+      </c>
+      <c r="AB89">
+        <v>2.41</v>
+      </c>
+      <c r="AC89">
+        <v>1.03</v>
+      </c>
+      <c r="AD89">
+        <v>18</v>
+      </c>
+      <c r="AE89">
+        <v>1.15</v>
+      </c>
+      <c r="AF89">
+        <v>4.75</v>
+      </c>
+      <c r="AG89">
+        <v>1.57</v>
+      </c>
+      <c r="AH89">
+        <v>2.38</v>
+      </c>
+      <c r="AI89">
+        <v>1.48</v>
+      </c>
+      <c r="AJ89">
+        <v>2.5</v>
+      </c>
+      <c r="AK89">
+        <v>1.48</v>
+      </c>
+      <c r="AL89">
+        <v>1.29</v>
+      </c>
+      <c r="AM89">
+        <v>1.55</v>
+      </c>
+      <c r="AN89">
+        <v>1.5</v>
+      </c>
+      <c r="AO89">
+        <v>0.5</v>
+      </c>
+      <c r="AP89">
+        <v>1.43</v>
+      </c>
+      <c r="AQ89">
+        <v>0.57</v>
+      </c>
+      <c r="AR89">
+        <v>1.53</v>
+      </c>
+      <c r="AS89">
+        <v>1.49</v>
+      </c>
+      <c r="AT89">
+        <v>3.02</v>
+      </c>
+      <c r="AU89">
+        <v>5</v>
+      </c>
+      <c r="AV89">
+        <v>7</v>
+      </c>
+      <c r="AW89">
+        <v>5</v>
+      </c>
+      <c r="AX89">
+        <v>6</v>
+      </c>
+      <c r="AY89">
+        <v>10</v>
+      </c>
+      <c r="AZ89">
+        <v>13</v>
+      </c>
+      <c r="BA89">
+        <v>7</v>
+      </c>
+      <c r="BB89">
+        <v>8</v>
+      </c>
+      <c r="BC89">
+        <v>15</v>
+      </c>
+      <c r="BD89">
+        <v>1.81</v>
+      </c>
+      <c r="BE89">
+        <v>9.4</v>
+      </c>
+      <c r="BF89">
+        <v>2.24</v>
+      </c>
+      <c r="BG89">
+        <v>1.17</v>
+      </c>
+      <c r="BH89">
+        <v>4.75</v>
+      </c>
+      <c r="BI89">
+        <v>1.26</v>
+      </c>
+      <c r="BJ89">
+        <v>3.34</v>
+      </c>
+      <c r="BK89">
+        <v>1.52</v>
+      </c>
+      <c r="BL89">
+        <v>2.45</v>
+      </c>
+      <c r="BM89">
+        <v>1.86</v>
+      </c>
+      <c r="BN89">
+        <v>1.93</v>
+      </c>
+      <c r="BO89">
+        <v>2.32</v>
+      </c>
+      <c r="BP89">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="90" spans="1:68">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>7296356</v>
+      </c>
+      <c r="C90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D90" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45452.5</v>
+      </c>
+      <c r="F90">
+        <v>12</v>
+      </c>
+      <c r="G90" t="s">
+        <v>83</v>
+      </c>
+      <c r="H90" t="s">
+        <v>85</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>2</v>
+      </c>
+      <c r="M90">
+        <v>2</v>
+      </c>
+      <c r="N90">
+        <v>4</v>
+      </c>
+      <c r="O90" t="s">
+        <v>157</v>
+      </c>
+      <c r="P90" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q90">
+        <v>2.6</v>
+      </c>
+      <c r="R90">
+        <v>2.5</v>
+      </c>
+      <c r="S90">
+        <v>3.5</v>
+      </c>
+      <c r="T90">
+        <v>1.25</v>
+      </c>
+      <c r="U90">
+        <v>3.75</v>
+      </c>
+      <c r="V90">
+        <v>2.2</v>
+      </c>
+      <c r="W90">
+        <v>1.62</v>
+      </c>
+      <c r="X90">
+        <v>5</v>
+      </c>
+      <c r="Y90">
+        <v>1.17</v>
+      </c>
+      <c r="Z90">
+        <v>2.26</v>
+      </c>
+      <c r="AA90">
+        <v>3.76</v>
+      </c>
+      <c r="AB90">
+        <v>2.8</v>
+      </c>
+      <c r="AC90">
+        <v>1.02</v>
+      </c>
+      <c r="AD90">
+        <v>19.75</v>
+      </c>
+      <c r="AE90">
+        <v>1.16</v>
+      </c>
+      <c r="AF90">
+        <v>5.2</v>
+      </c>
+      <c r="AG90">
+        <v>1.47</v>
+      </c>
+      <c r="AH90">
+        <v>2.5</v>
+      </c>
+      <c r="AI90">
+        <v>1.44</v>
+      </c>
+      <c r="AJ90">
+        <v>2.63</v>
+      </c>
+      <c r="AK90">
+        <v>1.35</v>
+      </c>
+      <c r="AL90">
+        <v>1.28</v>
+      </c>
+      <c r="AM90">
+        <v>1.72</v>
+      </c>
+      <c r="AN90">
+        <v>2</v>
+      </c>
+      <c r="AO90">
+        <v>2.17</v>
+      </c>
+      <c r="AP90">
+        <v>1.83</v>
+      </c>
+      <c r="AQ90">
+        <v>2</v>
+      </c>
+      <c r="AR90">
+        <v>1.67</v>
+      </c>
+      <c r="AS90">
+        <v>1.64</v>
+      </c>
+      <c r="AT90">
+        <v>3.31</v>
+      </c>
+      <c r="AU90">
+        <v>7</v>
+      </c>
+      <c r="AV90">
+        <v>4</v>
+      </c>
+      <c r="AW90">
+        <v>2</v>
+      </c>
+      <c r="AX90">
+        <v>4</v>
+      </c>
+      <c r="AY90">
+        <v>9</v>
+      </c>
+      <c r="AZ90">
+        <v>8</v>
+      </c>
+      <c r="BA90">
+        <v>5</v>
+      </c>
+      <c r="BB90">
+        <v>5</v>
+      </c>
+      <c r="BC90">
+        <v>10</v>
+      </c>
+      <c r="BD90">
+        <v>1.65</v>
+      </c>
+      <c r="BE90">
+        <v>9.4</v>
+      </c>
+      <c r="BF90">
+        <v>2.54</v>
+      </c>
+      <c r="BG90">
+        <v>1.14</v>
+      </c>
+      <c r="BH90">
+        <v>4.8</v>
+      </c>
+      <c r="BI90">
+        <v>1.26</v>
+      </c>
+      <c r="BJ90">
+        <v>3.34</v>
+      </c>
+      <c r="BK90">
+        <v>1.52</v>
+      </c>
+      <c r="BL90">
+        <v>2.47</v>
+      </c>
+      <c r="BM90">
+        <v>1.86</v>
+      </c>
+      <c r="BN90">
+        <v>1.93</v>
+      </c>
+      <c r="BO90">
+        <v>2.33</v>
+      </c>
+      <c r="BP90">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="91" spans="1:68">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>7296358</v>
+      </c>
+      <c r="C91" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" t="s">
+        <v>69</v>
+      </c>
+      <c r="E91" s="2">
+        <v>45452.5</v>
+      </c>
+      <c r="F91">
+        <v>12</v>
+      </c>
+      <c r="G91" t="s">
+        <v>78</v>
+      </c>
+      <c r="H91" t="s">
+        <v>84</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>2</v>
+      </c>
+      <c r="K91">
+        <v>3</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>4</v>
+      </c>
+      <c r="N91">
+        <v>5</v>
+      </c>
+      <c r="O91" t="s">
+        <v>158</v>
+      </c>
+      <c r="P91" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q91">
+        <v>3</v>
+      </c>
+      <c r="R91">
+        <v>2.25</v>
+      </c>
+      <c r="S91">
+        <v>3.1</v>
+      </c>
+      <c r="T91">
+        <v>1.3</v>
+      </c>
+      <c r="U91">
+        <v>3.34</v>
+      </c>
+      <c r="V91">
+        <v>2.38</v>
+      </c>
+      <c r="W91">
+        <v>1.54</v>
+      </c>
+      <c r="X91">
+        <v>5.5</v>
+      </c>
+      <c r="Y91">
+        <v>1.13</v>
+      </c>
+      <c r="Z91">
+        <v>2.58</v>
+      </c>
+      <c r="AA91">
+        <v>3.58</v>
+      </c>
+      <c r="AB91">
+        <v>2.49</v>
+      </c>
+      <c r="AC91">
+        <v>1.01</v>
+      </c>
+      <c r="AD91">
+        <v>11</v>
+      </c>
+      <c r="AE91">
+        <v>1.18</v>
+      </c>
+      <c r="AF91">
+        <v>4.33</v>
+      </c>
+      <c r="AG91">
+        <v>1.62</v>
+      </c>
+      <c r="AH91">
+        <v>2.25</v>
+      </c>
+      <c r="AI91">
+        <v>1.5</v>
+      </c>
+      <c r="AJ91">
+        <v>2.4</v>
+      </c>
+      <c r="AK91">
+        <v>1.48</v>
+      </c>
+      <c r="AL91">
+        <v>1.3</v>
+      </c>
+      <c r="AM91">
+        <v>1.53</v>
+      </c>
+      <c r="AN91">
+        <v>1.6</v>
+      </c>
+      <c r="AO91">
+        <v>1</v>
+      </c>
+      <c r="AP91">
+        <v>1.57</v>
+      </c>
+      <c r="AQ91">
+        <v>1.33</v>
+      </c>
+      <c r="AR91">
+        <v>1.98</v>
+      </c>
+      <c r="AS91">
+        <v>1.9</v>
+      </c>
+      <c r="AT91">
+        <v>3.88</v>
+      </c>
+      <c r="AU91">
+        <v>4</v>
+      </c>
+      <c r="AV91">
+        <v>10</v>
+      </c>
+      <c r="AW91">
+        <v>4</v>
+      </c>
+      <c r="AX91">
+        <v>12</v>
+      </c>
+      <c r="AY91">
+        <v>8</v>
+      </c>
+      <c r="AZ91">
+        <v>22</v>
+      </c>
+      <c r="BA91">
+        <v>2</v>
+      </c>
+      <c r="BB91">
+        <v>6</v>
+      </c>
+      <c r="BC91">
+        <v>8</v>
+      </c>
+      <c r="BD91">
+        <v>1.99</v>
+      </c>
+      <c r="BE91">
+        <v>8.9</v>
+      </c>
+      <c r="BF91">
+        <v>2.04</v>
+      </c>
+      <c r="BG91">
+        <v>1.19</v>
+      </c>
+      <c r="BH91">
+        <v>3.98</v>
+      </c>
+      <c r="BI91">
+        <v>1.37</v>
+      </c>
+      <c r="BJ91">
+        <v>2.75</v>
+      </c>
+      <c r="BK91">
+        <v>1.68</v>
+      </c>
+      <c r="BL91">
+        <v>2.06</v>
+      </c>
+      <c r="BM91">
+        <v>2.09</v>
+      </c>
+      <c r="BN91">
+        <v>1.63</v>
+      </c>
+      <c r="BO91">
+        <v>2.78</v>
+      </c>
+      <c r="BP91">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="92" spans="1:68">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>7296359</v>
+      </c>
+      <c r="C92" t="s">
+        <v>68</v>
+      </c>
+      <c r="D92" t="s">
+        <v>69</v>
+      </c>
+      <c r="E92" s="2">
+        <v>45452.5</v>
+      </c>
+      <c r="F92">
+        <v>12</v>
+      </c>
+      <c r="G92" t="s">
+        <v>73</v>
+      </c>
+      <c r="H92" t="s">
+        <v>71</v>
+      </c>
+      <c r="I92">
+        <v>3</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92">
+        <v>4</v>
+      </c>
+      <c r="L92">
+        <v>4</v>
+      </c>
+      <c r="M92">
+        <v>4</v>
+      </c>
+      <c r="N92">
+        <v>8</v>
+      </c>
+      <c r="O92" t="s">
+        <v>159</v>
+      </c>
+      <c r="P92" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q92">
+        <v>3.6</v>
+      </c>
+      <c r="R92">
+        <v>2.4</v>
+      </c>
+      <c r="S92">
+        <v>2.4</v>
+      </c>
+      <c r="T92">
+        <v>1.25</v>
+      </c>
+      <c r="U92">
+        <v>3.6</v>
+      </c>
+      <c r="V92">
+        <v>2.2</v>
+      </c>
+      <c r="W92">
+        <v>1.62</v>
+      </c>
+      <c r="X92">
+        <v>4.75</v>
+      </c>
+      <c r="Y92">
+        <v>1.15</v>
+      </c>
+      <c r="Z92">
+        <v>3.57</v>
+      </c>
+      <c r="AA92">
+        <v>3.88</v>
+      </c>
+      <c r="AB92">
+        <v>1.9</v>
+      </c>
+      <c r="AC92">
+        <v>1.02</v>
+      </c>
+      <c r="AD92">
+        <v>12</v>
+      </c>
+      <c r="AE92">
+        <v>1.13</v>
+      </c>
+      <c r="AF92">
+        <v>5</v>
+      </c>
+      <c r="AG92">
+        <v>1.46</v>
+      </c>
+      <c r="AH92">
+        <v>2.52</v>
+      </c>
+      <c r="AI92">
+        <v>1.48</v>
+      </c>
+      <c r="AJ92">
+        <v>2.5</v>
+      </c>
+      <c r="AK92">
+        <v>1.83</v>
+      </c>
+      <c r="AL92">
+        <v>1.25</v>
+      </c>
+      <c r="AM92">
+        <v>1.33</v>
+      </c>
+      <c r="AN92">
+        <v>0.67</v>
+      </c>
+      <c r="AO92">
+        <v>2</v>
+      </c>
+      <c r="AP92">
+        <v>0.71</v>
+      </c>
+      <c r="AQ92">
+        <v>1.83</v>
+      </c>
+      <c r="AR92">
+        <v>1.3</v>
+      </c>
+      <c r="AS92">
+        <v>1.35</v>
+      </c>
+      <c r="AT92">
+        <v>2.65</v>
+      </c>
+      <c r="AU92">
+        <v>8</v>
+      </c>
+      <c r="AV92">
+        <v>16</v>
+      </c>
+      <c r="AW92">
+        <v>3</v>
+      </c>
+      <c r="AX92">
+        <v>9</v>
+      </c>
+      <c r="AY92">
+        <v>11</v>
+      </c>
+      <c r="AZ92">
+        <v>25</v>
+      </c>
+      <c r="BA92">
+        <v>0</v>
+      </c>
+      <c r="BB92">
+        <v>8</v>
+      </c>
+      <c r="BC92">
+        <v>8</v>
+      </c>
+      <c r="BD92">
+        <v>2.14</v>
+      </c>
+      <c r="BE92">
+        <v>9.4</v>
+      </c>
+      <c r="BF92">
+        <v>1.88</v>
+      </c>
+      <c r="BG92">
+        <v>1.14</v>
+      </c>
+      <c r="BH92">
+        <v>4.9</v>
+      </c>
+      <c r="BI92">
+        <v>1.3</v>
+      </c>
+      <c r="BJ92">
+        <v>3.3</v>
+      </c>
+      <c r="BK92">
+        <v>1.35</v>
+      </c>
+      <c r="BL92">
+        <v>2.84</v>
+      </c>
+      <c r="BM92">
+        <v>1.67</v>
+      </c>
+      <c r="BN92">
+        <v>2.17</v>
+      </c>
+      <c r="BO92">
+        <v>2.04</v>
+      </c>
+      <c r="BP92">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="93" spans="1:68">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>7296360</v>
+      </c>
+      <c r="C93" t="s">
+        <v>68</v>
+      </c>
+      <c r="D93" t="s">
+        <v>69</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45452.5</v>
+      </c>
+      <c r="F93">
+        <v>12</v>
+      </c>
+      <c r="G93" t="s">
+        <v>70</v>
+      </c>
+      <c r="H93" t="s">
+        <v>74</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>1</v>
+      </c>
+      <c r="O93" t="s">
+        <v>160</v>
+      </c>
+      <c r="P93" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q93">
+        <v>2.05</v>
+      </c>
+      <c r="R93">
+        <v>2.5</v>
+      </c>
+      <c r="S93">
+        <v>5.5</v>
+      </c>
+      <c r="T93">
+        <v>1.29</v>
+      </c>
+      <c r="U93">
+        <v>3.5</v>
+      </c>
+      <c r="V93">
+        <v>2.25</v>
+      </c>
+      <c r="W93">
+        <v>1.57</v>
+      </c>
+      <c r="X93">
+        <v>5.5</v>
+      </c>
+      <c r="Y93">
+        <v>1.14</v>
+      </c>
+      <c r="Z93">
+        <v>1.8</v>
+      </c>
+      <c r="AA93">
+        <v>3.94</v>
+      </c>
+      <c r="AB93">
+        <v>3.91</v>
+      </c>
+      <c r="AC93">
+        <v>1.03</v>
+      </c>
+      <c r="AD93">
+        <v>18.5</v>
+      </c>
+      <c r="AE93">
+        <v>1.18</v>
+      </c>
+      <c r="AF93">
+        <v>4.88</v>
+      </c>
+      <c r="AG93">
+        <v>1.57</v>
+      </c>
+      <c r="AH93">
+        <v>2.35</v>
+      </c>
+      <c r="AI93">
+        <v>1.67</v>
+      </c>
+      <c r="AJ93">
+        <v>2.1</v>
+      </c>
+      <c r="AK93">
+        <v>1.12</v>
+      </c>
+      <c r="AL93">
+        <v>1.18</v>
+      </c>
+      <c r="AM93">
+        <v>2.49</v>
+      </c>
+      <c r="AN93">
+        <v>2.5</v>
+      </c>
+      <c r="AO93">
+        <v>0.2</v>
+      </c>
+      <c r="AP93">
+        <v>2.57</v>
+      </c>
+      <c r="AQ93">
+        <v>0.57</v>
+      </c>
+      <c r="AR93">
+        <v>1.76</v>
+      </c>
+      <c r="AS93">
+        <v>1.4</v>
+      </c>
+      <c r="AT93">
+        <v>3.16</v>
+      </c>
+      <c r="AU93">
+        <v>6</v>
+      </c>
+      <c r="AV93">
+        <v>3</v>
+      </c>
+      <c r="AW93">
+        <v>4</v>
+      </c>
+      <c r="AX93">
+        <v>2</v>
+      </c>
+      <c r="AY93">
+        <v>10</v>
+      </c>
+      <c r="AZ93">
+        <v>5</v>
+      </c>
+      <c r="BA93">
+        <v>7</v>
+      </c>
+      <c r="BB93">
+        <v>4</v>
+      </c>
+      <c r="BC93">
+        <v>11</v>
+      </c>
+      <c r="BD93">
+        <v>1.5</v>
+      </c>
+      <c r="BE93">
+        <v>10</v>
+      </c>
+      <c r="BF93">
+        <v>2.95</v>
+      </c>
+      <c r="BG93">
+        <v>1.18</v>
+      </c>
+      <c r="BH93">
+        <v>4.5</v>
+      </c>
+      <c r="BI93">
+        <v>1.34</v>
+      </c>
+      <c r="BJ93">
+        <v>3.1</v>
+      </c>
+      <c r="BK93">
+        <v>1.37</v>
+      </c>
+      <c r="BL93">
+        <v>2.75</v>
+      </c>
+      <c r="BM93">
+        <v>1.68</v>
+      </c>
+      <c r="BN93">
+        <v>2.14</v>
+      </c>
+      <c r="BO93">
+        <v>2.08</v>
+      </c>
+      <c r="BP93">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="94" spans="1:68">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>7296361</v>
+      </c>
+      <c r="C94" t="s">
+        <v>68</v>
+      </c>
+      <c r="D94" t="s">
+        <v>69</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45452.58333333334</v>
+      </c>
+      <c r="F94">
+        <v>12</v>
+      </c>
+      <c r="G94" t="s">
+        <v>72</v>
+      </c>
+      <c r="H94" t="s">
+        <v>77</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94">
+        <v>5</v>
+      </c>
+      <c r="M94">
+        <v>1</v>
+      </c>
+      <c r="N94">
+        <v>6</v>
+      </c>
+      <c r="O94" t="s">
+        <v>161</v>
+      </c>
+      <c r="P94" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q94">
+        <v>2.1</v>
+      </c>
+      <c r="R94">
+        <v>2.4</v>
+      </c>
+      <c r="S94">
+        <v>4.75</v>
+      </c>
+      <c r="T94">
+        <v>1.29</v>
+      </c>
+      <c r="U94">
+        <v>3.4</v>
+      </c>
+      <c r="V94">
+        <v>2.25</v>
+      </c>
+      <c r="W94">
+        <v>1.57</v>
+      </c>
+      <c r="X94">
+        <v>4.75</v>
+      </c>
+      <c r="Y94">
+        <v>1.15</v>
+      </c>
+      <c r="Z94">
+        <v>1.59</v>
+      </c>
+      <c r="AA94">
+        <v>4.3</v>
+      </c>
+      <c r="AB94">
+        <v>4.91</v>
+      </c>
+      <c r="AC94">
+        <v>1.02</v>
+      </c>
+      <c r="AD94">
+        <v>13.3</v>
+      </c>
+      <c r="AE94">
+        <v>1.18</v>
+      </c>
+      <c r="AF94">
+        <v>4.76</v>
+      </c>
+      <c r="AG94">
+        <v>1.57</v>
+      </c>
+      <c r="AH94">
+        <v>2.35</v>
+      </c>
+      <c r="AI94">
+        <v>1.62</v>
+      </c>
+      <c r="AJ94">
+        <v>2.2</v>
+      </c>
+      <c r="AK94">
+        <v>1.2</v>
+      </c>
+      <c r="AL94">
+        <v>1.2</v>
+      </c>
+      <c r="AM94">
+        <v>2.3</v>
+      </c>
+      <c r="AN94">
+        <v>1.4</v>
+      </c>
+      <c r="AO94">
+        <v>1.4</v>
+      </c>
+      <c r="AP94">
+        <v>1.67</v>
+      </c>
+      <c r="AQ94">
+        <v>1.17</v>
+      </c>
+      <c r="AR94">
+        <v>2</v>
+      </c>
+      <c r="AS94">
+        <v>1.53</v>
+      </c>
+      <c r="AT94">
+        <v>3.53</v>
+      </c>
+      <c r="AU94">
+        <v>7</v>
+      </c>
+      <c r="AV94">
+        <v>4</v>
+      </c>
+      <c r="AW94">
+        <v>2</v>
+      </c>
+      <c r="AX94">
+        <v>5</v>
+      </c>
+      <c r="AY94">
+        <v>9</v>
+      </c>
+      <c r="AZ94">
+        <v>9</v>
+      </c>
+      <c r="BA94">
+        <v>4</v>
+      </c>
+      <c r="BB94">
+        <v>8</v>
+      </c>
+      <c r="BC94">
+        <v>12</v>
+      </c>
+      <c r="BD94">
+        <v>1.32</v>
+      </c>
+      <c r="BE94">
+        <v>10.75</v>
+      </c>
+      <c r="BF94">
+        <v>3.92</v>
+      </c>
+      <c r="BG94">
+        <v>1.18</v>
+      </c>
+      <c r="BH94">
+        <v>4.5</v>
+      </c>
+      <c r="BI94">
+        <v>1.26</v>
+      </c>
+      <c r="BJ94">
+        <v>3.34</v>
+      </c>
+      <c r="BK94">
+        <v>1.52</v>
+      </c>
+      <c r="BL94">
+        <v>2.49</v>
+      </c>
+      <c r="BM94">
+        <v>1.85</v>
+      </c>
+      <c r="BN94">
+        <v>1.94</v>
+      </c>
+      <c r="BO94">
+        <v>2.33</v>
+      </c>
+      <c r="BP94">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="95" spans="1:68">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>7296293</v>
+      </c>
+      <c r="C95" t="s">
+        <v>68</v>
+      </c>
+      <c r="D95" t="s">
+        <v>69</v>
+      </c>
+      <c r="E95" s="2">
+        <v>45455.58333333334</v>
+      </c>
+      <c r="F95">
+        <v>4</v>
+      </c>
+      <c r="G95" t="s">
+        <v>81</v>
+      </c>
+      <c r="H95" t="s">
+        <v>75</v>
+      </c>
+      <c r="I95">
+        <v>2</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95">
+        <v>3</v>
+      </c>
+      <c r="L95">
+        <v>4</v>
+      </c>
+      <c r="M95">
+        <v>2</v>
+      </c>
+      <c r="N95">
+        <v>6</v>
+      </c>
+      <c r="O95" t="s">
+        <v>162</v>
+      </c>
+      <c r="P95" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q95">
+        <v>2.17</v>
+      </c>
+      <c r="R95">
+        <v>2.44</v>
+      </c>
+      <c r="S95">
+        <v>4.44</v>
+      </c>
+      <c r="T95">
+        <v>1.25</v>
+      </c>
+      <c r="U95">
+        <v>3.72</v>
+      </c>
+      <c r="V95">
+        <v>2.2</v>
+      </c>
+      <c r="W95">
+        <v>1.63</v>
+      </c>
+      <c r="X95">
+        <v>4.85</v>
+      </c>
+      <c r="Y95">
+        <v>1.16</v>
+      </c>
+      <c r="Z95">
+        <v>1.67</v>
+      </c>
+      <c r="AA95">
+        <v>4.33</v>
+      </c>
+      <c r="AB95">
+        <v>4.53</v>
+      </c>
+      <c r="AC95">
+        <v>1.02</v>
+      </c>
+      <c r="AD95">
+        <v>21</v>
+      </c>
+      <c r="AE95">
+        <v>1.12</v>
+      </c>
+      <c r="AF95">
+        <v>5</v>
+      </c>
+      <c r="AG95">
+        <v>1.46</v>
+      </c>
+      <c r="AH95">
+        <v>2.52</v>
+      </c>
+      <c r="AI95">
+        <v>1.51</v>
+      </c>
+      <c r="AJ95">
+        <v>2.48</v>
+      </c>
+      <c r="AK95">
+        <v>1.2</v>
+      </c>
+      <c r="AL95">
+        <v>1.21</v>
+      </c>
+      <c r="AM95">
+        <v>2.13</v>
+      </c>
+      <c r="AN95">
+        <v>1.75</v>
+      </c>
+      <c r="AO95">
+        <v>0.25</v>
+      </c>
+      <c r="AP95">
+        <v>2</v>
+      </c>
+      <c r="AQ95">
+        <v>0.67</v>
+      </c>
+      <c r="AR95">
+        <v>1.88</v>
+      </c>
+      <c r="AS95">
+        <v>1.45</v>
+      </c>
+      <c r="AT95">
+        <v>3.33</v>
+      </c>
+      <c r="AU95">
+        <v>7</v>
+      </c>
+      <c r="AV95">
+        <v>4</v>
+      </c>
+      <c r="AW95">
+        <v>7</v>
+      </c>
+      <c r="AX95">
+        <v>5</v>
+      </c>
+      <c r="AY95">
+        <v>14</v>
+      </c>
+      <c r="AZ95">
+        <v>9</v>
+      </c>
+      <c r="BA95">
+        <v>5</v>
+      </c>
+      <c r="BB95">
+        <v>8</v>
+      </c>
+      <c r="BC95">
+        <v>13</v>
+      </c>
+      <c r="BD95">
+        <v>1.55</v>
+      </c>
+      <c r="BE95">
+        <v>8.5</v>
+      </c>
+      <c r="BF95">
+        <v>2.91</v>
+      </c>
+      <c r="BG95">
+        <v>1.2</v>
+      </c>
+      <c r="BH95">
+        <v>4.25</v>
+      </c>
+      <c r="BI95">
+        <v>1.38</v>
+      </c>
+      <c r="BJ95">
+        <v>2.88</v>
+      </c>
+      <c r="BK95">
+        <v>1.7</v>
+      </c>
+      <c r="BL95">
+        <v>2.05</v>
+      </c>
+      <c r="BM95">
+        <v>2.12</v>
+      </c>
+      <c r="BN95">
+        <v>1.66</v>
+      </c>
+      <c r="BO95">
+        <v>2.85</v>
+      </c>
+      <c r="BP95">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="96" spans="1:68">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>7296366</v>
+      </c>
+      <c r="C96" t="s">
+        <v>68</v>
+      </c>
+      <c r="D96" t="s">
+        <v>69</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45459.41666666666</v>
+      </c>
+      <c r="F96">
+        <v>13</v>
+      </c>
+      <c r="G96" t="s">
+        <v>77</v>
+      </c>
+      <c r="H96" t="s">
+        <v>70</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>1</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>1</v>
+      </c>
+      <c r="O96" t="s">
+        <v>163</v>
+      </c>
+      <c r="P96" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q96">
+        <v>2.88</v>
+      </c>
+      <c r="R96">
+        <v>2.22</v>
+      </c>
+      <c r="S96">
+        <v>3.25</v>
+      </c>
+      <c r="T96">
+        <v>1.33</v>
+      </c>
+      <c r="U96">
+        <v>3.15</v>
+      </c>
+      <c r="V96">
+        <v>2.51</v>
+      </c>
+      <c r="W96">
+        <v>1.49</v>
+      </c>
+      <c r="X96">
+        <v>6</v>
+      </c>
+      <c r="Y96">
+        <v>1.11</v>
+      </c>
+      <c r="Z96">
+        <v>2.47</v>
+      </c>
+      <c r="AA96">
+        <v>3.35</v>
+      </c>
+      <c r="AB96">
+        <v>2.55</v>
+      </c>
+      <c r="AC96">
+        <v>1.02</v>
+      </c>
+      <c r="AD96">
+        <v>10</v>
+      </c>
+      <c r="AE96">
+        <v>1.19</v>
+      </c>
+      <c r="AF96">
+        <v>3.9</v>
+      </c>
+      <c r="AG96">
+        <v>1.68</v>
+      </c>
+      <c r="AH96">
+        <v>2.06</v>
+      </c>
+      <c r="AI96">
+        <v>1.57</v>
+      </c>
+      <c r="AJ96">
+        <v>2.25</v>
+      </c>
+      <c r="AK96">
+        <v>1.44</v>
+      </c>
+      <c r="AL96">
+        <v>1.27</v>
+      </c>
+      <c r="AM96">
+        <v>1.54</v>
+      </c>
+      <c r="AN96">
+        <v>2.17</v>
+      </c>
+      <c r="AO96">
+        <v>0.6</v>
+      </c>
+      <c r="AP96">
+        <v>2.29</v>
+      </c>
+      <c r="AQ96">
+        <v>0.5</v>
+      </c>
+      <c r="AR96">
+        <v>1.57</v>
+      </c>
+      <c r="AS96">
+        <v>2.1</v>
+      </c>
+      <c r="AT96">
+        <v>3.67</v>
+      </c>
+      <c r="AU96">
+        <v>4</v>
+      </c>
+      <c r="AV96">
+        <v>4</v>
+      </c>
+      <c r="AW96">
+        <v>8</v>
+      </c>
+      <c r="AX96">
+        <v>8</v>
+      </c>
+      <c r="AY96">
+        <v>12</v>
+      </c>
+      <c r="AZ96">
+        <v>12</v>
+      </c>
+      <c r="BA96">
+        <v>5</v>
+      </c>
+      <c r="BB96">
+        <v>8</v>
+      </c>
+      <c r="BC96">
+        <v>13</v>
+      </c>
+      <c r="BD96">
+        <v>1.91</v>
+      </c>
+      <c r="BE96">
+        <v>8</v>
+      </c>
+      <c r="BF96">
+        <v>2.1</v>
+      </c>
+      <c r="BG96">
+        <v>1.18</v>
+      </c>
+      <c r="BH96">
+        <v>4.5</v>
+      </c>
+      <c r="BI96">
+        <v>1.34</v>
+      </c>
+      <c r="BJ96">
+        <v>3.1</v>
+      </c>
+      <c r="BK96">
+        <v>1.61</v>
+      </c>
+      <c r="BL96">
+        <v>2.23</v>
+      </c>
+      <c r="BM96">
+        <v>2.02</v>
+      </c>
+      <c r="BN96">
+        <v>1.74</v>
+      </c>
+      <c r="BO96">
+        <v>2.7</v>
+      </c>
+      <c r="BP96">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="97" spans="1:68">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>7296369</v>
+      </c>
+      <c r="C97" t="s">
+        <v>68</v>
+      </c>
+      <c r="D97" t="s">
+        <v>69</v>
+      </c>
+      <c r="E97" s="2">
+        <v>45459.41666666666</v>
+      </c>
+      <c r="F97">
+        <v>13</v>
+      </c>
+      <c r="G97" t="s">
+        <v>80</v>
+      </c>
+      <c r="H97" t="s">
+        <v>79</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>1</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>1</v>
+      </c>
+      <c r="O97" t="s">
+        <v>164</v>
+      </c>
+      <c r="P97" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q97">
+        <v>2.32</v>
+      </c>
+      <c r="R97">
+        <v>2.31</v>
+      </c>
+      <c r="S97">
+        <v>4.15</v>
+      </c>
+      <c r="T97">
+        <v>1.3</v>
+      </c>
+      <c r="U97">
+        <v>3.34</v>
+      </c>
+      <c r="V97">
+        <v>2.41</v>
+      </c>
+      <c r="W97">
+        <v>1.53</v>
+      </c>
+      <c r="X97">
+        <v>5.55</v>
+      </c>
+      <c r="Y97">
+        <v>1.12</v>
+      </c>
+      <c r="Z97">
+        <v>1.8</v>
+      </c>
+      <c r="AA97">
+        <v>3.55</v>
+      </c>
+      <c r="AB97">
+        <v>3.88</v>
+      </c>
+      <c r="AC97">
+        <v>1.01</v>
+      </c>
+      <c r="AD97">
+        <v>11</v>
+      </c>
+      <c r="AE97">
+        <v>1.17</v>
+      </c>
+      <c r="AF97">
+        <v>4.25</v>
+      </c>
+      <c r="AG97">
+        <v>1.65</v>
+      </c>
+      <c r="AH97">
+        <v>2.11</v>
+      </c>
+      <c r="AI97">
+        <v>1.57</v>
+      </c>
+      <c r="AJ97">
+        <v>2.25</v>
+      </c>
+      <c r="AK97">
+        <v>1.25</v>
+      </c>
+      <c r="AL97">
+        <v>1.25</v>
+      </c>
+      <c r="AM97">
+        <v>1.9</v>
+      </c>
+      <c r="AN97">
+        <v>1.4</v>
+      </c>
+      <c r="AO97">
+        <v>1.5</v>
+      </c>
+      <c r="AP97">
+        <v>1.67</v>
+      </c>
+      <c r="AQ97">
+        <v>1.29</v>
+      </c>
+      <c r="AR97">
+        <v>1.52</v>
+      </c>
+      <c r="AS97">
+        <v>1.52</v>
+      </c>
+      <c r="AT97">
+        <v>3.04</v>
+      </c>
+      <c r="AU97">
+        <v>5</v>
+      </c>
+      <c r="AV97">
+        <v>0</v>
+      </c>
+      <c r="AW97">
+        <v>14</v>
+      </c>
+      <c r="AX97">
+        <v>5</v>
+      </c>
+      <c r="AY97">
+        <v>19</v>
+      </c>
+      <c r="AZ97">
+        <v>5</v>
+      </c>
+      <c r="BA97">
+        <v>8</v>
+      </c>
+      <c r="BB97">
+        <v>0</v>
+      </c>
+      <c r="BC97">
+        <v>8</v>
+      </c>
+      <c r="BD97">
+        <v>1.59</v>
+      </c>
+      <c r="BE97">
+        <v>9</v>
+      </c>
+      <c r="BF97">
+        <v>2.77</v>
+      </c>
+      <c r="BG97">
+        <v>0</v>
+      </c>
+      <c r="BH97">
+        <v>0</v>
+      </c>
+      <c r="BI97">
+        <v>1.22</v>
+      </c>
+      <c r="BJ97">
+        <v>4</v>
+      </c>
+      <c r="BK97">
+        <v>1.4</v>
+      </c>
+      <c r="BL97">
+        <v>2.8</v>
+      </c>
+      <c r="BM97">
+        <v>1.68</v>
+      </c>
+      <c r="BN97">
+        <v>2.1</v>
+      </c>
+      <c r="BO97">
+        <v>2.12</v>
+      </c>
+      <c r="BP97">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="98" spans="1:68">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>7296368</v>
+      </c>
+      <c r="C98" t="s">
+        <v>68</v>
+      </c>
+      <c r="D98" t="s">
+        <v>69</v>
+      </c>
+      <c r="E98" s="2">
+        <v>45459.41666666666</v>
+      </c>
+      <c r="F98">
+        <v>13</v>
+      </c>
+      <c r="G98" t="s">
+        <v>85</v>
+      </c>
+      <c r="H98" t="s">
+        <v>72</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+      <c r="N98">
+        <v>2</v>
+      </c>
+      <c r="O98" t="s">
+        <v>149</v>
+      </c>
+      <c r="P98" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q98">
+        <v>3.54</v>
+      </c>
+      <c r="R98">
+        <v>2.44</v>
+      </c>
+      <c r="S98">
+        <v>2.43</v>
+      </c>
+      <c r="T98">
+        <v>1.24</v>
+      </c>
+      <c r="U98">
+        <v>3.8</v>
+      </c>
+      <c r="V98">
+        <v>2.11</v>
+      </c>
+      <c r="W98">
+        <v>1.68</v>
+      </c>
+      <c r="X98">
+        <v>4.6</v>
+      </c>
+      <c r="Y98">
+        <v>1.18</v>
+      </c>
+      <c r="Z98">
+        <v>3.18</v>
+      </c>
+      <c r="AA98">
+        <v>3.7</v>
+      </c>
+      <c r="AB98">
+        <v>1.96</v>
+      </c>
+      <c r="AC98">
+        <v>1.02</v>
+      </c>
+      <c r="AD98">
+        <v>12</v>
+      </c>
+      <c r="AE98">
+        <v>1.1</v>
+      </c>
+      <c r="AF98">
+        <v>5.35</v>
+      </c>
+      <c r="AG98">
+        <v>1.42</v>
+      </c>
+      <c r="AH98">
+        <v>2.65</v>
+      </c>
+      <c r="AI98">
+        <v>1.41</v>
+      </c>
+      <c r="AJ98">
+        <v>2.69</v>
+      </c>
+      <c r="AK98">
+        <v>1.76</v>
+      </c>
+      <c r="AL98">
+        <v>1.23</v>
+      </c>
+      <c r="AM98">
+        <v>1.33</v>
+      </c>
+      <c r="AN98">
+        <v>1.6</v>
+      </c>
+      <c r="AO98">
+        <v>2.17</v>
+      </c>
+      <c r="AP98">
+        <v>1.5</v>
+      </c>
+      <c r="AQ98">
+        <v>2</v>
+      </c>
+      <c r="AR98">
+        <v>2.17</v>
+      </c>
+      <c r="AS98">
+        <v>1.93</v>
+      </c>
+      <c r="AT98">
+        <v>4.1</v>
+      </c>
+      <c r="AU98">
+        <v>8</v>
+      </c>
+      <c r="AV98">
+        <v>7</v>
+      </c>
+      <c r="AW98">
+        <v>3</v>
+      </c>
+      <c r="AX98">
+        <v>2</v>
+      </c>
+      <c r="AY98">
+        <v>11</v>
+      </c>
+      <c r="AZ98">
+        <v>9</v>
+      </c>
+      <c r="BA98">
+        <v>6</v>
+      </c>
+      <c r="BB98">
+        <v>2</v>
+      </c>
+      <c r="BC98">
+        <v>8</v>
+      </c>
+      <c r="BD98">
+        <v>2.32</v>
+      </c>
+      <c r="BE98">
+        <v>8.5</v>
+      </c>
+      <c r="BF98">
+        <v>1.82</v>
+      </c>
+      <c r="BG98">
+        <v>0</v>
+      </c>
+      <c r="BH98">
+        <v>0</v>
+      </c>
+      <c r="BI98">
+        <v>1.29</v>
+      </c>
+      <c r="BJ98">
+        <v>3.45</v>
+      </c>
+      <c r="BK98">
+        <v>1.5</v>
+      </c>
+      <c r="BL98">
+        <v>2.45</v>
+      </c>
+      <c r="BM98">
+        <v>1.9</v>
+      </c>
+      <c r="BN98">
+        <v>1.9</v>
+      </c>
+      <c r="BO98">
+        <v>2.43</v>
+      </c>
+      <c r="BP98">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="99" spans="1:68">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>7296367</v>
+      </c>
+      <c r="C99" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" t="s">
+        <v>69</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45459.41666666666</v>
+      </c>
+      <c r="F99">
+        <v>13</v>
+      </c>
+      <c r="G99" t="s">
+        <v>78</v>
+      </c>
+      <c r="H99" t="s">
+        <v>81</v>
+      </c>
+      <c r="I99">
+        <v>2</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99">
+        <v>3</v>
+      </c>
+      <c r="L99">
+        <v>4</v>
+      </c>
+      <c r="M99">
+        <v>3</v>
+      </c>
+      <c r="N99">
+        <v>7</v>
+      </c>
+      <c r="O99" t="s">
+        <v>165</v>
+      </c>
+      <c r="P99" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q99">
+        <v>3.35</v>
+      </c>
+      <c r="R99">
+        <v>2.52</v>
+      </c>
+      <c r="S99">
+        <v>2.69</v>
+      </c>
+      <c r="T99">
+        <v>1.24</v>
+      </c>
+      <c r="U99">
+        <v>3.7</v>
+      </c>
+      <c r="V99">
+        <v>2.2</v>
+      </c>
+      <c r="W99">
+        <v>1.64</v>
+      </c>
+      <c r="X99">
+        <v>4.9</v>
+      </c>
+      <c r="Y99">
+        <v>1.15</v>
+      </c>
+      <c r="Z99">
+        <v>3.01</v>
+      </c>
+      <c r="AA99">
+        <v>3.55</v>
+      </c>
+      <c r="AB99">
+        <v>2.08</v>
+      </c>
+      <c r="AC99">
+        <v>1.02</v>
+      </c>
+      <c r="AD99">
+        <v>20</v>
+      </c>
+      <c r="AE99">
+        <v>1.16</v>
+      </c>
+      <c r="AF99">
+        <v>5</v>
+      </c>
+      <c r="AG99">
+        <v>1.39</v>
+      </c>
+      <c r="AH99">
+        <v>2.77</v>
+      </c>
+      <c r="AI99">
+        <v>1.47</v>
+      </c>
+      <c r="AJ99">
+        <v>2.65</v>
+      </c>
+      <c r="AK99">
+        <v>1.68</v>
+      </c>
+      <c r="AL99">
+        <v>1.22</v>
+      </c>
+      <c r="AM99">
+        <v>1.4</v>
+      </c>
+      <c r="AN99">
+        <v>1.33</v>
+      </c>
+      <c r="AO99">
+        <v>1.5</v>
+      </c>
+      <c r="AP99">
+        <v>1.57</v>
+      </c>
+      <c r="AQ99">
+        <v>1.29</v>
+      </c>
+      <c r="AR99">
+        <v>1.79</v>
+      </c>
+      <c r="AS99">
+        <v>1.54</v>
+      </c>
+      <c r="AT99">
+        <v>3.33</v>
+      </c>
+      <c r="AU99">
+        <v>9</v>
+      </c>
+      <c r="AV99">
+        <v>21</v>
+      </c>
+      <c r="AW99">
+        <v>7</v>
+      </c>
+      <c r="AX99">
+        <v>4</v>
+      </c>
+      <c r="AY99">
+        <v>16</v>
+      </c>
+      <c r="AZ99">
+        <v>25</v>
+      </c>
+      <c r="BA99">
+        <v>5</v>
+      </c>
+      <c r="BB99">
+        <v>6</v>
+      </c>
+      <c r="BC99">
+        <v>11</v>
+      </c>
+      <c r="BD99">
+        <v>2.1</v>
+      </c>
+      <c r="BE99">
+        <v>8.5</v>
+      </c>
+      <c r="BF99">
+        <v>1.91</v>
+      </c>
+      <c r="BG99">
+        <v>1.17</v>
+      </c>
+      <c r="BH99">
+        <v>4.5</v>
+      </c>
+      <c r="BI99">
+        <v>1.3</v>
+      </c>
+      <c r="BJ99">
+        <v>3.3</v>
+      </c>
+      <c r="BK99">
+        <v>1.55</v>
+      </c>
+      <c r="BL99">
+        <v>2.38</v>
+      </c>
+      <c r="BM99">
+        <v>1.98</v>
+      </c>
+      <c r="BN99">
+        <v>1.82</v>
+      </c>
+      <c r="BO99">
+        <v>2.5</v>
+      </c>
+      <c r="BP99">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="100" spans="1:68">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>7296365</v>
+      </c>
+      <c r="C100" t="s">
+        <v>68</v>
+      </c>
+      <c r="D100" t="s">
+        <v>69</v>
+      </c>
+      <c r="E100" s="2">
+        <v>45459.41666666666</v>
+      </c>
+      <c r="F100">
+        <v>13</v>
+      </c>
+      <c r="G100" t="s">
+        <v>82</v>
+      </c>
+      <c r="H100" t="s">
+        <v>73</v>
+      </c>
+      <c r="I100">
+        <v>3</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>3</v>
+      </c>
+      <c r="L100">
+        <v>4</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>4</v>
+      </c>
+      <c r="O100" t="s">
+        <v>166</v>
+      </c>
+      <c r="P100" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q100">
+        <v>2.39</v>
+      </c>
+      <c r="R100">
+        <v>2.33</v>
+      </c>
+      <c r="S100">
+        <v>3.9</v>
+      </c>
+      <c r="T100">
+        <v>1.28</v>
+      </c>
+      <c r="U100">
+        <v>3.44</v>
+      </c>
+      <c r="V100">
+        <v>2.34</v>
+      </c>
+      <c r="W100">
+        <v>1.56</v>
+      </c>
+      <c r="X100">
+        <v>5.35</v>
+      </c>
+      <c r="Y100">
+        <v>1.13</v>
+      </c>
+      <c r="Z100">
+        <v>1.85</v>
+      </c>
+      <c r="AA100">
+        <v>3.8</v>
+      </c>
+      <c r="AB100">
+        <v>3.43</v>
+      </c>
+      <c r="AC100">
+        <v>1.01</v>
+      </c>
+      <c r="AD100">
+        <v>12</v>
+      </c>
+      <c r="AE100">
+        <v>1.15</v>
+      </c>
+      <c r="AF100">
+        <v>4.4</v>
+      </c>
+      <c r="AG100">
+        <v>1.54</v>
+      </c>
+      <c r="AH100">
+        <v>2.32</v>
+      </c>
+      <c r="AI100">
+        <v>1.53</v>
+      </c>
+      <c r="AJ100">
+        <v>2.34</v>
+      </c>
+      <c r="AK100">
+        <v>1.28</v>
+      </c>
+      <c r="AL100">
+        <v>1.25</v>
+      </c>
+      <c r="AM100">
+        <v>1.84</v>
+      </c>
+      <c r="AN100">
+        <v>1.2</v>
+      </c>
+      <c r="AO100">
+        <v>0.8</v>
+      </c>
+      <c r="AP100">
+        <v>1.5</v>
+      </c>
+      <c r="AQ100">
+        <v>0.67</v>
+      </c>
+      <c r="AR100">
+        <v>1.53</v>
+      </c>
+      <c r="AS100">
+        <v>1.21</v>
+      </c>
+      <c r="AT100">
+        <v>2.74</v>
+      </c>
+      <c r="AU100">
+        <v>9</v>
+      </c>
+      <c r="AV100">
+        <v>7</v>
+      </c>
+      <c r="AW100">
+        <v>4</v>
+      </c>
+      <c r="AX100">
+        <v>10</v>
+      </c>
+      <c r="AY100">
+        <v>13</v>
+      </c>
+      <c r="AZ100">
+        <v>17</v>
+      </c>
+      <c r="BA100">
+        <v>0</v>
+      </c>
+      <c r="BB100">
+        <v>13</v>
+      </c>
+      <c r="BC100">
+        <v>13</v>
+      </c>
+      <c r="BD100">
+        <v>1.64</v>
+      </c>
+      <c r="BE100">
+        <v>8.5</v>
+      </c>
+      <c r="BF100">
+        <v>2.66</v>
+      </c>
+      <c r="BG100">
+        <v>1.19</v>
+      </c>
+      <c r="BH100">
+        <v>4.1</v>
+      </c>
+      <c r="BI100">
+        <v>1.3</v>
+      </c>
+      <c r="BJ100">
+        <v>3.3</v>
+      </c>
+      <c r="BK100">
+        <v>1.55</v>
+      </c>
+      <c r="BL100">
+        <v>2.38</v>
+      </c>
+      <c r="BM100">
+        <v>2</v>
+      </c>
+      <c r="BN100">
+        <v>1.8</v>
+      </c>
+      <c r="BO100">
+        <v>2.5</v>
+      </c>
+      <c r="BP100">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="101" spans="1:68">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>7296364</v>
+      </c>
+      <c r="C101" t="s">
+        <v>68</v>
+      </c>
+      <c r="D101" t="s">
+        <v>69</v>
+      </c>
+      <c r="E101" s="2">
+        <v>45459.41666666666</v>
+      </c>
+      <c r="F101">
+        <v>13</v>
+      </c>
+      <c r="G101" t="s">
+        <v>76</v>
+      </c>
+      <c r="H101" t="s">
+        <v>75</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101">
+        <v>2</v>
+      </c>
+      <c r="L101">
+        <v>2</v>
+      </c>
+      <c r="M101">
+        <v>3</v>
+      </c>
+      <c r="N101">
+        <v>5</v>
+      </c>
+      <c r="O101" t="s">
+        <v>167</v>
+      </c>
+      <c r="P101" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q101">
+        <v>2.96</v>
+      </c>
+      <c r="R101">
+        <v>2.5</v>
+      </c>
+      <c r="S101">
+        <v>3.07</v>
+      </c>
+      <c r="T101">
+        <v>1.25</v>
+      </c>
+      <c r="U101">
+        <v>3.65</v>
+      </c>
+      <c r="V101">
+        <v>2.24</v>
+      </c>
+      <c r="W101">
+        <v>1.63</v>
+      </c>
+      <c r="X101">
+        <v>4.95</v>
+      </c>
+      <c r="Y101">
+        <v>1.14</v>
+      </c>
+      <c r="Z101">
+        <v>2.35</v>
+      </c>
+      <c r="AA101">
+        <v>3.85</v>
+      </c>
+      <c r="AB101">
+        <v>2.44</v>
+      </c>
+      <c r="AC101">
+        <v>1.03</v>
+      </c>
+      <c r="AD101">
+        <v>19.25</v>
+      </c>
+      <c r="AE101">
+        <v>1.16</v>
+      </c>
+      <c r="AF101">
+        <v>5</v>
+      </c>
+      <c r="AG101">
+        <v>1.42</v>
+      </c>
+      <c r="AH101">
+        <v>2.65</v>
+      </c>
+      <c r="AI101">
+        <v>1.47</v>
+      </c>
+      <c r="AJ101">
+        <v>2.65</v>
+      </c>
+      <c r="AK101">
+        <v>1.52</v>
+      </c>
+      <c r="AL101">
+        <v>1.22</v>
+      </c>
+      <c r="AM101">
+        <v>1.53</v>
+      </c>
+      <c r="AN101">
+        <v>1.33</v>
+      </c>
+      <c r="AO101">
+        <v>0.2</v>
+      </c>
+      <c r="AP101">
+        <v>1.14</v>
+      </c>
+      <c r="AQ101">
+        <v>0.67</v>
+      </c>
+      <c r="AR101">
+        <v>1.53</v>
+      </c>
+      <c r="AS101">
+        <v>1.44</v>
+      </c>
+      <c r="AT101">
+        <v>2.97</v>
+      </c>
+      <c r="AU101">
+        <v>10</v>
+      </c>
+      <c r="AV101">
+        <v>7</v>
+      </c>
+      <c r="AW101">
+        <v>8</v>
+      </c>
+      <c r="AX101">
+        <v>5</v>
+      </c>
+      <c r="AY101">
+        <v>18</v>
+      </c>
+      <c r="AZ101">
+        <v>12</v>
+      </c>
+      <c r="BA101">
+        <v>2</v>
+      </c>
+      <c r="BB101">
+        <v>9</v>
+      </c>
+      <c r="BC101">
+        <v>11</v>
+      </c>
+      <c r="BD101">
+        <v>2.41</v>
+      </c>
+      <c r="BE101">
+        <v>8.5</v>
+      </c>
+      <c r="BF101">
+        <v>1.75</v>
+      </c>
+      <c r="BG101">
+        <v>0</v>
+      </c>
+      <c r="BH101">
+        <v>0</v>
+      </c>
+      <c r="BI101">
+        <v>1.24</v>
+      </c>
+      <c r="BJ101">
+        <v>3.48</v>
+      </c>
+      <c r="BK101">
+        <v>1.43</v>
+      </c>
+      <c r="BL101">
+        <v>2.54</v>
+      </c>
+      <c r="BM101">
+        <v>1.88</v>
+      </c>
+      <c r="BN101">
+        <v>1.92</v>
+      </c>
+      <c r="BO101">
+        <v>2.19</v>
+      </c>
+      <c r="BP101">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="102" spans="1:68">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>7296363</v>
+      </c>
+      <c r="C102" t="s">
+        <v>68</v>
+      </c>
+      <c r="D102" t="s">
+        <v>69</v>
+      </c>
+      <c r="E102" s="2">
+        <v>45459.41666666666</v>
+      </c>
+      <c r="F102">
+        <v>13</v>
+      </c>
+      <c r="G102" t="s">
+        <v>84</v>
+      </c>
+      <c r="H102" t="s">
+        <v>83</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102">
+        <v>2</v>
+      </c>
+      <c r="K102">
+        <v>3</v>
+      </c>
+      <c r="L102">
+        <v>1</v>
+      </c>
+      <c r="M102">
+        <v>2</v>
+      </c>
+      <c r="N102">
+        <v>3</v>
+      </c>
+      <c r="O102" t="s">
+        <v>168</v>
+      </c>
+      <c r="P102" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q102">
+        <v>2.44</v>
+      </c>
+      <c r="R102">
+        <v>2.3</v>
+      </c>
+      <c r="S102">
+        <v>3.85</v>
+      </c>
+      <c r="T102">
+        <v>1.3</v>
+      </c>
+      <c r="U102">
+        <v>3.34</v>
+      </c>
+      <c r="V102">
+        <v>2.38</v>
+      </c>
+      <c r="W102">
+        <v>1.54</v>
+      </c>
+      <c r="X102">
+        <v>5.5</v>
+      </c>
+      <c r="Y102">
+        <v>1.13</v>
+      </c>
+      <c r="Z102">
+        <v>1.96</v>
+      </c>
+      <c r="AA102">
+        <v>3.55</v>
+      </c>
+      <c r="AB102">
+        <v>3.3</v>
+      </c>
+      <c r="AC102">
+        <v>1.01</v>
+      </c>
+      <c r="AD102">
+        <v>12</v>
+      </c>
+      <c r="AE102">
+        <v>1.16</v>
+      </c>
+      <c r="AF102">
+        <v>4.3</v>
+      </c>
+      <c r="AG102">
+        <v>1.58</v>
+      </c>
+      <c r="AH102">
+        <v>2.23</v>
+      </c>
+      <c r="AI102">
+        <v>1.55</v>
+      </c>
+      <c r="AJ102">
+        <v>2.29</v>
+      </c>
+      <c r="AK102">
+        <v>1.29</v>
+      </c>
+      <c r="AL102">
+        <v>1.25</v>
+      </c>
+      <c r="AM102">
+        <v>1.8</v>
+      </c>
+      <c r="AN102">
+        <v>1.67</v>
+      </c>
+      <c r="AO102">
+        <v>1</v>
+      </c>
+      <c r="AP102">
+        <v>1.43</v>
+      </c>
+      <c r="AQ102">
+        <v>1.29</v>
+      </c>
+      <c r="AR102">
+        <v>1.74</v>
+      </c>
+      <c r="AS102">
+        <v>1.15</v>
+      </c>
+      <c r="AT102">
+        <v>2.89</v>
+      </c>
+      <c r="AU102">
+        <v>7</v>
+      </c>
+      <c r="AV102">
+        <v>4</v>
+      </c>
+      <c r="AW102">
+        <v>13</v>
+      </c>
+      <c r="AX102">
+        <v>3</v>
+      </c>
+      <c r="AY102">
+        <v>20</v>
+      </c>
+      <c r="AZ102">
+        <v>7</v>
+      </c>
+      <c r="BA102">
+        <v>9</v>
+      </c>
+      <c r="BB102">
+        <v>0</v>
+      </c>
+      <c r="BC102">
+        <v>9</v>
+      </c>
+      <c r="BD102">
+        <v>1.69</v>
+      </c>
+      <c r="BE102">
+        <v>8.5</v>
+      </c>
+      <c r="BF102">
+        <v>2.53</v>
+      </c>
+      <c r="BG102">
+        <v>1.14</v>
+      </c>
+      <c r="BH102">
+        <v>5</v>
+      </c>
+      <c r="BI102">
+        <v>1.3</v>
+      </c>
+      <c r="BJ102">
+        <v>3.3</v>
+      </c>
+      <c r="BK102">
+        <v>1.55</v>
+      </c>
+      <c r="BL102">
+        <v>2.38</v>
+      </c>
+      <c r="BM102">
+        <v>2</v>
+      </c>
+      <c r="BN102">
+        <v>1.8</v>
+      </c>
+      <c r="BO102">
+        <v>2.5</v>
+      </c>
+      <c r="BP102">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="103" spans="1:68">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>7296362</v>
+      </c>
+      <c r="C103" t="s">
+        <v>68</v>
+      </c>
+      <c r="D103" t="s">
+        <v>69</v>
+      </c>
+      <c r="E103" s="2">
+        <v>45459.41666666666</v>
+      </c>
+      <c r="F103">
+        <v>13</v>
+      </c>
+      <c r="G103" t="s">
+        <v>71</v>
+      </c>
+      <c r="H103" t="s">
+        <v>74</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>1</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>5</v>
+      </c>
+      <c r="N103">
+        <v>5</v>
+      </c>
+      <c r="O103" t="s">
+        <v>103</v>
+      </c>
+      <c r="P103" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q103">
+        <v>1.81</v>
+      </c>
+      <c r="R103">
+        <v>2.65</v>
+      </c>
+      <c r="S103">
+        <v>5.7</v>
+      </c>
+      <c r="T103">
+        <v>1.22</v>
+      </c>
+      <c r="U103">
+        <v>3.98</v>
+      </c>
+      <c r="V103">
+        <v>2.08</v>
+      </c>
+      <c r="W103">
+        <v>1.7</v>
+      </c>
+      <c r="X103">
+        <v>4.45</v>
+      </c>
+      <c r="Y103">
+        <v>1.19</v>
+      </c>
+      <c r="Z103">
+        <v>1.42</v>
+      </c>
+      <c r="AA103">
+        <v>4.7</v>
+      </c>
+      <c r="AB103">
+        <v>5.62</v>
+      </c>
+      <c r="AC103">
+        <v>1.01</v>
+      </c>
+      <c r="AD103">
+        <v>26.5</v>
+      </c>
+      <c r="AE103">
+        <v>1.1</v>
+      </c>
+      <c r="AF103">
+        <v>5.5</v>
+      </c>
+      <c r="AG103">
+        <v>1.37</v>
+      </c>
+      <c r="AH103">
+        <v>2.85</v>
+      </c>
+      <c r="AI103">
+        <v>1.59</v>
+      </c>
+      <c r="AJ103">
+        <v>2.21</v>
+      </c>
+      <c r="AK103">
+        <v>1.1</v>
+      </c>
+      <c r="AL103">
+        <v>1.15</v>
+      </c>
+      <c r="AM103">
+        <v>2.83</v>
+      </c>
+      <c r="AN103">
+        <v>2.33</v>
+      </c>
+      <c r="AO103">
+        <v>0.17</v>
+      </c>
+      <c r="AP103">
+        <v>2</v>
+      </c>
+      <c r="AQ103">
+        <v>0.57</v>
+      </c>
+      <c r="AR103">
+        <v>1.83</v>
+      </c>
+      <c r="AS103">
+        <v>1.34</v>
+      </c>
+      <c r="AT103">
+        <v>3.17</v>
+      </c>
+      <c r="AU103">
+        <v>3</v>
+      </c>
+      <c r="AV103">
+        <v>6</v>
+      </c>
+      <c r="AW103">
+        <v>10</v>
+      </c>
+      <c r="AX103">
+        <v>3</v>
+      </c>
+      <c r="AY103">
+        <v>13</v>
+      </c>
+      <c r="AZ103">
+        <v>9</v>
+      </c>
+      <c r="BA103">
+        <v>7</v>
+      </c>
+      <c r="BB103">
+        <v>1</v>
+      </c>
+      <c r="BC103">
+        <v>8</v>
+      </c>
+      <c r="BD103">
+        <v>1.45</v>
+      </c>
+      <c r="BE103">
+        <v>9</v>
+      </c>
+      <c r="BF103">
+        <v>3.32</v>
+      </c>
+      <c r="BG103">
+        <v>1.14</v>
+      </c>
+      <c r="BH103">
+        <v>5</v>
+      </c>
+      <c r="BI103">
+        <v>1.29</v>
+      </c>
+      <c r="BJ103">
+        <v>3.4</v>
+      </c>
+      <c r="BK103">
+        <v>1.5</v>
+      </c>
+      <c r="BL103">
+        <v>2.45</v>
+      </c>
+      <c r="BM103">
+        <v>1.9</v>
+      </c>
+      <c r="BN103">
+        <v>1.9</v>
+      </c>
+      <c r="BO103">
+        <v>2.43</v>
+      </c>
+      <c r="BP103">
+        <v>1.52</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="234">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -521,6 +521,9 @@
   </si>
   <si>
     <t>['14']</t>
+  </si>
+  <si>
+    <t>['26', '75']</t>
   </si>
   <si>
     <t>['90+1']</t>
@@ -1074,7 +1077,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP103"/>
+  <dimension ref="A1:BP104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1333,7 +1336,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q2">
         <v>2.84</v>
@@ -1539,7 +1542,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q3">
         <v>2.2</v>
@@ -1745,7 +1748,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -1951,7 +1954,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2157,7 +2160,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q6">
         <v>2.35</v>
@@ -2363,7 +2366,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q7">
         <v>2.66</v>
@@ -2569,7 +2572,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q8">
         <v>2.8</v>
@@ -2981,7 +2984,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3187,7 +3190,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3393,7 +3396,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -4011,7 +4014,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q15">
         <v>2.05</v>
@@ -4089,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ15">
         <v>0.67</v>
@@ -4298,7 +4301,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ16">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4423,7 +4426,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q17">
         <v>2.15</v>
@@ -4629,7 +4632,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q18">
         <v>2.15</v>
@@ -5453,7 +5456,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q22">
         <v>2.76</v>
@@ -5659,7 +5662,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q23">
         <v>2.85</v>
@@ -5865,7 +5868,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q24">
         <v>2.05</v>
@@ -6149,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ25">
         <v>1.17</v>
@@ -6483,7 +6486,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6564,7 +6567,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ27">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR27">
         <v>1.67</v>
@@ -6895,7 +6898,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q29">
         <v>2.25</v>
@@ -7307,7 +7310,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7719,7 +7722,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q33">
         <v>3.05</v>
@@ -7925,7 +7928,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q34">
         <v>2.26</v>
@@ -8131,7 +8134,7 @@
         <v>115</v>
       </c>
       <c r="P35" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q35">
         <v>3.46</v>
@@ -8543,7 +8546,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q37">
         <v>2.72</v>
@@ -8749,7 +8752,7 @@
         <v>118</v>
       </c>
       <c r="P38" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q38">
         <v>4.55</v>
@@ -8955,7 +8958,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q39">
         <v>2.78</v>
@@ -9779,7 +9782,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q43">
         <v>3.11</v>
@@ -9985,7 +9988,7 @@
         <v>123</v>
       </c>
       <c r="P44" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q44">
         <v>3.3</v>
@@ -10191,7 +10194,7 @@
         <v>94</v>
       </c>
       <c r="P45" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q45">
         <v>2.4</v>
@@ -10478,7 +10481,7 @@
         <v>2</v>
       </c>
       <c r="AQ46">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR46">
         <v>1.14</v>
@@ -11221,7 +11224,7 @@
         <v>103</v>
       </c>
       <c r="P50" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q50">
         <v>3.89</v>
@@ -11427,7 +11430,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q51">
         <v>2.61</v>
@@ -11633,7 +11636,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -11839,7 +11842,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q53">
         <v>2.05</v>
@@ -11917,7 +11920,7 @@
         <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ53">
         <v>0.2</v>
@@ -12045,7 +12048,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q54">
         <v>3.03</v>
@@ -12663,7 +12666,7 @@
         <v>103</v>
       </c>
       <c r="P57" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q57">
         <v>2.57</v>
@@ -12869,7 +12872,7 @@
         <v>132</v>
       </c>
       <c r="P58" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q58">
         <v>2.3</v>
@@ -13075,7 +13078,7 @@
         <v>103</v>
       </c>
       <c r="P59" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q59">
         <v>2.75</v>
@@ -13281,7 +13284,7 @@
         <v>103</v>
       </c>
       <c r="P60" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q60">
         <v>2.32</v>
@@ -13362,7 +13365,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ60">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR60">
         <v>2.26</v>
@@ -13487,7 +13490,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q61">
         <v>3.6</v>
@@ -13693,7 +13696,7 @@
         <v>134</v>
       </c>
       <c r="P62" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q62">
         <v>2.39</v>
@@ -13899,7 +13902,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q63">
         <v>2.84</v>
@@ -14105,7 +14108,7 @@
         <v>136</v>
       </c>
       <c r="P64" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q64">
         <v>2.7</v>
@@ -14311,7 +14314,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -14723,7 +14726,7 @@
         <v>139</v>
       </c>
       <c r="P67" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q67">
         <v>2.5</v>
@@ -15007,7 +15010,7 @@
         <v>1.25</v>
       </c>
       <c r="AP68">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ68">
         <v>1.29</v>
@@ -15341,7 +15344,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q70">
         <v>1.85</v>
@@ -15753,7 +15756,7 @@
         <v>143</v>
       </c>
       <c r="P72" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q72">
         <v>2.24</v>
@@ -15959,7 +15962,7 @@
         <v>103</v>
       </c>
       <c r="P73" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q73">
         <v>3.66</v>
@@ -16040,7 +16043,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ73">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR73">
         <v>1.41</v>
@@ -16165,7 +16168,7 @@
         <v>144</v>
       </c>
       <c r="P74" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q74">
         <v>2.4</v>
@@ -16371,7 +16374,7 @@
         <v>145</v>
       </c>
       <c r="P75" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q75">
         <v>2.38</v>
@@ -16577,7 +16580,7 @@
         <v>125</v>
       </c>
       <c r="P76" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -16989,7 +16992,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q78">
         <v>2.75</v>
@@ -17195,7 +17198,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17401,7 +17404,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q80">
         <v>2.2</v>
@@ -17607,7 +17610,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q81">
         <v>2.31</v>
@@ -18019,7 +18022,7 @@
         <v>151</v>
       </c>
       <c r="P83" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q83">
         <v>2.7</v>
@@ -18097,7 +18100,7 @@
         <v>1.2</v>
       </c>
       <c r="AP83">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ83">
         <v>1.29</v>
@@ -18431,7 +18434,7 @@
         <v>153</v>
       </c>
       <c r="P85" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q85">
         <v>3.5</v>
@@ -18637,7 +18640,7 @@
         <v>154</v>
       </c>
       <c r="P86" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q86">
         <v>2.55</v>
@@ -18843,7 +18846,7 @@
         <v>155</v>
       </c>
       <c r="P87" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q87">
         <v>2.27</v>
@@ -19255,7 +19258,7 @@
         <v>156</v>
       </c>
       <c r="P89" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q89">
         <v>2.8</v>
@@ -19461,7 +19464,7 @@
         <v>157</v>
       </c>
       <c r="P90" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q90">
         <v>2.6</v>
@@ -19539,7 +19542,7 @@
         <v>2.17</v>
       </c>
       <c r="AP90">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ90">
         <v>2</v>
@@ -19667,7 +19670,7 @@
         <v>158</v>
       </c>
       <c r="P91" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -19873,7 +19876,7 @@
         <v>159</v>
       </c>
       <c r="P92" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q92">
         <v>3.6</v>
@@ -19954,7 +19957,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ92">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR92">
         <v>1.3</v>
@@ -20285,7 +20288,7 @@
         <v>161</v>
       </c>
       <c r="P94" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q94">
         <v>2.1</v>
@@ -20491,7 +20494,7 @@
         <v>162</v>
       </c>
       <c r="P95" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q95">
         <v>2.17</v>
@@ -21109,7 +21112,7 @@
         <v>149</v>
       </c>
       <c r="P98" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q98">
         <v>3.54</v>
@@ -21315,7 +21318,7 @@
         <v>165</v>
       </c>
       <c r="P99" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q99">
         <v>3.35</v>
@@ -21727,7 +21730,7 @@
         <v>167</v>
       </c>
       <c r="P101" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q101">
         <v>2.96</v>
@@ -21933,7 +21936,7 @@
         <v>168</v>
       </c>
       <c r="P102" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q102">
         <v>2.44</v>
@@ -22139,7 +22142,7 @@
         <v>103</v>
       </c>
       <c r="P103" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q103">
         <v>1.81</v>
@@ -22296,6 +22299,212 @@
       </c>
       <c r="BP103">
         <v>1.52</v>
+      </c>
+    </row>
+    <row r="104" spans="1:68">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>7296376</v>
+      </c>
+      <c r="C104" t="s">
+        <v>68</v>
+      </c>
+      <c r="D104" t="s">
+        <v>69</v>
+      </c>
+      <c r="E104" s="2">
+        <v>45465.5</v>
+      </c>
+      <c r="F104">
+        <v>14</v>
+      </c>
+      <c r="G104" t="s">
+        <v>83</v>
+      </c>
+      <c r="H104" t="s">
+        <v>71</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>1</v>
+      </c>
+      <c r="L104">
+        <v>2</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <v>2</v>
+      </c>
+      <c r="O104" t="s">
+        <v>169</v>
+      </c>
+      <c r="P104" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q104">
+        <v>2.93</v>
+      </c>
+      <c r="R104">
+        <v>2.3</v>
+      </c>
+      <c r="S104">
+        <v>3.04</v>
+      </c>
+      <c r="T104">
+        <v>1.28</v>
+      </c>
+      <c r="U104">
+        <v>3.44</v>
+      </c>
+      <c r="V104">
+        <v>2.34</v>
+      </c>
+      <c r="W104">
+        <v>1.56</v>
+      </c>
+      <c r="X104">
+        <v>5.35</v>
+      </c>
+      <c r="Y104">
+        <v>1.13</v>
+      </c>
+      <c r="Z104">
+        <v>2.65</v>
+      </c>
+      <c r="AA104">
+        <v>3.6</v>
+      </c>
+      <c r="AB104">
+        <v>2.45</v>
+      </c>
+      <c r="AC104">
+        <v>1.03</v>
+      </c>
+      <c r="AD104">
+        <v>12</v>
+      </c>
+      <c r="AE104">
+        <v>1.15</v>
+      </c>
+      <c r="AF104">
+        <v>4.45</v>
+      </c>
+      <c r="AG104">
+        <v>1.57</v>
+      </c>
+      <c r="AH104">
+        <v>2.35</v>
+      </c>
+      <c r="AI104">
+        <v>1.49</v>
+      </c>
+      <c r="AJ104">
+        <v>2.44</v>
+      </c>
+      <c r="AK104">
+        <v>1.49</v>
+      </c>
+      <c r="AL104">
+        <v>1.26</v>
+      </c>
+      <c r="AM104">
+        <v>1.5</v>
+      </c>
+      <c r="AN104">
+        <v>1.83</v>
+      </c>
+      <c r="AO104">
+        <v>1.83</v>
+      </c>
+      <c r="AP104">
+        <v>2</v>
+      </c>
+      <c r="AQ104">
+        <v>1.57</v>
+      </c>
+      <c r="AR104">
+        <v>1.63</v>
+      </c>
+      <c r="AS104">
+        <v>1.64</v>
+      </c>
+      <c r="AT104">
+        <v>3.27</v>
+      </c>
+      <c r="AU104">
+        <v>8</v>
+      </c>
+      <c r="AV104">
+        <v>2</v>
+      </c>
+      <c r="AW104">
+        <v>1</v>
+      </c>
+      <c r="AX104">
+        <v>3</v>
+      </c>
+      <c r="AY104">
+        <v>9</v>
+      </c>
+      <c r="AZ104">
+        <v>5</v>
+      </c>
+      <c r="BA104">
+        <v>3</v>
+      </c>
+      <c r="BB104">
+        <v>8</v>
+      </c>
+      <c r="BC104">
+        <v>11</v>
+      </c>
+      <c r="BD104">
+        <v>1.97</v>
+      </c>
+      <c r="BE104">
+        <v>6.6</v>
+      </c>
+      <c r="BF104">
+        <v>2.24</v>
+      </c>
+      <c r="BG104">
+        <v>1.17</v>
+      </c>
+      <c r="BH104">
+        <v>4.7</v>
+      </c>
+      <c r="BI104">
+        <v>1.32</v>
+      </c>
+      <c r="BJ104">
+        <v>3.2</v>
+      </c>
+      <c r="BK104">
+        <v>1.58</v>
+      </c>
+      <c r="BL104">
+        <v>2.28</v>
+      </c>
+      <c r="BM104">
+        <v>2</v>
+      </c>
+      <c r="BN104">
+        <v>1.8</v>
+      </c>
+      <c r="BO104">
+        <v>2.6</v>
+      </c>
+      <c r="BP104">
+        <v>1.46</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="245">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -526,6 +526,24 @@
     <t>['26', '75']</t>
   </si>
   <si>
+    <t>['6']</t>
+  </si>
+  <si>
+    <t>['40', '56']</t>
+  </si>
+  <si>
+    <t>['62']</t>
+  </si>
+  <si>
+    <t>['18', '25', '27', '55', '63', '69', '77', '90']</t>
+  </si>
+  <si>
+    <t>['55']</t>
+  </si>
+  <si>
+    <t>['55', '70', '82', '84', '89']</t>
+  </si>
+  <si>
     <t>['90+1']</t>
   </si>
   <si>
@@ -716,6 +734,21 @@
   </si>
   <si>
     <t>['10', '49', '63', '85', '90']</t>
+  </si>
+  <si>
+    <t>['45+1', '90+6']</t>
+  </si>
+  <si>
+    <t>['4']</t>
+  </si>
+  <si>
+    <t>['12', '15', '64', '88']</t>
+  </si>
+  <si>
+    <t>['40', '60', '76']</t>
+  </si>
+  <si>
+    <t>['2', '56', '72']</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1110,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP104"/>
+  <dimension ref="A1:BP111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1336,7 +1369,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="Q2">
         <v>2.84</v>
@@ -1414,10 +1447,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ2">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1542,7 +1575,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="Q3">
         <v>2.2</v>
@@ -1623,7 +1656,7 @@
         <v>2</v>
       </c>
       <c r="AQ3">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1748,7 +1781,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -1826,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ4">
         <v>1.29</v>
@@ -1954,7 +1987,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2032,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ5">
         <v>1.29</v>
@@ -2160,7 +2193,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Q6">
         <v>2.35</v>
@@ -2238,10 +2271,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2366,7 +2399,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="Q7">
         <v>2.66</v>
@@ -2444,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ7">
         <v>1.29</v>
@@ -2572,7 +2605,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="Q8">
         <v>2.8</v>
@@ -2653,7 +2686,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ8">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2859,7 +2892,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ9">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2984,7 +3017,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3190,7 +3223,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3268,7 +3301,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ11">
         <v>2</v>
@@ -3396,7 +3429,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3477,7 +3510,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ12">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3680,7 +3713,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ13">
         <v>0.5</v>
@@ -3889,7 +3922,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ14">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4014,7 +4047,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="Q15">
         <v>2.05</v>
@@ -4426,7 +4459,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="Q17">
         <v>2.15</v>
@@ -4504,7 +4537,7 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ17">
         <v>1.29</v>
@@ -4632,7 +4665,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="Q18">
         <v>2.15</v>
@@ -4713,7 +4746,7 @@
         <v>2</v>
       </c>
       <c r="AQ18">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR18">
         <v>1.34</v>
@@ -4916,10 +4949,10 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ19">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR19">
         <v>1.35</v>
@@ -5125,7 +5158,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ20">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR20">
         <v>1.13</v>
@@ -5456,7 +5489,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="Q22">
         <v>2.76</v>
@@ -5534,7 +5567,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ22">
         <v>1.29</v>
@@ -5662,7 +5695,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="Q23">
         <v>2.85</v>
@@ -5740,10 +5773,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ23">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR23">
         <v>1.2</v>
@@ -5868,7 +5901,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="Q24">
         <v>2.05</v>
@@ -5946,10 +5979,10 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ24">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR24">
         <v>1.52</v>
@@ -6155,7 +6188,7 @@
         <v>2</v>
       </c>
       <c r="AQ25">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR25">
         <v>1.76</v>
@@ -6361,7 +6394,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ26">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR26">
         <v>1.34</v>
@@ -6486,7 +6519,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6770,7 +6803,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ28">
         <v>0.5</v>
@@ -6898,7 +6931,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="Q29">
         <v>2.25</v>
@@ -7310,7 +7343,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7594,7 +7627,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ32">
         <v>1.29</v>
@@ -7722,7 +7755,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q33">
         <v>3.05</v>
@@ -7803,7 +7836,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ33">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR33">
         <v>1.74</v>
@@ -7928,7 +7961,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="Q34">
         <v>2.26</v>
@@ -8006,7 +8039,7 @@
         <v>0.5</v>
       </c>
       <c r="AP34">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ34">
         <v>1.29</v>
@@ -8134,7 +8167,7 @@
         <v>115</v>
       </c>
       <c r="P35" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Q35">
         <v>3.46</v>
@@ -8212,7 +8245,7 @@
         <v>2</v>
       </c>
       <c r="AP35">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ35">
         <v>1.29</v>
@@ -8421,7 +8454,7 @@
         <v>2</v>
       </c>
       <c r="AQ36">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR36">
         <v>1.75</v>
@@ -8546,7 +8579,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="Q37">
         <v>2.72</v>
@@ -8627,7 +8660,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ37">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR37">
         <v>1.12</v>
@@ -8752,7 +8785,7 @@
         <v>118</v>
       </c>
       <c r="P38" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Q38">
         <v>4.55</v>
@@ -8830,7 +8863,7 @@
         <v>2</v>
       </c>
       <c r="AP38">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ38">
         <v>2</v>
@@ -8958,7 +8991,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Q39">
         <v>2.78</v>
@@ -9039,7 +9072,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ39">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR39">
         <v>1.22</v>
@@ -9242,7 +9275,7 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ40">
         <v>0.57</v>
@@ -9448,7 +9481,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ41">
         <v>0.5</v>
@@ -9657,7 +9690,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ42">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR42">
         <v>1.34</v>
@@ -9782,7 +9815,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="Q43">
         <v>3.11</v>
@@ -9863,7 +9896,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ43">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR43">
         <v>1.39</v>
@@ -9988,7 +10021,7 @@
         <v>123</v>
       </c>
       <c r="P44" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="Q44">
         <v>3.3</v>
@@ -10066,7 +10099,7 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ44">
         <v>0.67</v>
@@ -10194,7 +10227,7 @@
         <v>94</v>
       </c>
       <c r="P45" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="Q45">
         <v>2.4</v>
@@ -10275,7 +10308,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ45">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR45">
         <v>2.74</v>
@@ -10478,7 +10511,7 @@
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ46">
         <v>1.57</v>
@@ -10890,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ48">
         <v>0.67</v>
@@ -11224,7 +11257,7 @@
         <v>103</v>
       </c>
       <c r="P50" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="Q50">
         <v>3.89</v>
@@ -11302,7 +11335,7 @@
         <v>1.33</v>
       </c>
       <c r="AP50">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ50">
         <v>2</v>
@@ -11430,7 +11463,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="Q51">
         <v>2.61</v>
@@ -11511,7 +11544,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ51">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR51">
         <v>1.26</v>
@@ -11636,7 +11669,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -11842,7 +11875,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Q53">
         <v>2.05</v>
@@ -11923,7 +11956,7 @@
         <v>2</v>
       </c>
       <c r="AQ53">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR53">
         <v>1.86</v>
@@ -12048,7 +12081,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="Q54">
         <v>3.03</v>
@@ -12129,7 +12162,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ54">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR54">
         <v>1.33</v>
@@ -12332,10 +12365,10 @@
         <v>0.33</v>
       </c>
       <c r="AP55">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ55">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR55">
         <v>1.63</v>
@@ -12538,7 +12571,7 @@
         <v>0.5</v>
       </c>
       <c r="AP56">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ56">
         <v>0.57</v>
@@ -12666,7 +12699,7 @@
         <v>103</v>
       </c>
       <c r="P57" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="Q57">
         <v>2.57</v>
@@ -12744,7 +12777,7 @@
         <v>0.75</v>
       </c>
       <c r="AP57">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ57">
         <v>1.29</v>
@@ -12872,7 +12905,7 @@
         <v>132</v>
       </c>
       <c r="P58" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="Q58">
         <v>2.3</v>
@@ -12953,7 +12986,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ58">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR58">
         <v>1.49</v>
@@ -13078,7 +13111,7 @@
         <v>103</v>
       </c>
       <c r="P59" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="Q59">
         <v>2.75</v>
@@ -13156,10 +13189,10 @@
         <v>0.33</v>
       </c>
       <c r="AP59">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ59">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR59">
         <v>1.1</v>
@@ -13284,7 +13317,7 @@
         <v>103</v>
       </c>
       <c r="P60" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="Q60">
         <v>2.32</v>
@@ -13362,7 +13395,7 @@
         <v>1.33</v>
       </c>
       <c r="AP60">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ60">
         <v>1.57</v>
@@ -13490,7 +13523,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="Q61">
         <v>3.6</v>
@@ -13696,7 +13729,7 @@
         <v>134</v>
       </c>
       <c r="P62" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Q62">
         <v>2.39</v>
@@ -13774,10 +13807,10 @@
         <v>1.33</v>
       </c>
       <c r="AP62">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ62">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR62">
         <v>1.79</v>
@@ -13902,7 +13935,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="Q63">
         <v>2.84</v>
@@ -13983,7 +14016,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ63">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR63">
         <v>1.75</v>
@@ -14108,7 +14141,7 @@
         <v>136</v>
       </c>
       <c r="P64" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="Q64">
         <v>2.7</v>
@@ -14189,7 +14222,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ64">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR64">
         <v>1.35</v>
@@ -14314,7 +14347,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -14392,7 +14425,7 @@
         <v>1.75</v>
       </c>
       <c r="AP65">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ65">
         <v>2</v>
@@ -14726,7 +14759,7 @@
         <v>139</v>
       </c>
       <c r="P67" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="Q67">
         <v>2.5</v>
@@ -14807,7 +14840,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ67">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR67">
         <v>2.39</v>
@@ -15216,7 +15249,7 @@
         <v>1.33</v>
       </c>
       <c r="AP69">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ69">
         <v>0.67</v>
@@ -15344,7 +15377,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="Q70">
         <v>1.85</v>
@@ -15631,7 +15664,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ71">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR71">
         <v>1.38</v>
@@ -15756,7 +15789,7 @@
         <v>143</v>
       </c>
       <c r="P72" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="Q72">
         <v>2.24</v>
@@ -15834,10 +15867,10 @@
         <v>1.2</v>
       </c>
       <c r="AP72">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ72">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR72">
         <v>2</v>
@@ -15962,7 +15995,7 @@
         <v>103</v>
       </c>
       <c r="P73" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="Q73">
         <v>3.66</v>
@@ -16168,7 +16201,7 @@
         <v>144</v>
       </c>
       <c r="P74" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="Q74">
         <v>2.4</v>
@@ -16246,10 +16279,10 @@
         <v>2</v>
       </c>
       <c r="AP74">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ74">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR74">
         <v>1.87</v>
@@ -16374,7 +16407,7 @@
         <v>145</v>
       </c>
       <c r="P75" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="Q75">
         <v>2.38</v>
@@ -16452,10 +16485,10 @@
         <v>0.6</v>
       </c>
       <c r="AP75">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ75">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR75">
         <v>1.76</v>
@@ -16580,7 +16613,7 @@
         <v>125</v>
       </c>
       <c r="P76" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -16658,10 +16691,10 @@
         <v>1</v>
       </c>
       <c r="AP76">
+        <v>1.25</v>
+      </c>
+      <c r="AQ76">
         <v>1.43</v>
-      </c>
-      <c r="AQ76">
-        <v>1.17</v>
       </c>
       <c r="AR76">
         <v>1.63</v>
@@ -16864,10 +16897,10 @@
         <v>1.25</v>
       </c>
       <c r="AP77">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ77">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR77">
         <v>1.11</v>
@@ -16992,7 +17025,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="Q78">
         <v>2.75</v>
@@ -17070,7 +17103,7 @@
         <v>0.33</v>
       </c>
       <c r="AP78">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ78">
         <v>0.57</v>
@@ -17198,7 +17231,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17404,7 +17437,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="Q80">
         <v>2.2</v>
@@ -17610,7 +17643,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="Q81">
         <v>2.31</v>
@@ -17894,10 +17927,10 @@
         <v>0.25</v>
       </c>
       <c r="AP82">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ82">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR82">
         <v>1.64</v>
@@ -18022,7 +18055,7 @@
         <v>151</v>
       </c>
       <c r="P83" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="Q83">
         <v>2.7</v>
@@ -18434,7 +18467,7 @@
         <v>153</v>
       </c>
       <c r="P85" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="Q85">
         <v>3.5</v>
@@ -18640,7 +18673,7 @@
         <v>154</v>
       </c>
       <c r="P86" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="Q86">
         <v>2.55</v>
@@ -18846,7 +18879,7 @@
         <v>155</v>
       </c>
       <c r="P87" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="Q87">
         <v>2.27</v>
@@ -18927,7 +18960,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ87">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR87">
         <v>1.38</v>
@@ -19258,7 +19291,7 @@
         <v>156</v>
       </c>
       <c r="P89" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="Q89">
         <v>2.8</v>
@@ -19336,10 +19369,10 @@
         <v>0.5</v>
       </c>
       <c r="AP89">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ89">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR89">
         <v>1.53</v>
@@ -19464,7 +19497,7 @@
         <v>157</v>
       </c>
       <c r="P90" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="Q90">
         <v>2.6</v>
@@ -19545,7 +19578,7 @@
         <v>2</v>
       </c>
       <c r="AQ90">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR90">
         <v>1.67</v>
@@ -19670,7 +19703,7 @@
         <v>158</v>
       </c>
       <c r="P91" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -19751,7 +19784,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ91">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR91">
         <v>1.98</v>
@@ -19876,7 +19909,7 @@
         <v>159</v>
       </c>
       <c r="P92" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="Q92">
         <v>3.6</v>
@@ -19954,7 +19987,7 @@
         <v>2</v>
       </c>
       <c r="AP92">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ92">
         <v>1.57</v>
@@ -20160,7 +20193,7 @@
         <v>0.2</v>
       </c>
       <c r="AP93">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ93">
         <v>0.57</v>
@@ -20288,7 +20321,7 @@
         <v>161</v>
       </c>
       <c r="P94" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="Q94">
         <v>2.1</v>
@@ -20366,10 +20399,10 @@
         <v>1.4</v>
       </c>
       <c r="AP94">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ94">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR94">
         <v>2</v>
@@ -20494,7 +20527,7 @@
         <v>162</v>
       </c>
       <c r="P95" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="Q95">
         <v>2.17</v>
@@ -20572,7 +20605,7 @@
         <v>0.25</v>
       </c>
       <c r="AP95">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ95">
         <v>0.67</v>
@@ -21112,7 +21145,7 @@
         <v>149</v>
       </c>
       <c r="P98" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="Q98">
         <v>3.54</v>
@@ -21318,7 +21351,7 @@
         <v>165</v>
       </c>
       <c r="P99" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="Q99">
         <v>3.35</v>
@@ -21730,7 +21763,7 @@
         <v>167</v>
       </c>
       <c r="P101" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="Q101">
         <v>2.96</v>
@@ -21936,7 +21969,7 @@
         <v>168</v>
       </c>
       <c r="P102" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="Q102">
         <v>2.44</v>
@@ -22142,7 +22175,7 @@
         <v>103</v>
       </c>
       <c r="P103" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="Q103">
         <v>1.81</v>
@@ -22505,6 +22538,1448 @@
       </c>
       <c r="BP104">
         <v>1.46</v>
+      </c>
+    </row>
+    <row r="105" spans="1:68">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>7296377</v>
+      </c>
+      <c r="C105" t="s">
+        <v>68</v>
+      </c>
+      <c r="D105" t="s">
+        <v>69</v>
+      </c>
+      <c r="E105" s="2">
+        <v>45466.5</v>
+      </c>
+      <c r="F105">
+        <v>14</v>
+      </c>
+      <c r="G105" t="s">
+        <v>73</v>
+      </c>
+      <c r="H105" t="s">
+        <v>80</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
+      <c r="K105">
+        <v>2</v>
+      </c>
+      <c r="L105">
+        <v>1</v>
+      </c>
+      <c r="M105">
+        <v>2</v>
+      </c>
+      <c r="N105">
+        <v>3</v>
+      </c>
+      <c r="O105" t="s">
+        <v>170</v>
+      </c>
+      <c r="P105" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q105">
+        <v>2.69</v>
+      </c>
+      <c r="R105">
+        <v>2.42</v>
+      </c>
+      <c r="S105">
+        <v>3.12</v>
+      </c>
+      <c r="T105">
+        <v>1.24</v>
+      </c>
+      <c r="U105">
+        <v>3.8</v>
+      </c>
+      <c r="V105">
+        <v>2.11</v>
+      </c>
+      <c r="W105">
+        <v>1.68</v>
+      </c>
+      <c r="X105">
+        <v>4.6</v>
+      </c>
+      <c r="Y105">
+        <v>1.18</v>
+      </c>
+      <c r="Z105">
+        <v>2.3</v>
+      </c>
+      <c r="AA105">
+        <v>3.6</v>
+      </c>
+      <c r="AB105">
+        <v>2.45</v>
+      </c>
+      <c r="AC105">
+        <v>1.02</v>
+      </c>
+      <c r="AD105">
+        <v>22.5</v>
+      </c>
+      <c r="AE105">
+        <v>1.1</v>
+      </c>
+      <c r="AF105">
+        <v>5.3</v>
+      </c>
+      <c r="AG105">
+        <v>1.44</v>
+      </c>
+      <c r="AH105">
+        <v>2.6</v>
+      </c>
+      <c r="AI105">
+        <v>1.4</v>
+      </c>
+      <c r="AJ105">
+        <v>2.72</v>
+      </c>
+      <c r="AK105">
+        <v>1.44</v>
+      </c>
+      <c r="AL105">
+        <v>1.24</v>
+      </c>
+      <c r="AM105">
+        <v>1.59</v>
+      </c>
+      <c r="AN105">
+        <v>0.71</v>
+      </c>
+      <c r="AO105">
+        <v>0.57</v>
+      </c>
+      <c r="AP105">
+        <v>0.63</v>
+      </c>
+      <c r="AQ105">
+        <v>0.88</v>
+      </c>
+      <c r="AR105">
+        <v>1.33</v>
+      </c>
+      <c r="AS105">
+        <v>1.52</v>
+      </c>
+      <c r="AT105">
+        <v>2.85</v>
+      </c>
+      <c r="AU105">
+        <v>6</v>
+      </c>
+      <c r="AV105">
+        <v>7</v>
+      </c>
+      <c r="AW105">
+        <v>0</v>
+      </c>
+      <c r="AX105">
+        <v>3</v>
+      </c>
+      <c r="AY105">
+        <v>6</v>
+      </c>
+      <c r="AZ105">
+        <v>10</v>
+      </c>
+      <c r="BA105">
+        <v>8</v>
+      </c>
+      <c r="BB105">
+        <v>5</v>
+      </c>
+      <c r="BC105">
+        <v>13</v>
+      </c>
+      <c r="BD105">
+        <v>2.06</v>
+      </c>
+      <c r="BE105">
+        <v>6.75</v>
+      </c>
+      <c r="BF105">
+        <v>2.12</v>
+      </c>
+      <c r="BG105">
+        <v>0</v>
+      </c>
+      <c r="BH105">
+        <v>0</v>
+      </c>
+      <c r="BI105">
+        <v>1.26</v>
+      </c>
+      <c r="BJ105">
+        <v>3.65</v>
+      </c>
+      <c r="BK105">
+        <v>1.47</v>
+      </c>
+      <c r="BL105">
+        <v>2.6</v>
+      </c>
+      <c r="BM105">
+        <v>1.82</v>
+      </c>
+      <c r="BN105">
+        <v>1.98</v>
+      </c>
+      <c r="BO105">
+        <v>2.3</v>
+      </c>
+      <c r="BP105">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="106" spans="1:68">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>7296370</v>
+      </c>
+      <c r="C106" t="s">
+        <v>68</v>
+      </c>
+      <c r="D106" t="s">
+        <v>69</v>
+      </c>
+      <c r="E106" s="2">
+        <v>45466.5</v>
+      </c>
+      <c r="F106">
+        <v>14</v>
+      </c>
+      <c r="G106" t="s">
+        <v>79</v>
+      </c>
+      <c r="H106" t="s">
+        <v>78</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="J106">
+        <v>1</v>
+      </c>
+      <c r="K106">
+        <v>2</v>
+      </c>
+      <c r="L106">
+        <v>2</v>
+      </c>
+      <c r="M106">
+        <v>1</v>
+      </c>
+      <c r="N106">
+        <v>3</v>
+      </c>
+      <c r="O106" t="s">
+        <v>171</v>
+      </c>
+      <c r="P106" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q106">
+        <v>2.56</v>
+      </c>
+      <c r="R106">
+        <v>2.22</v>
+      </c>
+      <c r="S106">
+        <v>3.8</v>
+      </c>
+      <c r="T106">
+        <v>1.33</v>
+      </c>
+      <c r="U106">
+        <v>3.14</v>
+      </c>
+      <c r="V106">
+        <v>2.54</v>
+      </c>
+      <c r="W106">
+        <v>1.48</v>
+      </c>
+      <c r="X106">
+        <v>6.15</v>
+      </c>
+      <c r="Y106">
+        <v>1.1</v>
+      </c>
+      <c r="Z106">
+        <v>2</v>
+      </c>
+      <c r="AA106">
+        <v>3.4</v>
+      </c>
+      <c r="AB106">
+        <v>3.2</v>
+      </c>
+      <c r="AC106">
+        <v>1.02</v>
+      </c>
+      <c r="AD106">
+        <v>10.5</v>
+      </c>
+      <c r="AE106">
+        <v>1.21</v>
+      </c>
+      <c r="AF106">
+        <v>3.74</v>
+      </c>
+      <c r="AG106">
+        <v>1.7</v>
+      </c>
+      <c r="AH106">
+        <v>1.95</v>
+      </c>
+      <c r="AI106">
+        <v>1.62</v>
+      </c>
+      <c r="AJ106">
+        <v>2.16</v>
+      </c>
+      <c r="AK106">
+        <v>1.31</v>
+      </c>
+      <c r="AL106">
+        <v>1.27</v>
+      </c>
+      <c r="AM106">
+        <v>1.73</v>
+      </c>
+      <c r="AN106">
+        <v>1.2</v>
+      </c>
+      <c r="AO106">
+        <v>0.33</v>
+      </c>
+      <c r="AP106">
+        <v>1.5</v>
+      </c>
+      <c r="AQ106">
+        <v>0.29</v>
+      </c>
+      <c r="AR106">
+        <v>1.19</v>
+      </c>
+      <c r="AS106">
+        <v>1.2</v>
+      </c>
+      <c r="AT106">
+        <v>2.39</v>
+      </c>
+      <c r="AU106">
+        <v>6</v>
+      </c>
+      <c r="AV106">
+        <v>9</v>
+      </c>
+      <c r="AW106">
+        <v>10</v>
+      </c>
+      <c r="AX106">
+        <v>11</v>
+      </c>
+      <c r="AY106">
+        <v>16</v>
+      </c>
+      <c r="AZ106">
+        <v>20</v>
+      </c>
+      <c r="BA106">
+        <v>6</v>
+      </c>
+      <c r="BB106">
+        <v>14</v>
+      </c>
+      <c r="BC106">
+        <v>20</v>
+      </c>
+      <c r="BD106">
+        <v>1.56</v>
+      </c>
+      <c r="BE106">
+        <v>7.2</v>
+      </c>
+      <c r="BF106">
+        <v>3.08</v>
+      </c>
+      <c r="BG106">
+        <v>1.14</v>
+      </c>
+      <c r="BH106">
+        <v>5.7</v>
+      </c>
+      <c r="BI106">
+        <v>1.25</v>
+      </c>
+      <c r="BJ106">
+        <v>3.7</v>
+      </c>
+      <c r="BK106">
+        <v>1.45</v>
+      </c>
+      <c r="BL106">
+        <v>2.63</v>
+      </c>
+      <c r="BM106">
+        <v>1.8</v>
+      </c>
+      <c r="BN106">
+        <v>2</v>
+      </c>
+      <c r="BO106">
+        <v>2.28</v>
+      </c>
+      <c r="BP106">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="107" spans="1:68">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>7296371</v>
+      </c>
+      <c r="C107" t="s">
+        <v>68</v>
+      </c>
+      <c r="D107" t="s">
+        <v>69</v>
+      </c>
+      <c r="E107" s="2">
+        <v>45466.5</v>
+      </c>
+      <c r="F107">
+        <v>14</v>
+      </c>
+      <c r="G107" t="s">
+        <v>81</v>
+      </c>
+      <c r="H107" t="s">
+        <v>82</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>1</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <v>1</v>
+      </c>
+      <c r="O107" t="s">
+        <v>172</v>
+      </c>
+      <c r="P107" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q107">
+        <v>2.4</v>
+      </c>
+      <c r="R107">
+        <v>2.42</v>
+      </c>
+      <c r="S107">
+        <v>3.62</v>
+      </c>
+      <c r="T107">
+        <v>1.24</v>
+      </c>
+      <c r="U107">
+        <v>3.8</v>
+      </c>
+      <c r="V107">
+        <v>2.14</v>
+      </c>
+      <c r="W107">
+        <v>1.66</v>
+      </c>
+      <c r="X107">
+        <v>4.7</v>
+      </c>
+      <c r="Y107">
+        <v>1.17</v>
+      </c>
+      <c r="Z107">
+        <v>1.85</v>
+      </c>
+      <c r="AA107">
+        <v>3.7</v>
+      </c>
+      <c r="AB107">
+        <v>3.25</v>
+      </c>
+      <c r="AC107">
+        <v>1.02</v>
+      </c>
+      <c r="AD107">
+        <v>21.5</v>
+      </c>
+      <c r="AE107">
+        <v>1.11</v>
+      </c>
+      <c r="AF107">
+        <v>5.15</v>
+      </c>
+      <c r="AG107">
+        <v>1.45</v>
+      </c>
+      <c r="AH107">
+        <v>2.55</v>
+      </c>
+      <c r="AI107">
+        <v>1.44</v>
+      </c>
+      <c r="AJ107">
+        <v>2.58</v>
+      </c>
+      <c r="AK107">
+        <v>1.3</v>
+      </c>
+      <c r="AL107">
+        <v>1.23</v>
+      </c>
+      <c r="AM107">
+        <v>1.82</v>
+      </c>
+      <c r="AN107">
+        <v>2</v>
+      </c>
+      <c r="AO107">
+        <v>1</v>
+      </c>
+      <c r="AP107">
+        <v>2.17</v>
+      </c>
+      <c r="AQ107">
+        <v>0.86</v>
+      </c>
+      <c r="AR107">
+        <v>1.86</v>
+      </c>
+      <c r="AS107">
+        <v>1.45</v>
+      </c>
+      <c r="AT107">
+        <v>3.31</v>
+      </c>
+      <c r="AU107">
+        <v>6</v>
+      </c>
+      <c r="AV107">
+        <v>4</v>
+      </c>
+      <c r="AW107">
+        <v>7</v>
+      </c>
+      <c r="AX107">
+        <v>10</v>
+      </c>
+      <c r="AY107">
+        <v>13</v>
+      </c>
+      <c r="AZ107">
+        <v>14</v>
+      </c>
+      <c r="BA107">
+        <v>10</v>
+      </c>
+      <c r="BB107">
+        <v>4</v>
+      </c>
+      <c r="BC107">
+        <v>14</v>
+      </c>
+      <c r="BD107">
+        <v>1.61</v>
+      </c>
+      <c r="BE107">
+        <v>6.8</v>
+      </c>
+      <c r="BF107">
+        <v>2.96</v>
+      </c>
+      <c r="BG107">
+        <v>1.18</v>
+      </c>
+      <c r="BH107">
+        <v>4.6</v>
+      </c>
+      <c r="BI107">
+        <v>1.34</v>
+      </c>
+      <c r="BJ107">
+        <v>3.1</v>
+      </c>
+      <c r="BK107">
+        <v>1.6</v>
+      </c>
+      <c r="BL107">
+        <v>2.23</v>
+      </c>
+      <c r="BM107">
+        <v>2.02</v>
+      </c>
+      <c r="BN107">
+        <v>1.74</v>
+      </c>
+      <c r="BO107">
+        <v>2.65</v>
+      </c>
+      <c r="BP107">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="108" spans="1:68">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>7296372</v>
+      </c>
+      <c r="C108" t="s">
+        <v>68</v>
+      </c>
+      <c r="D108" t="s">
+        <v>69</v>
+      </c>
+      <c r="E108" s="2">
+        <v>45466.5</v>
+      </c>
+      <c r="F108">
+        <v>14</v>
+      </c>
+      <c r="G108" t="s">
+        <v>72</v>
+      </c>
+      <c r="H108" t="s">
+        <v>76</v>
+      </c>
+      <c r="I108">
+        <v>3</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>3</v>
+      </c>
+      <c r="L108">
+        <v>8</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <v>8</v>
+      </c>
+      <c r="O108" t="s">
+        <v>173</v>
+      </c>
+      <c r="P108" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q108">
+        <v>1.58</v>
+      </c>
+      <c r="R108">
+        <v>3.05</v>
+      </c>
+      <c r="S108">
+        <v>6.9</v>
+      </c>
+      <c r="T108">
+        <v>1.16</v>
+      </c>
+      <c r="U108">
+        <v>4.85</v>
+      </c>
+      <c r="V108">
+        <v>1.82</v>
+      </c>
+      <c r="W108">
+        <v>1.93</v>
+      </c>
+      <c r="X108">
+        <v>3.48</v>
+      </c>
+      <c r="Y108">
+        <v>1.28</v>
+      </c>
+      <c r="Z108">
+        <v>1.25</v>
+      </c>
+      <c r="AA108">
+        <v>5.5</v>
+      </c>
+      <c r="AB108">
+        <v>8</v>
+      </c>
+      <c r="AC108">
+        <v>1.01</v>
+      </c>
+      <c r="AD108">
+        <v>38</v>
+      </c>
+      <c r="AE108">
+        <v>1.04</v>
+      </c>
+      <c r="AF108">
+        <v>7.4</v>
+      </c>
+      <c r="AG108">
+        <v>1.25</v>
+      </c>
+      <c r="AH108">
+        <v>3.5</v>
+      </c>
+      <c r="AI108">
+        <v>1.56</v>
+      </c>
+      <c r="AJ108">
+        <v>2.27</v>
+      </c>
+      <c r="AK108">
+        <v>1.04</v>
+      </c>
+      <c r="AL108">
+        <v>1.1</v>
+      </c>
+      <c r="AM108">
+        <v>3.82</v>
+      </c>
+      <c r="AN108">
+        <v>1.67</v>
+      </c>
+      <c r="AO108">
+        <v>0.2</v>
+      </c>
+      <c r="AP108">
+        <v>1.86</v>
+      </c>
+      <c r="AQ108">
+        <v>0.17</v>
+      </c>
+      <c r="AR108">
+        <v>1.91</v>
+      </c>
+      <c r="AS108">
+        <v>0.83</v>
+      </c>
+      <c r="AT108">
+        <v>2.74</v>
+      </c>
+      <c r="AU108">
+        <v>12</v>
+      </c>
+      <c r="AV108">
+        <v>5</v>
+      </c>
+      <c r="AW108">
+        <v>9</v>
+      </c>
+      <c r="AX108">
+        <v>2</v>
+      </c>
+      <c r="AY108">
+        <v>21</v>
+      </c>
+      <c r="AZ108">
+        <v>7</v>
+      </c>
+      <c r="BA108">
+        <v>5</v>
+      </c>
+      <c r="BB108">
+        <v>4</v>
+      </c>
+      <c r="BC108">
+        <v>9</v>
+      </c>
+      <c r="BD108">
+        <v>1.08</v>
+      </c>
+      <c r="BE108">
+        <v>13</v>
+      </c>
+      <c r="BF108">
+        <v>10.25</v>
+      </c>
+      <c r="BG108">
+        <v>0</v>
+      </c>
+      <c r="BH108">
+        <v>0</v>
+      </c>
+      <c r="BI108">
+        <v>1.24</v>
+      </c>
+      <c r="BJ108">
+        <v>3.8</v>
+      </c>
+      <c r="BK108">
+        <v>1.43</v>
+      </c>
+      <c r="BL108">
+        <v>2.7</v>
+      </c>
+      <c r="BM108">
+        <v>1.74</v>
+      </c>
+      <c r="BN108">
+        <v>2.02</v>
+      </c>
+      <c r="BO108">
+        <v>2.23</v>
+      </c>
+      <c r="BP108">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="109" spans="1:68">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>7296373</v>
+      </c>
+      <c r="C109" t="s">
+        <v>68</v>
+      </c>
+      <c r="D109" t="s">
+        <v>69</v>
+      </c>
+      <c r="E109" s="2">
+        <v>45466.5</v>
+      </c>
+      <c r="F109">
+        <v>14</v>
+      </c>
+      <c r="G109" t="s">
+        <v>74</v>
+      </c>
+      <c r="H109" t="s">
+        <v>77</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>2</v>
+      </c>
+      <c r="K109">
+        <v>2</v>
+      </c>
+      <c r="L109">
+        <v>1</v>
+      </c>
+      <c r="M109">
+        <v>4</v>
+      </c>
+      <c r="N109">
+        <v>5</v>
+      </c>
+      <c r="O109" t="s">
+        <v>174</v>
+      </c>
+      <c r="P109" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q109">
+        <v>3.5</v>
+      </c>
+      <c r="R109">
+        <v>2.44</v>
+      </c>
+      <c r="S109">
+        <v>2.71</v>
+      </c>
+      <c r="T109">
+        <v>1.3</v>
+      </c>
+      <c r="U109">
+        <v>3.34</v>
+      </c>
+      <c r="V109">
+        <v>2.35</v>
+      </c>
+      <c r="W109">
+        <v>1.57</v>
+      </c>
+      <c r="X109">
+        <v>5.5</v>
+      </c>
+      <c r="Y109">
+        <v>1.13</v>
+      </c>
+      <c r="Z109">
+        <v>2.87</v>
+      </c>
+      <c r="AA109">
+        <v>3.4</v>
+      </c>
+      <c r="AB109">
+        <v>2.1</v>
+      </c>
+      <c r="AC109">
+        <v>1.01</v>
+      </c>
+      <c r="AD109">
+        <v>11</v>
+      </c>
+      <c r="AE109">
+        <v>1.16</v>
+      </c>
+      <c r="AF109">
+        <v>4.3</v>
+      </c>
+      <c r="AG109">
+        <v>1.57</v>
+      </c>
+      <c r="AH109">
+        <v>2.15</v>
+      </c>
+      <c r="AI109">
+        <v>1.53</v>
+      </c>
+      <c r="AJ109">
+        <v>2.34</v>
+      </c>
+      <c r="AK109">
+        <v>1.66</v>
+      </c>
+      <c r="AL109">
+        <v>1.26</v>
+      </c>
+      <c r="AM109">
+        <v>1.36</v>
+      </c>
+      <c r="AN109">
+        <v>1.5</v>
+      </c>
+      <c r="AO109">
+        <v>1.17</v>
+      </c>
+      <c r="AP109">
+        <v>1.29</v>
+      </c>
+      <c r="AQ109">
+        <v>1.43</v>
+      </c>
+      <c r="AR109">
+        <v>1.59</v>
+      </c>
+      <c r="AS109">
+        <v>1.52</v>
+      </c>
+      <c r="AT109">
+        <v>3.11</v>
+      </c>
+      <c r="AU109">
+        <v>3</v>
+      </c>
+      <c r="AV109">
+        <v>8</v>
+      </c>
+      <c r="AW109">
+        <v>9</v>
+      </c>
+      <c r="AX109">
+        <v>7</v>
+      </c>
+      <c r="AY109">
+        <v>12</v>
+      </c>
+      <c r="AZ109">
+        <v>15</v>
+      </c>
+      <c r="BA109">
+        <v>2</v>
+      </c>
+      <c r="BB109">
+        <v>4</v>
+      </c>
+      <c r="BC109">
+        <v>6</v>
+      </c>
+      <c r="BD109">
+        <v>2.24</v>
+      </c>
+      <c r="BE109">
+        <v>6.6</v>
+      </c>
+      <c r="BF109">
+        <v>1.97</v>
+      </c>
+      <c r="BG109">
+        <v>1.17</v>
+      </c>
+      <c r="BH109">
+        <v>4.7</v>
+      </c>
+      <c r="BI109">
+        <v>1.32</v>
+      </c>
+      <c r="BJ109">
+        <v>3.2</v>
+      </c>
+      <c r="BK109">
+        <v>1.58</v>
+      </c>
+      <c r="BL109">
+        <v>2.28</v>
+      </c>
+      <c r="BM109">
+        <v>2</v>
+      </c>
+      <c r="BN109">
+        <v>1.8</v>
+      </c>
+      <c r="BO109">
+        <v>2.6</v>
+      </c>
+      <c r="BP109">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="110" spans="1:68">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>7296374</v>
+      </c>
+      <c r="C110" t="s">
+        <v>68</v>
+      </c>
+      <c r="D110" t="s">
+        <v>69</v>
+      </c>
+      <c r="E110" s="2">
+        <v>45466.5</v>
+      </c>
+      <c r="F110">
+        <v>14</v>
+      </c>
+      <c r="G110" t="s">
+        <v>70</v>
+      </c>
+      <c r="H110" t="s">
+        <v>84</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>1</v>
+      </c>
+      <c r="K110">
+        <v>1</v>
+      </c>
+      <c r="L110">
+        <v>5</v>
+      </c>
+      <c r="M110">
+        <v>3</v>
+      </c>
+      <c r="N110">
+        <v>8</v>
+      </c>
+      <c r="O110" t="s">
+        <v>175</v>
+      </c>
+      <c r="P110" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q110">
+        <v>2.43</v>
+      </c>
+      <c r="R110">
+        <v>2.21</v>
+      </c>
+      <c r="S110">
+        <v>4.15</v>
+      </c>
+      <c r="T110">
+        <v>1.34</v>
+      </c>
+      <c r="U110">
+        <v>3.1</v>
+      </c>
+      <c r="V110">
+        <v>2.54</v>
+      </c>
+      <c r="W110">
+        <v>1.48</v>
+      </c>
+      <c r="X110">
+        <v>6.05</v>
+      </c>
+      <c r="Y110">
+        <v>1.11</v>
+      </c>
+      <c r="Z110">
+        <v>1.85</v>
+      </c>
+      <c r="AA110">
+        <v>3.5</v>
+      </c>
+      <c r="AB110">
+        <v>3.5</v>
+      </c>
+      <c r="AC110">
+        <v>1.01</v>
+      </c>
+      <c r="AD110">
+        <v>10.5</v>
+      </c>
+      <c r="AE110">
+        <v>1.2</v>
+      </c>
+      <c r="AF110">
+        <v>3.84</v>
+      </c>
+      <c r="AG110">
+        <v>1.65</v>
+      </c>
+      <c r="AH110">
+        <v>2.05</v>
+      </c>
+      <c r="AI110">
+        <v>1.62</v>
+      </c>
+      <c r="AJ110">
+        <v>2.16</v>
+      </c>
+      <c r="AK110">
+        <v>1.26</v>
+      </c>
+      <c r="AL110">
+        <v>1.26</v>
+      </c>
+      <c r="AM110">
+        <v>1.83</v>
+      </c>
+      <c r="AN110">
+        <v>2.57</v>
+      </c>
+      <c r="AO110">
+        <v>1.33</v>
+      </c>
+      <c r="AP110">
+        <v>2.63</v>
+      </c>
+      <c r="AQ110">
+        <v>1.14</v>
+      </c>
+      <c r="AR110">
+        <v>1.76</v>
+      </c>
+      <c r="AS110">
+        <v>1.98</v>
+      </c>
+      <c r="AT110">
+        <v>3.74</v>
+      </c>
+      <c r="AU110">
+        <v>8</v>
+      </c>
+      <c r="AV110">
+        <v>8</v>
+      </c>
+      <c r="AW110">
+        <v>13</v>
+      </c>
+      <c r="AX110">
+        <v>9</v>
+      </c>
+      <c r="AY110">
+        <v>21</v>
+      </c>
+      <c r="AZ110">
+        <v>17</v>
+      </c>
+      <c r="BA110">
+        <v>3</v>
+      </c>
+      <c r="BB110">
+        <v>3</v>
+      </c>
+      <c r="BC110">
+        <v>6</v>
+      </c>
+      <c r="BD110">
+        <v>1.69</v>
+      </c>
+      <c r="BE110">
+        <v>6.9</v>
+      </c>
+      <c r="BF110">
+        <v>2.71</v>
+      </c>
+      <c r="BG110">
+        <v>0</v>
+      </c>
+      <c r="BH110">
+        <v>0</v>
+      </c>
+      <c r="BI110">
+        <v>1.29</v>
+      </c>
+      <c r="BJ110">
+        <v>3.45</v>
+      </c>
+      <c r="BK110">
+        <v>1.5</v>
+      </c>
+      <c r="BL110">
+        <v>2.45</v>
+      </c>
+      <c r="BM110">
+        <v>1.9</v>
+      </c>
+      <c r="BN110">
+        <v>1.9</v>
+      </c>
+      <c r="BO110">
+        <v>2.43</v>
+      </c>
+      <c r="BP110">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="111" spans="1:68">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>7296375</v>
+      </c>
+      <c r="C111" t="s">
+        <v>68</v>
+      </c>
+      <c r="D111" t="s">
+        <v>69</v>
+      </c>
+      <c r="E111" s="2">
+        <v>45466.5</v>
+      </c>
+      <c r="F111">
+        <v>14</v>
+      </c>
+      <c r="G111" t="s">
+        <v>75</v>
+      </c>
+      <c r="H111" t="s">
+        <v>85</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>1</v>
+      </c>
+      <c r="K111">
+        <v>1</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111">
+        <v>3</v>
+      </c>
+      <c r="N111">
+        <v>3</v>
+      </c>
+      <c r="O111" t="s">
+        <v>103</v>
+      </c>
+      <c r="P111" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q111">
+        <v>3.02</v>
+      </c>
+      <c r="R111">
+        <v>2.52</v>
+      </c>
+      <c r="S111">
+        <v>2.65</v>
+      </c>
+      <c r="T111">
+        <v>1.2</v>
+      </c>
+      <c r="U111">
+        <v>4.3</v>
+      </c>
+      <c r="V111">
+        <v>1.96</v>
+      </c>
+      <c r="W111">
+        <v>1.79</v>
+      </c>
+      <c r="X111">
+        <v>4</v>
+      </c>
+      <c r="Y111">
+        <v>1.22</v>
+      </c>
+      <c r="Z111">
+        <v>2.5</v>
+      </c>
+      <c r="AA111">
+        <v>3.75</v>
+      </c>
+      <c r="AB111">
+        <v>2.2</v>
+      </c>
+      <c r="AC111">
+        <v>1.02</v>
+      </c>
+      <c r="AD111">
+        <v>25.5</v>
+      </c>
+      <c r="AE111">
+        <v>1.07</v>
+      </c>
+      <c r="AF111">
+        <v>6.2</v>
+      </c>
+      <c r="AG111">
+        <v>1.33</v>
+      </c>
+      <c r="AH111">
+        <v>3</v>
+      </c>
+      <c r="AI111">
+        <v>1.33</v>
+      </c>
+      <c r="AJ111">
+        <v>3.04</v>
+      </c>
+      <c r="AK111">
+        <v>1.59</v>
+      </c>
+      <c r="AL111">
+        <v>1.23</v>
+      </c>
+      <c r="AM111">
+        <v>1.45</v>
+      </c>
+      <c r="AN111">
+        <v>1.43</v>
+      </c>
+      <c r="AO111">
+        <v>2</v>
+      </c>
+      <c r="AP111">
+        <v>1.25</v>
+      </c>
+      <c r="AQ111">
+        <v>2.13</v>
+      </c>
+      <c r="AR111">
+        <v>1.49</v>
+      </c>
+      <c r="AS111">
+        <v>1.56</v>
+      </c>
+      <c r="AT111">
+        <v>3.05</v>
+      </c>
+      <c r="AU111">
+        <v>5</v>
+      </c>
+      <c r="AV111">
+        <v>8</v>
+      </c>
+      <c r="AW111">
+        <v>1</v>
+      </c>
+      <c r="AX111">
+        <v>7</v>
+      </c>
+      <c r="AY111">
+        <v>6</v>
+      </c>
+      <c r="AZ111">
+        <v>15</v>
+      </c>
+      <c r="BA111">
+        <v>5</v>
+      </c>
+      <c r="BB111">
+        <v>9</v>
+      </c>
+      <c r="BC111">
+        <v>14</v>
+      </c>
+      <c r="BD111">
+        <v>1.97</v>
+      </c>
+      <c r="BE111">
+        <v>6.6</v>
+      </c>
+      <c r="BF111">
+        <v>2.24</v>
+      </c>
+      <c r="BG111">
+        <v>1.18</v>
+      </c>
+      <c r="BH111">
+        <v>4.6</v>
+      </c>
+      <c r="BI111">
+        <v>1.34</v>
+      </c>
+      <c r="BJ111">
+        <v>3.1</v>
+      </c>
+      <c r="BK111">
+        <v>1.6</v>
+      </c>
+      <c r="BL111">
+        <v>2.23</v>
+      </c>
+      <c r="BM111">
+        <v>2.02</v>
+      </c>
+      <c r="BN111">
+        <v>1.74</v>
+      </c>
+      <c r="BO111">
+        <v>2.65</v>
+      </c>
+      <c r="BP111">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
@@ -1447,10 +1447,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ2">
-        <v>0.29</v>
+        <v>0.93</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1653,10 +1653,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2</v>
+        <v>1.79</v>
       </c>
       <c r="AQ3">
-        <v>0.88</v>
+        <v>1.21</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1859,10 +1859,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AQ4">
-        <v>1.29</v>
+        <v>1.64</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2065,10 +2065,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="AQ5">
-        <v>1.29</v>
+        <v>1.69</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2271,10 +2271,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.29</v>
+        <v>0.93</v>
       </c>
       <c r="AQ6">
-        <v>0.86</v>
+        <v>1.15</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2477,10 +2477,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ7">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2683,10 +2683,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.14</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ8">
-        <v>2.13</v>
+        <v>1.86</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2889,10 +2889,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.29</v>
+        <v>1.86</v>
       </c>
       <c r="AQ9">
-        <v>1.14</v>
+        <v>1.29</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3092,22 +3092,22 @@
         <v>0</v>
       </c>
       <c r="AO10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP10">
-        <v>1.57</v>
+        <v>0.93</v>
       </c>
       <c r="AQ10">
-        <v>0.67</v>
+        <v>0.64</v>
       </c>
       <c r="AR10">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AS10">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AT10">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AU10">
         <v>6</v>
@@ -3295,25 +3295,25 @@
         <v>1.13</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP11">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ11">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AS11">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>3.88</v>
       </c>
       <c r="AU11">
         <v>4</v>
@@ -3507,19 +3507,19 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.67</v>
+        <v>1.21</v>
       </c>
       <c r="AQ12">
-        <v>0.17</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR12">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AS12">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AT12">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="AU12">
         <v>6</v>
@@ -3707,25 +3707,25 @@
         <v>1.85</v>
       </c>
       <c r="AN13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP13">
-        <v>2.17</v>
+        <v>1.69</v>
       </c>
       <c r="AQ13">
-        <v>0.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR13">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="AS13">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AT13">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AU13">
         <v>7</v>
@@ -3913,25 +3913,25 @@
         <v>1.65</v>
       </c>
       <c r="AN14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP14">
-        <v>1.5</v>
+        <v>1.15</v>
       </c>
       <c r="AQ14">
-        <v>1.43</v>
+        <v>1.86</v>
       </c>
       <c r="AR14">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AS14">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AT14">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="AU14">
         <v>9</v>
@@ -4119,25 +4119,25 @@
         <v>2.3</v>
       </c>
       <c r="AN15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP15">
-        <v>2</v>
+        <v>1.64</v>
       </c>
       <c r="AQ15">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR15">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="AS15">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AT15">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AU15">
         <v>9</v>
@@ -4328,22 +4328,22 @@
         <v>0</v>
       </c>
       <c r="AO16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP16">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
       <c r="AQ16">
-        <v>1.57</v>
+        <v>1.79</v>
       </c>
       <c r="AR16">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="AS16">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AT16">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AU16">
         <v>3</v>
@@ -4531,25 +4531,25 @@
         <v>2.2</v>
       </c>
       <c r="AN17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP17">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AQ17">
-        <v>1.29</v>
+        <v>1.69</v>
       </c>
       <c r="AR17">
-        <v>2.14</v>
+        <v>1.99</v>
       </c>
       <c r="AS17">
-        <v>0.85</v>
+        <v>0.99</v>
       </c>
       <c r="AT17">
-        <v>2.99</v>
+        <v>2.98</v>
       </c>
       <c r="AU17">
         <v>11</v>
@@ -4737,25 +4737,25 @@
         <v>2.1</v>
       </c>
       <c r="AN18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO18">
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>1.79</v>
       </c>
       <c r="AQ18">
-        <v>2.13</v>
+        <v>1.86</v>
       </c>
       <c r="AR18">
-        <v>1.34</v>
+        <v>1.6</v>
       </c>
       <c r="AS18">
         <v>1.83</v>
       </c>
       <c r="AT18">
-        <v>3.17</v>
+        <v>3.43</v>
       </c>
       <c r="AU18">
         <v>10</v>
@@ -4943,25 +4943,25 @@
         <v>1.83</v>
       </c>
       <c r="AN19">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP19">
-        <v>2.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ19">
-        <v>0.86</v>
+        <v>1.15</v>
       </c>
       <c r="AR19">
-        <v>1.35</v>
+        <v>1.18</v>
       </c>
       <c r="AS19">
-        <v>1.11</v>
+        <v>1.39</v>
       </c>
       <c r="AT19">
-        <v>2.46</v>
+        <v>2.57</v>
       </c>
       <c r="AU19">
         <v>8</v>
@@ -5149,25 +5149,25 @@
         <v>1.6</v>
       </c>
       <c r="AN20">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO20">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP20">
-        <v>2.29</v>
+        <v>1.86</v>
       </c>
       <c r="AQ20">
-        <v>0.88</v>
+        <v>1.21</v>
       </c>
       <c r="AR20">
-        <v>1.13</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AS20">
-        <v>1.53</v>
+        <v>1.39</v>
       </c>
       <c r="AT20">
-        <v>2.66</v>
+        <v>2.33</v>
       </c>
       <c r="AU20">
         <v>6</v>
@@ -5358,22 +5358,22 @@
         <v>0</v>
       </c>
       <c r="AO21">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP21">
-        <v>1.14</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ21">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="AR21">
-        <v>1.74</v>
+        <v>1.28</v>
       </c>
       <c r="AS21">
-        <v>1.74</v>
+        <v>1.36</v>
       </c>
       <c r="AT21">
-        <v>3.48</v>
+        <v>2.64</v>
       </c>
       <c r="AU21">
         <v>5</v>
@@ -5564,22 +5564,22 @@
         <v>1</v>
       </c>
       <c r="AO22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP22">
-        <v>1.29</v>
+        <v>0.93</v>
       </c>
       <c r="AQ22">
-        <v>1.29</v>
+        <v>1.64</v>
       </c>
       <c r="AR22">
         <v>1.02</v>
       </c>
       <c r="AS22">
-        <v>0.47</v>
+        <v>1.12</v>
       </c>
       <c r="AT22">
-        <v>1.49</v>
+        <v>2.14</v>
       </c>
       <c r="AU22">
         <v>7</v>
@@ -5767,25 +5767,25 @@
         <v>1.57</v>
       </c>
       <c r="AN23">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO23">
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ23">
-        <v>0.29</v>
+        <v>0.93</v>
       </c>
       <c r="AR23">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="AS23">
-        <v>1.78</v>
+        <v>1.56</v>
       </c>
       <c r="AT23">
-        <v>2.98</v>
+        <v>2.71</v>
       </c>
       <c r="AU23">
         <v>3</v>
@@ -5973,25 +5973,25 @@
         <v>2.2</v>
       </c>
       <c r="AN24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO24">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP24">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="AQ24">
-        <v>1.14</v>
+        <v>1.29</v>
       </c>
       <c r="AR24">
-        <v>1.52</v>
+        <v>1.39</v>
       </c>
       <c r="AS24">
-        <v>0.65</v>
+        <v>0.74</v>
       </c>
       <c r="AT24">
-        <v>2.17</v>
+        <v>2.13</v>
       </c>
       <c r="AU24">
         <v>6</v>
@@ -6179,25 +6179,25 @@
         <v>2.05</v>
       </c>
       <c r="AN25">
-        <v>3</v>
+        <v>1.67</v>
       </c>
       <c r="AO25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP25">
-        <v>2</v>
+        <v>1.64</v>
       </c>
       <c r="AQ25">
-        <v>1.43</v>
+        <v>1.86</v>
       </c>
       <c r="AR25">
-        <v>1.76</v>
+        <v>1.13</v>
       </c>
       <c r="AS25">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT25">
-        <v>2.51</v>
+        <v>2.13</v>
       </c>
       <c r="AU25">
         <v>10</v>
@@ -6385,25 +6385,25 @@
         <v>1.85</v>
       </c>
       <c r="AN26">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AO26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP26">
-        <v>1.57</v>
+        <v>0.93</v>
       </c>
       <c r="AQ26">
-        <v>0.17</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR26">
-        <v>1.34</v>
+        <v>1.54</v>
       </c>
       <c r="AS26">
-        <v>0.83</v>
+        <v>1.28</v>
       </c>
       <c r="AT26">
-        <v>2.17</v>
+        <v>2.82</v>
       </c>
       <c r="AU26">
         <v>-1</v>
@@ -6591,25 +6591,25 @@
         <v>1.6</v>
       </c>
       <c r="AN27">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AO27">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AP27">
-        <v>1.5</v>
+        <v>1.15</v>
       </c>
       <c r="AQ27">
-        <v>1.57</v>
+        <v>1.79</v>
       </c>
       <c r="AR27">
-        <v>1.67</v>
+        <v>1.24</v>
       </c>
       <c r="AS27">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT27">
-        <v>3.52</v>
+        <v>3.03</v>
       </c>
       <c r="AU27">
         <v>3</v>
@@ -6797,25 +6797,25 @@
         <v>1.44</v>
       </c>
       <c r="AN28">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AO28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ28">
-        <v>0.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR28">
-        <v>0.98</v>
+        <v>1.36</v>
       </c>
       <c r="AS28">
-        <v>1</v>
+        <v>1.36</v>
       </c>
       <c r="AT28">
-        <v>1.98</v>
+        <v>2.72</v>
       </c>
       <c r="AU28">
         <v>2</v>
@@ -7003,25 +7003,25 @@
         <v>2.1</v>
       </c>
       <c r="AN29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.67</v>
+        <v>1.21</v>
       </c>
       <c r="AQ29">
-        <v>0.57</v>
+        <v>0.93</v>
       </c>
       <c r="AR29">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="AS29">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AT29">
-        <v>1.26</v>
+        <v>2.74</v>
       </c>
       <c r="AU29">
         <v>-1</v>
@@ -7209,25 +7209,25 @@
         <v>1.28</v>
       </c>
       <c r="AN30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO30">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="AP30">
-        <v>1.5</v>
+        <v>1.86</v>
       </c>
       <c r="AQ30">
-        <v>0.67</v>
+        <v>0.64</v>
       </c>
       <c r="AR30">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AS30">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="AT30">
-        <v>1.27</v>
+        <v>2.75</v>
       </c>
       <c r="AU30">
         <v>14</v>
@@ -7415,25 +7415,25 @@
         <v>1.28</v>
       </c>
       <c r="AN31">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO31">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="AP31">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
       <c r="AQ31">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AR31">
-        <v>0.83</v>
+        <v>1.55</v>
       </c>
       <c r="AS31">
-        <v>1.84</v>
+        <v>2.24</v>
       </c>
       <c r="AT31">
-        <v>2.67</v>
+        <v>3.79</v>
       </c>
       <c r="AU31">
         <v>6</v>
@@ -7624,22 +7624,22 @@
         <v>1.5</v>
       </c>
       <c r="AO32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP32">
-        <v>2.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ32">
-        <v>1.29</v>
+        <v>1.64</v>
       </c>
       <c r="AR32">
-        <v>1.53</v>
+        <v>1.74</v>
       </c>
       <c r="AS32">
-        <v>0.8100000000000001</v>
+        <v>1.33</v>
       </c>
       <c r="AT32">
-        <v>2.34</v>
+        <v>3.07</v>
       </c>
       <c r="AU32">
         <v>11</v>
@@ -7827,25 +7827,25 @@
         <v>1.48</v>
       </c>
       <c r="AN33">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AO33">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AP33">
-        <v>1.14</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ33">
-        <v>0.86</v>
+        <v>1.15</v>
       </c>
       <c r="AR33">
-        <v>1.74</v>
+        <v>1.28</v>
       </c>
       <c r="AS33">
-        <v>1.02</v>
+        <v>1.29</v>
       </c>
       <c r="AT33">
-        <v>2.76</v>
+        <v>2.57</v>
       </c>
       <c r="AU33">
         <v>4</v>
@@ -8033,25 +8033,25 @@
         <v>2</v>
       </c>
       <c r="AN34">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO34">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AP34">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="AQ34">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="AR34">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="AS34">
-        <v>1.74</v>
+        <v>1.11</v>
       </c>
       <c r="AT34">
-        <v>3.07</v>
+        <v>2.45</v>
       </c>
       <c r="AU34">
         <v>5</v>
@@ -8242,22 +8242,22 @@
         <v>1</v>
       </c>
       <c r="AO35">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AP35">
-        <v>1.29</v>
+        <v>0.93</v>
       </c>
       <c r="AQ35">
-        <v>1.29</v>
+        <v>1.69</v>
       </c>
       <c r="AR35">
         <v>1.41</v>
       </c>
       <c r="AS35">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AT35">
-        <v>2.67</v>
+        <v>2.63</v>
       </c>
       <c r="AU35">
         <v>9</v>
@@ -8451,19 +8451,19 @@
         <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>2</v>
+        <v>1.79</v>
       </c>
       <c r="AQ36">
-        <v>0.29</v>
+        <v>0.93</v>
       </c>
       <c r="AR36">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AS36">
-        <v>1.64</v>
+        <v>1.54</v>
       </c>
       <c r="AT36">
-        <v>3.39</v>
+        <v>3.21</v>
       </c>
       <c r="AU36">
         <v>8</v>
@@ -8651,25 +8651,25 @@
         <v>1.58</v>
       </c>
       <c r="AN37">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO37">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AP37">
-        <v>2.29</v>
+        <v>1.86</v>
       </c>
       <c r="AQ37">
-        <v>2.13</v>
+        <v>1.86</v>
       </c>
       <c r="AR37">
-        <v>1.12</v>
+        <v>1.05</v>
       </c>
       <c r="AS37">
-        <v>1.44</v>
+        <v>1.87</v>
       </c>
       <c r="AT37">
-        <v>2.56</v>
+        <v>2.92</v>
       </c>
       <c r="AU37">
         <v>7</v>
@@ -8857,25 +8857,25 @@
         <v>1.18</v>
       </c>
       <c r="AN38">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AO38">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="AP38">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ38">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AR38">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="AS38">
-        <v>1.37</v>
+        <v>1.91</v>
       </c>
       <c r="AT38">
-        <v>2.58</v>
+        <v>3.09</v>
       </c>
       <c r="AU38">
         <v>7</v>
@@ -9063,25 +9063,25 @@
         <v>1.58</v>
       </c>
       <c r="AN39">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AO39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP39">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
       <c r="AQ39">
-        <v>0.88</v>
+        <v>1.21</v>
       </c>
       <c r="AR39">
-        <v>1.22</v>
+        <v>1.56</v>
       </c>
       <c r="AS39">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="AT39">
-        <v>2.59</v>
+        <v>2.89</v>
       </c>
       <c r="AU39">
         <v>4</v>
@@ -9269,25 +9269,25 @@
         <v>1.66</v>
       </c>
       <c r="AN40">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AO40">
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ40">
-        <v>0.57</v>
+        <v>0.93</v>
       </c>
       <c r="AR40">
-        <v>0.79</v>
+        <v>1.49</v>
       </c>
       <c r="AS40">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AT40">
-        <v>0.79</v>
+        <v>3.12</v>
       </c>
       <c r="AU40">
         <v>8</v>
@@ -9475,25 +9475,25 @@
         <v>1.91</v>
       </c>
       <c r="AN41">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO41">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AP41">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AQ41">
-        <v>0.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR41">
-        <v>2.44</v>
+        <v>1.93</v>
       </c>
       <c r="AS41">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="AT41">
-        <v>4.39</v>
+        <v>3.78</v>
       </c>
       <c r="AU41">
         <v>9</v>
@@ -9681,25 +9681,25 @@
         <v>1.5</v>
       </c>
       <c r="AN42">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AO42">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AP42">
-        <v>1.57</v>
+        <v>0.93</v>
       </c>
       <c r="AQ42">
-        <v>0.88</v>
+        <v>1.21</v>
       </c>
       <c r="AR42">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="AS42">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT42">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AU42">
         <v>10</v>
@@ -9887,25 +9887,25 @@
         <v>1.49</v>
       </c>
       <c r="AN43">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AO43">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AP43">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AQ43">
+        <v>1.86</v>
+      </c>
+      <c r="AR43">
+        <v>1.2</v>
+      </c>
+      <c r="AS43">
         <v>1.14</v>
       </c>
-      <c r="AQ43">
-        <v>1.43</v>
-      </c>
-      <c r="AR43">
-        <v>1.39</v>
-      </c>
-      <c r="AS43">
-        <v>0.97</v>
-      </c>
       <c r="AT43">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="AU43">
         <v>7</v>
@@ -10093,25 +10093,25 @@
         <v>1.5</v>
       </c>
       <c r="AN44">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AO44">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="AP44">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ44">
-        <v>0.67</v>
+        <v>0.64</v>
       </c>
       <c r="AR44">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="AS44">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="AT44">
-        <v>2.65</v>
+        <v>2.58</v>
       </c>
       <c r="AU44">
         <v>12</v>
@@ -10299,25 +10299,25 @@
         <v>1.9</v>
       </c>
       <c r="AN45">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AO45">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AP45">
-        <v>1.5</v>
+        <v>1.86</v>
       </c>
       <c r="AQ45">
-        <v>1.14</v>
+        <v>1.29</v>
       </c>
       <c r="AR45">
-        <v>2.74</v>
+        <v>1.71</v>
       </c>
       <c r="AS45">
-        <v>1.9</v>
+        <v>1.56</v>
       </c>
       <c r="AT45">
-        <v>4.64</v>
+        <v>3.27</v>
       </c>
       <c r="AU45">
         <v>9</v>
@@ -10505,25 +10505,25 @@
         <v>1.78</v>
       </c>
       <c r="AN46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO46">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AP46">
-        <v>2.17</v>
+        <v>1.69</v>
       </c>
       <c r="AQ46">
-        <v>1.57</v>
+        <v>1.79</v>
       </c>
       <c r="AR46">
-        <v>1.14</v>
+        <v>1.56</v>
       </c>
       <c r="AS46">
-        <v>1.58</v>
+        <v>1.71</v>
       </c>
       <c r="AT46">
-        <v>2.72</v>
+        <v>3.27</v>
       </c>
       <c r="AU46">
         <v>10</v>
@@ -10711,25 +10711,25 @@
         <v>1.8</v>
       </c>
       <c r="AN47">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AO47">
-        <v>0.67</v>
+        <v>1.6</v>
       </c>
       <c r="AP47">
-        <v>1.5</v>
+        <v>1.15</v>
       </c>
       <c r="AQ47">
-        <v>1.29</v>
+        <v>1.64</v>
       </c>
       <c r="AR47">
-        <v>1.55</v>
+        <v>1.46</v>
       </c>
       <c r="AS47">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="AT47">
-        <v>2.56</v>
+        <v>2.81</v>
       </c>
       <c r="AU47">
         <v>4</v>
@@ -10917,25 +10917,25 @@
         <v>2.05</v>
       </c>
       <c r="AN48">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AO48">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AP48">
-        <v>2.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ48">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR48">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="AS48">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AT48">
-        <v>2.89</v>
+        <v>3.32</v>
       </c>
       <c r="AU48">
         <v>7</v>
@@ -11123,25 +11123,25 @@
         <v>2.2</v>
       </c>
       <c r="AN49">
-        <v>2.33</v>
+        <v>1.83</v>
       </c>
       <c r="AO49">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="AP49">
-        <v>2</v>
+        <v>1.79</v>
       </c>
       <c r="AQ49">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="AR49">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="AS49">
-        <v>2.18</v>
+        <v>1.53</v>
       </c>
       <c r="AT49">
-        <v>3.98</v>
+        <v>3.08</v>
       </c>
       <c r="AU49">
         <v>10</v>
@@ -11329,25 +11329,25 @@
         <v>1.35</v>
       </c>
       <c r="AN50">
-        <v>0.33</v>
+        <v>0.83</v>
       </c>
       <c r="AO50">
         <v>1.33</v>
       </c>
       <c r="AP50">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="AQ50">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AR50">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="AS50">
-        <v>1.58</v>
+        <v>1.92</v>
       </c>
       <c r="AT50">
-        <v>2.88</v>
+        <v>3.27</v>
       </c>
       <c r="AU50">
         <v>3</v>
@@ -11535,25 +11535,25 @@
         <v>1.73</v>
       </c>
       <c r="AN51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO51">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AP51">
-        <v>1.67</v>
+        <v>1.21</v>
       </c>
       <c r="AQ51">
-        <v>2.13</v>
+        <v>1.86</v>
       </c>
       <c r="AR51">
-        <v>1.26</v>
+        <v>1.41</v>
       </c>
       <c r="AS51">
-        <v>1.37</v>
+        <v>1.78</v>
       </c>
       <c r="AT51">
-        <v>2.63</v>
+        <v>3.19</v>
       </c>
       <c r="AU51">
         <v>8</v>
@@ -11741,25 +11741,25 @@
         <v>1.4</v>
       </c>
       <c r="AN52">
-        <v>2</v>
+        <v>1.17</v>
       </c>
       <c r="AO52">
-        <v>1.67</v>
+        <v>2.2</v>
       </c>
       <c r="AP52">
-        <v>2.29</v>
+        <v>1.86</v>
       </c>
       <c r="AQ52">
-        <v>1.29</v>
+        <v>1.69</v>
       </c>
       <c r="AR52">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AS52">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="AT52">
-        <v>2.95</v>
+        <v>3.02</v>
       </c>
       <c r="AU52">
         <v>8</v>
@@ -11947,25 +11947,25 @@
         <v>2.3</v>
       </c>
       <c r="AN53">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO53">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP53">
-        <v>2</v>
+        <v>1.64</v>
       </c>
       <c r="AQ53">
-        <v>0.17</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR53">
-        <v>1.86</v>
+        <v>1.26</v>
       </c>
       <c r="AS53">
-        <v>0.83</v>
+        <v>1.3</v>
       </c>
       <c r="AT53">
-        <v>2.69</v>
+        <v>2.56</v>
       </c>
       <c r="AU53">
         <v>4</v>
@@ -12153,25 +12153,25 @@
         <v>1.53</v>
       </c>
       <c r="AN54">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AO54">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
       <c r="AQ54">
-        <v>0.86</v>
+        <v>1.15</v>
       </c>
       <c r="AR54">
-        <v>1.33</v>
+        <v>1.63</v>
       </c>
       <c r="AS54">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="AT54">
-        <v>2.72</v>
+        <v>3.07</v>
       </c>
       <c r="AU54">
         <v>7</v>
@@ -12359,25 +12359,25 @@
         <v>1.62</v>
       </c>
       <c r="AN55">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AO55">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>1.29</v>
+        <v>0.93</v>
       </c>
       <c r="AQ55">
-        <v>0.29</v>
+        <v>0.93</v>
       </c>
       <c r="AR55">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="AS55">
-        <v>1.41</v>
+        <v>1.55</v>
       </c>
       <c r="AT55">
-        <v>3.04</v>
+        <v>3.21</v>
       </c>
       <c r="AU55">
         <v>5</v>
@@ -12565,25 +12565,25 @@
         <v>1.57</v>
       </c>
       <c r="AN56">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AO56">
-        <v>0.5</v>
+        <v>1.17</v>
       </c>
       <c r="AP56">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ56">
-        <v>0.57</v>
+        <v>0.93</v>
       </c>
       <c r="AR56">
-        <v>1.56</v>
+        <v>1.46</v>
       </c>
       <c r="AS56">
-        <v>1.74</v>
+        <v>1.69</v>
       </c>
       <c r="AT56">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="AU56">
         <v>10</v>
@@ -12771,25 +12771,25 @@
         <v>1.71</v>
       </c>
       <c r="AN57">
-        <v>0.25</v>
+        <v>0.71</v>
       </c>
       <c r="AO57">
-        <v>0.75</v>
+        <v>1.71</v>
       </c>
       <c r="AP57">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="AQ57">
+        <v>1.64</v>
+      </c>
+      <c r="AR57">
         <v>1.29</v>
       </c>
-      <c r="AR57">
-        <v>1.2</v>
-      </c>
       <c r="AS57">
-        <v>0.96</v>
+        <v>1.19</v>
       </c>
       <c r="AT57">
-        <v>2.16</v>
+        <v>2.48</v>
       </c>
       <c r="AU57">
         <v>2</v>
@@ -12977,25 +12977,25 @@
         <v>1.97</v>
       </c>
       <c r="AN58">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AO58">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AP58">
-        <v>1.5</v>
+        <v>1.15</v>
       </c>
       <c r="AQ58">
-        <v>0.88</v>
+        <v>1.21</v>
       </c>
       <c r="AR58">
         <v>1.49</v>
       </c>
       <c r="AS58">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="AT58">
-        <v>2.94</v>
+        <v>2.99</v>
       </c>
       <c r="AU58">
         <v>4</v>
@@ -13183,25 +13183,25 @@
         <v>1.55</v>
       </c>
       <c r="AN59">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AO59">
-        <v>0.33</v>
+        <v>1.14</v>
       </c>
       <c r="AP59">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ59">
-        <v>1.43</v>
+        <v>1.86</v>
       </c>
       <c r="AR59">
-        <v>1.1</v>
+        <v>1.52</v>
       </c>
       <c r="AS59">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="AT59">
-        <v>2.42</v>
+        <v>2.86</v>
       </c>
       <c r="AU59">
         <v>4</v>
@@ -13389,25 +13389,25 @@
         <v>1.94</v>
       </c>
       <c r="AN60">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AO60">
-        <v>1.33</v>
+        <v>1.71</v>
       </c>
       <c r="AP60">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AQ60">
-        <v>1.57</v>
+        <v>1.79</v>
       </c>
       <c r="AR60">
-        <v>2.26</v>
+        <v>1.89</v>
       </c>
       <c r="AS60">
-        <v>1.3</v>
+        <v>1.66</v>
       </c>
       <c r="AT60">
-        <v>3.56</v>
+        <v>3.55</v>
       </c>
       <c r="AU60">
         <v>2</v>
@@ -13595,25 +13595,25 @@
         <v>1.3</v>
       </c>
       <c r="AN61">
-        <v>1.25</v>
+        <v>0.86</v>
       </c>
       <c r="AO61">
-        <v>1</v>
+        <v>1.71</v>
       </c>
       <c r="AP61">
-        <v>1.14</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ61">
-        <v>0.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR61">
-        <v>1.46</v>
+        <v>1.06</v>
       </c>
       <c r="AS61">
-        <v>1.92</v>
+        <v>1.82</v>
       </c>
       <c r="AT61">
-        <v>3.38</v>
+        <v>2.88</v>
       </c>
       <c r="AU61">
         <v>5</v>
@@ -13801,25 +13801,25 @@
         <v>1.83</v>
       </c>
       <c r="AN62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO62">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="AP62">
-        <v>2.17</v>
+        <v>1.69</v>
       </c>
       <c r="AQ62">
-        <v>1.14</v>
+        <v>1.29</v>
       </c>
       <c r="AR62">
-        <v>1.79</v>
+        <v>1.63</v>
       </c>
       <c r="AS62">
-        <v>1.94</v>
+        <v>1.62</v>
       </c>
       <c r="AT62">
-        <v>3.73</v>
+        <v>3.25</v>
       </c>
       <c r="AU62">
         <v>10</v>
@@ -14007,25 +14007,25 @@
         <v>1.53</v>
       </c>
       <c r="AN63">
-        <v>0.67</v>
+        <v>0.43</v>
       </c>
       <c r="AO63">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AP63">
-        <v>1.57</v>
+        <v>0.93</v>
       </c>
       <c r="AQ63">
-        <v>2.13</v>
+        <v>1.86</v>
       </c>
       <c r="AR63">
-        <v>1.75</v>
+        <v>1.47</v>
       </c>
       <c r="AS63">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AT63">
-        <v>3.25</v>
+        <v>3.27</v>
       </c>
       <c r="AU63">
         <v>13</v>
@@ -14213,25 +14213,25 @@
         <v>1.75</v>
       </c>
       <c r="AN64">
-        <v>1.75</v>
+        <v>1.38</v>
       </c>
       <c r="AO64">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="AP64">
-        <v>2.29</v>
+        <v>1.86</v>
       </c>
       <c r="AQ64">
-        <v>0.29</v>
+        <v>0.93</v>
       </c>
       <c r="AR64">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="AS64">
-        <v>1.33</v>
+        <v>1.62</v>
       </c>
       <c r="AT64">
-        <v>2.68</v>
+        <v>2.98</v>
       </c>
       <c r="AU64">
         <v>10</v>
@@ -14419,25 +14419,25 @@
         <v>1.27</v>
       </c>
       <c r="AN65">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AO65">
-        <v>1.75</v>
+        <v>1.38</v>
       </c>
       <c r="AP65">
-        <v>1.29</v>
+        <v>0.93</v>
       </c>
       <c r="AQ65">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AR65">
-        <v>1.68</v>
+        <v>1.58</v>
       </c>
       <c r="AS65">
-        <v>1.61</v>
+        <v>1.8</v>
       </c>
       <c r="AT65">
-        <v>3.29</v>
+        <v>3.38</v>
       </c>
       <c r="AU65">
         <v>7</v>
@@ -14625,25 +14625,25 @@
         <v>1.58</v>
       </c>
       <c r="AN66">
-        <v>1.33</v>
+        <v>0.88</v>
       </c>
       <c r="AO66">
-        <v>1.5</v>
+        <v>1.86</v>
       </c>
       <c r="AP66">
-        <v>1.67</v>
+        <v>1.21</v>
       </c>
       <c r="AQ66">
-        <v>1.29</v>
+        <v>1.69</v>
       </c>
       <c r="AR66">
-        <v>1.59</v>
+        <v>1.51</v>
       </c>
       <c r="AS66">
-        <v>1.54</v>
+        <v>1.68</v>
       </c>
       <c r="AT66">
-        <v>3.13</v>
+        <v>3.19</v>
       </c>
       <c r="AU66">
         <v>8</v>
@@ -14837,19 +14837,19 @@
         <v>1.25</v>
       </c>
       <c r="AP67">
-        <v>1.5</v>
+        <v>1.86</v>
       </c>
       <c r="AQ67">
-        <v>0.86</v>
+        <v>1.15</v>
       </c>
       <c r="AR67">
-        <v>2.39</v>
+        <v>1.84</v>
       </c>
       <c r="AS67">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="AT67">
-        <v>3.88</v>
+        <v>3.28</v>
       </c>
       <c r="AU67">
         <v>13</v>
@@ -15037,25 +15037,25 @@
         <v>2</v>
       </c>
       <c r="AN68">
-        <v>3</v>
+        <v>1.88</v>
       </c>
       <c r="AO68">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AP68">
-        <v>2</v>
+        <v>1.64</v>
       </c>
       <c r="AQ68">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="AR68">
-        <v>1.49</v>
+        <v>1.16</v>
       </c>
       <c r="AS68">
-        <v>1.94</v>
+        <v>1.47</v>
       </c>
       <c r="AT68">
-        <v>3.43</v>
+        <v>2.63</v>
       </c>
       <c r="AU68">
         <v>3</v>
@@ -15243,25 +15243,25 @@
         <v>2.2</v>
       </c>
       <c r="AN69">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="AO69">
-        <v>1.33</v>
+        <v>0.63</v>
       </c>
       <c r="AP69">
-        <v>2.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ69">
-        <v>0.67</v>
+        <v>0.64</v>
       </c>
       <c r="AR69">
-        <v>1.74</v>
+        <v>2.03</v>
       </c>
       <c r="AS69">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="AT69">
-        <v>3.14</v>
+        <v>3.32</v>
       </c>
       <c r="AU69">
         <v>9</v>
@@ -15449,25 +15449,25 @@
         <v>2.6</v>
       </c>
       <c r="AN70">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AO70">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AP70">
-        <v>2</v>
+        <v>1.79</v>
       </c>
       <c r="AQ70">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR70">
-        <v>1.92</v>
+        <v>1.6</v>
       </c>
       <c r="AS70">
-        <v>1.25</v>
+        <v>1.52</v>
       </c>
       <c r="AT70">
-        <v>3.17</v>
+        <v>3.12</v>
       </c>
       <c r="AU70">
         <v>10</v>
@@ -15655,25 +15655,25 @@
         <v>2.2</v>
       </c>
       <c r="AN71">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AO71">
-        <v>0.33</v>
+        <v>1.13</v>
       </c>
       <c r="AP71">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
       <c r="AQ71">
-        <v>0.17</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR71">
-        <v>1.38</v>
+        <v>1.66</v>
       </c>
       <c r="AS71">
-        <v>0.45</v>
+        <v>1.09</v>
       </c>
       <c r="AT71">
-        <v>1.83</v>
+        <v>2.75</v>
       </c>
       <c r="AU71">
         <v>12</v>
@@ -15861,25 +15861,25 @@
         <v>1.09</v>
       </c>
       <c r="AN72">
-        <v>1</v>
+        <v>1.56</v>
       </c>
       <c r="AO72">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AP72">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AQ72">
-        <v>0.86</v>
+        <v>1.15</v>
       </c>
       <c r="AR72">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AS72">
-        <v>1.52</v>
+        <v>1.46</v>
       </c>
       <c r="AT72">
-        <v>3.52</v>
+        <v>3.35</v>
       </c>
       <c r="AU72">
         <v>7</v>
@@ -16067,25 +16067,25 @@
         <v>1.35</v>
       </c>
       <c r="AN73">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="AO73">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AP73">
-        <v>1.14</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ73">
-        <v>1.57</v>
+        <v>1.79</v>
       </c>
       <c r="AR73">
-        <v>1.41</v>
+        <v>1.07</v>
       </c>
       <c r="AS73">
-        <v>1.27</v>
+        <v>1.62</v>
       </c>
       <c r="AT73">
-        <v>2.68</v>
+        <v>2.69</v>
       </c>
       <c r="AU73">
         <v>7</v>
@@ -16273,25 +16273,25 @@
         <v>1.88</v>
       </c>
       <c r="AN74">
-        <v>2.33</v>
+        <v>1.63</v>
       </c>
       <c r="AO74">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AP74">
-        <v>2.17</v>
+        <v>1.69</v>
       </c>
       <c r="AQ74">
-        <v>2.13</v>
+        <v>1.86</v>
       </c>
       <c r="AR74">
-        <v>1.87</v>
+        <v>1.66</v>
       </c>
       <c r="AS74">
-        <v>1.62</v>
+        <v>1.94</v>
       </c>
       <c r="AT74">
-        <v>3.49</v>
+        <v>3.6</v>
       </c>
       <c r="AU74">
         <v>8</v>
@@ -16479,25 +16479,25 @@
         <v>1.85</v>
       </c>
       <c r="AN75">
-        <v>2.4</v>
+        <v>1.67</v>
       </c>
       <c r="AO75">
-        <v>0.6</v>
+        <v>1.11</v>
       </c>
       <c r="AP75">
-        <v>2.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ75">
-        <v>0.88</v>
+        <v>1.21</v>
       </c>
       <c r="AR75">
-        <v>1.76</v>
+        <v>2.01</v>
       </c>
       <c r="AS75">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AT75">
-        <v>3.24</v>
+        <v>3.54</v>
       </c>
       <c r="AU75">
         <v>7</v>
@@ -16685,25 +16685,25 @@
         <v>1.52</v>
       </c>
       <c r="AN76">
-        <v>1.8</v>
+        <v>1.13</v>
       </c>
       <c r="AO76">
-        <v>1</v>
+        <v>1.56</v>
       </c>
       <c r="AP76">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ76">
-        <v>1.43</v>
+        <v>1.86</v>
       </c>
       <c r="AR76">
-        <v>1.63</v>
+        <v>1.49</v>
       </c>
       <c r="AS76">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="AT76">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="AU76">
         <v>3</v>
@@ -16891,25 +16891,25 @@
         <v>1.52</v>
       </c>
       <c r="AN77">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AO77">
-        <v>1.25</v>
+        <v>1.56</v>
       </c>
       <c r="AP77">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ77">
-        <v>1.14</v>
+        <v>1.29</v>
       </c>
       <c r="AR77">
-        <v>1.11</v>
+        <v>1.4</v>
       </c>
       <c r="AS77">
-        <v>1.94</v>
+        <v>1.75</v>
       </c>
       <c r="AT77">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="AU77">
         <v>7</v>
@@ -17097,25 +17097,25 @@
         <v>1.65</v>
       </c>
       <c r="AN78">
-        <v>0.2</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AO78">
-        <v>0.33</v>
+        <v>0.88</v>
       </c>
       <c r="AP78">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="AQ78">
-        <v>0.57</v>
+        <v>0.93</v>
       </c>
       <c r="AR78">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="AS78">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT78">
-        <v>2.6</v>
+        <v>2.79</v>
       </c>
       <c r="AU78">
         <v>7</v>
@@ -17303,25 +17303,25 @@
         <v>1.35</v>
       </c>
       <c r="AN79">
-        <v>1.25</v>
+        <v>0.67</v>
       </c>
       <c r="AO79">
-        <v>1.2</v>
+        <v>1.78</v>
       </c>
       <c r="AP79">
-        <v>1.57</v>
+        <v>0.93</v>
       </c>
       <c r="AQ79">
-        <v>1.29</v>
+        <v>1.64</v>
       </c>
       <c r="AR79">
-        <v>2.01</v>
+        <v>1.52</v>
       </c>
       <c r="AS79">
-        <v>0.97</v>
+        <v>1.17</v>
       </c>
       <c r="AT79">
-        <v>2.98</v>
+        <v>2.69</v>
       </c>
       <c r="AU79">
         <v>4</v>
@@ -17509,25 +17509,25 @@
         <v>1.95</v>
       </c>
       <c r="AN80">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="AO80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP80">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
       <c r="AQ80">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR80">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="AS80">
-        <v>1.26</v>
+        <v>1.44</v>
       </c>
       <c r="AT80">
-        <v>2.86</v>
+        <v>3.19</v>
       </c>
       <c r="AU80">
         <v>4</v>
@@ -17715,25 +17715,25 @@
         <v>1.95</v>
       </c>
       <c r="AN81">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AO81">
         <v>1.2</v>
       </c>
       <c r="AP81">
-        <v>1.5</v>
+        <v>1.86</v>
       </c>
       <c r="AQ81">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="AR81">
-        <v>2.48</v>
+        <v>1.92</v>
       </c>
       <c r="AS81">
-        <v>1.69</v>
+        <v>1.41</v>
       </c>
       <c r="AT81">
-        <v>4.17</v>
+        <v>3.33</v>
       </c>
       <c r="AU81">
         <v>8</v>
@@ -17921,25 +17921,25 @@
         <v>1.72</v>
       </c>
       <c r="AN82">
-        <v>1.2</v>
+        <v>0.78</v>
       </c>
       <c r="AO82">
-        <v>0.25</v>
+        <v>0.9</v>
       </c>
       <c r="AP82">
-        <v>1.29</v>
+        <v>0.93</v>
       </c>
       <c r="AQ82">
-        <v>0.17</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR82">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AS82">
-        <v>0.62</v>
+        <v>1.19</v>
       </c>
       <c r="AT82">
-        <v>2.26</v>
+        <v>2.69</v>
       </c>
       <c r="AU82">
         <v>5</v>
@@ -18127,25 +18127,25 @@
         <v>1.72</v>
       </c>
       <c r="AN83">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="AO83">
-        <v>1.2</v>
+        <v>1.44</v>
       </c>
       <c r="AP83">
-        <v>2</v>
+        <v>1.64</v>
       </c>
       <c r="AQ83">
-        <v>1.29</v>
+        <v>1.69</v>
       </c>
       <c r="AR83">
-        <v>1.42</v>
+        <v>1.26</v>
       </c>
       <c r="AS83">
-        <v>1.53</v>
+        <v>1.68</v>
       </c>
       <c r="AT83">
-        <v>2.95</v>
+        <v>2.94</v>
       </c>
       <c r="AU83">
         <v>15</v>
@@ -18333,25 +18333,25 @@
         <v>2</v>
       </c>
       <c r="AN84">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="AO84">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AP84">
-        <v>2.29</v>
+        <v>1.86</v>
       </c>
       <c r="AQ84">
-        <v>0.67</v>
+        <v>0.64</v>
       </c>
       <c r="AR84">
         <v>1.53</v>
       </c>
       <c r="AS84">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AT84">
-        <v>2.78</v>
+        <v>2.81</v>
       </c>
       <c r="AU84">
         <v>8</v>
@@ -18539,25 +18539,25 @@
         <v>1.27</v>
       </c>
       <c r="AN85">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="AO85">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="AP85">
-        <v>1.67</v>
+        <v>1.21</v>
       </c>
       <c r="AQ85">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AR85">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AS85">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="AT85">
-        <v>3.41</v>
+        <v>3.43</v>
       </c>
       <c r="AU85">
         <v>6</v>
@@ -18745,25 +18745,25 @@
         <v>1.67</v>
       </c>
       <c r="AN86">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AO86">
-        <v>0.75</v>
+        <v>1.8</v>
       </c>
       <c r="AP86">
-        <v>2</v>
+        <v>1.79</v>
       </c>
       <c r="AQ86">
-        <v>0.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR86">
-        <v>1.91</v>
+        <v>1.63</v>
       </c>
       <c r="AS86">
-        <v>2.31</v>
+        <v>1.98</v>
       </c>
       <c r="AT86">
-        <v>4.22</v>
+        <v>3.61</v>
       </c>
       <c r="AU86">
         <v>9</v>
@@ -18951,25 +18951,25 @@
         <v>2.02</v>
       </c>
       <c r="AN87">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="AO87">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="AP87">
-        <v>1.5</v>
+        <v>1.15</v>
       </c>
       <c r="AQ87">
-        <v>0.29</v>
+        <v>0.93</v>
       </c>
       <c r="AR87">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="AS87">
-        <v>1.22</v>
+        <v>1.56</v>
       </c>
       <c r="AT87">
-        <v>2.6</v>
+        <v>2.98</v>
       </c>
       <c r="AU87">
         <v>10</v>
@@ -19157,25 +19157,25 @@
         <v>2.3</v>
       </c>
       <c r="AN88">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="AO88">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="AP88">
-        <v>1.5</v>
+        <v>1.86</v>
       </c>
       <c r="AQ88">
-        <v>0.57</v>
+        <v>0.93</v>
       </c>
       <c r="AR88">
-        <v>2.39</v>
+        <v>1.94</v>
       </c>
       <c r="AS88">
-        <v>1.27</v>
+        <v>1.48</v>
       </c>
       <c r="AT88">
-        <v>3.66</v>
+        <v>3.42</v>
       </c>
       <c r="AU88">
         <v>3</v>
@@ -19363,25 +19363,25 @@
         <v>1.55</v>
       </c>
       <c r="AN89">
+        <v>1</v>
+      </c>
+      <c r="AO89">
+        <v>0.91</v>
+      </c>
+      <c r="AP89">
+        <v>1</v>
+      </c>
+      <c r="AQ89">
+        <v>1.21</v>
+      </c>
+      <c r="AR89">
         <v>1.5</v>
       </c>
-      <c r="AO89">
-        <v>0.5</v>
-      </c>
-      <c r="AP89">
-        <v>1.25</v>
-      </c>
-      <c r="AQ89">
-        <v>0.88</v>
-      </c>
-      <c r="AR89">
-        <v>1.53</v>
-      </c>
       <c r="AS89">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="AT89">
-        <v>3.02</v>
+        <v>3</v>
       </c>
       <c r="AU89">
         <v>5</v>
@@ -19569,25 +19569,25 @@
         <v>1.72</v>
       </c>
       <c r="AN90">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="AO90">
-        <v>2.17</v>
+        <v>1.91</v>
       </c>
       <c r="AP90">
-        <v>2</v>
+        <v>1.64</v>
       </c>
       <c r="AQ90">
-        <v>2.13</v>
+        <v>1.86</v>
       </c>
       <c r="AR90">
-        <v>1.67</v>
+        <v>1.39</v>
       </c>
       <c r="AS90">
-        <v>1.64</v>
+        <v>1.88</v>
       </c>
       <c r="AT90">
-        <v>3.31</v>
+        <v>3.27</v>
       </c>
       <c r="AU90">
         <v>7</v>
@@ -19775,25 +19775,25 @@
         <v>1.53</v>
       </c>
       <c r="AN91">
-        <v>1.6</v>
+        <v>0.91</v>
       </c>
       <c r="AO91">
-        <v>1</v>
+        <v>1.36</v>
       </c>
       <c r="AP91">
-        <v>1.57</v>
+        <v>0.93</v>
       </c>
       <c r="AQ91">
-        <v>1.14</v>
+        <v>1.29</v>
       </c>
       <c r="AR91">
-        <v>1.98</v>
+        <v>1.51</v>
       </c>
       <c r="AS91">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="AT91">
-        <v>3.88</v>
+        <v>3.32</v>
       </c>
       <c r="AU91">
         <v>4</v>
@@ -19981,25 +19981,25 @@
         <v>1.33</v>
       </c>
       <c r="AN92">
-        <v>0.67</v>
+        <v>0.73</v>
       </c>
       <c r="AO92">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="AP92">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="AQ92">
-        <v>1.57</v>
+        <v>1.79</v>
       </c>
       <c r="AR92">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="AS92">
-        <v>1.35</v>
+        <v>1.61</v>
       </c>
       <c r="AT92">
-        <v>2.65</v>
+        <v>2.87</v>
       </c>
       <c r="AU92">
         <v>8</v>
@@ -20187,25 +20187,25 @@
         <v>2.49</v>
       </c>
       <c r="AN93">
-        <v>2.5</v>
+        <v>1.64</v>
       </c>
       <c r="AO93">
-        <v>0.2</v>
+        <v>0.91</v>
       </c>
       <c r="AP93">
-        <v>2.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ93">
-        <v>0.57</v>
+        <v>0.93</v>
       </c>
       <c r="AR93">
-        <v>1.76</v>
+        <v>1.92</v>
       </c>
       <c r="AS93">
-        <v>1.4</v>
+        <v>1.51</v>
       </c>
       <c r="AT93">
-        <v>3.16</v>
+        <v>3.43</v>
       </c>
       <c r="AU93">
         <v>6</v>
@@ -20393,25 +20393,25 @@
         <v>2.3</v>
       </c>
       <c r="AN94">
-        <v>1.4</v>
+        <v>1.82</v>
       </c>
       <c r="AO94">
-        <v>1.4</v>
+        <v>1.82</v>
       </c>
       <c r="AP94">
+        <v>1.93</v>
+      </c>
+      <c r="AQ94">
         <v>1.86</v>
       </c>
-      <c r="AQ94">
-        <v>1.43</v>
-      </c>
       <c r="AR94">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="AS94">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="AT94">
-        <v>3.53</v>
+        <v>3.51</v>
       </c>
       <c r="AU94">
         <v>7</v>
@@ -20599,25 +20599,25 @@
         <v>2.13</v>
       </c>
       <c r="AN95">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AO95">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="AP95">
-        <v>2.17</v>
+        <v>1.69</v>
       </c>
       <c r="AQ95">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR95">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AS95">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="AT95">
-        <v>3.33</v>
+        <v>3.15</v>
       </c>
       <c r="AU95">
         <v>7</v>
@@ -20805,25 +20805,25 @@
         <v>1.54</v>
       </c>
       <c r="AN96">
-        <v>2.17</v>
+        <v>1.67</v>
       </c>
       <c r="AO96">
-        <v>0.6</v>
+        <v>1.75</v>
       </c>
       <c r="AP96">
-        <v>2.29</v>
+        <v>1.86</v>
       </c>
       <c r="AQ96">
-        <v>0.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR96">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="AS96">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="AT96">
-        <v>3.67</v>
+        <v>3.45</v>
       </c>
       <c r="AU96">
         <v>4</v>
@@ -21011,25 +21011,25 @@
         <v>1.9</v>
       </c>
       <c r="AN97">
-        <v>1.4</v>
+        <v>0.92</v>
       </c>
       <c r="AO97">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AP97">
-        <v>1.67</v>
+        <v>1.21</v>
       </c>
       <c r="AQ97">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="AR97">
         <v>1.52</v>
       </c>
       <c r="AS97">
-        <v>1.52</v>
+        <v>1.35</v>
       </c>
       <c r="AT97">
-        <v>3.04</v>
+        <v>2.87</v>
       </c>
       <c r="AU97">
         <v>5</v>
@@ -21217,25 +21217,25 @@
         <v>1.33</v>
       </c>
       <c r="AN98">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AO98">
-        <v>2.17</v>
+        <v>1.92</v>
       </c>
       <c r="AP98">
-        <v>1.5</v>
+        <v>1.86</v>
       </c>
       <c r="AQ98">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AR98">
-        <v>2.17</v>
+        <v>1.81</v>
       </c>
       <c r="AS98">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="AT98">
-        <v>4.1</v>
+        <v>3.73</v>
       </c>
       <c r="AU98">
         <v>8</v>
@@ -21423,25 +21423,25 @@
         <v>1.4</v>
       </c>
       <c r="AN99">
-        <v>1.33</v>
+        <v>0.83</v>
       </c>
       <c r="AO99">
-        <v>1.5</v>
+        <v>1.73</v>
       </c>
       <c r="AP99">
-        <v>1.57</v>
+        <v>0.93</v>
       </c>
       <c r="AQ99">
-        <v>1.29</v>
+        <v>1.69</v>
       </c>
       <c r="AR99">
-        <v>1.79</v>
+        <v>1.47</v>
       </c>
       <c r="AS99">
-        <v>1.54</v>
+        <v>1.68</v>
       </c>
       <c r="AT99">
-        <v>3.33</v>
+        <v>3.15</v>
       </c>
       <c r="AU99">
         <v>9</v>
@@ -21629,25 +21629,25 @@
         <v>1.84</v>
       </c>
       <c r="AN100">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AO100">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AP100">
-        <v>1.5</v>
+        <v>1.15</v>
       </c>
       <c r="AQ100">
-        <v>0.67</v>
+        <v>0.64</v>
       </c>
       <c r="AR100">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="AS100">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="AT100">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="AU100">
         <v>9</v>
@@ -21835,25 +21835,25 @@
         <v>1.53</v>
       </c>
       <c r="AN101">
-        <v>1.33</v>
+        <v>0.82</v>
       </c>
       <c r="AO101">
-        <v>0.2</v>
+        <v>0.92</v>
       </c>
       <c r="AP101">
-        <v>1.14</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ101">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR101">
-        <v>1.53</v>
+        <v>1.22</v>
       </c>
       <c r="AS101">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="AT101">
-        <v>2.97</v>
+        <v>2.69</v>
       </c>
       <c r="AU101">
         <v>10</v>
@@ -22041,25 +22041,25 @@
         <v>1.8</v>
       </c>
       <c r="AN102">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AO102">
-        <v>1</v>
+        <v>1.42</v>
       </c>
       <c r="AP102">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
       <c r="AQ102">
-        <v>1.29</v>
+        <v>1.64</v>
       </c>
       <c r="AR102">
-        <v>1.74</v>
+        <v>1.86</v>
       </c>
       <c r="AS102">
-        <v>1.15</v>
+        <v>1.39</v>
       </c>
       <c r="AT102">
-        <v>2.89</v>
+        <v>3.25</v>
       </c>
       <c r="AU102">
         <v>7</v>
@@ -22247,25 +22247,25 @@
         <v>2.83</v>
       </c>
       <c r="AN103">
-        <v>2.33</v>
+        <v>2.08</v>
       </c>
       <c r="AO103">
-        <v>0.17</v>
+        <v>0.83</v>
       </c>
       <c r="AP103">
-        <v>2</v>
+        <v>1.79</v>
       </c>
       <c r="AQ103">
-        <v>0.57</v>
+        <v>0.93</v>
       </c>
       <c r="AR103">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AS103">
-        <v>1.34</v>
+        <v>1.48</v>
       </c>
       <c r="AT103">
-        <v>3.17</v>
+        <v>3.22</v>
       </c>
       <c r="AU103">
         <v>3</v>
@@ -22453,25 +22453,25 @@
         <v>1.5</v>
       </c>
       <c r="AN104">
-        <v>1.83</v>
+        <v>1.54</v>
       </c>
       <c r="AO104">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AP104">
-        <v>2</v>
+        <v>1.64</v>
       </c>
       <c r="AQ104">
-        <v>1.57</v>
+        <v>1.79</v>
       </c>
       <c r="AR104">
-        <v>1.63</v>
+        <v>1.35</v>
       </c>
       <c r="AS104">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="AT104">
-        <v>3.27</v>
+        <v>3.06</v>
       </c>
       <c r="AU104">
         <v>8</v>
@@ -22659,25 +22659,25 @@
         <v>1.59</v>
       </c>
       <c r="AN105">
-        <v>0.71</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AO105">
-        <v>0.57</v>
+        <v>1.08</v>
       </c>
       <c r="AP105">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="AQ105">
-        <v>0.88</v>
+        <v>1.21</v>
       </c>
       <c r="AR105">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AS105">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="AT105">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="AU105">
         <v>6</v>
@@ -22865,25 +22865,25 @@
         <v>1.73</v>
       </c>
       <c r="AN106">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AO106">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AP106">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ106">
-        <v>0.29</v>
+        <v>0.93</v>
       </c>
       <c r="AR106">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="AS106">
-        <v>1.2</v>
+        <v>1.51</v>
       </c>
       <c r="AT106">
-        <v>2.39</v>
+        <v>2.78</v>
       </c>
       <c r="AU106">
         <v>6</v>
@@ -23071,25 +23071,25 @@
         <v>1.82</v>
       </c>
       <c r="AN107">
-        <v>2</v>
+        <v>1.58</v>
       </c>
       <c r="AO107">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AP107">
-        <v>2.17</v>
+        <v>1.69</v>
       </c>
       <c r="AQ107">
-        <v>0.86</v>
+        <v>1.15</v>
       </c>
       <c r="AR107">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="AS107">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="AT107">
-        <v>3.31</v>
+        <v>3.34</v>
       </c>
       <c r="AU107">
         <v>6</v>
@@ -23277,25 +23277,25 @@
         <v>3.82</v>
       </c>
       <c r="AN108">
-        <v>1.67</v>
+        <v>1.85</v>
       </c>
       <c r="AO108">
-        <v>0.2</v>
+        <v>0.75</v>
       </c>
       <c r="AP108">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AQ108">
-        <v>0.17</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR108">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="AS108">
-        <v>0.83</v>
+        <v>1.31</v>
       </c>
       <c r="AT108">
-        <v>2.74</v>
+        <v>3.21</v>
       </c>
       <c r="AU108">
         <v>12</v>
@@ -23483,25 +23483,25 @@
         <v>1.36</v>
       </c>
       <c r="AN109">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AO109">
-        <v>1.17</v>
+        <v>1.77</v>
       </c>
       <c r="AP109">
-        <v>1.29</v>
+        <v>0.93</v>
       </c>
       <c r="AQ109">
-        <v>1.43</v>
+        <v>1.86</v>
       </c>
       <c r="AR109">
-        <v>1.59</v>
+        <v>1.45</v>
       </c>
       <c r="AS109">
         <v>1.52</v>
       </c>
       <c r="AT109">
-        <v>3.11</v>
+        <v>2.97</v>
       </c>
       <c r="AU109">
         <v>3</v>
@@ -23689,25 +23689,25 @@
         <v>1.83</v>
       </c>
       <c r="AN110">
-        <v>2.57</v>
+        <v>1.62</v>
       </c>
       <c r="AO110">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AP110">
-        <v>2.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ110">
-        <v>1.14</v>
+        <v>1.29</v>
       </c>
       <c r="AR110">
-        <v>1.76</v>
+        <v>1.85</v>
       </c>
       <c r="AS110">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="AT110">
-        <v>3.74</v>
+        <v>3.72</v>
       </c>
       <c r="AU110">
         <v>8</v>
@@ -23895,25 +23895,25 @@
         <v>1.45</v>
       </c>
       <c r="AN111">
-        <v>1.43</v>
+        <v>1.08</v>
       </c>
       <c r="AO111">
-        <v>2</v>
+        <v>1.77</v>
       </c>
       <c r="AP111">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ111">
-        <v>2.13</v>
+        <v>1.86</v>
       </c>
       <c r="AR111">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="AS111">
-        <v>1.56</v>
+        <v>1.81</v>
       </c>
       <c r="AT111">
-        <v>3.05</v>
+        <v>3.29</v>
       </c>
       <c r="AU111">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
@@ -1447,10 +1447,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.71</v>
+        <v>2.63</v>
       </c>
       <c r="AQ2">
-        <v>0.93</v>
+        <v>0.29</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1653,10 +1653,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.79</v>
+        <v>2</v>
       </c>
       <c r="AQ3">
-        <v>1.21</v>
+        <v>0.88</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1859,10 +1859,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="AQ4">
-        <v>1.64</v>
+        <v>1.29</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2065,10 +2065,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="AQ5">
-        <v>1.69</v>
+        <v>1.29</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2271,10 +2271,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.93</v>
+        <v>1.29</v>
       </c>
       <c r="AQ6">
-        <v>1.15</v>
+        <v>0.86</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2477,10 +2477,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ7">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2683,10 +2683,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.6899999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="AQ8">
-        <v>1.86</v>
+        <v>2.13</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2889,10 +2889,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.86</v>
+        <v>2.29</v>
       </c>
       <c r="AQ9">
-        <v>1.29</v>
+        <v>1.14</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3092,22 +3092,22 @@
         <v>0</v>
       </c>
       <c r="AO10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.93</v>
+        <v>1.57</v>
       </c>
       <c r="AQ10">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR10">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="AT10">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="AU10">
         <v>6</v>
@@ -3295,25 +3295,25 @@
         <v>1.13</v>
       </c>
       <c r="AN11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ11">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR11">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.14</v>
+        <v>0</v>
       </c>
       <c r="AT11">
-        <v>3.88</v>
+        <v>0</v>
       </c>
       <c r="AU11">
         <v>4</v>
@@ -3507,19 +3507,19 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.21</v>
+        <v>1.67</v>
       </c>
       <c r="AQ12">
-        <v>0.6899999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="AR12">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="AT12">
-        <v>3.27</v>
+        <v>0</v>
       </c>
       <c r="AU12">
         <v>6</v>
@@ -3707,25 +3707,25 @@
         <v>1.85</v>
       </c>
       <c r="AN13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.69</v>
+        <v>2.17</v>
       </c>
       <c r="AQ13">
-        <v>1.71</v>
+        <v>0.5</v>
       </c>
       <c r="AR13">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="AT13">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="AU13">
         <v>7</v>
@@ -3913,25 +3913,25 @@
         <v>1.65</v>
       </c>
       <c r="AN14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.15</v>
+        <v>1.5</v>
       </c>
       <c r="AQ14">
-        <v>1.86</v>
+        <v>1.43</v>
       </c>
       <c r="AR14">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="AT14">
-        <v>2.24</v>
+        <v>0</v>
       </c>
       <c r="AU14">
         <v>9</v>
@@ -4119,25 +4119,25 @@
         <v>2.3</v>
       </c>
       <c r="AN15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.64</v>
+        <v>2</v>
       </c>
       <c r="AQ15">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR15">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AT15">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="AU15">
         <v>9</v>
@@ -4328,22 +4328,22 @@
         <v>0</v>
       </c>
       <c r="AO16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.29</v>
+        <v>1.43</v>
       </c>
       <c r="AQ16">
-        <v>1.79</v>
+        <v>1.57</v>
       </c>
       <c r="AR16">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="AT16">
-        <v>1.99</v>
+        <v>0</v>
       </c>
       <c r="AU16">
         <v>3</v>
@@ -4531,25 +4531,25 @@
         <v>2.2</v>
       </c>
       <c r="AN17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP17">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="AQ17">
-        <v>1.69</v>
+        <v>1.29</v>
       </c>
       <c r="AR17">
-        <v>1.99</v>
+        <v>2.14</v>
       </c>
       <c r="AS17">
-        <v>0.99</v>
+        <v>0.85</v>
       </c>
       <c r="AT17">
-        <v>2.98</v>
+        <v>2.99</v>
       </c>
       <c r="AU17">
         <v>11</v>
@@ -4737,25 +4737,25 @@
         <v>2.1</v>
       </c>
       <c r="AN18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO18">
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>1.79</v>
+        <v>2</v>
       </c>
       <c r="AQ18">
-        <v>1.86</v>
+        <v>2.13</v>
       </c>
       <c r="AR18">
-        <v>1.6</v>
+        <v>1.34</v>
       </c>
       <c r="AS18">
         <v>1.83</v>
       </c>
       <c r="AT18">
-        <v>3.43</v>
+        <v>3.17</v>
       </c>
       <c r="AU18">
         <v>10</v>
@@ -4943,25 +4943,25 @@
         <v>1.83</v>
       </c>
       <c r="AN19">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP19">
-        <v>1.71</v>
+        <v>2.63</v>
       </c>
       <c r="AQ19">
-        <v>1.15</v>
+        <v>0.86</v>
       </c>
       <c r="AR19">
-        <v>1.18</v>
+        <v>1.35</v>
       </c>
       <c r="AS19">
-        <v>1.39</v>
+        <v>1.11</v>
       </c>
       <c r="AT19">
-        <v>2.57</v>
+        <v>2.46</v>
       </c>
       <c r="AU19">
         <v>8</v>
@@ -5149,25 +5149,25 @@
         <v>1.6</v>
       </c>
       <c r="AN20">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO20">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.86</v>
+        <v>2.29</v>
       </c>
       <c r="AQ20">
-        <v>1.21</v>
+        <v>0.88</v>
       </c>
       <c r="AR20">
-        <v>0.9399999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="AS20">
-        <v>1.39</v>
+        <v>1.53</v>
       </c>
       <c r="AT20">
-        <v>2.33</v>
+        <v>2.66</v>
       </c>
       <c r="AU20">
         <v>6</v>
@@ -5358,22 +5358,22 @@
         <v>0</v>
       </c>
       <c r="AO21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP21">
-        <v>0.6899999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="AQ21">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR21">
-        <v>1.28</v>
+        <v>1.74</v>
       </c>
       <c r="AS21">
-        <v>1.36</v>
+        <v>1.74</v>
       </c>
       <c r="AT21">
-        <v>2.64</v>
+        <v>3.48</v>
       </c>
       <c r="AU21">
         <v>5</v>
@@ -5564,22 +5564,22 @@
         <v>1</v>
       </c>
       <c r="AO22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP22">
-        <v>0.93</v>
+        <v>1.29</v>
       </c>
       <c r="AQ22">
-        <v>1.64</v>
+        <v>1.29</v>
       </c>
       <c r="AR22">
         <v>1.02</v>
       </c>
       <c r="AS22">
-        <v>1.12</v>
+        <v>0.47</v>
       </c>
       <c r="AT22">
-        <v>2.14</v>
+        <v>1.49</v>
       </c>
       <c r="AU22">
         <v>7</v>
@@ -5767,25 +5767,25 @@
         <v>1.57</v>
       </c>
       <c r="AN23">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO23">
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ23">
-        <v>0.93</v>
+        <v>0.29</v>
       </c>
       <c r="AR23">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="AS23">
-        <v>1.56</v>
+        <v>1.78</v>
       </c>
       <c r="AT23">
-        <v>2.71</v>
+        <v>2.98</v>
       </c>
       <c r="AU23">
         <v>3</v>
@@ -5973,25 +5973,25 @@
         <v>2.2</v>
       </c>
       <c r="AN24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO24">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP24">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="AQ24">
-        <v>1.29</v>
+        <v>1.14</v>
       </c>
       <c r="AR24">
-        <v>1.39</v>
+        <v>1.52</v>
       </c>
       <c r="AS24">
-        <v>0.74</v>
+        <v>0.65</v>
       </c>
       <c r="AT24">
-        <v>2.13</v>
+        <v>2.17</v>
       </c>
       <c r="AU24">
         <v>6</v>
@@ -6179,25 +6179,25 @@
         <v>2.05</v>
       </c>
       <c r="AN25">
-        <v>1.67</v>
+        <v>3</v>
       </c>
       <c r="AO25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.64</v>
+        <v>2</v>
       </c>
       <c r="AQ25">
-        <v>1.86</v>
+        <v>1.43</v>
       </c>
       <c r="AR25">
-        <v>1.13</v>
+        <v>1.76</v>
       </c>
       <c r="AS25">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AT25">
-        <v>2.13</v>
+        <v>2.51</v>
       </c>
       <c r="AU25">
         <v>10</v>
@@ -6385,25 +6385,25 @@
         <v>1.85</v>
       </c>
       <c r="AN26">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AO26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP26">
-        <v>0.93</v>
+        <v>1.57</v>
       </c>
       <c r="AQ26">
-        <v>0.6899999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="AR26">
-        <v>1.54</v>
+        <v>1.34</v>
       </c>
       <c r="AS26">
-        <v>1.28</v>
+        <v>0.83</v>
       </c>
       <c r="AT26">
-        <v>2.82</v>
+        <v>2.17</v>
       </c>
       <c r="AU26">
         <v>-1</v>
@@ -6591,25 +6591,25 @@
         <v>1.6</v>
       </c>
       <c r="AN27">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AO27">
+        <v>1</v>
+      </c>
+      <c r="AP27">
+        <v>1.5</v>
+      </c>
+      <c r="AQ27">
+        <v>1.57</v>
+      </c>
+      <c r="AR27">
         <v>1.67</v>
       </c>
-      <c r="AP27">
-        <v>1.15</v>
-      </c>
-      <c r="AQ27">
-        <v>1.79</v>
-      </c>
-      <c r="AR27">
-        <v>1.24</v>
-      </c>
       <c r="AS27">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AT27">
-        <v>3.03</v>
+        <v>3.52</v>
       </c>
       <c r="AU27">
         <v>3</v>
@@ -6797,25 +6797,25 @@
         <v>1.44</v>
       </c>
       <c r="AN28">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AO28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ28">
-        <v>1.71</v>
+        <v>0.5</v>
       </c>
       <c r="AR28">
-        <v>1.36</v>
+        <v>0.98</v>
       </c>
       <c r="AS28">
-        <v>1.36</v>
+        <v>1</v>
       </c>
       <c r="AT28">
-        <v>2.72</v>
+        <v>1.98</v>
       </c>
       <c r="AU28">
         <v>2</v>
@@ -7003,25 +7003,25 @@
         <v>2.1</v>
       </c>
       <c r="AN29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.21</v>
+        <v>1.67</v>
       </c>
       <c r="AQ29">
-        <v>0.93</v>
+        <v>0.57</v>
       </c>
       <c r="AR29">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AS29">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="AT29">
-        <v>2.74</v>
+        <v>1.26</v>
       </c>
       <c r="AU29">
         <v>-1</v>
@@ -7209,25 +7209,25 @@
         <v>1.28</v>
       </c>
       <c r="AN30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO30">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="AP30">
-        <v>1.86</v>
+        <v>1.5</v>
       </c>
       <c r="AQ30">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR30">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="AS30">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="AT30">
-        <v>2.75</v>
+        <v>1.27</v>
       </c>
       <c r="AU30">
         <v>14</v>
@@ -7415,25 +7415,25 @@
         <v>1.28</v>
       </c>
       <c r="AN31">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AO31">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="AP31">
-        <v>1.29</v>
+        <v>1.43</v>
       </c>
       <c r="AQ31">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR31">
-        <v>1.55</v>
+        <v>0.83</v>
       </c>
       <c r="AS31">
-        <v>2.24</v>
+        <v>1.84</v>
       </c>
       <c r="AT31">
-        <v>3.79</v>
+        <v>2.67</v>
       </c>
       <c r="AU31">
         <v>6</v>
@@ -7624,22 +7624,22 @@
         <v>1.5</v>
       </c>
       <c r="AO32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.71</v>
+        <v>2.63</v>
       </c>
       <c r="AQ32">
-        <v>1.64</v>
+        <v>1.29</v>
       </c>
       <c r="AR32">
-        <v>1.74</v>
+        <v>1.53</v>
       </c>
       <c r="AS32">
-        <v>1.33</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT32">
-        <v>3.07</v>
+        <v>2.34</v>
       </c>
       <c r="AU32">
         <v>11</v>
@@ -7827,25 +7827,25 @@
         <v>1.48</v>
       </c>
       <c r="AN33">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO33">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AP33">
-        <v>0.6899999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="AQ33">
-        <v>1.15</v>
+        <v>0.86</v>
       </c>
       <c r="AR33">
-        <v>1.28</v>
+        <v>1.74</v>
       </c>
       <c r="AS33">
-        <v>1.29</v>
+        <v>1.02</v>
       </c>
       <c r="AT33">
-        <v>2.57</v>
+        <v>2.76</v>
       </c>
       <c r="AU33">
         <v>4</v>
@@ -8033,25 +8033,25 @@
         <v>2</v>
       </c>
       <c r="AN34">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO34">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AP34">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="AQ34">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR34">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AS34">
-        <v>1.11</v>
+        <v>1.74</v>
       </c>
       <c r="AT34">
-        <v>2.45</v>
+        <v>3.07</v>
       </c>
       <c r="AU34">
         <v>5</v>
@@ -8242,22 +8242,22 @@
         <v>1</v>
       </c>
       <c r="AO35">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AP35">
-        <v>0.93</v>
+        <v>1.29</v>
       </c>
       <c r="AQ35">
-        <v>1.69</v>
+        <v>1.29</v>
       </c>
       <c r="AR35">
         <v>1.41</v>
       </c>
       <c r="AS35">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="AT35">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AU35">
         <v>9</v>
@@ -8451,19 +8451,19 @@
         <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>1.79</v>
+        <v>2</v>
       </c>
       <c r="AQ36">
-        <v>0.93</v>
+        <v>0.29</v>
       </c>
       <c r="AR36">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AS36">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT36">
-        <v>3.21</v>
+        <v>3.39</v>
       </c>
       <c r="AU36">
         <v>8</v>
@@ -8651,25 +8651,25 @@
         <v>1.58</v>
       </c>
       <c r="AN37">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO37">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AP37">
-        <v>1.86</v>
+        <v>2.29</v>
       </c>
       <c r="AQ37">
-        <v>1.86</v>
+        <v>2.13</v>
       </c>
       <c r="AR37">
-        <v>1.05</v>
+        <v>1.12</v>
       </c>
       <c r="AS37">
-        <v>1.87</v>
+        <v>1.44</v>
       </c>
       <c r="AT37">
-        <v>2.92</v>
+        <v>2.56</v>
       </c>
       <c r="AU37">
         <v>7</v>
@@ -8857,25 +8857,25 @@
         <v>1.18</v>
       </c>
       <c r="AN38">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AO38">
+        <v>2</v>
+      </c>
+      <c r="AP38">
         <v>1.25</v>
       </c>
-      <c r="AP38">
-        <v>1</v>
-      </c>
       <c r="AQ38">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR38">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="AS38">
-        <v>1.91</v>
+        <v>1.37</v>
       </c>
       <c r="AT38">
-        <v>3.09</v>
+        <v>2.58</v>
       </c>
       <c r="AU38">
         <v>7</v>
@@ -9063,25 +9063,25 @@
         <v>1.58</v>
       </c>
       <c r="AN39">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AO39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP39">
-        <v>1.29</v>
+        <v>1.43</v>
       </c>
       <c r="AQ39">
-        <v>1.21</v>
+        <v>0.88</v>
       </c>
       <c r="AR39">
-        <v>1.56</v>
+        <v>1.22</v>
       </c>
       <c r="AS39">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="AT39">
-        <v>2.89</v>
+        <v>2.59</v>
       </c>
       <c r="AU39">
         <v>4</v>
@@ -9269,25 +9269,25 @@
         <v>1.66</v>
       </c>
       <c r="AN40">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AO40">
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ40">
-        <v>0.93</v>
+        <v>0.57</v>
       </c>
       <c r="AR40">
-        <v>1.49</v>
+        <v>0.79</v>
       </c>
       <c r="AS40">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="AT40">
-        <v>3.12</v>
+        <v>0.79</v>
       </c>
       <c r="AU40">
         <v>8</v>
@@ -9475,25 +9475,25 @@
         <v>1.91</v>
       </c>
       <c r="AN41">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO41">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="AQ41">
-        <v>1.71</v>
+        <v>0.5</v>
       </c>
       <c r="AR41">
-        <v>1.93</v>
+        <v>2.44</v>
       </c>
       <c r="AS41">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="AT41">
-        <v>3.78</v>
+        <v>4.39</v>
       </c>
       <c r="AU41">
         <v>9</v>
@@ -9681,25 +9681,25 @@
         <v>1.5</v>
       </c>
       <c r="AN42">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AO42">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AP42">
-        <v>0.93</v>
+        <v>1.57</v>
       </c>
       <c r="AQ42">
-        <v>1.21</v>
+        <v>0.88</v>
       </c>
       <c r="AR42">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="AS42">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="AT42">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="AU42">
         <v>10</v>
@@ -9887,25 +9887,25 @@
         <v>1.49</v>
       </c>
       <c r="AN43">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO43">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AP43">
-        <v>0.6899999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="AQ43">
-        <v>1.86</v>
+        <v>1.43</v>
       </c>
       <c r="AR43">
-        <v>1.2</v>
+        <v>1.39</v>
       </c>
       <c r="AS43">
-        <v>1.14</v>
+        <v>0.97</v>
       </c>
       <c r="AT43">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="AU43">
         <v>7</v>
@@ -10093,25 +10093,25 @@
         <v>1.5</v>
       </c>
       <c r="AN44">
+        <v>1.67</v>
+      </c>
+      <c r="AO44">
+        <v>1.5</v>
+      </c>
+      <c r="AP44">
         <v>1.25</v>
       </c>
-      <c r="AO44">
-        <v>0.8</v>
-      </c>
-      <c r="AP44">
-        <v>1</v>
-      </c>
       <c r="AQ44">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR44">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="AS44">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="AT44">
-        <v>2.58</v>
+        <v>2.65</v>
       </c>
       <c r="AU44">
         <v>12</v>
@@ -10299,25 +10299,25 @@
         <v>1.9</v>
       </c>
       <c r="AN45">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AO45">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>1.86</v>
+        <v>1.5</v>
       </c>
       <c r="AQ45">
-        <v>1.29</v>
+        <v>1.14</v>
       </c>
       <c r="AR45">
-        <v>1.71</v>
+        <v>2.74</v>
       </c>
       <c r="AS45">
-        <v>1.56</v>
+        <v>1.9</v>
       </c>
       <c r="AT45">
-        <v>3.27</v>
+        <v>4.64</v>
       </c>
       <c r="AU45">
         <v>9</v>
@@ -10505,25 +10505,25 @@
         <v>1.78</v>
       </c>
       <c r="AN46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO46">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AP46">
-        <v>1.69</v>
+        <v>2.17</v>
       </c>
       <c r="AQ46">
-        <v>1.79</v>
+        <v>1.57</v>
       </c>
       <c r="AR46">
-        <v>1.56</v>
+        <v>1.14</v>
       </c>
       <c r="AS46">
-        <v>1.71</v>
+        <v>1.58</v>
       </c>
       <c r="AT46">
-        <v>3.27</v>
+        <v>2.72</v>
       </c>
       <c r="AU46">
         <v>10</v>
@@ -10711,25 +10711,25 @@
         <v>1.8</v>
       </c>
       <c r="AN47">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AO47">
-        <v>1.6</v>
+        <v>0.67</v>
       </c>
       <c r="AP47">
-        <v>1.15</v>
+        <v>1.5</v>
       </c>
       <c r="AQ47">
-        <v>1.64</v>
+        <v>1.29</v>
       </c>
       <c r="AR47">
-        <v>1.46</v>
+        <v>1.55</v>
       </c>
       <c r="AS47">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="AT47">
-        <v>2.81</v>
+        <v>2.56</v>
       </c>
       <c r="AU47">
         <v>4</v>
@@ -10917,25 +10917,25 @@
         <v>2.05</v>
       </c>
       <c r="AN48">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AO48">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.71</v>
+        <v>2.63</v>
       </c>
       <c r="AQ48">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR48">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="AS48">
-        <v>1.47</v>
+        <v>1.11</v>
       </c>
       <c r="AT48">
-        <v>3.32</v>
+        <v>2.89</v>
       </c>
       <c r="AU48">
         <v>7</v>
@@ -11123,25 +11123,25 @@
         <v>2.2</v>
       </c>
       <c r="AN49">
-        <v>1.83</v>
+        <v>2.33</v>
       </c>
       <c r="AO49">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="AP49">
-        <v>1.79</v>
+        <v>2</v>
       </c>
       <c r="AQ49">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR49">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="AS49">
-        <v>1.53</v>
+        <v>2.18</v>
       </c>
       <c r="AT49">
-        <v>3.08</v>
+        <v>3.98</v>
       </c>
       <c r="AU49">
         <v>10</v>
@@ -11329,25 +11329,25 @@
         <v>1.35</v>
       </c>
       <c r="AN50">
-        <v>0.83</v>
+        <v>0.33</v>
       </c>
       <c r="AO50">
         <v>1.33</v>
       </c>
       <c r="AP50">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="AQ50">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR50">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="AS50">
-        <v>1.92</v>
+        <v>1.58</v>
       </c>
       <c r="AT50">
-        <v>3.27</v>
+        <v>2.88</v>
       </c>
       <c r="AU50">
         <v>3</v>
@@ -11535,25 +11535,25 @@
         <v>1.73</v>
       </c>
       <c r="AN51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO51">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AP51">
-        <v>1.21</v>
+        <v>1.67</v>
       </c>
       <c r="AQ51">
-        <v>1.86</v>
+        <v>2.13</v>
       </c>
       <c r="AR51">
-        <v>1.41</v>
+        <v>1.26</v>
       </c>
       <c r="AS51">
-        <v>1.78</v>
+        <v>1.37</v>
       </c>
       <c r="AT51">
-        <v>3.19</v>
+        <v>2.63</v>
       </c>
       <c r="AU51">
         <v>8</v>
@@ -11741,25 +11741,25 @@
         <v>1.4</v>
       </c>
       <c r="AN52">
-        <v>1.17</v>
+        <v>2</v>
       </c>
       <c r="AO52">
-        <v>2.2</v>
+        <v>1.67</v>
       </c>
       <c r="AP52">
-        <v>1.86</v>
+        <v>2.29</v>
       </c>
       <c r="AQ52">
-        <v>1.69</v>
+        <v>1.29</v>
       </c>
       <c r="AR52">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AS52">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AT52">
-        <v>3.02</v>
+        <v>2.95</v>
       </c>
       <c r="AU52">
         <v>8</v>
@@ -11947,25 +11947,25 @@
         <v>2.3</v>
       </c>
       <c r="AN53">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO53">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>1.64</v>
+        <v>2</v>
       </c>
       <c r="AQ53">
-        <v>0.6899999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="AR53">
-        <v>1.26</v>
+        <v>1.86</v>
       </c>
       <c r="AS53">
-        <v>1.3</v>
+        <v>0.83</v>
       </c>
       <c r="AT53">
-        <v>2.56</v>
+        <v>2.69</v>
       </c>
       <c r="AU53">
         <v>4</v>
@@ -12153,25 +12153,25 @@
         <v>1.53</v>
       </c>
       <c r="AN54">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AO54">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AP54">
-        <v>1.29</v>
+        <v>1.43</v>
       </c>
       <c r="AQ54">
-        <v>1.15</v>
+        <v>0.86</v>
       </c>
       <c r="AR54">
-        <v>1.63</v>
+        <v>1.33</v>
       </c>
       <c r="AS54">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="AT54">
-        <v>3.07</v>
+        <v>2.72</v>
       </c>
       <c r="AU54">
         <v>7</v>
@@ -12359,25 +12359,25 @@
         <v>1.62</v>
       </c>
       <c r="AN55">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AO55">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AP55">
-        <v>0.93</v>
+        <v>1.29</v>
       </c>
       <c r="AQ55">
-        <v>0.93</v>
+        <v>0.29</v>
       </c>
       <c r="AR55">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="AS55">
-        <v>1.55</v>
+        <v>1.41</v>
       </c>
       <c r="AT55">
-        <v>3.21</v>
+        <v>3.04</v>
       </c>
       <c r="AU55">
         <v>5</v>
@@ -12565,25 +12565,25 @@
         <v>1.57</v>
       </c>
       <c r="AN56">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO56">
-        <v>1.17</v>
+        <v>0.5</v>
       </c>
       <c r="AP56">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ56">
-        <v>0.93</v>
+        <v>0.57</v>
       </c>
       <c r="AR56">
-        <v>1.46</v>
+        <v>1.56</v>
       </c>
       <c r="AS56">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="AT56">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="AU56">
         <v>10</v>
@@ -12771,25 +12771,25 @@
         <v>1.71</v>
       </c>
       <c r="AN57">
-        <v>0.71</v>
+        <v>0.25</v>
       </c>
       <c r="AO57">
-        <v>1.71</v>
+        <v>0.75</v>
       </c>
       <c r="AP57">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="AQ57">
-        <v>1.64</v>
+        <v>1.29</v>
       </c>
       <c r="AR57">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AS57">
-        <v>1.19</v>
+        <v>0.96</v>
       </c>
       <c r="AT57">
-        <v>2.48</v>
+        <v>2.16</v>
       </c>
       <c r="AU57">
         <v>2</v>
@@ -12977,25 +12977,25 @@
         <v>1.97</v>
       </c>
       <c r="AN58">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AO58">
-        <v>0.86</v>
+        <v>0.5</v>
       </c>
       <c r="AP58">
-        <v>1.15</v>
+        <v>1.5</v>
       </c>
       <c r="AQ58">
-        <v>1.21</v>
+        <v>0.88</v>
       </c>
       <c r="AR58">
         <v>1.49</v>
       </c>
       <c r="AS58">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT58">
-        <v>2.99</v>
+        <v>2.94</v>
       </c>
       <c r="AU58">
         <v>4</v>
@@ -13183,25 +13183,25 @@
         <v>1.55</v>
       </c>
       <c r="AN59">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AO59">
-        <v>1.14</v>
+        <v>0.33</v>
       </c>
       <c r="AP59">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ59">
-        <v>1.86</v>
+        <v>1.43</v>
       </c>
       <c r="AR59">
-        <v>1.52</v>
+        <v>1.1</v>
       </c>
       <c r="AS59">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="AT59">
-        <v>2.86</v>
+        <v>2.42</v>
       </c>
       <c r="AU59">
         <v>4</v>
@@ -13389,25 +13389,25 @@
         <v>1.94</v>
       </c>
       <c r="AN60">
+        <v>1.33</v>
+      </c>
+      <c r="AO60">
+        <v>1.33</v>
+      </c>
+      <c r="AP60">
+        <v>1.86</v>
+      </c>
+      <c r="AQ60">
         <v>1.57</v>
       </c>
-      <c r="AO60">
-        <v>1.71</v>
-      </c>
-      <c r="AP60">
-        <v>1.93</v>
-      </c>
-      <c r="AQ60">
-        <v>1.79</v>
-      </c>
       <c r="AR60">
-        <v>1.89</v>
+        <v>2.26</v>
       </c>
       <c r="AS60">
-        <v>1.66</v>
+        <v>1.3</v>
       </c>
       <c r="AT60">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="AU60">
         <v>2</v>
@@ -13595,25 +13595,25 @@
         <v>1.3</v>
       </c>
       <c r="AN61">
-        <v>0.86</v>
+        <v>1.25</v>
       </c>
       <c r="AO61">
-        <v>1.71</v>
+        <v>1</v>
       </c>
       <c r="AP61">
-        <v>0.6899999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="AQ61">
-        <v>1.71</v>
+        <v>0.5</v>
       </c>
       <c r="AR61">
-        <v>1.06</v>
+        <v>1.46</v>
       </c>
       <c r="AS61">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT61">
-        <v>2.88</v>
+        <v>3.38</v>
       </c>
       <c r="AU61">
         <v>5</v>
@@ -13801,25 +13801,25 @@
         <v>1.83</v>
       </c>
       <c r="AN62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO62">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AP62">
-        <v>1.69</v>
+        <v>2.17</v>
       </c>
       <c r="AQ62">
-        <v>1.29</v>
+        <v>1.14</v>
       </c>
       <c r="AR62">
-        <v>1.63</v>
+        <v>1.79</v>
       </c>
       <c r="AS62">
-        <v>1.62</v>
+        <v>1.94</v>
       </c>
       <c r="AT62">
-        <v>3.25</v>
+        <v>3.73</v>
       </c>
       <c r="AU62">
         <v>10</v>
@@ -14007,25 +14007,25 @@
         <v>1.53</v>
       </c>
       <c r="AN63">
-        <v>0.43</v>
+        <v>0.67</v>
       </c>
       <c r="AO63">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AP63">
-        <v>0.93</v>
+        <v>1.57</v>
       </c>
       <c r="AQ63">
-        <v>1.86</v>
+        <v>2.13</v>
       </c>
       <c r="AR63">
-        <v>1.47</v>
+        <v>1.75</v>
       </c>
       <c r="AS63">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT63">
-        <v>3.27</v>
+        <v>3.25</v>
       </c>
       <c r="AU63">
         <v>13</v>
@@ -14213,25 +14213,25 @@
         <v>1.75</v>
       </c>
       <c r="AN64">
-        <v>1.38</v>
+        <v>1.75</v>
       </c>
       <c r="AO64">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="AP64">
-        <v>1.86</v>
+        <v>2.29</v>
       </c>
       <c r="AQ64">
-        <v>0.93</v>
+        <v>0.29</v>
       </c>
       <c r="AR64">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AS64">
-        <v>1.62</v>
+        <v>1.33</v>
       </c>
       <c r="AT64">
-        <v>2.98</v>
+        <v>2.68</v>
       </c>
       <c r="AU64">
         <v>10</v>
@@ -14419,25 +14419,25 @@
         <v>1.27</v>
       </c>
       <c r="AN65">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO65">
-        <v>1.38</v>
+        <v>1.75</v>
       </c>
       <c r="AP65">
-        <v>0.93</v>
+        <v>1.29</v>
       </c>
       <c r="AQ65">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR65">
-        <v>1.58</v>
+        <v>1.68</v>
       </c>
       <c r="AS65">
-        <v>1.8</v>
+        <v>1.61</v>
       </c>
       <c r="AT65">
-        <v>3.38</v>
+        <v>3.29</v>
       </c>
       <c r="AU65">
         <v>7</v>
@@ -14625,25 +14625,25 @@
         <v>1.58</v>
       </c>
       <c r="AN66">
-        <v>0.88</v>
+        <v>1.33</v>
       </c>
       <c r="AO66">
-        <v>1.86</v>
+        <v>1.5</v>
       </c>
       <c r="AP66">
-        <v>1.21</v>
+        <v>1.67</v>
       </c>
       <c r="AQ66">
-        <v>1.69</v>
+        <v>1.29</v>
       </c>
       <c r="AR66">
-        <v>1.51</v>
+        <v>1.59</v>
       </c>
       <c r="AS66">
-        <v>1.68</v>
+        <v>1.54</v>
       </c>
       <c r="AT66">
-        <v>3.19</v>
+        <v>3.13</v>
       </c>
       <c r="AU66">
         <v>8</v>
@@ -14837,19 +14837,19 @@
         <v>1.25</v>
       </c>
       <c r="AP67">
-        <v>1.86</v>
+        <v>1.5</v>
       </c>
       <c r="AQ67">
-        <v>1.15</v>
+        <v>0.86</v>
       </c>
       <c r="AR67">
-        <v>1.84</v>
+        <v>2.39</v>
       </c>
       <c r="AS67">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="AT67">
-        <v>3.28</v>
+        <v>3.88</v>
       </c>
       <c r="AU67">
         <v>13</v>
@@ -15037,25 +15037,25 @@
         <v>2</v>
       </c>
       <c r="AN68">
-        <v>1.88</v>
+        <v>3</v>
       </c>
       <c r="AO68">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AP68">
-        <v>1.64</v>
+        <v>2</v>
       </c>
       <c r="AQ68">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR68">
-        <v>1.16</v>
+        <v>1.49</v>
       </c>
       <c r="AS68">
-        <v>1.47</v>
+        <v>1.94</v>
       </c>
       <c r="AT68">
-        <v>2.63</v>
+        <v>3.43</v>
       </c>
       <c r="AU68">
         <v>3</v>
@@ -15243,25 +15243,25 @@
         <v>2.2</v>
       </c>
       <c r="AN69">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="AO69">
-        <v>0.63</v>
+        <v>1.33</v>
       </c>
       <c r="AP69">
-        <v>1.71</v>
+        <v>2.63</v>
       </c>
       <c r="AQ69">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR69">
-        <v>2.03</v>
+        <v>1.74</v>
       </c>
       <c r="AS69">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT69">
-        <v>3.32</v>
+        <v>3.14</v>
       </c>
       <c r="AU69">
         <v>9</v>
@@ -15449,25 +15449,25 @@
         <v>2.6</v>
       </c>
       <c r="AN70">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AO70">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="AP70">
-        <v>1.79</v>
+        <v>2</v>
       </c>
       <c r="AQ70">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR70">
-        <v>1.6</v>
+        <v>1.92</v>
       </c>
       <c r="AS70">
-        <v>1.52</v>
+        <v>1.25</v>
       </c>
       <c r="AT70">
-        <v>3.12</v>
+        <v>3.17</v>
       </c>
       <c r="AU70">
         <v>10</v>
@@ -15655,25 +15655,25 @@
         <v>2.2</v>
       </c>
       <c r="AN71">
+        <v>1.5</v>
+      </c>
+      <c r="AO71">
+        <v>0.33</v>
+      </c>
+      <c r="AP71">
+        <v>1.43</v>
+      </c>
+      <c r="AQ71">
+        <v>0.17</v>
+      </c>
+      <c r="AR71">
         <v>1.38</v>
       </c>
-      <c r="AO71">
-        <v>1.13</v>
-      </c>
-      <c r="AP71">
-        <v>1.29</v>
-      </c>
-      <c r="AQ71">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AR71">
-        <v>1.66</v>
-      </c>
       <c r="AS71">
-        <v>1.09</v>
+        <v>0.45</v>
       </c>
       <c r="AT71">
-        <v>2.75</v>
+        <v>1.83</v>
       </c>
       <c r="AU71">
         <v>12</v>
@@ -15861,25 +15861,25 @@
         <v>1.09</v>
       </c>
       <c r="AN72">
-        <v>1.56</v>
+        <v>1</v>
       </c>
       <c r="AO72">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AP72">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="AQ72">
-        <v>1.15</v>
+        <v>0.86</v>
       </c>
       <c r="AR72">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AS72">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="AT72">
-        <v>3.35</v>
+        <v>3.52</v>
       </c>
       <c r="AU72">
         <v>7</v>
@@ -16067,25 +16067,25 @@
         <v>1.35</v>
       </c>
       <c r="AN73">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="AO73">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AP73">
-        <v>0.6899999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="AQ73">
-        <v>1.79</v>
+        <v>1.57</v>
       </c>
       <c r="AR73">
-        <v>1.07</v>
+        <v>1.41</v>
       </c>
       <c r="AS73">
-        <v>1.62</v>
+        <v>1.27</v>
       </c>
       <c r="AT73">
-        <v>2.69</v>
+        <v>2.68</v>
       </c>
       <c r="AU73">
         <v>7</v>
@@ -16273,25 +16273,25 @@
         <v>1.88</v>
       </c>
       <c r="AN74">
-        <v>1.63</v>
+        <v>2.33</v>
       </c>
       <c r="AO74">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AP74">
-        <v>1.69</v>
+        <v>2.17</v>
       </c>
       <c r="AQ74">
-        <v>1.86</v>
+        <v>2.13</v>
       </c>
       <c r="AR74">
-        <v>1.66</v>
+        <v>1.87</v>
       </c>
       <c r="AS74">
-        <v>1.94</v>
+        <v>1.62</v>
       </c>
       <c r="AT74">
-        <v>3.6</v>
+        <v>3.49</v>
       </c>
       <c r="AU74">
         <v>8</v>
@@ -16479,25 +16479,25 @@
         <v>1.85</v>
       </c>
       <c r="AN75">
-        <v>1.67</v>
+        <v>2.4</v>
       </c>
       <c r="AO75">
-        <v>1.11</v>
+        <v>0.6</v>
       </c>
       <c r="AP75">
-        <v>1.71</v>
+        <v>2.63</v>
       </c>
       <c r="AQ75">
-        <v>1.21</v>
+        <v>0.88</v>
       </c>
       <c r="AR75">
-        <v>2.01</v>
+        <v>1.76</v>
       </c>
       <c r="AS75">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="AT75">
-        <v>3.54</v>
+        <v>3.24</v>
       </c>
       <c r="AU75">
         <v>7</v>
@@ -16685,25 +16685,25 @@
         <v>1.52</v>
       </c>
       <c r="AN76">
-        <v>1.13</v>
+        <v>1.8</v>
       </c>
       <c r="AO76">
-        <v>1.56</v>
+        <v>1</v>
       </c>
       <c r="AP76">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ76">
-        <v>1.86</v>
+        <v>1.43</v>
       </c>
       <c r="AR76">
-        <v>1.49</v>
+        <v>1.63</v>
       </c>
       <c r="AS76">
-        <v>1.46</v>
+        <v>1.37</v>
       </c>
       <c r="AT76">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="AU76">
         <v>3</v>
@@ -16891,25 +16891,25 @@
         <v>1.52</v>
       </c>
       <c r="AN77">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AO77">
-        <v>1.56</v>
+        <v>1.25</v>
       </c>
       <c r="AP77">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ77">
-        <v>1.29</v>
+        <v>1.14</v>
       </c>
       <c r="AR77">
-        <v>1.4</v>
+        <v>1.11</v>
       </c>
       <c r="AS77">
-        <v>1.75</v>
+        <v>1.94</v>
       </c>
       <c r="AT77">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="AU77">
         <v>7</v>
@@ -17097,25 +17097,25 @@
         <v>1.65</v>
       </c>
       <c r="AN78">
-        <v>0.5600000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="AO78">
-        <v>0.88</v>
+        <v>0.33</v>
       </c>
       <c r="AP78">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="AQ78">
-        <v>0.93</v>
+        <v>0.57</v>
       </c>
       <c r="AR78">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="AS78">
-        <v>1.56</v>
+        <v>1.38</v>
       </c>
       <c r="AT78">
-        <v>2.79</v>
+        <v>2.6</v>
       </c>
       <c r="AU78">
         <v>7</v>
@@ -17303,25 +17303,25 @@
         <v>1.35</v>
       </c>
       <c r="AN79">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AO79">
-        <v>1.78</v>
+        <v>1.2</v>
       </c>
       <c r="AP79">
-        <v>0.93</v>
+        <v>1.57</v>
       </c>
       <c r="AQ79">
-        <v>1.64</v>
+        <v>1.29</v>
       </c>
       <c r="AR79">
-        <v>1.52</v>
+        <v>2.01</v>
       </c>
       <c r="AS79">
-        <v>1.17</v>
+        <v>0.97</v>
       </c>
       <c r="AT79">
-        <v>2.69</v>
+        <v>2.98</v>
       </c>
       <c r="AU79">
         <v>4</v>
@@ -17509,25 +17509,25 @@
         <v>1.95</v>
       </c>
       <c r="AN80">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="AO80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP80">
-        <v>1.29</v>
+        <v>1.43</v>
       </c>
       <c r="AQ80">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR80">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AS80">
-        <v>1.44</v>
+        <v>1.26</v>
       </c>
       <c r="AT80">
-        <v>3.19</v>
+        <v>2.86</v>
       </c>
       <c r="AU80">
         <v>4</v>
@@ -17715,25 +17715,25 @@
         <v>1.95</v>
       </c>
       <c r="AN81">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AO81">
         <v>1.2</v>
       </c>
       <c r="AP81">
-        <v>1.86</v>
+        <v>1.5</v>
       </c>
       <c r="AQ81">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR81">
-        <v>1.92</v>
+        <v>2.48</v>
       </c>
       <c r="AS81">
-        <v>1.41</v>
+        <v>1.69</v>
       </c>
       <c r="AT81">
-        <v>3.33</v>
+        <v>4.17</v>
       </c>
       <c r="AU81">
         <v>8</v>
@@ -17921,25 +17921,25 @@
         <v>1.72</v>
       </c>
       <c r="AN82">
-        <v>0.78</v>
+        <v>1.2</v>
       </c>
       <c r="AO82">
-        <v>0.9</v>
+        <v>0.25</v>
       </c>
       <c r="AP82">
-        <v>0.93</v>
+        <v>1.29</v>
       </c>
       <c r="AQ82">
-        <v>0.6899999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="AR82">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AS82">
-        <v>1.19</v>
+        <v>0.62</v>
       </c>
       <c r="AT82">
-        <v>2.69</v>
+        <v>2.26</v>
       </c>
       <c r="AU82">
         <v>5</v>
@@ -18127,25 +18127,25 @@
         <v>1.72</v>
       </c>
       <c r="AN83">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="AO83">
-        <v>1.44</v>
+        <v>1.2</v>
       </c>
       <c r="AP83">
-        <v>1.64</v>
+        <v>2</v>
       </c>
       <c r="AQ83">
-        <v>1.69</v>
+        <v>1.29</v>
       </c>
       <c r="AR83">
-        <v>1.26</v>
+        <v>1.42</v>
       </c>
       <c r="AS83">
-        <v>1.68</v>
+        <v>1.53</v>
       </c>
       <c r="AT83">
-        <v>2.94</v>
+        <v>2.95</v>
       </c>
       <c r="AU83">
         <v>15</v>
@@ -18333,25 +18333,25 @@
         <v>2</v>
       </c>
       <c r="AN84">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="AO84">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AP84">
-        <v>1.86</v>
+        <v>2.29</v>
       </c>
       <c r="AQ84">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR84">
         <v>1.53</v>
       </c>
       <c r="AS84">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AT84">
-        <v>2.81</v>
+        <v>2.78</v>
       </c>
       <c r="AU84">
         <v>8</v>
@@ -18539,25 +18539,25 @@
         <v>1.27</v>
       </c>
       <c r="AN85">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="AO85">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="AP85">
-        <v>1.21</v>
+        <v>1.67</v>
       </c>
       <c r="AQ85">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR85">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AS85">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AT85">
-        <v>3.43</v>
+        <v>3.41</v>
       </c>
       <c r="AU85">
         <v>6</v>
@@ -18745,25 +18745,25 @@
         <v>1.67</v>
       </c>
       <c r="AN86">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AO86">
-        <v>1.8</v>
+        <v>0.75</v>
       </c>
       <c r="AP86">
-        <v>1.79</v>
+        <v>2</v>
       </c>
       <c r="AQ86">
-        <v>1.71</v>
+        <v>0.5</v>
       </c>
       <c r="AR86">
-        <v>1.63</v>
+        <v>1.91</v>
       </c>
       <c r="AS86">
-        <v>1.98</v>
+        <v>2.31</v>
       </c>
       <c r="AT86">
-        <v>3.61</v>
+        <v>4.22</v>
       </c>
       <c r="AU86">
         <v>9</v>
@@ -18951,25 +18951,25 @@
         <v>2.02</v>
       </c>
       <c r="AN87">
-        <v>1.1</v>
+        <v>1.25</v>
       </c>
       <c r="AO87">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="AP87">
-        <v>1.15</v>
+        <v>1.5</v>
       </c>
       <c r="AQ87">
-        <v>0.93</v>
+        <v>0.29</v>
       </c>
       <c r="AR87">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AS87">
-        <v>1.56</v>
+        <v>1.22</v>
       </c>
       <c r="AT87">
-        <v>2.98</v>
+        <v>2.6</v>
       </c>
       <c r="AU87">
         <v>10</v>
@@ -19157,25 +19157,25 @@
         <v>2.3</v>
       </c>
       <c r="AN88">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="AO88">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="AP88">
-        <v>1.86</v>
+        <v>1.5</v>
       </c>
       <c r="AQ88">
-        <v>0.93</v>
+        <v>0.57</v>
       </c>
       <c r="AR88">
-        <v>1.94</v>
+        <v>2.39</v>
       </c>
       <c r="AS88">
-        <v>1.48</v>
+        <v>1.27</v>
       </c>
       <c r="AT88">
-        <v>3.42</v>
+        <v>3.66</v>
       </c>
       <c r="AU88">
         <v>3</v>
@@ -19363,25 +19363,25 @@
         <v>1.55</v>
       </c>
       <c r="AN89">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO89">
-        <v>0.91</v>
+        <v>0.5</v>
       </c>
       <c r="AP89">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ89">
-        <v>1.21</v>
+        <v>0.88</v>
       </c>
       <c r="AR89">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AS89">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AT89">
-        <v>3</v>
+        <v>3.02</v>
       </c>
       <c r="AU89">
         <v>5</v>
@@ -19569,25 +19569,25 @@
         <v>1.72</v>
       </c>
       <c r="AN90">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="AO90">
-        <v>1.91</v>
+        <v>2.17</v>
       </c>
       <c r="AP90">
+        <v>2</v>
+      </c>
+      <c r="AQ90">
+        <v>2.13</v>
+      </c>
+      <c r="AR90">
+        <v>1.67</v>
+      </c>
+      <c r="AS90">
         <v>1.64</v>
       </c>
-      <c r="AQ90">
-        <v>1.86</v>
-      </c>
-      <c r="AR90">
-        <v>1.39</v>
-      </c>
-      <c r="AS90">
-        <v>1.88</v>
-      </c>
       <c r="AT90">
-        <v>3.27</v>
+        <v>3.31</v>
       </c>
       <c r="AU90">
         <v>7</v>
@@ -19775,25 +19775,25 @@
         <v>1.53</v>
       </c>
       <c r="AN91">
-        <v>0.91</v>
+        <v>1.6</v>
       </c>
       <c r="AO91">
-        <v>1.36</v>
+        <v>1</v>
       </c>
       <c r="AP91">
-        <v>0.93</v>
+        <v>1.57</v>
       </c>
       <c r="AQ91">
-        <v>1.29</v>
+        <v>1.14</v>
       </c>
       <c r="AR91">
-        <v>1.51</v>
+        <v>1.98</v>
       </c>
       <c r="AS91">
-        <v>1.81</v>
+        <v>1.9</v>
       </c>
       <c r="AT91">
-        <v>3.32</v>
+        <v>3.88</v>
       </c>
       <c r="AU91">
         <v>4</v>
@@ -19981,25 +19981,25 @@
         <v>1.33</v>
       </c>
       <c r="AN92">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AO92">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AP92">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="AQ92">
-        <v>1.79</v>
+        <v>1.57</v>
       </c>
       <c r="AR92">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="AS92">
-        <v>1.61</v>
+        <v>1.35</v>
       </c>
       <c r="AT92">
-        <v>2.87</v>
+        <v>2.65</v>
       </c>
       <c r="AU92">
         <v>8</v>
@@ -20187,25 +20187,25 @@
         <v>2.49</v>
       </c>
       <c r="AN93">
-        <v>1.64</v>
+        <v>2.5</v>
       </c>
       <c r="AO93">
-        <v>0.91</v>
+        <v>0.2</v>
       </c>
       <c r="AP93">
-        <v>1.71</v>
+        <v>2.63</v>
       </c>
       <c r="AQ93">
-        <v>0.93</v>
+        <v>0.57</v>
       </c>
       <c r="AR93">
-        <v>1.92</v>
+        <v>1.76</v>
       </c>
       <c r="AS93">
-        <v>1.51</v>
+        <v>1.4</v>
       </c>
       <c r="AT93">
-        <v>3.43</v>
+        <v>3.16</v>
       </c>
       <c r="AU93">
         <v>6</v>
@@ -20393,25 +20393,25 @@
         <v>2.3</v>
       </c>
       <c r="AN94">
-        <v>1.82</v>
+        <v>1.4</v>
       </c>
       <c r="AO94">
-        <v>1.82</v>
+        <v>1.4</v>
       </c>
       <c r="AP94">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="AQ94">
-        <v>1.86</v>
+        <v>1.43</v>
       </c>
       <c r="AR94">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="AS94">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="AT94">
-        <v>3.51</v>
+        <v>3.53</v>
       </c>
       <c r="AU94">
         <v>7</v>
@@ -20599,25 +20599,25 @@
         <v>2.13</v>
       </c>
       <c r="AN95">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="AO95">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="AP95">
-        <v>1.69</v>
+        <v>2.17</v>
       </c>
       <c r="AQ95">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR95">
-        <v>1.67</v>
+        <v>1.88</v>
       </c>
       <c r="AS95">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="AT95">
-        <v>3.15</v>
+        <v>3.33</v>
       </c>
       <c r="AU95">
         <v>7</v>
@@ -20805,25 +20805,25 @@
         <v>1.54</v>
       </c>
       <c r="AN96">
-        <v>1.67</v>
+        <v>2.17</v>
       </c>
       <c r="AO96">
-        <v>1.75</v>
+        <v>0.6</v>
       </c>
       <c r="AP96">
-        <v>1.86</v>
+        <v>2.29</v>
       </c>
       <c r="AQ96">
-        <v>1.71</v>
+        <v>0.5</v>
       </c>
       <c r="AR96">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="AS96">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="AT96">
-        <v>3.45</v>
+        <v>3.67</v>
       </c>
       <c r="AU96">
         <v>4</v>
@@ -21011,25 +21011,25 @@
         <v>1.9</v>
       </c>
       <c r="AN97">
-        <v>0.92</v>
+        <v>1.4</v>
       </c>
       <c r="AO97">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AP97">
-        <v>1.21</v>
+        <v>1.67</v>
       </c>
       <c r="AQ97">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR97">
         <v>1.52</v>
       </c>
       <c r="AS97">
-        <v>1.35</v>
+        <v>1.52</v>
       </c>
       <c r="AT97">
-        <v>2.87</v>
+        <v>3.04</v>
       </c>
       <c r="AU97">
         <v>5</v>
@@ -21217,25 +21217,25 @@
         <v>1.33</v>
       </c>
       <c r="AN98">
-        <v>1.83</v>
+        <v>1.6</v>
       </c>
       <c r="AO98">
-        <v>1.92</v>
+        <v>2.17</v>
       </c>
       <c r="AP98">
-        <v>1.86</v>
+        <v>1.5</v>
       </c>
       <c r="AQ98">
+        <v>2</v>
+      </c>
+      <c r="AR98">
+        <v>2.17</v>
+      </c>
+      <c r="AS98">
         <v>1.93</v>
       </c>
-      <c r="AR98">
-        <v>1.81</v>
-      </c>
-      <c r="AS98">
-        <v>1.92</v>
-      </c>
       <c r="AT98">
-        <v>3.73</v>
+        <v>4.1</v>
       </c>
       <c r="AU98">
         <v>8</v>
@@ -21423,25 +21423,25 @@
         <v>1.4</v>
       </c>
       <c r="AN99">
-        <v>0.83</v>
+        <v>1.33</v>
       </c>
       <c r="AO99">
-        <v>1.73</v>
+        <v>1.5</v>
       </c>
       <c r="AP99">
-        <v>0.93</v>
+        <v>1.57</v>
       </c>
       <c r="AQ99">
-        <v>1.69</v>
+        <v>1.29</v>
       </c>
       <c r="AR99">
-        <v>1.47</v>
+        <v>1.79</v>
       </c>
       <c r="AS99">
-        <v>1.68</v>
+        <v>1.54</v>
       </c>
       <c r="AT99">
-        <v>3.15</v>
+        <v>3.33</v>
       </c>
       <c r="AU99">
         <v>9</v>
@@ -21629,25 +21629,25 @@
         <v>1.84</v>
       </c>
       <c r="AN100">
-        <v>1.09</v>
+        <v>1.2</v>
       </c>
       <c r="AO100">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AP100">
-        <v>1.15</v>
+        <v>1.5</v>
       </c>
       <c r="AQ100">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR100">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AS100">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AT100">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="AU100">
         <v>9</v>
@@ -21835,25 +21835,25 @@
         <v>1.53</v>
       </c>
       <c r="AN101">
-        <v>0.82</v>
+        <v>1.33</v>
       </c>
       <c r="AO101">
-        <v>0.92</v>
+        <v>0.2</v>
       </c>
       <c r="AP101">
-        <v>0.6899999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="AQ101">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR101">
-        <v>1.22</v>
+        <v>1.53</v>
       </c>
       <c r="AS101">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT101">
-        <v>2.69</v>
+        <v>2.97</v>
       </c>
       <c r="AU101">
         <v>10</v>
@@ -22041,25 +22041,25 @@
         <v>1.8</v>
       </c>
       <c r="AN102">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AO102">
-        <v>1.42</v>
+        <v>1</v>
       </c>
       <c r="AP102">
+        <v>1.43</v>
+      </c>
+      <c r="AQ102">
         <v>1.29</v>
       </c>
-      <c r="AQ102">
-        <v>1.64</v>
-      </c>
       <c r="AR102">
-        <v>1.86</v>
+        <v>1.74</v>
       </c>
       <c r="AS102">
-        <v>1.39</v>
+        <v>1.15</v>
       </c>
       <c r="AT102">
-        <v>3.25</v>
+        <v>2.89</v>
       </c>
       <c r="AU102">
         <v>7</v>
@@ -22247,25 +22247,25 @@
         <v>2.83</v>
       </c>
       <c r="AN103">
-        <v>2.08</v>
+        <v>2.33</v>
       </c>
       <c r="AO103">
-        <v>0.83</v>
+        <v>0.17</v>
       </c>
       <c r="AP103">
-        <v>1.79</v>
+        <v>2</v>
       </c>
       <c r="AQ103">
-        <v>0.93</v>
+        <v>0.57</v>
       </c>
       <c r="AR103">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="AS103">
-        <v>1.48</v>
+        <v>1.34</v>
       </c>
       <c r="AT103">
-        <v>3.22</v>
+        <v>3.17</v>
       </c>
       <c r="AU103">
         <v>3</v>
@@ -22453,25 +22453,25 @@
         <v>1.5</v>
       </c>
       <c r="AN104">
-        <v>1.54</v>
+        <v>1.83</v>
       </c>
       <c r="AO104">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="AP104">
+        <v>2</v>
+      </c>
+      <c r="AQ104">
+        <v>1.57</v>
+      </c>
+      <c r="AR104">
+        <v>1.63</v>
+      </c>
+      <c r="AS104">
         <v>1.64</v>
       </c>
-      <c r="AQ104">
-        <v>1.79</v>
-      </c>
-      <c r="AR104">
-        <v>1.35</v>
-      </c>
-      <c r="AS104">
-        <v>1.71</v>
-      </c>
       <c r="AT104">
-        <v>3.06</v>
+        <v>3.27</v>
       </c>
       <c r="AU104">
         <v>8</v>
@@ -22659,25 +22659,25 @@
         <v>1.59</v>
       </c>
       <c r="AN105">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AO105">
-        <v>1.08</v>
+        <v>0.57</v>
       </c>
       <c r="AP105">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="AQ105">
-        <v>1.21</v>
+        <v>0.88</v>
       </c>
       <c r="AR105">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="AS105">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="AT105">
-        <v>2.86</v>
+        <v>2.85</v>
       </c>
       <c r="AU105">
         <v>6</v>
@@ -22865,25 +22865,25 @@
         <v>1.73</v>
       </c>
       <c r="AN106">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AO106">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AP106">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ106">
-        <v>0.93</v>
+        <v>0.29</v>
       </c>
       <c r="AR106">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AS106">
-        <v>1.51</v>
+        <v>1.2</v>
       </c>
       <c r="AT106">
-        <v>2.78</v>
+        <v>2.39</v>
       </c>
       <c r="AU106">
         <v>6</v>
@@ -23071,25 +23071,25 @@
         <v>1.82</v>
       </c>
       <c r="AN107">
-        <v>1.58</v>
+        <v>2</v>
       </c>
       <c r="AO107">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AP107">
-        <v>1.69</v>
+        <v>2.17</v>
       </c>
       <c r="AQ107">
-        <v>1.15</v>
+        <v>0.86</v>
       </c>
       <c r="AR107">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="AS107">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT107">
-        <v>3.34</v>
+        <v>3.31</v>
       </c>
       <c r="AU107">
         <v>6</v>
@@ -23277,25 +23277,25 @@
         <v>3.82</v>
       </c>
       <c r="AN108">
-        <v>1.85</v>
+        <v>1.67</v>
       </c>
       <c r="AO108">
-        <v>0.75</v>
+        <v>0.2</v>
       </c>
       <c r="AP108">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="AQ108">
-        <v>0.6899999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="AR108">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="AS108">
-        <v>1.31</v>
+        <v>0.83</v>
       </c>
       <c r="AT108">
-        <v>3.21</v>
+        <v>2.74</v>
       </c>
       <c r="AU108">
         <v>12</v>
@@ -23483,25 +23483,25 @@
         <v>1.36</v>
       </c>
       <c r="AN109">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO109">
-        <v>1.77</v>
+        <v>1.17</v>
       </c>
       <c r="AP109">
-        <v>0.93</v>
+        <v>1.29</v>
       </c>
       <c r="AQ109">
-        <v>1.86</v>
+        <v>1.43</v>
       </c>
       <c r="AR109">
-        <v>1.45</v>
+        <v>1.59</v>
       </c>
       <c r="AS109">
         <v>1.52</v>
       </c>
       <c r="AT109">
-        <v>2.97</v>
+        <v>3.11</v>
       </c>
       <c r="AU109">
         <v>3</v>
@@ -23689,25 +23689,25 @@
         <v>1.83</v>
       </c>
       <c r="AN110">
-        <v>1.62</v>
+        <v>2.57</v>
       </c>
       <c r="AO110">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AP110">
-        <v>1.71</v>
+        <v>2.63</v>
       </c>
       <c r="AQ110">
-        <v>1.29</v>
+        <v>1.14</v>
       </c>
       <c r="AR110">
-        <v>1.85</v>
+        <v>1.76</v>
       </c>
       <c r="AS110">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="AT110">
-        <v>3.72</v>
+        <v>3.74</v>
       </c>
       <c r="AU110">
         <v>8</v>
@@ -23895,25 +23895,25 @@
         <v>1.45</v>
       </c>
       <c r="AN111">
-        <v>1.08</v>
+        <v>1.43</v>
       </c>
       <c r="AO111">
-        <v>1.77</v>
+        <v>2</v>
       </c>
       <c r="AP111">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ111">
-        <v>1.86</v>
+        <v>2.13</v>
       </c>
       <c r="AR111">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="AS111">
-        <v>1.81</v>
+        <v>1.56</v>
       </c>
       <c r="AT111">
-        <v>3.29</v>
+        <v>3.05</v>
       </c>
       <c r="AU111">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="250">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -544,6 +544,15 @@
     <t>['55', '70', '82', '84', '89']</t>
   </si>
   <si>
+    <t>['45', '53', '65']</t>
+  </si>
+  <si>
+    <t>['63']</t>
+  </si>
+  <si>
+    <t>['17', '32', '47']</t>
+  </si>
+  <si>
     <t>['90+1']</t>
   </si>
   <si>
@@ -749,6 +758,12 @@
   </si>
   <si>
     <t>['2', '56', '72']</t>
+  </si>
+  <si>
+    <t>['5', '61']</t>
+  </si>
+  <si>
+    <t>['77', '90+6']</t>
   </si>
 </sst>
 </file>
@@ -1110,7 +1125,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP111"/>
+  <dimension ref="A1:BP117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1369,7 +1384,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q2">
         <v>2.84</v>
@@ -1575,7 +1590,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q3">
         <v>2.2</v>
@@ -1781,7 +1796,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -1862,7 +1877,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ4">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1987,7 +2002,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2068,7 +2083,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ5">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2193,7 +2208,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q6">
         <v>2.35</v>
@@ -2399,7 +2414,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q7">
         <v>2.66</v>
@@ -2605,7 +2620,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q8">
         <v>2.8</v>
@@ -2889,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ9">
         <v>1.14</v>
@@ -3017,7 +3032,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3095,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ10">
         <v>0.67</v>
@@ -3223,7 +3238,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3301,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ11">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3429,7 +3444,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3507,7 +3522,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ12">
         <v>0.17</v>
@@ -3716,7 +3731,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ13">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4047,7 +4062,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q15">
         <v>2.05</v>
@@ -4331,10 +4346,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ16">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4459,7 +4474,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q17">
         <v>2.15</v>
@@ -4540,7 +4555,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ17">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR17">
         <v>2.14</v>
@@ -4665,7 +4680,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q18">
         <v>2.15</v>
@@ -5155,7 +5170,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ20">
         <v>0.88</v>
@@ -5489,7 +5504,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q22">
         <v>2.76</v>
@@ -5570,7 +5585,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ22">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR22">
         <v>1.02</v>
@@ -5695,7 +5710,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q23">
         <v>2.85</v>
@@ -5901,7 +5916,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q24">
         <v>2.05</v>
@@ -6391,7 +6406,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ26">
         <v>0.17</v>
@@ -6519,7 +6534,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6600,7 +6615,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ27">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR27">
         <v>1.67</v>
@@ -6803,10 +6818,10 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ28">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR28">
         <v>0.98</v>
@@ -6931,7 +6946,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q29">
         <v>2.25</v>
@@ -7009,10 +7024,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ29">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR29">
         <v>1.26</v>
@@ -7215,7 +7230,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ30">
         <v>0.67</v>
@@ -7343,7 +7358,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7421,10 +7436,10 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ31">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR31">
         <v>0.83</v>
@@ -7630,7 +7645,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ32">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR32">
         <v>1.53</v>
@@ -7755,7 +7770,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q33">
         <v>3.05</v>
@@ -7961,7 +7976,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q34">
         <v>2.26</v>
@@ -8167,7 +8182,7 @@
         <v>115</v>
       </c>
       <c r="P35" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q35">
         <v>3.46</v>
@@ -8248,7 +8263,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ35">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR35">
         <v>1.41</v>
@@ -8579,7 +8594,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q37">
         <v>2.72</v>
@@ -8657,7 +8672,7 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ37">
         <v>2.13</v>
@@ -8785,7 +8800,7 @@
         <v>118</v>
       </c>
       <c r="P38" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q38">
         <v>4.55</v>
@@ -8866,7 +8881,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ38">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR38">
         <v>1.21</v>
@@ -8991,7 +9006,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q39">
         <v>2.78</v>
@@ -9069,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ39">
         <v>0.88</v>
@@ -9275,10 +9290,10 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ40">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR40">
         <v>0.79</v>
@@ -9484,7 +9499,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ41">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR41">
         <v>2.44</v>
@@ -9687,7 +9702,7 @@
         <v>0.33</v>
       </c>
       <c r="AP42">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ42">
         <v>0.88</v>
@@ -9815,7 +9830,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q43">
         <v>3.11</v>
@@ -10021,7 +10036,7 @@
         <v>123</v>
       </c>
       <c r="P44" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q44">
         <v>3.3</v>
@@ -10227,7 +10242,7 @@
         <v>94</v>
       </c>
       <c r="P45" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q45">
         <v>2.4</v>
@@ -10305,7 +10320,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ45">
         <v>1.14</v>
@@ -10514,7 +10529,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ46">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR46">
         <v>1.14</v>
@@ -10720,7 +10735,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ47">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR47">
         <v>1.55</v>
@@ -11257,7 +11272,7 @@
         <v>103</v>
       </c>
       <c r="P50" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q50">
         <v>3.89</v>
@@ -11338,7 +11353,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ50">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR50">
         <v>1.3</v>
@@ -11463,7 +11478,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q51">
         <v>2.61</v>
@@ -11541,7 +11556,7 @@
         <v>2.33</v>
       </c>
       <c r="AP51">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ51">
         <v>2.13</v>
@@ -11669,7 +11684,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -11747,10 +11762,10 @@
         <v>1.67</v>
       </c>
       <c r="AP52">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ52">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR52">
         <v>1.25</v>
@@ -11875,7 +11890,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q53">
         <v>2.05</v>
@@ -12081,7 +12096,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q54">
         <v>3.03</v>
@@ -12159,7 +12174,7 @@
         <v>1.67</v>
       </c>
       <c r="AP54">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ54">
         <v>0.86</v>
@@ -12574,7 +12589,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ56">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR56">
         <v>1.56</v>
@@ -12699,7 +12714,7 @@
         <v>103</v>
       </c>
       <c r="P57" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q57">
         <v>2.57</v>
@@ -12780,7 +12795,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ57">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR57">
         <v>1.2</v>
@@ -12905,7 +12920,7 @@
         <v>132</v>
       </c>
       <c r="P58" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q58">
         <v>2.3</v>
@@ -13111,7 +13126,7 @@
         <v>103</v>
       </c>
       <c r="P59" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q59">
         <v>2.75</v>
@@ -13189,7 +13204,7 @@
         <v>0.33</v>
       </c>
       <c r="AP59">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ59">
         <v>1.43</v>
@@ -13317,7 +13332,7 @@
         <v>103</v>
       </c>
       <c r="P60" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q60">
         <v>2.32</v>
@@ -13398,7 +13413,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ60">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR60">
         <v>2.26</v>
@@ -13523,7 +13538,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q61">
         <v>3.6</v>
@@ -13604,7 +13619,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ61">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR61">
         <v>1.46</v>
@@ -13729,7 +13744,7 @@
         <v>134</v>
       </c>
       <c r="P62" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q62">
         <v>2.39</v>
@@ -13935,7 +13950,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q63">
         <v>2.84</v>
@@ -14013,7 +14028,7 @@
         <v>2.5</v>
       </c>
       <c r="AP63">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ63">
         <v>2.13</v>
@@ -14141,7 +14156,7 @@
         <v>136</v>
       </c>
       <c r="P64" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q64">
         <v>2.7</v>
@@ -14219,7 +14234,7 @@
         <v>0.25</v>
       </c>
       <c r="AP64">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ64">
         <v>0.29</v>
@@ -14347,7 +14362,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -14428,7 +14443,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ65">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR65">
         <v>1.68</v>
@@ -14631,10 +14646,10 @@
         <v>1.5</v>
       </c>
       <c r="AP66">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ66">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR66">
         <v>1.59</v>
@@ -14759,7 +14774,7 @@
         <v>139</v>
       </c>
       <c r="P67" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q67">
         <v>2.5</v>
@@ -14837,7 +14852,7 @@
         <v>1.25</v>
       </c>
       <c r="AP67">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ67">
         <v>0.86</v>
@@ -15377,7 +15392,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q70">
         <v>1.85</v>
@@ -15661,7 +15676,7 @@
         <v>0.33</v>
       </c>
       <c r="AP71">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ71">
         <v>0.17</v>
@@ -15789,7 +15804,7 @@
         <v>143</v>
       </c>
       <c r="P72" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q72">
         <v>2.24</v>
@@ -15995,7 +16010,7 @@
         <v>103</v>
       </c>
       <c r="P73" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q73">
         <v>3.66</v>
@@ -16076,7 +16091,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ73">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR73">
         <v>1.41</v>
@@ -16201,7 +16216,7 @@
         <v>144</v>
       </c>
       <c r="P74" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q74">
         <v>2.4</v>
@@ -16407,7 +16422,7 @@
         <v>145</v>
       </c>
       <c r="P75" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q75">
         <v>2.38</v>
@@ -16613,7 +16628,7 @@
         <v>125</v>
       </c>
       <c r="P76" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -16897,7 +16912,7 @@
         <v>1.25</v>
       </c>
       <c r="AP77">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ77">
         <v>1.14</v>
@@ -17025,7 +17040,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q78">
         <v>2.75</v>
@@ -17106,7 +17121,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ78">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR78">
         <v>1.22</v>
@@ -17231,7 +17246,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17309,10 +17324,10 @@
         <v>1.2</v>
       </c>
       <c r="AP79">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ79">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR79">
         <v>2.01</v>
@@ -17437,7 +17452,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q80">
         <v>2.2</v>
@@ -17515,7 +17530,7 @@
         <v>0</v>
       </c>
       <c r="AP80">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ80">
         <v>0.67</v>
@@ -17643,7 +17658,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q81">
         <v>2.31</v>
@@ -17721,7 +17736,7 @@
         <v>1.2</v>
       </c>
       <c r="AP81">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ81">
         <v>1.29</v>
@@ -18055,7 +18070,7 @@
         <v>151</v>
       </c>
       <c r="P83" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q83">
         <v>2.7</v>
@@ -18136,7 +18151,7 @@
         <v>2</v>
       </c>
       <c r="AQ83">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR83">
         <v>1.42</v>
@@ -18339,7 +18354,7 @@
         <v>1</v>
       </c>
       <c r="AP84">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ84">
         <v>0.67</v>
@@ -18467,7 +18482,7 @@
         <v>153</v>
       </c>
       <c r="P85" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q85">
         <v>3.5</v>
@@ -18545,10 +18560,10 @@
         <v>2</v>
       </c>
       <c r="AP85">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ85">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR85">
         <v>1.61</v>
@@ -18673,7 +18688,7 @@
         <v>154</v>
       </c>
       <c r="P86" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q86">
         <v>2.55</v>
@@ -18754,7 +18769,7 @@
         <v>2</v>
       </c>
       <c r="AQ86">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR86">
         <v>1.91</v>
@@ -18879,7 +18894,7 @@
         <v>155</v>
       </c>
       <c r="P87" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q87">
         <v>2.27</v>
@@ -19163,10 +19178,10 @@
         <v>0.25</v>
       </c>
       <c r="AP88">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ88">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR88">
         <v>2.39</v>
@@ -19291,7 +19306,7 @@
         <v>156</v>
       </c>
       <c r="P89" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q89">
         <v>2.8</v>
@@ -19497,7 +19512,7 @@
         <v>157</v>
       </c>
       <c r="P90" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q90">
         <v>2.6</v>
@@ -19703,7 +19718,7 @@
         <v>158</v>
       </c>
       <c r="P91" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -19781,7 +19796,7 @@
         <v>1</v>
       </c>
       <c r="AP91">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ91">
         <v>1.14</v>
@@ -19909,7 +19924,7 @@
         <v>159</v>
       </c>
       <c r="P92" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q92">
         <v>3.6</v>
@@ -19990,7 +20005,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ92">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR92">
         <v>1.3</v>
@@ -20196,7 +20211,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ93">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR93">
         <v>1.76</v>
@@ -20321,7 +20336,7 @@
         <v>161</v>
       </c>
       <c r="P94" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q94">
         <v>2.1</v>
@@ -20527,7 +20542,7 @@
         <v>162</v>
       </c>
       <c r="P95" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q95">
         <v>2.17</v>
@@ -20811,10 +20826,10 @@
         <v>0.6</v>
       </c>
       <c r="AP96">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ96">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR96">
         <v>1.57</v>
@@ -21017,7 +21032,7 @@
         <v>1.5</v>
       </c>
       <c r="AP97">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ97">
         <v>1.29</v>
@@ -21145,7 +21160,7 @@
         <v>149</v>
       </c>
       <c r="P98" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q98">
         <v>3.54</v>
@@ -21223,10 +21238,10 @@
         <v>2.17</v>
       </c>
       <c r="AP98">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ98">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR98">
         <v>2.17</v>
@@ -21351,7 +21366,7 @@
         <v>165</v>
       </c>
       <c r="P99" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q99">
         <v>3.35</v>
@@ -21429,10 +21444,10 @@
         <v>1.5</v>
       </c>
       <c r="AP99">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ99">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR99">
         <v>1.79</v>
@@ -21763,7 +21778,7 @@
         <v>167</v>
       </c>
       <c r="P101" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q101">
         <v>2.96</v>
@@ -21969,7 +21984,7 @@
         <v>168</v>
       </c>
       <c r="P102" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q102">
         <v>2.44</v>
@@ -22047,10 +22062,10 @@
         <v>1</v>
       </c>
       <c r="AP102">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ102">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR102">
         <v>1.74</v>
@@ -22175,7 +22190,7 @@
         <v>103</v>
       </c>
       <c r="P103" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q103">
         <v>1.81</v>
@@ -22256,7 +22271,7 @@
         <v>2</v>
       </c>
       <c r="AQ103">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR103">
         <v>1.83</v>
@@ -22462,7 +22477,7 @@
         <v>2</v>
       </c>
       <c r="AQ104">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR104">
         <v>1.63</v>
@@ -22587,7 +22602,7 @@
         <v>170</v>
       </c>
       <c r="P105" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q105">
         <v>2.69</v>
@@ -22793,7 +22808,7 @@
         <v>171</v>
       </c>
       <c r="P106" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q106">
         <v>2.56</v>
@@ -22871,7 +22886,7 @@
         <v>0.33</v>
       </c>
       <c r="AP106">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ106">
         <v>0.29</v>
@@ -23411,7 +23426,7 @@
         <v>174</v>
       </c>
       <c r="P109" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q109">
         <v>3.5</v>
@@ -23617,7 +23632,7 @@
         <v>175</v>
       </c>
       <c r="P110" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q110">
         <v>2.43</v>
@@ -23823,7 +23838,7 @@
         <v>103</v>
       </c>
       <c r="P111" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q111">
         <v>3.02</v>
@@ -23980,6 +23995,1242 @@
       </c>
       <c r="BP111">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="112" spans="1:68">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>7296381</v>
+      </c>
+      <c r="C112" t="s">
+        <v>68</v>
+      </c>
+      <c r="D112" t="s">
+        <v>69</v>
+      </c>
+      <c r="E112" s="2">
+        <v>45493.45833333334</v>
+      </c>
+      <c r="F112">
+        <v>15</v>
+      </c>
+      <c r="G112" t="s">
+        <v>80</v>
+      </c>
+      <c r="H112" t="s">
+        <v>83</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>1</v>
+      </c>
+      <c r="L112">
+        <v>3</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <v>3</v>
+      </c>
+      <c r="O112" t="s">
+        <v>176</v>
+      </c>
+      <c r="P112" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q112">
+        <v>2.65</v>
+      </c>
+      <c r="R112">
+        <v>2.4</v>
+      </c>
+      <c r="S112">
+        <v>3.5</v>
+      </c>
+      <c r="T112">
+        <v>1.25</v>
+      </c>
+      <c r="U112">
+        <v>3.65</v>
+      </c>
+      <c r="V112">
+        <v>2.24</v>
+      </c>
+      <c r="W112">
+        <v>1.59</v>
+      </c>
+      <c r="X112">
+        <v>4.95</v>
+      </c>
+      <c r="Y112">
+        <v>1.14</v>
+      </c>
+      <c r="Z112">
+        <v>2.1</v>
+      </c>
+      <c r="AA112">
+        <v>3.55</v>
+      </c>
+      <c r="AB112">
+        <v>3</v>
+      </c>
+      <c r="AC112">
+        <v>1.02</v>
+      </c>
+      <c r="AD112">
+        <v>12</v>
+      </c>
+      <c r="AE112">
+        <v>1.16</v>
+      </c>
+      <c r="AF112">
+        <v>5</v>
+      </c>
+      <c r="AG112">
+        <v>1.57</v>
+      </c>
+      <c r="AH112">
+        <v>2.35</v>
+      </c>
+      <c r="AI112">
+        <v>1.47</v>
+      </c>
+      <c r="AJ112">
+        <v>2.65</v>
+      </c>
+      <c r="AK112">
+        <v>1.36</v>
+      </c>
+      <c r="AL112">
+        <v>1.22</v>
+      </c>
+      <c r="AM112">
+        <v>1.75</v>
+      </c>
+      <c r="AN112">
+        <v>1.67</v>
+      </c>
+      <c r="AO112">
+        <v>1.29</v>
+      </c>
+      <c r="AP112">
+        <v>1.86</v>
+      </c>
+      <c r="AQ112">
+        <v>1.13</v>
+      </c>
+      <c r="AR112">
+        <v>1.58</v>
+      </c>
+      <c r="AS112">
+        <v>1.11</v>
+      </c>
+      <c r="AT112">
+        <v>2.69</v>
+      </c>
+      <c r="AU112">
+        <v>6</v>
+      </c>
+      <c r="AV112">
+        <v>7</v>
+      </c>
+      <c r="AW112">
+        <v>6</v>
+      </c>
+      <c r="AX112">
+        <v>6</v>
+      </c>
+      <c r="AY112">
+        <v>12</v>
+      </c>
+      <c r="AZ112">
+        <v>13</v>
+      </c>
+      <c r="BA112">
+        <v>2</v>
+      </c>
+      <c r="BB112">
+        <v>5</v>
+      </c>
+      <c r="BC112">
+        <v>7</v>
+      </c>
+      <c r="BD112">
+        <v>1.69</v>
+      </c>
+      <c r="BE112">
+        <v>8.5</v>
+      </c>
+      <c r="BF112">
+        <v>2.53</v>
+      </c>
+      <c r="BG112">
+        <v>0</v>
+      </c>
+      <c r="BH112">
+        <v>0</v>
+      </c>
+      <c r="BI112">
+        <v>1.24</v>
+      </c>
+      <c r="BJ112">
+        <v>3.48</v>
+      </c>
+      <c r="BK112">
+        <v>1.44</v>
+      </c>
+      <c r="BL112">
+        <v>2.51</v>
+      </c>
+      <c r="BM112">
+        <v>1.9</v>
+      </c>
+      <c r="BN112">
+        <v>1.9</v>
+      </c>
+      <c r="BO112">
+        <v>2.19</v>
+      </c>
+      <c r="BP112">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="113" spans="1:68">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>7296384</v>
+      </c>
+      <c r="C113" t="s">
+        <v>68</v>
+      </c>
+      <c r="D113" t="s">
+        <v>69</v>
+      </c>
+      <c r="E113" s="2">
+        <v>45493.45833333334</v>
+      </c>
+      <c r="F113">
+        <v>15</v>
+      </c>
+      <c r="G113" t="s">
+        <v>85</v>
+      </c>
+      <c r="H113" t="s">
+        <v>70</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113">
+        <v>2</v>
+      </c>
+      <c r="N113">
+        <v>2</v>
+      </c>
+      <c r="O113" t="s">
+        <v>103</v>
+      </c>
+      <c r="P113" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q113">
+        <v>2.85</v>
+      </c>
+      <c r="R113">
+        <v>2.35</v>
+      </c>
+      <c r="S113">
+        <v>3.3</v>
+      </c>
+      <c r="T113">
+        <v>1.26</v>
+      </c>
+      <c r="U113">
+        <v>3.5</v>
+      </c>
+      <c r="V113">
+        <v>2.29</v>
+      </c>
+      <c r="W113">
+        <v>1.56</v>
+      </c>
+      <c r="X113">
+        <v>4.95</v>
+      </c>
+      <c r="Y113">
+        <v>1.14</v>
+      </c>
+      <c r="Z113">
+        <v>2.18</v>
+      </c>
+      <c r="AA113">
+        <v>3.5</v>
+      </c>
+      <c r="AB113">
+        <v>2.9</v>
+      </c>
+      <c r="AC113">
+        <v>1.03</v>
+      </c>
+      <c r="AD113">
+        <v>12</v>
+      </c>
+      <c r="AE113">
+        <v>1.13</v>
+      </c>
+      <c r="AF113">
+        <v>4.9</v>
+      </c>
+      <c r="AG113">
+        <v>1.65</v>
+      </c>
+      <c r="AH113">
+        <v>2.2</v>
+      </c>
+      <c r="AI113">
+        <v>1.47</v>
+      </c>
+      <c r="AJ113">
+        <v>2.6</v>
+      </c>
+      <c r="AK113">
+        <v>1.25</v>
+      </c>
+      <c r="AL113">
+        <v>1.27</v>
+      </c>
+      <c r="AM113">
+        <v>1.62</v>
+      </c>
+      <c r="AN113">
+        <v>1.5</v>
+      </c>
+      <c r="AO113">
+        <v>0.5</v>
+      </c>
+      <c r="AP113">
+        <v>1.29</v>
+      </c>
+      <c r="AQ113">
+        <v>0.86</v>
+      </c>
+      <c r="AR113">
+        <v>2.12</v>
+      </c>
+      <c r="AS113">
+        <v>1.97</v>
+      </c>
+      <c r="AT113">
+        <v>4.09</v>
+      </c>
+      <c r="AU113">
+        <v>10</v>
+      </c>
+      <c r="AV113">
+        <v>6</v>
+      </c>
+      <c r="AW113">
+        <v>3</v>
+      </c>
+      <c r="AX113">
+        <v>1</v>
+      </c>
+      <c r="AY113">
+        <v>13</v>
+      </c>
+      <c r="AZ113">
+        <v>7</v>
+      </c>
+      <c r="BA113">
+        <v>3</v>
+      </c>
+      <c r="BB113">
+        <v>10</v>
+      </c>
+      <c r="BC113">
+        <v>13</v>
+      </c>
+      <c r="BD113">
+        <v>1.85</v>
+      </c>
+      <c r="BE113">
+        <v>8.5</v>
+      </c>
+      <c r="BF113">
+        <v>2.27</v>
+      </c>
+      <c r="BG113">
+        <v>0</v>
+      </c>
+      <c r="BH113">
+        <v>0</v>
+      </c>
+      <c r="BI113">
+        <v>1.29</v>
+      </c>
+      <c r="BJ113">
+        <v>3.45</v>
+      </c>
+      <c r="BK113">
+        <v>1.39</v>
+      </c>
+      <c r="BL113">
+        <v>2.67</v>
+      </c>
+      <c r="BM113">
+        <v>1.88</v>
+      </c>
+      <c r="BN113">
+        <v>1.92</v>
+      </c>
+      <c r="BO113">
+        <v>2.11</v>
+      </c>
+      <c r="BP113">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="114" spans="1:68">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>7296382</v>
+      </c>
+      <c r="C114" t="s">
+        <v>68</v>
+      </c>
+      <c r="D114" t="s">
+        <v>69</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45493.45833333334</v>
+      </c>
+      <c r="F114">
+        <v>15</v>
+      </c>
+      <c r="G114" t="s">
+        <v>79</v>
+      </c>
+      <c r="H114" t="s">
+        <v>81</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+      <c r="O114" t="s">
+        <v>103</v>
+      </c>
+      <c r="P114" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q114">
+        <v>3.4</v>
+      </c>
+      <c r="R114">
+        <v>2.4</v>
+      </c>
+      <c r="S114">
+        <v>2.7</v>
+      </c>
+      <c r="T114">
+        <v>1.24</v>
+      </c>
+      <c r="U114">
+        <v>3.7</v>
+      </c>
+      <c r="V114">
+        <v>2.22</v>
+      </c>
+      <c r="W114">
+        <v>1.6</v>
+      </c>
+      <c r="X114">
+        <v>4.9</v>
+      </c>
+      <c r="Y114">
+        <v>1.15</v>
+      </c>
+      <c r="Z114">
+        <v>2.85</v>
+      </c>
+      <c r="AA114">
+        <v>3.65</v>
+      </c>
+      <c r="AB114">
+        <v>2.15</v>
+      </c>
+      <c r="AC114">
+        <v>1.02</v>
+      </c>
+      <c r="AD114">
+        <v>12</v>
+      </c>
+      <c r="AE114">
+        <v>1.16</v>
+      </c>
+      <c r="AF114">
+        <v>5</v>
+      </c>
+      <c r="AG114">
+        <v>1.46</v>
+      </c>
+      <c r="AH114">
+        <v>2.41</v>
+      </c>
+      <c r="AI114">
+        <v>1.47</v>
+      </c>
+      <c r="AJ114">
+        <v>2.65</v>
+      </c>
+      <c r="AK114">
+        <v>1.7</v>
+      </c>
+      <c r="AL114">
+        <v>1.2</v>
+      </c>
+      <c r="AM114">
+        <v>1.4</v>
+      </c>
+      <c r="AN114">
+        <v>1.5</v>
+      </c>
+      <c r="AO114">
+        <v>1.29</v>
+      </c>
+      <c r="AP114">
+        <v>1.43</v>
+      </c>
+      <c r="AQ114">
+        <v>1.25</v>
+      </c>
+      <c r="AR114">
+        <v>1.27</v>
+      </c>
+      <c r="AS114">
+        <v>1.82</v>
+      </c>
+      <c r="AT114">
+        <v>3.09</v>
+      </c>
+      <c r="AU114">
+        <v>3</v>
+      </c>
+      <c r="AV114">
+        <v>11</v>
+      </c>
+      <c r="AW114">
+        <v>4</v>
+      </c>
+      <c r="AX114">
+        <v>4</v>
+      </c>
+      <c r="AY114">
+        <v>7</v>
+      </c>
+      <c r="AZ114">
+        <v>15</v>
+      </c>
+      <c r="BA114">
+        <v>1</v>
+      </c>
+      <c r="BB114">
+        <v>7</v>
+      </c>
+      <c r="BC114">
+        <v>8</v>
+      </c>
+      <c r="BD114">
+        <v>2.35</v>
+      </c>
+      <c r="BE114">
+        <v>8.5</v>
+      </c>
+      <c r="BF114">
+        <v>1.75</v>
+      </c>
+      <c r="BG114">
+        <v>0</v>
+      </c>
+      <c r="BH114">
+        <v>0</v>
+      </c>
+      <c r="BI114">
+        <v>0</v>
+      </c>
+      <c r="BJ114">
+        <v>0</v>
+      </c>
+      <c r="BK114">
+        <v>1.26</v>
+      </c>
+      <c r="BL114">
+        <v>3.34</v>
+      </c>
+      <c r="BM114">
+        <v>1.46</v>
+      </c>
+      <c r="BN114">
+        <v>2.45</v>
+      </c>
+      <c r="BO114">
+        <v>2</v>
+      </c>
+      <c r="BP114">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:68">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>7296380</v>
+      </c>
+      <c r="C115" t="s">
+        <v>68</v>
+      </c>
+      <c r="D115" t="s">
+        <v>69</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45493.45833333334</v>
+      </c>
+      <c r="F115">
+        <v>15</v>
+      </c>
+      <c r="G115" t="s">
+        <v>77</v>
+      </c>
+      <c r="H115" t="s">
+        <v>71</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>1</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>1</v>
+      </c>
+      <c r="O115" t="s">
+        <v>130</v>
+      </c>
+      <c r="P115" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q115">
+        <v>3</v>
+      </c>
+      <c r="R115">
+        <v>2.35</v>
+      </c>
+      <c r="S115">
+        <v>3.1</v>
+      </c>
+      <c r="T115">
+        <v>1.26</v>
+      </c>
+      <c r="U115">
+        <v>3.5</v>
+      </c>
+      <c r="V115">
+        <v>2.29</v>
+      </c>
+      <c r="W115">
+        <v>1.56</v>
+      </c>
+      <c r="X115">
+        <v>4.95</v>
+      </c>
+      <c r="Y115">
+        <v>1.14</v>
+      </c>
+      <c r="Z115">
+        <v>2.33</v>
+      </c>
+      <c r="AA115">
+        <v>3.5</v>
+      </c>
+      <c r="AB115">
+        <v>2.65</v>
+      </c>
+      <c r="AC115">
+        <v>1.02</v>
+      </c>
+      <c r="AD115">
+        <v>17</v>
+      </c>
+      <c r="AE115">
+        <v>1.17</v>
+      </c>
+      <c r="AF115">
+        <v>5</v>
+      </c>
+      <c r="AG115">
+        <v>1.54</v>
+      </c>
+      <c r="AH115">
+        <v>2.4</v>
+      </c>
+      <c r="AI115">
+        <v>1.42</v>
+      </c>
+      <c r="AJ115">
+        <v>2.55</v>
+      </c>
+      <c r="AK115">
+        <v>1.35</v>
+      </c>
+      <c r="AL115">
+        <v>1.27</v>
+      </c>
+      <c r="AM115">
+        <v>1.47</v>
+      </c>
+      <c r="AN115">
+        <v>2.29</v>
+      </c>
+      <c r="AO115">
+        <v>1.57</v>
+      </c>
+      <c r="AP115">
+        <v>2.38</v>
+      </c>
+      <c r="AQ115">
+        <v>1.38</v>
+      </c>
+      <c r="AR115">
+        <v>1.53</v>
+      </c>
+      <c r="AS115">
+        <v>1.52</v>
+      </c>
+      <c r="AT115">
+        <v>3.05</v>
+      </c>
+      <c r="AU115">
+        <v>5</v>
+      </c>
+      <c r="AV115">
+        <v>6</v>
+      </c>
+      <c r="AW115">
+        <v>6</v>
+      </c>
+      <c r="AX115">
+        <v>4</v>
+      </c>
+      <c r="AY115">
+        <v>11</v>
+      </c>
+      <c r="AZ115">
+        <v>10</v>
+      </c>
+      <c r="BA115">
+        <v>6</v>
+      </c>
+      <c r="BB115">
+        <v>6</v>
+      </c>
+      <c r="BC115">
+        <v>12</v>
+      </c>
+      <c r="BD115">
+        <v>1.91</v>
+      </c>
+      <c r="BE115">
+        <v>8</v>
+      </c>
+      <c r="BF115">
+        <v>2.1</v>
+      </c>
+      <c r="BG115">
+        <v>1.2</v>
+      </c>
+      <c r="BH115">
+        <v>4.25</v>
+      </c>
+      <c r="BI115">
+        <v>1.31</v>
+      </c>
+      <c r="BJ115">
+        <v>3.04</v>
+      </c>
+      <c r="BK115">
+        <v>1.56</v>
+      </c>
+      <c r="BL115">
+        <v>2.21</v>
+      </c>
+      <c r="BM115">
+        <v>1.95</v>
+      </c>
+      <c r="BN115">
+        <v>1.76</v>
+      </c>
+      <c r="BO115">
+        <v>2.51</v>
+      </c>
+      <c r="BP115">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="116" spans="1:68">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>7296385</v>
+      </c>
+      <c r="C116" t="s">
+        <v>68</v>
+      </c>
+      <c r="D116" t="s">
+        <v>69</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45493.45833333334</v>
+      </c>
+      <c r="F116">
+        <v>15</v>
+      </c>
+      <c r="G116" t="s">
+        <v>78</v>
+      </c>
+      <c r="H116" t="s">
+        <v>72</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>1</v>
+      </c>
+      <c r="M116">
+        <v>2</v>
+      </c>
+      <c r="N116">
+        <v>3</v>
+      </c>
+      <c r="O116" t="s">
+        <v>177</v>
+      </c>
+      <c r="P116" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q116">
+        <v>4.5</v>
+      </c>
+      <c r="R116">
+        <v>2.55</v>
+      </c>
+      <c r="S116">
+        <v>2.15</v>
+      </c>
+      <c r="T116">
+        <v>1.22</v>
+      </c>
+      <c r="U116">
+        <v>3.9</v>
+      </c>
+      <c r="V116">
+        <v>2.13</v>
+      </c>
+      <c r="W116">
+        <v>1.65</v>
+      </c>
+      <c r="X116">
+        <v>4.45</v>
+      </c>
+      <c r="Y116">
+        <v>1.17</v>
+      </c>
+      <c r="Z116">
+        <v>4.4</v>
+      </c>
+      <c r="AA116">
+        <v>4.3</v>
+      </c>
+      <c r="AB116">
+        <v>1.6</v>
+      </c>
+      <c r="AC116">
+        <v>1.02</v>
+      </c>
+      <c r="AD116">
+        <v>23.5</v>
+      </c>
+      <c r="AE116">
+        <v>1.14</v>
+      </c>
+      <c r="AF116">
+        <v>5.5</v>
+      </c>
+      <c r="AG116">
+        <v>1.45</v>
+      </c>
+      <c r="AH116">
+        <v>2.43</v>
+      </c>
+      <c r="AI116">
+        <v>1.45</v>
+      </c>
+      <c r="AJ116">
+        <v>2.45</v>
+      </c>
+      <c r="AK116">
+        <v>2.25</v>
+      </c>
+      <c r="AL116">
+        <v>1.17</v>
+      </c>
+      <c r="AM116">
+        <v>1.2</v>
+      </c>
+      <c r="AN116">
+        <v>1.57</v>
+      </c>
+      <c r="AO116">
+        <v>2</v>
+      </c>
+      <c r="AP116">
+        <v>1.38</v>
+      </c>
+      <c r="AQ116">
+        <v>2.13</v>
+      </c>
+      <c r="AR116">
+        <v>1.83</v>
+      </c>
+      <c r="AS116">
+        <v>1.89</v>
+      </c>
+      <c r="AT116">
+        <v>3.72</v>
+      </c>
+      <c r="AU116">
+        <v>6</v>
+      </c>
+      <c r="AV116">
+        <v>9</v>
+      </c>
+      <c r="AW116">
+        <v>7</v>
+      </c>
+      <c r="AX116">
+        <v>9</v>
+      </c>
+      <c r="AY116">
+        <v>13</v>
+      </c>
+      <c r="AZ116">
+        <v>18</v>
+      </c>
+      <c r="BA116">
+        <v>4</v>
+      </c>
+      <c r="BB116">
+        <v>4</v>
+      </c>
+      <c r="BC116">
+        <v>8</v>
+      </c>
+      <c r="BD116">
+        <v>3.07</v>
+      </c>
+      <c r="BE116">
+        <v>8.5</v>
+      </c>
+      <c r="BF116">
+        <v>1.51</v>
+      </c>
+      <c r="BG116">
+        <v>0</v>
+      </c>
+      <c r="BH116">
+        <v>0</v>
+      </c>
+      <c r="BI116">
+        <v>1.25</v>
+      </c>
+      <c r="BJ116">
+        <v>3.42</v>
+      </c>
+      <c r="BK116">
+        <v>1.45</v>
+      </c>
+      <c r="BL116">
+        <v>2.48</v>
+      </c>
+      <c r="BM116">
+        <v>1.78</v>
+      </c>
+      <c r="BN116">
+        <v>1.93</v>
+      </c>
+      <c r="BO116">
+        <v>2.23</v>
+      </c>
+      <c r="BP116">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="117" spans="1:68">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>7296379</v>
+      </c>
+      <c r="C117" t="s">
+        <v>68</v>
+      </c>
+      <c r="D117" t="s">
+        <v>69</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45493.45833333334</v>
+      </c>
+      <c r="F117">
+        <v>15</v>
+      </c>
+      <c r="G117" t="s">
+        <v>84</v>
+      </c>
+      <c r="H117" t="s">
+        <v>74</v>
+      </c>
+      <c r="I117">
+        <v>2</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
+      <c r="K117">
+        <v>3</v>
+      </c>
+      <c r="L117">
+        <v>3</v>
+      </c>
+      <c r="M117">
+        <v>1</v>
+      </c>
+      <c r="N117">
+        <v>4</v>
+      </c>
+      <c r="O117" t="s">
+        <v>178</v>
+      </c>
+      <c r="P117" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q117">
+        <v>2.05</v>
+      </c>
+      <c r="R117">
+        <v>2.55</v>
+      </c>
+      <c r="S117">
+        <v>5</v>
+      </c>
+      <c r="T117">
+        <v>1.24</v>
+      </c>
+      <c r="U117">
+        <v>3.7</v>
+      </c>
+      <c r="V117">
+        <v>2.24</v>
+      </c>
+      <c r="W117">
+        <v>1.59</v>
+      </c>
+      <c r="X117">
+        <v>4.95</v>
+      </c>
+      <c r="Y117">
+        <v>1.14</v>
+      </c>
+      <c r="Z117">
+        <v>1.6</v>
+      </c>
+      <c r="AA117">
+        <v>4.1</v>
+      </c>
+      <c r="AB117">
+        <v>4.4</v>
+      </c>
+      <c r="AC117">
+        <v>1.02</v>
+      </c>
+      <c r="AD117">
+        <v>10</v>
+      </c>
+      <c r="AE117">
+        <v>1.16</v>
+      </c>
+      <c r="AF117">
+        <v>5</v>
+      </c>
+      <c r="AG117">
+        <v>1.42</v>
+      </c>
+      <c r="AH117">
+        <v>2.51</v>
+      </c>
+      <c r="AI117">
+        <v>1.62</v>
+      </c>
+      <c r="AJ117">
+        <v>2.3</v>
+      </c>
+      <c r="AK117">
+        <v>1.16</v>
+      </c>
+      <c r="AL117">
+        <v>1.16</v>
+      </c>
+      <c r="AM117">
+        <v>2.4</v>
+      </c>
+      <c r="AN117">
+        <v>1.43</v>
+      </c>
+      <c r="AO117">
+        <v>0.57</v>
+      </c>
+      <c r="AP117">
+        <v>1.63</v>
+      </c>
+      <c r="AQ117">
+        <v>0.5</v>
+      </c>
+      <c r="AR117">
+        <v>1.77</v>
+      </c>
+      <c r="AS117">
+        <v>1.31</v>
+      </c>
+      <c r="AT117">
+        <v>3.08</v>
+      </c>
+      <c r="AU117">
+        <v>8</v>
+      </c>
+      <c r="AV117">
+        <v>5</v>
+      </c>
+      <c r="AW117">
+        <v>8</v>
+      </c>
+      <c r="AX117">
+        <v>9</v>
+      </c>
+      <c r="AY117">
+        <v>16</v>
+      </c>
+      <c r="AZ117">
+        <v>14</v>
+      </c>
+      <c r="BA117">
+        <v>7</v>
+      </c>
+      <c r="BB117">
+        <v>5</v>
+      </c>
+      <c r="BC117">
+        <v>12</v>
+      </c>
+      <c r="BD117">
+        <v>1.45</v>
+      </c>
+      <c r="BE117">
+        <v>9</v>
+      </c>
+      <c r="BF117">
+        <v>3.32</v>
+      </c>
+      <c r="BG117">
+        <v>1.14</v>
+      </c>
+      <c r="BH117">
+        <v>4.9</v>
+      </c>
+      <c r="BI117">
+        <v>1.25</v>
+      </c>
+      <c r="BJ117">
+        <v>3.42</v>
+      </c>
+      <c r="BK117">
+        <v>1.45</v>
+      </c>
+      <c r="BL117">
+        <v>2.48</v>
+      </c>
+      <c r="BM117">
+        <v>2</v>
+      </c>
+      <c r="BN117">
+        <v>1.8</v>
+      </c>
+      <c r="BO117">
+        <v>2.23</v>
+      </c>
+      <c r="BP117">
+        <v>1.55</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="251">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -765,6 +765,9 @@
   <si>
     <t>['77', '90+6']</t>
   </si>
+  <si>
+    <t>['42', '66', '84']</t>
+  </si>
 </sst>
 </file>
 
@@ -1125,7 +1128,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP117"/>
+  <dimension ref="A1:BP118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2289,7 +2292,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ6">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -3316,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ11">
         <v>2.13</v>
@@ -4967,7 +4970,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ19">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR19">
         <v>1.35</v>
@@ -6818,7 +6821,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ28">
         <v>0.86</v>
@@ -7851,7 +7854,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ33">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR33">
         <v>1.74</v>
@@ -9290,7 +9293,7 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ40">
         <v>0.5</v>
@@ -12177,7 +12180,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ54">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR54">
         <v>1.33</v>
@@ -13204,7 +13207,7 @@
         <v>0.33</v>
       </c>
       <c r="AP59">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ59">
         <v>1.43</v>
@@ -14855,7 +14858,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ67">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR67">
         <v>2.39</v>
@@ -15885,7 +15888,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ72">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR72">
         <v>2</v>
@@ -16912,7 +16915,7 @@
         <v>1.25</v>
       </c>
       <c r="AP77">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ77">
         <v>1.14</v>
@@ -22886,7 +22889,7 @@
         <v>0.33</v>
       </c>
       <c r="AP106">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ106">
         <v>0.29</v>
@@ -23095,7 +23098,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ107">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR107">
         <v>1.86</v>
@@ -24534,7 +24537,7 @@
         <v>1.29</v>
       </c>
       <c r="AP114">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ114">
         <v>1.25</v>
@@ -25231,6 +25234,212 @@
       </c>
       <c r="BP117">
         <v>1.55</v>
+      </c>
+    </row>
+    <row r="118" spans="1:68">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>7296355</v>
+      </c>
+      <c r="C118" t="s">
+        <v>68</v>
+      </c>
+      <c r="D118" t="s">
+        <v>69</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45496.58333333334</v>
+      </c>
+      <c r="F118">
+        <v>12</v>
+      </c>
+      <c r="G118" t="s">
+        <v>79</v>
+      </c>
+      <c r="H118" t="s">
+        <v>82</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>1</v>
+      </c>
+      <c r="K118">
+        <v>1</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>3</v>
+      </c>
+      <c r="N118">
+        <v>3</v>
+      </c>
+      <c r="O118" t="s">
+        <v>103</v>
+      </c>
+      <c r="P118" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q118">
+        <v>3.2</v>
+      </c>
+      <c r="R118">
+        <v>2.2</v>
+      </c>
+      <c r="S118">
+        <v>2.95</v>
+      </c>
+      <c r="T118">
+        <v>1.34</v>
+      </c>
+      <c r="U118">
+        <v>3.1</v>
+      </c>
+      <c r="V118">
+        <v>2.57</v>
+      </c>
+      <c r="W118">
+        <v>1.47</v>
+      </c>
+      <c r="X118">
+        <v>6.2</v>
+      </c>
+      <c r="Y118">
+        <v>1.1</v>
+      </c>
+      <c r="Z118">
+        <v>2.5</v>
+      </c>
+      <c r="AA118">
+        <v>3.3</v>
+      </c>
+      <c r="AB118">
+        <v>2.4</v>
+      </c>
+      <c r="AC118">
+        <v>1.02</v>
+      </c>
+      <c r="AD118">
+        <v>10.5</v>
+      </c>
+      <c r="AE118">
+        <v>1.21</v>
+      </c>
+      <c r="AF118">
+        <v>3.74</v>
+      </c>
+      <c r="AG118">
+        <v>1.76</v>
+      </c>
+      <c r="AH118">
+        <v>2.04</v>
+      </c>
+      <c r="AI118">
+        <v>1.62</v>
+      </c>
+      <c r="AJ118">
+        <v>2.25</v>
+      </c>
+      <c r="AK118">
+        <v>1.52</v>
+      </c>
+      <c r="AL118">
+        <v>1.32</v>
+      </c>
+      <c r="AM118">
+        <v>1.45</v>
+      </c>
+      <c r="AN118">
+        <v>1.43</v>
+      </c>
+      <c r="AO118">
+        <v>0.86</v>
+      </c>
+      <c r="AP118">
+        <v>1.25</v>
+      </c>
+      <c r="AQ118">
+        <v>1.13</v>
+      </c>
+      <c r="AR118">
+        <v>1.22</v>
+      </c>
+      <c r="AS118">
+        <v>1.46</v>
+      </c>
+      <c r="AT118">
+        <v>2.68</v>
+      </c>
+      <c r="AU118">
+        <v>3</v>
+      </c>
+      <c r="AV118">
+        <v>4</v>
+      </c>
+      <c r="AW118">
+        <v>6</v>
+      </c>
+      <c r="AX118">
+        <v>7</v>
+      </c>
+      <c r="AY118">
+        <v>9</v>
+      </c>
+      <c r="AZ118">
+        <v>11</v>
+      </c>
+      <c r="BA118">
+        <v>3</v>
+      </c>
+      <c r="BB118">
+        <v>11</v>
+      </c>
+      <c r="BC118">
+        <v>14</v>
+      </c>
+      <c r="BD118">
+        <v>2.09</v>
+      </c>
+      <c r="BE118">
+        <v>6.75</v>
+      </c>
+      <c r="BF118">
+        <v>2.09</v>
+      </c>
+      <c r="BG118">
+        <v>1.15</v>
+      </c>
+      <c r="BH118">
+        <v>4.75</v>
+      </c>
+      <c r="BI118">
+        <v>1.21</v>
+      </c>
+      <c r="BJ118">
+        <v>3.74</v>
+      </c>
+      <c r="BK118">
+        <v>1.4</v>
+      </c>
+      <c r="BL118">
+        <v>2.64</v>
+      </c>
+      <c r="BM118">
+        <v>1.75</v>
+      </c>
+      <c r="BN118">
+        <v>2.06</v>
+      </c>
+      <c r="BO118">
+        <v>2.17</v>
+      </c>
+      <c r="BP118">
+        <v>1.68</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="260">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -553,6 +553,21 @@
     <t>['17', '32', '47']</t>
   </si>
   <si>
+    <t>['8']</t>
+  </si>
+  <si>
+    <t>['28', '67', '72']</t>
+  </si>
+  <si>
+    <t>['18', '33', '63', '65']</t>
+  </si>
+  <si>
+    <t>['26', '90+5']</t>
+  </si>
+  <si>
+    <t>['49']</t>
+  </si>
+  <si>
     <t>['90+1']</t>
   </si>
   <si>
@@ -767,6 +782,18 @@
   </si>
   <si>
     <t>['42', '66', '84']</t>
+  </si>
+  <si>
+    <t>['29', '76', '90+4']</t>
+  </si>
+  <si>
+    <t>['18', '23', '66', '89']</t>
+  </si>
+  <si>
+    <t>['37', '62', '85']</t>
+  </si>
+  <si>
+    <t>['25', '70']</t>
   </si>
 </sst>
 </file>
@@ -1128,7 +1155,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP118"/>
+  <dimension ref="A1:BP125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1387,7 +1414,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q2">
         <v>2.84</v>
@@ -1465,10 +1492,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AQ2">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1593,7 +1620,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q3">
         <v>2.2</v>
@@ -1671,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ3">
         <v>0.88</v>
@@ -1799,7 +1826,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -2005,7 +2032,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2083,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ5">
         <v>1.25</v>
@@ -2211,7 +2238,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q6">
         <v>2.35</v>
@@ -2289,10 +2316,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ6">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2417,7 +2444,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q7">
         <v>2.66</v>
@@ -2495,10 +2522,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
+        <v>1.11</v>
+      </c>
+      <c r="AQ7">
         <v>1.25</v>
-      </c>
-      <c r="AQ7">
-        <v>1.29</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2623,7 +2650,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q8">
         <v>2.8</v>
@@ -2704,7 +2731,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ8">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2910,7 +2937,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ9">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3035,7 +3062,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3241,7 +3268,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3447,7 +3474,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3528,7 +3555,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ12">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3731,7 +3758,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ13">
         <v>0.86</v>
@@ -3940,7 +3967,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ14">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4065,7 +4092,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q15">
         <v>2.05</v>
@@ -4143,7 +4170,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ15">
         <v>0.67</v>
@@ -4477,7 +4504,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q17">
         <v>2.15</v>
@@ -4683,7 +4710,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q18">
         <v>2.15</v>
@@ -4761,10 +4788,10 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ18">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR18">
         <v>1.34</v>
@@ -4967,10 +4994,10 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AQ19">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR19">
         <v>1.35</v>
@@ -5382,7 +5409,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ21">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR21">
         <v>1.74</v>
@@ -5507,7 +5534,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q22">
         <v>2.76</v>
@@ -5585,7 +5612,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ22">
         <v>1.13</v>
@@ -5713,7 +5740,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q23">
         <v>2.85</v>
@@ -5791,10 +5818,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ23">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR23">
         <v>1.2</v>
@@ -5919,7 +5946,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q24">
         <v>2.05</v>
@@ -5997,10 +6024,10 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ24">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR24">
         <v>1.52</v>
@@ -6203,10 +6230,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ25">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR25">
         <v>1.76</v>
@@ -6412,7 +6439,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ26">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AR26">
         <v>1.34</v>
@@ -6537,7 +6564,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6949,7 +6976,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q29">
         <v>2.25</v>
@@ -7361,7 +7388,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7645,7 +7672,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AQ32">
         <v>1.13</v>
@@ -7773,7 +7800,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q33">
         <v>3.05</v>
@@ -7854,7 +7881,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ33">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR33">
         <v>1.74</v>
@@ -7979,7 +8006,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q34">
         <v>2.26</v>
@@ -8057,10 +8084,10 @@
         <v>0.5</v>
       </c>
       <c r="AP34">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ34">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR34">
         <v>1.33</v>
@@ -8185,7 +8212,7 @@
         <v>115</v>
       </c>
       <c r="P35" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q35">
         <v>3.46</v>
@@ -8263,7 +8290,7 @@
         <v>2</v>
       </c>
       <c r="AP35">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ35">
         <v>1.25</v>
@@ -8469,10 +8496,10 @@
         <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ36">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR36">
         <v>1.75</v>
@@ -8597,7 +8624,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q37">
         <v>2.72</v>
@@ -8678,7 +8705,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ37">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR37">
         <v>1.12</v>
@@ -8803,7 +8830,7 @@
         <v>118</v>
       </c>
       <c r="P38" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q38">
         <v>4.55</v>
@@ -8881,7 +8908,7 @@
         <v>2</v>
       </c>
       <c r="AP38">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ38">
         <v>2.13</v>
@@ -9009,7 +9036,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q39">
         <v>2.78</v>
@@ -9833,7 +9860,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q43">
         <v>3.11</v>
@@ -9914,7 +9941,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ43">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR43">
         <v>1.39</v>
@@ -10039,7 +10066,7 @@
         <v>123</v>
       </c>
       <c r="P44" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q44">
         <v>3.3</v>
@@ -10117,7 +10144,7 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ44">
         <v>0.67</v>
@@ -10245,7 +10272,7 @@
         <v>94</v>
       </c>
       <c r="P45" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q45">
         <v>2.4</v>
@@ -10326,7 +10353,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ45">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR45">
         <v>2.74</v>
@@ -10529,7 +10556,7 @@
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ46">
         <v>1.38</v>
@@ -10941,7 +10968,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AQ48">
         <v>0.67</v>
@@ -11147,10 +11174,10 @@
         <v>1.33</v>
       </c>
       <c r="AP49">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ49">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR49">
         <v>1.8</v>
@@ -11275,7 +11302,7 @@
         <v>103</v>
       </c>
       <c r="P50" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q50">
         <v>3.89</v>
@@ -11353,7 +11380,7 @@
         <v>1.33</v>
       </c>
       <c r="AP50">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ50">
         <v>2.13</v>
@@ -11481,7 +11508,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q51">
         <v>2.61</v>
@@ -11562,7 +11589,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ51">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR51">
         <v>1.26</v>
@@ -11687,7 +11714,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -11893,7 +11920,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q53">
         <v>2.05</v>
@@ -11971,10 +11998,10 @@
         <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ53">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AR53">
         <v>1.86</v>
@@ -12099,7 +12126,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q54">
         <v>3.03</v>
@@ -12180,7 +12207,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ54">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR54">
         <v>1.33</v>
@@ -12383,10 +12410,10 @@
         <v>0.33</v>
       </c>
       <c r="AP55">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ55">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR55">
         <v>1.63</v>
@@ -12589,7 +12616,7 @@
         <v>0.5</v>
       </c>
       <c r="AP56">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ56">
         <v>0.5</v>
@@ -12717,7 +12744,7 @@
         <v>103</v>
       </c>
       <c r="P57" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q57">
         <v>2.57</v>
@@ -12795,7 +12822,7 @@
         <v>0.75</v>
       </c>
       <c r="AP57">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ57">
         <v>1.13</v>
@@ -12923,7 +12950,7 @@
         <v>132</v>
       </c>
       <c r="P58" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q58">
         <v>2.3</v>
@@ -13129,7 +13156,7 @@
         <v>103</v>
       </c>
       <c r="P59" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q59">
         <v>2.75</v>
@@ -13210,7 +13237,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ59">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR59">
         <v>1.1</v>
@@ -13335,7 +13362,7 @@
         <v>103</v>
       </c>
       <c r="P60" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q60">
         <v>2.32</v>
@@ -13541,7 +13568,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q61">
         <v>3.6</v>
@@ -13747,7 +13774,7 @@
         <v>134</v>
       </c>
       <c r="P62" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q62">
         <v>2.39</v>
@@ -13825,10 +13852,10 @@
         <v>1.33</v>
       </c>
       <c r="AP62">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ62">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR62">
         <v>1.79</v>
@@ -13953,7 +13980,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q63">
         <v>2.84</v>
@@ -14034,7 +14061,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ63">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR63">
         <v>1.75</v>
@@ -14159,7 +14186,7 @@
         <v>136</v>
       </c>
       <c r="P64" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q64">
         <v>2.7</v>
@@ -14240,7 +14267,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ64">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR64">
         <v>1.35</v>
@@ -14365,7 +14392,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -14443,7 +14470,7 @@
         <v>1.75</v>
       </c>
       <c r="AP65">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ65">
         <v>2.13</v>
@@ -14777,7 +14804,7 @@
         <v>139</v>
       </c>
       <c r="P67" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q67">
         <v>2.5</v>
@@ -14858,7 +14885,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ67">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR67">
         <v>2.39</v>
@@ -15061,10 +15088,10 @@
         <v>1.25</v>
       </c>
       <c r="AP68">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ68">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR68">
         <v>1.49</v>
@@ -15267,7 +15294,7 @@
         <v>1.33</v>
       </c>
       <c r="AP69">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AQ69">
         <v>0.67</v>
@@ -15395,7 +15422,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q70">
         <v>1.85</v>
@@ -15473,7 +15500,7 @@
         <v>0</v>
       </c>
       <c r="AP70">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ70">
         <v>0.67</v>
@@ -15682,7 +15709,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ71">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AR71">
         <v>1.38</v>
@@ -15807,7 +15834,7 @@
         <v>143</v>
       </c>
       <c r="P72" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q72">
         <v>2.24</v>
@@ -15888,7 +15915,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ72">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR72">
         <v>2</v>
@@ -16013,7 +16040,7 @@
         <v>103</v>
       </c>
       <c r="P73" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q73">
         <v>3.66</v>
@@ -16219,7 +16246,7 @@
         <v>144</v>
       </c>
       <c r="P74" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q74">
         <v>2.4</v>
@@ -16297,10 +16324,10 @@
         <v>2</v>
       </c>
       <c r="AP74">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ74">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR74">
         <v>1.87</v>
@@ -16425,7 +16452,7 @@
         <v>145</v>
       </c>
       <c r="P75" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q75">
         <v>2.38</v>
@@ -16503,7 +16530,7 @@
         <v>0.6</v>
       </c>
       <c r="AP75">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AQ75">
         <v>0.88</v>
@@ -16631,7 +16658,7 @@
         <v>125</v>
       </c>
       <c r="P76" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -16709,10 +16736,10 @@
         <v>1</v>
       </c>
       <c r="AP76">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ76">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR76">
         <v>1.63</v>
@@ -16918,7 +16945,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ77">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR77">
         <v>1.11</v>
@@ -17043,7 +17070,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q78">
         <v>2.75</v>
@@ -17121,7 +17148,7 @@
         <v>0.33</v>
       </c>
       <c r="AP78">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ78">
         <v>0.5</v>
@@ -17249,7 +17276,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17455,7 +17482,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q80">
         <v>2.2</v>
@@ -17661,7 +17688,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q81">
         <v>2.31</v>
@@ -17742,7 +17769,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ81">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR81">
         <v>2.48</v>
@@ -17945,10 +17972,10 @@
         <v>0.25</v>
       </c>
       <c r="AP82">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ82">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AR82">
         <v>1.64</v>
@@ -18073,7 +18100,7 @@
         <v>151</v>
       </c>
       <c r="P83" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q83">
         <v>2.7</v>
@@ -18151,7 +18178,7 @@
         <v>1.2</v>
       </c>
       <c r="AP83">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ83">
         <v>1.25</v>
@@ -18485,7 +18512,7 @@
         <v>153</v>
       </c>
       <c r="P85" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q85">
         <v>3.5</v>
@@ -18691,7 +18718,7 @@
         <v>154</v>
       </c>
       <c r="P86" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q86">
         <v>2.55</v>
@@ -18769,7 +18796,7 @@
         <v>0.75</v>
       </c>
       <c r="AP86">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ86">
         <v>0.86</v>
@@ -18897,7 +18924,7 @@
         <v>155</v>
       </c>
       <c r="P87" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q87">
         <v>2.27</v>
@@ -18978,7 +19005,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ87">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR87">
         <v>1.38</v>
@@ -19309,7 +19336,7 @@
         <v>156</v>
       </c>
       <c r="P89" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q89">
         <v>2.8</v>
@@ -19387,7 +19414,7 @@
         <v>0.5</v>
       </c>
       <c r="AP89">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ89">
         <v>0.88</v>
@@ -19515,7 +19542,7 @@
         <v>157</v>
       </c>
       <c r="P90" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q90">
         <v>2.6</v>
@@ -19593,10 +19620,10 @@
         <v>2.17</v>
       </c>
       <c r="AP90">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ90">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR90">
         <v>1.67</v>
@@ -19721,7 +19748,7 @@
         <v>158</v>
       </c>
       <c r="P91" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -19802,7 +19829,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ91">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR91">
         <v>1.98</v>
@@ -19927,7 +19954,7 @@
         <v>159</v>
       </c>
       <c r="P92" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q92">
         <v>3.6</v>
@@ -20005,7 +20032,7 @@
         <v>2</v>
       </c>
       <c r="AP92">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ92">
         <v>1.38</v>
@@ -20211,7 +20238,7 @@
         <v>0.2</v>
       </c>
       <c r="AP93">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AQ93">
         <v>0.5</v>
@@ -20339,7 +20366,7 @@
         <v>161</v>
       </c>
       <c r="P94" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q94">
         <v>2.1</v>
@@ -20420,7 +20447,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ94">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR94">
         <v>2</v>
@@ -20545,7 +20572,7 @@
         <v>162</v>
       </c>
       <c r="P95" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q95">
         <v>2.17</v>
@@ -20623,7 +20650,7 @@
         <v>0.25</v>
       </c>
       <c r="AP95">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ95">
         <v>0.67</v>
@@ -21038,7 +21065,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ97">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR97">
         <v>1.52</v>
@@ -21163,7 +21190,7 @@
         <v>149</v>
       </c>
       <c r="P98" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q98">
         <v>3.54</v>
@@ -21369,7 +21396,7 @@
         <v>165</v>
       </c>
       <c r="P99" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q99">
         <v>3.35</v>
@@ -21781,7 +21808,7 @@
         <v>167</v>
       </c>
       <c r="P101" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q101">
         <v>2.96</v>
@@ -21987,7 +22014,7 @@
         <v>168</v>
       </c>
       <c r="P102" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q102">
         <v>2.44</v>
@@ -22193,7 +22220,7 @@
         <v>103</v>
       </c>
       <c r="P103" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q103">
         <v>1.81</v>
@@ -22271,7 +22298,7 @@
         <v>0.17</v>
       </c>
       <c r="AP103">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ103">
         <v>0.5</v>
@@ -22477,7 +22504,7 @@
         <v>1.83</v>
       </c>
       <c r="AP104">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ104">
         <v>1.38</v>
@@ -22605,7 +22632,7 @@
         <v>170</v>
       </c>
       <c r="P105" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q105">
         <v>2.69</v>
@@ -22683,7 +22710,7 @@
         <v>0.57</v>
       </c>
       <c r="AP105">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ105">
         <v>0.88</v>
@@ -22811,7 +22838,7 @@
         <v>171</v>
       </c>
       <c r="P106" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q106">
         <v>2.56</v>
@@ -22892,7 +22919,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ106">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR106">
         <v>1.19</v>
@@ -23095,10 +23122,10 @@
         <v>1</v>
       </c>
       <c r="AP107">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ107">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR107">
         <v>1.86</v>
@@ -23304,7 +23331,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ108">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AR108">
         <v>1.91</v>
@@ -23429,7 +23456,7 @@
         <v>174</v>
       </c>
       <c r="P109" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q109">
         <v>3.5</v>
@@ -23507,10 +23534,10 @@
         <v>1.17</v>
       </c>
       <c r="AP109">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ109">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR109">
         <v>1.59</v>
@@ -23635,7 +23662,7 @@
         <v>175</v>
       </c>
       <c r="P110" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q110">
         <v>2.43</v>
@@ -23713,10 +23740,10 @@
         <v>1.33</v>
       </c>
       <c r="AP110">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AQ110">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR110">
         <v>1.76</v>
@@ -23841,7 +23868,7 @@
         <v>103</v>
       </c>
       <c r="P111" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q111">
         <v>3.02</v>
@@ -23919,10 +23946,10 @@
         <v>2</v>
       </c>
       <c r="AP111">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ111">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR111">
         <v>1.49</v>
@@ -24253,7 +24280,7 @@
         <v>103</v>
       </c>
       <c r="P113" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q113">
         <v>2.85</v>
@@ -24871,7 +24898,7 @@
         <v>177</v>
       </c>
       <c r="P116" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q116">
         <v>4.5</v>
@@ -25283,7 +25310,7 @@
         <v>103</v>
       </c>
       <c r="P118" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q118">
         <v>3.2</v>
@@ -25364,7 +25391,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ118">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR118">
         <v>1.22</v>
@@ -25440,6 +25467,1448 @@
       </c>
       <c r="BP118">
         <v>1.68</v>
+      </c>
+    </row>
+    <row r="119" spans="1:68">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>7296386</v>
+      </c>
+      <c r="C119" t="s">
+        <v>68</v>
+      </c>
+      <c r="D119" t="s">
+        <v>69</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45500.45833333334</v>
+      </c>
+      <c r="F119">
+        <v>16</v>
+      </c>
+      <c r="G119" t="s">
+        <v>70</v>
+      </c>
+      <c r="H119" t="s">
+        <v>76</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="J119">
+        <v>1</v>
+      </c>
+      <c r="K119">
+        <v>2</v>
+      </c>
+      <c r="L119">
+        <v>1</v>
+      </c>
+      <c r="M119">
+        <v>1</v>
+      </c>
+      <c r="N119">
+        <v>2</v>
+      </c>
+      <c r="O119" t="s">
+        <v>179</v>
+      </c>
+      <c r="P119" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q119">
+        <v>1.66</v>
+      </c>
+      <c r="R119">
+        <v>2.81</v>
+      </c>
+      <c r="S119">
+        <v>6.8</v>
+      </c>
+      <c r="T119">
+        <v>1.21</v>
+      </c>
+      <c r="U119">
+        <v>4.15</v>
+      </c>
+      <c r="V119">
+        <v>2.01</v>
+      </c>
+      <c r="W119">
+        <v>1.75</v>
+      </c>
+      <c r="X119">
+        <v>4.15</v>
+      </c>
+      <c r="Y119">
+        <v>1.21</v>
+      </c>
+      <c r="Z119">
+        <v>1.45</v>
+      </c>
+      <c r="AA119">
+        <v>4.64</v>
+      </c>
+      <c r="AB119">
+        <v>5.46</v>
+      </c>
+      <c r="AC119">
+        <v>1.01</v>
+      </c>
+      <c r="AD119">
+        <v>26.5</v>
+      </c>
+      <c r="AE119">
+        <v>1.08</v>
+      </c>
+      <c r="AF119">
+        <v>5.9</v>
+      </c>
+      <c r="AG119">
+        <v>1.37</v>
+      </c>
+      <c r="AH119">
+        <v>2.69</v>
+      </c>
+      <c r="AI119">
+        <v>1.67</v>
+      </c>
+      <c r="AJ119">
+        <v>2.08</v>
+      </c>
+      <c r="AK119">
+        <v>1.05</v>
+      </c>
+      <c r="AL119">
+        <v>1.12</v>
+      </c>
+      <c r="AM119">
+        <v>3.48</v>
+      </c>
+      <c r="AN119">
+        <v>2.63</v>
+      </c>
+      <c r="AO119">
+        <v>0.17</v>
+      </c>
+      <c r="AP119">
+        <v>2.44</v>
+      </c>
+      <c r="AQ119">
+        <v>0.29</v>
+      </c>
+      <c r="AR119">
+        <v>1.8</v>
+      </c>
+      <c r="AS119">
+        <v>0.89</v>
+      </c>
+      <c r="AT119">
+        <v>2.69</v>
+      </c>
+      <c r="AU119">
+        <v>5</v>
+      </c>
+      <c r="AV119">
+        <v>4</v>
+      </c>
+      <c r="AW119">
+        <v>11</v>
+      </c>
+      <c r="AX119">
+        <v>9</v>
+      </c>
+      <c r="AY119">
+        <v>16</v>
+      </c>
+      <c r="AZ119">
+        <v>13</v>
+      </c>
+      <c r="BA119">
+        <v>8</v>
+      </c>
+      <c r="BB119">
+        <v>4</v>
+      </c>
+      <c r="BC119">
+        <v>12</v>
+      </c>
+      <c r="BD119">
+        <v>1.31</v>
+      </c>
+      <c r="BE119">
+        <v>10</v>
+      </c>
+      <c r="BF119">
+        <v>4.11</v>
+      </c>
+      <c r="BG119">
+        <v>0</v>
+      </c>
+      <c r="BH119">
+        <v>0</v>
+      </c>
+      <c r="BI119">
+        <v>1.26</v>
+      </c>
+      <c r="BJ119">
+        <v>3.65</v>
+      </c>
+      <c r="BK119">
+        <v>1.47</v>
+      </c>
+      <c r="BL119">
+        <v>2.55</v>
+      </c>
+      <c r="BM119">
+        <v>1.82</v>
+      </c>
+      <c r="BN119">
+        <v>1.98</v>
+      </c>
+      <c r="BO119">
+        <v>2.3</v>
+      </c>
+      <c r="BP119">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="120" spans="1:68">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>7296387</v>
+      </c>
+      <c r="C120" t="s">
+        <v>68</v>
+      </c>
+      <c r="D120" t="s">
+        <v>69</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45500.45833333334</v>
+      </c>
+      <c r="F120">
+        <v>16</v>
+      </c>
+      <c r="G120" t="s">
+        <v>74</v>
+      </c>
+      <c r="H120" t="s">
+        <v>79</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+      <c r="O120" t="s">
+        <v>103</v>
+      </c>
+      <c r="P120" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q120">
+        <v>2.75</v>
+      </c>
+      <c r="R120">
+        <v>2.3</v>
+      </c>
+      <c r="S120">
+        <v>3.5</v>
+      </c>
+      <c r="T120">
+        <v>1.33</v>
+      </c>
+      <c r="U120">
+        <v>3.25</v>
+      </c>
+      <c r="V120">
+        <v>2.5</v>
+      </c>
+      <c r="W120">
+        <v>1.5</v>
+      </c>
+      <c r="X120">
+        <v>6.5</v>
+      </c>
+      <c r="Y120">
+        <v>1.12</v>
+      </c>
+      <c r="Z120">
+        <v>2.27</v>
+      </c>
+      <c r="AA120">
+        <v>3.54</v>
+      </c>
+      <c r="AB120">
+        <v>2.83</v>
+      </c>
+      <c r="AC120">
+        <v>1.03</v>
+      </c>
+      <c r="AD120">
+        <v>14</v>
+      </c>
+      <c r="AE120">
+        <v>1.18</v>
+      </c>
+      <c r="AF120">
+        <v>4.5</v>
+      </c>
+      <c r="AG120">
+        <v>1.61</v>
+      </c>
+      <c r="AH120">
+        <v>2.09</v>
+      </c>
+      <c r="AI120">
+        <v>1.57</v>
+      </c>
+      <c r="AJ120">
+        <v>2.25</v>
+      </c>
+      <c r="AK120">
+        <v>1.22</v>
+      </c>
+      <c r="AL120">
+        <v>1.26</v>
+      </c>
+      <c r="AM120">
+        <v>1.67</v>
+      </c>
+      <c r="AN120">
+        <v>1.29</v>
+      </c>
+      <c r="AO120">
+        <v>1.29</v>
+      </c>
+      <c r="AP120">
+        <v>1.25</v>
+      </c>
+      <c r="AQ120">
+        <v>1.25</v>
+      </c>
+      <c r="AR120">
+        <v>1.55</v>
+      </c>
+      <c r="AS120">
+        <v>1.34</v>
+      </c>
+      <c r="AT120">
+        <v>2.89</v>
+      </c>
+      <c r="AU120">
+        <v>5</v>
+      </c>
+      <c r="AV120">
+        <v>4</v>
+      </c>
+      <c r="AW120">
+        <v>15</v>
+      </c>
+      <c r="AX120">
+        <v>3</v>
+      </c>
+      <c r="AY120">
+        <v>20</v>
+      </c>
+      <c r="AZ120">
+        <v>7</v>
+      </c>
+      <c r="BA120">
+        <v>8</v>
+      </c>
+      <c r="BB120">
+        <v>5</v>
+      </c>
+      <c r="BC120">
+        <v>13</v>
+      </c>
+      <c r="BD120">
+        <v>1.82</v>
+      </c>
+      <c r="BE120">
+        <v>8.5</v>
+      </c>
+      <c r="BF120">
+        <v>2.32</v>
+      </c>
+      <c r="BG120">
+        <v>0</v>
+      </c>
+      <c r="BH120">
+        <v>0</v>
+      </c>
+      <c r="BI120">
+        <v>1.23</v>
+      </c>
+      <c r="BJ120">
+        <v>3.9</v>
+      </c>
+      <c r="BK120">
+        <v>1.33</v>
+      </c>
+      <c r="BL120">
+        <v>2.91</v>
+      </c>
+      <c r="BM120">
+        <v>1.6</v>
+      </c>
+      <c r="BN120">
+        <v>2.27</v>
+      </c>
+      <c r="BO120">
+        <v>1.97</v>
+      </c>
+      <c r="BP120">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="121" spans="1:68">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>7296388</v>
+      </c>
+      <c r="C121" t="s">
+        <v>68</v>
+      </c>
+      <c r="D121" t="s">
+        <v>69</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45500.45833333334</v>
+      </c>
+      <c r="F121">
+        <v>16</v>
+      </c>
+      <c r="G121" t="s">
+        <v>71</v>
+      </c>
+      <c r="H121" t="s">
+        <v>82</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="J121">
+        <v>1</v>
+      </c>
+      <c r="K121">
+        <v>2</v>
+      </c>
+      <c r="L121">
+        <v>3</v>
+      </c>
+      <c r="M121">
+        <v>3</v>
+      </c>
+      <c r="N121">
+        <v>6</v>
+      </c>
+      <c r="O121" t="s">
+        <v>180</v>
+      </c>
+      <c r="P121" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q121">
+        <v>2.38</v>
+      </c>
+      <c r="R121">
+        <v>2.39</v>
+      </c>
+      <c r="S121">
+        <v>3.75</v>
+      </c>
+      <c r="T121">
+        <v>1.26</v>
+      </c>
+      <c r="U121">
+        <v>3.62</v>
+      </c>
+      <c r="V121">
+        <v>2.23</v>
+      </c>
+      <c r="W121">
+        <v>1.62</v>
+      </c>
+      <c r="X121">
+        <v>4.95</v>
+      </c>
+      <c r="Y121">
+        <v>1.15</v>
+      </c>
+      <c r="Z121">
+        <v>1.8</v>
+      </c>
+      <c r="AA121">
+        <v>3.88</v>
+      </c>
+      <c r="AB121">
+        <v>3.73</v>
+      </c>
+      <c r="AC121">
+        <v>1.02</v>
+      </c>
+      <c r="AD121">
+        <v>10</v>
+      </c>
+      <c r="AE121">
+        <v>1.13</v>
+      </c>
+      <c r="AF121">
+        <v>4.85</v>
+      </c>
+      <c r="AG121">
+        <v>1.51</v>
+      </c>
+      <c r="AH121">
+        <v>2.29</v>
+      </c>
+      <c r="AI121">
+        <v>1.45</v>
+      </c>
+      <c r="AJ121">
+        <v>2.45</v>
+      </c>
+      <c r="AK121">
+        <v>1.28</v>
+      </c>
+      <c r="AL121">
+        <v>1.23</v>
+      </c>
+      <c r="AM121">
+        <v>1.85</v>
+      </c>
+      <c r="AN121">
+        <v>2</v>
+      </c>
+      <c r="AO121">
+        <v>1.13</v>
+      </c>
+      <c r="AP121">
+        <v>1.88</v>
+      </c>
+      <c r="AQ121">
+        <v>1.11</v>
+      </c>
+      <c r="AR121">
+        <v>1.76</v>
+      </c>
+      <c r="AS121">
+        <v>1.48</v>
+      </c>
+      <c r="AT121">
+        <v>3.24</v>
+      </c>
+      <c r="AU121">
+        <v>12</v>
+      </c>
+      <c r="AV121">
+        <v>8</v>
+      </c>
+      <c r="AW121">
+        <v>5</v>
+      </c>
+      <c r="AX121">
+        <v>0</v>
+      </c>
+      <c r="AY121">
+        <v>17</v>
+      </c>
+      <c r="AZ121">
+        <v>8</v>
+      </c>
+      <c r="BA121">
+        <v>4</v>
+      </c>
+      <c r="BB121">
+        <v>2</v>
+      </c>
+      <c r="BC121">
+        <v>6</v>
+      </c>
+      <c r="BD121">
+        <v>1.64</v>
+      </c>
+      <c r="BE121">
+        <v>8.5</v>
+      </c>
+      <c r="BF121">
+        <v>2.66</v>
+      </c>
+      <c r="BG121">
+        <v>1.18</v>
+      </c>
+      <c r="BH121">
+        <v>4.6</v>
+      </c>
+      <c r="BI121">
+        <v>1.32</v>
+      </c>
+      <c r="BJ121">
+        <v>2.98</v>
+      </c>
+      <c r="BK121">
+        <v>1.64</v>
+      </c>
+      <c r="BL121">
+        <v>2.2</v>
+      </c>
+      <c r="BM121">
+        <v>2</v>
+      </c>
+      <c r="BN121">
+        <v>1.8</v>
+      </c>
+      <c r="BO121">
+        <v>2.57</v>
+      </c>
+      <c r="BP121">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="122" spans="1:68">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>7296389</v>
+      </c>
+      <c r="C122" t="s">
+        <v>68</v>
+      </c>
+      <c r="D122" t="s">
+        <v>69</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45500.45833333334</v>
+      </c>
+      <c r="F122">
+        <v>16</v>
+      </c>
+      <c r="G122" t="s">
+        <v>83</v>
+      </c>
+      <c r="H122" t="s">
+        <v>78</v>
+      </c>
+      <c r="I122">
+        <v>2</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>2</v>
+      </c>
+      <c r="L122">
+        <v>4</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <v>4</v>
+      </c>
+      <c r="O122" t="s">
+        <v>181</v>
+      </c>
+      <c r="P122" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q122">
+        <v>2.19</v>
+      </c>
+      <c r="R122">
+        <v>2.4</v>
+      </c>
+      <c r="S122">
+        <v>4.3</v>
+      </c>
+      <c r="T122">
+        <v>1.27</v>
+      </c>
+      <c r="U122">
+        <v>3.54</v>
+      </c>
+      <c r="V122">
+        <v>2.25</v>
+      </c>
+      <c r="W122">
+        <v>1.6</v>
+      </c>
+      <c r="X122">
+        <v>5.05</v>
+      </c>
+      <c r="Y122">
+        <v>1.15</v>
+      </c>
+      <c r="Z122">
+        <v>1.68</v>
+      </c>
+      <c r="AA122">
+        <v>3.98</v>
+      </c>
+      <c r="AB122">
+        <v>4.2</v>
+      </c>
+      <c r="AC122">
+        <v>1.02</v>
+      </c>
+      <c r="AD122">
+        <v>12</v>
+      </c>
+      <c r="AE122">
+        <v>1.14</v>
+      </c>
+      <c r="AF122">
+        <v>4.7</v>
+      </c>
+      <c r="AG122">
+        <v>1.51</v>
+      </c>
+      <c r="AH122">
+        <v>2.28</v>
+      </c>
+      <c r="AI122">
+        <v>1.54</v>
+      </c>
+      <c r="AJ122">
+        <v>2.32</v>
+      </c>
+      <c r="AK122">
+        <v>1.2</v>
+      </c>
+      <c r="AL122">
+        <v>1.22</v>
+      </c>
+      <c r="AM122">
+        <v>2.09</v>
+      </c>
+      <c r="AN122">
+        <v>2</v>
+      </c>
+      <c r="AO122">
+        <v>0.29</v>
+      </c>
+      <c r="AP122">
+        <v>2.13</v>
+      </c>
+      <c r="AQ122">
+        <v>0.25</v>
+      </c>
+      <c r="AR122">
+        <v>1.59</v>
+      </c>
+      <c r="AS122">
+        <v>1.33</v>
+      </c>
+      <c r="AT122">
+        <v>2.92</v>
+      </c>
+      <c r="AU122">
+        <v>7</v>
+      </c>
+      <c r="AV122">
+        <v>0</v>
+      </c>
+      <c r="AW122">
+        <v>5</v>
+      </c>
+      <c r="AX122">
+        <v>8</v>
+      </c>
+      <c r="AY122">
+        <v>12</v>
+      </c>
+      <c r="AZ122">
+        <v>8</v>
+      </c>
+      <c r="BA122">
+        <v>4</v>
+      </c>
+      <c r="BB122">
+        <v>5</v>
+      </c>
+      <c r="BC122">
+        <v>9</v>
+      </c>
+      <c r="BD122">
+        <v>1.55</v>
+      </c>
+      <c r="BE122">
+        <v>8.5</v>
+      </c>
+      <c r="BF122">
+        <v>2.91</v>
+      </c>
+      <c r="BG122">
+        <v>1.15</v>
+      </c>
+      <c r="BH122">
+        <v>4.8</v>
+      </c>
+      <c r="BI122">
+        <v>1.3</v>
+      </c>
+      <c r="BJ122">
+        <v>3.35</v>
+      </c>
+      <c r="BK122">
+        <v>1.53</v>
+      </c>
+      <c r="BL122">
+        <v>2.4</v>
+      </c>
+      <c r="BM122">
+        <v>1.9</v>
+      </c>
+      <c r="BN122">
+        <v>1.9</v>
+      </c>
+      <c r="BO122">
+        <v>2.48</v>
+      </c>
+      <c r="BP122">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:68">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>7296390</v>
+      </c>
+      <c r="C123" t="s">
+        <v>68</v>
+      </c>
+      <c r="D123" t="s">
+        <v>69</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45500.45833333334</v>
+      </c>
+      <c r="F123">
+        <v>16</v>
+      </c>
+      <c r="G123" t="s">
+        <v>81</v>
+      </c>
+      <c r="H123" t="s">
+        <v>77</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123">
+        <v>2</v>
+      </c>
+      <c r="K123">
+        <v>3</v>
+      </c>
+      <c r="L123">
+        <v>1</v>
+      </c>
+      <c r="M123">
+        <v>4</v>
+      </c>
+      <c r="N123">
+        <v>5</v>
+      </c>
+      <c r="O123" t="s">
+        <v>170</v>
+      </c>
+      <c r="P123" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q123">
+        <v>2.51</v>
+      </c>
+      <c r="R123">
+        <v>2.4</v>
+      </c>
+      <c r="S123">
+        <v>3.45</v>
+      </c>
+      <c r="T123">
+        <v>1.25</v>
+      </c>
+      <c r="U123">
+        <v>3.72</v>
+      </c>
+      <c r="V123">
+        <v>2.18</v>
+      </c>
+      <c r="W123">
+        <v>1.64</v>
+      </c>
+      <c r="X123">
+        <v>4.8</v>
+      </c>
+      <c r="Y123">
+        <v>1.16</v>
+      </c>
+      <c r="Z123">
+        <v>1.98</v>
+      </c>
+      <c r="AA123">
+        <v>3.77</v>
+      </c>
+      <c r="AB123">
+        <v>3.25</v>
+      </c>
+      <c r="AC123">
+        <v>1.02</v>
+      </c>
+      <c r="AD123">
+        <v>10</v>
+      </c>
+      <c r="AE123">
+        <v>1.12</v>
+      </c>
+      <c r="AF123">
+        <v>5.05</v>
+      </c>
+      <c r="AG123">
+        <v>1.47</v>
+      </c>
+      <c r="AH123">
+        <v>2.39</v>
+      </c>
+      <c r="AI123">
+        <v>1.44</v>
+      </c>
+      <c r="AJ123">
+        <v>2.58</v>
+      </c>
+      <c r="AK123">
+        <v>1.35</v>
+      </c>
+      <c r="AL123">
+        <v>1.24</v>
+      </c>
+      <c r="AM123">
+        <v>1.71</v>
+      </c>
+      <c r="AN123">
+        <v>2.17</v>
+      </c>
+      <c r="AO123">
+        <v>1.43</v>
+      </c>
+      <c r="AP123">
+        <v>1.86</v>
+      </c>
+      <c r="AQ123">
+        <v>1.63</v>
+      </c>
+      <c r="AR123">
+        <v>1.8</v>
+      </c>
+      <c r="AS123">
+        <v>1.55</v>
+      </c>
+      <c r="AT123">
+        <v>3.35</v>
+      </c>
+      <c r="AU123">
+        <v>8</v>
+      </c>
+      <c r="AV123">
+        <v>11</v>
+      </c>
+      <c r="AW123">
+        <v>11</v>
+      </c>
+      <c r="AX123">
+        <v>9</v>
+      </c>
+      <c r="AY123">
+        <v>19</v>
+      </c>
+      <c r="AZ123">
+        <v>20</v>
+      </c>
+      <c r="BA123">
+        <v>11</v>
+      </c>
+      <c r="BB123">
+        <v>8</v>
+      </c>
+      <c r="BC123">
+        <v>19</v>
+      </c>
+      <c r="BD123">
+        <v>1.91</v>
+      </c>
+      <c r="BE123">
+        <v>8</v>
+      </c>
+      <c r="BF123">
+        <v>2.2</v>
+      </c>
+      <c r="BG123">
+        <v>1.18</v>
+      </c>
+      <c r="BH123">
+        <v>4.6</v>
+      </c>
+      <c r="BI123">
+        <v>1.34</v>
+      </c>
+      <c r="BJ123">
+        <v>3.1</v>
+      </c>
+      <c r="BK123">
+        <v>1.6</v>
+      </c>
+      <c r="BL123">
+        <v>2.25</v>
+      </c>
+      <c r="BM123">
+        <v>2</v>
+      </c>
+      <c r="BN123">
+        <v>1.75</v>
+      </c>
+      <c r="BO123">
+        <v>2.65</v>
+      </c>
+      <c r="BP123">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="124" spans="1:68">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>7296391</v>
+      </c>
+      <c r="C124" t="s">
+        <v>68</v>
+      </c>
+      <c r="D124" t="s">
+        <v>69</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45500.45833333334</v>
+      </c>
+      <c r="F124">
+        <v>16</v>
+      </c>
+      <c r="G124" t="s">
+        <v>73</v>
+      </c>
+      <c r="H124" t="s">
+        <v>85</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124">
+        <v>1</v>
+      </c>
+      <c r="K124">
+        <v>2</v>
+      </c>
+      <c r="L124">
+        <v>2</v>
+      </c>
+      <c r="M124">
+        <v>3</v>
+      </c>
+      <c r="N124">
+        <v>5</v>
+      </c>
+      <c r="O124" t="s">
+        <v>182</v>
+      </c>
+      <c r="P124" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q124">
+        <v>2.46</v>
+      </c>
+      <c r="R124">
+        <v>2.48</v>
+      </c>
+      <c r="S124">
+        <v>3.4</v>
+      </c>
+      <c r="T124">
+        <v>1.22</v>
+      </c>
+      <c r="U124">
+        <v>4</v>
+      </c>
+      <c r="V124">
+        <v>2.04</v>
+      </c>
+      <c r="W124">
+        <v>1.73</v>
+      </c>
+      <c r="X124">
+        <v>4.3</v>
+      </c>
+      <c r="Y124">
+        <v>1.2</v>
+      </c>
+      <c r="Z124">
+        <v>2.31</v>
+      </c>
+      <c r="AA124">
+        <v>3.82</v>
+      </c>
+      <c r="AB124">
+        <v>2.62</v>
+      </c>
+      <c r="AC124">
+        <v>1.02</v>
+      </c>
+      <c r="AD124">
+        <v>25</v>
+      </c>
+      <c r="AE124">
+        <v>1.09</v>
+      </c>
+      <c r="AF124">
+        <v>5.75</v>
+      </c>
+      <c r="AG124">
+        <v>1.38</v>
+      </c>
+      <c r="AH124">
+        <v>2.66</v>
+      </c>
+      <c r="AI124">
+        <v>1.37</v>
+      </c>
+      <c r="AJ124">
+        <v>2.84</v>
+      </c>
+      <c r="AK124">
+        <v>1.35</v>
+      </c>
+      <c r="AL124">
+        <v>1.23</v>
+      </c>
+      <c r="AM124">
+        <v>1.73</v>
+      </c>
+      <c r="AN124">
+        <v>0.63</v>
+      </c>
+      <c r="AO124">
+        <v>2.13</v>
+      </c>
+      <c r="AP124">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AQ124">
+        <v>2.22</v>
+      </c>
+      <c r="AR124">
+        <v>1.3</v>
+      </c>
+      <c r="AS124">
+        <v>1.58</v>
+      </c>
+      <c r="AT124">
+        <v>2.88</v>
+      </c>
+      <c r="AU124">
+        <v>5</v>
+      </c>
+      <c r="AV124">
+        <v>7</v>
+      </c>
+      <c r="AW124">
+        <v>6</v>
+      </c>
+      <c r="AX124">
+        <v>5</v>
+      </c>
+      <c r="AY124">
+        <v>11</v>
+      </c>
+      <c r="AZ124">
+        <v>12</v>
+      </c>
+      <c r="BA124">
+        <v>4</v>
+      </c>
+      <c r="BB124">
+        <v>8</v>
+      </c>
+      <c r="BC124">
+        <v>12</v>
+      </c>
+      <c r="BD124">
+        <v>1.69</v>
+      </c>
+      <c r="BE124">
+        <v>8.5</v>
+      </c>
+      <c r="BF124">
+        <v>2.53</v>
+      </c>
+      <c r="BG124">
+        <v>0</v>
+      </c>
+      <c r="BH124">
+        <v>0</v>
+      </c>
+      <c r="BI124">
+        <v>1.25</v>
+      </c>
+      <c r="BJ124">
+        <v>3.7</v>
+      </c>
+      <c r="BK124">
+        <v>1.45</v>
+      </c>
+      <c r="BL124">
+        <v>2.63</v>
+      </c>
+      <c r="BM124">
+        <v>1.8</v>
+      </c>
+      <c r="BN124">
+        <v>2</v>
+      </c>
+      <c r="BO124">
+        <v>2.28</v>
+      </c>
+      <c r="BP124">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="125" spans="1:68">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>7296392</v>
+      </c>
+      <c r="C125" t="s">
+        <v>68</v>
+      </c>
+      <c r="D125" t="s">
+        <v>69</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45500.45833333334</v>
+      </c>
+      <c r="F125">
+        <v>16</v>
+      </c>
+      <c r="G125" t="s">
+        <v>75</v>
+      </c>
+      <c r="H125" t="s">
+        <v>84</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>1</v>
+      </c>
+      <c r="K125">
+        <v>1</v>
+      </c>
+      <c r="L125">
+        <v>1</v>
+      </c>
+      <c r="M125">
+        <v>2</v>
+      </c>
+      <c r="N125">
+        <v>3</v>
+      </c>
+      <c r="O125" t="s">
+        <v>183</v>
+      </c>
+      <c r="P125" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q125">
+        <v>3.68</v>
+      </c>
+      <c r="R125">
+        <v>2.34</v>
+      </c>
+      <c r="S125">
+        <v>2.47</v>
+      </c>
+      <c r="T125">
+        <v>1.28</v>
+      </c>
+      <c r="U125">
+        <v>3.48</v>
+      </c>
+      <c r="V125">
+        <v>2.29</v>
+      </c>
+      <c r="W125">
+        <v>1.58</v>
+      </c>
+      <c r="X125">
+        <v>5.2</v>
+      </c>
+      <c r="Y125">
+        <v>1.14</v>
+      </c>
+      <c r="Z125">
+        <v>3.08</v>
+      </c>
+      <c r="AA125">
+        <v>3.55</v>
+      </c>
+      <c r="AB125">
+        <v>2.12</v>
+      </c>
+      <c r="AC125">
+        <v>1.03</v>
+      </c>
+      <c r="AD125">
+        <v>12</v>
+      </c>
+      <c r="AE125">
+        <v>1.14</v>
+      </c>
+      <c r="AF125">
+        <v>4.55</v>
+      </c>
+      <c r="AG125">
+        <v>1.53</v>
+      </c>
+      <c r="AH125">
+        <v>2.24</v>
+      </c>
+      <c r="AI125">
+        <v>1.5</v>
+      </c>
+      <c r="AJ125">
+        <v>2.41</v>
+      </c>
+      <c r="AK125">
+        <v>1.76</v>
+      </c>
+      <c r="AL125">
+        <v>1.25</v>
+      </c>
+      <c r="AM125">
+        <v>1.31</v>
+      </c>
+      <c r="AN125">
+        <v>1.25</v>
+      </c>
+      <c r="AO125">
+        <v>1.14</v>
+      </c>
+      <c r="AP125">
+        <v>1.11</v>
+      </c>
+      <c r="AQ125">
+        <v>1.38</v>
+      </c>
+      <c r="AR125">
+        <v>1.44</v>
+      </c>
+      <c r="AS125">
+        <v>1.98</v>
+      </c>
+      <c r="AT125">
+        <v>3.42</v>
+      </c>
+      <c r="AU125">
+        <v>6</v>
+      </c>
+      <c r="AV125">
+        <v>6</v>
+      </c>
+      <c r="AW125">
+        <v>3</v>
+      </c>
+      <c r="AX125">
+        <v>3</v>
+      </c>
+      <c r="AY125">
+        <v>9</v>
+      </c>
+      <c r="AZ125">
+        <v>9</v>
+      </c>
+      <c r="BA125">
+        <v>9</v>
+      </c>
+      <c r="BB125">
+        <v>11</v>
+      </c>
+      <c r="BC125">
+        <v>20</v>
+      </c>
+      <c r="BD125">
+        <v>2.39</v>
+      </c>
+      <c r="BE125">
+        <v>8.5</v>
+      </c>
+      <c r="BF125">
+        <v>1.82</v>
+      </c>
+      <c r="BG125">
+        <v>0</v>
+      </c>
+      <c r="BH125">
+        <v>0</v>
+      </c>
+      <c r="BI125">
+        <v>1.26</v>
+      </c>
+      <c r="BJ125">
+        <v>3.65</v>
+      </c>
+      <c r="BK125">
+        <v>1.47</v>
+      </c>
+      <c r="BL125">
+        <v>2.55</v>
+      </c>
+      <c r="BM125">
+        <v>1.8</v>
+      </c>
+      <c r="BN125">
+        <v>1.95</v>
+      </c>
+      <c r="BO125">
+        <v>2.3</v>
+      </c>
+      <c r="BP125">
+        <v>1.57</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="262">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -568,6 +568,9 @@
     <t>['49']</t>
   </si>
   <si>
+    <t>['25', '51', '78']</t>
+  </si>
+  <si>
     <t>['90+1']</t>
   </si>
   <si>
@@ -794,6 +797,9 @@
   </si>
   <si>
     <t>['25', '70']</t>
+  </si>
+  <si>
+    <t>['83']</t>
   </si>
 </sst>
 </file>
@@ -1155,7 +1161,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP125"/>
+  <dimension ref="A1:BP126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1414,7 +1420,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q2">
         <v>2.84</v>
@@ -1620,7 +1626,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q3">
         <v>2.2</v>
@@ -1701,7 +1707,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ3">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1826,7 +1832,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -1904,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ4">
         <v>1.13</v>
@@ -2032,7 +2038,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2238,7 +2244,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q6">
         <v>2.35</v>
@@ -2444,7 +2450,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q7">
         <v>2.66</v>
@@ -2650,7 +2656,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q8">
         <v>2.8</v>
@@ -3062,7 +3068,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3268,7 +3274,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3474,7 +3480,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -4092,7 +4098,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q15">
         <v>2.05</v>
@@ -4504,7 +4510,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q17">
         <v>2.15</v>
@@ -4582,7 +4588,7 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ17">
         <v>1.25</v>
@@ -4710,7 +4716,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q18">
         <v>2.15</v>
@@ -5203,7 +5209,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ20">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR20">
         <v>1.13</v>
@@ -5534,7 +5540,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q22">
         <v>2.76</v>
@@ -5740,7 +5746,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q23">
         <v>2.85</v>
@@ -5946,7 +5952,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q24">
         <v>2.05</v>
@@ -6564,7 +6570,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6976,7 +6982,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q29">
         <v>2.25</v>
@@ -7388,7 +7394,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7800,7 +7806,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q33">
         <v>3.05</v>
@@ -8006,7 +8012,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q34">
         <v>2.26</v>
@@ -8212,7 +8218,7 @@
         <v>115</v>
       </c>
       <c r="P35" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q35">
         <v>3.46</v>
@@ -8624,7 +8630,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q37">
         <v>2.72</v>
@@ -8830,7 +8836,7 @@
         <v>118</v>
       </c>
       <c r="P38" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q38">
         <v>4.55</v>
@@ -9036,7 +9042,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q39">
         <v>2.78</v>
@@ -9117,7 +9123,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ39">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR39">
         <v>1.22</v>
@@ -9526,7 +9532,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ41">
         <v>0.86</v>
@@ -9735,7 +9741,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ42">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR42">
         <v>1.34</v>
@@ -9860,7 +9866,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q43">
         <v>3.11</v>
@@ -10066,7 +10072,7 @@
         <v>123</v>
       </c>
       <c r="P44" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q44">
         <v>3.3</v>
@@ -10272,7 +10278,7 @@
         <v>94</v>
       </c>
       <c r="P45" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q45">
         <v>2.4</v>
@@ -11302,7 +11308,7 @@
         <v>103</v>
       </c>
       <c r="P50" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q50">
         <v>3.89</v>
@@ -11508,7 +11514,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q51">
         <v>2.61</v>
@@ -11714,7 +11720,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -11920,7 +11926,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q53">
         <v>2.05</v>
@@ -12126,7 +12132,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q54">
         <v>3.03</v>
@@ -12744,7 +12750,7 @@
         <v>103</v>
       </c>
       <c r="P57" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q57">
         <v>2.57</v>
@@ -12950,7 +12956,7 @@
         <v>132</v>
       </c>
       <c r="P58" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q58">
         <v>2.3</v>
@@ -13031,7 +13037,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ58">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR58">
         <v>1.49</v>
@@ -13156,7 +13162,7 @@
         <v>103</v>
       </c>
       <c r="P59" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q59">
         <v>2.75</v>
@@ -13362,7 +13368,7 @@
         <v>103</v>
       </c>
       <c r="P60" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q60">
         <v>2.32</v>
@@ -13440,7 +13446,7 @@
         <v>1.33</v>
       </c>
       <c r="AP60">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ60">
         <v>1.38</v>
@@ -13568,7 +13574,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q61">
         <v>3.6</v>
@@ -13774,7 +13780,7 @@
         <v>134</v>
       </c>
       <c r="P62" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q62">
         <v>2.39</v>
@@ -13980,7 +13986,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q63">
         <v>2.84</v>
@@ -14186,7 +14192,7 @@
         <v>136</v>
       </c>
       <c r="P64" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q64">
         <v>2.7</v>
@@ -14392,7 +14398,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -14804,7 +14810,7 @@
         <v>139</v>
       </c>
       <c r="P67" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q67">
         <v>2.5</v>
@@ -15422,7 +15428,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q70">
         <v>1.85</v>
@@ -15834,7 +15840,7 @@
         <v>143</v>
       </c>
       <c r="P72" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q72">
         <v>2.24</v>
@@ -15912,7 +15918,7 @@
         <v>1.2</v>
       </c>
       <c r="AP72">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ72">
         <v>1.11</v>
@@ -16040,7 +16046,7 @@
         <v>103</v>
       </c>
       <c r="P73" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q73">
         <v>3.66</v>
@@ -16246,7 +16252,7 @@
         <v>144</v>
       </c>
       <c r="P74" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q74">
         <v>2.4</v>
@@ -16452,7 +16458,7 @@
         <v>145</v>
       </c>
       <c r="P75" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q75">
         <v>2.38</v>
@@ -16533,7 +16539,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ75">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR75">
         <v>1.76</v>
@@ -16658,7 +16664,7 @@
         <v>125</v>
       </c>
       <c r="P76" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -17070,7 +17076,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q78">
         <v>2.75</v>
@@ -17276,7 +17282,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17482,7 +17488,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q80">
         <v>2.2</v>
@@ -17688,7 +17694,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q81">
         <v>2.31</v>
@@ -18100,7 +18106,7 @@
         <v>151</v>
       </c>
       <c r="P83" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q83">
         <v>2.7</v>
@@ -18512,7 +18518,7 @@
         <v>153</v>
       </c>
       <c r="P85" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q85">
         <v>3.5</v>
@@ -18718,7 +18724,7 @@
         <v>154</v>
       </c>
       <c r="P86" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q86">
         <v>2.55</v>
@@ -18924,7 +18930,7 @@
         <v>155</v>
       </c>
       <c r="P87" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q87">
         <v>2.27</v>
@@ -19336,7 +19342,7 @@
         <v>156</v>
       </c>
       <c r="P89" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q89">
         <v>2.8</v>
@@ -19417,7 +19423,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ89">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR89">
         <v>1.53</v>
@@ -19542,7 +19548,7 @@
         <v>157</v>
       </c>
       <c r="P90" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q90">
         <v>2.6</v>
@@ -19748,7 +19754,7 @@
         <v>158</v>
       </c>
       <c r="P91" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -19954,7 +19960,7 @@
         <v>159</v>
       </c>
       <c r="P92" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q92">
         <v>3.6</v>
@@ -20366,7 +20372,7 @@
         <v>161</v>
       </c>
       <c r="P94" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q94">
         <v>2.1</v>
@@ -20444,7 +20450,7 @@
         <v>1.4</v>
       </c>
       <c r="AP94">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ94">
         <v>1.63</v>
@@ -20572,7 +20578,7 @@
         <v>162</v>
       </c>
       <c r="P95" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q95">
         <v>2.17</v>
@@ -21190,7 +21196,7 @@
         <v>149</v>
       </c>
       <c r="P98" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q98">
         <v>3.54</v>
@@ -21396,7 +21402,7 @@
         <v>165</v>
       </c>
       <c r="P99" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q99">
         <v>3.35</v>
@@ -21808,7 +21814,7 @@
         <v>167</v>
       </c>
       <c r="P101" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q101">
         <v>2.96</v>
@@ -22014,7 +22020,7 @@
         <v>168</v>
       </c>
       <c r="P102" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q102">
         <v>2.44</v>
@@ -22220,7 +22226,7 @@
         <v>103</v>
       </c>
       <c r="P103" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q103">
         <v>1.81</v>
@@ -22632,7 +22638,7 @@
         <v>170</v>
       </c>
       <c r="P105" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q105">
         <v>2.69</v>
@@ -22713,7 +22719,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ105">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR105">
         <v>1.33</v>
@@ -22838,7 +22844,7 @@
         <v>171</v>
       </c>
       <c r="P106" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q106">
         <v>2.56</v>
@@ -23328,7 +23334,7 @@
         <v>0.2</v>
       </c>
       <c r="AP108">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ108">
         <v>0.29</v>
@@ -23456,7 +23462,7 @@
         <v>174</v>
       </c>
       <c r="P109" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q109">
         <v>3.5</v>
@@ -23662,7 +23668,7 @@
         <v>175</v>
       </c>
       <c r="P110" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q110">
         <v>2.43</v>
@@ -23868,7 +23874,7 @@
         <v>103</v>
       </c>
       <c r="P111" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q111">
         <v>3.02</v>
@@ -24280,7 +24286,7 @@
         <v>103</v>
       </c>
       <c r="P113" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q113">
         <v>2.85</v>
@@ -24898,7 +24904,7 @@
         <v>177</v>
       </c>
       <c r="P116" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q116">
         <v>4.5</v>
@@ -25310,7 +25316,7 @@
         <v>103</v>
       </c>
       <c r="P118" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q118">
         <v>3.2</v>
@@ -25928,7 +25934,7 @@
         <v>180</v>
       </c>
       <c r="P121" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q121">
         <v>2.38</v>
@@ -26340,7 +26346,7 @@
         <v>170</v>
       </c>
       <c r="P123" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q123">
         <v>2.51</v>
@@ -26546,7 +26552,7 @@
         <v>182</v>
       </c>
       <c r="P124" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q124">
         <v>2.46</v>
@@ -26752,7 +26758,7 @@
         <v>183</v>
       </c>
       <c r="P125" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q125">
         <v>3.68</v>
@@ -26909,6 +26915,212 @@
       </c>
       <c r="BP125">
         <v>1.57</v>
+      </c>
+    </row>
+    <row r="126" spans="1:68">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>7296393</v>
+      </c>
+      <c r="C126" t="s">
+        <v>68</v>
+      </c>
+      <c r="D126" t="s">
+        <v>69</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45502.58333333334</v>
+      </c>
+      <c r="F126">
+        <v>16</v>
+      </c>
+      <c r="G126" t="s">
+        <v>72</v>
+      </c>
+      <c r="H126" t="s">
+        <v>80</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>1</v>
+      </c>
+      <c r="L126">
+        <v>3</v>
+      </c>
+      <c r="M126">
+        <v>1</v>
+      </c>
+      <c r="N126">
+        <v>4</v>
+      </c>
+      <c r="O126" t="s">
+        <v>184</v>
+      </c>
+      <c r="P126" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q126">
+        <v>1.95</v>
+      </c>
+      <c r="R126">
+        <v>2.7</v>
+      </c>
+      <c r="S126">
+        <v>5</v>
+      </c>
+      <c r="T126">
+        <v>1.22</v>
+      </c>
+      <c r="U126">
+        <v>3.98</v>
+      </c>
+      <c r="V126">
+        <v>2.08</v>
+      </c>
+      <c r="W126">
+        <v>1.7</v>
+      </c>
+      <c r="X126">
+        <v>4.45</v>
+      </c>
+      <c r="Y126">
+        <v>1.18</v>
+      </c>
+      <c r="Z126">
+        <v>1.4</v>
+      </c>
+      <c r="AA126">
+        <v>4.75</v>
+      </c>
+      <c r="AB126">
+        <v>5.75</v>
+      </c>
+      <c r="AC126">
+        <v>1.02</v>
+      </c>
+      <c r="AD126">
+        <v>24</v>
+      </c>
+      <c r="AE126">
+        <v>1.12</v>
+      </c>
+      <c r="AF126">
+        <v>6</v>
+      </c>
+      <c r="AG126">
+        <v>1.39</v>
+      </c>
+      <c r="AH126">
+        <v>2.64</v>
+      </c>
+      <c r="AI126">
+        <v>1.53</v>
+      </c>
+      <c r="AJ126">
+        <v>2.4</v>
+      </c>
+      <c r="AK126">
+        <v>1.13</v>
+      </c>
+      <c r="AL126">
+        <v>1.16</v>
+      </c>
+      <c r="AM126">
+        <v>2.48</v>
+      </c>
+      <c r="AN126">
+        <v>1.86</v>
+      </c>
+      <c r="AO126">
+        <v>0.88</v>
+      </c>
+      <c r="AP126">
+        <v>2</v>
+      </c>
+      <c r="AQ126">
+        <v>0.78</v>
+      </c>
+      <c r="AR126">
+        <v>2.04</v>
+      </c>
+      <c r="AS126">
+        <v>1.5</v>
+      </c>
+      <c r="AT126">
+        <v>3.54</v>
+      </c>
+      <c r="AU126">
+        <v>10</v>
+      </c>
+      <c r="AV126">
+        <v>8</v>
+      </c>
+      <c r="AW126">
+        <v>1</v>
+      </c>
+      <c r="AX126">
+        <v>6</v>
+      </c>
+      <c r="AY126">
+        <v>11</v>
+      </c>
+      <c r="AZ126">
+        <v>14</v>
+      </c>
+      <c r="BA126">
+        <v>6</v>
+      </c>
+      <c r="BB126">
+        <v>6</v>
+      </c>
+      <c r="BC126">
+        <v>12</v>
+      </c>
+      <c r="BD126">
+        <v>1.28</v>
+      </c>
+      <c r="BE126">
+        <v>10.75</v>
+      </c>
+      <c r="BF126">
+        <v>4.33</v>
+      </c>
+      <c r="BG126">
+        <v>0</v>
+      </c>
+      <c r="BH126">
+        <v>0</v>
+      </c>
+      <c r="BI126">
+        <v>1.23</v>
+      </c>
+      <c r="BJ126">
+        <v>3.56</v>
+      </c>
+      <c r="BK126">
+        <v>1.42</v>
+      </c>
+      <c r="BL126">
+        <v>2.57</v>
+      </c>
+      <c r="BM126">
+        <v>1.74</v>
+      </c>
+      <c r="BN126">
+        <v>1.98</v>
+      </c>
+      <c r="BO126">
+        <v>2.15</v>
+      </c>
+      <c r="BP126">
+        <v>1.59</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="263">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -569,6 +569,9 @@
   </si>
   <si>
     <t>['25', '51', '78']</t>
+  </si>
+  <si>
+    <t>['11', '24', '65']</t>
   </si>
   <si>
     <t>['90+1']</t>
@@ -1161,7 +1164,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP126"/>
+  <dimension ref="A1:BP127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1420,7 +1423,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q2">
         <v>2.84</v>
@@ -1626,7 +1629,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q3">
         <v>2.2</v>
@@ -1832,7 +1835,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -2038,7 +2041,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2244,7 +2247,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q6">
         <v>2.35</v>
@@ -2450,7 +2453,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q7">
         <v>2.66</v>
@@ -2656,7 +2659,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q8">
         <v>2.8</v>
@@ -3068,7 +3071,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3274,7 +3277,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3480,7 +3483,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3561,7 +3564,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ12">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3764,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ13">
         <v>0.86</v>
@@ -4098,7 +4101,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q15">
         <v>2.05</v>
@@ -4510,7 +4513,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q17">
         <v>2.15</v>
@@ -4716,7 +4719,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q18">
         <v>2.15</v>
@@ -5540,7 +5543,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q22">
         <v>2.76</v>
@@ -5746,7 +5749,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q23">
         <v>2.85</v>
@@ -5952,7 +5955,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q24">
         <v>2.05</v>
@@ -6445,7 +6448,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ26">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR26">
         <v>1.34</v>
@@ -6570,7 +6573,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6982,7 +6985,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q29">
         <v>2.25</v>
@@ -7394,7 +7397,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7806,7 +7809,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q33">
         <v>3.05</v>
@@ -8012,7 +8015,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q34">
         <v>2.26</v>
@@ -8218,7 +8221,7 @@
         <v>115</v>
       </c>
       <c r="P35" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q35">
         <v>3.46</v>
@@ -8630,7 +8633,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q37">
         <v>2.72</v>
@@ -8836,7 +8839,7 @@
         <v>118</v>
       </c>
       <c r="P38" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q38">
         <v>4.55</v>
@@ -9042,7 +9045,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q39">
         <v>2.78</v>
@@ -9866,7 +9869,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q43">
         <v>3.11</v>
@@ -10072,7 +10075,7 @@
         <v>123</v>
       </c>
       <c r="P44" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q44">
         <v>3.3</v>
@@ -10278,7 +10281,7 @@
         <v>94</v>
       </c>
       <c r="P45" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q45">
         <v>2.4</v>
@@ -10562,7 +10565,7 @@
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ46">
         <v>1.38</v>
@@ -11308,7 +11311,7 @@
         <v>103</v>
       </c>
       <c r="P50" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q50">
         <v>3.89</v>
@@ -11514,7 +11517,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q51">
         <v>2.61</v>
@@ -11720,7 +11723,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -11926,7 +11929,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q53">
         <v>2.05</v>
@@ -12007,7 +12010,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ53">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR53">
         <v>1.86</v>
@@ -12132,7 +12135,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q54">
         <v>3.03</v>
@@ -12750,7 +12753,7 @@
         <v>103</v>
       </c>
       <c r="P57" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q57">
         <v>2.57</v>
@@ -12956,7 +12959,7 @@
         <v>132</v>
       </c>
       <c r="P58" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q58">
         <v>2.3</v>
@@ -13162,7 +13165,7 @@
         <v>103</v>
       </c>
       <c r="P59" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q59">
         <v>2.75</v>
@@ -13368,7 +13371,7 @@
         <v>103</v>
       </c>
       <c r="P60" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q60">
         <v>2.32</v>
@@ -13574,7 +13577,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q61">
         <v>3.6</v>
@@ -13780,7 +13783,7 @@
         <v>134</v>
       </c>
       <c r="P62" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q62">
         <v>2.39</v>
@@ -13858,7 +13861,7 @@
         <v>1.33</v>
       </c>
       <c r="AP62">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ62">
         <v>1.38</v>
@@ -13986,7 +13989,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q63">
         <v>2.84</v>
@@ -14192,7 +14195,7 @@
         <v>136</v>
       </c>
       <c r="P64" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q64">
         <v>2.7</v>
@@ -14398,7 +14401,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -14810,7 +14813,7 @@
         <v>139</v>
       </c>
       <c r="P67" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q67">
         <v>2.5</v>
@@ -15428,7 +15431,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q70">
         <v>1.85</v>
@@ -15715,7 +15718,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ71">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR71">
         <v>1.38</v>
@@ -15840,7 +15843,7 @@
         <v>143</v>
       </c>
       <c r="P72" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q72">
         <v>2.24</v>
@@ -16046,7 +16049,7 @@
         <v>103</v>
       </c>
       <c r="P73" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q73">
         <v>3.66</v>
@@ -16252,7 +16255,7 @@
         <v>144</v>
       </c>
       <c r="P74" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q74">
         <v>2.4</v>
@@ -16330,7 +16333,7 @@
         <v>2</v>
       </c>
       <c r="AP74">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ74">
         <v>2.22</v>
@@ -16458,7 +16461,7 @@
         <v>145</v>
       </c>
       <c r="P75" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q75">
         <v>2.38</v>
@@ -16664,7 +16667,7 @@
         <v>125</v>
       </c>
       <c r="P76" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -17076,7 +17079,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q78">
         <v>2.75</v>
@@ -17282,7 +17285,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17488,7 +17491,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q80">
         <v>2.2</v>
@@ -17694,7 +17697,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q81">
         <v>2.31</v>
@@ -17981,7 +17984,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ82">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR82">
         <v>1.64</v>
@@ -18106,7 +18109,7 @@
         <v>151</v>
       </c>
       <c r="P83" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q83">
         <v>2.7</v>
@@ -18518,7 +18521,7 @@
         <v>153</v>
       </c>
       <c r="P85" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q85">
         <v>3.5</v>
@@ -18724,7 +18727,7 @@
         <v>154</v>
       </c>
       <c r="P86" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q86">
         <v>2.55</v>
@@ -18930,7 +18933,7 @@
         <v>155</v>
       </c>
       <c r="P87" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q87">
         <v>2.27</v>
@@ -19342,7 +19345,7 @@
         <v>156</v>
       </c>
       <c r="P89" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q89">
         <v>2.8</v>
@@ -19548,7 +19551,7 @@
         <v>157</v>
       </c>
       <c r="P90" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q90">
         <v>2.6</v>
@@ -19754,7 +19757,7 @@
         <v>158</v>
       </c>
       <c r="P91" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -19960,7 +19963,7 @@
         <v>159</v>
       </c>
       <c r="P92" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q92">
         <v>3.6</v>
@@ -20372,7 +20375,7 @@
         <v>161</v>
       </c>
       <c r="P94" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q94">
         <v>2.1</v>
@@ -20578,7 +20581,7 @@
         <v>162</v>
       </c>
       <c r="P95" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q95">
         <v>2.17</v>
@@ -20656,7 +20659,7 @@
         <v>0.25</v>
       </c>
       <c r="AP95">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ95">
         <v>0.67</v>
@@ -21196,7 +21199,7 @@
         <v>149</v>
       </c>
       <c r="P98" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q98">
         <v>3.54</v>
@@ -21402,7 +21405,7 @@
         <v>165</v>
       </c>
       <c r="P99" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q99">
         <v>3.35</v>
@@ -21814,7 +21817,7 @@
         <v>167</v>
       </c>
       <c r="P101" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q101">
         <v>2.96</v>
@@ -22020,7 +22023,7 @@
         <v>168</v>
       </c>
       <c r="P102" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q102">
         <v>2.44</v>
@@ -22226,7 +22229,7 @@
         <v>103</v>
       </c>
       <c r="P103" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q103">
         <v>1.81</v>
@@ -22638,7 +22641,7 @@
         <v>170</v>
       </c>
       <c r="P105" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q105">
         <v>2.69</v>
@@ -22844,7 +22847,7 @@
         <v>171</v>
       </c>
       <c r="P106" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q106">
         <v>2.56</v>
@@ -23128,7 +23131,7 @@
         <v>1</v>
       </c>
       <c r="AP107">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ107">
         <v>1.11</v>
@@ -23337,7 +23340,7 @@
         <v>2</v>
       </c>
       <c r="AQ108">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR108">
         <v>1.91</v>
@@ -23462,7 +23465,7 @@
         <v>174</v>
       </c>
       <c r="P109" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q109">
         <v>3.5</v>
@@ -23668,7 +23671,7 @@
         <v>175</v>
       </c>
       <c r="P110" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q110">
         <v>2.43</v>
@@ -23874,7 +23877,7 @@
         <v>103</v>
       </c>
       <c r="P111" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q111">
         <v>3.02</v>
@@ -24286,7 +24289,7 @@
         <v>103</v>
       </c>
       <c r="P113" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q113">
         <v>2.85</v>
@@ -24904,7 +24907,7 @@
         <v>177</v>
       </c>
       <c r="P116" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q116">
         <v>4.5</v>
@@ -25316,7 +25319,7 @@
         <v>103</v>
       </c>
       <c r="P118" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q118">
         <v>3.2</v>
@@ -25603,7 +25606,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ119">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR119">
         <v>1.8</v>
@@ -25934,7 +25937,7 @@
         <v>180</v>
       </c>
       <c r="P121" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q121">
         <v>2.38</v>
@@ -26346,7 +26349,7 @@
         <v>170</v>
       </c>
       <c r="P123" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q123">
         <v>2.51</v>
@@ -26424,7 +26427,7 @@
         <v>1.43</v>
       </c>
       <c r="AP123">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ123">
         <v>1.63</v>
@@ -26552,7 +26555,7 @@
         <v>182</v>
       </c>
       <c r="P124" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q124">
         <v>2.46</v>
@@ -26758,7 +26761,7 @@
         <v>183</v>
       </c>
       <c r="P125" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q125">
         <v>3.68</v>
@@ -26964,7 +26967,7 @@
         <v>184</v>
       </c>
       <c r="P126" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q126">
         <v>1.95</v>
@@ -27121,6 +27124,212 @@
       </c>
       <c r="BP126">
         <v>1.59</v>
+      </c>
+    </row>
+    <row r="127" spans="1:68">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>7296357</v>
+      </c>
+      <c r="C127" t="s">
+        <v>68</v>
+      </c>
+      <c r="D127" t="s">
+        <v>69</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45504.58333333334</v>
+      </c>
+      <c r="F127">
+        <v>12</v>
+      </c>
+      <c r="G127" t="s">
+        <v>81</v>
+      </c>
+      <c r="H127" t="s">
+        <v>76</v>
+      </c>
+      <c r="I127">
+        <v>2</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>2</v>
+      </c>
+      <c r="L127">
+        <v>3</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127">
+        <v>3</v>
+      </c>
+      <c r="O127" t="s">
+        <v>185</v>
+      </c>
+      <c r="P127" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q127">
+        <v>1.72</v>
+      </c>
+      <c r="R127">
+        <v>2.9</v>
+      </c>
+      <c r="S127">
+        <v>5.25</v>
+      </c>
+      <c r="T127">
+        <v>1.15</v>
+      </c>
+      <c r="U127">
+        <v>4.75</v>
+      </c>
+      <c r="V127">
+        <v>1.73</v>
+      </c>
+      <c r="W127">
+        <v>2</v>
+      </c>
+      <c r="X127">
+        <v>3.2</v>
+      </c>
+      <c r="Y127">
+        <v>1.3</v>
+      </c>
+      <c r="Z127">
+        <v>1.33</v>
+      </c>
+      <c r="AA127">
+        <v>5.25</v>
+      </c>
+      <c r="AB127">
+        <v>6.25</v>
+      </c>
+      <c r="AC127">
+        <v>1.01</v>
+      </c>
+      <c r="AD127">
+        <v>45</v>
+      </c>
+      <c r="AE127">
+        <v>1.05</v>
+      </c>
+      <c r="AF127">
+        <v>8</v>
+      </c>
+      <c r="AG127">
+        <v>1.25</v>
+      </c>
+      <c r="AH127">
+        <v>3.5</v>
+      </c>
+      <c r="AI127">
+        <v>1.45</v>
+      </c>
+      <c r="AJ127">
+        <v>2.75</v>
+      </c>
+      <c r="AK127">
+        <v>1.09</v>
+      </c>
+      <c r="AL127">
+        <v>1.13</v>
+      </c>
+      <c r="AM127">
+        <v>3</v>
+      </c>
+      <c r="AN127">
+        <v>1.86</v>
+      </c>
+      <c r="AO127">
+        <v>0.29</v>
+      </c>
+      <c r="AP127">
+        <v>2</v>
+      </c>
+      <c r="AQ127">
+        <v>0.25</v>
+      </c>
+      <c r="AR127">
+        <v>1.83</v>
+      </c>
+      <c r="AS127">
+        <v>0.96</v>
+      </c>
+      <c r="AT127">
+        <v>2.79</v>
+      </c>
+      <c r="AU127">
+        <v>12</v>
+      </c>
+      <c r="AV127">
+        <v>3</v>
+      </c>
+      <c r="AW127">
+        <v>12</v>
+      </c>
+      <c r="AX127">
+        <v>7</v>
+      </c>
+      <c r="AY127">
+        <v>24</v>
+      </c>
+      <c r="AZ127">
+        <v>10</v>
+      </c>
+      <c r="BA127">
+        <v>2</v>
+      </c>
+      <c r="BB127">
+        <v>7</v>
+      </c>
+      <c r="BC127">
+        <v>9</v>
+      </c>
+      <c r="BD127">
+        <v>1.2</v>
+      </c>
+      <c r="BE127">
+        <v>9.6</v>
+      </c>
+      <c r="BF127">
+        <v>6.05</v>
+      </c>
+      <c r="BG127">
+        <v>1.12</v>
+      </c>
+      <c r="BH127">
+        <v>5.25</v>
+      </c>
+      <c r="BI127">
+        <v>1.25</v>
+      </c>
+      <c r="BJ127">
+        <v>3.6</v>
+      </c>
+      <c r="BK127">
+        <v>1.35</v>
+      </c>
+      <c r="BL127">
+        <v>2.84</v>
+      </c>
+      <c r="BM127">
+        <v>1.68</v>
+      </c>
+      <c r="BN127">
+        <v>2.13</v>
+      </c>
+      <c r="BO127">
+        <v>2.06</v>
+      </c>
+      <c r="BP127">
+        <v>1.74</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="272">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -574,6 +574,15 @@
     <t>['11', '24', '65']</t>
   </si>
   <si>
+    <t>['89']</t>
+  </si>
+  <si>
+    <t>['11', '63']</t>
+  </si>
+  <si>
+    <t>['3', '6', '21', '36', '61', '77', '82']</t>
+  </si>
+  <si>
     <t>['90+1']</t>
   </si>
   <si>
@@ -581,9 +590,6 @@
   </si>
   <si>
     <t>['37']</t>
-  </si>
-  <si>
-    <t>['89']</t>
   </si>
   <si>
     <t>['43', '48']</t>
@@ -803,6 +809,27 @@
   </si>
   <si>
     <t>['83']</t>
+  </si>
+  <si>
+    <t>['24', '52']</t>
+  </si>
+  <si>
+    <t>['38', '48']</t>
+  </si>
+  <si>
+    <t>['73', '77', '89']</t>
+  </si>
+  <si>
+    <t>['11', '25']</t>
+  </si>
+  <si>
+    <t>['32', '90+7']</t>
+  </si>
+  <si>
+    <t>['64']</t>
+  </si>
+  <si>
+    <t>['81']</t>
   </si>
 </sst>
 </file>
@@ -1164,7 +1191,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP127"/>
+  <dimension ref="A1:BP135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1423,7 +1450,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q2">
         <v>2.84</v>
@@ -1629,7 +1656,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q3">
         <v>2.2</v>
@@ -1835,7 +1862,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -1916,7 +1943,7 @@
         <v>2</v>
       </c>
       <c r="AQ4">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2041,7 +2068,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2122,7 +2149,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ5">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2247,7 +2274,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q6">
         <v>2.35</v>
@@ -2453,7 +2480,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q7">
         <v>2.66</v>
@@ -2659,7 +2686,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q8">
         <v>2.8</v>
@@ -2737,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ8">
         <v>2.22</v>
@@ -2943,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ9">
         <v>1.38</v>
@@ -3071,7 +3098,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3149,10 +3176,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ10">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3277,7 +3304,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3355,10 +3382,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ11">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3483,7 +3510,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3561,7 +3588,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ12">
         <v>0.25</v>
@@ -3770,7 +3797,7 @@
         <v>2</v>
       </c>
       <c r="AQ13">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3973,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ14">
         <v>1.63</v>
@@ -4101,7 +4128,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q15">
         <v>2.05</v>
@@ -4182,7 +4209,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ15">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4385,10 +4412,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ16">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4513,7 +4540,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q17">
         <v>2.15</v>
@@ -4594,7 +4621,7 @@
         <v>2</v>
       </c>
       <c r="AQ17">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR17">
         <v>2.14</v>
@@ -4719,7 +4746,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q18">
         <v>2.15</v>
@@ -5209,7 +5236,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ20">
         <v>0.78</v>
@@ -5415,7 +5442,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
         <v>1.25</v>
@@ -5543,7 +5570,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q22">
         <v>2.76</v>
@@ -5624,7 +5651,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ22">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR22">
         <v>1.02</v>
@@ -5749,7 +5776,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q23">
         <v>2.85</v>
@@ -5955,7 +5982,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q24">
         <v>2.05</v>
@@ -6445,7 +6472,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ26">
         <v>0.25</v>
@@ -6573,7 +6600,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6651,10 +6678,10 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ27">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR27">
         <v>1.67</v>
@@ -6857,10 +6884,10 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ28">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR28">
         <v>0.98</v>
@@ -6985,7 +7012,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q29">
         <v>2.25</v>
@@ -7063,10 +7090,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ29">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR29">
         <v>1.26</v>
@@ -7269,10 +7296,10 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ30">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR30">
         <v>0</v>
@@ -7397,7 +7424,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7475,10 +7502,10 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ31">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR31">
         <v>0.83</v>
@@ -7684,7 +7711,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ32">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR32">
         <v>1.53</v>
@@ -7809,7 +7836,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q33">
         <v>3.05</v>
@@ -7887,7 +7914,7 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ33">
         <v>1.11</v>
@@ -8015,7 +8042,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q34">
         <v>2.26</v>
@@ -8221,7 +8248,7 @@
         <v>115</v>
       </c>
       <c r="P35" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q35">
         <v>3.46</v>
@@ -8302,7 +8329,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ35">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR35">
         <v>1.41</v>
@@ -8633,7 +8660,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q37">
         <v>2.72</v>
@@ -8711,7 +8738,7 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ37">
         <v>2.22</v>
@@ -8839,7 +8866,7 @@
         <v>118</v>
       </c>
       <c r="P38" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q38">
         <v>4.55</v>
@@ -8920,7 +8947,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ38">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR38">
         <v>1.21</v>
@@ -9045,7 +9072,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q39">
         <v>2.78</v>
@@ -9123,7 +9150,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ39">
         <v>0.78</v>
@@ -9329,10 +9356,10 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ40">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR40">
         <v>0.79</v>
@@ -9538,7 +9565,7 @@
         <v>2</v>
       </c>
       <c r="AQ41">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR41">
         <v>2.44</v>
@@ -9741,7 +9768,7 @@
         <v>0.33</v>
       </c>
       <c r="AP42">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ42">
         <v>0.78</v>
@@ -9869,7 +9896,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q43">
         <v>3.11</v>
@@ -9947,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ43">
         <v>1.63</v>
@@ -10075,7 +10102,7 @@
         <v>123</v>
       </c>
       <c r="P44" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q44">
         <v>3.3</v>
@@ -10156,7 +10183,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ44">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR44">
         <v>1.31</v>
@@ -10281,7 +10308,7 @@
         <v>94</v>
       </c>
       <c r="P45" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q45">
         <v>2.4</v>
@@ -10359,7 +10386,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ45">
         <v>1.38</v>
@@ -10568,7 +10595,7 @@
         <v>2</v>
       </c>
       <c r="AQ46">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR46">
         <v>1.14</v>
@@ -10771,10 +10798,10 @@
         <v>0.67</v>
       </c>
       <c r="AP47">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ47">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR47">
         <v>1.55</v>
@@ -10980,7 +11007,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ48">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR48">
         <v>1.78</v>
@@ -11311,7 +11338,7 @@
         <v>103</v>
       </c>
       <c r="P50" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q50">
         <v>3.89</v>
@@ -11392,7 +11419,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ50">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR50">
         <v>1.3</v>
@@ -11517,7 +11544,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q51">
         <v>2.61</v>
@@ -11595,7 +11622,7 @@
         <v>2.33</v>
       </c>
       <c r="AP51">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ51">
         <v>2.22</v>
@@ -11723,7 +11750,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -11801,10 +11828,10 @@
         <v>1.67</v>
       </c>
       <c r="AP52">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ52">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR52">
         <v>1.25</v>
@@ -11929,7 +11956,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q53">
         <v>2.05</v>
@@ -12135,7 +12162,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q54">
         <v>3.03</v>
@@ -12213,7 +12240,7 @@
         <v>1.67</v>
       </c>
       <c r="AP54">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ54">
         <v>1.11</v>
@@ -12628,7 +12655,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ56">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR56">
         <v>1.56</v>
@@ -12753,7 +12780,7 @@
         <v>103</v>
       </c>
       <c r="P57" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q57">
         <v>2.57</v>
@@ -12834,7 +12861,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ57">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR57">
         <v>1.2</v>
@@ -12959,7 +12986,7 @@
         <v>132</v>
       </c>
       <c r="P58" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q58">
         <v>2.3</v>
@@ -13037,7 +13064,7 @@
         <v>0.5</v>
       </c>
       <c r="AP58">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ58">
         <v>0.78</v>
@@ -13165,7 +13192,7 @@
         <v>103</v>
       </c>
       <c r="P59" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q59">
         <v>2.75</v>
@@ -13243,7 +13270,7 @@
         <v>0.33</v>
       </c>
       <c r="AP59">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ59">
         <v>1.63</v>
@@ -13371,7 +13398,7 @@
         <v>103</v>
       </c>
       <c r="P60" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q60">
         <v>2.32</v>
@@ -13452,7 +13479,7 @@
         <v>2</v>
       </c>
       <c r="AQ60">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR60">
         <v>2.26</v>
@@ -13577,7 +13604,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q61">
         <v>3.6</v>
@@ -13655,10 +13682,10 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ61">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR61">
         <v>1.46</v>
@@ -13783,7 +13810,7 @@
         <v>134</v>
       </c>
       <c r="P62" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q62">
         <v>2.39</v>
@@ -13989,7 +14016,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q63">
         <v>2.84</v>
@@ -14067,7 +14094,7 @@
         <v>2.5</v>
       </c>
       <c r="AP63">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ63">
         <v>2.22</v>
@@ -14195,7 +14222,7 @@
         <v>136</v>
       </c>
       <c r="P64" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q64">
         <v>2.7</v>
@@ -14273,7 +14300,7 @@
         <v>0.25</v>
       </c>
       <c r="AP64">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ64">
         <v>0.25</v>
@@ -14401,7 +14428,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -14482,7 +14509,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ65">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR65">
         <v>1.68</v>
@@ -14685,10 +14712,10 @@
         <v>1.5</v>
       </c>
       <c r="AP66">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ66">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR66">
         <v>1.59</v>
@@ -14813,7 +14840,7 @@
         <v>139</v>
       </c>
       <c r="P67" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q67">
         <v>2.5</v>
@@ -14891,7 +14918,7 @@
         <v>1.25</v>
       </c>
       <c r="AP67">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ67">
         <v>1.11</v>
@@ -15306,7 +15333,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ69">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR69">
         <v>1.74</v>
@@ -15431,7 +15458,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q70">
         <v>1.85</v>
@@ -15512,7 +15539,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ70">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR70">
         <v>1.92</v>
@@ -15715,7 +15742,7 @@
         <v>0.33</v>
       </c>
       <c r="AP71">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ71">
         <v>0.25</v>
@@ -15843,7 +15870,7 @@
         <v>143</v>
       </c>
       <c r="P72" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q72">
         <v>2.24</v>
@@ -16049,7 +16076,7 @@
         <v>103</v>
       </c>
       <c r="P73" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q73">
         <v>3.66</v>
@@ -16127,10 +16154,10 @@
         <v>1.75</v>
       </c>
       <c r="AP73">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ73">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR73">
         <v>1.41</v>
@@ -16255,7 +16282,7 @@
         <v>144</v>
       </c>
       <c r="P74" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q74">
         <v>2.4</v>
@@ -16461,7 +16488,7 @@
         <v>145</v>
       </c>
       <c r="P75" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q75">
         <v>2.38</v>
@@ -16667,7 +16694,7 @@
         <v>125</v>
       </c>
       <c r="P76" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -16951,7 +16978,7 @@
         <v>1.25</v>
       </c>
       <c r="AP77">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ77">
         <v>1.38</v>
@@ -17079,7 +17106,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q78">
         <v>2.75</v>
@@ -17160,7 +17187,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ78">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR78">
         <v>1.22</v>
@@ -17285,7 +17312,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17363,10 +17390,10 @@
         <v>1.2</v>
       </c>
       <c r="AP79">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ79">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR79">
         <v>2.01</v>
@@ -17491,7 +17518,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q80">
         <v>2.2</v>
@@ -17569,10 +17596,10 @@
         <v>0</v>
       </c>
       <c r="AP80">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ80">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR80">
         <v>1.6</v>
@@ -17697,7 +17724,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q81">
         <v>2.31</v>
@@ -17775,7 +17802,7 @@
         <v>1.2</v>
       </c>
       <c r="AP81">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ81">
         <v>1.25</v>
@@ -18109,7 +18136,7 @@
         <v>151</v>
       </c>
       <c r="P83" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q83">
         <v>2.7</v>
@@ -18190,7 +18217,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ83">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR83">
         <v>1.42</v>
@@ -18393,10 +18420,10 @@
         <v>1</v>
       </c>
       <c r="AP84">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ84">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR84">
         <v>1.53</v>
@@ -18521,7 +18548,7 @@
         <v>153</v>
       </c>
       <c r="P85" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q85">
         <v>3.5</v>
@@ -18599,10 +18626,10 @@
         <v>2</v>
       </c>
       <c r="AP85">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ85">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR85">
         <v>1.61</v>
@@ -18727,7 +18754,7 @@
         <v>154</v>
       </c>
       <c r="P86" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q86">
         <v>2.55</v>
@@ -18808,7 +18835,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ86">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR86">
         <v>1.91</v>
@@ -18933,7 +18960,7 @@
         <v>155</v>
       </c>
       <c r="P87" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q87">
         <v>2.27</v>
@@ -19011,7 +19038,7 @@
         <v>0.2</v>
       </c>
       <c r="AP87">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ87">
         <v>0.25</v>
@@ -19217,10 +19244,10 @@
         <v>0.25</v>
       </c>
       <c r="AP88">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ88">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR88">
         <v>2.39</v>
@@ -19345,7 +19372,7 @@
         <v>156</v>
       </c>
       <c r="P89" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q89">
         <v>2.8</v>
@@ -19551,7 +19578,7 @@
         <v>157</v>
       </c>
       <c r="P90" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q90">
         <v>2.6</v>
@@ -19757,7 +19784,7 @@
         <v>158</v>
       </c>
       <c r="P91" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -19835,7 +19862,7 @@
         <v>1</v>
       </c>
       <c r="AP91">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ91">
         <v>1.38</v>
@@ -19963,7 +19990,7 @@
         <v>159</v>
       </c>
       <c r="P92" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q92">
         <v>3.6</v>
@@ -20044,7 +20071,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ92">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR92">
         <v>1.3</v>
@@ -20250,7 +20277,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ93">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR93">
         <v>1.76</v>
@@ -20375,7 +20402,7 @@
         <v>161</v>
       </c>
       <c r="P94" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q94">
         <v>2.1</v>
@@ -20581,7 +20608,7 @@
         <v>162</v>
       </c>
       <c r="P95" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q95">
         <v>2.17</v>
@@ -20662,7 +20689,7 @@
         <v>2</v>
       </c>
       <c r="AQ95">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR95">
         <v>1.88</v>
@@ -20865,10 +20892,10 @@
         <v>0.6</v>
       </c>
       <c r="AP96">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ96">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR96">
         <v>1.57</v>
@@ -21071,7 +21098,7 @@
         <v>1.5</v>
       </c>
       <c r="AP97">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ97">
         <v>1.25</v>
@@ -21199,7 +21226,7 @@
         <v>149</v>
       </c>
       <c r="P98" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q98">
         <v>3.54</v>
@@ -21277,10 +21304,10 @@
         <v>2.17</v>
       </c>
       <c r="AP98">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ98">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR98">
         <v>2.17</v>
@@ -21405,7 +21432,7 @@
         <v>165</v>
       </c>
       <c r="P99" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q99">
         <v>3.35</v>
@@ -21483,10 +21510,10 @@
         <v>1.5</v>
       </c>
       <c r="AP99">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ99">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR99">
         <v>1.79</v>
@@ -21689,10 +21716,10 @@
         <v>0.8</v>
       </c>
       <c r="AP100">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ100">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR100">
         <v>1.53</v>
@@ -21817,7 +21844,7 @@
         <v>167</v>
       </c>
       <c r="P101" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q101">
         <v>2.96</v>
@@ -21895,10 +21922,10 @@
         <v>0.2</v>
       </c>
       <c r="AP101">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ101">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR101">
         <v>1.53</v>
@@ -22023,7 +22050,7 @@
         <v>168</v>
       </c>
       <c r="P102" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q102">
         <v>2.44</v>
@@ -22101,10 +22128,10 @@
         <v>1</v>
       </c>
       <c r="AP102">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ102">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR102">
         <v>1.74</v>
@@ -22229,7 +22256,7 @@
         <v>103</v>
       </c>
       <c r="P103" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q103">
         <v>1.81</v>
@@ -22310,7 +22337,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ103">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR103">
         <v>1.83</v>
@@ -22516,7 +22543,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ104">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR104">
         <v>1.63</v>
@@ -22641,7 +22668,7 @@
         <v>170</v>
       </c>
       <c r="P105" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q105">
         <v>2.69</v>
@@ -22847,7 +22874,7 @@
         <v>171</v>
       </c>
       <c r="P106" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q106">
         <v>2.56</v>
@@ -22925,7 +22952,7 @@
         <v>0.33</v>
       </c>
       <c r="AP106">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ106">
         <v>0.25</v>
@@ -23465,7 +23492,7 @@
         <v>174</v>
       </c>
       <c r="P109" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q109">
         <v>3.5</v>
@@ -23671,7 +23698,7 @@
         <v>175</v>
       </c>
       <c r="P110" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q110">
         <v>2.43</v>
@@ -23877,7 +23904,7 @@
         <v>103</v>
       </c>
       <c r="P111" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q111">
         <v>3.02</v>
@@ -24161,10 +24188,10 @@
         <v>1.29</v>
       </c>
       <c r="AP112">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ112">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR112">
         <v>1.58</v>
@@ -24289,7 +24316,7 @@
         <v>103</v>
       </c>
       <c r="P113" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q113">
         <v>2.85</v>
@@ -24367,10 +24394,10 @@
         <v>0.5</v>
       </c>
       <c r="AP113">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ113">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR113">
         <v>2.12</v>
@@ -24573,10 +24600,10 @@
         <v>1.29</v>
       </c>
       <c r="AP114">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ114">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR114">
         <v>1.27</v>
@@ -24779,10 +24806,10 @@
         <v>1.57</v>
       </c>
       <c r="AP115">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ115">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR115">
         <v>1.53</v>
@@ -24907,7 +24934,7 @@
         <v>177</v>
       </c>
       <c r="P116" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q116">
         <v>4.5</v>
@@ -24985,10 +25012,10 @@
         <v>2</v>
       </c>
       <c r="AP116">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ116">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR116">
         <v>1.83</v>
@@ -25191,10 +25218,10 @@
         <v>0.57</v>
       </c>
       <c r="AP117">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ117">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR117">
         <v>1.77</v>
@@ -25319,7 +25346,7 @@
         <v>103</v>
       </c>
       <c r="P118" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q118">
         <v>3.2</v>
@@ -25397,7 +25424,7 @@
         <v>0.86</v>
       </c>
       <c r="AP118">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ118">
         <v>1.11</v>
@@ -25937,7 +25964,7 @@
         <v>180</v>
       </c>
       <c r="P121" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q121">
         <v>2.38</v>
@@ -26349,7 +26376,7 @@
         <v>170</v>
       </c>
       <c r="P123" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q123">
         <v>2.51</v>
@@ -26555,7 +26582,7 @@
         <v>182</v>
       </c>
       <c r="P124" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q124">
         <v>2.46</v>
@@ -26761,7 +26788,7 @@
         <v>183</v>
       </c>
       <c r="P125" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q125">
         <v>3.68</v>
@@ -26967,7 +26994,7 @@
         <v>184</v>
       </c>
       <c r="P126" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q126">
         <v>1.95</v>
@@ -27330,6 +27357,1654 @@
       </c>
       <c r="BP127">
         <v>1.74</v>
+      </c>
+    </row>
+    <row r="128" spans="1:68">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>7296396</v>
+      </c>
+      <c r="C128" t="s">
+        <v>68</v>
+      </c>
+      <c r="D128" t="s">
+        <v>69</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45507.45833333334</v>
+      </c>
+      <c r="F128">
+        <v>17</v>
+      </c>
+      <c r="G128" t="s">
+        <v>77</v>
+      </c>
+      <c r="H128" t="s">
+        <v>72</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>1</v>
+      </c>
+      <c r="K128">
+        <v>1</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128">
+        <v>2</v>
+      </c>
+      <c r="N128">
+        <v>2</v>
+      </c>
+      <c r="O128" t="s">
+        <v>103</v>
+      </c>
+      <c r="P128" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q128">
+        <v>3.75</v>
+      </c>
+      <c r="R128">
+        <v>2.35</v>
+      </c>
+      <c r="S128">
+        <v>2.6</v>
+      </c>
+      <c r="T128">
+        <v>1.28</v>
+      </c>
+      <c r="U128">
+        <v>3.4</v>
+      </c>
+      <c r="V128">
+        <v>2.34</v>
+      </c>
+      <c r="W128">
+        <v>1.54</v>
+      </c>
+      <c r="X128">
+        <v>5.4</v>
+      </c>
+      <c r="Y128">
+        <v>1.12</v>
+      </c>
+      <c r="Z128">
+        <v>3.3</v>
+      </c>
+      <c r="AA128">
+        <v>3.72</v>
+      </c>
+      <c r="AB128">
+        <v>2.03</v>
+      </c>
+      <c r="AC128">
+        <v>1.02</v>
+      </c>
+      <c r="AD128">
+        <v>17</v>
+      </c>
+      <c r="AE128">
+        <v>1.18</v>
+      </c>
+      <c r="AF128">
+        <v>4.75</v>
+      </c>
+      <c r="AG128">
+        <v>1.55</v>
+      </c>
+      <c r="AH128">
+        <v>2.29</v>
+      </c>
+      <c r="AI128">
+        <v>1.52</v>
+      </c>
+      <c r="AJ128">
+        <v>2.45</v>
+      </c>
+      <c r="AK128">
+        <v>1.83</v>
+      </c>
+      <c r="AL128">
+        <v>1.22</v>
+      </c>
+      <c r="AM128">
+        <v>1.33</v>
+      </c>
+      <c r="AN128">
+        <v>2.38</v>
+      </c>
+      <c r="AO128">
+        <v>2.13</v>
+      </c>
+      <c r="AP128">
+        <v>2.11</v>
+      </c>
+      <c r="AQ128">
+        <v>2.22</v>
+      </c>
+      <c r="AR128">
+        <v>1.52</v>
+      </c>
+      <c r="AS128">
+        <v>1.91</v>
+      </c>
+      <c r="AT128">
+        <v>3.43</v>
+      </c>
+      <c r="AU128">
+        <v>5</v>
+      </c>
+      <c r="AV128">
+        <v>5</v>
+      </c>
+      <c r="AW128">
+        <v>4</v>
+      </c>
+      <c r="AX128">
+        <v>1</v>
+      </c>
+      <c r="AY128">
+        <v>9</v>
+      </c>
+      <c r="AZ128">
+        <v>6</v>
+      </c>
+      <c r="BA128">
+        <v>7</v>
+      </c>
+      <c r="BB128">
+        <v>2</v>
+      </c>
+      <c r="BC128">
+        <v>9</v>
+      </c>
+      <c r="BD128">
+        <v>2.43</v>
+      </c>
+      <c r="BE128">
+        <v>8.5</v>
+      </c>
+      <c r="BF128">
+        <v>1.75</v>
+      </c>
+      <c r="BG128">
+        <v>1.18</v>
+      </c>
+      <c r="BH128">
+        <v>4.5</v>
+      </c>
+      <c r="BI128">
+        <v>1.35</v>
+      </c>
+      <c r="BJ128">
+        <v>3.05</v>
+      </c>
+      <c r="BK128">
+        <v>1.62</v>
+      </c>
+      <c r="BL128">
+        <v>2.23</v>
+      </c>
+      <c r="BM128">
+        <v>2.04</v>
+      </c>
+      <c r="BN128">
+        <v>1.73</v>
+      </c>
+      <c r="BO128">
+        <v>2.7</v>
+      </c>
+      <c r="BP128">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="129" spans="1:68">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>7296401</v>
+      </c>
+      <c r="C129" t="s">
+        <v>68</v>
+      </c>
+      <c r="D129" t="s">
+        <v>69</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45507.45833333334</v>
+      </c>
+      <c r="F129">
+        <v>17</v>
+      </c>
+      <c r="G129" t="s">
+        <v>78</v>
+      </c>
+      <c r="H129" t="s">
+        <v>75</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>1</v>
+      </c>
+      <c r="M129">
+        <v>0</v>
+      </c>
+      <c r="N129">
+        <v>1</v>
+      </c>
+      <c r="O129" t="s">
+        <v>186</v>
+      </c>
+      <c r="P129" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q129">
+        <v>2.52</v>
+      </c>
+      <c r="R129">
+        <v>2.45</v>
+      </c>
+      <c r="S129">
+        <v>3.34</v>
+      </c>
+      <c r="T129">
+        <v>1.23</v>
+      </c>
+      <c r="U129">
+        <v>3.9</v>
+      </c>
+      <c r="V129">
+        <v>2.08</v>
+      </c>
+      <c r="W129">
+        <v>1.7</v>
+      </c>
+      <c r="X129">
+        <v>4.45</v>
+      </c>
+      <c r="Y129">
+        <v>1.18</v>
+      </c>
+      <c r="Z129">
+        <v>2.07</v>
+      </c>
+      <c r="AA129">
+        <v>3.92</v>
+      </c>
+      <c r="AB129">
+        <v>3.06</v>
+      </c>
+      <c r="AC129">
+        <v>1.02</v>
+      </c>
+      <c r="AD129">
+        <v>23.5</v>
+      </c>
+      <c r="AE129">
+        <v>1.1</v>
+      </c>
+      <c r="AF129">
+        <v>5.5</v>
+      </c>
+      <c r="AG129">
+        <v>1.4</v>
+      </c>
+      <c r="AH129">
+        <v>2.73</v>
+      </c>
+      <c r="AI129">
+        <v>1.39</v>
+      </c>
+      <c r="AJ129">
+        <v>2.76</v>
+      </c>
+      <c r="AK129">
+        <v>1.37</v>
+      </c>
+      <c r="AL129">
+        <v>1.23</v>
+      </c>
+      <c r="AM129">
+        <v>1.69</v>
+      </c>
+      <c r="AN129">
+        <v>1.38</v>
+      </c>
+      <c r="AO129">
+        <v>0.67</v>
+      </c>
+      <c r="AP129">
+        <v>1.56</v>
+      </c>
+      <c r="AQ129">
+        <v>0.57</v>
+      </c>
+      <c r="AR129">
+        <v>1.78</v>
+      </c>
+      <c r="AS129">
+        <v>1.47</v>
+      </c>
+      <c r="AT129">
+        <v>3.25</v>
+      </c>
+      <c r="AU129">
+        <v>5</v>
+      </c>
+      <c r="AV129">
+        <v>5</v>
+      </c>
+      <c r="AW129">
+        <v>9</v>
+      </c>
+      <c r="AX129">
+        <v>6</v>
+      </c>
+      <c r="AY129">
+        <v>14</v>
+      </c>
+      <c r="AZ129">
+        <v>11</v>
+      </c>
+      <c r="BA129">
+        <v>4</v>
+      </c>
+      <c r="BB129">
+        <v>7</v>
+      </c>
+      <c r="BC129">
+        <v>11</v>
+      </c>
+      <c r="BD129">
+        <v>1.91</v>
+      </c>
+      <c r="BE129">
+        <v>8.5</v>
+      </c>
+      <c r="BF129">
+        <v>2.1</v>
+      </c>
+      <c r="BG129">
+        <v>1.16</v>
+      </c>
+      <c r="BH129">
+        <v>5.16</v>
+      </c>
+      <c r="BI129">
+        <v>1.3</v>
+      </c>
+      <c r="BJ129">
+        <v>3.3</v>
+      </c>
+      <c r="BK129">
+        <v>1.55</v>
+      </c>
+      <c r="BL129">
+        <v>2.38</v>
+      </c>
+      <c r="BM129">
+        <v>1.98</v>
+      </c>
+      <c r="BN129">
+        <v>1.82</v>
+      </c>
+      <c r="BO129">
+        <v>2.5</v>
+      </c>
+      <c r="BP129">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="130" spans="1:68">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>7296399</v>
+      </c>
+      <c r="C130" t="s">
+        <v>68</v>
+      </c>
+      <c r="D130" t="s">
+        <v>69</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45507.45833333334</v>
+      </c>
+      <c r="F130">
+        <v>17</v>
+      </c>
+      <c r="G130" t="s">
+        <v>80</v>
+      </c>
+      <c r="H130" t="s">
+        <v>71</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130">
+        <v>1</v>
+      </c>
+      <c r="K130">
+        <v>2</v>
+      </c>
+      <c r="L130">
+        <v>2</v>
+      </c>
+      <c r="M130">
+        <v>2</v>
+      </c>
+      <c r="N130">
+        <v>4</v>
+      </c>
+      <c r="O130" t="s">
+        <v>187</v>
+      </c>
+      <c r="P130" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q130">
+        <v>3</v>
+      </c>
+      <c r="R130">
+        <v>2.45</v>
+      </c>
+      <c r="S130">
+        <v>2.95</v>
+      </c>
+      <c r="T130">
+        <v>1.22</v>
+      </c>
+      <c r="U130">
+        <v>3.9</v>
+      </c>
+      <c r="V130">
+        <v>2.09</v>
+      </c>
+      <c r="W130">
+        <v>1.67</v>
+      </c>
+      <c r="X130">
+        <v>4.45</v>
+      </c>
+      <c r="Y130">
+        <v>1.17</v>
+      </c>
+      <c r="Z130">
+        <v>2.32</v>
+      </c>
+      <c r="AA130">
+        <v>3.84</v>
+      </c>
+      <c r="AB130">
+        <v>2.65</v>
+      </c>
+      <c r="AC130">
+        <v>1.02</v>
+      </c>
+      <c r="AD130">
+        <v>23.5</v>
+      </c>
+      <c r="AE130">
+        <v>1.12</v>
+      </c>
+      <c r="AF130">
+        <v>6</v>
+      </c>
+      <c r="AG130">
+        <v>1.42</v>
+      </c>
+      <c r="AH130">
+        <v>2.65</v>
+      </c>
+      <c r="AI130">
+        <v>1.4</v>
+      </c>
+      <c r="AJ130">
+        <v>2.95</v>
+      </c>
+      <c r="AK130">
+        <v>1.55</v>
+      </c>
+      <c r="AL130">
+        <v>1.22</v>
+      </c>
+      <c r="AM130">
+        <v>1.53</v>
+      </c>
+      <c r="AN130">
+        <v>1.86</v>
+      </c>
+      <c r="AO130">
+        <v>1.38</v>
+      </c>
+      <c r="AP130">
+        <v>1.75</v>
+      </c>
+      <c r="AQ130">
+        <v>1.33</v>
+      </c>
+      <c r="AR130">
+        <v>1.53</v>
+      </c>
+      <c r="AS130">
+        <v>1.51</v>
+      </c>
+      <c r="AT130">
+        <v>3.04</v>
+      </c>
+      <c r="AU130">
+        <v>6</v>
+      </c>
+      <c r="AV130">
+        <v>5</v>
+      </c>
+      <c r="AW130">
+        <v>6</v>
+      </c>
+      <c r="AX130">
+        <v>5</v>
+      </c>
+      <c r="AY130">
+        <v>12</v>
+      </c>
+      <c r="AZ130">
+        <v>10</v>
+      </c>
+      <c r="BA130">
+        <v>11</v>
+      </c>
+      <c r="BB130">
+        <v>5</v>
+      </c>
+      <c r="BC130">
+        <v>16</v>
+      </c>
+      <c r="BD130">
+        <v>1.91</v>
+      </c>
+      <c r="BE130">
+        <v>8.5</v>
+      </c>
+      <c r="BF130">
+        <v>2.1</v>
+      </c>
+      <c r="BG130">
+        <v>1.15</v>
+      </c>
+      <c r="BH130">
+        <v>4.8</v>
+      </c>
+      <c r="BI130">
+        <v>1.3</v>
+      </c>
+      <c r="BJ130">
+        <v>3.3</v>
+      </c>
+      <c r="BK130">
+        <v>1.55</v>
+      </c>
+      <c r="BL130">
+        <v>2.38</v>
+      </c>
+      <c r="BM130">
+        <v>2</v>
+      </c>
+      <c r="BN130">
+        <v>1.8</v>
+      </c>
+      <c r="BO130">
+        <v>2.5</v>
+      </c>
+      <c r="BP130">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="131" spans="1:68">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>7296398</v>
+      </c>
+      <c r="C131" t="s">
+        <v>68</v>
+      </c>
+      <c r="D131" t="s">
+        <v>69</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45507.45833333334</v>
+      </c>
+      <c r="F131">
+        <v>17</v>
+      </c>
+      <c r="G131" t="s">
+        <v>76</v>
+      </c>
+      <c r="H131" t="s">
+        <v>74</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131">
+        <v>3</v>
+      </c>
+      <c r="N131">
+        <v>3</v>
+      </c>
+      <c r="O131" t="s">
+        <v>103</v>
+      </c>
+      <c r="P131" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q131">
+        <v>2.88</v>
+      </c>
+      <c r="R131">
+        <v>2.38</v>
+      </c>
+      <c r="S131">
+        <v>3.1</v>
+      </c>
+      <c r="T131">
+        <v>1.29</v>
+      </c>
+      <c r="U131">
+        <v>3.5</v>
+      </c>
+      <c r="V131">
+        <v>2.25</v>
+      </c>
+      <c r="W131">
+        <v>1.57</v>
+      </c>
+      <c r="X131">
+        <v>5.5</v>
+      </c>
+      <c r="Y131">
+        <v>1.14</v>
+      </c>
+      <c r="Z131">
+        <v>2.43</v>
+      </c>
+      <c r="AA131">
+        <v>3.7</v>
+      </c>
+      <c r="AB131">
+        <v>2.58</v>
+      </c>
+      <c r="AC131">
+        <v>1.02</v>
+      </c>
+      <c r="AD131">
+        <v>17</v>
+      </c>
+      <c r="AE131">
+        <v>1.17</v>
+      </c>
+      <c r="AF131">
+        <v>4.5</v>
+      </c>
+      <c r="AG131">
+        <v>1.44</v>
+      </c>
+      <c r="AH131">
+        <v>2.59</v>
+      </c>
+      <c r="AI131">
+        <v>1.5</v>
+      </c>
+      <c r="AJ131">
+        <v>2.5</v>
+      </c>
+      <c r="AK131">
+        <v>1.47</v>
+      </c>
+      <c r="AL131">
+        <v>1.22</v>
+      </c>
+      <c r="AM131">
+        <v>1.57</v>
+      </c>
+      <c r="AN131">
+        <v>1.14</v>
+      </c>
+      <c r="AO131">
+        <v>0.5</v>
+      </c>
+      <c r="AP131">
+        <v>1</v>
+      </c>
+      <c r="AQ131">
+        <v>0.78</v>
+      </c>
+      <c r="AR131">
+        <v>1.63</v>
+      </c>
+      <c r="AS131">
+        <v>1.33</v>
+      </c>
+      <c r="AT131">
+        <v>2.96</v>
+      </c>
+      <c r="AU131">
+        <v>7</v>
+      </c>
+      <c r="AV131">
+        <v>5</v>
+      </c>
+      <c r="AW131">
+        <v>12</v>
+      </c>
+      <c r="AX131">
+        <v>6</v>
+      </c>
+      <c r="AY131">
+        <v>19</v>
+      </c>
+      <c r="AZ131">
+        <v>11</v>
+      </c>
+      <c r="BA131">
+        <v>11</v>
+      </c>
+      <c r="BB131">
+        <v>3</v>
+      </c>
+      <c r="BC131">
+        <v>14</v>
+      </c>
+      <c r="BD131">
+        <v>2.05</v>
+      </c>
+      <c r="BE131">
+        <v>8.5</v>
+      </c>
+      <c r="BF131">
+        <v>1.95</v>
+      </c>
+      <c r="BG131">
+        <v>0</v>
+      </c>
+      <c r="BH131">
+        <v>0</v>
+      </c>
+      <c r="BI131">
+        <v>1.29</v>
+      </c>
+      <c r="BJ131">
+        <v>3.45</v>
+      </c>
+      <c r="BK131">
+        <v>1.5</v>
+      </c>
+      <c r="BL131">
+        <v>2.45</v>
+      </c>
+      <c r="BM131">
+        <v>1.9</v>
+      </c>
+      <c r="BN131">
+        <v>1.9</v>
+      </c>
+      <c r="BO131">
+        <v>2.43</v>
+      </c>
+      <c r="BP131">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="132" spans="1:68">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>7296397</v>
+      </c>
+      <c r="C132" t="s">
+        <v>68</v>
+      </c>
+      <c r="D132" t="s">
+        <v>69</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45507.45833333334</v>
+      </c>
+      <c r="F132">
+        <v>17</v>
+      </c>
+      <c r="G132" t="s">
+        <v>79</v>
+      </c>
+      <c r="H132" t="s">
+        <v>73</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>2</v>
+      </c>
+      <c r="K132">
+        <v>2</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132">
+        <v>2</v>
+      </c>
+      <c r="N132">
+        <v>2</v>
+      </c>
+      <c r="O132" t="s">
+        <v>103</v>
+      </c>
+      <c r="P132" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q132">
+        <v>3.04</v>
+      </c>
+      <c r="R132">
+        <v>2.31</v>
+      </c>
+      <c r="S132">
+        <v>2.92</v>
+      </c>
+      <c r="T132">
+        <v>1.28</v>
+      </c>
+      <c r="U132">
+        <v>3.44</v>
+      </c>
+      <c r="V132">
+        <v>2.34</v>
+      </c>
+      <c r="W132">
+        <v>1.56</v>
+      </c>
+      <c r="X132">
+        <v>5.3</v>
+      </c>
+      <c r="Y132">
+        <v>1.14</v>
+      </c>
+      <c r="Z132">
+        <v>2.33</v>
+      </c>
+      <c r="AA132">
+        <v>3.64</v>
+      </c>
+      <c r="AB132">
+        <v>2.78</v>
+      </c>
+      <c r="AC132">
+        <v>1.01</v>
+      </c>
+      <c r="AD132">
+        <v>12</v>
+      </c>
+      <c r="AE132">
+        <v>1.15</v>
+      </c>
+      <c r="AF132">
+        <v>4.45</v>
+      </c>
+      <c r="AG132">
+        <v>1.61</v>
+      </c>
+      <c r="AH132">
+        <v>2.17</v>
+      </c>
+      <c r="AI132">
+        <v>1.49</v>
+      </c>
+      <c r="AJ132">
+        <v>2.44</v>
+      </c>
+      <c r="AK132">
+        <v>1.5</v>
+      </c>
+      <c r="AL132">
+        <v>1.26</v>
+      </c>
+      <c r="AM132">
+        <v>1.49</v>
+      </c>
+      <c r="AN132">
+        <v>1.25</v>
+      </c>
+      <c r="AO132">
+        <v>0.67</v>
+      </c>
+      <c r="AP132">
+        <v>1.11</v>
+      </c>
+      <c r="AQ132">
+        <v>1</v>
+      </c>
+      <c r="AR132">
+        <v>1.24</v>
+      </c>
+      <c r="AS132">
+        <v>1.31</v>
+      </c>
+      <c r="AT132">
+        <v>2.55</v>
+      </c>
+      <c r="AU132">
+        <v>0</v>
+      </c>
+      <c r="AV132">
+        <v>6</v>
+      </c>
+      <c r="AW132">
+        <v>3</v>
+      </c>
+      <c r="AX132">
+        <v>5</v>
+      </c>
+      <c r="AY132">
+        <v>3</v>
+      </c>
+      <c r="AZ132">
+        <v>11</v>
+      </c>
+      <c r="BA132">
+        <v>2</v>
+      </c>
+      <c r="BB132">
+        <v>6</v>
+      </c>
+      <c r="BC132">
+        <v>8</v>
+      </c>
+      <c r="BD132">
+        <v>2.1</v>
+      </c>
+      <c r="BE132">
+        <v>9</v>
+      </c>
+      <c r="BF132">
+        <v>1.91</v>
+      </c>
+      <c r="BG132">
+        <v>0</v>
+      </c>
+      <c r="BH132">
+        <v>0</v>
+      </c>
+      <c r="BI132">
+        <v>0</v>
+      </c>
+      <c r="BJ132">
+        <v>0</v>
+      </c>
+      <c r="BK132">
+        <v>1.28</v>
+      </c>
+      <c r="BL132">
+        <v>3.45</v>
+      </c>
+      <c r="BM132">
+        <v>1.49</v>
+      </c>
+      <c r="BN132">
+        <v>2.5</v>
+      </c>
+      <c r="BO132">
+        <v>1.8</v>
+      </c>
+      <c r="BP132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:68">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>7296394</v>
+      </c>
+      <c r="C133" t="s">
+        <v>68</v>
+      </c>
+      <c r="D133" t="s">
+        <v>69</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45507.45833333334</v>
+      </c>
+      <c r="F133">
+        <v>17</v>
+      </c>
+      <c r="G133" t="s">
+        <v>85</v>
+      </c>
+      <c r="H133" t="s">
+        <v>83</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>1</v>
+      </c>
+      <c r="K133">
+        <v>1</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133">
+        <v>2</v>
+      </c>
+      <c r="N133">
+        <v>2</v>
+      </c>
+      <c r="O133" t="s">
+        <v>103</v>
+      </c>
+      <c r="P133" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q133">
+        <v>2.69</v>
+      </c>
+      <c r="R133">
+        <v>2.36</v>
+      </c>
+      <c r="S133">
+        <v>3.24</v>
+      </c>
+      <c r="T133">
+        <v>1.26</v>
+      </c>
+      <c r="U133">
+        <v>3.62</v>
+      </c>
+      <c r="V133">
+        <v>2.23</v>
+      </c>
+      <c r="W133">
+        <v>1.61</v>
+      </c>
+      <c r="X133">
+        <v>5</v>
+      </c>
+      <c r="Y133">
+        <v>1.15</v>
+      </c>
+      <c r="Z133">
+        <v>2.15</v>
+      </c>
+      <c r="AA133">
+        <v>3.78</v>
+      </c>
+      <c r="AB133">
+        <v>2.98</v>
+      </c>
+      <c r="AC133">
+        <v>1.02</v>
+      </c>
+      <c r="AD133">
+        <v>12</v>
+      </c>
+      <c r="AE133">
+        <v>1.13</v>
+      </c>
+      <c r="AF133">
+        <v>4.8</v>
+      </c>
+      <c r="AG133">
+        <v>1.5</v>
+      </c>
+      <c r="AH133">
+        <v>2.41</v>
+      </c>
+      <c r="AI133">
+        <v>1.45</v>
+      </c>
+      <c r="AJ133">
+        <v>2.55</v>
+      </c>
+      <c r="AK133">
+        <v>1.41</v>
+      </c>
+      <c r="AL133">
+        <v>1.25</v>
+      </c>
+      <c r="AM133">
+        <v>1.61</v>
+      </c>
+      <c r="AN133">
+        <v>1.29</v>
+      </c>
+      <c r="AO133">
+        <v>1.13</v>
+      </c>
+      <c r="AP133">
+        <v>1.13</v>
+      </c>
+      <c r="AQ133">
+        <v>1.33</v>
+      </c>
+      <c r="AR133">
+        <v>2.1</v>
+      </c>
+      <c r="AS133">
+        <v>1.17</v>
+      </c>
+      <c r="AT133">
+        <v>3.27</v>
+      </c>
+      <c r="AU133">
+        <v>7</v>
+      </c>
+      <c r="AV133">
+        <v>7</v>
+      </c>
+      <c r="AW133">
+        <v>10</v>
+      </c>
+      <c r="AX133">
+        <v>3</v>
+      </c>
+      <c r="AY133">
+        <v>17</v>
+      </c>
+      <c r="AZ133">
+        <v>10</v>
+      </c>
+      <c r="BA133">
+        <v>3</v>
+      </c>
+      <c r="BB133">
+        <v>3</v>
+      </c>
+      <c r="BC133">
+        <v>6</v>
+      </c>
+      <c r="BD133">
+        <v>1.75</v>
+      </c>
+      <c r="BE133">
+        <v>8.5</v>
+      </c>
+      <c r="BF133">
+        <v>2.41</v>
+      </c>
+      <c r="BG133">
+        <v>0</v>
+      </c>
+      <c r="BH133">
+        <v>0</v>
+      </c>
+      <c r="BI133">
+        <v>1.29</v>
+      </c>
+      <c r="BJ133">
+        <v>3.45</v>
+      </c>
+      <c r="BK133">
+        <v>1.5</v>
+      </c>
+      <c r="BL133">
+        <v>2.45</v>
+      </c>
+      <c r="BM133">
+        <v>1.9</v>
+      </c>
+      <c r="BN133">
+        <v>1.9</v>
+      </c>
+      <c r="BO133">
+        <v>2.43</v>
+      </c>
+      <c r="BP133">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="134" spans="1:68">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>7296395</v>
+      </c>
+      <c r="C134" t="s">
+        <v>68</v>
+      </c>
+      <c r="D134" t="s">
+        <v>69</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45507.45833333334</v>
+      </c>
+      <c r="F134">
+        <v>17</v>
+      </c>
+      <c r="G134" t="s">
+        <v>82</v>
+      </c>
+      <c r="H134" t="s">
+        <v>70</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+      <c r="M134">
+        <v>1</v>
+      </c>
+      <c r="N134">
+        <v>1</v>
+      </c>
+      <c r="O134" t="s">
+        <v>103</v>
+      </c>
+      <c r="P134" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q134">
+        <v>3.2</v>
+      </c>
+      <c r="R134">
+        <v>2.22</v>
+      </c>
+      <c r="S134">
+        <v>2.92</v>
+      </c>
+      <c r="T134">
+        <v>1.33</v>
+      </c>
+      <c r="U134">
+        <v>3.15</v>
+      </c>
+      <c r="V134">
+        <v>2.54</v>
+      </c>
+      <c r="W134">
+        <v>1.48</v>
+      </c>
+      <c r="X134">
+        <v>6.05</v>
+      </c>
+      <c r="Y134">
+        <v>1.11</v>
+      </c>
+      <c r="Z134">
+        <v>2.3</v>
+      </c>
+      <c r="AA134">
+        <v>3.54</v>
+      </c>
+      <c r="AB134">
+        <v>2.88</v>
+      </c>
+      <c r="AC134">
+        <v>1.02</v>
+      </c>
+      <c r="AD134">
+        <v>11</v>
+      </c>
+      <c r="AE134">
+        <v>1.2</v>
+      </c>
+      <c r="AF134">
+        <v>3.86</v>
+      </c>
+      <c r="AG134">
+        <v>1.68</v>
+      </c>
+      <c r="AH134">
+        <v>2.06</v>
+      </c>
+      <c r="AI134">
+        <v>1.58</v>
+      </c>
+      <c r="AJ134">
+        <v>2.23</v>
+      </c>
+      <c r="AK134">
+        <v>1.53</v>
+      </c>
+      <c r="AL134">
+        <v>1.28</v>
+      </c>
+      <c r="AM134">
+        <v>1.44</v>
+      </c>
+      <c r="AN134">
+        <v>1.5</v>
+      </c>
+      <c r="AO134">
+        <v>0.86</v>
+      </c>
+      <c r="AP134">
+        <v>1.29</v>
+      </c>
+      <c r="AQ134">
+        <v>1.13</v>
+      </c>
+      <c r="AR134">
+        <v>1.54</v>
+      </c>
+      <c r="AS134">
+        <v>1.85</v>
+      </c>
+      <c r="AT134">
+        <v>3.39</v>
+      </c>
+      <c r="AU134">
+        <v>10</v>
+      </c>
+      <c r="AV134">
+        <v>7</v>
+      </c>
+      <c r="AW134">
+        <v>6</v>
+      </c>
+      <c r="AX134">
+        <v>6</v>
+      </c>
+      <c r="AY134">
+        <v>16</v>
+      </c>
+      <c r="AZ134">
+        <v>13</v>
+      </c>
+      <c r="BA134">
+        <v>13</v>
+      </c>
+      <c r="BB134">
+        <v>6</v>
+      </c>
+      <c r="BC134">
+        <v>19</v>
+      </c>
+      <c r="BD134">
+        <v>2.1</v>
+      </c>
+      <c r="BE134">
+        <v>8</v>
+      </c>
+      <c r="BF134">
+        <v>1.91</v>
+      </c>
+      <c r="BG134">
+        <v>1.18</v>
+      </c>
+      <c r="BH134">
+        <v>4.5</v>
+      </c>
+      <c r="BI134">
+        <v>1.35</v>
+      </c>
+      <c r="BJ134">
+        <v>3.05</v>
+      </c>
+      <c r="BK134">
+        <v>1.62</v>
+      </c>
+      <c r="BL134">
+        <v>2.23</v>
+      </c>
+      <c r="BM134">
+        <v>2.04</v>
+      </c>
+      <c r="BN134">
+        <v>1.73</v>
+      </c>
+      <c r="BO134">
+        <v>2.7</v>
+      </c>
+      <c r="BP134">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="135" spans="1:68">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>7296400</v>
+      </c>
+      <c r="C135" t="s">
+        <v>68</v>
+      </c>
+      <c r="D135" t="s">
+        <v>69</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45508.39583333334</v>
+      </c>
+      <c r="F135">
+        <v>17</v>
+      </c>
+      <c r="G135" t="s">
+        <v>84</v>
+      </c>
+      <c r="H135" t="s">
+        <v>81</v>
+      </c>
+      <c r="I135">
+        <v>4</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>4</v>
+      </c>
+      <c r="L135">
+        <v>7</v>
+      </c>
+      <c r="M135">
+        <v>1</v>
+      </c>
+      <c r="N135">
+        <v>8</v>
+      </c>
+      <c r="O135" t="s">
+        <v>188</v>
+      </c>
+      <c r="P135" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q135">
+        <v>2.75</v>
+      </c>
+      <c r="R135">
+        <v>2.5</v>
+      </c>
+      <c r="S135">
+        <v>3.2</v>
+      </c>
+      <c r="T135">
+        <v>1.25</v>
+      </c>
+      <c r="U135">
+        <v>3.75</v>
+      </c>
+      <c r="V135">
+        <v>2.1</v>
+      </c>
+      <c r="W135">
+        <v>1.67</v>
+      </c>
+      <c r="X135">
+        <v>4.5</v>
+      </c>
+      <c r="Y135">
+        <v>1.18</v>
+      </c>
+      <c r="Z135">
+        <v>2.28</v>
+      </c>
+      <c r="AA135">
+        <v>3.93</v>
+      </c>
+      <c r="AB135">
+        <v>2.81</v>
+      </c>
+      <c r="AC135">
+        <v>1.02</v>
+      </c>
+      <c r="AD135">
+        <v>23</v>
+      </c>
+      <c r="AE135">
+        <v>1.14</v>
+      </c>
+      <c r="AF135">
+        <v>5.5</v>
+      </c>
+      <c r="AG135">
+        <v>1.44</v>
+      </c>
+      <c r="AH135">
+        <v>2.7</v>
+      </c>
+      <c r="AI135">
+        <v>1.4</v>
+      </c>
+      <c r="AJ135">
+        <v>2.75</v>
+      </c>
+      <c r="AK135">
+        <v>1.44</v>
+      </c>
+      <c r="AL135">
+        <v>1.2</v>
+      </c>
+      <c r="AM135">
+        <v>1.66</v>
+      </c>
+      <c r="AN135">
+        <v>1.63</v>
+      </c>
+      <c r="AO135">
+        <v>1.25</v>
+      </c>
+      <c r="AP135">
+        <v>1.78</v>
+      </c>
+      <c r="AQ135">
+        <v>1.11</v>
+      </c>
+      <c r="AR135">
+        <v>1.79</v>
+      </c>
+      <c r="AS135">
+        <v>1.87</v>
+      </c>
+      <c r="AT135">
+        <v>3.66</v>
+      </c>
+      <c r="AU135">
+        <v>13</v>
+      </c>
+      <c r="AV135">
+        <v>10</v>
+      </c>
+      <c r="AW135">
+        <v>6</v>
+      </c>
+      <c r="AX135">
+        <v>7</v>
+      </c>
+      <c r="AY135">
+        <v>19</v>
+      </c>
+      <c r="AZ135">
+        <v>17</v>
+      </c>
+      <c r="BA135">
+        <v>1</v>
+      </c>
+      <c r="BB135">
+        <v>7</v>
+      </c>
+      <c r="BC135">
+        <v>8</v>
+      </c>
+      <c r="BD135">
+        <v>1.75</v>
+      </c>
+      <c r="BE135">
+        <v>8.5</v>
+      </c>
+      <c r="BF135">
+        <v>2.43</v>
+      </c>
+      <c r="BG135">
+        <v>0</v>
+      </c>
+      <c r="BH135">
+        <v>0</v>
+      </c>
+      <c r="BI135">
+        <v>1.29</v>
+      </c>
+      <c r="BJ135">
+        <v>3.45</v>
+      </c>
+      <c r="BK135">
+        <v>1.5</v>
+      </c>
+      <c r="BL135">
+        <v>2.45</v>
+      </c>
+      <c r="BM135">
+        <v>1.92</v>
+      </c>
+      <c r="BN135">
+        <v>1.88</v>
+      </c>
+      <c r="BO135">
+        <v>2.43</v>
+      </c>
+      <c r="BP135">
+        <v>1.52</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="277">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -583,6 +583,18 @@
     <t>['3', '6', '21', '36', '61', '77', '82']</t>
   </si>
   <si>
+    <t>['27']</t>
+  </si>
+  <si>
+    <t>['13', '41', '45+1']</t>
+  </si>
+  <si>
+    <t>['20', '87']</t>
+  </si>
+  <si>
+    <t>['53']</t>
+  </si>
+  <si>
     <t>['90+1']</t>
   </si>
   <si>
@@ -668,9 +680,6 @@
   </si>
   <si>
     <t>['75']</t>
-  </si>
-  <si>
-    <t>['53']</t>
   </si>
   <si>
     <t>['33', '37']</t>
@@ -830,6 +839,12 @@
   </si>
   <si>
     <t>['81']</t>
+  </si>
+  <si>
+    <t>['5', '17', '46', '55', '60']</t>
+  </si>
+  <si>
+    <t>['5']</t>
   </si>
 </sst>
 </file>
@@ -1191,7 +1206,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP135"/>
+  <dimension ref="A1:BP140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1450,7 +1465,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q2">
         <v>2.84</v>
@@ -1656,7 +1671,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q3">
         <v>2.2</v>
@@ -1737,7 +1752,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ3">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1862,7 +1877,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -2146,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AQ5">
         <v>1.11</v>
@@ -2274,7 +2289,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q6">
         <v>2.35</v>
@@ -2352,10 +2367,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ6">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2480,7 +2495,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q7">
         <v>2.66</v>
@@ -2558,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ7">
         <v>1.25</v>
@@ -2686,7 +2701,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q8">
         <v>2.8</v>
@@ -3098,7 +3113,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3304,7 +3319,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3510,7 +3525,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3591,7 +3606,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ12">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3794,10 +3809,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ13">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4003,7 +4018,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ14">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4128,7 +4143,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q15">
         <v>2.05</v>
@@ -4206,7 +4221,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ15">
         <v>0.57</v>
@@ -4540,7 +4555,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q17">
         <v>2.15</v>
@@ -4746,7 +4761,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q18">
         <v>2.15</v>
@@ -5033,7 +5048,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ19">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR19">
         <v>1.35</v>
@@ -5239,7 +5254,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ20">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR20">
         <v>1.13</v>
@@ -5570,7 +5585,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q22">
         <v>2.76</v>
@@ -5648,7 +5663,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ22">
         <v>1.33</v>
@@ -5776,7 +5791,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q23">
         <v>2.85</v>
@@ -5854,7 +5869,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ23">
         <v>0.25</v>
@@ -5982,7 +5997,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q24">
         <v>2.05</v>
@@ -6060,7 +6075,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AQ24">
         <v>1.38</v>
@@ -6266,10 +6281,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ25">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR25">
         <v>1.76</v>
@@ -6475,7 +6490,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ26">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR26">
         <v>1.34</v>
@@ -6600,7 +6615,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6887,7 +6902,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ28">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR28">
         <v>0.98</v>
@@ -7012,7 +7027,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q29">
         <v>2.25</v>
@@ -7424,7 +7439,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7836,7 +7851,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q33">
         <v>3.05</v>
@@ -7917,7 +7932,7 @@
         <v>1</v>
       </c>
       <c r="AQ33">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR33">
         <v>1.74</v>
@@ -8042,7 +8057,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q34">
         <v>2.26</v>
@@ -8120,7 +8135,7 @@
         <v>0.5</v>
       </c>
       <c r="AP34">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AQ34">
         <v>1.25</v>
@@ -8248,7 +8263,7 @@
         <v>115</v>
       </c>
       <c r="P35" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q35">
         <v>3.46</v>
@@ -8326,7 +8341,7 @@
         <v>2</v>
       </c>
       <c r="AP35">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ35">
         <v>1.11</v>
@@ -8660,7 +8675,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q37">
         <v>2.72</v>
@@ -8866,7 +8881,7 @@
         <v>118</v>
       </c>
       <c r="P38" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q38">
         <v>4.55</v>
@@ -8944,7 +8959,7 @@
         <v>2</v>
       </c>
       <c r="AP38">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ38">
         <v>2.22</v>
@@ -9072,7 +9087,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q39">
         <v>2.78</v>
@@ -9153,7 +9168,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ39">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR39">
         <v>1.22</v>
@@ -9565,7 +9580,7 @@
         <v>2</v>
       </c>
       <c r="AQ41">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR41">
         <v>2.44</v>
@@ -9771,7 +9786,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ42">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR42">
         <v>1.34</v>
@@ -9896,7 +9911,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q43">
         <v>3.11</v>
@@ -9977,7 +9992,7 @@
         <v>1</v>
       </c>
       <c r="AQ43">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR43">
         <v>1.39</v>
@@ -10102,7 +10117,7 @@
         <v>123</v>
       </c>
       <c r="P44" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q44">
         <v>3.3</v>
@@ -10180,7 +10195,7 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ44">
         <v>1</v>
@@ -10308,7 +10323,7 @@
         <v>94</v>
       </c>
       <c r="P45" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q45">
         <v>2.4</v>
@@ -10592,7 +10607,7 @@
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ46">
         <v>1.33</v>
@@ -11338,7 +11353,7 @@
         <v>103</v>
       </c>
       <c r="P50" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q50">
         <v>3.89</v>
@@ -11416,7 +11431,7 @@
         <v>1.33</v>
       </c>
       <c r="AP50">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AQ50">
         <v>2.22</v>
@@ -11544,7 +11559,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q51">
         <v>2.61</v>
@@ -11750,7 +11765,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -11956,7 +11971,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q53">
         <v>2.05</v>
@@ -12034,10 +12049,10 @@
         <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ53">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR53">
         <v>1.86</v>
@@ -12162,7 +12177,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="Q54">
         <v>3.03</v>
@@ -12243,7 +12258,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ54">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR54">
         <v>1.33</v>
@@ -12446,7 +12461,7 @@
         <v>0.33</v>
       </c>
       <c r="AP55">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ55">
         <v>0.25</v>
@@ -12652,7 +12667,7 @@
         <v>0.5</v>
       </c>
       <c r="AP56">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ56">
         <v>0.78</v>
@@ -12780,7 +12795,7 @@
         <v>103</v>
       </c>
       <c r="P57" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q57">
         <v>2.57</v>
@@ -12858,7 +12873,7 @@
         <v>0.75</v>
       </c>
       <c r="AP57">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AQ57">
         <v>1.33</v>
@@ -12986,7 +13001,7 @@
         <v>132</v>
       </c>
       <c r="P58" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q58">
         <v>2.3</v>
@@ -13067,7 +13082,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ58">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR58">
         <v>1.49</v>
@@ -13192,7 +13207,7 @@
         <v>103</v>
       </c>
       <c r="P59" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q59">
         <v>2.75</v>
@@ -13273,7 +13288,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ59">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR59">
         <v>1.1</v>
@@ -13398,7 +13413,7 @@
         <v>103</v>
       </c>
       <c r="P60" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q60">
         <v>2.32</v>
@@ -13604,7 +13619,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q61">
         <v>3.6</v>
@@ -13685,7 +13700,7 @@
         <v>1</v>
       </c>
       <c r="AQ61">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR61">
         <v>1.46</v>
@@ -13810,7 +13825,7 @@
         <v>134</v>
       </c>
       <c r="P62" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q62">
         <v>2.39</v>
@@ -13888,7 +13903,7 @@
         <v>1.33</v>
       </c>
       <c r="AP62">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ62">
         <v>1.38</v>
@@ -14016,7 +14031,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q63">
         <v>2.84</v>
@@ -14222,7 +14237,7 @@
         <v>136</v>
       </c>
       <c r="P64" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q64">
         <v>2.7</v>
@@ -14428,7 +14443,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -14506,7 +14521,7 @@
         <v>1.75</v>
       </c>
       <c r="AP65">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ65">
         <v>2.22</v>
@@ -14840,7 +14855,7 @@
         <v>139</v>
       </c>
       <c r="P67" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q67">
         <v>2.5</v>
@@ -14921,7 +14936,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ67">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR67">
         <v>2.39</v>
@@ -15124,7 +15139,7 @@
         <v>1.25</v>
       </c>
       <c r="AP68">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ68">
         <v>1.25</v>
@@ -15458,7 +15473,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q70">
         <v>1.85</v>
@@ -15745,7 +15760,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ71">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR71">
         <v>1.38</v>
@@ -15870,7 +15885,7 @@
         <v>143</v>
       </c>
       <c r="P72" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q72">
         <v>2.24</v>
@@ -15951,7 +15966,7 @@
         <v>2</v>
       </c>
       <c r="AQ72">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR72">
         <v>2</v>
@@ -16076,7 +16091,7 @@
         <v>103</v>
       </c>
       <c r="P73" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q73">
         <v>3.66</v>
@@ -16282,7 +16297,7 @@
         <v>144</v>
       </c>
       <c r="P74" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q74">
         <v>2.4</v>
@@ -16360,7 +16375,7 @@
         <v>2</v>
       </c>
       <c r="AP74">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ74">
         <v>2.22</v>
@@ -16488,7 +16503,7 @@
         <v>145</v>
       </c>
       <c r="P75" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q75">
         <v>2.38</v>
@@ -16569,7 +16584,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ75">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR75">
         <v>1.76</v>
@@ -16694,7 +16709,7 @@
         <v>125</v>
       </c>
       <c r="P76" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -16772,10 +16787,10 @@
         <v>1</v>
       </c>
       <c r="AP76">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ76">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR76">
         <v>1.63</v>
@@ -17106,7 +17121,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q78">
         <v>2.75</v>
@@ -17184,7 +17199,7 @@
         <v>0.33</v>
       </c>
       <c r="AP78">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AQ78">
         <v>0.78</v>
@@ -17312,7 +17327,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17518,7 +17533,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q80">
         <v>2.2</v>
@@ -17724,7 +17739,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q81">
         <v>2.31</v>
@@ -18008,10 +18023,10 @@
         <v>0.25</v>
       </c>
       <c r="AP82">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ82">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR82">
         <v>1.64</v>
@@ -18136,7 +18151,7 @@
         <v>151</v>
       </c>
       <c r="P83" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q83">
         <v>2.7</v>
@@ -18214,7 +18229,7 @@
         <v>1.2</v>
       </c>
       <c r="AP83">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ83">
         <v>1.11</v>
@@ -18548,7 +18563,7 @@
         <v>153</v>
       </c>
       <c r="P85" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q85">
         <v>3.5</v>
@@ -18754,7 +18769,7 @@
         <v>154</v>
       </c>
       <c r="P86" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q86">
         <v>2.55</v>
@@ -18835,7 +18850,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ86">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR86">
         <v>1.91</v>
@@ -18960,7 +18975,7 @@
         <v>155</v>
       </c>
       <c r="P87" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q87">
         <v>2.27</v>
@@ -19372,7 +19387,7 @@
         <v>156</v>
       </c>
       <c r="P89" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q89">
         <v>2.8</v>
@@ -19450,10 +19465,10 @@
         <v>0.5</v>
       </c>
       <c r="AP89">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ89">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR89">
         <v>1.53</v>
@@ -19578,7 +19593,7 @@
         <v>157</v>
       </c>
       <c r="P90" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q90">
         <v>2.6</v>
@@ -19656,7 +19671,7 @@
         <v>2.17</v>
       </c>
       <c r="AP90">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ90">
         <v>2.22</v>
@@ -19784,7 +19799,7 @@
         <v>158</v>
       </c>
       <c r="P91" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -19990,7 +20005,7 @@
         <v>159</v>
       </c>
       <c r="P92" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q92">
         <v>3.6</v>
@@ -20068,7 +20083,7 @@
         <v>2</v>
       </c>
       <c r="AP92">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AQ92">
         <v>1.33</v>
@@ -20402,7 +20417,7 @@
         <v>161</v>
       </c>
       <c r="P94" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q94">
         <v>2.1</v>
@@ -20483,7 +20498,7 @@
         <v>2</v>
       </c>
       <c r="AQ94">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR94">
         <v>2</v>
@@ -20608,7 +20623,7 @@
         <v>162</v>
       </c>
       <c r="P95" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q95">
         <v>2.17</v>
@@ -20686,7 +20701,7 @@
         <v>0.25</v>
       </c>
       <c r="AP95">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ95">
         <v>0.57</v>
@@ -20895,7 +20910,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ96">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR96">
         <v>1.57</v>
@@ -21226,7 +21241,7 @@
         <v>149</v>
       </c>
       <c r="P98" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q98">
         <v>3.54</v>
@@ -21432,7 +21447,7 @@
         <v>165</v>
       </c>
       <c r="P99" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q99">
         <v>3.35</v>
@@ -21844,7 +21859,7 @@
         <v>167</v>
       </c>
       <c r="P101" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q101">
         <v>2.96</v>
@@ -22050,7 +22065,7 @@
         <v>168</v>
       </c>
       <c r="P102" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q102">
         <v>2.44</v>
@@ -22256,7 +22271,7 @@
         <v>103</v>
       </c>
       <c r="P103" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q103">
         <v>1.81</v>
@@ -22540,7 +22555,7 @@
         <v>1.83</v>
       </c>
       <c r="AP104">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ104">
         <v>1.33</v>
@@ -22668,7 +22683,7 @@
         <v>170</v>
       </c>
       <c r="P105" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q105">
         <v>2.69</v>
@@ -22746,10 +22761,10 @@
         <v>0.57</v>
       </c>
       <c r="AP105">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AQ105">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR105">
         <v>1.33</v>
@@ -22874,7 +22889,7 @@
         <v>171</v>
       </c>
       <c r="P106" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q106">
         <v>2.56</v>
@@ -23158,10 +23173,10 @@
         <v>1</v>
       </c>
       <c r="AP107">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ107">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR107">
         <v>1.86</v>
@@ -23367,7 +23382,7 @@
         <v>2</v>
       </c>
       <c r="AQ108">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR108">
         <v>1.91</v>
@@ -23492,7 +23507,7 @@
         <v>174</v>
       </c>
       <c r="P109" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q109">
         <v>3.5</v>
@@ -23570,10 +23585,10 @@
         <v>1.17</v>
       </c>
       <c r="AP109">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ109">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR109">
         <v>1.59</v>
@@ -23698,7 +23713,7 @@
         <v>175</v>
       </c>
       <c r="P110" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q110">
         <v>2.43</v>
@@ -23904,7 +23919,7 @@
         <v>103</v>
       </c>
       <c r="P111" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q111">
         <v>3.02</v>
@@ -23982,7 +23997,7 @@
         <v>2</v>
       </c>
       <c r="AP111">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ111">
         <v>2.22</v>
@@ -24316,7 +24331,7 @@
         <v>103</v>
       </c>
       <c r="P113" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q113">
         <v>2.85</v>
@@ -24397,7 +24412,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ113">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR113">
         <v>2.12</v>
@@ -24934,7 +24949,7 @@
         <v>177</v>
       </c>
       <c r="P116" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q116">
         <v>4.5</v>
@@ -25346,7 +25361,7 @@
         <v>103</v>
       </c>
       <c r="P118" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q118">
         <v>3.2</v>
@@ -25427,7 +25442,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ118">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR118">
         <v>1.22</v>
@@ -25633,7 +25648,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ119">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR119">
         <v>1.8</v>
@@ -25836,7 +25851,7 @@
         <v>1.29</v>
       </c>
       <c r="AP120">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ120">
         <v>1.25</v>
@@ -25964,7 +25979,7 @@
         <v>180</v>
       </c>
       <c r="P121" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q121">
         <v>2.38</v>
@@ -26045,7 +26060,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ121">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR121">
         <v>1.76</v>
@@ -26248,7 +26263,7 @@
         <v>0.29</v>
       </c>
       <c r="AP122">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ122">
         <v>0.25</v>
@@ -26376,7 +26391,7 @@
         <v>170</v>
       </c>
       <c r="P123" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q123">
         <v>2.51</v>
@@ -26454,10 +26469,10 @@
         <v>1.43</v>
       </c>
       <c r="AP123">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ123">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR123">
         <v>1.8</v>
@@ -26582,7 +26597,7 @@
         <v>182</v>
       </c>
       <c r="P124" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q124">
         <v>2.46</v>
@@ -26660,7 +26675,7 @@
         <v>2.13</v>
       </c>
       <c r="AP124">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AQ124">
         <v>2.22</v>
@@ -26788,7 +26803,7 @@
         <v>183</v>
       </c>
       <c r="P125" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q125">
         <v>3.68</v>
@@ -26866,7 +26881,7 @@
         <v>1.14</v>
       </c>
       <c r="AP125">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ125">
         <v>1.38</v>
@@ -26994,7 +27009,7 @@
         <v>184</v>
       </c>
       <c r="P126" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q126">
         <v>1.95</v>
@@ -27075,7 +27090,7 @@
         <v>2</v>
       </c>
       <c r="AQ126">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR126">
         <v>2.04</v>
@@ -27278,10 +27293,10 @@
         <v>0.29</v>
       </c>
       <c r="AP127">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ127">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR127">
         <v>1.83</v>
@@ -27406,7 +27421,7 @@
         <v>103</v>
       </c>
       <c r="P128" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q128">
         <v>3.75</v>
@@ -27818,7 +27833,7 @@
         <v>187</v>
       </c>
       <c r="P130" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -28024,7 +28039,7 @@
         <v>103</v>
       </c>
       <c r="P131" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q131">
         <v>2.88</v>
@@ -28230,7 +28245,7 @@
         <v>103</v>
       </c>
       <c r="P132" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q132">
         <v>3.04</v>
@@ -28436,7 +28451,7 @@
         <v>103</v>
       </c>
       <c r="P133" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q133">
         <v>2.69</v>
@@ -28642,7 +28657,7 @@
         <v>103</v>
       </c>
       <c r="P134" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q134">
         <v>3.2</v>
@@ -28723,7 +28738,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ134">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR134">
         <v>1.54</v>
@@ -28848,7 +28863,7 @@
         <v>188</v>
       </c>
       <c r="P135" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q135">
         <v>2.75</v>
@@ -29005,6 +29020,1036 @@
       </c>
       <c r="BP135">
         <v>1.52</v>
+      </c>
+    </row>
+    <row r="136" spans="1:68">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>7296409</v>
+      </c>
+      <c r="C136" t="s">
+        <v>68</v>
+      </c>
+      <c r="D136" t="s">
+        <v>69</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45514.45833333334</v>
+      </c>
+      <c r="F136">
+        <v>18</v>
+      </c>
+      <c r="G136" t="s">
+        <v>73</v>
+      </c>
+      <c r="H136" t="s">
+        <v>77</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>1</v>
+      </c>
+      <c r="L136">
+        <v>1</v>
+      </c>
+      <c r="M136">
+        <v>0</v>
+      </c>
+      <c r="N136">
+        <v>1</v>
+      </c>
+      <c r="O136" t="s">
+        <v>189</v>
+      </c>
+      <c r="P136" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q136">
+        <v>3.04</v>
+      </c>
+      <c r="R136">
+        <v>2.42</v>
+      </c>
+      <c r="S136">
+        <v>3.03</v>
+      </c>
+      <c r="T136">
+        <v>1.27</v>
+      </c>
+      <c r="U136">
+        <v>3.54</v>
+      </c>
+      <c r="V136">
+        <v>2.27</v>
+      </c>
+      <c r="W136">
+        <v>1.59</v>
+      </c>
+      <c r="X136">
+        <v>5.15</v>
+      </c>
+      <c r="Y136">
+        <v>1.14</v>
+      </c>
+      <c r="Z136">
+        <v>2.5</v>
+      </c>
+      <c r="AA136">
+        <v>3.4</v>
+      </c>
+      <c r="AB136">
+        <v>2.3</v>
+      </c>
+      <c r="AC136">
+        <v>1.01</v>
+      </c>
+      <c r="AD136">
+        <v>14.3</v>
+      </c>
+      <c r="AE136">
+        <v>1.14</v>
+      </c>
+      <c r="AF136">
+        <v>4.65</v>
+      </c>
+      <c r="AG136">
+        <v>1.6</v>
+      </c>
+      <c r="AH136">
+        <v>2.2</v>
+      </c>
+      <c r="AI136">
+        <v>1.49</v>
+      </c>
+      <c r="AJ136">
+        <v>2.44</v>
+      </c>
+      <c r="AK136">
+        <v>1.5</v>
+      </c>
+      <c r="AL136">
+        <v>1.26</v>
+      </c>
+      <c r="AM136">
+        <v>1.49</v>
+      </c>
+      <c r="AN136">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AO136">
+        <v>1.63</v>
+      </c>
+      <c r="AP136">
+        <v>0.8</v>
+      </c>
+      <c r="AQ136">
+        <v>1.44</v>
+      </c>
+      <c r="AR136">
+        <v>1.31</v>
+      </c>
+      <c r="AS136">
+        <v>1.64</v>
+      </c>
+      <c r="AT136">
+        <v>2.95</v>
+      </c>
+      <c r="AU136">
+        <v>7</v>
+      </c>
+      <c r="AV136">
+        <v>7</v>
+      </c>
+      <c r="AW136">
+        <v>5</v>
+      </c>
+      <c r="AX136">
+        <v>4</v>
+      </c>
+      <c r="AY136">
+        <v>12</v>
+      </c>
+      <c r="AZ136">
+        <v>11</v>
+      </c>
+      <c r="BA136">
+        <v>5</v>
+      </c>
+      <c r="BB136">
+        <v>3</v>
+      </c>
+      <c r="BC136">
+        <v>8</v>
+      </c>
+      <c r="BD136">
+        <v>0</v>
+      </c>
+      <c r="BE136">
+        <v>0</v>
+      </c>
+      <c r="BF136">
+        <v>0</v>
+      </c>
+      <c r="BG136">
+        <v>0</v>
+      </c>
+      <c r="BH136">
+        <v>0</v>
+      </c>
+      <c r="BI136">
+        <v>0</v>
+      </c>
+      <c r="BJ136">
+        <v>0</v>
+      </c>
+      <c r="BK136">
+        <v>0</v>
+      </c>
+      <c r="BL136">
+        <v>0</v>
+      </c>
+      <c r="BM136">
+        <v>1.74</v>
+      </c>
+      <c r="BN136">
+        <v>2.05</v>
+      </c>
+      <c r="BO136">
+        <v>2.16</v>
+      </c>
+      <c r="BP136">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="137" spans="1:68">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>7296403</v>
+      </c>
+      <c r="C137" t="s">
+        <v>68</v>
+      </c>
+      <c r="D137" t="s">
+        <v>69</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45514.45833333334</v>
+      </c>
+      <c r="F137">
+        <v>18</v>
+      </c>
+      <c r="G137" t="s">
+        <v>75</v>
+      </c>
+      <c r="H137" t="s">
+        <v>76</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="M137">
+        <v>1</v>
+      </c>
+      <c r="N137">
+        <v>1</v>
+      </c>
+      <c r="O137" t="s">
+        <v>103</v>
+      </c>
+      <c r="P137" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q137">
+        <v>2.26</v>
+      </c>
+      <c r="R137">
+        <v>2.53</v>
+      </c>
+      <c r="S137">
+        <v>3.8</v>
+      </c>
+      <c r="T137">
+        <v>1.22</v>
+      </c>
+      <c r="U137">
+        <v>4</v>
+      </c>
+      <c r="V137">
+        <v>2.05</v>
+      </c>
+      <c r="W137">
+        <v>1.72</v>
+      </c>
+      <c r="X137">
+        <v>4.33</v>
+      </c>
+      <c r="Y137">
+        <v>1.19</v>
+      </c>
+      <c r="Z137">
+        <v>1.75</v>
+      </c>
+      <c r="AA137">
+        <v>3.8</v>
+      </c>
+      <c r="AB137">
+        <v>3.4</v>
+      </c>
+      <c r="AC137">
+        <v>1.02</v>
+      </c>
+      <c r="AD137">
+        <v>24.5</v>
+      </c>
+      <c r="AE137">
+        <v>1.09</v>
+      </c>
+      <c r="AF137">
+        <v>5.7</v>
+      </c>
+      <c r="AG137">
+        <v>1.37</v>
+      </c>
+      <c r="AH137">
+        <v>2.69</v>
+      </c>
+      <c r="AI137">
+        <v>1.41</v>
+      </c>
+      <c r="AJ137">
+        <v>2.69</v>
+      </c>
+      <c r="AK137">
+        <v>1.25</v>
+      </c>
+      <c r="AL137">
+        <v>1.25</v>
+      </c>
+      <c r="AM137">
+        <v>2</v>
+      </c>
+      <c r="AN137">
+        <v>1.11</v>
+      </c>
+      <c r="AO137">
+        <v>0.25</v>
+      </c>
+      <c r="AP137">
+        <v>1</v>
+      </c>
+      <c r="AQ137">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR137">
+        <v>1.42</v>
+      </c>
+      <c r="AS137">
+        <v>0.97</v>
+      </c>
+      <c r="AT137">
+        <v>2.39</v>
+      </c>
+      <c r="AU137">
+        <v>4</v>
+      </c>
+      <c r="AV137">
+        <v>4</v>
+      </c>
+      <c r="AW137">
+        <v>10</v>
+      </c>
+      <c r="AX137">
+        <v>0</v>
+      </c>
+      <c r="AY137">
+        <v>14</v>
+      </c>
+      <c r="AZ137">
+        <v>4</v>
+      </c>
+      <c r="BA137">
+        <v>6</v>
+      </c>
+      <c r="BB137">
+        <v>1</v>
+      </c>
+      <c r="BC137">
+        <v>7</v>
+      </c>
+      <c r="BD137">
+        <v>1.42</v>
+      </c>
+      <c r="BE137">
+        <v>7.6</v>
+      </c>
+      <c r="BF137">
+        <v>3.72</v>
+      </c>
+      <c r="BG137">
+        <v>0</v>
+      </c>
+      <c r="BH137">
+        <v>0</v>
+      </c>
+      <c r="BI137">
+        <v>0</v>
+      </c>
+      <c r="BJ137">
+        <v>0</v>
+      </c>
+      <c r="BK137">
+        <v>0</v>
+      </c>
+      <c r="BL137">
+        <v>0</v>
+      </c>
+      <c r="BM137">
+        <v>1.95</v>
+      </c>
+      <c r="BN137">
+        <v>1.85</v>
+      </c>
+      <c r="BO137">
+        <v>2.21</v>
+      </c>
+      <c r="BP137">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="138" spans="1:68">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>7296404</v>
+      </c>
+      <c r="C138" t="s">
+        <v>68</v>
+      </c>
+      <c r="D138" t="s">
+        <v>69</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45514.45833333334</v>
+      </c>
+      <c r="F138">
+        <v>18</v>
+      </c>
+      <c r="G138" t="s">
+        <v>81</v>
+      </c>
+      <c r="H138" t="s">
+        <v>80</v>
+      </c>
+      <c r="I138">
+        <v>3</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>3</v>
+      </c>
+      <c r="L138">
+        <v>3</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>3</v>
+      </c>
+      <c r="O138" t="s">
+        <v>190</v>
+      </c>
+      <c r="P138" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q138">
+        <v>2.38</v>
+      </c>
+      <c r="R138">
+        <v>2.6</v>
+      </c>
+      <c r="S138">
+        <v>3.4</v>
+      </c>
+      <c r="T138">
+        <v>1.18</v>
+      </c>
+      <c r="U138">
+        <v>4.33</v>
+      </c>
+      <c r="V138">
+        <v>1.91</v>
+      </c>
+      <c r="W138">
+        <v>1.8</v>
+      </c>
+      <c r="X138">
+        <v>3.8</v>
+      </c>
+      <c r="Y138">
+        <v>1.22</v>
+      </c>
+      <c r="Z138">
+        <v>1.91</v>
+      </c>
+      <c r="AA138">
+        <v>3.75</v>
+      </c>
+      <c r="AB138">
+        <v>3</v>
+      </c>
+      <c r="AC138">
+        <v>1.01</v>
+      </c>
+      <c r="AD138">
+        <v>32</v>
+      </c>
+      <c r="AE138">
+        <v>1.08</v>
+      </c>
+      <c r="AF138">
+        <v>6.5</v>
+      </c>
+      <c r="AG138">
+        <v>1.32</v>
+      </c>
+      <c r="AH138">
+        <v>2.91</v>
+      </c>
+      <c r="AI138">
+        <v>1.33</v>
+      </c>
+      <c r="AJ138">
+        <v>3</v>
+      </c>
+      <c r="AK138">
+        <v>1.36</v>
+      </c>
+      <c r="AL138">
+        <v>1.22</v>
+      </c>
+      <c r="AM138">
+        <v>1.83</v>
+      </c>
+      <c r="AN138">
+        <v>2</v>
+      </c>
+      <c r="AO138">
+        <v>0.78</v>
+      </c>
+      <c r="AP138">
+        <v>2.11</v>
+      </c>
+      <c r="AQ138">
+        <v>0.7</v>
+      </c>
+      <c r="AR138">
+        <v>1.94</v>
+      </c>
+      <c r="AS138">
+        <v>1.52</v>
+      </c>
+      <c r="AT138">
+        <v>3.46</v>
+      </c>
+      <c r="AU138">
+        <v>10</v>
+      </c>
+      <c r="AV138">
+        <v>4</v>
+      </c>
+      <c r="AW138">
+        <v>14</v>
+      </c>
+      <c r="AX138">
+        <v>7</v>
+      </c>
+      <c r="AY138">
+        <v>24</v>
+      </c>
+      <c r="AZ138">
+        <v>11</v>
+      </c>
+      <c r="BA138">
+        <v>4</v>
+      </c>
+      <c r="BB138">
+        <v>8</v>
+      </c>
+      <c r="BC138">
+        <v>12</v>
+      </c>
+      <c r="BD138">
+        <v>1.61</v>
+      </c>
+      <c r="BE138">
+        <v>7</v>
+      </c>
+      <c r="BF138">
+        <v>3</v>
+      </c>
+      <c r="BG138">
+        <v>0</v>
+      </c>
+      <c r="BH138">
+        <v>0</v>
+      </c>
+      <c r="BI138">
+        <v>0</v>
+      </c>
+      <c r="BJ138">
+        <v>0</v>
+      </c>
+      <c r="BK138">
+        <v>1.44</v>
+      </c>
+      <c r="BL138">
+        <v>2.5</v>
+      </c>
+      <c r="BM138">
+        <v>1.95</v>
+      </c>
+      <c r="BN138">
+        <v>1.85</v>
+      </c>
+      <c r="BO138">
+        <v>2.16</v>
+      </c>
+      <c r="BP138">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="139" spans="1:68">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>7296405</v>
+      </c>
+      <c r="C139" t="s">
+        <v>68</v>
+      </c>
+      <c r="D139" t="s">
+        <v>69</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45514.45833333334</v>
+      </c>
+      <c r="F139">
+        <v>18</v>
+      </c>
+      <c r="G139" t="s">
+        <v>74</v>
+      </c>
+      <c r="H139" t="s">
+        <v>70</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="J139">
+        <v>2</v>
+      </c>
+      <c r="K139">
+        <v>3</v>
+      </c>
+      <c r="L139">
+        <v>2</v>
+      </c>
+      <c r="M139">
+        <v>5</v>
+      </c>
+      <c r="N139">
+        <v>7</v>
+      </c>
+      <c r="O139" t="s">
+        <v>191</v>
+      </c>
+      <c r="P139" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q139">
+        <v>3.6</v>
+      </c>
+      <c r="R139">
+        <v>2.25</v>
+      </c>
+      <c r="S139">
+        <v>2.55</v>
+      </c>
+      <c r="T139">
+        <v>1.32</v>
+      </c>
+      <c r="U139">
+        <v>3.25</v>
+      </c>
+      <c r="V139">
+        <v>2.4</v>
+      </c>
+      <c r="W139">
+        <v>1.5</v>
+      </c>
+      <c r="X139">
+        <v>5.25</v>
+      </c>
+      <c r="Y139">
+        <v>1.12</v>
+      </c>
+      <c r="Z139">
+        <v>3</v>
+      </c>
+      <c r="AA139">
+        <v>3.5</v>
+      </c>
+      <c r="AB139">
+        <v>2</v>
+      </c>
+      <c r="AC139">
+        <v>1.03</v>
+      </c>
+      <c r="AD139">
+        <v>16</v>
+      </c>
+      <c r="AE139">
+        <v>1.21</v>
+      </c>
+      <c r="AF139">
+        <v>4.5</v>
+      </c>
+      <c r="AG139">
+        <v>1.61</v>
+      </c>
+      <c r="AH139">
+        <v>2.15</v>
+      </c>
+      <c r="AI139">
+        <v>1.58</v>
+      </c>
+      <c r="AJ139">
+        <v>2.35</v>
+      </c>
+      <c r="AK139">
+        <v>1.72</v>
+      </c>
+      <c r="AL139">
+        <v>1.3</v>
+      </c>
+      <c r="AM139">
+        <v>1.35</v>
+      </c>
+      <c r="AN139">
+        <v>1.25</v>
+      </c>
+      <c r="AO139">
+        <v>1.13</v>
+      </c>
+      <c r="AP139">
+        <v>1.11</v>
+      </c>
+      <c r="AQ139">
+        <v>1.33</v>
+      </c>
+      <c r="AR139">
+        <v>1.59</v>
+      </c>
+      <c r="AS139">
+        <v>1.82</v>
+      </c>
+      <c r="AT139">
+        <v>3.41</v>
+      </c>
+      <c r="AU139">
+        <v>6</v>
+      </c>
+      <c r="AV139">
+        <v>7</v>
+      </c>
+      <c r="AW139">
+        <v>9</v>
+      </c>
+      <c r="AX139">
+        <v>8</v>
+      </c>
+      <c r="AY139">
+        <v>15</v>
+      </c>
+      <c r="AZ139">
+        <v>15</v>
+      </c>
+      <c r="BA139">
+        <v>7</v>
+      </c>
+      <c r="BB139">
+        <v>3</v>
+      </c>
+      <c r="BC139">
+        <v>10</v>
+      </c>
+      <c r="BD139">
+        <v>2.47</v>
+      </c>
+      <c r="BE139">
+        <v>6.9</v>
+      </c>
+      <c r="BF139">
+        <v>1.8</v>
+      </c>
+      <c r="BG139">
+        <v>0</v>
+      </c>
+      <c r="BH139">
+        <v>0</v>
+      </c>
+      <c r="BI139">
+        <v>1.29</v>
+      </c>
+      <c r="BJ139">
+        <v>3.45</v>
+      </c>
+      <c r="BK139">
+        <v>1.5</v>
+      </c>
+      <c r="BL139">
+        <v>2.45</v>
+      </c>
+      <c r="BM139">
+        <v>1.88</v>
+      </c>
+      <c r="BN139">
+        <v>1.92</v>
+      </c>
+      <c r="BO139">
+        <v>2.43</v>
+      </c>
+      <c r="BP139">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="140" spans="1:68">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>7296407</v>
+      </c>
+      <c r="C140" t="s">
+        <v>68</v>
+      </c>
+      <c r="D140" t="s">
+        <v>69</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45514.45833333334</v>
+      </c>
+      <c r="F140">
+        <v>18</v>
+      </c>
+      <c r="G140" t="s">
+        <v>83</v>
+      </c>
+      <c r="H140" t="s">
+        <v>82</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>1</v>
+      </c>
+      <c r="K140">
+        <v>1</v>
+      </c>
+      <c r="L140">
+        <v>1</v>
+      </c>
+      <c r="M140">
+        <v>1</v>
+      </c>
+      <c r="N140">
+        <v>2</v>
+      </c>
+      <c r="O140" t="s">
+        <v>192</v>
+      </c>
+      <c r="P140" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q140">
+        <v>2.61</v>
+      </c>
+      <c r="R140">
+        <v>2.43</v>
+      </c>
+      <c r="S140">
+        <v>3.63</v>
+      </c>
+      <c r="T140">
+        <v>1.28</v>
+      </c>
+      <c r="U140">
+        <v>3.44</v>
+      </c>
+      <c r="V140">
+        <v>2.36</v>
+      </c>
+      <c r="W140">
+        <v>1.56</v>
+      </c>
+      <c r="X140">
+        <v>5.4</v>
+      </c>
+      <c r="Y140">
+        <v>1.13</v>
+      </c>
+      <c r="Z140">
+        <v>2</v>
+      </c>
+      <c r="AA140">
+        <v>3.5</v>
+      </c>
+      <c r="AB140">
+        <v>3</v>
+      </c>
+      <c r="AC140">
+        <v>1.03</v>
+      </c>
+      <c r="AD140">
+        <v>12</v>
+      </c>
+      <c r="AE140">
+        <v>1.16</v>
+      </c>
+      <c r="AF140">
+        <v>4.4</v>
+      </c>
+      <c r="AG140">
+        <v>1.57</v>
+      </c>
+      <c r="AH140">
+        <v>2.25</v>
+      </c>
+      <c r="AI140">
+        <v>1.51</v>
+      </c>
+      <c r="AJ140">
+        <v>2.39</v>
+      </c>
+      <c r="AK140">
+        <v>1.35</v>
+      </c>
+      <c r="AL140">
+        <v>1.3</v>
+      </c>
+      <c r="AM140">
+        <v>1.7</v>
+      </c>
+      <c r="AN140">
+        <v>2.13</v>
+      </c>
+      <c r="AO140">
+        <v>1.11</v>
+      </c>
+      <c r="AP140">
+        <v>2</v>
+      </c>
+      <c r="AQ140">
+        <v>1.1</v>
+      </c>
+      <c r="AR140">
+        <v>1.59</v>
+      </c>
+      <c r="AS140">
+        <v>1.48</v>
+      </c>
+      <c r="AT140">
+        <v>3.07</v>
+      </c>
+      <c r="AU140">
+        <v>11</v>
+      </c>
+      <c r="AV140">
+        <v>5</v>
+      </c>
+      <c r="AW140">
+        <v>4</v>
+      </c>
+      <c r="AX140">
+        <v>3</v>
+      </c>
+      <c r="AY140">
+        <v>15</v>
+      </c>
+      <c r="AZ140">
+        <v>8</v>
+      </c>
+      <c r="BA140">
+        <v>8</v>
+      </c>
+      <c r="BB140">
+        <v>2</v>
+      </c>
+      <c r="BC140">
+        <v>10</v>
+      </c>
+      <c r="BD140">
+        <v>1.83</v>
+      </c>
+      <c r="BE140">
+        <v>6.55</v>
+      </c>
+      <c r="BF140">
+        <v>2.45</v>
+      </c>
+      <c r="BG140">
+        <v>0</v>
+      </c>
+      <c r="BH140">
+        <v>0</v>
+      </c>
+      <c r="BI140">
+        <v>1.36</v>
+      </c>
+      <c r="BJ140">
+        <v>2.79</v>
+      </c>
+      <c r="BK140">
+        <v>1.64</v>
+      </c>
+      <c r="BL140">
+        <v>2.07</v>
+      </c>
+      <c r="BM140">
+        <v>1.92</v>
+      </c>
+      <c r="BN140">
+        <v>1.88</v>
+      </c>
+      <c r="BO140">
+        <v>2.71</v>
+      </c>
+      <c r="BP140">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="282">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -595,6 +595,15 @@
     <t>['53']</t>
   </si>
   <si>
+    <t>['23', '49', '90+5']</t>
+  </si>
+  <si>
+    <t>['54']</t>
+  </si>
+  <si>
+    <t>['16', '61', '90+5']</t>
+  </si>
+  <si>
     <t>['90+1']</t>
   </si>
   <si>
@@ -845,6 +854,12 @@
   </si>
   <si>
     <t>['5']</t>
+  </si>
+  <si>
+    <t>['15']</t>
+  </si>
+  <si>
+    <t>['54', '57']</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1221,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP140"/>
+  <dimension ref="A1:BP143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1465,7 +1480,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q2">
         <v>2.84</v>
@@ -1546,7 +1561,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ2">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1671,7 +1686,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q3">
         <v>2.2</v>
@@ -1749,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ3">
         <v>0.7</v>
@@ -1877,7 +1892,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -1955,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ4">
         <v>1.33</v>
@@ -2289,7 +2304,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q6">
         <v>2.35</v>
@@ -2495,7 +2510,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q7">
         <v>2.66</v>
@@ -2576,7 +2591,7 @@
         <v>1</v>
       </c>
       <c r="AQ7">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2701,7 +2716,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q8">
         <v>2.8</v>
@@ -2988,7 +3003,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ9">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3113,7 +3128,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3319,7 +3334,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3525,7 +3540,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -4143,7 +4158,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q15">
         <v>2.05</v>
@@ -4555,7 +4570,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q17">
         <v>2.15</v>
@@ -4633,7 +4648,7 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ17">
         <v>1.11</v>
@@ -4761,7 +4776,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q18">
         <v>2.15</v>
@@ -4839,7 +4854,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ18">
         <v>2.22</v>
@@ -5460,7 +5475,7 @@
         <v>1</v>
       </c>
       <c r="AQ21">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR21">
         <v>1.74</v>
@@ -5585,7 +5600,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q22">
         <v>2.76</v>
@@ -5791,7 +5806,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q23">
         <v>2.85</v>
@@ -5872,7 +5887,7 @@
         <v>1</v>
       </c>
       <c r="AQ23">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR23">
         <v>1.2</v>
@@ -5997,7 +6012,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q24">
         <v>2.05</v>
@@ -6078,7 +6093,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ24">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR24">
         <v>1.52</v>
@@ -6615,7 +6630,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -7027,7 +7042,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q29">
         <v>2.25</v>
@@ -7311,7 +7326,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ30">
         <v>1</v>
@@ -7439,7 +7454,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7851,7 +7866,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q33">
         <v>3.05</v>
@@ -8057,7 +8072,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q34">
         <v>2.26</v>
@@ -8138,7 +8153,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ34">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR34">
         <v>1.33</v>
@@ -8263,7 +8278,7 @@
         <v>115</v>
       </c>
       <c r="P35" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q35">
         <v>3.46</v>
@@ -8547,10 +8562,10 @@
         <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ36">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR36">
         <v>1.75</v>
@@ -8675,7 +8690,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q37">
         <v>2.72</v>
@@ -8881,7 +8896,7 @@
         <v>118</v>
       </c>
       <c r="P38" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q38">
         <v>4.55</v>
@@ -9087,7 +9102,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q39">
         <v>2.78</v>
@@ -9577,7 +9592,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ41">
         <v>1.33</v>
@@ -9911,7 +9926,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q43">
         <v>3.11</v>
@@ -10117,7 +10132,7 @@
         <v>123</v>
       </c>
       <c r="P44" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q44">
         <v>3.3</v>
@@ -10323,7 +10338,7 @@
         <v>94</v>
       </c>
       <c r="P45" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q45">
         <v>2.4</v>
@@ -10401,10 +10416,10 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ45">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR45">
         <v>2.74</v>
@@ -11225,10 +11240,10 @@
         <v>1.33</v>
       </c>
       <c r="AP49">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ49">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR49">
         <v>1.8</v>
@@ -11353,7 +11368,7 @@
         <v>103</v>
       </c>
       <c r="P50" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q50">
         <v>3.89</v>
@@ -11559,7 +11574,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q51">
         <v>2.61</v>
@@ -11765,7 +11780,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -11971,7 +11986,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q53">
         <v>2.05</v>
@@ -12464,7 +12479,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ55">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR55">
         <v>1.63</v>
@@ -12795,7 +12810,7 @@
         <v>103</v>
       </c>
       <c r="P57" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q57">
         <v>2.57</v>
@@ -13001,7 +13016,7 @@
         <v>132</v>
       </c>
       <c r="P58" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q58">
         <v>2.3</v>
@@ -13207,7 +13222,7 @@
         <v>103</v>
       </c>
       <c r="P59" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q59">
         <v>2.75</v>
@@ -13413,7 +13428,7 @@
         <v>103</v>
       </c>
       <c r="P60" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q60">
         <v>2.32</v>
@@ -13491,7 +13506,7 @@
         <v>1.33</v>
       </c>
       <c r="AP60">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ60">
         <v>1.33</v>
@@ -13619,7 +13634,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q61">
         <v>3.6</v>
@@ -13825,7 +13840,7 @@
         <v>134</v>
       </c>
       <c r="P62" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q62">
         <v>2.39</v>
@@ -13906,7 +13921,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ62">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR62">
         <v>1.79</v>
@@ -14031,7 +14046,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q63">
         <v>2.84</v>
@@ -14237,7 +14252,7 @@
         <v>136</v>
       </c>
       <c r="P64" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q64">
         <v>2.7</v>
@@ -14318,7 +14333,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ64">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR64">
         <v>1.35</v>
@@ -14443,7 +14458,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -14855,7 +14870,7 @@
         <v>139</v>
       </c>
       <c r="P67" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q67">
         <v>2.5</v>
@@ -14933,7 +14948,7 @@
         <v>1.25</v>
       </c>
       <c r="AP67">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ67">
         <v>1.1</v>
@@ -15142,7 +15157,7 @@
         <v>2</v>
       </c>
       <c r="AQ68">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR68">
         <v>1.49</v>
@@ -15473,7 +15488,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q70">
         <v>1.85</v>
@@ -15551,7 +15566,7 @@
         <v>0</v>
       </c>
       <c r="AP70">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ70">
         <v>0.57</v>
@@ -15885,7 +15900,7 @@
         <v>143</v>
       </c>
       <c r="P72" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q72">
         <v>2.24</v>
@@ -15963,7 +15978,7 @@
         <v>1.2</v>
       </c>
       <c r="AP72">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ72">
         <v>1.1</v>
@@ -16091,7 +16106,7 @@
         <v>103</v>
       </c>
       <c r="P73" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q73">
         <v>3.66</v>
@@ -16297,7 +16312,7 @@
         <v>144</v>
       </c>
       <c r="P74" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q74">
         <v>2.4</v>
@@ -16503,7 +16518,7 @@
         <v>145</v>
       </c>
       <c r="P75" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q75">
         <v>2.38</v>
@@ -16709,7 +16724,7 @@
         <v>125</v>
       </c>
       <c r="P76" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -16996,7 +17011,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ77">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR77">
         <v>1.11</v>
@@ -17121,7 +17136,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q78">
         <v>2.75</v>
@@ -17327,7 +17342,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17533,7 +17548,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q80">
         <v>2.2</v>
@@ -17739,7 +17754,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q81">
         <v>2.31</v>
@@ -17817,10 +17832,10 @@
         <v>1.2</v>
       </c>
       <c r="AP81">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ81">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR81">
         <v>2.48</v>
@@ -18151,7 +18166,7 @@
         <v>151</v>
       </c>
       <c r="P83" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q83">
         <v>2.7</v>
@@ -18563,7 +18578,7 @@
         <v>153</v>
       </c>
       <c r="P85" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q85">
         <v>3.5</v>
@@ -18769,7 +18784,7 @@
         <v>154</v>
       </c>
       <c r="P86" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q86">
         <v>2.55</v>
@@ -18847,7 +18862,7 @@
         <v>0.75</v>
       </c>
       <c r="AP86">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ86">
         <v>1.33</v>
@@ -18975,7 +18990,7 @@
         <v>155</v>
       </c>
       <c r="P87" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q87">
         <v>2.27</v>
@@ -19056,7 +19071,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ87">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR87">
         <v>1.38</v>
@@ -19259,7 +19274,7 @@
         <v>0.25</v>
       </c>
       <c r="AP88">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ88">
         <v>0.78</v>
@@ -19387,7 +19402,7 @@
         <v>156</v>
       </c>
       <c r="P89" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q89">
         <v>2.8</v>
@@ -19593,7 +19608,7 @@
         <v>157</v>
       </c>
       <c r="P90" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q90">
         <v>2.6</v>
@@ -19799,7 +19814,7 @@
         <v>158</v>
       </c>
       <c r="P91" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -19880,7 +19895,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ91">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR91">
         <v>1.98</v>
@@ -20005,7 +20020,7 @@
         <v>159</v>
       </c>
       <c r="P92" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q92">
         <v>3.6</v>
@@ -20417,7 +20432,7 @@
         <v>161</v>
       </c>
       <c r="P94" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q94">
         <v>2.1</v>
@@ -20495,7 +20510,7 @@
         <v>1.4</v>
       </c>
       <c r="AP94">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ94">
         <v>1.44</v>
@@ -20623,7 +20638,7 @@
         <v>162</v>
       </c>
       <c r="P95" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q95">
         <v>2.17</v>
@@ -21116,7 +21131,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ97">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR97">
         <v>1.52</v>
@@ -21241,7 +21256,7 @@
         <v>149</v>
       </c>
       <c r="P98" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q98">
         <v>3.54</v>
@@ -21319,7 +21334,7 @@
         <v>2.17</v>
       </c>
       <c r="AP98">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ98">
         <v>2.22</v>
@@ -21447,7 +21462,7 @@
         <v>165</v>
       </c>
       <c r="P99" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q99">
         <v>3.35</v>
@@ -21859,7 +21874,7 @@
         <v>167</v>
       </c>
       <c r="P101" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q101">
         <v>2.96</v>
@@ -22065,7 +22080,7 @@
         <v>168</v>
       </c>
       <c r="P102" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q102">
         <v>2.44</v>
@@ -22271,7 +22286,7 @@
         <v>103</v>
       </c>
       <c r="P103" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q103">
         <v>1.81</v>
@@ -22349,7 +22364,7 @@
         <v>0.17</v>
       </c>
       <c r="AP103">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ103">
         <v>0.78</v>
@@ -22683,7 +22698,7 @@
         <v>170</v>
       </c>
       <c r="P105" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q105">
         <v>2.69</v>
@@ -22889,7 +22904,7 @@
         <v>171</v>
       </c>
       <c r="P106" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q106">
         <v>2.56</v>
@@ -22970,7 +22985,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ106">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR106">
         <v>1.19</v>
@@ -23379,7 +23394,7 @@
         <v>0.2</v>
       </c>
       <c r="AP108">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ108">
         <v>0.5600000000000001</v>
@@ -23507,7 +23522,7 @@
         <v>174</v>
       </c>
       <c r="P109" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q109">
         <v>3.5</v>
@@ -23713,7 +23728,7 @@
         <v>175</v>
       </c>
       <c r="P110" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q110">
         <v>2.43</v>
@@ -23794,7 +23809,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ110">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR110">
         <v>1.76</v>
@@ -23919,7 +23934,7 @@
         <v>103</v>
       </c>
       <c r="P111" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q111">
         <v>3.02</v>
@@ -24331,7 +24346,7 @@
         <v>103</v>
       </c>
       <c r="P113" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q113">
         <v>2.85</v>
@@ -24409,7 +24424,7 @@
         <v>0.5</v>
       </c>
       <c r="AP113">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ113">
         <v>1.33</v>
@@ -24949,7 +24964,7 @@
         <v>177</v>
       </c>
       <c r="P116" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q116">
         <v>4.5</v>
@@ -25361,7 +25376,7 @@
         <v>103</v>
       </c>
       <c r="P118" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q118">
         <v>3.2</v>
@@ -25854,7 +25869,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ120">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR120">
         <v>1.55</v>
@@ -25979,7 +25994,7 @@
         <v>180</v>
       </c>
       <c r="P121" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q121">
         <v>2.38</v>
@@ -26057,7 +26072,7 @@
         <v>1.13</v>
       </c>
       <c r="AP121">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ121">
         <v>1.1</v>
@@ -26266,7 +26281,7 @@
         <v>2</v>
       </c>
       <c r="AQ122">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR122">
         <v>1.59</v>
@@ -26391,7 +26406,7 @@
         <v>170</v>
       </c>
       <c r="P123" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q123">
         <v>2.51</v>
@@ -26597,7 +26612,7 @@
         <v>182</v>
       </c>
       <c r="P124" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q124">
         <v>2.46</v>
@@ -26803,7 +26818,7 @@
         <v>183</v>
       </c>
       <c r="P125" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q125">
         <v>3.68</v>
@@ -26884,7 +26899,7 @@
         <v>1</v>
       </c>
       <c r="AQ125">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR125">
         <v>1.44</v>
@@ -27009,7 +27024,7 @@
         <v>184</v>
       </c>
       <c r="P126" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q126">
         <v>1.95</v>
@@ -27087,7 +27102,7 @@
         <v>0.88</v>
       </c>
       <c r="AP126">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ126">
         <v>0.7</v>
@@ -27421,7 +27436,7 @@
         <v>103</v>
       </c>
       <c r="P128" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q128">
         <v>3.75</v>
@@ -27833,7 +27848,7 @@
         <v>187</v>
       </c>
       <c r="P130" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -28039,7 +28054,7 @@
         <v>103</v>
       </c>
       <c r="P131" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q131">
         <v>2.88</v>
@@ -28245,7 +28260,7 @@
         <v>103</v>
       </c>
       <c r="P132" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q132">
         <v>3.04</v>
@@ -28451,7 +28466,7 @@
         <v>103</v>
       </c>
       <c r="P133" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q133">
         <v>2.69</v>
@@ -28529,7 +28544,7 @@
         <v>1.13</v>
       </c>
       <c r="AP133">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ133">
         <v>1.33</v>
@@ -28657,7 +28672,7 @@
         <v>103</v>
       </c>
       <c r="P134" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q134">
         <v>3.2</v>
@@ -28863,7 +28878,7 @@
         <v>188</v>
       </c>
       <c r="P135" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q135">
         <v>2.75</v>
@@ -29687,7 +29702,7 @@
         <v>191</v>
       </c>
       <c r="P139" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q139">
         <v>3.6</v>
@@ -29893,7 +29908,7 @@
         <v>192</v>
       </c>
       <c r="P140" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q140">
         <v>2.61</v>
@@ -30050,6 +30065,624 @@
       </c>
       <c r="BP140">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="141" spans="1:68">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>7296408</v>
+      </c>
+      <c r="C141" t="s">
+        <v>68</v>
+      </c>
+      <c r="D141" t="s">
+        <v>69</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45515.39583333334</v>
+      </c>
+      <c r="F141">
+        <v>18</v>
+      </c>
+      <c r="G141" t="s">
+        <v>72</v>
+      </c>
+      <c r="H141" t="s">
+        <v>79</v>
+      </c>
+      <c r="I141">
+        <v>1</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>1</v>
+      </c>
+      <c r="L141">
+        <v>3</v>
+      </c>
+      <c r="M141">
+        <v>0</v>
+      </c>
+      <c r="N141">
+        <v>3</v>
+      </c>
+      <c r="O141" t="s">
+        <v>193</v>
+      </c>
+      <c r="P141" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q141">
+        <v>1.62</v>
+      </c>
+      <c r="R141">
+        <v>2.88</v>
+      </c>
+      <c r="S141">
+        <v>8.5</v>
+      </c>
+      <c r="T141">
+        <v>1.22</v>
+      </c>
+      <c r="U141">
+        <v>4</v>
+      </c>
+      <c r="V141">
+        <v>2.1</v>
+      </c>
+      <c r="W141">
+        <v>1.67</v>
+      </c>
+      <c r="X141">
+        <v>4.5</v>
+      </c>
+      <c r="Y141">
+        <v>1.18</v>
+      </c>
+      <c r="Z141">
+        <v>1.27</v>
+      </c>
+      <c r="AA141">
+        <v>5.8</v>
+      </c>
+      <c r="AB141">
+        <v>8.4</v>
+      </c>
+      <c r="AC141">
+        <v>1.01</v>
+      </c>
+      <c r="AD141">
+        <v>27</v>
+      </c>
+      <c r="AE141">
+        <v>1.1</v>
+      </c>
+      <c r="AF141">
+        <v>5.5</v>
+      </c>
+      <c r="AG141">
+        <v>1.4</v>
+      </c>
+      <c r="AH141">
+        <v>2.58</v>
+      </c>
+      <c r="AI141">
+        <v>1.83</v>
+      </c>
+      <c r="AJ141">
+        <v>1.83</v>
+      </c>
+      <c r="AK141">
+        <v>1.02</v>
+      </c>
+      <c r="AL141">
+        <v>1.1</v>
+      </c>
+      <c r="AM141">
+        <v>4</v>
+      </c>
+      <c r="AN141">
+        <v>2</v>
+      </c>
+      <c r="AO141">
+        <v>1.25</v>
+      </c>
+      <c r="AP141">
+        <v>2.11</v>
+      </c>
+      <c r="AQ141">
+        <v>1.11</v>
+      </c>
+      <c r="AR141">
+        <v>2</v>
+      </c>
+      <c r="AS141">
+        <v>1.28</v>
+      </c>
+      <c r="AT141">
+        <v>3.28</v>
+      </c>
+      <c r="AU141">
+        <v>9</v>
+      </c>
+      <c r="AV141">
+        <v>3</v>
+      </c>
+      <c r="AW141">
+        <v>11</v>
+      </c>
+      <c r="AX141">
+        <v>4</v>
+      </c>
+      <c r="AY141">
+        <v>20</v>
+      </c>
+      <c r="AZ141">
+        <v>7</v>
+      </c>
+      <c r="BA141">
+        <v>8</v>
+      </c>
+      <c r="BB141">
+        <v>2</v>
+      </c>
+      <c r="BC141">
+        <v>10</v>
+      </c>
+      <c r="BD141">
+        <v>1.08</v>
+      </c>
+      <c r="BE141">
+        <v>12.75</v>
+      </c>
+      <c r="BF141">
+        <v>10.25</v>
+      </c>
+      <c r="BG141">
+        <v>0</v>
+      </c>
+      <c r="BH141">
+        <v>0</v>
+      </c>
+      <c r="BI141">
+        <v>1.15</v>
+      </c>
+      <c r="BJ141">
+        <v>4.7</v>
+      </c>
+      <c r="BK141">
+        <v>1.29</v>
+      </c>
+      <c r="BL141">
+        <v>3.3</v>
+      </c>
+      <c r="BM141">
+        <v>1.5</v>
+      </c>
+      <c r="BN141">
+        <v>2.52</v>
+      </c>
+      <c r="BO141">
+        <v>1.95</v>
+      </c>
+      <c r="BP141">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="142" spans="1:68">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>7296406</v>
+      </c>
+      <c r="C142" t="s">
+        <v>68</v>
+      </c>
+      <c r="D142" t="s">
+        <v>69</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45515.5</v>
+      </c>
+      <c r="F142">
+        <v>18</v>
+      </c>
+      <c r="G142" t="s">
+        <v>71</v>
+      </c>
+      <c r="H142" t="s">
+        <v>84</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>1</v>
+      </c>
+      <c r="K142">
+        <v>1</v>
+      </c>
+      <c r="L142">
+        <v>1</v>
+      </c>
+      <c r="M142">
+        <v>1</v>
+      </c>
+      <c r="N142">
+        <v>2</v>
+      </c>
+      <c r="O142" t="s">
+        <v>194</v>
+      </c>
+      <c r="P142" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q142">
+        <v>2.75</v>
+      </c>
+      <c r="R142">
+        <v>2.4</v>
+      </c>
+      <c r="S142">
+        <v>3.25</v>
+      </c>
+      <c r="T142">
+        <v>1.25</v>
+      </c>
+      <c r="U142">
+        <v>3.75</v>
+      </c>
+      <c r="V142">
+        <v>2.25</v>
+      </c>
+      <c r="W142">
+        <v>1.57</v>
+      </c>
+      <c r="X142">
+        <v>5.5</v>
+      </c>
+      <c r="Y142">
+        <v>1.14</v>
+      </c>
+      <c r="Z142">
+        <v>2.07</v>
+      </c>
+      <c r="AA142">
+        <v>3.9</v>
+      </c>
+      <c r="AB142">
+        <v>3.22</v>
+      </c>
+      <c r="AC142">
+        <v>1.02</v>
+      </c>
+      <c r="AD142">
+        <v>10</v>
+      </c>
+      <c r="AE142">
+        <v>1.12</v>
+      </c>
+      <c r="AF142">
+        <v>4.95</v>
+      </c>
+      <c r="AG142">
+        <v>1.47</v>
+      </c>
+      <c r="AH142">
+        <v>2.5</v>
+      </c>
+      <c r="AI142">
+        <v>1.44</v>
+      </c>
+      <c r="AJ142">
+        <v>2.63</v>
+      </c>
+      <c r="AK142">
+        <v>1.43</v>
+      </c>
+      <c r="AL142">
+        <v>1.25</v>
+      </c>
+      <c r="AM142">
+        <v>1.58</v>
+      </c>
+      <c r="AN142">
+        <v>1.88</v>
+      </c>
+      <c r="AO142">
+        <v>1.38</v>
+      </c>
+      <c r="AP142">
+        <v>1.78</v>
+      </c>
+      <c r="AQ142">
+        <v>1.33</v>
+      </c>
+      <c r="AR142">
+        <v>1.83</v>
+      </c>
+      <c r="AS142">
+        <v>1.89</v>
+      </c>
+      <c r="AT142">
+        <v>3.72</v>
+      </c>
+      <c r="AU142">
+        <v>7</v>
+      </c>
+      <c r="AV142">
+        <v>2</v>
+      </c>
+      <c r="AW142">
+        <v>10</v>
+      </c>
+      <c r="AX142">
+        <v>7</v>
+      </c>
+      <c r="AY142">
+        <v>17</v>
+      </c>
+      <c r="AZ142">
+        <v>9</v>
+      </c>
+      <c r="BA142">
+        <v>4</v>
+      </c>
+      <c r="BB142">
+        <v>4</v>
+      </c>
+      <c r="BC142">
+        <v>8</v>
+      </c>
+      <c r="BD142">
+        <v>1.94</v>
+      </c>
+      <c r="BE142">
+        <v>6.7</v>
+      </c>
+      <c r="BF142">
+        <v>2.27</v>
+      </c>
+      <c r="BG142">
+        <v>0</v>
+      </c>
+      <c r="BH142">
+        <v>0</v>
+      </c>
+      <c r="BI142">
+        <v>1.3</v>
+      </c>
+      <c r="BJ142">
+        <v>3.3</v>
+      </c>
+      <c r="BK142">
+        <v>1.55</v>
+      </c>
+      <c r="BL142">
+        <v>2.38</v>
+      </c>
+      <c r="BM142">
+        <v>1.98</v>
+      </c>
+      <c r="BN142">
+        <v>1.82</v>
+      </c>
+      <c r="BO142">
+        <v>2.5</v>
+      </c>
+      <c r="BP142">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="143" spans="1:68">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>7296402</v>
+      </c>
+      <c r="C143" t="s">
+        <v>68</v>
+      </c>
+      <c r="D143" t="s">
+        <v>69</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45515.5</v>
+      </c>
+      <c r="F143">
+        <v>18</v>
+      </c>
+      <c r="G143" t="s">
+        <v>85</v>
+      </c>
+      <c r="H143" t="s">
+        <v>78</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>1</v>
+      </c>
+      <c r="L143">
+        <v>3</v>
+      </c>
+      <c r="M143">
+        <v>2</v>
+      </c>
+      <c r="N143">
+        <v>5</v>
+      </c>
+      <c r="O143" t="s">
+        <v>195</v>
+      </c>
+      <c r="P143" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q143">
+        <v>2.2</v>
+      </c>
+      <c r="R143">
+        <v>2.6</v>
+      </c>
+      <c r="S143">
+        <v>4</v>
+      </c>
+      <c r="T143">
+        <v>1.22</v>
+      </c>
+      <c r="U143">
+        <v>4</v>
+      </c>
+      <c r="V143">
+        <v>2.1</v>
+      </c>
+      <c r="W143">
+        <v>1.67</v>
+      </c>
+      <c r="X143">
+        <v>4.5</v>
+      </c>
+      <c r="Y143">
+        <v>1.18</v>
+      </c>
+      <c r="Z143">
+        <v>1.66</v>
+      </c>
+      <c r="AA143">
+        <v>4.43</v>
+      </c>
+      <c r="AB143">
+        <v>4.5</v>
+      </c>
+      <c r="AC143">
+        <v>1.02</v>
+      </c>
+      <c r="AD143">
+        <v>25</v>
+      </c>
+      <c r="AE143">
+        <v>1.1</v>
+      </c>
+      <c r="AF143">
+        <v>5.55</v>
+      </c>
+      <c r="AG143">
+        <v>1.4</v>
+      </c>
+      <c r="AH143">
+        <v>2.73</v>
+      </c>
+      <c r="AI143">
+        <v>1.44</v>
+      </c>
+      <c r="AJ143">
+        <v>2.63</v>
+      </c>
+      <c r="AK143">
+        <v>1.21</v>
+      </c>
+      <c r="AL143">
+        <v>1.2</v>
+      </c>
+      <c r="AM143">
+        <v>2.12</v>
+      </c>
+      <c r="AN143">
+        <v>1.13</v>
+      </c>
+      <c r="AO143">
+        <v>0.25</v>
+      </c>
+      <c r="AP143">
+        <v>1.33</v>
+      </c>
+      <c r="AQ143">
+        <v>0.22</v>
+      </c>
+      <c r="AR143">
+        <v>2.1</v>
+      </c>
+      <c r="AS143">
+        <v>1.27</v>
+      </c>
+      <c r="AT143">
+        <v>3.37</v>
+      </c>
+      <c r="AU143">
+        <v>10</v>
+      </c>
+      <c r="AV143">
+        <v>13</v>
+      </c>
+      <c r="AW143">
+        <v>5</v>
+      </c>
+      <c r="AX143">
+        <v>2</v>
+      </c>
+      <c r="AY143">
+        <v>15</v>
+      </c>
+      <c r="AZ143">
+        <v>15</v>
+      </c>
+      <c r="BA143">
+        <v>6</v>
+      </c>
+      <c r="BB143">
+        <v>2</v>
+      </c>
+      <c r="BC143">
+        <v>8</v>
+      </c>
+      <c r="BD143">
+        <v>1.35</v>
+      </c>
+      <c r="BE143">
+        <v>7.9</v>
+      </c>
+      <c r="BF143">
+        <v>4.2</v>
+      </c>
+      <c r="BG143">
+        <v>0</v>
+      </c>
+      <c r="BH143">
+        <v>0</v>
+      </c>
+      <c r="BI143">
+        <v>1.26</v>
+      </c>
+      <c r="BJ143">
+        <v>3.5</v>
+      </c>
+      <c r="BK143">
+        <v>1.46</v>
+      </c>
+      <c r="BL143">
+        <v>2.55</v>
+      </c>
+      <c r="BM143">
+        <v>1.92</v>
+      </c>
+      <c r="BN143">
+        <v>1.88</v>
+      </c>
+      <c r="BO143">
+        <v>2.22</v>
+      </c>
+      <c r="BP143">
+        <v>1.64</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
@@ -583,9 +583,6 @@
     <t>['3', '6', '21', '36', '61', '77', '82']</t>
   </si>
   <si>
-    <t>['27']</t>
-  </si>
-  <si>
     <t>['13', '41', '45+1']</t>
   </si>
   <si>
@@ -595,13 +592,16 @@
     <t>['53']</t>
   </si>
   <si>
+    <t>['27']</t>
+  </si>
+  <si>
     <t>['23', '49', '90+5']</t>
   </si>
   <si>
-    <t>['54']</t>
+    <t>['16', '61', '90+5']</t>
   </si>
   <si>
-    <t>['16', '61', '90+5']</t>
+    <t>['54']</t>
   </si>
   <si>
     <t>['90+1']</t>
@@ -829,9 +829,6 @@
     <t>['83']</t>
   </si>
   <si>
-    <t>['24', '52']</t>
-  </si>
-  <si>
     <t>['38', '48']</t>
   </si>
   <si>
@@ -841,10 +838,13 @@
     <t>['11', '25']</t>
   </si>
   <si>
-    <t>['32', '90+7']</t>
+    <t>['24', '52']</t>
   </si>
   <si>
     <t>['64']</t>
+  </si>
+  <si>
+    <t>['32', '90+7']</t>
   </si>
   <si>
     <t>['81']</t>
@@ -856,10 +856,10 @@
     <t>['5']</t>
   </si>
   <si>
-    <t>['15']</t>
+    <t>['54', '57']</t>
   </si>
   <si>
-    <t>['54', '57']</t>
+    <t>['15']</t>
   </si>
 </sst>
 </file>
@@ -12192,7 +12192,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q54">
         <v>3.03</v>
@@ -27394,7 +27394,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>7296396</v>
+        <v>7296401</v>
       </c>
       <c r="C128" t="s">
         <v>68</v>
@@ -27409,124 +27409,124 @@
         <v>17</v>
       </c>
       <c r="G128" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H128" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I128">
         <v>0</v>
       </c>
       <c r="J128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M128">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O128" t="s">
+        <v>186</v>
+      </c>
+      <c r="P128" t="s">
         <v>103</v>
       </c>
-      <c r="P128" t="s">
-        <v>271</v>
-      </c>
       <c r="Q128">
-        <v>3.75</v>
+        <v>2.52</v>
       </c>
       <c r="R128">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="S128">
-        <v>2.6</v>
+        <v>3.34</v>
       </c>
       <c r="T128">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="U128">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="V128">
-        <v>2.34</v>
+        <v>2.08</v>
       </c>
       <c r="W128">
-        <v>1.54</v>
+        <v>1.7</v>
       </c>
       <c r="X128">
-        <v>5.4</v>
+        <v>4.45</v>
       </c>
       <c r="Y128">
-        <v>1.12</v>
+        <v>1.18</v>
       </c>
       <c r="Z128">
-        <v>3.3</v>
+        <v>2.07</v>
       </c>
       <c r="AA128">
-        <v>3.72</v>
+        <v>3.92</v>
       </c>
       <c r="AB128">
-        <v>2.03</v>
+        <v>3.06</v>
       </c>
       <c r="AC128">
         <v>1.02</v>
       </c>
       <c r="AD128">
-        <v>17</v>
+        <v>23.5</v>
       </c>
       <c r="AE128">
-        <v>1.18</v>
+        <v>1.1</v>
       </c>
       <c r="AF128">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="AG128">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="AH128">
-        <v>2.29</v>
+        <v>2.73</v>
       </c>
       <c r="AI128">
-        <v>1.52</v>
+        <v>1.39</v>
       </c>
       <c r="AJ128">
-        <v>2.45</v>
+        <v>2.76</v>
       </c>
       <c r="AK128">
-        <v>1.83</v>
+        <v>1.37</v>
       </c>
       <c r="AL128">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="AM128">
-        <v>1.33</v>
+        <v>1.69</v>
       </c>
       <c r="AN128">
-        <v>2.38</v>
+        <v>1.38</v>
       </c>
       <c r="AO128">
-        <v>2.13</v>
+        <v>0.67</v>
       </c>
       <c r="AP128">
-        <v>2.11</v>
+        <v>1.56</v>
       </c>
       <c r="AQ128">
-        <v>2.22</v>
+        <v>0.57</v>
       </c>
       <c r="AR128">
-        <v>1.52</v>
+        <v>1.78</v>
       </c>
       <c r="AS128">
-        <v>1.91</v>
+        <v>1.47</v>
       </c>
       <c r="AT128">
-        <v>3.43</v>
+        <v>3.25</v>
       </c>
       <c r="AU128">
         <v>5</v>
@@ -27535,64 +27535,64 @@
         <v>5</v>
       </c>
       <c r="AW128">
+        <v>9</v>
+      </c>
+      <c r="AX128">
+        <v>6</v>
+      </c>
+      <c r="AY128">
+        <v>14</v>
+      </c>
+      <c r="AZ128">
+        <v>11</v>
+      </c>
+      <c r="BA128">
         <v>4</v>
       </c>
-      <c r="AX128">
-        <v>1</v>
-      </c>
-      <c r="AY128">
-        <v>9</v>
-      </c>
-      <c r="AZ128">
-        <v>6</v>
-      </c>
-      <c r="BA128">
+      <c r="BB128">
         <v>7</v>
       </c>
-      <c r="BB128">
-        <v>2</v>
-      </c>
       <c r="BC128">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BD128">
-        <v>2.43</v>
+        <v>1.91</v>
       </c>
       <c r="BE128">
         <v>8.5</v>
       </c>
       <c r="BF128">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="BG128">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="BH128">
-        <v>4.5</v>
+        <v>5.16</v>
       </c>
       <c r="BI128">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="BJ128">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="BK128">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="BL128">
-        <v>2.23</v>
+        <v>2.38</v>
       </c>
       <c r="BM128">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="BN128">
-        <v>1.73</v>
+        <v>1.82</v>
       </c>
       <c r="BO128">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="BP128">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="129" spans="1:68">
@@ -27600,7 +27600,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>7296401</v>
+        <v>7296399</v>
       </c>
       <c r="C129" t="s">
         <v>68</v>
@@ -27615,70 +27615,70 @@
         <v>17</v>
       </c>
       <c r="G129" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H129" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N129">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O129" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P129" t="s">
-        <v>103</v>
+        <v>271</v>
       </c>
       <c r="Q129">
-        <v>2.52</v>
+        <v>3</v>
       </c>
       <c r="R129">
         <v>2.45</v>
       </c>
       <c r="S129">
-        <v>3.34</v>
+        <v>2.95</v>
       </c>
       <c r="T129">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="U129">
         <v>3.9</v>
       </c>
       <c r="V129">
-        <v>2.08</v>
+        <v>2.09</v>
       </c>
       <c r="W129">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="X129">
         <v>4.45</v>
       </c>
       <c r="Y129">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="Z129">
-        <v>2.07</v>
+        <v>2.32</v>
       </c>
       <c r="AA129">
-        <v>3.92</v>
+        <v>3.84</v>
       </c>
       <c r="AB129">
-        <v>3.06</v>
+        <v>2.65</v>
       </c>
       <c r="AC129">
         <v>1.02</v>
@@ -27687,79 +27687,79 @@
         <v>23.5</v>
       </c>
       <c r="AE129">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="AF129">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AG129">
+        <v>1.42</v>
+      </c>
+      <c r="AH129">
+        <v>2.65</v>
+      </c>
+      <c r="AI129">
         <v>1.4</v>
       </c>
-      <c r="AH129">
-        <v>2.73</v>
-      </c>
-      <c r="AI129">
-        <v>1.39</v>
-      </c>
       <c r="AJ129">
-        <v>2.76</v>
+        <v>2.95</v>
       </c>
       <c r="AK129">
-        <v>1.37</v>
+        <v>1.55</v>
       </c>
       <c r="AL129">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="AM129">
-        <v>1.69</v>
+        <v>1.53</v>
       </c>
       <c r="AN129">
+        <v>1.86</v>
+      </c>
+      <c r="AO129">
         <v>1.38</v>
       </c>
-      <c r="AO129">
-        <v>0.67</v>
-      </c>
       <c r="AP129">
-        <v>1.56</v>
+        <v>1.75</v>
       </c>
       <c r="AQ129">
-        <v>0.57</v>
+        <v>1.33</v>
       </c>
       <c r="AR129">
-        <v>1.78</v>
+        <v>1.53</v>
       </c>
       <c r="AS129">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="AT129">
-        <v>3.25</v>
+        <v>3.04</v>
       </c>
       <c r="AU129">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV129">
         <v>5</v>
       </c>
       <c r="AW129">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AX129">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY129">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AZ129">
+        <v>10</v>
+      </c>
+      <c r="BA129">
         <v>11</v>
       </c>
-      <c r="BA129">
-        <v>4</v>
-      </c>
       <c r="BB129">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BC129">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BD129">
         <v>1.91</v>
@@ -27771,10 +27771,10 @@
         <v>2.1</v>
       </c>
       <c r="BG129">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="BH129">
-        <v>5.16</v>
+        <v>4.8</v>
       </c>
       <c r="BI129">
         <v>1.3</v>
@@ -27789,10 +27789,10 @@
         <v>2.38</v>
       </c>
       <c r="BM129">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="BN129">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="BO129">
         <v>2.5</v>
@@ -27806,7 +27806,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>7296399</v>
+        <v>7296398</v>
       </c>
       <c r="C130" t="s">
         <v>68</v>
@@ -27821,190 +27821,190 @@
         <v>17</v>
       </c>
       <c r="G130" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H130" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M130">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N130">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O130" t="s">
-        <v>187</v>
+        <v>103</v>
       </c>
       <c r="P130" t="s">
         <v>272</v>
       </c>
       <c r="Q130">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="R130">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="S130">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="T130">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="U130">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="V130">
-        <v>2.09</v>
+        <v>2.25</v>
       </c>
       <c r="W130">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="X130">
-        <v>4.45</v>
+        <v>5.5</v>
       </c>
       <c r="Y130">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="Z130">
-        <v>2.32</v>
+        <v>2.43</v>
       </c>
       <c r="AA130">
-        <v>3.84</v>
+        <v>3.7</v>
       </c>
       <c r="AB130">
-        <v>2.65</v>
+        <v>2.58</v>
       </c>
       <c r="AC130">
         <v>1.02</v>
       </c>
       <c r="AD130">
-        <v>23.5</v>
+        <v>17</v>
       </c>
       <c r="AE130">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="AF130">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="AG130">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="AH130">
-        <v>2.65</v>
+        <v>2.59</v>
       </c>
       <c r="AI130">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AJ130">
-        <v>2.95</v>
+        <v>2.5</v>
       </c>
       <c r="AK130">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="AL130">
         <v>1.22</v>
       </c>
       <c r="AM130">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="AN130">
-        <v>1.86</v>
+        <v>1.14</v>
       </c>
       <c r="AO130">
-        <v>1.38</v>
+        <v>0.5</v>
       </c>
       <c r="AP130">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="AQ130">
+        <v>0.78</v>
+      </c>
+      <c r="AR130">
+        <v>1.63</v>
+      </c>
+      <c r="AS130">
         <v>1.33</v>
       </c>
-      <c r="AR130">
-        <v>1.53</v>
-      </c>
-      <c r="AS130">
-        <v>1.51</v>
-      </c>
       <c r="AT130">
-        <v>3.04</v>
+        <v>2.96</v>
       </c>
       <c r="AU130">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV130">
         <v>5</v>
       </c>
       <c r="AW130">
+        <v>12</v>
+      </c>
+      <c r="AX130">
         <v>6</v>
       </c>
-      <c r="AX130">
-        <v>5</v>
-      </c>
       <c r="AY130">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AZ130">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA130">
         <v>11</v>
       </c>
       <c r="BB130">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC130">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BD130">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="BE130">
         <v>8.5</v>
       </c>
       <c r="BF130">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="BG130">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="BH130">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="BI130">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="BJ130">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="BK130">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="BL130">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="BM130">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="BN130">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="BO130">
-        <v>2.5</v>
+        <v>2.43</v>
       </c>
       <c r="BP130">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="131" spans="1:68">
@@ -28012,7 +28012,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>7296398</v>
+        <v>7296397</v>
       </c>
       <c r="C131" t="s">
         <v>68</v>
@@ -28027,28 +28027,28 @@
         <v>17</v>
       </c>
       <c r="G131" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H131" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I131">
         <v>0</v>
       </c>
       <c r="J131">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K131">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L131">
         <v>0</v>
       </c>
       <c r="M131">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N131">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O131" t="s">
         <v>103</v>
@@ -28057,130 +28057,130 @@
         <v>273</v>
       </c>
       <c r="Q131">
-        <v>2.88</v>
+        <v>3.04</v>
       </c>
       <c r="R131">
-        <v>2.38</v>
+        <v>2.31</v>
       </c>
       <c r="S131">
-        <v>3.1</v>
+        <v>2.92</v>
       </c>
       <c r="T131">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="U131">
-        <v>3.5</v>
+        <v>3.44</v>
       </c>
       <c r="V131">
-        <v>2.25</v>
+        <v>2.34</v>
       </c>
       <c r="W131">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="X131">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="Y131">
         <v>1.14</v>
       </c>
       <c r="Z131">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AA131">
-        <v>3.7</v>
+        <v>3.64</v>
       </c>
       <c r="AB131">
-        <v>2.58</v>
+        <v>2.78</v>
       </c>
       <c r="AC131">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AD131">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AE131">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AF131">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="AG131">
-        <v>1.44</v>
+        <v>1.61</v>
       </c>
       <c r="AH131">
-        <v>2.59</v>
+        <v>2.17</v>
       </c>
       <c r="AI131">
+        <v>1.49</v>
+      </c>
+      <c r="AJ131">
+        <v>2.44</v>
+      </c>
+      <c r="AK131">
         <v>1.5</v>
       </c>
-      <c r="AJ131">
-        <v>2.5</v>
-      </c>
-      <c r="AK131">
-        <v>1.47</v>
-      </c>
       <c r="AL131">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="AM131">
-        <v>1.57</v>
+        <v>1.49</v>
       </c>
       <c r="AN131">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="AO131">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AP131">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ131">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR131">
-        <v>1.63</v>
+        <v>1.24</v>
       </c>
       <c r="AS131">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT131">
-        <v>2.96</v>
+        <v>2.55</v>
       </c>
       <c r="AU131">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AV131">
+        <v>6</v>
+      </c>
+      <c r="AW131">
+        <v>3</v>
+      </c>
+      <c r="AX131">
         <v>5</v>
       </c>
-      <c r="AW131">
-        <v>12</v>
-      </c>
-      <c r="AX131">
-        <v>6</v>
-      </c>
       <c r="AY131">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="AZ131">
         <v>11</v>
       </c>
       <c r="BA131">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="BB131">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BC131">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="BD131">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="BE131">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="BF131">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="BG131">
         <v>0</v>
@@ -28189,28 +28189,28 @@
         <v>0</v>
       </c>
       <c r="BI131">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="BJ131">
+        <v>0</v>
+      </c>
+      <c r="BK131">
+        <v>1.28</v>
+      </c>
+      <c r="BL131">
         <v>3.45</v>
       </c>
-      <c r="BK131">
-        <v>1.5</v>
-      </c>
-      <c r="BL131">
-        <v>2.45</v>
-      </c>
       <c r="BM131">
-        <v>1.9</v>
+        <v>1.49</v>
       </c>
       <c r="BN131">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="BO131">
-        <v>2.43</v>
+        <v>1.8</v>
       </c>
       <c r="BP131">
-        <v>1.52</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:68">
@@ -28218,7 +28218,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>7296397</v>
+        <v>7296396</v>
       </c>
       <c r="C132" t="s">
         <v>68</v>
@@ -28233,19 +28233,19 @@
         <v>17</v>
       </c>
       <c r="G132" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H132" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I132">
         <v>0</v>
       </c>
       <c r="J132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L132">
         <v>0</v>
@@ -28263,160 +28263,160 @@
         <v>274</v>
       </c>
       <c r="Q132">
-        <v>3.04</v>
+        <v>3.75</v>
       </c>
       <c r="R132">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="S132">
-        <v>2.92</v>
+        <v>2.6</v>
       </c>
       <c r="T132">
         <v>1.28</v>
       </c>
       <c r="U132">
-        <v>3.44</v>
+        <v>3.4</v>
       </c>
       <c r="V132">
         <v>2.34</v>
       </c>
       <c r="W132">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="X132">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y132">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="Z132">
-        <v>2.33</v>
+        <v>3.3</v>
       </c>
       <c r="AA132">
-        <v>3.64</v>
+        <v>3.72</v>
       </c>
       <c r="AB132">
-        <v>2.78</v>
+        <v>2.03</v>
       </c>
       <c r="AC132">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AD132">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AE132">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="AF132">
-        <v>4.45</v>
+        <v>4.75</v>
       </c>
       <c r="AG132">
-        <v>1.61</v>
+        <v>1.55</v>
       </c>
       <c r="AH132">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AI132">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="AJ132">
-        <v>2.44</v>
+        <v>2.45</v>
       </c>
       <c r="AK132">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="AL132">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AM132">
-        <v>1.49</v>
+        <v>1.33</v>
       </c>
       <c r="AN132">
-        <v>1.25</v>
+        <v>2.38</v>
       </c>
       <c r="AO132">
-        <v>0.67</v>
+        <v>2.13</v>
       </c>
       <c r="AP132">
-        <v>1.11</v>
+        <v>2.11</v>
       </c>
       <c r="AQ132">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="AR132">
-        <v>1.24</v>
+        <v>1.52</v>
       </c>
       <c r="AS132">
-        <v>1.31</v>
+        <v>1.91</v>
       </c>
       <c r="AT132">
-        <v>2.55</v>
+        <v>3.43</v>
       </c>
       <c r="AU132">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AV132">
+        <v>5</v>
+      </c>
+      <c r="AW132">
+        <v>4</v>
+      </c>
+      <c r="AX132">
+        <v>1</v>
+      </c>
+      <c r="AY132">
+        <v>9</v>
+      </c>
+      <c r="AZ132">
         <v>6</v>
       </c>
-      <c r="AW132">
-        <v>3</v>
-      </c>
-      <c r="AX132">
-        <v>5</v>
-      </c>
-      <c r="AY132">
-        <v>3</v>
-      </c>
-      <c r="AZ132">
-        <v>11</v>
-      </c>
       <c r="BA132">
+        <v>7</v>
+      </c>
+      <c r="BB132">
         <v>2</v>
       </c>
-      <c r="BB132">
-        <v>6</v>
-      </c>
       <c r="BC132">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD132">
-        <v>2.1</v>
+        <v>2.43</v>
       </c>
       <c r="BE132">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="BF132">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="BG132">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="BH132">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="BI132">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="BJ132">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="BK132">
-        <v>1.28</v>
+        <v>1.62</v>
       </c>
       <c r="BL132">
-        <v>3.45</v>
+        <v>2.23</v>
       </c>
       <c r="BM132">
-        <v>1.49</v>
+        <v>2.04</v>
       </c>
       <c r="BN132">
-        <v>2.5</v>
+        <v>1.73</v>
       </c>
       <c r="BO132">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="BP132">
-        <v>2</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="133" spans="1:68">
@@ -28424,7 +28424,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>7296394</v>
+        <v>7296395</v>
       </c>
       <c r="C133" t="s">
         <v>68</v>
@@ -28439,28 +28439,28 @@
         <v>17</v>
       </c>
       <c r="G133" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H133" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="I133">
         <v>0</v>
       </c>
       <c r="J133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L133">
         <v>0</v>
       </c>
       <c r="M133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O133" t="s">
         <v>103</v>
@@ -28469,160 +28469,160 @@
         <v>275</v>
       </c>
       <c r="Q133">
-        <v>2.69</v>
+        <v>3.2</v>
       </c>
       <c r="R133">
-        <v>2.36</v>
+        <v>2.22</v>
       </c>
       <c r="S133">
-        <v>3.24</v>
+        <v>2.92</v>
       </c>
       <c r="T133">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="U133">
-        <v>3.62</v>
+        <v>3.15</v>
       </c>
       <c r="V133">
-        <v>2.23</v>
+        <v>2.54</v>
       </c>
       <c r="W133">
-        <v>1.61</v>
+        <v>1.48</v>
       </c>
       <c r="X133">
-        <v>5</v>
+        <v>6.05</v>
       </c>
       <c r="Y133">
-        <v>1.15</v>
+        <v>1.11</v>
       </c>
       <c r="Z133">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="AA133">
-        <v>3.78</v>
+        <v>3.54</v>
       </c>
       <c r="AB133">
-        <v>2.98</v>
+        <v>2.88</v>
       </c>
       <c r="AC133">
         <v>1.02</v>
       </c>
       <c r="AD133">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE133">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="AF133">
-        <v>4.8</v>
+        <v>3.86</v>
       </c>
       <c r="AG133">
+        <v>1.68</v>
+      </c>
+      <c r="AH133">
+        <v>2.06</v>
+      </c>
+      <c r="AI133">
+        <v>1.58</v>
+      </c>
+      <c r="AJ133">
+        <v>2.23</v>
+      </c>
+      <c r="AK133">
+        <v>1.53</v>
+      </c>
+      <c r="AL133">
+        <v>1.28</v>
+      </c>
+      <c r="AM133">
+        <v>1.44</v>
+      </c>
+      <c r="AN133">
         <v>1.5</v>
       </c>
-      <c r="AH133">
-        <v>2.41</v>
-      </c>
-      <c r="AI133">
-        <v>1.45</v>
-      </c>
-      <c r="AJ133">
-        <v>2.55</v>
-      </c>
-      <c r="AK133">
-        <v>1.41</v>
-      </c>
-      <c r="AL133">
-        <v>1.25</v>
-      </c>
-      <c r="AM133">
-        <v>1.61</v>
-      </c>
-      <c r="AN133">
+      <c r="AO133">
+        <v>0.86</v>
+      </c>
+      <c r="AP133">
         <v>1.29</v>
-      </c>
-      <c r="AO133">
-        <v>1.13</v>
-      </c>
-      <c r="AP133">
-        <v>1.33</v>
       </c>
       <c r="AQ133">
         <v>1.33</v>
       </c>
       <c r="AR133">
-        <v>2.1</v>
+        <v>1.54</v>
       </c>
       <c r="AS133">
-        <v>1.17</v>
+        <v>1.85</v>
       </c>
       <c r="AT133">
-        <v>3.27</v>
+        <v>3.39</v>
       </c>
       <c r="AU133">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AV133">
         <v>7</v>
       </c>
       <c r="AW133">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AX133">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AY133">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ133">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA133">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="BB133">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BC133">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="BD133">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="BE133">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BF133">
-        <v>2.41</v>
+        <v>1.91</v>
       </c>
       <c r="BG133">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="BH133">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="BI133">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="BJ133">
-        <v>3.45</v>
+        <v>3.05</v>
       </c>
       <c r="BK133">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="BL133">
-        <v>2.45</v>
+        <v>2.23</v>
       </c>
       <c r="BM133">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="BN133">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="BO133">
-        <v>2.43</v>
+        <v>2.7</v>
       </c>
       <c r="BP133">
-        <v>1.52</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="134" spans="1:68">
@@ -28630,7 +28630,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>7296395</v>
+        <v>7296394</v>
       </c>
       <c r="C134" t="s">
         <v>68</v>
@@ -28645,28 +28645,28 @@
         <v>17</v>
       </c>
       <c r="G134" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H134" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="I134">
         <v>0</v>
       </c>
       <c r="J134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L134">
         <v>0</v>
       </c>
       <c r="M134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O134" t="s">
         <v>103</v>
@@ -28675,160 +28675,160 @@
         <v>276</v>
       </c>
       <c r="Q134">
-        <v>3.2</v>
+        <v>2.69</v>
       </c>
       <c r="R134">
-        <v>2.22</v>
+        <v>2.36</v>
       </c>
       <c r="S134">
-        <v>2.92</v>
+        <v>3.24</v>
       </c>
       <c r="T134">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="U134">
-        <v>3.15</v>
+        <v>3.62</v>
       </c>
       <c r="V134">
-        <v>2.54</v>
+        <v>2.23</v>
       </c>
       <c r="W134">
-        <v>1.48</v>
+        <v>1.61</v>
       </c>
       <c r="X134">
-        <v>6.05</v>
+        <v>5</v>
       </c>
       <c r="Y134">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="Z134">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="AA134">
-        <v>3.54</v>
+        <v>3.78</v>
       </c>
       <c r="AB134">
-        <v>2.88</v>
+        <v>2.98</v>
       </c>
       <c r="AC134">
         <v>1.02</v>
       </c>
       <c r="AD134">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE134">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AF134">
-        <v>3.86</v>
+        <v>4.8</v>
       </c>
       <c r="AG134">
-        <v>1.68</v>
+        <v>1.5</v>
       </c>
       <c r="AH134">
-        <v>2.06</v>
+        <v>2.41</v>
       </c>
       <c r="AI134">
-        <v>1.58</v>
+        <v>1.45</v>
       </c>
       <c r="AJ134">
-        <v>2.23</v>
+        <v>2.55</v>
       </c>
       <c r="AK134">
-        <v>1.53</v>
+        <v>1.41</v>
       </c>
       <c r="AL134">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AM134">
-        <v>1.44</v>
+        <v>1.61</v>
       </c>
       <c r="AN134">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AO134">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AP134">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AQ134">
         <v>1.33</v>
       </c>
       <c r="AR134">
-        <v>1.54</v>
+        <v>2.1</v>
       </c>
       <c r="AS134">
-        <v>1.85</v>
+        <v>1.17</v>
       </c>
       <c r="AT134">
-        <v>3.39</v>
+        <v>3.27</v>
       </c>
       <c r="AU134">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AV134">
         <v>7</v>
       </c>
       <c r="AW134">
+        <v>10</v>
+      </c>
+      <c r="AX134">
+        <v>3</v>
+      </c>
+      <c r="AY134">
+        <v>17</v>
+      </c>
+      <c r="AZ134">
+        <v>10</v>
+      </c>
+      <c r="BA134">
+        <v>3</v>
+      </c>
+      <c r="BB134">
+        <v>3</v>
+      </c>
+      <c r="BC134">
         <v>6</v>
       </c>
-      <c r="AX134">
-        <v>6</v>
-      </c>
-      <c r="AY134">
-        <v>16</v>
-      </c>
-      <c r="AZ134">
-        <v>13</v>
-      </c>
-      <c r="BA134">
-        <v>13</v>
-      </c>
-      <c r="BB134">
-        <v>6</v>
-      </c>
-      <c r="BC134">
-        <v>19</v>
-      </c>
       <c r="BD134">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="BE134">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF134">
-        <v>1.91</v>
+        <v>2.41</v>
       </c>
       <c r="BG134">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="BH134">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="BI134">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="BJ134">
-        <v>3.05</v>
+        <v>3.45</v>
       </c>
       <c r="BK134">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="BL134">
-        <v>2.23</v>
+        <v>2.45</v>
       </c>
       <c r="BM134">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="BN134">
-        <v>1.73</v>
+        <v>1.9</v>
       </c>
       <c r="BO134">
-        <v>2.7</v>
+        <v>2.43</v>
       </c>
       <c r="BP134">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="135" spans="1:68">
@@ -29042,7 +29042,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>7296409</v>
+        <v>7296403</v>
       </c>
       <c r="C136" t="s">
         <v>68</v>
@@ -29057,190 +29057,190 @@
         <v>18</v>
       </c>
       <c r="G136" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H136" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136">
         <v>0</v>
       </c>
       <c r="K136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N136">
         <v>1</v>
       </c>
       <c r="O136" t="s">
-        <v>189</v>
+        <v>103</v>
       </c>
       <c r="P136" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="Q136">
-        <v>3.04</v>
+        <v>2.26</v>
       </c>
       <c r="R136">
-        <v>2.42</v>
+        <v>2.53</v>
       </c>
       <c r="S136">
-        <v>3.03</v>
+        <v>3.8</v>
       </c>
       <c r="T136">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="U136">
-        <v>3.54</v>
+        <v>4</v>
       </c>
       <c r="V136">
-        <v>2.27</v>
+        <v>2.05</v>
       </c>
       <c r="W136">
-        <v>1.59</v>
+        <v>1.72</v>
       </c>
       <c r="X136">
-        <v>5.15</v>
+        <v>4.33</v>
       </c>
       <c r="Y136">
-        <v>1.14</v>
+        <v>1.19</v>
       </c>
       <c r="Z136">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="AA136">
+        <v>3.8</v>
+      </c>
+      <c r="AB136">
         <v>3.4</v>
       </c>
-      <c r="AB136">
-        <v>2.3</v>
-      </c>
       <c r="AC136">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AD136">
-        <v>14.3</v>
+        <v>24.5</v>
       </c>
       <c r="AE136">
-        <v>1.14</v>
+        <v>1.09</v>
       </c>
       <c r="AF136">
-        <v>4.65</v>
+        <v>5.7</v>
       </c>
       <c r="AG136">
-        <v>1.6</v>
+        <v>1.37</v>
       </c>
       <c r="AH136">
-        <v>2.2</v>
+        <v>2.69</v>
       </c>
       <c r="AI136">
-        <v>1.49</v>
+        <v>1.41</v>
       </c>
       <c r="AJ136">
-        <v>2.44</v>
+        <v>2.69</v>
       </c>
       <c r="AK136">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AL136">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AM136">
-        <v>1.49</v>
+        <v>2</v>
       </c>
       <c r="AN136">
+        <v>1.11</v>
+      </c>
+      <c r="AO136">
+        <v>0.25</v>
+      </c>
+      <c r="AP136">
+        <v>1</v>
+      </c>
+      <c r="AQ136">
         <v>0.5600000000000001</v>
       </c>
-      <c r="AO136">
-        <v>1.63</v>
-      </c>
-      <c r="AP136">
-        <v>0.8</v>
-      </c>
-      <c r="AQ136">
-        <v>1.44</v>
-      </c>
       <c r="AR136">
-        <v>1.31</v>
+        <v>1.42</v>
       </c>
       <c r="AS136">
+        <v>0.97</v>
+      </c>
+      <c r="AT136">
+        <v>2.39</v>
+      </c>
+      <c r="AU136">
+        <v>4</v>
+      </c>
+      <c r="AV136">
+        <v>4</v>
+      </c>
+      <c r="AW136">
+        <v>10</v>
+      </c>
+      <c r="AX136">
+        <v>0</v>
+      </c>
+      <c r="AY136">
+        <v>14</v>
+      </c>
+      <c r="AZ136">
+        <v>4</v>
+      </c>
+      <c r="BA136">
+        <v>6</v>
+      </c>
+      <c r="BB136">
+        <v>1</v>
+      </c>
+      <c r="BC136">
+        <v>7</v>
+      </c>
+      <c r="BD136">
+        <v>1.42</v>
+      </c>
+      <c r="BE136">
+        <v>7.6</v>
+      </c>
+      <c r="BF136">
+        <v>3.72</v>
+      </c>
+      <c r="BG136">
+        <v>0</v>
+      </c>
+      <c r="BH136">
+        <v>0</v>
+      </c>
+      <c r="BI136">
+        <v>0</v>
+      </c>
+      <c r="BJ136">
+        <v>0</v>
+      </c>
+      <c r="BK136">
+        <v>0</v>
+      </c>
+      <c r="BL136">
+        <v>0</v>
+      </c>
+      <c r="BM136">
+        <v>1.95</v>
+      </c>
+      <c r="BN136">
+        <v>1.85</v>
+      </c>
+      <c r="BO136">
+        <v>2.21</v>
+      </c>
+      <c r="BP136">
         <v>1.64</v>
-      </c>
-      <c r="AT136">
-        <v>2.95</v>
-      </c>
-      <c r="AU136">
-        <v>7</v>
-      </c>
-      <c r="AV136">
-        <v>7</v>
-      </c>
-      <c r="AW136">
-        <v>5</v>
-      </c>
-      <c r="AX136">
-        <v>4</v>
-      </c>
-      <c r="AY136">
-        <v>12</v>
-      </c>
-      <c r="AZ136">
-        <v>11</v>
-      </c>
-      <c r="BA136">
-        <v>5</v>
-      </c>
-      <c r="BB136">
-        <v>3</v>
-      </c>
-      <c r="BC136">
-        <v>8</v>
-      </c>
-      <c r="BD136">
-        <v>0</v>
-      </c>
-      <c r="BE136">
-        <v>0</v>
-      </c>
-      <c r="BF136">
-        <v>0</v>
-      </c>
-      <c r="BG136">
-        <v>0</v>
-      </c>
-      <c r="BH136">
-        <v>0</v>
-      </c>
-      <c r="BI136">
-        <v>0</v>
-      </c>
-      <c r="BJ136">
-        <v>0</v>
-      </c>
-      <c r="BK136">
-        <v>0</v>
-      </c>
-      <c r="BL136">
-        <v>0</v>
-      </c>
-      <c r="BM136">
-        <v>1.74</v>
-      </c>
-      <c r="BN136">
-        <v>2.05</v>
-      </c>
-      <c r="BO136">
-        <v>2.16</v>
-      </c>
-      <c r="BP136">
-        <v>1.67</v>
       </c>
     </row>
     <row r="137" spans="1:68">
@@ -29248,7 +29248,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>7296403</v>
+        <v>7296404</v>
       </c>
       <c r="C137" t="s">
         <v>68</v>
@@ -29263,160 +29263,160 @@
         <v>18</v>
       </c>
       <c r="G137" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H137" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J137">
         <v>0</v>
       </c>
       <c r="K137">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L137">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N137">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O137" t="s">
+        <v>189</v>
+      </c>
+      <c r="P137" t="s">
         <v>103</v>
       </c>
-      <c r="P137" t="s">
-        <v>121</v>
-      </c>
       <c r="Q137">
-        <v>2.26</v>
+        <v>2.38</v>
       </c>
       <c r="R137">
-        <v>2.53</v>
+        <v>2.6</v>
       </c>
       <c r="S137">
+        <v>3.4</v>
+      </c>
+      <c r="T137">
+        <v>1.18</v>
+      </c>
+      <c r="U137">
+        <v>4.33</v>
+      </c>
+      <c r="V137">
+        <v>1.91</v>
+      </c>
+      <c r="W137">
+        <v>1.8</v>
+      </c>
+      <c r="X137">
         <v>3.8</v>
       </c>
-      <c r="T137">
+      <c r="Y137">
         <v>1.22</v>
       </c>
-      <c r="U137">
-        <v>4</v>
-      </c>
-      <c r="V137">
-        <v>2.05</v>
-      </c>
-      <c r="W137">
-        <v>1.72</v>
-      </c>
-      <c r="X137">
-        <v>4.33</v>
-      </c>
-      <c r="Y137">
-        <v>1.19</v>
-      </c>
       <c r="Z137">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="AA137">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="AB137">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="AC137">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AD137">
-        <v>24.5</v>
+        <v>32</v>
       </c>
       <c r="AE137">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AF137">
-        <v>5.7</v>
+        <v>6.5</v>
       </c>
       <c r="AG137">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="AH137">
-        <v>2.69</v>
+        <v>2.91</v>
       </c>
       <c r="AI137">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AJ137">
-        <v>2.69</v>
+        <v>3</v>
       </c>
       <c r="AK137">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="AL137">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AM137">
+        <v>1.83</v>
+      </c>
+      <c r="AN137">
         <v>2</v>
       </c>
-      <c r="AN137">
-        <v>1.11</v>
-      </c>
       <c r="AO137">
-        <v>0.25</v>
+        <v>0.78</v>
       </c>
       <c r="AP137">
-        <v>1</v>
+        <v>2.11</v>
       </c>
       <c r="AQ137">
-        <v>0.5600000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="AR137">
-        <v>1.42</v>
+        <v>1.94</v>
       </c>
       <c r="AS137">
-        <v>0.97</v>
+        <v>1.52</v>
       </c>
       <c r="AT137">
-        <v>2.39</v>
+        <v>3.46</v>
       </c>
       <c r="AU137">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AV137">
         <v>4</v>
       </c>
       <c r="AW137">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AX137">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AY137">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AZ137">
+        <v>11</v>
+      </c>
+      <c r="BA137">
         <v>4</v>
       </c>
-      <c r="BA137">
-        <v>6</v>
-      </c>
       <c r="BB137">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BC137">
+        <v>12</v>
+      </c>
+      <c r="BD137">
+        <v>1.61</v>
+      </c>
+      <c r="BE137">
         <v>7</v>
       </c>
-      <c r="BD137">
-        <v>1.42</v>
-      </c>
-      <c r="BE137">
-        <v>7.6</v>
-      </c>
       <c r="BF137">
-        <v>3.72</v>
+        <v>3</v>
       </c>
       <c r="BG137">
         <v>0</v>
@@ -29431,10 +29431,10 @@
         <v>0</v>
       </c>
       <c r="BK137">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="BL137">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="BM137">
         <v>1.95</v>
@@ -29443,10 +29443,10 @@
         <v>1.85</v>
       </c>
       <c r="BO137">
-        <v>2.21</v>
+        <v>2.16</v>
       </c>
       <c r="BP137">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="138" spans="1:68">
@@ -29454,7 +29454,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>7296404</v>
+        <v>7296405</v>
       </c>
       <c r="C138" t="s">
         <v>68</v>
@@ -29469,190 +29469,190 @@
         <v>18</v>
       </c>
       <c r="G138" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H138" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="I138">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J138">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K138">
         <v>3</v>
       </c>
       <c r="L138">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M138">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N138">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O138" t="s">
         <v>190</v>
       </c>
       <c r="P138" t="s">
-        <v>103</v>
+        <v>278</v>
       </c>
       <c r="Q138">
-        <v>2.38</v>
+        <v>3.6</v>
       </c>
       <c r="R138">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="S138">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="T138">
-        <v>1.18</v>
+        <v>1.32</v>
       </c>
       <c r="U138">
-        <v>4.33</v>
+        <v>3.25</v>
       </c>
       <c r="V138">
-        <v>1.91</v>
+        <v>2.4</v>
       </c>
       <c r="W138">
+        <v>1.5</v>
+      </c>
+      <c r="X138">
+        <v>5.25</v>
+      </c>
+      <c r="Y138">
+        <v>1.12</v>
+      </c>
+      <c r="Z138">
+        <v>3</v>
+      </c>
+      <c r="AA138">
+        <v>3.5</v>
+      </c>
+      <c r="AB138">
+        <v>2</v>
+      </c>
+      <c r="AC138">
+        <v>1.03</v>
+      </c>
+      <c r="AD138">
+        <v>16</v>
+      </c>
+      <c r="AE138">
+        <v>1.21</v>
+      </c>
+      <c r="AF138">
+        <v>4.5</v>
+      </c>
+      <c r="AG138">
+        <v>1.61</v>
+      </c>
+      <c r="AH138">
+        <v>2.15</v>
+      </c>
+      <c r="AI138">
+        <v>1.58</v>
+      </c>
+      <c r="AJ138">
+        <v>2.35</v>
+      </c>
+      <c r="AK138">
+        <v>1.72</v>
+      </c>
+      <c r="AL138">
+        <v>1.3</v>
+      </c>
+      <c r="AM138">
+        <v>1.35</v>
+      </c>
+      <c r="AN138">
+        <v>1.25</v>
+      </c>
+      <c r="AO138">
+        <v>1.13</v>
+      </c>
+      <c r="AP138">
+        <v>1.11</v>
+      </c>
+      <c r="AQ138">
+        <v>1.33</v>
+      </c>
+      <c r="AR138">
+        <v>1.59</v>
+      </c>
+      <c r="AS138">
+        <v>1.82</v>
+      </c>
+      <c r="AT138">
+        <v>3.41</v>
+      </c>
+      <c r="AU138">
+        <v>6</v>
+      </c>
+      <c r="AV138">
+        <v>7</v>
+      </c>
+      <c r="AW138">
+        <v>9</v>
+      </c>
+      <c r="AX138">
+        <v>8</v>
+      </c>
+      <c r="AY138">
+        <v>15</v>
+      </c>
+      <c r="AZ138">
+        <v>15</v>
+      </c>
+      <c r="BA138">
+        <v>7</v>
+      </c>
+      <c r="BB138">
+        <v>3</v>
+      </c>
+      <c r="BC138">
+        <v>10</v>
+      </c>
+      <c r="BD138">
+        <v>2.47</v>
+      </c>
+      <c r="BE138">
+        <v>6.9</v>
+      </c>
+      <c r="BF138">
         <v>1.8</v>
       </c>
-      <c r="X138">
-        <v>3.8</v>
-      </c>
-      <c r="Y138">
-        <v>1.22</v>
-      </c>
-      <c r="Z138">
-        <v>1.91</v>
-      </c>
-      <c r="AA138">
-        <v>3.75</v>
-      </c>
-      <c r="AB138">
-        <v>3</v>
-      </c>
-      <c r="AC138">
-        <v>1.01</v>
-      </c>
-      <c r="AD138">
-        <v>32</v>
-      </c>
-      <c r="AE138">
-        <v>1.08</v>
-      </c>
-      <c r="AF138">
-        <v>6.5</v>
-      </c>
-      <c r="AG138">
-        <v>1.32</v>
-      </c>
-      <c r="AH138">
-        <v>2.91</v>
-      </c>
-      <c r="AI138">
-        <v>1.33</v>
-      </c>
-      <c r="AJ138">
-        <v>3</v>
-      </c>
-      <c r="AK138">
-        <v>1.36</v>
-      </c>
-      <c r="AL138">
-        <v>1.22</v>
-      </c>
-      <c r="AM138">
-        <v>1.83</v>
-      </c>
-      <c r="AN138">
-        <v>2</v>
-      </c>
-      <c r="AO138">
-        <v>0.78</v>
-      </c>
-      <c r="AP138">
-        <v>2.11</v>
-      </c>
-      <c r="AQ138">
-        <v>0.7</v>
-      </c>
-      <c r="AR138">
-        <v>1.94</v>
-      </c>
-      <c r="AS138">
+      <c r="BG138">
+        <v>0</v>
+      </c>
+      <c r="BH138">
+        <v>0</v>
+      </c>
+      <c r="BI138">
+        <v>1.29</v>
+      </c>
+      <c r="BJ138">
+        <v>3.45</v>
+      </c>
+      <c r="BK138">
+        <v>1.5</v>
+      </c>
+      <c r="BL138">
+        <v>2.45</v>
+      </c>
+      <c r="BM138">
+        <v>1.88</v>
+      </c>
+      <c r="BN138">
+        <v>1.92</v>
+      </c>
+      <c r="BO138">
+        <v>2.43</v>
+      </c>
+      <c r="BP138">
         <v>1.52</v>
-      </c>
-      <c r="AT138">
-        <v>3.46</v>
-      </c>
-      <c r="AU138">
-        <v>10</v>
-      </c>
-      <c r="AV138">
-        <v>4</v>
-      </c>
-      <c r="AW138">
-        <v>14</v>
-      </c>
-      <c r="AX138">
-        <v>7</v>
-      </c>
-      <c r="AY138">
-        <v>24</v>
-      </c>
-      <c r="AZ138">
-        <v>11</v>
-      </c>
-      <c r="BA138">
-        <v>4</v>
-      </c>
-      <c r="BB138">
-        <v>8</v>
-      </c>
-      <c r="BC138">
-        <v>12</v>
-      </c>
-      <c r="BD138">
-        <v>1.61</v>
-      </c>
-      <c r="BE138">
-        <v>7</v>
-      </c>
-      <c r="BF138">
-        <v>3</v>
-      </c>
-      <c r="BG138">
-        <v>0</v>
-      </c>
-      <c r="BH138">
-        <v>0</v>
-      </c>
-      <c r="BI138">
-        <v>0</v>
-      </c>
-      <c r="BJ138">
-        <v>0</v>
-      </c>
-      <c r="BK138">
-        <v>1.44</v>
-      </c>
-      <c r="BL138">
-        <v>2.5</v>
-      </c>
-      <c r="BM138">
-        <v>1.95</v>
-      </c>
-      <c r="BN138">
-        <v>1.85</v>
-      </c>
-      <c r="BO138">
-        <v>2.16</v>
-      </c>
-      <c r="BP138">
-        <v>1.67</v>
       </c>
     </row>
     <row r="139" spans="1:68">
@@ -29660,7 +29660,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>7296405</v>
+        <v>7296407</v>
       </c>
       <c r="C139" t="s">
         <v>68</v>
@@ -29675,160 +29675,160 @@
         <v>18</v>
       </c>
       <c r="G139" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H139" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="I139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139">
+        <v>1</v>
+      </c>
+      <c r="K139">
+        <v>1</v>
+      </c>
+      <c r="L139">
+        <v>1</v>
+      </c>
+      <c r="M139">
+        <v>1</v>
+      </c>
+      <c r="N139">
         <v>2</v>
-      </c>
-      <c r="K139">
-        <v>3</v>
-      </c>
-      <c r="L139">
-        <v>2</v>
-      </c>
-      <c r="M139">
-        <v>5</v>
-      </c>
-      <c r="N139">
-        <v>7</v>
       </c>
       <c r="O139" t="s">
         <v>191</v>
       </c>
       <c r="P139" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q139">
-        <v>3.6</v>
+        <v>2.61</v>
       </c>
       <c r="R139">
-        <v>2.25</v>
+        <v>2.43</v>
       </c>
       <c r="S139">
-        <v>2.55</v>
+        <v>3.63</v>
       </c>
       <c r="T139">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="U139">
-        <v>3.25</v>
+        <v>3.44</v>
       </c>
       <c r="V139">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="W139">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="X139">
-        <v>5.25</v>
+        <v>5.4</v>
       </c>
       <c r="Y139">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="Z139">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA139">
         <v>3.5</v>
       </c>
       <c r="AB139">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC139">
         <v>1.03</v>
       </c>
       <c r="AD139">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AE139">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AF139">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="AG139">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="AH139">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="AI139">
-        <v>1.58</v>
+        <v>1.51</v>
       </c>
       <c r="AJ139">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AK139">
-        <v>1.72</v>
+        <v>1.35</v>
       </c>
       <c r="AL139">
         <v>1.3</v>
       </c>
       <c r="AM139">
-        <v>1.35</v>
+        <v>1.7</v>
       </c>
       <c r="AN139">
-        <v>1.25</v>
+        <v>2.13</v>
       </c>
       <c r="AO139">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AP139">
-        <v>1.11</v>
+        <v>2</v>
       </c>
       <c r="AQ139">
-        <v>1.33</v>
+        <v>1.1</v>
       </c>
       <c r="AR139">
         <v>1.59</v>
       </c>
       <c r="AS139">
-        <v>1.82</v>
+        <v>1.48</v>
       </c>
       <c r="AT139">
-        <v>3.41</v>
+        <v>3.07</v>
       </c>
       <c r="AU139">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AV139">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AW139">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AX139">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AY139">
         <v>15</v>
       </c>
       <c r="AZ139">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="BA139">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB139">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC139">
         <v>10</v>
       </c>
       <c r="BD139">
-        <v>2.47</v>
+        <v>1.83</v>
       </c>
       <c r="BE139">
-        <v>6.9</v>
+        <v>6.55</v>
       </c>
       <c r="BF139">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="BG139">
         <v>0</v>
@@ -29837,28 +29837,28 @@
         <v>0</v>
       </c>
       <c r="BI139">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="BJ139">
-        <v>3.45</v>
+        <v>2.79</v>
       </c>
       <c r="BK139">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="BL139">
-        <v>2.45</v>
+        <v>2.07</v>
       </c>
       <c r="BM139">
+        <v>1.92</v>
+      </c>
+      <c r="BN139">
         <v>1.88</v>
       </c>
-      <c r="BN139">
-        <v>1.92</v>
-      </c>
       <c r="BO139">
-        <v>2.43</v>
+        <v>2.71</v>
       </c>
       <c r="BP139">
-        <v>1.52</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="140" spans="1:68">
@@ -29866,7 +29866,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>7296407</v>
+        <v>7296409</v>
       </c>
       <c r="C140" t="s">
         <v>68</v>
@@ -29881,16 +29881,16 @@
         <v>18</v>
       </c>
       <c r="G140" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H140" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K140">
         <v>1</v>
@@ -29899,142 +29899,142 @@
         <v>1</v>
       </c>
       <c r="M140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O140" t="s">
         <v>192</v>
       </c>
       <c r="P140" t="s">
-        <v>279</v>
+        <v>103</v>
       </c>
       <c r="Q140">
-        <v>2.61</v>
+        <v>3.04</v>
       </c>
       <c r="R140">
-        <v>2.43</v>
+        <v>2.42</v>
       </c>
       <c r="S140">
-        <v>3.63</v>
+        <v>3.03</v>
       </c>
       <c r="T140">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="U140">
-        <v>3.44</v>
+        <v>3.54</v>
       </c>
       <c r="V140">
-        <v>2.36</v>
+        <v>2.27</v>
       </c>
       <c r="W140">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="X140">
-        <v>5.4</v>
+        <v>5.15</v>
       </c>
       <c r="Y140">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="Z140">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AA140">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AB140">
+        <v>2.3</v>
+      </c>
+      <c r="AC140">
+        <v>1.01</v>
+      </c>
+      <c r="AD140">
+        <v>14.3</v>
+      </c>
+      <c r="AE140">
+        <v>1.14</v>
+      </c>
+      <c r="AF140">
+        <v>4.65</v>
+      </c>
+      <c r="AG140">
+        <v>1.6</v>
+      </c>
+      <c r="AH140">
+        <v>2.2</v>
+      </c>
+      <c r="AI140">
+        <v>1.49</v>
+      </c>
+      <c r="AJ140">
+        <v>2.44</v>
+      </c>
+      <c r="AK140">
+        <v>1.5</v>
+      </c>
+      <c r="AL140">
+        <v>1.26</v>
+      </c>
+      <c r="AM140">
+        <v>1.49</v>
+      </c>
+      <c r="AN140">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AO140">
+        <v>1.63</v>
+      </c>
+      <c r="AP140">
+        <v>0.8</v>
+      </c>
+      <c r="AQ140">
+        <v>1.44</v>
+      </c>
+      <c r="AR140">
+        <v>1.31</v>
+      </c>
+      <c r="AS140">
+        <v>1.64</v>
+      </c>
+      <c r="AT140">
+        <v>2.95</v>
+      </c>
+      <c r="AU140">
+        <v>7</v>
+      </c>
+      <c r="AV140">
+        <v>7</v>
+      </c>
+      <c r="AW140">
+        <v>5</v>
+      </c>
+      <c r="AX140">
+        <v>4</v>
+      </c>
+      <c r="AY140">
+        <v>12</v>
+      </c>
+      <c r="AZ140">
+        <v>11</v>
+      </c>
+      <c r="BA140">
+        <v>5</v>
+      </c>
+      <c r="BB140">
         <v>3</v>
       </c>
-      <c r="AC140">
-        <v>1.03</v>
-      </c>
-      <c r="AD140">
-        <v>12</v>
-      </c>
-      <c r="AE140">
-        <v>1.16</v>
-      </c>
-      <c r="AF140">
-        <v>4.4</v>
-      </c>
-      <c r="AG140">
-        <v>1.57</v>
-      </c>
-      <c r="AH140">
-        <v>2.25</v>
-      </c>
-      <c r="AI140">
-        <v>1.51</v>
-      </c>
-      <c r="AJ140">
-        <v>2.39</v>
-      </c>
-      <c r="AK140">
-        <v>1.35</v>
-      </c>
-      <c r="AL140">
-        <v>1.3</v>
-      </c>
-      <c r="AM140">
-        <v>1.7</v>
-      </c>
-      <c r="AN140">
-        <v>2.13</v>
-      </c>
-      <c r="AO140">
-        <v>1.11</v>
-      </c>
-      <c r="AP140">
-        <v>2</v>
-      </c>
-      <c r="AQ140">
-        <v>1.1</v>
-      </c>
-      <c r="AR140">
-        <v>1.59</v>
-      </c>
-      <c r="AS140">
-        <v>1.48</v>
-      </c>
-      <c r="AT140">
-        <v>3.07</v>
-      </c>
-      <c r="AU140">
-        <v>11</v>
-      </c>
-      <c r="AV140">
-        <v>5</v>
-      </c>
-      <c r="AW140">
-        <v>4</v>
-      </c>
-      <c r="AX140">
-        <v>3</v>
-      </c>
-      <c r="AY140">
-        <v>15</v>
-      </c>
-      <c r="AZ140">
+      <c r="BC140">
         <v>8</v>
       </c>
-      <c r="BA140">
-        <v>8</v>
-      </c>
-      <c r="BB140">
-        <v>2</v>
-      </c>
-      <c r="BC140">
-        <v>10</v>
-      </c>
       <c r="BD140">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="BE140">
-        <v>6.55</v>
+        <v>0</v>
       </c>
       <c r="BF140">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="BG140">
         <v>0</v>
@@ -30043,28 +30043,28 @@
         <v>0</v>
       </c>
       <c r="BI140">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="BJ140">
-        <v>2.79</v>
+        <v>0</v>
       </c>
       <c r="BK140">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="BL140">
-        <v>2.07</v>
+        <v>0</v>
       </c>
       <c r="BM140">
-        <v>1.92</v>
+        <v>1.74</v>
       </c>
       <c r="BN140">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="BO140">
-        <v>2.71</v>
+        <v>2.16</v>
       </c>
       <c r="BP140">
-        <v>1.38</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="141" spans="1:68">
@@ -30278,7 +30278,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>7296406</v>
+        <v>7296402</v>
       </c>
       <c r="C142" t="s">
         <v>68</v>
@@ -30293,28 +30293,28 @@
         <v>18</v>
       </c>
       <c r="G142" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="H142" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K142">
         <v>1</v>
       </c>
       <c r="L142">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N142">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O142" t="s">
         <v>194</v>
@@ -30323,58 +30323,58 @@
         <v>280</v>
       </c>
       <c r="Q142">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="R142">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="S142">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="T142">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U142">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V142">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="W142">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="X142">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="Y142">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="Z142">
-        <v>2.07</v>
+        <v>1.66</v>
       </c>
       <c r="AA142">
-        <v>3.9</v>
+        <v>4.43</v>
       </c>
       <c r="AB142">
-        <v>3.22</v>
+        <v>4.5</v>
       </c>
       <c r="AC142">
         <v>1.02</v>
       </c>
       <c r="AD142">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AE142">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="AF142">
-        <v>4.95</v>
+        <v>5.55</v>
       </c>
       <c r="AG142">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AH142">
-        <v>2.5</v>
+        <v>2.73</v>
       </c>
       <c r="AI142">
         <v>1.44</v>
@@ -30383,70 +30383,70 @@
         <v>2.63</v>
       </c>
       <c r="AK142">
-        <v>1.43</v>
+        <v>1.21</v>
       </c>
       <c r="AL142">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AM142">
-        <v>1.58</v>
+        <v>2.12</v>
       </c>
       <c r="AN142">
-        <v>1.88</v>
+        <v>1.13</v>
       </c>
       <c r="AO142">
-        <v>1.38</v>
+        <v>0.25</v>
       </c>
       <c r="AP142">
-        <v>1.78</v>
+        <v>1.33</v>
       </c>
       <c r="AQ142">
-        <v>1.33</v>
+        <v>0.22</v>
       </c>
       <c r="AR142">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="AS142">
-        <v>1.89</v>
+        <v>1.27</v>
       </c>
       <c r="AT142">
-        <v>3.72</v>
+        <v>3.37</v>
       </c>
       <c r="AU142">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AV142">
+        <v>13</v>
+      </c>
+      <c r="AW142">
+        <v>5</v>
+      </c>
+      <c r="AX142">
         <v>2</v>
       </c>
-      <c r="AW142">
-        <v>10</v>
-      </c>
-      <c r="AX142">
-        <v>7</v>
-      </c>
       <c r="AY142">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ142">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BA142">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BB142">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BC142">
         <v>8</v>
       </c>
       <c r="BD142">
-        <v>1.94</v>
+        <v>1.35</v>
       </c>
       <c r="BE142">
-        <v>6.7</v>
+        <v>7.9</v>
       </c>
       <c r="BF142">
-        <v>2.27</v>
+        <v>4.2</v>
       </c>
       <c r="BG142">
         <v>0</v>
@@ -30455,28 +30455,28 @@
         <v>0</v>
       </c>
       <c r="BI142">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="BJ142">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="BK142">
-        <v>1.55</v>
+        <v>1.46</v>
       </c>
       <c r="BL142">
-        <v>2.38</v>
+        <v>2.55</v>
       </c>
       <c r="BM142">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="BN142">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="BO142">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="BP142">
-        <v>1.49</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="143" spans="1:68">
@@ -30484,7 +30484,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>7296402</v>
+        <v>7296406</v>
       </c>
       <c r="C143" t="s">
         <v>68</v>
@@ -30499,28 +30499,28 @@
         <v>18</v>
       </c>
       <c r="G143" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="H143" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K143">
         <v>1</v>
       </c>
       <c r="L143">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M143">
+        <v>1</v>
+      </c>
+      <c r="N143">
         <v>2</v>
-      </c>
-      <c r="N143">
-        <v>5</v>
       </c>
       <c r="O143" t="s">
         <v>195</v>
@@ -30529,58 +30529,58 @@
         <v>281</v>
       </c>
       <c r="Q143">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="R143">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="S143">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="T143">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U143">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V143">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="W143">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="X143">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="Y143">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="Z143">
-        <v>1.66</v>
+        <v>2.07</v>
       </c>
       <c r="AA143">
-        <v>4.43</v>
+        <v>3.9</v>
       </c>
       <c r="AB143">
-        <v>4.5</v>
+        <v>3.22</v>
       </c>
       <c r="AC143">
         <v>1.02</v>
       </c>
       <c r="AD143">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AE143">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="AF143">
-        <v>5.55</v>
+        <v>4.95</v>
       </c>
       <c r="AG143">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="AH143">
-        <v>2.73</v>
+        <v>2.5</v>
       </c>
       <c r="AI143">
         <v>1.44</v>
@@ -30589,70 +30589,70 @@
         <v>2.63</v>
       </c>
       <c r="AK143">
-        <v>1.21</v>
+        <v>1.43</v>
       </c>
       <c r="AL143">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AM143">
-        <v>2.12</v>
+        <v>1.58</v>
       </c>
       <c r="AN143">
-        <v>1.13</v>
+        <v>1.88</v>
       </c>
       <c r="AO143">
-        <v>0.25</v>
+        <v>1.38</v>
       </c>
       <c r="AP143">
+        <v>1.78</v>
+      </c>
+      <c r="AQ143">
         <v>1.33</v>
       </c>
-      <c r="AQ143">
-        <v>0.22</v>
-      </c>
       <c r="AR143">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="AS143">
-        <v>1.27</v>
+        <v>1.89</v>
       </c>
       <c r="AT143">
-        <v>3.37</v>
+        <v>3.72</v>
       </c>
       <c r="AU143">
+        <v>7</v>
+      </c>
+      <c r="AV143">
+        <v>2</v>
+      </c>
+      <c r="AW143">
         <v>10</v>
       </c>
-      <c r="AV143">
-        <v>13</v>
-      </c>
-      <c r="AW143">
-        <v>5</v>
-      </c>
       <c r="AX143">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AY143">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ143">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BA143">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BB143">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BC143">
         <v>8</v>
       </c>
       <c r="BD143">
-        <v>1.35</v>
+        <v>1.94</v>
       </c>
       <c r="BE143">
-        <v>7.9</v>
+        <v>6.7</v>
       </c>
       <c r="BF143">
-        <v>4.2</v>
+        <v>2.27</v>
       </c>
       <c r="BG143">
         <v>0</v>
@@ -30661,28 +30661,28 @@
         <v>0</v>
       </c>
       <c r="BI143">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="BJ143">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="BK143">
-        <v>1.46</v>
+        <v>1.55</v>
       </c>
       <c r="BL143">
-        <v>2.55</v>
+        <v>2.38</v>
       </c>
       <c r="BM143">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="BN143">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="BO143">
-        <v>2.22</v>
+        <v>2.5</v>
       </c>
       <c r="BP143">
-        <v>1.64</v>
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="284">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -861,6 +861,12 @@
   <si>
     <t>['15']</t>
   </si>
+  <si>
+    <t>['54', '65']</t>
+  </si>
+  <si>
+    <t>['40']</t>
+  </si>
 </sst>
 </file>
 
@@ -1221,7 +1227,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP143"/>
+  <dimension ref="A1:BP145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2794,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ8">
         <v>2.22</v>
@@ -3209,7 +3215,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ10">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -4030,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ14">
         <v>1.44</v>
@@ -4239,7 +4245,7 @@
         <v>2</v>
       </c>
       <c r="AQ15">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -5472,7 +5478,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ21">
         <v>1.11</v>
@@ -6708,7 +6714,7 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ27">
         <v>1.33</v>
@@ -7329,7 +7335,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ30">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR30">
         <v>0</v>
@@ -7944,7 +7950,7 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ33">
         <v>1.1</v>
@@ -10004,7 +10010,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ43">
         <v>1.44</v>
@@ -10213,7 +10219,7 @@
         <v>1</v>
       </c>
       <c r="AQ44">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR44">
         <v>1.31</v>
@@ -10828,7 +10834,7 @@
         <v>0.67</v>
       </c>
       <c r="AP47">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ47">
         <v>1.33</v>
@@ -11037,7 +11043,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ48">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR48">
         <v>1.78</v>
@@ -13094,7 +13100,7 @@
         <v>0.5</v>
       </c>
       <c r="AP58">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ58">
         <v>0.7</v>
@@ -13712,7 +13718,7 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ61">
         <v>1.33</v>
@@ -15363,7 +15369,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ69">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR69">
         <v>1.74</v>
@@ -15569,7 +15575,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ70">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR70">
         <v>1.92</v>
@@ -16184,7 +16190,7 @@
         <v>1.75</v>
       </c>
       <c r="AP73">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ73">
         <v>1.33</v>
@@ -17629,7 +17635,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ80">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR80">
         <v>1.6</v>
@@ -18453,7 +18459,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ84">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR84">
         <v>1.53</v>
@@ -19068,7 +19074,7 @@
         <v>0.2</v>
       </c>
       <c r="AP87">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ87">
         <v>0.22</v>
@@ -20719,7 +20725,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ95">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR95">
         <v>1.88</v>
@@ -21746,10 +21752,10 @@
         <v>0.8</v>
       </c>
       <c r="AP100">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ100">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR100">
         <v>1.53</v>
@@ -21952,10 +21958,10 @@
         <v>0.2</v>
       </c>
       <c r="AP101">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ101">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR101">
         <v>1.53</v>
@@ -27517,7 +27523,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ128">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR128">
         <v>1.78</v>
@@ -27926,7 +27932,7 @@
         <v>0.5</v>
       </c>
       <c r="AP130">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ130">
         <v>0.78</v>
@@ -28135,7 +28141,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ131">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR131">
         <v>1.24</v>
@@ -28544,7 +28550,7 @@
         <v>0.86</v>
       </c>
       <c r="AP133">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ133">
         <v>1.33</v>
@@ -30683,6 +30689,418 @@
       </c>
       <c r="BP143">
         <v>1.49</v>
+      </c>
+    </row>
+    <row r="144" spans="1:68">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>7296383</v>
+      </c>
+      <c r="C144" t="s">
+        <v>68</v>
+      </c>
+      <c r="D144" t="s">
+        <v>69</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45518.58333333334</v>
+      </c>
+      <c r="F144">
+        <v>15</v>
+      </c>
+      <c r="G144" t="s">
+        <v>76</v>
+      </c>
+      <c r="H144" t="s">
+        <v>73</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+      <c r="M144">
+        <v>2</v>
+      </c>
+      <c r="N144">
+        <v>2</v>
+      </c>
+      <c r="O144" t="s">
+        <v>103</v>
+      </c>
+      <c r="P144" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q144">
+        <v>3.44</v>
+      </c>
+      <c r="R144">
+        <v>2.43</v>
+      </c>
+      <c r="S144">
+        <v>2.47</v>
+      </c>
+      <c r="T144">
+        <v>1.25</v>
+      </c>
+      <c r="U144">
+        <v>3.75</v>
+      </c>
+      <c r="V144">
+        <v>2.13</v>
+      </c>
+      <c r="W144">
+        <v>1.67</v>
+      </c>
+      <c r="X144">
+        <v>4.6</v>
+      </c>
+      <c r="Y144">
+        <v>1.17</v>
+      </c>
+      <c r="Z144">
+        <v>2.8</v>
+      </c>
+      <c r="AA144">
+        <v>3.6</v>
+      </c>
+      <c r="AB144">
+        <v>2.05</v>
+      </c>
+      <c r="AC144">
+        <v>1.02</v>
+      </c>
+      <c r="AD144">
+        <v>22</v>
+      </c>
+      <c r="AE144">
+        <v>1.11</v>
+      </c>
+      <c r="AF144">
+        <v>5.7</v>
+      </c>
+      <c r="AG144">
+        <v>1.45</v>
+      </c>
+      <c r="AH144">
+        <v>2.55</v>
+      </c>
+      <c r="AI144">
+        <v>1.42</v>
+      </c>
+      <c r="AJ144">
+        <v>2.65</v>
+      </c>
+      <c r="AK144">
+        <v>1.74</v>
+      </c>
+      <c r="AL144">
+        <v>1.27</v>
+      </c>
+      <c r="AM144">
+        <v>1.34</v>
+      </c>
+      <c r="AN144">
+        <v>1</v>
+      </c>
+      <c r="AO144">
+        <v>1</v>
+      </c>
+      <c r="AP144">
+        <v>0.89</v>
+      </c>
+      <c r="AQ144">
+        <v>1.25</v>
+      </c>
+      <c r="AR144">
+        <v>1.67</v>
+      </c>
+      <c r="AS144">
+        <v>1.31</v>
+      </c>
+      <c r="AT144">
+        <v>2.98</v>
+      </c>
+      <c r="AU144">
+        <v>5</v>
+      </c>
+      <c r="AV144">
+        <v>6</v>
+      </c>
+      <c r="AW144">
+        <v>5</v>
+      </c>
+      <c r="AX144">
+        <v>10</v>
+      </c>
+      <c r="AY144">
+        <v>10</v>
+      </c>
+      <c r="AZ144">
+        <v>16</v>
+      </c>
+      <c r="BA144">
+        <v>6</v>
+      </c>
+      <c r="BB144">
+        <v>5</v>
+      </c>
+      <c r="BC144">
+        <v>11</v>
+      </c>
+      <c r="BD144">
+        <v>2.53</v>
+      </c>
+      <c r="BE144">
+        <v>8.5</v>
+      </c>
+      <c r="BF144">
+        <v>1.69</v>
+      </c>
+      <c r="BG144">
+        <v>0</v>
+      </c>
+      <c r="BH144">
+        <v>0</v>
+      </c>
+      <c r="BI144">
+        <v>1.24</v>
+      </c>
+      <c r="BJ144">
+        <v>3.8</v>
+      </c>
+      <c r="BK144">
+        <v>1.44</v>
+      </c>
+      <c r="BL144">
+        <v>2.65</v>
+      </c>
+      <c r="BM144">
+        <v>1.75</v>
+      </c>
+      <c r="BN144">
+        <v>2</v>
+      </c>
+      <c r="BO144">
+        <v>2.23</v>
+      </c>
+      <c r="BP144">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="145" spans="1:68">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>7296378</v>
+      </c>
+      <c r="C145" t="s">
+        <v>68</v>
+      </c>
+      <c r="D145" t="s">
+        <v>69</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45518.58333333334</v>
+      </c>
+      <c r="F145">
+        <v>15</v>
+      </c>
+      <c r="G145" t="s">
+        <v>82</v>
+      </c>
+      <c r="H145" t="s">
+        <v>75</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+      <c r="J145">
+        <v>1</v>
+      </c>
+      <c r="K145">
+        <v>2</v>
+      </c>
+      <c r="L145">
+        <v>1</v>
+      </c>
+      <c r="M145">
+        <v>1</v>
+      </c>
+      <c r="N145">
+        <v>2</v>
+      </c>
+      <c r="O145" t="s">
+        <v>91</v>
+      </c>
+      <c r="P145" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q145">
+        <v>2.02</v>
+      </c>
+      <c r="R145">
+        <v>2.69</v>
+      </c>
+      <c r="S145">
+        <v>4.93</v>
+      </c>
+      <c r="T145">
+        <v>1.24</v>
+      </c>
+      <c r="U145">
+        <v>3.8</v>
+      </c>
+      <c r="V145">
+        <v>2.13</v>
+      </c>
+      <c r="W145">
+        <v>1.69</v>
+      </c>
+      <c r="X145">
+        <v>4.5</v>
+      </c>
+      <c r="Y145">
+        <v>1.18</v>
+      </c>
+      <c r="Z145">
+        <v>1.57</v>
+      </c>
+      <c r="AA145">
+        <v>4</v>
+      </c>
+      <c r="AB145">
+        <v>4.4</v>
+      </c>
+      <c r="AC145">
+        <v>1.02</v>
+      </c>
+      <c r="AD145">
+        <v>23.5</v>
+      </c>
+      <c r="AE145">
+        <v>1.1</v>
+      </c>
+      <c r="AF145">
+        <v>5.45</v>
+      </c>
+      <c r="AG145">
+        <v>1.45</v>
+      </c>
+      <c r="AH145">
+        <v>2.55</v>
+      </c>
+      <c r="AI145">
+        <v>1.55</v>
+      </c>
+      <c r="AJ145">
+        <v>2.45</v>
+      </c>
+      <c r="AK145">
+        <v>1.19</v>
+      </c>
+      <c r="AL145">
+        <v>1.22</v>
+      </c>
+      <c r="AM145">
+        <v>2.3</v>
+      </c>
+      <c r="AN145">
+        <v>1.29</v>
+      </c>
+      <c r="AO145">
+        <v>0.57</v>
+      </c>
+      <c r="AP145">
+        <v>1.25</v>
+      </c>
+      <c r="AQ145">
+        <v>0.63</v>
+      </c>
+      <c r="AR145">
+        <v>1.65</v>
+      </c>
+      <c r="AS145">
+        <v>1.44</v>
+      </c>
+      <c r="AT145">
+        <v>3.09</v>
+      </c>
+      <c r="AU145">
+        <v>9</v>
+      </c>
+      <c r="AV145">
+        <v>5</v>
+      </c>
+      <c r="AW145">
+        <v>10</v>
+      </c>
+      <c r="AX145">
+        <v>4</v>
+      </c>
+      <c r="AY145">
+        <v>19</v>
+      </c>
+      <c r="AZ145">
+        <v>9</v>
+      </c>
+      <c r="BA145">
+        <v>4</v>
+      </c>
+      <c r="BB145">
+        <v>3</v>
+      </c>
+      <c r="BC145">
+        <v>7</v>
+      </c>
+      <c r="BD145">
+        <v>1.64</v>
+      </c>
+      <c r="BE145">
+        <v>8.5</v>
+      </c>
+      <c r="BF145">
+        <v>2.66</v>
+      </c>
+      <c r="BG145">
+        <v>1.18</v>
+      </c>
+      <c r="BH145">
+        <v>4.6</v>
+      </c>
+      <c r="BI145">
+        <v>1.34</v>
+      </c>
+      <c r="BJ145">
+        <v>3.1</v>
+      </c>
+      <c r="BK145">
+        <v>1.6</v>
+      </c>
+      <c r="BL145">
+        <v>2.25</v>
+      </c>
+      <c r="BM145">
+        <v>2</v>
+      </c>
+      <c r="BN145">
+        <v>1.75</v>
+      </c>
+      <c r="BO145">
+        <v>2.65</v>
+      </c>
+      <c r="BP145">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="286">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -604,6 +604,9 @@
     <t>['54']</t>
   </si>
   <si>
+    <t>['76']</t>
+  </si>
+  <si>
     <t>['90+1']</t>
   </si>
   <si>
@@ -866,6 +869,9 @@
   </si>
   <si>
     <t>['40']</t>
+  </si>
+  <si>
+    <t>['1', '40', '59', '65']</t>
   </si>
 </sst>
 </file>
@@ -1227,7 +1233,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP145"/>
+  <dimension ref="A1:BP146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1486,7 +1492,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q2">
         <v>2.84</v>
@@ -1692,7 +1698,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q3">
         <v>2.2</v>
@@ -1898,7 +1904,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -2310,7 +2316,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q6">
         <v>2.35</v>
@@ -2516,7 +2522,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q7">
         <v>2.66</v>
@@ -2722,7 +2728,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q8">
         <v>2.8</v>
@@ -3134,7 +3140,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3340,7 +3346,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3421,7 +3427,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ11">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3546,7 +3552,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -4036,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ14">
         <v>1.44</v>
@@ -4164,7 +4170,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q15">
         <v>2.05</v>
@@ -4576,7 +4582,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q17">
         <v>2.15</v>
@@ -4782,7 +4788,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q18">
         <v>2.15</v>
@@ -5606,7 +5612,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q22">
         <v>2.76</v>
@@ -5812,7 +5818,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q23">
         <v>2.85</v>
@@ -6018,7 +6024,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q24">
         <v>2.05</v>
@@ -6636,7 +6642,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6714,7 +6720,7 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ27">
         <v>1.33</v>
@@ -7048,7 +7054,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q29">
         <v>2.25</v>
@@ -7460,7 +7466,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7541,7 +7547,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ31">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AR31">
         <v>0.83</v>
@@ -7872,7 +7878,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q33">
         <v>3.05</v>
@@ -8078,7 +8084,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q34">
         <v>2.26</v>
@@ -8284,7 +8290,7 @@
         <v>115</v>
       </c>
       <c r="P35" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q35">
         <v>3.46</v>
@@ -8696,7 +8702,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q37">
         <v>2.72</v>
@@ -8902,7 +8908,7 @@
         <v>118</v>
       </c>
       <c r="P38" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q38">
         <v>4.55</v>
@@ -8983,7 +8989,7 @@
         <v>1</v>
       </c>
       <c r="AQ38">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AR38">
         <v>1.21</v>
@@ -9108,7 +9114,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q39">
         <v>2.78</v>
@@ -9932,7 +9938,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q43">
         <v>3.11</v>
@@ -10138,7 +10144,7 @@
         <v>123</v>
       </c>
       <c r="P44" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q44">
         <v>3.3</v>
@@ -10344,7 +10350,7 @@
         <v>94</v>
       </c>
       <c r="P45" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q45">
         <v>2.4</v>
@@ -10834,7 +10840,7 @@
         <v>0.67</v>
       </c>
       <c r="AP47">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ47">
         <v>1.33</v>
@@ -11374,7 +11380,7 @@
         <v>103</v>
       </c>
       <c r="P50" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q50">
         <v>3.89</v>
@@ -11455,7 +11461,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ50">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AR50">
         <v>1.3</v>
@@ -11580,7 +11586,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q51">
         <v>2.61</v>
@@ -11786,7 +11792,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -11992,7 +11998,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q53">
         <v>2.05</v>
@@ -12816,7 +12822,7 @@
         <v>103</v>
       </c>
       <c r="P57" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q57">
         <v>2.57</v>
@@ -13022,7 +13028,7 @@
         <v>132</v>
       </c>
       <c r="P58" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q58">
         <v>2.3</v>
@@ -13100,7 +13106,7 @@
         <v>0.5</v>
       </c>
       <c r="AP58">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ58">
         <v>0.7</v>
@@ -13228,7 +13234,7 @@
         <v>103</v>
       </c>
       <c r="P59" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q59">
         <v>2.75</v>
@@ -13434,7 +13440,7 @@
         <v>103</v>
       </c>
       <c r="P60" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q60">
         <v>2.32</v>
@@ -13640,7 +13646,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q61">
         <v>3.6</v>
@@ -13846,7 +13852,7 @@
         <v>134</v>
       </c>
       <c r="P62" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q62">
         <v>2.39</v>
@@ -14052,7 +14058,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q63">
         <v>2.84</v>
@@ -14258,7 +14264,7 @@
         <v>136</v>
       </c>
       <c r="P64" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q64">
         <v>2.7</v>
@@ -14464,7 +14470,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -14545,7 +14551,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ65">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AR65">
         <v>1.68</v>
@@ -14876,7 +14882,7 @@
         <v>139</v>
       </c>
       <c r="P67" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q67">
         <v>2.5</v>
@@ -15494,7 +15500,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q70">
         <v>1.85</v>
@@ -15906,7 +15912,7 @@
         <v>143</v>
       </c>
       <c r="P72" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q72">
         <v>2.24</v>
@@ -16112,7 +16118,7 @@
         <v>103</v>
       </c>
       <c r="P73" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q73">
         <v>3.66</v>
@@ -16318,7 +16324,7 @@
         <v>144</v>
       </c>
       <c r="P74" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q74">
         <v>2.4</v>
@@ -16524,7 +16530,7 @@
         <v>145</v>
       </c>
       <c r="P75" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q75">
         <v>2.38</v>
@@ -16730,7 +16736,7 @@
         <v>125</v>
       </c>
       <c r="P76" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -17142,7 +17148,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q78">
         <v>2.75</v>
@@ -17348,7 +17354,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17554,7 +17560,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q80">
         <v>2.2</v>
@@ -17760,7 +17766,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q81">
         <v>2.31</v>
@@ -18172,7 +18178,7 @@
         <v>151</v>
       </c>
       <c r="P83" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q83">
         <v>2.7</v>
@@ -18584,7 +18590,7 @@
         <v>153</v>
       </c>
       <c r="P85" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q85">
         <v>3.5</v>
@@ -18665,7 +18671,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ85">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AR85">
         <v>1.61</v>
@@ -18790,7 +18796,7 @@
         <v>154</v>
       </c>
       <c r="P86" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q86">
         <v>2.55</v>
@@ -18996,7 +19002,7 @@
         <v>155</v>
       </c>
       <c r="P87" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q87">
         <v>2.27</v>
@@ -19074,7 +19080,7 @@
         <v>0.2</v>
       </c>
       <c r="AP87">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ87">
         <v>0.22</v>
@@ -19408,7 +19414,7 @@
         <v>156</v>
       </c>
       <c r="P89" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q89">
         <v>2.8</v>
@@ -19614,7 +19620,7 @@
         <v>157</v>
       </c>
       <c r="P90" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q90">
         <v>2.6</v>
@@ -19820,7 +19826,7 @@
         <v>158</v>
       </c>
       <c r="P91" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -20026,7 +20032,7 @@
         <v>159</v>
       </c>
       <c r="P92" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q92">
         <v>3.6</v>
@@ -20438,7 +20444,7 @@
         <v>161</v>
       </c>
       <c r="P94" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q94">
         <v>2.1</v>
@@ -20644,7 +20650,7 @@
         <v>162</v>
       </c>
       <c r="P95" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q95">
         <v>2.17</v>
@@ -21262,7 +21268,7 @@
         <v>149</v>
       </c>
       <c r="P98" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q98">
         <v>3.54</v>
@@ -21343,7 +21349,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ98">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AR98">
         <v>2.17</v>
@@ -21468,7 +21474,7 @@
         <v>165</v>
       </c>
       <c r="P99" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q99">
         <v>3.35</v>
@@ -21752,7 +21758,7 @@
         <v>0.8</v>
       </c>
       <c r="AP100">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ100">
         <v>1.25</v>
@@ -21880,7 +21886,7 @@
         <v>167</v>
       </c>
       <c r="P101" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q101">
         <v>2.96</v>
@@ -22086,7 +22092,7 @@
         <v>168</v>
       </c>
       <c r="P102" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q102">
         <v>2.44</v>
@@ -22292,7 +22298,7 @@
         <v>103</v>
       </c>
       <c r="P103" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q103">
         <v>1.81</v>
@@ -22704,7 +22710,7 @@
         <v>170</v>
       </c>
       <c r="P105" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q105">
         <v>2.69</v>
@@ -22910,7 +22916,7 @@
         <v>171</v>
       </c>
       <c r="P106" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q106">
         <v>2.56</v>
@@ -23528,7 +23534,7 @@
         <v>174</v>
       </c>
       <c r="P109" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q109">
         <v>3.5</v>
@@ -23734,7 +23740,7 @@
         <v>175</v>
       </c>
       <c r="P110" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q110">
         <v>2.43</v>
@@ -23940,7 +23946,7 @@
         <v>103</v>
       </c>
       <c r="P111" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q111">
         <v>3.02</v>
@@ -24352,7 +24358,7 @@
         <v>103</v>
       </c>
       <c r="P113" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q113">
         <v>2.85</v>
@@ -24970,7 +24976,7 @@
         <v>177</v>
       </c>
       <c r="P116" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q116">
         <v>4.5</v>
@@ -25051,7 +25057,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ116">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AR116">
         <v>1.83</v>
@@ -25382,7 +25388,7 @@
         <v>103</v>
       </c>
       <c r="P118" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q118">
         <v>3.2</v>
@@ -26000,7 +26006,7 @@
         <v>180</v>
       </c>
       <c r="P121" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q121">
         <v>2.38</v>
@@ -26412,7 +26418,7 @@
         <v>170</v>
       </c>
       <c r="P123" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q123">
         <v>2.51</v>
@@ -26618,7 +26624,7 @@
         <v>182</v>
       </c>
       <c r="P124" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q124">
         <v>2.46</v>
@@ -26824,7 +26830,7 @@
         <v>183</v>
       </c>
       <c r="P125" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q125">
         <v>3.68</v>
@@ -27030,7 +27036,7 @@
         <v>184</v>
       </c>
       <c r="P126" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q126">
         <v>1.95</v>
@@ -27648,7 +27654,7 @@
         <v>187</v>
       </c>
       <c r="P129" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q129">
         <v>3</v>
@@ -27854,7 +27860,7 @@
         <v>103</v>
       </c>
       <c r="P130" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q130">
         <v>2.88</v>
@@ -28060,7 +28066,7 @@
         <v>103</v>
       </c>
       <c r="P131" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q131">
         <v>3.04</v>
@@ -28266,7 +28272,7 @@
         <v>103</v>
       </c>
       <c r="P132" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q132">
         <v>3.75</v>
@@ -28347,7 +28353,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ132">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AR132">
         <v>1.52</v>
@@ -28472,7 +28478,7 @@
         <v>103</v>
       </c>
       <c r="P133" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q133">
         <v>3.2</v>
@@ -28550,7 +28556,7 @@
         <v>0.86</v>
       </c>
       <c r="AP133">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ133">
         <v>1.33</v>
@@ -28678,7 +28684,7 @@
         <v>103</v>
       </c>
       <c r="P134" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q134">
         <v>2.69</v>
@@ -28884,7 +28890,7 @@
         <v>188</v>
       </c>
       <c r="P135" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q135">
         <v>2.75</v>
@@ -29502,7 +29508,7 @@
         <v>190</v>
       </c>
       <c r="P138" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q138">
         <v>3.6</v>
@@ -29708,7 +29714,7 @@
         <v>191</v>
       </c>
       <c r="P139" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q139">
         <v>2.61</v>
@@ -30326,7 +30332,7 @@
         <v>194</v>
       </c>
       <c r="P142" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q142">
         <v>2.2</v>
@@ -30532,7 +30538,7 @@
         <v>195</v>
       </c>
       <c r="P143" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q143">
         <v>2.75</v>
@@ -30738,7 +30744,7 @@
         <v>103</v>
       </c>
       <c r="P144" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q144">
         <v>3.44</v>
@@ -30944,7 +30950,7 @@
         <v>91</v>
       </c>
       <c r="P145" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q145">
         <v>2.02</v>
@@ -31022,7 +31028,7 @@
         <v>0.57</v>
       </c>
       <c r="AP145">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ145">
         <v>0.63</v>
@@ -31101,6 +31107,212 @@
       </c>
       <c r="BP145">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="146" spans="1:68">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>7296414</v>
+      </c>
+      <c r="C146" t="s">
+        <v>68</v>
+      </c>
+      <c r="D146" t="s">
+        <v>69</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45522.5</v>
+      </c>
+      <c r="F146">
+        <v>19</v>
+      </c>
+      <c r="G146" t="s">
+        <v>82</v>
+      </c>
+      <c r="H146" t="s">
+        <v>72</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>2</v>
+      </c>
+      <c r="K146">
+        <v>2</v>
+      </c>
+      <c r="L146">
+        <v>1</v>
+      </c>
+      <c r="M146">
+        <v>4</v>
+      </c>
+      <c r="N146">
+        <v>5</v>
+      </c>
+      <c r="O146" t="s">
+        <v>196</v>
+      </c>
+      <c r="P146" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q146">
+        <v>3.75</v>
+      </c>
+      <c r="R146">
+        <v>2.35</v>
+      </c>
+      <c r="S146">
+        <v>2.4</v>
+      </c>
+      <c r="T146">
+        <v>1.28</v>
+      </c>
+      <c r="U146">
+        <v>3.5</v>
+      </c>
+      <c r="V146">
+        <v>2.25</v>
+      </c>
+      <c r="W146">
+        <v>1.58</v>
+      </c>
+      <c r="X146">
+        <v>4.8</v>
+      </c>
+      <c r="Y146">
+        <v>1.15</v>
+      </c>
+      <c r="Z146">
+        <v>3.17</v>
+      </c>
+      <c r="AA146">
+        <v>3.5</v>
+      </c>
+      <c r="AB146">
+        <v>1.86</v>
+      </c>
+      <c r="AC146">
+        <v>1.03</v>
+      </c>
+      <c r="AD146">
+        <v>18.5</v>
+      </c>
+      <c r="AE146">
+        <v>1.18</v>
+      </c>
+      <c r="AF146">
+        <v>5</v>
+      </c>
+      <c r="AG146">
+        <v>1.57</v>
+      </c>
+      <c r="AH146">
+        <v>2.35</v>
+      </c>
+      <c r="AI146">
+        <v>1.52</v>
+      </c>
+      <c r="AJ146">
+        <v>2.46</v>
+      </c>
+      <c r="AK146">
+        <v>1.9</v>
+      </c>
+      <c r="AL146">
+        <v>1.24</v>
+      </c>
+      <c r="AM146">
+        <v>1.26</v>
+      </c>
+      <c r="AN146">
+        <v>1.25</v>
+      </c>
+      <c r="AO146">
+        <v>2.22</v>
+      </c>
+      <c r="AP146">
+        <v>1.11</v>
+      </c>
+      <c r="AQ146">
+        <v>2.3</v>
+      </c>
+      <c r="AR146">
+        <v>1.75</v>
+      </c>
+      <c r="AS146">
+        <v>1.81</v>
+      </c>
+      <c r="AT146">
+        <v>3.56</v>
+      </c>
+      <c r="AU146">
+        <v>7</v>
+      </c>
+      <c r="AV146">
+        <v>13</v>
+      </c>
+      <c r="AW146">
+        <v>6</v>
+      </c>
+      <c r="AX146">
+        <v>7</v>
+      </c>
+      <c r="AY146">
+        <v>13</v>
+      </c>
+      <c r="AZ146">
+        <v>20</v>
+      </c>
+      <c r="BA146">
+        <v>1</v>
+      </c>
+      <c r="BB146">
+        <v>5</v>
+      </c>
+      <c r="BC146">
+        <v>6</v>
+      </c>
+      <c r="BD146">
+        <v>3.2</v>
+      </c>
+      <c r="BE146">
+        <v>7.1</v>
+      </c>
+      <c r="BF146">
+        <v>1.53</v>
+      </c>
+      <c r="BG146">
+        <v>1.19</v>
+      </c>
+      <c r="BH146">
+        <v>4.2</v>
+      </c>
+      <c r="BI146">
+        <v>1.27</v>
+      </c>
+      <c r="BJ146">
+        <v>3.28</v>
+      </c>
+      <c r="BK146">
+        <v>1.55</v>
+      </c>
+      <c r="BL146">
+        <v>2.41</v>
+      </c>
+      <c r="BM146">
+        <v>1.89</v>
+      </c>
+      <c r="BN146">
+        <v>1.91</v>
+      </c>
+      <c r="BO146">
+        <v>2.34</v>
+      </c>
+      <c r="BP146">
+        <v>1.57</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="292">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -607,6 +607,21 @@
     <t>['76']</t>
   </si>
   <si>
+    <t>['2', '31', '64', '74']</t>
+  </si>
+  <si>
+    <t>['14', '53', '64']</t>
+  </si>
+  <si>
+    <t>['10', '49']</t>
+  </si>
+  <si>
+    <t>['19']</t>
+  </si>
+  <si>
+    <t>['65']</t>
+  </si>
+  <si>
     <t>['90+1']</t>
   </si>
   <si>
@@ -704,9 +719,6 @@
   </si>
   <si>
     <t>['32', '75']</t>
-  </si>
-  <si>
-    <t>['65']</t>
   </si>
   <si>
     <t>['19', '90+5']</t>
@@ -872,6 +884,12 @@
   </si>
   <si>
     <t>['1', '40', '59', '65']</t>
+  </si>
+  <si>
+    <t>['1', '30']</t>
+  </si>
+  <si>
+    <t>['68', '71', '78']</t>
   </si>
 </sst>
 </file>
@@ -1233,7 +1251,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP146"/>
+  <dimension ref="A1:BP152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1492,7 +1510,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q2">
         <v>2.84</v>
@@ -1570,10 +1588,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AQ2">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1698,7 +1716,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q3">
         <v>2.2</v>
@@ -1904,7 +1922,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -1985,7 +2003,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ4">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2191,7 +2209,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ5">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2316,7 +2334,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q6">
         <v>2.35</v>
@@ -2522,7 +2540,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q7">
         <v>2.66</v>
@@ -2728,7 +2746,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q8">
         <v>2.8</v>
@@ -2806,10 +2824,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ8">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3012,7 +3030,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ9">
         <v>1.33</v>
@@ -3140,7 +3158,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3346,7 +3364,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3424,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ11">
         <v>2.3</v>
@@ -3552,7 +3570,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3630,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ12">
         <v>0.5600000000000001</v>
@@ -4170,7 +4188,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q15">
         <v>2.05</v>
@@ -4251,7 +4269,7 @@
         <v>2</v>
       </c>
       <c r="AQ15">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4454,10 +4472,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ16">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4582,7 +4600,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q17">
         <v>2.15</v>
@@ -4663,7 +4681,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ17">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR17">
         <v>2.14</v>
@@ -4788,7 +4806,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q18">
         <v>2.15</v>
@@ -4869,7 +4887,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ18">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AR18">
         <v>1.34</v>
@@ -5072,7 +5090,7 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AQ19">
         <v>1.1</v>
@@ -5278,7 +5296,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ20">
         <v>0.7</v>
@@ -5484,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ21">
         <v>1.11</v>
@@ -5612,7 +5630,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q22">
         <v>2.76</v>
@@ -5693,7 +5711,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ22">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR22">
         <v>1.02</v>
@@ -5818,7 +5836,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q23">
         <v>2.85</v>
@@ -5899,7 +5917,7 @@
         <v>1</v>
       </c>
       <c r="AQ23">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="AR23">
         <v>1.2</v>
@@ -6024,7 +6042,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q24">
         <v>2.05</v>
@@ -6642,7 +6660,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6723,7 +6741,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ27">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR27">
         <v>1.67</v>
@@ -6926,7 +6944,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ28">
         <v>1.33</v>
@@ -7054,7 +7072,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q29">
         <v>2.25</v>
@@ -7132,7 +7150,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ29">
         <v>0.78</v>
@@ -7466,7 +7484,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7544,7 +7562,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ31">
         <v>2.3</v>
@@ -7750,10 +7768,10 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AQ32">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR32">
         <v>1.53</v>
@@ -7878,7 +7896,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q33">
         <v>3.05</v>
@@ -7956,7 +7974,7 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ33">
         <v>1.1</v>
@@ -8084,7 +8102,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q34">
         <v>2.26</v>
@@ -8290,7 +8308,7 @@
         <v>115</v>
       </c>
       <c r="P35" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q35">
         <v>3.46</v>
@@ -8371,7 +8389,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ35">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR35">
         <v>1.41</v>
@@ -8577,7 +8595,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ36">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="AR36">
         <v>1.75</v>
@@ -8702,7 +8720,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q37">
         <v>2.72</v>
@@ -8780,10 +8798,10 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ37">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AR37">
         <v>1.12</v>
@@ -8908,7 +8926,7 @@
         <v>118</v>
       </c>
       <c r="P38" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q38">
         <v>4.55</v>
@@ -9114,7 +9132,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q39">
         <v>2.78</v>
@@ -9192,7 +9210,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ39">
         <v>0.7</v>
@@ -9398,7 +9416,7 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ40">
         <v>0.78</v>
@@ -9938,7 +9956,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q43">
         <v>3.11</v>
@@ -10016,7 +10034,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ43">
         <v>1.44</v>
@@ -10144,7 +10162,7 @@
         <v>123</v>
       </c>
       <c r="P44" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q44">
         <v>3.3</v>
@@ -10350,7 +10368,7 @@
         <v>94</v>
       </c>
       <c r="P45" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q45">
         <v>2.4</v>
@@ -10637,7 +10655,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ46">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR46">
         <v>1.14</v>
@@ -10843,7 +10861,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ47">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR47">
         <v>1.55</v>
@@ -11046,10 +11064,10 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AQ48">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR48">
         <v>1.78</v>
@@ -11380,7 +11398,7 @@
         <v>103</v>
       </c>
       <c r="P50" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q50">
         <v>3.89</v>
@@ -11586,7 +11604,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q51">
         <v>2.61</v>
@@ -11664,10 +11682,10 @@
         <v>2.33</v>
       </c>
       <c r="AP51">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ51">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AR51">
         <v>1.26</v>
@@ -11792,7 +11810,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -11870,10 +11888,10 @@
         <v>1.67</v>
       </c>
       <c r="AP52">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ52">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR52">
         <v>1.25</v>
@@ -11998,7 +12016,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q53">
         <v>2.05</v>
@@ -12282,7 +12300,7 @@
         <v>1.67</v>
       </c>
       <c r="AP54">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ54">
         <v>1.1</v>
@@ -12491,7 +12509,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ55">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="AR55">
         <v>1.63</v>
@@ -12822,7 +12840,7 @@
         <v>103</v>
       </c>
       <c r="P57" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q57">
         <v>2.57</v>
@@ -12903,7 +12921,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ57">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR57">
         <v>1.2</v>
@@ -13028,7 +13046,7 @@
         <v>132</v>
       </c>
       <c r="P58" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q58">
         <v>2.3</v>
@@ -13234,7 +13252,7 @@
         <v>103</v>
       </c>
       <c r="P59" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q59">
         <v>2.75</v>
@@ -13312,7 +13330,7 @@
         <v>0.33</v>
       </c>
       <c r="AP59">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ59">
         <v>1.44</v>
@@ -13440,7 +13458,7 @@
         <v>103</v>
       </c>
       <c r="P60" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q60">
         <v>2.32</v>
@@ -13521,7 +13539,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ60">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR60">
         <v>2.26</v>
@@ -13646,7 +13664,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="Q61">
         <v>3.6</v>
@@ -13724,7 +13742,7 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ61">
         <v>1.33</v>
@@ -13852,7 +13870,7 @@
         <v>134</v>
       </c>
       <c r="P62" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q62">
         <v>2.39</v>
@@ -14058,7 +14076,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q63">
         <v>2.84</v>
@@ -14139,7 +14157,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ63">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AR63">
         <v>1.75</v>
@@ -14264,7 +14282,7 @@
         <v>136</v>
       </c>
       <c r="P64" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q64">
         <v>2.7</v>
@@ -14342,10 +14360,10 @@
         <v>0.25</v>
       </c>
       <c r="AP64">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ64">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="AR64">
         <v>1.35</v>
@@ -14470,7 +14488,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -14754,10 +14772,10 @@
         <v>1.5</v>
       </c>
       <c r="AP66">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ66">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR66">
         <v>1.59</v>
@@ -14882,7 +14900,7 @@
         <v>139</v>
       </c>
       <c r="P67" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q67">
         <v>2.5</v>
@@ -15372,7 +15390,7 @@
         <v>1.33</v>
       </c>
       <c r="AP69">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AQ69">
         <v>1.25</v>
@@ -15500,7 +15518,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q70">
         <v>1.85</v>
@@ -15581,7 +15599,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ70">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR70">
         <v>1.92</v>
@@ -15784,7 +15802,7 @@
         <v>0.33</v>
       </c>
       <c r="AP71">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ71">
         <v>0.5600000000000001</v>
@@ -15912,7 +15930,7 @@
         <v>143</v>
       </c>
       <c r="P72" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q72">
         <v>2.24</v>
@@ -16118,7 +16136,7 @@
         <v>103</v>
       </c>
       <c r="P73" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q73">
         <v>3.66</v>
@@ -16196,10 +16214,10 @@
         <v>1.75</v>
       </c>
       <c r="AP73">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ73">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR73">
         <v>1.41</v>
@@ -16324,7 +16342,7 @@
         <v>144</v>
       </c>
       <c r="P74" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q74">
         <v>2.4</v>
@@ -16405,7 +16423,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ74">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AR74">
         <v>1.87</v>
@@ -16530,7 +16548,7 @@
         <v>145</v>
       </c>
       <c r="P75" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q75">
         <v>2.38</v>
@@ -16608,7 +16626,7 @@
         <v>0.6</v>
       </c>
       <c r="AP75">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AQ75">
         <v>0.7</v>
@@ -16736,7 +16754,7 @@
         <v>125</v>
       </c>
       <c r="P76" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -17020,7 +17038,7 @@
         <v>1.25</v>
       </c>
       <c r="AP77">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ77">
         <v>1.33</v>
@@ -17148,7 +17166,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q78">
         <v>2.75</v>
@@ -17354,7 +17372,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17435,7 +17453,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ79">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR79">
         <v>2.01</v>
@@ -17560,7 +17578,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q80">
         <v>2.2</v>
@@ -17638,10 +17656,10 @@
         <v>0</v>
       </c>
       <c r="AP80">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ80">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR80">
         <v>1.6</v>
@@ -17766,7 +17784,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q81">
         <v>2.31</v>
@@ -18178,7 +18196,7 @@
         <v>151</v>
       </c>
       <c r="P83" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q83">
         <v>2.7</v>
@@ -18259,7 +18277,7 @@
         <v>2</v>
       </c>
       <c r="AQ83">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR83">
         <v>1.42</v>
@@ -18462,7 +18480,7 @@
         <v>1</v>
       </c>
       <c r="AP84">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ84">
         <v>1.25</v>
@@ -18590,7 +18608,7 @@
         <v>153</v>
       </c>
       <c r="P85" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q85">
         <v>3.5</v>
@@ -18668,7 +18686,7 @@
         <v>2</v>
       </c>
       <c r="AP85">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ85">
         <v>2.3</v>
@@ -18796,7 +18814,7 @@
         <v>154</v>
       </c>
       <c r="P86" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q86">
         <v>2.55</v>
@@ -19002,7 +19020,7 @@
         <v>155</v>
       </c>
       <c r="P87" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q87">
         <v>2.27</v>
@@ -19083,7 +19101,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ87">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="AR87">
         <v>1.38</v>
@@ -19414,7 +19432,7 @@
         <v>156</v>
       </c>
       <c r="P89" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q89">
         <v>2.8</v>
@@ -19620,7 +19638,7 @@
         <v>157</v>
       </c>
       <c r="P90" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q90">
         <v>2.6</v>
@@ -19701,7 +19719,7 @@
         <v>2</v>
       </c>
       <c r="AQ90">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AR90">
         <v>1.67</v>
@@ -19826,7 +19844,7 @@
         <v>158</v>
       </c>
       <c r="P91" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -20032,7 +20050,7 @@
         <v>159</v>
       </c>
       <c r="P92" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q92">
         <v>3.6</v>
@@ -20113,7 +20131,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ92">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR92">
         <v>1.3</v>
@@ -20316,7 +20334,7 @@
         <v>0.2</v>
       </c>
       <c r="AP93">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AQ93">
         <v>0.78</v>
@@ -20444,7 +20462,7 @@
         <v>161</v>
       </c>
       <c r="P94" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q94">
         <v>2.1</v>
@@ -20650,7 +20668,7 @@
         <v>162</v>
       </c>
       <c r="P95" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q95">
         <v>2.17</v>
@@ -20731,7 +20749,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ95">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR95">
         <v>1.88</v>
@@ -20934,7 +20952,7 @@
         <v>0.6</v>
       </c>
       <c r="AP96">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ96">
         <v>1.33</v>
@@ -21140,7 +21158,7 @@
         <v>1.5</v>
       </c>
       <c r="AP97">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ97">
         <v>1.11</v>
@@ -21268,7 +21286,7 @@
         <v>149</v>
       </c>
       <c r="P98" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q98">
         <v>3.54</v>
@@ -21474,7 +21492,7 @@
         <v>165</v>
       </c>
       <c r="P99" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q99">
         <v>3.35</v>
@@ -21555,7 +21573,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ99">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR99">
         <v>1.79</v>
@@ -21886,7 +21904,7 @@
         <v>167</v>
       </c>
       <c r="P101" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q101">
         <v>2.96</v>
@@ -21964,10 +21982,10 @@
         <v>0.2</v>
       </c>
       <c r="AP101">
+        <v>0.8</v>
+      </c>
+      <c r="AQ101">
         <v>0.89</v>
-      </c>
-      <c r="AQ101">
-        <v>0.63</v>
       </c>
       <c r="AR101">
         <v>1.53</v>
@@ -22092,7 +22110,7 @@
         <v>168</v>
       </c>
       <c r="P102" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q102">
         <v>2.44</v>
@@ -22170,10 +22188,10 @@
         <v>1</v>
       </c>
       <c r="AP102">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ102">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR102">
         <v>1.74</v>
@@ -22298,7 +22316,7 @@
         <v>103</v>
       </c>
       <c r="P103" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q103">
         <v>1.81</v>
@@ -22585,7 +22603,7 @@
         <v>2</v>
       </c>
       <c r="AQ104">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR104">
         <v>1.63</v>
@@ -22710,7 +22728,7 @@
         <v>170</v>
       </c>
       <c r="P105" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q105">
         <v>2.69</v>
@@ -22916,7 +22934,7 @@
         <v>171</v>
       </c>
       <c r="P106" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q106">
         <v>2.56</v>
@@ -22994,10 +23012,10 @@
         <v>0.33</v>
       </c>
       <c r="AP106">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ106">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="AR106">
         <v>1.19</v>
@@ -23534,7 +23552,7 @@
         <v>174</v>
       </c>
       <c r="P109" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q109">
         <v>3.5</v>
@@ -23740,7 +23758,7 @@
         <v>175</v>
       </c>
       <c r="P110" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q110">
         <v>2.43</v>
@@ -23818,7 +23836,7 @@
         <v>1.33</v>
       </c>
       <c r="AP110">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AQ110">
         <v>1.33</v>
@@ -23946,7 +23964,7 @@
         <v>103</v>
       </c>
       <c r="P111" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q111">
         <v>3.02</v>
@@ -24027,7 +24045,7 @@
         <v>1</v>
       </c>
       <c r="AQ111">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AR111">
         <v>1.49</v>
@@ -24230,10 +24248,10 @@
         <v>1.29</v>
       </c>
       <c r="AP112">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ112">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR112">
         <v>1.58</v>
@@ -24358,7 +24376,7 @@
         <v>103</v>
       </c>
       <c r="P113" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q113">
         <v>2.85</v>
@@ -24642,10 +24660,10 @@
         <v>1.29</v>
       </c>
       <c r="AP114">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ114">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR114">
         <v>1.27</v>
@@ -24848,10 +24866,10 @@
         <v>1.57</v>
       </c>
       <c r="AP115">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ115">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR115">
         <v>1.53</v>
@@ -24976,7 +24994,7 @@
         <v>177</v>
       </c>
       <c r="P116" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q116">
         <v>4.5</v>
@@ -25260,7 +25278,7 @@
         <v>0.57</v>
       </c>
       <c r="AP117">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ117">
         <v>0.78</v>
@@ -25388,7 +25406,7 @@
         <v>103</v>
       </c>
       <c r="P118" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q118">
         <v>3.2</v>
@@ -25466,7 +25484,7 @@
         <v>0.86</v>
       </c>
       <c r="AP118">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ118">
         <v>1.1</v>
@@ -25672,7 +25690,7 @@
         <v>0.17</v>
       </c>
       <c r="AP119">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AQ119">
         <v>0.5600000000000001</v>
@@ -26006,7 +26024,7 @@
         <v>180</v>
       </c>
       <c r="P121" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q121">
         <v>2.38</v>
@@ -26293,7 +26311,7 @@
         <v>2</v>
       </c>
       <c r="AQ122">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="AR122">
         <v>1.59</v>
@@ -26418,7 +26436,7 @@
         <v>170</v>
       </c>
       <c r="P123" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q123">
         <v>2.51</v>
@@ -26624,7 +26642,7 @@
         <v>182</v>
       </c>
       <c r="P124" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q124">
         <v>2.46</v>
@@ -26705,7 +26723,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ124">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AR124">
         <v>1.3</v>
@@ -26830,7 +26848,7 @@
         <v>183</v>
       </c>
       <c r="P125" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q125">
         <v>3.68</v>
@@ -27036,7 +27054,7 @@
         <v>184</v>
       </c>
       <c r="P126" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q126">
         <v>1.95</v>
@@ -27529,7 +27547,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ128">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR128">
         <v>1.78</v>
@@ -27654,7 +27672,7 @@
         <v>187</v>
       </c>
       <c r="P129" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q129">
         <v>3</v>
@@ -27732,10 +27750,10 @@
         <v>1.38</v>
       </c>
       <c r="AP129">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ129">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR129">
         <v>1.53</v>
@@ -27860,7 +27878,7 @@
         <v>103</v>
       </c>
       <c r="P130" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q130">
         <v>2.88</v>
@@ -27938,7 +27956,7 @@
         <v>0.5</v>
       </c>
       <c r="AP130">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ130">
         <v>0.78</v>
@@ -28066,7 +28084,7 @@
         <v>103</v>
       </c>
       <c r="P131" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q131">
         <v>3.04</v>
@@ -28144,7 +28162,7 @@
         <v>0.67</v>
       </c>
       <c r="AP131">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ131">
         <v>1.25</v>
@@ -28272,7 +28290,7 @@
         <v>103</v>
       </c>
       <c r="P132" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q132">
         <v>3.75</v>
@@ -28350,7 +28368,7 @@
         <v>2.13</v>
       </c>
       <c r="AP132">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ132">
         <v>2.3</v>
@@ -28478,7 +28496,7 @@
         <v>103</v>
       </c>
       <c r="P133" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q133">
         <v>3.2</v>
@@ -28684,7 +28702,7 @@
         <v>103</v>
       </c>
       <c r="P134" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q134">
         <v>2.69</v>
@@ -28765,7 +28783,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ134">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR134">
         <v>2.1</v>
@@ -28890,7 +28908,7 @@
         <v>188</v>
       </c>
       <c r="P135" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q135">
         <v>2.75</v>
@@ -28968,10 +28986,10 @@
         <v>1.25</v>
       </c>
       <c r="AP135">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ135">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR135">
         <v>1.79</v>
@@ -29508,7 +29526,7 @@
         <v>190</v>
       </c>
       <c r="P138" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q138">
         <v>3.6</v>
@@ -29714,7 +29732,7 @@
         <v>191</v>
       </c>
       <c r="P139" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q139">
         <v>2.61</v>
@@ -30332,7 +30350,7 @@
         <v>194</v>
       </c>
       <c r="P142" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q142">
         <v>2.2</v>
@@ -30413,7 +30431,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ142">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="AR142">
         <v>2.1</v>
@@ -30538,7 +30556,7 @@
         <v>195</v>
       </c>
       <c r="P143" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q143">
         <v>2.75</v>
@@ -30744,7 +30762,7 @@
         <v>103</v>
       </c>
       <c r="P144" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q144">
         <v>3.44</v>
@@ -30822,7 +30840,7 @@
         <v>1</v>
       </c>
       <c r="AP144">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ144">
         <v>1.25</v>
@@ -30950,7 +30968,7 @@
         <v>91</v>
       </c>
       <c r="P145" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q145">
         <v>2.02</v>
@@ -31031,7 +31049,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ145">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR145">
         <v>1.65</v>
@@ -31156,7 +31174,7 @@
         <v>196</v>
       </c>
       <c r="P146" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q146">
         <v>3.75</v>
@@ -31313,6 +31331,1242 @@
       </c>
       <c r="BP146">
         <v>1.57</v>
+      </c>
+    </row>
+    <row r="147" spans="1:68">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>7296416</v>
+      </c>
+      <c r="C147" t="s">
+        <v>68</v>
+      </c>
+      <c r="D147" t="s">
+        <v>69</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45523.54166666666</v>
+      </c>
+      <c r="F147">
+        <v>19</v>
+      </c>
+      <c r="G147" t="s">
+        <v>79</v>
+      </c>
+      <c r="H147" t="s">
+        <v>85</v>
+      </c>
+      <c r="I147">
+        <v>2</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>2</v>
+      </c>
+      <c r="L147">
+        <v>4</v>
+      </c>
+      <c r="M147">
+        <v>1</v>
+      </c>
+      <c r="N147">
+        <v>5</v>
+      </c>
+      <c r="O147" t="s">
+        <v>197</v>
+      </c>
+      <c r="P147" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q147">
+        <v>3.62</v>
+      </c>
+      <c r="R147">
+        <v>2.3</v>
+      </c>
+      <c r="S147">
+        <v>2.54</v>
+      </c>
+      <c r="T147">
+        <v>1.29</v>
+      </c>
+      <c r="U147">
+        <v>3.4</v>
+      </c>
+      <c r="V147">
+        <v>2.36</v>
+      </c>
+      <c r="W147">
+        <v>1.55</v>
+      </c>
+      <c r="X147">
+        <v>5.45</v>
+      </c>
+      <c r="Y147">
+        <v>1.13</v>
+      </c>
+      <c r="Z147">
+        <v>3.2</v>
+      </c>
+      <c r="AA147">
+        <v>3.65</v>
+      </c>
+      <c r="AB147">
+        <v>2.02</v>
+      </c>
+      <c r="AC147">
+        <v>1.03</v>
+      </c>
+      <c r="AD147">
+        <v>17.25</v>
+      </c>
+      <c r="AE147">
+        <v>1.16</v>
+      </c>
+      <c r="AF147">
+        <v>4.3</v>
+      </c>
+      <c r="AG147">
+        <v>1.58</v>
+      </c>
+      <c r="AH147">
+        <v>2.25</v>
+      </c>
+      <c r="AI147">
+        <v>1.55</v>
+      </c>
+      <c r="AJ147">
+        <v>2.4</v>
+      </c>
+      <c r="AK147">
+        <v>1.72</v>
+      </c>
+      <c r="AL147">
+        <v>1.26</v>
+      </c>
+      <c r="AM147">
+        <v>1.33</v>
+      </c>
+      <c r="AN147">
+        <v>1.11</v>
+      </c>
+      <c r="AO147">
+        <v>2.22</v>
+      </c>
+      <c r="AP147">
+        <v>1.3</v>
+      </c>
+      <c r="AQ147">
+        <v>2</v>
+      </c>
+      <c r="AR147">
+        <v>1.14</v>
+      </c>
+      <c r="AS147">
+        <v>1.58</v>
+      </c>
+      <c r="AT147">
+        <v>2.72</v>
+      </c>
+      <c r="AU147">
+        <v>13</v>
+      </c>
+      <c r="AV147">
+        <v>10</v>
+      </c>
+      <c r="AW147">
+        <v>5</v>
+      </c>
+      <c r="AX147">
+        <v>4</v>
+      </c>
+      <c r="AY147">
+        <v>18</v>
+      </c>
+      <c r="AZ147">
+        <v>14</v>
+      </c>
+      <c r="BA147">
+        <v>7</v>
+      </c>
+      <c r="BB147">
+        <v>6</v>
+      </c>
+      <c r="BC147">
+        <v>13</v>
+      </c>
+      <c r="BD147">
+        <v>2.67</v>
+      </c>
+      <c r="BE147">
+        <v>9</v>
+      </c>
+      <c r="BF147">
+        <v>1.59</v>
+      </c>
+      <c r="BG147">
+        <v>0</v>
+      </c>
+      <c r="BH147">
+        <v>0</v>
+      </c>
+      <c r="BI147">
+        <v>1.16</v>
+      </c>
+      <c r="BJ147">
+        <v>4.5</v>
+      </c>
+      <c r="BK147">
+        <v>1.28</v>
+      </c>
+      <c r="BL147">
+        <v>3.2</v>
+      </c>
+      <c r="BM147">
+        <v>1.54</v>
+      </c>
+      <c r="BN147">
+        <v>2.43</v>
+      </c>
+      <c r="BO147">
+        <v>1.87</v>
+      </c>
+      <c r="BP147">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="148" spans="1:68">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>7296415</v>
+      </c>
+      <c r="C148" t="s">
+        <v>68</v>
+      </c>
+      <c r="D148" t="s">
+        <v>69</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45523.58333333334</v>
+      </c>
+      <c r="F148">
+        <v>19</v>
+      </c>
+      <c r="G148" t="s">
+        <v>80</v>
+      </c>
+      <c r="H148" t="s">
+        <v>75</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+      <c r="M148">
+        <v>1</v>
+      </c>
+      <c r="N148">
+        <v>1</v>
+      </c>
+      <c r="O148" t="s">
+        <v>103</v>
+      </c>
+      <c r="P148" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q148">
+        <v>2</v>
+      </c>
+      <c r="R148">
+        <v>2.6</v>
+      </c>
+      <c r="S148">
+        <v>4.5</v>
+      </c>
+      <c r="T148">
+        <v>1.22</v>
+      </c>
+      <c r="U148">
+        <v>4.25</v>
+      </c>
+      <c r="V148">
+        <v>2.02</v>
+      </c>
+      <c r="W148">
+        <v>1.74</v>
+      </c>
+      <c r="X148">
+        <v>3.9</v>
+      </c>
+      <c r="Y148">
+        <v>1.2</v>
+      </c>
+      <c r="Z148">
+        <v>1.52</v>
+      </c>
+      <c r="AA148">
+        <v>4.6</v>
+      </c>
+      <c r="AB148">
+        <v>4.9</v>
+      </c>
+      <c r="AC148">
+        <v>1.01</v>
+      </c>
+      <c r="AD148">
+        <v>28</v>
+      </c>
+      <c r="AE148">
+        <v>1.11</v>
+      </c>
+      <c r="AF148">
+        <v>5.5</v>
+      </c>
+      <c r="AG148">
+        <v>1.38</v>
+      </c>
+      <c r="AH148">
+        <v>2.81</v>
+      </c>
+      <c r="AI148">
+        <v>1.48</v>
+      </c>
+      <c r="AJ148">
+        <v>2.6</v>
+      </c>
+      <c r="AK148">
+        <v>1.2</v>
+      </c>
+      <c r="AL148">
+        <v>1.2</v>
+      </c>
+      <c r="AM148">
+        <v>2.3</v>
+      </c>
+      <c r="AN148">
+        <v>1.75</v>
+      </c>
+      <c r="AO148">
+        <v>0.63</v>
+      </c>
+      <c r="AP148">
+        <v>1.56</v>
+      </c>
+      <c r="AQ148">
+        <v>0.89</v>
+      </c>
+      <c r="AR148">
+        <v>1.5</v>
+      </c>
+      <c r="AS148">
+        <v>1.43</v>
+      </c>
+      <c r="AT148">
+        <v>2.93</v>
+      </c>
+      <c r="AU148">
+        <v>0</v>
+      </c>
+      <c r="AV148">
+        <v>5</v>
+      </c>
+      <c r="AW148">
+        <v>6</v>
+      </c>
+      <c r="AX148">
+        <v>7</v>
+      </c>
+      <c r="AY148">
+        <v>6</v>
+      </c>
+      <c r="AZ148">
+        <v>12</v>
+      </c>
+      <c r="BA148">
+        <v>5</v>
+      </c>
+      <c r="BB148">
+        <v>7</v>
+      </c>
+      <c r="BC148">
+        <v>12</v>
+      </c>
+      <c r="BD148">
+        <v>1.64</v>
+      </c>
+      <c r="BE148">
+        <v>8.5</v>
+      </c>
+      <c r="BF148">
+        <v>2.66</v>
+      </c>
+      <c r="BG148">
+        <v>0</v>
+      </c>
+      <c r="BH148">
+        <v>0</v>
+      </c>
+      <c r="BI148">
+        <v>1.21</v>
+      </c>
+      <c r="BJ148">
+        <v>3.74</v>
+      </c>
+      <c r="BK148">
+        <v>1.39</v>
+      </c>
+      <c r="BL148">
+        <v>2.67</v>
+      </c>
+      <c r="BM148">
+        <v>1.88</v>
+      </c>
+      <c r="BN148">
+        <v>1.92</v>
+      </c>
+      <c r="BO148">
+        <v>2.09</v>
+      </c>
+      <c r="BP148">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="149" spans="1:68">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>7296412</v>
+      </c>
+      <c r="C149" t="s">
+        <v>68</v>
+      </c>
+      <c r="D149" t="s">
+        <v>69</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45523.58333333334</v>
+      </c>
+      <c r="F149">
+        <v>19</v>
+      </c>
+      <c r="G149" t="s">
+        <v>77</v>
+      </c>
+      <c r="H149" t="s">
+        <v>83</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>1</v>
+      </c>
+      <c r="L149">
+        <v>3</v>
+      </c>
+      <c r="M149">
+        <v>0</v>
+      </c>
+      <c r="N149">
+        <v>3</v>
+      </c>
+      <c r="O149" t="s">
+        <v>198</v>
+      </c>
+      <c r="P149" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q149">
+        <v>2.95</v>
+      </c>
+      <c r="R149">
+        <v>2.25</v>
+      </c>
+      <c r="S149">
+        <v>3.4</v>
+      </c>
+      <c r="T149">
+        <v>1.32</v>
+      </c>
+      <c r="U149">
+        <v>3.1</v>
+      </c>
+      <c r="V149">
+        <v>2.5</v>
+      </c>
+      <c r="W149">
+        <v>1.48</v>
+      </c>
+      <c r="X149">
+        <v>5.5</v>
+      </c>
+      <c r="Y149">
+        <v>1.11</v>
+      </c>
+      <c r="Z149">
+        <v>2.29</v>
+      </c>
+      <c r="AA149">
+        <v>3.45</v>
+      </c>
+      <c r="AB149">
+        <v>2.8</v>
+      </c>
+      <c r="AC149">
+        <v>1.04</v>
+      </c>
+      <c r="AD149">
+        <v>15</v>
+      </c>
+      <c r="AE149">
+        <v>1.19</v>
+      </c>
+      <c r="AF149">
+        <v>4</v>
+      </c>
+      <c r="AG149">
+        <v>1.7</v>
+      </c>
+      <c r="AH149">
+        <v>2.05</v>
+      </c>
+      <c r="AI149">
+        <v>1.57</v>
+      </c>
+      <c r="AJ149">
+        <v>2.35</v>
+      </c>
+      <c r="AK149">
+        <v>1.42</v>
+      </c>
+      <c r="AL149">
+        <v>1.25</v>
+      </c>
+      <c r="AM149">
+        <v>1.6</v>
+      </c>
+      <c r="AN149">
+        <v>2.11</v>
+      </c>
+      <c r="AO149">
+        <v>1.33</v>
+      </c>
+      <c r="AP149">
+        <v>2.2</v>
+      </c>
+      <c r="AQ149">
+        <v>1.2</v>
+      </c>
+      <c r="AR149">
+        <v>1.48</v>
+      </c>
+      <c r="AS149">
+        <v>1.19</v>
+      </c>
+      <c r="AT149">
+        <v>2.67</v>
+      </c>
+      <c r="AU149">
+        <v>7</v>
+      </c>
+      <c r="AV149">
+        <v>2</v>
+      </c>
+      <c r="AW149">
+        <v>3</v>
+      </c>
+      <c r="AX149">
+        <v>10</v>
+      </c>
+      <c r="AY149">
+        <v>10</v>
+      </c>
+      <c r="AZ149">
+        <v>12</v>
+      </c>
+      <c r="BA149">
+        <v>4</v>
+      </c>
+      <c r="BB149">
+        <v>11</v>
+      </c>
+      <c r="BC149">
+        <v>15</v>
+      </c>
+      <c r="BD149">
+        <v>1.82</v>
+      </c>
+      <c r="BE149">
+        <v>8.5</v>
+      </c>
+      <c r="BF149">
+        <v>2.32</v>
+      </c>
+      <c r="BG149">
+        <v>1.19</v>
+      </c>
+      <c r="BH149">
+        <v>4.5</v>
+      </c>
+      <c r="BI149">
+        <v>1.31</v>
+      </c>
+      <c r="BJ149">
+        <v>3.04</v>
+      </c>
+      <c r="BK149">
+        <v>1.61</v>
+      </c>
+      <c r="BL149">
+        <v>2.29</v>
+      </c>
+      <c r="BM149">
+        <v>1.97</v>
+      </c>
+      <c r="BN149">
+        <v>1.83</v>
+      </c>
+      <c r="BO149">
+        <v>2.5</v>
+      </c>
+      <c r="BP149">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="150" spans="1:68">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>7296411</v>
+      </c>
+      <c r="C150" t="s">
+        <v>68</v>
+      </c>
+      <c r="D150" t="s">
+        <v>69</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45523.58333333334</v>
+      </c>
+      <c r="F150">
+        <v>19</v>
+      </c>
+      <c r="G150" t="s">
+        <v>84</v>
+      </c>
+      <c r="H150" t="s">
+        <v>78</v>
+      </c>
+      <c r="I150">
+        <v>1</v>
+      </c>
+      <c r="J150">
+        <v>2</v>
+      </c>
+      <c r="K150">
+        <v>3</v>
+      </c>
+      <c r="L150">
+        <v>2</v>
+      </c>
+      <c r="M150">
+        <v>2</v>
+      </c>
+      <c r="N150">
+        <v>4</v>
+      </c>
+      <c r="O150" t="s">
+        <v>199</v>
+      </c>
+      <c r="P150" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q150">
+        <v>1.8</v>
+      </c>
+      <c r="R150">
+        <v>2.65</v>
+      </c>
+      <c r="S150">
+        <v>4.9</v>
+      </c>
+      <c r="T150">
+        <v>1.22</v>
+      </c>
+      <c r="U150">
+        <v>3.7</v>
+      </c>
+      <c r="V150">
+        <v>1.93</v>
+      </c>
+      <c r="W150">
+        <v>1.72</v>
+      </c>
+      <c r="X150">
+        <v>4.1</v>
+      </c>
+      <c r="Y150">
+        <v>1.17</v>
+      </c>
+      <c r="Z150">
+        <v>1.57</v>
+      </c>
+      <c r="AA150">
+        <v>4.4</v>
+      </c>
+      <c r="AB150">
+        <v>4.6</v>
+      </c>
+      <c r="AC150">
+        <v>1.02</v>
+      </c>
+      <c r="AD150">
+        <v>25.5</v>
+      </c>
+      <c r="AE150">
+        <v>1.09</v>
+      </c>
+      <c r="AF150">
+        <v>5.65</v>
+      </c>
+      <c r="AG150">
+        <v>1.39</v>
+      </c>
+      <c r="AH150">
+        <v>2.77</v>
+      </c>
+      <c r="AI150">
+        <v>1.45</v>
+      </c>
+      <c r="AJ150">
+        <v>2.45</v>
+      </c>
+      <c r="AK150">
+        <v>1.14</v>
+      </c>
+      <c r="AL150">
+        <v>1.17</v>
+      </c>
+      <c r="AM150">
+        <v>2.1</v>
+      </c>
+      <c r="AN150">
+        <v>1.78</v>
+      </c>
+      <c r="AO150">
+        <v>0.22</v>
+      </c>
+      <c r="AP150">
+        <v>1.7</v>
+      </c>
+      <c r="AQ150">
+        <v>0.3</v>
+      </c>
+      <c r="AR150">
+        <v>1.87</v>
+      </c>
+      <c r="AS150">
+        <v>1.37</v>
+      </c>
+      <c r="AT150">
+        <v>3.24</v>
+      </c>
+      <c r="AU150">
+        <v>8</v>
+      </c>
+      <c r="AV150">
+        <v>4</v>
+      </c>
+      <c r="AW150">
+        <v>10</v>
+      </c>
+      <c r="AX150">
+        <v>6</v>
+      </c>
+      <c r="AY150">
+        <v>18</v>
+      </c>
+      <c r="AZ150">
+        <v>10</v>
+      </c>
+      <c r="BA150">
+        <v>3</v>
+      </c>
+      <c r="BB150">
+        <v>2</v>
+      </c>
+      <c r="BC150">
+        <v>5</v>
+      </c>
+      <c r="BD150">
+        <v>1.34</v>
+      </c>
+      <c r="BE150">
+        <v>9.5</v>
+      </c>
+      <c r="BF150">
+        <v>3.86</v>
+      </c>
+      <c r="BG150">
+        <v>1.18</v>
+      </c>
+      <c r="BH150">
+        <v>4.6</v>
+      </c>
+      <c r="BI150">
+        <v>1.24</v>
+      </c>
+      <c r="BJ150">
+        <v>3.48</v>
+      </c>
+      <c r="BK150">
+        <v>1.48</v>
+      </c>
+      <c r="BL150">
+        <v>2.58</v>
+      </c>
+      <c r="BM150">
+        <v>2</v>
+      </c>
+      <c r="BN150">
+        <v>1.8</v>
+      </c>
+      <c r="BO150">
+        <v>2.25</v>
+      </c>
+      <c r="BP150">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="151" spans="1:68">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>7296410</v>
+      </c>
+      <c r="C151" t="s">
+        <v>68</v>
+      </c>
+      <c r="D151" t="s">
+        <v>69</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45523.58333333334</v>
+      </c>
+      <c r="F151">
+        <v>19</v>
+      </c>
+      <c r="G151" t="s">
+        <v>70</v>
+      </c>
+      <c r="H151" t="s">
+        <v>71</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
+      </c>
+      <c r="J151">
+        <v>1</v>
+      </c>
+      <c r="K151">
+        <v>2</v>
+      </c>
+      <c r="L151">
+        <v>1</v>
+      </c>
+      <c r="M151">
+        <v>1</v>
+      </c>
+      <c r="N151">
+        <v>2</v>
+      </c>
+      <c r="O151" t="s">
+        <v>200</v>
+      </c>
+      <c r="P151" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q151">
+        <v>2.48</v>
+      </c>
+      <c r="R151">
+        <v>2.31</v>
+      </c>
+      <c r="S151">
+        <v>3.72</v>
+      </c>
+      <c r="T151">
+        <v>1.29</v>
+      </c>
+      <c r="U151">
+        <v>3.4</v>
+      </c>
+      <c r="V151">
+        <v>2.36</v>
+      </c>
+      <c r="W151">
+        <v>1.55</v>
+      </c>
+      <c r="X151">
+        <v>5.4</v>
+      </c>
+      <c r="Y151">
+        <v>1.13</v>
+      </c>
+      <c r="Z151">
+        <v>2.02</v>
+      </c>
+      <c r="AA151">
+        <v>3.6</v>
+      </c>
+      <c r="AB151">
+        <v>3.25</v>
+      </c>
+      <c r="AC151">
+        <v>1.03</v>
+      </c>
+      <c r="AD151">
+        <v>9</v>
+      </c>
+      <c r="AE151">
+        <v>1.16</v>
+      </c>
+      <c r="AF151">
+        <v>4.4</v>
+      </c>
+      <c r="AG151">
+        <v>1.6</v>
+      </c>
+      <c r="AH151">
+        <v>2.25</v>
+      </c>
+      <c r="AI151">
+        <v>1.53</v>
+      </c>
+      <c r="AJ151">
+        <v>2.34</v>
+      </c>
+      <c r="AK151">
+        <v>1.29</v>
+      </c>
+      <c r="AL151">
+        <v>1.24</v>
+      </c>
+      <c r="AM151">
+        <v>1.81</v>
+      </c>
+      <c r="AN151">
+        <v>2.44</v>
+      </c>
+      <c r="AO151">
+        <v>1.33</v>
+      </c>
+      <c r="AP151">
+        <v>2.3</v>
+      </c>
+      <c r="AQ151">
+        <v>1.3</v>
+      </c>
+      <c r="AR151">
+        <v>1.8</v>
+      </c>
+      <c r="AS151">
+        <v>1.48</v>
+      </c>
+      <c r="AT151">
+        <v>3.28</v>
+      </c>
+      <c r="AU151">
+        <v>5</v>
+      </c>
+      <c r="AV151">
+        <v>4</v>
+      </c>
+      <c r="AW151">
+        <v>6</v>
+      </c>
+      <c r="AX151">
+        <v>10</v>
+      </c>
+      <c r="AY151">
+        <v>11</v>
+      </c>
+      <c r="AZ151">
+        <v>14</v>
+      </c>
+      <c r="BA151">
+        <v>4</v>
+      </c>
+      <c r="BB151">
+        <v>4</v>
+      </c>
+      <c r="BC151">
+        <v>8</v>
+      </c>
+      <c r="BD151">
+        <v>1.75</v>
+      </c>
+      <c r="BE151">
+        <v>8.5</v>
+      </c>
+      <c r="BF151">
+        <v>2.41</v>
+      </c>
+      <c r="BG151">
+        <v>1.18</v>
+      </c>
+      <c r="BH151">
+        <v>4.6</v>
+      </c>
+      <c r="BI151">
+        <v>1.25</v>
+      </c>
+      <c r="BJ151">
+        <v>3.42</v>
+      </c>
+      <c r="BK151">
+        <v>1.46</v>
+      </c>
+      <c r="BL151">
+        <v>2.45</v>
+      </c>
+      <c r="BM151">
+        <v>2</v>
+      </c>
+      <c r="BN151">
+        <v>1.8</v>
+      </c>
+      <c r="BO151">
+        <v>2.15</v>
+      </c>
+      <c r="BP151">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="152" spans="1:68">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>7296413</v>
+      </c>
+      <c r="C152" t="s">
+        <v>68</v>
+      </c>
+      <c r="D152" t="s">
+        <v>69</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45523.58333333334</v>
+      </c>
+      <c r="F152">
+        <v>19</v>
+      </c>
+      <c r="G152" t="s">
+        <v>76</v>
+      </c>
+      <c r="H152" t="s">
+        <v>81</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>1</v>
+      </c>
+      <c r="M152">
+        <v>3</v>
+      </c>
+      <c r="N152">
+        <v>4</v>
+      </c>
+      <c r="O152" t="s">
+        <v>201</v>
+      </c>
+      <c r="P152" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q152">
+        <v>3.4</v>
+      </c>
+      <c r="R152">
+        <v>2.75</v>
+      </c>
+      <c r="S152">
+        <v>2.25</v>
+      </c>
+      <c r="T152">
+        <v>1.17</v>
+      </c>
+      <c r="U152">
+        <v>4.9</v>
+      </c>
+      <c r="V152">
+        <v>1.83</v>
+      </c>
+      <c r="W152">
+        <v>1.9</v>
+      </c>
+      <c r="X152">
+        <v>3.5</v>
+      </c>
+      <c r="Y152">
+        <v>1.25</v>
+      </c>
+      <c r="Z152">
+        <v>3.1</v>
+      </c>
+      <c r="AA152">
+        <v>4.1</v>
+      </c>
+      <c r="AB152">
+        <v>1.93</v>
+      </c>
+      <c r="AC152">
+        <v>1.01</v>
+      </c>
+      <c r="AD152">
+        <v>37</v>
+      </c>
+      <c r="AE152">
+        <v>1.09</v>
+      </c>
+      <c r="AF152">
+        <v>7.75</v>
+      </c>
+      <c r="AG152">
+        <v>1.27</v>
+      </c>
+      <c r="AH152">
+        <v>3.41</v>
+      </c>
+      <c r="AI152">
+        <v>1.3</v>
+      </c>
+      <c r="AJ152">
+        <v>3.2</v>
+      </c>
+      <c r="AK152">
+        <v>1.95</v>
+      </c>
+      <c r="AL152">
+        <v>1.17</v>
+      </c>
+      <c r="AM152">
+        <v>1.3</v>
+      </c>
+      <c r="AN152">
+        <v>0.89</v>
+      </c>
+      <c r="AO152">
+        <v>1.11</v>
+      </c>
+      <c r="AP152">
+        <v>0.8</v>
+      </c>
+      <c r="AQ152">
+        <v>1.3</v>
+      </c>
+      <c r="AR152">
+        <v>1.66</v>
+      </c>
+      <c r="AS152">
+        <v>1.89</v>
+      </c>
+      <c r="AT152">
+        <v>3.55</v>
+      </c>
+      <c r="AU152">
+        <v>3</v>
+      </c>
+      <c r="AV152">
+        <v>10</v>
+      </c>
+      <c r="AW152">
+        <v>8</v>
+      </c>
+      <c r="AX152">
+        <v>13</v>
+      </c>
+      <c r="AY152">
+        <v>11</v>
+      </c>
+      <c r="AZ152">
+        <v>23</v>
+      </c>
+      <c r="BA152">
+        <v>5</v>
+      </c>
+      <c r="BB152">
+        <v>9</v>
+      </c>
+      <c r="BC152">
+        <v>14</v>
+      </c>
+      <c r="BD152">
+        <v>2.66</v>
+      </c>
+      <c r="BE152">
+        <v>8.5</v>
+      </c>
+      <c r="BF152">
+        <v>1.64</v>
+      </c>
+      <c r="BG152">
+        <v>0</v>
+      </c>
+      <c r="BH152">
+        <v>0</v>
+      </c>
+      <c r="BI152">
+        <v>1.26</v>
+      </c>
+      <c r="BJ152">
+        <v>3.65</v>
+      </c>
+      <c r="BK152">
+        <v>1.36</v>
+      </c>
+      <c r="BL152">
+        <v>2.79</v>
+      </c>
+      <c r="BM152">
+        <v>1.8</v>
+      </c>
+      <c r="BN152">
+        <v>2</v>
+      </c>
+      <c r="BO152">
+        <v>2.04</v>
+      </c>
+      <c r="BP152">
+        <v>1.76</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="293">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -620,6 +620,9 @@
   </si>
   <si>
     <t>['65']</t>
+  </si>
+  <si>
+    <t>['22', '79']</t>
   </si>
   <si>
     <t>['90+1']</t>
@@ -1251,7 +1254,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP152"/>
+  <dimension ref="A1:BP153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1510,7 +1513,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q2">
         <v>2.84</v>
@@ -1716,7 +1719,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q3">
         <v>2.2</v>
@@ -1922,7 +1925,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -2334,7 +2337,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q6">
         <v>2.35</v>
@@ -2412,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ6">
         <v>1.1</v>
@@ -2540,7 +2543,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q7">
         <v>2.66</v>
@@ -2746,7 +2749,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q8">
         <v>2.8</v>
@@ -3158,7 +3161,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3239,7 +3242,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ10">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3364,7 +3367,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3570,7 +3573,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -4188,7 +4191,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q15">
         <v>2.05</v>
@@ -4600,7 +4603,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q17">
         <v>2.15</v>
@@ -4806,7 +4809,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q18">
         <v>2.15</v>
@@ -5630,7 +5633,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q22">
         <v>2.76</v>
@@ -5708,7 +5711,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ22">
         <v>1.2</v>
@@ -5836,7 +5839,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q23">
         <v>2.85</v>
@@ -6042,7 +6045,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q24">
         <v>2.05</v>
@@ -6660,7 +6663,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -7072,7 +7075,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q29">
         <v>2.25</v>
@@ -7359,7 +7362,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ30">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR30">
         <v>0</v>
@@ -7484,7 +7487,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7896,7 +7899,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q33">
         <v>3.05</v>
@@ -8102,7 +8105,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q34">
         <v>2.26</v>
@@ -8308,7 +8311,7 @@
         <v>115</v>
       </c>
       <c r="P35" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q35">
         <v>3.46</v>
@@ -8386,7 +8389,7 @@
         <v>2</v>
       </c>
       <c r="AP35">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ35">
         <v>1.3</v>
@@ -8720,7 +8723,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q37">
         <v>2.72</v>
@@ -8926,7 +8929,7 @@
         <v>118</v>
       </c>
       <c r="P38" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q38">
         <v>4.55</v>
@@ -9132,7 +9135,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q39">
         <v>2.78</v>
@@ -9956,7 +9959,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q43">
         <v>3.11</v>
@@ -10162,7 +10165,7 @@
         <v>123</v>
       </c>
       <c r="P44" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q44">
         <v>3.3</v>
@@ -10243,7 +10246,7 @@
         <v>1</v>
       </c>
       <c r="AQ44">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR44">
         <v>1.31</v>
@@ -10368,7 +10371,7 @@
         <v>94</v>
       </c>
       <c r="P45" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q45">
         <v>2.4</v>
@@ -11398,7 +11401,7 @@
         <v>103</v>
       </c>
       <c r="P50" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q50">
         <v>3.89</v>
@@ -11604,7 +11607,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q51">
         <v>2.61</v>
@@ -11810,7 +11813,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -12016,7 +12019,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q53">
         <v>2.05</v>
@@ -12506,7 +12509,7 @@
         <v>0.33</v>
       </c>
       <c r="AP55">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ55">
         <v>0.3</v>
@@ -12840,7 +12843,7 @@
         <v>103</v>
       </c>
       <c r="P57" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q57">
         <v>2.57</v>
@@ -13046,7 +13049,7 @@
         <v>132</v>
       </c>
       <c r="P58" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q58">
         <v>2.3</v>
@@ -13252,7 +13255,7 @@
         <v>103</v>
       </c>
       <c r="P59" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q59">
         <v>2.75</v>
@@ -13458,7 +13461,7 @@
         <v>103</v>
       </c>
       <c r="P60" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q60">
         <v>2.32</v>
@@ -13870,7 +13873,7 @@
         <v>134</v>
       </c>
       <c r="P62" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q62">
         <v>2.39</v>
@@ -14076,7 +14079,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q63">
         <v>2.84</v>
@@ -14282,7 +14285,7 @@
         <v>136</v>
       </c>
       <c r="P64" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q64">
         <v>2.7</v>
@@ -14488,7 +14491,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -14566,7 +14569,7 @@
         <v>1.75</v>
       </c>
       <c r="AP65">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ65">
         <v>2.3</v>
@@ -14900,7 +14903,7 @@
         <v>139</v>
       </c>
       <c r="P67" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q67">
         <v>2.5</v>
@@ -15393,7 +15396,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ69">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR69">
         <v>1.74</v>
@@ -15518,7 +15521,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q70">
         <v>1.85</v>
@@ -15930,7 +15933,7 @@
         <v>143</v>
       </c>
       <c r="P72" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q72">
         <v>2.24</v>
@@ -16136,7 +16139,7 @@
         <v>103</v>
       </c>
       <c r="P73" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q73">
         <v>3.66</v>
@@ -16342,7 +16345,7 @@
         <v>144</v>
       </c>
       <c r="P74" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q74">
         <v>2.4</v>
@@ -16548,7 +16551,7 @@
         <v>145</v>
       </c>
       <c r="P75" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q75">
         <v>2.38</v>
@@ -16754,7 +16757,7 @@
         <v>125</v>
       </c>
       <c r="P76" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -17166,7 +17169,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q78">
         <v>2.75</v>
@@ -17372,7 +17375,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17578,7 +17581,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q80">
         <v>2.2</v>
@@ -17784,7 +17787,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q81">
         <v>2.31</v>
@@ -18068,7 +18071,7 @@
         <v>0.25</v>
       </c>
       <c r="AP82">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ82">
         <v>0.5600000000000001</v>
@@ -18196,7 +18199,7 @@
         <v>151</v>
       </c>
       <c r="P83" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q83">
         <v>2.7</v>
@@ -18483,7 +18486,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ84">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR84">
         <v>1.53</v>
@@ -18608,7 +18611,7 @@
         <v>153</v>
       </c>
       <c r="P85" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q85">
         <v>3.5</v>
@@ -18814,7 +18817,7 @@
         <v>154</v>
       </c>
       <c r="P86" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q86">
         <v>2.55</v>
@@ -19020,7 +19023,7 @@
         <v>155</v>
       </c>
       <c r="P87" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q87">
         <v>2.27</v>
@@ -19432,7 +19435,7 @@
         <v>156</v>
       </c>
       <c r="P89" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q89">
         <v>2.8</v>
@@ -19638,7 +19641,7 @@
         <v>157</v>
       </c>
       <c r="P90" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q90">
         <v>2.6</v>
@@ -19844,7 +19847,7 @@
         <v>158</v>
       </c>
       <c r="P91" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -20050,7 +20053,7 @@
         <v>159</v>
       </c>
       <c r="P92" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q92">
         <v>3.6</v>
@@ -20462,7 +20465,7 @@
         <v>161</v>
       </c>
       <c r="P94" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q94">
         <v>2.1</v>
@@ -20668,7 +20671,7 @@
         <v>162</v>
       </c>
       <c r="P95" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q95">
         <v>2.17</v>
@@ -21286,7 +21289,7 @@
         <v>149</v>
       </c>
       <c r="P98" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q98">
         <v>3.54</v>
@@ -21492,7 +21495,7 @@
         <v>165</v>
       </c>
       <c r="P99" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q99">
         <v>3.35</v>
@@ -21779,7 +21782,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ100">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR100">
         <v>1.53</v>
@@ -21904,7 +21907,7 @@
         <v>167</v>
       </c>
       <c r="P101" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q101">
         <v>2.96</v>
@@ -22110,7 +22113,7 @@
         <v>168</v>
       </c>
       <c r="P102" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q102">
         <v>2.44</v>
@@ -22316,7 +22319,7 @@
         <v>103</v>
       </c>
       <c r="P103" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q103">
         <v>1.81</v>
@@ -22728,7 +22731,7 @@
         <v>170</v>
       </c>
       <c r="P105" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q105">
         <v>2.69</v>
@@ -22934,7 +22937,7 @@
         <v>171</v>
       </c>
       <c r="P106" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q106">
         <v>2.56</v>
@@ -23552,7 +23555,7 @@
         <v>174</v>
       </c>
       <c r="P109" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q109">
         <v>3.5</v>
@@ -23630,7 +23633,7 @@
         <v>1.17</v>
       </c>
       <c r="AP109">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ109">
         <v>1.44</v>
@@ -23758,7 +23761,7 @@
         <v>175</v>
       </c>
       <c r="P110" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q110">
         <v>2.43</v>
@@ -23964,7 +23967,7 @@
         <v>103</v>
       </c>
       <c r="P111" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q111">
         <v>3.02</v>
@@ -24376,7 +24379,7 @@
         <v>103</v>
       </c>
       <c r="P113" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q113">
         <v>2.85</v>
@@ -24994,7 +24997,7 @@
         <v>177</v>
       </c>
       <c r="P116" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q116">
         <v>4.5</v>
@@ -25406,7 +25409,7 @@
         <v>103</v>
       </c>
       <c r="P118" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q118">
         <v>3.2</v>
@@ -25896,7 +25899,7 @@
         <v>1.29</v>
       </c>
       <c r="AP120">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ120">
         <v>1.11</v>
@@ -26024,7 +26027,7 @@
         <v>180</v>
       </c>
       <c r="P121" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q121">
         <v>2.38</v>
@@ -26436,7 +26439,7 @@
         <v>170</v>
       </c>
       <c r="P123" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q123">
         <v>2.51</v>
@@ -26642,7 +26645,7 @@
         <v>182</v>
       </c>
       <c r="P124" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q124">
         <v>2.46</v>
@@ -26848,7 +26851,7 @@
         <v>183</v>
       </c>
       <c r="P125" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q125">
         <v>3.68</v>
@@ -27054,7 +27057,7 @@
         <v>184</v>
       </c>
       <c r="P126" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q126">
         <v>1.95</v>
@@ -27672,7 +27675,7 @@
         <v>187</v>
       </c>
       <c r="P129" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q129">
         <v>3</v>
@@ -27878,7 +27881,7 @@
         <v>103</v>
       </c>
       <c r="P130" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q130">
         <v>2.88</v>
@@ -28084,7 +28087,7 @@
         <v>103</v>
       </c>
       <c r="P131" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q131">
         <v>3.04</v>
@@ -28165,7 +28168,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ131">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR131">
         <v>1.24</v>
@@ -28290,7 +28293,7 @@
         <v>103</v>
       </c>
       <c r="P132" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q132">
         <v>3.75</v>
@@ -28496,7 +28499,7 @@
         <v>103</v>
       </c>
       <c r="P133" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q133">
         <v>3.2</v>
@@ -28702,7 +28705,7 @@
         <v>103</v>
       </c>
       <c r="P134" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q134">
         <v>2.69</v>
@@ -28908,7 +28911,7 @@
         <v>188</v>
       </c>
       <c r="P135" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q135">
         <v>2.75</v>
@@ -29526,7 +29529,7 @@
         <v>190</v>
       </c>
       <c r="P138" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q138">
         <v>3.6</v>
@@ -29604,7 +29607,7 @@
         <v>1.13</v>
       </c>
       <c r="AP138">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ138">
         <v>1.33</v>
@@ -29732,7 +29735,7 @@
         <v>191</v>
       </c>
       <c r="P139" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q139">
         <v>2.61</v>
@@ -30350,7 +30353,7 @@
         <v>194</v>
       </c>
       <c r="P142" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q142">
         <v>2.2</v>
@@ -30556,7 +30559,7 @@
         <v>195</v>
       </c>
       <c r="P143" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q143">
         <v>2.75</v>
@@ -30762,7 +30765,7 @@
         <v>103</v>
       </c>
       <c r="P144" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q144">
         <v>3.44</v>
@@ -30843,7 +30846,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ144">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR144">
         <v>1.67</v>
@@ -30968,7 +30971,7 @@
         <v>91</v>
       </c>
       <c r="P145" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q145">
         <v>2.02</v>
@@ -31174,7 +31177,7 @@
         <v>196</v>
       </c>
       <c r="P146" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q146">
         <v>3.75</v>
@@ -31998,7 +32001,7 @@
         <v>199</v>
       </c>
       <c r="P150" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q150">
         <v>1.8</v>
@@ -32204,7 +32207,7 @@
         <v>200</v>
       </c>
       <c r="P151" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q151">
         <v>2.48</v>
@@ -32410,7 +32413,7 @@
         <v>201</v>
       </c>
       <c r="P152" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q152">
         <v>3.4</v>
@@ -32567,6 +32570,212 @@
       </c>
       <c r="BP152">
         <v>1.76</v>
+      </c>
+    </row>
+    <row r="153" spans="1:68">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>7296417</v>
+      </c>
+      <c r="C153" t="s">
+        <v>68</v>
+      </c>
+      <c r="D153" t="s">
+        <v>69</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45524.58333333334</v>
+      </c>
+      <c r="F153">
+        <v>19</v>
+      </c>
+      <c r="G153" t="s">
+        <v>74</v>
+      </c>
+      <c r="H153" t="s">
+        <v>73</v>
+      </c>
+      <c r="I153">
+        <v>1</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>1</v>
+      </c>
+      <c r="L153">
+        <v>2</v>
+      </c>
+      <c r="M153">
+        <v>0</v>
+      </c>
+      <c r="N153">
+        <v>2</v>
+      </c>
+      <c r="O153" t="s">
+        <v>202</v>
+      </c>
+      <c r="P153" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q153">
+        <v>3.3</v>
+      </c>
+      <c r="R153">
+        <v>2.48</v>
+      </c>
+      <c r="S153">
+        <v>2.76</v>
+      </c>
+      <c r="T153">
+        <v>1.27</v>
+      </c>
+      <c r="U153">
+        <v>3.54</v>
+      </c>
+      <c r="V153">
+        <v>2.25</v>
+      </c>
+      <c r="W153">
+        <v>1.6</v>
+      </c>
+      <c r="X153">
+        <v>5.1</v>
+      </c>
+      <c r="Y153">
+        <v>1.15</v>
+      </c>
+      <c r="Z153">
+        <v>2.81</v>
+      </c>
+      <c r="AA153">
+        <v>3.8</v>
+      </c>
+      <c r="AB153">
+        <v>2.1</v>
+      </c>
+      <c r="AC153">
+        <v>1.03</v>
+      </c>
+      <c r="AD153">
+        <v>18.5</v>
+      </c>
+      <c r="AE153">
+        <v>1.18</v>
+      </c>
+      <c r="AF153">
+        <v>4.88</v>
+      </c>
+      <c r="AG153">
+        <v>1.5</v>
+      </c>
+      <c r="AH153">
+        <v>2.41</v>
+      </c>
+      <c r="AI153">
+        <v>1.46</v>
+      </c>
+      <c r="AJ153">
+        <v>2.63</v>
+      </c>
+      <c r="AK153">
+        <v>1.65</v>
+      </c>
+      <c r="AL153">
+        <v>1.25</v>
+      </c>
+      <c r="AM153">
+        <v>1.44</v>
+      </c>
+      <c r="AN153">
+        <v>1.11</v>
+      </c>
+      <c r="AO153">
+        <v>1.25</v>
+      </c>
+      <c r="AP153">
+        <v>1.3</v>
+      </c>
+      <c r="AQ153">
+        <v>1.11</v>
+      </c>
+      <c r="AR153">
+        <v>1.6</v>
+      </c>
+      <c r="AS153">
+        <v>1.41</v>
+      </c>
+      <c r="AT153">
+        <v>3.01</v>
+      </c>
+      <c r="AU153">
+        <v>3</v>
+      </c>
+      <c r="AV153">
+        <v>6</v>
+      </c>
+      <c r="AW153">
+        <v>5</v>
+      </c>
+      <c r="AX153">
+        <v>8</v>
+      </c>
+      <c r="AY153">
+        <v>8</v>
+      </c>
+      <c r="AZ153">
+        <v>14</v>
+      </c>
+      <c r="BA153">
+        <v>3</v>
+      </c>
+      <c r="BB153">
+        <v>15</v>
+      </c>
+      <c r="BC153">
+        <v>18</v>
+      </c>
+      <c r="BD153">
+        <v>2.1</v>
+      </c>
+      <c r="BE153">
+        <v>8.5</v>
+      </c>
+      <c r="BF153">
+        <v>1.91</v>
+      </c>
+      <c r="BG153">
+        <v>0</v>
+      </c>
+      <c r="BH153">
+        <v>0</v>
+      </c>
+      <c r="BI153">
+        <v>1.24</v>
+      </c>
+      <c r="BJ153">
+        <v>3.8</v>
+      </c>
+      <c r="BK153">
+        <v>1.44</v>
+      </c>
+      <c r="BL153">
+        <v>2.65</v>
+      </c>
+      <c r="BM153">
+        <v>1.75</v>
+      </c>
+      <c r="BN153">
+        <v>2</v>
+      </c>
+      <c r="BO153">
+        <v>2.23</v>
+      </c>
+      <c r="BP153">
+        <v>1.61</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="295">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -625,6 +625,9 @@
     <t>['22', '79']</t>
   </si>
   <si>
+    <t>['22', '24', '62', '81']</t>
+  </si>
+  <si>
     <t>['90+1']</t>
   </si>
   <si>
@@ -893,6 +896,9 @@
   </si>
   <si>
     <t>['68', '71', '78']</t>
+  </si>
+  <si>
+    <t>['3', '28']</t>
   </si>
 </sst>
 </file>
@@ -1254,7 +1260,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP153"/>
+  <dimension ref="A1:BP154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1513,7 +1519,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q2">
         <v>2.84</v>
@@ -1719,7 +1725,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q3">
         <v>2.2</v>
@@ -1925,7 +1931,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -2003,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ4">
         <v>1.2</v>
@@ -2337,7 +2343,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q6">
         <v>2.35</v>
@@ -2543,7 +2549,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q7">
         <v>2.66</v>
@@ -2749,7 +2755,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q8">
         <v>2.8</v>
@@ -3036,7 +3042,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ9">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3161,7 +3167,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3367,7 +3373,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3573,7 +3579,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -4191,7 +4197,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q15">
         <v>2.05</v>
@@ -4603,7 +4609,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q17">
         <v>2.15</v>
@@ -4681,7 +4687,7 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ17">
         <v>1.3</v>
@@ -4809,7 +4815,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q18">
         <v>2.15</v>
@@ -5633,7 +5639,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q22">
         <v>2.76</v>
@@ -5839,7 +5845,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q23">
         <v>2.85</v>
@@ -6045,7 +6051,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q24">
         <v>2.05</v>
@@ -6126,7 +6132,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ24">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR24">
         <v>1.52</v>
@@ -6663,7 +6669,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -7075,7 +7081,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q29">
         <v>2.25</v>
@@ -7487,7 +7493,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7899,7 +7905,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q33">
         <v>3.05</v>
@@ -8105,7 +8111,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q34">
         <v>2.26</v>
@@ -8311,7 +8317,7 @@
         <v>115</v>
       </c>
       <c r="P35" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q35">
         <v>3.46</v>
@@ -8723,7 +8729,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q37">
         <v>2.72</v>
@@ -8929,7 +8935,7 @@
         <v>118</v>
       </c>
       <c r="P38" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q38">
         <v>4.55</v>
@@ -9135,7 +9141,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q39">
         <v>2.78</v>
@@ -9625,7 +9631,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ41">
         <v>1.33</v>
@@ -9959,7 +9965,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q43">
         <v>3.11</v>
@@ -10165,7 +10171,7 @@
         <v>123</v>
       </c>
       <c r="P44" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q44">
         <v>3.3</v>
@@ -10371,7 +10377,7 @@
         <v>94</v>
       </c>
       <c r="P45" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q45">
         <v>2.4</v>
@@ -10452,7 +10458,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ45">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR45">
         <v>2.74</v>
@@ -11401,7 +11407,7 @@
         <v>103</v>
       </c>
       <c r="P50" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q50">
         <v>3.89</v>
@@ -11607,7 +11613,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q51">
         <v>2.61</v>
@@ -11813,7 +11819,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -12019,7 +12025,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q53">
         <v>2.05</v>
@@ -12843,7 +12849,7 @@
         <v>103</v>
       </c>
       <c r="P57" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q57">
         <v>2.57</v>
@@ -13049,7 +13055,7 @@
         <v>132</v>
       </c>
       <c r="P58" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q58">
         <v>2.3</v>
@@ -13255,7 +13261,7 @@
         <v>103</v>
       </c>
       <c r="P59" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q59">
         <v>2.75</v>
@@ -13461,7 +13467,7 @@
         <v>103</v>
       </c>
       <c r="P60" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q60">
         <v>2.32</v>
@@ -13539,7 +13545,7 @@
         <v>1.33</v>
       </c>
       <c r="AP60">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ60">
         <v>1.3</v>
@@ -13873,7 +13879,7 @@
         <v>134</v>
       </c>
       <c r="P62" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q62">
         <v>2.39</v>
@@ -13954,7 +13960,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ62">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR62">
         <v>1.79</v>
@@ -14079,7 +14085,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q63">
         <v>2.84</v>
@@ -14285,7 +14291,7 @@
         <v>136</v>
       </c>
       <c r="P64" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q64">
         <v>2.7</v>
@@ -14491,7 +14497,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -14903,7 +14909,7 @@
         <v>139</v>
       </c>
       <c r="P67" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q67">
         <v>2.5</v>
@@ -15521,7 +15527,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q70">
         <v>1.85</v>
@@ -15933,7 +15939,7 @@
         <v>143</v>
       </c>
       <c r="P72" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q72">
         <v>2.24</v>
@@ -16011,7 +16017,7 @@
         <v>1.2</v>
       </c>
       <c r="AP72">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ72">
         <v>1.1</v>
@@ -16139,7 +16145,7 @@
         <v>103</v>
       </c>
       <c r="P73" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q73">
         <v>3.66</v>
@@ -16345,7 +16351,7 @@
         <v>144</v>
       </c>
       <c r="P74" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q74">
         <v>2.4</v>
@@ -16551,7 +16557,7 @@
         <v>145</v>
       </c>
       <c r="P75" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q75">
         <v>2.38</v>
@@ -16757,7 +16763,7 @@
         <v>125</v>
       </c>
       <c r="P76" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -17044,7 +17050,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ77">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR77">
         <v>1.11</v>
@@ -17169,7 +17175,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q78">
         <v>2.75</v>
@@ -17375,7 +17381,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17581,7 +17587,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q80">
         <v>2.2</v>
@@ -17787,7 +17793,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q81">
         <v>2.31</v>
@@ -18199,7 +18205,7 @@
         <v>151</v>
       </c>
       <c r="P83" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q83">
         <v>2.7</v>
@@ -18611,7 +18617,7 @@
         <v>153</v>
       </c>
       <c r="P85" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q85">
         <v>3.5</v>
@@ -18817,7 +18823,7 @@
         <v>154</v>
       </c>
       <c r="P86" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q86">
         <v>2.55</v>
@@ -19023,7 +19029,7 @@
         <v>155</v>
       </c>
       <c r="P87" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q87">
         <v>2.27</v>
@@ -19435,7 +19441,7 @@
         <v>156</v>
       </c>
       <c r="P89" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q89">
         <v>2.8</v>
@@ -19641,7 +19647,7 @@
         <v>157</v>
       </c>
       <c r="P90" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q90">
         <v>2.6</v>
@@ -19847,7 +19853,7 @@
         <v>158</v>
       </c>
       <c r="P91" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -19928,7 +19934,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ91">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR91">
         <v>1.98</v>
@@ -20053,7 +20059,7 @@
         <v>159</v>
       </c>
       <c r="P92" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q92">
         <v>3.6</v>
@@ -20465,7 +20471,7 @@
         <v>161</v>
       </c>
       <c r="P94" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q94">
         <v>2.1</v>
@@ -20543,7 +20549,7 @@
         <v>1.4</v>
       </c>
       <c r="AP94">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ94">
         <v>1.44</v>
@@ -20671,7 +20677,7 @@
         <v>162</v>
       </c>
       <c r="P95" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q95">
         <v>2.17</v>
@@ -21289,7 +21295,7 @@
         <v>149</v>
       </c>
       <c r="P98" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q98">
         <v>3.54</v>
@@ -21495,7 +21501,7 @@
         <v>165</v>
       </c>
       <c r="P99" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q99">
         <v>3.35</v>
@@ -21907,7 +21913,7 @@
         <v>167</v>
       </c>
       <c r="P101" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q101">
         <v>2.96</v>
@@ -22113,7 +22119,7 @@
         <v>168</v>
       </c>
       <c r="P102" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q102">
         <v>2.44</v>
@@ -22319,7 +22325,7 @@
         <v>103</v>
       </c>
       <c r="P103" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q103">
         <v>1.81</v>
@@ -22731,7 +22737,7 @@
         <v>170</v>
       </c>
       <c r="P105" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q105">
         <v>2.69</v>
@@ -22937,7 +22943,7 @@
         <v>171</v>
       </c>
       <c r="P106" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q106">
         <v>2.56</v>
@@ -23427,7 +23433,7 @@
         <v>0.2</v>
       </c>
       <c r="AP108">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ108">
         <v>0.5600000000000001</v>
@@ -23555,7 +23561,7 @@
         <v>174</v>
       </c>
       <c r="P109" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q109">
         <v>3.5</v>
@@ -23761,7 +23767,7 @@
         <v>175</v>
       </c>
       <c r="P110" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q110">
         <v>2.43</v>
@@ -23842,7 +23848,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ110">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR110">
         <v>1.76</v>
@@ -23967,7 +23973,7 @@
         <v>103</v>
       </c>
       <c r="P111" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q111">
         <v>3.02</v>
@@ -24379,7 +24385,7 @@
         <v>103</v>
       </c>
       <c r="P113" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q113">
         <v>2.85</v>
@@ -24997,7 +25003,7 @@
         <v>177</v>
       </c>
       <c r="P116" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q116">
         <v>4.5</v>
@@ -25409,7 +25415,7 @@
         <v>103</v>
       </c>
       <c r="P118" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q118">
         <v>3.2</v>
@@ -26027,7 +26033,7 @@
         <v>180</v>
       </c>
       <c r="P121" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q121">
         <v>2.38</v>
@@ -26439,7 +26445,7 @@
         <v>170</v>
       </c>
       <c r="P123" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q123">
         <v>2.51</v>
@@ -26645,7 +26651,7 @@
         <v>182</v>
       </c>
       <c r="P124" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q124">
         <v>2.46</v>
@@ -26851,7 +26857,7 @@
         <v>183</v>
       </c>
       <c r="P125" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q125">
         <v>3.68</v>
@@ -26932,7 +26938,7 @@
         <v>1</v>
       </c>
       <c r="AQ125">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR125">
         <v>1.44</v>
@@ -27057,7 +27063,7 @@
         <v>184</v>
       </c>
       <c r="P126" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q126">
         <v>1.95</v>
@@ -27135,7 +27141,7 @@
         <v>0.88</v>
       </c>
       <c r="AP126">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ126">
         <v>0.7</v>
@@ -27675,7 +27681,7 @@
         <v>187</v>
       </c>
       <c r="P129" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q129">
         <v>3</v>
@@ -27881,7 +27887,7 @@
         <v>103</v>
       </c>
       <c r="P130" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q130">
         <v>2.88</v>
@@ -28087,7 +28093,7 @@
         <v>103</v>
       </c>
       <c r="P131" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q131">
         <v>3.04</v>
@@ -28293,7 +28299,7 @@
         <v>103</v>
       </c>
       <c r="P132" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q132">
         <v>3.75</v>
@@ -28499,7 +28505,7 @@
         <v>103</v>
       </c>
       <c r="P133" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q133">
         <v>3.2</v>
@@ -28705,7 +28711,7 @@
         <v>103</v>
       </c>
       <c r="P134" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q134">
         <v>2.69</v>
@@ -28911,7 +28917,7 @@
         <v>188</v>
       </c>
       <c r="P135" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q135">
         <v>2.75</v>
@@ -29529,7 +29535,7 @@
         <v>190</v>
       </c>
       <c r="P138" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q138">
         <v>3.6</v>
@@ -29735,7 +29741,7 @@
         <v>191</v>
       </c>
       <c r="P139" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q139">
         <v>2.61</v>
@@ -30225,7 +30231,7 @@
         <v>1.25</v>
       </c>
       <c r="AP141">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ141">
         <v>1.11</v>
@@ -30353,7 +30359,7 @@
         <v>194</v>
       </c>
       <c r="P142" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q142">
         <v>2.2</v>
@@ -30559,7 +30565,7 @@
         <v>195</v>
       </c>
       <c r="P143" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q143">
         <v>2.75</v>
@@ -30640,7 +30646,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ143">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR143">
         <v>1.83</v>
@@ -30765,7 +30771,7 @@
         <v>103</v>
       </c>
       <c r="P144" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q144">
         <v>3.44</v>
@@ -30971,7 +30977,7 @@
         <v>91</v>
       </c>
       <c r="P145" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q145">
         <v>2.02</v>
@@ -31177,7 +31183,7 @@
         <v>196</v>
       </c>
       <c r="P146" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q146">
         <v>3.75</v>
@@ -32001,7 +32007,7 @@
         <v>199</v>
       </c>
       <c r="P150" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q150">
         <v>1.8</v>
@@ -32207,7 +32213,7 @@
         <v>200</v>
       </c>
       <c r="P151" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q151">
         <v>2.48</v>
@@ -32413,7 +32419,7 @@
         <v>201</v>
       </c>
       <c r="P152" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q152">
         <v>3.4</v>
@@ -32776,6 +32782,212 @@
       </c>
       <c r="BP153">
         <v>1.61</v>
+      </c>
+    </row>
+    <row r="154" spans="1:68">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>7296425</v>
+      </c>
+      <c r="C154" t="s">
+        <v>68</v>
+      </c>
+      <c r="D154" t="s">
+        <v>69</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45528.54166666666</v>
+      </c>
+      <c r="F154">
+        <v>20</v>
+      </c>
+      <c r="G154" t="s">
+        <v>72</v>
+      </c>
+      <c r="H154" t="s">
+        <v>84</v>
+      </c>
+      <c r="I154">
+        <v>2</v>
+      </c>
+      <c r="J154">
+        <v>2</v>
+      </c>
+      <c r="K154">
+        <v>4</v>
+      </c>
+      <c r="L154">
+        <v>4</v>
+      </c>
+      <c r="M154">
+        <v>2</v>
+      </c>
+      <c r="N154">
+        <v>6</v>
+      </c>
+      <c r="O154" t="s">
+        <v>203</v>
+      </c>
+      <c r="P154" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q154">
+        <v>1.91</v>
+      </c>
+      <c r="R154">
+        <v>2.59</v>
+      </c>
+      <c r="S154">
+        <v>5.1</v>
+      </c>
+      <c r="T154">
+        <v>1.24</v>
+      </c>
+      <c r="U154">
+        <v>3.8</v>
+      </c>
+      <c r="V154">
+        <v>2.11</v>
+      </c>
+      <c r="W154">
+        <v>1.7</v>
+      </c>
+      <c r="X154">
+        <v>4.4</v>
+      </c>
+      <c r="Y154">
+        <v>1.18</v>
+      </c>
+      <c r="Z154">
+        <v>1.4</v>
+      </c>
+      <c r="AA154">
+        <v>4.9</v>
+      </c>
+      <c r="AB154">
+        <v>5.5</v>
+      </c>
+      <c r="AC154">
+        <v>1.02</v>
+      </c>
+      <c r="AD154">
+        <v>23</v>
+      </c>
+      <c r="AE154">
+        <v>1.1</v>
+      </c>
+      <c r="AF154">
+        <v>5.55</v>
+      </c>
+      <c r="AG154">
+        <v>1.42</v>
+      </c>
+      <c r="AH154">
+        <v>2.65</v>
+      </c>
+      <c r="AI154">
+        <v>1.58</v>
+      </c>
+      <c r="AJ154">
+        <v>2.35</v>
+      </c>
+      <c r="AK154">
+        <v>1.17</v>
+      </c>
+      <c r="AL154">
+        <v>1.22</v>
+      </c>
+      <c r="AM154">
+        <v>2.45</v>
+      </c>
+      <c r="AN154">
+        <v>2.11</v>
+      </c>
+      <c r="AO154">
+        <v>1.33</v>
+      </c>
+      <c r="AP154">
+        <v>2.2</v>
+      </c>
+      <c r="AQ154">
+        <v>1.2</v>
+      </c>
+      <c r="AR154">
+        <v>2.02</v>
+      </c>
+      <c r="AS154">
+        <v>1.79</v>
+      </c>
+      <c r="AT154">
+        <v>3.81</v>
+      </c>
+      <c r="AU154">
+        <v>8</v>
+      </c>
+      <c r="AV154">
+        <v>8</v>
+      </c>
+      <c r="AW154">
+        <v>6</v>
+      </c>
+      <c r="AX154">
+        <v>4</v>
+      </c>
+      <c r="AY154">
+        <v>14</v>
+      </c>
+      <c r="AZ154">
+        <v>12</v>
+      </c>
+      <c r="BA154">
+        <v>7</v>
+      </c>
+      <c r="BB154">
+        <v>7</v>
+      </c>
+      <c r="BC154">
+        <v>14</v>
+      </c>
+      <c r="BD154">
+        <v>1.41</v>
+      </c>
+      <c r="BE154">
+        <v>9.5</v>
+      </c>
+      <c r="BF154">
+        <v>3.35</v>
+      </c>
+      <c r="BG154">
+        <v>0</v>
+      </c>
+      <c r="BH154">
+        <v>0</v>
+      </c>
+      <c r="BI154">
+        <v>1.24</v>
+      </c>
+      <c r="BJ154">
+        <v>3.48</v>
+      </c>
+      <c r="BK154">
+        <v>1.44</v>
+      </c>
+      <c r="BL154">
+        <v>2.51</v>
+      </c>
+      <c r="BM154">
+        <v>1.85</v>
+      </c>
+      <c r="BN154">
+        <v>1.95</v>
+      </c>
+      <c r="BO154">
+        <v>2.19</v>
+      </c>
+      <c r="BP154">
+        <v>1.57</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="296">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -900,6 +900,9 @@
   <si>
     <t>['3', '28']</t>
   </si>
+  <si>
+    <t>['23', '62']</t>
+  </si>
 </sst>
 </file>
 
@@ -1260,7 +1263,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP154"/>
+  <dimension ref="A1:BP155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1806,7 +1809,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ3">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -4275,7 +4278,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ15">
         <v>0.89</v>
@@ -5308,7 +5311,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ20">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR20">
         <v>1.13</v>
@@ -6335,7 +6338,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ25">
         <v>1.44</v>
@@ -9222,7 +9225,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ39">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR39">
         <v>1.22</v>
@@ -9840,7 +9843,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ42">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR42">
         <v>1.34</v>
@@ -12103,7 +12106,7 @@
         <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ53">
         <v>0.5600000000000001</v>
@@ -13136,7 +13139,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ58">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR58">
         <v>1.49</v>
@@ -15193,7 +15196,7 @@
         <v>1.25</v>
       </c>
       <c r="AP68">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ68">
         <v>1.11</v>
@@ -16638,7 +16641,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ75">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR75">
         <v>1.76</v>
@@ -18283,7 +18286,7 @@
         <v>1.2</v>
       </c>
       <c r="AP83">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ83">
         <v>1.3</v>
@@ -19522,7 +19525,7 @@
         <v>1</v>
       </c>
       <c r="AQ89">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR89">
         <v>1.53</v>
@@ -19725,7 +19728,7 @@
         <v>2.17</v>
       </c>
       <c r="AP90">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ90">
         <v>2</v>
@@ -22609,7 +22612,7 @@
         <v>1.83</v>
       </c>
       <c r="AP104">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ104">
         <v>1.3</v>
@@ -22818,7 +22821,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ105">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR105">
         <v>1.33</v>
@@ -26317,7 +26320,7 @@
         <v>0.29</v>
       </c>
       <c r="AP122">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ122">
         <v>0.3</v>
@@ -27144,7 +27147,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ126">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR126">
         <v>2.04</v>
@@ -29410,7 +29413,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ137">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR137">
         <v>1.94</v>
@@ -29819,7 +29822,7 @@
         <v>1.11</v>
       </c>
       <c r="AP139">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ139">
         <v>1.1</v>
@@ -32988,6 +32991,212 @@
       </c>
       <c r="BP154">
         <v>1.57</v>
+      </c>
+    </row>
+    <row r="155" spans="1:68">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>7296419</v>
+      </c>
+      <c r="C155" t="s">
+        <v>68</v>
+      </c>
+      <c r="D155" t="s">
+        <v>69</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45529.5</v>
+      </c>
+      <c r="F155">
+        <v>20</v>
+      </c>
+      <c r="G155" t="s">
+        <v>83</v>
+      </c>
+      <c r="H155" t="s">
+        <v>80</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>1</v>
+      </c>
+      <c r="K155">
+        <v>1</v>
+      </c>
+      <c r="L155">
+        <v>0</v>
+      </c>
+      <c r="M155">
+        <v>2</v>
+      </c>
+      <c r="N155">
+        <v>2</v>
+      </c>
+      <c r="O155" t="s">
+        <v>103</v>
+      </c>
+      <c r="P155" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q155">
+        <v>2.5</v>
+      </c>
+      <c r="R155">
+        <v>2.3</v>
+      </c>
+      <c r="S155">
+        <v>3.5</v>
+      </c>
+      <c r="T155">
+        <v>1.27</v>
+      </c>
+      <c r="U155">
+        <v>3.3</v>
+      </c>
+      <c r="V155">
+        <v>2.28</v>
+      </c>
+      <c r="W155">
+        <v>1.6</v>
+      </c>
+      <c r="X155">
+        <v>4.5</v>
+      </c>
+      <c r="Y155">
+        <v>1.15</v>
+      </c>
+      <c r="Z155">
+        <v>2.17</v>
+      </c>
+      <c r="AA155">
+        <v>3.87</v>
+      </c>
+      <c r="AB155">
+        <v>2.82</v>
+      </c>
+      <c r="AC155">
+        <v>1.03</v>
+      </c>
+      <c r="AD155">
+        <v>9</v>
+      </c>
+      <c r="AE155">
+        <v>1.13</v>
+      </c>
+      <c r="AF155">
+        <v>4.9</v>
+      </c>
+      <c r="AG155">
+        <v>1.53</v>
+      </c>
+      <c r="AH155">
+        <v>2.34</v>
+      </c>
+      <c r="AI155">
+        <v>1.5</v>
+      </c>
+      <c r="AJ155">
+        <v>2.55</v>
+      </c>
+      <c r="AK155">
+        <v>1.38</v>
+      </c>
+      <c r="AL155">
+        <v>1.28</v>
+      </c>
+      <c r="AM155">
+        <v>1.7</v>
+      </c>
+      <c r="AN155">
+        <v>2</v>
+      </c>
+      <c r="AO155">
+        <v>0.7</v>
+      </c>
+      <c r="AP155">
+        <v>1.8</v>
+      </c>
+      <c r="AQ155">
+        <v>0.91</v>
+      </c>
+      <c r="AR155">
+        <v>1.65</v>
+      </c>
+      <c r="AS155">
+        <v>1.49</v>
+      </c>
+      <c r="AT155">
+        <v>3.14</v>
+      </c>
+      <c r="AU155">
+        <v>0</v>
+      </c>
+      <c r="AV155">
+        <v>5</v>
+      </c>
+      <c r="AW155">
+        <v>7</v>
+      </c>
+      <c r="AX155">
+        <v>1</v>
+      </c>
+      <c r="AY155">
+        <v>7</v>
+      </c>
+      <c r="AZ155">
+        <v>6</v>
+      </c>
+      <c r="BA155">
+        <v>6</v>
+      </c>
+      <c r="BB155">
+        <v>4</v>
+      </c>
+      <c r="BC155">
+        <v>10</v>
+      </c>
+      <c r="BD155">
+        <v>1.75</v>
+      </c>
+      <c r="BE155">
+        <v>8.5</v>
+      </c>
+      <c r="BF155">
+        <v>2.41</v>
+      </c>
+      <c r="BG155">
+        <v>0</v>
+      </c>
+      <c r="BH155">
+        <v>0</v>
+      </c>
+      <c r="BI155">
+        <v>1.27</v>
+      </c>
+      <c r="BJ155">
+        <v>3.4</v>
+      </c>
+      <c r="BK155">
+        <v>1.47</v>
+      </c>
+      <c r="BL155">
+        <v>2.5</v>
+      </c>
+      <c r="BM155">
+        <v>1.88</v>
+      </c>
+      <c r="BN155">
+        <v>1.92</v>
+      </c>
+      <c r="BO155">
+        <v>2.18</v>
+      </c>
+      <c r="BP155">
+        <v>1.61</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="303">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -628,6 +628,18 @@
     <t>['22', '24', '62', '81']</t>
   </si>
   <si>
+    <t>['19', '74', '90+3']</t>
+  </si>
+  <si>
+    <t>['81']</t>
+  </si>
+  <si>
+    <t>['39', '56']</t>
+  </si>
+  <si>
+    <t>['80']</t>
+  </si>
+  <si>
     <t>['90+1']</t>
   </si>
   <si>
@@ -868,9 +880,6 @@
     <t>['32', '90+7']</t>
   </si>
   <si>
-    <t>['81']</t>
-  </si>
-  <si>
     <t>['5', '17', '46', '55', '60']</t>
   </si>
   <si>
@@ -902,6 +911,18 @@
   </si>
   <si>
     <t>['23', '62']</t>
+  </si>
+  <si>
+    <t>['62', '90']</t>
+  </si>
+  <si>
+    <t>['72', '77']</t>
+  </si>
+  <si>
+    <t>['57', '90']</t>
+  </si>
+  <si>
+    <t>['39']</t>
   </si>
 </sst>
 </file>
@@ -1263,7 +1284,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP155"/>
+  <dimension ref="A1:BP160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1522,7 +1543,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q2">
         <v>2.84</v>
@@ -1728,7 +1749,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q3">
         <v>2.2</v>
@@ -1934,7 +1955,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -2218,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ5">
         <v>1.3</v>
@@ -2346,7 +2367,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q6">
         <v>2.35</v>
@@ -2427,7 +2448,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ6">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2552,7 +2573,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q7">
         <v>2.66</v>
@@ -2630,10 +2651,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ7">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2758,7 +2779,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q8">
         <v>2.8</v>
@@ -3170,7 +3191,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3248,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ10">
         <v>1.11</v>
@@ -3376,7 +3397,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3582,7 +3603,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3866,10 +3887,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ13">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4075,7 +4096,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ14">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4200,7 +4221,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q15">
         <v>2.05</v>
@@ -4612,7 +4633,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q17">
         <v>2.15</v>
@@ -4818,7 +4839,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q18">
         <v>2.15</v>
@@ -5105,7 +5126,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ19">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR19">
         <v>1.35</v>
@@ -5517,7 +5538,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ21">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR21">
         <v>1.74</v>
@@ -5642,7 +5663,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q22">
         <v>2.76</v>
@@ -5848,7 +5869,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q23">
         <v>2.85</v>
@@ -5926,7 +5947,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ23">
         <v>0.3</v>
@@ -6054,7 +6075,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q24">
         <v>2.05</v>
@@ -6132,7 +6153,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ24">
         <v>1.2</v>
@@ -6341,7 +6362,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ25">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR25">
         <v>1.76</v>
@@ -6544,7 +6565,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ26">
         <v>0.5600000000000001</v>
@@ -6672,7 +6693,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6959,7 +6980,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ28">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR28">
         <v>0.98</v>
@@ -7084,7 +7105,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q29">
         <v>2.25</v>
@@ -7165,7 +7186,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ29">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR29">
         <v>1.26</v>
@@ -7368,7 +7389,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ30">
         <v>1.11</v>
@@ -7496,7 +7517,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7908,7 +7929,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q33">
         <v>3.05</v>
@@ -7989,7 +8010,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ33">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR33">
         <v>1.74</v>
@@ -8114,7 +8135,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q34">
         <v>2.26</v>
@@ -8192,10 +8213,10 @@
         <v>0.5</v>
       </c>
       <c r="AP34">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ34">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR34">
         <v>1.33</v>
@@ -8320,7 +8341,7 @@
         <v>115</v>
       </c>
       <c r="P35" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q35">
         <v>3.46</v>
@@ -8732,7 +8753,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q37">
         <v>2.72</v>
@@ -8938,7 +8959,7 @@
         <v>118</v>
       </c>
       <c r="P38" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q38">
         <v>4.55</v>
@@ -9016,7 +9037,7 @@
         <v>2</v>
       </c>
       <c r="AP38">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ38">
         <v>2.3</v>
@@ -9144,7 +9165,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q39">
         <v>2.78</v>
@@ -9431,7 +9452,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ40">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR40">
         <v>0.79</v>
@@ -9637,7 +9658,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ41">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR41">
         <v>2.44</v>
@@ -9840,7 +9861,7 @@
         <v>0.33</v>
       </c>
       <c r="AP42">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ42">
         <v>0.91</v>
@@ -9968,7 +9989,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q43">
         <v>3.11</v>
@@ -10049,7 +10070,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ43">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR43">
         <v>1.39</v>
@@ -10174,7 +10195,7 @@
         <v>123</v>
       </c>
       <c r="P44" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q44">
         <v>3.3</v>
@@ -10252,7 +10273,7 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ44">
         <v>1.11</v>
@@ -10380,7 +10401,7 @@
         <v>94</v>
       </c>
       <c r="P45" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q45">
         <v>2.4</v>
@@ -10458,7 +10479,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ45">
         <v>1.2</v>
@@ -10664,7 +10685,7 @@
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ46">
         <v>1.3</v>
@@ -11285,7 +11306,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ49">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR49">
         <v>1.8</v>
@@ -11410,7 +11431,7 @@
         <v>103</v>
       </c>
       <c r="P50" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q50">
         <v>3.89</v>
@@ -11488,7 +11509,7 @@
         <v>1.33</v>
       </c>
       <c r="AP50">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ50">
         <v>2.3</v>
@@ -11616,7 +11637,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q51">
         <v>2.61</v>
@@ -11822,7 +11843,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -12028,7 +12049,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q53">
         <v>2.05</v>
@@ -12315,7 +12336,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ54">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR54">
         <v>1.33</v>
@@ -12724,10 +12745,10 @@
         <v>0.5</v>
       </c>
       <c r="AP56">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ56">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR56">
         <v>1.56</v>
@@ -12852,7 +12873,7 @@
         <v>103</v>
       </c>
       <c r="P57" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q57">
         <v>2.57</v>
@@ -12930,7 +12951,7 @@
         <v>0.75</v>
       </c>
       <c r="AP57">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ57">
         <v>1.2</v>
@@ -13058,7 +13079,7 @@
         <v>132</v>
       </c>
       <c r="P58" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q58">
         <v>2.3</v>
@@ -13264,7 +13285,7 @@
         <v>103</v>
       </c>
       <c r="P59" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q59">
         <v>2.75</v>
@@ -13345,7 +13366,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ59">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR59">
         <v>1.1</v>
@@ -13470,7 +13491,7 @@
         <v>103</v>
       </c>
       <c r="P60" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q60">
         <v>2.32</v>
@@ -13757,7 +13778,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ61">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR61">
         <v>1.46</v>
@@ -13882,7 +13903,7 @@
         <v>134</v>
       </c>
       <c r="P62" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q62">
         <v>2.39</v>
@@ -13960,7 +13981,7 @@
         <v>1.33</v>
       </c>
       <c r="AP62">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ62">
         <v>1.2</v>
@@ -14088,7 +14109,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q63">
         <v>2.84</v>
@@ -14166,7 +14187,7 @@
         <v>2.5</v>
       </c>
       <c r="AP63">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ63">
         <v>2</v>
@@ -14294,7 +14315,7 @@
         <v>136</v>
       </c>
       <c r="P64" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q64">
         <v>2.7</v>
@@ -14500,7 +14521,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -14912,7 +14933,7 @@
         <v>139</v>
       </c>
       <c r="P67" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q67">
         <v>2.5</v>
@@ -14990,10 +15011,10 @@
         <v>1.25</v>
       </c>
       <c r="AP67">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ67">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR67">
         <v>2.39</v>
@@ -15199,7 +15220,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ68">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR68">
         <v>1.49</v>
@@ -15530,7 +15551,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q70">
         <v>1.85</v>
@@ -15942,7 +15963,7 @@
         <v>143</v>
       </c>
       <c r="P72" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q72">
         <v>2.24</v>
@@ -16023,7 +16044,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ72">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR72">
         <v>2</v>
@@ -16148,7 +16169,7 @@
         <v>103</v>
       </c>
       <c r="P73" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q73">
         <v>3.66</v>
@@ -16354,7 +16375,7 @@
         <v>144</v>
       </c>
       <c r="P74" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q74">
         <v>2.4</v>
@@ -16432,7 +16453,7 @@
         <v>2</v>
       </c>
       <c r="AP74">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ74">
         <v>2</v>
@@ -16560,7 +16581,7 @@
         <v>145</v>
       </c>
       <c r="P75" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q75">
         <v>2.38</v>
@@ -16766,7 +16787,7 @@
         <v>125</v>
       </c>
       <c r="P76" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -16844,10 +16865,10 @@
         <v>1</v>
       </c>
       <c r="AP76">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ76">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR76">
         <v>1.63</v>
@@ -17178,7 +17199,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q78">
         <v>2.75</v>
@@ -17256,10 +17277,10 @@
         <v>0.33</v>
       </c>
       <c r="AP78">
+        <v>0.73</v>
+      </c>
+      <c r="AQ78">
         <v>0.8</v>
-      </c>
-      <c r="AQ78">
-        <v>0.78</v>
       </c>
       <c r="AR78">
         <v>1.22</v>
@@ -17384,7 +17405,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17462,7 +17483,7 @@
         <v>1.2</v>
       </c>
       <c r="AP79">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ79">
         <v>1.2</v>
@@ -17590,7 +17611,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q80">
         <v>2.2</v>
@@ -17796,7 +17817,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q81">
         <v>2.31</v>
@@ -17874,10 +17895,10 @@
         <v>1.2</v>
       </c>
       <c r="AP81">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ81">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR81">
         <v>2.48</v>
@@ -18208,7 +18229,7 @@
         <v>151</v>
       </c>
       <c r="P83" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q83">
         <v>2.7</v>
@@ -18620,7 +18641,7 @@
         <v>153</v>
       </c>
       <c r="P85" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q85">
         <v>3.5</v>
@@ -18826,7 +18847,7 @@
         <v>154</v>
       </c>
       <c r="P86" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q86">
         <v>2.55</v>
@@ -18907,7 +18928,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ86">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR86">
         <v>1.91</v>
@@ -19032,7 +19053,7 @@
         <v>155</v>
       </c>
       <c r="P87" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q87">
         <v>2.27</v>
@@ -19316,10 +19337,10 @@
         <v>0.25</v>
       </c>
       <c r="AP88">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ88">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR88">
         <v>2.39</v>
@@ -19444,7 +19465,7 @@
         <v>156</v>
       </c>
       <c r="P89" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q89">
         <v>2.8</v>
@@ -19522,7 +19543,7 @@
         <v>0.5</v>
       </c>
       <c r="AP89">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ89">
         <v>0.91</v>
@@ -19650,7 +19671,7 @@
         <v>157</v>
       </c>
       <c r="P90" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q90">
         <v>2.6</v>
@@ -19856,7 +19877,7 @@
         <v>158</v>
       </c>
       <c r="P91" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -19934,7 +19955,7 @@
         <v>1</v>
       </c>
       <c r="AP91">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ91">
         <v>1.2</v>
@@ -20062,7 +20083,7 @@
         <v>159</v>
       </c>
       <c r="P92" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q92">
         <v>3.6</v>
@@ -20140,7 +20161,7 @@
         <v>2</v>
       </c>
       <c r="AP92">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ92">
         <v>1.3</v>
@@ -20349,7 +20370,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ93">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR93">
         <v>1.76</v>
@@ -20474,7 +20495,7 @@
         <v>161</v>
       </c>
       <c r="P94" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q94">
         <v>2.1</v>
@@ -20555,7 +20576,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ94">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR94">
         <v>2</v>
@@ -20680,7 +20701,7 @@
         <v>162</v>
       </c>
       <c r="P95" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q95">
         <v>2.17</v>
@@ -20758,7 +20779,7 @@
         <v>0.25</v>
       </c>
       <c r="AP95">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ95">
         <v>0.89</v>
@@ -20967,7 +20988,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ96">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR96">
         <v>1.57</v>
@@ -21173,7 +21194,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ97">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR97">
         <v>1.52</v>
@@ -21298,7 +21319,7 @@
         <v>149</v>
       </c>
       <c r="P98" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q98">
         <v>3.54</v>
@@ -21376,7 +21397,7 @@
         <v>2.17</v>
       </c>
       <c r="AP98">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ98">
         <v>2.3</v>
@@ -21504,7 +21525,7 @@
         <v>165</v>
       </c>
       <c r="P99" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q99">
         <v>3.35</v>
@@ -21582,7 +21603,7 @@
         <v>1.5</v>
       </c>
       <c r="AP99">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ99">
         <v>1.3</v>
@@ -21916,7 +21937,7 @@
         <v>167</v>
       </c>
       <c r="P101" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q101">
         <v>2.96</v>
@@ -22122,7 +22143,7 @@
         <v>168</v>
       </c>
       <c r="P102" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q102">
         <v>2.44</v>
@@ -22328,7 +22349,7 @@
         <v>103</v>
       </c>
       <c r="P103" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q103">
         <v>1.81</v>
@@ -22409,7 +22430,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ103">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR103">
         <v>1.83</v>
@@ -22740,7 +22761,7 @@
         <v>170</v>
       </c>
       <c r="P105" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q105">
         <v>2.69</v>
@@ -22818,7 +22839,7 @@
         <v>0.57</v>
       </c>
       <c r="AP105">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ105">
         <v>0.91</v>
@@ -22946,7 +22967,7 @@
         <v>171</v>
       </c>
       <c r="P106" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q106">
         <v>2.56</v>
@@ -23230,10 +23251,10 @@
         <v>1</v>
       </c>
       <c r="AP107">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ107">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR107">
         <v>1.86</v>
@@ -23564,7 +23585,7 @@
         <v>174</v>
       </c>
       <c r="P109" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q109">
         <v>3.5</v>
@@ -23645,7 +23666,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ109">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR109">
         <v>1.59</v>
@@ -23770,7 +23791,7 @@
         <v>175</v>
       </c>
       <c r="P110" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q110">
         <v>2.43</v>
@@ -23976,7 +23997,7 @@
         <v>103</v>
       </c>
       <c r="P111" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q111">
         <v>3.02</v>
@@ -24054,7 +24075,7 @@
         <v>2</v>
       </c>
       <c r="AP111">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ111">
         <v>2</v>
@@ -24388,7 +24409,7 @@
         <v>103</v>
       </c>
       <c r="P113" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q113">
         <v>2.85</v>
@@ -24466,10 +24487,10 @@
         <v>0.5</v>
       </c>
       <c r="AP113">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ113">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR113">
         <v>2.12</v>
@@ -25006,7 +25027,7 @@
         <v>177</v>
       </c>
       <c r="P116" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q116">
         <v>4.5</v>
@@ -25084,7 +25105,7 @@
         <v>2</v>
       </c>
       <c r="AP116">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ116">
         <v>2.3</v>
@@ -25293,7 +25314,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ117">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR117">
         <v>1.77</v>
@@ -25418,7 +25439,7 @@
         <v>103</v>
       </c>
       <c r="P118" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q118">
         <v>3.2</v>
@@ -25499,7 +25520,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ118">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR118">
         <v>1.22</v>
@@ -25911,7 +25932,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ120">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR120">
         <v>1.55</v>
@@ -26036,7 +26057,7 @@
         <v>180</v>
       </c>
       <c r="P121" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q121">
         <v>2.38</v>
@@ -26117,7 +26138,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ121">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR121">
         <v>1.76</v>
@@ -26448,7 +26469,7 @@
         <v>170</v>
       </c>
       <c r="P123" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q123">
         <v>2.51</v>
@@ -26526,10 +26547,10 @@
         <v>1.43</v>
       </c>
       <c r="AP123">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ123">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR123">
         <v>1.8</v>
@@ -26654,7 +26675,7 @@
         <v>182</v>
       </c>
       <c r="P124" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q124">
         <v>2.46</v>
@@ -26732,7 +26753,7 @@
         <v>2.13</v>
       </c>
       <c r="AP124">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ124">
         <v>2</v>
@@ -26860,7 +26881,7 @@
         <v>183</v>
       </c>
       <c r="P125" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q125">
         <v>3.68</v>
@@ -26938,7 +26959,7 @@
         <v>1.14</v>
       </c>
       <c r="AP125">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ125">
         <v>1.2</v>
@@ -27066,7 +27087,7 @@
         <v>184</v>
       </c>
       <c r="P126" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q126">
         <v>1.95</v>
@@ -27350,7 +27371,7 @@
         <v>0.29</v>
       </c>
       <c r="AP127">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ127">
         <v>0.5600000000000001</v>
@@ -27556,7 +27577,7 @@
         <v>0.67</v>
       </c>
       <c r="AP128">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ128">
         <v>0.89</v>
@@ -27684,7 +27705,7 @@
         <v>187</v>
       </c>
       <c r="P129" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q129">
         <v>3</v>
@@ -27890,7 +27911,7 @@
         <v>103</v>
       </c>
       <c r="P130" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q130">
         <v>2.88</v>
@@ -27971,7 +27992,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ130">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR130">
         <v>1.63</v>
@@ -28096,7 +28117,7 @@
         <v>103</v>
       </c>
       <c r="P131" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q131">
         <v>3.04</v>
@@ -28302,7 +28323,7 @@
         <v>103</v>
       </c>
       <c r="P132" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q132">
         <v>3.75</v>
@@ -28508,7 +28529,7 @@
         <v>103</v>
       </c>
       <c r="P133" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q133">
         <v>3.2</v>
@@ -28589,7 +28610,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ133">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR133">
         <v>1.54</v>
@@ -28714,7 +28735,7 @@
         <v>103</v>
       </c>
       <c r="P134" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q134">
         <v>2.69</v>
@@ -28792,7 +28813,7 @@
         <v>1.13</v>
       </c>
       <c r="AP134">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ134">
         <v>1.2</v>
@@ -28920,7 +28941,7 @@
         <v>188</v>
       </c>
       <c r="P135" t="s">
-        <v>284</v>
+        <v>205</v>
       </c>
       <c r="Q135">
         <v>2.75</v>
@@ -29204,7 +29225,7 @@
         <v>0.25</v>
       </c>
       <c r="AP136">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ136">
         <v>0.5600000000000001</v>
@@ -29410,7 +29431,7 @@
         <v>0.78</v>
       </c>
       <c r="AP137">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ137">
         <v>0.91</v>
@@ -29538,7 +29559,7 @@
         <v>190</v>
       </c>
       <c r="P138" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q138">
         <v>3.6</v>
@@ -29619,7 +29640,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ138">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR138">
         <v>1.59</v>
@@ -29744,7 +29765,7 @@
         <v>191</v>
       </c>
       <c r="P139" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q139">
         <v>2.61</v>
@@ -29825,7 +29846,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ139">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR139">
         <v>1.59</v>
@@ -30028,10 +30049,10 @@
         <v>1.63</v>
       </c>
       <c r="AP140">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ140">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR140">
         <v>1.31</v>
@@ -30237,7 +30258,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ141">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR141">
         <v>2</v>
@@ -30362,7 +30383,7 @@
         <v>194</v>
       </c>
       <c r="P142" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q142">
         <v>2.2</v>
@@ -30440,7 +30461,7 @@
         <v>0.25</v>
       </c>
       <c r="AP142">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ142">
         <v>0.3</v>
@@ -30568,7 +30589,7 @@
         <v>195</v>
       </c>
       <c r="P143" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q143">
         <v>2.75</v>
@@ -30774,7 +30795,7 @@
         <v>103</v>
       </c>
       <c r="P144" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q144">
         <v>3.44</v>
@@ -30980,7 +31001,7 @@
         <v>91</v>
       </c>
       <c r="P145" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q145">
         <v>2.02</v>
@@ -31186,7 +31207,7 @@
         <v>196</v>
       </c>
       <c r="P146" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q146">
         <v>3.75</v>
@@ -32010,7 +32031,7 @@
         <v>199</v>
       </c>
       <c r="P150" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q150">
         <v>1.8</v>
@@ -32216,7 +32237,7 @@
         <v>200</v>
       </c>
       <c r="P151" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q151">
         <v>2.48</v>
@@ -32422,7 +32443,7 @@
         <v>201</v>
       </c>
       <c r="P152" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q152">
         <v>3.4</v>
@@ -32834,7 +32855,7 @@
         <v>203</v>
       </c>
       <c r="P154" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q154">
         <v>1.91</v>
@@ -33040,7 +33061,7 @@
         <v>103</v>
       </c>
       <c r="P155" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q155">
         <v>2.5</v>
@@ -33197,6 +33218,1036 @@
       </c>
       <c r="BP155">
         <v>1.61</v>
+      </c>
+    </row>
+    <row r="156" spans="1:68">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>7296421</v>
+      </c>
+      <c r="C156" t="s">
+        <v>68</v>
+      </c>
+      <c r="D156" t="s">
+        <v>69</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45530.52083333334</v>
+      </c>
+      <c r="F156">
+        <v>20</v>
+      </c>
+      <c r="G156" t="s">
+        <v>85</v>
+      </c>
+      <c r="H156" t="s">
+        <v>77</v>
+      </c>
+      <c r="I156">
+        <v>1</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>1</v>
+      </c>
+      <c r="L156">
+        <v>3</v>
+      </c>
+      <c r="M156">
+        <v>2</v>
+      </c>
+      <c r="N156">
+        <v>5</v>
+      </c>
+      <c r="O156" t="s">
+        <v>204</v>
+      </c>
+      <c r="P156" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q156">
+        <v>2.7</v>
+      </c>
+      <c r="R156">
+        <v>2.3</v>
+      </c>
+      <c r="S156">
+        <v>3.45</v>
+      </c>
+      <c r="T156">
+        <v>1.28</v>
+      </c>
+      <c r="U156">
+        <v>3.3</v>
+      </c>
+      <c r="V156">
+        <v>2.3</v>
+      </c>
+      <c r="W156">
+        <v>1.55</v>
+      </c>
+      <c r="X156">
+        <v>5</v>
+      </c>
+      <c r="Y156">
+        <v>1.13</v>
+      </c>
+      <c r="Z156">
+        <v>2.2</v>
+      </c>
+      <c r="AA156">
+        <v>3.3</v>
+      </c>
+      <c r="AB156">
+        <v>2.8</v>
+      </c>
+      <c r="AC156">
+        <v>1.03</v>
+      </c>
+      <c r="AD156">
+        <v>12</v>
+      </c>
+      <c r="AE156">
+        <v>1.14</v>
+      </c>
+      <c r="AF156">
+        <v>4.7</v>
+      </c>
+      <c r="AG156">
+        <v>1.67</v>
+      </c>
+      <c r="AH156">
+        <v>2</v>
+      </c>
+      <c r="AI156">
+        <v>1.52</v>
+      </c>
+      <c r="AJ156">
+        <v>2.4</v>
+      </c>
+      <c r="AK156">
+        <v>1.33</v>
+      </c>
+      <c r="AL156">
+        <v>1.26</v>
+      </c>
+      <c r="AM156">
+        <v>1.64</v>
+      </c>
+      <c r="AN156">
+        <v>1.33</v>
+      </c>
+      <c r="AO156">
+        <v>1.44</v>
+      </c>
+      <c r="AP156">
+        <v>1.5</v>
+      </c>
+      <c r="AQ156">
+        <v>1.3</v>
+      </c>
+      <c r="AR156">
+        <v>2.11</v>
+      </c>
+      <c r="AS156">
+        <v>1.62</v>
+      </c>
+      <c r="AT156">
+        <v>3.73</v>
+      </c>
+      <c r="AU156">
+        <v>6</v>
+      </c>
+      <c r="AV156">
+        <v>6</v>
+      </c>
+      <c r="AW156">
+        <v>3</v>
+      </c>
+      <c r="AX156">
+        <v>8</v>
+      </c>
+      <c r="AY156">
+        <v>9</v>
+      </c>
+      <c r="AZ156">
+        <v>14</v>
+      </c>
+      <c r="BA156">
+        <v>6</v>
+      </c>
+      <c r="BB156">
+        <v>5</v>
+      </c>
+      <c r="BC156">
+        <v>11</v>
+      </c>
+      <c r="BD156">
+        <v>1.82</v>
+      </c>
+      <c r="BE156">
+        <v>8.5</v>
+      </c>
+      <c r="BF156">
+        <v>2.32</v>
+      </c>
+      <c r="BG156">
+        <v>1.14</v>
+      </c>
+      <c r="BH156">
+        <v>4.9</v>
+      </c>
+      <c r="BI156">
+        <v>1.28</v>
+      </c>
+      <c r="BJ156">
+        <v>3.3</v>
+      </c>
+      <c r="BK156">
+        <v>1.51</v>
+      </c>
+      <c r="BL156">
+        <v>2.5</v>
+      </c>
+      <c r="BM156">
+        <v>2</v>
+      </c>
+      <c r="BN156">
+        <v>1.8</v>
+      </c>
+      <c r="BO156">
+        <v>2.28</v>
+      </c>
+      <c r="BP156">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:68">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>7296420</v>
+      </c>
+      <c r="C157" t="s">
+        <v>68</v>
+      </c>
+      <c r="D157" t="s">
+        <v>69</v>
+      </c>
+      <c r="E157" s="2">
+        <v>45530.58333333334</v>
+      </c>
+      <c r="F157">
+        <v>20</v>
+      </c>
+      <c r="G157" t="s">
+        <v>78</v>
+      </c>
+      <c r="H157" t="s">
+        <v>79</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
+      <c r="L157">
+        <v>1</v>
+      </c>
+      <c r="M157">
+        <v>2</v>
+      </c>
+      <c r="N157">
+        <v>3</v>
+      </c>
+      <c r="O157" t="s">
+        <v>205</v>
+      </c>
+      <c r="P157" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q157">
+        <v>2.32</v>
+      </c>
+      <c r="R157">
+        <v>2.38</v>
+      </c>
+      <c r="S157">
+        <v>4.1</v>
+      </c>
+      <c r="T157">
+        <v>1.32</v>
+      </c>
+      <c r="U157">
+        <v>3.2</v>
+      </c>
+      <c r="V157">
+        <v>2.45</v>
+      </c>
+      <c r="W157">
+        <v>1.5</v>
+      </c>
+      <c r="X157">
+        <v>5.25</v>
+      </c>
+      <c r="Y157">
+        <v>1.12</v>
+      </c>
+      <c r="Z157">
+        <v>1.83</v>
+      </c>
+      <c r="AA157">
+        <v>3.5</v>
+      </c>
+      <c r="AB157">
+        <v>3.5</v>
+      </c>
+      <c r="AC157">
+        <v>1.02</v>
+      </c>
+      <c r="AD157">
+        <v>16.75</v>
+      </c>
+      <c r="AE157">
+        <v>1.22</v>
+      </c>
+      <c r="AF157">
+        <v>4.43</v>
+      </c>
+      <c r="AG157">
+        <v>1.6</v>
+      </c>
+      <c r="AH157">
+        <v>2.1</v>
+      </c>
+      <c r="AI157">
+        <v>1.56</v>
+      </c>
+      <c r="AJ157">
+        <v>2.3</v>
+      </c>
+      <c r="AK157">
+        <v>1.25</v>
+      </c>
+      <c r="AL157">
+        <v>1.25</v>
+      </c>
+      <c r="AM157">
+        <v>1.7</v>
+      </c>
+      <c r="AN157">
+        <v>1.56</v>
+      </c>
+      <c r="AO157">
+        <v>1.11</v>
+      </c>
+      <c r="AP157">
+        <v>1.4</v>
+      </c>
+      <c r="AQ157">
+        <v>1.3</v>
+      </c>
+      <c r="AR157">
+        <v>1.74</v>
+      </c>
+      <c r="AS157">
+        <v>1.23</v>
+      </c>
+      <c r="AT157">
+        <v>2.97</v>
+      </c>
+      <c r="AU157">
+        <v>13</v>
+      </c>
+      <c r="AV157">
+        <v>4</v>
+      </c>
+      <c r="AW157">
+        <v>10</v>
+      </c>
+      <c r="AX157">
+        <v>5</v>
+      </c>
+      <c r="AY157">
+        <v>23</v>
+      </c>
+      <c r="AZ157">
+        <v>9</v>
+      </c>
+      <c r="BA157">
+        <v>14</v>
+      </c>
+      <c r="BB157">
+        <v>2</v>
+      </c>
+      <c r="BC157">
+        <v>16</v>
+      </c>
+      <c r="BD157">
+        <v>1.55</v>
+      </c>
+      <c r="BE157">
+        <v>9</v>
+      </c>
+      <c r="BF157">
+        <v>2.8</v>
+      </c>
+      <c r="BG157">
+        <v>0</v>
+      </c>
+      <c r="BH157">
+        <v>0</v>
+      </c>
+      <c r="BI157">
+        <v>1.27</v>
+      </c>
+      <c r="BJ157">
+        <v>3.55</v>
+      </c>
+      <c r="BK157">
+        <v>1.36</v>
+      </c>
+      <c r="BL157">
+        <v>2.79</v>
+      </c>
+      <c r="BM157">
+        <v>1.68</v>
+      </c>
+      <c r="BN157">
+        <v>2.17</v>
+      </c>
+      <c r="BO157">
+        <v>2.07</v>
+      </c>
+      <c r="BP157">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="158" spans="1:68">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>7296422</v>
+      </c>
+      <c r="C158" t="s">
+        <v>68</v>
+      </c>
+      <c r="D158" t="s">
+        <v>69</v>
+      </c>
+      <c r="E158" s="2">
+        <v>45530.58333333334</v>
+      </c>
+      <c r="F158">
+        <v>20</v>
+      </c>
+      <c r="G158" t="s">
+        <v>75</v>
+      </c>
+      <c r="H158" t="s">
+        <v>82</v>
+      </c>
+      <c r="I158">
+        <v>1</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>1</v>
+      </c>
+      <c r="L158">
+        <v>2</v>
+      </c>
+      <c r="M158">
+        <v>0</v>
+      </c>
+      <c r="N158">
+        <v>2</v>
+      </c>
+      <c r="O158" t="s">
+        <v>206</v>
+      </c>
+      <c r="P158" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q158">
+        <v>3.2</v>
+      </c>
+      <c r="R158">
+        <v>2.35</v>
+      </c>
+      <c r="S158">
+        <v>2.84</v>
+      </c>
+      <c r="T158">
+        <v>1.26</v>
+      </c>
+      <c r="U158">
+        <v>3.62</v>
+      </c>
+      <c r="V158">
+        <v>2.24</v>
+      </c>
+      <c r="W158">
+        <v>1.61</v>
+      </c>
+      <c r="X158">
+        <v>5</v>
+      </c>
+      <c r="Y158">
+        <v>1.15</v>
+      </c>
+      <c r="Z158">
+        <v>2.5</v>
+      </c>
+      <c r="AA158">
+        <v>3.5</v>
+      </c>
+      <c r="AB158">
+        <v>2.3</v>
+      </c>
+      <c r="AC158">
+        <v>1.03</v>
+      </c>
+      <c r="AD158">
+        <v>18.75</v>
+      </c>
+      <c r="AE158">
+        <v>1.13</v>
+      </c>
+      <c r="AF158">
+        <v>4.8</v>
+      </c>
+      <c r="AG158">
+        <v>1.57</v>
+      </c>
+      <c r="AH158">
+        <v>2.35</v>
+      </c>
+      <c r="AI158">
+        <v>1.45</v>
+      </c>
+      <c r="AJ158">
+        <v>2.55</v>
+      </c>
+      <c r="AK158">
+        <v>1.56</v>
+      </c>
+      <c r="AL158">
+        <v>1.25</v>
+      </c>
+      <c r="AM158">
+        <v>1.45</v>
+      </c>
+      <c r="AN158">
+        <v>1</v>
+      </c>
+      <c r="AO158">
+        <v>1.1</v>
+      </c>
+      <c r="AP158">
+        <v>1.18</v>
+      </c>
+      <c r="AQ158">
+        <v>1</v>
+      </c>
+      <c r="AR158">
+        <v>1.43</v>
+      </c>
+      <c r="AS158">
+        <v>1.44</v>
+      </c>
+      <c r="AT158">
+        <v>2.87</v>
+      </c>
+      <c r="AU158">
+        <v>8</v>
+      </c>
+      <c r="AV158">
+        <v>5</v>
+      </c>
+      <c r="AW158">
+        <v>9</v>
+      </c>
+      <c r="AX158">
+        <v>7</v>
+      </c>
+      <c r="AY158">
+        <v>17</v>
+      </c>
+      <c r="AZ158">
+        <v>12</v>
+      </c>
+      <c r="BA158">
+        <v>7</v>
+      </c>
+      <c r="BB158">
+        <v>6</v>
+      </c>
+      <c r="BC158">
+        <v>13</v>
+      </c>
+      <c r="BD158">
+        <v>1.85</v>
+      </c>
+      <c r="BE158">
+        <v>8</v>
+      </c>
+      <c r="BF158">
+        <v>2.28</v>
+      </c>
+      <c r="BG158">
+        <v>1.15</v>
+      </c>
+      <c r="BH158">
+        <v>4.7</v>
+      </c>
+      <c r="BI158">
+        <v>1.28</v>
+      </c>
+      <c r="BJ158">
+        <v>3.2</v>
+      </c>
+      <c r="BK158">
+        <v>1.54</v>
+      </c>
+      <c r="BL158">
+        <v>2.43</v>
+      </c>
+      <c r="BM158">
+        <v>1.88</v>
+      </c>
+      <c r="BN158">
+        <v>1.92</v>
+      </c>
+      <c r="BO158">
+        <v>2.34</v>
+      </c>
+      <c r="BP158">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="159" spans="1:68">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>7296423</v>
+      </c>
+      <c r="C159" t="s">
+        <v>68</v>
+      </c>
+      <c r="D159" t="s">
+        <v>69</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45530.58333333334</v>
+      </c>
+      <c r="F159">
+        <v>20</v>
+      </c>
+      <c r="G159" t="s">
+        <v>73</v>
+      </c>
+      <c r="H159" t="s">
+        <v>70</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
+      <c r="L159">
+        <v>1</v>
+      </c>
+      <c r="M159">
+        <v>2</v>
+      </c>
+      <c r="N159">
+        <v>3</v>
+      </c>
+      <c r="O159" t="s">
+        <v>163</v>
+      </c>
+      <c r="P159" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q159">
+        <v>3.06</v>
+      </c>
+      <c r="R159">
+        <v>2.22</v>
+      </c>
+      <c r="S159">
+        <v>3.06</v>
+      </c>
+      <c r="T159">
+        <v>1.33</v>
+      </c>
+      <c r="U159">
+        <v>3.15</v>
+      </c>
+      <c r="V159">
+        <v>2.51</v>
+      </c>
+      <c r="W159">
+        <v>1.49</v>
+      </c>
+      <c r="X159">
+        <v>5.95</v>
+      </c>
+      <c r="Y159">
+        <v>1.11</v>
+      </c>
+      <c r="Z159">
+        <v>2.37</v>
+      </c>
+      <c r="AA159">
+        <v>3.4</v>
+      </c>
+      <c r="AB159">
+        <v>2.5</v>
+      </c>
+      <c r="AC159">
+        <v>1.04</v>
+      </c>
+      <c r="AD159">
+        <v>15.25</v>
+      </c>
+      <c r="AE159">
+        <v>1.19</v>
+      </c>
+      <c r="AF159">
+        <v>3.92</v>
+      </c>
+      <c r="AG159">
+        <v>1.67</v>
+      </c>
+      <c r="AH159">
+        <v>2.05</v>
+      </c>
+      <c r="AI159">
+        <v>1.57</v>
+      </c>
+      <c r="AJ159">
+        <v>2.25</v>
+      </c>
+      <c r="AK159">
+        <v>1.49</v>
+      </c>
+      <c r="AL159">
+        <v>1.28</v>
+      </c>
+      <c r="AM159">
+        <v>1.49</v>
+      </c>
+      <c r="AN159">
+        <v>0.8</v>
+      </c>
+      <c r="AO159">
+        <v>1.33</v>
+      </c>
+      <c r="AP159">
+        <v>0.73</v>
+      </c>
+      <c r="AQ159">
+        <v>1.5</v>
+      </c>
+      <c r="AR159">
+        <v>1.33</v>
+      </c>
+      <c r="AS159">
+        <v>1.81</v>
+      </c>
+      <c r="AT159">
+        <v>3.14</v>
+      </c>
+      <c r="AU159">
+        <v>10</v>
+      </c>
+      <c r="AV159">
+        <v>11</v>
+      </c>
+      <c r="AW159">
+        <v>1</v>
+      </c>
+      <c r="AX159">
+        <v>4</v>
+      </c>
+      <c r="AY159">
+        <v>11</v>
+      </c>
+      <c r="AZ159">
+        <v>15</v>
+      </c>
+      <c r="BA159">
+        <v>5</v>
+      </c>
+      <c r="BB159">
+        <v>7</v>
+      </c>
+      <c r="BC159">
+        <v>12</v>
+      </c>
+      <c r="BD159">
+        <v>2</v>
+      </c>
+      <c r="BE159">
+        <v>8.5</v>
+      </c>
+      <c r="BF159">
+        <v>2.05</v>
+      </c>
+      <c r="BG159">
+        <v>0</v>
+      </c>
+      <c r="BH159">
+        <v>0</v>
+      </c>
+      <c r="BI159">
+        <v>1.19</v>
+      </c>
+      <c r="BJ159">
+        <v>4.1</v>
+      </c>
+      <c r="BK159">
+        <v>1.32</v>
+      </c>
+      <c r="BL159">
+        <v>2.98</v>
+      </c>
+      <c r="BM159">
+        <v>1.62</v>
+      </c>
+      <c r="BN159">
+        <v>2.25</v>
+      </c>
+      <c r="BO159">
+        <v>1.99</v>
+      </c>
+      <c r="BP159">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="160" spans="1:68">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>7296424</v>
+      </c>
+      <c r="C160" t="s">
+        <v>68</v>
+      </c>
+      <c r="D160" t="s">
+        <v>69</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45530.58333333334</v>
+      </c>
+      <c r="F160">
+        <v>20</v>
+      </c>
+      <c r="G160" t="s">
+        <v>81</v>
+      </c>
+      <c r="H160" t="s">
+        <v>74</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>1</v>
+      </c>
+      <c r="K160">
+        <v>1</v>
+      </c>
+      <c r="L160">
+        <v>1</v>
+      </c>
+      <c r="M160">
+        <v>1</v>
+      </c>
+      <c r="N160">
+        <v>2</v>
+      </c>
+      <c r="O160" t="s">
+        <v>207</v>
+      </c>
+      <c r="P160" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q160">
+        <v>2</v>
+      </c>
+      <c r="R160">
+        <v>2.62</v>
+      </c>
+      <c r="S160">
+        <v>4.5</v>
+      </c>
+      <c r="T160">
+        <v>1.2</v>
+      </c>
+      <c r="U160">
+        <v>4.25</v>
+      </c>
+      <c r="V160">
+        <v>1.97</v>
+      </c>
+      <c r="W160">
+        <v>1.78</v>
+      </c>
+      <c r="X160">
+        <v>4</v>
+      </c>
+      <c r="Y160">
+        <v>1.22</v>
+      </c>
+      <c r="Z160">
+        <v>1.5</v>
+      </c>
+      <c r="AA160">
+        <v>4.2</v>
+      </c>
+      <c r="AB160">
+        <v>4.8</v>
+      </c>
+      <c r="AC160">
+        <v>1.01</v>
+      </c>
+      <c r="AD160">
+        <v>28.5</v>
+      </c>
+      <c r="AE160">
+        <v>1.08</v>
+      </c>
+      <c r="AF160">
+        <v>6.1</v>
+      </c>
+      <c r="AG160">
+        <v>1.36</v>
+      </c>
+      <c r="AH160">
+        <v>2.89</v>
+      </c>
+      <c r="AI160">
+        <v>1.44</v>
+      </c>
+      <c r="AJ160">
+        <v>2.58</v>
+      </c>
+      <c r="AK160">
+        <v>1.16</v>
+      </c>
+      <c r="AL160">
+        <v>1.17</v>
+      </c>
+      <c r="AM160">
+        <v>2.39</v>
+      </c>
+      <c r="AN160">
+        <v>2.11</v>
+      </c>
+      <c r="AO160">
+        <v>0.78</v>
+      </c>
+      <c r="AP160">
+        <v>2</v>
+      </c>
+      <c r="AQ160">
+        <v>0.8</v>
+      </c>
+      <c r="AR160">
+        <v>2</v>
+      </c>
+      <c r="AS160">
+        <v>1.33</v>
+      </c>
+      <c r="AT160">
+        <v>3.33</v>
+      </c>
+      <c r="AU160">
+        <v>3</v>
+      </c>
+      <c r="AV160">
+        <v>7</v>
+      </c>
+      <c r="AW160">
+        <v>9</v>
+      </c>
+      <c r="AX160">
+        <v>3</v>
+      </c>
+      <c r="AY160">
+        <v>12</v>
+      </c>
+      <c r="AZ160">
+        <v>10</v>
+      </c>
+      <c r="BA160">
+        <v>6</v>
+      </c>
+      <c r="BB160">
+        <v>4</v>
+      </c>
+      <c r="BC160">
+        <v>10</v>
+      </c>
+      <c r="BD160">
+        <v>1.51</v>
+      </c>
+      <c r="BE160">
+        <v>9</v>
+      </c>
+      <c r="BF160">
+        <v>3.06</v>
+      </c>
+      <c r="BG160">
+        <v>0</v>
+      </c>
+      <c r="BH160">
+        <v>0</v>
+      </c>
+      <c r="BI160">
+        <v>1.21</v>
+      </c>
+      <c r="BJ160">
+        <v>3.74</v>
+      </c>
+      <c r="BK160">
+        <v>1.4</v>
+      </c>
+      <c r="BL160">
+        <v>2.64</v>
+      </c>
+      <c r="BM160">
+        <v>1.7</v>
+      </c>
+      <c r="BN160">
+        <v>2.03</v>
+      </c>
+      <c r="BO160">
+        <v>2.1</v>
+      </c>
+      <c r="BP160">
+        <v>1.62</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="303">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1284,7 +1284,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP160"/>
+  <dimension ref="A1:BP161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ3">
         <v>0.91</v>
@@ -3684,7 +3684,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ12">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4917,7 +4917,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ18">
         <v>2</v>
@@ -6568,7 +6568,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ26">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR26">
         <v>1.34</v>
@@ -8625,7 +8625,7 @@
         <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ36">
         <v>0.3</v>
@@ -11303,7 +11303,7 @@
         <v>1.33</v>
       </c>
       <c r="AP49">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ49">
         <v>1.3</v>
@@ -12130,7 +12130,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ53">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR53">
         <v>1.86</v>
@@ -15629,7 +15629,7 @@
         <v>0</v>
       </c>
       <c r="AP70">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ70">
         <v>0.89</v>
@@ -15838,7 +15838,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ71">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR71">
         <v>1.38</v>
@@ -18104,7 +18104,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ82">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR82">
         <v>1.64</v>
@@ -18925,7 +18925,7 @@
         <v>0.75</v>
       </c>
       <c r="AP86">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ86">
         <v>1.5</v>
@@ -22427,7 +22427,7 @@
         <v>0.17</v>
       </c>
       <c r="AP103">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ103">
         <v>0.8</v>
@@ -23460,7 +23460,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ108">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR108">
         <v>1.91</v>
@@ -25726,7 +25726,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ119">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR119">
         <v>1.8</v>
@@ -26135,7 +26135,7 @@
         <v>1.13</v>
       </c>
       <c r="AP121">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ121">
         <v>1</v>
@@ -27374,7 +27374,7 @@
         <v>2</v>
       </c>
       <c r="AQ127">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR127">
         <v>1.83</v>
@@ -29228,7 +29228,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ136">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR136">
         <v>1.42</v>
@@ -30667,7 +30667,7 @@
         <v>1.38</v>
       </c>
       <c r="AP143">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ143">
         <v>1.2</v>
@@ -34248,6 +34248,212 @@
       </c>
       <c r="BP160">
         <v>1.62</v>
+      </c>
+    </row>
+    <row r="161" spans="1:68">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>7296418</v>
+      </c>
+      <c r="C161" t="s">
+        <v>68</v>
+      </c>
+      <c r="D161" t="s">
+        <v>69</v>
+      </c>
+      <c r="E161" s="2">
+        <v>45531.58333333334</v>
+      </c>
+      <c r="F161">
+        <v>20</v>
+      </c>
+      <c r="G161" t="s">
+        <v>71</v>
+      </c>
+      <c r="H161" t="s">
+        <v>76</v>
+      </c>
+      <c r="I161">
+        <v>1</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>1</v>
+      </c>
+      <c r="L161">
+        <v>1</v>
+      </c>
+      <c r="M161">
+        <v>0</v>
+      </c>
+      <c r="N161">
+        <v>1</v>
+      </c>
+      <c r="O161" t="s">
+        <v>148</v>
+      </c>
+      <c r="P161" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q161">
+        <v>1.8</v>
+      </c>
+      <c r="R161">
+        <v>2.88</v>
+      </c>
+      <c r="S161">
+        <v>6</v>
+      </c>
+      <c r="T161">
+        <v>1.2</v>
+      </c>
+      <c r="U161">
+        <v>4.33</v>
+      </c>
+      <c r="V161">
+        <v>1.91</v>
+      </c>
+      <c r="W161">
+        <v>1.8</v>
+      </c>
+      <c r="X161">
+        <v>4</v>
+      </c>
+      <c r="Y161">
+        <v>1.22</v>
+      </c>
+      <c r="Z161">
+        <v>1.3</v>
+      </c>
+      <c r="AA161">
+        <v>5</v>
+      </c>
+      <c r="AB161">
+        <v>7</v>
+      </c>
+      <c r="AC161">
+        <v>1.01</v>
+      </c>
+      <c r="AD161">
+        <v>30</v>
+      </c>
+      <c r="AE161">
+        <v>1.08</v>
+      </c>
+      <c r="AF161">
+        <v>6.15</v>
+      </c>
+      <c r="AG161">
+        <v>1.33</v>
+      </c>
+      <c r="AH161">
+        <v>3</v>
+      </c>
+      <c r="AI161">
+        <v>1.53</v>
+      </c>
+      <c r="AJ161">
+        <v>2.38</v>
+      </c>
+      <c r="AK161">
+        <v>1.08</v>
+      </c>
+      <c r="AL161">
+        <v>1.13</v>
+      </c>
+      <c r="AM161">
+        <v>3.05</v>
+      </c>
+      <c r="AN161">
+        <v>1.78</v>
+      </c>
+      <c r="AO161">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AP161">
+        <v>1.9</v>
+      </c>
+      <c r="AQ161">
+        <v>0.5</v>
+      </c>
+      <c r="AR161">
+        <v>1.84</v>
+      </c>
+      <c r="AS161">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT161">
+        <v>2.78</v>
+      </c>
+      <c r="AU161">
+        <v>8</v>
+      </c>
+      <c r="AV161">
+        <v>4</v>
+      </c>
+      <c r="AW161">
+        <v>9</v>
+      </c>
+      <c r="AX161">
+        <v>5</v>
+      </c>
+      <c r="AY161">
+        <v>17</v>
+      </c>
+      <c r="AZ161">
+        <v>9</v>
+      </c>
+      <c r="BA161">
+        <v>12</v>
+      </c>
+      <c r="BB161">
+        <v>3</v>
+      </c>
+      <c r="BC161">
+        <v>15</v>
+      </c>
+      <c r="BD161">
+        <v>1.3</v>
+      </c>
+      <c r="BE161">
+        <v>10</v>
+      </c>
+      <c r="BF161">
+        <v>4.42</v>
+      </c>
+      <c r="BG161">
+        <v>1.14</v>
+      </c>
+      <c r="BH161">
+        <v>5</v>
+      </c>
+      <c r="BI161">
+        <v>1.26</v>
+      </c>
+      <c r="BJ161">
+        <v>3.34</v>
+      </c>
+      <c r="BK161">
+        <v>1.47</v>
+      </c>
+      <c r="BL161">
+        <v>2.42</v>
+      </c>
+      <c r="BM161">
+        <v>1.92</v>
+      </c>
+      <c r="BN161">
+        <v>1.88</v>
+      </c>
+      <c r="BO161">
+        <v>2.28</v>
+      </c>
+      <c r="BP161">
+        <v>1.53</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="306">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -640,6 +640,12 @@
     <t>['80']</t>
   </si>
   <si>
+    <t>['9', '39', '62']</t>
+  </si>
+  <si>
+    <t>['79']</t>
+  </si>
+  <si>
     <t>['90+1']</t>
   </si>
   <si>
@@ -923,6 +929,9 @@
   </si>
   <si>
     <t>['39']</t>
+  </si>
+  <si>
+    <t>['51', '65']</t>
   </si>
 </sst>
 </file>
@@ -1284,7 +1293,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP161"/>
+  <dimension ref="A1:BP165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1543,7 +1552,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q2">
         <v>2.84</v>
@@ -1621,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ2">
         <v>0.3</v>
@@ -1749,7 +1758,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q3">
         <v>2.2</v>
@@ -1955,7 +1964,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -2242,7 +2251,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ5">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2367,7 +2376,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q6">
         <v>2.35</v>
@@ -2573,7 +2582,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q7">
         <v>2.66</v>
@@ -2779,7 +2788,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q8">
         <v>2.8</v>
@@ -2857,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ8">
         <v>2</v>
@@ -3063,7 +3072,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ9">
         <v>1.2</v>
@@ -3191,7 +3200,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3272,7 +3281,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ10">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3397,7 +3406,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3478,7 +3487,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ11">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3603,7 +3612,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -4221,7 +4230,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q15">
         <v>2.05</v>
@@ -4302,7 +4311,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ15">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4505,7 +4514,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ16">
         <v>1.3</v>
@@ -4633,7 +4642,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q17">
         <v>2.15</v>
@@ -4714,7 +4723,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ17">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR17">
         <v>2.14</v>
@@ -4839,7 +4848,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q18">
         <v>2.15</v>
@@ -5123,7 +5132,7 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ19">
         <v>1</v>
@@ -5329,7 +5338,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ20">
         <v>0.91</v>
@@ -5535,7 +5544,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ21">
         <v>1.3</v>
@@ -5663,7 +5672,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q22">
         <v>2.76</v>
@@ -5869,7 +5878,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q23">
         <v>2.85</v>
@@ -6075,7 +6084,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q24">
         <v>2.05</v>
@@ -6693,7 +6702,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -7105,7 +7114,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q29">
         <v>2.25</v>
@@ -7392,7 +7401,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ30">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR30">
         <v>0</v>
@@ -7517,7 +7526,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7595,10 +7604,10 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ31">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AR31">
         <v>0.83</v>
@@ -7801,7 +7810,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ32">
         <v>1.2</v>
@@ -7929,7 +7938,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q33">
         <v>3.05</v>
@@ -8007,7 +8016,7 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ33">
         <v>1</v>
@@ -8135,7 +8144,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q34">
         <v>2.26</v>
@@ -8341,7 +8350,7 @@
         <v>115</v>
       </c>
       <c r="P35" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q35">
         <v>3.46</v>
@@ -8422,7 +8431,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ35">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR35">
         <v>1.41</v>
@@ -8753,7 +8762,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q37">
         <v>2.72</v>
@@ -8831,7 +8840,7 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ37">
         <v>2</v>
@@ -8959,7 +8968,7 @@
         <v>118</v>
       </c>
       <c r="P38" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q38">
         <v>4.55</v>
@@ -9040,7 +9049,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ38">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AR38">
         <v>1.21</v>
@@ -9165,7 +9174,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q39">
         <v>2.78</v>
@@ -9243,7 +9252,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ39">
         <v>0.91</v>
@@ -9989,7 +9998,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q43">
         <v>3.11</v>
@@ -10067,7 +10076,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ43">
         <v>1.3</v>
@@ -10195,7 +10204,7 @@
         <v>123</v>
       </c>
       <c r="P44" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q44">
         <v>3.3</v>
@@ -10276,7 +10285,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ44">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR44">
         <v>1.31</v>
@@ -10401,7 +10410,7 @@
         <v>94</v>
       </c>
       <c r="P45" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q45">
         <v>2.4</v>
@@ -11097,10 +11106,10 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ48">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR48">
         <v>1.78</v>
@@ -11431,7 +11440,7 @@
         <v>103</v>
       </c>
       <c r="P50" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q50">
         <v>3.89</v>
@@ -11512,7 +11521,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ50">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AR50">
         <v>1.3</v>
@@ -11637,7 +11646,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q51">
         <v>2.61</v>
@@ -11843,7 +11852,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -11921,10 +11930,10 @@
         <v>1.67</v>
       </c>
       <c r="AP52">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ52">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR52">
         <v>1.25</v>
@@ -12049,7 +12058,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q53">
         <v>2.05</v>
@@ -12333,7 +12342,7 @@
         <v>1.67</v>
       </c>
       <c r="AP54">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ54">
         <v>1</v>
@@ -12873,7 +12882,7 @@
         <v>103</v>
       </c>
       <c r="P57" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q57">
         <v>2.57</v>
@@ -13079,7 +13088,7 @@
         <v>132</v>
       </c>
       <c r="P58" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q58">
         <v>2.3</v>
@@ -13285,7 +13294,7 @@
         <v>103</v>
       </c>
       <c r="P59" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q59">
         <v>2.75</v>
@@ -13491,7 +13500,7 @@
         <v>103</v>
       </c>
       <c r="P60" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q60">
         <v>2.32</v>
@@ -13775,7 +13784,7 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ61">
         <v>1.5</v>
@@ -13903,7 +13912,7 @@
         <v>134</v>
       </c>
       <c r="P62" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q62">
         <v>2.39</v>
@@ -14109,7 +14118,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q63">
         <v>2.84</v>
@@ -14315,7 +14324,7 @@
         <v>136</v>
       </c>
       <c r="P64" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q64">
         <v>2.7</v>
@@ -14393,7 +14402,7 @@
         <v>0.25</v>
       </c>
       <c r="AP64">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ64">
         <v>0.3</v>
@@ -14521,7 +14530,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -14602,7 +14611,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ65">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AR65">
         <v>1.68</v>
@@ -14808,7 +14817,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ66">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR66">
         <v>1.59</v>
@@ -14933,7 +14942,7 @@
         <v>139</v>
       </c>
       <c r="P67" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q67">
         <v>2.5</v>
@@ -15423,10 +15432,10 @@
         <v>1.33</v>
       </c>
       <c r="AP69">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ69">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR69">
         <v>1.74</v>
@@ -15551,7 +15560,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q70">
         <v>1.85</v>
@@ -15632,7 +15641,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ70">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR70">
         <v>1.92</v>
@@ -15835,7 +15844,7 @@
         <v>0.33</v>
       </c>
       <c r="AP71">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ71">
         <v>0.5</v>
@@ -15963,7 +15972,7 @@
         <v>143</v>
       </c>
       <c r="P72" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q72">
         <v>2.24</v>
@@ -16169,7 +16178,7 @@
         <v>103</v>
       </c>
       <c r="P73" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q73">
         <v>3.66</v>
@@ -16247,7 +16256,7 @@
         <v>1.75</v>
       </c>
       <c r="AP73">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ73">
         <v>1.3</v>
@@ -16375,7 +16384,7 @@
         <v>144</v>
       </c>
       <c r="P74" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q74">
         <v>2.4</v>
@@ -16581,7 +16590,7 @@
         <v>145</v>
       </c>
       <c r="P75" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q75">
         <v>2.38</v>
@@ -16659,7 +16668,7 @@
         <v>0.6</v>
       </c>
       <c r="AP75">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ75">
         <v>0.91</v>
@@ -16787,7 +16796,7 @@
         <v>125</v>
       </c>
       <c r="P76" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -17199,7 +17208,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q78">
         <v>2.75</v>
@@ -17405,7 +17414,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17611,7 +17620,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q80">
         <v>2.2</v>
@@ -17689,10 +17698,10 @@
         <v>0</v>
       </c>
       <c r="AP80">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ80">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR80">
         <v>1.6</v>
@@ -17817,7 +17826,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q81">
         <v>2.31</v>
@@ -18229,7 +18238,7 @@
         <v>151</v>
       </c>
       <c r="P83" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q83">
         <v>2.7</v>
@@ -18310,7 +18319,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ83">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR83">
         <v>1.42</v>
@@ -18513,10 +18522,10 @@
         <v>1</v>
       </c>
       <c r="AP84">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ84">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR84">
         <v>1.53</v>
@@ -18641,7 +18650,7 @@
         <v>153</v>
       </c>
       <c r="P85" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q85">
         <v>3.5</v>
@@ -18722,7 +18731,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ85">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AR85">
         <v>1.61</v>
@@ -18847,7 +18856,7 @@
         <v>154</v>
       </c>
       <c r="P86" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q86">
         <v>2.55</v>
@@ -19053,7 +19062,7 @@
         <v>155</v>
       </c>
       <c r="P87" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q87">
         <v>2.27</v>
@@ -19465,7 +19474,7 @@
         <v>156</v>
       </c>
       <c r="P89" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q89">
         <v>2.8</v>
@@ -19671,7 +19680,7 @@
         <v>157</v>
       </c>
       <c r="P90" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q90">
         <v>2.6</v>
@@ -19877,7 +19886,7 @@
         <v>158</v>
       </c>
       <c r="P91" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -20083,7 +20092,7 @@
         <v>159</v>
       </c>
       <c r="P92" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q92">
         <v>3.6</v>
@@ -20367,7 +20376,7 @@
         <v>0.2</v>
       </c>
       <c r="AP93">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ93">
         <v>0.8</v>
@@ -20495,7 +20504,7 @@
         <v>161</v>
       </c>
       <c r="P94" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q94">
         <v>2.1</v>
@@ -20701,7 +20710,7 @@
         <v>162</v>
       </c>
       <c r="P95" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q95">
         <v>2.17</v>
@@ -20782,7 +20791,7 @@
         <v>2</v>
       </c>
       <c r="AQ95">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR95">
         <v>1.88</v>
@@ -20985,7 +20994,7 @@
         <v>0.6</v>
       </c>
       <c r="AP96">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ96">
         <v>1.5</v>
@@ -21319,7 +21328,7 @@
         <v>149</v>
       </c>
       <c r="P98" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q98">
         <v>3.54</v>
@@ -21400,7 +21409,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ98">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AR98">
         <v>2.17</v>
@@ -21525,7 +21534,7 @@
         <v>165</v>
       </c>
       <c r="P99" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q99">
         <v>3.35</v>
@@ -21606,7 +21615,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ99">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR99">
         <v>1.79</v>
@@ -21812,7 +21821,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ100">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR100">
         <v>1.53</v>
@@ -21937,7 +21946,7 @@
         <v>167</v>
       </c>
       <c r="P101" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q101">
         <v>2.96</v>
@@ -22015,10 +22024,10 @@
         <v>0.2</v>
       </c>
       <c r="AP101">
+        <v>0.73</v>
+      </c>
+      <c r="AQ101">
         <v>0.8</v>
-      </c>
-      <c r="AQ101">
-        <v>0.89</v>
       </c>
       <c r="AR101">
         <v>1.53</v>
@@ -22143,7 +22152,7 @@
         <v>168</v>
       </c>
       <c r="P102" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q102">
         <v>2.44</v>
@@ -22221,7 +22230,7 @@
         <v>1</v>
       </c>
       <c r="AP102">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ102">
         <v>1.2</v>
@@ -22349,7 +22358,7 @@
         <v>103</v>
       </c>
       <c r="P103" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q103">
         <v>1.81</v>
@@ -22761,7 +22770,7 @@
         <v>170</v>
       </c>
       <c r="P105" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q105">
         <v>2.69</v>
@@ -22967,7 +22976,7 @@
         <v>171</v>
       </c>
       <c r="P106" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q106">
         <v>2.56</v>
@@ -23585,7 +23594,7 @@
         <v>174</v>
       </c>
       <c r="P109" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q109">
         <v>3.5</v>
@@ -23791,7 +23800,7 @@
         <v>175</v>
       </c>
       <c r="P110" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q110">
         <v>2.43</v>
@@ -23869,7 +23878,7 @@
         <v>1.33</v>
       </c>
       <c r="AP110">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ110">
         <v>1.2</v>
@@ -23997,7 +24006,7 @@
         <v>103</v>
       </c>
       <c r="P111" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q111">
         <v>3.02</v>
@@ -24409,7 +24418,7 @@
         <v>103</v>
       </c>
       <c r="P113" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q113">
         <v>2.85</v>
@@ -24696,7 +24705,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ114">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR114">
         <v>1.27</v>
@@ -24899,7 +24908,7 @@
         <v>1.57</v>
       </c>
       <c r="AP115">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ115">
         <v>1.3</v>
@@ -25027,7 +25036,7 @@
         <v>177</v>
       </c>
       <c r="P116" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q116">
         <v>4.5</v>
@@ -25108,7 +25117,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ116">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AR116">
         <v>1.83</v>
@@ -25311,7 +25320,7 @@
         <v>0.57</v>
       </c>
       <c r="AP117">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ117">
         <v>0.8</v>
@@ -25439,7 +25448,7 @@
         <v>103</v>
       </c>
       <c r="P118" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q118">
         <v>3.2</v>
@@ -25723,7 +25732,7 @@
         <v>0.17</v>
       </c>
       <c r="AP119">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ119">
         <v>0.5</v>
@@ -26057,7 +26066,7 @@
         <v>180</v>
       </c>
       <c r="P121" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q121">
         <v>2.38</v>
@@ -26469,7 +26478,7 @@
         <v>170</v>
       </c>
       <c r="P123" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q123">
         <v>2.51</v>
@@ -26675,7 +26684,7 @@
         <v>182</v>
       </c>
       <c r="P124" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q124">
         <v>2.46</v>
@@ -26881,7 +26890,7 @@
         <v>183</v>
       </c>
       <c r="P125" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q125">
         <v>3.68</v>
@@ -27087,7 +27096,7 @@
         <v>184</v>
       </c>
       <c r="P126" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q126">
         <v>1.95</v>
@@ -27580,7 +27589,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ128">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR128">
         <v>1.78</v>
@@ -27705,7 +27714,7 @@
         <v>187</v>
       </c>
       <c r="P129" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q129">
         <v>3</v>
@@ -27911,7 +27920,7 @@
         <v>103</v>
       </c>
       <c r="P130" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q130">
         <v>2.88</v>
@@ -27989,7 +27998,7 @@
         <v>0.5</v>
       </c>
       <c r="AP130">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ130">
         <v>0.8</v>
@@ -28117,7 +28126,7 @@
         <v>103</v>
       </c>
       <c r="P131" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q131">
         <v>3.04</v>
@@ -28198,7 +28207,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ131">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR131">
         <v>1.24</v>
@@ -28323,7 +28332,7 @@
         <v>103</v>
       </c>
       <c r="P132" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q132">
         <v>3.75</v>
@@ -28401,10 +28410,10 @@
         <v>2.13</v>
       </c>
       <c r="AP132">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ132">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AR132">
         <v>1.52</v>
@@ -28529,7 +28538,7 @@
         <v>103</v>
       </c>
       <c r="P133" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q133">
         <v>3.2</v>
@@ -28735,7 +28744,7 @@
         <v>103</v>
       </c>
       <c r="P134" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q134">
         <v>2.69</v>
@@ -29019,10 +29028,10 @@
         <v>1.25</v>
       </c>
       <c r="AP135">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ135">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR135">
         <v>1.79</v>
@@ -29559,7 +29568,7 @@
         <v>190</v>
       </c>
       <c r="P138" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q138">
         <v>3.6</v>
@@ -29765,7 +29774,7 @@
         <v>191</v>
       </c>
       <c r="P139" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q139">
         <v>2.61</v>
@@ -30383,7 +30392,7 @@
         <v>194</v>
       </c>
       <c r="P142" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q142">
         <v>2.2</v>
@@ -30589,7 +30598,7 @@
         <v>195</v>
       </c>
       <c r="P143" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q143">
         <v>2.75</v>
@@ -30795,7 +30804,7 @@
         <v>103</v>
       </c>
       <c r="P144" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q144">
         <v>3.44</v>
@@ -30873,10 +30882,10 @@
         <v>1</v>
       </c>
       <c r="AP144">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ144">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR144">
         <v>1.67</v>
@@ -31001,7 +31010,7 @@
         <v>91</v>
       </c>
       <c r="P145" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q145">
         <v>2.02</v>
@@ -31082,7 +31091,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ145">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR145">
         <v>1.65</v>
@@ -31207,7 +31216,7 @@
         <v>196</v>
       </c>
       <c r="P146" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q146">
         <v>3.75</v>
@@ -31288,7 +31297,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ146">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AR146">
         <v>1.75</v>
@@ -31700,7 +31709,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ148">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR148">
         <v>1.5</v>
@@ -31903,7 +31912,7 @@
         <v>1.33</v>
       </c>
       <c r="AP149">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ149">
         <v>1.2</v>
@@ -32031,7 +32040,7 @@
         <v>199</v>
       </c>
       <c r="P150" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q150">
         <v>1.8</v>
@@ -32109,7 +32118,7 @@
         <v>0.22</v>
       </c>
       <c r="AP150">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ150">
         <v>0.3</v>
@@ -32237,7 +32246,7 @@
         <v>200</v>
       </c>
       <c r="P151" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q151">
         <v>2.48</v>
@@ -32315,7 +32324,7 @@
         <v>1.33</v>
       </c>
       <c r="AP151">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ151">
         <v>1.3</v>
@@ -32443,7 +32452,7 @@
         <v>201</v>
       </c>
       <c r="P152" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q152">
         <v>3.4</v>
@@ -32521,10 +32530,10 @@
         <v>1.11</v>
       </c>
       <c r="AP152">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ152">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR152">
         <v>1.66</v>
@@ -32730,7 +32739,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ153">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR153">
         <v>1.6</v>
@@ -32855,7 +32864,7 @@
         <v>203</v>
       </c>
       <c r="P154" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q154">
         <v>1.91</v>
@@ -33061,7 +33070,7 @@
         <v>103</v>
       </c>
       <c r="P155" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q155">
         <v>2.5</v>
@@ -33267,7 +33276,7 @@
         <v>204</v>
       </c>
       <c r="P156" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q156">
         <v>2.7</v>
@@ -33473,7 +33482,7 @@
         <v>205</v>
       </c>
       <c r="P157" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q157">
         <v>2.32</v>
@@ -33885,7 +33894,7 @@
         <v>163</v>
       </c>
       <c r="P159" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q159">
         <v>3.06</v>
@@ -34091,7 +34100,7 @@
         <v>207</v>
       </c>
       <c r="P160" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q160">
         <v>2</v>
@@ -34454,6 +34463,830 @@
       </c>
       <c r="BP161">
         <v>1.53</v>
+      </c>
+    </row>
+    <row r="162" spans="1:68">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>7296429</v>
+      </c>
+      <c r="C162" t="s">
+        <v>68</v>
+      </c>
+      <c r="D162" t="s">
+        <v>69</v>
+      </c>
+      <c r="E162" s="2">
+        <v>45536.39583333334</v>
+      </c>
+      <c r="F162">
+        <v>21</v>
+      </c>
+      <c r="G162" t="s">
+        <v>76</v>
+      </c>
+      <c r="H162" t="s">
+        <v>72</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162">
+        <v>0</v>
+      </c>
+      <c r="M162">
+        <v>2</v>
+      </c>
+      <c r="N162">
+        <v>2</v>
+      </c>
+      <c r="O162" t="s">
+        <v>103</v>
+      </c>
+      <c r="P162" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q162">
+        <v>6.3</v>
+      </c>
+      <c r="R162">
+        <v>2.93</v>
+      </c>
+      <c r="S162">
+        <v>1.65</v>
+      </c>
+      <c r="T162">
+        <v>1.17</v>
+      </c>
+      <c r="U162">
+        <v>4.65</v>
+      </c>
+      <c r="V162">
+        <v>1.87</v>
+      </c>
+      <c r="W162">
+        <v>1.87</v>
+      </c>
+      <c r="X162">
+        <v>3.62</v>
+      </c>
+      <c r="Y162">
+        <v>1.26</v>
+      </c>
+      <c r="Z162">
+        <v>7</v>
+      </c>
+      <c r="AA162">
+        <v>5.6</v>
+      </c>
+      <c r="AB162">
+        <v>1.28</v>
+      </c>
+      <c r="AC162">
+        <v>1.01</v>
+      </c>
+      <c r="AD162">
+        <v>38</v>
+      </c>
+      <c r="AE162">
+        <v>1.05</v>
+      </c>
+      <c r="AF162">
+        <v>8</v>
+      </c>
+      <c r="AG162">
+        <v>1.33</v>
+      </c>
+      <c r="AH162">
+        <v>3.04</v>
+      </c>
+      <c r="AI162">
+        <v>1.53</v>
+      </c>
+      <c r="AJ162">
+        <v>2.34</v>
+      </c>
+      <c r="AK162">
+        <v>3.4</v>
+      </c>
+      <c r="AL162">
+        <v>1.12</v>
+      </c>
+      <c r="AM162">
+        <v>1.06</v>
+      </c>
+      <c r="AN162">
+        <v>0.8</v>
+      </c>
+      <c r="AO162">
+        <v>2.3</v>
+      </c>
+      <c r="AP162">
+        <v>0.73</v>
+      </c>
+      <c r="AQ162">
+        <v>2.36</v>
+      </c>
+      <c r="AR162">
+        <v>1.61</v>
+      </c>
+      <c r="AS162">
+        <v>1.9</v>
+      </c>
+      <c r="AT162">
+        <v>3.51</v>
+      </c>
+      <c r="AU162">
+        <v>3</v>
+      </c>
+      <c r="AV162">
+        <v>7</v>
+      </c>
+      <c r="AW162">
+        <v>5</v>
+      </c>
+      <c r="AX162">
+        <v>12</v>
+      </c>
+      <c r="AY162">
+        <v>8</v>
+      </c>
+      <c r="AZ162">
+        <v>19</v>
+      </c>
+      <c r="BA162">
+        <v>4</v>
+      </c>
+      <c r="BB162">
+        <v>12</v>
+      </c>
+      <c r="BC162">
+        <v>16</v>
+      </c>
+      <c r="BD162">
+        <v>3.34</v>
+      </c>
+      <c r="BE162">
+        <v>12.25</v>
+      </c>
+      <c r="BF162">
+        <v>1.38</v>
+      </c>
+      <c r="BG162">
+        <v>0</v>
+      </c>
+      <c r="BH162">
+        <v>0</v>
+      </c>
+      <c r="BI162">
+        <v>1.21</v>
+      </c>
+      <c r="BJ162">
+        <v>3.74</v>
+      </c>
+      <c r="BK162">
+        <v>1.39</v>
+      </c>
+      <c r="BL162">
+        <v>2.67</v>
+      </c>
+      <c r="BM162">
+        <v>1.65</v>
+      </c>
+      <c r="BN162">
+        <v>2.2</v>
+      </c>
+      <c r="BO162">
+        <v>2.04</v>
+      </c>
+      <c r="BP162">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="163" spans="1:68">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>7296431</v>
+      </c>
+      <c r="C163" t="s">
+        <v>68</v>
+      </c>
+      <c r="D163" t="s">
+        <v>69</v>
+      </c>
+      <c r="E163" s="2">
+        <v>45536.5</v>
+      </c>
+      <c r="F163">
+        <v>21</v>
+      </c>
+      <c r="G163" t="s">
+        <v>70</v>
+      </c>
+      <c r="H163" t="s">
+        <v>81</v>
+      </c>
+      <c r="I163">
+        <v>2</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>2</v>
+      </c>
+      <c r="L163">
+        <v>3</v>
+      </c>
+      <c r="M163">
+        <v>0</v>
+      </c>
+      <c r="N163">
+        <v>3</v>
+      </c>
+      <c r="O163" t="s">
+        <v>208</v>
+      </c>
+      <c r="P163" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q163">
+        <v>2.32</v>
+      </c>
+      <c r="R163">
+        <v>2.59</v>
+      </c>
+      <c r="S163">
+        <v>3.96</v>
+      </c>
+      <c r="T163">
+        <v>1.21</v>
+      </c>
+      <c r="U163">
+        <v>3.8</v>
+      </c>
+      <c r="V163">
+        <v>2.14</v>
+      </c>
+      <c r="W163">
+        <v>1.68</v>
+      </c>
+      <c r="X163">
+        <v>4.3</v>
+      </c>
+      <c r="Y163">
+        <v>1.18</v>
+      </c>
+      <c r="Z163">
+        <v>1.8</v>
+      </c>
+      <c r="AA163">
+        <v>3.9</v>
+      </c>
+      <c r="AB163">
+        <v>3.4</v>
+      </c>
+      <c r="AC163">
+        <v>1.02</v>
+      </c>
+      <c r="AD163">
+        <v>21.5</v>
+      </c>
+      <c r="AE163">
+        <v>1.12</v>
+      </c>
+      <c r="AF163">
+        <v>5.25</v>
+      </c>
+      <c r="AG163">
+        <v>1.5</v>
+      </c>
+      <c r="AH163">
+        <v>2.4</v>
+      </c>
+      <c r="AI163">
+        <v>1.43</v>
+      </c>
+      <c r="AJ163">
+        <v>2.73</v>
+      </c>
+      <c r="AK163">
+        <v>1.28</v>
+      </c>
+      <c r="AL163">
+        <v>1.22</v>
+      </c>
+      <c r="AM163">
+        <v>1.86</v>
+      </c>
+      <c r="AN163">
+        <v>2.3</v>
+      </c>
+      <c r="AO163">
+        <v>1.3</v>
+      </c>
+      <c r="AP163">
+        <v>2.36</v>
+      </c>
+      <c r="AQ163">
+        <v>1.18</v>
+      </c>
+      <c r="AR163">
+        <v>1.74</v>
+      </c>
+      <c r="AS163">
+        <v>1.95</v>
+      </c>
+      <c r="AT163">
+        <v>3.69</v>
+      </c>
+      <c r="AU163">
+        <v>11</v>
+      </c>
+      <c r="AV163">
+        <v>9</v>
+      </c>
+      <c r="AW163">
+        <v>3</v>
+      </c>
+      <c r="AX163">
+        <v>4</v>
+      </c>
+      <c r="AY163">
+        <v>14</v>
+      </c>
+      <c r="AZ163">
+        <v>13</v>
+      </c>
+      <c r="BA163">
+        <v>5</v>
+      </c>
+      <c r="BB163">
+        <v>5</v>
+      </c>
+      <c r="BC163">
+        <v>10</v>
+      </c>
+      <c r="BD163">
+        <v>1.64</v>
+      </c>
+      <c r="BE163">
+        <v>9</v>
+      </c>
+      <c r="BF163">
+        <v>2.6</v>
+      </c>
+      <c r="BG163">
+        <v>0</v>
+      </c>
+      <c r="BH163">
+        <v>0</v>
+      </c>
+      <c r="BI163">
+        <v>1.19</v>
+      </c>
+      <c r="BJ163">
+        <v>4.35</v>
+      </c>
+      <c r="BK163">
+        <v>1.35</v>
+      </c>
+      <c r="BL163">
+        <v>2.84</v>
+      </c>
+      <c r="BM163">
+        <v>1.65</v>
+      </c>
+      <c r="BN163">
+        <v>2.2</v>
+      </c>
+      <c r="BO163">
+        <v>2.02</v>
+      </c>
+      <c r="BP163">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="164" spans="1:68">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>7296432</v>
+      </c>
+      <c r="C164" t="s">
+        <v>68</v>
+      </c>
+      <c r="D164" t="s">
+        <v>69</v>
+      </c>
+      <c r="E164" s="2">
+        <v>45536.5</v>
+      </c>
+      <c r="F164">
+        <v>21</v>
+      </c>
+      <c r="G164" t="s">
+        <v>77</v>
+      </c>
+      <c r="H164" t="s">
+        <v>75</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+      <c r="L164">
+        <v>1</v>
+      </c>
+      <c r="M164">
+        <v>0</v>
+      </c>
+      <c r="N164">
+        <v>1</v>
+      </c>
+      <c r="O164" t="s">
+        <v>209</v>
+      </c>
+      <c r="P164" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q164">
+        <v>2.25</v>
+      </c>
+      <c r="R164">
+        <v>2.3</v>
+      </c>
+      <c r="S164">
+        <v>4.5</v>
+      </c>
+      <c r="T164">
+        <v>1.29</v>
+      </c>
+      <c r="U164">
+        <v>3.3</v>
+      </c>
+      <c r="V164">
+        <v>2.4</v>
+      </c>
+      <c r="W164">
+        <v>1.5</v>
+      </c>
+      <c r="X164">
+        <v>5.25</v>
+      </c>
+      <c r="Y164">
+        <v>1.12</v>
+      </c>
+      <c r="Z164">
+        <v>1.65</v>
+      </c>
+      <c r="AA164">
+        <v>4.2</v>
+      </c>
+      <c r="AB164">
+        <v>3.8</v>
+      </c>
+      <c r="AC164">
+        <v>1.01</v>
+      </c>
+      <c r="AD164">
+        <v>11</v>
+      </c>
+      <c r="AE164">
+        <v>1.2</v>
+      </c>
+      <c r="AF164">
+        <v>4</v>
+      </c>
+      <c r="AG164">
+        <v>1.65</v>
+      </c>
+      <c r="AH164">
+        <v>2.1</v>
+      </c>
+      <c r="AI164">
+        <v>1.65</v>
+      </c>
+      <c r="AJ164">
+        <v>2.1</v>
+      </c>
+      <c r="AK164">
+        <v>1.22</v>
+      </c>
+      <c r="AL164">
+        <v>1.25</v>
+      </c>
+      <c r="AM164">
+        <v>2.1</v>
+      </c>
+      <c r="AN164">
+        <v>2.2</v>
+      </c>
+      <c r="AO164">
+        <v>0.89</v>
+      </c>
+      <c r="AP164">
+        <v>2.27</v>
+      </c>
+      <c r="AQ164">
+        <v>0.8</v>
+      </c>
+      <c r="AR164">
+        <v>1.47</v>
+      </c>
+      <c r="AS164">
+        <v>1.42</v>
+      </c>
+      <c r="AT164">
+        <v>2.89</v>
+      </c>
+      <c r="AU164">
+        <v>17</v>
+      </c>
+      <c r="AV164">
+        <v>6</v>
+      </c>
+      <c r="AW164">
+        <v>8</v>
+      </c>
+      <c r="AX164">
+        <v>3</v>
+      </c>
+      <c r="AY164">
+        <v>25</v>
+      </c>
+      <c r="AZ164">
+        <v>9</v>
+      </c>
+      <c r="BA164">
+        <v>9</v>
+      </c>
+      <c r="BB164">
+        <v>2</v>
+      </c>
+      <c r="BC164">
+        <v>11</v>
+      </c>
+      <c r="BD164">
+        <v>1.5</v>
+      </c>
+      <c r="BE164">
+        <v>9</v>
+      </c>
+      <c r="BF164">
+        <v>3.05</v>
+      </c>
+      <c r="BG164">
+        <v>0</v>
+      </c>
+      <c r="BH164">
+        <v>0</v>
+      </c>
+      <c r="BI164">
+        <v>1.25</v>
+      </c>
+      <c r="BJ164">
+        <v>3.42</v>
+      </c>
+      <c r="BK164">
+        <v>1.45</v>
+      </c>
+      <c r="BL164">
+        <v>2.48</v>
+      </c>
+      <c r="BM164">
+        <v>1.78</v>
+      </c>
+      <c r="BN164">
+        <v>2.01</v>
+      </c>
+      <c r="BO164">
+        <v>2.24</v>
+      </c>
+      <c r="BP164">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="165" spans="1:68">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>7296427</v>
+      </c>
+      <c r="C165" t="s">
+        <v>68</v>
+      </c>
+      <c r="D165" t="s">
+        <v>69</v>
+      </c>
+      <c r="E165" s="2">
+        <v>45536.58333333334</v>
+      </c>
+      <c r="F165">
+        <v>21</v>
+      </c>
+      <c r="G165" t="s">
+        <v>84</v>
+      </c>
+      <c r="H165" t="s">
+        <v>73</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="L165">
+        <v>0</v>
+      </c>
+      <c r="M165">
+        <v>0</v>
+      </c>
+      <c r="N165">
+        <v>0</v>
+      </c>
+      <c r="O165" t="s">
+        <v>103</v>
+      </c>
+      <c r="P165" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q165">
+        <v>2.3</v>
+      </c>
+      <c r="R165">
+        <v>2.4</v>
+      </c>
+      <c r="S165">
+        <v>3.75</v>
+      </c>
+      <c r="T165">
+        <v>1.22</v>
+      </c>
+      <c r="U165">
+        <v>3.75</v>
+      </c>
+      <c r="V165">
+        <v>2.18</v>
+      </c>
+      <c r="W165">
+        <v>1.66</v>
+      </c>
+      <c r="X165">
+        <v>5</v>
+      </c>
+      <c r="Y165">
+        <v>1.14</v>
+      </c>
+      <c r="Z165">
+        <v>1.85</v>
+      </c>
+      <c r="AA165">
+        <v>3.37</v>
+      </c>
+      <c r="AB165">
+        <v>3.11</v>
+      </c>
+      <c r="AC165">
+        <v>1.01</v>
+      </c>
+      <c r="AD165">
+        <v>13</v>
+      </c>
+      <c r="AE165">
+        <v>1.11</v>
+      </c>
+      <c r="AF165">
+        <v>5.5</v>
+      </c>
+      <c r="AG165">
+        <v>1.44</v>
+      </c>
+      <c r="AH165">
+        <v>2.6</v>
+      </c>
+      <c r="AI165">
+        <v>1.4</v>
+      </c>
+      <c r="AJ165">
+        <v>2.75</v>
+      </c>
+      <c r="AK165">
+        <v>1.25</v>
+      </c>
+      <c r="AL165">
+        <v>1.23</v>
+      </c>
+      <c r="AM165">
+        <v>1.9</v>
+      </c>
+      <c r="AN165">
+        <v>1.7</v>
+      </c>
+      <c r="AO165">
+        <v>1.11</v>
+      </c>
+      <c r="AP165">
+        <v>1.64</v>
+      </c>
+      <c r="AQ165">
+        <v>1.1</v>
+      </c>
+      <c r="AR165">
+        <v>1.89</v>
+      </c>
+      <c r="AS165">
+        <v>1.48</v>
+      </c>
+      <c r="AT165">
+        <v>3.37</v>
+      </c>
+      <c r="AU165">
+        <v>5</v>
+      </c>
+      <c r="AV165">
+        <v>6</v>
+      </c>
+      <c r="AW165">
+        <v>4</v>
+      </c>
+      <c r="AX165">
+        <v>10</v>
+      </c>
+      <c r="AY165">
+        <v>9</v>
+      </c>
+      <c r="AZ165">
+        <v>16</v>
+      </c>
+      <c r="BA165">
+        <v>5</v>
+      </c>
+      <c r="BB165">
+        <v>6</v>
+      </c>
+      <c r="BC165">
+        <v>11</v>
+      </c>
+      <c r="BD165">
+        <v>1.56</v>
+      </c>
+      <c r="BE165">
+        <v>9</v>
+      </c>
+      <c r="BF165">
+        <v>2.83</v>
+      </c>
+      <c r="BG165">
+        <v>0</v>
+      </c>
+      <c r="BH165">
+        <v>0</v>
+      </c>
+      <c r="BI165">
+        <v>1.21</v>
+      </c>
+      <c r="BJ165">
+        <v>4.1</v>
+      </c>
+      <c r="BK165">
+        <v>1.38</v>
+      </c>
+      <c r="BL165">
+        <v>2.71</v>
+      </c>
+      <c r="BM165">
+        <v>1.69</v>
+      </c>
+      <c r="BN165">
+        <v>2.13</v>
+      </c>
+      <c r="BO165">
+        <v>2.11</v>
+      </c>
+      <c r="BP165">
+        <v>1.71</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="312">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -646,6 +646,18 @@
     <t>['79']</t>
   </si>
   <si>
+    <t>['10', '16', '76', '88']</t>
+  </si>
+  <si>
+    <t>['55', '63']</t>
+  </si>
+  <si>
+    <t>['57', '90+3']</t>
+  </si>
+  <si>
+    <t>['12', '87']</t>
+  </si>
+  <si>
     <t>['90+1']</t>
   </si>
   <si>
@@ -932,6 +944,12 @@
   </si>
   <si>
     <t>['51', '65']</t>
+  </si>
+  <si>
+    <t>['31']</t>
+  </si>
+  <si>
+    <t>['13', '42', '61']</t>
   </si>
 </sst>
 </file>
@@ -1293,7 +1311,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP165"/>
+  <dimension ref="A1:BP169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1552,7 +1570,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q2">
         <v>2.84</v>
@@ -1633,7 +1651,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ2">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1758,7 +1776,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q3">
         <v>2.2</v>
@@ -1964,7 +1982,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -2045,7 +2063,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ4">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2376,7 +2394,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q6">
         <v>2.35</v>
@@ -2454,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ6">
         <v>1</v>
@@ -2582,7 +2600,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q7">
         <v>2.66</v>
@@ -2788,7 +2806,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q8">
         <v>2.8</v>
@@ -2869,7 +2887,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ8">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3200,7 +3218,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3406,7 +3424,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3484,7 +3502,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ11">
         <v>2.36</v>
@@ -3612,7 +3630,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3690,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ12">
         <v>0.5</v>
@@ -4102,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ14">
         <v>1.3</v>
@@ -4230,7 +4248,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q15">
         <v>2.05</v>
@@ -4517,7 +4535,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ16">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4642,7 +4660,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q17">
         <v>2.15</v>
@@ -4848,7 +4866,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q18">
         <v>2.15</v>
@@ -4929,7 +4947,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ18">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AR18">
         <v>1.34</v>
@@ -5672,7 +5690,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q22">
         <v>2.76</v>
@@ -5750,10 +5768,10 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ22">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR22">
         <v>1.02</v>
@@ -5878,7 +5896,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q23">
         <v>2.85</v>
@@ -5959,7 +5977,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ23">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AR23">
         <v>1.2</v>
@@ -6084,7 +6102,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q24">
         <v>2.05</v>
@@ -6702,7 +6720,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6780,10 +6798,10 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ27">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR27">
         <v>1.67</v>
@@ -6986,7 +7004,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ28">
         <v>1.5</v>
@@ -7114,7 +7132,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q29">
         <v>2.25</v>
@@ -7192,7 +7210,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ29">
         <v>0.8</v>
@@ -7526,7 +7544,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7813,7 +7831,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ32">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR32">
         <v>1.53</v>
@@ -7938,7 +7956,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q33">
         <v>3.05</v>
@@ -8144,7 +8162,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q34">
         <v>2.26</v>
@@ -8350,7 +8368,7 @@
         <v>115</v>
       </c>
       <c r="P35" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q35">
         <v>3.46</v>
@@ -8428,7 +8446,7 @@
         <v>2</v>
       </c>
       <c r="AP35">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ35">
         <v>1.18</v>
@@ -8637,7 +8655,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ36">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AR36">
         <v>1.75</v>
@@ -8762,7 +8780,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q37">
         <v>2.72</v>
@@ -8843,7 +8861,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ37">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AR37">
         <v>1.12</v>
@@ -8968,7 +8986,7 @@
         <v>118</v>
       </c>
       <c r="P38" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q38">
         <v>4.55</v>
@@ -9174,7 +9192,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q39">
         <v>2.78</v>
@@ -9458,7 +9476,7 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ40">
         <v>0.8</v>
@@ -9998,7 +10016,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q43">
         <v>3.11</v>
@@ -10204,7 +10222,7 @@
         <v>123</v>
       </c>
       <c r="P44" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q44">
         <v>3.3</v>
@@ -10410,7 +10428,7 @@
         <v>94</v>
       </c>
       <c r="P45" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q45">
         <v>2.4</v>
@@ -10697,7 +10715,7 @@
         <v>2</v>
       </c>
       <c r="AQ46">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR46">
         <v>1.14</v>
@@ -10900,10 +10918,10 @@
         <v>0.67</v>
       </c>
       <c r="AP47">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ47">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR47">
         <v>1.55</v>
@@ -11440,7 +11458,7 @@
         <v>103</v>
       </c>
       <c r="P50" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q50">
         <v>3.89</v>
@@ -11646,7 +11664,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q51">
         <v>2.61</v>
@@ -11724,10 +11742,10 @@
         <v>2.33</v>
       </c>
       <c r="AP51">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ51">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AR51">
         <v>1.26</v>
@@ -11852,7 +11870,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -12058,7 +12076,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q53">
         <v>2.05</v>
@@ -12548,10 +12566,10 @@
         <v>0.33</v>
       </c>
       <c r="AP55">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ55">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AR55">
         <v>1.63</v>
@@ -12882,7 +12900,7 @@
         <v>103</v>
       </c>
       <c r="P57" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q57">
         <v>2.57</v>
@@ -12963,7 +12981,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ57">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR57">
         <v>1.2</v>
@@ -13088,7 +13106,7 @@
         <v>132</v>
       </c>
       <c r="P58" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q58">
         <v>2.3</v>
@@ -13166,7 +13184,7 @@
         <v>0.5</v>
       </c>
       <c r="AP58">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ58">
         <v>0.91</v>
@@ -13294,7 +13312,7 @@
         <v>103</v>
       </c>
       <c r="P59" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q59">
         <v>2.75</v>
@@ -13372,7 +13390,7 @@
         <v>0.33</v>
       </c>
       <c r="AP59">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ59">
         <v>1.3</v>
@@ -13500,7 +13518,7 @@
         <v>103</v>
       </c>
       <c r="P60" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q60">
         <v>2.32</v>
@@ -13581,7 +13599,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ60">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR60">
         <v>2.26</v>
@@ -13912,7 +13930,7 @@
         <v>134</v>
       </c>
       <c r="P62" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q62">
         <v>2.39</v>
@@ -14118,7 +14136,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q63">
         <v>2.84</v>
@@ -14199,7 +14217,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ63">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AR63">
         <v>1.75</v>
@@ -14324,7 +14342,7 @@
         <v>136</v>
       </c>
       <c r="P64" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q64">
         <v>2.7</v>
@@ -14405,7 +14423,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ64">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AR64">
         <v>1.35</v>
@@ -14530,7 +14548,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -14608,7 +14626,7 @@
         <v>1.75</v>
       </c>
       <c r="AP65">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ65">
         <v>2.36</v>
@@ -14814,7 +14832,7 @@
         <v>1.5</v>
       </c>
       <c r="AP66">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ66">
         <v>1.18</v>
@@ -14942,7 +14960,7 @@
         <v>139</v>
       </c>
       <c r="P67" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q67">
         <v>2.5</v>
@@ -15560,7 +15578,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q70">
         <v>1.85</v>
@@ -15972,7 +15990,7 @@
         <v>143</v>
       </c>
       <c r="P72" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q72">
         <v>2.24</v>
@@ -16178,7 +16196,7 @@
         <v>103</v>
       </c>
       <c r="P73" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q73">
         <v>3.66</v>
@@ -16259,7 +16277,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ73">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR73">
         <v>1.41</v>
@@ -16384,7 +16402,7 @@
         <v>144</v>
       </c>
       <c r="P74" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q74">
         <v>2.4</v>
@@ -16465,7 +16483,7 @@
         <v>2</v>
       </c>
       <c r="AQ74">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AR74">
         <v>1.87</v>
@@ -16590,7 +16608,7 @@
         <v>145</v>
       </c>
       <c r="P75" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q75">
         <v>2.38</v>
@@ -16796,7 +16814,7 @@
         <v>125</v>
       </c>
       <c r="P76" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -17080,7 +17098,7 @@
         <v>1.25</v>
       </c>
       <c r="AP77">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ77">
         <v>1.2</v>
@@ -17208,7 +17226,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q78">
         <v>2.75</v>
@@ -17414,7 +17432,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17495,7 +17513,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ79">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR79">
         <v>2.01</v>
@@ -17620,7 +17638,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q80">
         <v>2.2</v>
@@ -17826,7 +17844,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q81">
         <v>2.31</v>
@@ -18110,7 +18128,7 @@
         <v>0.25</v>
       </c>
       <c r="AP82">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ82">
         <v>0.5</v>
@@ -18238,7 +18256,7 @@
         <v>151</v>
       </c>
       <c r="P83" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q83">
         <v>2.7</v>
@@ -18650,7 +18668,7 @@
         <v>153</v>
       </c>
       <c r="P85" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q85">
         <v>3.5</v>
@@ -18728,7 +18746,7 @@
         <v>2</v>
       </c>
       <c r="AP85">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ85">
         <v>2.36</v>
@@ -18856,7 +18874,7 @@
         <v>154</v>
       </c>
       <c r="P86" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q86">
         <v>2.55</v>
@@ -19062,7 +19080,7 @@
         <v>155</v>
       </c>
       <c r="P87" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q87">
         <v>2.27</v>
@@ -19140,10 +19158,10 @@
         <v>0.2</v>
       </c>
       <c r="AP87">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ87">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AR87">
         <v>1.38</v>
@@ -19474,7 +19492,7 @@
         <v>156</v>
       </c>
       <c r="P89" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q89">
         <v>2.8</v>
@@ -19680,7 +19698,7 @@
         <v>157</v>
       </c>
       <c r="P90" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q90">
         <v>2.6</v>
@@ -19761,7 +19779,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ90">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AR90">
         <v>1.67</v>
@@ -19886,7 +19904,7 @@
         <v>158</v>
       </c>
       <c r="P91" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -20092,7 +20110,7 @@
         <v>159</v>
       </c>
       <c r="P92" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q92">
         <v>3.6</v>
@@ -20173,7 +20191,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ92">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR92">
         <v>1.3</v>
@@ -20504,7 +20522,7 @@
         <v>161</v>
       </c>
       <c r="P94" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q94">
         <v>2.1</v>
@@ -20710,7 +20728,7 @@
         <v>162</v>
       </c>
       <c r="P95" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q95">
         <v>2.17</v>
@@ -21200,7 +21218,7 @@
         <v>1.5</v>
       </c>
       <c r="AP97">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ97">
         <v>1.3</v>
@@ -21328,7 +21346,7 @@
         <v>149</v>
       </c>
       <c r="P98" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q98">
         <v>3.54</v>
@@ -21534,7 +21552,7 @@
         <v>165</v>
       </c>
       <c r="P99" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q99">
         <v>3.35</v>
@@ -21818,7 +21836,7 @@
         <v>0.8</v>
       </c>
       <c r="AP100">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ100">
         <v>1.1</v>
@@ -21946,7 +21964,7 @@
         <v>167</v>
       </c>
       <c r="P101" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q101">
         <v>2.96</v>
@@ -22152,7 +22170,7 @@
         <v>168</v>
       </c>
       <c r="P102" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q102">
         <v>2.44</v>
@@ -22233,7 +22251,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ102">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR102">
         <v>1.74</v>
@@ -22358,7 +22376,7 @@
         <v>103</v>
       </c>
       <c r="P103" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q103">
         <v>1.81</v>
@@ -22645,7 +22663,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ104">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR104">
         <v>1.63</v>
@@ -22770,7 +22788,7 @@
         <v>170</v>
       </c>
       <c r="P105" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q105">
         <v>2.69</v>
@@ -22976,7 +22994,7 @@
         <v>171</v>
       </c>
       <c r="P106" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q106">
         <v>2.56</v>
@@ -23054,10 +23072,10 @@
         <v>0.33</v>
       </c>
       <c r="AP106">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ106">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AR106">
         <v>1.19</v>
@@ -23594,7 +23612,7 @@
         <v>174</v>
       </c>
       <c r="P109" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q109">
         <v>3.5</v>
@@ -23672,7 +23690,7 @@
         <v>1.17</v>
       </c>
       <c r="AP109">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ109">
         <v>1.3</v>
@@ -23800,7 +23818,7 @@
         <v>175</v>
       </c>
       <c r="P110" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q110">
         <v>2.43</v>
@@ -24006,7 +24024,7 @@
         <v>103</v>
       </c>
       <c r="P111" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q111">
         <v>3.02</v>
@@ -24087,7 +24105,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ111">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AR111">
         <v>1.49</v>
@@ -24290,10 +24308,10 @@
         <v>1.29</v>
       </c>
       <c r="AP112">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ112">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR112">
         <v>1.58</v>
@@ -24418,7 +24436,7 @@
         <v>103</v>
       </c>
       <c r="P113" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q113">
         <v>2.85</v>
@@ -24702,7 +24720,7 @@
         <v>1.29</v>
       </c>
       <c r="AP114">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ114">
         <v>1.18</v>
@@ -24911,7 +24929,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ115">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR115">
         <v>1.53</v>
@@ -25036,7 +25054,7 @@
         <v>177</v>
       </c>
       <c r="P116" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q116">
         <v>4.5</v>
@@ -25448,7 +25466,7 @@
         <v>103</v>
       </c>
       <c r="P118" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q118">
         <v>3.2</v>
@@ -25526,7 +25544,7 @@
         <v>0.86</v>
       </c>
       <c r="AP118">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ118">
         <v>1</v>
@@ -25938,7 +25956,7 @@
         <v>1.29</v>
       </c>
       <c r="AP120">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ120">
         <v>1.3</v>
@@ -26066,7 +26084,7 @@
         <v>180</v>
       </c>
       <c r="P121" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q121">
         <v>2.38</v>
@@ -26353,7 +26371,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ122">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AR122">
         <v>1.59</v>
@@ -26478,7 +26496,7 @@
         <v>170</v>
       </c>
       <c r="P123" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q123">
         <v>2.51</v>
@@ -26684,7 +26702,7 @@
         <v>182</v>
       </c>
       <c r="P124" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q124">
         <v>2.46</v>
@@ -26765,7 +26783,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ124">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AR124">
         <v>1.3</v>
@@ -26890,7 +26908,7 @@
         <v>183</v>
       </c>
       <c r="P125" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q125">
         <v>3.68</v>
@@ -27096,7 +27114,7 @@
         <v>184</v>
       </c>
       <c r="P126" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q126">
         <v>1.95</v>
@@ -27714,7 +27732,7 @@
         <v>187</v>
       </c>
       <c r="P129" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q129">
         <v>3</v>
@@ -27792,10 +27810,10 @@
         <v>1.38</v>
       </c>
       <c r="AP129">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ129">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR129">
         <v>1.53</v>
@@ -27920,7 +27938,7 @@
         <v>103</v>
       </c>
       <c r="P130" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q130">
         <v>2.88</v>
@@ -28126,7 +28144,7 @@
         <v>103</v>
       </c>
       <c r="P131" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q131">
         <v>3.04</v>
@@ -28204,7 +28222,7 @@
         <v>0.67</v>
       </c>
       <c r="AP131">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ131">
         <v>1.1</v>
@@ -28332,7 +28350,7 @@
         <v>103</v>
       </c>
       <c r="P132" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q132">
         <v>3.75</v>
@@ -28538,7 +28556,7 @@
         <v>103</v>
       </c>
       <c r="P133" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q133">
         <v>3.2</v>
@@ -28616,7 +28634,7 @@
         <v>0.86</v>
       </c>
       <c r="AP133">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ133">
         <v>1.5</v>
@@ -28744,7 +28762,7 @@
         <v>103</v>
       </c>
       <c r="P134" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q134">
         <v>2.69</v>
@@ -28825,7 +28843,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ134">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR134">
         <v>2.1</v>
@@ -29568,7 +29586,7 @@
         <v>190</v>
       </c>
       <c r="P138" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q138">
         <v>3.6</v>
@@ -29646,7 +29664,7 @@
         <v>1.13</v>
       </c>
       <c r="AP138">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ138">
         <v>1.5</v>
@@ -29774,7 +29792,7 @@
         <v>191</v>
       </c>
       <c r="P139" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q139">
         <v>2.61</v>
@@ -30392,7 +30410,7 @@
         <v>194</v>
       </c>
       <c r="P142" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q142">
         <v>2.2</v>
@@ -30473,7 +30491,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ142">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AR142">
         <v>2.1</v>
@@ -30598,7 +30616,7 @@
         <v>195</v>
       </c>
       <c r="P143" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q143">
         <v>2.75</v>
@@ -30804,7 +30822,7 @@
         <v>103</v>
       </c>
       <c r="P144" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q144">
         <v>3.44</v>
@@ -31010,7 +31028,7 @@
         <v>91</v>
       </c>
       <c r="P145" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q145">
         <v>2.02</v>
@@ -31088,7 +31106,7 @@
         <v>0.57</v>
       </c>
       <c r="AP145">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ145">
         <v>0.8</v>
@@ -31216,7 +31234,7 @@
         <v>196</v>
       </c>
       <c r="P146" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q146">
         <v>3.75</v>
@@ -31294,7 +31312,7 @@
         <v>2.22</v>
       </c>
       <c r="AP146">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ146">
         <v>2.36</v>
@@ -31500,10 +31518,10 @@
         <v>2.22</v>
       </c>
       <c r="AP147">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ147">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AR147">
         <v>1.14</v>
@@ -31706,7 +31724,7 @@
         <v>0.63</v>
       </c>
       <c r="AP148">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ148">
         <v>0.8</v>
@@ -31915,7 +31933,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ149">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR149">
         <v>1.48</v>
@@ -32040,7 +32058,7 @@
         <v>199</v>
       </c>
       <c r="P150" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q150">
         <v>1.8</v>
@@ -32121,7 +32139,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ150">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AR150">
         <v>1.87</v>
@@ -32246,7 +32264,7 @@
         <v>200</v>
       </c>
       <c r="P151" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q151">
         <v>2.48</v>
@@ -32327,7 +32345,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ151">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR151">
         <v>1.8</v>
@@ -32452,7 +32470,7 @@
         <v>201</v>
       </c>
       <c r="P152" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q152">
         <v>3.4</v>
@@ -32736,7 +32754,7 @@
         <v>1.25</v>
       </c>
       <c r="AP153">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ153">
         <v>1.1</v>
@@ -32864,7 +32882,7 @@
         <v>203</v>
       </c>
       <c r="P154" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q154">
         <v>1.91</v>
@@ -33070,7 +33088,7 @@
         <v>103</v>
       </c>
       <c r="P155" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q155">
         <v>2.5</v>
@@ -33276,7 +33294,7 @@
         <v>204</v>
       </c>
       <c r="P156" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q156">
         <v>2.7</v>
@@ -33482,7 +33500,7 @@
         <v>205</v>
       </c>
       <c r="P157" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q157">
         <v>2.32</v>
@@ -33894,7 +33912,7 @@
         <v>163</v>
       </c>
       <c r="P159" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q159">
         <v>3.06</v>
@@ -34100,7 +34118,7 @@
         <v>207</v>
       </c>
       <c r="P160" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q160">
         <v>2</v>
@@ -34512,7 +34530,7 @@
         <v>103</v>
       </c>
       <c r="P162" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q162">
         <v>6.3</v>
@@ -35287,6 +35305,830 @@
       </c>
       <c r="BP165">
         <v>1.71</v>
+      </c>
+    </row>
+    <row r="166" spans="1:68">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>7296428</v>
+      </c>
+      <c r="C166" t="s">
+        <v>68</v>
+      </c>
+      <c r="D166" t="s">
+        <v>69</v>
+      </c>
+      <c r="E166" s="2">
+        <v>45537.58333333334</v>
+      </c>
+      <c r="F166">
+        <v>21</v>
+      </c>
+      <c r="G166" t="s">
+        <v>79</v>
+      </c>
+      <c r="H166" t="s">
+        <v>83</v>
+      </c>
+      <c r="I166">
+        <v>2</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>2</v>
+      </c>
+      <c r="L166">
+        <v>4</v>
+      </c>
+      <c r="M166">
+        <v>1</v>
+      </c>
+      <c r="N166">
+        <v>5</v>
+      </c>
+      <c r="O166" t="s">
+        <v>210</v>
+      </c>
+      <c r="P166" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q166">
+        <v>3.92</v>
+      </c>
+      <c r="R166">
+        <v>2.28</v>
+      </c>
+      <c r="S166">
+        <v>2.68</v>
+      </c>
+      <c r="T166">
+        <v>1.33</v>
+      </c>
+      <c r="U166">
+        <v>2.95</v>
+      </c>
+      <c r="V166">
+        <v>2.65</v>
+      </c>
+      <c r="W166">
+        <v>1.4</v>
+      </c>
+      <c r="X166">
+        <v>5.5</v>
+      </c>
+      <c r="Y166">
+        <v>1.1</v>
+      </c>
+      <c r="Z166">
+        <v>2.8</v>
+      </c>
+      <c r="AA166">
+        <v>3.25</v>
+      </c>
+      <c r="AB166">
+        <v>2.3</v>
+      </c>
+      <c r="AC166">
+        <v>1.02</v>
+      </c>
+      <c r="AD166">
+        <v>9.5</v>
+      </c>
+      <c r="AE166">
+        <v>1.25</v>
+      </c>
+      <c r="AF166">
+        <v>3.5</v>
+      </c>
+      <c r="AG166">
+        <v>1.82</v>
+      </c>
+      <c r="AH166">
+        <v>1.96</v>
+      </c>
+      <c r="AI166">
+        <v>1.65</v>
+      </c>
+      <c r="AJ166">
+        <v>2.05</v>
+      </c>
+      <c r="AK166">
+        <v>1.6</v>
+      </c>
+      <c r="AL166">
+        <v>1.27</v>
+      </c>
+      <c r="AM166">
+        <v>1.27</v>
+      </c>
+      <c r="AN166">
+        <v>1.3</v>
+      </c>
+      <c r="AO166">
+        <v>1.2</v>
+      </c>
+      <c r="AP166">
+        <v>1.45</v>
+      </c>
+      <c r="AQ166">
+        <v>1.09</v>
+      </c>
+      <c r="AR166">
+        <v>1.27</v>
+      </c>
+      <c r="AS166">
+        <v>1.21</v>
+      </c>
+      <c r="AT166">
+        <v>2.48</v>
+      </c>
+      <c r="AU166">
+        <v>12</v>
+      </c>
+      <c r="AV166">
+        <v>6</v>
+      </c>
+      <c r="AW166">
+        <v>5</v>
+      </c>
+      <c r="AX166">
+        <v>3</v>
+      </c>
+      <c r="AY166">
+        <v>17</v>
+      </c>
+      <c r="AZ166">
+        <v>9</v>
+      </c>
+      <c r="BA166">
+        <v>4</v>
+      </c>
+      <c r="BB166">
+        <v>5</v>
+      </c>
+      <c r="BC166">
+        <v>9</v>
+      </c>
+      <c r="BD166">
+        <v>2.85</v>
+      </c>
+      <c r="BE166">
+        <v>7.7</v>
+      </c>
+      <c r="BF166">
+        <v>1.6</v>
+      </c>
+      <c r="BG166">
+        <v>0</v>
+      </c>
+      <c r="BH166">
+        <v>0</v>
+      </c>
+      <c r="BI166">
+        <v>1.24</v>
+      </c>
+      <c r="BJ166">
+        <v>3.85</v>
+      </c>
+      <c r="BK166">
+        <v>1.43</v>
+      </c>
+      <c r="BL166">
+        <v>2.7</v>
+      </c>
+      <c r="BM166">
+        <v>1.74</v>
+      </c>
+      <c r="BN166">
+        <v>2.02</v>
+      </c>
+      <c r="BO166">
+        <v>2.2</v>
+      </c>
+      <c r="BP166">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="167" spans="1:68">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>7296430</v>
+      </c>
+      <c r="C167" t="s">
+        <v>68</v>
+      </c>
+      <c r="D167" t="s">
+        <v>69</v>
+      </c>
+      <c r="E167" s="2">
+        <v>45537.58333333334</v>
+      </c>
+      <c r="F167">
+        <v>21</v>
+      </c>
+      <c r="G167" t="s">
+        <v>74</v>
+      </c>
+      <c r="H167" t="s">
+        <v>71</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>1</v>
+      </c>
+      <c r="K167">
+        <v>1</v>
+      </c>
+      <c r="L167">
+        <v>2</v>
+      </c>
+      <c r="M167">
+        <v>1</v>
+      </c>
+      <c r="N167">
+        <v>3</v>
+      </c>
+      <c r="O167" t="s">
+        <v>211</v>
+      </c>
+      <c r="P167" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q167">
+        <v>3.4</v>
+      </c>
+      <c r="R167">
+        <v>2.5</v>
+      </c>
+      <c r="S167">
+        <v>2.3</v>
+      </c>
+      <c r="T167">
+        <v>1.24</v>
+      </c>
+      <c r="U167">
+        <v>3.8</v>
+      </c>
+      <c r="V167">
+        <v>2.13</v>
+      </c>
+      <c r="W167">
+        <v>1.67</v>
+      </c>
+      <c r="X167">
+        <v>4.65</v>
+      </c>
+      <c r="Y167">
+        <v>1.17</v>
+      </c>
+      <c r="Z167">
+        <v>3.35</v>
+      </c>
+      <c r="AA167">
+        <v>3.5</v>
+      </c>
+      <c r="AB167">
+        <v>1.95</v>
+      </c>
+      <c r="AC167">
+        <v>1.01</v>
+      </c>
+      <c r="AD167">
+        <v>17</v>
+      </c>
+      <c r="AE167">
+        <v>1.1</v>
+      </c>
+      <c r="AF167">
+        <v>5.3</v>
+      </c>
+      <c r="AG167">
+        <v>1.53</v>
+      </c>
+      <c r="AH167">
+        <v>2.27</v>
+      </c>
+      <c r="AI167">
+        <v>1.44</v>
+      </c>
+      <c r="AJ167">
+        <v>2.62</v>
+      </c>
+      <c r="AK167">
+        <v>1.83</v>
+      </c>
+      <c r="AL167">
+        <v>1.22</v>
+      </c>
+      <c r="AM167">
+        <v>1.29</v>
+      </c>
+      <c r="AN167">
+        <v>1.3</v>
+      </c>
+      <c r="AO167">
+        <v>1.3</v>
+      </c>
+      <c r="AP167">
+        <v>1.45</v>
+      </c>
+      <c r="AQ167">
+        <v>1.18</v>
+      </c>
+      <c r="AR167">
+        <v>1.54</v>
+      </c>
+      <c r="AS167">
+        <v>1.47</v>
+      </c>
+      <c r="AT167">
+        <v>3.01</v>
+      </c>
+      <c r="AU167">
+        <v>4</v>
+      </c>
+      <c r="AV167">
+        <v>5</v>
+      </c>
+      <c r="AW167">
+        <v>5</v>
+      </c>
+      <c r="AX167">
+        <v>10</v>
+      </c>
+      <c r="AY167">
+        <v>9</v>
+      </c>
+      <c r="AZ167">
+        <v>15</v>
+      </c>
+      <c r="BA167">
+        <v>0</v>
+      </c>
+      <c r="BB167">
+        <v>5</v>
+      </c>
+      <c r="BC167">
+        <v>5</v>
+      </c>
+      <c r="BD167">
+        <v>2.54</v>
+      </c>
+      <c r="BE167">
+        <v>9</v>
+      </c>
+      <c r="BF167">
+        <v>1.67</v>
+      </c>
+      <c r="BG167">
+        <v>0</v>
+      </c>
+      <c r="BH167">
+        <v>0</v>
+      </c>
+      <c r="BI167">
+        <v>1.3</v>
+      </c>
+      <c r="BJ167">
+        <v>3.3</v>
+      </c>
+      <c r="BK167">
+        <v>1.54</v>
+      </c>
+      <c r="BL167">
+        <v>2.38</v>
+      </c>
+      <c r="BM167">
+        <v>1.92</v>
+      </c>
+      <c r="BN167">
+        <v>1.82</v>
+      </c>
+      <c r="BO167">
+        <v>2.5</v>
+      </c>
+      <c r="BP167">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="168" spans="1:68">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>7296433</v>
+      </c>
+      <c r="C168" t="s">
+        <v>68</v>
+      </c>
+      <c r="D168" t="s">
+        <v>69</v>
+      </c>
+      <c r="E168" s="2">
+        <v>45537.58333333334</v>
+      </c>
+      <c r="F168">
+        <v>21</v>
+      </c>
+      <c r="G168" t="s">
+        <v>80</v>
+      </c>
+      <c r="H168" t="s">
+        <v>78</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>2</v>
+      </c>
+      <c r="K168">
+        <v>2</v>
+      </c>
+      <c r="L168">
+        <v>2</v>
+      </c>
+      <c r="M168">
+        <v>3</v>
+      </c>
+      <c r="N168">
+        <v>5</v>
+      </c>
+      <c r="O168" t="s">
+        <v>212</v>
+      </c>
+      <c r="P168" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q168">
+        <v>2.05</v>
+      </c>
+      <c r="R168">
+        <v>2.55</v>
+      </c>
+      <c r="S168">
+        <v>4</v>
+      </c>
+      <c r="T168">
+        <v>1.22</v>
+      </c>
+      <c r="U168">
+        <v>3.7</v>
+      </c>
+      <c r="V168">
+        <v>1.95</v>
+      </c>
+      <c r="W168">
+        <v>1.72</v>
+      </c>
+      <c r="X168">
+        <v>4.1</v>
+      </c>
+      <c r="Y168">
+        <v>1.18</v>
+      </c>
+      <c r="Z168">
+        <v>1.67</v>
+      </c>
+      <c r="AA168">
+        <v>3.9</v>
+      </c>
+      <c r="AB168">
+        <v>4.2</v>
+      </c>
+      <c r="AC168">
+        <v>1.02</v>
+      </c>
+      <c r="AD168">
+        <v>24.5</v>
+      </c>
+      <c r="AE168">
+        <v>1.09</v>
+      </c>
+      <c r="AF168">
+        <v>5.8</v>
+      </c>
+      <c r="AG168">
+        <v>1.41</v>
+      </c>
+      <c r="AH168">
+        <v>2.69</v>
+      </c>
+      <c r="AI168">
+        <v>1.44</v>
+      </c>
+      <c r="AJ168">
+        <v>2.58</v>
+      </c>
+      <c r="AK168">
+        <v>1.22</v>
+      </c>
+      <c r="AL168">
+        <v>1.22</v>
+      </c>
+      <c r="AM168">
+        <v>2.15</v>
+      </c>
+      <c r="AN168">
+        <v>1.56</v>
+      </c>
+      <c r="AO168">
+        <v>0.3</v>
+      </c>
+      <c r="AP168">
+        <v>1.4</v>
+      </c>
+      <c r="AQ168">
+        <v>0.55</v>
+      </c>
+      <c r="AR168">
+        <v>1.39</v>
+      </c>
+      <c r="AS168">
+        <v>1.34</v>
+      </c>
+      <c r="AT168">
+        <v>2.73</v>
+      </c>
+      <c r="AU168">
+        <v>10</v>
+      </c>
+      <c r="AV168">
+        <v>7</v>
+      </c>
+      <c r="AW168">
+        <v>9</v>
+      </c>
+      <c r="AX168">
+        <v>8</v>
+      </c>
+      <c r="AY168">
+        <v>19</v>
+      </c>
+      <c r="AZ168">
+        <v>15</v>
+      </c>
+      <c r="BA168">
+        <v>7</v>
+      </c>
+      <c r="BB168">
+        <v>4</v>
+      </c>
+      <c r="BC168">
+        <v>11</v>
+      </c>
+      <c r="BD168">
+        <v>1.49</v>
+      </c>
+      <c r="BE168">
+        <v>9.5</v>
+      </c>
+      <c r="BF168">
+        <v>3.04</v>
+      </c>
+      <c r="BG168">
+        <v>1.17</v>
+      </c>
+      <c r="BH168">
+        <v>4.8</v>
+      </c>
+      <c r="BI168">
+        <v>1.3</v>
+      </c>
+      <c r="BJ168">
+        <v>3.25</v>
+      </c>
+      <c r="BK168">
+        <v>1.56</v>
+      </c>
+      <c r="BL168">
+        <v>2.33</v>
+      </c>
+      <c r="BM168">
+        <v>1.95</v>
+      </c>
+      <c r="BN168">
+        <v>1.8</v>
+      </c>
+      <c r="BO168">
+        <v>2.55</v>
+      </c>
+      <c r="BP168">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="169" spans="1:68">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>7296426</v>
+      </c>
+      <c r="C169" t="s">
+        <v>68</v>
+      </c>
+      <c r="D169" t="s">
+        <v>69</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45537.58333333334</v>
+      </c>
+      <c r="F169">
+        <v>21</v>
+      </c>
+      <c r="G169" t="s">
+        <v>82</v>
+      </c>
+      <c r="H169" t="s">
+        <v>85</v>
+      </c>
+      <c r="I169">
+        <v>1</v>
+      </c>
+      <c r="J169">
+        <v>1</v>
+      </c>
+      <c r="K169">
+        <v>2</v>
+      </c>
+      <c r="L169">
+        <v>2</v>
+      </c>
+      <c r="M169">
+        <v>1</v>
+      </c>
+      <c r="N169">
+        <v>3</v>
+      </c>
+      <c r="O169" t="s">
+        <v>213</v>
+      </c>
+      <c r="P169" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q169">
+        <v>2.63</v>
+      </c>
+      <c r="R169">
+        <v>2.54</v>
+      </c>
+      <c r="S169">
+        <v>3.41</v>
+      </c>
+      <c r="T169">
+        <v>1.24</v>
+      </c>
+      <c r="U169">
+        <v>3.7</v>
+      </c>
+      <c r="V169">
+        <v>2.19</v>
+      </c>
+      <c r="W169">
+        <v>1.61</v>
+      </c>
+      <c r="X169">
+        <v>4.7</v>
+      </c>
+      <c r="Y169">
+        <v>1.16</v>
+      </c>
+      <c r="Z169">
+        <v>2.25</v>
+      </c>
+      <c r="AA169">
+        <v>3.55</v>
+      </c>
+      <c r="AB169">
+        <v>2.65</v>
+      </c>
+      <c r="AC169">
+        <v>1.01</v>
+      </c>
+      <c r="AD169">
+        <v>13</v>
+      </c>
+      <c r="AE169">
+        <v>1.16</v>
+      </c>
+      <c r="AF169">
+        <v>5</v>
+      </c>
+      <c r="AG169">
+        <v>1.43</v>
+      </c>
+      <c r="AH169">
+        <v>2.62</v>
+      </c>
+      <c r="AI169">
+        <v>1.45</v>
+      </c>
+      <c r="AJ169">
+        <v>2.75</v>
+      </c>
+      <c r="AK169">
+        <v>1.41</v>
+      </c>
+      <c r="AL169">
+        <v>1.24</v>
+      </c>
+      <c r="AM169">
+        <v>1.62</v>
+      </c>
+      <c r="AN169">
+        <v>1.11</v>
+      </c>
+      <c r="AO169">
+        <v>2</v>
+      </c>
+      <c r="AP169">
+        <v>1.3</v>
+      </c>
+      <c r="AQ169">
+        <v>1.82</v>
+      </c>
+      <c r="AR169">
+        <v>1.74</v>
+      </c>
+      <c r="AS169">
+        <v>1.62</v>
+      </c>
+      <c r="AT169">
+        <v>3.36</v>
+      </c>
+      <c r="AU169">
+        <v>7</v>
+      </c>
+      <c r="AV169">
+        <v>6</v>
+      </c>
+      <c r="AW169">
+        <v>7</v>
+      </c>
+      <c r="AX169">
+        <v>6</v>
+      </c>
+      <c r="AY169">
+        <v>14</v>
+      </c>
+      <c r="AZ169">
+        <v>12</v>
+      </c>
+      <c r="BA169">
+        <v>5</v>
+      </c>
+      <c r="BB169">
+        <v>8</v>
+      </c>
+      <c r="BC169">
+        <v>13</v>
+      </c>
+      <c r="BD169">
+        <v>1.94</v>
+      </c>
+      <c r="BE169">
+        <v>7.2</v>
+      </c>
+      <c r="BF169">
+        <v>2.22</v>
+      </c>
+      <c r="BG169">
+        <v>1.18</v>
+      </c>
+      <c r="BH169">
+        <v>4.5</v>
+      </c>
+      <c r="BI169">
+        <v>1.34</v>
+      </c>
+      <c r="BJ169">
+        <v>3.1</v>
+      </c>
+      <c r="BK169">
+        <v>1.61</v>
+      </c>
+      <c r="BL169">
+        <v>2.23</v>
+      </c>
+      <c r="BM169">
+        <v>2.02</v>
+      </c>
+      <c r="BN169">
+        <v>1.74</v>
+      </c>
+      <c r="BO169">
+        <v>2.7</v>
+      </c>
+      <c r="BP169">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
@@ -583,6 +583,9 @@
     <t>['3', '6', '21', '36', '61', '77', '82']</t>
   </si>
   <si>
+    <t>['27']</t>
+  </si>
+  <si>
     <t>['13', '41', '45+1']</t>
   </si>
   <si>
@@ -592,16 +595,13 @@
     <t>['53']</t>
   </si>
   <si>
-    <t>['27']</t>
-  </si>
-  <si>
     <t>['23', '49', '90+5']</t>
   </si>
   <si>
-    <t>['16', '61', '90+5']</t>
+    <t>['54']</t>
   </si>
   <si>
-    <t>['54']</t>
+    <t>['16', '61', '90+5']</t>
   </si>
   <si>
     <t>['76']</t>
@@ -610,10 +610,10 @@
     <t>['2', '31', '64', '74']</t>
   </si>
   <si>
-    <t>['14', '53', '64']</t>
+    <t>['10', '49']</t>
   </si>
   <si>
-    <t>['10', '49']</t>
+    <t>['14', '53', '64']</t>
   </si>
   <si>
     <t>['19']</t>
@@ -640,22 +640,22 @@
     <t>['80']</t>
   </si>
   <si>
-    <t>['9', '39', '62']</t>
-  </si>
-  <si>
     <t>['79']</t>
   </si>
   <si>
-    <t>['10', '16', '76', '88']</t>
+    <t>['9', '39', '62']</t>
   </si>
   <si>
     <t>['55', '63']</t>
   </si>
   <si>
+    <t>['12', '87']</t>
+  </si>
+  <si>
     <t>['57', '90+3']</t>
   </si>
   <si>
-    <t>['12', '87']</t>
+    <t>['10', '16', '76', '88']</t>
   </si>
   <si>
     <t>['90+1']</t>
@@ -880,6 +880,9 @@
     <t>['83']</t>
   </si>
   <si>
+    <t>['24', '52']</t>
+  </si>
+  <si>
     <t>['38', '48']</t>
   </si>
   <si>
@@ -889,13 +892,10 @@
     <t>['11', '25']</t>
   </si>
   <si>
-    <t>['24', '52']</t>
+    <t>['32', '90+7']</t>
   </si>
   <si>
     <t>['64']</t>
-  </si>
-  <si>
-    <t>['32', '90+7']</t>
   </si>
   <si>
     <t>['5', '17', '46', '55', '60']</t>
@@ -904,16 +904,16 @@
     <t>['5']</t>
   </si>
   <si>
+    <t>['15']</t>
+  </si>
+  <si>
     <t>['54', '57']</t>
   </si>
   <si>
-    <t>['15']</t>
+    <t>['40']</t>
   </si>
   <si>
     <t>['54', '65']</t>
-  </si>
-  <si>
-    <t>['40']</t>
   </si>
   <si>
     <t>['1', '40', '59', '65']</t>
@@ -12282,7 +12282,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q54">
         <v>3.03</v>
@@ -27484,7 +27484,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>7296401</v>
+        <v>7296396</v>
       </c>
       <c r="C128" t="s">
         <v>68</v>
@@ -27499,124 +27499,124 @@
         <v>17</v>
       </c>
       <c r="G128" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H128" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I128">
         <v>0</v>
       </c>
       <c r="J128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M128">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O128" t="s">
-        <v>186</v>
+        <v>103</v>
       </c>
       <c r="P128" t="s">
-        <v>103</v>
+        <v>288</v>
       </c>
       <c r="Q128">
-        <v>2.52</v>
+        <v>3.75</v>
       </c>
       <c r="R128">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="S128">
-        <v>3.34</v>
+        <v>2.6</v>
       </c>
       <c r="T128">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="U128">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="V128">
-        <v>2.08</v>
+        <v>2.34</v>
       </c>
       <c r="W128">
-        <v>1.7</v>
+        <v>1.54</v>
       </c>
       <c r="X128">
-        <v>4.45</v>
+        <v>5.4</v>
       </c>
       <c r="Y128">
-        <v>1.18</v>
+        <v>1.12</v>
       </c>
       <c r="Z128">
-        <v>2.07</v>
+        <v>3.3</v>
       </c>
       <c r="AA128">
-        <v>3.92</v>
+        <v>3.72</v>
       </c>
       <c r="AB128">
-        <v>3.06</v>
+        <v>2.03</v>
       </c>
       <c r="AC128">
         <v>1.02</v>
       </c>
       <c r="AD128">
-        <v>23.5</v>
+        <v>17</v>
       </c>
       <c r="AE128">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="AF128">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="AG128">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AH128">
-        <v>2.73</v>
+        <v>2.29</v>
       </c>
       <c r="AI128">
-        <v>1.39</v>
+        <v>1.52</v>
       </c>
       <c r="AJ128">
-        <v>2.76</v>
+        <v>2.45</v>
       </c>
       <c r="AK128">
-        <v>1.37</v>
+        <v>1.83</v>
       </c>
       <c r="AL128">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="AM128">
-        <v>1.69</v>
+        <v>1.33</v>
       </c>
       <c r="AN128">
-        <v>1.38</v>
+        <v>2.38</v>
       </c>
       <c r="AO128">
-        <v>0.67</v>
+        <v>2.13</v>
       </c>
       <c r="AP128">
-        <v>1.4</v>
+        <v>2.27</v>
       </c>
       <c r="AQ128">
-        <v>0.8</v>
+        <v>2.36</v>
       </c>
       <c r="AR128">
-        <v>1.78</v>
+        <v>1.52</v>
       </c>
       <c r="AS128">
-        <v>1.47</v>
+        <v>1.91</v>
       </c>
       <c r="AT128">
-        <v>3.25</v>
+        <v>3.43</v>
       </c>
       <c r="AU128">
         <v>5</v>
@@ -27625,64 +27625,64 @@
         <v>5</v>
       </c>
       <c r="AW128">
+        <v>4</v>
+      </c>
+      <c r="AX128">
+        <v>1</v>
+      </c>
+      <c r="AY128">
         <v>9</v>
       </c>
-      <c r="AX128">
+      <c r="AZ128">
         <v>6</v>
       </c>
-      <c r="AY128">
-        <v>14</v>
-      </c>
-      <c r="AZ128">
-        <v>11</v>
-      </c>
       <c r="BA128">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BB128">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BC128">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BD128">
-        <v>1.91</v>
+        <v>2.43</v>
       </c>
       <c r="BE128">
         <v>8.5</v>
       </c>
       <c r="BF128">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="BG128">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="BH128">
-        <v>5.16</v>
+        <v>4.5</v>
       </c>
       <c r="BI128">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="BJ128">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="BK128">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="BL128">
-        <v>2.38</v>
+        <v>2.23</v>
       </c>
       <c r="BM128">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="BN128">
-        <v>1.82</v>
+        <v>1.73</v>
       </c>
       <c r="BO128">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="BP128">
-        <v>1.49</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="129" spans="1:68">
@@ -27690,7 +27690,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>7296399</v>
+        <v>7296401</v>
       </c>
       <c r="C129" t="s">
         <v>68</v>
@@ -27705,70 +27705,70 @@
         <v>17</v>
       </c>
       <c r="G129" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H129" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K129">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M129">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N129">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O129" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P129" t="s">
-        <v>288</v>
+        <v>103</v>
       </c>
       <c r="Q129">
-        <v>3</v>
+        <v>2.52</v>
       </c>
       <c r="R129">
         <v>2.45</v>
       </c>
       <c r="S129">
-        <v>2.95</v>
+        <v>3.34</v>
       </c>
       <c r="T129">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="U129">
         <v>3.9</v>
       </c>
       <c r="V129">
-        <v>2.09</v>
+        <v>2.08</v>
       </c>
       <c r="W129">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="X129">
         <v>4.45</v>
       </c>
       <c r="Y129">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="Z129">
-        <v>2.32</v>
+        <v>2.07</v>
       </c>
       <c r="AA129">
-        <v>3.84</v>
+        <v>3.92</v>
       </c>
       <c r="AB129">
-        <v>2.65</v>
+        <v>3.06</v>
       </c>
       <c r="AC129">
         <v>1.02</v>
@@ -27777,79 +27777,79 @@
         <v>23.5</v>
       </c>
       <c r="AE129">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="AF129">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AG129">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AH129">
-        <v>2.65</v>
+        <v>2.73</v>
       </c>
       <c r="AI129">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="AJ129">
-        <v>2.95</v>
+        <v>2.76</v>
       </c>
       <c r="AK129">
-        <v>1.55</v>
+        <v>1.37</v>
       </c>
       <c r="AL129">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="AM129">
-        <v>1.53</v>
+        <v>1.69</v>
       </c>
       <c r="AN129">
-        <v>1.86</v>
+        <v>1.38</v>
       </c>
       <c r="AO129">
-        <v>1.38</v>
+        <v>0.67</v>
       </c>
       <c r="AP129">
         <v>1.4</v>
       </c>
       <c r="AQ129">
-        <v>1.18</v>
+        <v>0.8</v>
       </c>
       <c r="AR129">
-        <v>1.53</v>
+        <v>1.78</v>
       </c>
       <c r="AS129">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="AT129">
-        <v>3.04</v>
+        <v>3.25</v>
       </c>
       <c r="AU129">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV129">
         <v>5</v>
       </c>
       <c r="AW129">
+        <v>9</v>
+      </c>
+      <c r="AX129">
         <v>6</v>
       </c>
-      <c r="AX129">
-        <v>5</v>
-      </c>
       <c r="AY129">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ129">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA129">
+        <v>4</v>
+      </c>
+      <c r="BB129">
+        <v>7</v>
+      </c>
+      <c r="BC129">
         <v>11</v>
-      </c>
-      <c r="BB129">
-        <v>5</v>
-      </c>
-      <c r="BC129">
-        <v>16</v>
       </c>
       <c r="BD129">
         <v>1.91</v>
@@ -27861,10 +27861,10 @@
         <v>2.1</v>
       </c>
       <c r="BG129">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="BH129">
-        <v>4.8</v>
+        <v>5.16</v>
       </c>
       <c r="BI129">
         <v>1.3</v>
@@ -27879,10 +27879,10 @@
         <v>2.38</v>
       </c>
       <c r="BM129">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="BN129">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="BO129">
         <v>2.5</v>
@@ -27896,7 +27896,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>7296398</v>
+        <v>7296399</v>
       </c>
       <c r="C130" t="s">
         <v>68</v>
@@ -27911,190 +27911,190 @@
         <v>17</v>
       </c>
       <c r="G130" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H130" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M130">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N130">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O130" t="s">
-        <v>103</v>
+        <v>187</v>
       </c>
       <c r="P130" t="s">
         <v>289</v>
       </c>
       <c r="Q130">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="R130">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="S130">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="T130">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="U130">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="V130">
-        <v>2.25</v>
+        <v>2.09</v>
       </c>
       <c r="W130">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="X130">
-        <v>5.5</v>
+        <v>4.45</v>
       </c>
       <c r="Y130">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="Z130">
-        <v>2.43</v>
+        <v>2.32</v>
       </c>
       <c r="AA130">
-        <v>3.7</v>
+        <v>3.84</v>
       </c>
       <c r="AB130">
-        <v>2.58</v>
+        <v>2.65</v>
       </c>
       <c r="AC130">
         <v>1.02</v>
       </c>
       <c r="AD130">
-        <v>17</v>
+        <v>23.5</v>
       </c>
       <c r="AE130">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="AF130">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="AG130">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AH130">
-        <v>2.59</v>
+        <v>2.65</v>
       </c>
       <c r="AI130">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AJ130">
-        <v>2.5</v>
+        <v>2.95</v>
       </c>
       <c r="AK130">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AL130">
         <v>1.22</v>
       </c>
       <c r="AM130">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AN130">
-        <v>1.14</v>
+        <v>1.86</v>
       </c>
       <c r="AO130">
-        <v>0.5</v>
+        <v>1.38</v>
       </c>
       <c r="AP130">
-        <v>0.73</v>
+        <v>1.4</v>
       </c>
       <c r="AQ130">
-        <v>0.8</v>
+        <v>1.18</v>
       </c>
       <c r="AR130">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AS130">
-        <v>1.33</v>
+        <v>1.51</v>
       </c>
       <c r="AT130">
-        <v>2.96</v>
+        <v>3.04</v>
       </c>
       <c r="AU130">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV130">
         <v>5</v>
       </c>
       <c r="AW130">
+        <v>6</v>
+      </c>
+      <c r="AX130">
+        <v>5</v>
+      </c>
+      <c r="AY130">
         <v>12</v>
       </c>
-      <c r="AX130">
-        <v>6</v>
-      </c>
-      <c r="AY130">
-        <v>19</v>
-      </c>
       <c r="AZ130">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA130">
         <v>11</v>
       </c>
       <c r="BB130">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BC130">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BD130">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="BE130">
         <v>8.5</v>
       </c>
       <c r="BF130">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="BG130">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="BH130">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="BI130">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="BJ130">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="BK130">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="BL130">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="BM130">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="BN130">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="BO130">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="BP130">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="131" spans="1:68">
@@ -28102,7 +28102,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>7296397</v>
+        <v>7296398</v>
       </c>
       <c r="C131" t="s">
         <v>68</v>
@@ -28117,28 +28117,28 @@
         <v>17</v>
       </c>
       <c r="G131" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H131" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I131">
         <v>0</v>
       </c>
       <c r="J131">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K131">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L131">
         <v>0</v>
       </c>
       <c r="M131">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N131">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O131" t="s">
         <v>103</v>
@@ -28147,130 +28147,130 @@
         <v>290</v>
       </c>
       <c r="Q131">
-        <v>3.04</v>
+        <v>2.88</v>
       </c>
       <c r="R131">
-        <v>2.31</v>
+        <v>2.38</v>
       </c>
       <c r="S131">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="T131">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="U131">
-        <v>3.44</v>
+        <v>3.5</v>
       </c>
       <c r="V131">
-        <v>2.34</v>
+        <v>2.25</v>
       </c>
       <c r="W131">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="X131">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="Y131">
         <v>1.14</v>
       </c>
       <c r="Z131">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AA131">
-        <v>3.64</v>
+        <v>3.7</v>
       </c>
       <c r="AB131">
-        <v>2.78</v>
+        <v>2.58</v>
       </c>
       <c r="AC131">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AD131">
+        <v>17</v>
+      </c>
+      <c r="AE131">
+        <v>1.17</v>
+      </c>
+      <c r="AF131">
+        <v>4.5</v>
+      </c>
+      <c r="AG131">
+        <v>1.44</v>
+      </c>
+      <c r="AH131">
+        <v>2.59</v>
+      </c>
+      <c r="AI131">
+        <v>1.5</v>
+      </c>
+      <c r="AJ131">
+        <v>2.5</v>
+      </c>
+      <c r="AK131">
+        <v>1.47</v>
+      </c>
+      <c r="AL131">
+        <v>1.22</v>
+      </c>
+      <c r="AM131">
+        <v>1.57</v>
+      </c>
+      <c r="AN131">
+        <v>1.14</v>
+      </c>
+      <c r="AO131">
+        <v>0.5</v>
+      </c>
+      <c r="AP131">
+        <v>0.73</v>
+      </c>
+      <c r="AQ131">
+        <v>0.8</v>
+      </c>
+      <c r="AR131">
+        <v>1.63</v>
+      </c>
+      <c r="AS131">
+        <v>1.33</v>
+      </c>
+      <c r="AT131">
+        <v>2.96</v>
+      </c>
+      <c r="AU131">
+        <v>7</v>
+      </c>
+      <c r="AV131">
+        <v>5</v>
+      </c>
+      <c r="AW131">
         <v>12</v>
       </c>
-      <c r="AE131">
-        <v>1.15</v>
-      </c>
-      <c r="AF131">
-        <v>4.45</v>
-      </c>
-      <c r="AG131">
-        <v>1.61</v>
-      </c>
-      <c r="AH131">
-        <v>2.17</v>
-      </c>
-      <c r="AI131">
-        <v>1.49</v>
-      </c>
-      <c r="AJ131">
-        <v>2.44</v>
-      </c>
-      <c r="AK131">
-        <v>1.5</v>
-      </c>
-      <c r="AL131">
-        <v>1.26</v>
-      </c>
-      <c r="AM131">
-        <v>1.49</v>
-      </c>
-      <c r="AN131">
-        <v>1.25</v>
-      </c>
-      <c r="AO131">
-        <v>0.67</v>
-      </c>
-      <c r="AP131">
-        <v>1.45</v>
-      </c>
-      <c r="AQ131">
-        <v>1.1</v>
-      </c>
-      <c r="AR131">
-        <v>1.24</v>
-      </c>
-      <c r="AS131">
-        <v>1.31</v>
-      </c>
-      <c r="AT131">
-        <v>2.55</v>
-      </c>
-      <c r="AU131">
-        <v>0</v>
-      </c>
-      <c r="AV131">
+      <c r="AX131">
         <v>6</v>
       </c>
-      <c r="AW131">
-        <v>3</v>
-      </c>
-      <c r="AX131">
-        <v>5</v>
-      </c>
       <c r="AY131">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="AZ131">
         <v>11</v>
       </c>
       <c r="BA131">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="BB131">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BC131">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BD131">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="BE131">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="BF131">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="BG131">
         <v>0</v>
@@ -28279,28 +28279,28 @@
         <v>0</v>
       </c>
       <c r="BI131">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="BJ131">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="BK131">
-        <v>1.28</v>
+        <v>1.5</v>
       </c>
       <c r="BL131">
-        <v>3.45</v>
+        <v>2.45</v>
       </c>
       <c r="BM131">
-        <v>1.49</v>
+        <v>1.9</v>
       </c>
       <c r="BN131">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="BO131">
-        <v>1.8</v>
+        <v>2.43</v>
       </c>
       <c r="BP131">
-        <v>2</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="132" spans="1:68">
@@ -28308,7 +28308,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>7296396</v>
+        <v>7296397</v>
       </c>
       <c r="C132" t="s">
         <v>68</v>
@@ -28323,19 +28323,19 @@
         <v>17</v>
       </c>
       <c r="G132" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H132" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I132">
         <v>0</v>
       </c>
       <c r="J132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L132">
         <v>0</v>
@@ -28353,160 +28353,160 @@
         <v>291</v>
       </c>
       <c r="Q132">
-        <v>3.75</v>
+        <v>3.04</v>
       </c>
       <c r="R132">
-        <v>2.35</v>
+        <v>2.31</v>
       </c>
       <c r="S132">
-        <v>2.6</v>
+        <v>2.92</v>
       </c>
       <c r="T132">
         <v>1.28</v>
       </c>
       <c r="U132">
-        <v>3.4</v>
+        <v>3.44</v>
       </c>
       <c r="V132">
         <v>2.34</v>
       </c>
       <c r="W132">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="X132">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y132">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="Z132">
-        <v>3.3</v>
+        <v>2.33</v>
       </c>
       <c r="AA132">
-        <v>3.72</v>
+        <v>3.64</v>
       </c>
       <c r="AB132">
-        <v>2.03</v>
+        <v>2.78</v>
       </c>
       <c r="AC132">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AD132">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AE132">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="AF132">
-        <v>4.75</v>
+        <v>4.45</v>
       </c>
       <c r="AG132">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
       <c r="AH132">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AI132">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="AJ132">
-        <v>2.45</v>
+        <v>2.44</v>
       </c>
       <c r="AK132">
-        <v>1.83</v>
+        <v>1.5</v>
       </c>
       <c r="AL132">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="AM132">
-        <v>1.33</v>
+        <v>1.49</v>
       </c>
       <c r="AN132">
-        <v>2.38</v>
+        <v>1.25</v>
       </c>
       <c r="AO132">
-        <v>2.13</v>
+        <v>0.67</v>
       </c>
       <c r="AP132">
-        <v>2.27</v>
+        <v>1.45</v>
       </c>
       <c r="AQ132">
-        <v>2.36</v>
+        <v>1.1</v>
       </c>
       <c r="AR132">
-        <v>1.52</v>
+        <v>1.24</v>
       </c>
       <c r="AS132">
+        <v>1.31</v>
+      </c>
+      <c r="AT132">
+        <v>2.55</v>
+      </c>
+      <c r="AU132">
+        <v>0</v>
+      </c>
+      <c r="AV132">
+        <v>6</v>
+      </c>
+      <c r="AW132">
+        <v>3</v>
+      </c>
+      <c r="AX132">
+        <v>5</v>
+      </c>
+      <c r="AY132">
+        <v>3</v>
+      </c>
+      <c r="AZ132">
+        <v>11</v>
+      </c>
+      <c r="BA132">
+        <v>2</v>
+      </c>
+      <c r="BB132">
+        <v>6</v>
+      </c>
+      <c r="BC132">
+        <v>8</v>
+      </c>
+      <c r="BD132">
+        <v>2.1</v>
+      </c>
+      <c r="BE132">
+        <v>9</v>
+      </c>
+      <c r="BF132">
         <v>1.91</v>
       </c>
-      <c r="AT132">
-        <v>3.43</v>
-      </c>
-      <c r="AU132">
-        <v>5</v>
-      </c>
-      <c r="AV132">
-        <v>5</v>
-      </c>
-      <c r="AW132">
-        <v>4</v>
-      </c>
-      <c r="AX132">
-        <v>1</v>
-      </c>
-      <c r="AY132">
-        <v>9</v>
-      </c>
-      <c r="AZ132">
-        <v>6</v>
-      </c>
-      <c r="BA132">
-        <v>7</v>
-      </c>
-      <c r="BB132">
+      <c r="BG132">
+        <v>0</v>
+      </c>
+      <c r="BH132">
+        <v>0</v>
+      </c>
+      <c r="BI132">
+        <v>0</v>
+      </c>
+      <c r="BJ132">
+        <v>0</v>
+      </c>
+      <c r="BK132">
+        <v>1.28</v>
+      </c>
+      <c r="BL132">
+        <v>3.45</v>
+      </c>
+      <c r="BM132">
+        <v>1.49</v>
+      </c>
+      <c r="BN132">
+        <v>2.5</v>
+      </c>
+      <c r="BO132">
+        <v>1.8</v>
+      </c>
+      <c r="BP132">
         <v>2</v>
-      </c>
-      <c r="BC132">
-        <v>9</v>
-      </c>
-      <c r="BD132">
-        <v>2.43</v>
-      </c>
-      <c r="BE132">
-        <v>8.5</v>
-      </c>
-      <c r="BF132">
-        <v>1.75</v>
-      </c>
-      <c r="BG132">
-        <v>1.18</v>
-      </c>
-      <c r="BH132">
-        <v>4.5</v>
-      </c>
-      <c r="BI132">
-        <v>1.35</v>
-      </c>
-      <c r="BJ132">
-        <v>3.05</v>
-      </c>
-      <c r="BK132">
-        <v>1.62</v>
-      </c>
-      <c r="BL132">
-        <v>2.23</v>
-      </c>
-      <c r="BM132">
-        <v>2.04</v>
-      </c>
-      <c r="BN132">
-        <v>1.73</v>
-      </c>
-      <c r="BO132">
-        <v>2.7</v>
-      </c>
-      <c r="BP132">
-        <v>1.43</v>
       </c>
     </row>
     <row r="133" spans="1:68">
@@ -28514,7 +28514,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>7296395</v>
+        <v>7296394</v>
       </c>
       <c r="C133" t="s">
         <v>68</v>
@@ -28529,28 +28529,28 @@
         <v>17</v>
       </c>
       <c r="G133" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H133" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="I133">
         <v>0</v>
       </c>
       <c r="J133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L133">
         <v>0</v>
       </c>
       <c r="M133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O133" t="s">
         <v>103</v>
@@ -28559,160 +28559,160 @@
         <v>292</v>
       </c>
       <c r="Q133">
-        <v>3.2</v>
+        <v>2.69</v>
       </c>
       <c r="R133">
-        <v>2.22</v>
+        <v>2.36</v>
       </c>
       <c r="S133">
-        <v>2.92</v>
+        <v>3.24</v>
       </c>
       <c r="T133">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="U133">
-        <v>3.15</v>
+        <v>3.62</v>
       </c>
       <c r="V133">
-        <v>2.54</v>
+        <v>2.23</v>
       </c>
       <c r="W133">
-        <v>1.48</v>
+        <v>1.61</v>
       </c>
       <c r="X133">
-        <v>6.05</v>
+        <v>5</v>
       </c>
       <c r="Y133">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="Z133">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="AA133">
-        <v>3.54</v>
+        <v>3.78</v>
       </c>
       <c r="AB133">
-        <v>2.88</v>
+        <v>2.98</v>
       </c>
       <c r="AC133">
         <v>1.02</v>
       </c>
       <c r="AD133">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE133">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AF133">
-        <v>3.86</v>
+        <v>4.8</v>
       </c>
       <c r="AG133">
-        <v>1.68</v>
+        <v>1.5</v>
       </c>
       <c r="AH133">
-        <v>2.06</v>
+        <v>2.41</v>
       </c>
       <c r="AI133">
-        <v>1.58</v>
+        <v>1.45</v>
       </c>
       <c r="AJ133">
-        <v>2.23</v>
+        <v>2.55</v>
       </c>
       <c r="AK133">
-        <v>1.53</v>
+        <v>1.41</v>
       </c>
       <c r="AL133">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AM133">
-        <v>1.44</v>
+        <v>1.61</v>
       </c>
       <c r="AN133">
+        <v>1.29</v>
+      </c>
+      <c r="AO133">
+        <v>1.13</v>
+      </c>
+      <c r="AP133">
         <v>1.5</v>
       </c>
-      <c r="AO133">
-        <v>0.86</v>
-      </c>
-      <c r="AP133">
-        <v>1.3</v>
-      </c>
       <c r="AQ133">
-        <v>1.5</v>
+        <v>1.09</v>
       </c>
       <c r="AR133">
-        <v>1.54</v>
+        <v>2.1</v>
       </c>
       <c r="AS133">
-        <v>1.85</v>
+        <v>1.17</v>
       </c>
       <c r="AT133">
-        <v>3.39</v>
+        <v>3.27</v>
       </c>
       <c r="AU133">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AV133">
         <v>7</v>
       </c>
       <c r="AW133">
+        <v>10</v>
+      </c>
+      <c r="AX133">
+        <v>3</v>
+      </c>
+      <c r="AY133">
+        <v>17</v>
+      </c>
+      <c r="AZ133">
+        <v>10</v>
+      </c>
+      <c r="BA133">
+        <v>3</v>
+      </c>
+      <c r="BB133">
+        <v>3</v>
+      </c>
+      <c r="BC133">
         <v>6</v>
       </c>
-      <c r="AX133">
-        <v>6</v>
-      </c>
-      <c r="AY133">
-        <v>16</v>
-      </c>
-      <c r="AZ133">
-        <v>13</v>
-      </c>
-      <c r="BA133">
-        <v>13</v>
-      </c>
-      <c r="BB133">
-        <v>6</v>
-      </c>
-      <c r="BC133">
-        <v>19</v>
-      </c>
       <c r="BD133">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="BE133">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF133">
-        <v>1.91</v>
+        <v>2.41</v>
       </c>
       <c r="BG133">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="BH133">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="BI133">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="BJ133">
-        <v>3.05</v>
+        <v>3.45</v>
       </c>
       <c r="BK133">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="BL133">
-        <v>2.23</v>
+        <v>2.45</v>
       </c>
       <c r="BM133">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="BN133">
-        <v>1.73</v>
+        <v>1.9</v>
       </c>
       <c r="BO133">
-        <v>2.7</v>
+        <v>2.43</v>
       </c>
       <c r="BP133">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="134" spans="1:68">
@@ -28720,7 +28720,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>7296394</v>
+        <v>7296395</v>
       </c>
       <c r="C134" t="s">
         <v>68</v>
@@ -28735,28 +28735,28 @@
         <v>17</v>
       </c>
       <c r="G134" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H134" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="I134">
         <v>0</v>
       </c>
       <c r="J134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L134">
         <v>0</v>
       </c>
       <c r="M134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O134" t="s">
         <v>103</v>
@@ -28765,160 +28765,160 @@
         <v>293</v>
       </c>
       <c r="Q134">
-        <v>2.69</v>
+        <v>3.2</v>
       </c>
       <c r="R134">
-        <v>2.36</v>
+        <v>2.22</v>
       </c>
       <c r="S134">
-        <v>3.24</v>
+        <v>2.92</v>
       </c>
       <c r="T134">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="U134">
-        <v>3.62</v>
+        <v>3.15</v>
       </c>
       <c r="V134">
-        <v>2.23</v>
+        <v>2.54</v>
       </c>
       <c r="W134">
-        <v>1.61</v>
+        <v>1.48</v>
       </c>
       <c r="X134">
-        <v>5</v>
+        <v>6.05</v>
       </c>
       <c r="Y134">
-        <v>1.15</v>
+        <v>1.11</v>
       </c>
       <c r="Z134">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="AA134">
-        <v>3.78</v>
+        <v>3.54</v>
       </c>
       <c r="AB134">
-        <v>2.98</v>
+        <v>2.88</v>
       </c>
       <c r="AC134">
         <v>1.02</v>
       </c>
       <c r="AD134">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE134">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="AF134">
-        <v>4.8</v>
+        <v>3.86</v>
       </c>
       <c r="AG134">
+        <v>1.68</v>
+      </c>
+      <c r="AH134">
+        <v>2.06</v>
+      </c>
+      <c r="AI134">
+        <v>1.58</v>
+      </c>
+      <c r="AJ134">
+        <v>2.23</v>
+      </c>
+      <c r="AK134">
+        <v>1.53</v>
+      </c>
+      <c r="AL134">
+        <v>1.28</v>
+      </c>
+      <c r="AM134">
+        <v>1.44</v>
+      </c>
+      <c r="AN134">
         <v>1.5</v>
       </c>
-      <c r="AH134">
-        <v>2.41</v>
-      </c>
-      <c r="AI134">
-        <v>1.45</v>
-      </c>
-      <c r="AJ134">
-        <v>2.55</v>
-      </c>
-      <c r="AK134">
-        <v>1.41</v>
-      </c>
-      <c r="AL134">
-        <v>1.25</v>
-      </c>
-      <c r="AM134">
-        <v>1.61</v>
-      </c>
-      <c r="AN134">
-        <v>1.29</v>
-      </c>
       <c r="AO134">
-        <v>1.13</v>
+        <v>0.86</v>
       </c>
       <c r="AP134">
+        <v>1.3</v>
+      </c>
+      <c r="AQ134">
         <v>1.5</v>
       </c>
-      <c r="AQ134">
-        <v>1.09</v>
-      </c>
       <c r="AR134">
-        <v>2.1</v>
+        <v>1.54</v>
       </c>
       <c r="AS134">
-        <v>1.17</v>
+        <v>1.85</v>
       </c>
       <c r="AT134">
-        <v>3.27</v>
+        <v>3.39</v>
       </c>
       <c r="AU134">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AV134">
         <v>7</v>
       </c>
       <c r="AW134">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AX134">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AY134">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ134">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA134">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="BB134">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BC134">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="BD134">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="BE134">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BF134">
-        <v>2.41</v>
+        <v>1.91</v>
       </c>
       <c r="BG134">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="BH134">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="BI134">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="BJ134">
-        <v>3.45</v>
+        <v>3.05</v>
       </c>
       <c r="BK134">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="BL134">
-        <v>2.45</v>
+        <v>2.23</v>
       </c>
       <c r="BM134">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="BN134">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="BO134">
-        <v>2.43</v>
+        <v>2.7</v>
       </c>
       <c r="BP134">
-        <v>1.52</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="135" spans="1:68">
@@ -29132,7 +29132,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>7296403</v>
+        <v>7296409</v>
       </c>
       <c r="C136" t="s">
         <v>68</v>
@@ -29147,190 +29147,190 @@
         <v>18</v>
       </c>
       <c r="G136" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H136" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136">
         <v>0</v>
       </c>
       <c r="K136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N136">
         <v>1</v>
       </c>
       <c r="O136" t="s">
+        <v>189</v>
+      </c>
+      <c r="P136" t="s">
         <v>103</v>
       </c>
-      <c r="P136" t="s">
-        <v>121</v>
-      </c>
       <c r="Q136">
-        <v>2.26</v>
+        <v>3.04</v>
       </c>
       <c r="R136">
-        <v>2.53</v>
+        <v>2.42</v>
       </c>
       <c r="S136">
-        <v>3.8</v>
+        <v>3.03</v>
       </c>
       <c r="T136">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="U136">
+        <v>3.54</v>
+      </c>
+      <c r="V136">
+        <v>2.27</v>
+      </c>
+      <c r="W136">
+        <v>1.59</v>
+      </c>
+      <c r="X136">
+        <v>5.15</v>
+      </c>
+      <c r="Y136">
+        <v>1.14</v>
+      </c>
+      <c r="Z136">
+        <v>2.5</v>
+      </c>
+      <c r="AA136">
+        <v>3.4</v>
+      </c>
+      <c r="AB136">
+        <v>2.3</v>
+      </c>
+      <c r="AC136">
+        <v>1.01</v>
+      </c>
+      <c r="AD136">
+        <v>14.3</v>
+      </c>
+      <c r="AE136">
+        <v>1.14</v>
+      </c>
+      <c r="AF136">
+        <v>4.65</v>
+      </c>
+      <c r="AG136">
+        <v>1.6</v>
+      </c>
+      <c r="AH136">
+        <v>2.2</v>
+      </c>
+      <c r="AI136">
+        <v>1.49</v>
+      </c>
+      <c r="AJ136">
+        <v>2.44</v>
+      </c>
+      <c r="AK136">
+        <v>1.5</v>
+      </c>
+      <c r="AL136">
+        <v>1.26</v>
+      </c>
+      <c r="AM136">
+        <v>1.49</v>
+      </c>
+      <c r="AN136">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AO136">
+        <v>1.63</v>
+      </c>
+      <c r="AP136">
+        <v>0.73</v>
+      </c>
+      <c r="AQ136">
+        <v>1.3</v>
+      </c>
+      <c r="AR136">
+        <v>1.31</v>
+      </c>
+      <c r="AS136">
+        <v>1.64</v>
+      </c>
+      <c r="AT136">
+        <v>2.95</v>
+      </c>
+      <c r="AU136">
+        <v>7</v>
+      </c>
+      <c r="AV136">
+        <v>7</v>
+      </c>
+      <c r="AW136">
+        <v>5</v>
+      </c>
+      <c r="AX136">
         <v>4</v>
       </c>
-      <c r="V136">
+      <c r="AY136">
+        <v>12</v>
+      </c>
+      <c r="AZ136">
+        <v>11</v>
+      </c>
+      <c r="BA136">
+        <v>5</v>
+      </c>
+      <c r="BB136">
+        <v>3</v>
+      </c>
+      <c r="BC136">
+        <v>8</v>
+      </c>
+      <c r="BD136">
+        <v>0</v>
+      </c>
+      <c r="BE136">
+        <v>0</v>
+      </c>
+      <c r="BF136">
+        <v>0</v>
+      </c>
+      <c r="BG136">
+        <v>0</v>
+      </c>
+      <c r="BH136">
+        <v>0</v>
+      </c>
+      <c r="BI136">
+        <v>0</v>
+      </c>
+      <c r="BJ136">
+        <v>0</v>
+      </c>
+      <c r="BK136">
+        <v>0</v>
+      </c>
+      <c r="BL136">
+        <v>0</v>
+      </c>
+      <c r="BM136">
+        <v>1.74</v>
+      </c>
+      <c r="BN136">
         <v>2.05</v>
       </c>
-      <c r="W136">
-        <v>1.72</v>
-      </c>
-      <c r="X136">
-        <v>4.33</v>
-      </c>
-      <c r="Y136">
-        <v>1.19</v>
-      </c>
-      <c r="Z136">
-        <v>1.75</v>
-      </c>
-      <c r="AA136">
-        <v>3.8</v>
-      </c>
-      <c r="AB136">
-        <v>3.4</v>
-      </c>
-      <c r="AC136">
-        <v>1.02</v>
-      </c>
-      <c r="AD136">
-        <v>24.5</v>
-      </c>
-      <c r="AE136">
-        <v>1.09</v>
-      </c>
-      <c r="AF136">
-        <v>5.7</v>
-      </c>
-      <c r="AG136">
-        <v>1.37</v>
-      </c>
-      <c r="AH136">
-        <v>2.69</v>
-      </c>
-      <c r="AI136">
-        <v>1.41</v>
-      </c>
-      <c r="AJ136">
-        <v>2.69</v>
-      </c>
-      <c r="AK136">
-        <v>1.25</v>
-      </c>
-      <c r="AL136">
-        <v>1.25</v>
-      </c>
-      <c r="AM136">
-        <v>2</v>
-      </c>
-      <c r="AN136">
-        <v>1.11</v>
-      </c>
-      <c r="AO136">
-        <v>0.25</v>
-      </c>
-      <c r="AP136">
-        <v>1.18</v>
-      </c>
-      <c r="AQ136">
-        <v>0.5</v>
-      </c>
-      <c r="AR136">
-        <v>1.42</v>
-      </c>
-      <c r="AS136">
-        <v>0.97</v>
-      </c>
-      <c r="AT136">
-        <v>2.39</v>
-      </c>
-      <c r="AU136">
-        <v>4</v>
-      </c>
-      <c r="AV136">
-        <v>4</v>
-      </c>
-      <c r="AW136">
-        <v>10</v>
-      </c>
-      <c r="AX136">
-        <v>0</v>
-      </c>
-      <c r="AY136">
-        <v>14</v>
-      </c>
-      <c r="AZ136">
-        <v>4</v>
-      </c>
-      <c r="BA136">
-        <v>6</v>
-      </c>
-      <c r="BB136">
-        <v>1</v>
-      </c>
-      <c r="BC136">
-        <v>7</v>
-      </c>
-      <c r="BD136">
-        <v>1.42</v>
-      </c>
-      <c r="BE136">
-        <v>7.6</v>
-      </c>
-      <c r="BF136">
-        <v>3.72</v>
-      </c>
-      <c r="BG136">
-        <v>0</v>
-      </c>
-      <c r="BH136">
-        <v>0</v>
-      </c>
-      <c r="BI136">
-        <v>0</v>
-      </c>
-      <c r="BJ136">
-        <v>0</v>
-      </c>
-      <c r="BK136">
-        <v>0</v>
-      </c>
-      <c r="BL136">
-        <v>0</v>
-      </c>
-      <c r="BM136">
-        <v>1.95</v>
-      </c>
-      <c r="BN136">
-        <v>1.85</v>
-      </c>
       <c r="BO136">
-        <v>2.21</v>
+        <v>2.16</v>
       </c>
       <c r="BP136">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="137" spans="1:68">
@@ -29338,7 +29338,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>7296404</v>
+        <v>7296403</v>
       </c>
       <c r="C137" t="s">
         <v>68</v>
@@ -29353,160 +29353,160 @@
         <v>18</v>
       </c>
       <c r="G137" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H137" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I137">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J137">
         <v>0</v>
       </c>
       <c r="K137">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L137">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N137">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O137" t="s">
-        <v>189</v>
+        <v>103</v>
       </c>
       <c r="P137" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="Q137">
-        <v>2.38</v>
+        <v>2.26</v>
       </c>
       <c r="R137">
-        <v>2.6</v>
+        <v>2.53</v>
       </c>
       <c r="S137">
+        <v>3.8</v>
+      </c>
+      <c r="T137">
+        <v>1.22</v>
+      </c>
+      <c r="U137">
+        <v>4</v>
+      </c>
+      <c r="V137">
+        <v>2.05</v>
+      </c>
+      <c r="W137">
+        <v>1.72</v>
+      </c>
+      <c r="X137">
+        <v>4.33</v>
+      </c>
+      <c r="Y137">
+        <v>1.19</v>
+      </c>
+      <c r="Z137">
+        <v>1.75</v>
+      </c>
+      <c r="AA137">
+        <v>3.8</v>
+      </c>
+      <c r="AB137">
         <v>3.4</v>
       </c>
-      <c r="T137">
+      <c r="AC137">
+        <v>1.02</v>
+      </c>
+      <c r="AD137">
+        <v>24.5</v>
+      </c>
+      <c r="AE137">
+        <v>1.09</v>
+      </c>
+      <c r="AF137">
+        <v>5.7</v>
+      </c>
+      <c r="AG137">
+        <v>1.37</v>
+      </c>
+      <c r="AH137">
+        <v>2.69</v>
+      </c>
+      <c r="AI137">
+        <v>1.41</v>
+      </c>
+      <c r="AJ137">
+        <v>2.69</v>
+      </c>
+      <c r="AK137">
+        <v>1.25</v>
+      </c>
+      <c r="AL137">
+        <v>1.25</v>
+      </c>
+      <c r="AM137">
+        <v>2</v>
+      </c>
+      <c r="AN137">
+        <v>1.11</v>
+      </c>
+      <c r="AO137">
+        <v>0.25</v>
+      </c>
+      <c r="AP137">
         <v>1.18</v>
       </c>
-      <c r="U137">
-        <v>4.33</v>
-      </c>
-      <c r="V137">
-        <v>1.91</v>
-      </c>
-      <c r="W137">
-        <v>1.8</v>
-      </c>
-      <c r="X137">
-        <v>3.8</v>
-      </c>
-      <c r="Y137">
-        <v>1.22</v>
-      </c>
-      <c r="Z137">
-        <v>1.91</v>
-      </c>
-      <c r="AA137">
-        <v>3.75</v>
-      </c>
-      <c r="AB137">
-        <v>3</v>
-      </c>
-      <c r="AC137">
-        <v>1.01</v>
-      </c>
-      <c r="AD137">
-        <v>32</v>
-      </c>
-      <c r="AE137">
-        <v>1.08</v>
-      </c>
-      <c r="AF137">
-        <v>6.5</v>
-      </c>
-      <c r="AG137">
-        <v>1.32</v>
-      </c>
-      <c r="AH137">
-        <v>2.91</v>
-      </c>
-      <c r="AI137">
-        <v>1.33</v>
-      </c>
-      <c r="AJ137">
-        <v>3</v>
-      </c>
-      <c r="AK137">
-        <v>1.36</v>
-      </c>
-      <c r="AL137">
-        <v>1.22</v>
-      </c>
-      <c r="AM137">
-        <v>1.83</v>
-      </c>
-      <c r="AN137">
-        <v>2</v>
-      </c>
-      <c r="AO137">
-        <v>0.78</v>
-      </c>
-      <c r="AP137">
-        <v>2</v>
-      </c>
       <c r="AQ137">
-        <v>0.91</v>
+        <v>0.5</v>
       </c>
       <c r="AR137">
-        <v>1.94</v>
+        <v>1.42</v>
       </c>
       <c r="AS137">
-        <v>1.52</v>
+        <v>0.97</v>
       </c>
       <c r="AT137">
-        <v>3.46</v>
+        <v>2.39</v>
       </c>
       <c r="AU137">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AV137">
         <v>4</v>
       </c>
       <c r="AW137">
+        <v>10</v>
+      </c>
+      <c r="AX137">
+        <v>0</v>
+      </c>
+      <c r="AY137">
         <v>14</v>
       </c>
-      <c r="AX137">
+      <c r="AZ137">
+        <v>4</v>
+      </c>
+      <c r="BA137">
+        <v>6</v>
+      </c>
+      <c r="BB137">
+        <v>1</v>
+      </c>
+      <c r="BC137">
         <v>7</v>
       </c>
-      <c r="AY137">
-        <v>24</v>
-      </c>
-      <c r="AZ137">
-        <v>11</v>
-      </c>
-      <c r="BA137">
-        <v>4</v>
-      </c>
-      <c r="BB137">
-        <v>8</v>
-      </c>
-      <c r="BC137">
-        <v>12</v>
-      </c>
       <c r="BD137">
-        <v>1.61</v>
+        <v>1.42</v>
       </c>
       <c r="BE137">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="BF137">
-        <v>3</v>
+        <v>3.72</v>
       </c>
       <c r="BG137">
         <v>0</v>
@@ -29521,10 +29521,10 @@
         <v>0</v>
       </c>
       <c r="BK137">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="BL137">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="BM137">
         <v>1.95</v>
@@ -29533,10 +29533,10 @@
         <v>1.85</v>
       </c>
       <c r="BO137">
-        <v>2.16</v>
+        <v>2.21</v>
       </c>
       <c r="BP137">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="138" spans="1:68">
@@ -29544,7 +29544,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>7296405</v>
+        <v>7296404</v>
       </c>
       <c r="C138" t="s">
         <v>68</v>
@@ -29559,161 +29559,161 @@
         <v>18</v>
       </c>
       <c r="G138" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H138" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I138">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J138">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K138">
         <v>3</v>
       </c>
       <c r="L138">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M138">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N138">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O138" t="s">
         <v>190</v>
       </c>
       <c r="P138" t="s">
-        <v>294</v>
+        <v>103</v>
       </c>
       <c r="Q138">
-        <v>3.6</v>
+        <v>2.38</v>
       </c>
       <c r="R138">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="S138">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="T138">
+        <v>1.18</v>
+      </c>
+      <c r="U138">
+        <v>4.33</v>
+      </c>
+      <c r="V138">
+        <v>1.91</v>
+      </c>
+      <c r="W138">
+        <v>1.8</v>
+      </c>
+      <c r="X138">
+        <v>3.8</v>
+      </c>
+      <c r="Y138">
+        <v>1.22</v>
+      </c>
+      <c r="Z138">
+        <v>1.91</v>
+      </c>
+      <c r="AA138">
+        <v>3.75</v>
+      </c>
+      <c r="AB138">
+        <v>3</v>
+      </c>
+      <c r="AC138">
+        <v>1.01</v>
+      </c>
+      <c r="AD138">
+        <v>32</v>
+      </c>
+      <c r="AE138">
+        <v>1.08</v>
+      </c>
+      <c r="AF138">
+        <v>6.5</v>
+      </c>
+      <c r="AG138">
         <v>1.32</v>
       </c>
-      <c r="U138">
-        <v>3.25</v>
-      </c>
-      <c r="V138">
-        <v>2.4</v>
-      </c>
-      <c r="W138">
-        <v>1.5</v>
-      </c>
-      <c r="X138">
-        <v>5.25</v>
-      </c>
-      <c r="Y138">
-        <v>1.12</v>
-      </c>
-      <c r="Z138">
+      <c r="AH138">
+        <v>2.91</v>
+      </c>
+      <c r="AI138">
+        <v>1.33</v>
+      </c>
+      <c r="AJ138">
         <v>3</v>
       </c>
-      <c r="AA138">
-        <v>3.5</v>
-      </c>
-      <c r="AB138">
+      <c r="AK138">
+        <v>1.36</v>
+      </c>
+      <c r="AL138">
+        <v>1.22</v>
+      </c>
+      <c r="AM138">
+        <v>1.83</v>
+      </c>
+      <c r="AN138">
         <v>2</v>
       </c>
-      <c r="AC138">
-        <v>1.03</v>
-      </c>
-      <c r="AD138">
-        <v>16</v>
-      </c>
-      <c r="AE138">
-        <v>1.21</v>
-      </c>
-      <c r="AF138">
-        <v>4.5</v>
-      </c>
-      <c r="AG138">
+      <c r="AO138">
+        <v>0.78</v>
+      </c>
+      <c r="AP138">
+        <v>2</v>
+      </c>
+      <c r="AQ138">
+        <v>0.91</v>
+      </c>
+      <c r="AR138">
+        <v>1.94</v>
+      </c>
+      <c r="AS138">
+        <v>1.52</v>
+      </c>
+      <c r="AT138">
+        <v>3.46</v>
+      </c>
+      <c r="AU138">
+        <v>10</v>
+      </c>
+      <c r="AV138">
+        <v>4</v>
+      </c>
+      <c r="AW138">
+        <v>14</v>
+      </c>
+      <c r="AX138">
+        <v>7</v>
+      </c>
+      <c r="AY138">
+        <v>24</v>
+      </c>
+      <c r="AZ138">
+        <v>11</v>
+      </c>
+      <c r="BA138">
+        <v>4</v>
+      </c>
+      <c r="BB138">
+        <v>8</v>
+      </c>
+      <c r="BC138">
+        <v>12</v>
+      </c>
+      <c r="BD138">
         <v>1.61</v>
       </c>
-      <c r="AH138">
-        <v>2.15</v>
-      </c>
-      <c r="AI138">
-        <v>1.58</v>
-      </c>
-      <c r="AJ138">
-        <v>2.35</v>
-      </c>
-      <c r="AK138">
-        <v>1.72</v>
-      </c>
-      <c r="AL138">
-        <v>1.3</v>
-      </c>
-      <c r="AM138">
-        <v>1.35</v>
-      </c>
-      <c r="AN138">
-        <v>1.25</v>
-      </c>
-      <c r="AO138">
-        <v>1.13</v>
-      </c>
-      <c r="AP138">
-        <v>1.45</v>
-      </c>
-      <c r="AQ138">
-        <v>1.5</v>
-      </c>
-      <c r="AR138">
-        <v>1.59</v>
-      </c>
-      <c r="AS138">
-        <v>1.82</v>
-      </c>
-      <c r="AT138">
-        <v>3.41</v>
-      </c>
-      <c r="AU138">
-        <v>6</v>
-      </c>
-      <c r="AV138">
+      <c r="BE138">
         <v>7</v>
       </c>
-      <c r="AW138">
-        <v>9</v>
-      </c>
-      <c r="AX138">
-        <v>8</v>
-      </c>
-      <c r="AY138">
-        <v>15</v>
-      </c>
-      <c r="AZ138">
-        <v>15</v>
-      </c>
-      <c r="BA138">
-        <v>7</v>
-      </c>
-      <c r="BB138">
+      <c r="BF138">
         <v>3</v>
       </c>
-      <c r="BC138">
-        <v>10</v>
-      </c>
-      <c r="BD138">
-        <v>2.47</v>
-      </c>
-      <c r="BE138">
-        <v>6.9</v>
-      </c>
-      <c r="BF138">
-        <v>1.8</v>
-      </c>
       <c r="BG138">
         <v>0</v>
       </c>
@@ -29721,28 +29721,28 @@
         <v>0</v>
       </c>
       <c r="BI138">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="BJ138">
-        <v>3.45</v>
+        <v>0</v>
       </c>
       <c r="BK138">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="BL138">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="BM138">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="BN138">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="BO138">
-        <v>2.43</v>
+        <v>2.16</v>
       </c>
       <c r="BP138">
-        <v>1.52</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="139" spans="1:68">
@@ -29750,7 +29750,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>7296407</v>
+        <v>7296405</v>
       </c>
       <c r="C139" t="s">
         <v>68</v>
@@ -29765,190 +29765,190 @@
         <v>18</v>
       </c>
       <c r="G139" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H139" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="I139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K139">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M139">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N139">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O139" t="s">
         <v>191</v>
       </c>
       <c r="P139" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Q139">
-        <v>2.61</v>
+        <v>3.6</v>
       </c>
       <c r="R139">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="S139">
-        <v>3.63</v>
+        <v>2.55</v>
       </c>
       <c r="T139">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="U139">
-        <v>3.44</v>
+        <v>3.25</v>
       </c>
       <c r="V139">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="W139">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="X139">
-        <v>5.4</v>
+        <v>5.25</v>
       </c>
       <c r="Y139">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="Z139">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA139">
         <v>3.5</v>
       </c>
       <c r="AB139">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC139">
         <v>1.03</v>
       </c>
       <c r="AD139">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AE139">
-        <v>1.16</v>
+        <v>1.21</v>
       </c>
       <c r="AF139">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AG139">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="AH139">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AI139">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="AJ139">
-        <v>2.39</v>
+        <v>2.35</v>
       </c>
       <c r="AK139">
-        <v>1.35</v>
+        <v>1.72</v>
       </c>
       <c r="AL139">
         <v>1.3</v>
       </c>
       <c r="AM139">
-        <v>1.7</v>
+        <v>1.35</v>
       </c>
       <c r="AN139">
-        <v>2.13</v>
+        <v>1.25</v>
       </c>
       <c r="AO139">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AP139">
-        <v>1.8</v>
+        <v>1.45</v>
       </c>
       <c r="AQ139">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR139">
         <v>1.59</v>
       </c>
       <c r="AS139">
-        <v>1.48</v>
+        <v>1.82</v>
       </c>
       <c r="AT139">
-        <v>3.07</v>
+        <v>3.41</v>
       </c>
       <c r="AU139">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AV139">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW139">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AX139">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AY139">
         <v>15</v>
       </c>
       <c r="AZ139">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="BA139">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB139">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC139">
         <v>10</v>
       </c>
       <c r="BD139">
-        <v>1.83</v>
+        <v>2.47</v>
       </c>
       <c r="BE139">
-        <v>6.55</v>
+        <v>6.9</v>
       </c>
       <c r="BF139">
+        <v>1.8</v>
+      </c>
+      <c r="BG139">
+        <v>0</v>
+      </c>
+      <c r="BH139">
+        <v>0</v>
+      </c>
+      <c r="BI139">
+        <v>1.29</v>
+      </c>
+      <c r="BJ139">
+        <v>3.45</v>
+      </c>
+      <c r="BK139">
+        <v>1.5</v>
+      </c>
+      <c r="BL139">
         <v>2.45</v>
       </c>
-      <c r="BG139">
-        <v>0</v>
-      </c>
-      <c r="BH139">
-        <v>0</v>
-      </c>
-      <c r="BI139">
-        <v>1.36</v>
-      </c>
-      <c r="BJ139">
-        <v>2.79</v>
-      </c>
-      <c r="BK139">
-        <v>1.64</v>
-      </c>
-      <c r="BL139">
-        <v>2.07</v>
-      </c>
       <c r="BM139">
+        <v>1.88</v>
+      </c>
+      <c r="BN139">
         <v>1.92</v>
       </c>
-      <c r="BN139">
-        <v>1.88</v>
-      </c>
       <c r="BO139">
-        <v>2.71</v>
+        <v>2.43</v>
       </c>
       <c r="BP139">
-        <v>1.38</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="140" spans="1:68">
@@ -29956,7 +29956,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>7296409</v>
+        <v>7296407</v>
       </c>
       <c r="C140" t="s">
         <v>68</v>
@@ -29971,16 +29971,16 @@
         <v>18</v>
       </c>
       <c r="G140" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H140" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K140">
         <v>1</v>
@@ -29989,172 +29989,172 @@
         <v>1</v>
       </c>
       <c r="M140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O140" t="s">
         <v>192</v>
       </c>
       <c r="P140" t="s">
-        <v>103</v>
+        <v>295</v>
       </c>
       <c r="Q140">
-        <v>3.04</v>
+        <v>2.61</v>
       </c>
       <c r="R140">
-        <v>2.42</v>
+        <v>2.43</v>
       </c>
       <c r="S140">
-        <v>3.03</v>
+        <v>3.63</v>
       </c>
       <c r="T140">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="U140">
-        <v>3.54</v>
+        <v>3.44</v>
       </c>
       <c r="V140">
-        <v>2.27</v>
+        <v>2.36</v>
       </c>
       <c r="W140">
+        <v>1.56</v>
+      </c>
+      <c r="X140">
+        <v>5.4</v>
+      </c>
+      <c r="Y140">
+        <v>1.13</v>
+      </c>
+      <c r="Z140">
+        <v>2</v>
+      </c>
+      <c r="AA140">
+        <v>3.5</v>
+      </c>
+      <c r="AB140">
+        <v>3</v>
+      </c>
+      <c r="AC140">
+        <v>1.03</v>
+      </c>
+      <c r="AD140">
+        <v>12</v>
+      </c>
+      <c r="AE140">
+        <v>1.16</v>
+      </c>
+      <c r="AF140">
+        <v>4.4</v>
+      </c>
+      <c r="AG140">
+        <v>1.57</v>
+      </c>
+      <c r="AH140">
+        <v>2.25</v>
+      </c>
+      <c r="AI140">
+        <v>1.51</v>
+      </c>
+      <c r="AJ140">
+        <v>2.39</v>
+      </c>
+      <c r="AK140">
+        <v>1.35</v>
+      </c>
+      <c r="AL140">
+        <v>1.3</v>
+      </c>
+      <c r="AM140">
+        <v>1.7</v>
+      </c>
+      <c r="AN140">
+        <v>2.13</v>
+      </c>
+      <c r="AO140">
+        <v>1.11</v>
+      </c>
+      <c r="AP140">
+        <v>1.8</v>
+      </c>
+      <c r="AQ140">
+        <v>1</v>
+      </c>
+      <c r="AR140">
         <v>1.59</v>
       </c>
-      <c r="X140">
-        <v>5.15</v>
-      </c>
-      <c r="Y140">
-        <v>1.14</v>
-      </c>
-      <c r="Z140">
-        <v>2.5</v>
-      </c>
-      <c r="AA140">
-        <v>3.4</v>
-      </c>
-      <c r="AB140">
-        <v>2.3</v>
-      </c>
-      <c r="AC140">
-        <v>1.01</v>
-      </c>
-      <c r="AD140">
-        <v>14.3</v>
-      </c>
-      <c r="AE140">
-        <v>1.14</v>
-      </c>
-      <c r="AF140">
-        <v>4.65</v>
-      </c>
-      <c r="AG140">
-        <v>1.6</v>
-      </c>
-      <c r="AH140">
-        <v>2.2</v>
-      </c>
-      <c r="AI140">
-        <v>1.49</v>
-      </c>
-      <c r="AJ140">
-        <v>2.44</v>
-      </c>
-      <c r="AK140">
-        <v>1.5</v>
-      </c>
-      <c r="AL140">
-        <v>1.26</v>
-      </c>
-      <c r="AM140">
-        <v>1.49</v>
-      </c>
-      <c r="AN140">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AO140">
-        <v>1.63</v>
-      </c>
-      <c r="AP140">
-        <v>0.73</v>
-      </c>
-      <c r="AQ140">
-        <v>1.3</v>
-      </c>
-      <c r="AR140">
-        <v>1.31</v>
-      </c>
       <c r="AS140">
+        <v>1.48</v>
+      </c>
+      <c r="AT140">
+        <v>3.07</v>
+      </c>
+      <c r="AU140">
+        <v>11</v>
+      </c>
+      <c r="AV140">
+        <v>5</v>
+      </c>
+      <c r="AW140">
+        <v>4</v>
+      </c>
+      <c r="AX140">
+        <v>3</v>
+      </c>
+      <c r="AY140">
+        <v>15</v>
+      </c>
+      <c r="AZ140">
+        <v>8</v>
+      </c>
+      <c r="BA140">
+        <v>8</v>
+      </c>
+      <c r="BB140">
+        <v>2</v>
+      </c>
+      <c r="BC140">
+        <v>10</v>
+      </c>
+      <c r="BD140">
+        <v>1.83</v>
+      </c>
+      <c r="BE140">
+        <v>6.55</v>
+      </c>
+      <c r="BF140">
+        <v>2.45</v>
+      </c>
+      <c r="BG140">
+        <v>0</v>
+      </c>
+      <c r="BH140">
+        <v>0</v>
+      </c>
+      <c r="BI140">
+        <v>1.36</v>
+      </c>
+      <c r="BJ140">
+        <v>2.79</v>
+      </c>
+      <c r="BK140">
         <v>1.64</v>
       </c>
-      <c r="AT140">
-        <v>2.95</v>
-      </c>
-      <c r="AU140">
-        <v>7</v>
-      </c>
-      <c r="AV140">
-        <v>7</v>
-      </c>
-      <c r="AW140">
-        <v>5</v>
-      </c>
-      <c r="AX140">
-        <v>4</v>
-      </c>
-      <c r="AY140">
-        <v>12</v>
-      </c>
-      <c r="AZ140">
-        <v>11</v>
-      </c>
-      <c r="BA140">
-        <v>5</v>
-      </c>
-      <c r="BB140">
-        <v>3</v>
-      </c>
-      <c r="BC140">
-        <v>8</v>
-      </c>
-      <c r="BD140">
-        <v>0</v>
-      </c>
-      <c r="BE140">
-        <v>0</v>
-      </c>
-      <c r="BF140">
-        <v>0</v>
-      </c>
-      <c r="BG140">
-        <v>0</v>
-      </c>
-      <c r="BH140">
-        <v>0</v>
-      </c>
-      <c r="BI140">
-        <v>0</v>
-      </c>
-      <c r="BJ140">
-        <v>0</v>
-      </c>
-      <c r="BK140">
-        <v>0</v>
-      </c>
       <c r="BL140">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="BM140">
-        <v>1.74</v>
+        <v>1.92</v>
       </c>
       <c r="BN140">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="BO140">
-        <v>2.16</v>
+        <v>2.71</v>
       </c>
       <c r="BP140">
-        <v>1.67</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="141" spans="1:68">
@@ -30368,7 +30368,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>7296402</v>
+        <v>7296406</v>
       </c>
       <c r="C142" t="s">
         <v>68</v>
@@ -30383,28 +30383,28 @@
         <v>18</v>
       </c>
       <c r="G142" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="H142" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K142">
         <v>1</v>
       </c>
       <c r="L142">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M142">
+        <v>1</v>
+      </c>
+      <c r="N142">
         <v>2</v>
-      </c>
-      <c r="N142">
-        <v>5</v>
       </c>
       <c r="O142" t="s">
         <v>194</v>
@@ -30413,58 +30413,58 @@
         <v>296</v>
       </c>
       <c r="Q142">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="R142">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="S142">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="T142">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U142">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V142">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="W142">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="X142">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="Y142">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="Z142">
-        <v>1.66</v>
+        <v>2.07</v>
       </c>
       <c r="AA142">
-        <v>4.43</v>
+        <v>3.9</v>
       </c>
       <c r="AB142">
-        <v>4.5</v>
+        <v>3.22</v>
       </c>
       <c r="AC142">
         <v>1.02</v>
       </c>
       <c r="AD142">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AE142">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="AF142">
-        <v>5.55</v>
+        <v>4.95</v>
       </c>
       <c r="AG142">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="AH142">
-        <v>2.73</v>
+        <v>2.5</v>
       </c>
       <c r="AI142">
         <v>1.44</v>
@@ -30473,70 +30473,70 @@
         <v>2.63</v>
       </c>
       <c r="AK142">
-        <v>1.21</v>
+        <v>1.43</v>
       </c>
       <c r="AL142">
+        <v>1.25</v>
+      </c>
+      <c r="AM142">
+        <v>1.58</v>
+      </c>
+      <c r="AN142">
+        <v>1.88</v>
+      </c>
+      <c r="AO142">
+        <v>1.38</v>
+      </c>
+      <c r="AP142">
+        <v>1.9</v>
+      </c>
+      <c r="AQ142">
         <v>1.2</v>
       </c>
-      <c r="AM142">
-        <v>2.12</v>
-      </c>
-      <c r="AN142">
-        <v>1.13</v>
-      </c>
-      <c r="AO142">
-        <v>0.25</v>
-      </c>
-      <c r="AP142">
-        <v>1.5</v>
-      </c>
-      <c r="AQ142">
-        <v>0.55</v>
-      </c>
       <c r="AR142">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="AS142">
-        <v>1.27</v>
+        <v>1.89</v>
       </c>
       <c r="AT142">
-        <v>3.37</v>
+        <v>3.72</v>
       </c>
       <c r="AU142">
+        <v>7</v>
+      </c>
+      <c r="AV142">
+        <v>2</v>
+      </c>
+      <c r="AW142">
         <v>10</v>
       </c>
-      <c r="AV142">
-        <v>13</v>
-      </c>
-      <c r="AW142">
-        <v>5</v>
-      </c>
       <c r="AX142">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AY142">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ142">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BA142">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BB142">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BC142">
         <v>8</v>
       </c>
       <c r="BD142">
-        <v>1.35</v>
+        <v>1.94</v>
       </c>
       <c r="BE142">
-        <v>7.9</v>
+        <v>6.7</v>
       </c>
       <c r="BF142">
-        <v>4.2</v>
+        <v>2.27</v>
       </c>
       <c r="BG142">
         <v>0</v>
@@ -30545,28 +30545,28 @@
         <v>0</v>
       </c>
       <c r="BI142">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="BJ142">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="BK142">
-        <v>1.46</v>
+        <v>1.55</v>
       </c>
       <c r="BL142">
-        <v>2.55</v>
+        <v>2.38</v>
       </c>
       <c r="BM142">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="BN142">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="BO142">
-        <v>2.22</v>
+        <v>2.5</v>
       </c>
       <c r="BP142">
-        <v>1.64</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="143" spans="1:68">
@@ -30574,7 +30574,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>7296406</v>
+        <v>7296402</v>
       </c>
       <c r="C143" t="s">
         <v>68</v>
@@ -30589,28 +30589,28 @@
         <v>18</v>
       </c>
       <c r="G143" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="H143" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K143">
         <v>1</v>
       </c>
       <c r="L143">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N143">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O143" t="s">
         <v>195</v>
@@ -30619,58 +30619,58 @@
         <v>297</v>
       </c>
       <c r="Q143">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="R143">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="S143">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="T143">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U143">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V143">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="W143">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="X143">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="Y143">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="Z143">
-        <v>2.07</v>
+        <v>1.66</v>
       </c>
       <c r="AA143">
-        <v>3.9</v>
+        <v>4.43</v>
       </c>
       <c r="AB143">
-        <v>3.22</v>
+        <v>4.5</v>
       </c>
       <c r="AC143">
         <v>1.02</v>
       </c>
       <c r="AD143">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AE143">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="AF143">
-        <v>4.95</v>
+        <v>5.55</v>
       </c>
       <c r="AG143">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AH143">
-        <v>2.5</v>
+        <v>2.73</v>
       </c>
       <c r="AI143">
         <v>1.44</v>
@@ -30679,70 +30679,70 @@
         <v>2.63</v>
       </c>
       <c r="AK143">
-        <v>1.43</v>
+        <v>1.21</v>
       </c>
       <c r="AL143">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AM143">
-        <v>1.58</v>
+        <v>2.12</v>
       </c>
       <c r="AN143">
-        <v>1.88</v>
+        <v>1.13</v>
       </c>
       <c r="AO143">
-        <v>1.38</v>
+        <v>0.25</v>
       </c>
       <c r="AP143">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="AQ143">
-        <v>1.2</v>
+        <v>0.55</v>
       </c>
       <c r="AR143">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="AS143">
-        <v>1.89</v>
+        <v>1.27</v>
       </c>
       <c r="AT143">
-        <v>3.72</v>
+        <v>3.37</v>
       </c>
       <c r="AU143">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AV143">
+        <v>13</v>
+      </c>
+      <c r="AW143">
+        <v>5</v>
+      </c>
+      <c r="AX143">
         <v>2</v>
       </c>
-      <c r="AW143">
-        <v>10</v>
-      </c>
-      <c r="AX143">
-        <v>7</v>
-      </c>
       <c r="AY143">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ143">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BA143">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BB143">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BC143">
         <v>8</v>
       </c>
       <c r="BD143">
-        <v>1.94</v>
+        <v>1.35</v>
       </c>
       <c r="BE143">
-        <v>6.7</v>
+        <v>7.9</v>
       </c>
       <c r="BF143">
-        <v>2.27</v>
+        <v>4.2</v>
       </c>
       <c r="BG143">
         <v>0</v>
@@ -30751,28 +30751,28 @@
         <v>0</v>
       </c>
       <c r="BI143">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="BJ143">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="BK143">
-        <v>1.55</v>
+        <v>1.46</v>
       </c>
       <c r="BL143">
-        <v>2.38</v>
+        <v>2.55</v>
       </c>
       <c r="BM143">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="BN143">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="BO143">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="BP143">
-        <v>1.49</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="144" spans="1:68">
@@ -30780,7 +30780,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>7296383</v>
+        <v>7296378</v>
       </c>
       <c r="C144" t="s">
         <v>68</v>
@@ -30795,82 +30795,82 @@
         <v>15</v>
       </c>
       <c r="G144" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H144" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K144">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N144">
         <v>2</v>
       </c>
       <c r="O144" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="P144" t="s">
         <v>298</v>
       </c>
       <c r="Q144">
-        <v>3.44</v>
+        <v>2.02</v>
       </c>
       <c r="R144">
-        <v>2.43</v>
+        <v>2.69</v>
       </c>
       <c r="S144">
-        <v>2.47</v>
+        <v>4.93</v>
       </c>
       <c r="T144">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="U144">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="V144">
         <v>2.13</v>
       </c>
       <c r="W144">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="X144">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y144">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="Z144">
-        <v>2.8</v>
+        <v>1.57</v>
       </c>
       <c r="AA144">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="AB144">
-        <v>2.05</v>
+        <v>4.4</v>
       </c>
       <c r="AC144">
         <v>1.02</v>
       </c>
       <c r="AD144">
-        <v>22</v>
+        <v>23.5</v>
       </c>
       <c r="AE144">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AF144">
-        <v>5.7</v>
+        <v>5.45</v>
       </c>
       <c r="AG144">
         <v>1.45</v>
@@ -30879,106 +30879,106 @@
         <v>2.55</v>
       </c>
       <c r="AI144">
-        <v>1.42</v>
+        <v>1.55</v>
       </c>
       <c r="AJ144">
-        <v>2.65</v>
+        <v>2.45</v>
       </c>
       <c r="AK144">
-        <v>1.74</v>
+        <v>1.19</v>
       </c>
       <c r="AL144">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AM144">
-        <v>1.34</v>
+        <v>2.3</v>
       </c>
       <c r="AN144">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AO144">
-        <v>1</v>
+        <v>0.57</v>
       </c>
       <c r="AP144">
-        <v>0.73</v>
+        <v>1.3</v>
       </c>
       <c r="AQ144">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AR144">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="AS144">
-        <v>1.31</v>
+        <v>1.44</v>
       </c>
       <c r="AT144">
-        <v>2.98</v>
+        <v>3.09</v>
       </c>
       <c r="AU144">
+        <v>9</v>
+      </c>
+      <c r="AV144">
         <v>5</v>
       </c>
-      <c r="AV144">
-        <v>6</v>
-      </c>
       <c r="AW144">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AX144">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AY144">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AZ144">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="BA144">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BB144">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC144">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BD144">
-        <v>2.53</v>
+        <v>1.64</v>
       </c>
       <c r="BE144">
         <v>8.5</v>
       </c>
       <c r="BF144">
-        <v>1.69</v>
+        <v>2.66</v>
       </c>
       <c r="BG144">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="BH144">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="BI144">
-        <v>1.24</v>
+        <v>1.34</v>
       </c>
       <c r="BJ144">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="BK144">
+        <v>1.6</v>
+      </c>
+      <c r="BL144">
+        <v>2.25</v>
+      </c>
+      <c r="BM144">
+        <v>2</v>
+      </c>
+      <c r="BN144">
+        <v>1.75</v>
+      </c>
+      <c r="BO144">
+        <v>2.65</v>
+      </c>
+      <c r="BP144">
         <v>1.44</v>
-      </c>
-      <c r="BL144">
-        <v>2.65</v>
-      </c>
-      <c r="BM144">
-        <v>1.75</v>
-      </c>
-      <c r="BN144">
-        <v>2</v>
-      </c>
-      <c r="BO144">
-        <v>2.23</v>
-      </c>
-      <c r="BP144">
-        <v>1.61</v>
       </c>
     </row>
     <row r="145" spans="1:68">
@@ -30986,7 +30986,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>7296378</v>
+        <v>7296383</v>
       </c>
       <c r="C145" t="s">
         <v>68</v>
@@ -31001,82 +31001,82 @@
         <v>15</v>
       </c>
       <c r="G145" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H145" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+      <c r="M145">
         <v>2</v>
-      </c>
-      <c r="L145">
-        <v>1</v>
-      </c>
-      <c r="M145">
-        <v>1</v>
       </c>
       <c r="N145">
         <v>2</v>
       </c>
       <c r="O145" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="P145" t="s">
         <v>299</v>
       </c>
       <c r="Q145">
-        <v>2.02</v>
+        <v>3.44</v>
       </c>
       <c r="R145">
-        <v>2.69</v>
+        <v>2.43</v>
       </c>
       <c r="S145">
-        <v>4.93</v>
+        <v>2.47</v>
       </c>
       <c r="T145">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="U145">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="V145">
         <v>2.13</v>
       </c>
       <c r="W145">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="X145">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y145">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="Z145">
-        <v>1.57</v>
+        <v>2.8</v>
       </c>
       <c r="AA145">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AB145">
-        <v>4.4</v>
+        <v>2.05</v>
       </c>
       <c r="AC145">
         <v>1.02</v>
       </c>
       <c r="AD145">
-        <v>23.5</v>
+        <v>22</v>
       </c>
       <c r="AE145">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AF145">
-        <v>5.45</v>
+        <v>5.7</v>
       </c>
       <c r="AG145">
         <v>1.45</v>
@@ -31085,106 +31085,106 @@
         <v>2.55</v>
       </c>
       <c r="AI145">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AJ145">
-        <v>2.45</v>
+        <v>2.65</v>
       </c>
       <c r="AK145">
-        <v>1.19</v>
+        <v>1.74</v>
       </c>
       <c r="AL145">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="AM145">
-        <v>2.3</v>
+        <v>1.34</v>
       </c>
       <c r="AN145">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AO145">
-        <v>0.57</v>
+        <v>1</v>
       </c>
       <c r="AP145">
-        <v>1.3</v>
+        <v>0.73</v>
       </c>
       <c r="AQ145">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AR145">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="AS145">
-        <v>1.44</v>
+        <v>1.31</v>
       </c>
       <c r="AT145">
-        <v>3.09</v>
+        <v>2.98</v>
       </c>
       <c r="AU145">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AV145">
+        <v>6</v>
+      </c>
+      <c r="AW145">
         <v>5</v>
       </c>
-      <c r="AW145">
+      <c r="AX145">
         <v>10</v>
       </c>
-      <c r="AX145">
-        <v>4</v>
-      </c>
       <c r="AY145">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AZ145">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="BA145">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BB145">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BC145">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BD145">
-        <v>1.64</v>
+        <v>2.53</v>
       </c>
       <c r="BE145">
         <v>8.5</v>
       </c>
       <c r="BF145">
-        <v>2.66</v>
+        <v>1.69</v>
       </c>
       <c r="BG145">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="BH145">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="BI145">
-        <v>1.34</v>
+        <v>1.24</v>
       </c>
       <c r="BJ145">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="BK145">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="BL145">
-        <v>2.25</v>
+        <v>2.65</v>
       </c>
       <c r="BM145">
+        <v>1.75</v>
+      </c>
+      <c r="BN145">
         <v>2</v>
       </c>
-      <c r="BN145">
-        <v>1.75</v>
-      </c>
       <c r="BO145">
-        <v>2.65</v>
+        <v>2.23</v>
       </c>
       <c r="BP145">
-        <v>1.44</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="146" spans="1:68">
@@ -31810,7 +31810,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>7296412</v>
+        <v>7296411</v>
       </c>
       <c r="C149" t="s">
         <v>68</v>
@@ -31825,190 +31825,190 @@
         <v>19</v>
       </c>
       <c r="G149" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H149" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I149">
         <v>1</v>
       </c>
       <c r="J149">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K149">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L149">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M149">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N149">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O149" t="s">
         <v>198</v>
       </c>
       <c r="P149" t="s">
-        <v>103</v>
+        <v>301</v>
       </c>
       <c r="Q149">
-        <v>2.95</v>
+        <v>1.8</v>
       </c>
       <c r="R149">
+        <v>2.65</v>
+      </c>
+      <c r="S149">
+        <v>4.9</v>
+      </c>
+      <c r="T149">
+        <v>1.22</v>
+      </c>
+      <c r="U149">
+        <v>3.7</v>
+      </c>
+      <c r="V149">
+        <v>1.93</v>
+      </c>
+      <c r="W149">
+        <v>1.72</v>
+      </c>
+      <c r="X149">
+        <v>4.1</v>
+      </c>
+      <c r="Y149">
+        <v>1.17</v>
+      </c>
+      <c r="Z149">
+        <v>1.57</v>
+      </c>
+      <c r="AA149">
+        <v>4.4</v>
+      </c>
+      <c r="AB149">
+        <v>4.6</v>
+      </c>
+      <c r="AC149">
+        <v>1.02</v>
+      </c>
+      <c r="AD149">
+        <v>25.5</v>
+      </c>
+      <c r="AE149">
+        <v>1.09</v>
+      </c>
+      <c r="AF149">
+        <v>5.65</v>
+      </c>
+      <c r="AG149">
+        <v>1.39</v>
+      </c>
+      <c r="AH149">
+        <v>2.77</v>
+      </c>
+      <c r="AI149">
+        <v>1.45</v>
+      </c>
+      <c r="AJ149">
+        <v>2.45</v>
+      </c>
+      <c r="AK149">
+        <v>1.14</v>
+      </c>
+      <c r="AL149">
+        <v>1.17</v>
+      </c>
+      <c r="AM149">
+        <v>2.1</v>
+      </c>
+      <c r="AN149">
+        <v>1.78</v>
+      </c>
+      <c r="AO149">
+        <v>0.22</v>
+      </c>
+      <c r="AP149">
+        <v>1.64</v>
+      </c>
+      <c r="AQ149">
+        <v>0.55</v>
+      </c>
+      <c r="AR149">
+        <v>1.87</v>
+      </c>
+      <c r="AS149">
+        <v>1.37</v>
+      </c>
+      <c r="AT149">
+        <v>3.24</v>
+      </c>
+      <c r="AU149">
+        <v>8</v>
+      </c>
+      <c r="AV149">
+        <v>4</v>
+      </c>
+      <c r="AW149">
+        <v>10</v>
+      </c>
+      <c r="AX149">
+        <v>6</v>
+      </c>
+      <c r="AY149">
+        <v>18</v>
+      </c>
+      <c r="AZ149">
+        <v>10</v>
+      </c>
+      <c r="BA149">
+        <v>3</v>
+      </c>
+      <c r="BB149">
+        <v>2</v>
+      </c>
+      <c r="BC149">
+        <v>5</v>
+      </c>
+      <c r="BD149">
+        <v>1.34</v>
+      </c>
+      <c r="BE149">
+        <v>9.5</v>
+      </c>
+      <c r="BF149">
+        <v>3.86</v>
+      </c>
+      <c r="BG149">
+        <v>1.18</v>
+      </c>
+      <c r="BH149">
+        <v>4.6</v>
+      </c>
+      <c r="BI149">
+        <v>1.24</v>
+      </c>
+      <c r="BJ149">
+        <v>3.48</v>
+      </c>
+      <c r="BK149">
+        <v>1.48</v>
+      </c>
+      <c r="BL149">
+        <v>2.58</v>
+      </c>
+      <c r="BM149">
+        <v>2</v>
+      </c>
+      <c r="BN149">
+        <v>1.8</v>
+      </c>
+      <c r="BO149">
         <v>2.25</v>
       </c>
-      <c r="S149">
-        <v>3.4</v>
-      </c>
-      <c r="T149">
-        <v>1.32</v>
-      </c>
-      <c r="U149">
-        <v>3.1</v>
-      </c>
-      <c r="V149">
-        <v>2.5</v>
-      </c>
-      <c r="W149">
-        <v>1.48</v>
-      </c>
-      <c r="X149">
-        <v>5.5</v>
-      </c>
-      <c r="Y149">
-        <v>1.11</v>
-      </c>
-      <c r="Z149">
-        <v>2.29</v>
-      </c>
-      <c r="AA149">
-        <v>3.45</v>
-      </c>
-      <c r="AB149">
-        <v>2.8</v>
-      </c>
-      <c r="AC149">
-        <v>1.04</v>
-      </c>
-      <c r="AD149">
-        <v>15</v>
-      </c>
-      <c r="AE149">
-        <v>1.19</v>
-      </c>
-      <c r="AF149">
-        <v>4</v>
-      </c>
-      <c r="AG149">
-        <v>1.7</v>
-      </c>
-      <c r="AH149">
-        <v>2.05</v>
-      </c>
-      <c r="AI149">
-        <v>1.57</v>
-      </c>
-      <c r="AJ149">
-        <v>2.35</v>
-      </c>
-      <c r="AK149">
-        <v>1.42</v>
-      </c>
-      <c r="AL149">
-        <v>1.25</v>
-      </c>
-      <c r="AM149">
-        <v>1.6</v>
-      </c>
-      <c r="AN149">
-        <v>2.11</v>
-      </c>
-      <c r="AO149">
-        <v>1.33</v>
-      </c>
-      <c r="AP149">
-        <v>2.27</v>
-      </c>
-      <c r="AQ149">
-        <v>1.09</v>
-      </c>
-      <c r="AR149">
-        <v>1.48</v>
-      </c>
-      <c r="AS149">
-        <v>1.19</v>
-      </c>
-      <c r="AT149">
-        <v>2.67</v>
-      </c>
-      <c r="AU149">
-        <v>7</v>
-      </c>
-      <c r="AV149">
-        <v>2</v>
-      </c>
-      <c r="AW149">
-        <v>3</v>
-      </c>
-      <c r="AX149">
-        <v>10</v>
-      </c>
-      <c r="AY149">
-        <v>10</v>
-      </c>
-      <c r="AZ149">
-        <v>12</v>
-      </c>
-      <c r="BA149">
-        <v>4</v>
-      </c>
-      <c r="BB149">
-        <v>11</v>
-      </c>
-      <c r="BC149">
-        <v>15</v>
-      </c>
-      <c r="BD149">
-        <v>1.82</v>
-      </c>
-      <c r="BE149">
-        <v>8.5</v>
-      </c>
-      <c r="BF149">
-        <v>2.32</v>
-      </c>
-      <c r="BG149">
-        <v>1.19</v>
-      </c>
-      <c r="BH149">
-        <v>4.5</v>
-      </c>
-      <c r="BI149">
-        <v>1.31</v>
-      </c>
-      <c r="BJ149">
-        <v>3.04</v>
-      </c>
-      <c r="BK149">
+      <c r="BP149">
         <v>1.61</v>
-      </c>
-      <c r="BL149">
-        <v>2.29</v>
-      </c>
-      <c r="BM149">
-        <v>1.97</v>
-      </c>
-      <c r="BN149">
-        <v>1.83</v>
-      </c>
-      <c r="BO149">
-        <v>2.5</v>
-      </c>
-      <c r="BP149">
-        <v>1.52</v>
       </c>
     </row>
     <row r="150" spans="1:68">
@@ -32016,7 +32016,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>7296411</v>
+        <v>7296412</v>
       </c>
       <c r="C150" t="s">
         <v>68</v>
@@ -32031,190 +32031,190 @@
         <v>19</v>
       </c>
       <c r="G150" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H150" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I150">
         <v>1</v>
       </c>
       <c r="J150">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K150">
+        <v>1</v>
+      </c>
+      <c r="L150">
         <v>3</v>
       </c>
-      <c r="L150">
-        <v>2</v>
-      </c>
       <c r="M150">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N150">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O150" t="s">
         <v>199</v>
       </c>
       <c r="P150" t="s">
-        <v>301</v>
+        <v>103</v>
       </c>
       <c r="Q150">
-        <v>1.8</v>
+        <v>2.95</v>
       </c>
       <c r="R150">
-        <v>2.65</v>
+        <v>2.25</v>
       </c>
       <c r="S150">
-        <v>4.9</v>
+        <v>3.4</v>
       </c>
       <c r="T150">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="U150">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="V150">
-        <v>1.93</v>
+        <v>2.5</v>
       </c>
       <c r="W150">
-        <v>1.72</v>
+        <v>1.48</v>
       </c>
       <c r="X150">
-        <v>4.1</v>
+        <v>5.5</v>
       </c>
       <c r="Y150">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="Z150">
+        <v>2.29</v>
+      </c>
+      <c r="AA150">
+        <v>3.45</v>
+      </c>
+      <c r="AB150">
+        <v>2.8</v>
+      </c>
+      <c r="AC150">
+        <v>1.04</v>
+      </c>
+      <c r="AD150">
+        <v>15</v>
+      </c>
+      <c r="AE150">
+        <v>1.19</v>
+      </c>
+      <c r="AF150">
+        <v>4</v>
+      </c>
+      <c r="AG150">
+        <v>1.7</v>
+      </c>
+      <c r="AH150">
+        <v>2.05</v>
+      </c>
+      <c r="AI150">
         <v>1.57</v>
       </c>
-      <c r="AA150">
-        <v>4.4</v>
-      </c>
-      <c r="AB150">
-        <v>4.6</v>
-      </c>
-      <c r="AC150">
-        <v>1.02</v>
-      </c>
-      <c r="AD150">
-        <v>25.5</v>
-      </c>
-      <c r="AE150">
+      <c r="AJ150">
+        <v>2.35</v>
+      </c>
+      <c r="AK150">
+        <v>1.42</v>
+      </c>
+      <c r="AL150">
+        <v>1.25</v>
+      </c>
+      <c r="AM150">
+        <v>1.6</v>
+      </c>
+      <c r="AN150">
+        <v>2.11</v>
+      </c>
+      <c r="AO150">
+        <v>1.33</v>
+      </c>
+      <c r="AP150">
+        <v>2.27</v>
+      </c>
+      <c r="AQ150">
         <v>1.09</v>
       </c>
-      <c r="AF150">
-        <v>5.65</v>
-      </c>
-      <c r="AG150">
-        <v>1.39</v>
-      </c>
-      <c r="AH150">
-        <v>2.77</v>
-      </c>
-      <c r="AI150">
-        <v>1.45</v>
-      </c>
-      <c r="AJ150">
-        <v>2.45</v>
-      </c>
-      <c r="AK150">
-        <v>1.14</v>
-      </c>
-      <c r="AL150">
-        <v>1.17</v>
-      </c>
-      <c r="AM150">
-        <v>2.1</v>
-      </c>
-      <c r="AN150">
-        <v>1.78</v>
-      </c>
-      <c r="AO150">
-        <v>0.22</v>
-      </c>
-      <c r="AP150">
-        <v>1.64</v>
-      </c>
-      <c r="AQ150">
-        <v>0.55</v>
-      </c>
       <c r="AR150">
-        <v>1.87</v>
+        <v>1.48</v>
       </c>
       <c r="AS150">
-        <v>1.37</v>
+        <v>1.19</v>
       </c>
       <c r="AT150">
-        <v>3.24</v>
+        <v>2.67</v>
       </c>
       <c r="AU150">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV150">
+        <v>2</v>
+      </c>
+      <c r="AW150">
+        <v>3</v>
+      </c>
+      <c r="AX150">
+        <v>10</v>
+      </c>
+      <c r="AY150">
+        <v>10</v>
+      </c>
+      <c r="AZ150">
+        <v>12</v>
+      </c>
+      <c r="BA150">
         <v>4</v>
       </c>
-      <c r="AW150">
-        <v>10</v>
-      </c>
-      <c r="AX150">
-        <v>6</v>
-      </c>
-      <c r="AY150">
-        <v>18</v>
-      </c>
-      <c r="AZ150">
-        <v>10</v>
-      </c>
-      <c r="BA150">
-        <v>3</v>
-      </c>
       <c r="BB150">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="BC150">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="BD150">
-        <v>1.34</v>
+        <v>1.82</v>
       </c>
       <c r="BE150">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="BF150">
-        <v>3.86</v>
+        <v>2.32</v>
       </c>
       <c r="BG150">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="BH150">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="BI150">
-        <v>1.24</v>
+        <v>1.31</v>
       </c>
       <c r="BJ150">
-        <v>3.48</v>
+        <v>3.04</v>
       </c>
       <c r="BK150">
-        <v>1.48</v>
+        <v>1.61</v>
       </c>
       <c r="BL150">
-        <v>2.58</v>
+        <v>2.29</v>
       </c>
       <c r="BM150">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="BN150">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="BO150">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="BP150">
-        <v>1.61</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="151" spans="1:68">
@@ -34694,7 +34694,7 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>7296431</v>
+        <v>7296432</v>
       </c>
       <c r="C163" t="s">
         <v>68</v>
@@ -34709,28 +34709,28 @@
         <v>21</v>
       </c>
       <c r="G163" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="H163" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I163">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J163">
         <v>0</v>
       </c>
       <c r="K163">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L163">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M163">
         <v>0</v>
       </c>
       <c r="N163">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O163" t="s">
         <v>208</v>
@@ -34739,130 +34739,130 @@
         <v>103</v>
       </c>
       <c r="Q163">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="R163">
-        <v>2.59</v>
+        <v>2.3</v>
       </c>
       <c r="S163">
-        <v>3.96</v>
+        <v>4.5</v>
       </c>
       <c r="T163">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="U163">
+        <v>3.3</v>
+      </c>
+      <c r="V163">
+        <v>2.4</v>
+      </c>
+      <c r="W163">
+        <v>1.5</v>
+      </c>
+      <c r="X163">
+        <v>5.25</v>
+      </c>
+      <c r="Y163">
+        <v>1.12</v>
+      </c>
+      <c r="Z163">
+        <v>1.65</v>
+      </c>
+      <c r="AA163">
+        <v>4.2</v>
+      </c>
+      <c r="AB163">
         <v>3.8</v>
       </c>
-      <c r="V163">
-        <v>2.14</v>
-      </c>
-      <c r="W163">
-        <v>1.68</v>
-      </c>
-      <c r="X163">
-        <v>4.3</v>
-      </c>
-      <c r="Y163">
-        <v>1.18</v>
-      </c>
-      <c r="Z163">
-        <v>1.8</v>
-      </c>
-      <c r="AA163">
-        <v>3.9</v>
-      </c>
-      <c r="AB163">
-        <v>3.4</v>
-      </c>
       <c r="AC163">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AD163">
-        <v>21.5</v>
+        <v>11</v>
       </c>
       <c r="AE163">
-        <v>1.12</v>
+        <v>1.2</v>
       </c>
       <c r="AF163">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="AG163">
+        <v>1.65</v>
+      </c>
+      <c r="AH163">
+        <v>2.1</v>
+      </c>
+      <c r="AI163">
+        <v>1.65</v>
+      </c>
+      <c r="AJ163">
+        <v>2.1</v>
+      </c>
+      <c r="AK163">
+        <v>1.22</v>
+      </c>
+      <c r="AL163">
+        <v>1.25</v>
+      </c>
+      <c r="AM163">
+        <v>2.1</v>
+      </c>
+      <c r="AN163">
+        <v>2.2</v>
+      </c>
+      <c r="AO163">
+        <v>0.89</v>
+      </c>
+      <c r="AP163">
+        <v>2.27</v>
+      </c>
+      <c r="AQ163">
+        <v>0.8</v>
+      </c>
+      <c r="AR163">
+        <v>1.47</v>
+      </c>
+      <c r="AS163">
+        <v>1.42</v>
+      </c>
+      <c r="AT163">
+        <v>2.89</v>
+      </c>
+      <c r="AU163">
+        <v>17</v>
+      </c>
+      <c r="AV163">
+        <v>6</v>
+      </c>
+      <c r="AW163">
+        <v>8</v>
+      </c>
+      <c r="AX163">
+        <v>3</v>
+      </c>
+      <c r="AY163">
+        <v>25</v>
+      </c>
+      <c r="AZ163">
+        <v>9</v>
+      </c>
+      <c r="BA163">
+        <v>9</v>
+      </c>
+      <c r="BB163">
+        <v>2</v>
+      </c>
+      <c r="BC163">
+        <v>11</v>
+      </c>
+      <c r="BD163">
         <v>1.5</v>
-      </c>
-      <c r="AH163">
-        <v>2.4</v>
-      </c>
-      <c r="AI163">
-        <v>1.43</v>
-      </c>
-      <c r="AJ163">
-        <v>2.73</v>
-      </c>
-      <c r="AK163">
-        <v>1.28</v>
-      </c>
-      <c r="AL163">
-        <v>1.22</v>
-      </c>
-      <c r="AM163">
-        <v>1.86</v>
-      </c>
-      <c r="AN163">
-        <v>2.3</v>
-      </c>
-      <c r="AO163">
-        <v>1.3</v>
-      </c>
-      <c r="AP163">
-        <v>2.36</v>
-      </c>
-      <c r="AQ163">
-        <v>1.18</v>
-      </c>
-      <c r="AR163">
-        <v>1.74</v>
-      </c>
-      <c r="AS163">
-        <v>1.95</v>
-      </c>
-      <c r="AT163">
-        <v>3.69</v>
-      </c>
-      <c r="AU163">
-        <v>11</v>
-      </c>
-      <c r="AV163">
-        <v>9</v>
-      </c>
-      <c r="AW163">
-        <v>3</v>
-      </c>
-      <c r="AX163">
-        <v>4</v>
-      </c>
-      <c r="AY163">
-        <v>14</v>
-      </c>
-      <c r="AZ163">
-        <v>13</v>
-      </c>
-      <c r="BA163">
-        <v>5</v>
-      </c>
-      <c r="BB163">
-        <v>5</v>
-      </c>
-      <c r="BC163">
-        <v>10</v>
-      </c>
-      <c r="BD163">
-        <v>1.64</v>
       </c>
       <c r="BE163">
         <v>9</v>
       </c>
       <c r="BF163">
-        <v>2.6</v>
+        <v>3.05</v>
       </c>
       <c r="BG163">
         <v>0</v>
@@ -34871,28 +34871,28 @@
         <v>0</v>
       </c>
       <c r="BI163">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="BJ163">
-        <v>4.35</v>
+        <v>3.42</v>
       </c>
       <c r="BK163">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
       <c r="BL163">
-        <v>2.84</v>
+        <v>2.48</v>
       </c>
       <c r="BM163">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
       <c r="BN163">
-        <v>2.2</v>
+        <v>2.01</v>
       </c>
       <c r="BO163">
-        <v>2.02</v>
+        <v>2.24</v>
       </c>
       <c r="BP163">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="164" spans="1:68">
@@ -34900,7 +34900,7 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>7296432</v>
+        <v>7296431</v>
       </c>
       <c r="C164" t="s">
         <v>68</v>
@@ -34915,28 +34915,28 @@
         <v>21</v>
       </c>
       <c r="G164" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="H164" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I164">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J164">
         <v>0</v>
       </c>
       <c r="K164">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L164">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M164">
         <v>0</v>
       </c>
       <c r="N164">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O164" t="s">
         <v>209</v>
@@ -34945,130 +34945,130 @@
         <v>103</v>
       </c>
       <c r="Q164">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="R164">
+        <v>2.59</v>
+      </c>
+      <c r="S164">
+        <v>3.96</v>
+      </c>
+      <c r="T164">
+        <v>1.21</v>
+      </c>
+      <c r="U164">
+        <v>3.8</v>
+      </c>
+      <c r="V164">
+        <v>2.14</v>
+      </c>
+      <c r="W164">
+        <v>1.68</v>
+      </c>
+      <c r="X164">
+        <v>4.3</v>
+      </c>
+      <c r="Y164">
+        <v>1.18</v>
+      </c>
+      <c r="Z164">
+        <v>1.8</v>
+      </c>
+      <c r="AA164">
+        <v>3.9</v>
+      </c>
+      <c r="AB164">
+        <v>3.4</v>
+      </c>
+      <c r="AC164">
+        <v>1.02</v>
+      </c>
+      <c r="AD164">
+        <v>21.5</v>
+      </c>
+      <c r="AE164">
+        <v>1.12</v>
+      </c>
+      <c r="AF164">
+        <v>5.25</v>
+      </c>
+      <c r="AG164">
+        <v>1.5</v>
+      </c>
+      <c r="AH164">
+        <v>2.4</v>
+      </c>
+      <c r="AI164">
+        <v>1.43</v>
+      </c>
+      <c r="AJ164">
+        <v>2.73</v>
+      </c>
+      <c r="AK164">
+        <v>1.28</v>
+      </c>
+      <c r="AL164">
+        <v>1.22</v>
+      </c>
+      <c r="AM164">
+        <v>1.86</v>
+      </c>
+      <c r="AN164">
         <v>2.3</v>
       </c>
-      <c r="S164">
-        <v>4.5</v>
-      </c>
-      <c r="T164">
-        <v>1.29</v>
-      </c>
-      <c r="U164">
-        <v>3.3</v>
-      </c>
-      <c r="V164">
-        <v>2.4</v>
-      </c>
-      <c r="W164">
-        <v>1.5</v>
-      </c>
-      <c r="X164">
-        <v>5.25</v>
-      </c>
-      <c r="Y164">
-        <v>1.12</v>
-      </c>
-      <c r="Z164">
-        <v>1.65</v>
-      </c>
-      <c r="AA164">
-        <v>4.2</v>
-      </c>
-      <c r="AB164">
-        <v>3.8</v>
-      </c>
-      <c r="AC164">
-        <v>1.01</v>
-      </c>
-      <c r="AD164">
+      <c r="AO164">
+        <v>1.3</v>
+      </c>
+      <c r="AP164">
+        <v>2.36</v>
+      </c>
+      <c r="AQ164">
+        <v>1.18</v>
+      </c>
+      <c r="AR164">
+        <v>1.74</v>
+      </c>
+      <c r="AS164">
+        <v>1.95</v>
+      </c>
+      <c r="AT164">
+        <v>3.69</v>
+      </c>
+      <c r="AU164">
         <v>11</v>
       </c>
-      <c r="AE164">
-        <v>1.2</v>
-      </c>
-      <c r="AF164">
+      <c r="AV164">
+        <v>9</v>
+      </c>
+      <c r="AW164">
+        <v>3</v>
+      </c>
+      <c r="AX164">
         <v>4</v>
       </c>
-      <c r="AG164">
-        <v>1.65</v>
-      </c>
-      <c r="AH164">
-        <v>2.1</v>
-      </c>
-      <c r="AI164">
-        <v>1.65</v>
-      </c>
-      <c r="AJ164">
-        <v>2.1</v>
-      </c>
-      <c r="AK164">
-        <v>1.22</v>
-      </c>
-      <c r="AL164">
-        <v>1.25</v>
-      </c>
-      <c r="AM164">
-        <v>2.1</v>
-      </c>
-      <c r="AN164">
-        <v>2.2</v>
-      </c>
-      <c r="AO164">
-        <v>0.89</v>
-      </c>
-      <c r="AP164">
-        <v>2.27</v>
-      </c>
-      <c r="AQ164">
-        <v>0.8</v>
-      </c>
-      <c r="AR164">
-        <v>1.47</v>
-      </c>
-      <c r="AS164">
-        <v>1.42</v>
-      </c>
-      <c r="AT164">
-        <v>2.89</v>
-      </c>
-      <c r="AU164">
-        <v>17</v>
-      </c>
-      <c r="AV164">
-        <v>6</v>
-      </c>
-      <c r="AW164">
-        <v>8</v>
-      </c>
-      <c r="AX164">
-        <v>3</v>
-      </c>
       <c r="AY164">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AZ164">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA164">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BB164">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BC164">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD164">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="BE164">
         <v>9</v>
       </c>
       <c r="BF164">
-        <v>3.05</v>
+        <v>2.6</v>
       </c>
       <c r="BG164">
         <v>0</v>
@@ -35077,28 +35077,28 @@
         <v>0</v>
       </c>
       <c r="BI164">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="BJ164">
-        <v>3.42</v>
+        <v>4.35</v>
       </c>
       <c r="BK164">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
       <c r="BL164">
-        <v>2.48</v>
+        <v>2.84</v>
       </c>
       <c r="BM164">
-        <v>1.78</v>
+        <v>1.65</v>
       </c>
       <c r="BN164">
-        <v>2.01</v>
+        <v>2.2</v>
       </c>
       <c r="BO164">
-        <v>2.24</v>
+        <v>2.02</v>
       </c>
       <c r="BP164">
-        <v>1.64</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="165" spans="1:68">
@@ -35312,7 +35312,7 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>7296428</v>
+        <v>7296430</v>
       </c>
       <c r="C166" t="s">
         <v>68</v>
@@ -35327,160 +35327,160 @@
         <v>21</v>
       </c>
       <c r="G166" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H166" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>1</v>
+      </c>
+      <c r="K166">
+        <v>1</v>
+      </c>
+      <c r="L166">
         <v>2</v>
       </c>
-      <c r="J166">
-        <v>0</v>
-      </c>
-      <c r="K166">
-        <v>2</v>
-      </c>
-      <c r="L166">
-        <v>4</v>
-      </c>
       <c r="M166">
         <v>1</v>
       </c>
       <c r="N166">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O166" t="s">
         <v>210</v>
       </c>
       <c r="P166" t="s">
-        <v>238</v>
+        <v>310</v>
       </c>
       <c r="Q166">
-        <v>3.92</v>
+        <v>3.4</v>
       </c>
       <c r="R166">
-        <v>2.28</v>
+        <v>2.5</v>
       </c>
       <c r="S166">
-        <v>2.68</v>
+        <v>2.3</v>
       </c>
       <c r="T166">
-        <v>1.33</v>
+        <v>1.24</v>
       </c>
       <c r="U166">
-        <v>2.95</v>
+        <v>3.8</v>
       </c>
       <c r="V166">
-        <v>2.65</v>
+        <v>2.13</v>
       </c>
       <c r="W166">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="X166">
-        <v>5.5</v>
+        <v>4.65</v>
       </c>
       <c r="Y166">
+        <v>1.17</v>
+      </c>
+      <c r="Z166">
+        <v>3.35</v>
+      </c>
+      <c r="AA166">
+        <v>3.5</v>
+      </c>
+      <c r="AB166">
+        <v>1.95</v>
+      </c>
+      <c r="AC166">
+        <v>1.01</v>
+      </c>
+      <c r="AD166">
+        <v>17</v>
+      </c>
+      <c r="AE166">
         <v>1.1</v>
       </c>
-      <c r="Z166">
-        <v>2.8</v>
-      </c>
-      <c r="AA166">
-        <v>3.25</v>
-      </c>
-      <c r="AB166">
-        <v>2.3</v>
-      </c>
-      <c r="AC166">
-        <v>1.02</v>
-      </c>
-      <c r="AD166">
-        <v>9.5</v>
-      </c>
-      <c r="AE166">
-        <v>1.25</v>
-      </c>
       <c r="AF166">
-        <v>3.5</v>
+        <v>5.3</v>
       </c>
       <c r="AG166">
-        <v>1.82</v>
+        <v>1.53</v>
       </c>
       <c r="AH166">
-        <v>1.96</v>
+        <v>2.27</v>
       </c>
       <c r="AI166">
-        <v>1.65</v>
+        <v>1.44</v>
       </c>
       <c r="AJ166">
-        <v>2.05</v>
+        <v>2.62</v>
       </c>
       <c r="AK166">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AL166">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AM166">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="AN166">
         <v>1.3</v>
       </c>
       <c r="AO166">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AP166">
         <v>1.45</v>
       </c>
       <c r="AQ166">
-        <v>1.09</v>
+        <v>1.18</v>
       </c>
       <c r="AR166">
-        <v>1.27</v>
+        <v>1.54</v>
       </c>
       <c r="AS166">
-        <v>1.21</v>
+        <v>1.47</v>
       </c>
       <c r="AT166">
-        <v>2.48</v>
+        <v>3.01</v>
       </c>
       <c r="AU166">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AV166">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW166">
         <v>5</v>
       </c>
       <c r="AX166">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AY166">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AZ166">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BA166">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BB166">
         <v>5</v>
       </c>
       <c r="BC166">
+        <v>5</v>
+      </c>
+      <c r="BD166">
+        <v>2.54</v>
+      </c>
+      <c r="BE166">
         <v>9</v>
       </c>
-      <c r="BD166">
-        <v>2.85</v>
-      </c>
-      <c r="BE166">
-        <v>7.7</v>
-      </c>
       <c r="BF166">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="BG166">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="BI166">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="BJ166">
-        <v>3.85</v>
+        <v>3.3</v>
       </c>
       <c r="BK166">
-        <v>1.43</v>
+        <v>1.54</v>
       </c>
       <c r="BL166">
-        <v>2.7</v>
+        <v>2.38</v>
       </c>
       <c r="BM166">
-        <v>1.74</v>
+        <v>1.92</v>
       </c>
       <c r="BN166">
-        <v>2.02</v>
+        <v>1.82</v>
       </c>
       <c r="BO166">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="BP166">
-        <v>1.62</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="167" spans="1:68">
@@ -35518,7 +35518,7 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>7296430</v>
+        <v>7296426</v>
       </c>
       <c r="C167" t="s">
         <v>68</v>
@@ -35533,19 +35533,19 @@
         <v>21</v>
       </c>
       <c r="G167" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H167" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="I167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J167">
         <v>1</v>
       </c>
       <c r="K167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L167">
         <v>2</v>
@@ -35563,160 +35563,160 @@
         <v>310</v>
       </c>
       <c r="Q167">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="R167">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="S167">
-        <v>2.3</v>
+        <v>3.41</v>
       </c>
       <c r="T167">
         <v>1.24</v>
       </c>
       <c r="U167">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="V167">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="W167">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="X167">
-        <v>4.65</v>
+        <v>4.7</v>
       </c>
       <c r="Y167">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="Z167">
-        <v>3.35</v>
+        <v>2.25</v>
       </c>
       <c r="AA167">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="AB167">
-        <v>1.95</v>
+        <v>2.65</v>
       </c>
       <c r="AC167">
         <v>1.01</v>
       </c>
       <c r="AD167">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE167">
-        <v>1.1</v>
+        <v>1.16</v>
       </c>
       <c r="AF167">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="AG167">
-        <v>1.53</v>
+        <v>1.43</v>
       </c>
       <c r="AH167">
-        <v>2.27</v>
+        <v>2.62</v>
       </c>
       <c r="AI167">
+        <v>1.45</v>
+      </c>
+      <c r="AJ167">
+        <v>2.75</v>
+      </c>
+      <c r="AK167">
+        <v>1.41</v>
+      </c>
+      <c r="AL167">
+        <v>1.24</v>
+      </c>
+      <c r="AM167">
+        <v>1.62</v>
+      </c>
+      <c r="AN167">
+        <v>1.11</v>
+      </c>
+      <c r="AO167">
+        <v>2</v>
+      </c>
+      <c r="AP167">
+        <v>1.3</v>
+      </c>
+      <c r="AQ167">
+        <v>1.82</v>
+      </c>
+      <c r="AR167">
+        <v>1.74</v>
+      </c>
+      <c r="AS167">
+        <v>1.62</v>
+      </c>
+      <c r="AT167">
+        <v>3.36</v>
+      </c>
+      <c r="AU167">
+        <v>7</v>
+      </c>
+      <c r="AV167">
+        <v>6</v>
+      </c>
+      <c r="AW167">
+        <v>7</v>
+      </c>
+      <c r="AX167">
+        <v>6</v>
+      </c>
+      <c r="AY167">
+        <v>14</v>
+      </c>
+      <c r="AZ167">
+        <v>12</v>
+      </c>
+      <c r="BA167">
+        <v>5</v>
+      </c>
+      <c r="BB167">
+        <v>8</v>
+      </c>
+      <c r="BC167">
+        <v>13</v>
+      </c>
+      <c r="BD167">
+        <v>1.94</v>
+      </c>
+      <c r="BE167">
+        <v>7.2</v>
+      </c>
+      <c r="BF167">
+        <v>2.22</v>
+      </c>
+      <c r="BG167">
+        <v>1.18</v>
+      </c>
+      <c r="BH167">
+        <v>4.5</v>
+      </c>
+      <c r="BI167">
+        <v>1.34</v>
+      </c>
+      <c r="BJ167">
+        <v>3.1</v>
+      </c>
+      <c r="BK167">
+        <v>1.61</v>
+      </c>
+      <c r="BL167">
+        <v>2.23</v>
+      </c>
+      <c r="BM167">
+        <v>2.02</v>
+      </c>
+      <c r="BN167">
+        <v>1.74</v>
+      </c>
+      <c r="BO167">
+        <v>2.7</v>
+      </c>
+      <c r="BP167">
         <v>1.44</v>
-      </c>
-      <c r="AJ167">
-        <v>2.62</v>
-      </c>
-      <c r="AK167">
-        <v>1.83</v>
-      </c>
-      <c r="AL167">
-        <v>1.22</v>
-      </c>
-      <c r="AM167">
-        <v>1.29</v>
-      </c>
-      <c r="AN167">
-        <v>1.3</v>
-      </c>
-      <c r="AO167">
-        <v>1.3</v>
-      </c>
-      <c r="AP167">
-        <v>1.45</v>
-      </c>
-      <c r="AQ167">
-        <v>1.18</v>
-      </c>
-      <c r="AR167">
-        <v>1.54</v>
-      </c>
-      <c r="AS167">
-        <v>1.47</v>
-      </c>
-      <c r="AT167">
-        <v>3.01</v>
-      </c>
-      <c r="AU167">
-        <v>4</v>
-      </c>
-      <c r="AV167">
-        <v>5</v>
-      </c>
-      <c r="AW167">
-        <v>5</v>
-      </c>
-      <c r="AX167">
-        <v>10</v>
-      </c>
-      <c r="AY167">
-        <v>9</v>
-      </c>
-      <c r="AZ167">
-        <v>15</v>
-      </c>
-      <c r="BA167">
-        <v>0</v>
-      </c>
-      <c r="BB167">
-        <v>5</v>
-      </c>
-      <c r="BC167">
-        <v>5</v>
-      </c>
-      <c r="BD167">
-        <v>2.54</v>
-      </c>
-      <c r="BE167">
-        <v>9</v>
-      </c>
-      <c r="BF167">
-        <v>1.67</v>
-      </c>
-      <c r="BG167">
-        <v>0</v>
-      </c>
-      <c r="BH167">
-        <v>0</v>
-      </c>
-      <c r="BI167">
-        <v>1.3</v>
-      </c>
-      <c r="BJ167">
-        <v>3.3</v>
-      </c>
-      <c r="BK167">
-        <v>1.54</v>
-      </c>
-      <c r="BL167">
-        <v>2.38</v>
-      </c>
-      <c r="BM167">
-        <v>1.92</v>
-      </c>
-      <c r="BN167">
-        <v>1.82</v>
-      </c>
-      <c r="BO167">
-        <v>2.5</v>
-      </c>
-      <c r="BP167">
-        <v>1.49</v>
       </c>
     </row>
     <row r="168" spans="1:68">
@@ -35930,7 +35930,7 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>7296426</v>
+        <v>7296428</v>
       </c>
       <c r="C169" t="s">
         <v>68</v>
@@ -35945,190 +35945,190 @@
         <v>21</v>
       </c>
       <c r="G169" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H169" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K169">
         <v>2</v>
       </c>
       <c r="L169">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M169">
         <v>1</v>
       </c>
       <c r="N169">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O169" t="s">
         <v>213</v>
       </c>
       <c r="P169" t="s">
-        <v>310</v>
+        <v>238</v>
       </c>
       <c r="Q169">
-        <v>2.63</v>
+        <v>3.92</v>
       </c>
       <c r="R169">
-        <v>2.54</v>
+        <v>2.28</v>
       </c>
       <c r="S169">
-        <v>3.41</v>
+        <v>2.68</v>
       </c>
       <c r="T169">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="U169">
-        <v>3.7</v>
+        <v>2.95</v>
       </c>
       <c r="V169">
-        <v>2.19</v>
+        <v>2.65</v>
       </c>
       <c r="W169">
-        <v>1.61</v>
+        <v>1.4</v>
       </c>
       <c r="X169">
-        <v>4.7</v>
+        <v>5.5</v>
       </c>
       <c r="Y169">
-        <v>1.16</v>
+        <v>1.1</v>
       </c>
       <c r="Z169">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="AA169">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="AB169">
-        <v>2.65</v>
+        <v>2.3</v>
       </c>
       <c r="AC169">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AD169">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AE169">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="AF169">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="AG169">
-        <v>1.43</v>
+        <v>1.82</v>
       </c>
       <c r="AH169">
-        <v>2.62</v>
+        <v>1.96</v>
       </c>
       <c r="AI169">
+        <v>1.65</v>
+      </c>
+      <c r="AJ169">
+        <v>2.05</v>
+      </c>
+      <c r="AK169">
+        <v>1.6</v>
+      </c>
+      <c r="AL169">
+        <v>1.27</v>
+      </c>
+      <c r="AM169">
+        <v>1.27</v>
+      </c>
+      <c r="AN169">
+        <v>1.3</v>
+      </c>
+      <c r="AO169">
+        <v>1.2</v>
+      </c>
+      <c r="AP169">
         <v>1.45</v>
       </c>
-      <c r="AJ169">
-        <v>2.75</v>
-      </c>
-      <c r="AK169">
-        <v>1.41</v>
-      </c>
-      <c r="AL169">
-        <v>1.24</v>
-      </c>
-      <c r="AM169">
-        <v>1.62</v>
-      </c>
-      <c r="AN169">
-        <v>1.11</v>
-      </c>
-      <c r="AO169">
-        <v>2</v>
-      </c>
-      <c r="AP169">
-        <v>1.3</v>
-      </c>
       <c r="AQ169">
-        <v>1.82</v>
+        <v>1.09</v>
       </c>
       <c r="AR169">
-        <v>1.74</v>
+        <v>1.27</v>
       </c>
       <c r="AS169">
-        <v>1.62</v>
+        <v>1.21</v>
       </c>
       <c r="AT169">
-        <v>3.36</v>
+        <v>2.48</v>
       </c>
       <c r="AU169">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AV169">
         <v>6</v>
       </c>
       <c r="AW169">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX169">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AY169">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AZ169">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BA169">
+        <v>4</v>
+      </c>
+      <c r="BB169">
         <v>5</v>
       </c>
-      <c r="BB169">
-        <v>8</v>
-      </c>
       <c r="BC169">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BD169">
-        <v>1.94</v>
+        <v>2.85</v>
       </c>
       <c r="BE169">
-        <v>7.2</v>
+        <v>7.7</v>
       </c>
       <c r="BF169">
-        <v>2.22</v>
+        <v>1.6</v>
       </c>
       <c r="BG169">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="BH169">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="BI169">
-        <v>1.34</v>
+        <v>1.24</v>
       </c>
       <c r="BJ169">
-        <v>3.1</v>
+        <v>3.85</v>
       </c>
       <c r="BK169">
-        <v>1.61</v>
+        <v>1.43</v>
       </c>
       <c r="BL169">
-        <v>2.23</v>
+        <v>2.7</v>
       </c>
       <c r="BM169">
+        <v>1.74</v>
+      </c>
+      <c r="BN169">
         <v>2.02</v>
       </c>
-      <c r="BN169">
-        <v>1.74</v>
-      </c>
       <c r="BO169">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="BP169">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="316">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -658,6 +658,15 @@
     <t>['10', '16', '76', '88']</t>
   </si>
   <si>
+    <t>['48', '56']</t>
+  </si>
+  <si>
+    <t>['45+2']</t>
+  </si>
+  <si>
+    <t>['10', '31', '41', '62', '90+1']</t>
+  </si>
+  <si>
     <t>['90+1']</t>
   </si>
   <si>
@@ -826,9 +835,6 @@
     <t>['11', '90']</t>
   </si>
   <si>
-    <t>['45+2']</t>
-  </si>
-  <si>
     <t>['12', '66', '82']</t>
   </si>
   <si>
@@ -950,6 +956,12 @@
   </si>
   <si>
     <t>['13', '42', '61']</t>
+  </si>
+  <si>
+    <t>['3', '62']</t>
+  </si>
+  <si>
+    <t>['27', '63']</t>
   </si>
 </sst>
 </file>
@@ -1311,7 +1323,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP169"/>
+  <dimension ref="A1:BP177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1570,7 +1582,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q2">
         <v>2.84</v>
@@ -1776,7 +1788,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q3">
         <v>2.2</v>
@@ -1854,10 +1866,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AQ3">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1982,7 +1994,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -2060,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ4">
         <v>1.09</v>
@@ -2266,7 +2278,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AQ5">
         <v>1.18</v>
@@ -2394,7 +2406,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q6">
         <v>2.35</v>
@@ -2600,7 +2612,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q7">
         <v>2.66</v>
@@ -2678,10 +2690,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ7">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2806,7 +2818,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q8">
         <v>2.8</v>
@@ -3093,7 +3105,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ9">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3218,7 +3230,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3296,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ10">
         <v>1.1</v>
@@ -3424,7 +3436,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3630,7 +3642,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3711,7 +3723,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ12">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3914,10 +3926,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AQ13">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4123,7 +4135,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ14">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4248,7 +4260,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q15">
         <v>2.05</v>
@@ -4326,7 +4338,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ15">
         <v>0.8</v>
@@ -4660,7 +4672,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q17">
         <v>2.15</v>
@@ -4738,7 +4750,7 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ17">
         <v>1.18</v>
@@ -4866,7 +4878,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q18">
         <v>2.15</v>
@@ -4944,7 +4956,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AQ18">
         <v>1.82</v>
@@ -5359,7 +5371,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ20">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR20">
         <v>1.13</v>
@@ -5565,7 +5577,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ21">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR21">
         <v>1.74</v>
@@ -5690,7 +5702,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q22">
         <v>2.76</v>
@@ -5896,7 +5908,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q23">
         <v>2.85</v>
@@ -5974,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ23">
         <v>0.55</v>
@@ -6102,7 +6114,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q24">
         <v>2.05</v>
@@ -6180,10 +6192,10 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AQ24">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR24">
         <v>1.52</v>
@@ -6386,10 +6398,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ25">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR25">
         <v>1.76</v>
@@ -6592,10 +6604,10 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ26">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR26">
         <v>1.34</v>
@@ -6720,7 +6732,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -7007,7 +7019,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ28">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR28">
         <v>0.98</v>
@@ -7132,7 +7144,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q29">
         <v>2.25</v>
@@ -7213,7 +7225,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ29">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR29">
         <v>1.26</v>
@@ -7416,7 +7428,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ30">
         <v>1.1</v>
@@ -7544,7 +7556,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7956,7 +7968,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q33">
         <v>3.05</v>
@@ -8162,7 +8174,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q34">
         <v>2.26</v>
@@ -8240,10 +8252,10 @@
         <v>0.5</v>
       </c>
       <c r="AP34">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AQ34">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR34">
         <v>1.33</v>
@@ -8368,7 +8380,7 @@
         <v>115</v>
       </c>
       <c r="P35" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q35">
         <v>3.46</v>
@@ -8652,7 +8664,7 @@
         <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AQ36">
         <v>0.55</v>
@@ -8780,7 +8792,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q37">
         <v>2.72</v>
@@ -8986,7 +8998,7 @@
         <v>118</v>
       </c>
       <c r="P38" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q38">
         <v>4.55</v>
@@ -9064,7 +9076,7 @@
         <v>2</v>
       </c>
       <c r="AP38">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ38">
         <v>2.36</v>
@@ -9192,7 +9204,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q39">
         <v>2.78</v>
@@ -9273,7 +9285,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ39">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR39">
         <v>1.22</v>
@@ -9479,7 +9491,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ40">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR40">
         <v>0.79</v>
@@ -9682,10 +9694,10 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ41">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR41">
         <v>2.44</v>
@@ -9888,10 +9900,10 @@
         <v>0.33</v>
       </c>
       <c r="AP42">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ42">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR42">
         <v>1.34</v>
@@ -10016,7 +10028,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q43">
         <v>3.11</v>
@@ -10097,7 +10109,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ43">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR43">
         <v>1.39</v>
@@ -10222,7 +10234,7 @@
         <v>123</v>
       </c>
       <c r="P44" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q44">
         <v>3.3</v>
@@ -10300,7 +10312,7 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ44">
         <v>1.1</v>
@@ -10428,7 +10440,7 @@
         <v>94</v>
       </c>
       <c r="P45" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q45">
         <v>2.4</v>
@@ -10506,10 +10518,10 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ45">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR45">
         <v>2.74</v>
@@ -10712,7 +10724,7 @@
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AQ46">
         <v>1.18</v>
@@ -11330,10 +11342,10 @@
         <v>1.33</v>
       </c>
       <c r="AP49">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AQ49">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR49">
         <v>1.8</v>
@@ -11458,7 +11470,7 @@
         <v>103</v>
       </c>
       <c r="P50" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q50">
         <v>3.89</v>
@@ -11536,7 +11548,7 @@
         <v>1.33</v>
       </c>
       <c r="AP50">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AQ50">
         <v>2.36</v>
@@ -11664,7 +11676,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q51">
         <v>2.61</v>
@@ -11870,7 +11882,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -12076,7 +12088,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q53">
         <v>2.05</v>
@@ -12154,10 +12166,10 @@
         <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ53">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR53">
         <v>1.86</v>
@@ -12772,10 +12784,10 @@
         <v>0.5</v>
       </c>
       <c r="AP56">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ56">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR56">
         <v>1.56</v>
@@ -12900,7 +12912,7 @@
         <v>103</v>
       </c>
       <c r="P57" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q57">
         <v>2.57</v>
@@ -12978,7 +12990,7 @@
         <v>0.75</v>
       </c>
       <c r="AP57">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AQ57">
         <v>1.09</v>
@@ -13106,7 +13118,7 @@
         <v>132</v>
       </c>
       <c r="P58" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q58">
         <v>2.3</v>
@@ -13187,7 +13199,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ58">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR58">
         <v>1.49</v>
@@ -13312,7 +13324,7 @@
         <v>103</v>
       </c>
       <c r="P59" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q59">
         <v>2.75</v>
@@ -13393,7 +13405,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ59">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR59">
         <v>1.1</v>
@@ -13518,7 +13530,7 @@
         <v>103</v>
       </c>
       <c r="P60" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q60">
         <v>2.32</v>
@@ -13596,7 +13608,7 @@
         <v>1.33</v>
       </c>
       <c r="AP60">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ60">
         <v>1.18</v>
@@ -13805,7 +13817,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ61">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR61">
         <v>1.46</v>
@@ -13930,7 +13942,7 @@
         <v>134</v>
       </c>
       <c r="P62" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q62">
         <v>2.39</v>
@@ -14008,10 +14020,10 @@
         <v>1.33</v>
       </c>
       <c r="AP62">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AQ62">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR62">
         <v>1.79</v>
@@ -14136,7 +14148,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q63">
         <v>2.84</v>
@@ -14214,7 +14226,7 @@
         <v>2.5</v>
       </c>
       <c r="AP63">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ63">
         <v>1.82</v>
@@ -14342,7 +14354,7 @@
         <v>136</v>
       </c>
       <c r="P64" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q64">
         <v>2.7</v>
@@ -14548,7 +14560,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -14960,7 +14972,7 @@
         <v>139</v>
       </c>
       <c r="P67" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q67">
         <v>2.5</v>
@@ -15038,7 +15050,7 @@
         <v>1.25</v>
       </c>
       <c r="AP67">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ67">
         <v>1</v>
@@ -15244,10 +15256,10 @@
         <v>1.25</v>
       </c>
       <c r="AP68">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ68">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR68">
         <v>1.49</v>
@@ -15578,7 +15590,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q70">
         <v>1.85</v>
@@ -15656,7 +15668,7 @@
         <v>0</v>
       </c>
       <c r="AP70">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AQ70">
         <v>0.8</v>
@@ -15865,7 +15877,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ71">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR71">
         <v>1.38</v>
@@ -15990,7 +16002,7 @@
         <v>143</v>
       </c>
       <c r="P72" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q72">
         <v>2.24</v>
@@ -16068,7 +16080,7 @@
         <v>1.2</v>
       </c>
       <c r="AP72">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ72">
         <v>1</v>
@@ -16196,7 +16208,7 @@
         <v>103</v>
       </c>
       <c r="P73" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q73">
         <v>3.66</v>
@@ -16402,7 +16414,7 @@
         <v>144</v>
       </c>
       <c r="P74" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q74">
         <v>2.4</v>
@@ -16480,7 +16492,7 @@
         <v>2</v>
       </c>
       <c r="AP74">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AQ74">
         <v>1.82</v>
@@ -16608,7 +16620,7 @@
         <v>145</v>
       </c>
       <c r="P75" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q75">
         <v>2.38</v>
@@ -16689,7 +16701,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ75">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR75">
         <v>1.76</v>
@@ -16814,7 +16826,7 @@
         <v>125</v>
       </c>
       <c r="P76" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -16892,10 +16904,10 @@
         <v>1</v>
       </c>
       <c r="AP76">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ76">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR76">
         <v>1.63</v>
@@ -17101,7 +17113,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ77">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR77">
         <v>1.11</v>
@@ -17226,7 +17238,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q78">
         <v>2.75</v>
@@ -17304,10 +17316,10 @@
         <v>0.33</v>
       </c>
       <c r="AP78">
+        <v>0.92</v>
+      </c>
+      <c r="AQ78">
         <v>0.73</v>
-      </c>
-      <c r="AQ78">
-        <v>0.8</v>
       </c>
       <c r="AR78">
         <v>1.22</v>
@@ -17432,7 +17444,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17510,7 +17522,7 @@
         <v>1.2</v>
       </c>
       <c r="AP79">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ79">
         <v>1.09</v>
@@ -17638,7 +17650,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q80">
         <v>2.2</v>
@@ -17844,7 +17856,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q81">
         <v>2.31</v>
@@ -17922,10 +17934,10 @@
         <v>1.2</v>
       </c>
       <c r="AP81">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ81">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR81">
         <v>2.48</v>
@@ -18131,7 +18143,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ82">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR82">
         <v>1.64</v>
@@ -18256,7 +18268,7 @@
         <v>151</v>
       </c>
       <c r="P83" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q83">
         <v>2.7</v>
@@ -18334,7 +18346,7 @@
         <v>1.2</v>
       </c>
       <c r="AP83">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ83">
         <v>1.18</v>
@@ -18668,7 +18680,7 @@
         <v>153</v>
       </c>
       <c r="P85" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q85">
         <v>3.5</v>
@@ -18874,7 +18886,7 @@
         <v>154</v>
       </c>
       <c r="P86" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q86">
         <v>2.55</v>
@@ -18952,10 +18964,10 @@
         <v>0.75</v>
       </c>
       <c r="AP86">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AQ86">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR86">
         <v>1.91</v>
@@ -19080,7 +19092,7 @@
         <v>155</v>
       </c>
       <c r="P87" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q87">
         <v>2.27</v>
@@ -19364,10 +19376,10 @@
         <v>0.25</v>
       </c>
       <c r="AP88">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ88">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR88">
         <v>2.39</v>
@@ -19492,7 +19504,7 @@
         <v>156</v>
       </c>
       <c r="P89" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q89">
         <v>2.8</v>
@@ -19570,10 +19582,10 @@
         <v>0.5</v>
       </c>
       <c r="AP89">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ89">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR89">
         <v>1.53</v>
@@ -19698,7 +19710,7 @@
         <v>157</v>
       </c>
       <c r="P90" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q90">
         <v>2.6</v>
@@ -19776,7 +19788,7 @@
         <v>2.17</v>
       </c>
       <c r="AP90">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ90">
         <v>1.82</v>
@@ -19904,7 +19916,7 @@
         <v>158</v>
       </c>
       <c r="P91" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -19982,10 +19994,10 @@
         <v>1</v>
       </c>
       <c r="AP91">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ91">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR91">
         <v>1.98</v>
@@ -20110,7 +20122,7 @@
         <v>159</v>
       </c>
       <c r="P92" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q92">
         <v>3.6</v>
@@ -20188,7 +20200,7 @@
         <v>2</v>
       </c>
       <c r="AP92">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AQ92">
         <v>1.18</v>
@@ -20397,7 +20409,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ93">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR93">
         <v>1.76</v>
@@ -20522,7 +20534,7 @@
         <v>161</v>
       </c>
       <c r="P94" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q94">
         <v>2.1</v>
@@ -20600,10 +20612,10 @@
         <v>1.4</v>
       </c>
       <c r="AP94">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ94">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR94">
         <v>2</v>
@@ -20728,7 +20740,7 @@
         <v>162</v>
       </c>
       <c r="P95" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q95">
         <v>2.17</v>
@@ -20806,7 +20818,7 @@
         <v>0.25</v>
       </c>
       <c r="AP95">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AQ95">
         <v>0.8</v>
@@ -21015,7 +21027,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ96">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR96">
         <v>1.57</v>
@@ -21221,7 +21233,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ97">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR97">
         <v>1.52</v>
@@ -21346,7 +21358,7 @@
         <v>149</v>
       </c>
       <c r="P98" t="s">
-        <v>270</v>
+        <v>215</v>
       </c>
       <c r="Q98">
         <v>3.54</v>
@@ -21424,7 +21436,7 @@
         <v>2.17</v>
       </c>
       <c r="AP98">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ98">
         <v>2.36</v>
@@ -21552,7 +21564,7 @@
         <v>165</v>
       </c>
       <c r="P99" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q99">
         <v>3.35</v>
@@ -21630,7 +21642,7 @@
         <v>1.5</v>
       </c>
       <c r="AP99">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ99">
         <v>1.18</v>
@@ -21964,7 +21976,7 @@
         <v>167</v>
       </c>
       <c r="P101" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q101">
         <v>2.96</v>
@@ -22170,7 +22182,7 @@
         <v>168</v>
       </c>
       <c r="P102" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q102">
         <v>2.44</v>
@@ -22376,7 +22388,7 @@
         <v>103</v>
       </c>
       <c r="P103" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q103">
         <v>1.81</v>
@@ -22454,10 +22466,10 @@
         <v>0.17</v>
       </c>
       <c r="AP103">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AQ103">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR103">
         <v>1.83</v>
@@ -22660,7 +22672,7 @@
         <v>1.83</v>
       </c>
       <c r="AP104">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ104">
         <v>1.18</v>
@@ -22788,7 +22800,7 @@
         <v>170</v>
       </c>
       <c r="P105" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q105">
         <v>2.69</v>
@@ -22866,10 +22878,10 @@
         <v>0.57</v>
       </c>
       <c r="AP105">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AQ105">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR105">
         <v>1.33</v>
@@ -22994,7 +23006,7 @@
         <v>171</v>
       </c>
       <c r="P106" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q106">
         <v>2.56</v>
@@ -23278,7 +23290,7 @@
         <v>1</v>
       </c>
       <c r="AP107">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AQ107">
         <v>1</v>
@@ -23484,10 +23496,10 @@
         <v>0.2</v>
       </c>
       <c r="AP108">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ108">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR108">
         <v>1.91</v>
@@ -23612,7 +23624,7 @@
         <v>174</v>
       </c>
       <c r="P109" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q109">
         <v>3.5</v>
@@ -23693,7 +23705,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ109">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR109">
         <v>1.59</v>
@@ -23818,7 +23830,7 @@
         <v>175</v>
       </c>
       <c r="P110" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q110">
         <v>2.43</v>
@@ -23899,7 +23911,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ110">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR110">
         <v>1.76</v>
@@ -24024,7 +24036,7 @@
         <v>103</v>
       </c>
       <c r="P111" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q111">
         <v>3.02</v>
@@ -24102,7 +24114,7 @@
         <v>2</v>
       </c>
       <c r="AP111">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ111">
         <v>1.82</v>
@@ -24436,7 +24448,7 @@
         <v>103</v>
       </c>
       <c r="P113" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q113">
         <v>2.85</v>
@@ -24514,10 +24526,10 @@
         <v>0.5</v>
       </c>
       <c r="AP113">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ113">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR113">
         <v>2.12</v>
@@ -25054,7 +25066,7 @@
         <v>177</v>
       </c>
       <c r="P116" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q116">
         <v>4.5</v>
@@ -25132,7 +25144,7 @@
         <v>2</v>
       </c>
       <c r="AP116">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ116">
         <v>2.36</v>
@@ -25341,7 +25353,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ117">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR117">
         <v>1.77</v>
@@ -25466,7 +25478,7 @@
         <v>103</v>
       </c>
       <c r="P118" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q118">
         <v>3.2</v>
@@ -25753,7 +25765,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ119">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR119">
         <v>1.8</v>
@@ -25959,7 +25971,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ120">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR120">
         <v>1.55</v>
@@ -26084,7 +26096,7 @@
         <v>180</v>
       </c>
       <c r="P121" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q121">
         <v>2.38</v>
@@ -26162,7 +26174,7 @@
         <v>1.13</v>
       </c>
       <c r="AP121">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AQ121">
         <v>1</v>
@@ -26368,7 +26380,7 @@
         <v>0.29</v>
       </c>
       <c r="AP122">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ122">
         <v>0.55</v>
@@ -26496,7 +26508,7 @@
         <v>170</v>
       </c>
       <c r="P123" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q123">
         <v>2.51</v>
@@ -26574,10 +26586,10 @@
         <v>1.43</v>
       </c>
       <c r="AP123">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AQ123">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR123">
         <v>1.8</v>
@@ -26702,7 +26714,7 @@
         <v>182</v>
       </c>
       <c r="P124" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q124">
         <v>2.46</v>
@@ -26780,7 +26792,7 @@
         <v>2.13</v>
       </c>
       <c r="AP124">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AQ124">
         <v>1.82</v>
@@ -26908,7 +26920,7 @@
         <v>183</v>
       </c>
       <c r="P125" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q125">
         <v>3.68</v>
@@ -26986,10 +26998,10 @@
         <v>1.14</v>
       </c>
       <c r="AP125">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ125">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR125">
         <v>1.44</v>
@@ -27114,7 +27126,7 @@
         <v>184</v>
       </c>
       <c r="P126" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q126">
         <v>1.95</v>
@@ -27192,10 +27204,10 @@
         <v>0.88</v>
       </c>
       <c r="AP126">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ126">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR126">
         <v>2.04</v>
@@ -27398,10 +27410,10 @@
         <v>0.29</v>
       </c>
       <c r="AP127">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AQ127">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR127">
         <v>1.83</v>
@@ -27526,7 +27538,7 @@
         <v>103</v>
       </c>
       <c r="P128" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q128">
         <v>3.75</v>
@@ -27810,7 +27822,7 @@
         <v>0.67</v>
       </c>
       <c r="AP129">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ129">
         <v>0.8</v>
@@ -27938,7 +27950,7 @@
         <v>187</v>
       </c>
       <c r="P130" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -28144,7 +28156,7 @@
         <v>103</v>
       </c>
       <c r="P131" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q131">
         <v>2.88</v>
@@ -28225,7 +28237,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ131">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR131">
         <v>1.63</v>
@@ -28350,7 +28362,7 @@
         <v>103</v>
       </c>
       <c r="P132" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q132">
         <v>3.04</v>
@@ -28556,7 +28568,7 @@
         <v>103</v>
       </c>
       <c r="P133" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q133">
         <v>2.69</v>
@@ -28634,7 +28646,7 @@
         <v>1.13</v>
       </c>
       <c r="AP133">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ133">
         <v>1.09</v>
@@ -28762,7 +28774,7 @@
         <v>103</v>
       </c>
       <c r="P134" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q134">
         <v>3.2</v>
@@ -28843,7 +28855,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ134">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR134">
         <v>1.54</v>
@@ -29252,10 +29264,10 @@
         <v>1.63</v>
       </c>
       <c r="AP136">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AQ136">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR136">
         <v>1.31</v>
@@ -29458,10 +29470,10 @@
         <v>0.25</v>
       </c>
       <c r="AP137">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ137">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR137">
         <v>1.42</v>
@@ -29664,10 +29676,10 @@
         <v>0.78</v>
       </c>
       <c r="AP138">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AQ138">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR138">
         <v>1.94</v>
@@ -29792,7 +29804,7 @@
         <v>191</v>
       </c>
       <c r="P139" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q139">
         <v>3.6</v>
@@ -29873,7 +29885,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ139">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR139">
         <v>1.59</v>
@@ -29998,7 +30010,7 @@
         <v>192</v>
       </c>
       <c r="P140" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q140">
         <v>2.61</v>
@@ -30076,7 +30088,7 @@
         <v>1.11</v>
       </c>
       <c r="AP140">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ140">
         <v>1</v>
@@ -30282,10 +30294,10 @@
         <v>1.25</v>
       </c>
       <c r="AP141">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ141">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR141">
         <v>2</v>
@@ -30410,7 +30422,7 @@
         <v>194</v>
       </c>
       <c r="P142" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q142">
         <v>2.75</v>
@@ -30488,10 +30500,10 @@
         <v>1.38</v>
       </c>
       <c r="AP142">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AQ142">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR142">
         <v>1.83</v>
@@ -30616,7 +30628,7 @@
         <v>195</v>
       </c>
       <c r="P143" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q143">
         <v>2.2</v>
@@ -30694,7 +30706,7 @@
         <v>0.25</v>
       </c>
       <c r="AP143">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ143">
         <v>0.55</v>
@@ -30822,7 +30834,7 @@
         <v>91</v>
       </c>
       <c r="P144" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q144">
         <v>2.02</v>
@@ -31028,7 +31040,7 @@
         <v>103</v>
       </c>
       <c r="P145" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q145">
         <v>3.44</v>
@@ -31234,7 +31246,7 @@
         <v>196</v>
       </c>
       <c r="P146" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q146">
         <v>3.75</v>
@@ -31852,7 +31864,7 @@
         <v>198</v>
       </c>
       <c r="P149" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q149">
         <v>1.8</v>
@@ -32264,7 +32276,7 @@
         <v>200</v>
       </c>
       <c r="P151" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q151">
         <v>2.48</v>
@@ -32470,7 +32482,7 @@
         <v>201</v>
       </c>
       <c r="P152" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q152">
         <v>3.4</v>
@@ -32882,7 +32894,7 @@
         <v>203</v>
       </c>
       <c r="P154" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q154">
         <v>1.91</v>
@@ -32960,10 +32972,10 @@
         <v>1.33</v>
       </c>
       <c r="AP154">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ154">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR154">
         <v>2.02</v>
@@ -33088,7 +33100,7 @@
         <v>103</v>
       </c>
       <c r="P155" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q155">
         <v>2.5</v>
@@ -33166,10 +33178,10 @@
         <v>0.7</v>
       </c>
       <c r="AP155">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ155">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR155">
         <v>1.65</v>
@@ -33294,7 +33306,7 @@
         <v>204</v>
       </c>
       <c r="P156" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q156">
         <v>2.7</v>
@@ -33372,10 +33384,10 @@
         <v>1.44</v>
       </c>
       <c r="AP156">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ156">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR156">
         <v>2.11</v>
@@ -33500,7 +33512,7 @@
         <v>205</v>
       </c>
       <c r="P157" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q157">
         <v>2.32</v>
@@ -33578,10 +33590,10 @@
         <v>1.11</v>
       </c>
       <c r="AP157">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ157">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR157">
         <v>1.74</v>
@@ -33784,7 +33796,7 @@
         <v>1.1</v>
       </c>
       <c r="AP158">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ158">
         <v>1</v>
@@ -33912,7 +33924,7 @@
         <v>163</v>
       </c>
       <c r="P159" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q159">
         <v>3.06</v>
@@ -33990,10 +34002,10 @@
         <v>1.33</v>
       </c>
       <c r="AP159">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AQ159">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR159">
         <v>1.33</v>
@@ -34118,7 +34130,7 @@
         <v>207</v>
       </c>
       <c r="P160" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q160">
         <v>2</v>
@@ -34196,10 +34208,10 @@
         <v>0.78</v>
       </c>
       <c r="AP160">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AQ160">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR160">
         <v>2</v>
@@ -34402,10 +34414,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP161">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AQ161">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR161">
         <v>1.84</v>
@@ -34530,7 +34542,7 @@
         <v>103</v>
       </c>
       <c r="P162" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q162">
         <v>6.3</v>
@@ -35354,7 +35366,7 @@
         <v>210</v>
       </c>
       <c r="P166" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q166">
         <v>3.4</v>
@@ -35560,7 +35572,7 @@
         <v>211</v>
       </c>
       <c r="P167" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q167">
         <v>2.63</v>
@@ -35766,7 +35778,7 @@
         <v>212</v>
       </c>
       <c r="P168" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q168">
         <v>2.05</v>
@@ -35972,7 +35984,7 @@
         <v>213</v>
       </c>
       <c r="P169" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q169">
         <v>3.92</v>
@@ -36128,6 +36140,1654 @@
         <v>2.2</v>
       </c>
       <c r="BP169">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="170" spans="1:68">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>7296434</v>
+      </c>
+      <c r="C170" t="s">
+        <v>68</v>
+      </c>
+      <c r="D170" t="s">
+        <v>69</v>
+      </c>
+      <c r="E170" s="2">
+        <v>45550.5</v>
+      </c>
+      <c r="F170">
+        <v>22</v>
+      </c>
+      <c r="G170" t="s">
+        <v>83</v>
+      </c>
+      <c r="H170" t="s">
+        <v>84</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>0</v>
+      </c>
+      <c r="L170">
+        <v>0</v>
+      </c>
+      <c r="M170">
+        <v>1</v>
+      </c>
+      <c r="N170">
+        <v>1</v>
+      </c>
+      <c r="O170" t="s">
+        <v>103</v>
+      </c>
+      <c r="P170" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q170">
+        <v>2.88</v>
+      </c>
+      <c r="R170">
+        <v>2.4</v>
+      </c>
+      <c r="S170">
+        <v>3.2</v>
+      </c>
+      <c r="T170">
+        <v>1.29</v>
+      </c>
+      <c r="U170">
+        <v>3.5</v>
+      </c>
+      <c r="V170">
+        <v>2.25</v>
+      </c>
+      <c r="W170">
+        <v>1.57</v>
+      </c>
+      <c r="X170">
+        <v>5.5</v>
+      </c>
+      <c r="Y170">
+        <v>1.14</v>
+      </c>
+      <c r="Z170">
+        <v>2.26</v>
+      </c>
+      <c r="AA170">
+        <v>3.55</v>
+      </c>
+      <c r="AB170">
+        <v>2.52</v>
+      </c>
+      <c r="AC170">
+        <v>1.01</v>
+      </c>
+      <c r="AD170">
+        <v>13</v>
+      </c>
+      <c r="AE170">
+        <v>1.11</v>
+      </c>
+      <c r="AF170">
+        <v>5.5</v>
+      </c>
+      <c r="AG170">
+        <v>1.55</v>
+      </c>
+      <c r="AH170">
+        <v>2.3</v>
+      </c>
+      <c r="AI170">
+        <v>1.5</v>
+      </c>
+      <c r="AJ170">
+        <v>2.5</v>
+      </c>
+      <c r="AK170">
+        <v>1.41</v>
+      </c>
+      <c r="AL170">
+        <v>1.25</v>
+      </c>
+      <c r="AM170">
+        <v>1.56</v>
+      </c>
+      <c r="AN170">
+        <v>1.8</v>
+      </c>
+      <c r="AO170">
+        <v>1.2</v>
+      </c>
+      <c r="AP170">
+        <v>1.64</v>
+      </c>
+      <c r="AQ170">
+        <v>1.36</v>
+      </c>
+      <c r="AR170">
+        <v>1.56</v>
+      </c>
+      <c r="AS170">
+        <v>1.77</v>
+      </c>
+      <c r="AT170">
+        <v>3.33</v>
+      </c>
+      <c r="AU170">
+        <v>5</v>
+      </c>
+      <c r="AV170">
+        <v>10</v>
+      </c>
+      <c r="AW170">
+        <v>1</v>
+      </c>
+      <c r="AX170">
+        <v>4</v>
+      </c>
+      <c r="AY170">
+        <v>6</v>
+      </c>
+      <c r="AZ170">
+        <v>14</v>
+      </c>
+      <c r="BA170">
+        <v>2</v>
+      </c>
+      <c r="BB170">
+        <v>7</v>
+      </c>
+      <c r="BC170">
+        <v>9</v>
+      </c>
+      <c r="BD170">
+        <v>1.9</v>
+      </c>
+      <c r="BE170">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF170">
+        <v>2.15</v>
+      </c>
+      <c r="BG170">
+        <v>1.13</v>
+      </c>
+      <c r="BH170">
+        <v>5</v>
+      </c>
+      <c r="BI170">
+        <v>1.26</v>
+      </c>
+      <c r="BJ170">
+        <v>3.65</v>
+      </c>
+      <c r="BK170">
+        <v>1.47</v>
+      </c>
+      <c r="BL170">
+        <v>2.55</v>
+      </c>
+      <c r="BM170">
+        <v>1.82</v>
+      </c>
+      <c r="BN170">
+        <v>1.98</v>
+      </c>
+      <c r="BO170">
+        <v>2.3</v>
+      </c>
+      <c r="BP170">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="171" spans="1:68">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>7296437</v>
+      </c>
+      <c r="C171" t="s">
+        <v>68</v>
+      </c>
+      <c r="D171" t="s">
+        <v>69</v>
+      </c>
+      <c r="E171" s="2">
+        <v>45551.47916666666</v>
+      </c>
+      <c r="F171">
+        <v>22</v>
+      </c>
+      <c r="G171" t="s">
+        <v>85</v>
+      </c>
+      <c r="H171" t="s">
+        <v>80</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>1</v>
+      </c>
+      <c r="K171">
+        <v>1</v>
+      </c>
+      <c r="L171">
+        <v>0</v>
+      </c>
+      <c r="M171">
+        <v>2</v>
+      </c>
+      <c r="N171">
+        <v>2</v>
+      </c>
+      <c r="O171" t="s">
+        <v>103</v>
+      </c>
+      <c r="P171" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q171">
+        <v>2.63</v>
+      </c>
+      <c r="R171">
+        <v>2.5</v>
+      </c>
+      <c r="S171">
+        <v>3.4</v>
+      </c>
+      <c r="T171">
+        <v>1.25</v>
+      </c>
+      <c r="U171">
+        <v>3.75</v>
+      </c>
+      <c r="V171">
+        <v>2.2</v>
+      </c>
+      <c r="W171">
+        <v>1.62</v>
+      </c>
+      <c r="X171">
+        <v>5</v>
+      </c>
+      <c r="Y171">
+        <v>1.17</v>
+      </c>
+      <c r="Z171">
+        <v>2.05</v>
+      </c>
+      <c r="AA171">
+        <v>3.5</v>
+      </c>
+      <c r="AB171">
+        <v>3.11</v>
+      </c>
+      <c r="AC171">
+        <v>1.01</v>
+      </c>
+      <c r="AD171">
+        <v>13</v>
+      </c>
+      <c r="AE171">
+        <v>1.11</v>
+      </c>
+      <c r="AF171">
+        <v>5.1</v>
+      </c>
+      <c r="AG171">
+        <v>1.55</v>
+      </c>
+      <c r="AH171">
+        <v>2.29</v>
+      </c>
+      <c r="AI171">
+        <v>1.44</v>
+      </c>
+      <c r="AJ171">
+        <v>2.63</v>
+      </c>
+      <c r="AK171">
+        <v>1.36</v>
+      </c>
+      <c r="AL171">
+        <v>1.24</v>
+      </c>
+      <c r="AM171">
+        <v>1.71</v>
+      </c>
+      <c r="AN171">
+        <v>1.5</v>
+      </c>
+      <c r="AO171">
+        <v>0.91</v>
+      </c>
+      <c r="AP171">
+        <v>1.36</v>
+      </c>
+      <c r="AQ171">
+        <v>1.08</v>
+      </c>
+      <c r="AR171">
+        <v>2.01</v>
+      </c>
+      <c r="AS171">
+        <v>1.44</v>
+      </c>
+      <c r="AT171">
+        <v>3.45</v>
+      </c>
+      <c r="AU171">
+        <v>7</v>
+      </c>
+      <c r="AV171">
+        <v>6</v>
+      </c>
+      <c r="AW171">
+        <v>10</v>
+      </c>
+      <c r="AX171">
+        <v>5</v>
+      </c>
+      <c r="AY171">
+        <v>17</v>
+      </c>
+      <c r="AZ171">
+        <v>11</v>
+      </c>
+      <c r="BA171">
+        <v>12</v>
+      </c>
+      <c r="BB171">
+        <v>4</v>
+      </c>
+      <c r="BC171">
+        <v>16</v>
+      </c>
+      <c r="BD171">
+        <v>1.7</v>
+      </c>
+      <c r="BE171">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF171">
+        <v>2.45</v>
+      </c>
+      <c r="BG171">
+        <v>0</v>
+      </c>
+      <c r="BH171">
+        <v>0</v>
+      </c>
+      <c r="BI171">
+        <v>1.28</v>
+      </c>
+      <c r="BJ171">
+        <v>3.5</v>
+      </c>
+      <c r="BK171">
+        <v>1.5</v>
+      </c>
+      <c r="BL171">
+        <v>2.48</v>
+      </c>
+      <c r="BM171">
+        <v>1.88</v>
+      </c>
+      <c r="BN171">
+        <v>1.92</v>
+      </c>
+      <c r="BO171">
+        <v>2.38</v>
+      </c>
+      <c r="BP171">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="172" spans="1:68">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>7296440</v>
+      </c>
+      <c r="C172" t="s">
+        <v>68</v>
+      </c>
+      <c r="D172" t="s">
+        <v>69</v>
+      </c>
+      <c r="E172" s="2">
+        <v>45551.58333333334</v>
+      </c>
+      <c r="F172">
+        <v>22</v>
+      </c>
+      <c r="G172" t="s">
+        <v>78</v>
+      </c>
+      <c r="H172" t="s">
+        <v>82</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172">
+        <v>1</v>
+      </c>
+      <c r="M172">
+        <v>1</v>
+      </c>
+      <c r="N172">
+        <v>2</v>
+      </c>
+      <c r="O172" t="s">
+        <v>89</v>
+      </c>
+      <c r="P172" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q172">
+        <v>2.88</v>
+      </c>
+      <c r="R172">
+        <v>2.4</v>
+      </c>
+      <c r="S172">
+        <v>3.25</v>
+      </c>
+      <c r="T172">
+        <v>1.29</v>
+      </c>
+      <c r="U172">
+        <v>3.5</v>
+      </c>
+      <c r="V172">
+        <v>2.25</v>
+      </c>
+      <c r="W172">
+        <v>1.57</v>
+      </c>
+      <c r="X172">
+        <v>5.5</v>
+      </c>
+      <c r="Y172">
+        <v>1.14</v>
+      </c>
+      <c r="Z172">
+        <v>2.7</v>
+      </c>
+      <c r="AA172">
+        <v>3.6</v>
+      </c>
+      <c r="AB172">
+        <v>2.2</v>
+      </c>
+      <c r="AC172">
+        <v>1.03</v>
+      </c>
+      <c r="AD172">
+        <v>9</v>
+      </c>
+      <c r="AE172">
+        <v>1.14</v>
+      </c>
+      <c r="AF172">
+        <v>4.7</v>
+      </c>
+      <c r="AG172">
+        <v>1.57</v>
+      </c>
+      <c r="AH172">
+        <v>2.33</v>
+      </c>
+      <c r="AI172">
+        <v>1.5</v>
+      </c>
+      <c r="AJ172">
+        <v>2.5</v>
+      </c>
+      <c r="AK172">
+        <v>1.48</v>
+      </c>
+      <c r="AL172">
+        <v>1.25</v>
+      </c>
+      <c r="AM172">
+        <v>1.6</v>
+      </c>
+      <c r="AN172">
+        <v>1.4</v>
+      </c>
+      <c r="AO172">
+        <v>1</v>
+      </c>
+      <c r="AP172">
+        <v>1.36</v>
+      </c>
+      <c r="AQ172">
+        <v>1</v>
+      </c>
+      <c r="AR172">
+        <v>1.85</v>
+      </c>
+      <c r="AS172">
+        <v>1.44</v>
+      </c>
+      <c r="AT172">
+        <v>3.29</v>
+      </c>
+      <c r="AU172">
+        <v>10</v>
+      </c>
+      <c r="AV172">
+        <v>3</v>
+      </c>
+      <c r="AW172">
+        <v>7</v>
+      </c>
+      <c r="AX172">
+        <v>8</v>
+      </c>
+      <c r="AY172">
+        <v>17</v>
+      </c>
+      <c r="AZ172">
+        <v>11</v>
+      </c>
+      <c r="BA172">
+        <v>4</v>
+      </c>
+      <c r="BB172">
+        <v>3</v>
+      </c>
+      <c r="BC172">
+        <v>7</v>
+      </c>
+      <c r="BD172">
+        <v>1.96</v>
+      </c>
+      <c r="BE172">
+        <v>8.6</v>
+      </c>
+      <c r="BF172">
+        <v>2.09</v>
+      </c>
+      <c r="BG172">
+        <v>1.2</v>
+      </c>
+      <c r="BH172">
+        <v>4.25</v>
+      </c>
+      <c r="BI172">
+        <v>1.38</v>
+      </c>
+      <c r="BJ172">
+        <v>2.88</v>
+      </c>
+      <c r="BK172">
+        <v>1.67</v>
+      </c>
+      <c r="BL172">
+        <v>2.12</v>
+      </c>
+      <c r="BM172">
+        <v>2</v>
+      </c>
+      <c r="BN172">
+        <v>1.8</v>
+      </c>
+      <c r="BO172">
+        <v>2.85</v>
+      </c>
+      <c r="BP172">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="173" spans="1:68">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>7296435</v>
+      </c>
+      <c r="C173" t="s">
+        <v>68</v>
+      </c>
+      <c r="D173" t="s">
+        <v>69</v>
+      </c>
+      <c r="E173" s="2">
+        <v>45551.58333333334</v>
+      </c>
+      <c r="F173">
+        <v>22</v>
+      </c>
+      <c r="G173" t="s">
+        <v>81</v>
+      </c>
+      <c r="H173" t="s">
+        <v>79</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>1</v>
+      </c>
+      <c r="K173">
+        <v>1</v>
+      </c>
+      <c r="L173">
+        <v>1</v>
+      </c>
+      <c r="M173">
+        <v>2</v>
+      </c>
+      <c r="N173">
+        <v>3</v>
+      </c>
+      <c r="O173" t="s">
+        <v>121</v>
+      </c>
+      <c r="P173" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q173">
+        <v>2.1</v>
+      </c>
+      <c r="R173">
+        <v>2.6</v>
+      </c>
+      <c r="S173">
+        <v>4.5</v>
+      </c>
+      <c r="T173">
+        <v>1.25</v>
+      </c>
+      <c r="U173">
+        <v>3.75</v>
+      </c>
+      <c r="V173">
+        <v>2.1</v>
+      </c>
+      <c r="W173">
+        <v>1.67</v>
+      </c>
+      <c r="X173">
+        <v>5</v>
+      </c>
+      <c r="Y173">
+        <v>1.17</v>
+      </c>
+      <c r="Z173">
+        <v>1.58</v>
+      </c>
+      <c r="AA173">
+        <v>4.1</v>
+      </c>
+      <c r="AB173">
+        <v>4.5</v>
+      </c>
+      <c r="AC173">
+        <v>1.01</v>
+      </c>
+      <c r="AD173">
+        <v>17</v>
+      </c>
+      <c r="AE173">
+        <v>1.11</v>
+      </c>
+      <c r="AF173">
+        <v>5.15</v>
+      </c>
+      <c r="AG173">
+        <v>1.54</v>
+      </c>
+      <c r="AH173">
+        <v>2.4</v>
+      </c>
+      <c r="AI173">
+        <v>1.5</v>
+      </c>
+      <c r="AJ173">
+        <v>2.5</v>
+      </c>
+      <c r="AK173">
+        <v>1.2</v>
+      </c>
+      <c r="AL173">
+        <v>1.2</v>
+      </c>
+      <c r="AM173">
+        <v>2.3</v>
+      </c>
+      <c r="AN173">
+        <v>2</v>
+      </c>
+      <c r="AO173">
+        <v>1.3</v>
+      </c>
+      <c r="AP173">
+        <v>1.82</v>
+      </c>
+      <c r="AQ173">
+        <v>1.45</v>
+      </c>
+      <c r="AR173">
+        <v>1.93</v>
+      </c>
+      <c r="AS173">
+        <v>1.22</v>
+      </c>
+      <c r="AT173">
+        <v>3.15</v>
+      </c>
+      <c r="AU173">
+        <v>4</v>
+      </c>
+      <c r="AV173">
+        <v>4</v>
+      </c>
+      <c r="AW173">
+        <v>10</v>
+      </c>
+      <c r="AX173">
+        <v>8</v>
+      </c>
+      <c r="AY173">
+        <v>14</v>
+      </c>
+      <c r="AZ173">
+        <v>12</v>
+      </c>
+      <c r="BA173">
+        <v>8</v>
+      </c>
+      <c r="BB173">
+        <v>4</v>
+      </c>
+      <c r="BC173">
+        <v>12</v>
+      </c>
+      <c r="BD173">
+        <v>1.28</v>
+      </c>
+      <c r="BE173">
+        <v>11</v>
+      </c>
+      <c r="BF173">
+        <v>4.25</v>
+      </c>
+      <c r="BG173">
+        <v>0</v>
+      </c>
+      <c r="BH173">
+        <v>0</v>
+      </c>
+      <c r="BI173">
+        <v>1.15</v>
+      </c>
+      <c r="BJ173">
+        <v>4.7</v>
+      </c>
+      <c r="BK173">
+        <v>1.3</v>
+      </c>
+      <c r="BL173">
+        <v>3.3</v>
+      </c>
+      <c r="BM173">
+        <v>1.53</v>
+      </c>
+      <c r="BN173">
+        <v>2.43</v>
+      </c>
+      <c r="BO173">
+        <v>1.87</v>
+      </c>
+      <c r="BP173">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="174" spans="1:68">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>7296436</v>
+      </c>
+      <c r="C174" t="s">
+        <v>68</v>
+      </c>
+      <c r="D174" t="s">
+        <v>69</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45551.58333333334</v>
+      </c>
+      <c r="F174">
+        <v>22</v>
+      </c>
+      <c r="G174" t="s">
+        <v>73</v>
+      </c>
+      <c r="H174" t="s">
+        <v>76</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>0</v>
+      </c>
+      <c r="L174">
+        <v>2</v>
+      </c>
+      <c r="M174">
+        <v>0</v>
+      </c>
+      <c r="N174">
+        <v>2</v>
+      </c>
+      <c r="O174" t="s">
+        <v>214</v>
+      </c>
+      <c r="P174" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q174">
+        <v>1.91</v>
+      </c>
+      <c r="R174">
+        <v>2.63</v>
+      </c>
+      <c r="S174">
+        <v>5.5</v>
+      </c>
+      <c r="T174">
+        <v>1.22</v>
+      </c>
+      <c r="U174">
+        <v>4</v>
+      </c>
+      <c r="V174">
+        <v>2.1</v>
+      </c>
+      <c r="W174">
+        <v>1.67</v>
+      </c>
+      <c r="X174">
+        <v>4.5</v>
+      </c>
+      <c r="Y174">
+        <v>1.18</v>
+      </c>
+      <c r="Z174">
+        <v>1.58</v>
+      </c>
+      <c r="AA174">
+        <v>4.1</v>
+      </c>
+      <c r="AB174">
+        <v>4.5</v>
+      </c>
+      <c r="AC174">
+        <v>1.01</v>
+      </c>
+      <c r="AD174">
+        <v>17</v>
+      </c>
+      <c r="AE174">
+        <v>1.1</v>
+      </c>
+      <c r="AF174">
+        <v>5.4</v>
+      </c>
+      <c r="AG174">
+        <v>1.57</v>
+      </c>
+      <c r="AH174">
+        <v>2.33</v>
+      </c>
+      <c r="AI174">
+        <v>1.57</v>
+      </c>
+      <c r="AJ174">
+        <v>2.25</v>
+      </c>
+      <c r="AK174">
+        <v>1.11</v>
+      </c>
+      <c r="AL174">
+        <v>1.14</v>
+      </c>
+      <c r="AM174">
+        <v>2.75</v>
+      </c>
+      <c r="AN174">
+        <v>0.73</v>
+      </c>
+      <c r="AO174">
+        <v>0.5</v>
+      </c>
+      <c r="AP174">
+        <v>0.92</v>
+      </c>
+      <c r="AQ174">
+        <v>0.45</v>
+      </c>
+      <c r="AR174">
+        <v>1.37</v>
+      </c>
+      <c r="AS174">
+        <v>0.98</v>
+      </c>
+      <c r="AT174">
+        <v>2.35</v>
+      </c>
+      <c r="AU174">
+        <v>14</v>
+      </c>
+      <c r="AV174">
+        <v>6</v>
+      </c>
+      <c r="AW174">
+        <v>5</v>
+      </c>
+      <c r="AX174">
+        <v>9</v>
+      </c>
+      <c r="AY174">
+        <v>19</v>
+      </c>
+      <c r="AZ174">
+        <v>15</v>
+      </c>
+      <c r="BA174">
+        <v>12</v>
+      </c>
+      <c r="BB174">
+        <v>6</v>
+      </c>
+      <c r="BC174">
+        <v>18</v>
+      </c>
+      <c r="BD174">
+        <v>1.27</v>
+      </c>
+      <c r="BE174">
+        <v>11</v>
+      </c>
+      <c r="BF174">
+        <v>4.4</v>
+      </c>
+      <c r="BG174">
+        <v>0</v>
+      </c>
+      <c r="BH174">
+        <v>0</v>
+      </c>
+      <c r="BI174">
+        <v>1.21</v>
+      </c>
+      <c r="BJ174">
+        <v>4.1</v>
+      </c>
+      <c r="BK174">
+        <v>1.38</v>
+      </c>
+      <c r="BL174">
+        <v>2.88</v>
+      </c>
+      <c r="BM174">
+        <v>1.67</v>
+      </c>
+      <c r="BN174">
+        <v>2.12</v>
+      </c>
+      <c r="BO174">
+        <v>2.1</v>
+      </c>
+      <c r="BP174">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="175" spans="1:68">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>7296438</v>
+      </c>
+      <c r="C175" t="s">
+        <v>68</v>
+      </c>
+      <c r="D175" t="s">
+        <v>69</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45551.58333333334</v>
+      </c>
+      <c r="F175">
+        <v>22</v>
+      </c>
+      <c r="G175" t="s">
+        <v>71</v>
+      </c>
+      <c r="H175" t="s">
+        <v>77</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>0</v>
+      </c>
+      <c r="L175">
+        <v>0</v>
+      </c>
+      <c r="M175">
+        <v>0</v>
+      </c>
+      <c r="N175">
+        <v>0</v>
+      </c>
+      <c r="O175" t="s">
+        <v>103</v>
+      </c>
+      <c r="P175" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q175">
+        <v>2.4</v>
+      </c>
+      <c r="R175">
+        <v>2.38</v>
+      </c>
+      <c r="S175">
+        <v>4</v>
+      </c>
+      <c r="T175">
+        <v>1.3</v>
+      </c>
+      <c r="U175">
+        <v>3.4</v>
+      </c>
+      <c r="V175">
+        <v>2.5</v>
+      </c>
+      <c r="W175">
+        <v>1.5</v>
+      </c>
+      <c r="X175">
+        <v>6</v>
+      </c>
+      <c r="Y175">
+        <v>1.13</v>
+      </c>
+      <c r="Z175">
+        <v>2.05</v>
+      </c>
+      <c r="AA175">
+        <v>3.6</v>
+      </c>
+      <c r="AB175">
+        <v>2.95</v>
+      </c>
+      <c r="AC175">
+        <v>1.03</v>
+      </c>
+      <c r="AD175">
+        <v>9</v>
+      </c>
+      <c r="AE175">
+        <v>1.15</v>
+      </c>
+      <c r="AF175">
+        <v>4.6</v>
+      </c>
+      <c r="AG175">
+        <v>1.57</v>
+      </c>
+      <c r="AH175">
+        <v>2.33</v>
+      </c>
+      <c r="AI175">
+        <v>1.62</v>
+      </c>
+      <c r="AJ175">
+        <v>2.2</v>
+      </c>
+      <c r="AK175">
+        <v>1.29</v>
+      </c>
+      <c r="AL175">
+        <v>1.25</v>
+      </c>
+      <c r="AM175">
+        <v>1.91</v>
+      </c>
+      <c r="AN175">
+        <v>1.9</v>
+      </c>
+      <c r="AO175">
+        <v>1.3</v>
+      </c>
+      <c r="AP175">
+        <v>1.82</v>
+      </c>
+      <c r="AQ175">
+        <v>1.27</v>
+      </c>
+      <c r="AR175">
+        <v>1.89</v>
+      </c>
+      <c r="AS175">
+        <v>1.59</v>
+      </c>
+      <c r="AT175">
+        <v>3.48</v>
+      </c>
+      <c r="AU175">
+        <v>5</v>
+      </c>
+      <c r="AV175">
+        <v>2</v>
+      </c>
+      <c r="AW175">
+        <v>7</v>
+      </c>
+      <c r="AX175">
+        <v>8</v>
+      </c>
+      <c r="AY175">
+        <v>12</v>
+      </c>
+      <c r="AZ175">
+        <v>10</v>
+      </c>
+      <c r="BA175">
+        <v>4</v>
+      </c>
+      <c r="BB175">
+        <v>4</v>
+      </c>
+      <c r="BC175">
+        <v>8</v>
+      </c>
+      <c r="BD175">
+        <v>1.58</v>
+      </c>
+      <c r="BE175">
+        <v>9.1</v>
+      </c>
+      <c r="BF175">
+        <v>2.76</v>
+      </c>
+      <c r="BG175">
+        <v>1.17</v>
+      </c>
+      <c r="BH175">
+        <v>4.8</v>
+      </c>
+      <c r="BI175">
+        <v>1.3</v>
+      </c>
+      <c r="BJ175">
+        <v>3.25</v>
+      </c>
+      <c r="BK175">
+        <v>1.56</v>
+      </c>
+      <c r="BL175">
+        <v>2.33</v>
+      </c>
+      <c r="BM175">
+        <v>1.95</v>
+      </c>
+      <c r="BN175">
+        <v>1.8</v>
+      </c>
+      <c r="BO175">
+        <v>2.55</v>
+      </c>
+      <c r="BP175">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="176" spans="1:68">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>7296439</v>
+      </c>
+      <c r="C176" t="s">
+        <v>68</v>
+      </c>
+      <c r="D176" t="s">
+        <v>69</v>
+      </c>
+      <c r="E176" s="2">
+        <v>45551.58333333334</v>
+      </c>
+      <c r="F176">
+        <v>22</v>
+      </c>
+      <c r="G176" t="s">
+        <v>75</v>
+      </c>
+      <c r="H176" t="s">
+        <v>70</v>
+      </c>
+      <c r="I176">
+        <v>1</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>1</v>
+      </c>
+      <c r="L176">
+        <v>1</v>
+      </c>
+      <c r="M176">
+        <v>1</v>
+      </c>
+      <c r="N176">
+        <v>2</v>
+      </c>
+      <c r="O176" t="s">
+        <v>215</v>
+      </c>
+      <c r="P176" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q176">
+        <v>3.75</v>
+      </c>
+      <c r="R176">
+        <v>2.3</v>
+      </c>
+      <c r="S176">
+        <v>2.63</v>
+      </c>
+      <c r="T176">
+        <v>1.33</v>
+      </c>
+      <c r="U176">
+        <v>3.25</v>
+      </c>
+      <c r="V176">
+        <v>2.63</v>
+      </c>
+      <c r="W176">
+        <v>1.44</v>
+      </c>
+      <c r="X176">
+        <v>6.5</v>
+      </c>
+      <c r="Y176">
+        <v>1.11</v>
+      </c>
+      <c r="Z176">
+        <v>3.3</v>
+      </c>
+      <c r="AA176">
+        <v>3.6</v>
+      </c>
+      <c r="AB176">
+        <v>1.9</v>
+      </c>
+      <c r="AC176">
+        <v>1.02</v>
+      </c>
+      <c r="AD176">
+        <v>15</v>
+      </c>
+      <c r="AE176">
+        <v>1.22</v>
+      </c>
+      <c r="AF176">
+        <v>4</v>
+      </c>
+      <c r="AG176">
+        <v>1.67</v>
+      </c>
+      <c r="AH176">
+        <v>2.14</v>
+      </c>
+      <c r="AI176">
+        <v>1.62</v>
+      </c>
+      <c r="AJ176">
+        <v>2.2</v>
+      </c>
+      <c r="AK176">
+        <v>1.75</v>
+      </c>
+      <c r="AL176">
+        <v>1.22</v>
+      </c>
+      <c r="AM176">
+        <v>1.36</v>
+      </c>
+      <c r="AN176">
+        <v>1.18</v>
+      </c>
+      <c r="AO176">
+        <v>1.5</v>
+      </c>
+      <c r="AP176">
+        <v>1.17</v>
+      </c>
+      <c r="AQ176">
+        <v>1.45</v>
+      </c>
+      <c r="AR176">
+        <v>1.49</v>
+      </c>
+      <c r="AS176">
+        <v>1.83</v>
+      </c>
+      <c r="AT176">
+        <v>3.32</v>
+      </c>
+      <c r="AU176">
+        <v>5</v>
+      </c>
+      <c r="AV176">
+        <v>6</v>
+      </c>
+      <c r="AW176">
+        <v>4</v>
+      </c>
+      <c r="AX176">
+        <v>8</v>
+      </c>
+      <c r="AY176">
+        <v>9</v>
+      </c>
+      <c r="AZ176">
+        <v>14</v>
+      </c>
+      <c r="BA176">
+        <v>4</v>
+      </c>
+      <c r="BB176">
+        <v>7</v>
+      </c>
+      <c r="BC176">
+        <v>11</v>
+      </c>
+      <c r="BD176">
+        <v>2.03</v>
+      </c>
+      <c r="BE176">
+        <v>8.9</v>
+      </c>
+      <c r="BF176">
+        <v>2</v>
+      </c>
+      <c r="BG176">
+        <v>0</v>
+      </c>
+      <c r="BH176">
+        <v>0</v>
+      </c>
+      <c r="BI176">
+        <v>1.27</v>
+      </c>
+      <c r="BJ176">
+        <v>3.55</v>
+      </c>
+      <c r="BK176">
+        <v>1.48</v>
+      </c>
+      <c r="BL176">
+        <v>2.55</v>
+      </c>
+      <c r="BM176">
+        <v>1.85</v>
+      </c>
+      <c r="BN176">
+        <v>1.95</v>
+      </c>
+      <c r="BO176">
+        <v>2.35</v>
+      </c>
+      <c r="BP176">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="177" spans="1:68">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>7296441</v>
+      </c>
+      <c r="C177" t="s">
+        <v>68</v>
+      </c>
+      <c r="D177" t="s">
+        <v>69</v>
+      </c>
+      <c r="E177" s="2">
+        <v>45551.58333333334</v>
+      </c>
+      <c r="F177">
+        <v>22</v>
+      </c>
+      <c r="G177" t="s">
+        <v>72</v>
+      </c>
+      <c r="H177" t="s">
+        <v>74</v>
+      </c>
+      <c r="I177">
+        <v>3</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>3</v>
+      </c>
+      <c r="L177">
+        <v>5</v>
+      </c>
+      <c r="M177">
+        <v>0</v>
+      </c>
+      <c r="N177">
+        <v>5</v>
+      </c>
+      <c r="O177" t="s">
+        <v>216</v>
+      </c>
+      <c r="P177" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q177">
+        <v>1.62</v>
+      </c>
+      <c r="R177">
+        <v>3</v>
+      </c>
+      <c r="S177">
+        <v>8.5</v>
+      </c>
+      <c r="T177">
+        <v>1.2</v>
+      </c>
+      <c r="U177">
+        <v>4.33</v>
+      </c>
+      <c r="V177">
+        <v>1.91</v>
+      </c>
+      <c r="W177">
+        <v>1.8</v>
+      </c>
+      <c r="X177">
+        <v>4</v>
+      </c>
+      <c r="Y177">
+        <v>1.22</v>
+      </c>
+      <c r="Z177">
+        <v>1.16</v>
+      </c>
+      <c r="AA177">
+        <v>7</v>
+      </c>
+      <c r="AB177">
+        <v>11</v>
+      </c>
+      <c r="AC177">
+        <v>1.01</v>
+      </c>
+      <c r="AD177">
+        <v>32</v>
+      </c>
+      <c r="AE177">
+        <v>1.07</v>
+      </c>
+      <c r="AF177">
+        <v>6.35</v>
+      </c>
+      <c r="AG177">
+        <v>1.34</v>
+      </c>
+      <c r="AH177">
+        <v>2.99</v>
+      </c>
+      <c r="AI177">
+        <v>1.8</v>
+      </c>
+      <c r="AJ177">
+        <v>1.91</v>
+      </c>
+      <c r="AK177">
+        <v>1.03</v>
+      </c>
+      <c r="AL177">
+        <v>1.08</v>
+      </c>
+      <c r="AM177">
+        <v>3.95</v>
+      </c>
+      <c r="AN177">
+        <v>2.2</v>
+      </c>
+      <c r="AO177">
+        <v>0.8</v>
+      </c>
+      <c r="AP177">
+        <v>2.27</v>
+      </c>
+      <c r="AQ177">
+        <v>0.73</v>
+      </c>
+      <c r="AR177">
+        <v>2.01</v>
+      </c>
+      <c r="AS177">
+        <v>1.33</v>
+      </c>
+      <c r="AT177">
+        <v>3.34</v>
+      </c>
+      <c r="AU177">
+        <v>8</v>
+      </c>
+      <c r="AV177">
+        <v>3</v>
+      </c>
+      <c r="AW177">
+        <v>6</v>
+      </c>
+      <c r="AX177">
+        <v>11</v>
+      </c>
+      <c r="AY177">
+        <v>14</v>
+      </c>
+      <c r="AZ177">
+        <v>14</v>
+      </c>
+      <c r="BA177">
+        <v>5</v>
+      </c>
+      <c r="BB177">
+        <v>6</v>
+      </c>
+      <c r="BC177">
+        <v>11</v>
+      </c>
+      <c r="BD177">
+        <v>1.11</v>
+      </c>
+      <c r="BE177">
+        <v>14</v>
+      </c>
+      <c r="BF177">
+        <v>7.5</v>
+      </c>
+      <c r="BG177">
+        <v>0</v>
+      </c>
+      <c r="BH177">
+        <v>0</v>
+      </c>
+      <c r="BI177">
+        <v>1.24</v>
+      </c>
+      <c r="BJ177">
+        <v>3.8</v>
+      </c>
+      <c r="BK177">
+        <v>1.43</v>
+      </c>
+      <c r="BL177">
+        <v>2.7</v>
+      </c>
+      <c r="BM177">
+        <v>1.74</v>
+      </c>
+      <c r="BN177">
+        <v>2.02</v>
+      </c>
+      <c r="BO177">
+        <v>2.23</v>
+      </c>
+      <c r="BP177">
         <v>1.62</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="320">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -667,6 +667,12 @@
     <t>['10', '31', '41', '62', '90+1']</t>
   </si>
   <si>
+    <t>['32', '44', '48', '61', '88']</t>
+  </si>
+  <si>
+    <t>['6', '50']</t>
+  </si>
+  <si>
     <t>['90+1']</t>
   </si>
   <si>
@@ -962,6 +968,12 @@
   </si>
   <si>
     <t>['27', '63']</t>
+  </si>
+  <si>
+    <t>['20', '34', '43', '45+3', '63']</t>
+  </si>
+  <si>
+    <t>['36', '45', '53']</t>
   </si>
 </sst>
 </file>
@@ -1323,7 +1335,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP177"/>
+  <dimension ref="A1:BP184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1582,7 +1594,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q2">
         <v>2.84</v>
@@ -1660,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AQ2">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1788,7 +1800,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q3">
         <v>2.2</v>
@@ -1866,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ3">
         <v>1.08</v>
@@ -1994,7 +2006,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -2075,7 +2087,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ4">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2406,7 +2418,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q6">
         <v>2.35</v>
@@ -2484,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ6">
         <v>1</v>
@@ -2612,7 +2624,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q7">
         <v>2.66</v>
@@ -2693,7 +2705,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ7">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2818,7 +2830,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q8">
         <v>2.8</v>
@@ -2896,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AQ8">
         <v>1.82</v>
@@ -3230,7 +3242,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3311,7 +3323,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ10">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3436,7 +3448,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3517,7 +3529,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ11">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3642,7 +3654,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3720,7 +3732,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ12">
         <v>0.45</v>
@@ -3926,7 +3938,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ13">
         <v>1.45</v>
@@ -4132,10 +4144,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ14">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4260,7 +4272,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q15">
         <v>2.05</v>
@@ -4341,7 +4353,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ15">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4672,7 +4684,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q17">
         <v>2.15</v>
@@ -4878,7 +4890,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q18">
         <v>2.15</v>
@@ -4956,7 +4968,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ18">
         <v>1.82</v>
@@ -5162,7 +5174,7 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AQ19">
         <v>1</v>
@@ -5574,10 +5586,10 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AQ21">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR21">
         <v>1.74</v>
@@ -5702,7 +5714,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q22">
         <v>2.76</v>
@@ -5780,10 +5792,10 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ22">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR22">
         <v>1.02</v>
@@ -5908,7 +5920,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q23">
         <v>2.85</v>
@@ -5989,7 +6001,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ23">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AR23">
         <v>1.2</v>
@@ -6114,7 +6126,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q24">
         <v>2.05</v>
@@ -6401,7 +6413,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ25">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR25">
         <v>1.76</v>
@@ -6732,7 +6744,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6810,7 +6822,7 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ27">
         <v>1.18</v>
@@ -7144,7 +7156,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q29">
         <v>2.25</v>
@@ -7222,7 +7234,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ29">
         <v>0.73</v>
@@ -7431,7 +7443,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ30">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR30">
         <v>0</v>
@@ -7556,7 +7568,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7637,7 +7649,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ31">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AR31">
         <v>0.83</v>
@@ -7840,10 +7852,10 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AQ32">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR32">
         <v>1.53</v>
@@ -7968,7 +7980,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q33">
         <v>3.05</v>
@@ -8046,7 +8058,7 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AQ33">
         <v>1</v>
@@ -8174,7 +8186,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q34">
         <v>2.26</v>
@@ -8255,7 +8267,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ34">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR34">
         <v>1.33</v>
@@ -8380,7 +8392,7 @@
         <v>115</v>
       </c>
       <c r="P35" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q35">
         <v>3.46</v>
@@ -8458,7 +8470,7 @@
         <v>2</v>
       </c>
       <c r="AP35">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ35">
         <v>1.18</v>
@@ -8664,10 +8676,10 @@
         <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ36">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AR36">
         <v>1.75</v>
@@ -8792,7 +8804,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q37">
         <v>2.72</v>
@@ -8998,7 +9010,7 @@
         <v>118</v>
       </c>
       <c r="P38" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q38">
         <v>4.55</v>
@@ -9079,7 +9091,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ38">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AR38">
         <v>1.21</v>
@@ -9204,7 +9216,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q39">
         <v>2.78</v>
@@ -10028,7 +10040,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q43">
         <v>3.11</v>
@@ -10106,10 +10118,10 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AQ43">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR43">
         <v>1.39</v>
@@ -10234,7 +10246,7 @@
         <v>123</v>
       </c>
       <c r="P44" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q44">
         <v>3.3</v>
@@ -10315,7 +10327,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ44">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR44">
         <v>1.31</v>
@@ -10440,7 +10452,7 @@
         <v>94</v>
       </c>
       <c r="P45" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q45">
         <v>2.4</v>
@@ -10724,7 +10736,7 @@
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ46">
         <v>1.18</v>
@@ -10930,10 +10942,10 @@
         <v>0.67</v>
       </c>
       <c r="AP47">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ47">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR47">
         <v>1.55</v>
@@ -11136,10 +11148,10 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AQ48">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR48">
         <v>1.78</v>
@@ -11342,10 +11354,10 @@
         <v>1.33</v>
       </c>
       <c r="AP49">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ49">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR49">
         <v>1.8</v>
@@ -11470,7 +11482,7 @@
         <v>103</v>
       </c>
       <c r="P50" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q50">
         <v>3.89</v>
@@ -11551,7 +11563,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ50">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AR50">
         <v>1.3</v>
@@ -11676,7 +11688,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q51">
         <v>2.61</v>
@@ -11754,7 +11766,7 @@
         <v>2.33</v>
       </c>
       <c r="AP51">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ51">
         <v>1.82</v>
@@ -11882,7 +11894,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -12088,7 +12100,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q53">
         <v>2.05</v>
@@ -12578,10 +12590,10 @@
         <v>0.33</v>
       </c>
       <c r="AP55">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ55">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AR55">
         <v>1.63</v>
@@ -12912,7 +12924,7 @@
         <v>103</v>
       </c>
       <c r="P57" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q57">
         <v>2.57</v>
@@ -12993,7 +13005,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ57">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR57">
         <v>1.2</v>
@@ -13118,7 +13130,7 @@
         <v>132</v>
       </c>
       <c r="P58" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q58">
         <v>2.3</v>
@@ -13196,7 +13208,7 @@
         <v>0.5</v>
       </c>
       <c r="AP58">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ58">
         <v>1.08</v>
@@ -13324,7 +13336,7 @@
         <v>103</v>
       </c>
       <c r="P59" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q59">
         <v>2.75</v>
@@ -13405,7 +13417,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ59">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR59">
         <v>1.1</v>
@@ -13530,7 +13542,7 @@
         <v>103</v>
       </c>
       <c r="P60" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q60">
         <v>2.32</v>
@@ -13814,7 +13826,7 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AQ61">
         <v>1.45</v>
@@ -13942,7 +13954,7 @@
         <v>134</v>
       </c>
       <c r="P62" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q62">
         <v>2.39</v>
@@ -14020,7 +14032,7 @@
         <v>1.33</v>
       </c>
       <c r="AP62">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ62">
         <v>1.36</v>
@@ -14148,7 +14160,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q63">
         <v>2.84</v>
@@ -14354,7 +14366,7 @@
         <v>136</v>
       </c>
       <c r="P64" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q64">
         <v>2.7</v>
@@ -14435,7 +14447,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ64">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AR64">
         <v>1.35</v>
@@ -14560,7 +14572,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -14638,10 +14650,10 @@
         <v>1.75</v>
       </c>
       <c r="AP65">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ65">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AR65">
         <v>1.68</v>
@@ -14844,7 +14856,7 @@
         <v>1.5</v>
       </c>
       <c r="AP66">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ66">
         <v>1.18</v>
@@ -14972,7 +14984,7 @@
         <v>139</v>
       </c>
       <c r="P67" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q67">
         <v>2.5</v>
@@ -15259,7 +15271,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ68">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR68">
         <v>1.49</v>
@@ -15462,10 +15474,10 @@
         <v>1.33</v>
       </c>
       <c r="AP69">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AQ69">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR69">
         <v>1.74</v>
@@ -15590,7 +15602,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q70">
         <v>1.85</v>
@@ -15668,10 +15680,10 @@
         <v>0</v>
       </c>
       <c r="AP70">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ70">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR70">
         <v>1.92</v>
@@ -16002,7 +16014,7 @@
         <v>143</v>
       </c>
       <c r="P72" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q72">
         <v>2.24</v>
@@ -16208,7 +16220,7 @@
         <v>103</v>
       </c>
       <c r="P73" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q73">
         <v>3.66</v>
@@ -16286,7 +16298,7 @@
         <v>1.75</v>
       </c>
       <c r="AP73">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AQ73">
         <v>1.18</v>
@@ -16414,7 +16426,7 @@
         <v>144</v>
       </c>
       <c r="P74" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q74">
         <v>2.4</v>
@@ -16492,7 +16504,7 @@
         <v>2</v>
       </c>
       <c r="AP74">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ74">
         <v>1.82</v>
@@ -16620,7 +16632,7 @@
         <v>145</v>
       </c>
       <c r="P75" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q75">
         <v>2.38</v>
@@ -16698,7 +16710,7 @@
         <v>0.6</v>
       </c>
       <c r="AP75">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AQ75">
         <v>1.08</v>
@@ -16826,7 +16838,7 @@
         <v>125</v>
       </c>
       <c r="P76" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -16907,7 +16919,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ76">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR76">
         <v>1.63</v>
@@ -17238,7 +17250,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q78">
         <v>2.75</v>
@@ -17444,7 +17456,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17525,7 +17537,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ79">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR79">
         <v>2.01</v>
@@ -17650,7 +17662,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q80">
         <v>2.2</v>
@@ -17731,7 +17743,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ80">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR80">
         <v>1.6</v>
@@ -17856,7 +17868,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q81">
         <v>2.31</v>
@@ -17937,7 +17949,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ81">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR81">
         <v>2.48</v>
@@ -18140,7 +18152,7 @@
         <v>0.25</v>
       </c>
       <c r="AP82">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ82">
         <v>0.45</v>
@@ -18268,7 +18280,7 @@
         <v>151</v>
       </c>
       <c r="P83" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q83">
         <v>2.7</v>
@@ -18555,7 +18567,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ84">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR84">
         <v>1.53</v>
@@ -18680,7 +18692,7 @@
         <v>153</v>
       </c>
       <c r="P85" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q85">
         <v>3.5</v>
@@ -18758,10 +18770,10 @@
         <v>2</v>
       </c>
       <c r="AP85">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ85">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AR85">
         <v>1.61</v>
@@ -18886,7 +18898,7 @@
         <v>154</v>
       </c>
       <c r="P86" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q86">
         <v>2.55</v>
@@ -18964,7 +18976,7 @@
         <v>0.75</v>
       </c>
       <c r="AP86">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ86">
         <v>1.45</v>
@@ -19092,7 +19104,7 @@
         <v>155</v>
       </c>
       <c r="P87" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q87">
         <v>2.27</v>
@@ -19170,10 +19182,10 @@
         <v>0.2</v>
       </c>
       <c r="AP87">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ87">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AR87">
         <v>1.38</v>
@@ -19504,7 +19516,7 @@
         <v>156</v>
       </c>
       <c r="P89" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q89">
         <v>2.8</v>
@@ -19710,7 +19722,7 @@
         <v>157</v>
       </c>
       <c r="P90" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q90">
         <v>2.6</v>
@@ -19916,7 +19928,7 @@
         <v>158</v>
       </c>
       <c r="P91" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -20122,7 +20134,7 @@
         <v>159</v>
       </c>
       <c r="P92" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q92">
         <v>3.6</v>
@@ -20406,7 +20418,7 @@
         <v>0.2</v>
       </c>
       <c r="AP93">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AQ93">
         <v>0.73</v>
@@ -20534,7 +20546,7 @@
         <v>161</v>
       </c>
       <c r="P94" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q94">
         <v>2.1</v>
@@ -20615,7 +20627,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ94">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR94">
         <v>2</v>
@@ -20740,7 +20752,7 @@
         <v>162</v>
       </c>
       <c r="P95" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q95">
         <v>2.17</v>
@@ -20818,10 +20830,10 @@
         <v>0.25</v>
       </c>
       <c r="AP95">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ95">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR95">
         <v>1.88</v>
@@ -21230,10 +21242,10 @@
         <v>1.5</v>
       </c>
       <c r="AP97">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ97">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR97">
         <v>1.52</v>
@@ -21439,7 +21451,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ98">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AR98">
         <v>2.17</v>
@@ -21564,7 +21576,7 @@
         <v>165</v>
       </c>
       <c r="P99" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q99">
         <v>3.35</v>
@@ -21848,10 +21860,10 @@
         <v>0.8</v>
       </c>
       <c r="AP100">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ100">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR100">
         <v>1.53</v>
@@ -21976,7 +21988,7 @@
         <v>167</v>
       </c>
       <c r="P101" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q101">
         <v>2.96</v>
@@ -22054,10 +22066,10 @@
         <v>0.2</v>
       </c>
       <c r="AP101">
+        <v>0.92</v>
+      </c>
+      <c r="AQ101">
         <v>0.73</v>
-      </c>
-      <c r="AQ101">
-        <v>0.8</v>
       </c>
       <c r="AR101">
         <v>1.53</v>
@@ -22182,7 +22194,7 @@
         <v>168</v>
       </c>
       <c r="P102" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q102">
         <v>2.44</v>
@@ -22263,7 +22275,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ102">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR102">
         <v>1.74</v>
@@ -22388,7 +22400,7 @@
         <v>103</v>
       </c>
       <c r="P103" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q103">
         <v>1.81</v>
@@ -22466,7 +22478,7 @@
         <v>0.17</v>
       </c>
       <c r="AP103">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ103">
         <v>0.73</v>
@@ -22800,7 +22812,7 @@
         <v>170</v>
       </c>
       <c r="P105" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q105">
         <v>2.69</v>
@@ -23006,7 +23018,7 @@
         <v>171</v>
       </c>
       <c r="P106" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q106">
         <v>2.56</v>
@@ -23087,7 +23099,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ106">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AR106">
         <v>1.19</v>
@@ -23290,7 +23302,7 @@
         <v>1</v>
       </c>
       <c r="AP107">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ107">
         <v>1</v>
@@ -23624,7 +23636,7 @@
         <v>174</v>
       </c>
       <c r="P109" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q109">
         <v>3.5</v>
@@ -23702,10 +23714,10 @@
         <v>1.17</v>
       </c>
       <c r="AP109">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ109">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR109">
         <v>1.59</v>
@@ -23830,7 +23842,7 @@
         <v>175</v>
       </c>
       <c r="P110" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q110">
         <v>2.43</v>
@@ -23908,7 +23920,7 @@
         <v>1.33</v>
       </c>
       <c r="AP110">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AQ110">
         <v>1.36</v>
@@ -24036,7 +24048,7 @@
         <v>103</v>
       </c>
       <c r="P111" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q111">
         <v>3.02</v>
@@ -24320,10 +24332,10 @@
         <v>1.29</v>
       </c>
       <c r="AP112">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ112">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR112">
         <v>1.58</v>
@@ -24448,7 +24460,7 @@
         <v>103</v>
       </c>
       <c r="P113" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q113">
         <v>2.85</v>
@@ -25066,7 +25078,7 @@
         <v>177</v>
       </c>
       <c r="P116" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q116">
         <v>4.5</v>
@@ -25147,7 +25159,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ116">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AR116">
         <v>1.83</v>
@@ -25478,7 +25490,7 @@
         <v>103</v>
       </c>
       <c r="P118" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q118">
         <v>3.2</v>
@@ -25762,7 +25774,7 @@
         <v>0.17</v>
       </c>
       <c r="AP119">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AQ119">
         <v>0.45</v>
@@ -25968,10 +25980,10 @@
         <v>1.29</v>
       </c>
       <c r="AP120">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ120">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR120">
         <v>1.55</v>
@@ -26096,7 +26108,7 @@
         <v>180</v>
       </c>
       <c r="P121" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q121">
         <v>2.38</v>
@@ -26174,7 +26186,7 @@
         <v>1.13</v>
       </c>
       <c r="AP121">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ121">
         <v>1</v>
@@ -26383,7 +26395,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ122">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AR122">
         <v>1.59</v>
@@ -26508,7 +26520,7 @@
         <v>170</v>
       </c>
       <c r="P123" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q123">
         <v>2.51</v>
@@ -26586,10 +26598,10 @@
         <v>1.43</v>
       </c>
       <c r="AP123">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ123">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR123">
         <v>1.8</v>
@@ -26714,7 +26726,7 @@
         <v>182</v>
       </c>
       <c r="P124" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q124">
         <v>2.46</v>
@@ -26920,7 +26932,7 @@
         <v>183</v>
       </c>
       <c r="P125" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q125">
         <v>3.68</v>
@@ -27126,7 +27138,7 @@
         <v>184</v>
       </c>
       <c r="P126" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q126">
         <v>1.95</v>
@@ -27410,7 +27422,7 @@
         <v>0.29</v>
       </c>
       <c r="AP127">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ127">
         <v>0.45</v>
@@ -27538,7 +27550,7 @@
         <v>103</v>
       </c>
       <c r="P128" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q128">
         <v>3.75</v>
@@ -27619,7 +27631,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ128">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AR128">
         <v>1.52</v>
@@ -27825,7 +27837,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ129">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR129">
         <v>1.78</v>
@@ -27950,7 +27962,7 @@
         <v>187</v>
       </c>
       <c r="P130" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -28028,7 +28040,7 @@
         <v>1.38</v>
       </c>
       <c r="AP130">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ130">
         <v>1.18</v>
@@ -28156,7 +28168,7 @@
         <v>103</v>
       </c>
       <c r="P131" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q131">
         <v>2.88</v>
@@ -28234,7 +28246,7 @@
         <v>0.5</v>
       </c>
       <c r="AP131">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AQ131">
         <v>0.73</v>
@@ -28362,7 +28374,7 @@
         <v>103</v>
       </c>
       <c r="P132" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q132">
         <v>3.04</v>
@@ -28443,7 +28455,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ132">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR132">
         <v>1.24</v>
@@ -28568,7 +28580,7 @@
         <v>103</v>
       </c>
       <c r="P133" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q133">
         <v>2.69</v>
@@ -28649,7 +28661,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ133">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR133">
         <v>2.1</v>
@@ -28774,7 +28786,7 @@
         <v>103</v>
       </c>
       <c r="P134" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q134">
         <v>3.2</v>
@@ -28852,7 +28864,7 @@
         <v>0.86</v>
       </c>
       <c r="AP134">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ134">
         <v>1.45</v>
@@ -29267,7 +29279,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ136">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR136">
         <v>1.31</v>
@@ -29676,7 +29688,7 @@
         <v>0.78</v>
       </c>
       <c r="AP138">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ138">
         <v>1.08</v>
@@ -29804,7 +29816,7 @@
         <v>191</v>
       </c>
       <c r="P139" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q139">
         <v>3.6</v>
@@ -29882,7 +29894,7 @@
         <v>1.13</v>
       </c>
       <c r="AP139">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ139">
         <v>1.45</v>
@@ -30010,7 +30022,7 @@
         <v>192</v>
       </c>
       <c r="P140" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q140">
         <v>2.61</v>
@@ -30297,7 +30309,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ141">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR141">
         <v>2</v>
@@ -30422,7 +30434,7 @@
         <v>194</v>
       </c>
       <c r="P142" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q142">
         <v>2.75</v>
@@ -30500,7 +30512,7 @@
         <v>1.38</v>
       </c>
       <c r="AP142">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ142">
         <v>1.36</v>
@@ -30628,7 +30640,7 @@
         <v>195</v>
       </c>
       <c r="P143" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q143">
         <v>2.2</v>
@@ -30709,7 +30721,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ143">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AR143">
         <v>2.1</v>
@@ -30834,7 +30846,7 @@
         <v>91</v>
       </c>
       <c r="P144" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q144">
         <v>2.02</v>
@@ -30912,10 +30924,10 @@
         <v>0.57</v>
       </c>
       <c r="AP144">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ144">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR144">
         <v>1.65</v>
@@ -31040,7 +31052,7 @@
         <v>103</v>
       </c>
       <c r="P145" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q145">
         <v>3.44</v>
@@ -31118,10 +31130,10 @@
         <v>1</v>
       </c>
       <c r="AP145">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AQ145">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR145">
         <v>1.67</v>
@@ -31246,7 +31258,7 @@
         <v>196</v>
       </c>
       <c r="P146" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q146">
         <v>3.75</v>
@@ -31324,10 +31336,10 @@
         <v>2.22</v>
       </c>
       <c r="AP146">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ146">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AR146">
         <v>1.75</v>
@@ -31736,10 +31748,10 @@
         <v>0.63</v>
       </c>
       <c r="AP148">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ148">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR148">
         <v>1.5</v>
@@ -31864,7 +31876,7 @@
         <v>198</v>
       </c>
       <c r="P149" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q149">
         <v>1.8</v>
@@ -31945,7 +31957,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ149">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AR149">
         <v>1.87</v>
@@ -32151,7 +32163,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ150">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR150">
         <v>1.48</v>
@@ -32276,7 +32288,7 @@
         <v>200</v>
       </c>
       <c r="P151" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q151">
         <v>2.48</v>
@@ -32354,7 +32366,7 @@
         <v>1.33</v>
       </c>
       <c r="AP151">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AQ151">
         <v>1.18</v>
@@ -32482,7 +32494,7 @@
         <v>201</v>
       </c>
       <c r="P152" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q152">
         <v>3.4</v>
@@ -32560,7 +32572,7 @@
         <v>1.11</v>
       </c>
       <c r="AP152">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AQ152">
         <v>1.18</v>
@@ -32766,10 +32778,10 @@
         <v>1.25</v>
       </c>
       <c r="AP153">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ153">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR153">
         <v>1.6</v>
@@ -32894,7 +32906,7 @@
         <v>203</v>
       </c>
       <c r="P154" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q154">
         <v>1.91</v>
@@ -33100,7 +33112,7 @@
         <v>103</v>
       </c>
       <c r="P155" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q155">
         <v>2.5</v>
@@ -33306,7 +33318,7 @@
         <v>204</v>
       </c>
       <c r="P156" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q156">
         <v>2.7</v>
@@ -33387,7 +33399,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ156">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR156">
         <v>2.11</v>
@@ -33512,7 +33524,7 @@
         <v>205</v>
       </c>
       <c r="P157" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q157">
         <v>2.32</v>
@@ -33593,7 +33605,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ157">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR157">
         <v>1.74</v>
@@ -33924,7 +33936,7 @@
         <v>163</v>
       </c>
       <c r="P159" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q159">
         <v>3.06</v>
@@ -34130,7 +34142,7 @@
         <v>207</v>
       </c>
       <c r="P160" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q160">
         <v>2</v>
@@ -34208,7 +34220,7 @@
         <v>0.78</v>
       </c>
       <c r="AP160">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ160">
         <v>0.73</v>
@@ -34414,7 +34426,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP161">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ161">
         <v>0.45</v>
@@ -34542,7 +34554,7 @@
         <v>103</v>
       </c>
       <c r="P162" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q162">
         <v>6.3</v>
@@ -34620,10 +34632,10 @@
         <v>2.3</v>
       </c>
       <c r="AP162">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AQ162">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AR162">
         <v>1.61</v>
@@ -34829,7 +34841,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ163">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR163">
         <v>1.47</v>
@@ -35032,7 +35044,7 @@
         <v>1.3</v>
       </c>
       <c r="AP164">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AQ164">
         <v>1.18</v>
@@ -35241,7 +35253,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ165">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR165">
         <v>1.89</v>
@@ -35366,7 +35378,7 @@
         <v>210</v>
       </c>
       <c r="P166" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q166">
         <v>3.4</v>
@@ -35444,7 +35456,7 @@
         <v>1.3</v>
       </c>
       <c r="AP166">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ166">
         <v>1.18</v>
@@ -35572,7 +35584,7 @@
         <v>211</v>
       </c>
       <c r="P167" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q167">
         <v>2.63</v>
@@ -35650,7 +35662,7 @@
         <v>2</v>
       </c>
       <c r="AP167">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ167">
         <v>1.82</v>
@@ -35778,7 +35790,7 @@
         <v>212</v>
       </c>
       <c r="P168" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q168">
         <v>2.05</v>
@@ -35856,10 +35868,10 @@
         <v>0.3</v>
       </c>
       <c r="AP168">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ168">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AR168">
         <v>1.39</v>
@@ -35984,7 +35996,7 @@
         <v>213</v>
       </c>
       <c r="P169" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q169">
         <v>3.92</v>
@@ -36065,7 +36077,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ169">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR169">
         <v>1.27</v>
@@ -36396,7 +36408,7 @@
         <v>103</v>
       </c>
       <c r="P171" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q171">
         <v>2.63</v>
@@ -36808,7 +36820,7 @@
         <v>121</v>
       </c>
       <c r="P173" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q173">
         <v>2.1</v>
@@ -36886,10 +36898,10 @@
         <v>1.3</v>
       </c>
       <c r="AP173">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ173">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR173">
         <v>1.93</v>
@@ -37298,10 +37310,10 @@
         <v>1.3</v>
       </c>
       <c r="AP175">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ175">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR175">
         <v>1.89</v>
@@ -37789,6 +37801,1448 @@
       </c>
       <c r="BP177">
         <v>1.62</v>
+      </c>
+    </row>
+    <row r="178" spans="1:68">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>7296443</v>
+      </c>
+      <c r="C178" t="s">
+        <v>68</v>
+      </c>
+      <c r="D178" t="s">
+        <v>69</v>
+      </c>
+      <c r="E178" s="2">
+        <v>45556.41666666666</v>
+      </c>
+      <c r="F178">
+        <v>23</v>
+      </c>
+      <c r="G178" t="s">
+        <v>71</v>
+      </c>
+      <c r="H178" t="s">
+        <v>73</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>4</v>
+      </c>
+      <c r="K178">
+        <v>4</v>
+      </c>
+      <c r="L178">
+        <v>1</v>
+      </c>
+      <c r="M178">
+        <v>5</v>
+      </c>
+      <c r="N178">
+        <v>6</v>
+      </c>
+      <c r="O178" t="s">
+        <v>207</v>
+      </c>
+      <c r="P178" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q178">
+        <v>2.3</v>
+      </c>
+      <c r="R178">
+        <v>2.48</v>
+      </c>
+      <c r="S178">
+        <v>3.9</v>
+      </c>
+      <c r="T178">
+        <v>1.23</v>
+      </c>
+      <c r="U178">
+        <v>3.75</v>
+      </c>
+      <c r="V178">
+        <v>2.3</v>
+      </c>
+      <c r="W178">
+        <v>1.55</v>
+      </c>
+      <c r="X178">
+        <v>4.95</v>
+      </c>
+      <c r="Y178">
+        <v>1.14</v>
+      </c>
+      <c r="Z178">
+        <v>1.85</v>
+      </c>
+      <c r="AA178">
+        <v>3.8</v>
+      </c>
+      <c r="AB178">
+        <v>3.5</v>
+      </c>
+      <c r="AC178">
+        <v>1.02</v>
+      </c>
+      <c r="AD178">
+        <v>17</v>
+      </c>
+      <c r="AE178">
+        <v>1.16</v>
+      </c>
+      <c r="AF178">
+        <v>5.1</v>
+      </c>
+      <c r="AG178">
+        <v>1.55</v>
+      </c>
+      <c r="AH178">
+        <v>2.3</v>
+      </c>
+      <c r="AI178">
+        <v>1.53</v>
+      </c>
+      <c r="AJ178">
+        <v>2.45</v>
+      </c>
+      <c r="AK178">
+        <v>1.23</v>
+      </c>
+      <c r="AL178">
+        <v>1.21</v>
+      </c>
+      <c r="AM178">
+        <v>1.95</v>
+      </c>
+      <c r="AN178">
+        <v>1.82</v>
+      </c>
+      <c r="AO178">
+        <v>1.1</v>
+      </c>
+      <c r="AP178">
+        <v>1.67</v>
+      </c>
+      <c r="AQ178">
+        <v>1.27</v>
+      </c>
+      <c r="AR178">
+        <v>1.85</v>
+      </c>
+      <c r="AS178">
+        <v>1.5</v>
+      </c>
+      <c r="AT178">
+        <v>3.35</v>
+      </c>
+      <c r="AU178">
+        <v>10</v>
+      </c>
+      <c r="AV178">
+        <v>10</v>
+      </c>
+      <c r="AW178">
+        <v>6</v>
+      </c>
+      <c r="AX178">
+        <v>4</v>
+      </c>
+      <c r="AY178">
+        <v>16</v>
+      </c>
+      <c r="AZ178">
+        <v>14</v>
+      </c>
+      <c r="BA178">
+        <v>5</v>
+      </c>
+      <c r="BB178">
+        <v>2</v>
+      </c>
+      <c r="BC178">
+        <v>7</v>
+      </c>
+      <c r="BD178">
+        <v>1.75</v>
+      </c>
+      <c r="BE178">
+        <v>8.5</v>
+      </c>
+      <c r="BF178">
+        <v>2.41</v>
+      </c>
+      <c r="BG178">
+        <v>0</v>
+      </c>
+      <c r="BH178">
+        <v>0</v>
+      </c>
+      <c r="BI178">
+        <v>1.22</v>
+      </c>
+      <c r="BJ178">
+        <v>4</v>
+      </c>
+      <c r="BK178">
+        <v>1.34</v>
+      </c>
+      <c r="BL178">
+        <v>2.69</v>
+      </c>
+      <c r="BM178">
+        <v>1.68</v>
+      </c>
+      <c r="BN178">
+        <v>2.16</v>
+      </c>
+      <c r="BO178">
+        <v>2.06</v>
+      </c>
+      <c r="BP178">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="179" spans="1:68">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>7296442</v>
+      </c>
+      <c r="C179" t="s">
+        <v>68</v>
+      </c>
+      <c r="D179" t="s">
+        <v>69</v>
+      </c>
+      <c r="E179" s="2">
+        <v>45556.45833333334</v>
+      </c>
+      <c r="F179">
+        <v>23</v>
+      </c>
+      <c r="G179" t="s">
+        <v>70</v>
+      </c>
+      <c r="H179" t="s">
+        <v>72</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>0</v>
+      </c>
+      <c r="L179">
+        <v>1</v>
+      </c>
+      <c r="M179">
+        <v>1</v>
+      </c>
+      <c r="N179">
+        <v>2</v>
+      </c>
+      <c r="O179" t="s">
+        <v>149</v>
+      </c>
+      <c r="P179" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q179">
+        <v>3.86</v>
+      </c>
+      <c r="R179">
+        <v>2.25</v>
+      </c>
+      <c r="S179">
+        <v>2.48</v>
+      </c>
+      <c r="T179">
+        <v>1.32</v>
+      </c>
+      <c r="U179">
+        <v>3.1</v>
+      </c>
+      <c r="V179">
+        <v>2.55</v>
+      </c>
+      <c r="W179">
+        <v>1.46</v>
+      </c>
+      <c r="X179">
+        <v>5.95</v>
+      </c>
+      <c r="Y179">
+        <v>1.11</v>
+      </c>
+      <c r="Z179">
+        <v>3.6</v>
+      </c>
+      <c r="AA179">
+        <v>3.55</v>
+      </c>
+      <c r="AB179">
+        <v>1.9</v>
+      </c>
+      <c r="AC179">
+        <v>1.03</v>
+      </c>
+      <c r="AD179">
+        <v>13</v>
+      </c>
+      <c r="AE179">
+        <v>1.16</v>
+      </c>
+      <c r="AF179">
+        <v>3.88</v>
+      </c>
+      <c r="AG179">
+        <v>1.7</v>
+      </c>
+      <c r="AH179">
+        <v>2.05</v>
+      </c>
+      <c r="AI179">
+        <v>1.65</v>
+      </c>
+      <c r="AJ179">
+        <v>2.2</v>
+      </c>
+      <c r="AK179">
+        <v>1.79</v>
+      </c>
+      <c r="AL179">
+        <v>1.22</v>
+      </c>
+      <c r="AM179">
+        <v>1.29</v>
+      </c>
+      <c r="AN179">
+        <v>2.36</v>
+      </c>
+      <c r="AO179">
+        <v>2.36</v>
+      </c>
+      <c r="AP179">
+        <v>2.25</v>
+      </c>
+      <c r="AQ179">
+        <v>2.25</v>
+      </c>
+      <c r="AR179">
+        <v>1.76</v>
+      </c>
+      <c r="AS179">
+        <v>1.91</v>
+      </c>
+      <c r="AT179">
+        <v>3.67</v>
+      </c>
+      <c r="AU179">
+        <v>9</v>
+      </c>
+      <c r="AV179">
+        <v>4</v>
+      </c>
+      <c r="AW179">
+        <v>4</v>
+      </c>
+      <c r="AX179">
+        <v>10</v>
+      </c>
+      <c r="AY179">
+        <v>13</v>
+      </c>
+      <c r="AZ179">
+        <v>14</v>
+      </c>
+      <c r="BA179">
+        <v>6</v>
+      </c>
+      <c r="BB179">
+        <v>7</v>
+      </c>
+      <c r="BC179">
+        <v>13</v>
+      </c>
+      <c r="BD179">
+        <v>2.66</v>
+      </c>
+      <c r="BE179">
+        <v>8.5</v>
+      </c>
+      <c r="BF179">
+        <v>1.64</v>
+      </c>
+      <c r="BG179">
+        <v>0</v>
+      </c>
+      <c r="BH179">
+        <v>0</v>
+      </c>
+      <c r="BI179">
+        <v>0</v>
+      </c>
+      <c r="BJ179">
+        <v>0</v>
+      </c>
+      <c r="BK179">
+        <v>0</v>
+      </c>
+      <c r="BL179">
+        <v>0</v>
+      </c>
+      <c r="BM179">
+        <v>1.92</v>
+      </c>
+      <c r="BN179">
+        <v>1.88</v>
+      </c>
+      <c r="BO179">
+        <v>2.09</v>
+      </c>
+      <c r="BP179">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="180" spans="1:68">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>7296444</v>
+      </c>
+      <c r="C180" t="s">
+        <v>68</v>
+      </c>
+      <c r="D180" t="s">
+        <v>69</v>
+      </c>
+      <c r="E180" s="2">
+        <v>45556.45833333334</v>
+      </c>
+      <c r="F180">
+        <v>23</v>
+      </c>
+      <c r="G180" t="s">
+        <v>82</v>
+      </c>
+      <c r="H180" t="s">
+        <v>79</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>0</v>
+      </c>
+      <c r="L180">
+        <v>0</v>
+      </c>
+      <c r="M180">
+        <v>1</v>
+      </c>
+      <c r="N180">
+        <v>1</v>
+      </c>
+      <c r="O180" t="s">
+        <v>103</v>
+      </c>
+      <c r="P180" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q180">
+        <v>2.4</v>
+      </c>
+      <c r="R180">
+        <v>2.27</v>
+      </c>
+      <c r="S180">
+        <v>4.16</v>
+      </c>
+      <c r="T180">
+        <v>1.29</v>
+      </c>
+      <c r="U180">
+        <v>3.35</v>
+      </c>
+      <c r="V180">
+        <v>2.43</v>
+      </c>
+      <c r="W180">
+        <v>1.52</v>
+      </c>
+      <c r="X180">
+        <v>5.95</v>
+      </c>
+      <c r="Y180">
+        <v>1.12</v>
+      </c>
+      <c r="Z180">
+        <v>1.95</v>
+      </c>
+      <c r="AA180">
+        <v>3.55</v>
+      </c>
+      <c r="AB180">
+        <v>3.3</v>
+      </c>
+      <c r="AC180">
+        <v>1.01</v>
+      </c>
+      <c r="AD180">
+        <v>15.5</v>
+      </c>
+      <c r="AE180">
+        <v>1.16</v>
+      </c>
+      <c r="AF180">
+        <v>3.96</v>
+      </c>
+      <c r="AG180">
+        <v>1.73</v>
+      </c>
+      <c r="AH180">
+        <v>2</v>
+      </c>
+      <c r="AI180">
+        <v>1.58</v>
+      </c>
+      <c r="AJ180">
+        <v>2.31</v>
+      </c>
+      <c r="AK180">
+        <v>1.26</v>
+      </c>
+      <c r="AL180">
+        <v>1.26</v>
+      </c>
+      <c r="AM180">
+        <v>1.87</v>
+      </c>
+      <c r="AN180">
+        <v>1.3</v>
+      </c>
+      <c r="AO180">
+        <v>1.45</v>
+      </c>
+      <c r="AP180">
+        <v>1.18</v>
+      </c>
+      <c r="AQ180">
+        <v>1.58</v>
+      </c>
+      <c r="AR180">
+        <v>1.74</v>
+      </c>
+      <c r="AS180">
+        <v>1.23</v>
+      </c>
+      <c r="AT180">
+        <v>2.97</v>
+      </c>
+      <c r="AU180">
+        <v>7</v>
+      </c>
+      <c r="AV180">
+        <v>5</v>
+      </c>
+      <c r="AW180">
+        <v>7</v>
+      </c>
+      <c r="AX180">
+        <v>7</v>
+      </c>
+      <c r="AY180">
+        <v>14</v>
+      </c>
+      <c r="AZ180">
+        <v>12</v>
+      </c>
+      <c r="BA180">
+        <v>6</v>
+      </c>
+      <c r="BB180">
+        <v>4</v>
+      </c>
+      <c r="BC180">
+        <v>10</v>
+      </c>
+      <c r="BD180">
+        <v>1.59</v>
+      </c>
+      <c r="BE180">
+        <v>8.5</v>
+      </c>
+      <c r="BF180">
+        <v>2.78</v>
+      </c>
+      <c r="BG180">
+        <v>0</v>
+      </c>
+      <c r="BH180">
+        <v>0</v>
+      </c>
+      <c r="BI180">
+        <v>1.2</v>
+      </c>
+      <c r="BJ180">
+        <v>3.55</v>
+      </c>
+      <c r="BK180">
+        <v>1.4</v>
+      </c>
+      <c r="BL180">
+        <v>2.56</v>
+      </c>
+      <c r="BM180">
+        <v>1.8</v>
+      </c>
+      <c r="BN180">
+        <v>2</v>
+      </c>
+      <c r="BO180">
+        <v>2.1</v>
+      </c>
+      <c r="BP180">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="181" spans="1:68">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>7296445</v>
+      </c>
+      <c r="C181" t="s">
+        <v>68</v>
+      </c>
+      <c r="D181" t="s">
+        <v>69</v>
+      </c>
+      <c r="E181" s="2">
+        <v>45556.45833333334</v>
+      </c>
+      <c r="F181">
+        <v>23</v>
+      </c>
+      <c r="G181" t="s">
+        <v>74</v>
+      </c>
+      <c r="H181" t="s">
+        <v>75</v>
+      </c>
+      <c r="I181">
+        <v>2</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>2</v>
+      </c>
+      <c r="L181">
+        <v>5</v>
+      </c>
+      <c r="M181">
+        <v>0</v>
+      </c>
+      <c r="N181">
+        <v>5</v>
+      </c>
+      <c r="O181" t="s">
+        <v>217</v>
+      </c>
+      <c r="P181" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q181">
+        <v>2.7</v>
+      </c>
+      <c r="R181">
+        <v>2.25</v>
+      </c>
+      <c r="S181">
+        <v>3.4</v>
+      </c>
+      <c r="T181">
+        <v>1.28</v>
+      </c>
+      <c r="U181">
+        <v>3.4</v>
+      </c>
+      <c r="V181">
+        <v>2.4</v>
+      </c>
+      <c r="W181">
+        <v>1.53</v>
+      </c>
+      <c r="X181">
+        <v>5.65</v>
+      </c>
+      <c r="Y181">
+        <v>1.12</v>
+      </c>
+      <c r="Z181">
+        <v>2.15</v>
+      </c>
+      <c r="AA181">
+        <v>3.45</v>
+      </c>
+      <c r="AB181">
+        <v>2.85</v>
+      </c>
+      <c r="AC181">
+        <v>1.01</v>
+      </c>
+      <c r="AD181">
+        <v>11</v>
+      </c>
+      <c r="AE181">
+        <v>1.15</v>
+      </c>
+      <c r="AF181">
+        <v>4.1</v>
+      </c>
+      <c r="AG181">
+        <v>1.65</v>
+      </c>
+      <c r="AH181">
+        <v>2.1</v>
+      </c>
+      <c r="AI181">
+        <v>1.53</v>
+      </c>
+      <c r="AJ181">
+        <v>2.34</v>
+      </c>
+      <c r="AK181">
+        <v>1.37</v>
+      </c>
+      <c r="AL181">
+        <v>1.26</v>
+      </c>
+      <c r="AM181">
+        <v>1.64</v>
+      </c>
+      <c r="AN181">
+        <v>1.45</v>
+      </c>
+      <c r="AO181">
+        <v>0.8</v>
+      </c>
+      <c r="AP181">
+        <v>1.58</v>
+      </c>
+      <c r="AQ181">
+        <v>0.73</v>
+      </c>
+      <c r="AR181">
+        <v>1.5</v>
+      </c>
+      <c r="AS181">
+        <v>1.39</v>
+      </c>
+      <c r="AT181">
+        <v>2.89</v>
+      </c>
+      <c r="AU181">
+        <v>6</v>
+      </c>
+      <c r="AV181">
+        <v>4</v>
+      </c>
+      <c r="AW181">
+        <v>8</v>
+      </c>
+      <c r="AX181">
+        <v>5</v>
+      </c>
+      <c r="AY181">
+        <v>14</v>
+      </c>
+      <c r="AZ181">
+        <v>9</v>
+      </c>
+      <c r="BA181">
+        <v>5</v>
+      </c>
+      <c r="BB181">
+        <v>5</v>
+      </c>
+      <c r="BC181">
+        <v>10</v>
+      </c>
+      <c r="BD181">
+        <v>1.91</v>
+      </c>
+      <c r="BE181">
+        <v>8.5</v>
+      </c>
+      <c r="BF181">
+        <v>2.1</v>
+      </c>
+      <c r="BG181">
+        <v>0</v>
+      </c>
+      <c r="BH181">
+        <v>0</v>
+      </c>
+      <c r="BI181">
+        <v>1.24</v>
+      </c>
+      <c r="BJ181">
+        <v>3.8</v>
+      </c>
+      <c r="BK181">
+        <v>1.43</v>
+      </c>
+      <c r="BL181">
+        <v>2.7</v>
+      </c>
+      <c r="BM181">
+        <v>1.7</v>
+      </c>
+      <c r="BN181">
+        <v>2.12</v>
+      </c>
+      <c r="BO181">
+        <v>2.1</v>
+      </c>
+      <c r="BP181">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="182" spans="1:68">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>7296446</v>
+      </c>
+      <c r="C182" t="s">
+        <v>68</v>
+      </c>
+      <c r="D182" t="s">
+        <v>69</v>
+      </c>
+      <c r="E182" s="2">
+        <v>45556.45833333334</v>
+      </c>
+      <c r="F182">
+        <v>23</v>
+      </c>
+      <c r="G182" t="s">
+        <v>80</v>
+      </c>
+      <c r="H182" t="s">
+        <v>77</v>
+      </c>
+      <c r="I182">
+        <v>1</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <v>1</v>
+      </c>
+      <c r="L182">
+        <v>1</v>
+      </c>
+      <c r="M182">
+        <v>0</v>
+      </c>
+      <c r="N182">
+        <v>1</v>
+      </c>
+      <c r="O182" t="s">
+        <v>179</v>
+      </c>
+      <c r="P182" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q182">
+        <v>2.63</v>
+      </c>
+      <c r="R182">
+        <v>2.25</v>
+      </c>
+      <c r="S182">
+        <v>3.6</v>
+      </c>
+      <c r="T182">
+        <v>1.32</v>
+      </c>
+      <c r="U182">
+        <v>3.2</v>
+      </c>
+      <c r="V182">
+        <v>2.46</v>
+      </c>
+      <c r="W182">
+        <v>1.5</v>
+      </c>
+      <c r="X182">
+        <v>5.85</v>
+      </c>
+      <c r="Y182">
+        <v>1.12</v>
+      </c>
+      <c r="Z182">
+        <v>2.1</v>
+      </c>
+      <c r="AA182">
+        <v>3.45</v>
+      </c>
+      <c r="AB182">
+        <v>2.95</v>
+      </c>
+      <c r="AC182">
+        <v>1.01</v>
+      </c>
+      <c r="AD182">
+        <v>11</v>
+      </c>
+      <c r="AE182">
+        <v>1.14</v>
+      </c>
+      <c r="AF182">
+        <v>4.8</v>
+      </c>
+      <c r="AG182">
+        <v>1.67</v>
+      </c>
+      <c r="AH182">
+        <v>2.1</v>
+      </c>
+      <c r="AI182">
+        <v>1.5</v>
+      </c>
+      <c r="AJ182">
+        <v>2.5</v>
+      </c>
+      <c r="AK182">
+        <v>1.4</v>
+      </c>
+      <c r="AL182">
+        <v>1.28</v>
+      </c>
+      <c r="AM182">
+        <v>1.68</v>
+      </c>
+      <c r="AN182">
+        <v>1.4</v>
+      </c>
+      <c r="AO182">
+        <v>1.27</v>
+      </c>
+      <c r="AP182">
+        <v>1.55</v>
+      </c>
+      <c r="AQ182">
+        <v>1.17</v>
+      </c>
+      <c r="AR182">
+        <v>1.48</v>
+      </c>
+      <c r="AS182">
+        <v>1.54</v>
+      </c>
+      <c r="AT182">
+        <v>3.02</v>
+      </c>
+      <c r="AU182">
+        <v>7</v>
+      </c>
+      <c r="AV182">
+        <v>9</v>
+      </c>
+      <c r="AW182">
+        <v>4</v>
+      </c>
+      <c r="AX182">
+        <v>9</v>
+      </c>
+      <c r="AY182">
+        <v>11</v>
+      </c>
+      <c r="AZ182">
+        <v>18</v>
+      </c>
+      <c r="BA182">
+        <v>6</v>
+      </c>
+      <c r="BB182">
+        <v>13</v>
+      </c>
+      <c r="BC182">
+        <v>19</v>
+      </c>
+      <c r="BD182">
+        <v>1.82</v>
+      </c>
+      <c r="BE182">
+        <v>8.5</v>
+      </c>
+      <c r="BF182">
+        <v>2.32</v>
+      </c>
+      <c r="BG182">
+        <v>0</v>
+      </c>
+      <c r="BH182">
+        <v>0</v>
+      </c>
+      <c r="BI182">
+        <v>0</v>
+      </c>
+      <c r="BJ182">
+        <v>0</v>
+      </c>
+      <c r="BK182">
+        <v>1.53</v>
+      </c>
+      <c r="BL182">
+        <v>2.47</v>
+      </c>
+      <c r="BM182">
+        <v>1.92</v>
+      </c>
+      <c r="BN182">
+        <v>1.88</v>
+      </c>
+      <c r="BO182">
+        <v>2.2</v>
+      </c>
+      <c r="BP182">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="183" spans="1:68">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>7296447</v>
+      </c>
+      <c r="C183" t="s">
+        <v>68</v>
+      </c>
+      <c r="D183" t="s">
+        <v>69</v>
+      </c>
+      <c r="E183" s="2">
+        <v>45556.45833333334</v>
+      </c>
+      <c r="F183">
+        <v>23</v>
+      </c>
+      <c r="G183" t="s">
+        <v>76</v>
+      </c>
+      <c r="H183" t="s">
+        <v>83</v>
+      </c>
+      <c r="I183">
+        <v>1</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>1</v>
+      </c>
+      <c r="L183">
+        <v>1</v>
+      </c>
+      <c r="M183">
+        <v>0</v>
+      </c>
+      <c r="N183">
+        <v>1</v>
+      </c>
+      <c r="O183" t="s">
+        <v>106</v>
+      </c>
+      <c r="P183" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q183">
+        <v>3.75</v>
+      </c>
+      <c r="R183">
+        <v>2.3</v>
+      </c>
+      <c r="S183">
+        <v>2.4</v>
+      </c>
+      <c r="T183">
+        <v>1.29</v>
+      </c>
+      <c r="U183">
+        <v>3.5</v>
+      </c>
+      <c r="V183">
+        <v>2.25</v>
+      </c>
+      <c r="W183">
+        <v>1.57</v>
+      </c>
+      <c r="X183">
+        <v>5.5</v>
+      </c>
+      <c r="Y183">
+        <v>1.14</v>
+      </c>
+      <c r="Z183">
+        <v>3.45</v>
+      </c>
+      <c r="AA183">
+        <v>3.65</v>
+      </c>
+      <c r="AB183">
+        <v>1.9</v>
+      </c>
+      <c r="AC183">
+        <v>1.01</v>
+      </c>
+      <c r="AD183">
+        <v>13</v>
+      </c>
+      <c r="AE183">
+        <v>1.14</v>
+      </c>
+      <c r="AF183">
+        <v>5.2</v>
+      </c>
+      <c r="AG183">
+        <v>1.52</v>
+      </c>
+      <c r="AH183">
+        <v>2.36</v>
+      </c>
+      <c r="AI183">
+        <v>1.5</v>
+      </c>
+      <c r="AJ183">
+        <v>2.5</v>
+      </c>
+      <c r="AK183">
+        <v>1.9</v>
+      </c>
+      <c r="AL183">
+        <v>1.2</v>
+      </c>
+      <c r="AM183">
+        <v>1.3</v>
+      </c>
+      <c r="AN183">
+        <v>0.73</v>
+      </c>
+      <c r="AO183">
+        <v>1.09</v>
+      </c>
+      <c r="AP183">
+        <v>0.92</v>
+      </c>
+      <c r="AQ183">
+        <v>1</v>
+      </c>
+      <c r="AR183">
+        <v>1.54</v>
+      </c>
+      <c r="AS183">
+        <v>1.23</v>
+      </c>
+      <c r="AT183">
+        <v>2.77</v>
+      </c>
+      <c r="AU183">
+        <v>2</v>
+      </c>
+      <c r="AV183">
+        <v>4</v>
+      </c>
+      <c r="AW183">
+        <v>6</v>
+      </c>
+      <c r="AX183">
+        <v>11</v>
+      </c>
+      <c r="AY183">
+        <v>8</v>
+      </c>
+      <c r="AZ183">
+        <v>15</v>
+      </c>
+      <c r="BA183">
+        <v>1</v>
+      </c>
+      <c r="BB183">
+        <v>5</v>
+      </c>
+      <c r="BC183">
+        <v>6</v>
+      </c>
+      <c r="BD183">
+        <v>2.66</v>
+      </c>
+      <c r="BE183">
+        <v>8.5</v>
+      </c>
+      <c r="BF183">
+        <v>1.64</v>
+      </c>
+      <c r="BG183">
+        <v>0</v>
+      </c>
+      <c r="BH183">
+        <v>0</v>
+      </c>
+      <c r="BI183">
+        <v>0</v>
+      </c>
+      <c r="BJ183">
+        <v>0</v>
+      </c>
+      <c r="BK183">
+        <v>0</v>
+      </c>
+      <c r="BL183">
+        <v>0</v>
+      </c>
+      <c r="BM183">
+        <v>1.82</v>
+      </c>
+      <c r="BN183">
+        <v>1.98</v>
+      </c>
+      <c r="BO183">
+        <v>2.09</v>
+      </c>
+      <c r="BP183">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="184" spans="1:68">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>7296449</v>
+      </c>
+      <c r="C184" t="s">
+        <v>68</v>
+      </c>
+      <c r="D184" t="s">
+        <v>69</v>
+      </c>
+      <c r="E184" s="2">
+        <v>45556.45833333334</v>
+      </c>
+      <c r="F184">
+        <v>23</v>
+      </c>
+      <c r="G184" t="s">
+        <v>81</v>
+      </c>
+      <c r="H184" t="s">
+        <v>78</v>
+      </c>
+      <c r="I184">
+        <v>1</v>
+      </c>
+      <c r="J184">
+        <v>2</v>
+      </c>
+      <c r="K184">
+        <v>3</v>
+      </c>
+      <c r="L184">
+        <v>2</v>
+      </c>
+      <c r="M184">
+        <v>3</v>
+      </c>
+      <c r="N184">
+        <v>5</v>
+      </c>
+      <c r="O184" t="s">
+        <v>218</v>
+      </c>
+      <c r="P184" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q184">
+        <v>2.1</v>
+      </c>
+      <c r="R184">
+        <v>2.64</v>
+      </c>
+      <c r="S184">
+        <v>4.05</v>
+      </c>
+      <c r="T184">
+        <v>1.18</v>
+      </c>
+      <c r="U184">
+        <v>4.4</v>
+      </c>
+      <c r="V184">
+        <v>1.93</v>
+      </c>
+      <c r="W184">
+        <v>1.84</v>
+      </c>
+      <c r="X184">
+        <v>3.9</v>
+      </c>
+      <c r="Y184">
+        <v>1.23</v>
+      </c>
+      <c r="Z184">
+        <v>1.7</v>
+      </c>
+      <c r="AA184">
+        <v>4.1</v>
+      </c>
+      <c r="AB184">
+        <v>3.9</v>
+      </c>
+      <c r="AC184">
+        <v>0</v>
+      </c>
+      <c r="AD184">
+        <v>14.5</v>
+      </c>
+      <c r="AE184">
+        <v>1.05</v>
+      </c>
+      <c r="AF184">
+        <v>6.15</v>
+      </c>
+      <c r="AG184">
+        <v>1.36</v>
+      </c>
+      <c r="AH184">
+        <v>2.89</v>
+      </c>
+      <c r="AI184">
+        <v>1.33</v>
+      </c>
+      <c r="AJ184">
+        <v>3</v>
+      </c>
+      <c r="AK184">
+        <v>1.19</v>
+      </c>
+      <c r="AL184">
+        <v>1.18</v>
+      </c>
+      <c r="AM184">
+        <v>2.2</v>
+      </c>
+      <c r="AN184">
+        <v>1.82</v>
+      </c>
+      <c r="AO184">
+        <v>0.55</v>
+      </c>
+      <c r="AP184">
+        <v>1.67</v>
+      </c>
+      <c r="AQ184">
+        <v>0.75</v>
+      </c>
+      <c r="AR184">
+        <v>1.9</v>
+      </c>
+      <c r="AS184">
+        <v>1.37</v>
+      </c>
+      <c r="AT184">
+        <v>3.27</v>
+      </c>
+      <c r="AU184">
+        <v>9</v>
+      </c>
+      <c r="AV184">
+        <v>6</v>
+      </c>
+      <c r="AW184">
+        <v>8</v>
+      </c>
+      <c r="AX184">
+        <v>5</v>
+      </c>
+      <c r="AY184">
+        <v>17</v>
+      </c>
+      <c r="AZ184">
+        <v>11</v>
+      </c>
+      <c r="BA184">
+        <v>6</v>
+      </c>
+      <c r="BB184">
+        <v>2</v>
+      </c>
+      <c r="BC184">
+        <v>8</v>
+      </c>
+      <c r="BD184">
+        <v>1.64</v>
+      </c>
+      <c r="BE184">
+        <v>8.5</v>
+      </c>
+      <c r="BF184">
+        <v>2.64</v>
+      </c>
+      <c r="BG184">
+        <v>0</v>
+      </c>
+      <c r="BH184">
+        <v>0</v>
+      </c>
+      <c r="BI184">
+        <v>0</v>
+      </c>
+      <c r="BJ184">
+        <v>0</v>
+      </c>
+      <c r="BK184">
+        <v>0</v>
+      </c>
+      <c r="BL184">
+        <v>0</v>
+      </c>
+      <c r="BM184">
+        <v>1.95</v>
+      </c>
+      <c r="BN184">
+        <v>1.85</v>
+      </c>
+      <c r="BO184">
+        <v>2.21</v>
+      </c>
+      <c r="BP184">
+        <v>1.65</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
@@ -616,10 +616,10 @@
     <t>['14', '53', '64']</t>
   </si>
   <si>
-    <t>['19']</t>
+    <t>['65']</t>
   </si>
   <si>
-    <t>['65']</t>
+    <t>['19']</t>
   </si>
   <si>
     <t>['22', '79']</t>
@@ -631,13 +631,13 @@
     <t>['19', '74', '90+3']</t>
   </si>
   <si>
-    <t>['81']</t>
+    <t>['80']</t>
   </si>
   <si>
     <t>['39', '56']</t>
   </si>
   <si>
-    <t>['80']</t>
+    <t>['81']</t>
   </si>
   <si>
     <t>['79']</t>
@@ -646,25 +646,25 @@
     <t>['9', '39', '62']</t>
   </si>
   <si>
-    <t>['55', '63']</t>
-  </si>
-  <si>
-    <t>['12', '87']</t>
-  </si>
-  <si>
     <t>['57', '90+3']</t>
   </si>
   <si>
     <t>['10', '16', '76', '88']</t>
   </si>
   <si>
+    <t>['12', '87']</t>
+  </si>
+  <si>
+    <t>['55', '63']</t>
+  </si>
+  <si>
+    <t>['10', '31', '41', '62', '90+1']</t>
+  </si>
+  <si>
     <t>['48', '56']</t>
   </si>
   <si>
     <t>['45+2']</t>
-  </si>
-  <si>
-    <t>['10', '31', '41', '62', '90+1']</t>
   </si>
   <si>
     <t>['32', '44', '48', '61', '88']</t>
@@ -946,22 +946,22 @@
     <t>['62', '90']</t>
   </si>
   <si>
-    <t>['72', '77']</t>
+    <t>['39']</t>
   </si>
   <si>
     <t>['57', '90']</t>
   </si>
   <si>
-    <t>['39']</t>
+    <t>['72', '77']</t>
   </si>
   <si>
     <t>['51', '65']</t>
   </si>
   <si>
-    <t>['31']</t>
+    <t>['13', '42', '61']</t>
   </si>
   <si>
-    <t>['13', '42', '61']</t>
+    <t>['31']</t>
   </si>
   <si>
     <t>['3', '62']</t>
@@ -13748,7 +13748,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Q61">
         <v>3.6</v>
@@ -21370,7 +21370,7 @@
         <v>149</v>
       </c>
       <c r="P98" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q98">
         <v>3.54</v>
@@ -28992,7 +28992,7 @@
         <v>188</v>
       </c>
       <c r="P135" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q135">
         <v>2.75</v>
@@ -32246,7 +32246,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>7296410</v>
+        <v>7296413</v>
       </c>
       <c r="C151" t="s">
         <v>68</v>
@@ -32261,190 +32261,190 @@
         <v>19</v>
       </c>
       <c r="G151" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="H151" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="I151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K151">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L151">
         <v>1</v>
       </c>
       <c r="M151">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N151">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O151" t="s">
         <v>200</v>
       </c>
       <c r="P151" t="s">
-        <v>235</v>
+        <v>306</v>
       </c>
       <c r="Q151">
-        <v>2.48</v>
+        <v>3.4</v>
       </c>
       <c r="R151">
-        <v>2.31</v>
+        <v>2.75</v>
       </c>
       <c r="S151">
-        <v>3.72</v>
+        <v>2.25</v>
       </c>
       <c r="T151">
-        <v>1.29</v>
+        <v>1.17</v>
       </c>
       <c r="U151">
-        <v>3.4</v>
+        <v>4.9</v>
       </c>
       <c r="V151">
-        <v>2.36</v>
+        <v>1.83</v>
       </c>
       <c r="W151">
-        <v>1.55</v>
+        <v>1.9</v>
       </c>
       <c r="X151">
-        <v>5.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y151">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="Z151">
-        <v>2.02</v>
+        <v>3.1</v>
       </c>
       <c r="AA151">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="AB151">
-        <v>3.25</v>
+        <v>1.93</v>
       </c>
       <c r="AC151">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AD151">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="AE151">
-        <v>1.16</v>
+        <v>1.09</v>
       </c>
       <c r="AF151">
-        <v>4.4</v>
+        <v>7.75</v>
       </c>
       <c r="AG151">
-        <v>1.6</v>
+        <v>1.27</v>
       </c>
       <c r="AH151">
-        <v>2.25</v>
+        <v>3.41</v>
       </c>
       <c r="AI151">
-        <v>1.53</v>
+        <v>1.3</v>
       </c>
       <c r="AJ151">
-        <v>2.34</v>
+        <v>3.2</v>
       </c>
       <c r="AK151">
-        <v>1.29</v>
+        <v>1.95</v>
       </c>
       <c r="AL151">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AM151">
-        <v>1.81</v>
+        <v>1.3</v>
       </c>
       <c r="AN151">
-        <v>2.44</v>
+        <v>0.89</v>
       </c>
       <c r="AO151">
-        <v>1.33</v>
+        <v>1.11</v>
       </c>
       <c r="AP151">
-        <v>2.25</v>
+        <v>0.92</v>
       </c>
       <c r="AQ151">
         <v>1.18</v>
       </c>
       <c r="AR151">
-        <v>1.8</v>
+        <v>1.66</v>
       </c>
       <c r="AS151">
-        <v>1.48</v>
+        <v>1.89</v>
       </c>
       <c r="AT151">
-        <v>3.28</v>
+        <v>3.55</v>
       </c>
       <c r="AU151">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV151">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AW151">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX151">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AY151">
         <v>11</v>
       </c>
       <c r="AZ151">
+        <v>23</v>
+      </c>
+      <c r="BA151">
+        <v>5</v>
+      </c>
+      <c r="BB151">
+        <v>9</v>
+      </c>
+      <c r="BC151">
         <v>14</v>
       </c>
-      <c r="BA151">
-        <v>4</v>
-      </c>
-      <c r="BB151">
-        <v>4</v>
-      </c>
-      <c r="BC151">
-        <v>8</v>
-      </c>
       <c r="BD151">
-        <v>1.75</v>
+        <v>2.66</v>
       </c>
       <c r="BE151">
         <v>8.5</v>
       </c>
       <c r="BF151">
-        <v>2.41</v>
+        <v>1.64</v>
       </c>
       <c r="BG151">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="BH151">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="BI151">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="BJ151">
-        <v>3.42</v>
+        <v>3.65</v>
       </c>
       <c r="BK151">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="BL151">
-        <v>2.45</v>
+        <v>2.79</v>
       </c>
       <c r="BM151">
+        <v>1.8</v>
+      </c>
+      <c r="BN151">
         <v>2</v>
       </c>
-      <c r="BN151">
-        <v>1.8</v>
-      </c>
       <c r="BO151">
-        <v>2.15</v>
+        <v>2.04</v>
       </c>
       <c r="BP151">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="152" spans="1:68">
@@ -32452,7 +32452,7 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>7296413</v>
+        <v>7296410</v>
       </c>
       <c r="C152" t="s">
         <v>68</v>
@@ -32467,190 +32467,190 @@
         <v>19</v>
       </c>
       <c r="G152" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H152" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="I152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K152">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L152">
         <v>1</v>
       </c>
       <c r="M152">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N152">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O152" t="s">
         <v>201</v>
       </c>
       <c r="P152" t="s">
-        <v>306</v>
+        <v>235</v>
       </c>
       <c r="Q152">
+        <v>2.48</v>
+      </c>
+      <c r="R152">
+        <v>2.31</v>
+      </c>
+      <c r="S152">
+        <v>3.72</v>
+      </c>
+      <c r="T152">
+        <v>1.29</v>
+      </c>
+      <c r="U152">
         <v>3.4</v>
       </c>
-      <c r="R152">
-        <v>2.75</v>
-      </c>
-      <c r="S152">
+      <c r="V152">
+        <v>2.36</v>
+      </c>
+      <c r="W152">
+        <v>1.55</v>
+      </c>
+      <c r="X152">
+        <v>5.4</v>
+      </c>
+      <c r="Y152">
+        <v>1.13</v>
+      </c>
+      <c r="Z152">
+        <v>2.02</v>
+      </c>
+      <c r="AA152">
+        <v>3.6</v>
+      </c>
+      <c r="AB152">
+        <v>3.25</v>
+      </c>
+      <c r="AC152">
+        <v>1.03</v>
+      </c>
+      <c r="AD152">
+        <v>9</v>
+      </c>
+      <c r="AE152">
+        <v>1.16</v>
+      </c>
+      <c r="AF152">
+        <v>4.4</v>
+      </c>
+      <c r="AG152">
+        <v>1.6</v>
+      </c>
+      <c r="AH152">
         <v>2.25</v>
       </c>
-      <c r="T152">
-        <v>1.17</v>
-      </c>
-      <c r="U152">
-        <v>4.9</v>
-      </c>
-      <c r="V152">
-        <v>1.83</v>
-      </c>
-      <c r="W152">
-        <v>1.9</v>
-      </c>
-      <c r="X152">
-        <v>3.5</v>
-      </c>
-      <c r="Y152">
-        <v>1.25</v>
-      </c>
-      <c r="Z152">
-        <v>3.1</v>
-      </c>
-      <c r="AA152">
-        <v>4.1</v>
-      </c>
-      <c r="AB152">
-        <v>1.93</v>
-      </c>
-      <c r="AC152">
-        <v>1.01</v>
-      </c>
-      <c r="AD152">
-        <v>37</v>
-      </c>
-      <c r="AE152">
-        <v>1.09</v>
-      </c>
-      <c r="AF152">
-        <v>7.75</v>
-      </c>
-      <c r="AG152">
-        <v>1.27</v>
-      </c>
-      <c r="AH152">
-        <v>3.41</v>
-      </c>
       <c r="AI152">
-        <v>1.3</v>
+        <v>1.53</v>
       </c>
       <c r="AJ152">
-        <v>3.2</v>
+        <v>2.34</v>
       </c>
       <c r="AK152">
-        <v>1.95</v>
+        <v>1.29</v>
       </c>
       <c r="AL152">
-        <v>1.17</v>
+        <v>1.24</v>
       </c>
       <c r="AM152">
-        <v>1.3</v>
+        <v>1.81</v>
       </c>
       <c r="AN152">
-        <v>0.89</v>
+        <v>2.44</v>
       </c>
       <c r="AO152">
-        <v>1.11</v>
+        <v>1.33</v>
       </c>
       <c r="AP152">
-        <v>0.92</v>
+        <v>2.25</v>
       </c>
       <c r="AQ152">
         <v>1.18</v>
       </c>
       <c r="AR152">
-        <v>1.66</v>
+        <v>1.8</v>
       </c>
       <c r="AS152">
-        <v>1.89</v>
+        <v>1.48</v>
       </c>
       <c r="AT152">
-        <v>3.55</v>
+        <v>3.28</v>
       </c>
       <c r="AU152">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV152">
+        <v>4</v>
+      </c>
+      <c r="AW152">
+        <v>6</v>
+      </c>
+      <c r="AX152">
         <v>10</v>
-      </c>
-      <c r="AW152">
-        <v>8</v>
-      </c>
-      <c r="AX152">
-        <v>13</v>
       </c>
       <c r="AY152">
         <v>11</v>
       </c>
       <c r="AZ152">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="BA152">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB152">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BC152">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="BD152">
-        <v>2.66</v>
+        <v>1.75</v>
       </c>
       <c r="BE152">
         <v>8.5</v>
       </c>
       <c r="BF152">
-        <v>1.64</v>
+        <v>2.41</v>
       </c>
       <c r="BG152">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="BH152">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="BI152">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="BJ152">
-        <v>3.65</v>
+        <v>3.42</v>
       </c>
       <c r="BK152">
-        <v>1.36</v>
+        <v>1.46</v>
       </c>
       <c r="BL152">
-        <v>2.79</v>
+        <v>2.45</v>
       </c>
       <c r="BM152">
+        <v>2</v>
+      </c>
+      <c r="BN152">
         <v>1.8</v>
       </c>
-      <c r="BN152">
-        <v>2</v>
-      </c>
       <c r="BO152">
-        <v>2.04</v>
+        <v>2.15</v>
       </c>
       <c r="BP152">
-        <v>1.76</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="153" spans="1:68">
@@ -33482,7 +33482,7 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>7296420</v>
+        <v>7296424</v>
       </c>
       <c r="C157" t="s">
         <v>68</v>
@@ -33497,28 +33497,28 @@
         <v>20</v>
       </c>
       <c r="G157" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H157" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I157">
         <v>0</v>
       </c>
       <c r="J157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L157">
         <v>1</v>
       </c>
       <c r="M157">
+        <v>1</v>
+      </c>
+      <c r="N157">
         <v>2</v>
-      </c>
-      <c r="N157">
-        <v>3</v>
       </c>
       <c r="O157" t="s">
         <v>205</v>
@@ -33527,130 +33527,130 @@
         <v>310</v>
       </c>
       <c r="Q157">
-        <v>2.32</v>
+        <v>2</v>
       </c>
       <c r="R157">
-        <v>2.38</v>
+        <v>2.62</v>
       </c>
       <c r="S157">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="T157">
-        <v>1.32</v>
+        <v>1.2</v>
       </c>
       <c r="U157">
-        <v>3.2</v>
+        <v>4.25</v>
       </c>
       <c r="V157">
-        <v>2.45</v>
+        <v>1.97</v>
       </c>
       <c r="W157">
+        <v>1.78</v>
+      </c>
+      <c r="X157">
+        <v>4</v>
+      </c>
+      <c r="Y157">
+        <v>1.22</v>
+      </c>
+      <c r="Z157">
         <v>1.5</v>
       </c>
-      <c r="X157">
-        <v>5.25</v>
-      </c>
-      <c r="Y157">
-        <v>1.12</v>
-      </c>
-      <c r="Z157">
-        <v>1.83</v>
-      </c>
       <c r="AA157">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="AB157">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="AC157">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AD157">
-        <v>16.75</v>
+        <v>28.5</v>
       </c>
       <c r="AE157">
-        <v>1.22</v>
+        <v>1.08</v>
       </c>
       <c r="AF157">
-        <v>4.43</v>
+        <v>6.1</v>
       </c>
       <c r="AG157">
-        <v>1.6</v>
+        <v>1.36</v>
       </c>
       <c r="AH157">
-        <v>2.1</v>
+        <v>2.89</v>
       </c>
       <c r="AI157">
-        <v>1.56</v>
+        <v>1.44</v>
       </c>
       <c r="AJ157">
-        <v>2.3</v>
+        <v>2.58</v>
       </c>
       <c r="AK157">
-        <v>1.25</v>
+        <v>1.16</v>
       </c>
       <c r="AL157">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="AM157">
-        <v>1.7</v>
+        <v>2.39</v>
       </c>
       <c r="AN157">
-        <v>1.56</v>
+        <v>2.11</v>
       </c>
       <c r="AO157">
-        <v>1.11</v>
+        <v>0.78</v>
       </c>
       <c r="AP157">
-        <v>1.36</v>
+        <v>1.67</v>
       </c>
       <c r="AQ157">
-        <v>1.58</v>
+        <v>0.73</v>
       </c>
       <c r="AR157">
-        <v>1.74</v>
+        <v>2</v>
       </c>
       <c r="AS157">
-        <v>1.23</v>
+        <v>1.33</v>
       </c>
       <c r="AT157">
-        <v>2.97</v>
+        <v>3.33</v>
       </c>
       <c r="AU157">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AV157">
+        <v>7</v>
+      </c>
+      <c r="AW157">
+        <v>9</v>
+      </c>
+      <c r="AX157">
+        <v>3</v>
+      </c>
+      <c r="AY157">
+        <v>12</v>
+      </c>
+      <c r="AZ157">
+        <v>10</v>
+      </c>
+      <c r="BA157">
+        <v>6</v>
+      </c>
+      <c r="BB157">
         <v>4</v>
       </c>
-      <c r="AW157">
+      <c r="BC157">
         <v>10</v>
       </c>
-      <c r="AX157">
-        <v>5</v>
-      </c>
-      <c r="AY157">
-        <v>23</v>
-      </c>
-      <c r="AZ157">
-        <v>9</v>
-      </c>
-      <c r="BA157">
-        <v>14</v>
-      </c>
-      <c r="BB157">
-        <v>2</v>
-      </c>
-      <c r="BC157">
-        <v>16</v>
-      </c>
       <c r="BD157">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="BE157">
         <v>9</v>
       </c>
       <c r="BF157">
-        <v>2.8</v>
+        <v>3.06</v>
       </c>
       <c r="BG157">
         <v>0</v>
@@ -33659,28 +33659,28 @@
         <v>0</v>
       </c>
       <c r="BI157">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="BJ157">
-        <v>3.55</v>
+        <v>3.74</v>
       </c>
       <c r="BK157">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="BL157">
-        <v>2.79</v>
+        <v>2.64</v>
       </c>
       <c r="BM157">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="BN157">
-        <v>2.17</v>
+        <v>2.03</v>
       </c>
       <c r="BO157">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="BP157">
-        <v>1.74</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="158" spans="1:68">
@@ -33688,7 +33688,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>7296422</v>
+        <v>7296423</v>
       </c>
       <c r="C158" t="s">
         <v>68</v>
@@ -33703,190 +33703,190 @@
         <v>20</v>
       </c>
       <c r="G158" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H158" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158">
         <v>0</v>
       </c>
       <c r="K158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L158">
+        <v>1</v>
+      </c>
+      <c r="M158">
         <v>2</v>
       </c>
-      <c r="M158">
-        <v>0</v>
-      </c>
       <c r="N158">
+        <v>3</v>
+      </c>
+      <c r="O158" t="s">
+        <v>163</v>
+      </c>
+      <c r="P158" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q158">
+        <v>3.06</v>
+      </c>
+      <c r="R158">
+        <v>2.22</v>
+      </c>
+      <c r="S158">
+        <v>3.06</v>
+      </c>
+      <c r="T158">
+        <v>1.33</v>
+      </c>
+      <c r="U158">
+        <v>3.15</v>
+      </c>
+      <c r="V158">
+        <v>2.51</v>
+      </c>
+      <c r="W158">
+        <v>1.49</v>
+      </c>
+      <c r="X158">
+        <v>5.95</v>
+      </c>
+      <c r="Y158">
+        <v>1.11</v>
+      </c>
+      <c r="Z158">
+        <v>2.37</v>
+      </c>
+      <c r="AA158">
+        <v>3.4</v>
+      </c>
+      <c r="AB158">
+        <v>2.5</v>
+      </c>
+      <c r="AC158">
+        <v>1.04</v>
+      </c>
+      <c r="AD158">
+        <v>15.25</v>
+      </c>
+      <c r="AE158">
+        <v>1.19</v>
+      </c>
+      <c r="AF158">
+        <v>3.92</v>
+      </c>
+      <c r="AG158">
+        <v>1.67</v>
+      </c>
+      <c r="AH158">
+        <v>2.05</v>
+      </c>
+      <c r="AI158">
+        <v>1.57</v>
+      </c>
+      <c r="AJ158">
+        <v>2.25</v>
+      </c>
+      <c r="AK158">
+        <v>1.49</v>
+      </c>
+      <c r="AL158">
+        <v>1.28</v>
+      </c>
+      <c r="AM158">
+        <v>1.49</v>
+      </c>
+      <c r="AN158">
+        <v>0.8</v>
+      </c>
+      <c r="AO158">
+        <v>1.33</v>
+      </c>
+      <c r="AP158">
+        <v>0.92</v>
+      </c>
+      <c r="AQ158">
+        <v>1.45</v>
+      </c>
+      <c r="AR158">
+        <v>1.33</v>
+      </c>
+      <c r="AS158">
+        <v>1.81</v>
+      </c>
+      <c r="AT158">
+        <v>3.14</v>
+      </c>
+      <c r="AU158">
+        <v>10</v>
+      </c>
+      <c r="AV158">
+        <v>11</v>
+      </c>
+      <c r="AW158">
+        <v>1</v>
+      </c>
+      <c r="AX158">
+        <v>4</v>
+      </c>
+      <c r="AY158">
+        <v>11</v>
+      </c>
+      <c r="AZ158">
+        <v>15</v>
+      </c>
+      <c r="BA158">
+        <v>5</v>
+      </c>
+      <c r="BB158">
+        <v>7</v>
+      </c>
+      <c r="BC158">
+        <v>12</v>
+      </c>
+      <c r="BD158">
         <v>2</v>
       </c>
-      <c r="O158" t="s">
-        <v>206</v>
-      </c>
-      <c r="P158" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q158">
-        <v>3.2</v>
-      </c>
-      <c r="R158">
-        <v>2.35</v>
-      </c>
-      <c r="S158">
-        <v>2.84</v>
-      </c>
-      <c r="T158">
-        <v>1.26</v>
-      </c>
-      <c r="U158">
-        <v>3.62</v>
-      </c>
-      <c r="V158">
-        <v>2.24</v>
-      </c>
-      <c r="W158">
-        <v>1.61</v>
-      </c>
-      <c r="X158">
-        <v>5</v>
-      </c>
-      <c r="Y158">
-        <v>1.15</v>
-      </c>
-      <c r="Z158">
-        <v>2.5</v>
-      </c>
-      <c r="AA158">
-        <v>3.5</v>
-      </c>
-      <c r="AB158">
-        <v>2.3</v>
-      </c>
-      <c r="AC158">
-        <v>1.03</v>
-      </c>
-      <c r="AD158">
-        <v>18.75</v>
-      </c>
-      <c r="AE158">
-        <v>1.13</v>
-      </c>
-      <c r="AF158">
-        <v>4.8</v>
-      </c>
-      <c r="AG158">
-        <v>1.57</v>
-      </c>
-      <c r="AH158">
-        <v>2.35</v>
-      </c>
-      <c r="AI158">
-        <v>1.45</v>
-      </c>
-      <c r="AJ158">
-        <v>2.55</v>
-      </c>
-      <c r="AK158">
-        <v>1.56</v>
-      </c>
-      <c r="AL158">
-        <v>1.25</v>
-      </c>
-      <c r="AM158">
-        <v>1.45</v>
-      </c>
-      <c r="AN158">
-        <v>1</v>
-      </c>
-      <c r="AO158">
-        <v>1.1</v>
-      </c>
-      <c r="AP158">
-        <v>1.17</v>
-      </c>
-      <c r="AQ158">
-        <v>1</v>
-      </c>
-      <c r="AR158">
-        <v>1.43</v>
-      </c>
-      <c r="AS158">
-        <v>1.44</v>
-      </c>
-      <c r="AT158">
-        <v>2.87</v>
-      </c>
-      <c r="AU158">
-        <v>8</v>
-      </c>
-      <c r="AV158">
-        <v>5</v>
-      </c>
-      <c r="AW158">
-        <v>9</v>
-      </c>
-      <c r="AX158">
-        <v>7</v>
-      </c>
-      <c r="AY158">
-        <v>17</v>
-      </c>
-      <c r="AZ158">
-        <v>12</v>
-      </c>
-      <c r="BA158">
-        <v>7</v>
-      </c>
-      <c r="BB158">
-        <v>6</v>
-      </c>
-      <c r="BC158">
-        <v>13</v>
-      </c>
-      <c r="BD158">
-        <v>1.85</v>
-      </c>
       <c r="BE158">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF158">
-        <v>2.28</v>
+        <v>2.05</v>
       </c>
       <c r="BG158">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="BH158">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="BI158">
-        <v>1.28</v>
+        <v>1.19</v>
       </c>
       <c r="BJ158">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="BK158">
-        <v>1.54</v>
+        <v>1.32</v>
       </c>
       <c r="BL158">
-        <v>2.43</v>
+        <v>2.98</v>
       </c>
       <c r="BM158">
-        <v>1.88</v>
+        <v>1.62</v>
       </c>
       <c r="BN158">
-        <v>1.92</v>
+        <v>2.25</v>
       </c>
       <c r="BO158">
-        <v>2.34</v>
+        <v>1.99</v>
       </c>
       <c r="BP158">
-        <v>1.57</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="159" spans="1:68">
@@ -33894,7 +33894,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>7296423</v>
+        <v>7296422</v>
       </c>
       <c r="C159" t="s">
         <v>68</v>
@@ -33909,190 +33909,190 @@
         <v>20</v>
       </c>
       <c r="G159" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H159" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="I159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159">
         <v>0</v>
       </c>
       <c r="K159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M159">
+        <v>0</v>
+      </c>
+      <c r="N159">
         <v>2</v>
       </c>
-      <c r="N159">
-        <v>3</v>
-      </c>
       <c r="O159" t="s">
-        <v>163</v>
+        <v>206</v>
       </c>
       <c r="P159" t="s">
-        <v>311</v>
+        <v>103</v>
       </c>
       <c r="Q159">
-        <v>3.06</v>
+        <v>3.2</v>
       </c>
       <c r="R159">
-        <v>2.22</v>
+        <v>2.35</v>
       </c>
       <c r="S159">
-        <v>3.06</v>
+        <v>2.84</v>
       </c>
       <c r="T159">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="U159">
-        <v>3.15</v>
+        <v>3.62</v>
       </c>
       <c r="V159">
-        <v>2.51</v>
+        <v>2.24</v>
       </c>
       <c r="W159">
-        <v>1.49</v>
+        <v>1.61</v>
       </c>
       <c r="X159">
-        <v>5.95</v>
+        <v>5</v>
       </c>
       <c r="Y159">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="Z159">
-        <v>2.37</v>
+        <v>2.5</v>
       </c>
       <c r="AA159">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AB159">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="AC159">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AD159">
-        <v>15.25</v>
+        <v>18.75</v>
       </c>
       <c r="AE159">
-        <v>1.19</v>
+        <v>1.13</v>
       </c>
       <c r="AF159">
-        <v>3.92</v>
+        <v>4.8</v>
       </c>
       <c r="AG159">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AH159">
-        <v>2.05</v>
+        <v>2.35</v>
       </c>
       <c r="AI159">
+        <v>1.45</v>
+      </c>
+      <c r="AJ159">
+        <v>2.55</v>
+      </c>
+      <c r="AK159">
+        <v>1.56</v>
+      </c>
+      <c r="AL159">
+        <v>1.25</v>
+      </c>
+      <c r="AM159">
+        <v>1.45</v>
+      </c>
+      <c r="AN159">
+        <v>1</v>
+      </c>
+      <c r="AO159">
+        <v>1.1</v>
+      </c>
+      <c r="AP159">
+        <v>1.17</v>
+      </c>
+      <c r="AQ159">
+        <v>1</v>
+      </c>
+      <c r="AR159">
+        <v>1.43</v>
+      </c>
+      <c r="AS159">
+        <v>1.44</v>
+      </c>
+      <c r="AT159">
+        <v>2.87</v>
+      </c>
+      <c r="AU159">
+        <v>8</v>
+      </c>
+      <c r="AV159">
+        <v>5</v>
+      </c>
+      <c r="AW159">
+        <v>9</v>
+      </c>
+      <c r="AX159">
+        <v>7</v>
+      </c>
+      <c r="AY159">
+        <v>17</v>
+      </c>
+      <c r="AZ159">
+        <v>12</v>
+      </c>
+      <c r="BA159">
+        <v>7</v>
+      </c>
+      <c r="BB159">
+        <v>6</v>
+      </c>
+      <c r="BC159">
+        <v>13</v>
+      </c>
+      <c r="BD159">
+        <v>1.85</v>
+      </c>
+      <c r="BE159">
+        <v>8</v>
+      </c>
+      <c r="BF159">
+        <v>2.28</v>
+      </c>
+      <c r="BG159">
+        <v>1.15</v>
+      </c>
+      <c r="BH159">
+        <v>4.7</v>
+      </c>
+      <c r="BI159">
+        <v>1.28</v>
+      </c>
+      <c r="BJ159">
+        <v>3.2</v>
+      </c>
+      <c r="BK159">
+        <v>1.54</v>
+      </c>
+      <c r="BL159">
+        <v>2.43</v>
+      </c>
+      <c r="BM159">
+        <v>1.88</v>
+      </c>
+      <c r="BN159">
+        <v>1.92</v>
+      </c>
+      <c r="BO159">
+        <v>2.34</v>
+      </c>
+      <c r="BP159">
         <v>1.57</v>
-      </c>
-      <c r="AJ159">
-        <v>2.25</v>
-      </c>
-      <c r="AK159">
-        <v>1.49</v>
-      </c>
-      <c r="AL159">
-        <v>1.28</v>
-      </c>
-      <c r="AM159">
-        <v>1.49</v>
-      </c>
-      <c r="AN159">
-        <v>0.8</v>
-      </c>
-      <c r="AO159">
-        <v>1.33</v>
-      </c>
-      <c r="AP159">
-        <v>0.92</v>
-      </c>
-      <c r="AQ159">
-        <v>1.45</v>
-      </c>
-      <c r="AR159">
-        <v>1.33</v>
-      </c>
-      <c r="AS159">
-        <v>1.81</v>
-      </c>
-      <c r="AT159">
-        <v>3.14</v>
-      </c>
-      <c r="AU159">
-        <v>10</v>
-      </c>
-      <c r="AV159">
-        <v>11</v>
-      </c>
-      <c r="AW159">
-        <v>1</v>
-      </c>
-      <c r="AX159">
-        <v>4</v>
-      </c>
-      <c r="AY159">
-        <v>11</v>
-      </c>
-      <c r="AZ159">
-        <v>15</v>
-      </c>
-      <c r="BA159">
-        <v>5</v>
-      </c>
-      <c r="BB159">
-        <v>7</v>
-      </c>
-      <c r="BC159">
-        <v>12</v>
-      </c>
-      <c r="BD159">
-        <v>2</v>
-      </c>
-      <c r="BE159">
-        <v>8.5</v>
-      </c>
-      <c r="BF159">
-        <v>2.05</v>
-      </c>
-      <c r="BG159">
-        <v>0</v>
-      </c>
-      <c r="BH159">
-        <v>0</v>
-      </c>
-      <c r="BI159">
-        <v>1.19</v>
-      </c>
-      <c r="BJ159">
-        <v>4.1</v>
-      </c>
-      <c r="BK159">
-        <v>1.32</v>
-      </c>
-      <c r="BL159">
-        <v>2.98</v>
-      </c>
-      <c r="BM159">
-        <v>1.62</v>
-      </c>
-      <c r="BN159">
-        <v>2.25</v>
-      </c>
-      <c r="BO159">
-        <v>1.99</v>
-      </c>
-      <c r="BP159">
-        <v>1.81</v>
       </c>
     </row>
     <row r="160" spans="1:68">
@@ -34100,7 +34100,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>7296424</v>
+        <v>7296420</v>
       </c>
       <c r="C160" t="s">
         <v>68</v>
@@ -34115,28 +34115,28 @@
         <v>20</v>
       </c>
       <c r="G160" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H160" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I160">
         <v>0</v>
       </c>
       <c r="J160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L160">
         <v>1</v>
       </c>
       <c r="M160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N160">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O160" t="s">
         <v>207</v>
@@ -34145,130 +34145,130 @@
         <v>312</v>
       </c>
       <c r="Q160">
+        <v>2.32</v>
+      </c>
+      <c r="R160">
+        <v>2.38</v>
+      </c>
+      <c r="S160">
+        <v>4.1</v>
+      </c>
+      <c r="T160">
+        <v>1.32</v>
+      </c>
+      <c r="U160">
+        <v>3.2</v>
+      </c>
+      <c r="V160">
+        <v>2.45</v>
+      </c>
+      <c r="W160">
+        <v>1.5</v>
+      </c>
+      <c r="X160">
+        <v>5.25</v>
+      </c>
+      <c r="Y160">
+        <v>1.12</v>
+      </c>
+      <c r="Z160">
+        <v>1.83</v>
+      </c>
+      <c r="AA160">
+        <v>3.5</v>
+      </c>
+      <c r="AB160">
+        <v>3.5</v>
+      </c>
+      <c r="AC160">
+        <v>1.02</v>
+      </c>
+      <c r="AD160">
+        <v>16.75</v>
+      </c>
+      <c r="AE160">
+        <v>1.22</v>
+      </c>
+      <c r="AF160">
+        <v>4.43</v>
+      </c>
+      <c r="AG160">
+        <v>1.6</v>
+      </c>
+      <c r="AH160">
+        <v>2.1</v>
+      </c>
+      <c r="AI160">
+        <v>1.56</v>
+      </c>
+      <c r="AJ160">
+        <v>2.3</v>
+      </c>
+      <c r="AK160">
+        <v>1.25</v>
+      </c>
+      <c r="AL160">
+        <v>1.25</v>
+      </c>
+      <c r="AM160">
+        <v>1.7</v>
+      </c>
+      <c r="AN160">
+        <v>1.56</v>
+      </c>
+      <c r="AO160">
+        <v>1.11</v>
+      </c>
+      <c r="AP160">
+        <v>1.36</v>
+      </c>
+      <c r="AQ160">
+        <v>1.58</v>
+      </c>
+      <c r="AR160">
+        <v>1.74</v>
+      </c>
+      <c r="AS160">
+        <v>1.23</v>
+      </c>
+      <c r="AT160">
+        <v>2.97</v>
+      </c>
+      <c r="AU160">
+        <v>13</v>
+      </c>
+      <c r="AV160">
+        <v>4</v>
+      </c>
+      <c r="AW160">
+        <v>10</v>
+      </c>
+      <c r="AX160">
+        <v>5</v>
+      </c>
+      <c r="AY160">
+        <v>23</v>
+      </c>
+      <c r="AZ160">
+        <v>9</v>
+      </c>
+      <c r="BA160">
+        <v>14</v>
+      </c>
+      <c r="BB160">
         <v>2</v>
       </c>
-      <c r="R160">
-        <v>2.62</v>
-      </c>
-      <c r="S160">
-        <v>4.5</v>
-      </c>
-      <c r="T160">
-        <v>1.2</v>
-      </c>
-      <c r="U160">
-        <v>4.25</v>
-      </c>
-      <c r="V160">
-        <v>1.97</v>
-      </c>
-      <c r="W160">
-        <v>1.78</v>
-      </c>
-      <c r="X160">
-        <v>4</v>
-      </c>
-      <c r="Y160">
-        <v>1.22</v>
-      </c>
-      <c r="Z160">
-        <v>1.5</v>
-      </c>
-      <c r="AA160">
-        <v>4.2</v>
-      </c>
-      <c r="AB160">
-        <v>4.8</v>
-      </c>
-      <c r="AC160">
-        <v>1.01</v>
-      </c>
-      <c r="AD160">
-        <v>28.5</v>
-      </c>
-      <c r="AE160">
-        <v>1.08</v>
-      </c>
-      <c r="AF160">
-        <v>6.1</v>
-      </c>
-      <c r="AG160">
-        <v>1.36</v>
-      </c>
-      <c r="AH160">
-        <v>2.89</v>
-      </c>
-      <c r="AI160">
-        <v>1.44</v>
-      </c>
-      <c r="AJ160">
-        <v>2.58</v>
-      </c>
-      <c r="AK160">
-        <v>1.16</v>
-      </c>
-      <c r="AL160">
-        <v>1.17</v>
-      </c>
-      <c r="AM160">
-        <v>2.39</v>
-      </c>
-      <c r="AN160">
-        <v>2.11</v>
-      </c>
-      <c r="AO160">
-        <v>0.78</v>
-      </c>
-      <c r="AP160">
-        <v>1.67</v>
-      </c>
-      <c r="AQ160">
-        <v>0.73</v>
-      </c>
-      <c r="AR160">
-        <v>2</v>
-      </c>
-      <c r="AS160">
-        <v>1.33</v>
-      </c>
-      <c r="AT160">
-        <v>3.33</v>
-      </c>
-      <c r="AU160">
-        <v>3</v>
-      </c>
-      <c r="AV160">
-        <v>7</v>
-      </c>
-      <c r="AW160">
-        <v>9</v>
-      </c>
-      <c r="AX160">
-        <v>3</v>
-      </c>
-      <c r="AY160">
-        <v>12</v>
-      </c>
-      <c r="AZ160">
-        <v>10</v>
-      </c>
-      <c r="BA160">
-        <v>6</v>
-      </c>
-      <c r="BB160">
-        <v>4</v>
-      </c>
       <c r="BC160">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="BD160">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="BE160">
         <v>9</v>
       </c>
       <c r="BF160">
-        <v>3.06</v>
+        <v>2.8</v>
       </c>
       <c r="BG160">
         <v>0</v>
@@ -34277,28 +34277,28 @@
         <v>0</v>
       </c>
       <c r="BI160">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="BJ160">
-        <v>3.74</v>
+        <v>3.55</v>
       </c>
       <c r="BK160">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="BL160">
-        <v>2.64</v>
+        <v>2.79</v>
       </c>
       <c r="BM160">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="BN160">
-        <v>2.03</v>
+        <v>2.17</v>
       </c>
       <c r="BO160">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="BP160">
-        <v>1.62</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="161" spans="1:68">
@@ -35336,7 +35336,7 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>7296430</v>
+        <v>7296433</v>
       </c>
       <c r="C166" t="s">
         <v>68</v>
@@ -35351,28 +35351,28 @@
         <v>21</v>
       </c>
       <c r="G166" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H166" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="I166">
         <v>0</v>
       </c>
       <c r="J166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L166">
         <v>2</v>
       </c>
       <c r="M166">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N166">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O166" t="s">
         <v>210</v>
@@ -35381,160 +35381,160 @@
         <v>314</v>
       </c>
       <c r="Q166">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="R166">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="S166">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="T166">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="U166">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="V166">
-        <v>2.13</v>
+        <v>1.95</v>
       </c>
       <c r="W166">
+        <v>1.72</v>
+      </c>
+      <c r="X166">
+        <v>4.1</v>
+      </c>
+      <c r="Y166">
+        <v>1.18</v>
+      </c>
+      <c r="Z166">
         <v>1.67</v>
       </c>
-      <c r="X166">
-        <v>4.65</v>
-      </c>
-      <c r="Y166">
-        <v>1.17</v>
-      </c>
-      <c r="Z166">
-        <v>3.35</v>
-      </c>
       <c r="AA166">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="AB166">
-        <v>1.95</v>
+        <v>4.2</v>
       </c>
       <c r="AC166">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AD166">
-        <v>17</v>
+        <v>24.5</v>
       </c>
       <c r="AE166">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AF166">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="AG166">
-        <v>1.53</v>
+        <v>1.41</v>
       </c>
       <c r="AH166">
-        <v>2.27</v>
+        <v>2.69</v>
       </c>
       <c r="AI166">
         <v>1.44</v>
       </c>
       <c r="AJ166">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="AK166">
-        <v>1.83</v>
+        <v>1.22</v>
       </c>
       <c r="AL166">
         <v>1.22</v>
       </c>
       <c r="AM166">
-        <v>1.29</v>
+        <v>2.15</v>
       </c>
       <c r="AN166">
-        <v>1.3</v>
+        <v>1.56</v>
       </c>
       <c r="AO166">
-        <v>1.3</v>
+        <v>0.3</v>
       </c>
       <c r="AP166">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="AQ166">
-        <v>1.18</v>
+        <v>0.75</v>
       </c>
       <c r="AR166">
-        <v>1.54</v>
+        <v>1.39</v>
       </c>
       <c r="AS166">
-        <v>1.47</v>
+        <v>1.34</v>
       </c>
       <c r="AT166">
-        <v>3.01</v>
+        <v>2.73</v>
       </c>
       <c r="AU166">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AV166">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW166">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AX166">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AY166">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AZ166">
         <v>15</v>
       </c>
       <c r="BA166">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BB166">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC166">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BD166">
-        <v>2.54</v>
+        <v>1.49</v>
       </c>
       <c r="BE166">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="BF166">
-        <v>1.67</v>
+        <v>3.04</v>
       </c>
       <c r="BG166">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="BH166">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="BI166">
         <v>1.3</v>
       </c>
       <c r="BJ166">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="BK166">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="BL166">
-        <v>2.38</v>
+        <v>2.33</v>
       </c>
       <c r="BM166">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="BN166">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="BO166">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="BP166">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="167" spans="1:68">
@@ -35542,7 +35542,7 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>7296426</v>
+        <v>7296428</v>
       </c>
       <c r="C167" t="s">
         <v>68</v>
@@ -35557,190 +35557,190 @@
         <v>21</v>
       </c>
       <c r="G167" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H167" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K167">
         <v>2</v>
       </c>
       <c r="L167">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M167">
         <v>1</v>
       </c>
       <c r="N167">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O167" t="s">
         <v>211</v>
       </c>
       <c r="P167" t="s">
-        <v>314</v>
+        <v>243</v>
       </c>
       <c r="Q167">
-        <v>2.63</v>
+        <v>3.92</v>
       </c>
       <c r="R167">
-        <v>2.54</v>
+        <v>2.28</v>
       </c>
       <c r="S167">
-        <v>3.41</v>
+        <v>2.68</v>
       </c>
       <c r="T167">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="U167">
-        <v>3.7</v>
+        <v>2.95</v>
       </c>
       <c r="V167">
-        <v>2.19</v>
+        <v>2.65</v>
       </c>
       <c r="W167">
-        <v>1.61</v>
+        <v>1.4</v>
       </c>
       <c r="X167">
-        <v>4.7</v>
+        <v>5.5</v>
       </c>
       <c r="Y167">
-        <v>1.16</v>
+        <v>1.1</v>
       </c>
       <c r="Z167">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="AA167">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="AB167">
-        <v>2.65</v>
+        <v>2.3</v>
       </c>
       <c r="AC167">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AD167">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AE167">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="AF167">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="AG167">
-        <v>1.43</v>
+        <v>1.82</v>
       </c>
       <c r="AH167">
-        <v>2.62</v>
+        <v>1.96</v>
       </c>
       <c r="AI167">
+        <v>1.65</v>
+      </c>
+      <c r="AJ167">
+        <v>2.05</v>
+      </c>
+      <c r="AK167">
+        <v>1.6</v>
+      </c>
+      <c r="AL167">
+        <v>1.27</v>
+      </c>
+      <c r="AM167">
+        <v>1.27</v>
+      </c>
+      <c r="AN167">
+        <v>1.3</v>
+      </c>
+      <c r="AO167">
+        <v>1.2</v>
+      </c>
+      <c r="AP167">
         <v>1.45</v>
       </c>
-      <c r="AJ167">
-        <v>2.75</v>
-      </c>
-      <c r="AK167">
-        <v>1.41</v>
-      </c>
-      <c r="AL167">
-        <v>1.24</v>
-      </c>
-      <c r="AM167">
-        <v>1.62</v>
-      </c>
-      <c r="AN167">
-        <v>1.11</v>
-      </c>
-      <c r="AO167">
-        <v>2</v>
-      </c>
-      <c r="AP167">
-        <v>1.18</v>
-      </c>
       <c r="AQ167">
-        <v>1.82</v>
+        <v>1</v>
       </c>
       <c r="AR167">
-        <v>1.74</v>
+        <v>1.27</v>
       </c>
       <c r="AS167">
-        <v>1.62</v>
+        <v>1.21</v>
       </c>
       <c r="AT167">
-        <v>3.36</v>
+        <v>2.48</v>
       </c>
       <c r="AU167">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AV167">
         <v>6</v>
       </c>
       <c r="AW167">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX167">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AY167">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AZ167">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BA167">
+        <v>4</v>
+      </c>
+      <c r="BB167">
         <v>5</v>
       </c>
-      <c r="BB167">
-        <v>8</v>
-      </c>
       <c r="BC167">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BD167">
-        <v>1.94</v>
+        <v>2.85</v>
       </c>
       <c r="BE167">
-        <v>7.2</v>
+        <v>7.7</v>
       </c>
       <c r="BF167">
-        <v>2.22</v>
+        <v>1.6</v>
       </c>
       <c r="BG167">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="BH167">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="BI167">
-        <v>1.34</v>
+        <v>1.24</v>
       </c>
       <c r="BJ167">
-        <v>3.1</v>
+        <v>3.85</v>
       </c>
       <c r="BK167">
-        <v>1.61</v>
+        <v>1.43</v>
       </c>
       <c r="BL167">
-        <v>2.23</v>
+        <v>2.7</v>
       </c>
       <c r="BM167">
+        <v>1.74</v>
+      </c>
+      <c r="BN167">
         <v>2.02</v>
       </c>
-      <c r="BN167">
-        <v>1.74</v>
-      </c>
       <c r="BO167">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="BP167">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="168" spans="1:68">
@@ -35748,7 +35748,7 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>7296433</v>
+        <v>7296426</v>
       </c>
       <c r="C168" t="s">
         <v>68</v>
@@ -35763,16 +35763,16 @@
         <v>21</v>
       </c>
       <c r="G168" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H168" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K168">
         <v>2</v>
@@ -35781,10 +35781,10 @@
         <v>2</v>
       </c>
       <c r="M168">
+        <v>1</v>
+      </c>
+      <c r="N168">
         <v>3</v>
-      </c>
-      <c r="N168">
-        <v>5</v>
       </c>
       <c r="O168" t="s">
         <v>212</v>
@@ -35793,160 +35793,160 @@
         <v>315</v>
       </c>
       <c r="Q168">
-        <v>2.05</v>
+        <v>2.63</v>
       </c>
       <c r="R168">
-        <v>2.55</v>
+        <v>2.54</v>
       </c>
       <c r="S168">
-        <v>4</v>
+        <v>3.41</v>
       </c>
       <c r="T168">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="U168">
         <v>3.7</v>
       </c>
       <c r="V168">
-        <v>1.95</v>
+        <v>2.19</v>
       </c>
       <c r="W168">
-        <v>1.72</v>
+        <v>1.61</v>
       </c>
       <c r="X168">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="Y168">
+        <v>1.16</v>
+      </c>
+      <c r="Z168">
+        <v>2.25</v>
+      </c>
+      <c r="AA168">
+        <v>3.55</v>
+      </c>
+      <c r="AB168">
+        <v>2.65</v>
+      </c>
+      <c r="AC168">
+        <v>1.01</v>
+      </c>
+      <c r="AD168">
+        <v>13</v>
+      </c>
+      <c r="AE168">
+        <v>1.16</v>
+      </c>
+      <c r="AF168">
+        <v>5</v>
+      </c>
+      <c r="AG168">
+        <v>1.43</v>
+      </c>
+      <c r="AH168">
+        <v>2.62</v>
+      </c>
+      <c r="AI168">
+        <v>1.45</v>
+      </c>
+      <c r="AJ168">
+        <v>2.75</v>
+      </c>
+      <c r="AK168">
+        <v>1.41</v>
+      </c>
+      <c r="AL168">
+        <v>1.24</v>
+      </c>
+      <c r="AM168">
+        <v>1.62</v>
+      </c>
+      <c r="AN168">
+        <v>1.11</v>
+      </c>
+      <c r="AO168">
+        <v>2</v>
+      </c>
+      <c r="AP168">
         <v>1.18</v>
       </c>
-      <c r="Z168">
-        <v>1.67</v>
-      </c>
-      <c r="AA168">
-        <v>3.9</v>
-      </c>
-      <c r="AB168">
-        <v>4.2</v>
-      </c>
-      <c r="AC168">
-        <v>1.02</v>
-      </c>
-      <c r="AD168">
-        <v>24.5</v>
-      </c>
-      <c r="AE168">
-        <v>1.09</v>
-      </c>
-      <c r="AF168">
-        <v>5.8</v>
-      </c>
-      <c r="AG168">
-        <v>1.41</v>
-      </c>
-      <c r="AH168">
-        <v>2.69</v>
-      </c>
-      <c r="AI168">
+      <c r="AQ168">
+        <v>1.82</v>
+      </c>
+      <c r="AR168">
+        <v>1.74</v>
+      </c>
+      <c r="AS168">
+        <v>1.62</v>
+      </c>
+      <c r="AT168">
+        <v>3.36</v>
+      </c>
+      <c r="AU168">
+        <v>7</v>
+      </c>
+      <c r="AV168">
+        <v>6</v>
+      </c>
+      <c r="AW168">
+        <v>7</v>
+      </c>
+      <c r="AX168">
+        <v>6</v>
+      </c>
+      <c r="AY168">
+        <v>14</v>
+      </c>
+      <c r="AZ168">
+        <v>12</v>
+      </c>
+      <c r="BA168">
+        <v>5</v>
+      </c>
+      <c r="BB168">
+        <v>8</v>
+      </c>
+      <c r="BC168">
+        <v>13</v>
+      </c>
+      <c r="BD168">
+        <v>1.94</v>
+      </c>
+      <c r="BE168">
+        <v>7.2</v>
+      </c>
+      <c r="BF168">
+        <v>2.22</v>
+      </c>
+      <c r="BG168">
+        <v>1.18</v>
+      </c>
+      <c r="BH168">
+        <v>4.5</v>
+      </c>
+      <c r="BI168">
+        <v>1.34</v>
+      </c>
+      <c r="BJ168">
+        <v>3.1</v>
+      </c>
+      <c r="BK168">
+        <v>1.61</v>
+      </c>
+      <c r="BL168">
+        <v>2.23</v>
+      </c>
+      <c r="BM168">
+        <v>2.02</v>
+      </c>
+      <c r="BN168">
+        <v>1.74</v>
+      </c>
+      <c r="BO168">
+        <v>2.7</v>
+      </c>
+      <c r="BP168">
         <v>1.44</v>
-      </c>
-      <c r="AJ168">
-        <v>2.58</v>
-      </c>
-      <c r="AK168">
-        <v>1.22</v>
-      </c>
-      <c r="AL168">
-        <v>1.22</v>
-      </c>
-      <c r="AM168">
-        <v>2.15</v>
-      </c>
-      <c r="AN168">
-        <v>1.56</v>
-      </c>
-      <c r="AO168">
-        <v>0.3</v>
-      </c>
-      <c r="AP168">
-        <v>1.55</v>
-      </c>
-      <c r="AQ168">
-        <v>0.75</v>
-      </c>
-      <c r="AR168">
-        <v>1.39</v>
-      </c>
-      <c r="AS168">
-        <v>1.34</v>
-      </c>
-      <c r="AT168">
-        <v>2.73</v>
-      </c>
-      <c r="AU168">
-        <v>10</v>
-      </c>
-      <c r="AV168">
-        <v>7</v>
-      </c>
-      <c r="AW168">
-        <v>9</v>
-      </c>
-      <c r="AX168">
-        <v>8</v>
-      </c>
-      <c r="AY168">
-        <v>19</v>
-      </c>
-      <c r="AZ168">
-        <v>15</v>
-      </c>
-      <c r="BA168">
-        <v>7</v>
-      </c>
-      <c r="BB168">
-        <v>4</v>
-      </c>
-      <c r="BC168">
-        <v>11</v>
-      </c>
-      <c r="BD168">
-        <v>1.49</v>
-      </c>
-      <c r="BE168">
-        <v>9.5</v>
-      </c>
-      <c r="BF168">
-        <v>3.04</v>
-      </c>
-      <c r="BG168">
-        <v>1.17</v>
-      </c>
-      <c r="BH168">
-        <v>4.8</v>
-      </c>
-      <c r="BI168">
-        <v>1.3</v>
-      </c>
-      <c r="BJ168">
-        <v>3.25</v>
-      </c>
-      <c r="BK168">
-        <v>1.56</v>
-      </c>
-      <c r="BL168">
-        <v>2.33</v>
-      </c>
-      <c r="BM168">
-        <v>1.95</v>
-      </c>
-      <c r="BN168">
-        <v>1.8</v>
-      </c>
-      <c r="BO168">
-        <v>2.55</v>
-      </c>
-      <c r="BP168">
-        <v>1.47</v>
       </c>
     </row>
     <row r="169" spans="1:68">
@@ -35954,7 +35954,7 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>7296428</v>
+        <v>7296430</v>
       </c>
       <c r="C169" t="s">
         <v>68</v>
@@ -35969,160 +35969,160 @@
         <v>21</v>
       </c>
       <c r="G169" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H169" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>1</v>
+      </c>
+      <c r="K169">
+        <v>1</v>
+      </c>
+      <c r="L169">
         <v>2</v>
       </c>
-      <c r="J169">
-        <v>0</v>
-      </c>
-      <c r="K169">
-        <v>2</v>
-      </c>
-      <c r="L169">
-        <v>4</v>
-      </c>
       <c r="M169">
         <v>1</v>
       </c>
       <c r="N169">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O169" t="s">
         <v>213</v>
       </c>
       <c r="P169" t="s">
-        <v>243</v>
+        <v>315</v>
       </c>
       <c r="Q169">
-        <v>3.92</v>
+        <v>3.4</v>
       </c>
       <c r="R169">
-        <v>2.28</v>
+        <v>2.5</v>
       </c>
       <c r="S169">
-        <v>2.68</v>
+        <v>2.3</v>
       </c>
       <c r="T169">
-        <v>1.33</v>
+        <v>1.24</v>
       </c>
       <c r="U169">
-        <v>2.95</v>
+        <v>3.8</v>
       </c>
       <c r="V169">
-        <v>2.65</v>
+        <v>2.13</v>
       </c>
       <c r="W169">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="X169">
-        <v>5.5</v>
+        <v>4.65</v>
       </c>
       <c r="Y169">
+        <v>1.17</v>
+      </c>
+      <c r="Z169">
+        <v>3.35</v>
+      </c>
+      <c r="AA169">
+        <v>3.5</v>
+      </c>
+      <c r="AB169">
+        <v>1.95</v>
+      </c>
+      <c r="AC169">
+        <v>1.01</v>
+      </c>
+      <c r="AD169">
+        <v>17</v>
+      </c>
+      <c r="AE169">
         <v>1.1</v>
       </c>
-      <c r="Z169">
-        <v>2.8</v>
-      </c>
-      <c r="AA169">
-        <v>3.25</v>
-      </c>
-      <c r="AB169">
-        <v>2.3</v>
-      </c>
-      <c r="AC169">
-        <v>1.02</v>
-      </c>
-      <c r="AD169">
-        <v>9.5</v>
-      </c>
-      <c r="AE169">
-        <v>1.25</v>
-      </c>
       <c r="AF169">
-        <v>3.5</v>
+        <v>5.3</v>
       </c>
       <c r="AG169">
-        <v>1.82</v>
+        <v>1.53</v>
       </c>
       <c r="AH169">
-        <v>1.96</v>
+        <v>2.27</v>
       </c>
       <c r="AI169">
-        <v>1.65</v>
+        <v>1.44</v>
       </c>
       <c r="AJ169">
-        <v>2.05</v>
+        <v>2.62</v>
       </c>
       <c r="AK169">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AL169">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AM169">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="AN169">
         <v>1.3</v>
       </c>
       <c r="AO169">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AP169">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ169">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR169">
-        <v>1.27</v>
+        <v>1.54</v>
       </c>
       <c r="AS169">
-        <v>1.21</v>
+        <v>1.47</v>
       </c>
       <c r="AT169">
-        <v>2.48</v>
+        <v>3.01</v>
       </c>
       <c r="AU169">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AV169">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW169">
         <v>5</v>
       </c>
       <c r="AX169">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AY169">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AZ169">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BA169">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BB169">
         <v>5</v>
       </c>
       <c r="BC169">
+        <v>5</v>
+      </c>
+      <c r="BD169">
+        <v>2.54</v>
+      </c>
+      <c r="BE169">
         <v>9</v>
       </c>
-      <c r="BD169">
-        <v>2.85</v>
-      </c>
-      <c r="BE169">
-        <v>7.7</v>
-      </c>
       <c r="BF169">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="BG169">
         <v>0</v>
@@ -36131,28 +36131,28 @@
         <v>0</v>
       </c>
       <c r="BI169">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="BJ169">
-        <v>3.85</v>
+        <v>3.3</v>
       </c>
       <c r="BK169">
-        <v>1.43</v>
+        <v>1.54</v>
       </c>
       <c r="BL169">
-        <v>2.7</v>
+        <v>2.38</v>
       </c>
       <c r="BM169">
-        <v>1.74</v>
+        <v>1.92</v>
       </c>
       <c r="BN169">
-        <v>2.02</v>
+        <v>1.82</v>
       </c>
       <c r="BO169">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="BP169">
-        <v>1.62</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="170" spans="1:68">
@@ -36572,7 +36572,7 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>7296440</v>
+        <v>7296441</v>
       </c>
       <c r="C172" t="s">
         <v>68</v>
@@ -36587,190 +36587,190 @@
         <v>22</v>
       </c>
       <c r="G172" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H172" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="I172">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J172">
         <v>0</v>
       </c>
       <c r="K172">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L172">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N172">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O172" t="s">
-        <v>89</v>
+        <v>214</v>
       </c>
       <c r="P172" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="Q172">
-        <v>2.88</v>
+        <v>1.62</v>
       </c>
       <c r="R172">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="S172">
-        <v>3.25</v>
+        <v>8.5</v>
       </c>
       <c r="T172">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="U172">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="V172">
-        <v>2.25</v>
+        <v>1.91</v>
       </c>
       <c r="W172">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="X172">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="Y172">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="Z172">
-        <v>2.7</v>
+        <v>1.16</v>
       </c>
       <c r="AA172">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="AB172">
+        <v>11</v>
+      </c>
+      <c r="AC172">
+        <v>1.01</v>
+      </c>
+      <c r="AD172">
+        <v>32</v>
+      </c>
+      <c r="AE172">
+        <v>1.07</v>
+      </c>
+      <c r="AF172">
+        <v>6.35</v>
+      </c>
+      <c r="AG172">
+        <v>1.34</v>
+      </c>
+      <c r="AH172">
+        <v>2.99</v>
+      </c>
+      <c r="AI172">
+        <v>1.8</v>
+      </c>
+      <c r="AJ172">
+        <v>1.91</v>
+      </c>
+      <c r="AK172">
+        <v>1.03</v>
+      </c>
+      <c r="AL172">
+        <v>1.08</v>
+      </c>
+      <c r="AM172">
+        <v>3.95</v>
+      </c>
+      <c r="AN172">
         <v>2.2</v>
       </c>
-      <c r="AC172">
-        <v>1.03</v>
-      </c>
-      <c r="AD172">
-        <v>9</v>
-      </c>
-      <c r="AE172">
-        <v>1.14</v>
-      </c>
-      <c r="AF172">
-        <v>4.7</v>
-      </c>
-      <c r="AG172">
-        <v>1.57</v>
-      </c>
-      <c r="AH172">
-        <v>2.33</v>
-      </c>
-      <c r="AI172">
-        <v>1.5</v>
-      </c>
-      <c r="AJ172">
-        <v>2.5</v>
-      </c>
-      <c r="AK172">
-        <v>1.48</v>
-      </c>
-      <c r="AL172">
-        <v>1.25</v>
-      </c>
-      <c r="AM172">
-        <v>1.6</v>
-      </c>
-      <c r="AN172">
-        <v>1.4</v>
-      </c>
       <c r="AO172">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AP172">
-        <v>1.36</v>
+        <v>2.27</v>
       </c>
       <c r="AQ172">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="AR172">
-        <v>1.85</v>
+        <v>2.01</v>
       </c>
       <c r="AS172">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="AT172">
-        <v>3.29</v>
+        <v>3.34</v>
       </c>
       <c r="AU172">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AV172">
         <v>3</v>
       </c>
       <c r="AW172">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX172">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AY172">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AZ172">
+        <v>14</v>
+      </c>
+      <c r="BA172">
+        <v>5</v>
+      </c>
+      <c r="BB172">
+        <v>6</v>
+      </c>
+      <c r="BC172">
         <v>11</v>
       </c>
-      <c r="BA172">
-        <v>4</v>
-      </c>
-      <c r="BB172">
-        <v>3</v>
-      </c>
-      <c r="BC172">
-        <v>7</v>
-      </c>
       <c r="BD172">
-        <v>1.96</v>
+        <v>1.11</v>
       </c>
       <c r="BE172">
-        <v>8.6</v>
+        <v>14</v>
       </c>
       <c r="BF172">
-        <v>2.09</v>
+        <v>7.5</v>
       </c>
       <c r="BG172">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="BH172">
-        <v>4.25</v>
+        <v>0</v>
       </c>
       <c r="BI172">
-        <v>1.38</v>
+        <v>1.24</v>
       </c>
       <c r="BJ172">
-        <v>2.88</v>
+        <v>3.8</v>
       </c>
       <c r="BK172">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="BL172">
-        <v>2.12</v>
+        <v>2.7</v>
       </c>
       <c r="BM172">
-        <v>2</v>
+        <v>1.74</v>
       </c>
       <c r="BN172">
-        <v>1.8</v>
+        <v>2.02</v>
       </c>
       <c r="BO172">
-        <v>2.85</v>
+        <v>2.23</v>
       </c>
       <c r="BP172">
-        <v>1.38</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="173" spans="1:68">
@@ -37023,7 +37023,7 @@
         <v>2</v>
       </c>
       <c r="O174" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P174" t="s">
         <v>103</v>
@@ -37435,10 +37435,10 @@
         <v>2</v>
       </c>
       <c r="O176" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P176" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Q176">
         <v>3.75</v>
@@ -37602,7 +37602,7 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>7296441</v>
+        <v>7296440</v>
       </c>
       <c r="C177" t="s">
         <v>68</v>
@@ -37617,190 +37617,190 @@
         <v>22</v>
       </c>
       <c r="G177" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H177" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I177">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J177">
         <v>0</v>
       </c>
       <c r="K177">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L177">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N177">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O177" t="s">
-        <v>216</v>
+        <v>89</v>
       </c>
       <c r="P177" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="Q177">
-        <v>1.62</v>
+        <v>2.88</v>
       </c>
       <c r="R177">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="S177">
-        <v>8.5</v>
+        <v>3.25</v>
       </c>
       <c r="T177">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="U177">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="V177">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="W177">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="X177">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="Y177">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="Z177">
-        <v>1.16</v>
+        <v>2.7</v>
       </c>
       <c r="AA177">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="AB177">
-        <v>11</v>
+        <v>2.2</v>
       </c>
       <c r="AC177">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AD177">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="AE177">
-        <v>1.07</v>
+        <v>1.14</v>
       </c>
       <c r="AF177">
-        <v>6.35</v>
+        <v>4.7</v>
       </c>
       <c r="AG177">
-        <v>1.34</v>
+        <v>1.57</v>
       </c>
       <c r="AH177">
-        <v>2.99</v>
+        <v>2.33</v>
       </c>
       <c r="AI177">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AJ177">
-        <v>1.91</v>
+        <v>2.5</v>
       </c>
       <c r="AK177">
-        <v>1.03</v>
+        <v>1.48</v>
       </c>
       <c r="AL177">
-        <v>1.08</v>
+        <v>1.25</v>
       </c>
       <c r="AM177">
-        <v>3.95</v>
+        <v>1.6</v>
       </c>
       <c r="AN177">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="AO177">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AP177">
-        <v>2.27</v>
+        <v>1.36</v>
       </c>
       <c r="AQ177">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="AR177">
-        <v>2.01</v>
+        <v>1.85</v>
       </c>
       <c r="AS177">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT177">
-        <v>3.34</v>
+        <v>3.29</v>
       </c>
       <c r="AU177">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AV177">
         <v>3</v>
       </c>
       <c r="AW177">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX177">
+        <v>8</v>
+      </c>
+      <c r="AY177">
+        <v>17</v>
+      </c>
+      <c r="AZ177">
         <v>11</v>
       </c>
-      <c r="AY177">
-        <v>14</v>
-      </c>
-      <c r="AZ177">
-        <v>14</v>
-      </c>
       <c r="BA177">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB177">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BC177">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BD177">
-        <v>1.11</v>
+        <v>1.96</v>
       </c>
       <c r="BE177">
-        <v>14</v>
+        <v>8.6</v>
       </c>
       <c r="BF177">
-        <v>7.5</v>
+        <v>2.09</v>
       </c>
       <c r="BG177">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="BH177">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="BI177">
-        <v>1.24</v>
+        <v>1.38</v>
       </c>
       <c r="BJ177">
-        <v>3.8</v>
+        <v>2.88</v>
       </c>
       <c r="BK177">
-        <v>1.43</v>
+        <v>1.67</v>
       </c>
       <c r="BL177">
-        <v>2.7</v>
+        <v>2.12</v>
       </c>
       <c r="BM177">
-        <v>1.74</v>
+        <v>2</v>
       </c>
       <c r="BN177">
-        <v>2.02</v>
+        <v>1.8</v>
       </c>
       <c r="BO177">
-        <v>2.23</v>
+        <v>2.85</v>
       </c>
       <c r="BP177">
-        <v>1.62</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="178" spans="1:68">
@@ -37808,7 +37808,7 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>7296443</v>
+        <v>7296442</v>
       </c>
       <c r="C178" t="s">
         <v>68</v>
@@ -37817,166 +37817,166 @@
         <v>69</v>
       </c>
       <c r="E178" s="2">
-        <v>45556.41666666666</v>
+        <v>45555.875</v>
       </c>
       <c r="F178">
         <v>23</v>
       </c>
       <c r="G178" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H178" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I178">
         <v>0</v>
       </c>
       <c r="J178">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K178">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L178">
         <v>1</v>
       </c>
       <c r="M178">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N178">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O178" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="P178" t="s">
-        <v>318</v>
+        <v>172</v>
       </c>
       <c r="Q178">
-        <v>2.3</v>
+        <v>3.86</v>
       </c>
       <c r="R178">
+        <v>2.25</v>
+      </c>
+      <c r="S178">
         <v>2.48</v>
       </c>
-      <c r="S178">
-        <v>3.9</v>
-      </c>
       <c r="T178">
-        <v>1.23</v>
+        <v>1.32</v>
       </c>
       <c r="U178">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="V178">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="W178">
-        <v>1.55</v>
+        <v>1.46</v>
       </c>
       <c r="X178">
-        <v>4.95</v>
+        <v>5.95</v>
       </c>
       <c r="Y178">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="Z178">
-        <v>1.85</v>
+        <v>3.6</v>
       </c>
       <c r="AA178">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="AB178">
-        <v>3.5</v>
+        <v>1.9</v>
       </c>
       <c r="AC178">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AD178">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE178">
         <v>1.16</v>
       </c>
       <c r="AF178">
-        <v>5.1</v>
+        <v>3.88</v>
       </c>
       <c r="AG178">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="AH178">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="AI178">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="AJ178">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="AK178">
-        <v>1.23</v>
+        <v>1.79</v>
       </c>
       <c r="AL178">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="AM178">
-        <v>1.95</v>
+        <v>1.29</v>
       </c>
       <c r="AN178">
-        <v>1.82</v>
+        <v>2.36</v>
       </c>
       <c r="AO178">
-        <v>1.1</v>
+        <v>2.36</v>
       </c>
       <c r="AP178">
-        <v>1.67</v>
+        <v>2.25</v>
       </c>
       <c r="AQ178">
-        <v>1.27</v>
+        <v>2.25</v>
       </c>
       <c r="AR178">
-        <v>1.85</v>
+        <v>1.76</v>
       </c>
       <c r="AS178">
-        <v>1.5</v>
+        <v>1.91</v>
       </c>
       <c r="AT178">
-        <v>3.35</v>
+        <v>3.67</v>
       </c>
       <c r="AU178">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="AV178">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="AW178">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AX178">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AY178">
-        <v>16</v>
+        <v>-1</v>
       </c>
       <c r="AZ178">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="BA178">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BB178">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BC178">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="BD178">
-        <v>1.75</v>
+        <v>2.66</v>
       </c>
       <c r="BE178">
         <v>8.5</v>
       </c>
       <c r="BF178">
-        <v>2.41</v>
+        <v>1.64</v>
       </c>
       <c r="BG178">
         <v>0</v>
@@ -37985,25 +37985,25 @@
         <v>0</v>
       </c>
       <c r="BI178">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="BJ178">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BK178">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="BL178">
-        <v>2.69</v>
+        <v>0</v>
       </c>
       <c r="BM178">
-        <v>1.68</v>
+        <v>1.92</v>
       </c>
       <c r="BN178">
-        <v>2.16</v>
+        <v>1.88</v>
       </c>
       <c r="BO178">
-        <v>2.06</v>
+        <v>2.09</v>
       </c>
       <c r="BP178">
         <v>1.73</v>
@@ -38014,7 +38014,7 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>7296442</v>
+        <v>7296443</v>
       </c>
       <c r="C179" t="s">
         <v>68</v>
@@ -38023,166 +38023,166 @@
         <v>69</v>
       </c>
       <c r="E179" s="2">
-        <v>45556.45833333334</v>
+        <v>45556.41666666666</v>
       </c>
       <c r="F179">
         <v>23</v>
       </c>
       <c r="G179" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H179" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I179">
         <v>0</v>
       </c>
       <c r="J179">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K179">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L179">
         <v>1</v>
       </c>
       <c r="M179">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N179">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O179" t="s">
-        <v>149</v>
+        <v>205</v>
       </c>
       <c r="P179" t="s">
-        <v>172</v>
+        <v>318</v>
       </c>
       <c r="Q179">
-        <v>3.86</v>
+        <v>2.3</v>
       </c>
       <c r="R179">
-        <v>2.25</v>
+        <v>2.48</v>
       </c>
       <c r="S179">
-        <v>2.48</v>
+        <v>3.9</v>
       </c>
       <c r="T179">
-        <v>1.32</v>
+        <v>1.23</v>
       </c>
       <c r="U179">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="V179">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="W179">
-        <v>1.46</v>
+        <v>1.55</v>
       </c>
       <c r="X179">
-        <v>5.95</v>
+        <v>4.95</v>
       </c>
       <c r="Y179">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="Z179">
-        <v>3.6</v>
+        <v>1.85</v>
       </c>
       <c r="AA179">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="AB179">
-        <v>1.9</v>
+        <v>3.5</v>
       </c>
       <c r="AC179">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="AD179">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AE179">
         <v>1.16</v>
       </c>
       <c r="AF179">
-        <v>3.88</v>
+        <v>5.1</v>
       </c>
       <c r="AG179">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AH179">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="AI179">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="AJ179">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="AK179">
-        <v>1.79</v>
+        <v>1.23</v>
       </c>
       <c r="AL179">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AM179">
-        <v>1.29</v>
+        <v>1.95</v>
       </c>
       <c r="AN179">
-        <v>2.36</v>
+        <v>1.82</v>
       </c>
       <c r="AO179">
-        <v>2.36</v>
+        <v>1.1</v>
       </c>
       <c r="AP179">
-        <v>2.25</v>
+        <v>1.67</v>
       </c>
       <c r="AQ179">
-        <v>2.25</v>
+        <v>1.27</v>
       </c>
       <c r="AR179">
-        <v>1.76</v>
+        <v>1.85</v>
       </c>
       <c r="AS179">
-        <v>1.91</v>
+        <v>1.5</v>
       </c>
       <c r="AT179">
-        <v>3.67</v>
+        <v>3.35</v>
       </c>
       <c r="AU179">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV179">
+        <v>10</v>
+      </c>
+      <c r="AW179">
+        <v>6</v>
+      </c>
+      <c r="AX179">
         <v>4</v>
       </c>
-      <c r="AW179">
-        <v>4</v>
-      </c>
-      <c r="AX179">
-        <v>10</v>
-      </c>
       <c r="AY179">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ179">
         <v>14</v>
       </c>
       <c r="BA179">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB179">
+        <v>2</v>
+      </c>
+      <c r="BC179">
         <v>7</v>
       </c>
-      <c r="BC179">
-        <v>13</v>
-      </c>
       <c r="BD179">
-        <v>2.66</v>
+        <v>1.75</v>
       </c>
       <c r="BE179">
         <v>8.5</v>
       </c>
       <c r="BF179">
-        <v>1.64</v>
+        <v>2.41</v>
       </c>
       <c r="BG179">
         <v>0</v>
@@ -38191,25 +38191,25 @@
         <v>0</v>
       </c>
       <c r="BI179">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="BJ179">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BK179">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="BL179">
-        <v>0</v>
+        <v>2.69</v>
       </c>
       <c r="BM179">
-        <v>1.92</v>
+        <v>1.68</v>
       </c>
       <c r="BN179">
-        <v>1.88</v>
+        <v>2.16</v>
       </c>
       <c r="BO179">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="BP179">
         <v>1.73</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="338">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -676,19 +676,28 @@
     <t>['13', '17', '76', '90+1']</t>
   </si>
   <si>
-    <t>['20', '68']</t>
-  </si>
-  <si>
     <t>['60']</t>
   </si>
   <si>
     <t>['49', '52', '80']</t>
   </si>
   <si>
+    <t>['20', '68']</t>
+  </si>
+  <si>
     <t>['6', '37', '71', '76', '84', '87']</t>
   </si>
   <si>
     <t>['1', '19']</t>
+  </si>
+  <si>
+    <t>['4', '45+3', '83']</t>
+  </si>
+  <si>
+    <t>['40', '61']</t>
+  </si>
+  <si>
+    <t>['15', '49']</t>
   </si>
   <si>
     <t>['90+1']</t>
@@ -1007,6 +1016,18 @@
   </si>
   <si>
     <t>['3', '24', '28']</t>
+  </si>
+  <si>
+    <t>['23', '56']</t>
+  </si>
+  <si>
+    <t>['33', '42', '78', '87']</t>
+  </si>
+  <si>
+    <t>['31', '72']</t>
+  </si>
+  <si>
+    <t>['25', '47']</t>
   </si>
 </sst>
 </file>
@@ -1368,7 +1389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP192"/>
+  <dimension ref="A1:BP200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1627,7 +1648,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q2">
         <v>2.84</v>
@@ -1705,10 +1726,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ2">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1833,7 +1854,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q3">
         <v>2.2</v>
@@ -1911,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ3">
         <v>1.08</v>
@@ -2039,7 +2060,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -2120,7 +2141,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2323,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AQ5">
         <v>1.08</v>
@@ -2451,7 +2472,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q6">
         <v>2.35</v>
@@ -2529,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ6">
         <v>1</v>
@@ -2657,7 +2678,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q7">
         <v>2.66</v>
@@ -2738,7 +2759,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ7">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2863,7 +2884,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q8">
         <v>2.8</v>
@@ -2941,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AQ8">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3275,7 +3296,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3481,7 +3502,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3562,7 +3583,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ11">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3687,7 +3708,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3765,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ12">
         <v>0.42</v>
@@ -3971,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ13">
         <v>1.58</v>
@@ -4180,7 +4201,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ14">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4305,7 +4326,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q15">
         <v>2.05</v>
@@ -4386,7 +4407,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ15">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4589,7 +4610,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ16">
         <v>1.33</v>
@@ -4717,7 +4738,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q17">
         <v>2.15</v>
@@ -4923,7 +4944,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q18">
         <v>2.15</v>
@@ -5001,10 +5022,10 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ18">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR18">
         <v>1.34</v>
@@ -5207,7 +5228,7 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ19">
         <v>1</v>
@@ -5619,10 +5640,10 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AQ21">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR21">
         <v>1.74</v>
@@ -5747,7 +5768,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q22">
         <v>2.76</v>
@@ -5825,10 +5846,10 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ22">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR22">
         <v>1.02</v>
@@ -5953,7 +5974,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q23">
         <v>2.85</v>
@@ -6034,7 +6055,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ23">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AR23">
         <v>1.2</v>
@@ -6159,7 +6180,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q24">
         <v>2.05</v>
@@ -6237,7 +6258,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AQ24">
         <v>1.5</v>
@@ -6446,7 +6467,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ25">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR25">
         <v>1.76</v>
@@ -6777,7 +6798,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -7189,7 +7210,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q29">
         <v>2.25</v>
@@ -7267,7 +7288,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ29">
         <v>0.67</v>
@@ -7601,7 +7622,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7679,10 +7700,10 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ31">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AR31">
         <v>0.83</v>
@@ -7885,10 +7906,10 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ32">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR32">
         <v>1.53</v>
@@ -8013,7 +8034,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q33">
         <v>3.05</v>
@@ -8091,7 +8112,7 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AQ33">
         <v>1</v>
@@ -8219,7 +8240,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q34">
         <v>2.26</v>
@@ -8297,10 +8318,10 @@
         <v>0.5</v>
       </c>
       <c r="AP34">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AQ34">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR34">
         <v>1.33</v>
@@ -8425,7 +8446,7 @@
         <v>115</v>
       </c>
       <c r="P35" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q35">
         <v>3.46</v>
@@ -8503,7 +8524,7 @@
         <v>2</v>
       </c>
       <c r="AP35">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ35">
         <v>1.08</v>
@@ -8709,10 +8730,10 @@
         <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ36">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AR36">
         <v>1.75</v>
@@ -8837,7 +8858,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q37">
         <v>2.72</v>
@@ -8918,7 +8939,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ37">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR37">
         <v>1.12</v>
@@ -9043,7 +9064,7 @@
         <v>118</v>
       </c>
       <c r="P38" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q38">
         <v>4.55</v>
@@ -9124,7 +9145,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ38">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AR38">
         <v>1.21</v>
@@ -9249,7 +9270,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q39">
         <v>2.78</v>
@@ -9327,7 +9348,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ39">
         <v>1.08</v>
@@ -10073,7 +10094,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q43">
         <v>3.11</v>
@@ -10151,10 +10172,10 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AQ43">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR43">
         <v>1.39</v>
@@ -10279,7 +10300,7 @@
         <v>123</v>
       </c>
       <c r="P44" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q44">
         <v>3.3</v>
@@ -10485,7 +10506,7 @@
         <v>94</v>
       </c>
       <c r="P45" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q45">
         <v>2.4</v>
@@ -10769,7 +10790,7 @@
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ46">
         <v>1.33</v>
@@ -10978,7 +10999,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ47">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR47">
         <v>1.55</v>
@@ -11181,10 +11202,10 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ48">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR48">
         <v>1.78</v>
@@ -11387,10 +11408,10 @@
         <v>1.33</v>
       </c>
       <c r="AP49">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ49">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR49">
         <v>1.8</v>
@@ -11515,7 +11536,7 @@
         <v>103</v>
       </c>
       <c r="P50" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q50">
         <v>3.89</v>
@@ -11593,10 +11614,10 @@
         <v>1.33</v>
       </c>
       <c r="AP50">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AQ50">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AR50">
         <v>1.3</v>
@@ -11721,7 +11742,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q51">
         <v>2.61</v>
@@ -11799,10 +11820,10 @@
         <v>2.33</v>
       </c>
       <c r="AP51">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ51">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR51">
         <v>1.26</v>
@@ -11927,7 +11948,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -12133,7 +12154,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q53">
         <v>2.05</v>
@@ -12417,7 +12438,7 @@
         <v>1.67</v>
       </c>
       <c r="AP54">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ54">
         <v>1</v>
@@ -12623,10 +12644,10 @@
         <v>0.33</v>
       </c>
       <c r="AP55">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ55">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AR55">
         <v>1.63</v>
@@ -12957,7 +12978,7 @@
         <v>103</v>
       </c>
       <c r="P57" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q57">
         <v>2.57</v>
@@ -13035,10 +13056,10 @@
         <v>0.75</v>
       </c>
       <c r="AP57">
+        <v>0.85</v>
+      </c>
+      <c r="AQ57">
         <v>0.92</v>
-      </c>
-      <c r="AQ57">
-        <v>1</v>
       </c>
       <c r="AR57">
         <v>1.2</v>
@@ -13163,7 +13184,7 @@
         <v>132</v>
       </c>
       <c r="P58" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q58">
         <v>2.3</v>
@@ -13369,7 +13390,7 @@
         <v>103</v>
       </c>
       <c r="P59" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q59">
         <v>2.75</v>
@@ -13450,7 +13471,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ59">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR59">
         <v>1.1</v>
@@ -13575,7 +13596,7 @@
         <v>103</v>
       </c>
       <c r="P60" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q60">
         <v>2.32</v>
@@ -13859,7 +13880,7 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AQ61">
         <v>1.58</v>
@@ -13987,7 +14008,7 @@
         <v>134</v>
       </c>
       <c r="P62" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q62">
         <v>2.39</v>
@@ -14065,7 +14086,7 @@
         <v>1.33</v>
       </c>
       <c r="AP62">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ62">
         <v>1.5</v>
@@ -14193,7 +14214,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q63">
         <v>2.84</v>
@@ -14274,7 +14295,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ63">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR63">
         <v>1.75</v>
@@ -14399,7 +14420,7 @@
         <v>136</v>
       </c>
       <c r="P64" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q64">
         <v>2.7</v>
@@ -14480,7 +14501,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ64">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AR64">
         <v>1.35</v>
@@ -14605,7 +14626,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -14683,10 +14704,10 @@
         <v>1.75</v>
       </c>
       <c r="AP65">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ65">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AR65">
         <v>1.68</v>
@@ -14889,7 +14910,7 @@
         <v>1.5</v>
       </c>
       <c r="AP66">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ66">
         <v>1.08</v>
@@ -15017,7 +15038,7 @@
         <v>139</v>
       </c>
       <c r="P67" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q67">
         <v>2.5</v>
@@ -15304,7 +15325,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ68">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR68">
         <v>1.49</v>
@@ -15507,7 +15528,7 @@
         <v>1.33</v>
       </c>
       <c r="AP69">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ69">
         <v>1.17</v>
@@ -15635,7 +15656,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q70">
         <v>1.85</v>
@@ -15713,10 +15734,10 @@
         <v>0</v>
       </c>
       <c r="AP70">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ70">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR70">
         <v>1.92</v>
@@ -15919,7 +15940,7 @@
         <v>0.33</v>
       </c>
       <c r="AP71">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ71">
         <v>0.42</v>
@@ -16047,7 +16068,7 @@
         <v>143</v>
       </c>
       <c r="P72" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q72">
         <v>2.24</v>
@@ -16253,7 +16274,7 @@
         <v>103</v>
       </c>
       <c r="P73" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q73">
         <v>3.66</v>
@@ -16331,7 +16352,7 @@
         <v>1.75</v>
       </c>
       <c r="AP73">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AQ73">
         <v>1.33</v>
@@ -16459,7 +16480,7 @@
         <v>144</v>
       </c>
       <c r="P74" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q74">
         <v>2.4</v>
@@ -16537,10 +16558,10 @@
         <v>2</v>
       </c>
       <c r="AP74">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ74">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR74">
         <v>1.87</v>
@@ -16665,7 +16686,7 @@
         <v>145</v>
       </c>
       <c r="P75" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q75">
         <v>2.38</v>
@@ -16743,7 +16764,7 @@
         <v>0.6</v>
       </c>
       <c r="AP75">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ75">
         <v>1.08</v>
@@ -16871,7 +16892,7 @@
         <v>125</v>
       </c>
       <c r="P76" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -16952,7 +16973,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ76">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR76">
         <v>1.63</v>
@@ -17283,7 +17304,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q78">
         <v>2.75</v>
@@ -17361,7 +17382,7 @@
         <v>0.33</v>
       </c>
       <c r="AP78">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AQ78">
         <v>0.67</v>
@@ -17489,7 +17510,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17570,7 +17591,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ79">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR79">
         <v>2.01</v>
@@ -17695,7 +17716,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q80">
         <v>2.2</v>
@@ -17773,10 +17794,10 @@
         <v>0</v>
       </c>
       <c r="AP80">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ80">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR80">
         <v>1.6</v>
@@ -17901,7 +17922,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q81">
         <v>2.31</v>
@@ -17982,7 +18003,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ81">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR81">
         <v>2.48</v>
@@ -18185,7 +18206,7 @@
         <v>0.25</v>
       </c>
       <c r="AP82">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ82">
         <v>0.42</v>
@@ -18313,7 +18334,7 @@
         <v>151</v>
       </c>
       <c r="P83" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q83">
         <v>2.7</v>
@@ -18725,7 +18746,7 @@
         <v>153</v>
       </c>
       <c r="P85" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q85">
         <v>3.5</v>
@@ -18803,10 +18824,10 @@
         <v>2</v>
       </c>
       <c r="AP85">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ85">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AR85">
         <v>1.61</v>
@@ -18931,7 +18952,7 @@
         <v>154</v>
       </c>
       <c r="P86" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q86">
         <v>2.55</v>
@@ -19009,7 +19030,7 @@
         <v>0.75</v>
       </c>
       <c r="AP86">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ86">
         <v>1.58</v>
@@ -19137,7 +19158,7 @@
         <v>155</v>
       </c>
       <c r="P87" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q87">
         <v>2.27</v>
@@ -19218,7 +19239,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ87">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AR87">
         <v>1.38</v>
@@ -19549,7 +19570,7 @@
         <v>156</v>
       </c>
       <c r="P89" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q89">
         <v>2.8</v>
@@ -19755,7 +19776,7 @@
         <v>157</v>
       </c>
       <c r="P90" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q90">
         <v>2.6</v>
@@ -19836,7 +19857,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ90">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR90">
         <v>1.67</v>
@@ -19961,7 +19982,7 @@
         <v>158</v>
       </c>
       <c r="P91" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -20167,7 +20188,7 @@
         <v>159</v>
       </c>
       <c r="P92" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q92">
         <v>3.6</v>
@@ -20245,7 +20266,7 @@
         <v>2</v>
       </c>
       <c r="AP92">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AQ92">
         <v>1.33</v>
@@ -20451,7 +20472,7 @@
         <v>0.2</v>
       </c>
       <c r="AP93">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ93">
         <v>0.67</v>
@@ -20579,7 +20600,7 @@
         <v>161</v>
       </c>
       <c r="P94" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q94">
         <v>2.1</v>
@@ -20660,7 +20681,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ94">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR94">
         <v>2</v>
@@ -20785,7 +20806,7 @@
         <v>162</v>
       </c>
       <c r="P95" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q95">
         <v>2.17</v>
@@ -20863,10 +20884,10 @@
         <v>0.25</v>
       </c>
       <c r="AP95">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ95">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR95">
         <v>1.88</v>
@@ -21275,10 +21296,10 @@
         <v>1.5</v>
       </c>
       <c r="AP97">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ97">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR97">
         <v>1.52</v>
@@ -21484,7 +21505,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ98">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AR98">
         <v>2.17</v>
@@ -21609,7 +21630,7 @@
         <v>165</v>
       </c>
       <c r="P99" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q99">
         <v>3.35</v>
@@ -22021,7 +22042,7 @@
         <v>167</v>
       </c>
       <c r="P101" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q101">
         <v>2.96</v>
@@ -22099,10 +22120,10 @@
         <v>0.2</v>
       </c>
       <c r="AP101">
+        <v>0.85</v>
+      </c>
+      <c r="AQ101">
         <v>0.92</v>
-      </c>
-      <c r="AQ101">
-        <v>0.73</v>
       </c>
       <c r="AR101">
         <v>1.53</v>
@@ -22227,7 +22248,7 @@
         <v>168</v>
       </c>
       <c r="P102" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q102">
         <v>2.44</v>
@@ -22305,10 +22326,10 @@
         <v>1</v>
       </c>
       <c r="AP102">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ102">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR102">
         <v>1.74</v>
@@ -22433,7 +22454,7 @@
         <v>103</v>
       </c>
       <c r="P103" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q103">
         <v>1.81</v>
@@ -22511,7 +22532,7 @@
         <v>0.17</v>
       </c>
       <c r="AP103">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ103">
         <v>0.67</v>
@@ -22845,7 +22866,7 @@
         <v>170</v>
       </c>
       <c r="P105" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q105">
         <v>2.69</v>
@@ -22923,7 +22944,7 @@
         <v>0.57</v>
       </c>
       <c r="AP105">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AQ105">
         <v>1.08</v>
@@ -23051,7 +23072,7 @@
         <v>171</v>
       </c>
       <c r="P106" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q106">
         <v>2.56</v>
@@ -23132,7 +23153,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ106">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AR106">
         <v>1.19</v>
@@ -23335,7 +23356,7 @@
         <v>1</v>
       </c>
       <c r="AP107">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ107">
         <v>1</v>
@@ -23669,7 +23690,7 @@
         <v>174</v>
       </c>
       <c r="P109" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q109">
         <v>3.5</v>
@@ -23747,10 +23768,10 @@
         <v>1.17</v>
       </c>
       <c r="AP109">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ109">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR109">
         <v>1.59</v>
@@ -23875,7 +23896,7 @@
         <v>175</v>
       </c>
       <c r="P110" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q110">
         <v>2.43</v>
@@ -23953,7 +23974,7 @@
         <v>1.33</v>
       </c>
       <c r="AP110">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ110">
         <v>1.5</v>
@@ -24081,7 +24102,7 @@
         <v>103</v>
       </c>
       <c r="P111" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q111">
         <v>3.02</v>
@@ -24162,7 +24183,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ111">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR111">
         <v>1.49</v>
@@ -24365,10 +24386,10 @@
         <v>1.29</v>
       </c>
       <c r="AP112">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ112">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR112">
         <v>1.58</v>
@@ -24493,7 +24514,7 @@
         <v>103</v>
       </c>
       <c r="P113" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q113">
         <v>2.85</v>
@@ -25111,7 +25132,7 @@
         <v>177</v>
       </c>
       <c r="P116" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q116">
         <v>4.5</v>
@@ -25192,7 +25213,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ116">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AR116">
         <v>1.83</v>
@@ -25395,7 +25416,7 @@
         <v>0.57</v>
       </c>
       <c r="AP117">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ117">
         <v>0.67</v>
@@ -25523,7 +25544,7 @@
         <v>103</v>
       </c>
       <c r="P118" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q118">
         <v>3.2</v>
@@ -25807,7 +25828,7 @@
         <v>0.17</v>
       </c>
       <c r="AP119">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ119">
         <v>0.42</v>
@@ -26013,10 +26034,10 @@
         <v>1.29</v>
       </c>
       <c r="AP120">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ120">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR120">
         <v>1.55</v>
@@ -26141,7 +26162,7 @@
         <v>180</v>
       </c>
       <c r="P121" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q121">
         <v>2.38</v>
@@ -26219,7 +26240,7 @@
         <v>1.13</v>
       </c>
       <c r="AP121">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ121">
         <v>1</v>
@@ -26428,7 +26449,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ122">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AR122">
         <v>1.59</v>
@@ -26553,7 +26574,7 @@
         <v>170</v>
       </c>
       <c r="P123" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q123">
         <v>2.51</v>
@@ -26631,10 +26652,10 @@
         <v>1.43</v>
       </c>
       <c r="AP123">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ123">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR123">
         <v>1.8</v>
@@ -26759,7 +26780,7 @@
         <v>182</v>
       </c>
       <c r="P124" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q124">
         <v>2.46</v>
@@ -26837,10 +26858,10 @@
         <v>2.13</v>
       </c>
       <c r="AP124">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AQ124">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR124">
         <v>1.3</v>
@@ -26965,7 +26986,7 @@
         <v>183</v>
       </c>
       <c r="P125" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q125">
         <v>3.68</v>
@@ -27171,7 +27192,7 @@
         <v>184</v>
       </c>
       <c r="P126" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q126">
         <v>1.95</v>
@@ -27455,7 +27476,7 @@
         <v>0.29</v>
       </c>
       <c r="AP127">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ127">
         <v>0.42</v>
@@ -27664,7 +27685,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ128">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR128">
         <v>1.78</v>
@@ -27789,7 +27810,7 @@
         <v>187</v>
       </c>
       <c r="P129" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q129">
         <v>3</v>
@@ -27867,7 +27888,7 @@
         <v>1.38</v>
       </c>
       <c r="AP129">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ129">
         <v>1.33</v>
@@ -27995,7 +28016,7 @@
         <v>103</v>
       </c>
       <c r="P130" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q130">
         <v>2.88</v>
@@ -28073,7 +28094,7 @@
         <v>0.5</v>
       </c>
       <c r="AP130">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AQ130">
         <v>0.67</v>
@@ -28201,7 +28222,7 @@
         <v>103</v>
       </c>
       <c r="P131" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q131">
         <v>3.04</v>
@@ -28407,7 +28428,7 @@
         <v>103</v>
       </c>
       <c r="P132" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q132">
         <v>2.69</v>
@@ -28488,7 +28509,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ132">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR132">
         <v>2.1</v>
@@ -28613,7 +28634,7 @@
         <v>103</v>
       </c>
       <c r="P133" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q133">
         <v>3.2</v>
@@ -28819,7 +28840,7 @@
         <v>103</v>
       </c>
       <c r="P134" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q134">
         <v>3.75</v>
@@ -28900,7 +28921,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ134">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AR134">
         <v>1.52</v>
@@ -29103,7 +29124,7 @@
         <v>1.25</v>
       </c>
       <c r="AP135">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ135">
         <v>1.08</v>
@@ -29309,10 +29330,10 @@
         <v>1.63</v>
       </c>
       <c r="AP136">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AQ136">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR136">
         <v>1.31</v>
@@ -29721,7 +29742,7 @@
         <v>0.78</v>
       </c>
       <c r="AP138">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ138">
         <v>1.08</v>
@@ -29849,7 +29870,7 @@
         <v>191</v>
       </c>
       <c r="P139" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q139">
         <v>3.6</v>
@@ -29927,7 +29948,7 @@
         <v>1.13</v>
       </c>
       <c r="AP139">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ139">
         <v>1.58</v>
@@ -30055,7 +30076,7 @@
         <v>192</v>
       </c>
       <c r="P140" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q140">
         <v>2.61</v>
@@ -30342,7 +30363,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ141">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR141">
         <v>2</v>
@@ -30467,7 +30488,7 @@
         <v>194</v>
       </c>
       <c r="P142" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q142">
         <v>2.75</v>
@@ -30545,7 +30566,7 @@
         <v>1.38</v>
       </c>
       <c r="AP142">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ142">
         <v>1.5</v>
@@ -30673,7 +30694,7 @@
         <v>195</v>
       </c>
       <c r="P143" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q143">
         <v>2.2</v>
@@ -30754,7 +30775,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ143">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AR143">
         <v>2.1</v>
@@ -30879,7 +30900,7 @@
         <v>91</v>
       </c>
       <c r="P144" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q144">
         <v>2.02</v>
@@ -30960,7 +30981,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ144">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR144">
         <v>1.65</v>
@@ -31085,7 +31106,7 @@
         <v>103</v>
       </c>
       <c r="P145" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q145">
         <v>3.44</v>
@@ -31163,7 +31184,7 @@
         <v>1</v>
       </c>
       <c r="AP145">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AQ145">
         <v>1.17</v>
@@ -31291,7 +31312,7 @@
         <v>196</v>
       </c>
       <c r="P146" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q146">
         <v>3.75</v>
@@ -31372,7 +31393,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ146">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AR146">
         <v>1.75</v>
@@ -31578,7 +31599,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ147">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR147">
         <v>1.14</v>
@@ -31781,10 +31802,10 @@
         <v>0.63</v>
       </c>
       <c r="AP148">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ148">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR148">
         <v>1.5</v>
@@ -31990,7 +32011,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ149">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR149">
         <v>1.48</v>
@@ -32115,7 +32136,7 @@
         <v>199</v>
       </c>
       <c r="P150" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q150">
         <v>1.8</v>
@@ -32193,10 +32214,10 @@
         <v>0.22</v>
       </c>
       <c r="AP150">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ150">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AR150">
         <v>1.87</v>
@@ -32321,7 +32342,7 @@
         <v>200</v>
       </c>
       <c r="P151" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q151">
         <v>2.48</v>
@@ -32399,7 +32420,7 @@
         <v>1.33</v>
       </c>
       <c r="AP151">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ151">
         <v>1.33</v>
@@ -32527,7 +32548,7 @@
         <v>201</v>
       </c>
       <c r="P152" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q152">
         <v>3.4</v>
@@ -32605,7 +32626,7 @@
         <v>1.11</v>
       </c>
       <c r="AP152">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AQ152">
         <v>1.08</v>
@@ -32811,7 +32832,7 @@
         <v>1.25</v>
       </c>
       <c r="AP153">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ153">
         <v>1.17</v>
@@ -32939,7 +32960,7 @@
         <v>203</v>
       </c>
       <c r="P154" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q154">
         <v>1.91</v>
@@ -33145,7 +33166,7 @@
         <v>103</v>
       </c>
       <c r="P155" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q155">
         <v>2.5</v>
@@ -33351,7 +33372,7 @@
         <v>204</v>
       </c>
       <c r="P156" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q156">
         <v>2.7</v>
@@ -33432,7 +33453,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ156">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR156">
         <v>2.11</v>
@@ -33763,7 +33784,7 @@
         <v>206</v>
       </c>
       <c r="P158" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q158">
         <v>2.32</v>
@@ -33844,7 +33865,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ158">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR158">
         <v>1.74</v>
@@ -33969,7 +33990,7 @@
         <v>163</v>
       </c>
       <c r="P159" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q159">
         <v>3.06</v>
@@ -34047,7 +34068,7 @@
         <v>1.33</v>
       </c>
       <c r="AP159">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AQ159">
         <v>1.58</v>
@@ -34175,7 +34196,7 @@
         <v>207</v>
       </c>
       <c r="P160" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q160">
         <v>2</v>
@@ -34253,7 +34274,7 @@
         <v>0.78</v>
       </c>
       <c r="AP160">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ160">
         <v>0.67</v>
@@ -34459,7 +34480,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP161">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ161">
         <v>0.42</v>
@@ -34587,7 +34608,7 @@
         <v>103</v>
       </c>
       <c r="P162" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q162">
         <v>6.3</v>
@@ -34665,10 +34686,10 @@
         <v>2.3</v>
       </c>
       <c r="AP162">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AQ162">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AR162">
         <v>1.61</v>
@@ -34871,7 +34892,7 @@
         <v>1.3</v>
       </c>
       <c r="AP163">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ163">
         <v>1.08</v>
@@ -35080,7 +35101,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ164">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR164">
         <v>1.47</v>
@@ -35283,7 +35304,7 @@
         <v>1.11</v>
       </c>
       <c r="AP165">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ165">
         <v>1.17</v>
@@ -35411,7 +35432,7 @@
         <v>210</v>
       </c>
       <c r="P166" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q166">
         <v>2.05</v>
@@ -35489,10 +35510,10 @@
         <v>0.3</v>
       </c>
       <c r="AP166">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ166">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AR166">
         <v>1.39</v>
@@ -35617,7 +35638,7 @@
         <v>211</v>
       </c>
       <c r="P167" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q167">
         <v>3.92</v>
@@ -35698,7 +35719,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ167">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR167">
         <v>1.27</v>
@@ -35823,7 +35844,7 @@
         <v>212</v>
       </c>
       <c r="P168" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q168">
         <v>2.63</v>
@@ -35904,7 +35925,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ168">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR168">
         <v>1.74</v>
@@ -36029,7 +36050,7 @@
         <v>213</v>
       </c>
       <c r="P169" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q169">
         <v>3.4</v>
@@ -36107,7 +36128,7 @@
         <v>1.3</v>
       </c>
       <c r="AP169">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ169">
         <v>1.33</v>
@@ -36441,7 +36462,7 @@
         <v>103</v>
       </c>
       <c r="P171" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q171">
         <v>2.63</v>
@@ -36647,7 +36668,7 @@
         <v>121</v>
       </c>
       <c r="P172" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q172">
         <v>2.1</v>
@@ -36725,10 +36746,10 @@
         <v>1.3</v>
       </c>
       <c r="AP172">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ172">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR172">
         <v>1.93</v>
@@ -36931,7 +36952,7 @@
         <v>0.5</v>
       </c>
       <c r="AP173">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AQ173">
         <v>0.42</v>
@@ -37137,10 +37158,10 @@
         <v>1.3</v>
       </c>
       <c r="AP174">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ174">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR174">
         <v>1.89</v>
@@ -37883,7 +37904,7 @@
         <v>217</v>
       </c>
       <c r="P178" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q178">
         <v>2.1</v>
@@ -37961,10 +37982,10 @@
         <v>0.55</v>
       </c>
       <c r="AP178">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ178">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AR178">
         <v>1.9</v>
@@ -38167,10 +38188,10 @@
         <v>2.36</v>
       </c>
       <c r="AP179">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ179">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AR179">
         <v>1.76</v>
@@ -38295,7 +38316,7 @@
         <v>207</v>
       </c>
       <c r="P180" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q180">
         <v>2.3</v>
@@ -38373,7 +38394,7 @@
         <v>1.1</v>
       </c>
       <c r="AP180">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ180">
         <v>1.17</v>
@@ -38579,10 +38600,10 @@
         <v>0.8</v>
       </c>
       <c r="AP181">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ181">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR181">
         <v>1.5</v>
@@ -38785,10 +38806,10 @@
         <v>1.27</v>
       </c>
       <c r="AP182">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ182">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR182">
         <v>1.48</v>
@@ -38991,10 +39012,10 @@
         <v>1.09</v>
       </c>
       <c r="AP183">
+        <v>0.85</v>
+      </c>
+      <c r="AQ183">
         <v>0.92</v>
-      </c>
-      <c r="AQ183">
-        <v>1</v>
       </c>
       <c r="AR183">
         <v>1.54</v>
@@ -39200,7 +39221,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ184">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR184">
         <v>1.74</v>
@@ -39292,7 +39313,7 @@
         <v>69</v>
       </c>
       <c r="E185" s="2">
-        <v>45559.58333333334</v>
+        <v>45558.875</v>
       </c>
       <c r="F185">
         <v>24</v>
@@ -39325,7 +39346,7 @@
         <v>219</v>
       </c>
       <c r="P185" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q185">
         <v>1.73</v>
@@ -39418,22 +39439,22 @@
         <v>3.53</v>
       </c>
       <c r="AU185">
+        <v>6</v>
+      </c>
+      <c r="AV185">
+        <v>7</v>
+      </c>
+      <c r="AW185">
+        <v>4</v>
+      </c>
+      <c r="AX185">
         <v>5</v>
       </c>
-      <c r="AV185">
-        <v>2</v>
-      </c>
-      <c r="AW185">
-        <v>0</v>
-      </c>
-      <c r="AX185">
-        <v>0</v>
-      </c>
       <c r="AY185">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AZ185">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="BA185">
         <v>10</v>
@@ -39489,7 +39510,7 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>7296455</v>
+        <v>7296450</v>
       </c>
       <c r="C186" t="s">
         <v>68</v>
@@ -39498,166 +39519,166 @@
         <v>69</v>
       </c>
       <c r="E186" s="2">
-        <v>45560.45833333334</v>
+        <v>45559.875</v>
       </c>
       <c r="F186">
         <v>24</v>
       </c>
       <c r="G186" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H186" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I186">
         <v>1</v>
       </c>
       <c r="J186">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K186">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M186">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N186">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O186" t="s">
-        <v>220</v>
+        <v>189</v>
       </c>
       <c r="P186" t="s">
-        <v>260</v>
+        <v>330</v>
       </c>
       <c r="Q186">
+        <v>2.94</v>
+      </c>
+      <c r="R186">
+        <v>2.3</v>
+      </c>
+      <c r="S186">
+        <v>3.04</v>
+      </c>
+      <c r="T186">
+        <v>1.28</v>
+      </c>
+      <c r="U186">
+        <v>3.44</v>
+      </c>
+      <c r="V186">
+        <v>2.34</v>
+      </c>
+      <c r="W186">
+        <v>1.56</v>
+      </c>
+      <c r="X186">
+        <v>5.35</v>
+      </c>
+      <c r="Y186">
+        <v>1.13</v>
+      </c>
+      <c r="Z186">
         <v>2.5</v>
       </c>
-      <c r="R186">
-        <v>2.6</v>
-      </c>
-      <c r="S186">
-        <v>3.1</v>
-      </c>
-      <c r="T186">
-        <v>1.17</v>
-      </c>
-      <c r="U186">
-        <v>4.65</v>
-      </c>
-      <c r="V186">
-        <v>1.86</v>
-      </c>
-      <c r="W186">
-        <v>1.88</v>
-      </c>
-      <c r="X186">
-        <v>3.62</v>
-      </c>
-      <c r="Y186">
-        <v>1.26</v>
-      </c>
-      <c r="Z186">
-        <v>2.15</v>
-      </c>
       <c r="AA186">
-        <v>4</v>
+        <v>3.35</v>
       </c>
       <c r="AB186">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="AC186">
         <v>1.01</v>
       </c>
       <c r="AD186">
-        <v>14.75</v>
+        <v>11</v>
       </c>
       <c r="AE186">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AF186">
+        <v>4.25</v>
+      </c>
+      <c r="AG186">
+        <v>1.56</v>
+      </c>
+      <c r="AH186">
+        <v>2.35</v>
+      </c>
+      <c r="AI186">
+        <v>1.5</v>
+      </c>
+      <c r="AJ186">
+        <v>2.41</v>
+      </c>
+      <c r="AK186">
+        <v>1.49</v>
+      </c>
+      <c r="AL186">
+        <v>1.26</v>
+      </c>
+      <c r="AM186">
+        <v>1.5</v>
+      </c>
+      <c r="AN186">
+        <v>1.18</v>
+      </c>
+      <c r="AO186">
+        <v>1.36</v>
+      </c>
+      <c r="AP186">
+        <v>1.08</v>
+      </c>
+      <c r="AQ186">
+        <v>1.5</v>
+      </c>
+      <c r="AR186">
+        <v>1.74</v>
+      </c>
+      <c r="AS186">
+        <v>1.79</v>
+      </c>
+      <c r="AT186">
+        <v>3.53</v>
+      </c>
+      <c r="AU186">
+        <v>4</v>
+      </c>
+      <c r="AV186">
+        <v>6</v>
+      </c>
+      <c r="AW186">
         <v>8</v>
       </c>
-      <c r="AG186">
-        <v>1.25</v>
-      </c>
-      <c r="AH186">
-        <v>3.5</v>
-      </c>
-      <c r="AI186">
-        <v>1.25</v>
-      </c>
-      <c r="AJ186">
-        <v>3.5</v>
-      </c>
-      <c r="AK186">
-        <v>1.43</v>
-      </c>
-      <c r="AL186">
-        <v>1.21</v>
-      </c>
-      <c r="AM186">
-        <v>1.66</v>
-      </c>
-      <c r="AN186">
-        <v>1.36</v>
-      </c>
-      <c r="AO186">
-        <v>1.18</v>
-      </c>
-      <c r="AP186">
-        <v>1.5</v>
-      </c>
-      <c r="AQ186">
-        <v>1.08</v>
-      </c>
-      <c r="AR186">
-        <v>2.05</v>
-      </c>
-      <c r="AS186">
-        <v>1.95</v>
-      </c>
-      <c r="AT186">
-        <v>4</v>
-      </c>
-      <c r="AU186">
-        <v>3</v>
-      </c>
-      <c r="AV186">
-        <v>7</v>
-      </c>
-      <c r="AW186">
-        <v>5</v>
-      </c>
       <c r="AX186">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="AY186">
+        <v>12</v>
+      </c>
+      <c r="AZ186">
         <v>8</v>
       </c>
-      <c r="AZ186">
-        <v>20</v>
-      </c>
       <c r="BA186">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BB186">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BC186">
         <v>14</v>
       </c>
       <c r="BD186">
-        <v>1.75</v>
+        <v>2.18</v>
       </c>
       <c r="BE186">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="BF186">
-        <v>2.41</v>
+        <v>2.03</v>
       </c>
       <c r="BG186">
         <v>0</v>
@@ -39666,28 +39687,28 @@
         <v>0</v>
       </c>
       <c r="BI186">
-        <v>1.2</v>
+        <v>1.32</v>
       </c>
       <c r="BJ186">
-        <v>4</v>
+        <v>2.78</v>
       </c>
       <c r="BK186">
-        <v>1.32</v>
+        <v>1.59</v>
       </c>
       <c r="BL186">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="BM186">
-        <v>1.64</v>
+        <v>2.03</v>
       </c>
       <c r="BN186">
-        <v>2.23</v>
+        <v>1.7</v>
       </c>
       <c r="BO186">
-        <v>2</v>
+        <v>2.59</v>
       </c>
       <c r="BP186">
-        <v>1.79</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="187" spans="1:68">
@@ -39695,7 +39716,7 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>7296450</v>
+        <v>7296451</v>
       </c>
       <c r="C187" t="s">
         <v>68</v>
@@ -39704,196 +39725,196 @@
         <v>69</v>
       </c>
       <c r="E187" s="2">
-        <v>45560.58333333334</v>
+        <v>45559.875</v>
       </c>
       <c r="F187">
         <v>24</v>
       </c>
       <c r="G187" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H187" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="I187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>0</v>
+      </c>
+      <c r="L187">
+        <v>1</v>
+      </c>
+      <c r="M187">
         <v>2</v>
       </c>
-      <c r="K187">
+      <c r="N187">
         <v>3</v>
       </c>
-      <c r="L187">
-        <v>1</v>
-      </c>
-      <c r="M187">
+      <c r="O187" t="s">
+        <v>192</v>
+      </c>
+      <c r="P187" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q187">
+        <v>4</v>
+      </c>
+      <c r="R187">
+        <v>2.4</v>
+      </c>
+      <c r="S187">
+        <v>2.3</v>
+      </c>
+      <c r="T187">
+        <v>1.25</v>
+      </c>
+      <c r="U187">
+        <v>3.6</v>
+      </c>
+      <c r="V187">
+        <v>2.2</v>
+      </c>
+      <c r="W187">
+        <v>1.62</v>
+      </c>
+      <c r="X187">
+        <v>4.75</v>
+      </c>
+      <c r="Y187">
+        <v>1.15</v>
+      </c>
+      <c r="Z187">
         <v>3</v>
       </c>
-      <c r="N187">
-        <v>4</v>
-      </c>
-      <c r="O187" t="s">
-        <v>189</v>
-      </c>
-      <c r="P187" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q187">
-        <v>2.94</v>
-      </c>
-      <c r="R187">
-        <v>2.3</v>
-      </c>
-      <c r="S187">
-        <v>3.04</v>
-      </c>
-      <c r="T187">
-        <v>1.28</v>
-      </c>
-      <c r="U187">
-        <v>3.44</v>
-      </c>
-      <c r="V187">
-        <v>2.34</v>
-      </c>
-      <c r="W187">
-        <v>1.56</v>
-      </c>
-      <c r="X187">
-        <v>5.35</v>
-      </c>
-      <c r="Y187">
-        <v>1.13</v>
-      </c>
-      <c r="Z187">
-        <v>2.5</v>
-      </c>
       <c r="AA187">
-        <v>3.35</v>
+        <v>3.8</v>
       </c>
       <c r="AB187">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AC187">
         <v>1.01</v>
       </c>
       <c r="AD187">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE187">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="AF187">
-        <v>4.25</v>
+        <v>4.75</v>
       </c>
       <c r="AG187">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="AH187">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="AI187">
         <v>1.5</v>
       </c>
       <c r="AJ187">
-        <v>2.41</v>
+        <v>2.4</v>
       </c>
       <c r="AK187">
-        <v>1.49</v>
+        <v>1.95</v>
       </c>
       <c r="AL187">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AM187">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="AN187">
+        <v>1.17</v>
+      </c>
+      <c r="AO187">
         <v>1.18</v>
-      </c>
-      <c r="AO187">
-        <v>1.36</v>
       </c>
       <c r="AP187">
         <v>1.08</v>
       </c>
       <c r="AQ187">
+        <v>1.33</v>
+      </c>
+      <c r="AR187">
+        <v>1.48</v>
+      </c>
+      <c r="AS187">
         <v>1.5</v>
       </c>
-      <c r="AR187">
-        <v>1.74</v>
-      </c>
-      <c r="AS187">
-        <v>1.79</v>
-      </c>
       <c r="AT187">
-        <v>3.53</v>
+        <v>2.98</v>
       </c>
       <c r="AU187">
+        <v>4</v>
+      </c>
+      <c r="AV187">
         <v>5</v>
       </c>
-      <c r="AV187">
-        <v>10</v>
-      </c>
       <c r="AW187">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AX187">
+        <v>3</v>
+      </c>
+      <c r="AY187">
+        <v>8</v>
+      </c>
+      <c r="AZ187">
+        <v>8</v>
+      </c>
+      <c r="BA187">
         <v>5</v>
       </c>
-      <c r="AY187">
-        <v>15</v>
-      </c>
-      <c r="AZ187">
-        <v>15</v>
-      </c>
-      <c r="BA187">
-        <v>8</v>
-      </c>
       <c r="BB187">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BC187">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="BD187">
-        <v>2.18</v>
+        <v>2.38</v>
       </c>
       <c r="BE187">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="BF187">
-        <v>2.03</v>
+        <v>1.91</v>
       </c>
       <c r="BG187">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="BH187">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="BI187">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="BJ187">
-        <v>2.78</v>
+        <v>3.04</v>
       </c>
       <c r="BK187">
-        <v>1.59</v>
+        <v>1.52</v>
       </c>
       <c r="BL187">
-        <v>2.1</v>
+        <v>2.24</v>
       </c>
       <c r="BM187">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
       <c r="BN187">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="BO187">
-        <v>2.59</v>
+        <v>2.41</v>
       </c>
       <c r="BP187">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="188" spans="1:68">
@@ -39901,7 +39922,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>7296451</v>
+        <v>7296452</v>
       </c>
       <c r="C188" t="s">
         <v>68</v>
@@ -39910,16 +39931,16 @@
         <v>69</v>
       </c>
       <c r="E188" s="2">
-        <v>45560.58333333334</v>
+        <v>45559.875</v>
       </c>
       <c r="F188">
         <v>24</v>
       </c>
       <c r="G188" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H188" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="I188">
         <v>0</v>
@@ -39934,172 +39955,172 @@
         <v>1</v>
       </c>
       <c r="M188">
+        <v>1</v>
+      </c>
+      <c r="N188">
         <v>2</v>
       </c>
-      <c r="N188">
-        <v>3</v>
-      </c>
       <c r="O188" t="s">
-        <v>192</v>
+        <v>220</v>
       </c>
       <c r="P188" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q188">
-        <v>4</v>
+        <v>3.68</v>
       </c>
       <c r="R188">
-        <v>2.4</v>
+        <v>2.21</v>
       </c>
       <c r="S188">
-        <v>2.3</v>
+        <v>2.63</v>
       </c>
       <c r="T188">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="U188">
-        <v>3.6</v>
+        <v>3.14</v>
       </c>
       <c r="V188">
-        <v>2.2</v>
+        <v>2.54</v>
       </c>
       <c r="W188">
-        <v>1.62</v>
+        <v>1.48</v>
       </c>
       <c r="X188">
-        <v>4.75</v>
+        <v>6.15</v>
       </c>
       <c r="Y188">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="Z188">
         <v>3</v>
       </c>
       <c r="AA188">
-        <v>3.8</v>
+        <v>3.35</v>
       </c>
       <c r="AB188">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="AC188">
         <v>1.01</v>
       </c>
       <c r="AD188">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE188">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="AF188">
-        <v>4.75</v>
+        <v>3.66</v>
       </c>
       <c r="AG188">
-        <v>1.58</v>
+        <v>1.73</v>
       </c>
       <c r="AH188">
-        <v>2.3</v>
+        <v>2.06</v>
       </c>
       <c r="AI188">
-        <v>1.5</v>
+        <v>1.61</v>
       </c>
       <c r="AJ188">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AK188">
+        <v>1.68</v>
+      </c>
+      <c r="AL188">
+        <v>1.27</v>
+      </c>
+      <c r="AM188">
+        <v>1.33</v>
+      </c>
+      <c r="AN188">
+        <v>1.45</v>
+      </c>
+      <c r="AO188">
+        <v>1.08</v>
+      </c>
+      <c r="AP188">
+        <v>1.42</v>
+      </c>
+      <c r="AQ188">
+        <v>1.08</v>
+      </c>
+      <c r="AR188">
+        <v>1.35</v>
+      </c>
+      <c r="AS188">
+        <v>1.46</v>
+      </c>
+      <c r="AT188">
+        <v>2.81</v>
+      </c>
+      <c r="AU188">
+        <v>-1</v>
+      </c>
+      <c r="AV188">
+        <v>-1</v>
+      </c>
+      <c r="AW188">
+        <v>-1</v>
+      </c>
+      <c r="AX188">
+        <v>-1</v>
+      </c>
+      <c r="AY188">
+        <v>-1</v>
+      </c>
+      <c r="AZ188">
+        <v>-1</v>
+      </c>
+      <c r="BA188">
+        <v>-1</v>
+      </c>
+      <c r="BB188">
+        <v>-1</v>
+      </c>
+      <c r="BC188">
+        <v>-1</v>
+      </c>
+      <c r="BD188">
+        <v>2.49</v>
+      </c>
+      <c r="BE188">
+        <v>7.1</v>
+      </c>
+      <c r="BF188">
+        <v>1.81</v>
+      </c>
+      <c r="BG188">
+        <v>0</v>
+      </c>
+      <c r="BH188">
+        <v>0</v>
+      </c>
+      <c r="BI188">
+        <v>0</v>
+      </c>
+      <c r="BJ188">
+        <v>0</v>
+      </c>
+      <c r="BK188">
+        <v>1.23</v>
+      </c>
+      <c r="BL188">
+        <v>3.28</v>
+      </c>
+      <c r="BM188">
+        <v>1.43</v>
+      </c>
+      <c r="BN188">
+        <v>2.46</v>
+      </c>
+      <c r="BO188">
+        <v>1.76</v>
+      </c>
+      <c r="BP188">
         <v>1.95</v>
-      </c>
-      <c r="AL188">
-        <v>1.22</v>
-      </c>
-      <c r="AM188">
-        <v>1.3</v>
-      </c>
-      <c r="AN188">
-        <v>1.17</v>
-      </c>
-      <c r="AO188">
-        <v>1.18</v>
-      </c>
-      <c r="AP188">
-        <v>1.08</v>
-      </c>
-      <c r="AQ188">
-        <v>1.33</v>
-      </c>
-      <c r="AR188">
-        <v>1.48</v>
-      </c>
-      <c r="AS188">
-        <v>1.5</v>
-      </c>
-      <c r="AT188">
-        <v>2.98</v>
-      </c>
-      <c r="AU188">
-        <v>5</v>
-      </c>
-      <c r="AV188">
-        <v>7</v>
-      </c>
-      <c r="AW188">
-        <v>8</v>
-      </c>
-      <c r="AX188">
-        <v>4</v>
-      </c>
-      <c r="AY188">
-        <v>13</v>
-      </c>
-      <c r="AZ188">
-        <v>11</v>
-      </c>
-      <c r="BA188">
-        <v>5</v>
-      </c>
-      <c r="BB188">
-        <v>2</v>
-      </c>
-      <c r="BC188">
-        <v>7</v>
-      </c>
-      <c r="BD188">
-        <v>2.38</v>
-      </c>
-      <c r="BE188">
-        <v>6.6</v>
-      </c>
-      <c r="BF188">
-        <v>1.91</v>
-      </c>
-      <c r="BG188">
-        <v>1.16</v>
-      </c>
-      <c r="BH188">
-        <v>4.6</v>
-      </c>
-      <c r="BI188">
-        <v>1.27</v>
-      </c>
-      <c r="BJ188">
-        <v>3.04</v>
-      </c>
-      <c r="BK188">
-        <v>1.52</v>
-      </c>
-      <c r="BL188">
-        <v>2.24</v>
-      </c>
-      <c r="BM188">
-        <v>1.9</v>
-      </c>
-      <c r="BN188">
-        <v>1.8</v>
-      </c>
-      <c r="BO188">
-        <v>2.41</v>
-      </c>
-      <c r="BP188">
-        <v>1.45</v>
       </c>
     </row>
     <row r="189" spans="1:68">
@@ -40107,7 +40128,7 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>7296452</v>
+        <v>7296453</v>
       </c>
       <c r="C189" t="s">
         <v>68</v>
@@ -40116,16 +40137,16 @@
         <v>69</v>
       </c>
       <c r="E189" s="2">
-        <v>45560.58333333334</v>
+        <v>45559.875</v>
       </c>
       <c r="F189">
         <v>24</v>
       </c>
       <c r="G189" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H189" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I189">
         <v>0</v>
@@ -40137,175 +40158,175 @@
         <v>0</v>
       </c>
       <c r="L189">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M189">
         <v>1</v>
       </c>
       <c r="N189">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O189" t="s">
         <v>221</v>
       </c>
       <c r="P189" t="s">
-        <v>329</v>
+        <v>174</v>
       </c>
       <c r="Q189">
-        <v>3.68</v>
+        <v>2.38</v>
       </c>
       <c r="R189">
+        <v>2.39</v>
+      </c>
+      <c r="S189">
+        <v>3.75</v>
+      </c>
+      <c r="T189">
+        <v>1.26</v>
+      </c>
+      <c r="U189">
+        <v>3.62</v>
+      </c>
+      <c r="V189">
         <v>2.21</v>
       </c>
-      <c r="S189">
-        <v>2.63</v>
-      </c>
-      <c r="T189">
-        <v>1.33</v>
-      </c>
-      <c r="U189">
-        <v>3.14</v>
-      </c>
-      <c r="V189">
-        <v>2.54</v>
-      </c>
       <c r="W189">
-        <v>1.48</v>
+        <v>1.62</v>
       </c>
       <c r="X189">
-        <v>6.15</v>
+        <v>4.9</v>
       </c>
       <c r="Y189">
-        <v>1.1</v>
+        <v>1.16</v>
       </c>
       <c r="Z189">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="AA189">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="AB189">
-        <v>2.15</v>
+        <v>3.45</v>
       </c>
       <c r="AC189">
         <v>1.01</v>
       </c>
       <c r="AD189">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE189">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AF189">
-        <v>3.66</v>
+        <v>4.65</v>
       </c>
       <c r="AG189">
-        <v>1.73</v>
+        <v>1.5</v>
       </c>
       <c r="AH189">
-        <v>2.06</v>
+        <v>2.4</v>
       </c>
       <c r="AI189">
-        <v>1.61</v>
+        <v>1.47</v>
       </c>
       <c r="AJ189">
-        <v>2.17</v>
+        <v>2.49</v>
       </c>
       <c r="AK189">
-        <v>1.68</v>
+        <v>1.28</v>
       </c>
       <c r="AL189">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="AM189">
-        <v>1.33</v>
+        <v>1.87</v>
       </c>
       <c r="AN189">
-        <v>1.45</v>
+        <v>1.36</v>
       </c>
       <c r="AO189">
-        <v>1.08</v>
+        <v>0.73</v>
       </c>
       <c r="AP189">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AQ189">
-        <v>1.08</v>
+        <v>0.67</v>
       </c>
       <c r="AR189">
-        <v>1.35</v>
+        <v>1.88</v>
       </c>
       <c r="AS189">
-        <v>1.46</v>
+        <v>1.32</v>
       </c>
       <c r="AT189">
+        <v>3.2</v>
+      </c>
+      <c r="AU189">
+        <v>-1</v>
+      </c>
+      <c r="AV189">
+        <v>-1</v>
+      </c>
+      <c r="AW189">
+        <v>-1</v>
+      </c>
+      <c r="AX189">
+        <v>-1</v>
+      </c>
+      <c r="AY189">
+        <v>-1</v>
+      </c>
+      <c r="AZ189">
+        <v>-1</v>
+      </c>
+      <c r="BA189">
+        <v>-1</v>
+      </c>
+      <c r="BB189">
+        <v>-1</v>
+      </c>
+      <c r="BC189">
+        <v>-1</v>
+      </c>
+      <c r="BD189">
+        <v>1.6</v>
+      </c>
+      <c r="BE189">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF189">
         <v>2.81</v>
       </c>
-      <c r="AU189">
-        <v>9</v>
-      </c>
-      <c r="AV189">
-        <v>6</v>
-      </c>
-      <c r="AW189">
-        <v>6</v>
-      </c>
-      <c r="AX189">
-        <v>5</v>
-      </c>
-      <c r="AY189">
-        <v>15</v>
-      </c>
-      <c r="AZ189">
-        <v>11</v>
-      </c>
-      <c r="BA189">
-        <v>3</v>
-      </c>
-      <c r="BB189">
-        <v>7</v>
-      </c>
-      <c r="BC189">
-        <v>10</v>
-      </c>
-      <c r="BD189">
-        <v>2.49</v>
-      </c>
-      <c r="BE189">
-        <v>7.1</v>
-      </c>
-      <c r="BF189">
-        <v>1.81</v>
-      </c>
       <c r="BG189">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="BH189">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="BI189">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="BJ189">
-        <v>0</v>
+        <v>2.69</v>
       </c>
       <c r="BK189">
-        <v>1.23</v>
+        <v>1.63</v>
       </c>
       <c r="BL189">
-        <v>3.28</v>
+        <v>2.04</v>
       </c>
       <c r="BM189">
-        <v>1.43</v>
+        <v>2.09</v>
       </c>
       <c r="BN189">
-        <v>2.46</v>
+        <v>1.66</v>
       </c>
       <c r="BO189">
-        <v>1.76</v>
+        <v>2.69</v>
       </c>
       <c r="BP189">
-        <v>1.95</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="190" spans="1:68">
@@ -40313,7 +40334,7 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>7296453</v>
+        <v>7296455</v>
       </c>
       <c r="C190" t="s">
         <v>68</v>
@@ -40322,196 +40343,196 @@
         <v>69</v>
       </c>
       <c r="E190" s="2">
-        <v>45560.58333333334</v>
+        <v>45559.875</v>
       </c>
       <c r="F190">
         <v>24</v>
       </c>
       <c r="G190" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H190" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="I190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J190">
         <v>0</v>
       </c>
       <c r="K190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L190">
+        <v>2</v>
+      </c>
+      <c r="M190">
+        <v>1</v>
+      </c>
+      <c r="N190">
         <v>3</v>
-      </c>
-      <c r="M190">
-        <v>1</v>
-      </c>
-      <c r="N190">
-        <v>4</v>
       </c>
       <c r="O190" t="s">
         <v>222</v>
       </c>
       <c r="P190" t="s">
-        <v>174</v>
+        <v>263</v>
       </c>
       <c r="Q190">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R190">
-        <v>2.39</v>
+        <v>2.6</v>
       </c>
       <c r="S190">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="T190">
+        <v>1.17</v>
+      </c>
+      <c r="U190">
+        <v>4.65</v>
+      </c>
+      <c r="V190">
+        <v>1.86</v>
+      </c>
+      <c r="W190">
+        <v>1.88</v>
+      </c>
+      <c r="X190">
+        <v>3.62</v>
+      </c>
+      <c r="Y190">
         <v>1.26</v>
       </c>
-      <c r="U190">
-        <v>3.62</v>
-      </c>
-      <c r="V190">
-        <v>2.21</v>
-      </c>
-      <c r="W190">
-        <v>1.62</v>
-      </c>
-      <c r="X190">
-        <v>4.9</v>
-      </c>
-      <c r="Y190">
-        <v>1.16</v>
-      </c>
       <c r="Z190">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="AA190">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AB190">
-        <v>3.45</v>
+        <v>2.65</v>
       </c>
       <c r="AC190">
         <v>1.01</v>
       </c>
       <c r="AD190">
-        <v>13</v>
+        <v>14.75</v>
       </c>
       <c r="AE190">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AF190">
-        <v>4.65</v>
+        <v>8</v>
       </c>
       <c r="AG190">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AH190">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="AI190">
-        <v>1.47</v>
+        <v>1.25</v>
       </c>
       <c r="AJ190">
-        <v>2.49</v>
+        <v>3.5</v>
       </c>
       <c r="AK190">
-        <v>1.28</v>
+        <v>1.43</v>
       </c>
       <c r="AL190">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AM190">
-        <v>1.87</v>
+        <v>1.66</v>
       </c>
       <c r="AN190">
         <v>1.36</v>
       </c>
       <c r="AO190">
-        <v>0.73</v>
+        <v>1.18</v>
       </c>
       <c r="AP190">
         <v>1.5</v>
       </c>
       <c r="AQ190">
-        <v>0.67</v>
+        <v>1.08</v>
       </c>
       <c r="AR190">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="AS190">
+        <v>1.95</v>
+      </c>
+      <c r="AT190">
+        <v>4</v>
+      </c>
+      <c r="AU190">
+        <v>0</v>
+      </c>
+      <c r="AV190">
+        <v>6</v>
+      </c>
+      <c r="AW190">
+        <v>5</v>
+      </c>
+      <c r="AX190">
+        <v>7</v>
+      </c>
+      <c r="AY190">
+        <v>5</v>
+      </c>
+      <c r="AZ190">
+        <v>13</v>
+      </c>
+      <c r="BA190">
+        <v>5</v>
+      </c>
+      <c r="BB190">
+        <v>9</v>
+      </c>
+      <c r="BC190">
+        <v>14</v>
+      </c>
+      <c r="BD190">
+        <v>1.75</v>
+      </c>
+      <c r="BE190">
+        <v>8.5</v>
+      </c>
+      <c r="BF190">
+        <v>2.41</v>
+      </c>
+      <c r="BG190">
+        <v>0</v>
+      </c>
+      <c r="BH190">
+        <v>0</v>
+      </c>
+      <c r="BI190">
+        <v>1.2</v>
+      </c>
+      <c r="BJ190">
+        <v>4</v>
+      </c>
+      <c r="BK190">
         <v>1.32</v>
       </c>
-      <c r="AT190">
-        <v>3.2</v>
-      </c>
-      <c r="AU190">
-        <v>10</v>
-      </c>
-      <c r="AV190">
-        <v>9</v>
-      </c>
-      <c r="AW190">
-        <v>4</v>
-      </c>
-      <c r="AX190">
-        <v>1</v>
-      </c>
-      <c r="AY190">
-        <v>14</v>
-      </c>
-      <c r="AZ190">
-        <v>10</v>
-      </c>
-      <c r="BA190">
-        <v>6</v>
-      </c>
-      <c r="BB190">
-        <v>3</v>
-      </c>
-      <c r="BC190">
-        <v>9</v>
-      </c>
-      <c r="BD190">
-        <v>1.6</v>
-      </c>
-      <c r="BE190">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="BF190">
-        <v>2.81</v>
-      </c>
-      <c r="BG190">
-        <v>1.21</v>
-      </c>
-      <c r="BH190">
-        <v>3.9</v>
-      </c>
-      <c r="BI190">
-        <v>1.34</v>
-      </c>
-      <c r="BJ190">
-        <v>2.69</v>
-      </c>
-      <c r="BK190">
-        <v>1.63</v>
-      </c>
       <c r="BL190">
-        <v>2.04</v>
+        <v>3.1</v>
       </c>
       <c r="BM190">
-        <v>2.09</v>
+        <v>1.64</v>
       </c>
       <c r="BN190">
-        <v>1.66</v>
+        <v>2.23</v>
       </c>
       <c r="BO190">
-        <v>2.69</v>
+        <v>2</v>
       </c>
       <c r="BP190">
-        <v>1.36</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="191" spans="1:68">
@@ -40528,7 +40549,7 @@
         <v>69</v>
       </c>
       <c r="E191" s="2">
-        <v>45560.58333333334</v>
+        <v>45559.875</v>
       </c>
       <c r="F191">
         <v>24</v>
@@ -40654,31 +40675,31 @@
         <v>2.68</v>
       </c>
       <c r="AU191">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="AV191">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AW191">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AX191">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AY191">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="AZ191">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="BA191">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="BB191">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="BC191">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="BD191">
         <v>1.26</v>
@@ -40734,7 +40755,7 @@
         <v>69</v>
       </c>
       <c r="E192" s="2">
-        <v>45560.58333333334</v>
+        <v>45559.875</v>
       </c>
       <c r="F192">
         <v>24</v>
@@ -40767,7 +40788,7 @@
         <v>224</v>
       </c>
       <c r="P192" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q192">
         <v>2.9</v>
@@ -40860,22 +40881,22 @@
         <v>3.33</v>
       </c>
       <c r="AU192">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV192">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AW192">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX192">
         <v>5</v>
       </c>
       <c r="AY192">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ192">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BA192">
         <v>4</v>
@@ -40924,6 +40945,1654 @@
       </c>
       <c r="BP192">
         <v>1.68</v>
+      </c>
+    </row>
+    <row r="193" spans="1:68">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>7296465</v>
+      </c>
+      <c r="C193" t="s">
+        <v>68</v>
+      </c>
+      <c r="D193" t="s">
+        <v>69</v>
+      </c>
+      <c r="E193" s="2">
+        <v>45563.45833333334</v>
+      </c>
+      <c r="F193">
+        <v>25</v>
+      </c>
+      <c r="G193" t="s">
+        <v>74</v>
+      </c>
+      <c r="H193" t="s">
+        <v>85</v>
+      </c>
+      <c r="I193">
+        <v>1</v>
+      </c>
+      <c r="J193">
+        <v>1</v>
+      </c>
+      <c r="K193">
+        <v>2</v>
+      </c>
+      <c r="L193">
+        <v>1</v>
+      </c>
+      <c r="M193">
+        <v>2</v>
+      </c>
+      <c r="N193">
+        <v>3</v>
+      </c>
+      <c r="O193" t="s">
+        <v>101</v>
+      </c>
+      <c r="P193" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q193">
+        <v>3.1</v>
+      </c>
+      <c r="R193">
+        <v>2.3</v>
+      </c>
+      <c r="S193">
+        <v>2.75</v>
+      </c>
+      <c r="T193">
+        <v>1.25</v>
+      </c>
+      <c r="U193">
+        <v>3.72</v>
+      </c>
+      <c r="V193">
+        <v>2.2</v>
+      </c>
+      <c r="W193">
+        <v>1.64</v>
+      </c>
+      <c r="X193">
+        <v>4.7</v>
+      </c>
+      <c r="Y193">
+        <v>1.16</v>
+      </c>
+      <c r="Z193">
+        <v>2.45</v>
+      </c>
+      <c r="AA193">
+        <v>3.6</v>
+      </c>
+      <c r="AB193">
+        <v>2.51</v>
+      </c>
+      <c r="AC193">
+        <v>1.01</v>
+      </c>
+      <c r="AD193">
+        <v>15</v>
+      </c>
+      <c r="AE193">
+        <v>1.13</v>
+      </c>
+      <c r="AF193">
+        <v>6</v>
+      </c>
+      <c r="AG193">
+        <v>1.46</v>
+      </c>
+      <c r="AH193">
+        <v>2.52</v>
+      </c>
+      <c r="AI193">
+        <v>1.4</v>
+      </c>
+      <c r="AJ193">
+        <v>2.75</v>
+      </c>
+      <c r="AK193">
+        <v>1.58</v>
+      </c>
+      <c r="AL193">
+        <v>1.27</v>
+      </c>
+      <c r="AM193">
+        <v>1.45</v>
+      </c>
+      <c r="AN193">
+        <v>1.58</v>
+      </c>
+      <c r="AO193">
+        <v>1.82</v>
+      </c>
+      <c r="AP193">
+        <v>1.46</v>
+      </c>
+      <c r="AQ193">
+        <v>1.92</v>
+      </c>
+      <c r="AR193">
+        <v>1.49</v>
+      </c>
+      <c r="AS193">
+        <v>1.63</v>
+      </c>
+      <c r="AT193">
+        <v>3.12</v>
+      </c>
+      <c r="AU193">
+        <v>6</v>
+      </c>
+      <c r="AV193">
+        <v>5</v>
+      </c>
+      <c r="AW193">
+        <v>3</v>
+      </c>
+      <c r="AX193">
+        <v>4</v>
+      </c>
+      <c r="AY193">
+        <v>9</v>
+      </c>
+      <c r="AZ193">
+        <v>9</v>
+      </c>
+      <c r="BA193">
+        <v>6</v>
+      </c>
+      <c r="BB193">
+        <v>5</v>
+      </c>
+      <c r="BC193">
+        <v>11</v>
+      </c>
+      <c r="BD193">
+        <v>2.41</v>
+      </c>
+      <c r="BE193">
+        <v>6.8</v>
+      </c>
+      <c r="BF193">
+        <v>1.84</v>
+      </c>
+      <c r="BG193">
+        <v>0</v>
+      </c>
+      <c r="BH193">
+        <v>0</v>
+      </c>
+      <c r="BI193">
+        <v>0</v>
+      </c>
+      <c r="BJ193">
+        <v>0</v>
+      </c>
+      <c r="BK193">
+        <v>1.35</v>
+      </c>
+      <c r="BL193">
+        <v>2.65</v>
+      </c>
+      <c r="BM193">
+        <v>1.71</v>
+      </c>
+      <c r="BN193">
+        <v>2.11</v>
+      </c>
+      <c r="BO193">
+        <v>2.11</v>
+      </c>
+      <c r="BP193">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="194" spans="1:68">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>7296464</v>
+      </c>
+      <c r="C194" t="s">
+        <v>68</v>
+      </c>
+      <c r="D194" t="s">
+        <v>69</v>
+      </c>
+      <c r="E194" s="2">
+        <v>45563.45833333334</v>
+      </c>
+      <c r="F194">
+        <v>25</v>
+      </c>
+      <c r="G194" t="s">
+        <v>73</v>
+      </c>
+      <c r="H194" t="s">
+        <v>75</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
+      <c r="K194">
+        <v>0</v>
+      </c>
+      <c r="L194">
+        <v>0</v>
+      </c>
+      <c r="M194">
+        <v>1</v>
+      </c>
+      <c r="N194">
+        <v>1</v>
+      </c>
+      <c r="O194" t="s">
+        <v>103</v>
+      </c>
+      <c r="P194" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q194">
+        <v>2</v>
+      </c>
+      <c r="R194">
+        <v>2.4</v>
+      </c>
+      <c r="S194">
+        <v>4.7</v>
+      </c>
+      <c r="T194">
+        <v>1.27</v>
+      </c>
+      <c r="U194">
+        <v>3.54</v>
+      </c>
+      <c r="V194">
+        <v>2.25</v>
+      </c>
+      <c r="W194">
+        <v>1.6</v>
+      </c>
+      <c r="X194">
+        <v>5.05</v>
+      </c>
+      <c r="Y194">
+        <v>1.15</v>
+      </c>
+      <c r="Z194">
+        <v>1.58</v>
+      </c>
+      <c r="AA194">
+        <v>4.2</v>
+      </c>
+      <c r="AB194">
+        <v>4.67</v>
+      </c>
+      <c r="AC194">
+        <v>1.02</v>
+      </c>
+      <c r="AD194">
+        <v>10</v>
+      </c>
+      <c r="AE194">
+        <v>1.16</v>
+      </c>
+      <c r="AF194">
+        <v>4.6</v>
+      </c>
+      <c r="AG194">
+        <v>1.52</v>
+      </c>
+      <c r="AH194">
+        <v>2.36</v>
+      </c>
+      <c r="AI194">
+        <v>1.5</v>
+      </c>
+      <c r="AJ194">
+        <v>2.35</v>
+      </c>
+      <c r="AK194">
+        <v>1.07</v>
+      </c>
+      <c r="AL194">
+        <v>1.2</v>
+      </c>
+      <c r="AM194">
+        <v>2.3</v>
+      </c>
+      <c r="AN194">
+        <v>0.92</v>
+      </c>
+      <c r="AO194">
+        <v>0.73</v>
+      </c>
+      <c r="AP194">
+        <v>0.85</v>
+      </c>
+      <c r="AQ194">
+        <v>0.92</v>
+      </c>
+      <c r="AR194">
+        <v>1.47</v>
+      </c>
+      <c r="AS194">
+        <v>1.37</v>
+      </c>
+      <c r="AT194">
+        <v>2.84</v>
+      </c>
+      <c r="AU194">
+        <v>3</v>
+      </c>
+      <c r="AV194">
+        <v>5</v>
+      </c>
+      <c r="AW194">
+        <v>8</v>
+      </c>
+      <c r="AX194">
+        <v>2</v>
+      </c>
+      <c r="AY194">
+        <v>11</v>
+      </c>
+      <c r="AZ194">
+        <v>7</v>
+      </c>
+      <c r="BA194">
+        <v>4</v>
+      </c>
+      <c r="BB194">
+        <v>5</v>
+      </c>
+      <c r="BC194">
+        <v>9</v>
+      </c>
+      <c r="BD194">
+        <v>1.49</v>
+      </c>
+      <c r="BE194">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="BF194">
+        <v>3.02</v>
+      </c>
+      <c r="BG194">
+        <v>0</v>
+      </c>
+      <c r="BH194">
+        <v>0</v>
+      </c>
+      <c r="BI194">
+        <v>0</v>
+      </c>
+      <c r="BJ194">
+        <v>0</v>
+      </c>
+      <c r="BK194">
+        <v>1.29</v>
+      </c>
+      <c r="BL194">
+        <v>2.92</v>
+      </c>
+      <c r="BM194">
+        <v>1.61</v>
+      </c>
+      <c r="BN194">
+        <v>2.29</v>
+      </c>
+      <c r="BO194">
+        <v>1.97</v>
+      </c>
+      <c r="BP194">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="195" spans="1:68">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>7296463</v>
+      </c>
+      <c r="C195" t="s">
+        <v>68</v>
+      </c>
+      <c r="D195" t="s">
+        <v>69</v>
+      </c>
+      <c r="E195" s="2">
+        <v>45563.45833333334</v>
+      </c>
+      <c r="F195">
+        <v>25</v>
+      </c>
+      <c r="G195" t="s">
+        <v>76</v>
+      </c>
+      <c r="H195" t="s">
+        <v>78</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195">
+        <v>2</v>
+      </c>
+      <c r="K195">
+        <v>2</v>
+      </c>
+      <c r="L195">
+        <v>0</v>
+      </c>
+      <c r="M195">
+        <v>4</v>
+      </c>
+      <c r="N195">
+        <v>4</v>
+      </c>
+      <c r="O195" t="s">
+        <v>103</v>
+      </c>
+      <c r="P195" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q195">
+        <v>3.69</v>
+      </c>
+      <c r="R195">
+        <v>2.66</v>
+      </c>
+      <c r="S195">
+        <v>2.38</v>
+      </c>
+      <c r="T195">
+        <v>1.2</v>
+      </c>
+      <c r="U195">
+        <v>4</v>
+      </c>
+      <c r="V195">
+        <v>2.03</v>
+      </c>
+      <c r="W195">
+        <v>1.77</v>
+      </c>
+      <c r="X195">
+        <v>4</v>
+      </c>
+      <c r="Y195">
+        <v>1.2</v>
+      </c>
+      <c r="Z195">
+        <v>3.32</v>
+      </c>
+      <c r="AA195">
+        <v>3.8</v>
+      </c>
+      <c r="AB195">
+        <v>1.92</v>
+      </c>
+      <c r="AC195">
+        <v>1.01</v>
+      </c>
+      <c r="AD195">
+        <v>13.5</v>
+      </c>
+      <c r="AE195">
+        <v>1.1</v>
+      </c>
+      <c r="AF195">
+        <v>6</v>
+      </c>
+      <c r="AG195">
+        <v>1.38</v>
+      </c>
+      <c r="AH195">
+        <v>2.81</v>
+      </c>
+      <c r="AI195">
+        <v>1.37</v>
+      </c>
+      <c r="AJ195">
+        <v>3.03</v>
+      </c>
+      <c r="AK195">
+        <v>1.85</v>
+      </c>
+      <c r="AL195">
+        <v>1.25</v>
+      </c>
+      <c r="AM195">
+        <v>1.31</v>
+      </c>
+      <c r="AN195">
+        <v>0.92</v>
+      </c>
+      <c r="AO195">
+        <v>0.75</v>
+      </c>
+      <c r="AP195">
+        <v>0.85</v>
+      </c>
+      <c r="AQ195">
+        <v>0.92</v>
+      </c>
+      <c r="AR195">
+        <v>1.48</v>
+      </c>
+      <c r="AS195">
+        <v>1.37</v>
+      </c>
+      <c r="AT195">
+        <v>2.85</v>
+      </c>
+      <c r="AU195">
+        <v>7</v>
+      </c>
+      <c r="AV195">
+        <v>7</v>
+      </c>
+      <c r="AW195">
+        <v>9</v>
+      </c>
+      <c r="AX195">
+        <v>6</v>
+      </c>
+      <c r="AY195">
+        <v>16</v>
+      </c>
+      <c r="AZ195">
+        <v>13</v>
+      </c>
+      <c r="BA195">
+        <v>4</v>
+      </c>
+      <c r="BB195">
+        <v>6</v>
+      </c>
+      <c r="BC195">
+        <v>10</v>
+      </c>
+      <c r="BD195">
+        <v>2.45</v>
+      </c>
+      <c r="BE195">
+        <v>6.75</v>
+      </c>
+      <c r="BF195">
+        <v>1.82</v>
+      </c>
+      <c r="BG195">
+        <v>0</v>
+      </c>
+      <c r="BH195">
+        <v>0</v>
+      </c>
+      <c r="BI195">
+        <v>1.21</v>
+      </c>
+      <c r="BJ195">
+        <v>3.44</v>
+      </c>
+      <c r="BK195">
+        <v>1.41</v>
+      </c>
+      <c r="BL195">
+        <v>2.52</v>
+      </c>
+      <c r="BM195">
+        <v>1.76</v>
+      </c>
+      <c r="BN195">
+        <v>2.04</v>
+      </c>
+      <c r="BO195">
+        <v>2.18</v>
+      </c>
+      <c r="BP195">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="196" spans="1:68">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>7296462</v>
+      </c>
+      <c r="C196" t="s">
+        <v>68</v>
+      </c>
+      <c r="D196" t="s">
+        <v>69</v>
+      </c>
+      <c r="E196" s="2">
+        <v>45563.45833333334</v>
+      </c>
+      <c r="F196">
+        <v>25</v>
+      </c>
+      <c r="G196" t="s">
+        <v>80</v>
+      </c>
+      <c r="H196" t="s">
+        <v>82</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="K196">
+        <v>0</v>
+      </c>
+      <c r="L196">
+        <v>1</v>
+      </c>
+      <c r="M196">
+        <v>1</v>
+      </c>
+      <c r="N196">
+        <v>2</v>
+      </c>
+      <c r="O196" t="s">
+        <v>160</v>
+      </c>
+      <c r="P196" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q196">
+        <v>2.5</v>
+      </c>
+      <c r="R196">
+        <v>2.3</v>
+      </c>
+      <c r="S196">
+        <v>3.5</v>
+      </c>
+      <c r="T196">
+        <v>1.25</v>
+      </c>
+      <c r="U196">
+        <v>3.65</v>
+      </c>
+      <c r="V196">
+        <v>2.31</v>
+      </c>
+      <c r="W196">
+        <v>1.59</v>
+      </c>
+      <c r="X196">
+        <v>5.2</v>
+      </c>
+      <c r="Y196">
+        <v>1.14</v>
+      </c>
+      <c r="Z196">
+        <v>1.94</v>
+      </c>
+      <c r="AA196">
+        <v>3.75</v>
+      </c>
+      <c r="AB196">
+        <v>3.3</v>
+      </c>
+      <c r="AC196">
+        <v>1.01</v>
+      </c>
+      <c r="AD196">
+        <v>15</v>
+      </c>
+      <c r="AE196">
+        <v>1.17</v>
+      </c>
+      <c r="AF196">
+        <v>5</v>
+      </c>
+      <c r="AG196">
+        <v>1.54</v>
+      </c>
+      <c r="AH196">
+        <v>2.32</v>
+      </c>
+      <c r="AI196">
+        <v>1.44</v>
+      </c>
+      <c r="AJ196">
+        <v>2.63</v>
+      </c>
+      <c r="AK196">
+        <v>1.3</v>
+      </c>
+      <c r="AL196">
+        <v>1.26</v>
+      </c>
+      <c r="AM196">
+        <v>1.84</v>
+      </c>
+      <c r="AN196">
+        <v>1.55</v>
+      </c>
+      <c r="AO196">
+        <v>1</v>
+      </c>
+      <c r="AP196">
+        <v>1.5</v>
+      </c>
+      <c r="AQ196">
+        <v>1</v>
+      </c>
+      <c r="AR196">
+        <v>1.48</v>
+      </c>
+      <c r="AS196">
+        <v>1.42</v>
+      </c>
+      <c r="AT196">
+        <v>2.9</v>
+      </c>
+      <c r="AU196">
+        <v>4</v>
+      </c>
+      <c r="AV196">
+        <v>5</v>
+      </c>
+      <c r="AW196">
+        <v>8</v>
+      </c>
+      <c r="AX196">
+        <v>8</v>
+      </c>
+      <c r="AY196">
+        <v>12</v>
+      </c>
+      <c r="AZ196">
+        <v>13</v>
+      </c>
+      <c r="BA196">
+        <v>8</v>
+      </c>
+      <c r="BB196">
+        <v>4</v>
+      </c>
+      <c r="BC196">
+        <v>12</v>
+      </c>
+      <c r="BD196">
+        <v>1.58</v>
+      </c>
+      <c r="BE196">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF196">
+        <v>2.75</v>
+      </c>
+      <c r="BG196">
+        <v>1.15</v>
+      </c>
+      <c r="BH196">
+        <v>5.42</v>
+      </c>
+      <c r="BI196">
+        <v>1.23</v>
+      </c>
+      <c r="BJ196">
+        <v>3.28</v>
+      </c>
+      <c r="BK196">
+        <v>1.51</v>
+      </c>
+      <c r="BL196">
+        <v>2.52</v>
+      </c>
+      <c r="BM196">
+        <v>1.84</v>
+      </c>
+      <c r="BN196">
+        <v>1.97</v>
+      </c>
+      <c r="BO196">
+        <v>2.28</v>
+      </c>
+      <c r="BP196">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="197" spans="1:68">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>7296461</v>
+      </c>
+      <c r="C197" t="s">
+        <v>68</v>
+      </c>
+      <c r="D197" t="s">
+        <v>69</v>
+      </c>
+      <c r="E197" s="2">
+        <v>45563.45833333334</v>
+      </c>
+      <c r="F197">
+        <v>25</v>
+      </c>
+      <c r="G197" t="s">
+        <v>70</v>
+      </c>
+      <c r="H197" t="s">
+        <v>77</v>
+      </c>
+      <c r="I197">
+        <v>2</v>
+      </c>
+      <c r="J197">
+        <v>0</v>
+      </c>
+      <c r="K197">
+        <v>2</v>
+      </c>
+      <c r="L197">
+        <v>3</v>
+      </c>
+      <c r="M197">
+        <v>0</v>
+      </c>
+      <c r="N197">
+        <v>3</v>
+      </c>
+      <c r="O197" t="s">
+        <v>225</v>
+      </c>
+      <c r="P197" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q197">
+        <v>2.58</v>
+      </c>
+      <c r="R197">
+        <v>2.29</v>
+      </c>
+      <c r="S197">
+        <v>4.07</v>
+      </c>
+      <c r="T197">
+        <v>1.34</v>
+      </c>
+      <c r="U197">
+        <v>3.19</v>
+      </c>
+      <c r="V197">
+        <v>2.69</v>
+      </c>
+      <c r="W197">
+        <v>1.44</v>
+      </c>
+      <c r="X197">
+        <v>6.5</v>
+      </c>
+      <c r="Y197">
+        <v>1.09</v>
+      </c>
+      <c r="Z197">
+        <v>2</v>
+      </c>
+      <c r="AA197">
+        <v>3.45</v>
+      </c>
+      <c r="AB197">
+        <v>3.39</v>
+      </c>
+      <c r="AC197">
+        <v>1.04</v>
+      </c>
+      <c r="AD197">
+        <v>9.85</v>
+      </c>
+      <c r="AE197">
+        <v>1.28</v>
+      </c>
+      <c r="AF197">
+        <v>3.6</v>
+      </c>
+      <c r="AG197">
+        <v>1.79</v>
+      </c>
+      <c r="AH197">
+        <v>1.91</v>
+      </c>
+      <c r="AI197">
+        <v>1.68</v>
+      </c>
+      <c r="AJ197">
+        <v>2.14</v>
+      </c>
+      <c r="AK197">
+        <v>1.3</v>
+      </c>
+      <c r="AL197">
+        <v>1.3</v>
+      </c>
+      <c r="AM197">
+        <v>1.78</v>
+      </c>
+      <c r="AN197">
+        <v>2.25</v>
+      </c>
+      <c r="AO197">
+        <v>1.17</v>
+      </c>
+      <c r="AP197">
+        <v>2.31</v>
+      </c>
+      <c r="AQ197">
+        <v>1.08</v>
+      </c>
+      <c r="AR197">
+        <v>1.76</v>
+      </c>
+      <c r="AS197">
+        <v>1.61</v>
+      </c>
+      <c r="AT197">
+        <v>3.37</v>
+      </c>
+      <c r="AU197">
+        <v>12</v>
+      </c>
+      <c r="AV197">
+        <v>6</v>
+      </c>
+      <c r="AW197">
+        <v>3</v>
+      </c>
+      <c r="AX197">
+        <v>5</v>
+      </c>
+      <c r="AY197">
+        <v>15</v>
+      </c>
+      <c r="AZ197">
+        <v>11</v>
+      </c>
+      <c r="BA197">
+        <v>8</v>
+      </c>
+      <c r="BB197">
+        <v>2</v>
+      </c>
+      <c r="BC197">
+        <v>10</v>
+      </c>
+      <c r="BD197">
+        <v>1.65</v>
+      </c>
+      <c r="BE197">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF197">
+        <v>2.56</v>
+      </c>
+      <c r="BG197">
+        <v>0</v>
+      </c>
+      <c r="BH197">
+        <v>0</v>
+      </c>
+      <c r="BI197">
+        <v>1.18</v>
+      </c>
+      <c r="BJ197">
+        <v>3.68</v>
+      </c>
+      <c r="BK197">
+        <v>1.37</v>
+      </c>
+      <c r="BL197">
+        <v>2.66</v>
+      </c>
+      <c r="BM197">
+        <v>1.72</v>
+      </c>
+      <c r="BN197">
+        <v>2.1</v>
+      </c>
+      <c r="BO197">
+        <v>2.13</v>
+      </c>
+      <c r="BP197">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="198" spans="1:68">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>7296460</v>
+      </c>
+      <c r="C198" t="s">
+        <v>68</v>
+      </c>
+      <c r="D198" t="s">
+        <v>69</v>
+      </c>
+      <c r="E198" s="2">
+        <v>45563.45833333334</v>
+      </c>
+      <c r="F198">
+        <v>25</v>
+      </c>
+      <c r="G198" t="s">
+        <v>81</v>
+      </c>
+      <c r="H198" t="s">
+        <v>83</v>
+      </c>
+      <c r="I198">
+        <v>1</v>
+      </c>
+      <c r="J198">
+        <v>0</v>
+      </c>
+      <c r="K198">
+        <v>1</v>
+      </c>
+      <c r="L198">
+        <v>2</v>
+      </c>
+      <c r="M198">
+        <v>0</v>
+      </c>
+      <c r="N198">
+        <v>2</v>
+      </c>
+      <c r="O198" t="s">
+        <v>226</v>
+      </c>
+      <c r="P198" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q198">
+        <v>2.34</v>
+      </c>
+      <c r="R198">
+        <v>2.67</v>
+      </c>
+      <c r="S198">
+        <v>3.76</v>
+      </c>
+      <c r="T198">
+        <v>1.21</v>
+      </c>
+      <c r="U198">
+        <v>4.15</v>
+      </c>
+      <c r="V198">
+        <v>2.03</v>
+      </c>
+      <c r="W198">
+        <v>1.77</v>
+      </c>
+      <c r="X198">
+        <v>4.15</v>
+      </c>
+      <c r="Y198">
+        <v>1.21</v>
+      </c>
+      <c r="Z198">
+        <v>1.9</v>
+      </c>
+      <c r="AA198">
+        <v>3.9</v>
+      </c>
+      <c r="AB198">
+        <v>3.31</v>
+      </c>
+      <c r="AC198">
+        <v>1.01</v>
+      </c>
+      <c r="AD198">
+        <v>17</v>
+      </c>
+      <c r="AE198">
+        <v>1.06</v>
+      </c>
+      <c r="AF198">
+        <v>5.6</v>
+      </c>
+      <c r="AG198">
+        <v>1.37</v>
+      </c>
+      <c r="AH198">
+        <v>2.85</v>
+      </c>
+      <c r="AI198">
+        <v>1.4</v>
+      </c>
+      <c r="AJ198">
+        <v>2.92</v>
+      </c>
+      <c r="AK198">
+        <v>1.31</v>
+      </c>
+      <c r="AL198">
+        <v>1.24</v>
+      </c>
+      <c r="AM198">
+        <v>1.88</v>
+      </c>
+      <c r="AN198">
+        <v>1.67</v>
+      </c>
+      <c r="AO198">
+        <v>1</v>
+      </c>
+      <c r="AP198">
+        <v>1.77</v>
+      </c>
+      <c r="AQ198">
+        <v>0.92</v>
+      </c>
+      <c r="AR198">
+        <v>1.9</v>
+      </c>
+      <c r="AS198">
+        <v>1.25</v>
+      </c>
+      <c r="AT198">
+        <v>3.15</v>
+      </c>
+      <c r="AU198">
+        <v>8</v>
+      </c>
+      <c r="AV198">
+        <v>2</v>
+      </c>
+      <c r="AW198">
+        <v>11</v>
+      </c>
+      <c r="AX198">
+        <v>3</v>
+      </c>
+      <c r="AY198">
+        <v>19</v>
+      </c>
+      <c r="AZ198">
+        <v>5</v>
+      </c>
+      <c r="BA198">
+        <v>11</v>
+      </c>
+      <c r="BB198">
+        <v>2</v>
+      </c>
+      <c r="BC198">
+        <v>13</v>
+      </c>
+      <c r="BD198">
+        <v>1.67</v>
+      </c>
+      <c r="BE198">
+        <v>9.1</v>
+      </c>
+      <c r="BF198">
+        <v>2.59</v>
+      </c>
+      <c r="BG198">
+        <v>0</v>
+      </c>
+      <c r="BH198">
+        <v>0</v>
+      </c>
+      <c r="BI198">
+        <v>1.18</v>
+      </c>
+      <c r="BJ198">
+        <v>3.7</v>
+      </c>
+      <c r="BK198">
+        <v>1.37</v>
+      </c>
+      <c r="BL198">
+        <v>2.66</v>
+      </c>
+      <c r="BM198">
+        <v>1.71</v>
+      </c>
+      <c r="BN198">
+        <v>2.11</v>
+      </c>
+      <c r="BO198">
+        <v>2.12</v>
+      </c>
+      <c r="BP198">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="199" spans="1:68">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>7296458</v>
+      </c>
+      <c r="C199" t="s">
+        <v>68</v>
+      </c>
+      <c r="D199" t="s">
+        <v>69</v>
+      </c>
+      <c r="E199" s="2">
+        <v>45563.45833333334</v>
+      </c>
+      <c r="F199">
+        <v>25</v>
+      </c>
+      <c r="G199" t="s">
+        <v>71</v>
+      </c>
+      <c r="H199" t="s">
+        <v>72</v>
+      </c>
+      <c r="I199">
+        <v>1</v>
+      </c>
+      <c r="J199">
+        <v>1</v>
+      </c>
+      <c r="K199">
+        <v>2</v>
+      </c>
+      <c r="L199">
+        <v>2</v>
+      </c>
+      <c r="M199">
+        <v>2</v>
+      </c>
+      <c r="N199">
+        <v>4</v>
+      </c>
+      <c r="O199" t="s">
+        <v>227</v>
+      </c>
+      <c r="P199" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q199">
+        <v>4.3</v>
+      </c>
+      <c r="R199">
+        <v>2.41</v>
+      </c>
+      <c r="S199">
+        <v>2.23</v>
+      </c>
+      <c r="T199">
+        <v>1.27</v>
+      </c>
+      <c r="U199">
+        <v>3.3</v>
+      </c>
+      <c r="V199">
+        <v>2.25</v>
+      </c>
+      <c r="W199">
+        <v>1.55</v>
+      </c>
+      <c r="X199">
+        <v>4.5</v>
+      </c>
+      <c r="Y199">
+        <v>1.15</v>
+      </c>
+      <c r="Z199">
+        <v>3.99</v>
+      </c>
+      <c r="AA199">
+        <v>3.9</v>
+      </c>
+      <c r="AB199">
+        <v>1.73</v>
+      </c>
+      <c r="AC199">
+        <v>1.02</v>
+      </c>
+      <c r="AD199">
+        <v>10</v>
+      </c>
+      <c r="AE199">
+        <v>1.16</v>
+      </c>
+      <c r="AF199">
+        <v>4.6</v>
+      </c>
+      <c r="AG199">
+        <v>1.5</v>
+      </c>
+      <c r="AH199">
+        <v>2.41</v>
+      </c>
+      <c r="AI199">
+        <v>1.52</v>
+      </c>
+      <c r="AJ199">
+        <v>2.46</v>
+      </c>
+      <c r="AK199">
+        <v>2.04</v>
+      </c>
+      <c r="AL199">
+        <v>1.22</v>
+      </c>
+      <c r="AM199">
+        <v>1.13</v>
+      </c>
+      <c r="AN199">
+        <v>1.67</v>
+      </c>
+      <c r="AO199">
+        <v>2.25</v>
+      </c>
+      <c r="AP199">
+        <v>1.62</v>
+      </c>
+      <c r="AQ199">
+        <v>2.15</v>
+      </c>
+      <c r="AR199">
+        <v>1.88</v>
+      </c>
+      <c r="AS199">
+        <v>1.91</v>
+      </c>
+      <c r="AT199">
+        <v>3.79</v>
+      </c>
+      <c r="AU199">
+        <v>6</v>
+      </c>
+      <c r="AV199">
+        <v>10</v>
+      </c>
+      <c r="AW199">
+        <v>8</v>
+      </c>
+      <c r="AX199">
+        <v>2</v>
+      </c>
+      <c r="AY199">
+        <v>14</v>
+      </c>
+      <c r="AZ199">
+        <v>12</v>
+      </c>
+      <c r="BA199">
+        <v>5</v>
+      </c>
+      <c r="BB199">
+        <v>7</v>
+      </c>
+      <c r="BC199">
+        <v>12</v>
+      </c>
+      <c r="BD199">
+        <v>2.46</v>
+      </c>
+      <c r="BE199">
+        <v>9</v>
+      </c>
+      <c r="BF199">
+        <v>1.7</v>
+      </c>
+      <c r="BG199">
+        <v>0</v>
+      </c>
+      <c r="BH199">
+        <v>0</v>
+      </c>
+      <c r="BI199">
+        <v>1.18</v>
+      </c>
+      <c r="BJ199">
+        <v>3.65</v>
+      </c>
+      <c r="BK199">
+        <v>1.38</v>
+      </c>
+      <c r="BL199">
+        <v>2.62</v>
+      </c>
+      <c r="BM199">
+        <v>1.73</v>
+      </c>
+      <c r="BN199">
+        <v>2.07</v>
+      </c>
+      <c r="BO199">
+        <v>2.13</v>
+      </c>
+      <c r="BP199">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="200" spans="1:68">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>7296459</v>
+      </c>
+      <c r="C200" t="s">
+        <v>68</v>
+      </c>
+      <c r="D200" t="s">
+        <v>69</v>
+      </c>
+      <c r="E200" s="2">
+        <v>45564.45833333334</v>
+      </c>
+      <c r="F200">
+        <v>25</v>
+      </c>
+      <c r="G200" t="s">
+        <v>84</v>
+      </c>
+      <c r="H200" t="s">
+        <v>79</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+      <c r="J200">
+        <v>1</v>
+      </c>
+      <c r="K200">
+        <v>1</v>
+      </c>
+      <c r="L200">
+        <v>1</v>
+      </c>
+      <c r="M200">
+        <v>2</v>
+      </c>
+      <c r="N200">
+        <v>3</v>
+      </c>
+      <c r="O200" t="s">
+        <v>220</v>
+      </c>
+      <c r="P200" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q200">
+        <v>1.98</v>
+      </c>
+      <c r="R200">
+        <v>2.58</v>
+      </c>
+      <c r="S200">
+        <v>5.59</v>
+      </c>
+      <c r="T200">
+        <v>1.27</v>
+      </c>
+      <c r="U200">
+        <v>3.4</v>
+      </c>
+      <c r="V200">
+        <v>2.36</v>
+      </c>
+      <c r="W200">
+        <v>1.57</v>
+      </c>
+      <c r="X200">
+        <v>4.95</v>
+      </c>
+      <c r="Y200">
+        <v>1.15</v>
+      </c>
+      <c r="Z200">
+        <v>1.53</v>
+      </c>
+      <c r="AA200">
+        <v>4.2</v>
+      </c>
+      <c r="AB200">
+        <v>5</v>
+      </c>
+      <c r="AC200">
+        <v>1.02</v>
+      </c>
+      <c r="AD200">
+        <v>12</v>
+      </c>
+      <c r="AE200">
+        <v>1.18</v>
+      </c>
+      <c r="AF200">
+        <v>4.67</v>
+      </c>
+      <c r="AG200">
+        <v>1.62</v>
+      </c>
+      <c r="AH200">
+        <v>2.2</v>
+      </c>
+      <c r="AI200">
+        <v>1.68</v>
+      </c>
+      <c r="AJ200">
+        <v>2.15</v>
+      </c>
+      <c r="AK200">
+        <v>1.14</v>
+      </c>
+      <c r="AL200">
+        <v>1.17</v>
+      </c>
+      <c r="AM200">
+        <v>2.5</v>
+      </c>
+      <c r="AN200">
+        <v>1.64</v>
+      </c>
+      <c r="AO200">
+        <v>1.58</v>
+      </c>
+      <c r="AP200">
+        <v>1.5</v>
+      </c>
+      <c r="AQ200">
+        <v>1.69</v>
+      </c>
+      <c r="AR200">
+        <v>1.84</v>
+      </c>
+      <c r="AS200">
+        <v>1.24</v>
+      </c>
+      <c r="AT200">
+        <v>3.08</v>
+      </c>
+      <c r="AU200">
+        <v>3</v>
+      </c>
+      <c r="AV200">
+        <v>4</v>
+      </c>
+      <c r="AW200">
+        <v>21</v>
+      </c>
+      <c r="AX200">
+        <v>9</v>
+      </c>
+      <c r="AY200">
+        <v>24</v>
+      </c>
+      <c r="AZ200">
+        <v>13</v>
+      </c>
+      <c r="BA200">
+        <v>11</v>
+      </c>
+      <c r="BB200">
+        <v>5</v>
+      </c>
+      <c r="BC200">
+        <v>16</v>
+      </c>
+      <c r="BD200">
+        <v>1.35</v>
+      </c>
+      <c r="BE200">
+        <v>10.5</v>
+      </c>
+      <c r="BF200">
+        <v>3.72</v>
+      </c>
+      <c r="BG200">
+        <v>0</v>
+      </c>
+      <c r="BH200">
+        <v>0</v>
+      </c>
+      <c r="BI200">
+        <v>1.21</v>
+      </c>
+      <c r="BJ200">
+        <v>3.44</v>
+      </c>
+      <c r="BK200">
+        <v>1.27</v>
+      </c>
+      <c r="BL200">
+        <v>3.04</v>
+      </c>
+      <c r="BM200">
+        <v>1.56</v>
+      </c>
+      <c r="BN200">
+        <v>2.38</v>
+      </c>
+      <c r="BO200">
+        <v>1.91</v>
+      </c>
+      <c r="BP200">
+        <v>1.89</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
@@ -691,10 +691,10 @@
     <t>['1', '19']</t>
   </si>
   <si>
-    <t>['4', '45+3', '83']</t>
+    <t>['40', '61']</t>
   </si>
   <si>
-    <t>['40', '61']</t>
+    <t>['4', '45+3', '83']</t>
   </si>
   <si>
     <t>['15', '49']</t>
@@ -1018,13 +1018,13 @@
     <t>['3', '24', '28']</t>
   </si>
   <si>
-    <t>['23', '56']</t>
+    <t>['31', '72']</t>
   </si>
   <si>
     <t>['33', '42', '78', '87']</t>
   </si>
   <si>
-    <t>['31', '72']</t>
+    <t>['23', '56']</t>
   </si>
   <si>
     <t>['25', '47']</t>
@@ -40952,7 +40952,7 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>7296465</v>
+        <v>7296462</v>
       </c>
       <c r="C193" t="s">
         <v>68</v>
@@ -40961,76 +40961,76 @@
         <v>69</v>
       </c>
       <c r="E193" s="2">
-        <v>45563.45833333334</v>
+        <v>45562.875</v>
       </c>
       <c r="F193">
         <v>25</v>
       </c>
       <c r="G193" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H193" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K193">
+        <v>0</v>
+      </c>
+      <c r="L193">
+        <v>1</v>
+      </c>
+      <c r="M193">
+        <v>1</v>
+      </c>
+      <c r="N193">
         <v>2</v>
       </c>
-      <c r="L193">
-        <v>1</v>
-      </c>
-      <c r="M193">
-        <v>2</v>
-      </c>
-      <c r="N193">
-        <v>3</v>
-      </c>
       <c r="O193" t="s">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="P193" t="s">
-        <v>334</v>
+        <v>152</v>
       </c>
       <c r="Q193">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="R193">
         <v>2.3</v>
       </c>
       <c r="S193">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="T193">
         <v>1.25</v>
       </c>
       <c r="U193">
-        <v>3.72</v>
+        <v>3.65</v>
       </c>
       <c r="V193">
-        <v>2.2</v>
+        <v>2.31</v>
       </c>
       <c r="W193">
-        <v>1.64</v>
+        <v>1.59</v>
       </c>
       <c r="X193">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="Y193">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="Z193">
-        <v>2.45</v>
+        <v>1.94</v>
       </c>
       <c r="AA193">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AB193">
-        <v>2.51</v>
+        <v>3.3</v>
       </c>
       <c r="AC193">
         <v>1.01</v>
@@ -41039,118 +41039,118 @@
         <v>15</v>
       </c>
       <c r="AE193">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="AF193">
+        <v>5</v>
+      </c>
+      <c r="AG193">
+        <v>1.54</v>
+      </c>
+      <c r="AH193">
+        <v>2.32</v>
+      </c>
+      <c r="AI193">
+        <v>1.44</v>
+      </c>
+      <c r="AJ193">
+        <v>2.63</v>
+      </c>
+      <c r="AK193">
+        <v>1.3</v>
+      </c>
+      <c r="AL193">
+        <v>1.26</v>
+      </c>
+      <c r="AM193">
+        <v>1.84</v>
+      </c>
+      <c r="AN193">
+        <v>1.55</v>
+      </c>
+      <c r="AO193">
+        <v>1</v>
+      </c>
+      <c r="AP193">
+        <v>1.5</v>
+      </c>
+      <c r="AQ193">
+        <v>1</v>
+      </c>
+      <c r="AR193">
+        <v>1.48</v>
+      </c>
+      <c r="AS193">
+        <v>1.42</v>
+      </c>
+      <c r="AT193">
+        <v>2.9</v>
+      </c>
+      <c r="AU193">
+        <v>3</v>
+      </c>
+      <c r="AV193">
+        <v>4</v>
+      </c>
+      <c r="AW193">
+        <v>4</v>
+      </c>
+      <c r="AX193">
         <v>6</v>
       </c>
-      <c r="AG193">
-        <v>1.46</v>
-      </c>
-      <c r="AH193">
+      <c r="AY193">
+        <v>7</v>
+      </c>
+      <c r="AZ193">
+        <v>10</v>
+      </c>
+      <c r="BA193">
+        <v>8</v>
+      </c>
+      <c r="BB193">
+        <v>4</v>
+      </c>
+      <c r="BC193">
+        <v>12</v>
+      </c>
+      <c r="BD193">
+        <v>1.58</v>
+      </c>
+      <c r="BE193">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF193">
+        <v>2.75</v>
+      </c>
+      <c r="BG193">
+        <v>1.15</v>
+      </c>
+      <c r="BH193">
+        <v>5.42</v>
+      </c>
+      <c r="BI193">
+        <v>1.23</v>
+      </c>
+      <c r="BJ193">
+        <v>3.28</v>
+      </c>
+      <c r="BK193">
+        <v>1.51</v>
+      </c>
+      <c r="BL193">
         <v>2.52</v>
       </c>
-      <c r="AI193">
-        <v>1.4</v>
-      </c>
-      <c r="AJ193">
-        <v>2.75</v>
-      </c>
-      <c r="AK193">
-        <v>1.58</v>
-      </c>
-      <c r="AL193">
-        <v>1.27</v>
-      </c>
-      <c r="AM193">
-        <v>1.45</v>
-      </c>
-      <c r="AN193">
-        <v>1.58</v>
-      </c>
-      <c r="AO193">
-        <v>1.82</v>
-      </c>
-      <c r="AP193">
-        <v>1.46</v>
-      </c>
-      <c r="AQ193">
-        <v>1.92</v>
-      </c>
-      <c r="AR193">
-        <v>1.49</v>
-      </c>
-      <c r="AS193">
-        <v>1.63</v>
-      </c>
-      <c r="AT193">
-        <v>3.12</v>
-      </c>
-      <c r="AU193">
-        <v>6</v>
-      </c>
-      <c r="AV193">
-        <v>5</v>
-      </c>
-      <c r="AW193">
-        <v>3</v>
-      </c>
-      <c r="AX193">
-        <v>4</v>
-      </c>
-      <c r="AY193">
-        <v>9</v>
-      </c>
-      <c r="AZ193">
-        <v>9</v>
-      </c>
-      <c r="BA193">
-        <v>6</v>
-      </c>
-      <c r="BB193">
-        <v>5</v>
-      </c>
-      <c r="BC193">
-        <v>11</v>
-      </c>
-      <c r="BD193">
-        <v>2.41</v>
-      </c>
-      <c r="BE193">
-        <v>6.8</v>
-      </c>
-      <c r="BF193">
+      <c r="BM193">
         <v>1.84</v>
       </c>
-      <c r="BG193">
-        <v>0</v>
-      </c>
-      <c r="BH193">
-        <v>0</v>
-      </c>
-      <c r="BI193">
-        <v>0</v>
-      </c>
-      <c r="BJ193">
-        <v>0</v>
-      </c>
-      <c r="BK193">
-        <v>1.35</v>
-      </c>
-      <c r="BL193">
-        <v>2.65</v>
-      </c>
-      <c r="BM193">
-        <v>1.71</v>
-      </c>
       <c r="BN193">
-        <v>2.11</v>
+        <v>1.97</v>
       </c>
       <c r="BO193">
-        <v>2.11</v>
+        <v>2.28</v>
       </c>
       <c r="BP193">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="194" spans="1:68">
@@ -41158,7 +41158,7 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>7296464</v>
+        <v>7296460</v>
       </c>
       <c r="C194" t="s">
         <v>68</v>
@@ -41167,166 +41167,166 @@
         <v>69</v>
       </c>
       <c r="E194" s="2">
-        <v>45563.45833333334</v>
+        <v>45562.875</v>
       </c>
       <c r="F194">
         <v>25</v>
       </c>
       <c r="G194" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="H194" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="I194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J194">
         <v>0</v>
       </c>
       <c r="K194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L194">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O194" t="s">
+        <v>225</v>
+      </c>
+      <c r="P194" t="s">
         <v>103</v>
       </c>
-      <c r="P194" t="s">
-        <v>155</v>
-      </c>
       <c r="Q194">
-        <v>2</v>
+        <v>2.34</v>
       </c>
       <c r="R194">
-        <v>2.4</v>
+        <v>2.67</v>
       </c>
       <c r="S194">
-        <v>4.7</v>
+        <v>3.76</v>
       </c>
       <c r="T194">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="U194">
-        <v>3.54</v>
+        <v>4.15</v>
       </c>
       <c r="V194">
-        <v>2.25</v>
+        <v>2.03</v>
       </c>
       <c r="W194">
-        <v>1.6</v>
+        <v>1.77</v>
       </c>
       <c r="X194">
-        <v>5.05</v>
+        <v>4.15</v>
       </c>
       <c r="Y194">
-        <v>1.15</v>
+        <v>1.21</v>
       </c>
       <c r="Z194">
-        <v>1.58</v>
+        <v>1.9</v>
       </c>
       <c r="AA194">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="AB194">
-        <v>4.67</v>
+        <v>3.31</v>
       </c>
       <c r="AC194">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AD194">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AE194">
-        <v>1.16</v>
+        <v>1.06</v>
       </c>
       <c r="AF194">
-        <v>4.6</v>
+        <v>5.6</v>
       </c>
       <c r="AG194">
-        <v>1.52</v>
+        <v>1.37</v>
       </c>
       <c r="AH194">
-        <v>2.36</v>
+        <v>2.85</v>
       </c>
       <c r="AI194">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AJ194">
-        <v>2.35</v>
+        <v>2.92</v>
       </c>
       <c r="AK194">
-        <v>1.07</v>
+        <v>1.31</v>
       </c>
       <c r="AL194">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="AM194">
-        <v>2.3</v>
+        <v>1.88</v>
       </c>
       <c r="AN194">
-        <v>0.92</v>
+        <v>1.67</v>
       </c>
       <c r="AO194">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="AP194">
-        <v>0.85</v>
+        <v>1.77</v>
       </c>
       <c r="AQ194">
         <v>0.92</v>
       </c>
       <c r="AR194">
-        <v>1.47</v>
+        <v>1.9</v>
       </c>
       <c r="AS194">
-        <v>1.37</v>
+        <v>1.25</v>
       </c>
       <c r="AT194">
-        <v>2.84</v>
+        <v>3.15</v>
       </c>
       <c r="AU194">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV194">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AW194">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX194">
         <v>2</v>
       </c>
       <c r="AY194">
+        <v>15</v>
+      </c>
+      <c r="AZ194">
+        <v>4</v>
+      </c>
+      <c r="BA194">
         <v>11</v>
       </c>
-      <c r="AZ194">
-        <v>7</v>
-      </c>
-      <c r="BA194">
-        <v>4</v>
-      </c>
       <c r="BB194">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BC194">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BD194">
-        <v>1.49</v>
+        <v>1.67</v>
       </c>
       <c r="BE194">
-        <v>9.699999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="BF194">
-        <v>3.02</v>
+        <v>2.59</v>
       </c>
       <c r="BG194">
         <v>0</v>
@@ -41335,28 +41335,28 @@
         <v>0</v>
       </c>
       <c r="BI194">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="BJ194">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="BK194">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="BL194">
-        <v>2.92</v>
+        <v>2.66</v>
       </c>
       <c r="BM194">
-        <v>1.61</v>
+        <v>1.71</v>
       </c>
       <c r="BN194">
-        <v>2.29</v>
+        <v>2.11</v>
       </c>
       <c r="BO194">
-        <v>1.97</v>
+        <v>2.12</v>
       </c>
       <c r="BP194">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="195" spans="1:68">
@@ -41364,7 +41364,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>7296463</v>
+        <v>7296461</v>
       </c>
       <c r="C195" t="s">
         <v>68</v>
@@ -41373,166 +41373,166 @@
         <v>69</v>
       </c>
       <c r="E195" s="2">
-        <v>45563.45833333334</v>
+        <v>45562.875</v>
       </c>
       <c r="F195">
         <v>25</v>
       </c>
       <c r="G195" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H195" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I195">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J195">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K195">
         <v>2</v>
       </c>
       <c r="L195">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M195">
+        <v>0</v>
+      </c>
+      <c r="N195">
+        <v>3</v>
+      </c>
+      <c r="O195" t="s">
+        <v>226</v>
+      </c>
+      <c r="P195" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q195">
+        <v>2.58</v>
+      </c>
+      <c r="R195">
+        <v>2.29</v>
+      </c>
+      <c r="S195">
+        <v>4.07</v>
+      </c>
+      <c r="T195">
+        <v>1.34</v>
+      </c>
+      <c r="U195">
+        <v>3.19</v>
+      </c>
+      <c r="V195">
+        <v>2.69</v>
+      </c>
+      <c r="W195">
+        <v>1.44</v>
+      </c>
+      <c r="X195">
+        <v>6.5</v>
+      </c>
+      <c r="Y195">
+        <v>1.09</v>
+      </c>
+      <c r="Z195">
+        <v>2</v>
+      </c>
+      <c r="AA195">
+        <v>3.45</v>
+      </c>
+      <c r="AB195">
+        <v>3.39</v>
+      </c>
+      <c r="AC195">
+        <v>1.04</v>
+      </c>
+      <c r="AD195">
+        <v>9.85</v>
+      </c>
+      <c r="AE195">
+        <v>1.28</v>
+      </c>
+      <c r="AF195">
+        <v>3.6</v>
+      </c>
+      <c r="AG195">
+        <v>1.79</v>
+      </c>
+      <c r="AH195">
+        <v>1.91</v>
+      </c>
+      <c r="AI195">
+        <v>1.68</v>
+      </c>
+      <c r="AJ195">
+        <v>2.14</v>
+      </c>
+      <c r="AK195">
+        <v>1.3</v>
+      </c>
+      <c r="AL195">
+        <v>1.3</v>
+      </c>
+      <c r="AM195">
+        <v>1.78</v>
+      </c>
+      <c r="AN195">
+        <v>2.25</v>
+      </c>
+      <c r="AO195">
+        <v>1.17</v>
+      </c>
+      <c r="AP195">
+        <v>2.31</v>
+      </c>
+      <c r="AQ195">
+        <v>1.08</v>
+      </c>
+      <c r="AR195">
+        <v>1.76</v>
+      </c>
+      <c r="AS195">
+        <v>1.61</v>
+      </c>
+      <c r="AT195">
+        <v>3.37</v>
+      </c>
+      <c r="AU195">
         <v>4</v>
       </c>
-      <c r="N195">
-        <v>4</v>
-      </c>
-      <c r="O195" t="s">
-        <v>103</v>
-      </c>
-      <c r="P195" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q195">
-        <v>3.69</v>
-      </c>
-      <c r="R195">
-        <v>2.66</v>
-      </c>
-      <c r="S195">
-        <v>2.38</v>
-      </c>
-      <c r="T195">
-        <v>1.2</v>
-      </c>
-      <c r="U195">
-        <v>4</v>
-      </c>
-      <c r="V195">
-        <v>2.03</v>
-      </c>
-      <c r="W195">
-        <v>1.77</v>
-      </c>
-      <c r="X195">
-        <v>4</v>
-      </c>
-      <c r="Y195">
-        <v>1.2</v>
-      </c>
-      <c r="Z195">
-        <v>3.32</v>
-      </c>
-      <c r="AA195">
-        <v>3.8</v>
-      </c>
-      <c r="AB195">
-        <v>1.92</v>
-      </c>
-      <c r="AC195">
-        <v>1.01</v>
-      </c>
-      <c r="AD195">
-        <v>13.5</v>
-      </c>
-      <c r="AE195">
-        <v>1.1</v>
-      </c>
-      <c r="AF195">
-        <v>6</v>
-      </c>
-      <c r="AG195">
-        <v>1.38</v>
-      </c>
-      <c r="AH195">
-        <v>2.81</v>
-      </c>
-      <c r="AI195">
-        <v>1.37</v>
-      </c>
-      <c r="AJ195">
-        <v>3.03</v>
-      </c>
-      <c r="AK195">
-        <v>1.85</v>
-      </c>
-      <c r="AL195">
-        <v>1.25</v>
-      </c>
-      <c r="AM195">
-        <v>1.31</v>
-      </c>
-      <c r="AN195">
-        <v>0.92</v>
-      </c>
-      <c r="AO195">
-        <v>0.75</v>
-      </c>
-      <c r="AP195">
-        <v>0.85</v>
-      </c>
-      <c r="AQ195">
-        <v>0.92</v>
-      </c>
-      <c r="AR195">
-        <v>1.48</v>
-      </c>
-      <c r="AS195">
-        <v>1.37</v>
-      </c>
-      <c r="AT195">
-        <v>2.85</v>
-      </c>
-      <c r="AU195">
-        <v>7</v>
-      </c>
       <c r="AV195">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AW195">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AX195">
         <v>6</v>
       </c>
       <c r="AY195">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="AZ195">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BA195">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BB195">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BC195">
         <v>10</v>
       </c>
       <c r="BD195">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="BE195">
-        <v>6.75</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BF195">
-        <v>1.82</v>
+        <v>2.56</v>
       </c>
       <c r="BG195">
         <v>0</v>
@@ -41541,28 +41541,28 @@
         <v>0</v>
       </c>
       <c r="BI195">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="BJ195">
-        <v>3.44</v>
+        <v>3.68</v>
       </c>
       <c r="BK195">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="BL195">
-        <v>2.52</v>
+        <v>2.66</v>
       </c>
       <c r="BM195">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="BN195">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="BO195">
-        <v>2.18</v>
+        <v>2.13</v>
       </c>
       <c r="BP195">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="196" spans="1:68">
@@ -41570,7 +41570,7 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>7296462</v>
+        <v>7296458</v>
       </c>
       <c r="C196" t="s">
         <v>68</v>
@@ -41579,196 +41579,196 @@
         <v>69</v>
       </c>
       <c r="E196" s="2">
-        <v>45563.45833333334</v>
+        <v>45562.875</v>
       </c>
       <c r="F196">
         <v>25</v>
       </c>
       <c r="G196" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="H196" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K196">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L196">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M196">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N196">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O196" t="s">
-        <v>160</v>
+        <v>227</v>
       </c>
       <c r="P196" t="s">
-        <v>152</v>
+        <v>334</v>
       </c>
       <c r="Q196">
-        <v>2.5</v>
+        <v>4.3</v>
       </c>
       <c r="R196">
-        <v>2.3</v>
+        <v>2.41</v>
       </c>
       <c r="S196">
-        <v>3.5</v>
+        <v>2.23</v>
       </c>
       <c r="T196">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="U196">
+        <v>3.3</v>
+      </c>
+      <c r="V196">
+        <v>2.25</v>
+      </c>
+      <c r="W196">
+        <v>1.55</v>
+      </c>
+      <c r="X196">
+        <v>4.5</v>
+      </c>
+      <c r="Y196">
+        <v>1.15</v>
+      </c>
+      <c r="Z196">
+        <v>3.99</v>
+      </c>
+      <c r="AA196">
+        <v>3.9</v>
+      </c>
+      <c r="AB196">
+        <v>1.73</v>
+      </c>
+      <c r="AC196">
+        <v>1.02</v>
+      </c>
+      <c r="AD196">
+        <v>10</v>
+      </c>
+      <c r="AE196">
+        <v>1.16</v>
+      </c>
+      <c r="AF196">
+        <v>4.6</v>
+      </c>
+      <c r="AG196">
+        <v>1.5</v>
+      </c>
+      <c r="AH196">
+        <v>2.41</v>
+      </c>
+      <c r="AI196">
+        <v>1.52</v>
+      </c>
+      <c r="AJ196">
+        <v>2.46</v>
+      </c>
+      <c r="AK196">
+        <v>2.04</v>
+      </c>
+      <c r="AL196">
+        <v>1.22</v>
+      </c>
+      <c r="AM196">
+        <v>1.13</v>
+      </c>
+      <c r="AN196">
+        <v>1.67</v>
+      </c>
+      <c r="AO196">
+        <v>2.25</v>
+      </c>
+      <c r="AP196">
+        <v>1.62</v>
+      </c>
+      <c r="AQ196">
+        <v>2.15</v>
+      </c>
+      <c r="AR196">
+        <v>1.88</v>
+      </c>
+      <c r="AS196">
+        <v>1.91</v>
+      </c>
+      <c r="AT196">
+        <v>3.79</v>
+      </c>
+      <c r="AU196">
+        <v>-1</v>
+      </c>
+      <c r="AV196">
+        <v>-1</v>
+      </c>
+      <c r="AW196">
+        <v>-1</v>
+      </c>
+      <c r="AX196">
+        <v>-1</v>
+      </c>
+      <c r="AY196">
+        <v>-1</v>
+      </c>
+      <c r="AZ196">
+        <v>-1</v>
+      </c>
+      <c r="BA196">
+        <v>-1</v>
+      </c>
+      <c r="BB196">
+        <v>-1</v>
+      </c>
+      <c r="BC196">
+        <v>-1</v>
+      </c>
+      <c r="BD196">
+        <v>2.46</v>
+      </c>
+      <c r="BE196">
+        <v>9</v>
+      </c>
+      <c r="BF196">
+        <v>1.7</v>
+      </c>
+      <c r="BG196">
+        <v>0</v>
+      </c>
+      <c r="BH196">
+        <v>0</v>
+      </c>
+      <c r="BI196">
+        <v>1.18</v>
+      </c>
+      <c r="BJ196">
         <v>3.65</v>
       </c>
-      <c r="V196">
-        <v>2.31</v>
-      </c>
-      <c r="W196">
-        <v>1.59</v>
-      </c>
-      <c r="X196">
-        <v>5.2</v>
-      </c>
-      <c r="Y196">
-        <v>1.14</v>
-      </c>
-      <c r="Z196">
-        <v>1.94</v>
-      </c>
-      <c r="AA196">
-        <v>3.75</v>
-      </c>
-      <c r="AB196">
-        <v>3.3</v>
-      </c>
-      <c r="AC196">
-        <v>1.01</v>
-      </c>
-      <c r="AD196">
-        <v>15</v>
-      </c>
-      <c r="AE196">
-        <v>1.17</v>
-      </c>
-      <c r="AF196">
-        <v>5</v>
-      </c>
-      <c r="AG196">
-        <v>1.54</v>
-      </c>
-      <c r="AH196">
-        <v>2.32</v>
-      </c>
-      <c r="AI196">
-        <v>1.44</v>
-      </c>
-      <c r="AJ196">
-        <v>2.63</v>
-      </c>
-      <c r="AK196">
-        <v>1.3</v>
-      </c>
-      <c r="AL196">
-        <v>1.26</v>
-      </c>
-      <c r="AM196">
-        <v>1.84</v>
-      </c>
-      <c r="AN196">
-        <v>1.55</v>
-      </c>
-      <c r="AO196">
-        <v>1</v>
-      </c>
-      <c r="AP196">
-        <v>1.5</v>
-      </c>
-      <c r="AQ196">
-        <v>1</v>
-      </c>
-      <c r="AR196">
-        <v>1.48</v>
-      </c>
-      <c r="AS196">
-        <v>1.42</v>
-      </c>
-      <c r="AT196">
-        <v>2.9</v>
-      </c>
-      <c r="AU196">
-        <v>4</v>
-      </c>
-      <c r="AV196">
-        <v>5</v>
-      </c>
-      <c r="AW196">
-        <v>8</v>
-      </c>
-      <c r="AX196">
-        <v>8</v>
-      </c>
-      <c r="AY196">
-        <v>12</v>
-      </c>
-      <c r="AZ196">
-        <v>13</v>
-      </c>
-      <c r="BA196">
-        <v>8</v>
-      </c>
-      <c r="BB196">
-        <v>4</v>
-      </c>
-      <c r="BC196">
-        <v>12</v>
-      </c>
-      <c r="BD196">
-        <v>1.58</v>
-      </c>
-      <c r="BE196">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="BF196">
-        <v>2.75</v>
-      </c>
-      <c r="BG196">
-        <v>1.15</v>
-      </c>
-      <c r="BH196">
-        <v>5.42</v>
-      </c>
-      <c r="BI196">
-        <v>1.23</v>
-      </c>
-      <c r="BJ196">
-        <v>3.28</v>
-      </c>
       <c r="BK196">
-        <v>1.51</v>
+        <v>1.38</v>
       </c>
       <c r="BL196">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="BM196">
-        <v>1.84</v>
+        <v>1.73</v>
       </c>
       <c r="BN196">
-        <v>1.97</v>
+        <v>2.07</v>
       </c>
       <c r="BO196">
-        <v>2.28</v>
+        <v>2.13</v>
       </c>
       <c r="BP196">
-        <v>1.61</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="197" spans="1:68">
@@ -41776,7 +41776,7 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>7296461</v>
+        <v>7296463</v>
       </c>
       <c r="C197" t="s">
         <v>68</v>
@@ -41791,160 +41791,160 @@
         <v>25</v>
       </c>
       <c r="G197" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="H197" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197">
         <v>2</v>
-      </c>
-      <c r="J197">
-        <v>0</v>
       </c>
       <c r="K197">
         <v>2</v>
       </c>
       <c r="L197">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M197">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N197">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O197" t="s">
-        <v>225</v>
+        <v>103</v>
       </c>
       <c r="P197" t="s">
-        <v>103</v>
+        <v>335</v>
       </c>
       <c r="Q197">
-        <v>2.58</v>
+        <v>3.69</v>
       </c>
       <c r="R197">
-        <v>2.29</v>
+        <v>2.66</v>
       </c>
       <c r="S197">
-        <v>4.07</v>
+        <v>2.38</v>
       </c>
       <c r="T197">
-        <v>1.34</v>
+        <v>1.2</v>
       </c>
       <c r="U197">
-        <v>3.19</v>
+        <v>4</v>
       </c>
       <c r="V197">
-        <v>2.69</v>
+        <v>2.03</v>
       </c>
       <c r="W197">
-        <v>1.44</v>
+        <v>1.77</v>
       </c>
       <c r="X197">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="Y197">
-        <v>1.09</v>
+        <v>1.2</v>
       </c>
       <c r="Z197">
-        <v>2</v>
+        <v>3.32</v>
       </c>
       <c r="AA197">
-        <v>3.45</v>
+        <v>3.8</v>
       </c>
       <c r="AB197">
-        <v>3.39</v>
+        <v>1.92</v>
       </c>
       <c r="AC197">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="AD197">
-        <v>9.85</v>
+        <v>13.5</v>
       </c>
       <c r="AE197">
-        <v>1.28</v>
+        <v>1.1</v>
       </c>
       <c r="AF197">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="AG197">
-        <v>1.79</v>
+        <v>1.38</v>
       </c>
       <c r="AH197">
-        <v>1.91</v>
+        <v>2.81</v>
       </c>
       <c r="AI197">
-        <v>1.68</v>
+        <v>1.37</v>
       </c>
       <c r="AJ197">
-        <v>2.14</v>
+        <v>3.03</v>
       </c>
       <c r="AK197">
-        <v>1.3</v>
+        <v>1.85</v>
       </c>
       <c r="AL197">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AM197">
-        <v>1.78</v>
+        <v>1.31</v>
       </c>
       <c r="AN197">
-        <v>2.25</v>
+        <v>0.92</v>
       </c>
       <c r="AO197">
-        <v>1.17</v>
+        <v>0.75</v>
       </c>
       <c r="AP197">
-        <v>2.31</v>
+        <v>0.85</v>
       </c>
       <c r="AQ197">
-        <v>1.08</v>
+        <v>0.92</v>
       </c>
       <c r="AR197">
-        <v>1.76</v>
+        <v>1.48</v>
       </c>
       <c r="AS197">
-        <v>1.61</v>
+        <v>1.37</v>
       </c>
       <c r="AT197">
-        <v>3.37</v>
+        <v>2.85</v>
       </c>
       <c r="AU197">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AV197">
+        <v>7</v>
+      </c>
+      <c r="AW197">
+        <v>9</v>
+      </c>
+      <c r="AX197">
         <v>6</v>
       </c>
-      <c r="AW197">
-        <v>3</v>
-      </c>
-      <c r="AX197">
-        <v>5</v>
-      </c>
       <c r="AY197">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ197">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA197">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BB197">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BC197">
         <v>10</v>
       </c>
       <c r="BD197">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="BE197">
-        <v>9.199999999999999</v>
+        <v>6.75</v>
       </c>
       <c r="BF197">
-        <v>2.56</v>
+        <v>1.82</v>
       </c>
       <c r="BG197">
         <v>0</v>
@@ -41953,28 +41953,28 @@
         <v>0</v>
       </c>
       <c r="BI197">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="BJ197">
-        <v>3.68</v>
+        <v>3.44</v>
       </c>
       <c r="BK197">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="BL197">
-        <v>2.66</v>
+        <v>2.52</v>
       </c>
       <c r="BM197">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="BN197">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="BO197">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="BP197">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="198" spans="1:68">
@@ -41982,7 +41982,7 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>7296460</v>
+        <v>7296464</v>
       </c>
       <c r="C198" t="s">
         <v>68</v>
@@ -41997,160 +41997,160 @@
         <v>25</v>
       </c>
       <c r="G198" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="H198" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J198">
         <v>0</v>
       </c>
       <c r="K198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L198">
+        <v>0</v>
+      </c>
+      <c r="M198">
+        <v>1</v>
+      </c>
+      <c r="N198">
+        <v>1</v>
+      </c>
+      <c r="O198" t="s">
+        <v>103</v>
+      </c>
+      <c r="P198" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q198">
         <v>2</v>
       </c>
-      <c r="M198">
-        <v>0</v>
-      </c>
-      <c r="N198">
-        <v>2</v>
-      </c>
-      <c r="O198" t="s">
-        <v>226</v>
-      </c>
-      <c r="P198" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q198">
-        <v>2.34</v>
-      </c>
       <c r="R198">
-        <v>2.67</v>
+        <v>2.4</v>
       </c>
       <c r="S198">
-        <v>3.76</v>
+        <v>4.7</v>
       </c>
       <c r="T198">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="U198">
-        <v>4.15</v>
+        <v>3.54</v>
       </c>
       <c r="V198">
-        <v>2.03</v>
+        <v>2.25</v>
       </c>
       <c r="W198">
-        <v>1.77</v>
+        <v>1.6</v>
       </c>
       <c r="X198">
-        <v>4.15</v>
+        <v>5.05</v>
       </c>
       <c r="Y198">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="Z198">
-        <v>1.9</v>
+        <v>1.58</v>
       </c>
       <c r="AA198">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="AB198">
-        <v>3.31</v>
+        <v>4.67</v>
       </c>
       <c r="AC198">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AD198">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AE198">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AF198">
-        <v>5.6</v>
+        <v>4.6</v>
       </c>
       <c r="AG198">
-        <v>1.37</v>
+        <v>1.52</v>
       </c>
       <c r="AH198">
-        <v>2.85</v>
+        <v>2.36</v>
       </c>
       <c r="AI198">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AJ198">
-        <v>2.92</v>
+        <v>2.35</v>
       </c>
       <c r="AK198">
-        <v>1.31</v>
+        <v>1.07</v>
       </c>
       <c r="AL198">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="AM198">
-        <v>1.88</v>
+        <v>2.3</v>
       </c>
       <c r="AN198">
-        <v>1.67</v>
+        <v>0.92</v>
       </c>
       <c r="AO198">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="AP198">
-        <v>1.77</v>
+        <v>0.85</v>
       </c>
       <c r="AQ198">
         <v>0.92</v>
       </c>
       <c r="AR198">
-        <v>1.9</v>
+        <v>1.47</v>
       </c>
       <c r="AS198">
-        <v>1.25</v>
+        <v>1.37</v>
       </c>
       <c r="AT198">
-        <v>3.15</v>
+        <v>2.84</v>
       </c>
       <c r="AU198">
+        <v>3</v>
+      </c>
+      <c r="AV198">
+        <v>5</v>
+      </c>
+      <c r="AW198">
         <v>8</v>
       </c>
-      <c r="AV198">
+      <c r="AX198">
         <v>2</v>
       </c>
-      <c r="AW198">
+      <c r="AY198">
         <v>11</v>
       </c>
-      <c r="AX198">
-        <v>3</v>
-      </c>
-      <c r="AY198">
-        <v>19</v>
-      </c>
       <c r="AZ198">
+        <v>7</v>
+      </c>
+      <c r="BA198">
+        <v>4</v>
+      </c>
+      <c r="BB198">
         <v>5</v>
       </c>
-      <c r="BA198">
-        <v>11</v>
-      </c>
-      <c r="BB198">
-        <v>2</v>
-      </c>
       <c r="BC198">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BD198">
-        <v>1.67</v>
+        <v>1.49</v>
       </c>
       <c r="BE198">
-        <v>9.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="BF198">
-        <v>2.59</v>
+        <v>3.02</v>
       </c>
       <c r="BG198">
         <v>0</v>
@@ -42159,28 +42159,28 @@
         <v>0</v>
       </c>
       <c r="BI198">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="BJ198">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="BK198">
-        <v>1.37</v>
+        <v>1.29</v>
       </c>
       <c r="BL198">
-        <v>2.66</v>
+        <v>2.92</v>
       </c>
       <c r="BM198">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="BN198">
-        <v>2.11</v>
+        <v>2.29</v>
       </c>
       <c r="BO198">
-        <v>2.12</v>
+        <v>1.97</v>
       </c>
       <c r="BP198">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="199" spans="1:68">
@@ -42188,7 +42188,7 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>7296458</v>
+        <v>7296465</v>
       </c>
       <c r="C199" t="s">
         <v>68</v>
@@ -42203,10 +42203,10 @@
         <v>25</v>
       </c>
       <c r="G199" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H199" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="I199">
         <v>1</v>
@@ -42218,145 +42218,145 @@
         <v>2</v>
       </c>
       <c r="L199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M199">
         <v>2</v>
       </c>
       <c r="N199">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O199" t="s">
-        <v>227</v>
+        <v>101</v>
       </c>
       <c r="P199" t="s">
         <v>336</v>
       </c>
       <c r="Q199">
-        <v>4.3</v>
+        <v>3.1</v>
       </c>
       <c r="R199">
-        <v>2.41</v>
+        <v>2.3</v>
       </c>
       <c r="S199">
-        <v>2.23</v>
+        <v>2.75</v>
       </c>
       <c r="T199">
+        <v>1.25</v>
+      </c>
+      <c r="U199">
+        <v>3.72</v>
+      </c>
+      <c r="V199">
+        <v>2.2</v>
+      </c>
+      <c r="W199">
+        <v>1.64</v>
+      </c>
+      <c r="X199">
+        <v>4.7</v>
+      </c>
+      <c r="Y199">
+        <v>1.16</v>
+      </c>
+      <c r="Z199">
+        <v>2.45</v>
+      </c>
+      <c r="AA199">
+        <v>3.6</v>
+      </c>
+      <c r="AB199">
+        <v>2.51</v>
+      </c>
+      <c r="AC199">
+        <v>1.01</v>
+      </c>
+      <c r="AD199">
+        <v>15</v>
+      </c>
+      <c r="AE199">
+        <v>1.13</v>
+      </c>
+      <c r="AF199">
+        <v>6</v>
+      </c>
+      <c r="AG199">
+        <v>1.46</v>
+      </c>
+      <c r="AH199">
+        <v>2.52</v>
+      </c>
+      <c r="AI199">
+        <v>1.4</v>
+      </c>
+      <c r="AJ199">
+        <v>2.75</v>
+      </c>
+      <c r="AK199">
+        <v>1.58</v>
+      </c>
+      <c r="AL199">
         <v>1.27</v>
       </c>
-      <c r="U199">
-        <v>3.3</v>
-      </c>
-      <c r="V199">
-        <v>2.25</v>
-      </c>
-      <c r="W199">
-        <v>1.55</v>
-      </c>
-      <c r="X199">
-        <v>4.5</v>
-      </c>
-      <c r="Y199">
-        <v>1.15</v>
-      </c>
-      <c r="Z199">
-        <v>3.99</v>
-      </c>
-      <c r="AA199">
-        <v>3.9</v>
-      </c>
-      <c r="AB199">
-        <v>1.73</v>
-      </c>
-      <c r="AC199">
-        <v>1.02</v>
-      </c>
-      <c r="AD199">
-        <v>10</v>
-      </c>
-      <c r="AE199">
-        <v>1.16</v>
-      </c>
-      <c r="AF199">
-        <v>4.6</v>
-      </c>
-      <c r="AG199">
-        <v>1.5</v>
-      </c>
-      <c r="AH199">
-        <v>2.41</v>
-      </c>
-      <c r="AI199">
-        <v>1.52</v>
-      </c>
-      <c r="AJ199">
-        <v>2.46</v>
-      </c>
-      <c r="AK199">
-        <v>2.04</v>
-      </c>
-      <c r="AL199">
-        <v>1.22</v>
-      </c>
       <c r="AM199">
-        <v>1.13</v>
+        <v>1.45</v>
       </c>
       <c r="AN199">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AO199">
-        <v>2.25</v>
+        <v>1.82</v>
       </c>
       <c r="AP199">
-        <v>1.62</v>
+        <v>1.46</v>
       </c>
       <c r="AQ199">
-        <v>2.15</v>
+        <v>1.92</v>
       </c>
       <c r="AR199">
-        <v>1.88</v>
+        <v>1.49</v>
       </c>
       <c r="AS199">
-        <v>1.91</v>
+        <v>1.63</v>
       </c>
       <c r="AT199">
-        <v>3.79</v>
+        <v>3.12</v>
       </c>
       <c r="AU199">
         <v>6</v>
       </c>
       <c r="AV199">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AW199">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AX199">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY199">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AZ199">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BA199">
+        <v>6</v>
+      </c>
+      <c r="BB199">
         <v>5</v>
       </c>
-      <c r="BB199">
-        <v>7</v>
-      </c>
       <c r="BC199">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD199">
-        <v>2.46</v>
+        <v>2.41</v>
       </c>
       <c r="BE199">
-        <v>9</v>
+        <v>6.8</v>
       </c>
       <c r="BF199">
-        <v>1.7</v>
+        <v>1.84</v>
       </c>
       <c r="BG199">
         <v>0</v>
@@ -42365,28 +42365,28 @@
         <v>0</v>
       </c>
       <c r="BI199">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="BJ199">
-        <v>3.65</v>
+        <v>0</v>
       </c>
       <c r="BK199">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="BL199">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="BM199">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="BN199">
-        <v>2.07</v>
+        <v>2.11</v>
       </c>
       <c r="BO199">
-        <v>2.13</v>
+        <v>2.11</v>
       </c>
       <c r="BP199">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="200" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
@@ -691,10 +691,10 @@
     <t>['1', '19']</t>
   </si>
   <si>
-    <t>['40', '61']</t>
+    <t>['4', '45+3', '83']</t>
   </si>
   <si>
-    <t>['4', '45+3', '83']</t>
+    <t>['40', '61']</t>
   </si>
   <si>
     <t>['15', '49']</t>
@@ -1018,13 +1018,13 @@
     <t>['3', '24', '28']</t>
   </si>
   <si>
-    <t>['31', '72']</t>
+    <t>['23', '56']</t>
   </si>
   <si>
     <t>['33', '42', '78', '87']</t>
   </si>
   <si>
-    <t>['23', '56']</t>
+    <t>['31', '72']</t>
   </si>
   <si>
     <t>['25', '47']</t>
@@ -40952,7 +40952,7 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>7296462</v>
+        <v>7296465</v>
       </c>
       <c r="C193" t="s">
         <v>68</v>
@@ -40967,70 +40967,70 @@
         <v>25</v>
       </c>
       <c r="G193" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H193" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K193">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L193">
         <v>1</v>
       </c>
       <c r="M193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N193">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O193" t="s">
-        <v>160</v>
+        <v>101</v>
       </c>
       <c r="P193" t="s">
-        <v>152</v>
+        <v>334</v>
       </c>
       <c r="Q193">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="R193">
         <v>2.3</v>
       </c>
       <c r="S193">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="T193">
         <v>1.25</v>
       </c>
       <c r="U193">
-        <v>3.65</v>
+        <v>3.72</v>
       </c>
       <c r="V193">
-        <v>2.31</v>
+        <v>2.2</v>
       </c>
       <c r="W193">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="X193">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="Y193">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="Z193">
-        <v>1.94</v>
+        <v>2.45</v>
       </c>
       <c r="AA193">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AB193">
-        <v>3.3</v>
+        <v>2.51</v>
       </c>
       <c r="AC193">
         <v>1.01</v>
@@ -41039,118 +41039,118 @@
         <v>15</v>
       </c>
       <c r="AE193">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="AF193">
+        <v>6</v>
+      </c>
+      <c r="AG193">
+        <v>1.46</v>
+      </c>
+      <c r="AH193">
+        <v>2.52</v>
+      </c>
+      <c r="AI193">
+        <v>1.4</v>
+      </c>
+      <c r="AJ193">
+        <v>2.75</v>
+      </c>
+      <c r="AK193">
+        <v>1.58</v>
+      </c>
+      <c r="AL193">
+        <v>1.27</v>
+      </c>
+      <c r="AM193">
+        <v>1.45</v>
+      </c>
+      <c r="AN193">
+        <v>1.58</v>
+      </c>
+      <c r="AO193">
+        <v>1.82</v>
+      </c>
+      <c r="AP193">
+        <v>1.46</v>
+      </c>
+      <c r="AQ193">
+        <v>1.92</v>
+      </c>
+      <c r="AR193">
+        <v>1.49</v>
+      </c>
+      <c r="AS193">
+        <v>1.63</v>
+      </c>
+      <c r="AT193">
+        <v>3.12</v>
+      </c>
+      <c r="AU193">
         <v>5</v>
       </c>
-      <c r="AG193">
-        <v>1.54</v>
-      </c>
-      <c r="AH193">
-        <v>2.32</v>
-      </c>
-      <c r="AI193">
-        <v>1.44</v>
-      </c>
-      <c r="AJ193">
-        <v>2.63</v>
-      </c>
-      <c r="AK193">
-        <v>1.3</v>
-      </c>
-      <c r="AL193">
-        <v>1.26</v>
-      </c>
-      <c r="AM193">
+      <c r="AV193">
+        <v>3</v>
+      </c>
+      <c r="AW193">
+        <v>3</v>
+      </c>
+      <c r="AX193">
+        <v>2</v>
+      </c>
+      <c r="AY193">
+        <v>8</v>
+      </c>
+      <c r="AZ193">
+        <v>5</v>
+      </c>
+      <c r="BA193">
+        <v>6</v>
+      </c>
+      <c r="BB193">
+        <v>5</v>
+      </c>
+      <c r="BC193">
+        <v>11</v>
+      </c>
+      <c r="BD193">
+        <v>2.41</v>
+      </c>
+      <c r="BE193">
+        <v>6.8</v>
+      </c>
+      <c r="BF193">
         <v>1.84</v>
       </c>
-      <c r="AN193">
-        <v>1.55</v>
-      </c>
-      <c r="AO193">
-        <v>1</v>
-      </c>
-      <c r="AP193">
-        <v>1.5</v>
-      </c>
-      <c r="AQ193">
-        <v>1</v>
-      </c>
-      <c r="AR193">
-        <v>1.48</v>
-      </c>
-      <c r="AS193">
-        <v>1.42</v>
-      </c>
-      <c r="AT193">
-        <v>2.9</v>
-      </c>
-      <c r="AU193">
-        <v>3</v>
-      </c>
-      <c r="AV193">
-        <v>4</v>
-      </c>
-      <c r="AW193">
-        <v>4</v>
-      </c>
-      <c r="AX193">
-        <v>6</v>
-      </c>
-      <c r="AY193">
-        <v>7</v>
-      </c>
-      <c r="AZ193">
-        <v>10</v>
-      </c>
-      <c r="BA193">
-        <v>8</v>
-      </c>
-      <c r="BB193">
-        <v>4</v>
-      </c>
-      <c r="BC193">
-        <v>12</v>
-      </c>
-      <c r="BD193">
-        <v>1.58</v>
-      </c>
-      <c r="BE193">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="BF193">
-        <v>2.75</v>
-      </c>
       <c r="BG193">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="BH193">
-        <v>5.42</v>
+        <v>0</v>
       </c>
       <c r="BI193">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="BJ193">
-        <v>3.28</v>
+        <v>0</v>
       </c>
       <c r="BK193">
-        <v>1.51</v>
+        <v>1.35</v>
       </c>
       <c r="BL193">
-        <v>2.52</v>
+        <v>2.65</v>
       </c>
       <c r="BM193">
-        <v>1.84</v>
+        <v>1.71</v>
       </c>
       <c r="BN193">
-        <v>1.97</v>
+        <v>2.11</v>
       </c>
       <c r="BO193">
-        <v>2.28</v>
+        <v>2.11</v>
       </c>
       <c r="BP193">
-        <v>1.61</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="194" spans="1:68">
@@ -41158,7 +41158,7 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>7296460</v>
+        <v>7296464</v>
       </c>
       <c r="C194" t="s">
         <v>68</v>
@@ -41173,160 +41173,160 @@
         <v>25</v>
       </c>
       <c r="G194" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="H194" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J194">
         <v>0</v>
       </c>
       <c r="K194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L194">
+        <v>0</v>
+      </c>
+      <c r="M194">
+        <v>1</v>
+      </c>
+      <c r="N194">
+        <v>1</v>
+      </c>
+      <c r="O194" t="s">
+        <v>103</v>
+      </c>
+      <c r="P194" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q194">
         <v>2</v>
       </c>
-      <c r="M194">
-        <v>0</v>
-      </c>
-      <c r="N194">
-        <v>2</v>
-      </c>
-      <c r="O194" t="s">
-        <v>225</v>
-      </c>
-      <c r="P194" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q194">
-        <v>2.34</v>
-      </c>
       <c r="R194">
-        <v>2.67</v>
+        <v>2.4</v>
       </c>
       <c r="S194">
-        <v>3.76</v>
+        <v>4.7</v>
       </c>
       <c r="T194">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="U194">
-        <v>4.15</v>
+        <v>3.54</v>
       </c>
       <c r="V194">
-        <v>2.03</v>
+        <v>2.25</v>
       </c>
       <c r="W194">
-        <v>1.77</v>
+        <v>1.6</v>
       </c>
       <c r="X194">
-        <v>4.15</v>
+        <v>5.05</v>
       </c>
       <c r="Y194">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="Z194">
-        <v>1.9</v>
+        <v>1.58</v>
       </c>
       <c r="AA194">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="AB194">
-        <v>3.31</v>
+        <v>4.67</v>
       </c>
       <c r="AC194">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AD194">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AE194">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AF194">
-        <v>5.6</v>
+        <v>4.6</v>
       </c>
       <c r="AG194">
-        <v>1.37</v>
+        <v>1.52</v>
       </c>
       <c r="AH194">
-        <v>2.85</v>
+        <v>2.36</v>
       </c>
       <c r="AI194">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AJ194">
-        <v>2.92</v>
+        <v>2.35</v>
       </c>
       <c r="AK194">
-        <v>1.31</v>
+        <v>1.07</v>
       </c>
       <c r="AL194">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="AM194">
-        <v>1.88</v>
+        <v>2.3</v>
       </c>
       <c r="AN194">
-        <v>1.67</v>
+        <v>0.92</v>
       </c>
       <c r="AO194">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="AP194">
-        <v>1.77</v>
+        <v>0.85</v>
       </c>
       <c r="AQ194">
         <v>0.92</v>
       </c>
       <c r="AR194">
-        <v>1.9</v>
+        <v>1.47</v>
       </c>
       <c r="AS194">
-        <v>1.25</v>
+        <v>1.37</v>
       </c>
       <c r="AT194">
-        <v>3.15</v>
+        <v>2.84</v>
       </c>
       <c r="AU194">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AV194">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AW194">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="AX194">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AY194">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="AZ194">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="BA194">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="BB194">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BC194">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="BD194">
-        <v>1.67</v>
+        <v>1.49</v>
       </c>
       <c r="BE194">
-        <v>9.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="BF194">
-        <v>2.59</v>
+        <v>3.02</v>
       </c>
       <c r="BG194">
         <v>0</v>
@@ -41335,28 +41335,28 @@
         <v>0</v>
       </c>
       <c r="BI194">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="BJ194">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="BK194">
-        <v>1.37</v>
+        <v>1.29</v>
       </c>
       <c r="BL194">
-        <v>2.66</v>
+        <v>2.92</v>
       </c>
       <c r="BM194">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="BN194">
-        <v>2.11</v>
+        <v>2.29</v>
       </c>
       <c r="BO194">
-        <v>2.12</v>
+        <v>1.97</v>
       </c>
       <c r="BP194">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="195" spans="1:68">
@@ -41364,7 +41364,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>7296461</v>
+        <v>7296463</v>
       </c>
       <c r="C195" t="s">
         <v>68</v>
@@ -41379,160 +41379,160 @@
         <v>25</v>
       </c>
       <c r="G195" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="H195" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195">
         <v>2</v>
-      </c>
-      <c r="J195">
-        <v>0</v>
       </c>
       <c r="K195">
         <v>2</v>
       </c>
       <c r="L195">
+        <v>0</v>
+      </c>
+      <c r="M195">
+        <v>4</v>
+      </c>
+      <c r="N195">
+        <v>4</v>
+      </c>
+      <c r="O195" t="s">
+        <v>103</v>
+      </c>
+      <c r="P195" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q195">
+        <v>3.69</v>
+      </c>
+      <c r="R195">
+        <v>2.66</v>
+      </c>
+      <c r="S195">
+        <v>2.38</v>
+      </c>
+      <c r="T195">
+        <v>1.2</v>
+      </c>
+      <c r="U195">
+        <v>4</v>
+      </c>
+      <c r="V195">
+        <v>2.03</v>
+      </c>
+      <c r="W195">
+        <v>1.77</v>
+      </c>
+      <c r="X195">
+        <v>4</v>
+      </c>
+      <c r="Y195">
+        <v>1.2</v>
+      </c>
+      <c r="Z195">
+        <v>3.32</v>
+      </c>
+      <c r="AA195">
+        <v>3.8</v>
+      </c>
+      <c r="AB195">
+        <v>1.92</v>
+      </c>
+      <c r="AC195">
+        <v>1.01</v>
+      </c>
+      <c r="AD195">
+        <v>13.5</v>
+      </c>
+      <c r="AE195">
+        <v>1.1</v>
+      </c>
+      <c r="AF195">
+        <v>6</v>
+      </c>
+      <c r="AG195">
+        <v>1.38</v>
+      </c>
+      <c r="AH195">
+        <v>2.81</v>
+      </c>
+      <c r="AI195">
+        <v>1.37</v>
+      </c>
+      <c r="AJ195">
+        <v>3.03</v>
+      </c>
+      <c r="AK195">
+        <v>1.85</v>
+      </c>
+      <c r="AL195">
+        <v>1.25</v>
+      </c>
+      <c r="AM195">
+        <v>1.31</v>
+      </c>
+      <c r="AN195">
+        <v>0.92</v>
+      </c>
+      <c r="AO195">
+        <v>0.75</v>
+      </c>
+      <c r="AP195">
+        <v>0.85</v>
+      </c>
+      <c r="AQ195">
+        <v>0.92</v>
+      </c>
+      <c r="AR195">
+        <v>1.48</v>
+      </c>
+      <c r="AS195">
+        <v>1.37</v>
+      </c>
+      <c r="AT195">
+        <v>2.85</v>
+      </c>
+      <c r="AU195">
+        <v>7</v>
+      </c>
+      <c r="AV195">
         <v>3</v>
       </c>
-      <c r="M195">
-        <v>0</v>
-      </c>
-      <c r="N195">
-        <v>3</v>
-      </c>
-      <c r="O195" t="s">
-        <v>226</v>
-      </c>
-      <c r="P195" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q195">
-        <v>2.58</v>
-      </c>
-      <c r="R195">
-        <v>2.29</v>
-      </c>
-      <c r="S195">
-        <v>4.07</v>
-      </c>
-      <c r="T195">
-        <v>1.34</v>
-      </c>
-      <c r="U195">
-        <v>3.19</v>
-      </c>
-      <c r="V195">
-        <v>2.69</v>
-      </c>
-      <c r="W195">
-        <v>1.44</v>
-      </c>
-      <c r="X195">
-        <v>6.5</v>
-      </c>
-      <c r="Y195">
-        <v>1.09</v>
-      </c>
-      <c r="Z195">
-        <v>2</v>
-      </c>
-      <c r="AA195">
-        <v>3.45</v>
-      </c>
-      <c r="AB195">
-        <v>3.39</v>
-      </c>
-      <c r="AC195">
-        <v>1.04</v>
-      </c>
-      <c r="AD195">
-        <v>9.85</v>
-      </c>
-      <c r="AE195">
-        <v>1.28</v>
-      </c>
-      <c r="AF195">
-        <v>3.6</v>
-      </c>
-      <c r="AG195">
-        <v>1.79</v>
-      </c>
-      <c r="AH195">
-        <v>1.91</v>
-      </c>
-      <c r="AI195">
-        <v>1.68</v>
-      </c>
-      <c r="AJ195">
-        <v>2.14</v>
-      </c>
-      <c r="AK195">
-        <v>1.3</v>
-      </c>
-      <c r="AL195">
-        <v>1.3</v>
-      </c>
-      <c r="AM195">
-        <v>1.78</v>
-      </c>
-      <c r="AN195">
-        <v>2.25</v>
-      </c>
-      <c r="AO195">
-        <v>1.17</v>
-      </c>
-      <c r="AP195">
-        <v>2.31</v>
-      </c>
-      <c r="AQ195">
-        <v>1.08</v>
-      </c>
-      <c r="AR195">
-        <v>1.76</v>
-      </c>
-      <c r="AS195">
-        <v>1.61</v>
-      </c>
-      <c r="AT195">
-        <v>3.37</v>
-      </c>
-      <c r="AU195">
+      <c r="AW195">
+        <v>5</v>
+      </c>
+      <c r="AX195">
+        <v>1</v>
+      </c>
+      <c r="AY195">
+        <v>12</v>
+      </c>
+      <c r="AZ195">
         <v>4</v>
       </c>
-      <c r="AV195">
-        <v>2</v>
-      </c>
-      <c r="AW195">
-        <v>3</v>
-      </c>
-      <c r="AX195">
+      <c r="BA195">
+        <v>4</v>
+      </c>
+      <c r="BB195">
         <v>6</v>
-      </c>
-      <c r="AY195">
-        <v>7</v>
-      </c>
-      <c r="AZ195">
-        <v>8</v>
-      </c>
-      <c r="BA195">
-        <v>8</v>
-      </c>
-      <c r="BB195">
-        <v>2</v>
       </c>
       <c r="BC195">
         <v>10</v>
       </c>
       <c r="BD195">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="BE195">
-        <v>9.199999999999999</v>
+        <v>6.75</v>
       </c>
       <c r="BF195">
-        <v>2.56</v>
+        <v>1.82</v>
       </c>
       <c r="BG195">
         <v>0</v>
@@ -41541,28 +41541,28 @@
         <v>0</v>
       </c>
       <c r="BI195">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="BJ195">
-        <v>3.68</v>
+        <v>3.44</v>
       </c>
       <c r="BK195">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="BL195">
-        <v>2.66</v>
+        <v>2.52</v>
       </c>
       <c r="BM195">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="BN195">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="BO195">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="BP195">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="196" spans="1:68">
@@ -41570,7 +41570,7 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>7296458</v>
+        <v>7296462</v>
       </c>
       <c r="C196" t="s">
         <v>68</v>
@@ -41585,190 +41585,190 @@
         <v>25</v>
       </c>
       <c r="G196" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H196" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="I196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K196">
+        <v>0</v>
+      </c>
+      <c r="L196">
+        <v>1</v>
+      </c>
+      <c r="M196">
+        <v>1</v>
+      </c>
+      <c r="N196">
         <v>2</v>
       </c>
-      <c r="L196">
-        <v>2</v>
-      </c>
-      <c r="M196">
-        <v>2</v>
-      </c>
-      <c r="N196">
+      <c r="O196" t="s">
+        <v>160</v>
+      </c>
+      <c r="P196" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q196">
+        <v>2.5</v>
+      </c>
+      <c r="R196">
+        <v>2.3</v>
+      </c>
+      <c r="S196">
+        <v>3.5</v>
+      </c>
+      <c r="T196">
+        <v>1.25</v>
+      </c>
+      <c r="U196">
+        <v>3.65</v>
+      </c>
+      <c r="V196">
+        <v>2.31</v>
+      </c>
+      <c r="W196">
+        <v>1.59</v>
+      </c>
+      <c r="X196">
+        <v>5.2</v>
+      </c>
+      <c r="Y196">
+        <v>1.14</v>
+      </c>
+      <c r="Z196">
+        <v>1.94</v>
+      </c>
+      <c r="AA196">
+        <v>3.75</v>
+      </c>
+      <c r="AB196">
+        <v>3.3</v>
+      </c>
+      <c r="AC196">
+        <v>1.01</v>
+      </c>
+      <c r="AD196">
+        <v>15</v>
+      </c>
+      <c r="AE196">
+        <v>1.17</v>
+      </c>
+      <c r="AF196">
+        <v>5</v>
+      </c>
+      <c r="AG196">
+        <v>1.54</v>
+      </c>
+      <c r="AH196">
+        <v>2.32</v>
+      </c>
+      <c r="AI196">
+        <v>1.44</v>
+      </c>
+      <c r="AJ196">
+        <v>2.63</v>
+      </c>
+      <c r="AK196">
+        <v>1.3</v>
+      </c>
+      <c r="AL196">
+        <v>1.26</v>
+      </c>
+      <c r="AM196">
+        <v>1.84</v>
+      </c>
+      <c r="AN196">
+        <v>1.55</v>
+      </c>
+      <c r="AO196">
+        <v>1</v>
+      </c>
+      <c r="AP196">
+        <v>1.5</v>
+      </c>
+      <c r="AQ196">
+        <v>1</v>
+      </c>
+      <c r="AR196">
+        <v>1.48</v>
+      </c>
+      <c r="AS196">
+        <v>1.42</v>
+      </c>
+      <c r="AT196">
+        <v>2.9</v>
+      </c>
+      <c r="AU196">
+        <v>3</v>
+      </c>
+      <c r="AV196">
         <v>4</v>
       </c>
-      <c r="O196" t="s">
-        <v>227</v>
-      </c>
-      <c r="P196" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q196">
-        <v>4.3</v>
-      </c>
-      <c r="R196">
-        <v>2.41</v>
-      </c>
-      <c r="S196">
-        <v>2.23</v>
-      </c>
-      <c r="T196">
-        <v>1.27</v>
-      </c>
-      <c r="U196">
-        <v>3.3</v>
-      </c>
-      <c r="V196">
-        <v>2.25</v>
-      </c>
-      <c r="W196">
-        <v>1.55</v>
-      </c>
-      <c r="X196">
-        <v>4.5</v>
-      </c>
-      <c r="Y196">
+      <c r="AW196">
+        <v>4</v>
+      </c>
+      <c r="AX196">
+        <v>6</v>
+      </c>
+      <c r="AY196">
+        <v>7</v>
+      </c>
+      <c r="AZ196">
+        <v>10</v>
+      </c>
+      <c r="BA196">
+        <v>8</v>
+      </c>
+      <c r="BB196">
+        <v>4</v>
+      </c>
+      <c r="BC196">
+        <v>12</v>
+      </c>
+      <c r="BD196">
+        <v>1.58</v>
+      </c>
+      <c r="BE196">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF196">
+        <v>2.75</v>
+      </c>
+      <c r="BG196">
         <v>1.15</v>
       </c>
-      <c r="Z196">
-        <v>3.99</v>
-      </c>
-      <c r="AA196">
-        <v>3.9</v>
-      </c>
-      <c r="AB196">
-        <v>1.73</v>
-      </c>
-      <c r="AC196">
-        <v>1.02</v>
-      </c>
-      <c r="AD196">
-        <v>10</v>
-      </c>
-      <c r="AE196">
-        <v>1.16</v>
-      </c>
-      <c r="AF196">
-        <v>4.6</v>
-      </c>
-      <c r="AG196">
-        <v>1.5</v>
-      </c>
-      <c r="AH196">
-        <v>2.41</v>
-      </c>
-      <c r="AI196">
-        <v>1.52</v>
-      </c>
-      <c r="AJ196">
-        <v>2.46</v>
-      </c>
-      <c r="AK196">
-        <v>2.04</v>
-      </c>
-      <c r="AL196">
-        <v>1.22</v>
-      </c>
-      <c r="AM196">
-        <v>1.13</v>
-      </c>
-      <c r="AN196">
-        <v>1.67</v>
-      </c>
-      <c r="AO196">
-        <v>2.25</v>
-      </c>
-      <c r="AP196">
-        <v>1.62</v>
-      </c>
-      <c r="AQ196">
-        <v>2.15</v>
-      </c>
-      <c r="AR196">
-        <v>1.88</v>
-      </c>
-      <c r="AS196">
-        <v>1.91</v>
-      </c>
-      <c r="AT196">
-        <v>3.79</v>
-      </c>
-      <c r="AU196">
-        <v>-1</v>
-      </c>
-      <c r="AV196">
-        <v>-1</v>
-      </c>
-      <c r="AW196">
-        <v>-1</v>
-      </c>
-      <c r="AX196">
-        <v>-1</v>
-      </c>
-      <c r="AY196">
-        <v>-1</v>
-      </c>
-      <c r="AZ196">
-        <v>-1</v>
-      </c>
-      <c r="BA196">
-        <v>-1</v>
-      </c>
-      <c r="BB196">
-        <v>-1</v>
-      </c>
-      <c r="BC196">
-        <v>-1</v>
-      </c>
-      <c r="BD196">
-        <v>2.46</v>
-      </c>
-      <c r="BE196">
-        <v>9</v>
-      </c>
-      <c r="BF196">
-        <v>1.7</v>
-      </c>
-      <c r="BG196">
-        <v>0</v>
-      </c>
       <c r="BH196">
-        <v>0</v>
+        <v>5.42</v>
       </c>
       <c r="BI196">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="BJ196">
-        <v>3.65</v>
+        <v>3.28</v>
       </c>
       <c r="BK196">
-        <v>1.38</v>
+        <v>1.51</v>
       </c>
       <c r="BL196">
-        <v>2.62</v>
+        <v>2.52</v>
       </c>
       <c r="BM196">
-        <v>1.73</v>
+        <v>1.84</v>
       </c>
       <c r="BN196">
-        <v>2.07</v>
+        <v>1.97</v>
       </c>
       <c r="BO196">
-        <v>2.13</v>
+        <v>2.28</v>
       </c>
       <c r="BP196">
-        <v>1.69</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="197" spans="1:68">
@@ -41776,7 +41776,7 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>7296463</v>
+        <v>7296461</v>
       </c>
       <c r="C197" t="s">
         <v>68</v>
@@ -41785,166 +41785,166 @@
         <v>69</v>
       </c>
       <c r="E197" s="2">
-        <v>45563.45833333334</v>
+        <v>45562.875</v>
       </c>
       <c r="F197">
         <v>25</v>
       </c>
       <c r="G197" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H197" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I197">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J197">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K197">
         <v>2</v>
       </c>
       <c r="L197">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M197">
+        <v>0</v>
+      </c>
+      <c r="N197">
+        <v>3</v>
+      </c>
+      <c r="O197" t="s">
+        <v>225</v>
+      </c>
+      <c r="P197" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q197">
+        <v>2.58</v>
+      </c>
+      <c r="R197">
+        <v>2.29</v>
+      </c>
+      <c r="S197">
+        <v>4.07</v>
+      </c>
+      <c r="T197">
+        <v>1.34</v>
+      </c>
+      <c r="U197">
+        <v>3.19</v>
+      </c>
+      <c r="V197">
+        <v>2.69</v>
+      </c>
+      <c r="W197">
+        <v>1.44</v>
+      </c>
+      <c r="X197">
+        <v>6.5</v>
+      </c>
+      <c r="Y197">
+        <v>1.09</v>
+      </c>
+      <c r="Z197">
+        <v>2</v>
+      </c>
+      <c r="AA197">
+        <v>3.45</v>
+      </c>
+      <c r="AB197">
+        <v>3.39</v>
+      </c>
+      <c r="AC197">
+        <v>1.04</v>
+      </c>
+      <c r="AD197">
+        <v>9.85</v>
+      </c>
+      <c r="AE197">
+        <v>1.28</v>
+      </c>
+      <c r="AF197">
+        <v>3.6</v>
+      </c>
+      <c r="AG197">
+        <v>1.79</v>
+      </c>
+      <c r="AH197">
+        <v>1.91</v>
+      </c>
+      <c r="AI197">
+        <v>1.68</v>
+      </c>
+      <c r="AJ197">
+        <v>2.14</v>
+      </c>
+      <c r="AK197">
+        <v>1.3</v>
+      </c>
+      <c r="AL197">
+        <v>1.3</v>
+      </c>
+      <c r="AM197">
+        <v>1.78</v>
+      </c>
+      <c r="AN197">
+        <v>2.25</v>
+      </c>
+      <c r="AO197">
+        <v>1.17</v>
+      </c>
+      <c r="AP197">
+        <v>2.31</v>
+      </c>
+      <c r="AQ197">
+        <v>1.08</v>
+      </c>
+      <c r="AR197">
+        <v>1.76</v>
+      </c>
+      <c r="AS197">
+        <v>1.61</v>
+      </c>
+      <c r="AT197">
+        <v>3.37</v>
+      </c>
+      <c r="AU197">
         <v>4</v>
       </c>
-      <c r="N197">
-        <v>4</v>
-      </c>
-      <c r="O197" t="s">
-        <v>103</v>
-      </c>
-      <c r="P197" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q197">
-        <v>3.69</v>
-      </c>
-      <c r="R197">
-        <v>2.66</v>
-      </c>
-      <c r="S197">
-        <v>2.38</v>
-      </c>
-      <c r="T197">
-        <v>1.2</v>
-      </c>
-      <c r="U197">
-        <v>4</v>
-      </c>
-      <c r="V197">
-        <v>2.03</v>
-      </c>
-      <c r="W197">
-        <v>1.77</v>
-      </c>
-      <c r="X197">
-        <v>4</v>
-      </c>
-      <c r="Y197">
-        <v>1.2</v>
-      </c>
-      <c r="Z197">
-        <v>3.32</v>
-      </c>
-      <c r="AA197">
-        <v>3.8</v>
-      </c>
-      <c r="AB197">
-        <v>1.92</v>
-      </c>
-      <c r="AC197">
-        <v>1.01</v>
-      </c>
-      <c r="AD197">
-        <v>13.5</v>
-      </c>
-      <c r="AE197">
-        <v>1.1</v>
-      </c>
-      <c r="AF197">
-        <v>6</v>
-      </c>
-      <c r="AG197">
-        <v>1.38</v>
-      </c>
-      <c r="AH197">
-        <v>2.81</v>
-      </c>
-      <c r="AI197">
-        <v>1.37</v>
-      </c>
-      <c r="AJ197">
-        <v>3.03</v>
-      </c>
-      <c r="AK197">
-        <v>1.85</v>
-      </c>
-      <c r="AL197">
-        <v>1.25</v>
-      </c>
-      <c r="AM197">
-        <v>1.31</v>
-      </c>
-      <c r="AN197">
-        <v>0.92</v>
-      </c>
-      <c r="AO197">
-        <v>0.75</v>
-      </c>
-      <c r="AP197">
-        <v>0.85</v>
-      </c>
-      <c r="AQ197">
-        <v>0.92</v>
-      </c>
-      <c r="AR197">
-        <v>1.48</v>
-      </c>
-      <c r="AS197">
-        <v>1.37</v>
-      </c>
-      <c r="AT197">
-        <v>2.85</v>
-      </c>
-      <c r="AU197">
-        <v>7</v>
-      </c>
       <c r="AV197">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AW197">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AX197">
         <v>6</v>
       </c>
       <c r="AY197">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="AZ197">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BA197">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BB197">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BC197">
         <v>10</v>
       </c>
       <c r="BD197">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="BE197">
-        <v>6.75</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BF197">
-        <v>1.82</v>
+        <v>2.56</v>
       </c>
       <c r="BG197">
         <v>0</v>
@@ -41953,28 +41953,28 @@
         <v>0</v>
       </c>
       <c r="BI197">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="BJ197">
-        <v>3.44</v>
+        <v>3.68</v>
       </c>
       <c r="BK197">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="BL197">
-        <v>2.52</v>
+        <v>2.66</v>
       </c>
       <c r="BM197">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="BN197">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="BO197">
-        <v>2.18</v>
+        <v>2.13</v>
       </c>
       <c r="BP197">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="198" spans="1:68">
@@ -41982,7 +41982,7 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>7296464</v>
+        <v>7296460</v>
       </c>
       <c r="C198" t="s">
         <v>68</v>
@@ -41991,166 +41991,166 @@
         <v>69</v>
       </c>
       <c r="E198" s="2">
-        <v>45563.45833333334</v>
+        <v>45562.875</v>
       </c>
       <c r="F198">
         <v>25</v>
       </c>
       <c r="G198" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="H198" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="I198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J198">
         <v>0</v>
       </c>
       <c r="K198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O198" t="s">
+        <v>226</v>
+      </c>
+      <c r="P198" t="s">
         <v>103</v>
       </c>
-      <c r="P198" t="s">
-        <v>155</v>
-      </c>
       <c r="Q198">
-        <v>2</v>
+        <v>2.34</v>
       </c>
       <c r="R198">
-        <v>2.4</v>
+        <v>2.67</v>
       </c>
       <c r="S198">
-        <v>4.7</v>
+        <v>3.76</v>
       </c>
       <c r="T198">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="U198">
-        <v>3.54</v>
+        <v>4.15</v>
       </c>
       <c r="V198">
-        <v>2.25</v>
+        <v>2.03</v>
       </c>
       <c r="W198">
-        <v>1.6</v>
+        <v>1.77</v>
       </c>
       <c r="X198">
-        <v>5.05</v>
+        <v>4.15</v>
       </c>
       <c r="Y198">
-        <v>1.15</v>
+        <v>1.21</v>
       </c>
       <c r="Z198">
-        <v>1.58</v>
+        <v>1.9</v>
       </c>
       <c r="AA198">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="AB198">
-        <v>4.67</v>
+        <v>3.31</v>
       </c>
       <c r="AC198">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AD198">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AE198">
-        <v>1.16</v>
+        <v>1.06</v>
       </c>
       <c r="AF198">
-        <v>4.6</v>
+        <v>5.6</v>
       </c>
       <c r="AG198">
-        <v>1.52</v>
+        <v>1.37</v>
       </c>
       <c r="AH198">
-        <v>2.36</v>
+        <v>2.85</v>
       </c>
       <c r="AI198">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AJ198">
-        <v>2.35</v>
+        <v>2.92</v>
       </c>
       <c r="AK198">
-        <v>1.07</v>
+        <v>1.31</v>
       </c>
       <c r="AL198">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="AM198">
-        <v>2.3</v>
+        <v>1.88</v>
       </c>
       <c r="AN198">
-        <v>0.92</v>
+        <v>1.67</v>
       </c>
       <c r="AO198">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="AP198">
-        <v>0.85</v>
+        <v>1.77</v>
       </c>
       <c r="AQ198">
         <v>0.92</v>
       </c>
       <c r="AR198">
-        <v>1.47</v>
+        <v>1.9</v>
       </c>
       <c r="AS198">
-        <v>1.37</v>
+        <v>1.25</v>
       </c>
       <c r="AT198">
-        <v>2.84</v>
+        <v>3.15</v>
       </c>
       <c r="AU198">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV198">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AW198">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX198">
         <v>2</v>
       </c>
       <c r="AY198">
+        <v>15</v>
+      </c>
+      <c r="AZ198">
+        <v>4</v>
+      </c>
+      <c r="BA198">
         <v>11</v>
       </c>
-      <c r="AZ198">
-        <v>7</v>
-      </c>
-      <c r="BA198">
-        <v>4</v>
-      </c>
       <c r="BB198">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BC198">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BD198">
-        <v>1.49</v>
+        <v>1.67</v>
       </c>
       <c r="BE198">
-        <v>9.699999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="BF198">
-        <v>3.02</v>
+        <v>2.59</v>
       </c>
       <c r="BG198">
         <v>0</v>
@@ -42159,28 +42159,28 @@
         <v>0</v>
       </c>
       <c r="BI198">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="BJ198">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="BK198">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="BL198">
-        <v>2.92</v>
+        <v>2.66</v>
       </c>
       <c r="BM198">
-        <v>1.61</v>
+        <v>1.71</v>
       </c>
       <c r="BN198">
-        <v>2.29</v>
+        <v>2.11</v>
       </c>
       <c r="BO198">
-        <v>1.97</v>
+        <v>2.12</v>
       </c>
       <c r="BP198">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="199" spans="1:68">
@@ -42188,7 +42188,7 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>7296465</v>
+        <v>7296458</v>
       </c>
       <c r="C199" t="s">
         <v>68</v>
@@ -42197,16 +42197,16 @@
         <v>69</v>
       </c>
       <c r="E199" s="2">
-        <v>45563.45833333334</v>
+        <v>45562.875</v>
       </c>
       <c r="F199">
         <v>25</v>
       </c>
       <c r="G199" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H199" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="I199">
         <v>1</v>
@@ -42218,145 +42218,145 @@
         <v>2</v>
       </c>
       <c r="L199">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M199">
         <v>2</v>
       </c>
       <c r="N199">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O199" t="s">
-        <v>101</v>
+        <v>227</v>
       </c>
       <c r="P199" t="s">
         <v>336</v>
       </c>
       <c r="Q199">
-        <v>3.1</v>
+        <v>4.3</v>
       </c>
       <c r="R199">
-        <v>2.3</v>
+        <v>2.41</v>
       </c>
       <c r="S199">
-        <v>2.75</v>
+        <v>2.23</v>
       </c>
       <c r="T199">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="U199">
-        <v>3.72</v>
+        <v>3.3</v>
       </c>
       <c r="V199">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W199">
-        <v>1.64</v>
+        <v>1.55</v>
       </c>
       <c r="X199">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="Y199">
+        <v>1.15</v>
+      </c>
+      <c r="Z199">
+        <v>3.99</v>
+      </c>
+      <c r="AA199">
+        <v>3.9</v>
+      </c>
+      <c r="AB199">
+        <v>1.73</v>
+      </c>
+      <c r="AC199">
+        <v>1.02</v>
+      </c>
+      <c r="AD199">
+        <v>10</v>
+      </c>
+      <c r="AE199">
         <v>1.16</v>
       </c>
-      <c r="Z199">
-        <v>2.45</v>
-      </c>
-      <c r="AA199">
-        <v>3.6</v>
-      </c>
-      <c r="AB199">
-        <v>2.51</v>
-      </c>
-      <c r="AC199">
-        <v>1.01</v>
-      </c>
-      <c r="AD199">
-        <v>15</v>
-      </c>
-      <c r="AE199">
+      <c r="AF199">
+        <v>4.6</v>
+      </c>
+      <c r="AG199">
+        <v>1.5</v>
+      </c>
+      <c r="AH199">
+        <v>2.41</v>
+      </c>
+      <c r="AI199">
+        <v>1.52</v>
+      </c>
+      <c r="AJ199">
+        <v>2.46</v>
+      </c>
+      <c r="AK199">
+        <v>2.04</v>
+      </c>
+      <c r="AL199">
+        <v>1.22</v>
+      </c>
+      <c r="AM199">
         <v>1.13</v>
       </c>
-      <c r="AF199">
-        <v>6</v>
-      </c>
-      <c r="AG199">
-        <v>1.46</v>
-      </c>
-      <c r="AH199">
-        <v>2.52</v>
-      </c>
-      <c r="AI199">
-        <v>1.4</v>
-      </c>
-      <c r="AJ199">
-        <v>2.75</v>
-      </c>
-      <c r="AK199">
-        <v>1.58</v>
-      </c>
-      <c r="AL199">
-        <v>1.27</v>
-      </c>
-      <c r="AM199">
-        <v>1.45</v>
-      </c>
       <c r="AN199">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="AO199">
-        <v>1.82</v>
+        <v>2.25</v>
       </c>
       <c r="AP199">
-        <v>1.46</v>
+        <v>1.62</v>
       </c>
       <c r="AQ199">
-        <v>1.92</v>
+        <v>2.15</v>
       </c>
       <c r="AR199">
-        <v>1.49</v>
+        <v>1.88</v>
       </c>
       <c r="AS199">
-        <v>1.63</v>
+        <v>1.91</v>
       </c>
       <c r="AT199">
-        <v>3.12</v>
+        <v>3.79</v>
       </c>
       <c r="AU199">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AV199">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AW199">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AX199">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AY199">
+        <v>-1</v>
+      </c>
+      <c r="AZ199">
+        <v>-1</v>
+      </c>
+      <c r="BA199">
+        <v>-1</v>
+      </c>
+      <c r="BB199">
+        <v>-1</v>
+      </c>
+      <c r="BC199">
+        <v>-1</v>
+      </c>
+      <c r="BD199">
+        <v>2.46</v>
+      </c>
+      <c r="BE199">
         <v>9</v>
       </c>
-      <c r="AZ199">
-        <v>9</v>
-      </c>
-      <c r="BA199">
-        <v>6</v>
-      </c>
-      <c r="BB199">
-        <v>5</v>
-      </c>
-      <c r="BC199">
-        <v>11</v>
-      </c>
-      <c r="BD199">
-        <v>2.41</v>
-      </c>
-      <c r="BE199">
-        <v>6.8</v>
-      </c>
       <c r="BF199">
-        <v>1.84</v>
+        <v>1.7</v>
       </c>
       <c r="BG199">
         <v>0</v>
@@ -42365,28 +42365,28 @@
         <v>0</v>
       </c>
       <c r="BI199">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="BJ199">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="BK199">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="BL199">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="BM199">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="BN199">
-        <v>2.11</v>
+        <v>2.07</v>
       </c>
       <c r="BO199">
-        <v>2.11</v>
+        <v>2.13</v>
       </c>
       <c r="BP199">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="200" spans="1:68">
@@ -42403,7 +42403,7 @@
         <v>69</v>
       </c>
       <c r="E200" s="2">
-        <v>45564.45833333334</v>
+        <v>45563.875</v>
       </c>
       <c r="F200">
         <v>25</v>
@@ -42529,22 +42529,22 @@
         <v>3.08</v>
       </c>
       <c r="AU200">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV200">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW200">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AX200">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AY200">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="AZ200">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="BA200">
         <v>11</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="345">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -709,6 +709,9 @@
     <t>['15', '28', '36', '75']</t>
   </si>
   <si>
+    <t>['41', '49']</t>
+  </si>
+  <si>
     <t>['90+1']</t>
   </si>
   <si>
@@ -1043,6 +1046,9 @@
   </si>
   <si>
     <t>['50', '67']</t>
+  </si>
+  <si>
+    <t>['48']</t>
   </si>
 </sst>
 </file>
@@ -1404,7 +1410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP204"/>
+  <dimension ref="A1:BP206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1663,7 +1669,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q2">
         <v>2.84</v>
@@ -1869,7 +1875,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q3">
         <v>2.2</v>
@@ -2075,7 +2081,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -2487,7 +2493,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q6">
         <v>2.35</v>
@@ -2693,7 +2699,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q7">
         <v>2.66</v>
@@ -2899,7 +2905,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q8">
         <v>2.8</v>
@@ -3311,7 +3317,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3389,10 +3395,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ10">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3517,7 +3523,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3723,7 +3729,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -4010,7 +4016,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ13">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4341,7 +4347,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q15">
         <v>2.05</v>
@@ -4419,7 +4425,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ15">
         <v>0.85</v>
@@ -4753,7 +4759,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q17">
         <v>2.15</v>
@@ -4959,7 +4965,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q18">
         <v>2.15</v>
@@ -5783,7 +5789,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q22">
         <v>2.76</v>
@@ -5989,7 +5995,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q23">
         <v>2.85</v>
@@ -6195,7 +6201,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q24">
         <v>2.05</v>
@@ -6479,7 +6485,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ25">
         <v>1.08</v>
@@ -6685,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ26">
         <v>0.46</v>
@@ -6813,7 +6819,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -7100,7 +7106,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ28">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR28">
         <v>0.98</v>
@@ -7225,7 +7231,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q29">
         <v>2.25</v>
@@ -7512,7 +7518,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ30">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR30">
         <v>0</v>
@@ -7637,7 +7643,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -8049,7 +8055,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q33">
         <v>3.05</v>
@@ -8255,7 +8261,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q34">
         <v>2.26</v>
@@ -8461,7 +8467,7 @@
         <v>115</v>
       </c>
       <c r="P35" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q35">
         <v>3.46</v>
@@ -8873,7 +8879,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q37">
         <v>2.72</v>
@@ -9079,7 +9085,7 @@
         <v>118</v>
       </c>
       <c r="P38" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q38">
         <v>4.55</v>
@@ -9285,7 +9291,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q39">
         <v>2.78</v>
@@ -9778,7 +9784,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ41">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR41">
         <v>2.44</v>
@@ -9981,7 +9987,7 @@
         <v>0.33</v>
       </c>
       <c r="AP42">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ42">
         <v>1.08</v>
@@ -10109,7 +10115,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q43">
         <v>3.11</v>
@@ -10315,7 +10321,7 @@
         <v>123</v>
       </c>
       <c r="P44" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q44">
         <v>3.3</v>
@@ -10396,7 +10402,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ44">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR44">
         <v>1.31</v>
@@ -10521,7 +10527,7 @@
         <v>94</v>
       </c>
       <c r="P45" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q45">
         <v>2.4</v>
@@ -11551,7 +11557,7 @@
         <v>103</v>
       </c>
       <c r="P50" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q50">
         <v>3.89</v>
@@ -11757,7 +11763,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q51">
         <v>2.61</v>
@@ -11963,7 +11969,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -12169,7 +12175,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q53">
         <v>2.05</v>
@@ -12247,7 +12253,7 @@
         <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ53">
         <v>0.46</v>
@@ -12993,7 +12999,7 @@
         <v>103</v>
       </c>
       <c r="P57" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q57">
         <v>2.57</v>
@@ -13199,7 +13205,7 @@
         <v>132</v>
       </c>
       <c r="P58" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q58">
         <v>2.3</v>
@@ -13405,7 +13411,7 @@
         <v>103</v>
       </c>
       <c r="P59" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q59">
         <v>2.75</v>
@@ -13611,7 +13617,7 @@
         <v>103</v>
       </c>
       <c r="P60" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q60">
         <v>2.32</v>
@@ -13898,7 +13904,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ61">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR61">
         <v>1.46</v>
@@ -14023,7 +14029,7 @@
         <v>134</v>
       </c>
       <c r="P62" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q62">
         <v>2.39</v>
@@ -14229,7 +14235,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q63">
         <v>2.84</v>
@@ -14307,7 +14313,7 @@
         <v>2.5</v>
       </c>
       <c r="AP63">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ63">
         <v>1.77</v>
@@ -14435,7 +14441,7 @@
         <v>136</v>
       </c>
       <c r="P64" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q64">
         <v>2.7</v>
@@ -14641,7 +14647,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -15053,7 +15059,7 @@
         <v>139</v>
       </c>
       <c r="P67" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q67">
         <v>2.5</v>
@@ -15337,7 +15343,7 @@
         <v>1.25</v>
       </c>
       <c r="AP68">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ68">
         <v>1.69</v>
@@ -15546,7 +15552,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ69">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR69">
         <v>1.74</v>
@@ -15671,7 +15677,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q70">
         <v>1.85</v>
@@ -16083,7 +16089,7 @@
         <v>143</v>
       </c>
       <c r="P72" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q72">
         <v>2.24</v>
@@ -16289,7 +16295,7 @@
         <v>103</v>
       </c>
       <c r="P73" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q73">
         <v>3.66</v>
@@ -16495,7 +16501,7 @@
         <v>144</v>
       </c>
       <c r="P74" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q74">
         <v>2.4</v>
@@ -16701,7 +16707,7 @@
         <v>145</v>
       </c>
       <c r="P75" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q75">
         <v>2.38</v>
@@ -16907,7 +16913,7 @@
         <v>125</v>
       </c>
       <c r="P76" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -17319,7 +17325,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q78">
         <v>2.75</v>
@@ -17525,7 +17531,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17603,7 +17609,7 @@
         <v>1.2</v>
       </c>
       <c r="AP79">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ79">
         <v>0.92</v>
@@ -17731,7 +17737,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q80">
         <v>2.2</v>
@@ -17937,7 +17943,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q81">
         <v>2.31</v>
@@ -18349,7 +18355,7 @@
         <v>151</v>
       </c>
       <c r="P83" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q83">
         <v>2.7</v>
@@ -18427,7 +18433,7 @@
         <v>1.2</v>
       </c>
       <c r="AP83">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ83">
         <v>1.23</v>
@@ -18636,7 +18642,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ84">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR84">
         <v>1.53</v>
@@ -18761,7 +18767,7 @@
         <v>153</v>
       </c>
       <c r="P85" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q85">
         <v>3.5</v>
@@ -18967,7 +18973,7 @@
         <v>154</v>
       </c>
       <c r="P86" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q86">
         <v>2.55</v>
@@ -19048,7 +19054,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ86">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR86">
         <v>1.91</v>
@@ -19173,7 +19179,7 @@
         <v>155</v>
       </c>
       <c r="P87" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q87">
         <v>2.27</v>
@@ -19585,7 +19591,7 @@
         <v>156</v>
       </c>
       <c r="P89" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q89">
         <v>2.8</v>
@@ -19791,7 +19797,7 @@
         <v>157</v>
       </c>
       <c r="P90" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q90">
         <v>2.6</v>
@@ -19869,7 +19875,7 @@
         <v>2.17</v>
       </c>
       <c r="AP90">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ90">
         <v>1.77</v>
@@ -19997,7 +20003,7 @@
         <v>158</v>
       </c>
       <c r="P91" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -20075,7 +20081,7 @@
         <v>1</v>
       </c>
       <c r="AP91">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ91">
         <v>1.5</v>
@@ -20203,7 +20209,7 @@
         <v>159</v>
       </c>
       <c r="P92" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q92">
         <v>3.6</v>
@@ -20615,7 +20621,7 @@
         <v>161</v>
       </c>
       <c r="P94" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q94">
         <v>2.1</v>
@@ -20821,7 +20827,7 @@
         <v>162</v>
       </c>
       <c r="P95" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q95">
         <v>2.17</v>
@@ -21108,7 +21114,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ96">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR96">
         <v>1.57</v>
@@ -21645,7 +21651,7 @@
         <v>165</v>
       </c>
       <c r="P99" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q99">
         <v>3.35</v>
@@ -21723,7 +21729,7 @@
         <v>1.5</v>
       </c>
       <c r="AP99">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ99">
         <v>1.23</v>
@@ -21932,7 +21938,7 @@
         <v>1</v>
       </c>
       <c r="AQ100">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR100">
         <v>1.53</v>
@@ -22057,7 +22063,7 @@
         <v>167</v>
       </c>
       <c r="P101" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q101">
         <v>2.96</v>
@@ -22263,7 +22269,7 @@
         <v>168</v>
       </c>
       <c r="P102" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q102">
         <v>2.44</v>
@@ -22469,7 +22475,7 @@
         <v>103</v>
       </c>
       <c r="P103" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q103">
         <v>1.81</v>
@@ -22753,7 +22759,7 @@
         <v>1.83</v>
       </c>
       <c r="AP104">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ104">
         <v>1.33</v>
@@ -22881,7 +22887,7 @@
         <v>170</v>
       </c>
       <c r="P105" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q105">
         <v>2.69</v>
@@ -23087,7 +23093,7 @@
         <v>171</v>
       </c>
       <c r="P106" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q106">
         <v>2.56</v>
@@ -23705,7 +23711,7 @@
         <v>174</v>
       </c>
       <c r="P109" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q109">
         <v>3.5</v>
@@ -23911,7 +23917,7 @@
         <v>175</v>
       </c>
       <c r="P110" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q110">
         <v>2.43</v>
@@ -24117,7 +24123,7 @@
         <v>103</v>
       </c>
       <c r="P111" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q111">
         <v>3.02</v>
@@ -24529,7 +24535,7 @@
         <v>103</v>
       </c>
       <c r="P113" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q113">
         <v>2.85</v>
@@ -24610,7 +24616,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ113">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR113">
         <v>2.12</v>
@@ -25147,7 +25153,7 @@
         <v>177</v>
       </c>
       <c r="P116" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q116">
         <v>4.5</v>
@@ -25225,7 +25231,7 @@
         <v>2</v>
       </c>
       <c r="AP116">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ116">
         <v>2.15</v>
@@ -25559,7 +25565,7 @@
         <v>103</v>
       </c>
       <c r="P118" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q118">
         <v>3.2</v>
@@ -26177,7 +26183,7 @@
         <v>180</v>
       </c>
       <c r="P121" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q121">
         <v>2.38</v>
@@ -26461,7 +26467,7 @@
         <v>0.29</v>
       </c>
       <c r="AP122">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ122">
         <v>0.92</v>
@@ -26589,7 +26595,7 @@
         <v>170</v>
       </c>
       <c r="P123" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q123">
         <v>2.51</v>
@@ -26795,7 +26801,7 @@
         <v>182</v>
       </c>
       <c r="P124" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q124">
         <v>2.46</v>
@@ -27001,7 +27007,7 @@
         <v>183</v>
       </c>
       <c r="P125" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q125">
         <v>3.68</v>
@@ -27207,7 +27213,7 @@
         <v>184</v>
       </c>
       <c r="P126" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q126">
         <v>1.95</v>
@@ -27619,7 +27625,7 @@
         <v>103</v>
       </c>
       <c r="P128" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q128">
         <v>3.75</v>
@@ -27903,7 +27909,7 @@
         <v>0.67</v>
       </c>
       <c r="AP129">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ129">
         <v>0.85</v>
@@ -28031,7 +28037,7 @@
         <v>187</v>
       </c>
       <c r="P130" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -28237,7 +28243,7 @@
         <v>103</v>
       </c>
       <c r="P131" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q131">
         <v>2.88</v>
@@ -28443,7 +28449,7 @@
         <v>103</v>
       </c>
       <c r="P132" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q132">
         <v>3.04</v>
@@ -28524,7 +28530,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ132">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR132">
         <v>1.24</v>
@@ -28649,7 +28655,7 @@
         <v>103</v>
       </c>
       <c r="P133" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q133">
         <v>2.69</v>
@@ -28855,7 +28861,7 @@
         <v>103</v>
       </c>
       <c r="P134" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q134">
         <v>3.2</v>
@@ -28936,7 +28942,7 @@
         <v>1</v>
       </c>
       <c r="AQ134">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR134">
         <v>1.54</v>
@@ -29885,7 +29891,7 @@
         <v>191</v>
       </c>
       <c r="P139" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q139">
         <v>3.6</v>
@@ -29966,7 +29972,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ139">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR139">
         <v>1.59</v>
@@ -30091,7 +30097,7 @@
         <v>192</v>
       </c>
       <c r="P140" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q140">
         <v>2.61</v>
@@ -30169,7 +30175,7 @@
         <v>1.11</v>
       </c>
       <c r="AP140">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ140">
         <v>1</v>
@@ -30503,7 +30509,7 @@
         <v>194</v>
       </c>
       <c r="P142" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q142">
         <v>2.75</v>
@@ -30709,7 +30715,7 @@
         <v>195</v>
       </c>
       <c r="P143" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q143">
         <v>2.2</v>
@@ -30915,7 +30921,7 @@
         <v>91</v>
       </c>
       <c r="P144" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q144">
         <v>2.02</v>
@@ -31121,7 +31127,7 @@
         <v>103</v>
       </c>
       <c r="P145" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q145">
         <v>3.44</v>
@@ -31202,7 +31208,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ145">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR145">
         <v>1.67</v>
@@ -31327,7 +31333,7 @@
         <v>196</v>
       </c>
       <c r="P146" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q146">
         <v>3.75</v>
@@ -31945,7 +31951,7 @@
         <v>198</v>
       </c>
       <c r="P149" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q149">
         <v>1.8</v>
@@ -32357,7 +32363,7 @@
         <v>200</v>
       </c>
       <c r="P151" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q151">
         <v>2.48</v>
@@ -32563,7 +32569,7 @@
         <v>201</v>
       </c>
       <c r="P152" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q152">
         <v>3.4</v>
@@ -32850,7 +32856,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ153">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR153">
         <v>1.6</v>
@@ -32975,7 +32981,7 @@
         <v>203</v>
       </c>
       <c r="P154" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q154">
         <v>1.91</v>
@@ -33181,7 +33187,7 @@
         <v>103</v>
       </c>
       <c r="P155" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q155">
         <v>2.5</v>
@@ -33259,7 +33265,7 @@
         <v>0.7</v>
       </c>
       <c r="AP155">
-  